--- a/config_Release/shoping_config_xiaomi.xlsx
+++ b/config_Release/shoping_config_xiaomi.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3599" uniqueCount="1606">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3648" uniqueCount="1634">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -7294,6 +7294,116 @@
   </si>
   <si>
     <t>100000,5,3</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>一帆风顺</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>立冬福袋</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"180万金币","10万小游戏币","水滴*5",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_tiny_game_coin","prop_guess_apple_bet_1",</t>
+  </si>
+  <si>
+    <t>1800000,100000,5,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>二龙腾飞</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"480万金币","15万小游戏币","水滴*8",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4800000,150000,8,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>三阳开泰</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>立冬福袋</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"980万金币","30万小游戏币","阳光*5",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_tiny_game_coin","prop_guess_apple_bet_2",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>9800000,300000,5,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>四季发财</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"1980万金币","60万小游戏币","阳光*8",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_tiny_game_coin","prop_guess_apple_bet_2",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>19800000,600000,8,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>五福临门</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>立冬福袋</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"2980万金币","90万小游戏币","阳光*12",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>29800000,900000,12,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>六六大顺</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"4980万金币","150万小游戏币","铁锹*2",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_tiny_game_coin","prop_guess_apple_bet_3",</t>
+  </si>
+  <si>
+    <t>49800000,1500000,2,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>七星高照</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"9980万金币","300万小游戏币","铁锹*5",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>99800000,3000000,5,</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -7482,7 +7592,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -7652,6 +7762,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -10104,13 +10220,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AM433"/>
+  <dimension ref="A1:AM440"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H60" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="H417" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A77" sqref="A77:XFD77"/>
+      <selection pane="bottomRight" activeCell="B442" sqref="B442"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -37566,6 +37682,461 @@
         <v>1</v>
       </c>
     </row>
+    <row r="434" spans="1:38" s="57" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A434" s="57">
+        <v>433</v>
+      </c>
+      <c r="B434" s="57">
+        <v>10350</v>
+      </c>
+      <c r="F434" s="57">
+        <v>1</v>
+      </c>
+      <c r="G434" s="57" t="s">
+        <v>1606</v>
+      </c>
+      <c r="H434" s="57" t="s">
+        <v>1607</v>
+      </c>
+      <c r="I434" s="57" t="s">
+        <v>1608</v>
+      </c>
+      <c r="K434" s="57">
+        <v>-31</v>
+      </c>
+      <c r="L434" s="57">
+        <v>0</v>
+      </c>
+      <c r="M434" s="57">
+        <v>0</v>
+      </c>
+      <c r="N434" s="57" t="s">
+        <v>101</v>
+      </c>
+      <c r="O434" s="57">
+        <v>1800</v>
+      </c>
+      <c r="P434" s="57" t="s">
+        <v>1609</v>
+      </c>
+      <c r="Q434" s="58" t="s">
+        <v>1610</v>
+      </c>
+      <c r="V434" s="57" t="s">
+        <v>529</v>
+      </c>
+      <c r="W434" s="57">
+        <v>9999999</v>
+      </c>
+      <c r="X434" s="57">
+        <v>1604359800</v>
+      </c>
+      <c r="Y434" s="57">
+        <v>1604937599</v>
+      </c>
+      <c r="AG434" s="57">
+        <v>1</v>
+      </c>
+      <c r="AH434" s="57">
+        <v>1</v>
+      </c>
+      <c r="AK434" s="57">
+        <v>1</v>
+      </c>
+      <c r="AL434" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="435" spans="1:38" s="57" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A435" s="57">
+        <v>434</v>
+      </c>
+      <c r="B435" s="57">
+        <v>10351</v>
+      </c>
+      <c r="F435" s="57">
+        <v>1</v>
+      </c>
+      <c r="G435" s="57" t="s">
+        <v>1611</v>
+      </c>
+      <c r="H435" s="57" t="s">
+        <v>1607</v>
+      </c>
+      <c r="I435" s="57" t="s">
+        <v>1612</v>
+      </c>
+      <c r="K435" s="57">
+        <v>-31</v>
+      </c>
+      <c r="L435" s="57">
+        <v>0</v>
+      </c>
+      <c r="M435" s="57">
+        <v>0</v>
+      </c>
+      <c r="N435" s="57" t="s">
+        <v>101</v>
+      </c>
+      <c r="O435" s="57">
+        <v>4800</v>
+      </c>
+      <c r="P435" s="57" t="s">
+        <v>1609</v>
+      </c>
+      <c r="Q435" s="58" t="s">
+        <v>1613</v>
+      </c>
+      <c r="V435" s="57" t="s">
+        <v>529</v>
+      </c>
+      <c r="W435" s="57">
+        <v>9999999</v>
+      </c>
+      <c r="X435" s="57">
+        <v>1604359800</v>
+      </c>
+      <c r="Y435" s="57">
+        <v>1604937599</v>
+      </c>
+      <c r="AG435" s="57">
+        <v>1</v>
+      </c>
+      <c r="AH435" s="57">
+        <v>1</v>
+      </c>
+      <c r="AK435" s="57">
+        <v>1</v>
+      </c>
+      <c r="AL435" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="436" spans="1:38" s="57" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A436" s="57">
+        <v>435</v>
+      </c>
+      <c r="B436" s="57">
+        <v>10352</v>
+      </c>
+      <c r="F436" s="57">
+        <v>1</v>
+      </c>
+      <c r="G436" s="57" t="s">
+        <v>1614</v>
+      </c>
+      <c r="H436" s="57" t="s">
+        <v>1615</v>
+      </c>
+      <c r="I436" s="57" t="s">
+        <v>1616</v>
+      </c>
+      <c r="K436" s="57">
+        <v>-31</v>
+      </c>
+      <c r="L436" s="57">
+        <v>0</v>
+      </c>
+      <c r="M436" s="57">
+        <v>0</v>
+      </c>
+      <c r="N436" s="57" t="s">
+        <v>101</v>
+      </c>
+      <c r="O436" s="57">
+        <v>9800</v>
+      </c>
+      <c r="P436" s="57" t="s">
+        <v>1617</v>
+      </c>
+      <c r="Q436" s="58" t="s">
+        <v>1618</v>
+      </c>
+      <c r="V436" s="57" t="s">
+        <v>529</v>
+      </c>
+      <c r="W436" s="57">
+        <v>9999999</v>
+      </c>
+      <c r="X436" s="57">
+        <v>1604359800</v>
+      </c>
+      <c r="Y436" s="57">
+        <v>1604937599</v>
+      </c>
+      <c r="AG436" s="57">
+        <v>1</v>
+      </c>
+      <c r="AH436" s="57">
+        <v>1</v>
+      </c>
+      <c r="AK436" s="57">
+        <v>1</v>
+      </c>
+      <c r="AL436" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="437" spans="1:38" s="57" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A437" s="57">
+        <v>436</v>
+      </c>
+      <c r="B437" s="57">
+        <v>10353</v>
+      </c>
+      <c r="F437" s="57">
+        <v>1</v>
+      </c>
+      <c r="G437" s="57" t="s">
+        <v>1619</v>
+      </c>
+      <c r="H437" s="57" t="s">
+        <v>1607</v>
+      </c>
+      <c r="I437" s="57" t="s">
+        <v>1620</v>
+      </c>
+      <c r="K437" s="57">
+        <v>-31</v>
+      </c>
+      <c r="L437" s="57">
+        <v>0</v>
+      </c>
+      <c r="M437" s="57">
+        <v>0</v>
+      </c>
+      <c r="N437" s="57" t="s">
+        <v>101</v>
+      </c>
+      <c r="O437" s="57">
+        <v>19800</v>
+      </c>
+      <c r="P437" s="57" t="s">
+        <v>1621</v>
+      </c>
+      <c r="Q437" s="58" t="s">
+        <v>1622</v>
+      </c>
+      <c r="V437" s="57" t="s">
+        <v>529</v>
+      </c>
+      <c r="W437" s="57">
+        <v>9999999</v>
+      </c>
+      <c r="X437" s="57">
+        <v>1604359800</v>
+      </c>
+      <c r="Y437" s="57">
+        <v>1604937599</v>
+      </c>
+      <c r="AG437" s="57">
+        <v>1</v>
+      </c>
+      <c r="AH437" s="57">
+        <v>1</v>
+      </c>
+      <c r="AK437" s="57">
+        <v>1</v>
+      </c>
+      <c r="AL437" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="438" spans="1:38" s="57" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A438" s="57">
+        <v>437</v>
+      </c>
+      <c r="B438" s="57">
+        <v>10354</v>
+      </c>
+      <c r="F438" s="57">
+        <v>1</v>
+      </c>
+      <c r="G438" s="57" t="s">
+        <v>1623</v>
+      </c>
+      <c r="H438" s="57" t="s">
+        <v>1624</v>
+      </c>
+      <c r="I438" s="57" t="s">
+        <v>1625</v>
+      </c>
+      <c r="K438" s="57">
+        <v>-31</v>
+      </c>
+      <c r="L438" s="57">
+        <v>0</v>
+      </c>
+      <c r="M438" s="57">
+        <v>0</v>
+      </c>
+      <c r="N438" s="57" t="s">
+        <v>101</v>
+      </c>
+      <c r="O438" s="57">
+        <v>29800</v>
+      </c>
+      <c r="P438" s="57" t="s">
+        <v>1621</v>
+      </c>
+      <c r="Q438" s="58" t="s">
+        <v>1626</v>
+      </c>
+      <c r="V438" s="57" t="s">
+        <v>529</v>
+      </c>
+      <c r="W438" s="57">
+        <v>9999999</v>
+      </c>
+      <c r="X438" s="57">
+        <v>1604359800</v>
+      </c>
+      <c r="Y438" s="57">
+        <v>1604937599</v>
+      </c>
+      <c r="AG438" s="57">
+        <v>1</v>
+      </c>
+      <c r="AH438" s="57">
+        <v>1</v>
+      </c>
+      <c r="AK438" s="57">
+        <v>1</v>
+      </c>
+      <c r="AL438" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="439" spans="1:38" s="57" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A439" s="57">
+        <v>438</v>
+      </c>
+      <c r="B439" s="57">
+        <v>10355</v>
+      </c>
+      <c r="F439" s="57">
+        <v>1</v>
+      </c>
+      <c r="G439" s="57" t="s">
+        <v>1627</v>
+      </c>
+      <c r="H439" s="57" t="s">
+        <v>1624</v>
+      </c>
+      <c r="I439" s="57" t="s">
+        <v>1628</v>
+      </c>
+      <c r="K439" s="57">
+        <v>-31</v>
+      </c>
+      <c r="L439" s="57">
+        <v>0</v>
+      </c>
+      <c r="M439" s="57">
+        <v>0</v>
+      </c>
+      <c r="N439" s="57" t="s">
+        <v>101</v>
+      </c>
+      <c r="O439" s="57">
+        <v>49800</v>
+      </c>
+      <c r="P439" s="57" t="s">
+        <v>1629</v>
+      </c>
+      <c r="Q439" s="58" t="s">
+        <v>1630</v>
+      </c>
+      <c r="V439" s="57" t="s">
+        <v>529</v>
+      </c>
+      <c r="W439" s="57">
+        <v>9999999</v>
+      </c>
+      <c r="X439" s="57">
+        <v>1604359800</v>
+      </c>
+      <c r="Y439" s="57">
+        <v>1604937599</v>
+      </c>
+      <c r="AG439" s="57">
+        <v>1</v>
+      </c>
+      <c r="AH439" s="57">
+        <v>1</v>
+      </c>
+      <c r="AK439" s="57">
+        <v>1</v>
+      </c>
+      <c r="AL439" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="440" spans="1:38" s="57" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A440" s="57">
+        <v>439</v>
+      </c>
+      <c r="B440" s="57">
+        <v>10356</v>
+      </c>
+      <c r="F440" s="57">
+        <v>1</v>
+      </c>
+      <c r="G440" s="57" t="s">
+        <v>1631</v>
+      </c>
+      <c r="H440" s="57" t="s">
+        <v>1624</v>
+      </c>
+      <c r="I440" s="57" t="s">
+        <v>1632</v>
+      </c>
+      <c r="K440" s="57">
+        <v>-31</v>
+      </c>
+      <c r="L440" s="57">
+        <v>0</v>
+      </c>
+      <c r="M440" s="57">
+        <v>0</v>
+      </c>
+      <c r="N440" s="57" t="s">
+        <v>101</v>
+      </c>
+      <c r="O440" s="57">
+        <v>99800</v>
+      </c>
+      <c r="P440" s="57" t="s">
+        <v>1629</v>
+      </c>
+      <c r="Q440" s="58" t="s">
+        <v>1633</v>
+      </c>
+      <c r="V440" s="57" t="s">
+        <v>529</v>
+      </c>
+      <c r="W440" s="57">
+        <v>9999999</v>
+      </c>
+      <c r="X440" s="57">
+        <v>1604359800</v>
+      </c>
+      <c r="Y440" s="57">
+        <v>1604937599</v>
+      </c>
+      <c r="AG440" s="57">
+        <v>1</v>
+      </c>
+      <c r="AH440" s="57">
+        <v>1</v>
+      </c>
+      <c r="AK440" s="57">
+        <v>1</v>
+      </c>
+      <c r="AL440" s="57">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/config_Release/shoping_config_xiaomi.xlsx
+++ b/config_Release/shoping_config_xiaomi.xlsx
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3648" uniqueCount="1634">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3684" uniqueCount="1656">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -7404,6 +7404,94 @@
   </si>
   <si>
     <t>99800000,3000000,5,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>双十一498元礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"4980万","200万小游戏币","抽奖券*50",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_tiny_game_coin","prop_11.11_cjq",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>49800000,2000000,50,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,100,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>双十一198元礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"1980万","50万小游戏币","抽奖券*30",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>19800000,500000,30,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>双十一98元礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"980万","10万小游戏币","抽奖券*20",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_tiny_game_coin","prop_11.11_cjq",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>9800000,100000,20,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>双十一48元礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"480万","3万小游戏币","抽奖券*10",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4800000,30000,10,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>双十一20元礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"200万","1万小游戏币","抽奖券*4",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000000,10000,4,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>86400,1,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>双十一6元礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"60万","3000小游戏币","抽奖券*1",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>600000,3000,1,</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -10220,13 +10308,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AM440"/>
+  <dimension ref="A1:AM446"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="7" ySplit="1" topLeftCell="H417" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B442" sqref="B442"/>
+      <selection pane="bottomRight" activeCell="A441" sqref="A441:XFD446"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -38137,6 +38225,378 @@
         <v>1</v>
       </c>
     </row>
+    <row r="441" spans="1:38" s="55" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A441" s="55">
+        <v>440</v>
+      </c>
+      <c r="B441" s="55">
+        <v>10357</v>
+      </c>
+      <c r="F441" s="55">
+        <v>1</v>
+      </c>
+      <c r="G441" s="55" t="s">
+        <v>1634</v>
+      </c>
+      <c r="I441" s="55" t="s">
+        <v>1635</v>
+      </c>
+      <c r="K441" s="55">
+        <v>-31</v>
+      </c>
+      <c r="L441" s="55">
+        <v>0</v>
+      </c>
+      <c r="M441" s="55">
+        <v>0</v>
+      </c>
+      <c r="N441" s="55" t="s">
+        <v>101</v>
+      </c>
+      <c r="O441" s="55">
+        <v>49800</v>
+      </c>
+      <c r="P441" s="55" t="s">
+        <v>1636</v>
+      </c>
+      <c r="Q441" s="56" t="s">
+        <v>1637</v>
+      </c>
+      <c r="V441" s="55" t="s">
+        <v>1638</v>
+      </c>
+      <c r="W441" s="55">
+        <v>9999999</v>
+      </c>
+      <c r="X441" s="55">
+        <v>1604966400</v>
+      </c>
+      <c r="Y441" s="55">
+        <v>1605542399</v>
+      </c>
+      <c r="AG441" s="55">
+        <v>1</v>
+      </c>
+      <c r="AH441" s="55">
+        <v>1</v>
+      </c>
+      <c r="AK441" s="55">
+        <v>1</v>
+      </c>
+      <c r="AL441" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="442" spans="1:38" s="55" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A442" s="55">
+        <v>441</v>
+      </c>
+      <c r="B442" s="55">
+        <v>10358</v>
+      </c>
+      <c r="F442" s="55">
+        <v>1</v>
+      </c>
+      <c r="G442" s="55" t="s">
+        <v>1639</v>
+      </c>
+      <c r="I442" s="55" t="s">
+        <v>1640</v>
+      </c>
+      <c r="K442" s="55">
+        <v>-31</v>
+      </c>
+      <c r="L442" s="55">
+        <v>0</v>
+      </c>
+      <c r="M442" s="55">
+        <v>0</v>
+      </c>
+      <c r="N442" s="55" t="s">
+        <v>101</v>
+      </c>
+      <c r="O442" s="55">
+        <v>19800</v>
+      </c>
+      <c r="P442" s="55" t="s">
+        <v>1636</v>
+      </c>
+      <c r="Q442" s="56" t="s">
+        <v>1641</v>
+      </c>
+      <c r="V442" s="55" t="s">
+        <v>1638</v>
+      </c>
+      <c r="W442" s="55">
+        <v>9999999</v>
+      </c>
+      <c r="X442" s="55">
+        <v>1604966400</v>
+      </c>
+      <c r="Y442" s="55">
+        <v>1605542399</v>
+      </c>
+      <c r="AG442" s="55">
+        <v>1</v>
+      </c>
+      <c r="AH442" s="55">
+        <v>1</v>
+      </c>
+      <c r="AK442" s="55">
+        <v>1</v>
+      </c>
+      <c r="AL442" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="443" spans="1:38" s="55" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A443" s="55">
+        <v>442</v>
+      </c>
+      <c r="B443" s="55">
+        <v>10359</v>
+      </c>
+      <c r="F443" s="55">
+        <v>1</v>
+      </c>
+      <c r="G443" s="55" t="s">
+        <v>1642</v>
+      </c>
+      <c r="I443" s="55" t="s">
+        <v>1643</v>
+      </c>
+      <c r="K443" s="55">
+        <v>-31</v>
+      </c>
+      <c r="L443" s="55">
+        <v>0</v>
+      </c>
+      <c r="M443" s="55">
+        <v>0</v>
+      </c>
+      <c r="N443" s="55" t="s">
+        <v>101</v>
+      </c>
+      <c r="O443" s="55">
+        <v>9800</v>
+      </c>
+      <c r="P443" s="55" t="s">
+        <v>1644</v>
+      </c>
+      <c r="Q443" s="56" t="s">
+        <v>1645</v>
+      </c>
+      <c r="V443" s="55" t="s">
+        <v>1638</v>
+      </c>
+      <c r="W443" s="55">
+        <v>9999999</v>
+      </c>
+      <c r="X443" s="55">
+        <v>1604966400</v>
+      </c>
+      <c r="Y443" s="55">
+        <v>1605542399</v>
+      </c>
+      <c r="AG443" s="55">
+        <v>1</v>
+      </c>
+      <c r="AH443" s="55">
+        <v>1</v>
+      </c>
+      <c r="AK443" s="55">
+        <v>1</v>
+      </c>
+      <c r="AL443" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="444" spans="1:38" s="55" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A444" s="55">
+        <v>443</v>
+      </c>
+      <c r="B444" s="55">
+        <v>10360</v>
+      </c>
+      <c r="F444" s="55">
+        <v>1</v>
+      </c>
+      <c r="G444" s="55" t="s">
+        <v>1646</v>
+      </c>
+      <c r="I444" s="55" t="s">
+        <v>1647</v>
+      </c>
+      <c r="K444" s="55">
+        <v>-31</v>
+      </c>
+      <c r="L444" s="55">
+        <v>0</v>
+      </c>
+      <c r="M444" s="55">
+        <v>0</v>
+      </c>
+      <c r="N444" s="55" t="s">
+        <v>101</v>
+      </c>
+      <c r="O444" s="55">
+        <v>4800</v>
+      </c>
+      <c r="P444" s="55" t="s">
+        <v>1636</v>
+      </c>
+      <c r="Q444" s="56" t="s">
+        <v>1648</v>
+      </c>
+      <c r="V444" s="55" t="s">
+        <v>1638</v>
+      </c>
+      <c r="W444" s="55">
+        <v>9999999</v>
+      </c>
+      <c r="X444" s="55">
+        <v>1604966400</v>
+      </c>
+      <c r="Y444" s="55">
+        <v>1605542399</v>
+      </c>
+      <c r="AG444" s="55">
+        <v>1</v>
+      </c>
+      <c r="AH444" s="55">
+        <v>1</v>
+      </c>
+      <c r="AK444" s="55">
+        <v>1</v>
+      </c>
+      <c r="AL444" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="445" spans="1:38" s="55" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A445" s="55">
+        <v>444</v>
+      </c>
+      <c r="B445" s="55">
+        <v>10361</v>
+      </c>
+      <c r="F445" s="55">
+        <v>1</v>
+      </c>
+      <c r="G445" s="55" t="s">
+        <v>1649</v>
+      </c>
+      <c r="I445" s="55" t="s">
+        <v>1650</v>
+      </c>
+      <c r="K445" s="55">
+        <v>-31</v>
+      </c>
+      <c r="L445" s="55">
+        <v>0</v>
+      </c>
+      <c r="M445" s="55">
+        <v>0</v>
+      </c>
+      <c r="N445" s="55" t="s">
+        <v>101</v>
+      </c>
+      <c r="O445" s="55">
+        <v>2000</v>
+      </c>
+      <c r="P445" s="55" t="s">
+        <v>1636</v>
+      </c>
+      <c r="Q445" s="56" t="s">
+        <v>1651</v>
+      </c>
+      <c r="V445" s="55" t="s">
+        <v>1652</v>
+      </c>
+      <c r="W445" s="55">
+        <v>9999999</v>
+      </c>
+      <c r="X445" s="55">
+        <v>1604966400</v>
+      </c>
+      <c r="Y445" s="55">
+        <v>1605542399</v>
+      </c>
+      <c r="AG445" s="55">
+        <v>1</v>
+      </c>
+      <c r="AH445" s="55">
+        <v>1</v>
+      </c>
+      <c r="AK445" s="55">
+        <v>1</v>
+      </c>
+      <c r="AL445" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="446" spans="1:38" s="55" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A446" s="55">
+        <v>445</v>
+      </c>
+      <c r="B446" s="55">
+        <v>10362</v>
+      </c>
+      <c r="F446" s="55">
+        <v>1</v>
+      </c>
+      <c r="G446" s="55" t="s">
+        <v>1653</v>
+      </c>
+      <c r="I446" s="55" t="s">
+        <v>1654</v>
+      </c>
+      <c r="K446" s="55">
+        <v>-31</v>
+      </c>
+      <c r="L446" s="55">
+        <v>0</v>
+      </c>
+      <c r="M446" s="55">
+        <v>0</v>
+      </c>
+      <c r="N446" s="55" t="s">
+        <v>101</v>
+      </c>
+      <c r="O446" s="55">
+        <v>600</v>
+      </c>
+      <c r="P446" s="55" t="s">
+        <v>1644</v>
+      </c>
+      <c r="Q446" s="56" t="s">
+        <v>1655</v>
+      </c>
+      <c r="V446" s="55" t="s">
+        <v>1652</v>
+      </c>
+      <c r="W446" s="55">
+        <v>9999999</v>
+      </c>
+      <c r="X446" s="55">
+        <v>1604966400</v>
+      </c>
+      <c r="Y446" s="55">
+        <v>1605542399</v>
+      </c>
+      <c r="AG446" s="55">
+        <v>1</v>
+      </c>
+      <c r="AH446" s="55">
+        <v>1</v>
+      </c>
+      <c r="AK446" s="55">
+        <v>1</v>
+      </c>
+      <c r="AL446" s="55">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/config_Release/shoping_config_xiaomi.xlsx
+++ b/config_Release/shoping_config_xiaomi.xlsx
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3684" uniqueCount="1656">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3901" uniqueCount="1784">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -7492,6 +7492,476 @@
   </si>
   <si>
     <t>600000,3000,1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{next=10365,trigger="start_trigger",reset_time=0}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{last=10363,reset_time=0}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{next=10368,trigger="start_trigger",reset_time=0}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{last=10366,reset_time=0}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{next=10371,trigger="start_trigger",reset_time=0}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{last=10369,reset_time=0}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{next=10374,trigger="start_trigger",reset_time=0}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{last=10372,reset_time=0}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{next=10377,trigger="start_trigger",reset_time=0}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{last=10375,reset_time=0}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{next=10380,trigger="start_trigger",reset_time=0}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{last=10378,reset_time=0}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{next=10383,trigger="start_trigger",reset_time=0}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{last=10381,reset_time=0}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚划算8元-1</t>
+  </si>
+  <si>
+    <t>聚划算8元1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"80万金币","2.4万金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>824000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>86400,1,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚划算8元-2</t>
+  </si>
+  <si>
+    <t>聚划算8元2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"80万金币","4.8万金币",</t>
+  </si>
+  <si>
+    <t>848000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚划算8元-2(10min)</t>
+  </si>
+  <si>
+    <t>聚划算8元2（10min）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"80万金币","4.8万金币","0.8万",</t>
+  </si>
+  <si>
+    <t>856000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚划算38元-1</t>
+  </si>
+  <si>
+    <t>聚划算38元1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"380万金币","11万金币",</t>
+  </si>
+  <si>
+    <t>3910000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚划算38元-2</t>
+  </si>
+  <si>
+    <t>聚划算38元2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"380万金币","22.8万金币",</t>
+  </si>
+  <si>
+    <t>4028000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚划算38元-2(10min)</t>
+  </si>
+  <si>
+    <t>聚划算38元2（10min）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"380万金币","22.8万金币","3.8万",</t>
+  </si>
+  <si>
+    <t>4066000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚划算98元-1</t>
+  </si>
+  <si>
+    <t>聚划算98元1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"980万金币","29万金币",</t>
+  </si>
+  <si>
+    <t>10090000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚划算98元-2</t>
+  </si>
+  <si>
+    <t>聚划算98元2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"980万金币","58.8万金币",</t>
+  </si>
+  <si>
+    <t>10388000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚划算98元-2(10min)</t>
+  </si>
+  <si>
+    <t>聚划算98元2（10min）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"980万金币","58.8万金币","9.8万",</t>
+  </si>
+  <si>
+    <t>聚划算198元-1</t>
+  </si>
+  <si>
+    <t>聚划算198元1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"1980万金币","59万金币",</t>
+  </si>
+  <si>
+    <t>20390000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚划算198元-2</t>
+  </si>
+  <si>
+    <t>聚划算198元2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"1980万金币","118.8万金币",</t>
+  </si>
+  <si>
+    <t>20988000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚划算198元-2(10min)</t>
+  </si>
+  <si>
+    <t>聚划算198元2（10min）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"1980万金币","118.8万金币","19.8万",</t>
+  </si>
+  <si>
+    <t>21186000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚划算498元-1</t>
+  </si>
+  <si>
+    <t>聚划算498元1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"4980万金币","149万金币",</t>
+  </si>
+  <si>
+    <t>51290000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚划算498元-2</t>
+  </si>
+  <si>
+    <t>聚划算498元2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"4980万金币","298.8万金币",</t>
+  </si>
+  <si>
+    <t>52788000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚划算498元-2(10min)</t>
+  </si>
+  <si>
+    <t>聚划算498元2（10min）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"4980万金币","298.8万金币","49.8万",</t>
+  </si>
+  <si>
+    <t>53286000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚划算998元-1</t>
+  </si>
+  <si>
+    <t>聚划算998元1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"9980万金币","299万金币",</t>
+  </si>
+  <si>
+    <t>102790000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚划算998元-2</t>
+  </si>
+  <si>
+    <t>聚划算998元2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"9980万金币","598.8万金币",</t>
+  </si>
+  <si>
+    <t>105788000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚划算998元-2(10min)</t>
+  </si>
+  <si>
+    <t>聚划算998元2（10min）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"9980万金币","598.8万金币","99.8万",</t>
+  </si>
+  <si>
+    <t>106786000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚划算2498元-1</t>
+  </si>
+  <si>
+    <t>聚划算2498元1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"24980万金币","749万金币",</t>
+  </si>
+  <si>
+    <t>257290000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚划算2498元-2</t>
+  </si>
+  <si>
+    <t>聚划算2498元2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"24980万金币","1498.8万金币",</t>
+  </si>
+  <si>
+    <t>264788000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚划算2498元-2(10min)</t>
+  </si>
+  <si>
+    <t>聚划算2498元2（10min）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"24980万金币","1498.8万金币","249.8万",</t>
+  </si>
+  <si>
+    <t>267286000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>青铜礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>一本万利</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>一本万利</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"60万金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>600000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,1,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>白银礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"300万金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>3000000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄金礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"680万金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>6800000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>铂金礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"980万金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>9800000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,1,0</t>
+  </si>
+  <si>
+    <t>钻石礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"1980万金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>19800000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>星耀礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"4980万金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>49800000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>王者礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"9980万金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>99800000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>荣耀礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"2.5亿金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>250000000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>10486000,</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -7570,7 +8040,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7615,12 +8085,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -7634,6 +8098,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7680,7 +8162,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -7822,22 +8304,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -7846,16 +8322,43 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -8257,7 +8760,7 @@
       <c r="D4" s="32" t="s">
         <v>1532</v>
       </c>
-      <c r="E4" s="53" t="s">
+      <c r="E4" s="51" t="s">
         <v>1533</v>
       </c>
       <c r="F4" s="18" t="s">
@@ -10308,13 +10811,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AM446"/>
+  <dimension ref="A1:AM475"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H417" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="P447" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A441" sqref="A441:XFD446"/>
+      <selection pane="bottomRight" activeCell="Q455" sqref="Q455"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -34653,615 +35156,615 @@
         <v>1</v>
       </c>
     </row>
-    <row r="386" spans="1:38" s="47" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A386" s="47">
+    <row r="386" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A386" s="19">
         <v>385</v>
       </c>
-      <c r="B386" s="47">
+      <c r="B386" s="19">
         <v>10302</v>
       </c>
-      <c r="F386" s="47">
-        <v>1</v>
-      </c>
-      <c r="G386" s="47" t="s">
+      <c r="F386" s="19">
+        <v>1</v>
+      </c>
+      <c r="G386" s="19" t="s">
         <v>1375</v>
       </c>
-      <c r="H386" s="47" t="s">
+      <c r="H386" s="19" t="s">
         <v>1376</v>
       </c>
-      <c r="I386" s="47" t="s">
+      <c r="I386" s="19" t="s">
         <v>1377</v>
       </c>
-      <c r="K386" s="47">
+      <c r="K386" s="19">
         <v>-31</v>
       </c>
-      <c r="L386" s="47">
-        <v>0</v>
-      </c>
-      <c r="M386" s="47">
-        <v>0</v>
-      </c>
-      <c r="N386" s="47" t="s">
+      <c r="L386" s="19">
+        <v>0</v>
+      </c>
+      <c r="M386" s="19">
+        <v>0</v>
+      </c>
+      <c r="N386" s="19" t="s">
         <v>482</v>
       </c>
-      <c r="O386" s="47">
+      <c r="O386" s="19">
         <v>1800</v>
       </c>
-      <c r="P386" s="47" t="s">
+      <c r="P386" s="19" t="s">
         <v>1378</v>
       </c>
-      <c r="Q386" s="48" t="s">
+      <c r="Q386" s="39" t="s">
         <v>1379</v>
       </c>
-      <c r="V386" s="47" t="s">
+      <c r="V386" s="19" t="s">
         <v>536</v>
       </c>
-      <c r="W386" s="47">
+      <c r="W386" s="19">
         <v>9999999</v>
       </c>
-      <c r="X386" s="47">
-        <v>1602547200</v>
-      </c>
-      <c r="Y386" s="47">
-        <v>1603123199</v>
-      </c>
-      <c r="Z386" s="47">
+      <c r="X386" s="49">
+        <v>1605571200</v>
+      </c>
+      <c r="Y386" s="49">
+        <v>1606147199</v>
+      </c>
+      <c r="Z386" s="19">
         <v>44</v>
       </c>
-      <c r="AG386" s="47">
-        <v>1</v>
-      </c>
-      <c r="AH386" s="47">
-        <v>1</v>
-      </c>
-      <c r="AK386" s="47">
-        <v>1</v>
-      </c>
-      <c r="AL386" s="47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="387" spans="1:38" s="47" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A387" s="47">
+      <c r="AG386" s="19">
+        <v>1</v>
+      </c>
+      <c r="AH386" s="19">
+        <v>1</v>
+      </c>
+      <c r="AK386" s="19">
+        <v>1</v>
+      </c>
+      <c r="AL386" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="387" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A387" s="19">
         <v>386</v>
       </c>
-      <c r="B387" s="47">
+      <c r="B387" s="19">
         <v>10303</v>
       </c>
-      <c r="F387" s="47">
-        <v>1</v>
-      </c>
-      <c r="G387" s="47" t="s">
+      <c r="F387" s="19">
+        <v>1</v>
+      </c>
+      <c r="G387" s="19" t="s">
         <v>1380</v>
       </c>
-      <c r="H387" s="47" t="s">
+      <c r="H387" s="19" t="s">
         <v>1381</v>
       </c>
-      <c r="I387" s="47" t="s">
+      <c r="I387" s="19" t="s">
         <v>1382</v>
       </c>
-      <c r="K387" s="47">
+      <c r="K387" s="19">
         <v>-31</v>
       </c>
-      <c r="L387" s="47">
-        <v>0</v>
-      </c>
-      <c r="M387" s="47">
-        <v>0</v>
-      </c>
-      <c r="N387" s="47" t="s">
+      <c r="L387" s="19">
+        <v>0</v>
+      </c>
+      <c r="M387" s="19">
+        <v>0</v>
+      </c>
+      <c r="N387" s="19" t="s">
         <v>1383</v>
       </c>
-      <c r="O387" s="47">
+      <c r="O387" s="19">
         <v>3000</v>
       </c>
-      <c r="P387" s="47" t="s">
+      <c r="P387" s="19" t="s">
         <v>1384</v>
       </c>
-      <c r="Q387" s="48" t="s">
+      <c r="Q387" s="39" t="s">
         <v>1385</v>
       </c>
-      <c r="V387" s="47" t="s">
+      <c r="V387" s="19" t="s">
         <v>536</v>
       </c>
-      <c r="W387" s="47">
+      <c r="W387" s="19">
         <v>9999999</v>
       </c>
-      <c r="X387" s="47">
-        <v>1602547200</v>
-      </c>
-      <c r="Y387" s="47">
-        <v>1603123199</v>
-      </c>
-      <c r="Z387" s="47">
+      <c r="X387" s="49">
+        <v>1605571200</v>
+      </c>
+      <c r="Y387" s="49">
+        <v>1606147199</v>
+      </c>
+      <c r="Z387" s="19">
         <v>44</v>
       </c>
-      <c r="AG387" s="47">
-        <v>1</v>
-      </c>
-      <c r="AH387" s="47">
-        <v>1</v>
-      </c>
-      <c r="AK387" s="47">
-        <v>1</v>
-      </c>
-      <c r="AL387" s="47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="388" spans="1:38" s="47" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A388" s="47">
+      <c r="AG387" s="19">
+        <v>1</v>
+      </c>
+      <c r="AH387" s="19">
+        <v>1</v>
+      </c>
+      <c r="AK387" s="19">
+        <v>1</v>
+      </c>
+      <c r="AL387" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="388" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A388" s="19">
         <v>387</v>
       </c>
-      <c r="B388" s="47">
+      <c r="B388" s="19">
         <v>10304</v>
       </c>
-      <c r="F388" s="47">
-        <v>1</v>
-      </c>
-      <c r="G388" s="47" t="s">
+      <c r="F388" s="19">
+        <v>1</v>
+      </c>
+      <c r="G388" s="19" t="s">
         <v>1386</v>
       </c>
-      <c r="H388" s="47" t="s">
+      <c r="H388" s="19" t="s">
         <v>1387</v>
       </c>
-      <c r="I388" s="47" t="s">
+      <c r="I388" s="19" t="s">
         <v>1388</v>
       </c>
-      <c r="K388" s="47">
+      <c r="K388" s="19">
         <v>-31</v>
       </c>
-      <c r="L388" s="47">
-        <v>0</v>
-      </c>
-      <c r="M388" s="47">
-        <v>0</v>
-      </c>
-      <c r="N388" s="47" t="s">
+      <c r="L388" s="19">
+        <v>0</v>
+      </c>
+      <c r="M388" s="19">
+        <v>0</v>
+      </c>
+      <c r="N388" s="19" t="s">
         <v>1389</v>
       </c>
-      <c r="O388" s="47">
+      <c r="O388" s="19">
         <v>4800</v>
       </c>
-      <c r="P388" s="47" t="s">
+      <c r="P388" s="19" t="s">
         <v>1390</v>
       </c>
-      <c r="Q388" s="48" t="s">
+      <c r="Q388" s="39" t="s">
         <v>1391</v>
       </c>
-      <c r="V388" s="47" t="s">
+      <c r="V388" s="19" t="s">
         <v>1392</v>
       </c>
-      <c r="W388" s="47">
+      <c r="W388" s="19">
         <v>9999999</v>
       </c>
-      <c r="X388" s="47">
-        <v>1602547200</v>
-      </c>
-      <c r="Y388" s="47">
-        <v>1603123199</v>
-      </c>
-      <c r="Z388" s="47">
+      <c r="X388" s="49">
+        <v>1605571200</v>
+      </c>
+      <c r="Y388" s="49">
+        <v>1606147199</v>
+      </c>
+      <c r="Z388" s="19">
         <v>44</v>
       </c>
-      <c r="AG388" s="47">
-        <v>1</v>
-      </c>
-      <c r="AH388" s="47">
-        <v>1</v>
-      </c>
-      <c r="AK388" s="47">
-        <v>1</v>
-      </c>
-      <c r="AL388" s="47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="389" spans="1:38" s="47" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A389" s="47">
+      <c r="AG388" s="19">
+        <v>1</v>
+      </c>
+      <c r="AH388" s="19">
+        <v>1</v>
+      </c>
+      <c r="AK388" s="19">
+        <v>1</v>
+      </c>
+      <c r="AL388" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="389" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A389" s="19">
         <v>388</v>
       </c>
-      <c r="B389" s="47">
+      <c r="B389" s="19">
         <v>10305</v>
       </c>
-      <c r="F389" s="47">
-        <v>1</v>
-      </c>
-      <c r="G389" s="47" t="s">
+      <c r="F389" s="19">
+        <v>1</v>
+      </c>
+      <c r="G389" s="19" t="s">
         <v>1393</v>
       </c>
-      <c r="H389" s="47" t="s">
+      <c r="H389" s="19" t="s">
         <v>1394</v>
       </c>
-      <c r="I389" s="47" t="s">
+      <c r="I389" s="19" t="s">
         <v>1395</v>
       </c>
-      <c r="K389" s="47">
+      <c r="K389" s="19">
         <v>-31</v>
       </c>
-      <c r="L389" s="47">
-        <v>0</v>
-      </c>
-      <c r="M389" s="47">
-        <v>0</v>
-      </c>
-      <c r="N389" s="47" t="s">
+      <c r="L389" s="19">
+        <v>0</v>
+      </c>
+      <c r="M389" s="19">
+        <v>0</v>
+      </c>
+      <c r="N389" s="19" t="s">
         <v>1396</v>
       </c>
-      <c r="O389" s="47">
+      <c r="O389" s="19">
         <v>4800</v>
       </c>
-      <c r="P389" s="47" t="s">
+      <c r="P389" s="19" t="s">
         <v>1397</v>
       </c>
-      <c r="Q389" s="48" t="s">
+      <c r="Q389" s="39" t="s">
         <v>1391</v>
       </c>
-      <c r="V389" s="47" t="s">
+      <c r="V389" s="19" t="s">
         <v>536</v>
       </c>
-      <c r="W389" s="47">
+      <c r="W389" s="19">
         <v>9999999</v>
       </c>
-      <c r="X389" s="47">
-        <v>1602547200</v>
-      </c>
-      <c r="Y389" s="47">
-        <v>1603123199</v>
-      </c>
-      <c r="Z389" s="47">
+      <c r="X389" s="65">
+        <v>1605571200</v>
+      </c>
+      <c r="Y389" s="65">
+        <v>1606147199</v>
+      </c>
+      <c r="Z389" s="19">
         <v>45</v>
       </c>
-      <c r="AG389" s="47">
-        <v>1</v>
-      </c>
-      <c r="AH389" s="47">
-        <v>1</v>
-      </c>
-      <c r="AK389" s="47">
-        <v>1</v>
-      </c>
-      <c r="AL389" s="47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="390" spans="1:38" s="47" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A390" s="47">
+      <c r="AG389" s="19">
+        <v>1</v>
+      </c>
+      <c r="AH389" s="19">
+        <v>1</v>
+      </c>
+      <c r="AK389" s="19">
+        <v>1</v>
+      </c>
+      <c r="AL389" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="390" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A390" s="19">
         <v>389</v>
       </c>
-      <c r="B390" s="47">
+      <c r="B390" s="19">
         <v>10306</v>
       </c>
-      <c r="F390" s="47">
-        <v>1</v>
-      </c>
-      <c r="G390" s="47" t="s">
+      <c r="F390" s="19">
+        <v>1</v>
+      </c>
+      <c r="G390" s="19" t="s">
         <v>1380</v>
       </c>
-      <c r="H390" s="47" t="s">
+      <c r="H390" s="19" t="s">
         <v>1207</v>
       </c>
-      <c r="I390" s="47" t="s">
+      <c r="I390" s="19" t="s">
         <v>1398</v>
       </c>
-      <c r="K390" s="47">
+      <c r="K390" s="19">
         <v>-31</v>
       </c>
-      <c r="L390" s="47">
-        <v>0</v>
-      </c>
-      <c r="M390" s="47">
-        <v>0</v>
-      </c>
-      <c r="N390" s="47" t="s">
+      <c r="L390" s="19">
+        <v>0</v>
+      </c>
+      <c r="M390" s="19">
+        <v>0</v>
+      </c>
+      <c r="N390" s="19" t="s">
         <v>482</v>
       </c>
-      <c r="O390" s="47">
+      <c r="O390" s="19">
         <v>9800</v>
       </c>
-      <c r="P390" s="47" t="s">
+      <c r="P390" s="19" t="s">
         <v>1399</v>
       </c>
-      <c r="Q390" s="48" t="s">
+      <c r="Q390" s="39" t="s">
         <v>1400</v>
       </c>
-      <c r="V390" s="47" t="s">
+      <c r="V390" s="19" t="s">
         <v>536</v>
       </c>
-      <c r="W390" s="47">
+      <c r="W390" s="19">
         <v>9999999</v>
       </c>
-      <c r="X390" s="47">
-        <v>1602547200</v>
-      </c>
-      <c r="Y390" s="47">
-        <v>1603123199</v>
-      </c>
-      <c r="Z390" s="47">
+      <c r="X390" s="65">
+        <v>1605571200</v>
+      </c>
+      <c r="Y390" s="65">
+        <v>1606147199</v>
+      </c>
+      <c r="Z390" s="19">
         <v>45</v>
       </c>
-      <c r="AG390" s="47">
-        <v>1</v>
-      </c>
-      <c r="AH390" s="47">
-        <v>1</v>
-      </c>
-      <c r="AK390" s="47">
-        <v>1</v>
-      </c>
-      <c r="AL390" s="47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="391" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A391" s="5">
+      <c r="AG390" s="19">
+        <v>1</v>
+      </c>
+      <c r="AH390" s="19">
+        <v>1</v>
+      </c>
+      <c r="AK390" s="19">
+        <v>1</v>
+      </c>
+      <c r="AL390" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="391" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A391" s="19">
         <v>390</v>
       </c>
-      <c r="B391" s="5">
+      <c r="B391" s="19">
         <v>10307</v>
       </c>
-      <c r="F391" s="5">
-        <v>1</v>
-      </c>
-      <c r="G391" s="5" t="s">
+      <c r="F391" s="19">
+        <v>1</v>
+      </c>
+      <c r="G391" s="19" t="s">
         <v>1401</v>
       </c>
-      <c r="H391" s="5" t="s">
+      <c r="H391" s="19" t="s">
         <v>1394</v>
       </c>
-      <c r="I391" s="5" t="s">
+      <c r="I391" s="19" t="s">
         <v>1402</v>
       </c>
-      <c r="K391" s="5">
+      <c r="K391" s="19">
         <v>-31</v>
       </c>
-      <c r="L391" s="5">
-        <v>0</v>
-      </c>
-      <c r="M391" s="5">
-        <v>0</v>
-      </c>
-      <c r="N391" s="5" t="s">
+      <c r="L391" s="19">
+        <v>0</v>
+      </c>
+      <c r="M391" s="19">
+        <v>0</v>
+      </c>
+      <c r="N391" s="19" t="s">
         <v>482</v>
       </c>
-      <c r="O391" s="5">
+      <c r="O391" s="19">
         <v>19800</v>
       </c>
-      <c r="P391" s="5" t="s">
+      <c r="P391" s="19" t="s">
         <v>1403</v>
       </c>
-      <c r="Q391" s="10" t="s">
+      <c r="Q391" s="39" t="s">
         <v>1404</v>
       </c>
-      <c r="V391" s="5" t="s">
+      <c r="V391" s="19" t="s">
         <v>536</v>
       </c>
-      <c r="W391" s="5">
+      <c r="W391" s="19">
         <v>9999999</v>
       </c>
-      <c r="X391" s="5">
-        <v>1602547200</v>
-      </c>
-      <c r="Y391" s="5">
-        <v>1603123199</v>
-      </c>
-      <c r="Z391" s="5">
+      <c r="X391" s="65">
+        <v>1605571200</v>
+      </c>
+      <c r="Y391" s="65">
+        <v>1606147199</v>
+      </c>
+      <c r="Z391" s="19">
         <v>45</v>
       </c>
-      <c r="AG391" s="5">
-        <v>1</v>
-      </c>
-      <c r="AH391" s="5">
-        <v>1</v>
-      </c>
-      <c r="AK391" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL391" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="392" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A392" s="5">
+      <c r="AG391" s="19">
+        <v>1</v>
+      </c>
+      <c r="AH391" s="19">
+        <v>1</v>
+      </c>
+      <c r="AK391" s="19">
+        <v>1</v>
+      </c>
+      <c r="AL391" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="392" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A392" s="19">
         <v>391</v>
       </c>
-      <c r="B392" s="5">
+      <c r="B392" s="19">
         <v>10308</v>
       </c>
-      <c r="F392" s="5">
-        <v>1</v>
-      </c>
-      <c r="G392" s="5" t="s">
+      <c r="F392" s="19">
+        <v>1</v>
+      </c>
+      <c r="G392" s="19" t="s">
         <v>1375</v>
       </c>
-      <c r="H392" s="5" t="s">
+      <c r="H392" s="19" t="s">
         <v>1405</v>
       </c>
-      <c r="I392" s="5" t="s">
+      <c r="I392" s="19" t="s">
         <v>1406</v>
       </c>
-      <c r="K392" s="5">
+      <c r="K392" s="19">
         <v>-31</v>
       </c>
-      <c r="L392" s="5">
-        <v>0</v>
-      </c>
-      <c r="M392" s="5">
-        <v>0</v>
-      </c>
-      <c r="N392" s="5" t="s">
+      <c r="L392" s="19">
+        <v>0</v>
+      </c>
+      <c r="M392" s="19">
+        <v>0</v>
+      </c>
+      <c r="N392" s="19" t="s">
         <v>482</v>
       </c>
-      <c r="O392" s="5">
+      <c r="O392" s="19">
         <v>9800</v>
       </c>
-      <c r="P392" s="5" t="s">
+      <c r="P392" s="19" t="s">
         <v>1407</v>
       </c>
-      <c r="Q392" s="10" t="s">
+      <c r="Q392" s="39" t="s">
         <v>1408</v>
       </c>
-      <c r="V392" s="5" t="s">
+      <c r="V392" s="19" t="s">
         <v>536</v>
       </c>
-      <c r="W392" s="5">
+      <c r="W392" s="19">
         <v>9999999</v>
       </c>
-      <c r="X392" s="5">
-        <v>1602547200</v>
-      </c>
-      <c r="Y392" s="5">
-        <v>1603123199</v>
-      </c>
-      <c r="Z392" s="5">
+      <c r="X392" s="49">
+        <v>1605571200</v>
+      </c>
+      <c r="Y392" s="49">
+        <v>1606147199</v>
+      </c>
+      <c r="Z392" s="19">
         <v>46</v>
       </c>
-      <c r="AG392" s="5">
-        <v>1</v>
-      </c>
-      <c r="AH392" s="5">
-        <v>1</v>
-      </c>
-      <c r="AK392" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL392" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="393" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A393" s="5">
+      <c r="AG392" s="19">
+        <v>1</v>
+      </c>
+      <c r="AH392" s="19">
+        <v>1</v>
+      </c>
+      <c r="AK392" s="19">
+        <v>1</v>
+      </c>
+      <c r="AL392" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="393" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A393" s="19">
         <v>392</v>
       </c>
-      <c r="B393" s="5">
+      <c r="B393" s="19">
         <v>10309</v>
       </c>
-      <c r="F393" s="5">
-        <v>1</v>
-      </c>
-      <c r="G393" s="5" t="s">
+      <c r="F393" s="19">
+        <v>1</v>
+      </c>
+      <c r="G393" s="19" t="s">
         <v>1380</v>
       </c>
-      <c r="H393" s="5" t="s">
+      <c r="H393" s="19" t="s">
         <v>1409</v>
       </c>
-      <c r="I393" s="5" t="s">
+      <c r="I393" s="19" t="s">
         <v>1410</v>
       </c>
-      <c r="K393" s="5">
+      <c r="K393" s="19">
         <v>-31</v>
       </c>
-      <c r="L393" s="5">
-        <v>0</v>
-      </c>
-      <c r="M393" s="5">
-        <v>0</v>
-      </c>
-      <c r="N393" s="5" t="s">
+      <c r="L393" s="19">
+        <v>0</v>
+      </c>
+      <c r="M393" s="19">
+        <v>0</v>
+      </c>
+      <c r="N393" s="19" t="s">
         <v>482</v>
       </c>
-      <c r="O393" s="5">
+      <c r="O393" s="19">
         <v>19800</v>
       </c>
-      <c r="P393" s="5" t="s">
+      <c r="P393" s="19" t="s">
         <v>1411</v>
       </c>
-      <c r="Q393" s="10" t="s">
+      <c r="Q393" s="39" t="s">
         <v>1404</v>
       </c>
-      <c r="V393" s="5" t="s">
+      <c r="V393" s="19" t="s">
         <v>536</v>
       </c>
-      <c r="W393" s="5">
+      <c r="W393" s="19">
         <v>9999999</v>
       </c>
-      <c r="X393" s="5">
-        <v>1602547200</v>
-      </c>
-      <c r="Y393" s="5">
-        <v>1603123199</v>
-      </c>
-      <c r="Z393" s="5">
+      <c r="X393" s="49">
+        <v>1605571200</v>
+      </c>
+      <c r="Y393" s="49">
+        <v>1606147199</v>
+      </c>
+      <c r="Z393" s="19">
         <v>46</v>
       </c>
-      <c r="AG393" s="5">
-        <v>1</v>
-      </c>
-      <c r="AH393" s="5">
-        <v>1</v>
-      </c>
-      <c r="AK393" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL393" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="394" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A394" s="5">
+      <c r="AG393" s="19">
+        <v>1</v>
+      </c>
+      <c r="AH393" s="19">
+        <v>1</v>
+      </c>
+      <c r="AK393" s="19">
+        <v>1</v>
+      </c>
+      <c r="AL393" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="394" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A394" s="19">
         <v>393</v>
       </c>
-      <c r="B394" s="5">
+      <c r="B394" s="19">
         <v>10310</v>
       </c>
-      <c r="F394" s="5">
-        <v>1</v>
-      </c>
-      <c r="G394" s="5" t="s">
+      <c r="F394" s="19">
+        <v>1</v>
+      </c>
+      <c r="G394" s="19" t="s">
         <v>1386</v>
       </c>
-      <c r="H394" s="5" t="s">
+      <c r="H394" s="19" t="s">
         <v>1412</v>
       </c>
-      <c r="I394" s="5" t="s">
+      <c r="I394" s="19" t="s">
         <v>1413</v>
       </c>
-      <c r="K394" s="5">
+      <c r="K394" s="19">
         <v>-31</v>
       </c>
-      <c r="L394" s="5">
-        <v>0</v>
-      </c>
-      <c r="M394" s="5">
-        <v>0</v>
-      </c>
-      <c r="N394" s="5" t="s">
+      <c r="L394" s="19">
+        <v>0</v>
+      </c>
+      <c r="M394" s="19">
+        <v>0</v>
+      </c>
+      <c r="N394" s="19" t="s">
         <v>1414</v>
       </c>
-      <c r="O394" s="5">
+      <c r="O394" s="19">
         <v>49800</v>
       </c>
-      <c r="P394" s="5" t="s">
+      <c r="P394" s="19" t="s">
         <v>1415</v>
       </c>
-      <c r="Q394" s="10" t="s">
+      <c r="Q394" s="39" t="s">
         <v>1416</v>
       </c>
-      <c r="V394" s="5" t="s">
+      <c r="V394" s="19" t="s">
         <v>536</v>
       </c>
-      <c r="W394" s="5">
+      <c r="W394" s="19">
         <v>9999999</v>
       </c>
-      <c r="X394" s="5">
-        <v>1602547200</v>
-      </c>
-      <c r="Y394" s="5">
-        <v>1603123199</v>
-      </c>
-      <c r="Z394" s="5">
+      <c r="X394" s="49">
+        <v>1605571200</v>
+      </c>
+      <c r="Y394" s="49">
+        <v>1606147199</v>
+      </c>
+      <c r="Z394" s="19">
         <v>46</v>
       </c>
-      <c r="AG394" s="5">
-        <v>1</v>
-      </c>
-      <c r="AH394" s="5">
-        <v>1</v>
-      </c>
-      <c r="AK394" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL394" s="5">
+      <c r="AG394" s="19">
+        <v>1</v>
+      </c>
+      <c r="AH394" s="19">
+        <v>1</v>
+      </c>
+      <c r="AK394" s="19">
+        <v>1</v>
+      </c>
+      <c r="AL394" s="19">
         <v>1</v>
       </c>
     </row>
@@ -36092,393 +36595,393 @@
         <v>1</v>
       </c>
     </row>
-    <row r="408" spans="1:38" s="51" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A408" s="51">
+    <row r="408" spans="1:38" s="49" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A408" s="49">
         <v>407</v>
       </c>
-      <c r="B408" s="51">
+      <c r="B408" s="49">
         <v>10324</v>
       </c>
-      <c r="F408" s="51">
-        <v>1</v>
-      </c>
-      <c r="G408" s="51" t="s">
+      <c r="F408" s="49">
+        <v>1</v>
+      </c>
+      <c r="G408" s="49" t="s">
         <v>1507</v>
       </c>
-      <c r="I408" s="51" t="s">
+      <c r="I408" s="49" t="s">
         <v>1495</v>
       </c>
-      <c r="K408" s="51">
+      <c r="K408" s="49">
         <v>-31</v>
       </c>
-      <c r="L408" s="51">
-        <v>0</v>
-      </c>
-      <c r="M408" s="51">
-        <v>0</v>
-      </c>
-      <c r="N408" s="51" t="s">
+      <c r="L408" s="49">
+        <v>0</v>
+      </c>
+      <c r="M408" s="49">
+        <v>0</v>
+      </c>
+      <c r="N408" s="49" t="s">
         <v>482</v>
       </c>
-      <c r="O408" s="51">
+      <c r="O408" s="49">
         <v>600</v>
       </c>
-      <c r="P408" s="51" t="s">
+      <c r="P408" s="49" t="s">
         <v>1508</v>
       </c>
-      <c r="Q408" s="52" t="s">
+      <c r="Q408" s="50" t="s">
         <v>1509</v>
       </c>
-      <c r="V408" s="51" t="s">
+      <c r="V408" s="49" t="s">
         <v>568</v>
       </c>
-      <c r="W408" s="51">
+      <c r="W408" s="49">
         <v>99999999</v>
       </c>
-      <c r="X408" s="51">
+      <c r="X408" s="49">
         <v>1603152000</v>
       </c>
-      <c r="Y408" s="51">
+      <c r="Y408" s="49">
         <v>1603727999</v>
       </c>
-      <c r="Z408" s="51">
+      <c r="Z408" s="49">
         <v>48</v>
       </c>
-      <c r="AG408" s="51">
-        <v>1</v>
-      </c>
-      <c r="AH408" s="51">
-        <v>1</v>
-      </c>
-      <c r="AK408" s="51">
-        <v>1</v>
-      </c>
-      <c r="AL408" s="51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="409" spans="1:38" s="51" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A409" s="51">
+      <c r="AG408" s="49">
+        <v>1</v>
+      </c>
+      <c r="AH408" s="49">
+        <v>1</v>
+      </c>
+      <c r="AK408" s="49">
+        <v>1</v>
+      </c>
+      <c r="AL408" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="409" spans="1:38" s="49" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A409" s="49">
         <v>408</v>
       </c>
-      <c r="B409" s="51">
+      <c r="B409" s="49">
         <v>10325</v>
       </c>
-      <c r="F409" s="51">
-        <v>1</v>
-      </c>
-      <c r="G409" s="51" t="s">
+      <c r="F409" s="49">
+        <v>1</v>
+      </c>
+      <c r="G409" s="49" t="s">
         <v>1497</v>
       </c>
-      <c r="I409" s="51" t="s">
+      <c r="I409" s="49" t="s">
         <v>1510</v>
       </c>
-      <c r="K409" s="51">
+      <c r="K409" s="49">
         <v>-31</v>
       </c>
-      <c r="L409" s="51">
-        <v>0</v>
-      </c>
-      <c r="M409" s="51">
-        <v>0</v>
-      </c>
-      <c r="N409" s="51" t="s">
+      <c r="L409" s="49">
+        <v>0</v>
+      </c>
+      <c r="M409" s="49">
+        <v>0</v>
+      </c>
+      <c r="N409" s="49" t="s">
         <v>1511</v>
       </c>
-      <c r="O409" s="51">
+      <c r="O409" s="49">
         <v>2000</v>
       </c>
-      <c r="P409" s="51" t="s">
+      <c r="P409" s="49" t="s">
         <v>1496</v>
       </c>
-      <c r="Q409" s="52" t="s">
+      <c r="Q409" s="50" t="s">
         <v>1512</v>
       </c>
-      <c r="V409" s="51" t="s">
+      <c r="V409" s="49" t="s">
         <v>1513</v>
       </c>
-      <c r="W409" s="51">
+      <c r="W409" s="49">
         <v>99999999</v>
       </c>
-      <c r="X409" s="51">
+      <c r="X409" s="49">
         <v>1603152000</v>
       </c>
-      <c r="Y409" s="51">
+      <c r="Y409" s="49">
         <v>1603727999</v>
       </c>
-      <c r="Z409" s="51">
+      <c r="Z409" s="49">
         <v>48</v>
       </c>
-      <c r="AG409" s="51">
-        <v>1</v>
-      </c>
-      <c r="AH409" s="51">
-        <v>1</v>
-      </c>
-      <c r="AK409" s="51">
-        <v>1</v>
-      </c>
-      <c r="AL409" s="51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="410" spans="1:38" s="51" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A410" s="51">
+      <c r="AG409" s="49">
+        <v>1</v>
+      </c>
+      <c r="AH409" s="49">
+        <v>1</v>
+      </c>
+      <c r="AK409" s="49">
+        <v>1</v>
+      </c>
+      <c r="AL409" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="410" spans="1:38" s="49" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A410" s="49">
         <v>409</v>
       </c>
-      <c r="B410" s="51">
+      <c r="B410" s="49">
         <v>10326</v>
       </c>
-      <c r="F410" s="51">
-        <v>1</v>
-      </c>
-      <c r="G410" s="51" t="s">
+      <c r="F410" s="49">
+        <v>1</v>
+      </c>
+      <c r="G410" s="49" t="s">
         <v>1514</v>
       </c>
-      <c r="I410" s="51" t="s">
+      <c r="I410" s="49" t="s">
         <v>1498</v>
       </c>
-      <c r="K410" s="51">
+      <c r="K410" s="49">
         <v>-31</v>
       </c>
-      <c r="L410" s="51">
-        <v>0</v>
-      </c>
-      <c r="M410" s="51">
-        <v>0</v>
-      </c>
-      <c r="N410" s="51" t="s">
+      <c r="L410" s="49">
+        <v>0</v>
+      </c>
+      <c r="M410" s="49">
+        <v>0</v>
+      </c>
+      <c r="N410" s="49" t="s">
         <v>482</v>
       </c>
-      <c r="O410" s="51">
+      <c r="O410" s="49">
         <v>4800</v>
       </c>
-      <c r="P410" s="51" t="s">
+      <c r="P410" s="49" t="s">
         <v>1496</v>
       </c>
-      <c r="Q410" s="52" t="s">
+      <c r="Q410" s="50" t="s">
         <v>1515</v>
       </c>
-      <c r="V410" s="51" t="s">
+      <c r="V410" s="49" t="s">
         <v>568</v>
       </c>
-      <c r="W410" s="51">
+      <c r="W410" s="49">
         <v>99999999</v>
       </c>
-      <c r="X410" s="51">
+      <c r="X410" s="49">
         <v>1603152000</v>
       </c>
-      <c r="Y410" s="51">
+      <c r="Y410" s="49">
         <v>1603727999</v>
       </c>
-      <c r="Z410" s="51">
+      <c r="Z410" s="49">
         <v>48</v>
       </c>
-      <c r="AG410" s="51">
-        <v>1</v>
-      </c>
-      <c r="AH410" s="51">
-        <v>1</v>
-      </c>
-      <c r="AK410" s="51">
-        <v>1</v>
-      </c>
-      <c r="AL410" s="51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="411" spans="1:38" s="51" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A411" s="51">
+      <c r="AG410" s="49">
+        <v>1</v>
+      </c>
+      <c r="AH410" s="49">
+        <v>1</v>
+      </c>
+      <c r="AK410" s="49">
+        <v>1</v>
+      </c>
+      <c r="AL410" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="411" spans="1:38" s="49" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A411" s="49">
         <v>410</v>
       </c>
-      <c r="B411" s="51">
+      <c r="B411" s="49">
         <v>10327</v>
       </c>
-      <c r="F411" s="51">
-        <v>1</v>
-      </c>
-      <c r="G411" s="51" t="s">
+      <c r="F411" s="49">
+        <v>1</v>
+      </c>
+      <c r="G411" s="49" t="s">
         <v>1499</v>
       </c>
-      <c r="I411" s="51" t="s">
+      <c r="I411" s="49" t="s">
         <v>1500</v>
       </c>
-      <c r="K411" s="51">
+      <c r="K411" s="49">
         <v>-31</v>
       </c>
-      <c r="L411" s="51">
-        <v>0</v>
-      </c>
-      <c r="M411" s="51">
-        <v>0</v>
-      </c>
-      <c r="N411" s="51" t="s">
+      <c r="L411" s="49">
+        <v>0</v>
+      </c>
+      <c r="M411" s="49">
+        <v>0</v>
+      </c>
+      <c r="N411" s="49" t="s">
         <v>482</v>
       </c>
-      <c r="O411" s="51">
+      <c r="O411" s="49">
         <v>9800</v>
       </c>
-      <c r="P411" s="51" t="s">
+      <c r="P411" s="49" t="s">
         <v>1516</v>
       </c>
-      <c r="Q411" s="52" t="s">
+      <c r="Q411" s="50" t="s">
         <v>1517</v>
       </c>
-      <c r="V411" s="51" t="s">
+      <c r="V411" s="49" t="s">
         <v>568</v>
       </c>
-      <c r="W411" s="51">
+      <c r="W411" s="49">
         <v>99999999</v>
       </c>
-      <c r="X411" s="51">
+      <c r="X411" s="49">
         <v>1603152000</v>
       </c>
-      <c r="Y411" s="51">
+      <c r="Y411" s="49">
         <v>1603727999</v>
       </c>
-      <c r="Z411" s="51">
+      <c r="Z411" s="49">
         <v>48</v>
       </c>
-      <c r="AG411" s="51">
-        <v>1</v>
-      </c>
-      <c r="AH411" s="51">
-        <v>1</v>
-      </c>
-      <c r="AK411" s="51">
-        <v>1</v>
-      </c>
-      <c r="AL411" s="51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="412" spans="1:38" s="51" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A412" s="51">
+      <c r="AG411" s="49">
+        <v>1</v>
+      </c>
+      <c r="AH411" s="49">
+        <v>1</v>
+      </c>
+      <c r="AK411" s="49">
+        <v>1</v>
+      </c>
+      <c r="AL411" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="412" spans="1:38" s="49" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A412" s="49">
         <v>411</v>
       </c>
-      <c r="B412" s="51">
+      <c r="B412" s="49">
         <v>10328</v>
       </c>
-      <c r="F412" s="51">
-        <v>1</v>
-      </c>
-      <c r="G412" s="51" t="s">
+      <c r="F412" s="49">
+        <v>1</v>
+      </c>
+      <c r="G412" s="49" t="s">
         <v>1518</v>
       </c>
-      <c r="I412" s="51" t="s">
+      <c r="I412" s="49" t="s">
         <v>1519</v>
       </c>
-      <c r="K412" s="51">
+      <c r="K412" s="49">
         <v>-31</v>
       </c>
-      <c r="L412" s="51">
-        <v>0</v>
-      </c>
-      <c r="M412" s="51">
-        <v>0</v>
-      </c>
-      <c r="N412" s="51" t="s">
+      <c r="L412" s="49">
+        <v>0</v>
+      </c>
+      <c r="M412" s="49">
+        <v>0</v>
+      </c>
+      <c r="N412" s="49" t="s">
         <v>482</v>
       </c>
-      <c r="O412" s="51">
+      <c r="O412" s="49">
         <v>19800</v>
       </c>
-      <c r="P412" s="51" t="s">
+      <c r="P412" s="49" t="s">
         <v>1508</v>
       </c>
-      <c r="Q412" s="52" t="s">
+      <c r="Q412" s="50" t="s">
         <v>1520</v>
       </c>
-      <c r="V412" s="51" t="s">
+      <c r="V412" s="49" t="s">
         <v>1521</v>
       </c>
-      <c r="W412" s="51">
+      <c r="W412" s="49">
         <v>99999999</v>
       </c>
-      <c r="X412" s="51">
+      <c r="X412" s="49">
         <v>1603152000</v>
       </c>
-      <c r="Y412" s="51">
+      <c r="Y412" s="49">
         <v>1603727999</v>
       </c>
-      <c r="Z412" s="51">
+      <c r="Z412" s="49">
         <v>48</v>
       </c>
-      <c r="AG412" s="51">
-        <v>1</v>
-      </c>
-      <c r="AH412" s="51">
-        <v>1</v>
-      </c>
-      <c r="AK412" s="51">
-        <v>1</v>
-      </c>
-      <c r="AL412" s="51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="413" spans="1:38" s="51" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A413" s="51">
+      <c r="AG412" s="49">
+        <v>1</v>
+      </c>
+      <c r="AH412" s="49">
+        <v>1</v>
+      </c>
+      <c r="AK412" s="49">
+        <v>1</v>
+      </c>
+      <c r="AL412" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="413" spans="1:38" s="49" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A413" s="49">
         <v>412</v>
       </c>
-      <c r="B413" s="51">
+      <c r="B413" s="49">
         <v>10329</v>
       </c>
-      <c r="F413" s="51">
-        <v>1</v>
-      </c>
-      <c r="G413" s="51" t="s">
+      <c r="F413" s="49">
+        <v>1</v>
+      </c>
+      <c r="G413" s="49" t="s">
         <v>1522</v>
       </c>
-      <c r="I413" s="51" t="s">
+      <c r="I413" s="49" t="s">
         <v>1523</v>
       </c>
-      <c r="K413" s="51">
+      <c r="K413" s="49">
         <v>-31</v>
       </c>
-      <c r="L413" s="51">
-        <v>0</v>
-      </c>
-      <c r="M413" s="51">
-        <v>0</v>
-      </c>
-      <c r="N413" s="51" t="s">
+      <c r="L413" s="49">
+        <v>0</v>
+      </c>
+      <c r="M413" s="49">
+        <v>0</v>
+      </c>
+      <c r="N413" s="49" t="s">
         <v>1511</v>
       </c>
-      <c r="O413" s="51">
+      <c r="O413" s="49">
         <v>49800</v>
       </c>
-      <c r="P413" s="51" t="s">
+      <c r="P413" s="49" t="s">
         <v>1508</v>
       </c>
-      <c r="Q413" s="52" t="s">
+      <c r="Q413" s="50" t="s">
         <v>1524</v>
       </c>
-      <c r="V413" s="51" t="s">
+      <c r="V413" s="49" t="s">
         <v>1521</v>
       </c>
-      <c r="W413" s="51">
+      <c r="W413" s="49">
         <v>99999999</v>
       </c>
-      <c r="X413" s="51">
+      <c r="X413" s="49">
         <v>1603152000</v>
       </c>
-      <c r="Y413" s="51">
+      <c r="Y413" s="49">
         <v>1603727999</v>
       </c>
-      <c r="Z413" s="51">
+      <c r="Z413" s="49">
         <v>48</v>
       </c>
-      <c r="AG413" s="51">
-        <v>1</v>
-      </c>
-      <c r="AH413" s="51">
-        <v>1</v>
-      </c>
-      <c r="AK413" s="51">
-        <v>1</v>
-      </c>
-      <c r="AL413" s="51">
+      <c r="AG413" s="49">
+        <v>1</v>
+      </c>
+      <c r="AH413" s="49">
+        <v>1</v>
+      </c>
+      <c r="AK413" s="49">
+        <v>1</v>
+      </c>
+      <c r="AL413" s="49">
         <v>1</v>
       </c>
     </row>
@@ -36575,7 +37078,7 @@
       <c r="P415" s="5" t="s">
         <v>1539</v>
       </c>
-      <c r="Q415" s="54" t="s">
+      <c r="Q415" s="52" t="s">
         <v>1540</v>
       </c>
       <c r="V415" s="6" t="s">
@@ -36643,7 +37146,7 @@
       <c r="P416" s="5" t="s">
         <v>1545</v>
       </c>
-      <c r="Q416" s="54" t="s">
+      <c r="Q416" s="52" t="s">
         <v>1546</v>
       </c>
       <c r="V416" s="6" t="s">
@@ -36711,7 +37214,7 @@
       <c r="P417" s="5" t="s">
         <v>1195</v>
       </c>
-      <c r="Q417" s="54" t="s">
+      <c r="Q417" s="52" t="s">
         <v>1546</v>
       </c>
       <c r="V417" s="6" t="s">
@@ -36779,7 +37282,7 @@
       <c r="P418" s="5" t="s">
         <v>1197</v>
       </c>
-      <c r="Q418" s="54" t="s">
+      <c r="Q418" s="52" t="s">
         <v>1540</v>
       </c>
       <c r="V418" s="6" t="s">
@@ -36847,7 +37350,7 @@
       <c r="P419" s="5" t="s">
         <v>1199</v>
       </c>
-      <c r="Q419" s="54" t="s">
+      <c r="Q419" s="52" t="s">
         <v>1191</v>
       </c>
       <c r="V419" s="6" t="s">
@@ -36915,7 +37418,7 @@
       <c r="P420" s="5" t="s">
         <v>1200</v>
       </c>
-      <c r="Q420" s="54" t="s">
+      <c r="Q420" s="52" t="s">
         <v>1540</v>
       </c>
       <c r="V420" s="6" t="s">
@@ -37014,207 +37517,207 @@
         <v>1</v>
       </c>
     </row>
-    <row r="422" spans="1:38" s="55" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A422" s="55">
+    <row r="422" spans="1:38" s="53" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A422" s="53">
         <v>421</v>
       </c>
-      <c r="B422" s="55">
+      <c r="B422" s="53">
         <v>10338</v>
       </c>
-      <c r="F422" s="55">
-        <v>1</v>
-      </c>
-      <c r="G422" s="55" t="s">
+      <c r="F422" s="53">
+        <v>1</v>
+      </c>
+      <c r="G422" s="53" t="s">
         <v>1589</v>
       </c>
-      <c r="H422" s="55" t="s">
+      <c r="H422" s="53" t="s">
         <v>1590</v>
       </c>
-      <c r="I422" s="55" t="s">
+      <c r="I422" s="53" t="s">
         <v>1591</v>
       </c>
-      <c r="K422" s="55">
+      <c r="K422" s="53">
         <v>-31</v>
       </c>
-      <c r="L422" s="55">
-        <v>0</v>
-      </c>
-      <c r="M422" s="55">
-        <v>0</v>
-      </c>
-      <c r="N422" s="55" t="s">
+      <c r="L422" s="53">
+        <v>0</v>
+      </c>
+      <c r="M422" s="53">
+        <v>0</v>
+      </c>
+      <c r="N422" s="53" t="s">
         <v>101</v>
       </c>
-      <c r="O422" s="55">
+      <c r="O422" s="53">
         <v>2000</v>
       </c>
-      <c r="P422" s="55" t="s">
+      <c r="P422" s="53" t="s">
         <v>1592</v>
       </c>
-      <c r="Q422" s="56" t="s">
+      <c r="Q422" s="54" t="s">
         <v>1593</v>
       </c>
-      <c r="V422" s="55" t="s">
+      <c r="V422" s="53" t="s">
         <v>570</v>
       </c>
-      <c r="W422" s="55">
+      <c r="W422" s="53">
         <v>99999999</v>
       </c>
-      <c r="X422" s="55">
+      <c r="X422" s="53">
         <v>1603756800</v>
       </c>
-      <c r="Y422" s="55">
+      <c r="Y422" s="53">
         <v>2552233600</v>
       </c>
-      <c r="Z422" s="55">
+      <c r="Z422" s="53">
         <v>51</v>
       </c>
-      <c r="AG422" s="55">
-        <v>1</v>
-      </c>
-      <c r="AH422" s="55">
-        <v>1</v>
-      </c>
-      <c r="AK422" s="55">
-        <v>1</v>
-      </c>
-      <c r="AL422" s="55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="423" spans="1:38" s="55" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A423" s="55">
+      <c r="AG422" s="53">
+        <v>1</v>
+      </c>
+      <c r="AH422" s="53">
+        <v>1</v>
+      </c>
+      <c r="AK422" s="53">
+        <v>1</v>
+      </c>
+      <c r="AL422" s="53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="423" spans="1:38" s="53" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A423" s="53">
         <v>422</v>
       </c>
-      <c r="B423" s="55">
+      <c r="B423" s="53">
         <v>10339</v>
       </c>
-      <c r="F423" s="55">
-        <v>1</v>
-      </c>
-      <c r="G423" s="55" t="s">
+      <c r="F423" s="53">
+        <v>1</v>
+      </c>
+      <c r="G423" s="53" t="s">
         <v>1563</v>
       </c>
-      <c r="H423" s="55" t="s">
+      <c r="H423" s="53" t="s">
         <v>1590</v>
       </c>
-      <c r="I423" s="55" t="s">
+      <c r="I423" s="53" t="s">
         <v>1594</v>
       </c>
-      <c r="K423" s="55">
+      <c r="K423" s="53">
         <v>-31</v>
       </c>
-      <c r="L423" s="55">
-        <v>0</v>
-      </c>
-      <c r="M423" s="55">
-        <v>0</v>
-      </c>
-      <c r="N423" s="55" t="s">
+      <c r="L423" s="53">
+        <v>0</v>
+      </c>
+      <c r="M423" s="53">
+        <v>0</v>
+      </c>
+      <c r="N423" s="53" t="s">
         <v>101</v>
       </c>
-      <c r="O423" s="55">
+      <c r="O423" s="53">
         <v>5800</v>
       </c>
-      <c r="P423" s="55" t="s">
+      <c r="P423" s="53" t="s">
         <v>1595</v>
       </c>
-      <c r="Q423" s="56" t="s">
+      <c r="Q423" s="54" t="s">
         <v>1596</v>
       </c>
-      <c r="V423" s="55" t="s">
+      <c r="V423" s="53" t="s">
         <v>1597</v>
       </c>
-      <c r="W423" s="55">
+      <c r="W423" s="53">
         <v>99999999</v>
       </c>
-      <c r="X423" s="55">
+      <c r="X423" s="53">
         <v>1603756800</v>
       </c>
-      <c r="Y423" s="55">
+      <c r="Y423" s="53">
         <v>2552233600</v>
       </c>
-      <c r="Z423" s="55">
+      <c r="Z423" s="53">
         <v>51</v>
       </c>
-      <c r="AG423" s="55">
-        <v>1</v>
-      </c>
-      <c r="AH423" s="55">
-        <v>1</v>
-      </c>
-      <c r="AK423" s="55">
-        <v>1</v>
-      </c>
-      <c r="AL423" s="55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="424" spans="1:38" s="55" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A424" s="55">
+      <c r="AG423" s="53">
+        <v>1</v>
+      </c>
+      <c r="AH423" s="53">
+        <v>1</v>
+      </c>
+      <c r="AK423" s="53">
+        <v>1</v>
+      </c>
+      <c r="AL423" s="53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="424" spans="1:38" s="53" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A424" s="53">
         <v>423</v>
       </c>
-      <c r="B424" s="55">
+      <c r="B424" s="53">
         <v>10340</v>
       </c>
-      <c r="F424" s="55">
-        <v>1</v>
-      </c>
-      <c r="G424" s="55" t="s">
+      <c r="F424" s="53">
+        <v>1</v>
+      </c>
+      <c r="G424" s="53" t="s">
         <v>1598</v>
       </c>
-      <c r="H424" s="55" t="s">
+      <c r="H424" s="53" t="s">
         <v>1599</v>
       </c>
-      <c r="I424" s="55" t="s">
+      <c r="I424" s="53" t="s">
         <v>1600</v>
       </c>
-      <c r="K424" s="55">
+      <c r="K424" s="53">
         <v>-31</v>
       </c>
-      <c r="L424" s="55">
-        <v>0</v>
-      </c>
-      <c r="M424" s="55">
-        <v>0</v>
-      </c>
-      <c r="N424" s="55" t="s">
+      <c r="L424" s="53">
+        <v>0</v>
+      </c>
+      <c r="M424" s="53">
+        <v>0</v>
+      </c>
+      <c r="N424" s="53" t="s">
         <v>101</v>
       </c>
-      <c r="O424" s="55">
+      <c r="O424" s="53">
         <v>12800</v>
       </c>
-      <c r="P424" s="55" t="s">
+      <c r="P424" s="53" t="s">
         <v>1601</v>
       </c>
-      <c r="Q424" s="56" t="s">
+      <c r="Q424" s="54" t="s">
         <v>1602</v>
       </c>
-      <c r="V424" s="55" t="s">
+      <c r="V424" s="53" t="s">
         <v>1597</v>
       </c>
-      <c r="W424" s="55">
+      <c r="W424" s="53">
         <v>99999999</v>
       </c>
-      <c r="X424" s="55">
+      <c r="X424" s="53">
         <v>1603756800</v>
       </c>
-      <c r="Y424" s="55">
+      <c r="Y424" s="53">
         <v>2552233600</v>
       </c>
-      <c r="Z424" s="55">
+      <c r="Z424" s="53">
         <v>51</v>
       </c>
-      <c r="AG424" s="55">
-        <v>1</v>
-      </c>
-      <c r="AH424" s="55">
-        <v>1</v>
-      </c>
-      <c r="AK424" s="55">
-        <v>1</v>
-      </c>
-      <c r="AL424" s="55">
+      <c r="AG424" s="53">
+        <v>1</v>
+      </c>
+      <c r="AH424" s="53">
+        <v>1</v>
+      </c>
+      <c r="AK424" s="53">
+        <v>1</v>
+      </c>
+      <c r="AL424" s="53">
         <v>1</v>
       </c>
     </row>
@@ -37252,7 +37755,7 @@
       <c r="P425" s="6" t="s">
         <v>1567</v>
       </c>
-      <c r="Q425" s="54" t="s">
+      <c r="Q425" s="52" t="s">
         <v>1568</v>
       </c>
       <c r="V425" s="6" t="s">
@@ -37308,7 +37811,7 @@
       <c r="P426" s="6" t="s">
         <v>1571</v>
       </c>
-      <c r="Q426" s="54" t="s">
+      <c r="Q426" s="52" t="s">
         <v>1568</v>
       </c>
       <c r="V426" s="6" t="s">
@@ -37364,7 +37867,7 @@
       <c r="P427" s="6" t="s">
         <v>1574</v>
       </c>
-      <c r="Q427" s="54" t="s">
+      <c r="Q427" s="52" t="s">
         <v>657</v>
       </c>
       <c r="V427" s="6" t="s">
@@ -37420,7 +37923,7 @@
       <c r="P428" s="6" t="s">
         <v>1577</v>
       </c>
-      <c r="Q428" s="54" t="s">
+      <c r="Q428" s="52" t="s">
         <v>1568</v>
       </c>
       <c r="V428" s="6" t="s">
@@ -37476,7 +37979,7 @@
       <c r="P429" s="6" t="s">
         <v>1580</v>
       </c>
-      <c r="Q429" s="54" t="s">
+      <c r="Q429" s="52" t="s">
         <v>657</v>
       </c>
       <c r="V429" s="6" t="s">
@@ -37770,830 +38273,2757 @@
         <v>1</v>
       </c>
     </row>
-    <row r="434" spans="1:38" s="57" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A434" s="57">
+    <row r="434" spans="1:38" s="55" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A434" s="55">
         <v>433</v>
       </c>
-      <c r="B434" s="57">
+      <c r="B434" s="55">
         <v>10350</v>
       </c>
-      <c r="F434" s="57">
-        <v>1</v>
-      </c>
-      <c r="G434" s="57" t="s">
+      <c r="F434" s="55">
+        <v>1</v>
+      </c>
+      <c r="G434" s="55" t="s">
         <v>1606</v>
       </c>
-      <c r="H434" s="57" t="s">
+      <c r="H434" s="55" t="s">
         <v>1607</v>
       </c>
-      <c r="I434" s="57" t="s">
+      <c r="I434" s="55" t="s">
         <v>1608</v>
       </c>
-      <c r="K434" s="57">
+      <c r="K434" s="55">
         <v>-31</v>
       </c>
-      <c r="L434" s="57">
-        <v>0</v>
-      </c>
-      <c r="M434" s="57">
-        <v>0</v>
-      </c>
-      <c r="N434" s="57" t="s">
+      <c r="L434" s="55">
+        <v>0</v>
+      </c>
+      <c r="M434" s="55">
+        <v>0</v>
+      </c>
+      <c r="N434" s="55" t="s">
         <v>101</v>
       </c>
-      <c r="O434" s="57">
+      <c r="O434" s="55">
         <v>1800</v>
       </c>
-      <c r="P434" s="57" t="s">
+      <c r="P434" s="55" t="s">
         <v>1609</v>
       </c>
-      <c r="Q434" s="58" t="s">
+      <c r="Q434" s="56" t="s">
         <v>1610</v>
       </c>
-      <c r="V434" s="57" t="s">
+      <c r="V434" s="55" t="s">
         <v>529</v>
       </c>
-      <c r="W434" s="57">
+      <c r="W434" s="55">
         <v>9999999</v>
       </c>
-      <c r="X434" s="57">
+      <c r="X434" s="55">
         <v>1604359800</v>
       </c>
-      <c r="Y434" s="57">
+      <c r="Y434" s="55">
         <v>1604937599</v>
       </c>
-      <c r="AG434" s="57">
-        <v>1</v>
-      </c>
-      <c r="AH434" s="57">
-        <v>1</v>
-      </c>
-      <c r="AK434" s="57">
-        <v>1</v>
-      </c>
-      <c r="AL434" s="57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="435" spans="1:38" s="57" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A435" s="57">
+      <c r="AG434" s="55">
+        <v>1</v>
+      </c>
+      <c r="AH434" s="55">
+        <v>1</v>
+      </c>
+      <c r="AK434" s="55">
+        <v>1</v>
+      </c>
+      <c r="AL434" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="435" spans="1:38" s="55" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A435" s="55">
         <v>434</v>
       </c>
-      <c r="B435" s="57">
+      <c r="B435" s="55">
         <v>10351</v>
       </c>
-      <c r="F435" s="57">
-        <v>1</v>
-      </c>
-      <c r="G435" s="57" t="s">
+      <c r="F435" s="55">
+        <v>1</v>
+      </c>
+      <c r="G435" s="55" t="s">
         <v>1611</v>
       </c>
-      <c r="H435" s="57" t="s">
+      <c r="H435" s="55" t="s">
         <v>1607</v>
       </c>
-      <c r="I435" s="57" t="s">
+      <c r="I435" s="55" t="s">
         <v>1612</v>
       </c>
-      <c r="K435" s="57">
+      <c r="K435" s="55">
         <v>-31</v>
       </c>
-      <c r="L435" s="57">
-        <v>0</v>
-      </c>
-      <c r="M435" s="57">
-        <v>0</v>
-      </c>
-      <c r="N435" s="57" t="s">
+      <c r="L435" s="55">
+        <v>0</v>
+      </c>
+      <c r="M435" s="55">
+        <v>0</v>
+      </c>
+      <c r="N435" s="55" t="s">
         <v>101</v>
       </c>
-      <c r="O435" s="57">
+      <c r="O435" s="55">
         <v>4800</v>
       </c>
-      <c r="P435" s="57" t="s">
+      <c r="P435" s="55" t="s">
         <v>1609</v>
       </c>
-      <c r="Q435" s="58" t="s">
+      <c r="Q435" s="56" t="s">
         <v>1613</v>
       </c>
-      <c r="V435" s="57" t="s">
+      <c r="V435" s="55" t="s">
         <v>529</v>
       </c>
-      <c r="W435" s="57">
+      <c r="W435" s="55">
         <v>9999999</v>
       </c>
-      <c r="X435" s="57">
+      <c r="X435" s="55">
         <v>1604359800</v>
       </c>
-      <c r="Y435" s="57">
+      <c r="Y435" s="55">
         <v>1604937599</v>
       </c>
-      <c r="AG435" s="57">
-        <v>1</v>
-      </c>
-      <c r="AH435" s="57">
-        <v>1</v>
-      </c>
-      <c r="AK435" s="57">
-        <v>1</v>
-      </c>
-      <c r="AL435" s="57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="436" spans="1:38" s="57" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A436" s="57">
+      <c r="AG435" s="55">
+        <v>1</v>
+      </c>
+      <c r="AH435" s="55">
+        <v>1</v>
+      </c>
+      <c r="AK435" s="55">
+        <v>1</v>
+      </c>
+      <c r="AL435" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="436" spans="1:38" s="55" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A436" s="55">
         <v>435</v>
       </c>
-      <c r="B436" s="57">
+      <c r="B436" s="55">
         <v>10352</v>
       </c>
-      <c r="F436" s="57">
-        <v>1</v>
-      </c>
-      <c r="G436" s="57" t="s">
+      <c r="F436" s="55">
+        <v>1</v>
+      </c>
+      <c r="G436" s="55" t="s">
         <v>1614</v>
       </c>
-      <c r="H436" s="57" t="s">
+      <c r="H436" s="55" t="s">
         <v>1615</v>
       </c>
-      <c r="I436" s="57" t="s">
+      <c r="I436" s="55" t="s">
         <v>1616</v>
       </c>
-      <c r="K436" s="57">
+      <c r="K436" s="55">
         <v>-31</v>
       </c>
-      <c r="L436" s="57">
-        <v>0</v>
-      </c>
-      <c r="M436" s="57">
-        <v>0</v>
-      </c>
-      <c r="N436" s="57" t="s">
+      <c r="L436" s="55">
+        <v>0</v>
+      </c>
+      <c r="M436" s="55">
+        <v>0</v>
+      </c>
+      <c r="N436" s="55" t="s">
         <v>101</v>
       </c>
-      <c r="O436" s="57">
+      <c r="O436" s="55">
         <v>9800</v>
       </c>
-      <c r="P436" s="57" t="s">
+      <c r="P436" s="55" t="s">
         <v>1617</v>
       </c>
-      <c r="Q436" s="58" t="s">
+      <c r="Q436" s="56" t="s">
         <v>1618</v>
       </c>
-      <c r="V436" s="57" t="s">
+      <c r="V436" s="55" t="s">
         <v>529</v>
       </c>
-      <c r="W436" s="57">
+      <c r="W436" s="55">
         <v>9999999</v>
       </c>
-      <c r="X436" s="57">
+      <c r="X436" s="55">
         <v>1604359800</v>
       </c>
-      <c r="Y436" s="57">
+      <c r="Y436" s="55">
         <v>1604937599</v>
       </c>
-      <c r="AG436" s="57">
-        <v>1</v>
-      </c>
-      <c r="AH436" s="57">
-        <v>1</v>
-      </c>
-      <c r="AK436" s="57">
-        <v>1</v>
-      </c>
-      <c r="AL436" s="57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="437" spans="1:38" s="57" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A437" s="57">
+      <c r="AG436" s="55">
+        <v>1</v>
+      </c>
+      <c r="AH436" s="55">
+        <v>1</v>
+      </c>
+      <c r="AK436" s="55">
+        <v>1</v>
+      </c>
+      <c r="AL436" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="437" spans="1:38" s="55" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A437" s="55">
         <v>436</v>
       </c>
-      <c r="B437" s="57">
+      <c r="B437" s="55">
         <v>10353</v>
       </c>
-      <c r="F437" s="57">
-        <v>1</v>
-      </c>
-      <c r="G437" s="57" t="s">
+      <c r="F437" s="55">
+        <v>1</v>
+      </c>
+      <c r="G437" s="55" t="s">
         <v>1619</v>
       </c>
-      <c r="H437" s="57" t="s">
+      <c r="H437" s="55" t="s">
         <v>1607</v>
       </c>
-      <c r="I437" s="57" t="s">
+      <c r="I437" s="55" t="s">
         <v>1620</v>
       </c>
-      <c r="K437" s="57">
+      <c r="K437" s="55">
         <v>-31</v>
       </c>
-      <c r="L437" s="57">
-        <v>0</v>
-      </c>
-      <c r="M437" s="57">
-        <v>0</v>
-      </c>
-      <c r="N437" s="57" t="s">
+      <c r="L437" s="55">
+        <v>0</v>
+      </c>
+      <c r="M437" s="55">
+        <v>0</v>
+      </c>
+      <c r="N437" s="55" t="s">
         <v>101</v>
       </c>
-      <c r="O437" s="57">
+      <c r="O437" s="55">
         <v>19800</v>
       </c>
-      <c r="P437" s="57" t="s">
+      <c r="P437" s="55" t="s">
         <v>1621</v>
       </c>
-      <c r="Q437" s="58" t="s">
+      <c r="Q437" s="56" t="s">
         <v>1622</v>
       </c>
-      <c r="V437" s="57" t="s">
+      <c r="V437" s="55" t="s">
         <v>529</v>
       </c>
-      <c r="W437" s="57">
+      <c r="W437" s="55">
         <v>9999999</v>
       </c>
-      <c r="X437" s="57">
+      <c r="X437" s="55">
         <v>1604359800</v>
       </c>
-      <c r="Y437" s="57">
+      <c r="Y437" s="55">
         <v>1604937599</v>
       </c>
-      <c r="AG437" s="57">
-        <v>1</v>
-      </c>
-      <c r="AH437" s="57">
-        <v>1</v>
-      </c>
-      <c r="AK437" s="57">
-        <v>1</v>
-      </c>
-      <c r="AL437" s="57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="438" spans="1:38" s="57" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A438" s="57">
+      <c r="AG437" s="55">
+        <v>1</v>
+      </c>
+      <c r="AH437" s="55">
+        <v>1</v>
+      </c>
+      <c r="AK437" s="55">
+        <v>1</v>
+      </c>
+      <c r="AL437" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="438" spans="1:38" s="55" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A438" s="55">
         <v>437</v>
       </c>
-      <c r="B438" s="57">
+      <c r="B438" s="55">
         <v>10354</v>
       </c>
-      <c r="F438" s="57">
-        <v>1</v>
-      </c>
-      <c r="G438" s="57" t="s">
+      <c r="F438" s="55">
+        <v>1</v>
+      </c>
+      <c r="G438" s="55" t="s">
         <v>1623</v>
       </c>
-      <c r="H438" s="57" t="s">
+      <c r="H438" s="55" t="s">
         <v>1624</v>
       </c>
-      <c r="I438" s="57" t="s">
+      <c r="I438" s="55" t="s">
         <v>1625</v>
       </c>
-      <c r="K438" s="57">
+      <c r="K438" s="55">
         <v>-31</v>
       </c>
-      <c r="L438" s="57">
-        <v>0</v>
-      </c>
-      <c r="M438" s="57">
-        <v>0</v>
-      </c>
-      <c r="N438" s="57" t="s">
+      <c r="L438" s="55">
+        <v>0</v>
+      </c>
+      <c r="M438" s="55">
+        <v>0</v>
+      </c>
+      <c r="N438" s="55" t="s">
         <v>101</v>
       </c>
-      <c r="O438" s="57">
+      <c r="O438" s="55">
         <v>29800</v>
       </c>
-      <c r="P438" s="57" t="s">
+      <c r="P438" s="55" t="s">
         <v>1621</v>
       </c>
-      <c r="Q438" s="58" t="s">
+      <c r="Q438" s="56" t="s">
         <v>1626</v>
       </c>
-      <c r="V438" s="57" t="s">
+      <c r="V438" s="55" t="s">
         <v>529</v>
       </c>
-      <c r="W438" s="57">
+      <c r="W438" s="55">
         <v>9999999</v>
       </c>
-      <c r="X438" s="57">
+      <c r="X438" s="55">
         <v>1604359800</v>
       </c>
-      <c r="Y438" s="57">
+      <c r="Y438" s="55">
         <v>1604937599</v>
       </c>
-      <c r="AG438" s="57">
-        <v>1</v>
-      </c>
-      <c r="AH438" s="57">
-        <v>1</v>
-      </c>
-      <c r="AK438" s="57">
-        <v>1</v>
-      </c>
-      <c r="AL438" s="57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="439" spans="1:38" s="57" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A439" s="57">
+      <c r="AG438" s="55">
+        <v>1</v>
+      </c>
+      <c r="AH438" s="55">
+        <v>1</v>
+      </c>
+      <c r="AK438" s="55">
+        <v>1</v>
+      </c>
+      <c r="AL438" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="439" spans="1:38" s="55" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A439" s="55">
         <v>438</v>
       </c>
-      <c r="B439" s="57">
+      <c r="B439" s="55">
         <v>10355</v>
       </c>
-      <c r="F439" s="57">
-        <v>1</v>
-      </c>
-      <c r="G439" s="57" t="s">
+      <c r="F439" s="55">
+        <v>1</v>
+      </c>
+      <c r="G439" s="55" t="s">
         <v>1627</v>
       </c>
-      <c r="H439" s="57" t="s">
+      <c r="H439" s="55" t="s">
         <v>1624</v>
       </c>
-      <c r="I439" s="57" t="s">
+      <c r="I439" s="55" t="s">
         <v>1628</v>
       </c>
-      <c r="K439" s="57">
+      <c r="K439" s="55">
         <v>-31</v>
       </c>
-      <c r="L439" s="57">
-        <v>0</v>
-      </c>
-      <c r="M439" s="57">
-        <v>0</v>
-      </c>
-      <c r="N439" s="57" t="s">
+      <c r="L439" s="55">
+        <v>0</v>
+      </c>
+      <c r="M439" s="55">
+        <v>0</v>
+      </c>
+      <c r="N439" s="55" t="s">
         <v>101</v>
       </c>
-      <c r="O439" s="57">
+      <c r="O439" s="55">
         <v>49800</v>
       </c>
-      <c r="P439" s="57" t="s">
+      <c r="P439" s="55" t="s">
         <v>1629</v>
       </c>
-      <c r="Q439" s="58" t="s">
+      <c r="Q439" s="56" t="s">
         <v>1630</v>
       </c>
-      <c r="V439" s="57" t="s">
+      <c r="V439" s="55" t="s">
         <v>529</v>
       </c>
-      <c r="W439" s="57">
+      <c r="W439" s="55">
         <v>9999999</v>
       </c>
-      <c r="X439" s="57">
+      <c r="X439" s="55">
         <v>1604359800</v>
       </c>
-      <c r="Y439" s="57">
+      <c r="Y439" s="55">
         <v>1604937599</v>
       </c>
-      <c r="AG439" s="57">
-        <v>1</v>
-      </c>
-      <c r="AH439" s="57">
-        <v>1</v>
-      </c>
-      <c r="AK439" s="57">
-        <v>1</v>
-      </c>
-      <c r="AL439" s="57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="440" spans="1:38" s="57" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A440" s="57">
+      <c r="AG439" s="55">
+        <v>1</v>
+      </c>
+      <c r="AH439" s="55">
+        <v>1</v>
+      </c>
+      <c r="AK439" s="55">
+        <v>1</v>
+      </c>
+      <c r="AL439" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="440" spans="1:38" s="55" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A440" s="55">
         <v>439</v>
       </c>
-      <c r="B440" s="57">
+      <c r="B440" s="55">
         <v>10356</v>
       </c>
-      <c r="F440" s="57">
-        <v>1</v>
-      </c>
-      <c r="G440" s="57" t="s">
+      <c r="F440" s="55">
+        <v>1</v>
+      </c>
+      <c r="G440" s="55" t="s">
         <v>1631</v>
       </c>
-      <c r="H440" s="57" t="s">
+      <c r="H440" s="55" t="s">
         <v>1624</v>
       </c>
-      <c r="I440" s="57" t="s">
+      <c r="I440" s="55" t="s">
         <v>1632</v>
       </c>
-      <c r="K440" s="57">
+      <c r="K440" s="55">
         <v>-31</v>
       </c>
-      <c r="L440" s="57">
-        <v>0</v>
-      </c>
-      <c r="M440" s="57">
-        <v>0</v>
-      </c>
-      <c r="N440" s="57" t="s">
+      <c r="L440" s="55">
+        <v>0</v>
+      </c>
+      <c r="M440" s="55">
+        <v>0</v>
+      </c>
+      <c r="N440" s="55" t="s">
         <v>101</v>
       </c>
-      <c r="O440" s="57">
+      <c r="O440" s="55">
         <v>99800</v>
       </c>
-      <c r="P440" s="57" t="s">
+      <c r="P440" s="55" t="s">
         <v>1629</v>
       </c>
-      <c r="Q440" s="58" t="s">
+      <c r="Q440" s="56" t="s">
         <v>1633</v>
       </c>
-      <c r="V440" s="57" t="s">
+      <c r="V440" s="55" t="s">
         <v>529</v>
       </c>
-      <c r="W440" s="57">
+      <c r="W440" s="55">
         <v>9999999</v>
       </c>
-      <c r="X440" s="57">
+      <c r="X440" s="55">
         <v>1604359800</v>
       </c>
-      <c r="Y440" s="57">
+      <c r="Y440" s="55">
         <v>1604937599</v>
       </c>
-      <c r="AG440" s="57">
-        <v>1</v>
-      </c>
-      <c r="AH440" s="57">
-        <v>1</v>
-      </c>
-      <c r="AK440" s="57">
-        <v>1</v>
-      </c>
-      <c r="AL440" s="57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="441" spans="1:38" s="55" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A441" s="55">
+      <c r="AG440" s="55">
+        <v>1</v>
+      </c>
+      <c r="AH440" s="55">
+        <v>1</v>
+      </c>
+      <c r="AK440" s="55">
+        <v>1</v>
+      </c>
+      <c r="AL440" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="441" spans="1:38" s="53" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A441" s="53">
         <v>440</v>
       </c>
-      <c r="B441" s="55">
+      <c r="B441" s="53">
         <v>10357</v>
       </c>
-      <c r="F441" s="55">
-        <v>1</v>
-      </c>
-      <c r="G441" s="55" t="s">
+      <c r="F441" s="53">
+        <v>1</v>
+      </c>
+      <c r="G441" s="53" t="s">
         <v>1634</v>
       </c>
-      <c r="I441" s="55" t="s">
+      <c r="I441" s="53" t="s">
         <v>1635</v>
       </c>
-      <c r="K441" s="55">
+      <c r="K441" s="53">
         <v>-31</v>
       </c>
-      <c r="L441" s="55">
-        <v>0</v>
-      </c>
-      <c r="M441" s="55">
-        <v>0</v>
-      </c>
-      <c r="N441" s="55" t="s">
+      <c r="L441" s="53">
+        <v>0</v>
+      </c>
+      <c r="M441" s="53">
+        <v>0</v>
+      </c>
+      <c r="N441" s="53" t="s">
         <v>101</v>
       </c>
-      <c r="O441" s="55">
+      <c r="O441" s="53">
         <v>49800</v>
       </c>
-      <c r="P441" s="55" t="s">
+      <c r="P441" s="53" t="s">
         <v>1636</v>
       </c>
-      <c r="Q441" s="56" t="s">
+      <c r="Q441" s="54" t="s">
         <v>1637</v>
       </c>
-      <c r="V441" s="55" t="s">
+      <c r="V441" s="53" t="s">
         <v>1638</v>
       </c>
-      <c r="W441" s="55">
+      <c r="W441" s="53">
         <v>9999999</v>
       </c>
-      <c r="X441" s="55">
+      <c r="X441" s="53">
         <v>1604966400</v>
       </c>
-      <c r="Y441" s="55">
+      <c r="Y441" s="53">
         <v>1605542399</v>
       </c>
-      <c r="AG441" s="55">
-        <v>1</v>
-      </c>
-      <c r="AH441" s="55">
-        <v>1</v>
-      </c>
-      <c r="AK441" s="55">
-        <v>1</v>
-      </c>
-      <c r="AL441" s="55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="442" spans="1:38" s="55" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A442" s="55">
+      <c r="AG441" s="53">
+        <v>1</v>
+      </c>
+      <c r="AH441" s="53">
+        <v>1</v>
+      </c>
+      <c r="AK441" s="53">
+        <v>1</v>
+      </c>
+      <c r="AL441" s="53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="442" spans="1:38" s="53" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A442" s="53">
         <v>441</v>
       </c>
-      <c r="B442" s="55">
+      <c r="B442" s="53">
         <v>10358</v>
       </c>
-      <c r="F442" s="55">
-        <v>1</v>
-      </c>
-      <c r="G442" s="55" t="s">
+      <c r="F442" s="53">
+        <v>1</v>
+      </c>
+      <c r="G442" s="53" t="s">
         <v>1639</v>
       </c>
-      <c r="I442" s="55" t="s">
+      <c r="I442" s="53" t="s">
         <v>1640</v>
       </c>
-      <c r="K442" s="55">
+      <c r="K442" s="53">
         <v>-31</v>
       </c>
-      <c r="L442" s="55">
-        <v>0</v>
-      </c>
-      <c r="M442" s="55">
-        <v>0</v>
-      </c>
-      <c r="N442" s="55" t="s">
+      <c r="L442" s="53">
+        <v>0</v>
+      </c>
+      <c r="M442" s="53">
+        <v>0</v>
+      </c>
+      <c r="N442" s="53" t="s">
         <v>101</v>
       </c>
-      <c r="O442" s="55">
+      <c r="O442" s="53">
         <v>19800</v>
       </c>
-      <c r="P442" s="55" t="s">
+      <c r="P442" s="53" t="s">
         <v>1636</v>
       </c>
-      <c r="Q442" s="56" t="s">
+      <c r="Q442" s="54" t="s">
         <v>1641</v>
       </c>
-      <c r="V442" s="55" t="s">
+      <c r="V442" s="53" t="s">
         <v>1638</v>
       </c>
-      <c r="W442" s="55">
+      <c r="W442" s="53">
         <v>9999999</v>
       </c>
-      <c r="X442" s="55">
+      <c r="X442" s="53">
         <v>1604966400</v>
       </c>
-      <c r="Y442" s="55">
+      <c r="Y442" s="53">
         <v>1605542399</v>
       </c>
-      <c r="AG442" s="55">
-        <v>1</v>
-      </c>
-      <c r="AH442" s="55">
-        <v>1</v>
-      </c>
-      <c r="AK442" s="55">
-        <v>1</v>
-      </c>
-      <c r="AL442" s="55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="443" spans="1:38" s="55" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A443" s="55">
+      <c r="AG442" s="53">
+        <v>1</v>
+      </c>
+      <c r="AH442" s="53">
+        <v>1</v>
+      </c>
+      <c r="AK442" s="53">
+        <v>1</v>
+      </c>
+      <c r="AL442" s="53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="443" spans="1:38" s="53" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A443" s="53">
         <v>442</v>
       </c>
-      <c r="B443" s="55">
+      <c r="B443" s="53">
         <v>10359</v>
       </c>
-      <c r="F443" s="55">
-        <v>1</v>
-      </c>
-      <c r="G443" s="55" t="s">
+      <c r="F443" s="53">
+        <v>1</v>
+      </c>
+      <c r="G443" s="53" t="s">
         <v>1642</v>
       </c>
-      <c r="I443" s="55" t="s">
+      <c r="I443" s="53" t="s">
         <v>1643</v>
       </c>
-      <c r="K443" s="55">
+      <c r="K443" s="53">
         <v>-31</v>
       </c>
-      <c r="L443" s="55">
-        <v>0</v>
-      </c>
-      <c r="M443" s="55">
-        <v>0</v>
-      </c>
-      <c r="N443" s="55" t="s">
+      <c r="L443" s="53">
+        <v>0</v>
+      </c>
+      <c r="M443" s="53">
+        <v>0</v>
+      </c>
+      <c r="N443" s="53" t="s">
         <v>101</v>
       </c>
-      <c r="O443" s="55">
+      <c r="O443" s="53">
         <v>9800</v>
       </c>
-      <c r="P443" s="55" t="s">
+      <c r="P443" s="53" t="s">
         <v>1644</v>
       </c>
-      <c r="Q443" s="56" t="s">
+      <c r="Q443" s="54" t="s">
         <v>1645</v>
       </c>
-      <c r="V443" s="55" t="s">
+      <c r="V443" s="53" t="s">
         <v>1638</v>
       </c>
-      <c r="W443" s="55">
+      <c r="W443" s="53">
         <v>9999999</v>
       </c>
-      <c r="X443" s="55">
+      <c r="X443" s="53">
         <v>1604966400</v>
       </c>
-      <c r="Y443" s="55">
+      <c r="Y443" s="53">
         <v>1605542399</v>
       </c>
-      <c r="AG443" s="55">
-        <v>1</v>
-      </c>
-      <c r="AH443" s="55">
-        <v>1</v>
-      </c>
-      <c r="AK443" s="55">
-        <v>1</v>
-      </c>
-      <c r="AL443" s="55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="444" spans="1:38" s="55" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A444" s="55">
+      <c r="AG443" s="53">
+        <v>1</v>
+      </c>
+      <c r="AH443" s="53">
+        <v>1</v>
+      </c>
+      <c r="AK443" s="53">
+        <v>1</v>
+      </c>
+      <c r="AL443" s="53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="444" spans="1:38" s="53" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A444" s="53">
         <v>443</v>
       </c>
-      <c r="B444" s="55">
+      <c r="B444" s="53">
         <v>10360</v>
       </c>
-      <c r="F444" s="55">
-        <v>1</v>
-      </c>
-      <c r="G444" s="55" t="s">
+      <c r="F444" s="53">
+        <v>1</v>
+      </c>
+      <c r="G444" s="53" t="s">
         <v>1646</v>
       </c>
-      <c r="I444" s="55" t="s">
+      <c r="I444" s="53" t="s">
         <v>1647</v>
       </c>
-      <c r="K444" s="55">
+      <c r="K444" s="53">
         <v>-31</v>
       </c>
-      <c r="L444" s="55">
-        <v>0</v>
-      </c>
-      <c r="M444" s="55">
-        <v>0</v>
-      </c>
-      <c r="N444" s="55" t="s">
+      <c r="L444" s="53">
+        <v>0</v>
+      </c>
+      <c r="M444" s="53">
+        <v>0</v>
+      </c>
+      <c r="N444" s="53" t="s">
         <v>101</v>
       </c>
-      <c r="O444" s="55">
+      <c r="O444" s="53">
         <v>4800</v>
       </c>
-      <c r="P444" s="55" t="s">
+      <c r="P444" s="53" t="s">
         <v>1636</v>
       </c>
-      <c r="Q444" s="56" t="s">
+      <c r="Q444" s="54" t="s">
         <v>1648</v>
       </c>
-      <c r="V444" s="55" t="s">
+      <c r="V444" s="53" t="s">
         <v>1638</v>
       </c>
-      <c r="W444" s="55">
+      <c r="W444" s="53">
         <v>9999999</v>
       </c>
-      <c r="X444" s="55">
+      <c r="X444" s="53">
         <v>1604966400</v>
       </c>
-      <c r="Y444" s="55">
+      <c r="Y444" s="53">
         <v>1605542399</v>
       </c>
-      <c r="AG444" s="55">
-        <v>1</v>
-      </c>
-      <c r="AH444" s="55">
-        <v>1</v>
-      </c>
-      <c r="AK444" s="55">
-        <v>1</v>
-      </c>
-      <c r="AL444" s="55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="445" spans="1:38" s="55" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A445" s="55">
+      <c r="AG444" s="53">
+        <v>1</v>
+      </c>
+      <c r="AH444" s="53">
+        <v>1</v>
+      </c>
+      <c r="AK444" s="53">
+        <v>1</v>
+      </c>
+      <c r="AL444" s="53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="445" spans="1:38" s="53" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A445" s="53">
         <v>444</v>
       </c>
-      <c r="B445" s="55">
+      <c r="B445" s="53">
         <v>10361</v>
       </c>
-      <c r="F445" s="55">
-        <v>1</v>
-      </c>
-      <c r="G445" s="55" t="s">
+      <c r="F445" s="53">
+        <v>1</v>
+      </c>
+      <c r="G445" s="53" t="s">
         <v>1649</v>
       </c>
-      <c r="I445" s="55" t="s">
+      <c r="I445" s="53" t="s">
         <v>1650</v>
       </c>
-      <c r="K445" s="55">
+      <c r="K445" s="53">
         <v>-31</v>
       </c>
-      <c r="L445" s="55">
-        <v>0</v>
-      </c>
-      <c r="M445" s="55">
-        <v>0</v>
-      </c>
-      <c r="N445" s="55" t="s">
+      <c r="L445" s="53">
+        <v>0</v>
+      </c>
+      <c r="M445" s="53">
+        <v>0</v>
+      </c>
+      <c r="N445" s="53" t="s">
         <v>101</v>
       </c>
-      <c r="O445" s="55">
+      <c r="O445" s="53">
         <v>2000</v>
       </c>
-      <c r="P445" s="55" t="s">
+      <c r="P445" s="53" t="s">
         <v>1636</v>
       </c>
-      <c r="Q445" s="56" t="s">
+      <c r="Q445" s="54" t="s">
         <v>1651</v>
       </c>
-      <c r="V445" s="55" t="s">
+      <c r="V445" s="53" t="s">
         <v>1652</v>
       </c>
-      <c r="W445" s="55">
+      <c r="W445" s="53">
         <v>9999999</v>
       </c>
-      <c r="X445" s="55">
+      <c r="X445" s="53">
         <v>1604966400</v>
       </c>
-      <c r="Y445" s="55">
+      <c r="Y445" s="53">
         <v>1605542399</v>
       </c>
-      <c r="AG445" s="55">
-        <v>1</v>
-      </c>
-      <c r="AH445" s="55">
-        <v>1</v>
-      </c>
-      <c r="AK445" s="55">
-        <v>1</v>
-      </c>
-      <c r="AL445" s="55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="446" spans="1:38" s="55" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A446" s="55">
+      <c r="AG445" s="53">
+        <v>1</v>
+      </c>
+      <c r="AH445" s="53">
+        <v>1</v>
+      </c>
+      <c r="AK445" s="53">
+        <v>1</v>
+      </c>
+      <c r="AL445" s="53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="446" spans="1:38" s="53" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A446" s="53">
         <v>445</v>
       </c>
-      <c r="B446" s="55">
+      <c r="B446" s="53">
         <v>10362</v>
       </c>
-      <c r="F446" s="55">
-        <v>1</v>
-      </c>
-      <c r="G446" s="55" t="s">
+      <c r="F446" s="53">
+        <v>1</v>
+      </c>
+      <c r="G446" s="53" t="s">
         <v>1653</v>
       </c>
-      <c r="I446" s="55" t="s">
+      <c r="I446" s="53" t="s">
         <v>1654</v>
       </c>
-      <c r="K446" s="55">
+      <c r="K446" s="53">
         <v>-31</v>
       </c>
-      <c r="L446" s="55">
-        <v>0</v>
-      </c>
-      <c r="M446" s="55">
-        <v>0</v>
-      </c>
-      <c r="N446" s="55" t="s">
+      <c r="L446" s="53">
+        <v>0</v>
+      </c>
+      <c r="M446" s="53">
+        <v>0</v>
+      </c>
+      <c r="N446" s="53" t="s">
         <v>101</v>
       </c>
-      <c r="O446" s="55">
+      <c r="O446" s="53">
         <v>600</v>
       </c>
-      <c r="P446" s="55" t="s">
+      <c r="P446" s="53" t="s">
         <v>1644</v>
       </c>
-      <c r="Q446" s="56" t="s">
+      <c r="Q446" s="54" t="s">
         <v>1655</v>
       </c>
-      <c r="V446" s="55" t="s">
+      <c r="V446" s="53" t="s">
         <v>1652</v>
       </c>
-      <c r="W446" s="55">
+      <c r="W446" s="53">
         <v>9999999</v>
       </c>
-      <c r="X446" s="55">
+      <c r="X446" s="53">
         <v>1604966400</v>
       </c>
-      <c r="Y446" s="55">
+      <c r="Y446" s="53">
         <v>1605542399</v>
       </c>
-      <c r="AG446" s="55">
-        <v>1</v>
-      </c>
-      <c r="AH446" s="55">
-        <v>1</v>
-      </c>
-      <c r="AK446" s="55">
-        <v>1</v>
-      </c>
-      <c r="AL446" s="55">
+      <c r="AG446" s="53">
+        <v>1</v>
+      </c>
+      <c r="AH446" s="53">
+        <v>1</v>
+      </c>
+      <c r="AK446" s="53">
+        <v>1</v>
+      </c>
+      <c r="AL446" s="53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="447" spans="1:38" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A447" s="59">
+        <v>446</v>
+      </c>
+      <c r="B447" s="59">
+        <v>10363</v>
+      </c>
+      <c r="F447" s="59">
+        <v>1</v>
+      </c>
+      <c r="G447" s="59" t="s">
+        <v>1670</v>
+      </c>
+      <c r="H447" s="59" t="s">
+        <v>1671</v>
+      </c>
+      <c r="I447" s="59" t="s">
+        <v>1672</v>
+      </c>
+      <c r="K447" s="59">
+        <v>-31</v>
+      </c>
+      <c r="L447" s="59">
+        <v>0</v>
+      </c>
+      <c r="M447" s="59">
+        <v>0</v>
+      </c>
+      <c r="N447" s="59" t="s">
+        <v>101</v>
+      </c>
+      <c r="O447" s="59">
+        <v>800</v>
+      </c>
+      <c r="P447" s="59" t="s">
+        <v>1673</v>
+      </c>
+      <c r="Q447" s="60" t="s">
+        <v>1674</v>
+      </c>
+      <c r="V447" s="5" t="s">
+        <v>1675</v>
+      </c>
+      <c r="W447" s="59">
+        <v>9999999</v>
+      </c>
+      <c r="X447" s="59">
+        <v>1605571200</v>
+      </c>
+      <c r="Y447" s="59">
+        <v>2552233600</v>
+      </c>
+      <c r="Z447" s="59">
+        <v>52</v>
+      </c>
+      <c r="AG447" s="59">
+        <v>1</v>
+      </c>
+      <c r="AH447" s="59">
+        <v>1</v>
+      </c>
+      <c r="AK447" s="59">
+        <v>1</v>
+      </c>
+      <c r="AL447" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="448" spans="1:38" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A448" s="59">
+        <v>447</v>
+      </c>
+      <c r="B448" s="59">
+        <v>10364</v>
+      </c>
+      <c r="F448" s="59">
+        <v>1</v>
+      </c>
+      <c r="G448" s="59" t="s">
+        <v>1676</v>
+      </c>
+      <c r="H448" s="59" t="s">
+        <v>1677</v>
+      </c>
+      <c r="I448" s="59" t="s">
+        <v>1678</v>
+      </c>
+      <c r="K448" s="59">
+        <v>-31</v>
+      </c>
+      <c r="L448" s="59">
+        <v>0</v>
+      </c>
+      <c r="M448" s="59">
+        <v>0</v>
+      </c>
+      <c r="N448" s="59" t="s">
+        <v>101</v>
+      </c>
+      <c r="O448" s="59">
+        <v>800</v>
+      </c>
+      <c r="P448" s="59" t="s">
+        <v>1059</v>
+      </c>
+      <c r="Q448" s="60" t="s">
+        <v>1679</v>
+      </c>
+      <c r="V448" s="5" t="s">
+        <v>1675</v>
+      </c>
+      <c r="W448" s="59">
+        <v>9999999</v>
+      </c>
+      <c r="X448" s="59">
+        <v>1605571200</v>
+      </c>
+      <c r="Y448" s="59">
+        <v>2552233600</v>
+      </c>
+      <c r="AG448" s="59">
+        <v>1</v>
+      </c>
+      <c r="AH448" s="59">
+        <v>1</v>
+      </c>
+      <c r="AK448" s="59">
+        <v>1</v>
+      </c>
+      <c r="AL448" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="449" spans="1:38" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A449" s="59">
+        <v>448</v>
+      </c>
+      <c r="B449" s="59">
+        <v>10365</v>
+      </c>
+      <c r="F449" s="59">
+        <v>1</v>
+      </c>
+      <c r="G449" s="59" t="s">
+        <v>1680</v>
+      </c>
+      <c r="H449" s="59" t="s">
+        <v>1681</v>
+      </c>
+      <c r="I449" s="59" t="s">
+        <v>1682</v>
+      </c>
+      <c r="K449" s="59">
+        <v>-31</v>
+      </c>
+      <c r="L449" s="59">
+        <v>0</v>
+      </c>
+      <c r="M449" s="59">
+        <v>0</v>
+      </c>
+      <c r="N449" s="59" t="s">
+        <v>101</v>
+      </c>
+      <c r="O449" s="59">
+        <v>800</v>
+      </c>
+      <c r="P449" s="59" t="s">
+        <v>1673</v>
+      </c>
+      <c r="Q449" s="60" t="s">
+        <v>1683</v>
+      </c>
+      <c r="V449" s="5" t="s">
+        <v>529</v>
+      </c>
+      <c r="W449" s="59">
+        <v>9999999</v>
+      </c>
+      <c r="X449" s="59">
+        <v>1605571200</v>
+      </c>
+      <c r="Y449" s="59">
+        <v>2552233600</v>
+      </c>
+      <c r="Z449" s="59">
+        <v>53</v>
+      </c>
+      <c r="AG449" s="59">
+        <v>1</v>
+      </c>
+      <c r="AH449" s="59">
+        <v>1</v>
+      </c>
+      <c r="AK449" s="59">
+        <v>1</v>
+      </c>
+      <c r="AL449" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="450" spans="1:38" s="61" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A450" s="61">
+        <v>449</v>
+      </c>
+      <c r="B450" s="61">
+        <v>10366</v>
+      </c>
+      <c r="F450" s="61">
+        <v>1</v>
+      </c>
+      <c r="G450" s="61" t="s">
+        <v>1684</v>
+      </c>
+      <c r="H450" s="61" t="s">
+        <v>1685</v>
+      </c>
+      <c r="I450" s="61" t="s">
+        <v>1686</v>
+      </c>
+      <c r="K450" s="61">
+        <v>-31</v>
+      </c>
+      <c r="L450" s="61">
+        <v>0</v>
+      </c>
+      <c r="M450" s="61">
+        <v>0</v>
+      </c>
+      <c r="N450" s="61" t="s">
+        <v>101</v>
+      </c>
+      <c r="O450" s="61">
+        <v>3800</v>
+      </c>
+      <c r="P450" s="61" t="s">
+        <v>1673</v>
+      </c>
+      <c r="Q450" s="62" t="s">
+        <v>1687</v>
+      </c>
+      <c r="V450" s="5" t="s">
+        <v>529</v>
+      </c>
+      <c r="W450" s="61">
+        <v>9999999</v>
+      </c>
+      <c r="X450" s="61">
+        <v>1605571200</v>
+      </c>
+      <c r="Y450" s="61">
+        <v>2552233600</v>
+      </c>
+      <c r="Z450" s="61">
+        <v>54</v>
+      </c>
+      <c r="AG450" s="61">
+        <v>1</v>
+      </c>
+      <c r="AH450" s="61">
+        <v>1</v>
+      </c>
+      <c r="AK450" s="61">
+        <v>1</v>
+      </c>
+      <c r="AL450" s="61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="451" spans="1:38" s="61" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A451" s="61">
+        <v>450</v>
+      </c>
+      <c r="B451" s="61">
+        <v>10367</v>
+      </c>
+      <c r="F451" s="61">
+        <v>1</v>
+      </c>
+      <c r="G451" s="61" t="s">
+        <v>1688</v>
+      </c>
+      <c r="H451" s="61" t="s">
+        <v>1689</v>
+      </c>
+      <c r="I451" s="61" t="s">
+        <v>1690</v>
+      </c>
+      <c r="K451" s="61">
+        <v>-31</v>
+      </c>
+      <c r="L451" s="61">
+        <v>0</v>
+      </c>
+      <c r="M451" s="61">
+        <v>0</v>
+      </c>
+      <c r="N451" s="61" t="s">
+        <v>101</v>
+      </c>
+      <c r="O451" s="61">
+        <v>3800</v>
+      </c>
+      <c r="P451" s="61" t="s">
+        <v>1673</v>
+      </c>
+      <c r="Q451" s="62" t="s">
+        <v>1691</v>
+      </c>
+      <c r="V451" s="5" t="s">
+        <v>529</v>
+      </c>
+      <c r="W451" s="61">
+        <v>9999999</v>
+      </c>
+      <c r="X451" s="61">
+        <v>1605571200</v>
+      </c>
+      <c r="Y451" s="61">
+        <v>2552233600</v>
+      </c>
+      <c r="AG451" s="61">
+        <v>1</v>
+      </c>
+      <c r="AH451" s="61">
+        <v>1</v>
+      </c>
+      <c r="AK451" s="61">
+        <v>1</v>
+      </c>
+      <c r="AL451" s="61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="452" spans="1:38" s="61" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A452" s="61">
+        <v>451</v>
+      </c>
+      <c r="B452" s="61">
+        <v>10368</v>
+      </c>
+      <c r="F452" s="61">
+        <v>1</v>
+      </c>
+      <c r="G452" s="61" t="s">
+        <v>1692</v>
+      </c>
+      <c r="H452" s="61" t="s">
+        <v>1693</v>
+      </c>
+      <c r="I452" s="61" t="s">
+        <v>1694</v>
+      </c>
+      <c r="K452" s="61">
+        <v>-31</v>
+      </c>
+      <c r="L452" s="61">
+        <v>0</v>
+      </c>
+      <c r="M452" s="61">
+        <v>0</v>
+      </c>
+      <c r="N452" s="61" t="s">
+        <v>101</v>
+      </c>
+      <c r="O452" s="61">
+        <v>3800</v>
+      </c>
+      <c r="P452" s="61" t="s">
+        <v>1673</v>
+      </c>
+      <c r="Q452" s="62" t="s">
+        <v>1695</v>
+      </c>
+      <c r="V452" s="5" t="s">
+        <v>529</v>
+      </c>
+      <c r="W452" s="61">
+        <v>9999999</v>
+      </c>
+      <c r="X452" s="61">
+        <v>1605571200</v>
+      </c>
+      <c r="Y452" s="61">
+        <v>2552233600</v>
+      </c>
+      <c r="Z452" s="61">
+        <v>55</v>
+      </c>
+      <c r="AG452" s="61">
+        <v>1</v>
+      </c>
+      <c r="AH452" s="61">
+        <v>1</v>
+      </c>
+      <c r="AK452" s="61">
+        <v>1</v>
+      </c>
+      <c r="AL452" s="61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="453" spans="1:38" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A453" s="59">
+        <v>452</v>
+      </c>
+      <c r="B453" s="59">
+        <v>10369</v>
+      </c>
+      <c r="F453" s="59">
+        <v>1</v>
+      </c>
+      <c r="G453" s="59" t="s">
+        <v>1696</v>
+      </c>
+      <c r="H453" s="59" t="s">
+        <v>1697</v>
+      </c>
+      <c r="I453" s="59" t="s">
+        <v>1698</v>
+      </c>
+      <c r="K453" s="59">
+        <v>-31</v>
+      </c>
+      <c r="L453" s="59">
+        <v>0</v>
+      </c>
+      <c r="M453" s="59">
+        <v>0</v>
+      </c>
+      <c r="N453" s="59" t="s">
+        <v>101</v>
+      </c>
+      <c r="O453" s="59">
+        <v>9800</v>
+      </c>
+      <c r="P453" s="59" t="s">
+        <v>1673</v>
+      </c>
+      <c r="Q453" s="60" t="s">
+        <v>1699</v>
+      </c>
+      <c r="V453" s="5" t="s">
+        <v>529</v>
+      </c>
+      <c r="W453" s="59">
+        <v>9999999</v>
+      </c>
+      <c r="X453" s="59">
+        <v>1605571200</v>
+      </c>
+      <c r="Y453" s="59">
+        <v>2552233600</v>
+      </c>
+      <c r="Z453" s="59">
+        <v>56</v>
+      </c>
+      <c r="AG453" s="59">
+        <v>1</v>
+      </c>
+      <c r="AH453" s="59">
+        <v>1</v>
+      </c>
+      <c r="AK453" s="59">
+        <v>1</v>
+      </c>
+      <c r="AL453" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="454" spans="1:38" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A454" s="59">
+        <v>453</v>
+      </c>
+      <c r="B454" s="59">
+        <v>10370</v>
+      </c>
+      <c r="F454" s="59">
+        <v>1</v>
+      </c>
+      <c r="G454" s="59" t="s">
+        <v>1700</v>
+      </c>
+      <c r="H454" s="59" t="s">
+        <v>1701</v>
+      </c>
+      <c r="I454" s="59" t="s">
+        <v>1702</v>
+      </c>
+      <c r="K454" s="59">
+        <v>-31</v>
+      </c>
+      <c r="L454" s="59">
+        <v>0</v>
+      </c>
+      <c r="M454" s="59">
+        <v>0</v>
+      </c>
+      <c r="N454" s="59" t="s">
+        <v>101</v>
+      </c>
+      <c r="O454" s="59">
+        <v>9800</v>
+      </c>
+      <c r="P454" s="59" t="s">
+        <v>1673</v>
+      </c>
+      <c r="Q454" s="60" t="s">
+        <v>1703</v>
+      </c>
+      <c r="V454" s="5" t="s">
+        <v>529</v>
+      </c>
+      <c r="W454" s="59">
+        <v>9999999</v>
+      </c>
+      <c r="X454" s="59">
+        <v>1605571200</v>
+      </c>
+      <c r="Y454" s="59">
+        <v>2552233600</v>
+      </c>
+      <c r="AG454" s="59">
+        <v>1</v>
+      </c>
+      <c r="AH454" s="59">
+        <v>1</v>
+      </c>
+      <c r="AK454" s="59">
+        <v>1</v>
+      </c>
+      <c r="AL454" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="455" spans="1:38" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A455" s="59">
+        <v>454</v>
+      </c>
+      <c r="B455" s="59">
+        <v>10371</v>
+      </c>
+      <c r="F455" s="59">
+        <v>1</v>
+      </c>
+      <c r="G455" s="59" t="s">
+        <v>1704</v>
+      </c>
+      <c r="H455" s="59" t="s">
+        <v>1705</v>
+      </c>
+      <c r="I455" s="59" t="s">
+        <v>1706</v>
+      </c>
+      <c r="K455" s="59">
+        <v>-31</v>
+      </c>
+      <c r="L455" s="59">
+        <v>0</v>
+      </c>
+      <c r="M455" s="59">
+        <v>0</v>
+      </c>
+      <c r="N455" s="59" t="s">
+        <v>101</v>
+      </c>
+      <c r="O455" s="59">
+        <v>9800</v>
+      </c>
+      <c r="P455" s="59" t="s">
+        <v>1673</v>
+      </c>
+      <c r="Q455" s="60" t="s">
+        <v>1783</v>
+      </c>
+      <c r="V455" s="5" t="s">
+        <v>529</v>
+      </c>
+      <c r="W455" s="59">
+        <v>9999999</v>
+      </c>
+      <c r="X455" s="59">
+        <v>1605571200</v>
+      </c>
+      <c r="Y455" s="59">
+        <v>2552233600</v>
+      </c>
+      <c r="Z455" s="59">
+        <v>57</v>
+      </c>
+      <c r="AG455" s="59">
+        <v>1</v>
+      </c>
+      <c r="AH455" s="59">
+        <v>1</v>
+      </c>
+      <c r="AK455" s="59">
+        <v>1</v>
+      </c>
+      <c r="AL455" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="456" spans="1:38" s="61" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A456" s="61">
+        <v>455</v>
+      </c>
+      <c r="B456" s="61">
+        <v>10372</v>
+      </c>
+      <c r="F456" s="61">
+        <v>1</v>
+      </c>
+      <c r="G456" s="61" t="s">
+        <v>1707</v>
+      </c>
+      <c r="H456" s="61" t="s">
+        <v>1708</v>
+      </c>
+      <c r="I456" s="61" t="s">
+        <v>1709</v>
+      </c>
+      <c r="K456" s="61">
+        <v>-31</v>
+      </c>
+      <c r="L456" s="61">
+        <v>0</v>
+      </c>
+      <c r="M456" s="61">
+        <v>0</v>
+      </c>
+      <c r="N456" s="61" t="s">
+        <v>101</v>
+      </c>
+      <c r="O456" s="61">
+        <v>19800</v>
+      </c>
+      <c r="P456" s="61" t="s">
+        <v>1673</v>
+      </c>
+      <c r="Q456" s="62" t="s">
+        <v>1710</v>
+      </c>
+      <c r="V456" s="5" t="s">
+        <v>529</v>
+      </c>
+      <c r="W456" s="61">
+        <v>9999999</v>
+      </c>
+      <c r="X456" s="61">
+        <v>1605571200</v>
+      </c>
+      <c r="Y456" s="61">
+        <v>2552233600</v>
+      </c>
+      <c r="Z456" s="61">
+        <v>58</v>
+      </c>
+      <c r="AG456" s="61">
+        <v>1</v>
+      </c>
+      <c r="AH456" s="61">
+        <v>1</v>
+      </c>
+      <c r="AK456" s="61">
+        <v>1</v>
+      </c>
+      <c r="AL456" s="61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="457" spans="1:38" s="61" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A457" s="61">
+        <v>456</v>
+      </c>
+      <c r="B457" s="61">
+        <v>10373</v>
+      </c>
+      <c r="F457" s="61">
+        <v>1</v>
+      </c>
+      <c r="G457" s="61" t="s">
+        <v>1711</v>
+      </c>
+      <c r="H457" s="61" t="s">
+        <v>1712</v>
+      </c>
+      <c r="I457" s="61" t="s">
+        <v>1713</v>
+      </c>
+      <c r="K457" s="61">
+        <v>-31</v>
+      </c>
+      <c r="L457" s="61">
+        <v>0</v>
+      </c>
+      <c r="M457" s="61">
+        <v>0</v>
+      </c>
+      <c r="N457" s="61" t="s">
+        <v>101</v>
+      </c>
+      <c r="O457" s="61">
+        <v>19800</v>
+      </c>
+      <c r="P457" s="61" t="s">
+        <v>1673</v>
+      </c>
+      <c r="Q457" s="62" t="s">
+        <v>1714</v>
+      </c>
+      <c r="V457" s="5" t="s">
+        <v>529</v>
+      </c>
+      <c r="W457" s="61">
+        <v>9999999</v>
+      </c>
+      <c r="X457" s="61">
+        <v>1605571200</v>
+      </c>
+      <c r="Y457" s="61">
+        <v>2552233600</v>
+      </c>
+      <c r="AG457" s="61">
+        <v>1</v>
+      </c>
+      <c r="AH457" s="61">
+        <v>1</v>
+      </c>
+      <c r="AK457" s="61">
+        <v>1</v>
+      </c>
+      <c r="AL457" s="61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="458" spans="1:38" s="61" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A458" s="61">
+        <v>457</v>
+      </c>
+      <c r="B458" s="61">
+        <v>10374</v>
+      </c>
+      <c r="F458" s="61">
+        <v>1</v>
+      </c>
+      <c r="G458" s="61" t="s">
+        <v>1715</v>
+      </c>
+      <c r="H458" s="61" t="s">
+        <v>1716</v>
+      </c>
+      <c r="I458" s="61" t="s">
+        <v>1717</v>
+      </c>
+      <c r="K458" s="61">
+        <v>-31</v>
+      </c>
+      <c r="L458" s="61">
+        <v>0</v>
+      </c>
+      <c r="M458" s="61">
+        <v>0</v>
+      </c>
+      <c r="N458" s="61" t="s">
+        <v>101</v>
+      </c>
+      <c r="O458" s="61">
+        <v>19800</v>
+      </c>
+      <c r="P458" s="61" t="s">
+        <v>1673</v>
+      </c>
+      <c r="Q458" s="62" t="s">
+        <v>1718</v>
+      </c>
+      <c r="V458" s="5" t="s">
+        <v>529</v>
+      </c>
+      <c r="W458" s="61">
+        <v>9999999</v>
+      </c>
+      <c r="X458" s="61">
+        <v>1605571200</v>
+      </c>
+      <c r="Y458" s="61">
+        <v>2552233600</v>
+      </c>
+      <c r="Z458" s="61">
+        <v>59</v>
+      </c>
+      <c r="AG458" s="61">
+        <v>1</v>
+      </c>
+      <c r="AH458" s="61">
+        <v>1</v>
+      </c>
+      <c r="AK458" s="61">
+        <v>1</v>
+      </c>
+      <c r="AL458" s="61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="459" spans="1:38" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A459" s="59">
+        <v>458</v>
+      </c>
+      <c r="B459" s="59">
+        <v>10375</v>
+      </c>
+      <c r="F459" s="59">
+        <v>1</v>
+      </c>
+      <c r="G459" s="59" t="s">
+        <v>1719</v>
+      </c>
+      <c r="H459" s="59" t="s">
+        <v>1720</v>
+      </c>
+      <c r="I459" s="59" t="s">
+        <v>1721</v>
+      </c>
+      <c r="K459" s="59">
+        <v>-31</v>
+      </c>
+      <c r="L459" s="59">
+        <v>0</v>
+      </c>
+      <c r="M459" s="59">
+        <v>0</v>
+      </c>
+      <c r="N459" s="59" t="s">
+        <v>101</v>
+      </c>
+      <c r="O459" s="59">
+        <v>49800</v>
+      </c>
+      <c r="P459" s="59" t="s">
+        <v>1673</v>
+      </c>
+      <c r="Q459" s="60" t="s">
+        <v>1722</v>
+      </c>
+      <c r="V459" s="5" t="s">
+        <v>529</v>
+      </c>
+      <c r="W459" s="59">
+        <v>9999999</v>
+      </c>
+      <c r="X459" s="59">
+        <v>1605571200</v>
+      </c>
+      <c r="Y459" s="59">
+        <v>2552233600</v>
+      </c>
+      <c r="Z459" s="59">
+        <v>60</v>
+      </c>
+      <c r="AG459" s="59">
+        <v>1</v>
+      </c>
+      <c r="AH459" s="59">
+        <v>1</v>
+      </c>
+      <c r="AK459" s="59">
+        <v>1</v>
+      </c>
+      <c r="AL459" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="460" spans="1:38" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A460" s="59">
+        <v>459</v>
+      </c>
+      <c r="B460" s="59">
+        <v>10376</v>
+      </c>
+      <c r="F460" s="59">
+        <v>1</v>
+      </c>
+      <c r="G460" s="59" t="s">
+        <v>1723</v>
+      </c>
+      <c r="H460" s="59" t="s">
+        <v>1724</v>
+      </c>
+      <c r="I460" s="59" t="s">
+        <v>1725</v>
+      </c>
+      <c r="K460" s="59">
+        <v>-31</v>
+      </c>
+      <c r="L460" s="59">
+        <v>0</v>
+      </c>
+      <c r="M460" s="59">
+        <v>0</v>
+      </c>
+      <c r="N460" s="59" t="s">
+        <v>101</v>
+      </c>
+      <c r="O460" s="59">
+        <v>49800</v>
+      </c>
+      <c r="P460" s="59" t="s">
+        <v>1059</v>
+      </c>
+      <c r="Q460" s="60" t="s">
+        <v>1726</v>
+      </c>
+      <c r="V460" s="5" t="s">
+        <v>529</v>
+      </c>
+      <c r="W460" s="59">
+        <v>9999999</v>
+      </c>
+      <c r="X460" s="59">
+        <v>1605571200</v>
+      </c>
+      <c r="Y460" s="59">
+        <v>2552233600</v>
+      </c>
+      <c r="AG460" s="59">
+        <v>1</v>
+      </c>
+      <c r="AH460" s="59">
+        <v>1</v>
+      </c>
+      <c r="AK460" s="59">
+        <v>1</v>
+      </c>
+      <c r="AL460" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="461" spans="1:38" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A461" s="59">
+        <v>460</v>
+      </c>
+      <c r="B461" s="59">
+        <v>10377</v>
+      </c>
+      <c r="F461" s="59">
+        <v>1</v>
+      </c>
+      <c r="G461" s="59" t="s">
+        <v>1727</v>
+      </c>
+      <c r="H461" s="59" t="s">
+        <v>1728</v>
+      </c>
+      <c r="I461" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="K461" s="59">
+        <v>-31</v>
+      </c>
+      <c r="L461" s="59">
+        <v>0</v>
+      </c>
+      <c r="M461" s="59">
+        <v>0</v>
+      </c>
+      <c r="N461" s="59" t="s">
+        <v>101</v>
+      </c>
+      <c r="O461" s="59">
+        <v>49800</v>
+      </c>
+      <c r="P461" s="59" t="s">
+        <v>1673</v>
+      </c>
+      <c r="Q461" s="60" t="s">
+        <v>1730</v>
+      </c>
+      <c r="V461" s="5" t="s">
+        <v>529</v>
+      </c>
+      <c r="W461" s="59">
+        <v>9999999</v>
+      </c>
+      <c r="X461" s="59">
+        <v>1605571200</v>
+      </c>
+      <c r="Y461" s="59">
+        <v>2552233600</v>
+      </c>
+      <c r="Z461" s="59">
+        <v>61</v>
+      </c>
+      <c r="AG461" s="59">
+        <v>1</v>
+      </c>
+      <c r="AH461" s="59">
+        <v>1</v>
+      </c>
+      <c r="AK461" s="59">
+        <v>1</v>
+      </c>
+      <c r="AL461" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="462" spans="1:38" s="61" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A462" s="61">
+        <v>461</v>
+      </c>
+      <c r="B462" s="61">
+        <v>10378</v>
+      </c>
+      <c r="F462" s="61">
+        <v>1</v>
+      </c>
+      <c r="G462" s="61" t="s">
+        <v>1731</v>
+      </c>
+      <c r="H462" s="61" t="s">
+        <v>1732</v>
+      </c>
+      <c r="I462" s="61" t="s">
+        <v>1733</v>
+      </c>
+      <c r="K462" s="61">
+        <v>-31</v>
+      </c>
+      <c r="L462" s="61">
+        <v>0</v>
+      </c>
+      <c r="M462" s="61">
+        <v>0</v>
+      </c>
+      <c r="N462" s="61" t="s">
+        <v>101</v>
+      </c>
+      <c r="O462" s="61">
+        <v>99800</v>
+      </c>
+      <c r="P462" s="61" t="s">
+        <v>1673</v>
+      </c>
+      <c r="Q462" s="62" t="s">
+        <v>1734</v>
+      </c>
+      <c r="V462" s="5" t="s">
+        <v>529</v>
+      </c>
+      <c r="W462" s="61">
+        <v>9999999</v>
+      </c>
+      <c r="X462" s="61">
+        <v>1605571200</v>
+      </c>
+      <c r="Y462" s="61">
+        <v>2552233600</v>
+      </c>
+      <c r="Z462" s="61">
+        <v>62</v>
+      </c>
+      <c r="AG462" s="61">
+        <v>1</v>
+      </c>
+      <c r="AH462" s="61">
+        <v>1</v>
+      </c>
+      <c r="AK462" s="61">
+        <v>1</v>
+      </c>
+      <c r="AL462" s="61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="463" spans="1:38" s="61" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A463" s="61">
+        <v>462</v>
+      </c>
+      <c r="B463" s="61">
+        <v>10379</v>
+      </c>
+      <c r="F463" s="61">
+        <v>1</v>
+      </c>
+      <c r="G463" s="61" t="s">
+        <v>1735</v>
+      </c>
+      <c r="H463" s="61" t="s">
+        <v>1736</v>
+      </c>
+      <c r="I463" s="61" t="s">
+        <v>1737</v>
+      </c>
+      <c r="K463" s="61">
+        <v>-31</v>
+      </c>
+      <c r="L463" s="61">
+        <v>0</v>
+      </c>
+      <c r="M463" s="61">
+        <v>0</v>
+      </c>
+      <c r="N463" s="61" t="s">
+        <v>101</v>
+      </c>
+      <c r="O463" s="61">
+        <v>99800</v>
+      </c>
+      <c r="P463" s="61" t="s">
+        <v>1673</v>
+      </c>
+      <c r="Q463" s="62" t="s">
+        <v>1738</v>
+      </c>
+      <c r="V463" s="5" t="s">
+        <v>529</v>
+      </c>
+      <c r="W463" s="61">
+        <v>9999999</v>
+      </c>
+      <c r="X463" s="61">
+        <v>1605571200</v>
+      </c>
+      <c r="Y463" s="61">
+        <v>2552233600</v>
+      </c>
+      <c r="AG463" s="61">
+        <v>1</v>
+      </c>
+      <c r="AH463" s="61">
+        <v>1</v>
+      </c>
+      <c r="AK463" s="61">
+        <v>1</v>
+      </c>
+      <c r="AL463" s="61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="464" spans="1:38" s="61" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A464" s="61">
+        <v>463</v>
+      </c>
+      <c r="B464" s="61">
+        <v>10380</v>
+      </c>
+      <c r="F464" s="61">
+        <v>1</v>
+      </c>
+      <c r="G464" s="61" t="s">
+        <v>1739</v>
+      </c>
+      <c r="H464" s="61" t="s">
+        <v>1740</v>
+      </c>
+      <c r="I464" s="61" t="s">
+        <v>1741</v>
+      </c>
+      <c r="K464" s="61">
+        <v>-31</v>
+      </c>
+      <c r="L464" s="61">
+        <v>0</v>
+      </c>
+      <c r="M464" s="61">
+        <v>0</v>
+      </c>
+      <c r="N464" s="61" t="s">
+        <v>101</v>
+      </c>
+      <c r="O464" s="61">
+        <v>99800</v>
+      </c>
+      <c r="P464" s="61" t="s">
+        <v>1059</v>
+      </c>
+      <c r="Q464" s="62" t="s">
+        <v>1742</v>
+      </c>
+      <c r="V464" s="5" t="s">
+        <v>529</v>
+      </c>
+      <c r="W464" s="61">
+        <v>9999999</v>
+      </c>
+      <c r="X464" s="61">
+        <v>1605571200</v>
+      </c>
+      <c r="Y464" s="61">
+        <v>2552233600</v>
+      </c>
+      <c r="Z464" s="61">
+        <v>63</v>
+      </c>
+      <c r="AG464" s="61">
+        <v>1</v>
+      </c>
+      <c r="AH464" s="61">
+        <v>1</v>
+      </c>
+      <c r="AK464" s="61">
+        <v>1</v>
+      </c>
+      <c r="AL464" s="61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="465" spans="1:38" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A465" s="59">
+        <v>464</v>
+      </c>
+      <c r="B465" s="59">
+        <v>10381</v>
+      </c>
+      <c r="F465" s="59">
+        <v>1</v>
+      </c>
+      <c r="G465" s="59" t="s">
+        <v>1743</v>
+      </c>
+      <c r="H465" s="59" t="s">
+        <v>1744</v>
+      </c>
+      <c r="I465" s="59" t="s">
+        <v>1745</v>
+      </c>
+      <c r="K465" s="59">
+        <v>-31</v>
+      </c>
+      <c r="L465" s="59">
+        <v>0</v>
+      </c>
+      <c r="M465" s="59">
+        <v>0</v>
+      </c>
+      <c r="N465" s="59" t="s">
+        <v>101</v>
+      </c>
+      <c r="O465" s="59">
+        <v>249800</v>
+      </c>
+      <c r="P465" s="59" t="s">
+        <v>1673</v>
+      </c>
+      <c r="Q465" s="60" t="s">
+        <v>1746</v>
+      </c>
+      <c r="V465" s="5" t="s">
+        <v>529</v>
+      </c>
+      <c r="W465" s="59">
+        <v>9999999</v>
+      </c>
+      <c r="X465" s="59">
+        <v>1605571200</v>
+      </c>
+      <c r="Y465" s="59">
+        <v>2552233600</v>
+      </c>
+      <c r="Z465" s="59">
+        <v>64</v>
+      </c>
+      <c r="AG465" s="59">
+        <v>1</v>
+      </c>
+      <c r="AH465" s="59">
+        <v>1</v>
+      </c>
+      <c r="AK465" s="59">
+        <v>1</v>
+      </c>
+      <c r="AL465" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="466" spans="1:38" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A466" s="59">
+        <v>465</v>
+      </c>
+      <c r="B466" s="59">
+        <v>10382</v>
+      </c>
+      <c r="F466" s="59">
+        <v>1</v>
+      </c>
+      <c r="G466" s="59" t="s">
+        <v>1747</v>
+      </c>
+      <c r="H466" s="59" t="s">
+        <v>1748</v>
+      </c>
+      <c r="I466" s="59" t="s">
+        <v>1749</v>
+      </c>
+      <c r="K466" s="59">
+        <v>-31</v>
+      </c>
+      <c r="L466" s="59">
+        <v>0</v>
+      </c>
+      <c r="M466" s="59">
+        <v>0</v>
+      </c>
+      <c r="N466" s="59" t="s">
+        <v>101</v>
+      </c>
+      <c r="O466" s="59">
+        <v>249800</v>
+      </c>
+      <c r="P466" s="59" t="s">
+        <v>1059</v>
+      </c>
+      <c r="Q466" s="60" t="s">
+        <v>1750</v>
+      </c>
+      <c r="V466" s="5" t="s">
+        <v>529</v>
+      </c>
+      <c r="W466" s="59">
+        <v>9999999</v>
+      </c>
+      <c r="X466" s="59">
+        <v>1605571200</v>
+      </c>
+      <c r="Y466" s="59">
+        <v>2552233600</v>
+      </c>
+      <c r="AG466" s="59">
+        <v>1</v>
+      </c>
+      <c r="AH466" s="59">
+        <v>1</v>
+      </c>
+      <c r="AK466" s="59">
+        <v>1</v>
+      </c>
+      <c r="AL466" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="467" spans="1:38" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A467" s="59">
+        <v>466</v>
+      </c>
+      <c r="B467" s="59">
+        <v>10383</v>
+      </c>
+      <c r="F467" s="59">
+        <v>1</v>
+      </c>
+      <c r="G467" s="59" t="s">
+        <v>1751</v>
+      </c>
+      <c r="H467" s="59" t="s">
+        <v>1752</v>
+      </c>
+      <c r="I467" s="59" t="s">
+        <v>1753</v>
+      </c>
+      <c r="K467" s="59">
+        <v>-31</v>
+      </c>
+      <c r="L467" s="59">
+        <v>0</v>
+      </c>
+      <c r="M467" s="59">
+        <v>0</v>
+      </c>
+      <c r="N467" s="59" t="s">
+        <v>101</v>
+      </c>
+      <c r="O467" s="59">
+        <v>249800</v>
+      </c>
+      <c r="P467" s="59" t="s">
+        <v>1059</v>
+      </c>
+      <c r="Q467" s="60" t="s">
+        <v>1754</v>
+      </c>
+      <c r="V467" s="5" t="s">
+        <v>529</v>
+      </c>
+      <c r="W467" s="59">
+        <v>9999999</v>
+      </c>
+      <c r="X467" s="59">
+        <v>1605571200</v>
+      </c>
+      <c r="Y467" s="59">
+        <v>2552233600</v>
+      </c>
+      <c r="Z467" s="59">
+        <v>65</v>
+      </c>
+      <c r="AG467" s="59">
+        <v>1</v>
+      </c>
+      <c r="AH467" s="59">
+        <v>1</v>
+      </c>
+      <c r="AK467" s="59">
+        <v>1</v>
+      </c>
+      <c r="AL467" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="468" spans="1:38" s="63" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A468" s="63">
+        <v>467</v>
+      </c>
+      <c r="B468" s="63">
+        <v>10384</v>
+      </c>
+      <c r="F468" s="63">
+        <v>1</v>
+      </c>
+      <c r="G468" s="63" t="s">
+        <v>1755</v>
+      </c>
+      <c r="H468" s="63" t="s">
+        <v>1757</v>
+      </c>
+      <c r="I468" s="63" t="s">
+        <v>1758</v>
+      </c>
+      <c r="K468" s="63">
+        <v>-31</v>
+      </c>
+      <c r="L468" s="63">
+        <v>0</v>
+      </c>
+      <c r="M468" s="63">
+        <v>0</v>
+      </c>
+      <c r="N468" s="63" t="s">
+        <v>101</v>
+      </c>
+      <c r="O468" s="63">
+        <v>600</v>
+      </c>
+      <c r="P468" s="63" t="s">
+        <v>1673</v>
+      </c>
+      <c r="Q468" s="64" t="s">
+        <v>1759</v>
+      </c>
+      <c r="V468" s="63" t="s">
+        <v>1760</v>
+      </c>
+      <c r="W468" s="63">
+        <v>9999999</v>
+      </c>
+      <c r="X468" s="63">
+        <v>1605571200</v>
+      </c>
+      <c r="Y468" s="63">
+        <v>2552233600</v>
+      </c>
+      <c r="AG468" s="63">
+        <v>1</v>
+      </c>
+      <c r="AH468" s="63">
+        <v>1</v>
+      </c>
+      <c r="AK468" s="63">
+        <v>1</v>
+      </c>
+      <c r="AL468" s="63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="469" spans="1:38" s="63" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A469" s="63">
+        <v>468</v>
+      </c>
+      <c r="B469" s="63">
+        <v>10385</v>
+      </c>
+      <c r="F469" s="63">
+        <v>1</v>
+      </c>
+      <c r="G469" s="63" t="s">
+        <v>1761</v>
+      </c>
+      <c r="H469" s="63" t="s">
+        <v>1757</v>
+      </c>
+      <c r="I469" s="63" t="s">
+        <v>1762</v>
+      </c>
+      <c r="K469" s="63">
+        <v>-31</v>
+      </c>
+      <c r="L469" s="63">
+        <v>0</v>
+      </c>
+      <c r="M469" s="63">
+        <v>0</v>
+      </c>
+      <c r="N469" s="63" t="s">
+        <v>101</v>
+      </c>
+      <c r="O469" s="63">
+        <v>3000</v>
+      </c>
+      <c r="P469" s="63" t="s">
+        <v>1673</v>
+      </c>
+      <c r="Q469" s="64" t="s">
+        <v>1763</v>
+      </c>
+      <c r="V469" s="63" t="s">
+        <v>1760</v>
+      </c>
+      <c r="W469" s="63">
+        <v>9999999</v>
+      </c>
+      <c r="X469" s="63">
+        <v>1605571200</v>
+      </c>
+      <c r="Y469" s="63">
+        <v>2552233600</v>
+      </c>
+      <c r="AG469" s="63">
+        <v>1</v>
+      </c>
+      <c r="AH469" s="63">
+        <v>1</v>
+      </c>
+      <c r="AK469" s="63">
+        <v>1</v>
+      </c>
+      <c r="AL469" s="63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="470" spans="1:38" s="63" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A470" s="63">
+        <v>469</v>
+      </c>
+      <c r="B470" s="63">
+        <v>10386</v>
+      </c>
+      <c r="F470" s="63">
+        <v>1</v>
+      </c>
+      <c r="G470" s="63" t="s">
+        <v>1764</v>
+      </c>
+      <c r="H470" s="63" t="s">
+        <v>1757</v>
+      </c>
+      <c r="I470" s="63" t="s">
+        <v>1765</v>
+      </c>
+      <c r="K470" s="63">
+        <v>-31</v>
+      </c>
+      <c r="L470" s="63">
+        <v>0</v>
+      </c>
+      <c r="M470" s="63">
+        <v>0</v>
+      </c>
+      <c r="N470" s="63" t="s">
+        <v>101</v>
+      </c>
+      <c r="O470" s="63">
+        <v>6800</v>
+      </c>
+      <c r="P470" s="63" t="s">
+        <v>1673</v>
+      </c>
+      <c r="Q470" s="64" t="s">
+        <v>1766</v>
+      </c>
+      <c r="V470" s="63" t="s">
+        <v>1760</v>
+      </c>
+      <c r="W470" s="63">
+        <v>9999999</v>
+      </c>
+      <c r="X470" s="63">
+        <v>1605571200</v>
+      </c>
+      <c r="Y470" s="63">
+        <v>2552233600</v>
+      </c>
+      <c r="AG470" s="63">
+        <v>1</v>
+      </c>
+      <c r="AH470" s="63">
+        <v>1</v>
+      </c>
+      <c r="AK470" s="63">
+        <v>1</v>
+      </c>
+      <c r="AL470" s="63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="471" spans="1:38" s="63" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A471" s="63">
+        <v>470</v>
+      </c>
+      <c r="B471" s="63">
+        <v>10387</v>
+      </c>
+      <c r="F471" s="63">
+        <v>1</v>
+      </c>
+      <c r="G471" s="63" t="s">
+        <v>1767</v>
+      </c>
+      <c r="H471" s="63" t="s">
+        <v>1757</v>
+      </c>
+      <c r="I471" s="63" t="s">
+        <v>1768</v>
+      </c>
+      <c r="K471" s="63">
+        <v>-31</v>
+      </c>
+      <c r="L471" s="63">
+        <v>0</v>
+      </c>
+      <c r="M471" s="63">
+        <v>0</v>
+      </c>
+      <c r="N471" s="63" t="s">
+        <v>101</v>
+      </c>
+      <c r="O471" s="63">
+        <v>9800</v>
+      </c>
+      <c r="P471" s="63" t="s">
+        <v>1673</v>
+      </c>
+      <c r="Q471" s="64" t="s">
+        <v>1769</v>
+      </c>
+      <c r="V471" s="63" t="s">
+        <v>1770</v>
+      </c>
+      <c r="W471" s="63">
+        <v>9999999</v>
+      </c>
+      <c r="X471" s="63">
+        <v>1605571200</v>
+      </c>
+      <c r="Y471" s="63">
+        <v>2552233600</v>
+      </c>
+      <c r="AG471" s="63">
+        <v>1</v>
+      </c>
+      <c r="AH471" s="63">
+        <v>1</v>
+      </c>
+      <c r="AK471" s="63">
+        <v>1</v>
+      </c>
+      <c r="AL471" s="63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="472" spans="1:38" s="63" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A472" s="63">
+        <v>471</v>
+      </c>
+      <c r="B472" s="63">
+        <v>10388</v>
+      </c>
+      <c r="F472" s="63">
+        <v>1</v>
+      </c>
+      <c r="G472" s="63" t="s">
+        <v>1771</v>
+      </c>
+      <c r="H472" s="63" t="s">
+        <v>1756</v>
+      </c>
+      <c r="I472" s="63" t="s">
+        <v>1772</v>
+      </c>
+      <c r="K472" s="63">
+        <v>-31</v>
+      </c>
+      <c r="L472" s="63">
+        <v>0</v>
+      </c>
+      <c r="M472" s="63">
+        <v>0</v>
+      </c>
+      <c r="N472" s="63" t="s">
+        <v>101</v>
+      </c>
+      <c r="O472" s="63">
+        <v>19800</v>
+      </c>
+      <c r="P472" s="63" t="s">
+        <v>1673</v>
+      </c>
+      <c r="Q472" s="64" t="s">
+        <v>1773</v>
+      </c>
+      <c r="V472" s="63" t="s">
+        <v>1770</v>
+      </c>
+      <c r="W472" s="63">
+        <v>9999999</v>
+      </c>
+      <c r="X472" s="63">
+        <v>1605571200</v>
+      </c>
+      <c r="Y472" s="63">
+        <v>2552233600</v>
+      </c>
+      <c r="AG472" s="63">
+        <v>1</v>
+      </c>
+      <c r="AH472" s="63">
+        <v>1</v>
+      </c>
+      <c r="AK472" s="63">
+        <v>1</v>
+      </c>
+      <c r="AL472" s="63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="473" spans="1:38" s="63" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A473" s="63">
+        <v>472</v>
+      </c>
+      <c r="B473" s="63">
+        <v>10389</v>
+      </c>
+      <c r="F473" s="63">
+        <v>1</v>
+      </c>
+      <c r="G473" s="63" t="s">
+        <v>1774</v>
+      </c>
+      <c r="H473" s="63" t="s">
+        <v>1757</v>
+      </c>
+      <c r="I473" s="63" t="s">
+        <v>1775</v>
+      </c>
+      <c r="K473" s="63">
+        <v>-31</v>
+      </c>
+      <c r="L473" s="63">
+        <v>0</v>
+      </c>
+      <c r="M473" s="63">
+        <v>0</v>
+      </c>
+      <c r="N473" s="63" t="s">
+        <v>101</v>
+      </c>
+      <c r="O473" s="63">
+        <v>49800</v>
+      </c>
+      <c r="P473" s="63" t="s">
+        <v>1673</v>
+      </c>
+      <c r="Q473" s="64" t="s">
+        <v>1776</v>
+      </c>
+      <c r="V473" s="63" t="s">
+        <v>1770</v>
+      </c>
+      <c r="W473" s="63">
+        <v>9999999</v>
+      </c>
+      <c r="X473" s="63">
+        <v>1605571200</v>
+      </c>
+      <c r="Y473" s="63">
+        <v>2552233600</v>
+      </c>
+      <c r="AG473" s="63">
+        <v>1</v>
+      </c>
+      <c r="AH473" s="63">
+        <v>1</v>
+      </c>
+      <c r="AK473" s="63">
+        <v>1</v>
+      </c>
+      <c r="AL473" s="63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="474" spans="1:38" s="55" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A474" s="59">
+        <v>473</v>
+      </c>
+      <c r="B474" s="59">
+        <v>10390</v>
+      </c>
+      <c r="F474" s="55">
+        <v>1</v>
+      </c>
+      <c r="G474" s="55" t="s">
+        <v>1777</v>
+      </c>
+      <c r="H474" s="55" t="s">
+        <v>1757</v>
+      </c>
+      <c r="I474" s="55" t="s">
+        <v>1778</v>
+      </c>
+      <c r="K474" s="55">
+        <v>-31</v>
+      </c>
+      <c r="L474" s="55">
+        <v>0</v>
+      </c>
+      <c r="M474" s="55">
+        <v>0</v>
+      </c>
+      <c r="N474" s="55" t="s">
+        <v>101</v>
+      </c>
+      <c r="O474" s="55">
+        <v>99800</v>
+      </c>
+      <c r="P474" s="55" t="s">
+        <v>1673</v>
+      </c>
+      <c r="Q474" s="56" t="s">
+        <v>1779</v>
+      </c>
+      <c r="V474" s="63" t="s">
+        <v>1770</v>
+      </c>
+      <c r="W474" s="55">
+        <v>9999999</v>
+      </c>
+      <c r="X474" s="55">
+        <v>1605571200</v>
+      </c>
+      <c r="Y474" s="55">
+        <v>2552233600</v>
+      </c>
+      <c r="AG474" s="55">
+        <v>1</v>
+      </c>
+      <c r="AH474" s="55">
+        <v>1</v>
+      </c>
+      <c r="AK474" s="55">
+        <v>1</v>
+      </c>
+      <c r="AL474" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="475" spans="1:38" s="55" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A475" s="59">
+        <v>474</v>
+      </c>
+      <c r="B475" s="59">
+        <v>10391</v>
+      </c>
+      <c r="F475" s="55">
+        <v>1</v>
+      </c>
+      <c r="G475" s="55" t="s">
+        <v>1780</v>
+      </c>
+      <c r="H475" s="55" t="s">
+        <v>1757</v>
+      </c>
+      <c r="I475" s="55" t="s">
+        <v>1781</v>
+      </c>
+      <c r="K475" s="55">
+        <v>-31</v>
+      </c>
+      <c r="L475" s="55">
+        <v>0</v>
+      </c>
+      <c r="M475" s="55">
+        <v>0</v>
+      </c>
+      <c r="N475" s="55" t="s">
+        <v>101</v>
+      </c>
+      <c r="O475" s="55">
+        <v>249800</v>
+      </c>
+      <c r="P475" s="55" t="s">
+        <v>1673</v>
+      </c>
+      <c r="Q475" s="56" t="s">
+        <v>1782</v>
+      </c>
+      <c r="V475" s="63" t="s">
+        <v>1770</v>
+      </c>
+      <c r="W475" s="55">
+        <v>9999999</v>
+      </c>
+      <c r="X475" s="55">
+        <v>1605571200</v>
+      </c>
+      <c r="Y475" s="55">
+        <v>2552233600</v>
+      </c>
+      <c r="AG475" s="55">
+        <v>1</v>
+      </c>
+      <c r="AH475" s="55">
+        <v>1</v>
+      </c>
+      <c r="AK475" s="55">
+        <v>1</v>
+      </c>
+      <c r="AL475" s="55">
         <v>1</v>
       </c>
     </row>
@@ -38607,10 +41037,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E52"/>
+  <dimension ref="A1:E66"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C52" sqref="C52"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -39284,74 +41714,270 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:4" s="49" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="49">
+    <row r="48" spans="1:4" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="47">
         <v>47</v>
       </c>
-      <c r="B48" s="50" t="s">
+      <c r="B48" s="48" t="s">
         <v>1484</v>
       </c>
-      <c r="C48" s="49">
-        <v>1</v>
-      </c>
-      <c r="D48" s="49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" s="49" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="49">
+      <c r="C48" s="47">
+        <v>1</v>
+      </c>
+      <c r="D48" s="47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="47">
         <v>48</v>
       </c>
-      <c r="B49" s="50" t="s">
+      <c r="B49" s="48" t="s">
         <v>1503</v>
       </c>
-      <c r="C49" s="49">
-        <v>1</v>
-      </c>
-      <c r="D49" s="49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" s="49" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="49">
+      <c r="C49" s="47">
+        <v>1</v>
+      </c>
+      <c r="D49" s="47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="47">
         <v>49</v>
       </c>
-      <c r="B50" s="50" t="s">
+      <c r="B50" s="48" t="s">
         <v>1504</v>
       </c>
-      <c r="C50" s="49">
-        <v>1</v>
-      </c>
-      <c r="D50" s="49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" s="49" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="49">
+      <c r="C50" s="47">
+        <v>1</v>
+      </c>
+      <c r="D50" s="47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="47">
         <v>50</v>
       </c>
-      <c r="B51" s="50" t="s">
+      <c r="B51" s="48" t="s">
         <v>1505</v>
       </c>
-      <c r="C51" s="49">
-        <v>1</v>
-      </c>
-      <c r="D51" s="49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" s="49" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="49">
+      <c r="C51" s="47">
+        <v>1</v>
+      </c>
+      <c r="D51" s="47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="47">
         <v>51</v>
       </c>
-      <c r="B52" s="50" t="s">
+      <c r="B52" s="48" t="s">
         <v>1506</v>
       </c>
-      <c r="C52" s="49">
-        <v>1</v>
-      </c>
-      <c r="D52" s="49">
-        <v>0</v>
+      <c r="C52" s="47">
+        <v>1</v>
+      </c>
+      <c r="D52" s="47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" s="57" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="57">
+        <v>52</v>
+      </c>
+      <c r="B53" s="58" t="s">
+        <v>1656</v>
+      </c>
+      <c r="C53" s="57">
+        <v>1</v>
+      </c>
+      <c r="D53" s="57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" s="57" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="57">
+        <v>53</v>
+      </c>
+      <c r="B54" s="58" t="s">
+        <v>1657</v>
+      </c>
+      <c r="C54" s="57">
+        <v>1</v>
+      </c>
+      <c r="D54" s="57">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" s="57">
+        <v>54</v>
+      </c>
+      <c r="B55" s="58" t="s">
+        <v>1658</v>
+      </c>
+      <c r="C55" s="57">
+        <v>1</v>
+      </c>
+      <c r="D55" s="57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" s="57">
+        <v>55</v>
+      </c>
+      <c r="B56" s="58" t="s">
+        <v>1659</v>
+      </c>
+      <c r="C56" s="57">
+        <v>1</v>
+      </c>
+      <c r="D56" s="57">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" s="57">
+        <v>56</v>
+      </c>
+      <c r="B57" s="58" t="s">
+        <v>1660</v>
+      </c>
+      <c r="C57" s="57">
+        <v>1</v>
+      </c>
+      <c r="D57" s="57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" s="57">
+        <v>57</v>
+      </c>
+      <c r="B58" s="58" t="s">
+        <v>1661</v>
+      </c>
+      <c r="C58" s="57">
+        <v>1</v>
+      </c>
+      <c r="D58" s="57">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" s="57">
+        <v>58</v>
+      </c>
+      <c r="B59" s="58" t="s">
+        <v>1662</v>
+      </c>
+      <c r="C59" s="57">
+        <v>1</v>
+      </c>
+      <c r="D59" s="57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" s="57">
+        <v>59</v>
+      </c>
+      <c r="B60" s="58" t="s">
+        <v>1663</v>
+      </c>
+      <c r="C60" s="57">
+        <v>1</v>
+      </c>
+      <c r="D60" s="57">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" s="57">
+        <v>60</v>
+      </c>
+      <c r="B61" s="58" t="s">
+        <v>1664</v>
+      </c>
+      <c r="C61" s="57">
+        <v>1</v>
+      </c>
+      <c r="D61" s="57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" s="57">
+        <v>61</v>
+      </c>
+      <c r="B62" s="58" t="s">
+        <v>1665</v>
+      </c>
+      <c r="C62" s="57">
+        <v>1</v>
+      </c>
+      <c r="D62" s="57">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" s="57">
+        <v>62</v>
+      </c>
+      <c r="B63" s="58" t="s">
+        <v>1666</v>
+      </c>
+      <c r="C63" s="57">
+        <v>1</v>
+      </c>
+      <c r="D63" s="57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" s="57">
+        <v>63</v>
+      </c>
+      <c r="B64" s="58" t="s">
+        <v>1667</v>
+      </c>
+      <c r="C64" s="57">
+        <v>1</v>
+      </c>
+      <c r="D64" s="57">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" s="57">
+        <v>64</v>
+      </c>
+      <c r="B65" s="58" t="s">
+        <v>1668</v>
+      </c>
+      <c r="C65" s="57">
+        <v>1</v>
+      </c>
+      <c r="D65" s="57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" s="57">
+        <v>65</v>
+      </c>
+      <c r="B66" s="58" t="s">
+        <v>1669</v>
+      </c>
+      <c r="C66" s="57">
+        <v>1</v>
+      </c>
+      <c r="D66" s="57">
+        <v>600</v>
       </c>
     </row>
   </sheetData>

--- a/config_Release/shoping_config_xiaomi.xlsx
+++ b/config_Release/shoping_config_xiaomi.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -8983,8 +8983,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9209,7 +9209,9 @@
         <v>41</v>
       </c>
       <c r="E3" s="24"/>
-      <c r="F3" s="2"/>
+      <c r="F3" s="2">
+        <v>85</v>
+      </c>
       <c r="G3" s="11" t="s">
         <v>42</v>
       </c>
@@ -9289,7 +9291,9 @@
         <v>41</v>
       </c>
       <c r="E4" s="24"/>
-      <c r="F4" s="2"/>
+      <c r="F4" s="2">
+        <v>86</v>
+      </c>
       <c r="G4" s="11" t="s">
         <v>42</v>
       </c>
@@ -9369,7 +9373,9 @@
         <v>41</v>
       </c>
       <c r="E5" s="24"/>
-      <c r="F5" s="2"/>
+      <c r="F5" s="2">
+        <v>87</v>
+      </c>
       <c r="G5" s="11" t="s">
         <v>42</v>
       </c>
@@ -9449,7 +9455,9 @@
         <v>41</v>
       </c>
       <c r="E6" s="24"/>
-      <c r="F6" s="2"/>
+      <c r="F6" s="2">
+        <v>88</v>
+      </c>
       <c r="G6" s="11" t="s">
         <v>42</v>
       </c>
@@ -9529,7 +9537,9 @@
         <v>41</v>
       </c>
       <c r="E7" s="24"/>
-      <c r="F7" s="2"/>
+      <c r="F7" s="2">
+        <v>89</v>
+      </c>
       <c r="G7" s="11" t="s">
         <v>42</v>
       </c>
@@ -9609,7 +9619,9 @@
         <v>41</v>
       </c>
       <c r="E8" s="24"/>
-      <c r="F8" s="2"/>
+      <c r="F8" s="2">
+        <v>109</v>
+      </c>
       <c r="G8" s="11" t="s">
         <v>42</v>
       </c>
@@ -9689,7 +9701,9 @@
         <v>41</v>
       </c>
       <c r="E9" s="23"/>
-      <c r="F9" s="2"/>
+      <c r="F9" s="2">
+        <v>10044</v>
+      </c>
       <c r="G9" s="11" t="s">
         <v>42</v>
       </c>
@@ -9768,6 +9782,9 @@
         <v>41</v>
       </c>
       <c r="E10" s="23"/>
+      <c r="F10" s="11">
+        <v>10045</v>
+      </c>
       <c r="G10" s="11" t="s">
         <v>42</v>
       </c>
@@ -9848,7 +9865,9 @@
       <c r="E11" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="F11" s="11"/>
+      <c r="F11" s="11">
+        <v>90</v>
+      </c>
       <c r="G11" s="2" t="s">
         <v>42</v>
       </c>
@@ -10850,7 +10869,9 @@
         <v>41</v>
       </c>
       <c r="E24" s="46"/>
-      <c r="F24" s="11"/>
+      <c r="F24" s="11">
+        <v>10189</v>
+      </c>
       <c r="G24" s="2" t="s">
         <v>1116</v>
       </c>
@@ -10952,10 +10973,10 @@
   <dimension ref="A1:AM479"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="M446" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="AG449" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q475" sqref="Q475"/>
+      <selection pane="bottomRight" activeCell="AN1" sqref="AN1:AN1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -14745,7 +14766,7 @@
         <v>2</v>
       </c>
       <c r="F67" s="69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G67" s="69" t="s">
         <v>223</v>
@@ -14801,7 +14822,7 @@
         <v>3</v>
       </c>
       <c r="F68" s="69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G68" s="69" t="s">
         <v>225</v>
@@ -14857,7 +14878,7 @@
         <v>4</v>
       </c>
       <c r="F69" s="69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G69" s="69" t="s">
         <v>227</v>
@@ -14913,7 +14934,7 @@
         <v>5</v>
       </c>
       <c r="F70" s="69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G70" s="69" t="s">
         <v>229</v>
@@ -14969,7 +14990,7 @@
         <v>6</v>
       </c>
       <c r="F71" s="69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G71" s="69" t="s">
         <v>230</v>
@@ -16302,7 +16323,7 @@
         <v>109</v>
       </c>
       <c r="F94" s="69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G94" s="69" t="s">
         <v>254</v>
@@ -18336,7 +18357,7 @@
         <v>108</v>
       </c>
       <c r="F128" s="69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G128" s="69" t="s">
         <v>320</v>
@@ -18392,7 +18413,7 @@
         <v>110</v>
       </c>
       <c r="F129" s="69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G129" s="69" t="s">
         <v>1203</v>
@@ -27677,7 +27698,7 @@
         <v>111</v>
       </c>
       <c r="F273" s="69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G273" s="69" t="s">
         <v>522</v>

--- a/config_Release/shoping_config_xiaomi.xlsx
+++ b/config_Release/shoping_config_xiaomi.xlsx
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3901" uniqueCount="1784">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3929" uniqueCount="1814">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -4047,10 +4047,6 @@
     <t>VIP4礼包</t>
   </si>
   <si>
-    <t>VIP1礼包</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>VIP5礼包</t>
   </si>
   <si>
@@ -4072,81 +4068,7 @@
     <t>"50万金币",</t>
   </si>
   <si>
-    <t>"75万金币","召唤*1","锁定*1",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"318万金币","召唤*1","锁定*1",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"538万金币","召唤*1","锁定*1",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"1108万金币","召唤*1","锁定*1",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"2218万金币","召唤*1","锁定*1",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"3288万金币","召唤*1","锁定*1",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"4388万金币","召唤*1","锁定*1",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"5488万金币","召唤*1","锁定*1",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"6488万金币","召唤*1","锁定*1",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"7688万金币","召唤*1","锁定*1",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi","prop_3d_fish_summon_fish","prop_3d_fish_lock",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>750000,1,1,</t>
-  </si>
-  <si>
-    <t>3180000,5,5,</t>
-  </si>
-  <si>
-    <t>22180000,40,40,</t>
-  </si>
-  <si>
-    <t>32880000,68,60,</t>
-  </si>
-  <si>
-    <t>54880000,110,100,</t>
-  </si>
-  <si>
-    <t>64880000,148,100,</t>
-  </si>
-  <si>
-    <t>76880000,158,100,</t>
-  </si>
-  <si>
-    <t>5380000,10,10,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>11080000,20,20,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>43880000,88,80,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>9999999999,1,0</t>
@@ -7953,15 +7875,219 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
+    <t>"jing_bi","prop_guess_apple_bet_1","prop_hammer_1",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>gift_bag</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"3288万金币","水滴*6","玩具锤*6",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>VIP1礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"75万金币","水滴*1","玩具锤*1",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>gift_bag</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_guess_apple_bet_1","prop_hammer_1",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>9999999999,1,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"318万金币","水滴*2","玩具锤*2",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_guess_apple_bet_1","prop_hammer_1",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>3180000,2,2,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"538万金币","水滴*3","玩具锤*3",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_guess_apple_bet_1","prop_hammer_1",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>5380000,3,3,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"1108万金币","水滴*4","玩具锤*4",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>11080000,4,4,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"2218万金币","水滴*5","玩具锤*5",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>22180000,5,5,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>32880000,6,6,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"4388万金币","水滴*7","玩具锤*7",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>gift_bag</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>43880000,7,7,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>9999999999,1,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"5488万金币","水滴*8","玩具锤*8",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>54880000,8,8,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"6488万金币","水滴*10","玩具锤*10",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>64880000,10,10,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>9999999999,1,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"7688万金币","水滴*20","玩具锤*20",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>76880000,20,20,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>感恩礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>498元</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"4980万金币","40万鱼币","传说宝箱*15",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","fish_coin","prop_gej_cs",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","fish_coin","prop_gej_cs",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>49800000,400000,15,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>86400,1,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>感恩礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>198元</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"1980万金币","30万鱼币","传说宝箱*5",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>gift_bag</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>19800000,300000,5,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>86400,1,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>98元</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"980万金币","20万鱼币","史诗宝箱*3",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","fish_coin","prop_gej_ss",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>9800000,200000,3,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>48元</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"480万金币","10万鱼币","稀有宝箱*3",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","fish_coin","prop_gej_xy",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4800000,100000,3,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>10486000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>"2.5亿金币",</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>250000000,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>10486000,</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -8040,7 +8166,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -8119,6 +8245,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -8162,7 +8300,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -8359,6 +8497,27 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="15" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -8758,16 +8917,16 @@
         <v>3</v>
       </c>
       <c r="D4" s="32" t="s">
-        <v>1532</v>
+        <v>1511</v>
       </c>
       <c r="E4" s="51" t="s">
-        <v>1533</v>
+        <v>1512</v>
       </c>
       <c r="F4" s="18" t="s">
-        <v>1534</v>
+        <v>1513</v>
       </c>
       <c r="G4" s="18" t="s">
-        <v>1535</v>
+        <v>1514</v>
       </c>
       <c r="H4" s="12">
         <v>0</v>
@@ -8825,7 +8984,7 @@
   <dimension ref="A1:AF32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8866,7 +9025,7 @@
         <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1084</v>
+        <v>1063</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -8917,7 +9076,7 @@
         <v>28</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>1105</v>
+        <v>1084</v>
       </c>
       <c r="U1" s="1" t="s">
         <v>29</v>
@@ -8981,7 +9140,7 @@
         <v>43</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>1085</v>
+        <v>1064</v>
       </c>
       <c r="K2" s="11" t="s">
         <v>44</v>
@@ -9011,14 +9170,14 @@
         <v>1</v>
       </c>
       <c r="T2" s="33" t="s">
-        <v>1106</v>
+        <v>1085</v>
       </c>
       <c r="U2" s="33" t="s">
-        <v>1086</v>
+        <v>1065</v>
       </c>
       <c r="V2" s="11"/>
       <c r="W2" s="33" t="s">
-        <v>1107</v>
+        <v>1086</v>
       </c>
       <c r="X2" s="11" t="s">
         <v>47</v>
@@ -9027,7 +9186,7 @@
         <v>634</v>
       </c>
       <c r="Z2" s="3" t="s">
-        <v>1108</v>
+        <v>1087</v>
       </c>
       <c r="AC2" s="11">
         <v>1</v>
@@ -9050,9 +9209,7 @@
         <v>41</v>
       </c>
       <c r="E3" s="24"/>
-      <c r="F3" s="2">
-        <v>85</v>
-      </c>
+      <c r="F3" s="2"/>
       <c r="G3" s="11" t="s">
         <v>42</v>
       </c>
@@ -9063,7 +9220,7 @@
         <v>43</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>1087</v>
+        <v>1066</v>
       </c>
       <c r="K3" s="11" t="s">
         <v>44</v>
@@ -9093,14 +9250,14 @@
         <v>2</v>
       </c>
       <c r="T3" s="33" t="s">
-        <v>1109</v>
+        <v>1088</v>
       </c>
       <c r="U3" s="33" t="s">
-        <v>1088</v>
+        <v>1067</v>
       </c>
       <c r="V3" s="11"/>
       <c r="W3" s="33" t="s">
-        <v>1107</v>
+        <v>1086</v>
       </c>
       <c r="X3" s="11" t="s">
         <v>49</v>
@@ -9132,9 +9289,7 @@
         <v>41</v>
       </c>
       <c r="E4" s="24"/>
-      <c r="F4" s="2">
-        <v>86</v>
-      </c>
+      <c r="F4" s="2"/>
       <c r="G4" s="11" t="s">
         <v>42</v>
       </c>
@@ -9145,7 +9300,7 @@
         <v>43</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>1089</v>
+        <v>1068</v>
       </c>
       <c r="K4" s="11" t="s">
         <v>44</v>
@@ -9175,14 +9330,14 @@
         <v>3</v>
       </c>
       <c r="T4" s="33" t="s">
-        <v>1110</v>
+        <v>1089</v>
       </c>
       <c r="U4" s="33" t="s">
-        <v>1111</v>
+        <v>1090</v>
       </c>
       <c r="V4" s="11"/>
       <c r="W4" s="33" t="s">
-        <v>1107</v>
+        <v>1086</v>
       </c>
       <c r="X4" s="11" t="s">
         <v>50</v>
@@ -9214,9 +9369,7 @@
         <v>41</v>
       </c>
       <c r="E5" s="24"/>
-      <c r="F5" s="2">
-        <v>87</v>
-      </c>
+      <c r="F5" s="2"/>
       <c r="G5" s="11" t="s">
         <v>42</v>
       </c>
@@ -9227,7 +9380,7 @@
         <v>43</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>1090</v>
+        <v>1069</v>
       </c>
       <c r="K5" s="11" t="s">
         <v>44</v>
@@ -9257,14 +9410,14 @@
         <v>4</v>
       </c>
       <c r="T5" s="33" t="s">
+        <v>1070</v>
+      </c>
+      <c r="U5" s="33" t="s">
         <v>1091</v>
-      </c>
-      <c r="U5" s="33" t="s">
-        <v>1112</v>
       </c>
       <c r="V5" s="11"/>
       <c r="W5" s="33" t="s">
-        <v>1107</v>
+        <v>1086</v>
       </c>
       <c r="X5" s="11" t="s">
         <v>51</v>
@@ -9296,9 +9449,7 @@
         <v>41</v>
       </c>
       <c r="E6" s="24"/>
-      <c r="F6" s="2">
-        <v>88</v>
-      </c>
+      <c r="F6" s="2"/>
       <c r="G6" s="11" t="s">
         <v>42</v>
       </c>
@@ -9309,7 +9460,7 @@
         <v>43</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>1092</v>
+        <v>1071</v>
       </c>
       <c r="K6" s="11" t="s">
         <v>44</v>
@@ -9339,14 +9490,14 @@
         <v>5</v>
       </c>
       <c r="T6" s="33" t="s">
-        <v>1113</v>
+        <v>1092</v>
       </c>
       <c r="U6" s="33" t="s">
-        <v>1113</v>
+        <v>1092</v>
       </c>
       <c r="V6" s="11"/>
       <c r="W6" s="33" t="s">
-        <v>1107</v>
+        <v>1086</v>
       </c>
       <c r="X6" s="11" t="s">
         <v>52</v>
@@ -9378,9 +9529,7 @@
         <v>41</v>
       </c>
       <c r="E7" s="24"/>
-      <c r="F7" s="2">
-        <v>89</v>
-      </c>
+      <c r="F7" s="2"/>
       <c r="G7" s="11" t="s">
         <v>42</v>
       </c>
@@ -9391,7 +9540,7 @@
         <v>43</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>1093</v>
+        <v>1072</v>
       </c>
       <c r="K7" s="11" t="s">
         <v>44</v>
@@ -9421,14 +9570,14 @@
         <v>7</v>
       </c>
       <c r="T7" s="33" t="s">
-        <v>1094</v>
+        <v>1073</v>
       </c>
       <c r="U7" s="33" t="s">
-        <v>1114</v>
+        <v>1093</v>
       </c>
       <c r="V7" s="11"/>
       <c r="W7" s="33" t="s">
-        <v>1107</v>
+        <v>1086</v>
       </c>
       <c r="X7" s="11" t="s">
         <v>53</v>
@@ -9460,9 +9609,7 @@
         <v>41</v>
       </c>
       <c r="E8" s="24"/>
-      <c r="F8" s="2">
-        <v>109</v>
-      </c>
+      <c r="F8" s="2"/>
       <c r="G8" s="11" t="s">
         <v>42</v>
       </c>
@@ -9473,7 +9620,7 @@
         <v>43</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>1095</v>
+        <v>1074</v>
       </c>
       <c r="K8" s="11" t="s">
         <v>44</v>
@@ -9503,14 +9650,14 @@
         <v>8</v>
       </c>
       <c r="T8" s="33" t="s">
-        <v>1115</v>
+        <v>1094</v>
       </c>
       <c r="U8" s="33" t="s">
-        <v>1116</v>
+        <v>1095</v>
       </c>
       <c r="V8" s="11"/>
       <c r="W8" s="33" t="s">
-        <v>1107</v>
+        <v>1086</v>
       </c>
       <c r="X8" s="11" t="s">
         <v>54</v>
@@ -9542,9 +9689,7 @@
         <v>41</v>
       </c>
       <c r="E9" s="23"/>
-      <c r="F9" s="2">
-        <v>10044</v>
-      </c>
+      <c r="F9" s="2"/>
       <c r="G9" s="11" t="s">
         <v>42</v>
       </c>
@@ -9555,7 +9700,7 @@
         <v>43</v>
       </c>
       <c r="J9" s="33" t="s">
-        <v>1103</v>
+        <v>1082</v>
       </c>
       <c r="K9" s="11" t="s">
         <v>44</v>
@@ -9585,13 +9730,13 @@
         <v>9</v>
       </c>
       <c r="T9" s="33" t="s">
-        <v>1117</v>
+        <v>1096</v>
       </c>
       <c r="U9" s="33" t="s">
-        <v>1117</v>
+        <v>1096</v>
       </c>
       <c r="W9" s="33" t="s">
-        <v>1118</v>
+        <v>1097</v>
       </c>
       <c r="X9" s="11" t="s">
         <v>55</v>
@@ -9623,9 +9768,6 @@
         <v>41</v>
       </c>
       <c r="E10" s="23"/>
-      <c r="F10" s="11">
-        <v>10045</v>
-      </c>
       <c r="G10" s="11" t="s">
         <v>42</v>
       </c>
@@ -9636,7 +9778,7 @@
         <v>43</v>
       </c>
       <c r="J10" s="33" t="s">
-        <v>1119</v>
+        <v>1098</v>
       </c>
       <c r="K10" s="11" t="s">
         <v>44</v>
@@ -9666,13 +9808,13 @@
         <v>10</v>
       </c>
       <c r="T10" s="33" t="s">
-        <v>1120</v>
+        <v>1099</v>
       </c>
       <c r="U10" s="33" t="s">
-        <v>1120</v>
+        <v>1099</v>
       </c>
       <c r="W10" s="33" t="s">
-        <v>1118</v>
+        <v>1097</v>
       </c>
       <c r="X10" s="11" t="s">
         <v>56</v>
@@ -9706,9 +9848,7 @@
       <c r="E11" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="F11" s="11">
-        <v>90</v>
-      </c>
+      <c r="F11" s="11"/>
       <c r="G11" s="2" t="s">
         <v>42</v>
       </c>
@@ -9719,7 +9859,7 @@
         <v>43</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>1097</v>
+        <v>1076</v>
       </c>
       <c r="K11" s="2" t="s">
         <v>44</v>
@@ -9800,7 +9940,7 @@
         <v>43</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>1098</v>
+        <v>1077</v>
       </c>
       <c r="K12" s="2" t="s">
         <v>44</v>
@@ -9881,7 +10021,7 @@
         <v>43</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>1099</v>
+        <v>1078</v>
       </c>
       <c r="K13" s="2" t="s">
         <v>44</v>
@@ -9962,7 +10102,7 @@
         <v>43</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>1100</v>
+        <v>1079</v>
       </c>
       <c r="K14" s="2" t="s">
         <v>44</v>
@@ -10043,7 +10183,7 @@
         <v>43</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>1101</v>
+        <v>1080</v>
       </c>
       <c r="K15" s="2" t="s">
         <v>44</v>
@@ -10124,7 +10264,7 @@
         <v>43</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>1104</v>
+        <v>1083</v>
       </c>
       <c r="K16" s="2" t="s">
         <v>44</v>
@@ -10154,7 +10294,7 @@
         <v>0</v>
       </c>
       <c r="T16" s="3" t="s">
-        <v>1121</v>
+        <v>1100</v>
       </c>
       <c r="U16" s="2">
         <v>66</v>
@@ -10198,7 +10338,7 @@
         <v>78</v>
       </c>
       <c r="J17" s="33" t="s">
-        <v>1122</v>
+        <v>1101</v>
       </c>
       <c r="K17" s="2" t="s">
         <v>44</v>
@@ -10228,10 +10368,10 @@
         <v>1</v>
       </c>
       <c r="T17" s="3" t="s">
-        <v>1123</v>
+        <v>1102</v>
       </c>
       <c r="U17" s="3" t="s">
-        <v>1123</v>
+        <v>1102</v>
       </c>
       <c r="W17" s="2" t="s">
         <v>46</v>
@@ -10272,7 +10412,7 @@
         <v>78</v>
       </c>
       <c r="J18" s="33" t="s">
-        <v>1124</v>
+        <v>1103</v>
       </c>
       <c r="K18" s="2" t="s">
         <v>44</v>
@@ -10302,10 +10442,10 @@
         <v>2</v>
       </c>
       <c r="T18" s="3" t="s">
-        <v>1125</v>
+        <v>1104</v>
       </c>
       <c r="U18" s="3" t="s">
-        <v>1125</v>
+        <v>1104</v>
       </c>
       <c r="W18" s="2" t="s">
         <v>46</v>
@@ -10346,7 +10486,7 @@
         <v>78</v>
       </c>
       <c r="J19" s="33" t="s">
-        <v>1126</v>
+        <v>1105</v>
       </c>
       <c r="K19" s="2" t="s">
         <v>44</v>
@@ -10376,10 +10516,10 @@
         <v>3</v>
       </c>
       <c r="T19" s="3" t="s">
-        <v>1102</v>
+        <v>1081</v>
       </c>
       <c r="U19" s="3" t="s">
-        <v>1127</v>
+        <v>1106</v>
       </c>
       <c r="W19" s="2" t="s">
         <v>46</v>
@@ -10420,7 +10560,7 @@
         <v>78</v>
       </c>
       <c r="J20" s="33" t="s">
-        <v>1128</v>
+        <v>1107</v>
       </c>
       <c r="K20" s="2" t="s">
         <v>44</v>
@@ -10450,10 +10590,10 @@
         <v>4</v>
       </c>
       <c r="T20" s="3" t="s">
-        <v>1129</v>
+        <v>1108</v>
       </c>
       <c r="U20" s="3" t="s">
-        <v>1130</v>
+        <v>1109</v>
       </c>
       <c r="W20" s="2" t="s">
         <v>46</v>
@@ -10494,7 +10634,7 @@
         <v>78</v>
       </c>
       <c r="J21" s="33" t="s">
-        <v>1131</v>
+        <v>1110</v>
       </c>
       <c r="K21" s="2" t="s">
         <v>44</v>
@@ -10524,10 +10664,10 @@
         <v>5</v>
       </c>
       <c r="T21" s="3" t="s">
-        <v>1132</v>
+        <v>1111</v>
       </c>
       <c r="U21" s="3" t="s">
-        <v>1132</v>
+        <v>1111</v>
       </c>
       <c r="W21" s="2" t="s">
         <v>46</v>
@@ -10568,7 +10708,7 @@
         <v>78</v>
       </c>
       <c r="J22" s="33" t="s">
-        <v>1133</v>
+        <v>1112</v>
       </c>
       <c r="K22" s="2" t="s">
         <v>44</v>
@@ -10598,10 +10738,10 @@
         <v>6</v>
       </c>
       <c r="T22" s="3" t="s">
-        <v>1134</v>
+        <v>1113</v>
       </c>
       <c r="U22" s="3" t="s">
-        <v>1134</v>
+        <v>1113</v>
       </c>
       <c r="W22" s="2" t="s">
         <v>46</v>
@@ -10642,7 +10782,7 @@
         <v>78</v>
       </c>
       <c r="J23" s="33" t="s">
-        <v>1135</v>
+        <v>1114</v>
       </c>
       <c r="K23" s="2" t="s">
         <v>44</v>
@@ -10672,10 +10812,10 @@
         <v>7</v>
       </c>
       <c r="T23" s="3" t="s">
-        <v>1136</v>
+        <v>1115</v>
       </c>
       <c r="U23" s="3" t="s">
-        <v>1136</v>
+        <v>1115</v>
       </c>
       <c r="W23" s="2" t="s">
         <v>46</v>
@@ -10710,29 +10850,27 @@
         <v>41</v>
       </c>
       <c r="E24" s="46"/>
-      <c r="F24" s="11">
-        <v>10189</v>
-      </c>
+      <c r="F24" s="11"/>
       <c r="G24" s="2" t="s">
-        <v>1137</v>
+        <v>1116</v>
       </c>
       <c r="H24" s="11">
         <v>19800</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>1138</v>
+        <v>1117</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>1486</v>
+        <v>1465</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>1139</v>
+        <v>1118</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>1140</v>
+        <v>1119</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>1141</v>
+        <v>1120</v>
       </c>
       <c r="N24" s="2">
         <v>1</v>
@@ -10753,16 +10891,16 @@
         <v>6</v>
       </c>
       <c r="T24" s="3" t="s">
-        <v>1142</v>
+        <v>1121</v>
       </c>
       <c r="U24" s="3" t="s">
-        <v>1142</v>
+        <v>1121</v>
       </c>
       <c r="W24" s="33" t="s">
-        <v>1096</v>
+        <v>1075</v>
       </c>
       <c r="X24" s="3" t="s">
-        <v>1143</v>
+        <v>1122</v>
       </c>
       <c r="Y24" s="11" t="s">
         <v>642</v>
@@ -10811,13 +10949,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AM475"/>
+  <dimension ref="A1:AM479"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="P447" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="M446" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q455" sqref="Q455"/>
+      <selection pane="bottomRight" activeCell="Q475" sqref="Q475"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -10879,10 +11017,10 @@
         <v>82</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>1221</v>
+        <v>1200</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>1246</v>
+        <v>1225</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>83</v>
@@ -11212,7 +11350,7 @@
         <v>110</v>
       </c>
       <c r="AB5" s="5" t="s">
-        <v>1066</v>
+        <v>1045</v>
       </c>
       <c r="AG5" s="5">
         <v>1</v>
@@ -14548,7 +14686,7 @@
         <v>1</v>
       </c>
       <c r="G66" s="5" t="s">
-        <v>1222</v>
+        <v>1201</v>
       </c>
       <c r="I66" s="5" t="s">
         <v>960</v>
@@ -14596,283 +14734,283 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="5">
+    <row r="67" spans="1:34" s="69" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="69">
         <v>66</v>
       </c>
-      <c r="B67" s="5">
+      <c r="B67" s="69">
         <v>85</v>
       </c>
-      <c r="D67" s="5">
+      <c r="D67" s="69">
         <v>2</v>
       </c>
-      <c r="F67" s="5">
-        <v>1</v>
-      </c>
-      <c r="G67" s="5" t="s">
+      <c r="F67" s="69">
+        <v>0</v>
+      </c>
+      <c r="G67" s="69" t="s">
         <v>223</v>
       </c>
-      <c r="K67" s="5">
+      <c r="K67" s="69">
         <v>-4</v>
       </c>
-      <c r="L67" s="5">
-        <v>0</v>
-      </c>
-      <c r="M67" s="5">
-        <v>0</v>
-      </c>
-      <c r="N67" s="5" t="s">
+      <c r="L67" s="69">
+        <v>0</v>
+      </c>
+      <c r="M67" s="69">
+        <v>0</v>
+      </c>
+      <c r="N67" s="69" t="s">
         <v>101</v>
       </c>
-      <c r="O67" s="5">
+      <c r="O67" s="69">
         <v>1500</v>
       </c>
-      <c r="P67" s="5" t="s">
+      <c r="P67" s="69" t="s">
         <v>78</v>
       </c>
-      <c r="Q67" s="5" t="s">
-        <v>1488</v>
-      </c>
-      <c r="V67" s="5" t="s">
+      <c r="Q67" s="69" t="s">
+        <v>1467</v>
+      </c>
+      <c r="V67" s="69" t="s">
         <v>526</v>
       </c>
-      <c r="W67" s="14" t="s">
+      <c r="W67" s="70" t="s">
         <v>109</v>
       </c>
-      <c r="X67" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y67" s="5">
+      <c r="X67" s="71">
+        <v>0</v>
+      </c>
+      <c r="Y67" s="69">
         <v>2552233600</v>
       </c>
-      <c r="AG67" s="5">
-        <v>1</v>
-      </c>
-      <c r="AH67" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="5">
+      <c r="AG67" s="69">
+        <v>1</v>
+      </c>
+      <c r="AH67" s="69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:34" s="69" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="69">
         <v>67</v>
       </c>
-      <c r="B68" s="5">
+      <c r="B68" s="69">
         <v>86</v>
       </c>
-      <c r="D68" s="5">
+      <c r="D68" s="69">
         <v>3</v>
       </c>
-      <c r="F68" s="5">
-        <v>1</v>
-      </c>
-      <c r="G68" s="5" t="s">
+      <c r="F68" s="69">
+        <v>0</v>
+      </c>
+      <c r="G68" s="69" t="s">
         <v>225</v>
       </c>
-      <c r="K68" s="5">
+      <c r="K68" s="69">
         <v>-4</v>
       </c>
-      <c r="L68" s="5">
-        <v>0</v>
-      </c>
-      <c r="M68" s="5">
-        <v>0</v>
-      </c>
-      <c r="N68" s="5" t="s">
+      <c r="L68" s="69">
+        <v>0</v>
+      </c>
+      <c r="M68" s="69">
+        <v>0</v>
+      </c>
+      <c r="N68" s="69" t="s">
         <v>101</v>
       </c>
-      <c r="O68" s="5">
+      <c r="O68" s="69">
         <v>3000</v>
       </c>
-      <c r="P68" s="5" t="s">
+      <c r="P68" s="69" t="s">
         <v>78</v>
       </c>
-      <c r="Q68" s="5" t="s">
-        <v>1531</v>
-      </c>
-      <c r="V68" s="5" t="s">
+      <c r="Q68" s="69" t="s">
+        <v>1510</v>
+      </c>
+      <c r="V68" s="69" t="s">
         <v>526</v>
       </c>
-      <c r="W68" s="14" t="s">
+      <c r="W68" s="70" t="s">
         <v>109</v>
       </c>
-      <c r="X68" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y68" s="5">
+      <c r="X68" s="71">
+        <v>0</v>
+      </c>
+      <c r="Y68" s="69">
         <v>2552233600</v>
       </c>
-      <c r="AG68" s="5">
-        <v>1</v>
-      </c>
-      <c r="AH68" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="5">
+      <c r="AG68" s="69">
+        <v>1</v>
+      </c>
+      <c r="AH68" s="69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:34" s="69" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="69">
         <v>68</v>
       </c>
-      <c r="B69" s="5">
+      <c r="B69" s="69">
         <v>87</v>
       </c>
-      <c r="D69" s="5">
+      <c r="D69" s="69">
         <v>4</v>
       </c>
-      <c r="F69" s="5">
-        <v>1</v>
-      </c>
-      <c r="G69" s="5" t="s">
+      <c r="F69" s="69">
+        <v>0</v>
+      </c>
+      <c r="G69" s="69" t="s">
         <v>227</v>
       </c>
-      <c r="K69" s="5">
+      <c r="K69" s="69">
         <v>-4</v>
       </c>
-      <c r="L69" s="5">
-        <v>0</v>
-      </c>
-      <c r="M69" s="5">
-        <v>0</v>
-      </c>
-      <c r="N69" s="5" t="s">
+      <c r="L69" s="69">
+        <v>0</v>
+      </c>
+      <c r="M69" s="69">
+        <v>0</v>
+      </c>
+      <c r="N69" s="69" t="s">
         <v>101</v>
       </c>
-      <c r="O69" s="5">
+      <c r="O69" s="69">
         <v>5000</v>
       </c>
-      <c r="P69" s="5" t="s">
+      <c r="P69" s="69" t="s">
         <v>78</v>
       </c>
-      <c r="Q69" s="5" t="s">
-        <v>1489</v>
-      </c>
-      <c r="V69" s="5" t="s">
+      <c r="Q69" s="69" t="s">
+        <v>1468</v>
+      </c>
+      <c r="V69" s="69" t="s">
         <v>526</v>
       </c>
-      <c r="W69" s="14" t="s">
+      <c r="W69" s="70" t="s">
         <v>109</v>
       </c>
-      <c r="X69" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y69" s="5">
+      <c r="X69" s="71">
+        <v>0</v>
+      </c>
+      <c r="Y69" s="69">
         <v>2552233600</v>
       </c>
-      <c r="AG69" s="5">
-        <v>1</v>
-      </c>
-      <c r="AH69" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="5">
+      <c r="AG69" s="69">
+        <v>1</v>
+      </c>
+      <c r="AH69" s="69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:34" s="69" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="69">
         <v>69</v>
       </c>
-      <c r="B70" s="5">
+      <c r="B70" s="69">
         <v>88</v>
       </c>
-      <c r="D70" s="5">
+      <c r="D70" s="69">
         <v>5</v>
       </c>
-      <c r="F70" s="5">
-        <v>1</v>
-      </c>
-      <c r="G70" s="5" t="s">
+      <c r="F70" s="69">
+        <v>0</v>
+      </c>
+      <c r="G70" s="69" t="s">
         <v>229</v>
       </c>
-      <c r="K70" s="5">
+      <c r="K70" s="69">
         <v>-4</v>
       </c>
-      <c r="L70" s="5">
-        <v>0</v>
-      </c>
-      <c r="M70" s="5">
-        <v>0</v>
-      </c>
-      <c r="N70" s="5" t="s">
+      <c r="L70" s="69">
+        <v>0</v>
+      </c>
+      <c r="M70" s="69">
+        <v>0</v>
+      </c>
+      <c r="N70" s="69" t="s">
         <v>101</v>
       </c>
-      <c r="O70" s="5">
+      <c r="O70" s="69">
         <v>9800</v>
       </c>
-      <c r="P70" s="5" t="s">
+      <c r="P70" s="69" t="s">
         <v>78</v>
       </c>
-      <c r="Q70" s="5" t="s">
-        <v>1490</v>
-      </c>
-      <c r="V70" s="5" t="s">
+      <c r="Q70" s="69" t="s">
+        <v>1469</v>
+      </c>
+      <c r="V70" s="69" t="s">
         <v>526</v>
       </c>
-      <c r="W70" s="14" t="s">
+      <c r="W70" s="70" t="s">
         <v>109</v>
       </c>
-      <c r="X70" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y70" s="5">
+      <c r="X70" s="71">
+        <v>0</v>
+      </c>
+      <c r="Y70" s="69">
         <v>2552233600</v>
       </c>
-      <c r="AG70" s="5">
-        <v>1</v>
-      </c>
-      <c r="AH70" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="5">
+      <c r="AG70" s="69">
+        <v>1</v>
+      </c>
+      <c r="AH70" s="69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:34" s="69" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="69">
         <v>70</v>
       </c>
-      <c r="B71" s="5">
+      <c r="B71" s="69">
         <v>89</v>
       </c>
-      <c r="D71" s="5">
+      <c r="D71" s="69">
         <v>6</v>
       </c>
-      <c r="F71" s="5">
-        <v>1</v>
-      </c>
-      <c r="G71" s="5" t="s">
+      <c r="F71" s="69">
+        <v>0</v>
+      </c>
+      <c r="G71" s="69" t="s">
         <v>230</v>
       </c>
-      <c r="K71" s="5">
+      <c r="K71" s="69">
         <v>-4</v>
       </c>
-      <c r="L71" s="5">
-        <v>0</v>
-      </c>
-      <c r="M71" s="5">
-        <v>0</v>
-      </c>
-      <c r="N71" s="5" t="s">
+      <c r="L71" s="69">
+        <v>0</v>
+      </c>
+      <c r="M71" s="69">
+        <v>0</v>
+      </c>
+      <c r="N71" s="69" t="s">
         <v>101</v>
       </c>
-      <c r="O71" s="5">
+      <c r="O71" s="69">
         <v>49800</v>
       </c>
-      <c r="P71" s="5" t="s">
+      <c r="P71" s="69" t="s">
         <v>78</v>
       </c>
-      <c r="Q71" s="5" t="s">
-        <v>1491</v>
-      </c>
-      <c r="V71" s="5" t="s">
+      <c r="Q71" s="69" t="s">
+        <v>1470</v>
+      </c>
+      <c r="V71" s="69" t="s">
         <v>526</v>
       </c>
-      <c r="W71" s="14" t="s">
+      <c r="W71" s="70" t="s">
         <v>109</v>
       </c>
-      <c r="X71" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y71" s="5">
+      <c r="X71" s="71">
+        <v>0</v>
+      </c>
+      <c r="Y71" s="69">
         <v>2552233600</v>
       </c>
-      <c r="AG71" s="5">
-        <v>1</v>
-      </c>
-      <c r="AH71" s="5">
+      <c r="AG71" s="69">
+        <v>1</v>
+      </c>
+      <c r="AH71" s="69">
         <v>1</v>
       </c>
     </row>
@@ -15188,7 +15326,7 @@
         <v>236</v>
       </c>
       <c r="I77" s="19" t="s">
-        <v>1603</v>
+        <v>1582</v>
       </c>
       <c r="K77" s="19">
         <v>-20</v>
@@ -15206,10 +15344,10 @@
         <v>100</v>
       </c>
       <c r="P77" s="19" t="s">
-        <v>1604</v>
+        <v>1583</v>
       </c>
       <c r="Q77" s="39" t="s">
-        <v>1605</v>
+        <v>1584</v>
       </c>
       <c r="V77" s="19" t="s">
         <v>526</v>
@@ -15244,7 +15382,7 @@
         <v>237</v>
       </c>
       <c r="I78" s="19" t="s">
-        <v>1425</v>
+        <v>1404</v>
       </c>
       <c r="K78" s="19">
         <v>-20</v>
@@ -15262,10 +15400,10 @@
         <v>1000</v>
       </c>
       <c r="P78" s="19" t="s">
-        <v>1426</v>
+        <v>1405</v>
       </c>
       <c r="Q78" s="39" t="s">
-        <v>1427</v>
+        <v>1406</v>
       </c>
       <c r="V78" s="19" t="s">
         <v>526</v>
@@ -15283,10 +15421,10 @@
         <v>78</v>
       </c>
       <c r="AB78" s="19" t="s">
-        <v>1428</v>
+        <v>1407</v>
       </c>
       <c r="AC78" s="39" t="s">
-        <v>1429</v>
+        <v>1408</v>
       </c>
       <c r="AG78" s="19">
         <v>1</v>
@@ -15306,7 +15444,7 @@
         <v>1</v>
       </c>
       <c r="G79" s="5" t="s">
-        <v>1223</v>
+        <v>1202</v>
       </c>
       <c r="I79" s="5" t="s">
         <v>824</v>
@@ -15460,10 +15598,10 @@
         <v>4800</v>
       </c>
       <c r="P81" s="19" t="s">
-        <v>1430</v>
+        <v>1409</v>
       </c>
       <c r="Q81" s="39" t="s">
-        <v>1431</v>
+        <v>1410</v>
       </c>
       <c r="V81" s="19" t="s">
         <v>526</v>
@@ -15478,10 +15616,10 @@
         <v>2552233600</v>
       </c>
       <c r="AA81" s="19" t="s">
-        <v>1432</v>
+        <v>1411</v>
       </c>
       <c r="AB81" s="19" t="s">
-        <v>1433</v>
+        <v>1412</v>
       </c>
       <c r="AG81" s="19">
         <v>1</v>
@@ -15690,10 +15828,10 @@
         <v>4800</v>
       </c>
       <c r="P85" s="5" t="s">
-        <v>1420</v>
+        <v>1399</v>
       </c>
       <c r="Q85" s="5" t="s">
-        <v>1423</v>
+        <v>1402</v>
       </c>
       <c r="V85" s="5" t="s">
         <v>528</v>
@@ -15796,10 +15934,10 @@
         <v>9600</v>
       </c>
       <c r="P87" s="5" t="s">
-        <v>1421</v>
+        <v>1400</v>
       </c>
       <c r="Q87" s="5" t="s">
-        <v>1424</v>
+        <v>1403</v>
       </c>
       <c r="V87" s="5" t="s">
         <v>528</v>
@@ -16156,56 +16294,56 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="5">
+    <row r="94" spans="1:34" s="69" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="69">
         <v>93</v>
       </c>
-      <c r="B94" s="5">
+      <c r="B94" s="69">
         <v>109</v>
       </c>
-      <c r="F94" s="5">
-        <v>1</v>
-      </c>
-      <c r="G94" s="5" t="s">
+      <c r="F94" s="69">
+        <v>0</v>
+      </c>
+      <c r="G94" s="69" t="s">
         <v>254</v>
       </c>
-      <c r="K94" s="5">
+      <c r="K94" s="69">
         <v>-4</v>
       </c>
-      <c r="L94" s="5">
-        <v>0</v>
-      </c>
-      <c r="M94" s="5">
-        <v>0</v>
-      </c>
-      <c r="N94" s="5" t="s">
+      <c r="L94" s="69">
+        <v>0</v>
+      </c>
+      <c r="M94" s="69">
+        <v>0</v>
+      </c>
+      <c r="N94" s="69" t="s">
         <v>101</v>
       </c>
-      <c r="O94" s="5">
+      <c r="O94" s="69">
         <v>100000</v>
       </c>
-      <c r="P94" s="5" t="s">
+      <c r="P94" s="69" t="s">
         <v>78</v>
       </c>
-      <c r="Q94" s="5" t="s">
+      <c r="Q94" s="69" t="s">
         <v>695</v>
       </c>
-      <c r="V94" s="5" t="s">
+      <c r="V94" s="69" t="s">
         <v>526</v>
       </c>
-      <c r="W94" s="14" t="s">
+      <c r="W94" s="70" t="s">
         <v>109</v>
       </c>
-      <c r="X94" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y94" s="5">
+      <c r="X94" s="69">
+        <v>0</v>
+      </c>
+      <c r="Y94" s="69">
         <v>2552233600</v>
       </c>
-      <c r="AG94" s="5">
-        <v>1</v>
-      </c>
-      <c r="AH94" s="5">
+      <c r="AG94" s="69">
+        <v>1</v>
+      </c>
+      <c r="AH94" s="69">
         <v>1</v>
       </c>
     </row>
@@ -18187,115 +18325,115 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="5">
+    <row r="128" spans="1:34" s="69" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A128" s="69">
         <v>127</v>
       </c>
-      <c r="B128" s="5">
+      <c r="B128" s="69">
         <v>10044</v>
       </c>
-      <c r="D128" s="5">
+      <c r="D128" s="69">
         <v>108</v>
       </c>
-      <c r="F128" s="5">
-        <v>1</v>
-      </c>
-      <c r="G128" s="5" t="s">
+      <c r="F128" s="69">
+        <v>0</v>
+      </c>
+      <c r="G128" s="69" t="s">
         <v>320</v>
       </c>
-      <c r="K128" s="5">
+      <c r="K128" s="69">
         <v>-10</v>
       </c>
-      <c r="L128" s="5">
-        <v>0</v>
-      </c>
-      <c r="M128" s="5">
-        <v>0</v>
-      </c>
-      <c r="N128" s="5" t="s">
+      <c r="L128" s="69">
+        <v>0</v>
+      </c>
+      <c r="M128" s="69">
+        <v>0</v>
+      </c>
+      <c r="N128" s="69" t="s">
         <v>101</v>
       </c>
-      <c r="O128" s="5">
+      <c r="O128" s="69">
         <v>99800</v>
       </c>
-      <c r="P128" s="5" t="s">
+      <c r="P128" s="69" t="s">
         <v>78</v>
       </c>
-      <c r="Q128" s="5" t="s">
-        <v>1493</v>
-      </c>
-      <c r="V128" s="5" t="s">
+      <c r="Q128" s="69" t="s">
+        <v>1472</v>
+      </c>
+      <c r="V128" s="69" t="s">
         <v>526</v>
       </c>
-      <c r="W128" s="14" t="s">
+      <c r="W128" s="70" t="s">
         <v>109</v>
       </c>
-      <c r="X128" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y128" s="5">
+      <c r="X128" s="71">
+        <v>0</v>
+      </c>
+      <c r="Y128" s="69">
         <v>2552233600</v>
       </c>
-      <c r="AG128" s="5">
-        <v>1</v>
-      </c>
-      <c r="AH128" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="5">
+      <c r="AG128" s="69">
+        <v>1</v>
+      </c>
+      <c r="AH128" s="69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:38" s="69" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A129" s="69">
         <v>128</v>
       </c>
-      <c r="B129" s="5">
+      <c r="B129" s="69">
         <v>10045</v>
       </c>
-      <c r="D129" s="5">
+      <c r="D129" s="69">
         <v>110</v>
       </c>
-      <c r="F129" s="5">
-        <v>1</v>
-      </c>
-      <c r="G129" s="5" t="s">
-        <v>1224</v>
-      </c>
-      <c r="K129" s="5">
+      <c r="F129" s="69">
+        <v>0</v>
+      </c>
+      <c r="G129" s="69" t="s">
+        <v>1203</v>
+      </c>
+      <c r="K129" s="69">
         <v>-11</v>
       </c>
-      <c r="L129" s="5">
-        <v>0</v>
-      </c>
-      <c r="M129" s="5">
-        <v>0</v>
-      </c>
-      <c r="N129" s="5" t="s">
+      <c r="L129" s="69">
+        <v>0</v>
+      </c>
+      <c r="M129" s="69">
+        <v>0</v>
+      </c>
+      <c r="N129" s="69" t="s">
         <v>101</v>
       </c>
-      <c r="O129" s="5">
+      <c r="O129" s="69">
         <v>249800</v>
       </c>
-      <c r="P129" s="5" t="s">
+      <c r="P129" s="69" t="s">
         <v>78</v>
       </c>
-      <c r="Q129" s="5" t="s">
-        <v>1492</v>
-      </c>
-      <c r="V129" s="5" t="s">
+      <c r="Q129" s="69" t="s">
+        <v>1471</v>
+      </c>
+      <c r="V129" s="69" t="s">
         <v>526</v>
       </c>
-      <c r="W129" s="14" t="s">
+      <c r="W129" s="70" t="s">
         <v>109</v>
       </c>
-      <c r="X129" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y129" s="5">
+      <c r="X129" s="71">
+        <v>0</v>
+      </c>
+      <c r="Y129" s="69">
         <v>2552233600</v>
       </c>
-      <c r="AG129" s="5">
-        <v>1</v>
-      </c>
-      <c r="AH129" s="5">
+      <c r="AG129" s="69">
+        <v>1</v>
+      </c>
+      <c r="AH129" s="69">
         <v>1</v>
       </c>
     </row>
@@ -18862,7 +19000,7 @@
         <v>1</v>
       </c>
       <c r="G139" s="8" t="s">
-        <v>1225</v>
+        <v>1204</v>
       </c>
       <c r="H139" s="8"/>
       <c r="I139" s="5" t="s">
@@ -18922,7 +19060,7 @@
         <v>1</v>
       </c>
       <c r="G140" s="8" t="s">
-        <v>1226</v>
+        <v>1205</v>
       </c>
       <c r="H140" s="8"/>
       <c r="I140" s="5" t="s">
@@ -20680,7 +20818,7 @@
         <v>360</v>
       </c>
       <c r="I168" s="19" t="s">
-        <v>1056</v>
+        <v>1035</v>
       </c>
       <c r="K168" s="19">
         <v>-28</v>
@@ -20698,10 +20836,10 @@
         <v>600</v>
       </c>
       <c r="P168" s="19" t="s">
-        <v>1059</v>
+        <v>1038</v>
       </c>
       <c r="Q168" s="19" t="s">
-        <v>1060</v>
+        <v>1039</v>
       </c>
       <c r="V168" s="19" t="s">
         <v>526</v>
@@ -20742,10 +20880,10 @@
         <v>1</v>
       </c>
       <c r="G169" s="19" t="s">
-        <v>1227</v>
+        <v>1206</v>
       </c>
       <c r="I169" s="19" t="s">
-        <v>1057</v>
+        <v>1036</v>
       </c>
       <c r="K169" s="19">
         <v>-28</v>
@@ -20763,10 +20901,10 @@
         <v>3000</v>
       </c>
       <c r="P169" s="19" t="s">
-        <v>1059</v>
+        <v>1038</v>
       </c>
       <c r="Q169" s="19" t="s">
-        <v>1061</v>
+        <v>1040</v>
       </c>
       <c r="V169" s="19" t="s">
         <v>600</v>
@@ -20807,7 +20945,7 @@
         <v>361</v>
       </c>
       <c r="I170" s="19" t="s">
-        <v>1058</v>
+        <v>1037</v>
       </c>
       <c r="K170" s="19">
         <v>-28</v>
@@ -20825,10 +20963,10 @@
         <v>19800</v>
       </c>
       <c r="P170" s="19" t="s">
-        <v>1059</v>
+        <v>1038</v>
       </c>
       <c r="Q170" s="19" t="s">
-        <v>1062</v>
+        <v>1041</v>
       </c>
       <c r="V170" s="19" t="s">
         <v>600</v>
@@ -20866,10 +21004,10 @@
         <v>1</v>
       </c>
       <c r="G171" s="19" t="s">
-        <v>1228</v>
+        <v>1207</v>
       </c>
       <c r="H171" s="19" t="s">
-        <v>1247</v>
+        <v>1226</v>
       </c>
       <c r="I171" s="19" t="s">
         <v>983</v>
@@ -20934,10 +21072,10 @@
         <v>1</v>
       </c>
       <c r="G172" s="19" t="s">
-        <v>1228</v>
+        <v>1207</v>
       </c>
       <c r="H172" s="19" t="s">
-        <v>1248</v>
+        <v>1227</v>
       </c>
       <c r="I172" s="19" t="s">
         <v>984</v>
@@ -21002,10 +21140,10 @@
         <v>1</v>
       </c>
       <c r="G173" s="19" t="s">
-        <v>1229</v>
+        <v>1208</v>
       </c>
       <c r="H173" s="19" t="s">
-        <v>1249</v>
+        <v>1228</v>
       </c>
       <c r="I173" s="19" t="s">
         <v>985</v>
@@ -21070,10 +21208,10 @@
         <v>1</v>
       </c>
       <c r="G174" s="19" t="s">
+        <v>1208</v>
+      </c>
+      <c r="H174" s="19" t="s">
         <v>1229</v>
-      </c>
-      <c r="H174" s="19" t="s">
-        <v>1250</v>
       </c>
       <c r="I174" s="19" t="s">
         <v>986</v>
@@ -21138,10 +21276,10 @@
         <v>1</v>
       </c>
       <c r="G175" s="19" t="s">
-        <v>1229</v>
+        <v>1208</v>
       </c>
       <c r="H175" s="19" t="s">
-        <v>1251</v>
+        <v>1230</v>
       </c>
       <c r="I175" s="19" t="s">
         <v>997</v>
@@ -21206,10 +21344,10 @@
         <v>1</v>
       </c>
       <c r="G176" s="19" t="s">
-        <v>1229</v>
+        <v>1208</v>
       </c>
       <c r="H176" s="19" t="s">
-        <v>1252</v>
+        <v>1231</v>
       </c>
       <c r="I176" s="19" t="s">
         <v>998</v>
@@ -21274,10 +21412,10 @@
         <v>1</v>
       </c>
       <c r="G177" s="19" t="s">
-        <v>1228</v>
+        <v>1207</v>
       </c>
       <c r="H177" s="19" t="s">
-        <v>1253</v>
+        <v>1232</v>
       </c>
       <c r="I177" s="19" t="s">
         <v>999</v>
@@ -21342,7 +21480,7 @@
         <v>1</v>
       </c>
       <c r="G178" s="19" t="s">
-        <v>1229</v>
+        <v>1208</v>
       </c>
       <c r="H178" s="19" t="s">
         <v>490</v>
@@ -21410,10 +21548,10 @@
         <v>1</v>
       </c>
       <c r="G179" s="19" t="s">
-        <v>1228</v>
+        <v>1207</v>
       </c>
       <c r="H179" s="19" t="s">
-        <v>1254</v>
+        <v>1233</v>
       </c>
       <c r="I179" s="19" t="s">
         <v>1001</v>
@@ -21478,10 +21616,10 @@
         <v>1</v>
       </c>
       <c r="G180" s="19" t="s">
-        <v>1229</v>
+        <v>1208</v>
       </c>
       <c r="H180" s="19" t="s">
-        <v>1255</v>
+        <v>1234</v>
       </c>
       <c r="I180" s="19" t="s">
         <v>991</v>
@@ -21546,10 +21684,10 @@
         <v>1</v>
       </c>
       <c r="G181" s="19" t="s">
-        <v>1229</v>
+        <v>1208</v>
       </c>
       <c r="H181" s="19" t="s">
-        <v>1256</v>
+        <v>1235</v>
       </c>
       <c r="I181" s="19" t="s">
         <v>1002</v>
@@ -21614,10 +21752,10 @@
         <v>1</v>
       </c>
       <c r="G182" s="19" t="s">
-        <v>1228</v>
+        <v>1207</v>
       </c>
       <c r="H182" s="19" t="s">
-        <v>1257</v>
+        <v>1236</v>
       </c>
       <c r="I182" s="19" t="s">
         <v>1003</v>
@@ -21682,10 +21820,10 @@
         <v>1</v>
       </c>
       <c r="G183" s="19" t="s">
-        <v>1229</v>
+        <v>1208</v>
       </c>
       <c r="H183" s="19" t="s">
-        <v>1258</v>
+        <v>1237</v>
       </c>
       <c r="I183" s="19" t="s">
         <v>1004</v>
@@ -21750,10 +21888,10 @@
         <v>1</v>
       </c>
       <c r="G184" s="19" t="s">
-        <v>1229</v>
+        <v>1208</v>
       </c>
       <c r="H184" s="19" t="s">
-        <v>1259</v>
+        <v>1238</v>
       </c>
       <c r="I184" s="19" t="s">
         <v>1003</v>
@@ -21818,10 +21956,10 @@
         <v>1</v>
       </c>
       <c r="G185" s="19" t="s">
-        <v>1228</v>
+        <v>1207</v>
       </c>
       <c r="H185" s="19" t="s">
-        <v>1260</v>
+        <v>1239</v>
       </c>
       <c r="I185" s="19" t="s">
         <v>1005</v>
@@ -26130,7 +26268,7 @@
         <v>600</v>
       </c>
       <c r="P251" s="5" t="s">
-        <v>1075</v>
+        <v>1054</v>
       </c>
       <c r="Q251" s="5" t="s">
         <v>784</v>
@@ -26301,7 +26439,7 @@
         <v>1</v>
       </c>
       <c r="G254" s="5" t="s">
-        <v>1230</v>
+        <v>1209</v>
       </c>
       <c r="I254" s="5" t="s">
         <v>948</v>
@@ -26496,7 +26634,7 @@
         <v>0</v>
       </c>
       <c r="G257" s="5" t="s">
-        <v>1231</v>
+        <v>1210</v>
       </c>
       <c r="I257" s="5" t="s">
         <v>883</v>
@@ -27019,7 +27157,7 @@
         <v>0</v>
       </c>
       <c r="G265" s="5" t="s">
-        <v>1232</v>
+        <v>1211</v>
       </c>
       <c r="I265" s="5" t="s">
         <v>889</v>
@@ -27279,7 +27417,7 @@
         <v>0</v>
       </c>
       <c r="G269" s="5" t="s">
-        <v>1233</v>
+        <v>1212</v>
       </c>
       <c r="I269" s="5" t="s">
         <v>891</v>
@@ -27528,59 +27666,59 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:39" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A273" s="5">
+    <row r="273" spans="1:39" s="69" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A273" s="69">
         <v>272</v>
       </c>
-      <c r="B273" s="5">
+      <c r="B273" s="69">
         <v>10189</v>
       </c>
-      <c r="D273" s="11">
+      <c r="D273" s="72">
         <v>111</v>
       </c>
-      <c r="F273" s="5">
-        <v>1</v>
-      </c>
-      <c r="G273" s="5" t="s">
+      <c r="F273" s="69">
+        <v>0</v>
+      </c>
+      <c r="G273" s="69" t="s">
         <v>522</v>
       </c>
-      <c r="K273" s="5">
+      <c r="K273" s="69">
         <v>-10</v>
       </c>
-      <c r="L273" s="5">
-        <v>0</v>
-      </c>
-      <c r="M273" s="5">
-        <v>0</v>
-      </c>
-      <c r="N273" s="5" t="s">
+      <c r="L273" s="69">
+        <v>0</v>
+      </c>
+      <c r="M273" s="69">
+        <v>0</v>
+      </c>
+      <c r="N273" s="69" t="s">
         <v>101</v>
       </c>
-      <c r="O273" s="5">
+      <c r="O273" s="69">
         <v>19800</v>
       </c>
-      <c r="P273" s="5" t="s">
+      <c r="P273" s="69" t="s">
         <v>78</v>
       </c>
-      <c r="Q273" s="5" t="s">
-        <v>1494</v>
-      </c>
-      <c r="V273" s="5" t="s">
+      <c r="Q273" s="69" t="s">
+        <v>1473</v>
+      </c>
+      <c r="V273" s="69" t="s">
         <v>526</v>
       </c>
-      <c r="W273" s="14" t="s">
+      <c r="W273" s="70" t="s">
         <v>109</v>
       </c>
-      <c r="X273" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y273" s="5">
+      <c r="X273" s="71">
+        <v>0</v>
+      </c>
+      <c r="Y273" s="69">
         <v>2552233600</v>
       </c>
-      <c r="AG273" s="5">
-        <v>1</v>
-      </c>
-      <c r="AH273" s="5">
+      <c r="AG273" s="69">
+        <v>1</v>
+      </c>
+      <c r="AH273" s="69">
         <v>1</v>
       </c>
     </row>
@@ -27801,7 +27939,7 @@
         <v>0</v>
       </c>
       <c r="G277" s="5" t="s">
-        <v>1234</v>
+        <v>1213</v>
       </c>
       <c r="I277" s="5" t="s">
         <v>895</v>
@@ -27866,7 +28004,7 @@
         <v>0</v>
       </c>
       <c r="G278" s="5" t="s">
-        <v>1235</v>
+        <v>1214</v>
       </c>
       <c r="I278" s="5" t="s">
         <v>896</v>
@@ -27931,7 +28069,7 @@
         <v>0</v>
       </c>
       <c r="G279" s="5" t="s">
-        <v>1236</v>
+        <v>1215</v>
       </c>
       <c r="I279" s="5" t="s">
         <v>897</v>
@@ -27996,7 +28134,7 @@
         <v>0</v>
       </c>
       <c r="G280" s="5" t="s">
-        <v>1237</v>
+        <v>1216</v>
       </c>
       <c r="I280" s="5" t="s">
         <v>894</v>
@@ -30485,10 +30623,10 @@
         <v>1</v>
       </c>
       <c r="G320" s="5" t="s">
-        <v>1238</v>
+        <v>1217</v>
       </c>
       <c r="I320" s="5" t="s">
-        <v>1422</v>
+        <v>1401</v>
       </c>
       <c r="K320" s="5">
         <v>-25</v>
@@ -30541,7 +30679,7 @@
         <v>1</v>
       </c>
       <c r="G321" s="5" t="s">
-        <v>1239</v>
+        <v>1218</v>
       </c>
       <c r="I321" s="5" t="s">
         <v>921</v>
@@ -30603,7 +30741,7 @@
         <v>1</v>
       </c>
       <c r="G322" s="5" t="s">
-        <v>1240</v>
+        <v>1219</v>
       </c>
       <c r="I322" s="5" t="s">
         <v>625</v>
@@ -30834,7 +30972,7 @@
         <v>1</v>
       </c>
       <c r="G325" s="19" t="s">
-        <v>1241</v>
+        <v>1220</v>
       </c>
       <c r="H325" s="19"/>
       <c r="I325" s="19" t="s">
@@ -30914,7 +31052,7 @@
         <v>1</v>
       </c>
       <c r="G326" s="40" t="s">
-        <v>1242</v>
+        <v>1221</v>
       </c>
       <c r="I326" s="40" t="s">
         <v>1011</v>
@@ -30935,7 +31073,7 @@
         <v>100</v>
       </c>
       <c r="V326" s="40" t="s">
-        <v>1052</v>
+        <v>1031</v>
       </c>
       <c r="W326" s="40">
         <v>9999999</v>
@@ -30973,10 +31111,10 @@
         <v>1</v>
       </c>
       <c r="G327" s="43" t="s">
-        <v>1243</v>
+        <v>1222</v>
       </c>
       <c r="I327" s="43" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="K327" s="43">
         <v>-31</v>
@@ -30997,7 +31135,7 @@
         <v>1018</v>
       </c>
       <c r="Q327" s="43" t="s">
-        <v>1054</v>
+        <v>1033</v>
       </c>
       <c r="V327" s="43" t="s">
         <v>1019</v>
@@ -31038,11 +31176,11 @@
         <v>1</v>
       </c>
       <c r="G328" s="43" t="s">
-        <v>1023</v>
+        <v>1763</v>
       </c>
       <c r="H328" s="43"/>
       <c r="I328" s="43" t="s">
-        <v>1031</v>
+        <v>1764</v>
       </c>
       <c r="J328" s="43"/>
       <c r="K328" s="43">
@@ -31055,23 +31193,23 @@
         <v>0</v>
       </c>
       <c r="N328" s="43" t="s">
-        <v>1009</v>
+        <v>1765</v>
       </c>
       <c r="O328" s="43">
         <v>600</v>
       </c>
       <c r="P328" s="43" t="s">
-        <v>1041</v>
-      </c>
-      <c r="Q328" s="43" t="s">
-        <v>1042</v>
+        <v>1766</v>
+      </c>
+      <c r="Q328" s="66" t="s">
+        <v>1030</v>
       </c>
       <c r="R328" s="43"/>
       <c r="S328" s="43"/>
       <c r="T328" s="43"/>
       <c r="U328" s="43"/>
       <c r="V328" s="43" t="s">
-        <v>1052</v>
+        <v>1767</v>
       </c>
       <c r="W328" s="43">
         <v>99999999</v>
@@ -31124,7 +31262,7 @@
       </c>
       <c r="H329" s="43"/>
       <c r="I329" s="43" t="s">
-        <v>1032</v>
+        <v>1768</v>
       </c>
       <c r="J329" s="43"/>
       <c r="K329" s="43">
@@ -31137,23 +31275,23 @@
         <v>0</v>
       </c>
       <c r="N329" s="43" t="s">
-        <v>1009</v>
+        <v>1765</v>
       </c>
       <c r="O329" s="43">
         <v>2800</v>
       </c>
       <c r="P329" s="43" t="s">
-        <v>1041</v>
-      </c>
-      <c r="Q329" s="43" t="s">
-        <v>1043</v>
+        <v>1769</v>
+      </c>
+      <c r="Q329" s="66" t="s">
+        <v>1770</v>
       </c>
       <c r="R329" s="43"/>
       <c r="S329" s="43"/>
       <c r="T329" s="43"/>
       <c r="U329" s="43"/>
       <c r="V329" s="43" t="s">
-        <v>1052</v>
+        <v>1767</v>
       </c>
       <c r="W329" s="43">
         <v>99999999</v>
@@ -31206,7 +31344,7 @@
       </c>
       <c r="H330" s="43"/>
       <c r="I330" s="43" t="s">
-        <v>1033</v>
+        <v>1771</v>
       </c>
       <c r="J330" s="43"/>
       <c r="K330" s="43">
@@ -31219,23 +31357,23 @@
         <v>0</v>
       </c>
       <c r="N330" s="43" t="s">
-        <v>1009</v>
+        <v>1765</v>
       </c>
       <c r="O330" s="43">
         <v>4800</v>
       </c>
       <c r="P330" s="43" t="s">
-        <v>1041</v>
-      </c>
-      <c r="Q330" s="43" t="s">
-        <v>1049</v>
+        <v>1772</v>
+      </c>
+      <c r="Q330" s="66" t="s">
+        <v>1773</v>
       </c>
       <c r="R330" s="43"/>
       <c r="S330" s="43"/>
       <c r="T330" s="43"/>
       <c r="U330" s="43"/>
       <c r="V330" s="43" t="s">
-        <v>1052</v>
+        <v>1767</v>
       </c>
       <c r="W330" s="43">
         <v>99999999</v>
@@ -31288,7 +31426,7 @@
       </c>
       <c r="H331" s="43"/>
       <c r="I331" s="43" t="s">
-        <v>1034</v>
+        <v>1774</v>
       </c>
       <c r="J331" s="43"/>
       <c r="K331" s="43">
@@ -31301,23 +31439,23 @@
         <v>0</v>
       </c>
       <c r="N331" s="43" t="s">
-        <v>1009</v>
+        <v>1765</v>
       </c>
       <c r="O331" s="43">
         <v>9900</v>
       </c>
       <c r="P331" s="43" t="s">
-        <v>1041</v>
-      </c>
-      <c r="Q331" s="43" t="s">
-        <v>1050</v>
+        <v>1772</v>
+      </c>
+      <c r="Q331" s="66" t="s">
+        <v>1775</v>
       </c>
       <c r="R331" s="43"/>
       <c r="S331" s="43"/>
       <c r="T331" s="43"/>
       <c r="U331" s="43"/>
       <c r="V331" s="43" t="s">
-        <v>1052</v>
+        <v>1767</v>
       </c>
       <c r="W331" s="43">
         <v>99999999</v>
@@ -31366,11 +31504,11 @@
         <v>1</v>
       </c>
       <c r="G332" s="43" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="H332" s="43"/>
       <c r="I332" s="43" t="s">
-        <v>1035</v>
+        <v>1776</v>
       </c>
       <c r="J332" s="43"/>
       <c r="K332" s="43">
@@ -31383,23 +31521,23 @@
         <v>0</v>
       </c>
       <c r="N332" s="43" t="s">
-        <v>1009</v>
+        <v>482</v>
       </c>
       <c r="O332" s="43">
         <v>19800</v>
       </c>
       <c r="P332" s="43" t="s">
-        <v>1041</v>
-      </c>
-      <c r="Q332" s="43" t="s">
-        <v>1044</v>
+        <v>1772</v>
+      </c>
+      <c r="Q332" s="66" t="s">
+        <v>1777</v>
       </c>
       <c r="R332" s="43"/>
       <c r="S332" s="43"/>
       <c r="T332" s="43"/>
       <c r="U332" s="43"/>
       <c r="V332" s="43" t="s">
-        <v>1052</v>
+        <v>1767</v>
       </c>
       <c r="W332" s="43">
         <v>99999999</v>
@@ -31448,11 +31586,11 @@
         <v>1</v>
       </c>
       <c r="G333" s="43" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="H333" s="43"/>
       <c r="I333" s="43" t="s">
-        <v>1036</v>
+        <v>1762</v>
       </c>
       <c r="J333" s="43"/>
       <c r="K333" s="43">
@@ -31465,23 +31603,23 @@
         <v>0</v>
       </c>
       <c r="N333" s="43" t="s">
-        <v>1009</v>
+        <v>1765</v>
       </c>
       <c r="O333" s="43">
         <v>29800</v>
       </c>
       <c r="P333" s="43" t="s">
-        <v>1041</v>
-      </c>
-      <c r="Q333" s="43" t="s">
-        <v>1045</v>
+        <v>1772</v>
+      </c>
+      <c r="Q333" s="66" t="s">
+        <v>1778</v>
       </c>
       <c r="R333" s="43"/>
       <c r="S333" s="43"/>
       <c r="T333" s="43"/>
       <c r="U333" s="43"/>
       <c r="V333" s="43" t="s">
-        <v>1052</v>
+        <v>1767</v>
       </c>
       <c r="W333" s="43">
         <v>99999999</v>
@@ -31530,11 +31668,11 @@
         <v>1</v>
       </c>
       <c r="G334" s="43" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="H334" s="43"/>
       <c r="I334" s="43" t="s">
-        <v>1037</v>
+        <v>1779</v>
       </c>
       <c r="J334" s="43"/>
       <c r="K334" s="43">
@@ -31547,23 +31685,23 @@
         <v>0</v>
       </c>
       <c r="N334" s="43" t="s">
-        <v>1009</v>
+        <v>1780</v>
       </c>
       <c r="O334" s="43">
         <v>39800</v>
       </c>
       <c r="P334" s="43" t="s">
-        <v>1041</v>
-      </c>
-      <c r="Q334" s="43" t="s">
-        <v>1051</v>
+        <v>1772</v>
+      </c>
+      <c r="Q334" s="66" t="s">
+        <v>1781</v>
       </c>
       <c r="R334" s="43"/>
       <c r="S334" s="43"/>
       <c r="T334" s="43"/>
       <c r="U334" s="43"/>
       <c r="V334" s="43" t="s">
-        <v>1052</v>
+        <v>1782</v>
       </c>
       <c r="W334" s="43">
         <v>99999999</v>
@@ -31612,11 +31750,11 @@
         <v>1</v>
       </c>
       <c r="G335" s="43" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="H335" s="43"/>
       <c r="I335" s="43" t="s">
-        <v>1038</v>
+        <v>1783</v>
       </c>
       <c r="J335" s="43"/>
       <c r="K335" s="43">
@@ -31629,23 +31767,23 @@
         <v>0</v>
       </c>
       <c r="N335" s="43" t="s">
-        <v>1009</v>
+        <v>1761</v>
       </c>
       <c r="O335" s="43">
         <v>49800</v>
       </c>
       <c r="P335" s="43" t="s">
-        <v>1041</v>
-      </c>
-      <c r="Q335" s="43" t="s">
-        <v>1046</v>
+        <v>1772</v>
+      </c>
+      <c r="Q335" s="66" t="s">
+        <v>1784</v>
       </c>
       <c r="R335" s="43"/>
       <c r="S335" s="43"/>
       <c r="T335" s="43"/>
       <c r="U335" s="43"/>
       <c r="V335" s="43" t="s">
-        <v>1052</v>
+        <v>1767</v>
       </c>
       <c r="W335" s="43">
         <v>99999999</v>
@@ -31694,11 +31832,11 @@
         <v>1</v>
       </c>
       <c r="G336" s="43" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="H336" s="43"/>
       <c r="I336" s="43" t="s">
-        <v>1039</v>
+        <v>1785</v>
       </c>
       <c r="J336" s="43"/>
       <c r="K336" s="43">
@@ -31711,23 +31849,23 @@
         <v>0</v>
       </c>
       <c r="N336" s="43" t="s">
-        <v>1009</v>
+        <v>1765</v>
       </c>
       <c r="O336" s="43">
         <v>59800</v>
       </c>
       <c r="P336" s="43" t="s">
-        <v>1041</v>
-      </c>
-      <c r="Q336" s="43" t="s">
-        <v>1047</v>
+        <v>1772</v>
+      </c>
+      <c r="Q336" s="66" t="s">
+        <v>1786</v>
       </c>
       <c r="R336" s="43"/>
       <c r="S336" s="43"/>
       <c r="T336" s="43"/>
       <c r="U336" s="43"/>
       <c r="V336" s="43" t="s">
-        <v>1052</v>
+        <v>1787</v>
       </c>
       <c r="W336" s="43">
         <v>99999999</v>
@@ -31776,11 +31914,11 @@
         <v>1</v>
       </c>
       <c r="G337" s="43" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="H337" s="43"/>
       <c r="I337" s="43" t="s">
-        <v>1040</v>
+        <v>1788</v>
       </c>
       <c r="J337" s="43"/>
       <c r="K337" s="43">
@@ -31793,23 +31931,23 @@
         <v>0</v>
       </c>
       <c r="N337" s="43" t="s">
-        <v>1009</v>
+        <v>1765</v>
       </c>
       <c r="O337" s="43">
         <v>69800</v>
       </c>
       <c r="P337" s="43" t="s">
-        <v>1041</v>
-      </c>
-      <c r="Q337" s="43" t="s">
-        <v>1048</v>
+        <v>1760</v>
+      </c>
+      <c r="Q337" s="66" t="s">
+        <v>1789</v>
       </c>
       <c r="R337" s="43"/>
       <c r="S337" s="43"/>
       <c r="T337" s="43"/>
       <c r="U337" s="43"/>
       <c r="V337" s="43" t="s">
-        <v>1052</v>
+        <v>1782</v>
       </c>
       <c r="W337" s="43">
         <v>99999999</v>
@@ -31855,10 +31993,10 @@
         <v>1</v>
       </c>
       <c r="G338" s="19" t="s">
-        <v>1244</v>
+        <v>1223</v>
       </c>
       <c r="I338" s="19" t="s">
-        <v>1069</v>
+        <v>1048</v>
       </c>
       <c r="K338" s="19">
         <v>-31</v>
@@ -31876,10 +32014,10 @@
         <v>19800</v>
       </c>
       <c r="P338" s="19" t="s">
-        <v>1067</v>
+        <v>1046</v>
       </c>
       <c r="Q338" s="19" t="s">
-        <v>1073</v>
+        <v>1052</v>
       </c>
       <c r="V338" s="19" t="s">
         <v>526</v>
@@ -31894,10 +32032,10 @@
         <v>2552233600</v>
       </c>
       <c r="AA338" s="19" t="s">
-        <v>1068</v>
+        <v>1047</v>
       </c>
       <c r="AB338" s="19" t="s">
-        <v>1076</v>
+        <v>1055</v>
       </c>
       <c r="AG338" s="19">
         <v>1</v>
@@ -31930,7 +32068,7 @@
       </c>
       <c r="H339" s="19"/>
       <c r="I339" s="19" t="s">
-        <v>1071</v>
+        <v>1050</v>
       </c>
       <c r="J339" s="19"/>
       <c r="K339" s="19">
@@ -31949,10 +32087,10 @@
         <v>30000</v>
       </c>
       <c r="P339" s="19" t="s">
-        <v>1067</v>
+        <v>1046</v>
       </c>
       <c r="Q339" s="19" t="s">
-        <v>1074</v>
+        <v>1053</v>
       </c>
       <c r="R339" s="19"/>
       <c r="S339" s="19"/>
@@ -31972,10 +32110,10 @@
       </c>
       <c r="Z339" s="19"/>
       <c r="AA339" s="19" t="s">
-        <v>1068</v>
+        <v>1047</v>
       </c>
       <c r="AB339" s="19" t="s">
-        <v>1077</v>
+        <v>1056</v>
       </c>
       <c r="AC339" s="19"/>
       <c r="AD339" s="19"/>
@@ -32010,11 +32148,11 @@
         <v>1</v>
       </c>
       <c r="G340" s="19" t="s">
-        <v>1245</v>
+        <v>1224</v>
       </c>
       <c r="H340" s="19"/>
       <c r="I340" s="19" t="s">
-        <v>1070</v>
+        <v>1049</v>
       </c>
       <c r="J340" s="19"/>
       <c r="K340" s="19">
@@ -32033,10 +32171,10 @@
         <v>78000</v>
       </c>
       <c r="P340" s="19" t="s">
-        <v>1067</v>
+        <v>1046</v>
       </c>
       <c r="Q340" s="19" t="s">
-        <v>1072</v>
+        <v>1051</v>
       </c>
       <c r="R340" s="19"/>
       <c r="S340" s="19"/>
@@ -32056,10 +32194,10 @@
       </c>
       <c r="Z340" s="19"/>
       <c r="AA340" s="19" t="s">
-        <v>1068</v>
+        <v>1047</v>
       </c>
       <c r="AB340" s="19" t="s">
-        <v>1078</v>
+        <v>1057</v>
       </c>
       <c r="AC340" s="19"/>
       <c r="AD340" s="19"/>
@@ -32091,11 +32229,11 @@
         <v>1</v>
       </c>
       <c r="G341" s="6" t="s">
-        <v>1261</v>
+        <v>1240</v>
       </c>
       <c r="H341" s="6"/>
       <c r="I341" s="5" t="s">
-        <v>1262</v>
+        <v>1241</v>
       </c>
       <c r="K341" s="5">
         <v>-31</v>
@@ -32107,19 +32245,19 @@
         <v>0</v>
       </c>
       <c r="N341" s="5" t="s">
-        <v>1263</v>
+        <v>1242</v>
       </c>
       <c r="O341" s="5">
         <v>600</v>
       </c>
       <c r="P341" s="5" t="s">
-        <v>1264</v>
+        <v>1243</v>
       </c>
       <c r="Q341" s="10" t="s">
-        <v>1265</v>
+        <v>1244</v>
       </c>
       <c r="V341" s="5" t="s">
-        <v>1266</v>
+        <v>1245</v>
       </c>
       <c r="W341" s="5">
         <v>9999999</v>
@@ -32134,10 +32272,10 @@
         <v>26</v>
       </c>
       <c r="AA341" s="5" t="s">
-        <v>1267</v>
+        <v>1246</v>
       </c>
       <c r="AB341" s="5" t="s">
-        <v>1268</v>
+        <v>1247</v>
       </c>
       <c r="AG341" s="5">
         <v>1</v>
@@ -32163,10 +32301,10 @@
         <v>1</v>
       </c>
       <c r="G342" s="6" t="s">
-        <v>1269</v>
+        <v>1248</v>
       </c>
       <c r="I342" s="5" t="s">
-        <v>1270</v>
+        <v>1249</v>
       </c>
       <c r="K342" s="5">
         <v>-31</v>
@@ -32178,19 +32316,19 @@
         <v>0</v>
       </c>
       <c r="N342" s="5" t="s">
-        <v>1263</v>
+        <v>1242</v>
       </c>
       <c r="O342" s="5">
         <v>600</v>
       </c>
       <c r="P342" s="5" t="s">
-        <v>1264</v>
+        <v>1243</v>
       </c>
       <c r="Q342" s="10" t="s">
-        <v>1172</v>
+        <v>1151</v>
       </c>
       <c r="V342" s="5" t="s">
-        <v>1266</v>
+        <v>1245</v>
       </c>
       <c r="W342" s="5">
         <v>9999999</v>
@@ -32205,10 +32343,10 @@
         <v>27</v>
       </c>
       <c r="AA342" s="5" t="s">
-        <v>1267</v>
+        <v>1246</v>
       </c>
       <c r="AB342" s="5" t="s">
-        <v>1271</v>
+        <v>1250</v>
       </c>
       <c r="AG342" s="5">
         <v>1</v>
@@ -32234,10 +32372,10 @@
         <v>1</v>
       </c>
       <c r="G343" s="6" t="s">
-        <v>1272</v>
+        <v>1251</v>
       </c>
       <c r="I343" s="5" t="s">
-        <v>1273</v>
+        <v>1252</v>
       </c>
       <c r="K343" s="5">
         <v>-31</v>
@@ -32249,19 +32387,19 @@
         <v>0</v>
       </c>
       <c r="N343" s="5" t="s">
-        <v>1263</v>
+        <v>1242</v>
       </c>
       <c r="O343" s="5">
         <v>600</v>
       </c>
       <c r="P343" s="5" t="s">
-        <v>1264</v>
+        <v>1243</v>
       </c>
       <c r="Q343" s="10" t="s">
-        <v>1173</v>
+        <v>1152</v>
       </c>
       <c r="V343" s="5" t="s">
-        <v>1266</v>
+        <v>1245</v>
       </c>
       <c r="W343" s="5">
         <v>9999999</v>
@@ -32276,10 +32414,10 @@
         <v>28</v>
       </c>
       <c r="AA343" s="5" t="s">
-        <v>1267</v>
+        <v>1246</v>
       </c>
       <c r="AB343" s="5" t="s">
-        <v>1274</v>
+        <v>1253</v>
       </c>
       <c r="AG343" s="5">
         <v>1</v>
@@ -32305,10 +32443,10 @@
         <v>1</v>
       </c>
       <c r="G344" s="6" t="s">
-        <v>1275</v>
+        <v>1254</v>
       </c>
       <c r="I344" s="5" t="s">
-        <v>1276</v>
+        <v>1255</v>
       </c>
       <c r="K344" s="5">
         <v>-31</v>
@@ -32320,19 +32458,19 @@
         <v>0</v>
       </c>
       <c r="N344" s="5" t="s">
-        <v>1263</v>
+        <v>1242</v>
       </c>
       <c r="O344" s="5">
         <v>4800</v>
       </c>
       <c r="P344" s="5" t="s">
-        <v>1264</v>
+        <v>1243</v>
       </c>
       <c r="Q344" s="10" t="s">
-        <v>1277</v>
+        <v>1256</v>
       </c>
       <c r="V344" s="5" t="s">
-        <v>1266</v>
+        <v>1245</v>
       </c>
       <c r="W344" s="5">
         <v>9999999</v>
@@ -32347,10 +32485,10 @@
         <v>29</v>
       </c>
       <c r="AA344" s="5" t="s">
-        <v>1267</v>
+        <v>1246</v>
       </c>
       <c r="AB344" s="5" t="s">
-        <v>1278</v>
+        <v>1257</v>
       </c>
       <c r="AG344" s="5">
         <v>1</v>
@@ -32376,10 +32514,10 @@
         <v>1</v>
       </c>
       <c r="G345" s="6" t="s">
-        <v>1174</v>
+        <v>1153</v>
       </c>
       <c r="I345" s="5" t="s">
-        <v>1279</v>
+        <v>1258</v>
       </c>
       <c r="K345" s="5">
         <v>-31</v>
@@ -32391,19 +32529,19 @@
         <v>0</v>
       </c>
       <c r="N345" s="5" t="s">
-        <v>1263</v>
+        <v>1242</v>
       </c>
       <c r="O345" s="5">
         <v>4800</v>
       </c>
       <c r="P345" s="5" t="s">
-        <v>1264</v>
+        <v>1243</v>
       </c>
       <c r="Q345" s="10" t="s">
-        <v>1175</v>
+        <v>1154</v>
       </c>
       <c r="V345" s="5" t="s">
-        <v>1266</v>
+        <v>1245</v>
       </c>
       <c r="W345" s="5">
         <v>9999999</v>
@@ -32418,10 +32556,10 @@
         <v>30</v>
       </c>
       <c r="AA345" s="5" t="s">
-        <v>1267</v>
+        <v>1246</v>
       </c>
       <c r="AB345" s="5" t="s">
-        <v>1280</v>
+        <v>1259</v>
       </c>
       <c r="AG345" s="5">
         <v>1</v>
@@ -32447,10 +32585,10 @@
         <v>1</v>
       </c>
       <c r="G346" s="6" t="s">
-        <v>1176</v>
+        <v>1155</v>
       </c>
       <c r="I346" s="5" t="s">
-        <v>1281</v>
+        <v>1260</v>
       </c>
       <c r="K346" s="5">
         <v>-31</v>
@@ -32462,19 +32600,19 @@
         <v>0</v>
       </c>
       <c r="N346" s="5" t="s">
-        <v>1263</v>
+        <v>1242</v>
       </c>
       <c r="O346" s="5">
         <v>4800</v>
       </c>
       <c r="P346" s="5" t="s">
-        <v>1264</v>
+        <v>1243</v>
       </c>
       <c r="Q346" s="10" t="s">
-        <v>1177</v>
+        <v>1156</v>
       </c>
       <c r="V346" s="5" t="s">
-        <v>1266</v>
+        <v>1245</v>
       </c>
       <c r="W346" s="5">
         <v>9999999</v>
@@ -32489,10 +32627,10 @@
         <v>31</v>
       </c>
       <c r="AA346" s="5" t="s">
-        <v>1267</v>
+        <v>1246</v>
       </c>
       <c r="AB346" s="5" t="s">
-        <v>1282</v>
+        <v>1261</v>
       </c>
       <c r="AG346" s="5">
         <v>1</v>
@@ -32518,10 +32656,10 @@
         <v>1</v>
       </c>
       <c r="G347" s="6" t="s">
-        <v>1178</v>
+        <v>1157</v>
       </c>
       <c r="I347" s="5" t="s">
-        <v>1283</v>
+        <v>1262</v>
       </c>
       <c r="K347" s="5">
         <v>-31</v>
@@ -32533,19 +32671,19 @@
         <v>0</v>
       </c>
       <c r="N347" s="5" t="s">
-        <v>1263</v>
+        <v>1242</v>
       </c>
       <c r="O347" s="5">
         <v>9800</v>
       </c>
       <c r="P347" s="5" t="s">
-        <v>1264</v>
+        <v>1243</v>
       </c>
       <c r="Q347" s="10" t="s">
-        <v>1284</v>
+        <v>1263</v>
       </c>
       <c r="V347" s="5" t="s">
-        <v>1266</v>
+        <v>1245</v>
       </c>
       <c r="W347" s="5">
         <v>9999999</v>
@@ -32560,10 +32698,10 @@
         <v>32</v>
       </c>
       <c r="AA347" s="5" t="s">
-        <v>1267</v>
+        <v>1246</v>
       </c>
       <c r="AB347" s="5" t="s">
-        <v>1285</v>
+        <v>1264</v>
       </c>
       <c r="AG347" s="5">
         <v>1</v>
@@ -32589,10 +32727,10 @@
         <v>1</v>
       </c>
       <c r="G348" s="6" t="s">
-        <v>1179</v>
+        <v>1158</v>
       </c>
       <c r="I348" s="5" t="s">
-        <v>1286</v>
+        <v>1265</v>
       </c>
       <c r="K348" s="5">
         <v>-31</v>
@@ -32604,19 +32742,19 @@
         <v>0</v>
       </c>
       <c r="N348" s="5" t="s">
-        <v>1263</v>
+        <v>1242</v>
       </c>
       <c r="O348" s="5">
         <v>9800</v>
       </c>
       <c r="P348" s="5" t="s">
-        <v>1264</v>
+        <v>1243</v>
       </c>
       <c r="Q348" s="10" t="s">
-        <v>1287</v>
+        <v>1266</v>
       </c>
       <c r="V348" s="5" t="s">
-        <v>1266</v>
+        <v>1245</v>
       </c>
       <c r="W348" s="5">
         <v>9999999</v>
@@ -32631,10 +32769,10 @@
         <v>33</v>
       </c>
       <c r="AA348" s="5" t="s">
+        <v>1246</v>
+      </c>
+      <c r="AB348" s="5" t="s">
         <v>1267</v>
-      </c>
-      <c r="AB348" s="5" t="s">
-        <v>1288</v>
       </c>
       <c r="AG348" s="5">
         <v>1</v>
@@ -32660,10 +32798,10 @@
         <v>1</v>
       </c>
       <c r="G349" s="6" t="s">
-        <v>1180</v>
+        <v>1159</v>
       </c>
       <c r="I349" s="5" t="s">
-        <v>1289</v>
+        <v>1268</v>
       </c>
       <c r="K349" s="5">
         <v>-31</v>
@@ -32681,13 +32819,13 @@
         <v>9800</v>
       </c>
       <c r="P349" s="5" t="s">
-        <v>1264</v>
+        <v>1243</v>
       </c>
       <c r="Q349" s="10" t="s">
-        <v>1290</v>
+        <v>1269</v>
       </c>
       <c r="V349" s="5" t="s">
-        <v>1266</v>
+        <v>1245</v>
       </c>
       <c r="W349" s="5">
         <v>9999999</v>
@@ -32702,10 +32840,10 @@
         <v>34</v>
       </c>
       <c r="AA349" s="5" t="s">
-        <v>1267</v>
+        <v>1246</v>
       </c>
       <c r="AB349" s="5" t="s">
-        <v>1181</v>
+        <v>1160</v>
       </c>
       <c r="AG349" s="5">
         <v>1</v>
@@ -32731,10 +32869,10 @@
         <v>1</v>
       </c>
       <c r="G350" s="6" t="s">
-        <v>1182</v>
+        <v>1161</v>
       </c>
       <c r="I350" s="5" t="s">
-        <v>1291</v>
+        <v>1270</v>
       </c>
       <c r="K350" s="5">
         <v>-31</v>
@@ -32755,10 +32893,10 @@
         <v>987</v>
       </c>
       <c r="Q350" s="10" t="s">
-        <v>1292</v>
+        <v>1271</v>
       </c>
       <c r="V350" s="5" t="s">
-        <v>1266</v>
+        <v>1245</v>
       </c>
       <c r="W350" s="5">
         <v>9999999</v>
@@ -32776,7 +32914,7 @@
         <v>446</v>
       </c>
       <c r="AB350" s="5" t="s">
-        <v>1293</v>
+        <v>1272</v>
       </c>
       <c r="AG350" s="5">
         <v>1</v>
@@ -32802,10 +32940,10 @@
         <v>1</v>
       </c>
       <c r="G351" s="6" t="s">
-        <v>1183</v>
+        <v>1162</v>
       </c>
       <c r="I351" s="5" t="s">
-        <v>1294</v>
+        <v>1273</v>
       </c>
       <c r="K351" s="5">
         <v>-31</v>
@@ -32817,7 +32955,7 @@
         <v>0</v>
       </c>
       <c r="N351" s="5" t="s">
-        <v>1263</v>
+        <v>1242</v>
       </c>
       <c r="O351" s="5">
         <v>19800</v>
@@ -32826,10 +32964,10 @@
         <v>987</v>
       </c>
       <c r="Q351" s="10" t="s">
-        <v>1184</v>
+        <v>1163</v>
       </c>
       <c r="V351" s="5" t="s">
-        <v>1266</v>
+        <v>1245</v>
       </c>
       <c r="W351" s="5">
         <v>9999999</v>
@@ -32847,7 +32985,7 @@
         <v>446</v>
       </c>
       <c r="AB351" s="5" t="s">
-        <v>1295</v>
+        <v>1274</v>
       </c>
       <c r="AG351" s="5">
         <v>1</v>
@@ -32873,10 +33011,10 @@
         <v>1</v>
       </c>
       <c r="G352" s="6" t="s">
-        <v>1185</v>
+        <v>1164</v>
       </c>
       <c r="I352" s="5" t="s">
-        <v>1186</v>
+        <v>1165</v>
       </c>
       <c r="K352" s="5">
         <v>-31</v>
@@ -32897,7 +33035,7 @@
         <v>987</v>
       </c>
       <c r="Q352" s="10" t="s">
-        <v>1296</v>
+        <v>1275</v>
       </c>
       <c r="V352" s="5" t="s">
         <v>568</v>
@@ -32915,10 +33053,10 @@
         <v>37</v>
       </c>
       <c r="AA352" s="5" t="s">
-        <v>1267</v>
+        <v>1246</v>
       </c>
       <c r="AB352" s="5" t="s">
-        <v>1187</v>
+        <v>1166</v>
       </c>
       <c r="AG352" s="5">
         <v>1</v>
@@ -32944,13 +33082,13 @@
         <v>0</v>
       </c>
       <c r="G353" s="5" t="s">
-        <v>1297</v>
+        <v>1276</v>
       </c>
       <c r="H353" s="5" t="s">
-        <v>1189</v>
+        <v>1168</v>
       </c>
       <c r="I353" s="5" t="s">
-        <v>1190</v>
+        <v>1169</v>
       </c>
       <c r="K353" s="5">
         <v>-31</v>
@@ -32968,13 +33106,13 @@
         <v>600</v>
       </c>
       <c r="P353" s="5" t="s">
-        <v>1298</v>
+        <v>1277</v>
       </c>
       <c r="Q353" s="10" t="s">
-        <v>1299</v>
+        <v>1278</v>
       </c>
       <c r="V353" s="5" t="s">
-        <v>1300</v>
+        <v>1279</v>
       </c>
       <c r="W353" s="5">
         <v>9999999</v>
@@ -33012,13 +33150,13 @@
         <v>0</v>
       </c>
       <c r="G354" s="5" t="s">
-        <v>1301</v>
+        <v>1280</v>
       </c>
       <c r="H354" s="5" t="s">
-        <v>1189</v>
+        <v>1168</v>
       </c>
       <c r="I354" s="5" t="s">
-        <v>1302</v>
+        <v>1281</v>
       </c>
       <c r="K354" s="5">
         <v>-31</v>
@@ -33030,19 +33168,19 @@
         <v>0</v>
       </c>
       <c r="N354" s="5" t="s">
-        <v>1263</v>
+        <v>1242</v>
       </c>
       <c r="O354" s="5">
         <v>1200</v>
       </c>
       <c r="P354" s="5" t="s">
-        <v>1193</v>
+        <v>1172</v>
       </c>
       <c r="Q354" s="10" t="s">
-        <v>1299</v>
+        <v>1278</v>
       </c>
       <c r="V354" s="5" t="s">
-        <v>1300</v>
+        <v>1279</v>
       </c>
       <c r="W354" s="5">
         <v>9999999</v>
@@ -33080,13 +33218,13 @@
         <v>0</v>
       </c>
       <c r="G355" s="5" t="s">
-        <v>1303</v>
+        <v>1282</v>
       </c>
       <c r="H355" s="5" t="s">
-        <v>1304</v>
+        <v>1283</v>
       </c>
       <c r="I355" s="5" t="s">
-        <v>1190</v>
+        <v>1169</v>
       </c>
       <c r="K355" s="5">
         <v>-31</v>
@@ -33098,16 +33236,16 @@
         <v>0</v>
       </c>
       <c r="N355" s="5" t="s">
-        <v>1263</v>
+        <v>1242</v>
       </c>
       <c r="O355" s="5">
         <v>1800</v>
       </c>
       <c r="P355" s="5" t="s">
-        <v>1195</v>
+        <v>1174</v>
       </c>
       <c r="Q355" s="10" t="s">
-        <v>1191</v>
+        <v>1170</v>
       </c>
       <c r="V355" s="5" t="s">
         <v>597</v>
@@ -33148,13 +33286,13 @@
         <v>0</v>
       </c>
       <c r="G356" s="5" t="s">
-        <v>1188</v>
+        <v>1167</v>
       </c>
       <c r="H356" s="5" t="s">
-        <v>1196</v>
+        <v>1175</v>
       </c>
       <c r="I356" s="5" t="s">
-        <v>1190</v>
+        <v>1169</v>
       </c>
       <c r="K356" s="5">
         <v>-31</v>
@@ -33172,13 +33310,13 @@
         <v>4800</v>
       </c>
       <c r="P356" s="5" t="s">
-        <v>1197</v>
+        <v>1176</v>
       </c>
       <c r="Q356" s="10" t="s">
         <v>272</v>
       </c>
       <c r="V356" s="5" t="s">
-        <v>1198</v>
+        <v>1177</v>
       </c>
       <c r="W356" s="5">
         <v>9999999</v>
@@ -33216,13 +33354,13 @@
         <v>0</v>
       </c>
       <c r="G357" s="5" t="s">
-        <v>1301</v>
+        <v>1280</v>
       </c>
       <c r="H357" s="5" t="s">
-        <v>1196</v>
+        <v>1175</v>
       </c>
       <c r="I357" s="5" t="s">
-        <v>1190</v>
+        <v>1169</v>
       </c>
       <c r="K357" s="5">
         <v>-31</v>
@@ -33234,19 +33372,19 @@
         <v>0</v>
       </c>
       <c r="N357" s="5" t="s">
-        <v>1263</v>
+        <v>1242</v>
       </c>
       <c r="O357" s="5">
         <v>9800</v>
       </c>
       <c r="P357" s="5" t="s">
-        <v>1199</v>
+        <v>1178</v>
       </c>
       <c r="Q357" s="10" t="s">
         <v>272</v>
       </c>
       <c r="V357" s="5" t="s">
-        <v>1198</v>
+        <v>1177</v>
       </c>
       <c r="W357" s="5">
         <v>9999999</v>
@@ -33284,13 +33422,13 @@
         <v>0</v>
       </c>
       <c r="G358" s="5" t="s">
-        <v>1194</v>
+        <v>1173</v>
       </c>
       <c r="H358" s="5" t="s">
-        <v>1196</v>
+        <v>1175</v>
       </c>
       <c r="I358" s="5" t="s">
-        <v>1302</v>
+        <v>1281</v>
       </c>
       <c r="K358" s="5">
         <v>-31</v>
@@ -33302,13 +33440,13 @@
         <v>0</v>
       </c>
       <c r="N358" s="5" t="s">
-        <v>1263</v>
+        <v>1242</v>
       </c>
       <c r="O358" s="5">
         <v>19800</v>
       </c>
       <c r="P358" s="5" t="s">
-        <v>1200</v>
+        <v>1179</v>
       </c>
       <c r="Q358" s="10" t="s">
         <v>272</v>
@@ -33352,13 +33490,13 @@
         <v>0</v>
       </c>
       <c r="G359" s="5" t="s">
-        <v>1188</v>
+        <v>1167</v>
       </c>
       <c r="H359" s="5" t="s">
-        <v>1201</v>
+        <v>1180</v>
       </c>
       <c r="I359" s="5" t="s">
-        <v>1302</v>
+        <v>1281</v>
       </c>
       <c r="K359" s="5">
         <v>-31</v>
@@ -33370,19 +33508,19 @@
         <v>0</v>
       </c>
       <c r="N359" s="5" t="s">
-        <v>1263</v>
+        <v>1242</v>
       </c>
       <c r="O359" s="5">
         <v>9800</v>
       </c>
       <c r="P359" s="5" t="s">
-        <v>1202</v>
+        <v>1181</v>
       </c>
       <c r="Q359" s="10" t="s">
         <v>272</v>
       </c>
       <c r="V359" s="5" t="s">
-        <v>1198</v>
+        <v>1177</v>
       </c>
       <c r="W359" s="5">
         <v>9999999</v>
@@ -33420,13 +33558,13 @@
         <v>0</v>
       </c>
       <c r="G360" s="5" t="s">
-        <v>1192</v>
+        <v>1171</v>
       </c>
       <c r="H360" s="5" t="s">
-        <v>1201</v>
+        <v>1180</v>
       </c>
       <c r="I360" s="5" t="s">
-        <v>1302</v>
+        <v>1281</v>
       </c>
       <c r="K360" s="5">
         <v>-31</v>
@@ -33438,19 +33576,19 @@
         <v>0</v>
       </c>
       <c r="N360" s="5" t="s">
-        <v>1263</v>
+        <v>1242</v>
       </c>
       <c r="O360" s="5">
         <v>19800</v>
       </c>
       <c r="P360" s="5" t="s">
-        <v>1203</v>
+        <v>1182</v>
       </c>
       <c r="Q360" s="10" t="s">
         <v>272</v>
       </c>
       <c r="V360" s="5" t="s">
-        <v>1198</v>
+        <v>1177</v>
       </c>
       <c r="W360" s="5">
         <v>9999999</v>
@@ -33488,13 +33626,13 @@
         <v>0</v>
       </c>
       <c r="G361" s="5" t="s">
-        <v>1194</v>
+        <v>1173</v>
       </c>
       <c r="H361" s="5" t="s">
-        <v>1201</v>
+        <v>1180</v>
       </c>
       <c r="I361" s="5" t="s">
-        <v>1302</v>
+        <v>1281</v>
       </c>
       <c r="K361" s="5">
         <v>-31</v>
@@ -33506,19 +33644,19 @@
         <v>0</v>
       </c>
       <c r="N361" s="5" t="s">
-        <v>1263</v>
+        <v>1242</v>
       </c>
       <c r="O361" s="5">
         <v>49800</v>
       </c>
       <c r="P361" s="5" t="s">
-        <v>1204</v>
+        <v>1183</v>
       </c>
       <c r="Q361" s="10" t="s">
         <v>272</v>
       </c>
       <c r="V361" s="5" t="s">
-        <v>1305</v>
+        <v>1284</v>
       </c>
       <c r="W361" s="5">
         <v>9999999</v>
@@ -33556,13 +33694,13 @@
         <v>0</v>
       </c>
       <c r="G362" s="5" t="s">
-        <v>1303</v>
+        <v>1282</v>
       </c>
       <c r="H362" s="5" t="s">
-        <v>1189</v>
+        <v>1168</v>
       </c>
       <c r="I362" s="5" t="s">
-        <v>1302</v>
+        <v>1281</v>
       </c>
       <c r="K362" s="5">
         <v>-31</v>
@@ -33580,10 +33718,10 @@
         <v>1800</v>
       </c>
       <c r="P362" s="5" t="s">
-        <v>1195</v>
+        <v>1174</v>
       </c>
       <c r="Q362" s="10" t="s">
-        <v>1299</v>
+        <v>1278</v>
       </c>
       <c r="V362" s="5" t="s">
         <v>568</v>
@@ -33601,10 +33739,10 @@
         <v>38</v>
       </c>
       <c r="AA362" s="5" t="s">
-        <v>1306</v>
+        <v>1285</v>
       </c>
       <c r="AB362" s="5" t="s">
-        <v>1206</v>
+        <v>1185</v>
       </c>
       <c r="AG362" s="5">
         <v>1</v>
@@ -33630,13 +33768,13 @@
         <v>0</v>
       </c>
       <c r="G363" s="5" t="s">
-        <v>1303</v>
+        <v>1282</v>
       </c>
       <c r="H363" s="5" t="s">
-        <v>1207</v>
+        <v>1186</v>
       </c>
       <c r="I363" s="5" t="s">
-        <v>1302</v>
+        <v>1281</v>
       </c>
       <c r="K363" s="5">
         <v>-31</v>
@@ -33648,19 +33786,19 @@
         <v>0</v>
       </c>
       <c r="N363" s="5" t="s">
-        <v>1263</v>
+        <v>1242</v>
       </c>
       <c r="O363" s="5">
         <v>19800</v>
       </c>
       <c r="P363" s="5" t="s">
-        <v>1200</v>
+        <v>1179</v>
       </c>
       <c r="Q363" s="10" t="s">
         <v>272</v>
       </c>
       <c r="V363" s="5" t="s">
-        <v>1266</v>
+        <v>1245</v>
       </c>
       <c r="W363" s="5">
         <v>9999999</v>
@@ -33675,10 +33813,10 @@
         <v>39</v>
       </c>
       <c r="AA363" s="5" t="s">
-        <v>1306</v>
+        <v>1285</v>
       </c>
       <c r="AB363" s="5" t="s">
-        <v>1208</v>
+        <v>1187</v>
       </c>
       <c r="AG363" s="5">
         <v>1</v>
@@ -33704,13 +33842,13 @@
         <v>0</v>
       </c>
       <c r="G364" s="5" t="s">
-        <v>1303</v>
+        <v>1282</v>
       </c>
       <c r="H364" s="5" t="s">
-        <v>1201</v>
+        <v>1180</v>
       </c>
       <c r="I364" s="5" t="s">
-        <v>1190</v>
+        <v>1169</v>
       </c>
       <c r="K364" s="5">
         <v>-31</v>
@@ -33722,19 +33860,19 @@
         <v>0</v>
       </c>
       <c r="N364" s="5" t="s">
-        <v>1263</v>
+        <v>1242</v>
       </c>
       <c r="O364" s="5">
         <v>49800</v>
       </c>
       <c r="P364" s="5" t="s">
-        <v>1204</v>
+        <v>1183</v>
       </c>
       <c r="Q364" s="10" t="s">
         <v>272</v>
       </c>
       <c r="V364" s="5" t="s">
-        <v>1266</v>
+        <v>1245</v>
       </c>
       <c r="W364" s="5">
         <v>9999999</v>
@@ -33749,10 +33887,10 @@
         <v>40</v>
       </c>
       <c r="AA364" s="5" t="s">
-        <v>1205</v>
+        <v>1184</v>
       </c>
       <c r="AB364" s="5" t="s">
-        <v>1307</v>
+        <v>1286</v>
       </c>
       <c r="AG364" s="5">
         <v>1</v>
@@ -33778,10 +33916,10 @@
         <v>1</v>
       </c>
       <c r="G365" s="5" t="s">
-        <v>1308</v>
+        <v>1287</v>
       </c>
       <c r="I365" s="5" t="s">
-        <v>1209</v>
+        <v>1188</v>
       </c>
       <c r="K365" s="5">
         <v>-31</v>
@@ -33793,16 +33931,16 @@
         <v>0</v>
       </c>
       <c r="N365" s="5" t="s">
-        <v>1263</v>
+        <v>1242</v>
       </c>
       <c r="O365" s="5">
         <v>131400</v>
       </c>
       <c r="P365" s="5" t="s">
-        <v>1309</v>
+        <v>1288</v>
       </c>
       <c r="Q365" s="10" t="s">
-        <v>1310</v>
+        <v>1289</v>
       </c>
       <c r="V365" s="5" t="s">
         <v>568</v>
@@ -33843,10 +33981,10 @@
         <v>1</v>
       </c>
       <c r="G366" s="5" t="s">
-        <v>1311</v>
+        <v>1290</v>
       </c>
       <c r="I366" s="5" t="s">
-        <v>1312</v>
+        <v>1291</v>
       </c>
       <c r="K366" s="5">
         <v>-31</v>
@@ -33858,16 +33996,16 @@
         <v>0</v>
       </c>
       <c r="N366" s="5" t="s">
-        <v>1263</v>
+        <v>1242</v>
       </c>
       <c r="O366" s="5">
         <v>52000</v>
       </c>
       <c r="P366" s="5" t="s">
-        <v>1210</v>
+        <v>1189</v>
       </c>
       <c r="Q366" s="10" t="s">
-        <v>1313</v>
+        <v>1292</v>
       </c>
       <c r="V366" s="5" t="s">
         <v>568</v>
@@ -33908,10 +34046,10 @@
         <v>1</v>
       </c>
       <c r="G367" s="5" t="s">
-        <v>1314</v>
+        <v>1293</v>
       </c>
       <c r="I367" s="5" t="s">
-        <v>1211</v>
+        <v>1190</v>
       </c>
       <c r="K367" s="5">
         <v>-31</v>
@@ -33923,19 +34061,19 @@
         <v>0</v>
       </c>
       <c r="N367" s="5" t="s">
-        <v>1263</v>
+        <v>1242</v>
       </c>
       <c r="O367" s="5">
         <v>25800</v>
       </c>
       <c r="P367" s="5" t="s">
-        <v>1210</v>
+        <v>1189</v>
       </c>
       <c r="Q367" s="10" t="s">
-        <v>1315</v>
+        <v>1294</v>
       </c>
       <c r="V367" s="5" t="s">
-        <v>1266</v>
+        <v>1245</v>
       </c>
       <c r="W367" s="5">
         <v>9999999</v>
@@ -33973,10 +34111,10 @@
         <v>1</v>
       </c>
       <c r="G368" s="5" t="s">
-        <v>1316</v>
+        <v>1295</v>
       </c>
       <c r="I368" s="5" t="s">
-        <v>1212</v>
+        <v>1191</v>
       </c>
       <c r="K368" s="5">
         <v>-31</v>
@@ -33988,16 +34126,16 @@
         <v>0</v>
       </c>
       <c r="N368" s="5" t="s">
-        <v>1263</v>
+        <v>1242</v>
       </c>
       <c r="O368" s="5">
         <v>14700</v>
       </c>
       <c r="P368" s="5" t="s">
-        <v>1309</v>
+        <v>1288</v>
       </c>
       <c r="Q368" s="10" t="s">
-        <v>1317</v>
+        <v>1296</v>
       </c>
       <c r="V368" s="5" t="s">
         <v>568</v>
@@ -34038,10 +34176,10 @@
         <v>1</v>
       </c>
       <c r="G369" s="5" t="s">
-        <v>1318</v>
+        <v>1297</v>
       </c>
       <c r="I369" s="5" t="s">
-        <v>1213</v>
+        <v>1192</v>
       </c>
       <c r="K369" s="5">
         <v>-31</v>
@@ -34059,13 +34197,13 @@
         <v>5200</v>
       </c>
       <c r="P369" s="5" t="s">
-        <v>1210</v>
+        <v>1189</v>
       </c>
       <c r="Q369" s="10" t="s">
-        <v>1214</v>
+        <v>1193</v>
       </c>
       <c r="V369" s="5" t="s">
-        <v>1266</v>
+        <v>1245</v>
       </c>
       <c r="W369" s="5">
         <v>9999999</v>
@@ -34103,10 +34241,10 @@
         <v>1</v>
       </c>
       <c r="G370" s="5" t="s">
-        <v>1215</v>
+        <v>1194</v>
       </c>
       <c r="I370" s="5" t="s">
-        <v>1319</v>
+        <v>1298</v>
       </c>
       <c r="K370" s="5">
         <v>-31</v>
@@ -34124,7 +34262,7 @@
         <v>1800</v>
       </c>
       <c r="P370" s="5" t="s">
-        <v>1320</v>
+        <v>1299</v>
       </c>
       <c r="Q370" s="10" t="s">
         <v>745</v>
@@ -34165,10 +34303,10 @@
         <v>1</v>
       </c>
       <c r="G371" s="5" t="s">
-        <v>1321</v>
+        <v>1300</v>
       </c>
       <c r="I371" s="5" t="s">
-        <v>1216</v>
+        <v>1195</v>
       </c>
       <c r="K371" s="5">
         <v>-31</v>
@@ -34186,10 +34324,10 @@
         <v>4800</v>
       </c>
       <c r="P371" s="5" t="s">
-        <v>1320</v>
+        <v>1299</v>
       </c>
       <c r="Q371" s="10" t="s">
-        <v>1322</v>
+        <v>1301</v>
       </c>
       <c r="V371" s="5" t="s">
         <v>598</v>
@@ -34227,10 +34365,10 @@
         <v>1</v>
       </c>
       <c r="G372" s="5" t="s">
-        <v>1217</v>
+        <v>1196</v>
       </c>
       <c r="I372" s="5" t="s">
-        <v>1323</v>
+        <v>1302</v>
       </c>
       <c r="K372" s="5">
         <v>-31</v>
@@ -34248,7 +34386,7 @@
         <v>9800</v>
       </c>
       <c r="P372" s="5" t="s">
-        <v>1320</v>
+        <v>1299</v>
       </c>
       <c r="Q372" s="10" t="s">
         <v>749</v>
@@ -34289,10 +34427,10 @@
         <v>1</v>
       </c>
       <c r="G373" s="5" t="s">
-        <v>1218</v>
+        <v>1197</v>
       </c>
       <c r="I373" s="5" t="s">
-        <v>1324</v>
+        <v>1303</v>
       </c>
       <c r="K373" s="5">
         <v>-31</v>
@@ -34310,13 +34448,13 @@
         <v>19800</v>
       </c>
       <c r="P373" s="5" t="s">
-        <v>1320</v>
+        <v>1299</v>
       </c>
       <c r="Q373" s="10" t="s">
         <v>750</v>
       </c>
       <c r="V373" s="5" t="s">
-        <v>1325</v>
+        <v>1304</v>
       </c>
       <c r="W373" s="5">
         <v>9999999</v>
@@ -34351,13 +34489,13 @@
         <v>1</v>
       </c>
       <c r="G374" s="5" t="s">
-        <v>1219</v>
+        <v>1198</v>
       </c>
       <c r="H374" s="5" t="s">
-        <v>1220</v>
+        <v>1199</v>
       </c>
       <c r="I374" s="5" t="s">
-        <v>1485</v>
+        <v>1464</v>
       </c>
       <c r="K374" s="5">
         <v>-31</v>
@@ -34369,7 +34507,7 @@
         <v>0</v>
       </c>
       <c r="N374" s="5" t="s">
-        <v>1263</v>
+        <v>1242</v>
       </c>
       <c r="O374" s="5">
         <v>600</v>
@@ -34378,7 +34516,7 @@
         <v>525</v>
       </c>
       <c r="Q374" s="10" t="s">
-        <v>1265</v>
+        <v>1244</v>
       </c>
       <c r="V374" s="5" t="s">
         <v>568</v>
@@ -34419,13 +34557,13 @@
         <v>1</v>
       </c>
       <c r="G375" s="5" t="s">
-        <v>1342</v>
+        <v>1321</v>
       </c>
       <c r="H375" s="5" t="s">
-        <v>1343</v>
+        <v>1322</v>
       </c>
       <c r="I375" s="5" t="s">
-        <v>1344</v>
+        <v>1323</v>
       </c>
       <c r="K375" s="5">
         <v>-31</v>
@@ -34437,19 +34575,19 @@
         <v>0</v>
       </c>
       <c r="N375" s="5" t="s">
-        <v>1345</v>
+        <v>1324</v>
       </c>
       <c r="O375" s="5">
         <v>300</v>
       </c>
       <c r="P375" s="5" t="s">
-        <v>1346</v>
+        <v>1325</v>
       </c>
       <c r="Q375" s="10" t="s">
-        <v>1347</v>
+        <v>1326</v>
       </c>
       <c r="V375" s="5" t="s">
-        <v>1348</v>
+        <v>1327</v>
       </c>
       <c r="W375" s="5">
         <v>9999999</v>
@@ -34487,13 +34625,13 @@
         <v>1</v>
       </c>
       <c r="G376" s="5" t="s">
-        <v>1350</v>
+        <v>1329</v>
       </c>
       <c r="H376" s="5" t="s">
-        <v>1352</v>
+        <v>1331</v>
       </c>
       <c r="I376" s="5" t="s">
-        <v>1353</v>
+        <v>1332</v>
       </c>
       <c r="K376" s="5">
         <v>-31</v>
@@ -34505,19 +34643,19 @@
         <v>0</v>
       </c>
       <c r="N376" s="5" t="s">
-        <v>1345</v>
+        <v>1324</v>
       </c>
       <c r="O376" s="5">
         <v>0</v>
       </c>
       <c r="P376" s="5" t="s">
-        <v>1355</v>
+        <v>1334</v>
       </c>
       <c r="Q376" s="10" t="s">
-        <v>1356</v>
+        <v>1335</v>
       </c>
       <c r="V376" s="5" t="s">
-        <v>1357</v>
+        <v>1336</v>
       </c>
       <c r="W376" s="5">
         <v>9999999</v>
@@ -34555,10 +34693,10 @@
         <v>1</v>
       </c>
       <c r="G377" s="5" t="s">
-        <v>1350</v>
+        <v>1329</v>
       </c>
       <c r="H377" s="5" t="s">
-        <v>1352</v>
+        <v>1331</v>
       </c>
       <c r="I377" s="5" t="s">
         <v>1014</v>
@@ -34573,19 +34711,19 @@
         <v>0</v>
       </c>
       <c r="N377" s="5" t="s">
-        <v>1345</v>
+        <v>1324</v>
       </c>
       <c r="O377" s="5">
         <v>300</v>
       </c>
       <c r="P377" s="5" t="s">
-        <v>1354</v>
+        <v>1333</v>
       </c>
       <c r="Q377" s="10" t="s">
-        <v>1358</v>
+        <v>1337</v>
       </c>
       <c r="V377" s="5" t="s">
-        <v>1348</v>
+        <v>1327</v>
       </c>
       <c r="W377" s="5">
         <v>9999999</v>
@@ -34623,13 +34761,13 @@
         <v>1</v>
       </c>
       <c r="G378" s="5" t="s">
-        <v>1350</v>
+        <v>1329</v>
       </c>
       <c r="H378" s="5" t="s">
-        <v>1351</v>
+        <v>1330</v>
       </c>
       <c r="I378" s="5" t="s">
-        <v>1359</v>
+        <v>1338</v>
       </c>
       <c r="K378" s="5">
         <v>-31</v>
@@ -34647,13 +34785,13 @@
         <v>600</v>
       </c>
       <c r="P378" s="5" t="s">
-        <v>1355</v>
+        <v>1334</v>
       </c>
       <c r="Q378" s="10" t="s">
-        <v>1360</v>
+        <v>1339</v>
       </c>
       <c r="V378" s="5" t="s">
-        <v>1361</v>
+        <v>1340</v>
       </c>
       <c r="W378" s="5">
         <v>9999999</v>
@@ -34691,10 +34829,10 @@
         <v>1</v>
       </c>
       <c r="G379" s="5" t="s">
-        <v>1349</v>
+        <v>1328</v>
       </c>
       <c r="H379" s="5" t="s">
-        <v>1352</v>
+        <v>1331</v>
       </c>
       <c r="I379" s="5" t="s">
         <v>896</v>
@@ -34709,19 +34847,19 @@
         <v>0</v>
       </c>
       <c r="N379" s="5" t="s">
-        <v>1345</v>
+        <v>1324</v>
       </c>
       <c r="O379" s="5">
         <v>1800</v>
       </c>
       <c r="P379" s="5" t="s">
-        <v>1355</v>
+        <v>1334</v>
       </c>
       <c r="Q379" s="10" t="s">
-        <v>1373</v>
+        <v>1352</v>
       </c>
       <c r="V379" s="5" t="s">
-        <v>1362</v>
+        <v>1341</v>
       </c>
       <c r="W379" s="5">
         <v>9999999</v>
@@ -34759,10 +34897,10 @@
         <v>1</v>
       </c>
       <c r="G380" s="5" t="s">
-        <v>1349</v>
+        <v>1328</v>
       </c>
       <c r="H380" s="5" t="s">
-        <v>1351</v>
+        <v>1330</v>
       </c>
       <c r="I380" s="5" t="s">
         <v>897</v>
@@ -34777,19 +34915,19 @@
         <v>0</v>
       </c>
       <c r="N380" s="5" t="s">
-        <v>1345</v>
+        <v>1324</v>
       </c>
       <c r="O380" s="5">
         <v>4800</v>
       </c>
       <c r="P380" s="5" t="s">
-        <v>1355</v>
+        <v>1334</v>
       </c>
       <c r="Q380" s="10" t="s">
-        <v>1374</v>
+        <v>1353</v>
       </c>
       <c r="V380" s="5" t="s">
-        <v>1363</v>
+        <v>1342</v>
       </c>
       <c r="W380" s="5">
         <v>9999999</v>
@@ -34827,13 +34965,13 @@
         <v>1</v>
       </c>
       <c r="G381" s="5" t="s">
-        <v>1350</v>
+        <v>1329</v>
       </c>
       <c r="H381" s="5" t="s">
-        <v>1364</v>
+        <v>1343</v>
       </c>
       <c r="I381" s="5" t="s">
-        <v>1353</v>
+        <v>1332</v>
       </c>
       <c r="K381" s="5">
         <v>-31</v>
@@ -34851,10 +34989,10 @@
         <v>0</v>
       </c>
       <c r="P381" s="5" t="s">
-        <v>1355</v>
+        <v>1334</v>
       </c>
       <c r="Q381" s="10" t="s">
-        <v>1356</v>
+        <v>1335</v>
       </c>
       <c r="V381" s="5" t="s">
         <v>570</v>
@@ -34895,13 +35033,13 @@
         <v>1</v>
       </c>
       <c r="G382" s="5" t="s">
-        <v>1349</v>
+        <v>1328</v>
       </c>
       <c r="H382" s="5" t="s">
-        <v>1364</v>
+        <v>1343</v>
       </c>
       <c r="I382" s="5" t="s">
-        <v>1319</v>
+        <v>1298</v>
       </c>
       <c r="K382" s="5">
         <v>-31</v>
@@ -34919,13 +35057,13 @@
         <v>1800</v>
       </c>
       <c r="P382" s="5" t="s">
-        <v>1354</v>
+        <v>1333</v>
       </c>
       <c r="Q382" s="10" t="s">
-        <v>1365</v>
+        <v>1344</v>
       </c>
       <c r="V382" s="5" t="s">
-        <v>1348</v>
+        <v>1327</v>
       </c>
       <c r="W382" s="5">
         <v>9999999</v>
@@ -34963,13 +35101,13 @@
         <v>1</v>
       </c>
       <c r="G383" s="5" t="s">
-        <v>1350</v>
+        <v>1329</v>
       </c>
       <c r="H383" s="5" t="s">
-        <v>1364</v>
+        <v>1343</v>
       </c>
       <c r="I383" s="5" t="s">
-        <v>1366</v>
+        <v>1345</v>
       </c>
       <c r="K383" s="5">
         <v>-31</v>
@@ -34987,10 +35125,10 @@
         <v>4800</v>
       </c>
       <c r="P383" s="5" t="s">
-        <v>1355</v>
+        <v>1334</v>
       </c>
       <c r="Q383" s="10" t="s">
-        <v>1367</v>
+        <v>1346</v>
       </c>
       <c r="V383" s="5" t="s">
         <v>536</v>
@@ -35031,13 +35169,13 @@
         <v>1</v>
       </c>
       <c r="G384" s="5" t="s">
-        <v>1349</v>
+        <v>1328</v>
       </c>
       <c r="H384" s="5" t="s">
-        <v>1364</v>
+        <v>1343</v>
       </c>
       <c r="I384" s="5" t="s">
-        <v>1368</v>
+        <v>1347</v>
       </c>
       <c r="K384" s="5">
         <v>-31</v>
@@ -35049,13 +35187,13 @@
         <v>0</v>
       </c>
       <c r="N384" s="5" t="s">
-        <v>1345</v>
+        <v>1324</v>
       </c>
       <c r="O384" s="5">
         <v>9800</v>
       </c>
       <c r="P384" s="5" t="s">
-        <v>1355</v>
+        <v>1334</v>
       </c>
       <c r="Q384" s="10" t="s">
         <v>749</v>
@@ -35099,13 +35237,13 @@
         <v>1</v>
       </c>
       <c r="G385" s="5" t="s">
-        <v>1350</v>
+        <v>1329</v>
       </c>
       <c r="H385" s="5" t="s">
-        <v>1364</v>
+        <v>1343</v>
       </c>
       <c r="I385" s="5" t="s">
-        <v>1369</v>
+        <v>1348</v>
       </c>
       <c r="K385" s="5">
         <v>-31</v>
@@ -35117,19 +35255,19 @@
         <v>0</v>
       </c>
       <c r="N385" s="5" t="s">
-        <v>1345</v>
+        <v>1324</v>
       </c>
       <c r="O385" s="5">
         <v>19800</v>
       </c>
       <c r="P385" s="5" t="s">
-        <v>1354</v>
+        <v>1333</v>
       </c>
       <c r="Q385" s="10" t="s">
-        <v>1370</v>
+        <v>1349</v>
       </c>
       <c r="V385" s="5" t="s">
-        <v>1363</v>
+        <v>1342</v>
       </c>
       <c r="W385" s="5">
         <v>9999999</v>
@@ -35167,13 +35305,13 @@
         <v>1</v>
       </c>
       <c r="G386" s="19" t="s">
-        <v>1375</v>
+        <v>1354</v>
       </c>
       <c r="H386" s="19" t="s">
-        <v>1376</v>
+        <v>1355</v>
       </c>
       <c r="I386" s="19" t="s">
-        <v>1377</v>
+        <v>1356</v>
       </c>
       <c r="K386" s="19">
         <v>-31</v>
@@ -35191,10 +35329,10 @@
         <v>1800</v>
       </c>
       <c r="P386" s="19" t="s">
-        <v>1378</v>
+        <v>1357</v>
       </c>
       <c r="Q386" s="39" t="s">
-        <v>1379</v>
+        <v>1358</v>
       </c>
       <c r="V386" s="19" t="s">
         <v>536</v>
@@ -35235,13 +35373,13 @@
         <v>1</v>
       </c>
       <c r="G387" s="19" t="s">
-        <v>1380</v>
+        <v>1359</v>
       </c>
       <c r="H387" s="19" t="s">
-        <v>1381</v>
+        <v>1360</v>
       </c>
       <c r="I387" s="19" t="s">
-        <v>1382</v>
+        <v>1361</v>
       </c>
       <c r="K387" s="19">
         <v>-31</v>
@@ -35253,16 +35391,16 @@
         <v>0</v>
       </c>
       <c r="N387" s="19" t="s">
-        <v>1383</v>
+        <v>1362</v>
       </c>
       <c r="O387" s="19">
         <v>3000</v>
       </c>
       <c r="P387" s="19" t="s">
-        <v>1384</v>
+        <v>1363</v>
       </c>
       <c r="Q387" s="39" t="s">
-        <v>1385</v>
+        <v>1364</v>
       </c>
       <c r="V387" s="19" t="s">
         <v>536</v>
@@ -35303,13 +35441,13 @@
         <v>1</v>
       </c>
       <c r="G388" s="19" t="s">
-        <v>1386</v>
+        <v>1365</v>
       </c>
       <c r="H388" s="19" t="s">
-        <v>1387</v>
+        <v>1366</v>
       </c>
       <c r="I388" s="19" t="s">
-        <v>1388</v>
+        <v>1367</v>
       </c>
       <c r="K388" s="19">
         <v>-31</v>
@@ -35321,19 +35459,19 @@
         <v>0</v>
       </c>
       <c r="N388" s="19" t="s">
-        <v>1389</v>
+        <v>1368</v>
       </c>
       <c r="O388" s="19">
         <v>4800</v>
       </c>
       <c r="P388" s="19" t="s">
-        <v>1390</v>
+        <v>1369</v>
       </c>
       <c r="Q388" s="39" t="s">
-        <v>1391</v>
+        <v>1370</v>
       </c>
       <c r="V388" s="19" t="s">
-        <v>1392</v>
+        <v>1371</v>
       </c>
       <c r="W388" s="19">
         <v>9999999</v>
@@ -35371,13 +35509,13 @@
         <v>1</v>
       </c>
       <c r="G389" s="19" t="s">
-        <v>1393</v>
+        <v>1372</v>
       </c>
       <c r="H389" s="19" t="s">
-        <v>1394</v>
+        <v>1373</v>
       </c>
       <c r="I389" s="19" t="s">
-        <v>1395</v>
+        <v>1374</v>
       </c>
       <c r="K389" s="19">
         <v>-31</v>
@@ -35389,16 +35527,16 @@
         <v>0</v>
       </c>
       <c r="N389" s="19" t="s">
-        <v>1396</v>
+        <v>1375</v>
       </c>
       <c r="O389" s="19">
         <v>4800</v>
       </c>
       <c r="P389" s="19" t="s">
-        <v>1397</v>
+        <v>1376</v>
       </c>
       <c r="Q389" s="39" t="s">
-        <v>1391</v>
+        <v>1370</v>
       </c>
       <c r="V389" s="19" t="s">
         <v>536</v>
@@ -35439,13 +35577,13 @@
         <v>1</v>
       </c>
       <c r="G390" s="19" t="s">
-        <v>1380</v>
+        <v>1359</v>
       </c>
       <c r="H390" s="19" t="s">
-        <v>1207</v>
+        <v>1186</v>
       </c>
       <c r="I390" s="19" t="s">
-        <v>1398</v>
+        <v>1377</v>
       </c>
       <c r="K390" s="19">
         <v>-31</v>
@@ -35463,10 +35601,10 @@
         <v>9800</v>
       </c>
       <c r="P390" s="19" t="s">
-        <v>1399</v>
+        <v>1378</v>
       </c>
       <c r="Q390" s="39" t="s">
-        <v>1400</v>
+        <v>1379</v>
       </c>
       <c r="V390" s="19" t="s">
         <v>536</v>
@@ -35507,13 +35645,13 @@
         <v>1</v>
       </c>
       <c r="G391" s="19" t="s">
-        <v>1401</v>
+        <v>1380</v>
       </c>
       <c r="H391" s="19" t="s">
-        <v>1394</v>
+        <v>1373</v>
       </c>
       <c r="I391" s="19" t="s">
-        <v>1402</v>
+        <v>1381</v>
       </c>
       <c r="K391" s="19">
         <v>-31</v>
@@ -35531,10 +35669,10 @@
         <v>19800</v>
       </c>
       <c r="P391" s="19" t="s">
-        <v>1403</v>
+        <v>1382</v>
       </c>
       <c r="Q391" s="39" t="s">
-        <v>1404</v>
+        <v>1383</v>
       </c>
       <c r="V391" s="19" t="s">
         <v>536</v>
@@ -35575,13 +35713,13 @@
         <v>1</v>
       </c>
       <c r="G392" s="19" t="s">
-        <v>1375</v>
+        <v>1354</v>
       </c>
       <c r="H392" s="19" t="s">
-        <v>1405</v>
+        <v>1384</v>
       </c>
       <c r="I392" s="19" t="s">
-        <v>1406</v>
+        <v>1385</v>
       </c>
       <c r="K392" s="19">
         <v>-31</v>
@@ -35599,10 +35737,10 @@
         <v>9800</v>
       </c>
       <c r="P392" s="19" t="s">
-        <v>1407</v>
+        <v>1386</v>
       </c>
       <c r="Q392" s="39" t="s">
-        <v>1408</v>
+        <v>1387</v>
       </c>
       <c r="V392" s="19" t="s">
         <v>536</v>
@@ -35643,13 +35781,13 @@
         <v>1</v>
       </c>
       <c r="G393" s="19" t="s">
-        <v>1380</v>
+        <v>1359</v>
       </c>
       <c r="H393" s="19" t="s">
-        <v>1409</v>
+        <v>1388</v>
       </c>
       <c r="I393" s="19" t="s">
-        <v>1410</v>
+        <v>1389</v>
       </c>
       <c r="K393" s="19">
         <v>-31</v>
@@ -35667,10 +35805,10 @@
         <v>19800</v>
       </c>
       <c r="P393" s="19" t="s">
-        <v>1411</v>
+        <v>1390</v>
       </c>
       <c r="Q393" s="39" t="s">
-        <v>1404</v>
+        <v>1383</v>
       </c>
       <c r="V393" s="19" t="s">
         <v>536</v>
@@ -35711,13 +35849,13 @@
         <v>1</v>
       </c>
       <c r="G394" s="19" t="s">
-        <v>1386</v>
+        <v>1365</v>
       </c>
       <c r="H394" s="19" t="s">
-        <v>1412</v>
+        <v>1391</v>
       </c>
       <c r="I394" s="19" t="s">
-        <v>1413</v>
+        <v>1392</v>
       </c>
       <c r="K394" s="19">
         <v>-31</v>
@@ -35729,16 +35867,16 @@
         <v>0</v>
       </c>
       <c r="N394" s="19" t="s">
-        <v>1414</v>
+        <v>1393</v>
       </c>
       <c r="O394" s="19">
         <v>49800</v>
       </c>
       <c r="P394" s="19" t="s">
-        <v>1415</v>
+        <v>1394</v>
       </c>
       <c r="Q394" s="39" t="s">
-        <v>1416</v>
+        <v>1395</v>
       </c>
       <c r="V394" s="19" t="s">
         <v>536</v>
@@ -35779,10 +35917,10 @@
         <v>1</v>
       </c>
       <c r="G395" s="5" t="s">
-        <v>1434</v>
+        <v>1413</v>
       </c>
       <c r="I395" s="5" t="s">
-        <v>1435</v>
+        <v>1414</v>
       </c>
       <c r="K395" s="5">
         <v>-31</v>
@@ -35794,16 +35932,16 @@
         <v>0</v>
       </c>
       <c r="N395" s="5" t="s">
-        <v>1436</v>
+        <v>1415</v>
       </c>
       <c r="O395" s="5">
         <v>600</v>
       </c>
       <c r="P395" s="5" t="s">
-        <v>1438</v>
+        <v>1417</v>
       </c>
       <c r="Q395" s="10" t="s">
-        <v>1439</v>
+        <v>1418</v>
       </c>
       <c r="V395" s="5" t="s">
         <v>529</v>
@@ -35841,10 +35979,10 @@
         <v>1</v>
       </c>
       <c r="G396" s="5" t="s">
-        <v>1440</v>
+        <v>1419</v>
       </c>
       <c r="I396" s="5" t="s">
-        <v>1441</v>
+        <v>1420</v>
       </c>
       <c r="K396" s="5">
         <v>-31</v>
@@ -35856,16 +35994,16 @@
         <v>0</v>
       </c>
       <c r="N396" s="5" t="s">
-        <v>1436</v>
+        <v>1415</v>
       </c>
       <c r="O396" s="5">
         <v>2000</v>
       </c>
       <c r="P396" s="5" t="s">
-        <v>1437</v>
+        <v>1416</v>
       </c>
       <c r="Q396" s="10" t="s">
-        <v>1442</v>
+        <v>1421</v>
       </c>
       <c r="V396" s="5" t="s">
         <v>529</v>
@@ -35906,7 +36044,7 @@
         <v>289</v>
       </c>
       <c r="I397" s="5" t="s">
-        <v>1443</v>
+        <v>1422</v>
       </c>
       <c r="K397" s="5">
         <v>-31</v>
@@ -35924,10 +36062,10 @@
         <v>4800</v>
       </c>
       <c r="P397" s="5" t="s">
-        <v>1437</v>
+        <v>1416</v>
       </c>
       <c r="Q397" s="10" t="s">
-        <v>1444</v>
+        <v>1423</v>
       </c>
       <c r="V397" s="5" t="s">
         <v>529</v>
@@ -35968,7 +36106,7 @@
         <v>292</v>
       </c>
       <c r="I398" s="5" t="s">
-        <v>1445</v>
+        <v>1424</v>
       </c>
       <c r="K398" s="5">
         <v>-31</v>
@@ -35986,10 +36124,10 @@
         <v>9800</v>
       </c>
       <c r="P398" s="5" t="s">
-        <v>1437</v>
+        <v>1416</v>
       </c>
       <c r="Q398" s="10" t="s">
-        <v>1446</v>
+        <v>1425</v>
       </c>
       <c r="V398" s="5" t="s">
         <v>529</v>
@@ -36027,10 +36165,10 @@
         <v>1</v>
       </c>
       <c r="G399" s="5" t="s">
-        <v>1447</v>
+        <v>1426</v>
       </c>
       <c r="I399" s="5" t="s">
-        <v>1448</v>
+        <v>1427</v>
       </c>
       <c r="K399" s="5">
         <v>-31</v>
@@ -36042,16 +36180,16 @@
         <v>0</v>
       </c>
       <c r="N399" s="5" t="s">
-        <v>1436</v>
+        <v>1415</v>
       </c>
       <c r="O399" s="5">
         <v>19800</v>
       </c>
       <c r="P399" s="5" t="s">
-        <v>1438</v>
+        <v>1417</v>
       </c>
       <c r="Q399" s="10" t="s">
-        <v>1449</v>
+        <v>1428</v>
       </c>
       <c r="V399" s="5" t="s">
         <v>529</v>
@@ -36089,10 +36227,10 @@
         <v>1</v>
       </c>
       <c r="G400" s="5" t="s">
-        <v>1450</v>
+        <v>1429</v>
       </c>
       <c r="I400" s="5" t="s">
-        <v>1451</v>
+        <v>1430</v>
       </c>
       <c r="K400" s="5">
         <v>-31</v>
@@ -36104,16 +36242,16 @@
         <v>0</v>
       </c>
       <c r="N400" s="5" t="s">
-        <v>1436</v>
+        <v>1415</v>
       </c>
       <c r="O400" s="5">
         <v>49800</v>
       </c>
       <c r="P400" s="5" t="s">
-        <v>1438</v>
+        <v>1417</v>
       </c>
       <c r="Q400" s="10" t="s">
-        <v>1452</v>
+        <v>1431</v>
       </c>
       <c r="V400" s="5" t="s">
         <v>529</v>
@@ -36151,10 +36289,10 @@
         <v>1</v>
       </c>
       <c r="G401" s="5" t="s">
-        <v>1453</v>
+        <v>1432</v>
       </c>
       <c r="I401" s="5" t="s">
-        <v>1454</v>
+        <v>1433</v>
       </c>
       <c r="K401" s="5">
         <v>-31</v>
@@ -36172,13 +36310,13 @@
         <v>1800</v>
       </c>
       <c r="P401" s="5" t="s">
-        <v>1456</v>
+        <v>1435</v>
       </c>
       <c r="Q401" s="5" t="s">
-        <v>1457</v>
+        <v>1436</v>
       </c>
       <c r="V401" s="5" t="s">
-        <v>1266</v>
+        <v>1245</v>
       </c>
       <c r="W401" s="5">
         <v>99999999</v>
@@ -36216,10 +36354,10 @@
         <v>1</v>
       </c>
       <c r="G402" s="5" t="s">
-        <v>1458</v>
+        <v>1437</v>
       </c>
       <c r="I402" s="5" t="s">
-        <v>1459</v>
+        <v>1438</v>
       </c>
       <c r="K402" s="5">
         <v>-31</v>
@@ -36231,19 +36369,19 @@
         <v>0</v>
       </c>
       <c r="N402" s="5" t="s">
-        <v>1460</v>
+        <v>1439</v>
       </c>
       <c r="O402" s="5">
         <v>4800</v>
       </c>
       <c r="P402" s="5" t="s">
-        <v>1455</v>
+        <v>1434</v>
       </c>
       <c r="Q402" s="5" t="s">
-        <v>1461</v>
+        <v>1440</v>
       </c>
       <c r="V402" s="5" t="s">
-        <v>1266</v>
+        <v>1245</v>
       </c>
       <c r="W402" s="5">
         <v>99999999</v>
@@ -36281,10 +36419,10 @@
         <v>1</v>
       </c>
       <c r="G403" s="5" t="s">
-        <v>1462</v>
+        <v>1441</v>
       </c>
       <c r="I403" s="5" t="s">
-        <v>1463</v>
+        <v>1442</v>
       </c>
       <c r="K403" s="5">
         <v>-31</v>
@@ -36302,13 +36440,13 @@
         <v>9800</v>
       </c>
       <c r="P403" s="5" t="s">
-        <v>1465</v>
+        <v>1444</v>
       </c>
       <c r="Q403" s="5" t="s">
-        <v>1466</v>
+        <v>1445</v>
       </c>
       <c r="V403" s="5" t="s">
-        <v>1266</v>
+        <v>1245</v>
       </c>
       <c r="W403" s="5">
         <v>99999999</v>
@@ -36346,10 +36484,10 @@
         <v>1</v>
       </c>
       <c r="G404" s="5" t="s">
-        <v>1467</v>
+        <v>1446</v>
       </c>
       <c r="I404" s="5" t="s">
-        <v>1468</v>
+        <v>1447</v>
       </c>
       <c r="K404" s="5">
         <v>-31</v>
@@ -36367,13 +36505,13 @@
         <v>19800</v>
       </c>
       <c r="P404" s="5" t="s">
-        <v>1464</v>
+        <v>1443</v>
       </c>
       <c r="Q404" s="5" t="s">
-        <v>1469</v>
+        <v>1448</v>
       </c>
       <c r="V404" s="5" t="s">
-        <v>1266</v>
+        <v>1245</v>
       </c>
       <c r="W404" s="5">
         <v>99999999</v>
@@ -36411,10 +36549,10 @@
         <v>1</v>
       </c>
       <c r="G405" s="5" t="s">
-        <v>1470</v>
+        <v>1449</v>
       </c>
       <c r="I405" s="5" t="s">
-        <v>1471</v>
+        <v>1450</v>
       </c>
       <c r="K405" s="5">
         <v>-31</v>
@@ -36432,13 +36570,13 @@
         <v>29800</v>
       </c>
       <c r="P405" s="5" t="s">
-        <v>1472</v>
+        <v>1451</v>
       </c>
       <c r="Q405" s="5" t="s">
-        <v>1473</v>
+        <v>1452</v>
       </c>
       <c r="V405" s="5" t="s">
-        <v>1266</v>
+        <v>1245</v>
       </c>
       <c r="W405" s="5">
         <v>99999999</v>
@@ -36476,10 +36614,10 @@
         <v>1</v>
       </c>
       <c r="G406" s="5" t="s">
-        <v>1474</v>
+        <v>1453</v>
       </c>
       <c r="I406" s="5" t="s">
-        <v>1475</v>
+        <v>1454</v>
       </c>
       <c r="K406" s="5">
         <v>-31</v>
@@ -36497,13 +36635,13 @@
         <v>49800</v>
       </c>
       <c r="P406" s="5" t="s">
-        <v>1477</v>
+        <v>1456</v>
       </c>
       <c r="Q406" s="5" t="s">
-        <v>1478</v>
+        <v>1457</v>
       </c>
       <c r="V406" s="5" t="s">
-        <v>1479</v>
+        <v>1458</v>
       </c>
       <c r="W406" s="5">
         <v>99999999</v>
@@ -36541,10 +36679,10 @@
         <v>1</v>
       </c>
       <c r="G407" s="5" t="s">
-        <v>1480</v>
+        <v>1459</v>
       </c>
       <c r="I407" s="5" t="s">
-        <v>1481</v>
+        <v>1460</v>
       </c>
       <c r="K407" s="5">
         <v>-31</v>
@@ -36556,19 +36694,19 @@
         <v>0</v>
       </c>
       <c r="N407" s="5" t="s">
-        <v>1482</v>
+        <v>1461</v>
       </c>
       <c r="O407" s="5">
         <v>99800</v>
       </c>
       <c r="P407" s="5" t="s">
-        <v>1476</v>
+        <v>1455</v>
       </c>
       <c r="Q407" s="5" t="s">
-        <v>1483</v>
+        <v>1462</v>
       </c>
       <c r="V407" s="5" t="s">
-        <v>1266</v>
+        <v>1245</v>
       </c>
       <c r="W407" s="5">
         <v>99999999</v>
@@ -36606,10 +36744,10 @@
         <v>1</v>
       </c>
       <c r="G408" s="49" t="s">
-        <v>1507</v>
+        <v>1486</v>
       </c>
       <c r="I408" s="49" t="s">
-        <v>1495</v>
+        <v>1474</v>
       </c>
       <c r="K408" s="49">
         <v>-31</v>
@@ -36627,10 +36765,10 @@
         <v>600</v>
       </c>
       <c r="P408" s="49" t="s">
-        <v>1508</v>
+        <v>1487</v>
       </c>
       <c r="Q408" s="50" t="s">
-        <v>1509</v>
+        <v>1488</v>
       </c>
       <c r="V408" s="49" t="s">
         <v>568</v>
@@ -36671,10 +36809,10 @@
         <v>1</v>
       </c>
       <c r="G409" s="49" t="s">
-        <v>1497</v>
+        <v>1476</v>
       </c>
       <c r="I409" s="49" t="s">
-        <v>1510</v>
+        <v>1489</v>
       </c>
       <c r="K409" s="49">
         <v>-31</v>
@@ -36686,19 +36824,19 @@
         <v>0</v>
       </c>
       <c r="N409" s="49" t="s">
-        <v>1511</v>
+        <v>1490</v>
       </c>
       <c r="O409" s="49">
         <v>2000</v>
       </c>
       <c r="P409" s="49" t="s">
-        <v>1496</v>
+        <v>1475</v>
       </c>
       <c r="Q409" s="50" t="s">
-        <v>1512</v>
+        <v>1491</v>
       </c>
       <c r="V409" s="49" t="s">
-        <v>1513</v>
+        <v>1492</v>
       </c>
       <c r="W409" s="49">
         <v>99999999</v>
@@ -36736,10 +36874,10 @@
         <v>1</v>
       </c>
       <c r="G410" s="49" t="s">
-        <v>1514</v>
+        <v>1493</v>
       </c>
       <c r="I410" s="49" t="s">
-        <v>1498</v>
+        <v>1477</v>
       </c>
       <c r="K410" s="49">
         <v>-31</v>
@@ -36757,10 +36895,10 @@
         <v>4800</v>
       </c>
       <c r="P410" s="49" t="s">
-        <v>1496</v>
+        <v>1475</v>
       </c>
       <c r="Q410" s="50" t="s">
-        <v>1515</v>
+        <v>1494</v>
       </c>
       <c r="V410" s="49" t="s">
         <v>568</v>
@@ -36801,10 +36939,10 @@
         <v>1</v>
       </c>
       <c r="G411" s="49" t="s">
-        <v>1499</v>
+        <v>1478</v>
       </c>
       <c r="I411" s="49" t="s">
-        <v>1500</v>
+        <v>1479</v>
       </c>
       <c r="K411" s="49">
         <v>-31</v>
@@ -36822,10 +36960,10 @@
         <v>9800</v>
       </c>
       <c r="P411" s="49" t="s">
-        <v>1516</v>
+        <v>1495</v>
       </c>
       <c r="Q411" s="50" t="s">
-        <v>1517</v>
+        <v>1496</v>
       </c>
       <c r="V411" s="49" t="s">
         <v>568</v>
@@ -36866,10 +37004,10 @@
         <v>1</v>
       </c>
       <c r="G412" s="49" t="s">
-        <v>1518</v>
+        <v>1497</v>
       </c>
       <c r="I412" s="49" t="s">
-        <v>1519</v>
+        <v>1498</v>
       </c>
       <c r="K412" s="49">
         <v>-31</v>
@@ -36887,13 +37025,13 @@
         <v>19800</v>
       </c>
       <c r="P412" s="49" t="s">
-        <v>1508</v>
+        <v>1487</v>
       </c>
       <c r="Q412" s="50" t="s">
-        <v>1520</v>
+        <v>1499</v>
       </c>
       <c r="V412" s="49" t="s">
-        <v>1521</v>
+        <v>1500</v>
       </c>
       <c r="W412" s="49">
         <v>99999999</v>
@@ -36931,10 +37069,10 @@
         <v>1</v>
       </c>
       <c r="G413" s="49" t="s">
-        <v>1522</v>
+        <v>1501</v>
       </c>
       <c r="I413" s="49" t="s">
-        <v>1523</v>
+        <v>1502</v>
       </c>
       <c r="K413" s="49">
         <v>-31</v>
@@ -36946,19 +37084,19 @@
         <v>0</v>
       </c>
       <c r="N413" s="49" t="s">
-        <v>1511</v>
+        <v>1490</v>
       </c>
       <c r="O413" s="49">
         <v>49800</v>
       </c>
       <c r="P413" s="49" t="s">
-        <v>1508</v>
+        <v>1487</v>
       </c>
       <c r="Q413" s="50" t="s">
-        <v>1524</v>
+        <v>1503</v>
       </c>
       <c r="V413" s="49" t="s">
-        <v>1521</v>
+        <v>1500</v>
       </c>
       <c r="W413" s="49">
         <v>99999999</v>
@@ -36999,7 +37137,7 @@
         <v>1</v>
       </c>
       <c r="G414" s="5" t="s">
-        <v>1501</v>
+        <v>1480</v>
       </c>
       <c r="K414" s="5">
         <v>-4</v>
@@ -37020,7 +37158,7 @@
         <v>78</v>
       </c>
       <c r="Q414" s="10" t="s">
-        <v>1502</v>
+        <v>1481</v>
       </c>
       <c r="V414" s="5" t="s">
         <v>526</v>
@@ -37052,13 +37190,13 @@
         <v>1</v>
       </c>
       <c r="G415" s="6" t="s">
-        <v>1536</v>
+        <v>1515</v>
       </c>
       <c r="H415" s="6" t="s">
-        <v>1537</v>
+        <v>1516</v>
       </c>
       <c r="I415" s="6" t="s">
-        <v>1538</v>
+        <v>1517</v>
       </c>
       <c r="K415" s="6">
         <v>-31</v>
@@ -37076,13 +37214,13 @@
         <v>600</v>
       </c>
       <c r="P415" s="5" t="s">
-        <v>1539</v>
+        <v>1518</v>
       </c>
       <c r="Q415" s="52" t="s">
-        <v>1540</v>
+        <v>1519</v>
       </c>
       <c r="V415" s="6" t="s">
-        <v>1541</v>
+        <v>1520</v>
       </c>
       <c r="W415" s="14" t="s">
         <v>109</v>
@@ -37120,13 +37258,13 @@
         <v>1</v>
       </c>
       <c r="G416" s="6" t="s">
-        <v>1542</v>
+        <v>1521</v>
       </c>
       <c r="H416" s="6" t="s">
-        <v>1543</v>
+        <v>1522</v>
       </c>
       <c r="I416" s="6" t="s">
-        <v>1544</v>
+        <v>1523</v>
       </c>
       <c r="K416" s="6">
         <v>-31</v>
@@ -37144,13 +37282,13 @@
         <v>1800</v>
       </c>
       <c r="P416" s="5" t="s">
-        <v>1545</v>
+        <v>1524</v>
       </c>
       <c r="Q416" s="52" t="s">
-        <v>1546</v>
+        <v>1525</v>
       </c>
       <c r="V416" s="6" t="s">
-        <v>1541</v>
+        <v>1520</v>
       </c>
       <c r="W416" s="14" t="s">
         <v>109</v>
@@ -37188,13 +37326,13 @@
         <v>1</v>
       </c>
       <c r="G417" s="6" t="s">
-        <v>1547</v>
+        <v>1526</v>
       </c>
       <c r="H417" s="6" t="s">
-        <v>1548</v>
+        <v>1527</v>
       </c>
       <c r="I417" s="6" t="s">
-        <v>1549</v>
+        <v>1528</v>
       </c>
       <c r="K417" s="6">
         <v>-31</v>
@@ -37212,13 +37350,13 @@
         <v>4800</v>
       </c>
       <c r="P417" s="5" t="s">
-        <v>1195</v>
+        <v>1174</v>
       </c>
       <c r="Q417" s="52" t="s">
-        <v>1546</v>
+        <v>1525</v>
       </c>
       <c r="V417" s="6" t="s">
-        <v>1198</v>
+        <v>1177</v>
       </c>
       <c r="W417" s="14" t="s">
         <v>109</v>
@@ -37256,13 +37394,13 @@
         <v>1</v>
       </c>
       <c r="G418" s="6" t="s">
-        <v>1550</v>
+        <v>1529</v>
       </c>
       <c r="H418" s="6" t="s">
-        <v>1551</v>
+        <v>1530</v>
       </c>
       <c r="I418" s="6" t="s">
-        <v>1538</v>
+        <v>1517</v>
       </c>
       <c r="K418" s="6">
         <v>-31</v>
@@ -37280,13 +37418,13 @@
         <v>9800</v>
       </c>
       <c r="P418" s="5" t="s">
-        <v>1197</v>
+        <v>1176</v>
       </c>
       <c r="Q418" s="52" t="s">
-        <v>1540</v>
+        <v>1519</v>
       </c>
       <c r="V418" s="6" t="s">
-        <v>1198</v>
+        <v>1177</v>
       </c>
       <c r="W418" s="14" t="s">
         <v>109</v>
@@ -37324,13 +37462,13 @@
         <v>1</v>
       </c>
       <c r="G419" s="6" t="s">
-        <v>1552</v>
+        <v>1531</v>
       </c>
       <c r="H419" s="6" t="s">
-        <v>1553</v>
+        <v>1532</v>
       </c>
       <c r="I419" s="6" t="s">
-        <v>1549</v>
+        <v>1528</v>
       </c>
       <c r="K419" s="6">
         <v>-31</v>
@@ -37348,13 +37486,13 @@
         <v>19800</v>
       </c>
       <c r="P419" s="5" t="s">
-        <v>1199</v>
+        <v>1178</v>
       </c>
       <c r="Q419" s="52" t="s">
-        <v>1191</v>
+        <v>1170</v>
       </c>
       <c r="V419" s="6" t="s">
-        <v>1198</v>
+        <v>1177</v>
       </c>
       <c r="W419" s="14" t="s">
         <v>109</v>
@@ -37392,13 +37530,13 @@
         <v>1</v>
       </c>
       <c r="G420" s="6" t="s">
-        <v>1554</v>
+        <v>1533</v>
       </c>
       <c r="H420" s="6" t="s">
-        <v>1553</v>
+        <v>1532</v>
       </c>
       <c r="I420" s="6" t="s">
-        <v>1544</v>
+        <v>1523</v>
       </c>
       <c r="K420" s="6">
         <v>-31</v>
@@ -37416,13 +37554,13 @@
         <v>49800</v>
       </c>
       <c r="P420" s="5" t="s">
-        <v>1200</v>
+        <v>1179</v>
       </c>
       <c r="Q420" s="52" t="s">
-        <v>1540</v>
+        <v>1519</v>
       </c>
       <c r="V420" s="6" t="s">
-        <v>1198</v>
+        <v>1177</v>
       </c>
       <c r="W420" s="14" t="s">
         <v>109</v>
@@ -37460,10 +37598,10 @@
         <v>1</v>
       </c>
       <c r="G421" s="19" t="s">
-        <v>1555</v>
+        <v>1534</v>
       </c>
       <c r="I421" s="19" t="s">
-        <v>1556</v>
+        <v>1535</v>
       </c>
       <c r="K421" s="19">
         <v>-31</v>
@@ -37475,19 +37613,19 @@
         <v>0</v>
       </c>
       <c r="N421" s="19" t="s">
-        <v>1557</v>
+        <v>1536</v>
       </c>
       <c r="O421" s="19">
         <v>1000</v>
       </c>
       <c r="P421" s="19" t="s">
-        <v>1558</v>
+        <v>1537</v>
       </c>
       <c r="Q421" s="39" t="s">
-        <v>1559</v>
+        <v>1538</v>
       </c>
       <c r="V421" s="19" t="s">
-        <v>1560</v>
+        <v>1539</v>
       </c>
       <c r="W421" s="19">
         <v>9999999</v>
@@ -37499,10 +37637,10 @@
         <v>2552233600</v>
       </c>
       <c r="AA421" s="19" t="s">
-        <v>1561</v>
+        <v>1540</v>
       </c>
       <c r="AB421" s="19" t="s">
-        <v>1562</v>
+        <v>1541</v>
       </c>
       <c r="AG421" s="19">
         <v>1</v>
@@ -37528,13 +37666,13 @@
         <v>1</v>
       </c>
       <c r="G422" s="53" t="s">
-        <v>1589</v>
+        <v>1568</v>
       </c>
       <c r="H422" s="53" t="s">
-        <v>1590</v>
+        <v>1569</v>
       </c>
       <c r="I422" s="53" t="s">
-        <v>1591</v>
+        <v>1570</v>
       </c>
       <c r="K422" s="53">
         <v>-31</v>
@@ -37552,10 +37690,10 @@
         <v>2000</v>
       </c>
       <c r="P422" s="53" t="s">
-        <v>1592</v>
+        <v>1571</v>
       </c>
       <c r="Q422" s="54" t="s">
-        <v>1593</v>
+        <v>1572</v>
       </c>
       <c r="V422" s="53" t="s">
         <v>570</v>
@@ -37596,13 +37734,13 @@
         <v>1</v>
       </c>
       <c r="G423" s="53" t="s">
-        <v>1563</v>
+        <v>1542</v>
       </c>
       <c r="H423" s="53" t="s">
-        <v>1590</v>
+        <v>1569</v>
       </c>
       <c r="I423" s="53" t="s">
-        <v>1594</v>
+        <v>1573</v>
       </c>
       <c r="K423" s="53">
         <v>-31</v>
@@ -37620,13 +37758,13 @@
         <v>5800</v>
       </c>
       <c r="P423" s="53" t="s">
-        <v>1595</v>
+        <v>1574</v>
       </c>
       <c r="Q423" s="54" t="s">
-        <v>1596</v>
+        <v>1575</v>
       </c>
       <c r="V423" s="53" t="s">
-        <v>1597</v>
+        <v>1576</v>
       </c>
       <c r="W423" s="53">
         <v>99999999</v>
@@ -37664,13 +37802,13 @@
         <v>1</v>
       </c>
       <c r="G424" s="53" t="s">
-        <v>1598</v>
+        <v>1577</v>
       </c>
       <c r="H424" s="53" t="s">
-        <v>1599</v>
+        <v>1578</v>
       </c>
       <c r="I424" s="53" t="s">
-        <v>1600</v>
+        <v>1579</v>
       </c>
       <c r="K424" s="53">
         <v>-31</v>
@@ -37688,13 +37826,13 @@
         <v>12800</v>
       </c>
       <c r="P424" s="53" t="s">
-        <v>1601</v>
+        <v>1580</v>
       </c>
       <c r="Q424" s="54" t="s">
-        <v>1602</v>
+        <v>1581</v>
       </c>
       <c r="V424" s="53" t="s">
-        <v>1597</v>
+        <v>1576</v>
       </c>
       <c r="W424" s="53">
         <v>99999999</v>
@@ -37732,10 +37870,10 @@
         <v>1</v>
       </c>
       <c r="G425" s="6" t="s">
-        <v>1565</v>
+        <v>1544</v>
       </c>
       <c r="I425" s="6" t="s">
-        <v>1566</v>
+        <v>1545</v>
       </c>
       <c r="K425" s="6">
         <v>-31</v>
@@ -37753,13 +37891,13 @@
         <v>49800</v>
       </c>
       <c r="P425" s="6" t="s">
-        <v>1567</v>
+        <v>1546</v>
       </c>
       <c r="Q425" s="52" t="s">
-        <v>1568</v>
+        <v>1547</v>
       </c>
       <c r="V425" s="6" t="s">
-        <v>1564</v>
+        <v>1543</v>
       </c>
       <c r="W425" s="6">
         <v>9999999</v>
@@ -37788,10 +37926,10 @@
         <v>1</v>
       </c>
       <c r="G426" s="6" t="s">
-        <v>1569</v>
+        <v>1548</v>
       </c>
       <c r="I426" s="6" t="s">
-        <v>1570</v>
+        <v>1549</v>
       </c>
       <c r="K426" s="6">
         <v>-31</v>
@@ -37809,13 +37947,13 @@
         <v>19800</v>
       </c>
       <c r="P426" s="6" t="s">
-        <v>1571</v>
+        <v>1550</v>
       </c>
       <c r="Q426" s="52" t="s">
-        <v>1568</v>
+        <v>1547</v>
       </c>
       <c r="V426" s="6" t="s">
-        <v>1564</v>
+        <v>1543</v>
       </c>
       <c r="W426" s="6">
         <v>9999999</v>
@@ -37844,10 +37982,10 @@
         <v>1</v>
       </c>
       <c r="G427" s="6" t="s">
-        <v>1572</v>
+        <v>1551</v>
       </c>
       <c r="I427" s="6" t="s">
-        <v>1573</v>
+        <v>1552</v>
       </c>
       <c r="K427" s="6">
         <v>-31</v>
@@ -37865,13 +38003,13 @@
         <v>9800</v>
       </c>
       <c r="P427" s="6" t="s">
-        <v>1574</v>
+        <v>1553</v>
       </c>
       <c r="Q427" s="52" t="s">
         <v>657</v>
       </c>
       <c r="V427" s="6" t="s">
-        <v>1564</v>
+        <v>1543</v>
       </c>
       <c r="W427" s="6">
         <v>9999999</v>
@@ -37900,10 +38038,10 @@
         <v>1</v>
       </c>
       <c r="G428" s="6" t="s">
-        <v>1575</v>
+        <v>1554</v>
       </c>
       <c r="I428" s="6" t="s">
-        <v>1576</v>
+        <v>1555</v>
       </c>
       <c r="K428" s="6">
         <v>-31</v>
@@ -37921,13 +38059,13 @@
         <v>9800</v>
       </c>
       <c r="P428" s="6" t="s">
-        <v>1577</v>
+        <v>1556</v>
       </c>
       <c r="Q428" s="52" t="s">
-        <v>1568</v>
+        <v>1547</v>
       </c>
       <c r="V428" s="6" t="s">
-        <v>1560</v>
+        <v>1539</v>
       </c>
       <c r="W428" s="6">
         <v>9999999</v>
@@ -37956,10 +38094,10 @@
         <v>1</v>
       </c>
       <c r="G429" s="6" t="s">
-        <v>1578</v>
+        <v>1557</v>
       </c>
       <c r="I429" s="6" t="s">
-        <v>1579</v>
+        <v>1558</v>
       </c>
       <c r="K429" s="6">
         <v>-31</v>
@@ -37977,13 +38115,13 @@
         <v>4800</v>
       </c>
       <c r="P429" s="6" t="s">
-        <v>1580</v>
+        <v>1559</v>
       </c>
       <c r="Q429" s="52" t="s">
         <v>657</v>
       </c>
       <c r="V429" s="6" t="s">
-        <v>1560</v>
+        <v>1539</v>
       </c>
       <c r="W429" s="6">
         <v>9999999</v>
@@ -38012,13 +38150,13 @@
         <v>1</v>
       </c>
       <c r="G430" s="19" t="s">
-        <v>1581</v>
+        <v>1560</v>
       </c>
       <c r="H430" s="19" t="s">
-        <v>1582</v>
+        <v>1561</v>
       </c>
       <c r="I430" s="19" t="s">
-        <v>1525</v>
+        <v>1504</v>
       </c>
       <c r="K430" s="19">
         <v>-28</v>
@@ -38036,7 +38174,7 @@
         <v>100</v>
       </c>
       <c r="P430" s="19" t="s">
-        <v>1526</v>
+        <v>1505</v>
       </c>
       <c r="Q430" s="39" t="s">
         <v>722</v>
@@ -38080,13 +38218,13 @@
         <v>1</v>
       </c>
       <c r="G431" s="19" t="s">
-        <v>1583</v>
+        <v>1562</v>
       </c>
       <c r="H431" s="19" t="s">
-        <v>1527</v>
+        <v>1506</v>
       </c>
       <c r="I431" s="19" t="s">
-        <v>1528</v>
+        <v>1507</v>
       </c>
       <c r="K431" s="19">
         <v>-28</v>
@@ -38104,10 +38242,10 @@
         <v>300</v>
       </c>
       <c r="P431" s="19" t="s">
-        <v>1526</v>
+        <v>1505</v>
       </c>
       <c r="Q431" s="39" t="s">
-        <v>1584</v>
+        <v>1563</v>
       </c>
       <c r="V431" s="19" t="s">
         <v>529</v>
@@ -38148,13 +38286,13 @@
         <v>1</v>
       </c>
       <c r="G432" s="19" t="s">
-        <v>1581</v>
+        <v>1560</v>
       </c>
       <c r="H432" s="19" t="s">
-        <v>1249</v>
+        <v>1228</v>
       </c>
       <c r="I432" s="19" t="s">
-        <v>1529</v>
+        <v>1508</v>
       </c>
       <c r="K432" s="19">
         <v>-28</v>
@@ -38172,10 +38310,10 @@
         <v>600</v>
       </c>
       <c r="P432" s="19" t="s">
-        <v>1526</v>
+        <v>1505</v>
       </c>
       <c r="Q432" s="39" t="s">
-        <v>1585</v>
+        <v>1564</v>
       </c>
       <c r="V432" s="19" t="s">
         <v>529</v>
@@ -38216,13 +38354,13 @@
         <v>1</v>
       </c>
       <c r="G433" s="19" t="s">
-        <v>1586</v>
+        <v>1565</v>
       </c>
       <c r="H433" s="19" t="s">
-        <v>1587</v>
+        <v>1566</v>
       </c>
       <c r="I433" s="19" t="s">
-        <v>1530</v>
+        <v>1509</v>
       </c>
       <c r="K433" s="19">
         <v>-28</v>
@@ -38240,10 +38378,10 @@
         <v>600</v>
       </c>
       <c r="P433" s="19" t="s">
-        <v>1526</v>
+        <v>1505</v>
       </c>
       <c r="Q433" s="39" t="s">
-        <v>1588</v>
+        <v>1567</v>
       </c>
       <c r="V433" s="19" t="s">
         <v>529</v>
@@ -38284,13 +38422,13 @@
         <v>1</v>
       </c>
       <c r="G434" s="55" t="s">
-        <v>1606</v>
+        <v>1585</v>
       </c>
       <c r="H434" s="55" t="s">
-        <v>1607</v>
+        <v>1586</v>
       </c>
       <c r="I434" s="55" t="s">
-        <v>1608</v>
+        <v>1587</v>
       </c>
       <c r="K434" s="55">
         <v>-31</v>
@@ -38308,10 +38446,10 @@
         <v>1800</v>
       </c>
       <c r="P434" s="55" t="s">
-        <v>1609</v>
+        <v>1588</v>
       </c>
       <c r="Q434" s="56" t="s">
-        <v>1610</v>
+        <v>1589</v>
       </c>
       <c r="V434" s="55" t="s">
         <v>529</v>
@@ -38349,13 +38487,13 @@
         <v>1</v>
       </c>
       <c r="G435" s="55" t="s">
-        <v>1611</v>
+        <v>1590</v>
       </c>
       <c r="H435" s="55" t="s">
-        <v>1607</v>
+        <v>1586</v>
       </c>
       <c r="I435" s="55" t="s">
-        <v>1612</v>
+        <v>1591</v>
       </c>
       <c r="K435" s="55">
         <v>-31</v>
@@ -38373,10 +38511,10 @@
         <v>4800</v>
       </c>
       <c r="P435" s="55" t="s">
-        <v>1609</v>
+        <v>1588</v>
       </c>
       <c r="Q435" s="56" t="s">
-        <v>1613</v>
+        <v>1592</v>
       </c>
       <c r="V435" s="55" t="s">
         <v>529</v>
@@ -38414,13 +38552,13 @@
         <v>1</v>
       </c>
       <c r="G436" s="55" t="s">
-        <v>1614</v>
+        <v>1593</v>
       </c>
       <c r="H436" s="55" t="s">
-        <v>1615</v>
+        <v>1594</v>
       </c>
       <c r="I436" s="55" t="s">
-        <v>1616</v>
+        <v>1595</v>
       </c>
       <c r="K436" s="55">
         <v>-31</v>
@@ -38438,10 +38576,10 @@
         <v>9800</v>
       </c>
       <c r="P436" s="55" t="s">
-        <v>1617</v>
+        <v>1596</v>
       </c>
       <c r="Q436" s="56" t="s">
-        <v>1618</v>
+        <v>1597</v>
       </c>
       <c r="V436" s="55" t="s">
         <v>529</v>
@@ -38479,13 +38617,13 @@
         <v>1</v>
       </c>
       <c r="G437" s="55" t="s">
-        <v>1619</v>
+        <v>1598</v>
       </c>
       <c r="H437" s="55" t="s">
-        <v>1607</v>
+        <v>1586</v>
       </c>
       <c r="I437" s="55" t="s">
-        <v>1620</v>
+        <v>1599</v>
       </c>
       <c r="K437" s="55">
         <v>-31</v>
@@ -38503,10 +38641,10 @@
         <v>19800</v>
       </c>
       <c r="P437" s="55" t="s">
-        <v>1621</v>
+        <v>1600</v>
       </c>
       <c r="Q437" s="56" t="s">
-        <v>1622</v>
+        <v>1601</v>
       </c>
       <c r="V437" s="55" t="s">
         <v>529</v>
@@ -38544,13 +38682,13 @@
         <v>1</v>
       </c>
       <c r="G438" s="55" t="s">
-        <v>1623</v>
+        <v>1602</v>
       </c>
       <c r="H438" s="55" t="s">
-        <v>1624</v>
+        <v>1603</v>
       </c>
       <c r="I438" s="55" t="s">
-        <v>1625</v>
+        <v>1604</v>
       </c>
       <c r="K438" s="55">
         <v>-31</v>
@@ -38568,10 +38706,10 @@
         <v>29800</v>
       </c>
       <c r="P438" s="55" t="s">
-        <v>1621</v>
+        <v>1600</v>
       </c>
       <c r="Q438" s="56" t="s">
-        <v>1626</v>
+        <v>1605</v>
       </c>
       <c r="V438" s="55" t="s">
         <v>529</v>
@@ -38609,13 +38747,13 @@
         <v>1</v>
       </c>
       <c r="G439" s="55" t="s">
-        <v>1627</v>
+        <v>1606</v>
       </c>
       <c r="H439" s="55" t="s">
-        <v>1624</v>
+        <v>1603</v>
       </c>
       <c r="I439" s="55" t="s">
-        <v>1628</v>
+        <v>1607</v>
       </c>
       <c r="K439" s="55">
         <v>-31</v>
@@ -38633,10 +38771,10 @@
         <v>49800</v>
       </c>
       <c r="P439" s="55" t="s">
-        <v>1629</v>
+        <v>1608</v>
       </c>
       <c r="Q439" s="56" t="s">
-        <v>1630</v>
+        <v>1609</v>
       </c>
       <c r="V439" s="55" t="s">
         <v>529</v>
@@ -38674,13 +38812,13 @@
         <v>1</v>
       </c>
       <c r="G440" s="55" t="s">
-        <v>1631</v>
+        <v>1610</v>
       </c>
       <c r="H440" s="55" t="s">
-        <v>1624</v>
+        <v>1603</v>
       </c>
       <c r="I440" s="55" t="s">
-        <v>1632</v>
+        <v>1611</v>
       </c>
       <c r="K440" s="55">
         <v>-31</v>
@@ -38698,10 +38836,10 @@
         <v>99800</v>
       </c>
       <c r="P440" s="55" t="s">
-        <v>1629</v>
+        <v>1608</v>
       </c>
       <c r="Q440" s="56" t="s">
-        <v>1633</v>
+        <v>1612</v>
       </c>
       <c r="V440" s="55" t="s">
         <v>529</v>
@@ -38739,10 +38877,10 @@
         <v>1</v>
       </c>
       <c r="G441" s="53" t="s">
-        <v>1634</v>
+        <v>1613</v>
       </c>
       <c r="I441" s="53" t="s">
-        <v>1635</v>
+        <v>1614</v>
       </c>
       <c r="K441" s="53">
         <v>-31</v>
@@ -38760,13 +38898,13 @@
         <v>49800</v>
       </c>
       <c r="P441" s="53" t="s">
-        <v>1636</v>
+        <v>1615</v>
       </c>
       <c r="Q441" s="54" t="s">
-        <v>1637</v>
+        <v>1616</v>
       </c>
       <c r="V441" s="53" t="s">
-        <v>1638</v>
+        <v>1617</v>
       </c>
       <c r="W441" s="53">
         <v>9999999</v>
@@ -38801,10 +38939,10 @@
         <v>1</v>
       </c>
       <c r="G442" s="53" t="s">
-        <v>1639</v>
+        <v>1618</v>
       </c>
       <c r="I442" s="53" t="s">
-        <v>1640</v>
+        <v>1619</v>
       </c>
       <c r="K442" s="53">
         <v>-31</v>
@@ -38822,13 +38960,13 @@
         <v>19800</v>
       </c>
       <c r="P442" s="53" t="s">
-        <v>1636</v>
+        <v>1615</v>
       </c>
       <c r="Q442" s="54" t="s">
-        <v>1641</v>
+        <v>1620</v>
       </c>
       <c r="V442" s="53" t="s">
-        <v>1638</v>
+        <v>1617</v>
       </c>
       <c r="W442" s="53">
         <v>9999999</v>
@@ -38863,10 +39001,10 @@
         <v>1</v>
       </c>
       <c r="G443" s="53" t="s">
-        <v>1642</v>
+        <v>1621</v>
       </c>
       <c r="I443" s="53" t="s">
-        <v>1643</v>
+        <v>1622</v>
       </c>
       <c r="K443" s="53">
         <v>-31</v>
@@ -38884,13 +39022,13 @@
         <v>9800</v>
       </c>
       <c r="P443" s="53" t="s">
-        <v>1644</v>
+        <v>1623</v>
       </c>
       <c r="Q443" s="54" t="s">
-        <v>1645</v>
+        <v>1624</v>
       </c>
       <c r="V443" s="53" t="s">
-        <v>1638</v>
+        <v>1617</v>
       </c>
       <c r="W443" s="53">
         <v>9999999</v>
@@ -38925,10 +39063,10 @@
         <v>1</v>
       </c>
       <c r="G444" s="53" t="s">
-        <v>1646</v>
+        <v>1625</v>
       </c>
       <c r="I444" s="53" t="s">
-        <v>1647</v>
+        <v>1626</v>
       </c>
       <c r="K444" s="53">
         <v>-31</v>
@@ -38946,13 +39084,13 @@
         <v>4800</v>
       </c>
       <c r="P444" s="53" t="s">
-        <v>1636</v>
+        <v>1615</v>
       </c>
       <c r="Q444" s="54" t="s">
-        <v>1648</v>
+        <v>1627</v>
       </c>
       <c r="V444" s="53" t="s">
-        <v>1638</v>
+        <v>1617</v>
       </c>
       <c r="W444" s="53">
         <v>9999999</v>
@@ -38987,10 +39125,10 @@
         <v>1</v>
       </c>
       <c r="G445" s="53" t="s">
-        <v>1649</v>
+        <v>1628</v>
       </c>
       <c r="I445" s="53" t="s">
-        <v>1650</v>
+        <v>1629</v>
       </c>
       <c r="K445" s="53">
         <v>-31</v>
@@ -39008,13 +39146,13 @@
         <v>2000</v>
       </c>
       <c r="P445" s="53" t="s">
-        <v>1636</v>
+        <v>1615</v>
       </c>
       <c r="Q445" s="54" t="s">
-        <v>1651</v>
+        <v>1630</v>
       </c>
       <c r="V445" s="53" t="s">
-        <v>1652</v>
+        <v>1631</v>
       </c>
       <c r="W445" s="53">
         <v>9999999</v>
@@ -39049,10 +39187,10 @@
         <v>1</v>
       </c>
       <c r="G446" s="53" t="s">
-        <v>1653</v>
+        <v>1632</v>
       </c>
       <c r="I446" s="53" t="s">
-        <v>1654</v>
+        <v>1633</v>
       </c>
       <c r="K446" s="53">
         <v>-31</v>
@@ -39070,13 +39208,13 @@
         <v>600</v>
       </c>
       <c r="P446" s="53" t="s">
-        <v>1644</v>
+        <v>1623</v>
       </c>
       <c r="Q446" s="54" t="s">
-        <v>1655</v>
+        <v>1634</v>
       </c>
       <c r="V446" s="53" t="s">
-        <v>1652</v>
+        <v>1631</v>
       </c>
       <c r="W446" s="53">
         <v>9999999</v>
@@ -39111,13 +39249,13 @@
         <v>1</v>
       </c>
       <c r="G447" s="59" t="s">
-        <v>1670</v>
+        <v>1649</v>
       </c>
       <c r="H447" s="59" t="s">
-        <v>1671</v>
+        <v>1650</v>
       </c>
       <c r="I447" s="59" t="s">
-        <v>1672</v>
+        <v>1651</v>
       </c>
       <c r="K447" s="59">
         <v>-31</v>
@@ -39135,13 +39273,13 @@
         <v>800</v>
       </c>
       <c r="P447" s="59" t="s">
-        <v>1673</v>
+        <v>1652</v>
       </c>
       <c r="Q447" s="60" t="s">
-        <v>1674</v>
+        <v>1653</v>
       </c>
       <c r="V447" s="5" t="s">
-        <v>1675</v>
+        <v>1654</v>
       </c>
       <c r="W447" s="59">
         <v>9999999</v>
@@ -39179,13 +39317,13 @@
         <v>1</v>
       </c>
       <c r="G448" s="59" t="s">
-        <v>1676</v>
+        <v>1655</v>
       </c>
       <c r="H448" s="59" t="s">
-        <v>1677</v>
+        <v>1656</v>
       </c>
       <c r="I448" s="59" t="s">
-        <v>1678</v>
+        <v>1657</v>
       </c>
       <c r="K448" s="59">
         <v>-31</v>
@@ -39203,13 +39341,13 @@
         <v>800</v>
       </c>
       <c r="P448" s="59" t="s">
-        <v>1059</v>
+        <v>1038</v>
       </c>
       <c r="Q448" s="60" t="s">
-        <v>1679</v>
+        <v>1658</v>
       </c>
       <c r="V448" s="5" t="s">
-        <v>1675</v>
+        <v>1654</v>
       </c>
       <c r="W448" s="59">
         <v>9999999</v>
@@ -39244,13 +39382,13 @@
         <v>1</v>
       </c>
       <c r="G449" s="59" t="s">
-        <v>1680</v>
+        <v>1659</v>
       </c>
       <c r="H449" s="59" t="s">
-        <v>1681</v>
+        <v>1660</v>
       </c>
       <c r="I449" s="59" t="s">
-        <v>1682</v>
+        <v>1661</v>
       </c>
       <c r="K449" s="59">
         <v>-31</v>
@@ -39268,10 +39406,10 @@
         <v>800</v>
       </c>
       <c r="P449" s="59" t="s">
-        <v>1673</v>
+        <v>1652</v>
       </c>
       <c r="Q449" s="60" t="s">
-        <v>1683</v>
+        <v>1662</v>
       </c>
       <c r="V449" s="5" t="s">
         <v>529</v>
@@ -39312,13 +39450,13 @@
         <v>1</v>
       </c>
       <c r="G450" s="61" t="s">
-        <v>1684</v>
+        <v>1663</v>
       </c>
       <c r="H450" s="61" t="s">
-        <v>1685</v>
+        <v>1664</v>
       </c>
       <c r="I450" s="61" t="s">
-        <v>1686</v>
+        <v>1665</v>
       </c>
       <c r="K450" s="61">
         <v>-31</v>
@@ -39336,10 +39474,10 @@
         <v>3800</v>
       </c>
       <c r="P450" s="61" t="s">
-        <v>1673</v>
+        <v>1652</v>
       </c>
       <c r="Q450" s="62" t="s">
-        <v>1687</v>
+        <v>1666</v>
       </c>
       <c r="V450" s="5" t="s">
         <v>529</v>
@@ -39380,13 +39518,13 @@
         <v>1</v>
       </c>
       <c r="G451" s="61" t="s">
-        <v>1688</v>
+        <v>1667</v>
       </c>
       <c r="H451" s="61" t="s">
-        <v>1689</v>
+        <v>1668</v>
       </c>
       <c r="I451" s="61" t="s">
-        <v>1690</v>
+        <v>1669</v>
       </c>
       <c r="K451" s="61">
         <v>-31</v>
@@ -39404,10 +39542,10 @@
         <v>3800</v>
       </c>
       <c r="P451" s="61" t="s">
-        <v>1673</v>
+        <v>1652</v>
       </c>
       <c r="Q451" s="62" t="s">
-        <v>1691</v>
+        <v>1670</v>
       </c>
       <c r="V451" s="5" t="s">
         <v>529</v>
@@ -39445,13 +39583,13 @@
         <v>1</v>
       </c>
       <c r="G452" s="61" t="s">
-        <v>1692</v>
+        <v>1671</v>
       </c>
       <c r="H452" s="61" t="s">
-        <v>1693</v>
+        <v>1672</v>
       </c>
       <c r="I452" s="61" t="s">
-        <v>1694</v>
+        <v>1673</v>
       </c>
       <c r="K452" s="61">
         <v>-31</v>
@@ -39469,10 +39607,10 @@
         <v>3800</v>
       </c>
       <c r="P452" s="61" t="s">
-        <v>1673</v>
+        <v>1652</v>
       </c>
       <c r="Q452" s="62" t="s">
-        <v>1695</v>
+        <v>1674</v>
       </c>
       <c r="V452" s="5" t="s">
         <v>529</v>
@@ -39513,13 +39651,13 @@
         <v>1</v>
       </c>
       <c r="G453" s="59" t="s">
-        <v>1696</v>
+        <v>1675</v>
       </c>
       <c r="H453" s="59" t="s">
-        <v>1697</v>
+        <v>1676</v>
       </c>
       <c r="I453" s="59" t="s">
-        <v>1698</v>
+        <v>1677</v>
       </c>
       <c r="K453" s="59">
         <v>-31</v>
@@ -39537,10 +39675,10 @@
         <v>9800</v>
       </c>
       <c r="P453" s="59" t="s">
-        <v>1673</v>
+        <v>1652</v>
       </c>
       <c r="Q453" s="60" t="s">
-        <v>1699</v>
+        <v>1678</v>
       </c>
       <c r="V453" s="5" t="s">
         <v>529</v>
@@ -39581,13 +39719,13 @@
         <v>1</v>
       </c>
       <c r="G454" s="59" t="s">
-        <v>1700</v>
+        <v>1679</v>
       </c>
       <c r="H454" s="59" t="s">
-        <v>1701</v>
+        <v>1680</v>
       </c>
       <c r="I454" s="59" t="s">
-        <v>1702</v>
+        <v>1681</v>
       </c>
       <c r="K454" s="59">
         <v>-31</v>
@@ -39605,10 +39743,10 @@
         <v>9800</v>
       </c>
       <c r="P454" s="59" t="s">
-        <v>1673</v>
+        <v>1652</v>
       </c>
       <c r="Q454" s="60" t="s">
-        <v>1703</v>
+        <v>1682</v>
       </c>
       <c r="V454" s="5" t="s">
         <v>529</v>
@@ -39646,13 +39784,13 @@
         <v>1</v>
       </c>
       <c r="G455" s="59" t="s">
-        <v>1704</v>
+        <v>1683</v>
       </c>
       <c r="H455" s="59" t="s">
-        <v>1705</v>
+        <v>1684</v>
       </c>
       <c r="I455" s="59" t="s">
-        <v>1706</v>
+        <v>1685</v>
       </c>
       <c r="K455" s="59">
         <v>-31</v>
@@ -39670,10 +39808,10 @@
         <v>9800</v>
       </c>
       <c r="P455" s="59" t="s">
-        <v>1673</v>
+        <v>1652</v>
       </c>
       <c r="Q455" s="60" t="s">
-        <v>1783</v>
+        <v>1811</v>
       </c>
       <c r="V455" s="5" t="s">
         <v>529</v>
@@ -39714,13 +39852,13 @@
         <v>1</v>
       </c>
       <c r="G456" s="61" t="s">
-        <v>1707</v>
+        <v>1686</v>
       </c>
       <c r="H456" s="61" t="s">
-        <v>1708</v>
+        <v>1687</v>
       </c>
       <c r="I456" s="61" t="s">
-        <v>1709</v>
+        <v>1688</v>
       </c>
       <c r="K456" s="61">
         <v>-31</v>
@@ -39738,10 +39876,10 @@
         <v>19800</v>
       </c>
       <c r="P456" s="61" t="s">
-        <v>1673</v>
+        <v>1652</v>
       </c>
       <c r="Q456" s="62" t="s">
-        <v>1710</v>
+        <v>1689</v>
       </c>
       <c r="V456" s="5" t="s">
         <v>529</v>
@@ -39782,13 +39920,13 @@
         <v>1</v>
       </c>
       <c r="G457" s="61" t="s">
-        <v>1711</v>
+        <v>1690</v>
       </c>
       <c r="H457" s="61" t="s">
-        <v>1712</v>
+        <v>1691</v>
       </c>
       <c r="I457" s="61" t="s">
-        <v>1713</v>
+        <v>1692</v>
       </c>
       <c r="K457" s="61">
         <v>-31</v>
@@ -39806,10 +39944,10 @@
         <v>19800</v>
       </c>
       <c r="P457" s="61" t="s">
-        <v>1673</v>
+        <v>1652</v>
       </c>
       <c r="Q457" s="62" t="s">
-        <v>1714</v>
+        <v>1693</v>
       </c>
       <c r="V457" s="5" t="s">
         <v>529</v>
@@ -39847,13 +39985,13 @@
         <v>1</v>
       </c>
       <c r="G458" s="61" t="s">
-        <v>1715</v>
+        <v>1694</v>
       </c>
       <c r="H458" s="61" t="s">
-        <v>1716</v>
+        <v>1695</v>
       </c>
       <c r="I458" s="61" t="s">
-        <v>1717</v>
+        <v>1696</v>
       </c>
       <c r="K458" s="61">
         <v>-31</v>
@@ -39871,10 +40009,10 @@
         <v>19800</v>
       </c>
       <c r="P458" s="61" t="s">
-        <v>1673</v>
+        <v>1652</v>
       </c>
       <c r="Q458" s="62" t="s">
-        <v>1718</v>
+        <v>1697</v>
       </c>
       <c r="V458" s="5" t="s">
         <v>529</v>
@@ -39915,13 +40053,13 @@
         <v>1</v>
       </c>
       <c r="G459" s="59" t="s">
-        <v>1719</v>
+        <v>1698</v>
       </c>
       <c r="H459" s="59" t="s">
-        <v>1720</v>
+        <v>1699</v>
       </c>
       <c r="I459" s="59" t="s">
-        <v>1721</v>
+        <v>1700</v>
       </c>
       <c r="K459" s="59">
         <v>-31</v>
@@ -39939,10 +40077,10 @@
         <v>49800</v>
       </c>
       <c r="P459" s="59" t="s">
-        <v>1673</v>
+        <v>1652</v>
       </c>
       <c r="Q459" s="60" t="s">
-        <v>1722</v>
+        <v>1701</v>
       </c>
       <c r="V459" s="5" t="s">
         <v>529</v>
@@ -39983,13 +40121,13 @@
         <v>1</v>
       </c>
       <c r="G460" s="59" t="s">
-        <v>1723</v>
+        <v>1702</v>
       </c>
       <c r="H460" s="59" t="s">
-        <v>1724</v>
+        <v>1703</v>
       </c>
       <c r="I460" s="59" t="s">
-        <v>1725</v>
+        <v>1704</v>
       </c>
       <c r="K460" s="59">
         <v>-31</v>
@@ -40007,10 +40145,10 @@
         <v>49800</v>
       </c>
       <c r="P460" s="59" t="s">
-        <v>1059</v>
+        <v>1038</v>
       </c>
       <c r="Q460" s="60" t="s">
-        <v>1726</v>
+        <v>1705</v>
       </c>
       <c r="V460" s="5" t="s">
         <v>529</v>
@@ -40048,13 +40186,13 @@
         <v>1</v>
       </c>
       <c r="G461" s="59" t="s">
-        <v>1727</v>
+        <v>1706</v>
       </c>
       <c r="H461" s="59" t="s">
-        <v>1728</v>
+        <v>1707</v>
       </c>
       <c r="I461" s="59" t="s">
-        <v>1729</v>
+        <v>1708</v>
       </c>
       <c r="K461" s="59">
         <v>-31</v>
@@ -40072,10 +40210,10 @@
         <v>49800</v>
       </c>
       <c r="P461" s="59" t="s">
-        <v>1673</v>
+        <v>1652</v>
       </c>
       <c r="Q461" s="60" t="s">
-        <v>1730</v>
+        <v>1709</v>
       </c>
       <c r="V461" s="5" t="s">
         <v>529</v>
@@ -40116,13 +40254,13 @@
         <v>1</v>
       </c>
       <c r="G462" s="61" t="s">
-        <v>1731</v>
+        <v>1710</v>
       </c>
       <c r="H462" s="61" t="s">
-        <v>1732</v>
+        <v>1711</v>
       </c>
       <c r="I462" s="61" t="s">
-        <v>1733</v>
+        <v>1712</v>
       </c>
       <c r="K462" s="61">
         <v>-31</v>
@@ -40140,10 +40278,10 @@
         <v>99800</v>
       </c>
       <c r="P462" s="61" t="s">
-        <v>1673</v>
+        <v>1652</v>
       </c>
       <c r="Q462" s="62" t="s">
-        <v>1734</v>
+        <v>1713</v>
       </c>
       <c r="V462" s="5" t="s">
         <v>529</v>
@@ -40184,13 +40322,13 @@
         <v>1</v>
       </c>
       <c r="G463" s="61" t="s">
-        <v>1735</v>
+        <v>1714</v>
       </c>
       <c r="H463" s="61" t="s">
-        <v>1736</v>
+        <v>1715</v>
       </c>
       <c r="I463" s="61" t="s">
-        <v>1737</v>
+        <v>1716</v>
       </c>
       <c r="K463" s="61">
         <v>-31</v>
@@ -40208,10 +40346,10 @@
         <v>99800</v>
       </c>
       <c r="P463" s="61" t="s">
-        <v>1673</v>
+        <v>1652</v>
       </c>
       <c r="Q463" s="62" t="s">
-        <v>1738</v>
+        <v>1717</v>
       </c>
       <c r="V463" s="5" t="s">
         <v>529</v>
@@ -40249,13 +40387,13 @@
         <v>1</v>
       </c>
       <c r="G464" s="61" t="s">
-        <v>1739</v>
+        <v>1718</v>
       </c>
       <c r="H464" s="61" t="s">
-        <v>1740</v>
+        <v>1719</v>
       </c>
       <c r="I464" s="61" t="s">
-        <v>1741</v>
+        <v>1720</v>
       </c>
       <c r="K464" s="61">
         <v>-31</v>
@@ -40273,10 +40411,10 @@
         <v>99800</v>
       </c>
       <c r="P464" s="61" t="s">
-        <v>1059</v>
+        <v>1038</v>
       </c>
       <c r="Q464" s="62" t="s">
-        <v>1742</v>
+        <v>1721</v>
       </c>
       <c r="V464" s="5" t="s">
         <v>529</v>
@@ -40317,13 +40455,13 @@
         <v>1</v>
       </c>
       <c r="G465" s="59" t="s">
-        <v>1743</v>
+        <v>1722</v>
       </c>
       <c r="H465" s="59" t="s">
-        <v>1744</v>
+        <v>1723</v>
       </c>
       <c r="I465" s="59" t="s">
-        <v>1745</v>
+        <v>1724</v>
       </c>
       <c r="K465" s="59">
         <v>-31</v>
@@ -40341,10 +40479,10 @@
         <v>249800</v>
       </c>
       <c r="P465" s="59" t="s">
-        <v>1673</v>
+        <v>1652</v>
       </c>
       <c r="Q465" s="60" t="s">
-        <v>1746</v>
+        <v>1725</v>
       </c>
       <c r="V465" s="5" t="s">
         <v>529</v>
@@ -40385,13 +40523,13 @@
         <v>1</v>
       </c>
       <c r="G466" s="59" t="s">
-        <v>1747</v>
+        <v>1726</v>
       </c>
       <c r="H466" s="59" t="s">
-        <v>1748</v>
+        <v>1727</v>
       </c>
       <c r="I466" s="59" t="s">
-        <v>1749</v>
+        <v>1728</v>
       </c>
       <c r="K466" s="59">
         <v>-31</v>
@@ -40409,10 +40547,10 @@
         <v>249800</v>
       </c>
       <c r="P466" s="59" t="s">
-        <v>1059</v>
+        <v>1038</v>
       </c>
       <c r="Q466" s="60" t="s">
-        <v>1750</v>
+        <v>1729</v>
       </c>
       <c r="V466" s="5" t="s">
         <v>529</v>
@@ -40450,13 +40588,13 @@
         <v>1</v>
       </c>
       <c r="G467" s="59" t="s">
-        <v>1751</v>
+        <v>1730</v>
       </c>
       <c r="H467" s="59" t="s">
-        <v>1752</v>
+        <v>1731</v>
       </c>
       <c r="I467" s="59" t="s">
-        <v>1753</v>
+        <v>1732</v>
       </c>
       <c r="K467" s="59">
         <v>-31</v>
@@ -40474,10 +40612,10 @@
         <v>249800</v>
       </c>
       <c r="P467" s="59" t="s">
-        <v>1059</v>
+        <v>1038</v>
       </c>
       <c r="Q467" s="60" t="s">
-        <v>1754</v>
+        <v>1733</v>
       </c>
       <c r="V467" s="5" t="s">
         <v>529</v>
@@ -40518,13 +40656,13 @@
         <v>1</v>
       </c>
       <c r="G468" s="63" t="s">
-        <v>1755</v>
+        <v>1734</v>
       </c>
       <c r="H468" s="63" t="s">
-        <v>1757</v>
+        <v>1736</v>
       </c>
       <c r="I468" s="63" t="s">
-        <v>1758</v>
+        <v>1737</v>
       </c>
       <c r="K468" s="63">
         <v>-31</v>
@@ -40542,13 +40680,13 @@
         <v>600</v>
       </c>
       <c r="P468" s="63" t="s">
-        <v>1673</v>
+        <v>1652</v>
       </c>
       <c r="Q468" s="64" t="s">
-        <v>1759</v>
+        <v>1738</v>
       </c>
       <c r="V468" s="63" t="s">
-        <v>1760</v>
+        <v>1739</v>
       </c>
       <c r="W468" s="63">
         <v>9999999</v>
@@ -40583,13 +40721,13 @@
         <v>1</v>
       </c>
       <c r="G469" s="63" t="s">
-        <v>1761</v>
+        <v>1740</v>
       </c>
       <c r="H469" s="63" t="s">
-        <v>1757</v>
+        <v>1736</v>
       </c>
       <c r="I469" s="63" t="s">
-        <v>1762</v>
+        <v>1741</v>
       </c>
       <c r="K469" s="63">
         <v>-31</v>
@@ -40607,13 +40745,13 @@
         <v>3000</v>
       </c>
       <c r="P469" s="63" t="s">
-        <v>1673</v>
+        <v>1652</v>
       </c>
       <c r="Q469" s="64" t="s">
-        <v>1763</v>
+        <v>1742</v>
       </c>
       <c r="V469" s="63" t="s">
-        <v>1760</v>
+        <v>1739</v>
       </c>
       <c r="W469" s="63">
         <v>9999999</v>
@@ -40648,13 +40786,13 @@
         <v>1</v>
       </c>
       <c r="G470" s="63" t="s">
-        <v>1764</v>
+        <v>1743</v>
       </c>
       <c r="H470" s="63" t="s">
-        <v>1757</v>
+        <v>1736</v>
       </c>
       <c r="I470" s="63" t="s">
-        <v>1765</v>
+        <v>1744</v>
       </c>
       <c r="K470" s="63">
         <v>-31</v>
@@ -40672,13 +40810,13 @@
         <v>6800</v>
       </c>
       <c r="P470" s="63" t="s">
-        <v>1673</v>
+        <v>1652</v>
       </c>
       <c r="Q470" s="64" t="s">
-        <v>1766</v>
+        <v>1745</v>
       </c>
       <c r="V470" s="63" t="s">
-        <v>1760</v>
+        <v>1739</v>
       </c>
       <c r="W470" s="63">
         <v>9999999</v>
@@ -40713,13 +40851,13 @@
         <v>1</v>
       </c>
       <c r="G471" s="63" t="s">
-        <v>1767</v>
+        <v>1746</v>
       </c>
       <c r="H471" s="63" t="s">
-        <v>1757</v>
+        <v>1736</v>
       </c>
       <c r="I471" s="63" t="s">
-        <v>1768</v>
+        <v>1747</v>
       </c>
       <c r="K471" s="63">
         <v>-31</v>
@@ -40737,13 +40875,13 @@
         <v>9800</v>
       </c>
       <c r="P471" s="63" t="s">
-        <v>1673</v>
+        <v>1652</v>
       </c>
       <c r="Q471" s="64" t="s">
-        <v>1769</v>
+        <v>1748</v>
       </c>
       <c r="V471" s="63" t="s">
-        <v>1770</v>
+        <v>1749</v>
       </c>
       <c r="W471" s="63">
         <v>9999999</v>
@@ -40778,13 +40916,13 @@
         <v>1</v>
       </c>
       <c r="G472" s="63" t="s">
-        <v>1771</v>
+        <v>1750</v>
       </c>
       <c r="H472" s="63" t="s">
-        <v>1756</v>
+        <v>1735</v>
       </c>
       <c r="I472" s="63" t="s">
-        <v>1772</v>
+        <v>1751</v>
       </c>
       <c r="K472" s="63">
         <v>-31</v>
@@ -40802,13 +40940,13 @@
         <v>19800</v>
       </c>
       <c r="P472" s="63" t="s">
-        <v>1673</v>
+        <v>1652</v>
       </c>
       <c r="Q472" s="64" t="s">
-        <v>1773</v>
+        <v>1752</v>
       </c>
       <c r="V472" s="63" t="s">
-        <v>1770</v>
+        <v>1749</v>
       </c>
       <c r="W472" s="63">
         <v>9999999</v>
@@ -40843,13 +40981,13 @@
         <v>1</v>
       </c>
       <c r="G473" s="63" t="s">
-        <v>1774</v>
+        <v>1753</v>
       </c>
       <c r="H473" s="63" t="s">
-        <v>1757</v>
+        <v>1736</v>
       </c>
       <c r="I473" s="63" t="s">
-        <v>1775</v>
+        <v>1754</v>
       </c>
       <c r="K473" s="63">
         <v>-31</v>
@@ -40867,13 +41005,13 @@
         <v>49800</v>
       </c>
       <c r="P473" s="63" t="s">
-        <v>1673</v>
+        <v>1652</v>
       </c>
       <c r="Q473" s="64" t="s">
-        <v>1776</v>
+        <v>1755</v>
       </c>
       <c r="V473" s="63" t="s">
-        <v>1770</v>
+        <v>1749</v>
       </c>
       <c r="W473" s="63">
         <v>9999999</v>
@@ -40908,13 +41046,13 @@
         <v>1</v>
       </c>
       <c r="G474" s="55" t="s">
-        <v>1777</v>
+        <v>1756</v>
       </c>
       <c r="H474" s="55" t="s">
+        <v>1736</v>
+      </c>
+      <c r="I474" s="55" t="s">
         <v>1757</v>
-      </c>
-      <c r="I474" s="55" t="s">
-        <v>1778</v>
       </c>
       <c r="K474" s="55">
         <v>-31</v>
@@ -40932,13 +41070,13 @@
         <v>99800</v>
       </c>
       <c r="P474" s="55" t="s">
-        <v>1673</v>
+        <v>1652</v>
       </c>
       <c r="Q474" s="56" t="s">
-        <v>1779</v>
+        <v>1758</v>
       </c>
       <c r="V474" s="63" t="s">
-        <v>1770</v>
+        <v>1749</v>
       </c>
       <c r="W474" s="55">
         <v>9999999</v>
@@ -40973,13 +41111,13 @@
         <v>1</v>
       </c>
       <c r="G475" s="55" t="s">
-        <v>1780</v>
+        <v>1759</v>
       </c>
       <c r="H475" s="55" t="s">
-        <v>1757</v>
+        <v>1736</v>
       </c>
       <c r="I475" s="55" t="s">
-        <v>1781</v>
+        <v>1812</v>
       </c>
       <c r="K475" s="55">
         <v>-31</v>
@@ -40997,13 +41135,13 @@
         <v>249800</v>
       </c>
       <c r="P475" s="55" t="s">
-        <v>1673</v>
+        <v>1652</v>
       </c>
       <c r="Q475" s="56" t="s">
-        <v>1782</v>
+        <v>1813</v>
       </c>
       <c r="V475" s="63" t="s">
-        <v>1770</v>
+        <v>1749</v>
       </c>
       <c r="W475" s="55">
         <v>9999999</v>
@@ -41024,6 +41162,266 @@
         <v>1</v>
       </c>
       <c r="AL475" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="476" spans="1:38" s="67" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A476" s="67">
+        <v>475</v>
+      </c>
+      <c r="B476" s="67">
+        <v>10392</v>
+      </c>
+      <c r="F476" s="67">
+        <v>1</v>
+      </c>
+      <c r="G476" s="67" t="s">
+        <v>1790</v>
+      </c>
+      <c r="H476" s="67" t="s">
+        <v>1791</v>
+      </c>
+      <c r="I476" s="67" t="s">
+        <v>1792</v>
+      </c>
+      <c r="K476" s="67">
+        <v>-31</v>
+      </c>
+      <c r="L476" s="67">
+        <v>0</v>
+      </c>
+      <c r="M476" s="67">
+        <v>0</v>
+      </c>
+      <c r="N476" s="67" t="s">
+        <v>1009</v>
+      </c>
+      <c r="O476" s="67">
+        <v>49800</v>
+      </c>
+      <c r="P476" s="67" t="s">
+        <v>1794</v>
+      </c>
+      <c r="Q476" s="68" t="s">
+        <v>1795</v>
+      </c>
+      <c r="V476" s="67" t="s">
+        <v>1796</v>
+      </c>
+      <c r="W476" s="67">
+        <v>9999999</v>
+      </c>
+      <c r="X476" s="67">
+        <v>1606176000</v>
+      </c>
+      <c r="Y476" s="67">
+        <v>1606751999</v>
+      </c>
+      <c r="AG476" s="67">
+        <v>1</v>
+      </c>
+      <c r="AH476" s="67">
+        <v>1</v>
+      </c>
+      <c r="AK476" s="67">
+        <v>1</v>
+      </c>
+      <c r="AL476" s="67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="477" spans="1:38" s="67" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A477" s="67">
+        <v>476</v>
+      </c>
+      <c r="B477" s="67">
+        <v>10393</v>
+      </c>
+      <c r="F477" s="67">
+        <v>1</v>
+      </c>
+      <c r="G477" s="67" t="s">
+        <v>1797</v>
+      </c>
+      <c r="H477" s="67" t="s">
+        <v>1798</v>
+      </c>
+      <c r="I477" s="67" t="s">
+        <v>1799</v>
+      </c>
+      <c r="K477" s="67">
+        <v>-31</v>
+      </c>
+      <c r="L477" s="67">
+        <v>0</v>
+      </c>
+      <c r="M477" s="67">
+        <v>0</v>
+      </c>
+      <c r="N477" s="67" t="s">
+        <v>1800</v>
+      </c>
+      <c r="O477" s="67">
+        <v>19800</v>
+      </c>
+      <c r="P477" s="67" t="s">
+        <v>1793</v>
+      </c>
+      <c r="Q477" s="68" t="s">
+        <v>1801</v>
+      </c>
+      <c r="V477" s="67" t="s">
+        <v>1802</v>
+      </c>
+      <c r="W477" s="67">
+        <v>9999999</v>
+      </c>
+      <c r="X477" s="67">
+        <v>1606176000</v>
+      </c>
+      <c r="Y477" s="67">
+        <v>1606751999</v>
+      </c>
+      <c r="AG477" s="67">
+        <v>1</v>
+      </c>
+      <c r="AH477" s="67">
+        <v>1</v>
+      </c>
+      <c r="AK477" s="67">
+        <v>1</v>
+      </c>
+      <c r="AL477" s="67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="478" spans="1:38" s="67" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A478" s="67">
+        <v>477</v>
+      </c>
+      <c r="B478" s="67">
+        <v>10394</v>
+      </c>
+      <c r="F478" s="67">
+        <v>1</v>
+      </c>
+      <c r="G478" s="67" t="s">
+        <v>1790</v>
+      </c>
+      <c r="H478" s="67" t="s">
+        <v>1803</v>
+      </c>
+      <c r="I478" s="67" t="s">
+        <v>1804</v>
+      </c>
+      <c r="K478" s="67">
+        <v>-31</v>
+      </c>
+      <c r="L478" s="67">
+        <v>0</v>
+      </c>
+      <c r="M478" s="67">
+        <v>0</v>
+      </c>
+      <c r="N478" s="67" t="s">
+        <v>1800</v>
+      </c>
+      <c r="O478" s="67">
+        <v>9800</v>
+      </c>
+      <c r="P478" s="67" t="s">
+        <v>1805</v>
+      </c>
+      <c r="Q478" s="68" t="s">
+        <v>1806</v>
+      </c>
+      <c r="V478" s="67" t="s">
+        <v>529</v>
+      </c>
+      <c r="W478" s="67">
+        <v>9999999</v>
+      </c>
+      <c r="X478" s="67">
+        <v>1606176000</v>
+      </c>
+      <c r="Y478" s="67">
+        <v>1606751999</v>
+      </c>
+      <c r="AG478" s="67">
+        <v>1</v>
+      </c>
+      <c r="AH478" s="67">
+        <v>1</v>
+      </c>
+      <c r="AK478" s="67">
+        <v>1</v>
+      </c>
+      <c r="AL478" s="67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="479" spans="1:38" s="67" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A479" s="67">
+        <v>478</v>
+      </c>
+      <c r="B479" s="67">
+        <v>10395</v>
+      </c>
+      <c r="F479" s="67">
+        <v>1</v>
+      </c>
+      <c r="G479" s="67" t="s">
+        <v>1790</v>
+      </c>
+      <c r="H479" s="67" t="s">
+        <v>1807</v>
+      </c>
+      <c r="I479" s="67" t="s">
+        <v>1808</v>
+      </c>
+      <c r="K479" s="67">
+        <v>-31</v>
+      </c>
+      <c r="L479" s="67">
+        <v>0</v>
+      </c>
+      <c r="M479" s="67">
+        <v>0</v>
+      </c>
+      <c r="N479" s="67" t="s">
+        <v>1800</v>
+      </c>
+      <c r="O479" s="67">
+        <v>4800</v>
+      </c>
+      <c r="P479" s="67" t="s">
+        <v>1809</v>
+      </c>
+      <c r="Q479" s="68" t="s">
+        <v>1810</v>
+      </c>
+      <c r="V479" s="67" t="s">
+        <v>1796</v>
+      </c>
+      <c r="W479" s="67">
+        <v>9999999</v>
+      </c>
+      <c r="X479" s="67">
+        <v>1606176000</v>
+      </c>
+      <c r="Y479" s="67">
+        <v>1606751999</v>
+      </c>
+      <c r="AG479" s="67">
+        <v>1</v>
+      </c>
+      <c r="AH479" s="67">
+        <v>1</v>
+      </c>
+      <c r="AK479" s="67">
+        <v>1</v>
+      </c>
+      <c r="AL479" s="67">
         <v>1</v>
       </c>
     </row>
@@ -41055,7 +41453,7 @@
         <v>390</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1053</v>
+        <v>1032</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>391</v>
@@ -41072,7 +41470,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>1079</v>
+        <v>1058</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -41089,7 +41487,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>1080</v>
+        <v>1059</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -41103,7 +41501,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>1081</v>
+        <v>1060</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -41117,7 +41515,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>1082</v>
+        <v>1061</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -41271,7 +41669,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>1083</v>
+        <v>1062</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -41425,7 +41823,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="18" t="s">
-        <v>1326</v>
+        <v>1305</v>
       </c>
       <c r="C27" s="12">
         <v>1</v>
@@ -41439,7 +41837,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="18" t="s">
-        <v>1327</v>
+        <v>1306</v>
       </c>
       <c r="C28" s="12">
         <v>1</v>
@@ -41453,7 +41851,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>1328</v>
+        <v>1307</v>
       </c>
       <c r="C29" s="12">
         <v>1</v>
@@ -41467,7 +41865,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="18" t="s">
-        <v>1329</v>
+        <v>1308</v>
       </c>
       <c r="C30" s="12">
         <v>1</v>
@@ -41481,7 +41879,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="18" t="s">
-        <v>1330</v>
+        <v>1309</v>
       </c>
       <c r="C31" s="12">
         <v>1</v>
@@ -41495,7 +41893,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="18" t="s">
-        <v>1331</v>
+        <v>1310</v>
       </c>
       <c r="C32" s="12">
         <v>1</v>
@@ -41509,7 +41907,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="18" t="s">
-        <v>1332</v>
+        <v>1311</v>
       </c>
       <c r="C33" s="12">
         <v>1</v>
@@ -41523,7 +41921,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="18" t="s">
-        <v>1333</v>
+        <v>1312</v>
       </c>
       <c r="C34" s="12">
         <v>1</v>
@@ -41537,7 +41935,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="18" t="s">
-        <v>1334</v>
+        <v>1313</v>
       </c>
       <c r="C35" s="12">
         <v>1</v>
@@ -41551,7 +41949,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="18" t="s">
-        <v>1335</v>
+        <v>1314</v>
       </c>
       <c r="C36" s="12">
         <v>1</v>
@@ -41565,7 +41963,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="18" t="s">
-        <v>1336</v>
+        <v>1315</v>
       </c>
       <c r="C37" s="12">
         <v>1</v>
@@ -41579,7 +41977,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="18" t="s">
-        <v>1337</v>
+        <v>1316</v>
       </c>
       <c r="C38" s="12">
         <v>1</v>
@@ -41593,7 +41991,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="18" t="s">
-        <v>1338</v>
+        <v>1317</v>
       </c>
       <c r="C39" s="12">
         <v>1</v>
@@ -41607,7 +42005,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="18" t="s">
-        <v>1339</v>
+        <v>1318</v>
       </c>
       <c r="C40" s="12">
         <v>1</v>
@@ -41621,7 +42019,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="18" t="s">
-        <v>1340</v>
+        <v>1319</v>
       </c>
       <c r="C41" s="12">
         <v>1</v>
@@ -41635,7 +42033,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="18" t="s">
-        <v>1341</v>
+        <v>1320</v>
       </c>
       <c r="C42" s="12">
         <v>1</v>
@@ -41649,7 +42047,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="18" t="s">
-        <v>1371</v>
+        <v>1350</v>
       </c>
       <c r="C43" s="12">
         <v>1</v>
@@ -41663,7 +42061,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="18" t="s">
-        <v>1372</v>
+        <v>1351</v>
       </c>
       <c r="C44" s="12">
         <v>1</v>
@@ -41677,7 +42075,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="18" t="s">
-        <v>1417</v>
+        <v>1396</v>
       </c>
       <c r="C45" s="12">
         <v>1</v>
@@ -41691,7 +42089,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="18" t="s">
-        <v>1418</v>
+        <v>1397</v>
       </c>
       <c r="C46" s="12">
         <v>1</v>
@@ -41705,7 +42103,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="18" t="s">
-        <v>1419</v>
+        <v>1398</v>
       </c>
       <c r="C47" s="12">
         <v>1</v>
@@ -41719,7 +42117,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="48" t="s">
-        <v>1484</v>
+        <v>1463</v>
       </c>
       <c r="C48" s="47">
         <v>1</v>
@@ -41733,7 +42131,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="48" t="s">
-        <v>1503</v>
+        <v>1482</v>
       </c>
       <c r="C49" s="47">
         <v>1</v>
@@ -41747,7 +42145,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="48" t="s">
-        <v>1504</v>
+        <v>1483</v>
       </c>
       <c r="C50" s="47">
         <v>1</v>
@@ -41761,7 +42159,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="48" t="s">
-        <v>1505</v>
+        <v>1484</v>
       </c>
       <c r="C51" s="47">
         <v>1</v>
@@ -41775,7 +42173,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="48" t="s">
-        <v>1506</v>
+        <v>1485</v>
       </c>
       <c r="C52" s="47">
         <v>1</v>
@@ -41789,7 +42187,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="58" t="s">
-        <v>1656</v>
+        <v>1635</v>
       </c>
       <c r="C53" s="57">
         <v>1</v>
@@ -41803,7 +42201,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="58" t="s">
-        <v>1657</v>
+        <v>1636</v>
       </c>
       <c r="C54" s="57">
         <v>1</v>
@@ -41817,7 +42215,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="58" t="s">
-        <v>1658</v>
+        <v>1637</v>
       </c>
       <c r="C55" s="57">
         <v>1</v>
@@ -41831,7 +42229,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="58" t="s">
-        <v>1659</v>
+        <v>1638</v>
       </c>
       <c r="C56" s="57">
         <v>1</v>
@@ -41845,7 +42243,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="58" t="s">
-        <v>1660</v>
+        <v>1639</v>
       </c>
       <c r="C57" s="57">
         <v>1</v>
@@ -41859,7 +42257,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="58" t="s">
-        <v>1661</v>
+        <v>1640</v>
       </c>
       <c r="C58" s="57">
         <v>1</v>
@@ -41873,7 +42271,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="58" t="s">
-        <v>1662</v>
+        <v>1641</v>
       </c>
       <c r="C59" s="57">
         <v>1</v>
@@ -41887,7 +42285,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="58" t="s">
-        <v>1663</v>
+        <v>1642</v>
       </c>
       <c r="C60" s="57">
         <v>1</v>
@@ -41901,7 +42299,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="58" t="s">
-        <v>1664</v>
+        <v>1643</v>
       </c>
       <c r="C61" s="57">
         <v>1</v>
@@ -41915,7 +42313,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="58" t="s">
-        <v>1665</v>
+        <v>1644</v>
       </c>
       <c r="C62" s="57">
         <v>1</v>
@@ -41929,7 +42327,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="58" t="s">
-        <v>1666</v>
+        <v>1645</v>
       </c>
       <c r="C63" s="57">
         <v>1</v>
@@ -41943,7 +42341,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="58" t="s">
-        <v>1667</v>
+        <v>1646</v>
       </c>
       <c r="C64" s="57">
         <v>1</v>
@@ -41957,7 +42355,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="58" t="s">
-        <v>1668</v>
+        <v>1647</v>
       </c>
       <c r="C65" s="57">
         <v>1</v>
@@ -41971,7 +42369,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="58" t="s">
-        <v>1669</v>
+        <v>1648</v>
       </c>
       <c r="C66" s="57">
         <v>1</v>
@@ -42147,16 +42545,16 @@
         <v>3</v>
       </c>
       <c r="P2" s="33" t="s">
-        <v>1146</v>
+        <v>1125</v>
       </c>
       <c r="R2" s="33" t="s">
-        <v>1147</v>
+        <v>1126</v>
       </c>
       <c r="S2" s="11" t="s">
         <v>47</v>
       </c>
       <c r="T2" s="33" t="s">
-        <v>1148</v>
+        <v>1127</v>
       </c>
       <c r="U2" s="11" t="s">
         <v>407</v>
@@ -42212,16 +42610,16 @@
         <v>4</v>
       </c>
       <c r="P3" s="33" t="s">
-        <v>1149</v>
+        <v>1128</v>
       </c>
       <c r="R3" s="33" t="s">
-        <v>1147</v>
+        <v>1126</v>
       </c>
       <c r="S3" s="11" t="s">
         <v>49</v>
       </c>
       <c r="T3" s="33" t="s">
-        <v>1150</v>
+        <v>1129</v>
       </c>
       <c r="U3" s="11" t="s">
         <v>407</v>
@@ -42277,10 +42675,10 @@
         <v>5</v>
       </c>
       <c r="P4" s="33" t="s">
-        <v>1151</v>
+        <v>1130</v>
       </c>
       <c r="R4" s="33" t="s">
-        <v>1147</v>
+        <v>1126</v>
       </c>
       <c r="S4" s="11" t="s">
         <v>50</v>
@@ -42342,16 +42740,16 @@
         <v>6</v>
       </c>
       <c r="P5" s="33" t="s">
-        <v>1152</v>
+        <v>1131</v>
       </c>
       <c r="R5" s="33" t="s">
-        <v>1147</v>
+        <v>1126</v>
       </c>
       <c r="S5" s="11" t="s">
         <v>51</v>
       </c>
       <c r="T5" s="33" t="s">
-        <v>1153</v>
+        <v>1132</v>
       </c>
       <c r="U5" s="11" t="s">
         <v>407</v>
@@ -42407,10 +42805,10 @@
         <v>7</v>
       </c>
       <c r="P6" s="33" t="s">
-        <v>1154</v>
+        <v>1133</v>
       </c>
       <c r="R6" s="33" t="s">
-        <v>1147</v>
+        <v>1126</v>
       </c>
       <c r="S6" s="11" t="s">
         <v>52</v>
@@ -42472,10 +42870,10 @@
         <v>9</v>
       </c>
       <c r="P7" s="33" t="s">
-        <v>1155</v>
+        <v>1134</v>
       </c>
       <c r="R7" s="33" t="s">
-        <v>1147</v>
+        <v>1126</v>
       </c>
       <c r="S7" s="11" t="s">
         <v>53</v>
@@ -42534,16 +42932,16 @@
         <v>0</v>
       </c>
       <c r="P8" s="33" t="s">
-        <v>1156</v>
+        <v>1135</v>
       </c>
       <c r="R8" s="33" t="s">
-        <v>1147</v>
+        <v>1126</v>
       </c>
       <c r="S8" s="11" t="s">
         <v>47</v>
       </c>
       <c r="T8" s="33" t="s">
-        <v>1148</v>
+        <v>1127</v>
       </c>
       <c r="U8" s="11" t="s">
         <v>407</v>
@@ -42622,7 +43020,7 @@
       <c r="Z9" s="34"/>
       <c r="AA9" s="34"/>
       <c r="AB9" s="35" t="s">
-        <v>1157</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="10" spans="1:28" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -42692,7 +43090,7 @@
       <c r="Z10" s="34"/>
       <c r="AA10" s="34"/>
       <c r="AB10" s="35" t="s">
-        <v>1158</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="11" spans="1:28" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -42736,10 +43134,10 @@
         <v>0</v>
       </c>
       <c r="P11" s="33" t="s">
-        <v>1149</v>
+        <v>1128</v>
       </c>
       <c r="R11" s="33" t="s">
-        <v>1147</v>
+        <v>1126</v>
       </c>
       <c r="S11" s="23" t="s">
         <v>49</v>
@@ -42765,7 +43163,7 @@
         <v>11</v>
       </c>
       <c r="C12" s="33" t="s">
-        <v>1159</v>
+        <v>1138</v>
       </c>
       <c r="D12" s="11">
         <v>109</v>
@@ -42801,10 +43199,10 @@
         <v>9</v>
       </c>
       <c r="P12" s="33" t="s">
-        <v>1160</v>
+        <v>1139</v>
       </c>
       <c r="R12" s="33" t="s">
-        <v>1147</v>
+        <v>1126</v>
       </c>
       <c r="S12" s="11" t="s">
         <v>54</v>
@@ -42866,10 +43264,10 @@
         <v>10</v>
       </c>
       <c r="P13" s="33" t="s">
-        <v>1161</v>
+        <v>1140</v>
       </c>
       <c r="R13" s="33" t="s">
-        <v>1147</v>
+        <v>1126</v>
       </c>
       <c r="S13" s="11" t="s">
         <v>409</v>
@@ -42931,10 +43329,10 @@
         <v>11</v>
       </c>
       <c r="P14" s="33" t="s">
-        <v>1162</v>
+        <v>1141</v>
       </c>
       <c r="R14" s="33" t="s">
-        <v>1163</v>
+        <v>1142</v>
       </c>
       <c r="S14" s="11" t="s">
         <v>410</v>
@@ -42967,7 +43365,7 @@
         <v>1</v>
       </c>
       <c r="F15" s="34" t="s">
-        <v>1164</v>
+        <v>1143</v>
       </c>
       <c r="G15" s="34">
         <v>100</v>
@@ -43005,7 +43403,7 @@
         <v>100</v>
       </c>
       <c r="T15" s="35" t="s">
-        <v>1148</v>
+        <v>1127</v>
       </c>
       <c r="U15" s="34" t="s">
         <v>407</v>
@@ -43021,7 +43419,7 @@
       <c r="Z15" s="34"/>
       <c r="AA15" s="34"/>
       <c r="AB15" s="35" t="s">
-        <v>1165</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="16" spans="1:28" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -43068,17 +43466,17 @@
         <v>3</v>
       </c>
       <c r="P16" s="33" t="s">
-        <v>1166</v>
+        <v>1145</v>
       </c>
       <c r="Q16" s="12"/>
       <c r="R16" s="33" t="s">
-        <v>1147</v>
+        <v>1126</v>
       </c>
       <c r="S16" s="11" t="s">
         <v>61</v>
       </c>
       <c r="T16" s="33" t="s">
-        <v>1148</v>
+        <v>1127</v>
       </c>
       <c r="U16" s="11" t="s">
         <v>407</v>
@@ -43133,11 +43531,11 @@
         <v>4</v>
       </c>
       <c r="P17" s="33" t="s">
-        <v>1167</v>
+        <v>1146</v>
       </c>
       <c r="Q17" s="12"/>
       <c r="R17" s="33" t="s">
-        <v>1147</v>
+        <v>1126</v>
       </c>
       <c r="S17" s="11" t="s">
         <v>64</v>
@@ -43198,11 +43596,11 @@
         <v>5</v>
       </c>
       <c r="P18" s="33" t="s">
-        <v>1168</v>
+        <v>1147</v>
       </c>
       <c r="Q18" s="12"/>
       <c r="R18" s="33" t="s">
-        <v>1147</v>
+        <v>1126</v>
       </c>
       <c r="S18" s="11" t="s">
         <v>67</v>
@@ -43263,11 +43661,11 @@
         <v>6</v>
       </c>
       <c r="P19" s="33" t="s">
-        <v>1169</v>
+        <v>1148</v>
       </c>
       <c r="Q19" s="12"/>
       <c r="R19" s="33" t="s">
-        <v>1145</v>
+        <v>1124</v>
       </c>
       <c r="S19" s="11" t="s">
         <v>71</v>
@@ -43328,7 +43726,7 @@
         <v>7</v>
       </c>
       <c r="P20" s="33" t="s">
-        <v>1144</v>
+        <v>1123</v>
       </c>
       <c r="R20" s="33" t="s">
         <v>955</v>
@@ -43392,11 +43790,11 @@
         <v>0</v>
       </c>
       <c r="P21" s="33" t="s">
-        <v>1170</v>
+        <v>1149</v>
       </c>
       <c r="Q21" s="11"/>
       <c r="R21" s="33" t="s">
-        <v>1145</v>
+        <v>1124</v>
       </c>
       <c r="S21" s="11" t="s">
         <v>77</v>
@@ -43470,7 +43868,7 @@
         <v>5000</v>
       </c>
       <c r="T22" s="35" t="s">
-        <v>1153</v>
+        <v>1132</v>
       </c>
       <c r="U22" s="34" t="s">
         <v>407</v>
@@ -43608,7 +44006,7 @@
         <v>100</v>
       </c>
       <c r="T24" s="35" t="s">
-        <v>1148</v>
+        <v>1127</v>
       </c>
       <c r="U24" s="34" t="s">
         <v>407</v>
@@ -43624,7 +44022,7 @@
       <c r="Z24" s="34"/>
       <c r="AA24" s="34"/>
       <c r="AB24" s="35" t="s">
-        <v>1171</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="25" spans="1:28" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -43644,7 +44042,7 @@
         <v>111</v>
       </c>
       <c r="F25" s="33" t="s">
-        <v>1055</v>
+        <v>1034</v>
       </c>
       <c r="G25" s="11">
         <v>15840</v>
@@ -43671,7 +44069,7 @@
         <v>8</v>
       </c>
       <c r="P25" s="33" t="s">
-        <v>1487</v>
+        <v>1466</v>
       </c>
       <c r="R25" s="33" t="s">
         <v>956</v>
@@ -44325,7 +44723,7 @@
         <v>19</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>1063</v>
+        <v>1042</v>
       </c>
       <c r="E13" s="18" t="s">
         <v>471</v>
@@ -44372,7 +44770,7 @@
         <v>20</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>1064</v>
+        <v>1043</v>
       </c>
       <c r="E14" s="18" t="s">
         <v>471</v>
@@ -44419,7 +44817,7 @@
         <v>21</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>1065</v>
+        <v>1044</v>
       </c>
       <c r="E15" s="18" t="s">
         <v>475</v>

--- a/config_Release/shoping_config_xiaomi.xlsx
+++ b/config_Release/shoping_config_xiaomi.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_12.08\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3929" uniqueCount="1814">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3965" uniqueCount="1829">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -8083,12 +8083,68 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
+    <t>250000000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>"2.5亿金币",</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>250000000,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <t>双十二498元礼包</t>
+  </si>
+  <si>
+    <t>"4980万","200万小游戏币","抽奖券*50",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_tiny_game_coin","prop_12_12_cjq",</t>
+  </si>
+  <si>
+    <t>49800000,2000000,50,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"1980万","50万小游戏币","抽奖券*30",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>19800000,500000,30,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,100,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>9800000,100000,20,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"480万","3万小游戏币","抽奖券*10",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4800000,30000,10,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>双十二20元礼包</t>
+  </si>
+  <si>
+    <t>"200万","1万小游戏币","抽奖券*4",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000000,10000,4,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>86400,1,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>双十二6元礼包</t>
   </si>
 </sst>
 </file>
@@ -8300,7 +8356,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -8518,6 +8574,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -8983,8 +9042,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF32"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F28" sqref="F2:F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9209,9 +9268,7 @@
         <v>41</v>
       </c>
       <c r="E3" s="24"/>
-      <c r="F3" s="2">
-        <v>85</v>
-      </c>
+      <c r="F3" s="2"/>
       <c r="G3" s="11" t="s">
         <v>42</v>
       </c>
@@ -9291,9 +9348,7 @@
         <v>41</v>
       </c>
       <c r="E4" s="24"/>
-      <c r="F4" s="2">
-        <v>86</v>
-      </c>
+      <c r="F4" s="2"/>
       <c r="G4" s="11" t="s">
         <v>42</v>
       </c>
@@ -9373,9 +9428,7 @@
         <v>41</v>
       </c>
       <c r="E5" s="24"/>
-      <c r="F5" s="2">
-        <v>87</v>
-      </c>
+      <c r="F5" s="2"/>
       <c r="G5" s="11" t="s">
         <v>42</v>
       </c>
@@ -9455,9 +9508,7 @@
         <v>41</v>
       </c>
       <c r="E6" s="24"/>
-      <c r="F6" s="2">
-        <v>88</v>
-      </c>
+      <c r="F6" s="2"/>
       <c r="G6" s="11" t="s">
         <v>42</v>
       </c>
@@ -9537,9 +9588,7 @@
         <v>41</v>
       </c>
       <c r="E7" s="24"/>
-      <c r="F7" s="2">
-        <v>89</v>
-      </c>
+      <c r="F7" s="2"/>
       <c r="G7" s="11" t="s">
         <v>42</v>
       </c>
@@ -9619,9 +9668,7 @@
         <v>41</v>
       </c>
       <c r="E8" s="24"/>
-      <c r="F8" s="2">
-        <v>109</v>
-      </c>
+      <c r="F8" s="2"/>
       <c r="G8" s="11" t="s">
         <v>42</v>
       </c>
@@ -9701,9 +9748,7 @@
         <v>41</v>
       </c>
       <c r="E9" s="23"/>
-      <c r="F9" s="2">
-        <v>10044</v>
-      </c>
+      <c r="F9" s="2"/>
       <c r="G9" s="11" t="s">
         <v>42</v>
       </c>
@@ -9782,9 +9827,6 @@
         <v>41</v>
       </c>
       <c r="E10" s="23"/>
-      <c r="F10" s="11">
-        <v>10045</v>
-      </c>
       <c r="G10" s="11" t="s">
         <v>42</v>
       </c>
@@ -9865,9 +9907,7 @@
       <c r="E11" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="F11" s="11">
-        <v>90</v>
-      </c>
+      <c r="F11" s="11"/>
       <c r="G11" s="2" t="s">
         <v>42</v>
       </c>
@@ -10869,9 +10909,7 @@
         <v>41</v>
       </c>
       <c r="E24" s="46"/>
-      <c r="F24" s="11">
-        <v>10189</v>
-      </c>
+      <c r="F24" s="11"/>
       <c r="G24" s="2" t="s">
         <v>1116</v>
       </c>
@@ -10970,13 +11008,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AM479"/>
+  <dimension ref="A1:AM485"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="AG449" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="AK457" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AN1" sqref="AN1:AN1048576"/>
+      <selection pane="bottomRight" activeCell="F487" sqref="F487"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -14766,7 +14804,7 @@
         <v>2</v>
       </c>
       <c r="F67" s="69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G67" s="69" t="s">
         <v>223</v>
@@ -14822,7 +14860,7 @@
         <v>3</v>
       </c>
       <c r="F68" s="69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G68" s="69" t="s">
         <v>225</v>
@@ -14878,7 +14916,7 @@
         <v>4</v>
       </c>
       <c r="F69" s="69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G69" s="69" t="s">
         <v>227</v>
@@ -14934,7 +14972,7 @@
         <v>5</v>
       </c>
       <c r="F70" s="69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G70" s="69" t="s">
         <v>229</v>
@@ -14990,7 +15028,7 @@
         <v>6</v>
       </c>
       <c r="F71" s="69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G71" s="69" t="s">
         <v>230</v>
@@ -16323,7 +16361,7 @@
         <v>109</v>
       </c>
       <c r="F94" s="69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G94" s="69" t="s">
         <v>254</v>
@@ -18357,7 +18395,7 @@
         <v>108</v>
       </c>
       <c r="F128" s="69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G128" s="69" t="s">
         <v>320</v>
@@ -18413,7 +18451,7 @@
         <v>110</v>
       </c>
       <c r="F129" s="69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G129" s="69" t="s">
         <v>1203</v>
@@ -27698,7 +27736,7 @@
         <v>111</v>
       </c>
       <c r="F273" s="69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G273" s="69" t="s">
         <v>522</v>
@@ -41138,7 +41176,7 @@
         <v>1736</v>
       </c>
       <c r="I475" s="55" t="s">
-        <v>1812</v>
+        <v>1813</v>
       </c>
       <c r="K475" s="55">
         <v>-31</v>
@@ -41159,7 +41197,7 @@
         <v>1652</v>
       </c>
       <c r="Q475" s="56" t="s">
-        <v>1813</v>
+        <v>1812</v>
       </c>
       <c r="V475" s="63" t="s">
         <v>1749</v>
@@ -41443,6 +41481,378 @@
         <v>1</v>
       </c>
       <c r="AL479" s="67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="480" spans="1:38" s="53" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A480" s="53">
+        <v>479</v>
+      </c>
+      <c r="B480" s="53">
+        <v>10396</v>
+      </c>
+      <c r="F480" s="53">
+        <v>1</v>
+      </c>
+      <c r="G480" s="53" t="s">
+        <v>1814</v>
+      </c>
+      <c r="I480" s="53" t="s">
+        <v>1815</v>
+      </c>
+      <c r="K480" s="53">
+        <v>-31</v>
+      </c>
+      <c r="L480" s="53">
+        <v>0</v>
+      </c>
+      <c r="M480" s="53">
+        <v>0</v>
+      </c>
+      <c r="N480" s="53" t="s">
+        <v>101</v>
+      </c>
+      <c r="O480" s="53">
+        <v>49800</v>
+      </c>
+      <c r="P480" s="53" t="s">
+        <v>1816</v>
+      </c>
+      <c r="Q480" s="54" t="s">
+        <v>1817</v>
+      </c>
+      <c r="V480" s="53" t="s">
+        <v>1617</v>
+      </c>
+      <c r="W480" s="53">
+        <v>9999999</v>
+      </c>
+      <c r="X480" s="73">
+        <v>1607385600</v>
+      </c>
+      <c r="Y480" s="73">
+        <v>1607961599</v>
+      </c>
+      <c r="AG480" s="53">
+        <v>1</v>
+      </c>
+      <c r="AH480" s="53">
+        <v>1</v>
+      </c>
+      <c r="AK480" s="53">
+        <v>1</v>
+      </c>
+      <c r="AL480" s="53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="481" spans="1:38" s="53" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A481" s="53">
+        <v>480</v>
+      </c>
+      <c r="B481" s="53">
+        <v>10397</v>
+      </c>
+      <c r="F481" s="53">
+        <v>1</v>
+      </c>
+      <c r="G481" s="53" t="s">
+        <v>356</v>
+      </c>
+      <c r="I481" s="53" t="s">
+        <v>1818</v>
+      </c>
+      <c r="K481" s="53">
+        <v>-31</v>
+      </c>
+      <c r="L481" s="53">
+        <v>0</v>
+      </c>
+      <c r="M481" s="53">
+        <v>0</v>
+      </c>
+      <c r="N481" s="53" t="s">
+        <v>101</v>
+      </c>
+      <c r="O481" s="53">
+        <v>19800</v>
+      </c>
+      <c r="P481" s="53" t="s">
+        <v>1816</v>
+      </c>
+      <c r="Q481" s="54" t="s">
+        <v>1819</v>
+      </c>
+      <c r="V481" s="53" t="s">
+        <v>1820</v>
+      </c>
+      <c r="W481" s="53">
+        <v>9999999</v>
+      </c>
+      <c r="X481" s="73">
+        <v>1607385600</v>
+      </c>
+      <c r="Y481" s="73">
+        <v>1607961599</v>
+      </c>
+      <c r="AG481" s="53">
+        <v>1</v>
+      </c>
+      <c r="AH481" s="53">
+        <v>1</v>
+      </c>
+      <c r="AK481" s="53">
+        <v>1</v>
+      </c>
+      <c r="AL481" s="53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="482" spans="1:38" s="53" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A482" s="53">
+        <v>481</v>
+      </c>
+      <c r="B482" s="53">
+        <v>10398</v>
+      </c>
+      <c r="F482" s="53">
+        <v>1</v>
+      </c>
+      <c r="G482" s="53" t="s">
+        <v>355</v>
+      </c>
+      <c r="I482" s="53" t="s">
+        <v>1622</v>
+      </c>
+      <c r="K482" s="53">
+        <v>-31</v>
+      </c>
+      <c r="L482" s="53">
+        <v>0</v>
+      </c>
+      <c r="M482" s="53">
+        <v>0</v>
+      </c>
+      <c r="N482" s="53" t="s">
+        <v>101</v>
+      </c>
+      <c r="O482" s="53">
+        <v>9800</v>
+      </c>
+      <c r="P482" s="53" t="s">
+        <v>1816</v>
+      </c>
+      <c r="Q482" s="54" t="s">
+        <v>1821</v>
+      </c>
+      <c r="V482" s="53" t="s">
+        <v>1820</v>
+      </c>
+      <c r="W482" s="53">
+        <v>9999999</v>
+      </c>
+      <c r="X482" s="73">
+        <v>1607385600</v>
+      </c>
+      <c r="Y482" s="73">
+        <v>1607961599</v>
+      </c>
+      <c r="AG482" s="53">
+        <v>1</v>
+      </c>
+      <c r="AH482" s="53">
+        <v>1</v>
+      </c>
+      <c r="AK482" s="53">
+        <v>1</v>
+      </c>
+      <c r="AL482" s="53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="483" spans="1:38" s="53" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A483" s="53">
+        <v>482</v>
+      </c>
+      <c r="B483" s="53">
+        <v>10399</v>
+      </c>
+      <c r="F483" s="53">
+        <v>1</v>
+      </c>
+      <c r="G483" s="53" t="s">
+        <v>354</v>
+      </c>
+      <c r="I483" s="53" t="s">
+        <v>1822</v>
+      </c>
+      <c r="K483" s="53">
+        <v>-31</v>
+      </c>
+      <c r="L483" s="53">
+        <v>0</v>
+      </c>
+      <c r="M483" s="53">
+        <v>0</v>
+      </c>
+      <c r="N483" s="53" t="s">
+        <v>101</v>
+      </c>
+      <c r="O483" s="53">
+        <v>4800</v>
+      </c>
+      <c r="P483" s="53" t="s">
+        <v>1816</v>
+      </c>
+      <c r="Q483" s="54" t="s">
+        <v>1823</v>
+      </c>
+      <c r="V483" s="53" t="s">
+        <v>1820</v>
+      </c>
+      <c r="W483" s="53">
+        <v>9999999</v>
+      </c>
+      <c r="X483" s="73">
+        <v>1607385600</v>
+      </c>
+      <c r="Y483" s="73">
+        <v>1607961599</v>
+      </c>
+      <c r="AG483" s="53">
+        <v>1</v>
+      </c>
+      <c r="AH483" s="53">
+        <v>1</v>
+      </c>
+      <c r="AK483" s="53">
+        <v>1</v>
+      </c>
+      <c r="AL483" s="53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="484" spans="1:38" s="53" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A484" s="53">
+        <v>483</v>
+      </c>
+      <c r="B484" s="53">
+        <v>10400</v>
+      </c>
+      <c r="F484" s="53">
+        <v>1</v>
+      </c>
+      <c r="G484" s="53" t="s">
+        <v>1824</v>
+      </c>
+      <c r="I484" s="53" t="s">
+        <v>1825</v>
+      </c>
+      <c r="K484" s="53">
+        <v>-31</v>
+      </c>
+      <c r="L484" s="53">
+        <v>0</v>
+      </c>
+      <c r="M484" s="53">
+        <v>0</v>
+      </c>
+      <c r="N484" s="53" t="s">
+        <v>101</v>
+      </c>
+      <c r="O484" s="53">
+        <v>2000</v>
+      </c>
+      <c r="P484" s="53" t="s">
+        <v>1816</v>
+      </c>
+      <c r="Q484" s="54" t="s">
+        <v>1826</v>
+      </c>
+      <c r="V484" s="53" t="s">
+        <v>1827</v>
+      </c>
+      <c r="W484" s="53">
+        <v>9999999</v>
+      </c>
+      <c r="X484" s="73">
+        <v>1607385600</v>
+      </c>
+      <c r="Y484" s="73">
+        <v>1607961599</v>
+      </c>
+      <c r="AG484" s="53">
+        <v>1</v>
+      </c>
+      <c r="AH484" s="53">
+        <v>1</v>
+      </c>
+      <c r="AK484" s="53">
+        <v>1</v>
+      </c>
+      <c r="AL484" s="53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="485" spans="1:38" s="53" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A485" s="53">
+        <v>484</v>
+      </c>
+      <c r="B485" s="53">
+        <v>10401</v>
+      </c>
+      <c r="F485" s="53">
+        <v>1</v>
+      </c>
+      <c r="G485" s="53" t="s">
+        <v>1828</v>
+      </c>
+      <c r="I485" s="53" t="s">
+        <v>1633</v>
+      </c>
+      <c r="K485" s="53">
+        <v>-31</v>
+      </c>
+      <c r="L485" s="53">
+        <v>0</v>
+      </c>
+      <c r="M485" s="53">
+        <v>0</v>
+      </c>
+      <c r="N485" s="53" t="s">
+        <v>101</v>
+      </c>
+      <c r="O485" s="53">
+        <v>600</v>
+      </c>
+      <c r="P485" s="53" t="s">
+        <v>1816</v>
+      </c>
+      <c r="Q485" s="54" t="s">
+        <v>1418</v>
+      </c>
+      <c r="V485" s="53" t="s">
+        <v>568</v>
+      </c>
+      <c r="W485" s="53">
+        <v>9999999</v>
+      </c>
+      <c r="X485" s="73">
+        <v>1607385600</v>
+      </c>
+      <c r="Y485" s="73">
+        <v>1607961599</v>
+      </c>
+      <c r="AG485" s="53">
+        <v>1</v>
+      </c>
+      <c r="AH485" s="53">
+        <v>1</v>
+      </c>
+      <c r="AK485" s="53">
+        <v>1</v>
+      </c>
+      <c r="AL485" s="53">
         <v>1</v>
       </c>
     </row>

--- a/config_Release/shoping_config_xiaomi.xlsx
+++ b/config_Release/shoping_config_xiaomi.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_12.22\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4053" uniqueCount="1886">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4053" uniqueCount="1881">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -4940,10 +4940,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>"鲸币宝箱抽奖券",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>1,1,</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -5326,10 +5322,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>"鲸币宝箱抽奖券",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>钻石宝箱</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -6015,10 +6007,6 @@
   </si>
   <si>
     <t>{type="permission_class",class_value = "031_gqfd_gift" }</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"60万鲸币",</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -6303,10 +6291,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>"鲸币宝箱抽奖券",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>"prop_cjlb_1",</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -6327,10 +6311,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>"鲸币宝箱抽奖券",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>"prop_cjlb_2",</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -6347,10 +6327,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>"鲸币宝箱抽奖券",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>白银宝箱</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -7975,100 +7951,104 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
+    <t>24万金币</t>
+  </si>
+  <si>
+    <t>加赠24万金币</t>
+  </si>
+  <si>
+    <t>60万金币</t>
+  </si>
+  <si>
+    <t>加赠60万金币</t>
+  </si>
+  <si>
+    <t>120万金币</t>
+  </si>
+  <si>
+    <t>加赠120万金币</t>
+  </si>
+  <si>
+    <t>200万金币</t>
+  </si>
+  <si>
+    <t>加赠200万金币</t>
+  </si>
+  <si>
+    <t>392万金币</t>
+  </si>
+  <si>
+    <t>加赠392万金币</t>
+  </si>
+  <si>
+    <t>1992万金币</t>
+  </si>
+  <si>
+    <t>加赠1992万金币</t>
+  </si>
+  <si>
+    <t>6万金币</t>
+  </si>
+  <si>
+    <t>加赠6万金币</t>
+  </si>
+  <si>
+    <t>6000万金币</t>
+  </si>
+  <si>
+    <t>加赠6000万金币</t>
+  </si>
+  <si>
+    <t>3992万金币</t>
+  </si>
+  <si>
+    <t>加赠3992万金币</t>
+  </si>
+  <si>
+    <t>9992万金币</t>
+  </si>
+  <si>
+    <t>加赠9992万金币</t>
+  </si>
+  <si>
+    <t>100万金币</t>
+  </si>
+  <si>
+    <t>加赠100万金币</t>
+  </si>
+  <si>
+    <t>335万金币</t>
+  </si>
+  <si>
+    <t>加赠335万金币</t>
+  </si>
+  <si>
+    <t>660万金币</t>
+  </si>
+  <si>
+    <t>加赠660万金币</t>
+  </si>
+  <si>
+    <t>1020万金币</t>
+  </si>
+  <si>
+    <t>加赠1020万金币</t>
+  </si>
+  <si>
+    <t>3.3万金币</t>
+  </si>
+  <si>
+    <t>加赠3.3万金币</t>
+  </si>
+  <si>
+    <t>加赠10万金币</t>
+  </si>
+  <si>
     <t>首充加赠8508888</t>
-  </si>
-  <si>
-    <t>24万金币</t>
-  </si>
-  <si>
-    <t>加赠24万金币</t>
-  </si>
-  <si>
-    <t>60万金币</t>
-  </si>
-  <si>
-    <t>加赠60万金币</t>
-  </si>
-  <si>
-    <t>120万金币</t>
-  </si>
-  <si>
-    <t>加赠120万金币</t>
-  </si>
-  <si>
-    <t>200万金币</t>
-  </si>
-  <si>
-    <t>加赠200万金币</t>
-  </si>
-  <si>
-    <t>392万金币</t>
-  </si>
-  <si>
-    <t>加赠392万金币</t>
-  </si>
-  <si>
-    <t>1992万金币</t>
-  </si>
-  <si>
-    <t>加赠1992万金币</t>
-  </si>
-  <si>
-    <t>6万金币</t>
-  </si>
-  <si>
-    <t>加赠6万金币</t>
-  </si>
-  <si>
-    <t>6000万金币</t>
-  </si>
-  <si>
-    <t>加赠6000万金币</t>
-  </si>
-  <si>
-    <t>3992万金币</t>
-  </si>
-  <si>
-    <t>加赠3992万金币</t>
-  </si>
-  <si>
-    <t>9992万金币</t>
-  </si>
-  <si>
-    <t>加赠9992万金币</t>
-  </si>
-  <si>
-    <t>100万金币</t>
-  </si>
-  <si>
-    <t>加赠100万金币</t>
-  </si>
-  <si>
-    <t>335万金币</t>
-  </si>
-  <si>
-    <t>加赠335万金币</t>
-  </si>
-  <si>
-    <t>660万金币</t>
-  </si>
-  <si>
-    <t>加赠660万金币</t>
-  </si>
-  <si>
-    <t>1020万金币</t>
-  </si>
-  <si>
-    <t>加赠1020万金币</t>
-  </si>
-  <si>
-    <t>3.3万金币</t>
-  </si>
-  <si>
-    <t>加赠3.3万金币</t>
-  </si>
-  <si>
-    <t>加赠10万金币</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"金币宝箱抽奖券",</t>
   </si>
   <si>
     <t>150万金币</t>
@@ -8933,16 +8913,16 @@
         <v>3</v>
       </c>
       <c r="D4" s="32" t="s">
+        <v>1409</v>
+      </c>
+      <c r="E4" s="51" t="s">
+        <v>1410</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>1411</v>
+      </c>
+      <c r="G4" s="18" t="s">
         <v>1412</v>
-      </c>
-      <c r="E4" s="51" t="s">
-        <v>1413</v>
-      </c>
-      <c r="F4" s="18" t="s">
-        <v>1414</v>
-      </c>
-      <c r="G4" s="18" t="s">
-        <v>1415</v>
       </c>
       <c r="H4" s="12">
         <v>0</v>
@@ -8999,8 +8979,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="T2" sqref="T2:U24"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="R20" sqref="R20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -10384,10 +10364,10 @@
         <v>1</v>
       </c>
       <c r="T17" s="3" t="s">
-        <v>1851</v>
+        <v>1844</v>
       </c>
       <c r="U17" s="3" t="s">
-        <v>1851</v>
+        <v>1844</v>
       </c>
       <c r="W17" s="2" t="s">
         <v>46</v>
@@ -10458,10 +10438,10 @@
         <v>2</v>
       </c>
       <c r="T18" s="3" t="s">
-        <v>1880</v>
+        <v>1875</v>
       </c>
       <c r="U18" s="3" t="s">
-        <v>1880</v>
+        <v>1875</v>
       </c>
       <c r="W18" s="2" t="s">
         <v>46</v>
@@ -10532,10 +10512,10 @@
         <v>3</v>
       </c>
       <c r="T19" s="3" t="s">
-        <v>1881</v>
+        <v>1876</v>
       </c>
       <c r="U19" s="3" t="s">
-        <v>1881</v>
+        <v>1876</v>
       </c>
       <c r="W19" s="2" t="s">
         <v>46</v>
@@ -10606,10 +10586,10 @@
         <v>4</v>
       </c>
       <c r="T20" s="3" t="s">
-        <v>1882</v>
+        <v>1877</v>
       </c>
       <c r="U20" s="3" t="s">
-        <v>1882</v>
+        <v>1877</v>
       </c>
       <c r="W20" s="2" t="s">
         <v>46</v>
@@ -10680,10 +10660,10 @@
         <v>5</v>
       </c>
       <c r="T21" s="3" t="s">
-        <v>1883</v>
+        <v>1878</v>
       </c>
       <c r="U21" s="3" t="s">
-        <v>1883</v>
+        <v>1878</v>
       </c>
       <c r="W21" s="2" t="s">
         <v>46</v>
@@ -10754,10 +10734,10 @@
         <v>6</v>
       </c>
       <c r="T22" s="3" t="s">
-        <v>1884</v>
+        <v>1879</v>
       </c>
       <c r="U22" s="3" t="s">
-        <v>1884</v>
+        <v>1879</v>
       </c>
       <c r="W22" s="2" t="s">
         <v>46</v>
@@ -10828,10 +10808,10 @@
         <v>7</v>
       </c>
       <c r="T23" s="3" t="s">
-        <v>1885</v>
+        <v>1880</v>
       </c>
       <c r="U23" s="3" t="s">
-        <v>1885</v>
+        <v>1880</v>
       </c>
       <c r="W23" s="2" t="s">
         <v>46</v>
@@ -10877,7 +10857,7 @@
         <v>1065</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>1372</v>
+        <v>1369</v>
       </c>
       <c r="K24" s="2" t="s">
         <v>1066</v>
@@ -10968,10 +10948,10 @@
   <dimension ref="A1:AN492"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H256" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="H204" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H273" sqref="H273"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -11034,13 +11014,13 @@
         <v>82</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>1799</v>
+        <v>1793</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>83</v>
@@ -14765,7 +14745,7 @@
         <v>1</v>
       </c>
       <c r="G66" s="5" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="J66" s="5" t="s">
         <v>944</v>
@@ -14830,7 +14810,7 @@
         <v>223</v>
       </c>
       <c r="H67" s="69" t="s">
-        <v>1800</v>
+        <v>1794</v>
       </c>
       <c r="L67" s="69">
         <v>-4</v>
@@ -14851,7 +14831,7 @@
         <v>78</v>
       </c>
       <c r="R67" s="69" t="s">
-        <v>1373</v>
+        <v>1370</v>
       </c>
       <c r="W67" s="69" t="s">
         <v>525</v>
@@ -14889,7 +14869,7 @@
         <v>225</v>
       </c>
       <c r="H68" s="69" t="s">
-        <v>1801</v>
+        <v>1795</v>
       </c>
       <c r="L68" s="69">
         <v>-4</v>
@@ -14910,7 +14890,7 @@
         <v>78</v>
       </c>
       <c r="R68" s="69" t="s">
-        <v>1411</v>
+        <v>1408</v>
       </c>
       <c r="W68" s="69" t="s">
         <v>525</v>
@@ -14948,7 +14928,7 @@
         <v>227</v>
       </c>
       <c r="H69" s="69" t="s">
-        <v>1802</v>
+        <v>1796</v>
       </c>
       <c r="L69" s="69">
         <v>-4</v>
@@ -14969,7 +14949,7 @@
         <v>78</v>
       </c>
       <c r="R69" s="69" t="s">
-        <v>1374</v>
+        <v>1371</v>
       </c>
       <c r="W69" s="69" t="s">
         <v>525</v>
@@ -15007,7 +14987,7 @@
         <v>229</v>
       </c>
       <c r="H70" s="69" t="s">
-        <v>1803</v>
+        <v>1797</v>
       </c>
       <c r="L70" s="69">
         <v>-4</v>
@@ -15028,7 +15008,7 @@
         <v>78</v>
       </c>
       <c r="R70" s="69" t="s">
-        <v>1375</v>
+        <v>1372</v>
       </c>
       <c r="W70" s="69" t="s">
         <v>525</v>
@@ -15066,7 +15046,7 @@
         <v>230</v>
       </c>
       <c r="H71" s="69" t="s">
-        <v>1804</v>
+        <v>1798</v>
       </c>
       <c r="L71" s="69">
         <v>-4</v>
@@ -15087,7 +15067,7 @@
         <v>78</v>
       </c>
       <c r="R71" s="69" t="s">
-        <v>1376</v>
+        <v>1373</v>
       </c>
       <c r="W71" s="69" t="s">
         <v>525</v>
@@ -15420,7 +15400,7 @@
         <v>236</v>
       </c>
       <c r="J77" s="19" t="s">
-        <v>1731</v>
+        <v>1725</v>
       </c>
       <c r="L77" s="19">
         <v>-20</v>
@@ -15441,7 +15421,7 @@
         <v>488</v>
       </c>
       <c r="R77" s="39" t="s">
-        <v>1719</v>
+        <v>1713</v>
       </c>
       <c r="W77" s="19" t="s">
         <v>525</v>
@@ -15459,10 +15439,10 @@
         <v>78</v>
       </c>
       <c r="AC77" s="19" t="s">
-        <v>1720</v>
+        <v>1714</v>
       </c>
       <c r="AD77" s="39" t="s">
-        <v>1721</v>
+        <v>1715</v>
       </c>
       <c r="AH77" s="19">
         <v>1</v>
@@ -15485,7 +15465,7 @@
         <v>237</v>
       </c>
       <c r="J78" s="19" t="s">
-        <v>1730</v>
+        <v>1724</v>
       </c>
       <c r="L78" s="19">
         <v>-20</v>
@@ -15506,7 +15486,7 @@
         <v>488</v>
       </c>
       <c r="R78" s="39" t="s">
-        <v>1722</v>
+        <v>1716</v>
       </c>
       <c r="W78" s="19" t="s">
         <v>525</v>
@@ -15524,10 +15504,10 @@
         <v>78</v>
       </c>
       <c r="AC78" s="19" t="s">
-        <v>1723</v>
+        <v>1717</v>
       </c>
       <c r="AD78" s="39" t="s">
-        <v>1724</v>
+        <v>1718</v>
       </c>
       <c r="AH78" s="19">
         <v>1</v>
@@ -15547,7 +15527,7 @@
         <v>1</v>
       </c>
       <c r="G79" s="5" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="J79" s="5" t="s">
         <v>811</v>
@@ -15683,7 +15663,7 @@
         <v>240</v>
       </c>
       <c r="J81" s="19" t="s">
-        <v>1725</v>
+        <v>1719</v>
       </c>
       <c r="L81" s="19">
         <v>-20</v>
@@ -15704,7 +15684,7 @@
         <v>488</v>
       </c>
       <c r="R81" s="39" t="s">
-        <v>1726</v>
+        <v>1720</v>
       </c>
       <c r="W81" s="19" t="s">
         <v>525</v>
@@ -15719,13 +15699,13 @@
         <v>2552233600</v>
       </c>
       <c r="AB81" s="19" t="s">
-        <v>1727</v>
+        <v>1721</v>
       </c>
       <c r="AC81" s="19" t="s">
-        <v>1728</v>
+        <v>1722</v>
       </c>
       <c r="AD81" s="39" t="s">
-        <v>1729</v>
+        <v>1723</v>
       </c>
       <c r="AH81" s="19">
         <v>1</v>
@@ -15934,10 +15914,10 @@
         <v>4800</v>
       </c>
       <c r="Q85" s="5" t="s">
-        <v>1315</v>
+        <v>1313</v>
       </c>
       <c r="R85" s="5" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="W85" s="5" t="s">
         <v>527</v>
@@ -16040,10 +16020,10 @@
         <v>9600</v>
       </c>
       <c r="Q87" s="5" t="s">
-        <v>1316</v>
+        <v>1314</v>
       </c>
       <c r="R87" s="5" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="W87" s="5" t="s">
         <v>527</v>
@@ -18448,7 +18428,7 @@
         <v>320</v>
       </c>
       <c r="H128" s="69" t="s">
-        <v>1805</v>
+        <v>1799</v>
       </c>
       <c r="L128" s="69">
         <v>-10</v>
@@ -18469,7 +18449,7 @@
         <v>78</v>
       </c>
       <c r="R128" s="69" t="s">
-        <v>1378</v>
+        <v>1375</v>
       </c>
       <c r="W128" s="69" t="s">
         <v>525</v>
@@ -18504,10 +18484,10 @@
         <v>0</v>
       </c>
       <c r="G129" s="69" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="H129" s="69" t="s">
-        <v>1806</v>
+        <v>1800</v>
       </c>
       <c r="L129" s="69">
         <v>-11</v>
@@ -18528,7 +18508,7 @@
         <v>78</v>
       </c>
       <c r="R129" s="69" t="s">
-        <v>1377</v>
+        <v>1374</v>
       </c>
       <c r="W129" s="69" t="s">
         <v>525</v>
@@ -19115,7 +19095,7 @@
         <v>1</v>
       </c>
       <c r="G139" s="8" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="H139" s="8"/>
       <c r="I139" s="8"/>
@@ -19176,7 +19156,7 @@
         <v>1</v>
       </c>
       <c r="G140" s="8" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="H140" s="8"/>
       <c r="I140" s="8"/>
@@ -21003,7 +20983,7 @@
         <v>1</v>
       </c>
       <c r="G169" s="19" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="J169" s="19" t="s">
         <v>993</v>
@@ -21127,13 +21107,13 @@
         <v>1</v>
       </c>
       <c r="G171" s="43" t="s">
-        <v>1732</v>
+        <v>1726</v>
       </c>
       <c r="I171" s="43" t="s">
-        <v>1733</v>
+        <v>1727</v>
       </c>
       <c r="J171" s="43" t="s">
-        <v>1734</v>
+        <v>1728</v>
       </c>
       <c r="L171" s="43">
         <v>-28</v>
@@ -21151,13 +21131,13 @@
         <v>100</v>
       </c>
       <c r="Q171" s="43" t="s">
-        <v>1735</v>
+        <v>1729</v>
       </c>
       <c r="R171" s="66" t="s">
-        <v>1736</v>
+        <v>1730</v>
       </c>
       <c r="W171" s="43" t="s">
-        <v>1737</v>
+        <v>1731</v>
       </c>
       <c r="X171" s="43">
         <v>9999999</v>
@@ -21195,13 +21175,13 @@
         <v>1</v>
       </c>
       <c r="G172" s="43" t="s">
+        <v>1726</v>
+      </c>
+      <c r="I172" s="43" t="s">
+        <v>1154</v>
+      </c>
+      <c r="J172" s="43" t="s">
         <v>1732</v>
-      </c>
-      <c r="I172" s="43" t="s">
-        <v>1155</v>
-      </c>
-      <c r="J172" s="43" t="s">
-        <v>1738</v>
       </c>
       <c r="L172" s="43">
         <v>-28</v>
@@ -21219,10 +21199,10 @@
         <v>300</v>
       </c>
       <c r="Q172" s="43" t="s">
-        <v>1735</v>
+        <v>1729</v>
       </c>
       <c r="R172" s="66" t="s">
-        <v>1739</v>
+        <v>1733</v>
       </c>
       <c r="W172" s="43" t="s">
         <v>528</v>
@@ -21263,13 +21243,13 @@
         <v>1</v>
       </c>
       <c r="G173" s="43" t="s">
-        <v>1732</v>
+        <v>1726</v>
       </c>
       <c r="I173" s="43" t="s">
-        <v>1740</v>
+        <v>1734</v>
       </c>
       <c r="J173" s="43" t="s">
-        <v>1741</v>
+        <v>1735</v>
       </c>
       <c r="L173" s="43">
         <v>-28</v>
@@ -21287,10 +21267,10 @@
         <v>600</v>
       </c>
       <c r="Q173" s="43" t="s">
-        <v>1735</v>
+        <v>1729</v>
       </c>
       <c r="R173" s="66" t="s">
-        <v>1742</v>
+        <v>1736</v>
       </c>
       <c r="W173" s="43" t="s">
         <v>528</v>
@@ -21331,13 +21311,13 @@
         <v>1</v>
       </c>
       <c r="G174" s="43" t="s">
-        <v>1732</v>
+        <v>1726</v>
       </c>
       <c r="I174" s="43" t="s">
-        <v>1743</v>
+        <v>1737</v>
       </c>
       <c r="J174" s="43" t="s">
-        <v>1744</v>
+        <v>1738</v>
       </c>
       <c r="L174" s="43">
         <v>-28</v>
@@ -21355,10 +21335,10 @@
         <v>600</v>
       </c>
       <c r="Q174" s="43" t="s">
-        <v>1735</v>
+        <v>1729</v>
       </c>
       <c r="R174" s="66" t="s">
-        <v>1745</v>
+        <v>1739</v>
       </c>
       <c r="W174" s="43" t="s">
         <v>528</v>
@@ -21399,13 +21379,13 @@
         <v>1</v>
       </c>
       <c r="G175" s="43" t="s">
-        <v>1732</v>
+        <v>1726</v>
       </c>
       <c r="I175" s="43" t="s">
-        <v>1746</v>
+        <v>1740</v>
       </c>
       <c r="J175" s="43" t="s">
-        <v>1747</v>
+        <v>1741</v>
       </c>
       <c r="L175" s="43">
         <v>-28</v>
@@ -21423,10 +21403,10 @@
         <v>1000</v>
       </c>
       <c r="Q175" s="43" t="s">
-        <v>1748</v>
+        <v>1742</v>
       </c>
       <c r="R175" s="66" t="s">
-        <v>1749</v>
+        <v>1743</v>
       </c>
       <c r="W175" s="43" t="s">
         <v>528</v>
@@ -21467,13 +21447,13 @@
         <v>1</v>
       </c>
       <c r="G176" s="43" t="s">
-        <v>1732</v>
+        <v>1726</v>
       </c>
       <c r="I176" s="43" t="s">
-        <v>1750</v>
+        <v>1744</v>
       </c>
       <c r="J176" s="43" t="s">
-        <v>1751</v>
+        <v>1745</v>
       </c>
       <c r="L176" s="43">
         <v>-28</v>
@@ -21491,10 +21471,10 @@
         <v>1800</v>
       </c>
       <c r="Q176" s="43" t="s">
-        <v>1748</v>
+        <v>1742</v>
       </c>
       <c r="R176" s="66" t="s">
-        <v>1752</v>
+        <v>1746</v>
       </c>
       <c r="W176" s="43" t="s">
         <v>528</v>
@@ -21535,13 +21515,13 @@
         <v>1</v>
       </c>
       <c r="G177" s="43" t="s">
-        <v>1732</v>
+        <v>1726</v>
       </c>
       <c r="I177" s="43" t="s">
-        <v>1753</v>
+        <v>1747</v>
       </c>
       <c r="J177" s="43" t="s">
-        <v>1754</v>
+        <v>1748</v>
       </c>
       <c r="L177" s="43">
         <v>-28</v>
@@ -21559,10 +21539,10 @@
         <v>1800</v>
       </c>
       <c r="Q177" s="43" t="s">
-        <v>1748</v>
+        <v>1742</v>
       </c>
       <c r="R177" s="66" t="s">
-        <v>1755</v>
+        <v>1749</v>
       </c>
       <c r="W177" s="43" t="s">
         <v>528</v>
@@ -21603,13 +21583,13 @@
         <v>1</v>
       </c>
       <c r="G178" s="43" t="s">
-        <v>1732</v>
+        <v>1726</v>
       </c>
       <c r="I178" s="43" t="s">
-        <v>1756</v>
+        <v>1750</v>
       </c>
       <c r="J178" s="43" t="s">
-        <v>1757</v>
+        <v>1751</v>
       </c>
       <c r="L178" s="43">
         <v>-28</v>
@@ -21627,10 +21607,10 @@
         <v>4800</v>
       </c>
       <c r="Q178" s="43" t="s">
-        <v>1748</v>
+        <v>1742</v>
       </c>
       <c r="R178" s="66" t="s">
-        <v>1758</v>
+        <v>1752</v>
       </c>
       <c r="W178" s="43" t="s">
         <v>528</v>
@@ -21671,13 +21651,13 @@
         <v>1</v>
       </c>
       <c r="G179" s="43" t="s">
-        <v>1732</v>
+        <v>1726</v>
       </c>
       <c r="I179" s="43" t="s">
-        <v>1759</v>
+        <v>1753</v>
       </c>
       <c r="J179" s="43" t="s">
-        <v>1760</v>
+        <v>1754</v>
       </c>
       <c r="L179" s="43">
         <v>-28</v>
@@ -21695,10 +21675,10 @@
         <v>9800</v>
       </c>
       <c r="Q179" s="43" t="s">
-        <v>1748</v>
+        <v>1742</v>
       </c>
       <c r="R179" s="66" t="s">
-        <v>1761</v>
+        <v>1755</v>
       </c>
       <c r="W179" s="43" t="s">
         <v>528</v>
@@ -21739,13 +21719,13 @@
         <v>1</v>
       </c>
       <c r="G180" s="43" t="s">
-        <v>1732</v>
+        <v>1726</v>
       </c>
       <c r="I180" s="43" t="s">
-        <v>1762</v>
+        <v>1756</v>
       </c>
       <c r="J180" s="43" t="s">
-        <v>1757</v>
+        <v>1751</v>
       </c>
       <c r="L180" s="43">
         <v>-28</v>
@@ -21763,10 +21743,10 @@
         <v>4800</v>
       </c>
       <c r="Q180" s="43" t="s">
-        <v>1748</v>
+        <v>1742</v>
       </c>
       <c r="R180" s="66" t="s">
-        <v>1758</v>
+        <v>1752</v>
       </c>
       <c r="W180" s="43" t="s">
         <v>528</v>
@@ -21807,13 +21787,13 @@
         <v>1</v>
       </c>
       <c r="G181" s="43" t="s">
-        <v>1732</v>
+        <v>1726</v>
       </c>
       <c r="I181" s="43" t="s">
-        <v>1763</v>
+        <v>1757</v>
       </c>
       <c r="J181" s="43" t="s">
-        <v>1760</v>
+        <v>1754</v>
       </c>
       <c r="L181" s="43">
         <v>-28</v>
@@ -21831,10 +21811,10 @@
         <v>9800</v>
       </c>
       <c r="Q181" s="43" t="s">
-        <v>1748</v>
+        <v>1742</v>
       </c>
       <c r="R181" s="66" t="s">
-        <v>1761</v>
+        <v>1755</v>
       </c>
       <c r="W181" s="43" t="s">
         <v>528</v>
@@ -21875,13 +21855,13 @@
         <v>1</v>
       </c>
       <c r="G182" s="43" t="s">
-        <v>1732</v>
+        <v>1726</v>
       </c>
       <c r="I182" s="43" t="s">
-        <v>1764</v>
+        <v>1758</v>
       </c>
       <c r="J182" s="43" t="s">
-        <v>1765</v>
+        <v>1759</v>
       </c>
       <c r="L182" s="43">
         <v>-28</v>
@@ -21899,10 +21879,10 @@
         <v>19800</v>
       </c>
       <c r="Q182" s="43" t="s">
-        <v>1748</v>
+        <v>1742</v>
       </c>
       <c r="R182" s="66" t="s">
-        <v>1766</v>
+        <v>1760</v>
       </c>
       <c r="W182" s="43" t="s">
         <v>528</v>
@@ -21943,13 +21923,13 @@
         <v>1</v>
       </c>
       <c r="G183" s="43" t="s">
-        <v>1732</v>
+        <v>1726</v>
       </c>
       <c r="I183" s="43" t="s">
-        <v>1767</v>
+        <v>1761</v>
       </c>
       <c r="J183" s="43" t="s">
-        <v>1760</v>
+        <v>1754</v>
       </c>
       <c r="L183" s="43">
         <v>-28</v>
@@ -21967,10 +21947,10 @@
         <v>9800</v>
       </c>
       <c r="Q183" s="43" t="s">
-        <v>1748</v>
+        <v>1742</v>
       </c>
       <c r="R183" s="66" t="s">
-        <v>1761</v>
+        <v>1755</v>
       </c>
       <c r="W183" s="43" t="s">
         <v>528</v>
@@ -22011,13 +21991,13 @@
         <v>1</v>
       </c>
       <c r="G184" s="43" t="s">
-        <v>1732</v>
+        <v>1726</v>
       </c>
       <c r="I184" s="43" t="s">
-        <v>1768</v>
+        <v>1762</v>
       </c>
       <c r="J184" s="43" t="s">
-        <v>1765</v>
+        <v>1759</v>
       </c>
       <c r="L184" s="43">
         <v>-28</v>
@@ -22035,10 +22015,10 @@
         <v>19800</v>
       </c>
       <c r="Q184" s="43" t="s">
-        <v>1748</v>
+        <v>1742</v>
       </c>
       <c r="R184" s="66" t="s">
-        <v>1766</v>
+        <v>1760</v>
       </c>
       <c r="W184" s="43" t="s">
         <v>528</v>
@@ -22079,13 +22059,13 @@
         <v>1</v>
       </c>
       <c r="G185" s="43" t="s">
-        <v>1732</v>
+        <v>1726</v>
       </c>
       <c r="I185" s="43" t="s">
-        <v>1769</v>
+        <v>1763</v>
       </c>
       <c r="J185" s="43" t="s">
-        <v>1770</v>
+        <v>1764</v>
       </c>
       <c r="L185" s="43">
         <v>-28</v>
@@ -22103,10 +22083,10 @@
         <v>49800</v>
       </c>
       <c r="Q185" s="43" t="s">
-        <v>1748</v>
+        <v>1742</v>
       </c>
       <c r="R185" s="66" t="s">
-        <v>1771</v>
+        <v>1765</v>
       </c>
       <c r="W185" s="43" t="s">
         <v>528</v>
@@ -26566,7 +26546,7 @@
         <v>1</v>
       </c>
       <c r="G254" s="5" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="J254" s="5" t="s">
         <v>934</v>
@@ -26761,7 +26741,7 @@
         <v>0</v>
       </c>
       <c r="G257" s="5" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="J257" s="5" t="s">
         <v>869</v>
@@ -27284,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="G265" s="5" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="J265" s="5" t="s">
         <v>875</v>
@@ -27544,7 +27524,7 @@
         <v>0</v>
       </c>
       <c r="G269" s="5" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="J269" s="5" t="s">
         <v>877</v>
@@ -27810,7 +27790,7 @@
         <v>521</v>
       </c>
       <c r="H273" s="74" t="s">
-        <v>1848</v>
+        <v>1873</v>
       </c>
       <c r="L273" s="69">
         <v>-10</v>
@@ -27831,7 +27811,7 @@
         <v>78</v>
       </c>
       <c r="R273" s="69" t="s">
-        <v>1379</v>
+        <v>1376</v>
       </c>
       <c r="W273" s="69" t="s">
         <v>525</v>
@@ -28070,7 +28050,7 @@
         <v>0</v>
       </c>
       <c r="G277" s="5" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="J277" s="5" t="s">
         <v>881</v>
@@ -28135,7 +28115,7 @@
         <v>0</v>
       </c>
       <c r="G278" s="5" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="J278" s="5" t="s">
         <v>882</v>
@@ -28200,7 +28180,7 @@
         <v>0</v>
       </c>
       <c r="G279" s="5" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="J279" s="5" t="s">
         <v>883</v>
@@ -28265,7 +28245,7 @@
         <v>0</v>
       </c>
       <c r="G280" s="5" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="J280" s="5" t="s">
         <v>880</v>
@@ -30754,10 +30734,10 @@
         <v>1</v>
       </c>
       <c r="G320" s="5" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="J320" s="5" t="s">
-        <v>1317</v>
+        <v>1315</v>
       </c>
       <c r="L320" s="5">
         <v>-25</v>
@@ -30810,7 +30790,7 @@
         <v>1</v>
       </c>
       <c r="G321" s="5" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="J321" s="5" t="s">
         <v>907</v>
@@ -30872,7 +30852,7 @@
         <v>1</v>
       </c>
       <c r="G322" s="5" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="J322" s="5" t="s">
         <v>624</v>
@@ -30934,10 +30914,10 @@
         <v>1</v>
       </c>
       <c r="G323" s="43" t="s">
-        <v>1772</v>
+        <v>1766</v>
       </c>
       <c r="J323" s="43" t="s">
-        <v>1773</v>
+        <v>1767</v>
       </c>
       <c r="L323" s="43">
         <v>-28</v>
@@ -30955,13 +30935,13 @@
         <v>600</v>
       </c>
       <c r="Q323" s="43" t="s">
-        <v>1774</v>
+        <v>1768</v>
       </c>
       <c r="R323" s="66" t="s">
-        <v>1775</v>
+        <v>1769</v>
       </c>
       <c r="W323" s="43" t="s">
-        <v>1776</v>
+        <v>1770</v>
       </c>
       <c r="X323" s="43">
         <v>9999999</v>
@@ -30999,10 +30979,10 @@
         <v>1</v>
       </c>
       <c r="G324" s="43" t="s">
-        <v>1777</v>
+        <v>1771</v>
       </c>
       <c r="J324" s="43" t="s">
-        <v>1778</v>
+        <v>1772</v>
       </c>
       <c r="L324" s="43">
         <v>-28</v>
@@ -31020,10 +31000,10 @@
         <v>4800</v>
       </c>
       <c r="Q324" s="43" t="s">
-        <v>1779</v>
+        <v>1773</v>
       </c>
       <c r="R324" s="66" t="s">
-        <v>1780</v>
+        <v>1774</v>
       </c>
       <c r="W324" s="43" t="s">
         <v>528</v>
@@ -31064,10 +31044,10 @@
         <v>1</v>
       </c>
       <c r="G325" s="43" t="s">
-        <v>1781</v>
+        <v>1775</v>
       </c>
       <c r="J325" s="43" t="s">
-        <v>1782</v>
+        <v>1776</v>
       </c>
       <c r="L325" s="43">
         <v>-28</v>
@@ -31085,10 +31065,10 @@
         <v>9800</v>
       </c>
       <c r="Q325" s="43" t="s">
-        <v>1774</v>
+        <v>1768</v>
       </c>
       <c r="R325" s="66" t="s">
-        <v>1783</v>
+        <v>1777</v>
       </c>
       <c r="W325" s="43" t="s">
         <v>528</v>
@@ -31129,7 +31109,7 @@
         <v>1</v>
       </c>
       <c r="G326" s="40" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J326" s="40" t="s">
         <v>968</v>
@@ -31188,7 +31168,7 @@
         <v>1</v>
       </c>
       <c r="G327" s="43" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="J327" s="43" t="s">
         <v>986</v>
@@ -31253,12 +31233,12 @@
         <v>1</v>
       </c>
       <c r="G328" s="43" t="s">
-        <v>1653</v>
+        <v>1647</v>
       </c>
       <c r="H328" s="43"/>
       <c r="I328" s="43"/>
       <c r="J328" s="43" t="s">
-        <v>1654</v>
+        <v>1648</v>
       </c>
       <c r="K328" s="43"/>
       <c r="L328" s="43">
@@ -31271,13 +31251,13 @@
         <v>0</v>
       </c>
       <c r="O328" s="43" t="s">
-        <v>1655</v>
+        <v>1649</v>
       </c>
       <c r="P328" s="43">
         <v>600</v>
       </c>
       <c r="Q328" s="43" t="s">
-        <v>1656</v>
+        <v>1650</v>
       </c>
       <c r="R328" s="66" t="s">
         <v>987</v>
@@ -31287,7 +31267,7 @@
       <c r="U328" s="43"/>
       <c r="V328" s="43"/>
       <c r="W328" s="43" t="s">
-        <v>1657</v>
+        <v>1651</v>
       </c>
       <c r="X328" s="43">
         <v>99999999</v>
@@ -31341,7 +31321,7 @@
       <c r="H329" s="43"/>
       <c r="I329" s="43"/>
       <c r="J329" s="43" t="s">
-        <v>1658</v>
+        <v>1652</v>
       </c>
       <c r="K329" s="43"/>
       <c r="L329" s="43">
@@ -31354,23 +31334,23 @@
         <v>0</v>
       </c>
       <c r="O329" s="43" t="s">
-        <v>1655</v>
+        <v>1649</v>
       </c>
       <c r="P329" s="43">
         <v>2800</v>
       </c>
       <c r="Q329" s="43" t="s">
-        <v>1659</v>
+        <v>1653</v>
       </c>
       <c r="R329" s="66" t="s">
-        <v>1660</v>
+        <v>1654</v>
       </c>
       <c r="S329" s="43"/>
       <c r="T329" s="43"/>
       <c r="U329" s="43"/>
       <c r="V329" s="43"/>
       <c r="W329" s="43" t="s">
-        <v>1657</v>
+        <v>1651</v>
       </c>
       <c r="X329" s="43">
         <v>99999999</v>
@@ -31424,7 +31404,7 @@
       <c r="H330" s="43"/>
       <c r="I330" s="43"/>
       <c r="J330" s="43" t="s">
-        <v>1661</v>
+        <v>1655</v>
       </c>
       <c r="K330" s="43"/>
       <c r="L330" s="43">
@@ -31437,23 +31417,23 @@
         <v>0</v>
       </c>
       <c r="O330" s="43" t="s">
-        <v>1655</v>
+        <v>1649</v>
       </c>
       <c r="P330" s="43">
         <v>4800</v>
       </c>
       <c r="Q330" s="43" t="s">
-        <v>1662</v>
+        <v>1656</v>
       </c>
       <c r="R330" s="66" t="s">
-        <v>1663</v>
+        <v>1657</v>
       </c>
       <c r="S330" s="43"/>
       <c r="T330" s="43"/>
       <c r="U330" s="43"/>
       <c r="V330" s="43"/>
       <c r="W330" s="43" t="s">
-        <v>1657</v>
+        <v>1651</v>
       </c>
       <c r="X330" s="43">
         <v>99999999</v>
@@ -31507,7 +31487,7 @@
       <c r="H331" s="43"/>
       <c r="I331" s="43"/>
       <c r="J331" s="43" t="s">
-        <v>1664</v>
+        <v>1658</v>
       </c>
       <c r="K331" s="43"/>
       <c r="L331" s="43">
@@ -31520,23 +31500,23 @@
         <v>0</v>
       </c>
       <c r="O331" s="43" t="s">
-        <v>1655</v>
+        <v>1649</v>
       </c>
       <c r="P331" s="43">
         <v>9900</v>
       </c>
       <c r="Q331" s="43" t="s">
-        <v>1662</v>
+        <v>1656</v>
       </c>
       <c r="R331" s="66" t="s">
-        <v>1665</v>
+        <v>1659</v>
       </c>
       <c r="S331" s="43"/>
       <c r="T331" s="43"/>
       <c r="U331" s="43"/>
       <c r="V331" s="43"/>
       <c r="W331" s="43" t="s">
-        <v>1657</v>
+        <v>1651</v>
       </c>
       <c r="X331" s="43">
         <v>99999999</v>
@@ -31590,7 +31570,7 @@
       <c r="H332" s="43"/>
       <c r="I332" s="43"/>
       <c r="J332" s="43" t="s">
-        <v>1666</v>
+        <v>1660</v>
       </c>
       <c r="K332" s="43"/>
       <c r="L332" s="43">
@@ -31609,17 +31589,17 @@
         <v>19800</v>
       </c>
       <c r="Q332" s="43" t="s">
-        <v>1662</v>
+        <v>1656</v>
       </c>
       <c r="R332" s="66" t="s">
-        <v>1667</v>
+        <v>1661</v>
       </c>
       <c r="S332" s="43"/>
       <c r="T332" s="43"/>
       <c r="U332" s="43"/>
       <c r="V332" s="43"/>
       <c r="W332" s="43" t="s">
-        <v>1657</v>
+        <v>1651</v>
       </c>
       <c r="X332" s="43">
         <v>99999999</v>
@@ -31673,7 +31653,7 @@
       <c r="H333" s="43"/>
       <c r="I333" s="43"/>
       <c r="J333" s="43" t="s">
-        <v>1652</v>
+        <v>1646</v>
       </c>
       <c r="K333" s="43"/>
       <c r="L333" s="43">
@@ -31686,23 +31666,23 @@
         <v>0</v>
       </c>
       <c r="O333" s="43" t="s">
-        <v>1655</v>
+        <v>1649</v>
       </c>
       <c r="P333" s="43">
         <v>29800</v>
       </c>
       <c r="Q333" s="43" t="s">
+        <v>1656</v>
+      </c>
+      <c r="R333" s="66" t="s">
         <v>1662</v>
-      </c>
-      <c r="R333" s="66" t="s">
-        <v>1668</v>
       </c>
       <c r="S333" s="43"/>
       <c r="T333" s="43"/>
       <c r="U333" s="43"/>
       <c r="V333" s="43"/>
       <c r="W333" s="43" t="s">
-        <v>1657</v>
+        <v>1651</v>
       </c>
       <c r="X333" s="43">
         <v>99999999</v>
@@ -31756,7 +31736,7 @@
       <c r="H334" s="43"/>
       <c r="I334" s="43"/>
       <c r="J334" s="43" t="s">
-        <v>1669</v>
+        <v>1663</v>
       </c>
       <c r="K334" s="43"/>
       <c r="L334" s="43">
@@ -31769,23 +31749,23 @@
         <v>0</v>
       </c>
       <c r="O334" s="43" t="s">
-        <v>1670</v>
+        <v>1664</v>
       </c>
       <c r="P334" s="43">
         <v>39800</v>
       </c>
       <c r="Q334" s="43" t="s">
-        <v>1662</v>
+        <v>1656</v>
       </c>
       <c r="R334" s="66" t="s">
-        <v>1671</v>
+        <v>1665</v>
       </c>
       <c r="S334" s="43"/>
       <c r="T334" s="43"/>
       <c r="U334" s="43"/>
       <c r="V334" s="43"/>
       <c r="W334" s="43" t="s">
-        <v>1672</v>
+        <v>1666</v>
       </c>
       <c r="X334" s="43">
         <v>99999999</v>
@@ -31839,7 +31819,7 @@
       <c r="H335" s="43"/>
       <c r="I335" s="43"/>
       <c r="J335" s="43" t="s">
-        <v>1673</v>
+        <v>1667</v>
       </c>
       <c r="K335" s="43"/>
       <c r="L335" s="43">
@@ -31852,23 +31832,23 @@
         <v>0</v>
       </c>
       <c r="O335" s="43" t="s">
-        <v>1651</v>
+        <v>1645</v>
       </c>
       <c r="P335" s="43">
         <v>49800</v>
       </c>
       <c r="Q335" s="43" t="s">
-        <v>1662</v>
+        <v>1656</v>
       </c>
       <c r="R335" s="66" t="s">
-        <v>1674</v>
+        <v>1668</v>
       </c>
       <c r="S335" s="43"/>
       <c r="T335" s="43"/>
       <c r="U335" s="43"/>
       <c r="V335" s="43"/>
       <c r="W335" s="43" t="s">
-        <v>1657</v>
+        <v>1651</v>
       </c>
       <c r="X335" s="43">
         <v>99999999</v>
@@ -31922,7 +31902,7 @@
       <c r="H336" s="43"/>
       <c r="I336" s="43"/>
       <c r="J336" s="43" t="s">
-        <v>1675</v>
+        <v>1669</v>
       </c>
       <c r="K336" s="43"/>
       <c r="L336" s="43">
@@ -31935,23 +31915,23 @@
         <v>0</v>
       </c>
       <c r="O336" s="43" t="s">
-        <v>1655</v>
+        <v>1649</v>
       </c>
       <c r="P336" s="43">
         <v>59800</v>
       </c>
       <c r="Q336" s="43" t="s">
-        <v>1662</v>
+        <v>1656</v>
       </c>
       <c r="R336" s="66" t="s">
-        <v>1676</v>
+        <v>1670</v>
       </c>
       <c r="S336" s="43"/>
       <c r="T336" s="43"/>
       <c r="U336" s="43"/>
       <c r="V336" s="43"/>
       <c r="W336" s="43" t="s">
-        <v>1677</v>
+        <v>1671</v>
       </c>
       <c r="X336" s="43">
         <v>99999999</v>
@@ -32005,7 +31985,7 @@
       <c r="H337" s="43"/>
       <c r="I337" s="43"/>
       <c r="J337" s="43" t="s">
-        <v>1678</v>
+        <v>1672</v>
       </c>
       <c r="K337" s="43"/>
       <c r="L337" s="43">
@@ -32018,23 +31998,23 @@
         <v>0</v>
       </c>
       <c r="O337" s="43" t="s">
-        <v>1655</v>
+        <v>1649</v>
       </c>
       <c r="P337" s="43">
         <v>69800</v>
       </c>
       <c r="Q337" s="43" t="s">
-        <v>1650</v>
+        <v>1644</v>
       </c>
       <c r="R337" s="66" t="s">
-        <v>1679</v>
+        <v>1673</v>
       </c>
       <c r="S337" s="43"/>
       <c r="T337" s="43"/>
       <c r="U337" s="43"/>
       <c r="V337" s="43"/>
       <c r="W337" s="43" t="s">
-        <v>1672</v>
+        <v>1666</v>
       </c>
       <c r="X337" s="43">
         <v>99999999</v>
@@ -32080,7 +32060,7 @@
         <v>1</v>
       </c>
       <c r="G338" s="19" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="J338" s="19" t="s">
         <v>1005</v>
@@ -32236,7 +32216,7 @@
         <v>1</v>
       </c>
       <c r="G340" s="19" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="H340" s="19"/>
       <c r="I340" s="19"/>
@@ -32318,12 +32298,12 @@
         <v>1</v>
       </c>
       <c r="G341" s="6" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="H341" s="6"/>
       <c r="I341" s="6"/>
       <c r="J341" s="5" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="L341" s="5">
         <v>-31</v>
@@ -32335,19 +32315,19 @@
         <v>0</v>
       </c>
       <c r="O341" s="5" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="P341" s="5">
         <v>600</v>
       </c>
       <c r="Q341" s="5" t="s">
+        <v>1158</v>
+      </c>
+      <c r="R341" s="10" t="s">
         <v>1159</v>
       </c>
-      <c r="R341" s="10" t="s">
+      <c r="W341" s="5" t="s">
         <v>1160</v>
-      </c>
-      <c r="W341" s="5" t="s">
-        <v>1161</v>
       </c>
       <c r="X341" s="5">
         <v>9999999</v>
@@ -32362,10 +32342,10 @@
         <v>26</v>
       </c>
       <c r="AB341" s="5" t="s">
+        <v>1161</v>
+      </c>
+      <c r="AC341" s="5" t="s">
         <v>1162</v>
-      </c>
-      <c r="AC341" s="5" t="s">
-        <v>1163</v>
       </c>
       <c r="AH341" s="5">
         <v>1</v>
@@ -32391,10 +32371,10 @@
         <v>1</v>
       </c>
       <c r="G342" s="6" t="s">
+        <v>1163</v>
+      </c>
+      <c r="J342" s="5" t="s">
         <v>1164</v>
-      </c>
-      <c r="J342" s="5" t="s">
-        <v>1165</v>
       </c>
       <c r="L342" s="5">
         <v>-31</v>
@@ -32406,19 +32386,19 @@
         <v>0</v>
       </c>
       <c r="O342" s="5" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="P342" s="5">
         <v>600</v>
       </c>
       <c r="Q342" s="5" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="R342" s="10" t="s">
         <v>1083</v>
       </c>
       <c r="W342" s="5" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="X342" s="5">
         <v>9999999</v>
@@ -32433,10 +32413,10 @@
         <v>27</v>
       </c>
       <c r="AB342" s="5" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="AC342" s="5" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="AH342" s="5">
         <v>1</v>
@@ -32462,10 +32442,10 @@
         <v>1</v>
       </c>
       <c r="G343" s="6" t="s">
+        <v>1166</v>
+      </c>
+      <c r="J343" s="5" t="s">
         <v>1167</v>
-      </c>
-      <c r="J343" s="5" t="s">
-        <v>1168</v>
       </c>
       <c r="L343" s="5">
         <v>-31</v>
@@ -32477,19 +32457,19 @@
         <v>0</v>
       </c>
       <c r="O343" s="5" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="P343" s="5">
         <v>600</v>
       </c>
       <c r="Q343" s="5" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="R343" s="10" t="s">
         <v>1084</v>
       </c>
       <c r="W343" s="5" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="X343" s="5">
         <v>9999999</v>
@@ -32504,10 +32484,10 @@
         <v>28</v>
       </c>
       <c r="AB343" s="5" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="AC343" s="5" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="AH343" s="5">
         <v>1</v>
@@ -32533,10 +32513,10 @@
         <v>1</v>
       </c>
       <c r="G344" s="6" t="s">
+        <v>1169</v>
+      </c>
+      <c r="J344" s="5" t="s">
         <v>1170</v>
-      </c>
-      <c r="J344" s="5" t="s">
-        <v>1171</v>
       </c>
       <c r="L344" s="5">
         <v>-31</v>
@@ -32548,19 +32528,19 @@
         <v>0</v>
       </c>
       <c r="O344" s="5" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="P344" s="5">
         <v>4800</v>
       </c>
       <c r="Q344" s="5" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="R344" s="10" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="W344" s="5" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="X344" s="5">
         <v>9999999</v>
@@ -32575,10 +32555,10 @@
         <v>29</v>
       </c>
       <c r="AB344" s="5" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="AC344" s="5" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="AH344" s="5">
         <v>1</v>
@@ -32607,7 +32587,7 @@
         <v>1085</v>
       </c>
       <c r="J345" s="5" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="L345" s="5">
         <v>-31</v>
@@ -32619,19 +32599,19 @@
         <v>0</v>
       </c>
       <c r="O345" s="5" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="P345" s="5">
         <v>4800</v>
       </c>
       <c r="Q345" s="5" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="R345" s="10" t="s">
         <v>1086</v>
       </c>
       <c r="W345" s="5" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="X345" s="5">
         <v>9999999</v>
@@ -32646,10 +32626,10 @@
         <v>30</v>
       </c>
       <c r="AB345" s="5" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="AC345" s="5" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="AH345" s="5">
         <v>1</v>
@@ -32678,7 +32658,7 @@
         <v>1087</v>
       </c>
       <c r="J346" s="5" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="L346" s="5">
         <v>-31</v>
@@ -32690,19 +32670,19 @@
         <v>0</v>
       </c>
       <c r="O346" s="5" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="P346" s="5">
         <v>4800</v>
       </c>
       <c r="Q346" s="5" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="R346" s="10" t="s">
         <v>1088</v>
       </c>
       <c r="W346" s="5" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="X346" s="5">
         <v>9999999</v>
@@ -32717,10 +32697,10 @@
         <v>31</v>
       </c>
       <c r="AB346" s="5" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="AC346" s="5" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="AH346" s="5">
         <v>1</v>
@@ -32749,7 +32729,7 @@
         <v>1089</v>
       </c>
       <c r="J347" s="5" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="L347" s="5">
         <v>-31</v>
@@ -32761,19 +32741,19 @@
         <v>0</v>
       </c>
       <c r="O347" s="5" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="P347" s="5">
         <v>9800</v>
       </c>
       <c r="Q347" s="5" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="R347" s="10" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="W347" s="5" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="X347" s="5">
         <v>9999999</v>
@@ -32788,10 +32768,10 @@
         <v>32</v>
       </c>
       <c r="AB347" s="5" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="AC347" s="5" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="AH347" s="5">
         <v>1</v>
@@ -32820,7 +32800,7 @@
         <v>1090</v>
       </c>
       <c r="J348" s="5" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="L348" s="5">
         <v>-31</v>
@@ -32832,19 +32812,19 @@
         <v>0</v>
       </c>
       <c r="O348" s="5" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="P348" s="5">
         <v>9800</v>
       </c>
       <c r="Q348" s="5" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="R348" s="10" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="W348" s="5" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="X348" s="5">
         <v>9999999</v>
@@ -32859,10 +32839,10 @@
         <v>33</v>
       </c>
       <c r="AB348" s="5" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="AC348" s="5" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="AH348" s="5">
         <v>1</v>
@@ -32891,7 +32871,7 @@
         <v>1091</v>
       </c>
       <c r="J349" s="5" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="L349" s="5">
         <v>-31</v>
@@ -32909,13 +32889,13 @@
         <v>9800</v>
       </c>
       <c r="Q349" s="5" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="R349" s="10" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="W349" s="5" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="X349" s="5">
         <v>9999999</v>
@@ -32930,7 +32910,7 @@
         <v>34</v>
       </c>
       <c r="AB349" s="5" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="AC349" s="5" t="s">
         <v>1092</v>
@@ -32962,7 +32942,7 @@
         <v>1093</v>
       </c>
       <c r="J350" s="5" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="L350" s="5">
         <v>-31</v>
@@ -32983,10 +32963,10 @@
         <v>965</v>
       </c>
       <c r="R350" s="10" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="W350" s="5" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="X350" s="5">
         <v>9999999</v>
@@ -33004,7 +32984,7 @@
         <v>446</v>
       </c>
       <c r="AC350" s="5" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="AH350" s="5">
         <v>1</v>
@@ -33033,7 +33013,7 @@
         <v>1094</v>
       </c>
       <c r="J351" s="5" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="L351" s="5">
         <v>-31</v>
@@ -33045,7 +33025,7 @@
         <v>0</v>
       </c>
       <c r="O351" s="5" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="P351" s="5">
         <v>19800</v>
@@ -33057,7 +33037,7 @@
         <v>1095</v>
       </c>
       <c r="W351" s="5" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="X351" s="5">
         <v>9999999</v>
@@ -33075,7 +33055,7 @@
         <v>446</v>
       </c>
       <c r="AC351" s="5" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="AH351" s="5">
         <v>1</v>
@@ -33125,7 +33105,7 @@
         <v>965</v>
       </c>
       <c r="R352" s="10" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="W352" s="5" t="s">
         <v>567</v>
@@ -33143,7 +33123,7 @@
         <v>37</v>
       </c>
       <c r="AB352" s="5" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="AC352" s="5" t="s">
         <v>1098</v>
@@ -33172,13 +33152,13 @@
         <v>0</v>
       </c>
       <c r="G353" s="5" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="I353" s="5" t="s">
         <v>1100</v>
       </c>
       <c r="J353" s="5" t="s">
-        <v>1101</v>
+        <v>1874</v>
       </c>
       <c r="L353" s="5">
         <v>-31</v>
@@ -33196,13 +33176,13 @@
         <v>600</v>
       </c>
       <c r="Q353" s="5" t="s">
+        <v>1192</v>
+      </c>
+      <c r="R353" s="10" t="s">
         <v>1193</v>
       </c>
-      <c r="R353" s="10" t="s">
+      <c r="W353" s="5" t="s">
         <v>1194</v>
-      </c>
-      <c r="W353" s="5" t="s">
-        <v>1195</v>
       </c>
       <c r="X353" s="5">
         <v>9999999</v>
@@ -33240,13 +33220,13 @@
         <v>0</v>
       </c>
       <c r="G354" s="5" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="I354" s="5" t="s">
         <v>1100</v>
       </c>
       <c r="J354" s="5" t="s">
-        <v>1197</v>
+        <v>1874</v>
       </c>
       <c r="L354" s="5">
         <v>-31</v>
@@ -33258,19 +33238,19 @@
         <v>0</v>
       </c>
       <c r="O354" s="5" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="P354" s="5">
         <v>1200</v>
       </c>
       <c r="Q354" s="5" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="R354" s="10" t="s">
+        <v>1193</v>
+      </c>
+      <c r="W354" s="5" t="s">
         <v>1194</v>
-      </c>
-      <c r="W354" s="5" t="s">
-        <v>1195</v>
       </c>
       <c r="X354" s="5">
         <v>9999999</v>
@@ -33308,13 +33288,13 @@
         <v>0</v>
       </c>
       <c r="G355" s="5" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="I355" s="5" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="J355" s="5" t="s">
-        <v>1101</v>
+        <v>1874</v>
       </c>
       <c r="L355" s="5">
         <v>-31</v>
@@ -33326,16 +33306,16 @@
         <v>0</v>
       </c>
       <c r="O355" s="5" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="P355" s="5">
         <v>1800</v>
       </c>
       <c r="Q355" s="5" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="R355" s="10" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="W355" s="5" t="s">
         <v>596</v>
@@ -33379,10 +33359,10 @@
         <v>1099</v>
       </c>
       <c r="I356" s="5" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="J356" s="5" t="s">
-        <v>1101</v>
+        <v>1874</v>
       </c>
       <c r="L356" s="5">
         <v>-31</v>
@@ -33400,13 +33380,13 @@
         <v>4800</v>
       </c>
       <c r="Q356" s="5" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="R356" s="10" t="s">
         <v>272</v>
       </c>
       <c r="W356" s="5" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="X356" s="5">
         <v>9999999</v>
@@ -33444,13 +33424,13 @@
         <v>0</v>
       </c>
       <c r="G357" s="5" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="I357" s="5" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="J357" s="5" t="s">
-        <v>1101</v>
+        <v>1874</v>
       </c>
       <c r="L357" s="5">
         <v>-31</v>
@@ -33462,19 +33442,19 @@
         <v>0</v>
       </c>
       <c r="O357" s="5" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="P357" s="5">
         <v>9800</v>
       </c>
       <c r="Q357" s="5" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="R357" s="10" t="s">
         <v>272</v>
       </c>
       <c r="W357" s="5" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="X357" s="5">
         <v>9999999</v>
@@ -33512,13 +33492,13 @@
         <v>0</v>
       </c>
       <c r="G358" s="5" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="I358" s="5" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="J358" s="5" t="s">
-        <v>1197</v>
+        <v>1874</v>
       </c>
       <c r="L358" s="5">
         <v>-31</v>
@@ -33530,13 +33510,13 @@
         <v>0</v>
       </c>
       <c r="O358" s="5" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="P358" s="5">
         <v>19800</v>
       </c>
       <c r="Q358" s="5" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="R358" s="10" t="s">
         <v>272</v>
@@ -33583,10 +33563,10 @@
         <v>1099</v>
       </c>
       <c r="I359" s="5" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="J359" s="5" t="s">
-        <v>1197</v>
+        <v>1874</v>
       </c>
       <c r="L359" s="5">
         <v>-31</v>
@@ -33598,19 +33578,19 @@
         <v>0</v>
       </c>
       <c r="O359" s="5" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="P359" s="5">
         <v>9800</v>
       </c>
       <c r="Q359" s="5" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="R359" s="10" t="s">
         <v>272</v>
       </c>
       <c r="W359" s="5" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="X359" s="5">
         <v>9999999</v>
@@ -33648,13 +33628,13 @@
         <v>0</v>
       </c>
       <c r="G360" s="5" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="I360" s="5" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="J360" s="5" t="s">
-        <v>1197</v>
+        <v>1874</v>
       </c>
       <c r="L360" s="5">
         <v>-31</v>
@@ -33666,19 +33646,19 @@
         <v>0</v>
       </c>
       <c r="O360" s="5" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="P360" s="5">
         <v>19800</v>
       </c>
       <c r="Q360" s="5" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="R360" s="10" t="s">
         <v>272</v>
       </c>
       <c r="W360" s="5" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="X360" s="5">
         <v>9999999</v>
@@ -33716,13 +33696,13 @@
         <v>0</v>
       </c>
       <c r="G361" s="5" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="I361" s="5" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="J361" s="5" t="s">
-        <v>1197</v>
+        <v>1874</v>
       </c>
       <c r="L361" s="5">
         <v>-31</v>
@@ -33734,19 +33714,19 @@
         <v>0</v>
       </c>
       <c r="O361" s="5" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="P361" s="5">
         <v>49800</v>
       </c>
       <c r="Q361" s="5" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="R361" s="10" t="s">
         <v>272</v>
       </c>
       <c r="W361" s="5" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
       <c r="X361" s="5">
         <v>9999999</v>
@@ -33784,13 +33764,13 @@
         <v>0</v>
       </c>
       <c r="G362" s="5" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="I362" s="5" t="s">
         <v>1100</v>
       </c>
       <c r="J362" s="5" t="s">
-        <v>1197</v>
+        <v>1874</v>
       </c>
       <c r="L362" s="5">
         <v>-31</v>
@@ -33808,10 +33788,10 @@
         <v>1800</v>
       </c>
       <c r="Q362" s="5" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="R362" s="10" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="W362" s="5" t="s">
         <v>567</v>
@@ -33829,10 +33809,10 @@
         <v>38</v>
       </c>
       <c r="AB362" s="5" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="AC362" s="5" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="AH362" s="5">
         <v>1</v>
@@ -33858,13 +33838,13 @@
         <v>0</v>
       </c>
       <c r="G363" s="5" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="I363" s="5" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="J363" s="5" t="s">
-        <v>1197</v>
+        <v>1874</v>
       </c>
       <c r="L363" s="5">
         <v>-31</v>
@@ -33876,19 +33856,19 @@
         <v>0</v>
       </c>
       <c r="O363" s="5" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="P363" s="5">
         <v>19800</v>
       </c>
       <c r="Q363" s="5" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="R363" s="10" t="s">
         <v>272</v>
       </c>
       <c r="W363" s="5" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="X363" s="5">
         <v>9999999</v>
@@ -33903,10 +33883,10 @@
         <v>39</v>
       </c>
       <c r="AB363" s="5" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="AC363" s="5" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="AH363" s="5">
         <v>1</v>
@@ -33932,13 +33912,13 @@
         <v>0</v>
       </c>
       <c r="G364" s="5" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="I364" s="5" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="J364" s="5" t="s">
-        <v>1101</v>
+        <v>1874</v>
       </c>
       <c r="L364" s="5">
         <v>-31</v>
@@ -33950,19 +33930,19 @@
         <v>0</v>
       </c>
       <c r="O364" s="5" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="P364" s="5">
         <v>49800</v>
       </c>
       <c r="Q364" s="5" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="R364" s="10" t="s">
         <v>272</v>
       </c>
       <c r="W364" s="5" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="X364" s="5">
         <v>9999999</v>
@@ -33977,10 +33957,10 @@
         <v>40</v>
       </c>
       <c r="AB364" s="5" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="AC364" s="5" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
       <c r="AH364" s="5">
         <v>1</v>
@@ -34006,10 +33986,10 @@
         <v>1</v>
       </c>
       <c r="G365" s="5" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
       <c r="J365" s="5" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="L365" s="5">
         <v>-31</v>
@@ -34021,16 +34001,16 @@
         <v>0</v>
       </c>
       <c r="O365" s="5" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="P365" s="5">
         <v>131400</v>
       </c>
       <c r="Q365" s="5" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="R365" s="10" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="W365" s="5" t="s">
         <v>567</v>
@@ -34071,10 +34051,10 @@
         <v>1</v>
       </c>
       <c r="G366" s="5" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="J366" s="5" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="L366" s="5">
         <v>-31</v>
@@ -34086,16 +34066,16 @@
         <v>0</v>
       </c>
       <c r="O366" s="5" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="P366" s="5">
         <v>52000</v>
       </c>
       <c r="Q366" s="5" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="R366" s="10" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="W366" s="5" t="s">
         <v>567</v>
@@ -34136,10 +34116,10 @@
         <v>1</v>
       </c>
       <c r="G367" s="5" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
       <c r="J367" s="5" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="L367" s="5">
         <v>-31</v>
@@ -34151,19 +34131,19 @@
         <v>0</v>
       </c>
       <c r="O367" s="5" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="P367" s="5">
         <v>25800</v>
       </c>
       <c r="Q367" s="5" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="R367" s="10" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
       <c r="W367" s="5" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="X367" s="5">
         <v>9999999</v>
@@ -34201,10 +34181,10 @@
         <v>1</v>
       </c>
       <c r="G368" s="5" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="J368" s="5" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="L368" s="5">
         <v>-31</v>
@@ -34216,16 +34196,16 @@
         <v>0</v>
       </c>
       <c r="O368" s="5" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="P368" s="5">
         <v>14700</v>
       </c>
       <c r="Q368" s="5" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="R368" s="10" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="W368" s="5" t="s">
         <v>567</v>
@@ -34266,10 +34246,10 @@
         <v>1</v>
       </c>
       <c r="G369" s="5" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
       <c r="J369" s="5" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="L369" s="5">
         <v>-31</v>
@@ -34287,13 +34267,13 @@
         <v>5200</v>
       </c>
       <c r="Q369" s="5" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="R369" s="10" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="W369" s="5" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="X369" s="5">
         <v>9999999</v>
@@ -34331,10 +34311,10 @@
         <v>1</v>
       </c>
       <c r="G370" s="5" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="J370" s="5" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
       <c r="L370" s="5">
         <v>-31</v>
@@ -34352,7 +34332,7 @@
         <v>1800</v>
       </c>
       <c r="Q370" s="5" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="R370" s="10" t="s">
         <v>732</v>
@@ -34393,10 +34373,10 @@
         <v>1</v>
       </c>
       <c r="G371" s="5" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="J371" s="5" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="L371" s="5">
         <v>-31</v>
@@ -34414,10 +34394,10 @@
         <v>4800</v>
       </c>
       <c r="Q371" s="5" t="s">
+        <v>1213</v>
+      </c>
+      <c r="R371" s="10" t="s">
         <v>1215</v>
-      </c>
-      <c r="R371" s="10" t="s">
-        <v>1217</v>
       </c>
       <c r="W371" s="5" t="s">
         <v>597</v>
@@ -34455,10 +34435,10 @@
         <v>1</v>
       </c>
       <c r="G372" s="5" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="J372" s="5" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
       <c r="L372" s="5">
         <v>-31</v>
@@ -34476,7 +34456,7 @@
         <v>9800</v>
       </c>
       <c r="Q372" s="5" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="R372" s="10" t="s">
         <v>736</v>
@@ -34517,10 +34497,10 @@
         <v>1</v>
       </c>
       <c r="G373" s="5" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="J373" s="5" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
       <c r="L373" s="5">
         <v>-31</v>
@@ -34538,13 +34518,13 @@
         <v>19800</v>
       </c>
       <c r="Q373" s="5" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="R373" s="10" t="s">
         <v>737</v>
       </c>
       <c r="W373" s="5" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
       <c r="X373" s="5">
         <v>9999999</v>
@@ -34579,13 +34559,13 @@
         <v>1</v>
       </c>
       <c r="G374" s="5" t="s">
+        <v>1129</v>
+      </c>
+      <c r="I374" s="5" t="s">
         <v>1130</v>
       </c>
-      <c r="I374" s="5" t="s">
-        <v>1131</v>
-      </c>
       <c r="J374" s="5" t="s">
-        <v>1371</v>
+        <v>879</v>
       </c>
       <c r="L374" s="5">
         <v>-31</v>
@@ -34597,7 +34577,7 @@
         <v>0</v>
       </c>
       <c r="O374" s="5" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="P374" s="5">
         <v>600</v>
@@ -34606,7 +34586,7 @@
         <v>524</v>
       </c>
       <c r="R374" s="10" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="W374" s="5" t="s">
         <v>567</v>
@@ -34647,13 +34627,13 @@
         <v>1</v>
       </c>
       <c r="G375" s="5" t="s">
+        <v>1235</v>
+      </c>
+      <c r="I375" s="5" t="s">
+        <v>1236</v>
+      </c>
+      <c r="J375" s="5" t="s">
         <v>1237</v>
-      </c>
-      <c r="I375" s="5" t="s">
-        <v>1238</v>
-      </c>
-      <c r="J375" s="5" t="s">
-        <v>1239</v>
       </c>
       <c r="L375" s="5">
         <v>-31</v>
@@ -34665,19 +34645,19 @@
         <v>0</v>
       </c>
       <c r="O375" s="5" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
       <c r="P375" s="5">
         <v>300</v>
       </c>
       <c r="Q375" s="5" t="s">
+        <v>1239</v>
+      </c>
+      <c r="R375" s="10" t="s">
+        <v>1240</v>
+      </c>
+      <c r="W375" s="5" t="s">
         <v>1241</v>
-      </c>
-      <c r="R375" s="10" t="s">
-        <v>1242</v>
-      </c>
-      <c r="W375" s="5" t="s">
-        <v>1243</v>
       </c>
       <c r="X375" s="5">
         <v>9999999</v>
@@ -34715,13 +34695,13 @@
         <v>1</v>
       </c>
       <c r="G376" s="5" t="s">
+        <v>1243</v>
+      </c>
+      <c r="I376" s="5" t="s">
         <v>1245</v>
       </c>
-      <c r="I376" s="5" t="s">
-        <v>1247</v>
-      </c>
       <c r="J376" s="5" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="L376" s="5">
         <v>-31</v>
@@ -34733,19 +34713,19 @@
         <v>0</v>
       </c>
       <c r="O376" s="5" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
       <c r="P376" s="5">
         <v>0</v>
       </c>
       <c r="Q376" s="5" t="s">
+        <v>1248</v>
+      </c>
+      <c r="R376" s="10" t="s">
+        <v>1249</v>
+      </c>
+      <c r="W376" s="5" t="s">
         <v>1250</v>
-      </c>
-      <c r="R376" s="10" t="s">
-        <v>1251</v>
-      </c>
-      <c r="W376" s="5" t="s">
-        <v>1252</v>
       </c>
       <c r="X376" s="5">
         <v>9999999</v>
@@ -34783,10 +34763,10 @@
         <v>1</v>
       </c>
       <c r="G377" s="5" t="s">
+        <v>1243</v>
+      </c>
+      <c r="I377" s="5" t="s">
         <v>1245</v>
-      </c>
-      <c r="I377" s="5" t="s">
-        <v>1247</v>
       </c>
       <c r="J377" s="5" t="s">
         <v>971</v>
@@ -34801,19 +34781,19 @@
         <v>0</v>
       </c>
       <c r="O377" s="5" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
       <c r="P377" s="5">
         <v>300</v>
       </c>
       <c r="Q377" s="5" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="R377" s="10" t="s">
-        <v>1253</v>
+        <v>1251</v>
       </c>
       <c r="W377" s="5" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="X377" s="5">
         <v>9999999</v>
@@ -34851,13 +34831,13 @@
         <v>1</v>
       </c>
       <c r="G378" s="5" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="I378" s="5" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
       <c r="J378" s="5" t="s">
-        <v>1254</v>
+        <v>1252</v>
       </c>
       <c r="L378" s="5">
         <v>-31</v>
@@ -34875,13 +34855,13 @@
         <v>600</v>
       </c>
       <c r="Q378" s="5" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="R378" s="10" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
       <c r="W378" s="5" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="X378" s="5">
         <v>9999999</v>
@@ -34919,10 +34899,10 @@
         <v>1</v>
       </c>
       <c r="G379" s="5" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="I379" s="5" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
       <c r="J379" s="5" t="s">
         <v>882</v>
@@ -34937,19 +34917,19 @@
         <v>0</v>
       </c>
       <c r="O379" s="5" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
       <c r="P379" s="5">
         <v>1800</v>
       </c>
       <c r="Q379" s="5" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="R379" s="10" t="s">
-        <v>1268</v>
+        <v>1266</v>
       </c>
       <c r="W379" s="5" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="X379" s="5">
         <v>9999999</v>
@@ -34987,10 +34967,10 @@
         <v>1</v>
       </c>
       <c r="G380" s="5" t="s">
+        <v>1242</v>
+      </c>
+      <c r="I380" s="5" t="s">
         <v>1244</v>
-      </c>
-      <c r="I380" s="5" t="s">
-        <v>1246</v>
       </c>
       <c r="J380" s="5" t="s">
         <v>883</v>
@@ -35005,19 +34985,19 @@
         <v>0</v>
       </c>
       <c r="O380" s="5" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
       <c r="P380" s="5">
         <v>4800</v>
       </c>
       <c r="Q380" s="5" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="R380" s="10" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
       <c r="W380" s="5" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="X380" s="5">
         <v>9999999</v>
@@ -35055,13 +35035,13 @@
         <v>1</v>
       </c>
       <c r="G381" s="5" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="I381" s="5" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="J381" s="5" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="L381" s="5">
         <v>-31</v>
@@ -35079,10 +35059,10 @@
         <v>0</v>
       </c>
       <c r="Q381" s="5" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="R381" s="10" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="W381" s="5" t="s">
         <v>569</v>
@@ -35123,13 +35103,13 @@
         <v>1</v>
       </c>
       <c r="G382" s="5" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="I382" s="5" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="J382" s="5" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
       <c r="L382" s="5">
         <v>-31</v>
@@ -35147,13 +35127,13 @@
         <v>1800</v>
       </c>
       <c r="Q382" s="5" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="R382" s="10" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
       <c r="W382" s="5" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="X382" s="5">
         <v>9999999</v>
@@ -35191,13 +35171,13 @@
         <v>1</v>
       </c>
       <c r="G383" s="5" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="I383" s="5" t="s">
+        <v>1257</v>
+      </c>
+      <c r="J383" s="5" t="s">
         <v>1259</v>
-      </c>
-      <c r="J383" s="5" t="s">
-        <v>1261</v>
       </c>
       <c r="L383" s="5">
         <v>-31</v>
@@ -35215,10 +35195,10 @@
         <v>4800</v>
       </c>
       <c r="Q383" s="5" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="R383" s="10" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
       <c r="W383" s="5" t="s">
         <v>535</v>
@@ -35259,13 +35239,13 @@
         <v>1</v>
       </c>
       <c r="G384" s="5" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="I384" s="5" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="J384" s="5" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
       <c r="L384" s="5">
         <v>-31</v>
@@ -35277,13 +35257,13 @@
         <v>0</v>
       </c>
       <c r="O384" s="5" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
       <c r="P384" s="5">
         <v>9800</v>
       </c>
       <c r="Q384" s="5" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="R384" s="10" t="s">
         <v>736</v>
@@ -35327,13 +35307,13 @@
         <v>1</v>
       </c>
       <c r="G385" s="5" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="I385" s="5" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="J385" s="5" t="s">
-        <v>1264</v>
+        <v>1262</v>
       </c>
       <c r="L385" s="5">
         <v>-31</v>
@@ -35345,19 +35325,19 @@
         <v>0</v>
       </c>
       <c r="O385" s="5" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
       <c r="P385" s="5">
         <v>19800</v>
       </c>
       <c r="Q385" s="5" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="R385" s="10" t="s">
-        <v>1265</v>
+        <v>1263</v>
       </c>
       <c r="W385" s="5" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="X385" s="5">
         <v>9999999</v>
@@ -35395,14 +35375,14 @@
         <v>1</v>
       </c>
       <c r="G386" s="19" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
       <c r="H386" s="49"/>
       <c r="I386" s="19" t="s">
-        <v>1271</v>
+        <v>1269</v>
       </c>
       <c r="J386" s="19" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
       <c r="L386" s="19">
         <v>-31</v>
@@ -35420,10 +35400,10 @@
         <v>1800</v>
       </c>
       <c r="Q386" s="19" t="s">
-        <v>1273</v>
+        <v>1271</v>
       </c>
       <c r="R386" s="39" t="s">
-        <v>1274</v>
+        <v>1272</v>
       </c>
       <c r="W386" s="19" t="s">
         <v>535</v>
@@ -35432,10 +35412,10 @@
         <v>9999999</v>
       </c>
       <c r="Y386" s="49">
-        <v>1605571200</v>
+        <v>1608595200</v>
       </c>
       <c r="Z386" s="49">
-        <v>1606147199</v>
+        <v>1609171199</v>
       </c>
       <c r="AA386" s="19">
         <v>44</v>
@@ -35464,14 +35444,14 @@
         <v>1</v>
       </c>
       <c r="G387" s="19" t="s">
-        <v>1275</v>
+        <v>1273</v>
       </c>
       <c r="H387" s="49"/>
       <c r="I387" s="19" t="s">
-        <v>1276</v>
+        <v>1274</v>
       </c>
       <c r="J387" s="19" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="L387" s="19">
         <v>-31</v>
@@ -35483,16 +35463,16 @@
         <v>0</v>
       </c>
       <c r="O387" s="19" t="s">
-        <v>1278</v>
+        <v>1276</v>
       </c>
       <c r="P387" s="19">
         <v>3000</v>
       </c>
       <c r="Q387" s="19" t="s">
-        <v>1279</v>
+        <v>1277</v>
       </c>
       <c r="R387" s="39" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
       <c r="W387" s="19" t="s">
         <v>535</v>
@@ -35501,10 +35481,10 @@
         <v>9999999</v>
       </c>
       <c r="Y387" s="49">
-        <v>1605571200</v>
+        <v>1608595200</v>
       </c>
       <c r="Z387" s="49">
-        <v>1606147199</v>
+        <v>1609171199</v>
       </c>
       <c r="AA387" s="19">
         <v>44</v>
@@ -35533,14 +35513,14 @@
         <v>1</v>
       </c>
       <c r="G388" s="19" t="s">
-        <v>1281</v>
+        <v>1279</v>
       </c>
       <c r="H388" s="49"/>
       <c r="I388" s="19" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="J388" s="19" t="s">
-        <v>1283</v>
+        <v>1281</v>
       </c>
       <c r="L388" s="19">
         <v>-31</v>
@@ -35552,28 +35532,28 @@
         <v>0</v>
       </c>
       <c r="O388" s="19" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="P388" s="19">
         <v>4800</v>
       </c>
       <c r="Q388" s="19" t="s">
+        <v>1283</v>
+      </c>
+      <c r="R388" s="39" t="s">
+        <v>1284</v>
+      </c>
+      <c r="W388" s="19" t="s">
         <v>1285</v>
-      </c>
-      <c r="R388" s="39" t="s">
-        <v>1286</v>
-      </c>
-      <c r="W388" s="19" t="s">
-        <v>1287</v>
       </c>
       <c r="X388" s="19">
         <v>9999999</v>
       </c>
       <c r="Y388" s="49">
-        <v>1605571200</v>
+        <v>1608595200</v>
       </c>
       <c r="Z388" s="49">
-        <v>1606147199</v>
+        <v>1609171199</v>
       </c>
       <c r="AA388" s="19">
         <v>44</v>
@@ -35602,14 +35582,14 @@
         <v>1</v>
       </c>
       <c r="G389" s="19" t="s">
-        <v>1288</v>
+        <v>1286</v>
       </c>
       <c r="H389" s="65"/>
       <c r="I389" s="19" t="s">
-        <v>1289</v>
+        <v>1287</v>
       </c>
       <c r="J389" s="19" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
       <c r="L389" s="19">
         <v>-31</v>
@@ -35621,16 +35601,16 @@
         <v>0</v>
       </c>
       <c r="O389" s="19" t="s">
-        <v>1291</v>
+        <v>1289</v>
       </c>
       <c r="P389" s="19">
         <v>4800</v>
       </c>
       <c r="Q389" s="19" t="s">
-        <v>1292</v>
+        <v>1290</v>
       </c>
       <c r="R389" s="39" t="s">
-        <v>1286</v>
+        <v>1284</v>
       </c>
       <c r="W389" s="19" t="s">
         <v>535</v>
@@ -35638,11 +35618,11 @@
       <c r="X389" s="19">
         <v>9999999</v>
       </c>
-      <c r="Y389" s="65">
-        <v>1605571200</v>
-      </c>
-      <c r="Z389" s="65">
-        <v>1606147199</v>
+      <c r="Y389" s="49">
+        <v>1608595200</v>
+      </c>
+      <c r="Z389" s="49">
+        <v>1609171199</v>
       </c>
       <c r="AA389" s="19">
         <v>45</v>
@@ -35671,14 +35651,14 @@
         <v>1</v>
       </c>
       <c r="G390" s="19" t="s">
-        <v>1275</v>
+        <v>1273</v>
       </c>
       <c r="H390" s="65"/>
       <c r="I390" s="19" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="J390" s="19" t="s">
-        <v>1293</v>
+        <v>1291</v>
       </c>
       <c r="L390" s="19">
         <v>-31</v>
@@ -35696,10 +35676,10 @@
         <v>9800</v>
       </c>
       <c r="Q390" s="19" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
       <c r="R390" s="39" t="s">
-        <v>1295</v>
+        <v>1293</v>
       </c>
       <c r="W390" s="19" t="s">
         <v>535</v>
@@ -35707,11 +35687,11 @@
       <c r="X390" s="19">
         <v>9999999</v>
       </c>
-      <c r="Y390" s="65">
-        <v>1605571200</v>
-      </c>
-      <c r="Z390" s="65">
-        <v>1606147199</v>
+      <c r="Y390" s="49">
+        <v>1608595200</v>
+      </c>
+      <c r="Z390" s="49">
+        <v>1609171199</v>
       </c>
       <c r="AA390" s="19">
         <v>45</v>
@@ -35740,14 +35720,14 @@
         <v>1</v>
       </c>
       <c r="G391" s="19" t="s">
-        <v>1296</v>
+        <v>1294</v>
       </c>
       <c r="H391" s="65"/>
       <c r="I391" s="19" t="s">
-        <v>1289</v>
+        <v>1287</v>
       </c>
       <c r="J391" s="19" t="s">
-        <v>1297</v>
+        <v>1295</v>
       </c>
       <c r="L391" s="19">
         <v>-31</v>
@@ -35765,10 +35745,10 @@
         <v>19800</v>
       </c>
       <c r="Q391" s="19" t="s">
-        <v>1298</v>
+        <v>1296</v>
       </c>
       <c r="R391" s="39" t="s">
-        <v>1299</v>
+        <v>1297</v>
       </c>
       <c r="W391" s="19" t="s">
         <v>535</v>
@@ -35776,11 +35756,11 @@
       <c r="X391" s="19">
         <v>9999999</v>
       </c>
-      <c r="Y391" s="65">
-        <v>1605571200</v>
-      </c>
-      <c r="Z391" s="65">
-        <v>1606147199</v>
+      <c r="Y391" s="49">
+        <v>1608595200</v>
+      </c>
+      <c r="Z391" s="49">
+        <v>1609171199</v>
       </c>
       <c r="AA391" s="19">
         <v>45</v>
@@ -35809,14 +35789,14 @@
         <v>1</v>
       </c>
       <c r="G392" s="19" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
       <c r="H392" s="49"/>
       <c r="I392" s="19" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="J392" s="19" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
       <c r="L392" s="19">
         <v>-31</v>
@@ -35834,10 +35814,10 @@
         <v>9800</v>
       </c>
       <c r="Q392" s="19" t="s">
-        <v>1302</v>
+        <v>1300</v>
       </c>
       <c r="R392" s="39" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
       <c r="W392" s="19" t="s">
         <v>535</v>
@@ -35846,10 +35826,10 @@
         <v>9999999</v>
       </c>
       <c r="Y392" s="49">
-        <v>1605571200</v>
+        <v>1608595200</v>
       </c>
       <c r="Z392" s="49">
-        <v>1606147199</v>
+        <v>1609171199</v>
       </c>
       <c r="AA392" s="19">
         <v>46</v>
@@ -35878,14 +35858,14 @@
         <v>1</v>
       </c>
       <c r="G393" s="19" t="s">
-        <v>1275</v>
+        <v>1273</v>
       </c>
       <c r="H393" s="49"/>
       <c r="I393" s="19" t="s">
-        <v>1304</v>
+        <v>1302</v>
       </c>
       <c r="J393" s="19" t="s">
-        <v>1305</v>
+        <v>1303</v>
       </c>
       <c r="L393" s="19">
         <v>-31</v>
@@ -35903,10 +35883,10 @@
         <v>19800</v>
       </c>
       <c r="Q393" s="19" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="R393" s="39" t="s">
-        <v>1299</v>
+        <v>1297</v>
       </c>
       <c r="W393" s="19" t="s">
         <v>535</v>
@@ -35915,10 +35895,10 @@
         <v>9999999</v>
       </c>
       <c r="Y393" s="49">
-        <v>1605571200</v>
+        <v>1608595200</v>
       </c>
       <c r="Z393" s="49">
-        <v>1606147199</v>
+        <v>1609171199</v>
       </c>
       <c r="AA393" s="19">
         <v>46</v>
@@ -35947,14 +35927,14 @@
         <v>1</v>
       </c>
       <c r="G394" s="19" t="s">
-        <v>1281</v>
+        <v>1279</v>
       </c>
       <c r="H394" s="49"/>
       <c r="I394" s="19" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="J394" s="19" t="s">
-        <v>1308</v>
+        <v>1306</v>
       </c>
       <c r="L394" s="19">
         <v>-31</v>
@@ -35966,16 +35946,16 @@
         <v>0</v>
       </c>
       <c r="O394" s="19" t="s">
-        <v>1309</v>
+        <v>1307</v>
       </c>
       <c r="P394" s="19">
         <v>49800</v>
       </c>
       <c r="Q394" s="19" t="s">
-        <v>1310</v>
+        <v>1308</v>
       </c>
       <c r="R394" s="39" t="s">
-        <v>1311</v>
+        <v>1309</v>
       </c>
       <c r="W394" s="19" t="s">
         <v>535</v>
@@ -35984,10 +35964,10 @@
         <v>9999999</v>
       </c>
       <c r="Y394" s="49">
-        <v>1605571200</v>
+        <v>1608595200</v>
       </c>
       <c r="Z394" s="49">
-        <v>1606147199</v>
+        <v>1609171199</v>
       </c>
       <c r="AA394" s="19">
         <v>46</v>
@@ -36016,10 +35996,10 @@
         <v>1</v>
       </c>
       <c r="G395" s="5" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
       <c r="J395" s="5" t="s">
-        <v>1321</v>
+        <v>1319</v>
       </c>
       <c r="L395" s="5">
         <v>-31</v>
@@ -36031,16 +36011,16 @@
         <v>0</v>
       </c>
       <c r="O395" s="5" t="s">
-        <v>1322</v>
+        <v>1320</v>
       </c>
       <c r="P395" s="5">
         <v>600</v>
       </c>
       <c r="Q395" s="5" t="s">
-        <v>1324</v>
+        <v>1322</v>
       </c>
       <c r="R395" s="10" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
       <c r="W395" s="5" t="s">
         <v>528</v>
@@ -36078,10 +36058,10 @@
         <v>1</v>
       </c>
       <c r="G396" s="5" t="s">
-        <v>1326</v>
+        <v>1324</v>
       </c>
       <c r="J396" s="5" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="L396" s="5">
         <v>-31</v>
@@ -36093,16 +36073,16 @@
         <v>0</v>
       </c>
       <c r="O396" s="5" t="s">
-        <v>1322</v>
+        <v>1320</v>
       </c>
       <c r="P396" s="5">
         <v>2000</v>
       </c>
       <c r="Q396" s="5" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="R396" s="10" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
       <c r="W396" s="5" t="s">
         <v>528</v>
@@ -36143,7 +36123,7 @@
         <v>289</v>
       </c>
       <c r="J397" s="5" t="s">
-        <v>1329</v>
+        <v>1327</v>
       </c>
       <c r="L397" s="5">
         <v>-31</v>
@@ -36161,10 +36141,10 @@
         <v>4800</v>
       </c>
       <c r="Q397" s="5" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="R397" s="10" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
       <c r="W397" s="5" t="s">
         <v>528</v>
@@ -36205,7 +36185,7 @@
         <v>292</v>
       </c>
       <c r="J398" s="5" t="s">
-        <v>1331</v>
+        <v>1329</v>
       </c>
       <c r="L398" s="5">
         <v>-31</v>
@@ -36223,10 +36203,10 @@
         <v>9800</v>
       </c>
       <c r="Q398" s="5" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="R398" s="10" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
       <c r="W398" s="5" t="s">
         <v>528</v>
@@ -36264,10 +36244,10 @@
         <v>1</v>
       </c>
       <c r="G399" s="5" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
       <c r="J399" s="5" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
       <c r="L399" s="5">
         <v>-31</v>
@@ -36279,16 +36259,16 @@
         <v>0</v>
       </c>
       <c r="O399" s="5" t="s">
-        <v>1322</v>
+        <v>1320</v>
       </c>
       <c r="P399" s="5">
         <v>19800</v>
       </c>
       <c r="Q399" s="5" t="s">
-        <v>1324</v>
+        <v>1322</v>
       </c>
       <c r="R399" s="10" t="s">
-        <v>1335</v>
+        <v>1333</v>
       </c>
       <c r="W399" s="5" t="s">
         <v>528</v>
@@ -36326,10 +36306,10 @@
         <v>1</v>
       </c>
       <c r="G400" s="5" t="s">
-        <v>1336</v>
+        <v>1334</v>
       </c>
       <c r="J400" s="5" t="s">
-        <v>1337</v>
+        <v>1335</v>
       </c>
       <c r="L400" s="5">
         <v>-31</v>
@@ -36341,16 +36321,16 @@
         <v>0</v>
       </c>
       <c r="O400" s="5" t="s">
-        <v>1322</v>
+        <v>1320</v>
       </c>
       <c r="P400" s="5">
         <v>49800</v>
       </c>
       <c r="Q400" s="5" t="s">
-        <v>1324</v>
+        <v>1322</v>
       </c>
       <c r="R400" s="10" t="s">
-        <v>1338</v>
+        <v>1336</v>
       </c>
       <c r="W400" s="5" t="s">
         <v>528</v>
@@ -36388,10 +36368,10 @@
         <v>1</v>
       </c>
       <c r="G401" s="5" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="J401" s="5" t="s">
-        <v>1340</v>
+        <v>1338</v>
       </c>
       <c r="L401" s="5">
         <v>-31</v>
@@ -36409,13 +36389,13 @@
         <v>1800</v>
       </c>
       <c r="Q401" s="5" t="s">
-        <v>1342</v>
+        <v>1340</v>
       </c>
       <c r="R401" s="5" t="s">
-        <v>1343</v>
+        <v>1341</v>
       </c>
       <c r="W401" s="5" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="X401" s="5">
         <v>99999999</v>
@@ -36453,10 +36433,10 @@
         <v>1</v>
       </c>
       <c r="G402" s="5" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="J402" s="5" t="s">
-        <v>1345</v>
+        <v>1343</v>
       </c>
       <c r="L402" s="5">
         <v>-31</v>
@@ -36468,19 +36448,19 @@
         <v>0</v>
       </c>
       <c r="O402" s="5" t="s">
-        <v>1346</v>
+        <v>1344</v>
       </c>
       <c r="P402" s="5">
         <v>4800</v>
       </c>
       <c r="Q402" s="5" t="s">
-        <v>1341</v>
+        <v>1339</v>
       </c>
       <c r="R402" s="5" t="s">
-        <v>1347</v>
+        <v>1345</v>
       </c>
       <c r="W402" s="5" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="X402" s="5">
         <v>99999999</v>
@@ -36518,10 +36498,10 @@
         <v>1</v>
       </c>
       <c r="G403" s="5" t="s">
-        <v>1348</v>
+        <v>1346</v>
       </c>
       <c r="J403" s="5" t="s">
-        <v>1349</v>
+        <v>1347</v>
       </c>
       <c r="L403" s="5">
         <v>-31</v>
@@ -36539,13 +36519,13 @@
         <v>9800</v>
       </c>
       <c r="Q403" s="5" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
       <c r="R403" s="5" t="s">
-        <v>1352</v>
+        <v>1350</v>
       </c>
       <c r="W403" s="5" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="X403" s="5">
         <v>99999999</v>
@@ -36583,10 +36563,10 @@
         <v>1</v>
       </c>
       <c r="G404" s="5" t="s">
-        <v>1353</v>
+        <v>1351</v>
       </c>
       <c r="J404" s="5" t="s">
-        <v>1354</v>
+        <v>1352</v>
       </c>
       <c r="L404" s="5">
         <v>-31</v>
@@ -36604,13 +36584,13 @@
         <v>19800</v>
       </c>
       <c r="Q404" s="5" t="s">
-        <v>1350</v>
+        <v>1348</v>
       </c>
       <c r="R404" s="5" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="W404" s="5" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="X404" s="5">
         <v>99999999</v>
@@ -36648,10 +36628,10 @@
         <v>1</v>
       </c>
       <c r="G405" s="5" t="s">
-        <v>1356</v>
+        <v>1354</v>
       </c>
       <c r="J405" s="5" t="s">
-        <v>1357</v>
+        <v>1355</v>
       </c>
       <c r="L405" s="5">
         <v>-31</v>
@@ -36669,13 +36649,13 @@
         <v>29800</v>
       </c>
       <c r="Q405" s="5" t="s">
-        <v>1358</v>
+        <v>1356</v>
       </c>
       <c r="R405" s="5" t="s">
-        <v>1359</v>
+        <v>1357</v>
       </c>
       <c r="W405" s="5" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="X405" s="5">
         <v>99999999</v>
@@ -36713,10 +36693,10 @@
         <v>1</v>
       </c>
       <c r="G406" s="5" t="s">
-        <v>1360</v>
+        <v>1358</v>
       </c>
       <c r="J406" s="5" t="s">
-        <v>1361</v>
+        <v>1359</v>
       </c>
       <c r="L406" s="5">
         <v>-31</v>
@@ -36734,13 +36714,13 @@
         <v>49800</v>
       </c>
       <c r="Q406" s="5" t="s">
+        <v>1361</v>
+      </c>
+      <c r="R406" s="5" t="s">
+        <v>1362</v>
+      </c>
+      <c r="W406" s="5" t="s">
         <v>1363</v>
-      </c>
-      <c r="R406" s="5" t="s">
-        <v>1364</v>
-      </c>
-      <c r="W406" s="5" t="s">
-        <v>1365</v>
       </c>
       <c r="X406" s="5">
         <v>99999999</v>
@@ -36778,10 +36758,10 @@
         <v>1</v>
       </c>
       <c r="G407" s="5" t="s">
-        <v>1366</v>
+        <v>1364</v>
       </c>
       <c r="J407" s="5" t="s">
-        <v>1367</v>
+        <v>1365</v>
       </c>
       <c r="L407" s="5">
         <v>-31</v>
@@ -36793,19 +36773,19 @@
         <v>0</v>
       </c>
       <c r="O407" s="5" t="s">
-        <v>1368</v>
+        <v>1366</v>
       </c>
       <c r="P407" s="5">
         <v>99800</v>
       </c>
       <c r="Q407" s="5" t="s">
-        <v>1362</v>
+        <v>1360</v>
       </c>
       <c r="R407" s="5" t="s">
-        <v>1369</v>
+        <v>1367</v>
       </c>
       <c r="W407" s="5" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="X407" s="5">
         <v>99999999</v>
@@ -36843,11 +36823,11 @@
         <v>1</v>
       </c>
       <c r="G408" s="49" t="s">
-        <v>1392</v>
+        <v>1389</v>
       </c>
       <c r="H408" s="5"/>
       <c r="J408" s="49" t="s">
-        <v>1380</v>
+        <v>1377</v>
       </c>
       <c r="L408" s="49">
         <v>-31</v>
@@ -36865,10 +36845,10 @@
         <v>600</v>
       </c>
       <c r="Q408" s="49" t="s">
-        <v>1393</v>
+        <v>1390</v>
       </c>
       <c r="R408" s="50" t="s">
-        <v>1394</v>
+        <v>1391</v>
       </c>
       <c r="W408" s="49" t="s">
         <v>567</v>
@@ -36909,11 +36889,11 @@
         <v>1</v>
       </c>
       <c r="G409" s="49" t="s">
-        <v>1382</v>
+        <v>1379</v>
       </c>
       <c r="H409" s="5"/>
       <c r="J409" s="49" t="s">
-        <v>1395</v>
+        <v>1392</v>
       </c>
       <c r="L409" s="49">
         <v>-31</v>
@@ -36925,19 +36905,19 @@
         <v>0</v>
       </c>
       <c r="O409" s="49" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="P409" s="49">
         <v>2000</v>
       </c>
       <c r="Q409" s="49" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
       <c r="R409" s="50" t="s">
-        <v>1397</v>
+        <v>1394</v>
       </c>
       <c r="W409" s="49" t="s">
-        <v>1398</v>
+        <v>1395</v>
       </c>
       <c r="X409" s="49">
         <v>99999999</v>
@@ -36975,11 +36955,11 @@
         <v>1</v>
       </c>
       <c r="G410" s="49" t="s">
-        <v>1399</v>
+        <v>1396</v>
       </c>
       <c r="H410" s="5"/>
       <c r="J410" s="49" t="s">
-        <v>1383</v>
+        <v>1380</v>
       </c>
       <c r="L410" s="49">
         <v>-31</v>
@@ -36997,10 +36977,10 @@
         <v>4800</v>
       </c>
       <c r="Q410" s="49" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
       <c r="R410" s="50" t="s">
-        <v>1400</v>
+        <v>1397</v>
       </c>
       <c r="W410" s="49" t="s">
         <v>567</v>
@@ -37041,11 +37021,11 @@
         <v>1</v>
       </c>
       <c r="G411" s="49" t="s">
-        <v>1384</v>
+        <v>1381</v>
       </c>
       <c r="H411" s="5"/>
       <c r="J411" s="49" t="s">
-        <v>1385</v>
+        <v>1382</v>
       </c>
       <c r="L411" s="49">
         <v>-31</v>
@@ -37063,10 +37043,10 @@
         <v>9800</v>
       </c>
       <c r="Q411" s="49" t="s">
-        <v>1401</v>
+        <v>1398</v>
       </c>
       <c r="R411" s="50" t="s">
-        <v>1402</v>
+        <v>1399</v>
       </c>
       <c r="W411" s="49" t="s">
         <v>567</v>
@@ -37107,11 +37087,11 @@
         <v>1</v>
       </c>
       <c r="G412" s="49" t="s">
-        <v>1403</v>
+        <v>1400</v>
       </c>
       <c r="H412" s="5"/>
       <c r="J412" s="49" t="s">
-        <v>1404</v>
+        <v>1401</v>
       </c>
       <c r="L412" s="49">
         <v>-31</v>
@@ -37129,13 +37109,13 @@
         <v>19800</v>
       </c>
       <c r="Q412" s="49" t="s">
-        <v>1393</v>
+        <v>1390</v>
       </c>
       <c r="R412" s="50" t="s">
-        <v>1405</v>
+        <v>1402</v>
       </c>
       <c r="W412" s="49" t="s">
-        <v>1406</v>
+        <v>1403</v>
       </c>
       <c r="X412" s="49">
         <v>99999999</v>
@@ -37173,11 +37153,11 @@
         <v>1</v>
       </c>
       <c r="G413" s="49" t="s">
-        <v>1407</v>
+        <v>1404</v>
       </c>
       <c r="H413" s="5"/>
       <c r="J413" s="49" t="s">
-        <v>1408</v>
+        <v>1405</v>
       </c>
       <c r="L413" s="49">
         <v>-31</v>
@@ -37189,19 +37169,19 @@
         <v>0</v>
       </c>
       <c r="O413" s="49" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="P413" s="49">
         <v>49800</v>
       </c>
       <c r="Q413" s="49" t="s">
-        <v>1393</v>
+        <v>1390</v>
       </c>
       <c r="R413" s="50" t="s">
-        <v>1409</v>
+        <v>1406</v>
       </c>
       <c r="W413" s="49" t="s">
-        <v>1406</v>
+        <v>1403</v>
       </c>
       <c r="X413" s="49">
         <v>99999999</v>
@@ -37242,10 +37222,10 @@
         <v>0</v>
       </c>
       <c r="G414" s="69" t="s">
-        <v>1386</v>
+        <v>1383</v>
       </c>
       <c r="H414" s="69" t="s">
-        <v>1807</v>
+        <v>1801</v>
       </c>
       <c r="L414" s="69">
         <v>-4</v>
@@ -37266,7 +37246,7 @@
         <v>78</v>
       </c>
       <c r="R414" s="76" t="s">
-        <v>1387</v>
+        <v>1384</v>
       </c>
       <c r="W414" s="69" t="s">
         <v>525</v>
@@ -37298,13 +37278,13 @@
         <v>1</v>
       </c>
       <c r="G415" s="6" t="s">
-        <v>1416</v>
+        <v>1413</v>
       </c>
       <c r="I415" s="6" t="s">
-        <v>1417</v>
+        <v>1414</v>
       </c>
       <c r="J415" s="6" t="s">
-        <v>1418</v>
+        <v>1874</v>
       </c>
       <c r="L415" s="6">
         <v>-31</v>
@@ -37322,13 +37302,13 @@
         <v>600</v>
       </c>
       <c r="Q415" s="5" t="s">
-        <v>1419</v>
+        <v>1415</v>
       </c>
       <c r="R415" s="52" t="s">
-        <v>1420</v>
+        <v>1416</v>
       </c>
       <c r="W415" s="6" t="s">
-        <v>1421</v>
+        <v>1417</v>
       </c>
       <c r="X415" s="14" t="s">
         <v>109</v>
@@ -37366,13 +37346,13 @@
         <v>1</v>
       </c>
       <c r="G416" s="6" t="s">
-        <v>1422</v>
+        <v>1418</v>
       </c>
       <c r="I416" s="6" t="s">
-        <v>1423</v>
+        <v>1419</v>
       </c>
       <c r="J416" s="6" t="s">
-        <v>1424</v>
+        <v>1874</v>
       </c>
       <c r="L416" s="6">
         <v>-31</v>
@@ -37390,13 +37370,13 @@
         <v>1800</v>
       </c>
       <c r="Q416" s="5" t="s">
-        <v>1425</v>
+        <v>1420</v>
       </c>
       <c r="R416" s="52" t="s">
-        <v>1426</v>
+        <v>1421</v>
       </c>
       <c r="W416" s="6" t="s">
-        <v>1421</v>
+        <v>1417</v>
       </c>
       <c r="X416" s="14" t="s">
         <v>109</v>
@@ -37434,13 +37414,13 @@
         <v>1</v>
       </c>
       <c r="G417" s="6" t="s">
-        <v>1427</v>
+        <v>1422</v>
       </c>
       <c r="I417" s="6" t="s">
-        <v>1428</v>
+        <v>1423</v>
       </c>
       <c r="J417" s="6" t="s">
-        <v>1429</v>
+        <v>1874</v>
       </c>
       <c r="L417" s="6">
         <v>-31</v>
@@ -37458,13 +37438,13 @@
         <v>4800</v>
       </c>
       <c r="Q417" s="5" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="R417" s="52" t="s">
-        <v>1426</v>
+        <v>1421</v>
       </c>
       <c r="W417" s="6" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="X417" s="14" t="s">
         <v>109</v>
@@ -37502,13 +37482,13 @@
         <v>1</v>
       </c>
       <c r="G418" s="6" t="s">
-        <v>1430</v>
+        <v>1424</v>
       </c>
       <c r="I418" s="6" t="s">
-        <v>1431</v>
+        <v>1425</v>
       </c>
       <c r="J418" s="6" t="s">
-        <v>1418</v>
+        <v>1874</v>
       </c>
       <c r="L418" s="6">
         <v>-31</v>
@@ -37526,13 +37506,13 @@
         <v>9800</v>
       </c>
       <c r="Q418" s="5" t="s">
+        <v>1107</v>
+      </c>
+      <c r="R418" s="52" t="s">
+        <v>1416</v>
+      </c>
+      <c r="W418" s="6" t="s">
         <v>1108</v>
-      </c>
-      <c r="R418" s="52" t="s">
-        <v>1420</v>
-      </c>
-      <c r="W418" s="6" t="s">
-        <v>1109</v>
       </c>
       <c r="X418" s="14" t="s">
         <v>109</v>
@@ -37570,13 +37550,13 @@
         <v>1</v>
       </c>
       <c r="G419" s="6" t="s">
-        <v>1432</v>
+        <v>1426</v>
       </c>
       <c r="I419" s="6" t="s">
-        <v>1433</v>
+        <v>1427</v>
       </c>
       <c r="J419" s="6" t="s">
-        <v>1429</v>
+        <v>1874</v>
       </c>
       <c r="L419" s="6">
         <v>-31</v>
@@ -37594,13 +37574,13 @@
         <v>19800</v>
       </c>
       <c r="Q419" s="5" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="R419" s="52" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="W419" s="6" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="X419" s="14" t="s">
         <v>109</v>
@@ -37638,13 +37618,13 @@
         <v>1</v>
       </c>
       <c r="G420" s="6" t="s">
-        <v>1434</v>
+        <v>1428</v>
       </c>
       <c r="I420" s="6" t="s">
-        <v>1433</v>
+        <v>1427</v>
       </c>
       <c r="J420" s="6" t="s">
-        <v>1424</v>
+        <v>1874</v>
       </c>
       <c r="L420" s="6">
         <v>-31</v>
@@ -37662,13 +37642,13 @@
         <v>49800</v>
       </c>
       <c r="Q420" s="5" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="R420" s="52" t="s">
-        <v>1420</v>
+        <v>1416</v>
       </c>
       <c r="W420" s="6" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="X420" s="14" t="s">
         <v>109</v>
@@ -37706,10 +37686,10 @@
         <v>1</v>
       </c>
       <c r="G421" s="19" t="s">
-        <v>1435</v>
+        <v>1429</v>
       </c>
       <c r="J421" s="19" t="s">
-        <v>1436</v>
+        <v>1430</v>
       </c>
       <c r="L421" s="19">
         <v>-31</v>
@@ -37721,19 +37701,19 @@
         <v>0</v>
       </c>
       <c r="O421" s="19" t="s">
-        <v>1437</v>
+        <v>1431</v>
       </c>
       <c r="P421" s="19">
         <v>1000</v>
       </c>
       <c r="Q421" s="19" t="s">
-        <v>1438</v>
+        <v>1432</v>
       </c>
       <c r="R421" s="39" t="s">
-        <v>1439</v>
+        <v>1433</v>
       </c>
       <c r="W421" s="19" t="s">
-        <v>1440</v>
+        <v>1434</v>
       </c>
       <c r="X421" s="19">
         <v>9999999</v>
@@ -37745,10 +37725,10 @@
         <v>2552233600</v>
       </c>
       <c r="AB421" s="19" t="s">
-        <v>1441</v>
+        <v>1435</v>
       </c>
       <c r="AC421" s="19" t="s">
-        <v>1442</v>
+        <v>1436</v>
       </c>
       <c r="AH421" s="19">
         <v>1</v>
@@ -37774,14 +37754,14 @@
         <v>1</v>
       </c>
       <c r="G422" s="53" t="s">
-        <v>1461</v>
+        <v>1455</v>
       </c>
       <c r="H422" s="6"/>
       <c r="I422" s="53" t="s">
-        <v>1462</v>
+        <v>1456</v>
       </c>
       <c r="J422" s="53" t="s">
-        <v>1463</v>
+        <v>1457</v>
       </c>
       <c r="L422" s="53">
         <v>-31</v>
@@ -37799,10 +37779,10 @@
         <v>2000</v>
       </c>
       <c r="Q422" s="53" t="s">
-        <v>1464</v>
+        <v>1458</v>
       </c>
       <c r="R422" s="54" t="s">
-        <v>1465</v>
+        <v>1459</v>
       </c>
       <c r="W422" s="53" t="s">
         <v>569</v>
@@ -37843,14 +37823,14 @@
         <v>1</v>
       </c>
       <c r="G423" s="53" t="s">
-        <v>1443</v>
+        <v>1437</v>
       </c>
       <c r="H423" s="6"/>
       <c r="I423" s="53" t="s">
-        <v>1462</v>
+        <v>1456</v>
       </c>
       <c r="J423" s="53" t="s">
-        <v>1466</v>
+        <v>1460</v>
       </c>
       <c r="L423" s="53">
         <v>-31</v>
@@ -37868,13 +37848,13 @@
         <v>5800</v>
       </c>
       <c r="Q423" s="53" t="s">
-        <v>1467</v>
+        <v>1461</v>
       </c>
       <c r="R423" s="54" t="s">
-        <v>1468</v>
+        <v>1462</v>
       </c>
       <c r="W423" s="53" t="s">
-        <v>1469</v>
+        <v>1463</v>
       </c>
       <c r="X423" s="53">
         <v>99999999</v>
@@ -37912,14 +37892,14 @@
         <v>1</v>
       </c>
       <c r="G424" s="53" t="s">
-        <v>1470</v>
+        <v>1464</v>
       </c>
       <c r="H424" s="6"/>
       <c r="I424" s="53" t="s">
-        <v>1471</v>
+        <v>1465</v>
       </c>
       <c r="J424" s="53" t="s">
-        <v>1472</v>
+        <v>1466</v>
       </c>
       <c r="L424" s="53">
         <v>-31</v>
@@ -37937,13 +37917,13 @@
         <v>12800</v>
       </c>
       <c r="Q424" s="53" t="s">
-        <v>1473</v>
+        <v>1467</v>
       </c>
       <c r="R424" s="54" t="s">
-        <v>1474</v>
+        <v>1468</v>
       </c>
       <c r="W424" s="53" t="s">
-        <v>1469</v>
+        <v>1463</v>
       </c>
       <c r="X424" s="53">
         <v>99999999</v>
@@ -37981,10 +37961,10 @@
         <v>1</v>
       </c>
       <c r="G425" s="6" t="s">
-        <v>1445</v>
+        <v>1439</v>
       </c>
       <c r="J425" s="6" t="s">
-        <v>1446</v>
+        <v>1440</v>
       </c>
       <c r="L425" s="6">
         <v>-31</v>
@@ -38002,13 +37982,13 @@
         <v>49800</v>
       </c>
       <c r="Q425" s="6" t="s">
-        <v>1447</v>
+        <v>1441</v>
       </c>
       <c r="R425" s="52" t="s">
-        <v>1448</v>
+        <v>1442</v>
       </c>
       <c r="W425" s="6" t="s">
-        <v>1444</v>
+        <v>1438</v>
       </c>
       <c r="X425" s="6">
         <v>9999999</v>
@@ -38037,10 +38017,10 @@
         <v>1</v>
       </c>
       <c r="G426" s="6" t="s">
-        <v>1449</v>
+        <v>1443</v>
       </c>
       <c r="J426" s="6" t="s">
-        <v>1450</v>
+        <v>1444</v>
       </c>
       <c r="L426" s="6">
         <v>-31</v>
@@ -38058,13 +38038,13 @@
         <v>19800</v>
       </c>
       <c r="Q426" s="6" t="s">
-        <v>1451</v>
+        <v>1445</v>
       </c>
       <c r="R426" s="52" t="s">
-        <v>1448</v>
+        <v>1442</v>
       </c>
       <c r="W426" s="6" t="s">
-        <v>1444</v>
+        <v>1438</v>
       </c>
       <c r="X426" s="6">
         <v>9999999</v>
@@ -38093,10 +38073,10 @@
         <v>1</v>
       </c>
       <c r="G427" s="6" t="s">
-        <v>1452</v>
+        <v>1446</v>
       </c>
       <c r="J427" s="6" t="s">
-        <v>1453</v>
+        <v>1447</v>
       </c>
       <c r="L427" s="6">
         <v>-31</v>
@@ -38114,13 +38094,13 @@
         <v>9800</v>
       </c>
       <c r="Q427" s="6" t="s">
-        <v>1454</v>
+        <v>1448</v>
       </c>
       <c r="R427" s="52" t="s">
         <v>656</v>
       </c>
       <c r="W427" s="6" t="s">
-        <v>1444</v>
+        <v>1438</v>
       </c>
       <c r="X427" s="6">
         <v>9999999</v>
@@ -38149,10 +38129,10 @@
         <v>1</v>
       </c>
       <c r="G428" s="6" t="s">
-        <v>1455</v>
+        <v>1449</v>
       </c>
       <c r="J428" s="6" t="s">
-        <v>1456</v>
+        <v>1450</v>
       </c>
       <c r="L428" s="6">
         <v>-31</v>
@@ -38170,13 +38150,13 @@
         <v>9800</v>
       </c>
       <c r="Q428" s="6" t="s">
-        <v>1457</v>
+        <v>1451</v>
       </c>
       <c r="R428" s="52" t="s">
-        <v>1448</v>
+        <v>1442</v>
       </c>
       <c r="W428" s="6" t="s">
-        <v>1440</v>
+        <v>1434</v>
       </c>
       <c r="X428" s="6">
         <v>9999999</v>
@@ -38205,10 +38185,10 @@
         <v>1</v>
       </c>
       <c r="G429" s="6" t="s">
-        <v>1458</v>
+        <v>1452</v>
       </c>
       <c r="J429" s="6" t="s">
-        <v>1459</v>
+        <v>1453</v>
       </c>
       <c r="L429" s="6">
         <v>-31</v>
@@ -38226,13 +38206,13 @@
         <v>4800</v>
       </c>
       <c r="Q429" s="6" t="s">
-        <v>1460</v>
+        <v>1454</v>
       </c>
       <c r="R429" s="52" t="s">
         <v>656</v>
       </c>
       <c r="W429" s="6" t="s">
-        <v>1440</v>
+        <v>1434</v>
       </c>
       <c r="X429" s="6">
         <v>9999999</v>
@@ -38261,13 +38241,13 @@
         <v>1</v>
       </c>
       <c r="G430" s="43" t="s">
-        <v>1784</v>
+        <v>1778</v>
       </c>
       <c r="I430" s="43" t="s">
-        <v>1785</v>
+        <v>1779</v>
       </c>
       <c r="J430" s="43" t="s">
-        <v>1786</v>
+        <v>1780</v>
       </c>
       <c r="L430" s="43">
         <v>-28</v>
@@ -38285,13 +38265,13 @@
         <v>100</v>
       </c>
       <c r="Q430" s="43" t="s">
-        <v>1410</v>
+        <v>1407</v>
       </c>
       <c r="R430" s="66" t="s">
-        <v>1787</v>
+        <v>1781</v>
       </c>
       <c r="W430" s="43" t="s">
-        <v>1788</v>
+        <v>1782</v>
       </c>
       <c r="X430" s="43">
         <v>9999999</v>
@@ -38329,13 +38309,13 @@
         <v>1</v>
       </c>
       <c r="G431" s="43" t="s">
+        <v>1778</v>
+      </c>
+      <c r="I431" s="43" t="s">
+        <v>1783</v>
+      </c>
+      <c r="J431" s="43" t="s">
         <v>1784</v>
-      </c>
-      <c r="I431" s="43" t="s">
-        <v>1789</v>
-      </c>
-      <c r="J431" s="43" t="s">
-        <v>1790</v>
       </c>
       <c r="L431" s="43">
         <v>-28</v>
@@ -38353,10 +38333,10 @@
         <v>300</v>
       </c>
       <c r="Q431" s="43" t="s">
-        <v>1410</v>
+        <v>1407</v>
       </c>
       <c r="R431" s="66" t="s">
-        <v>1791</v>
+        <v>1785</v>
       </c>
       <c r="W431" s="43" t="s">
         <v>528</v>
@@ -38397,13 +38377,13 @@
         <v>1</v>
       </c>
       <c r="G432" s="43" t="s">
-        <v>1784</v>
+        <v>1778</v>
       </c>
       <c r="I432" s="43" t="s">
-        <v>1792</v>
+        <v>1786</v>
       </c>
       <c r="J432" s="43" t="s">
-        <v>1793</v>
+        <v>1787</v>
       </c>
       <c r="L432" s="43">
         <v>-28</v>
@@ -38421,10 +38401,10 @@
         <v>600</v>
       </c>
       <c r="Q432" s="43" t="s">
-        <v>1410</v>
+        <v>1407</v>
       </c>
       <c r="R432" s="66" t="s">
-        <v>1794</v>
+        <v>1788</v>
       </c>
       <c r="W432" s="43" t="s">
         <v>528</v>
@@ -38465,13 +38445,13 @@
         <v>1</v>
       </c>
       <c r="G433" s="43" t="s">
-        <v>1784</v>
+        <v>1778</v>
       </c>
       <c r="I433" s="43" t="s">
-        <v>1795</v>
+        <v>1789</v>
       </c>
       <c r="J433" s="43" t="s">
-        <v>1796</v>
+        <v>1790</v>
       </c>
       <c r="L433" s="43">
         <v>-28</v>
@@ -38489,10 +38469,10 @@
         <v>600</v>
       </c>
       <c r="Q433" s="43" t="s">
-        <v>1797</v>
+        <v>1791</v>
       </c>
       <c r="R433" s="66" t="s">
-        <v>1798</v>
+        <v>1792</v>
       </c>
       <c r="W433" s="43" t="s">
         <v>528</v>
@@ -38533,14 +38513,14 @@
         <v>1</v>
       </c>
       <c r="G434" s="55" t="s">
-        <v>1475</v>
+        <v>1469</v>
       </c>
       <c r="H434" s="5"/>
       <c r="I434" s="55" t="s">
-        <v>1476</v>
+        <v>1470</v>
       </c>
       <c r="J434" s="55" t="s">
-        <v>1477</v>
+        <v>1471</v>
       </c>
       <c r="L434" s="55">
         <v>-31</v>
@@ -38558,10 +38538,10 @@
         <v>1800</v>
       </c>
       <c r="Q434" s="55" t="s">
-        <v>1478</v>
+        <v>1472</v>
       </c>
       <c r="R434" s="56" t="s">
-        <v>1479</v>
+        <v>1473</v>
       </c>
       <c r="W434" s="55" t="s">
         <v>528</v>
@@ -38599,14 +38579,14 @@
         <v>1</v>
       </c>
       <c r="G435" s="55" t="s">
-        <v>1480</v>
+        <v>1474</v>
       </c>
       <c r="H435" s="5"/>
       <c r="I435" s="55" t="s">
-        <v>1476</v>
+        <v>1470</v>
       </c>
       <c r="J435" s="55" t="s">
-        <v>1481</v>
+        <v>1475</v>
       </c>
       <c r="L435" s="55">
         <v>-31</v>
@@ -38624,10 +38604,10 @@
         <v>4800</v>
       </c>
       <c r="Q435" s="55" t="s">
-        <v>1478</v>
+        <v>1472</v>
       </c>
       <c r="R435" s="56" t="s">
-        <v>1482</v>
+        <v>1476</v>
       </c>
       <c r="W435" s="55" t="s">
         <v>528</v>
@@ -38665,14 +38645,14 @@
         <v>1</v>
       </c>
       <c r="G436" s="55" t="s">
-        <v>1483</v>
+        <v>1477</v>
       </c>
       <c r="H436" s="5"/>
       <c r="I436" s="55" t="s">
-        <v>1484</v>
+        <v>1478</v>
       </c>
       <c r="J436" s="55" t="s">
-        <v>1485</v>
+        <v>1479</v>
       </c>
       <c r="L436" s="55">
         <v>-31</v>
@@ -38690,10 +38670,10 @@
         <v>9800</v>
       </c>
       <c r="Q436" s="55" t="s">
-        <v>1486</v>
+        <v>1480</v>
       </c>
       <c r="R436" s="56" t="s">
-        <v>1487</v>
+        <v>1481</v>
       </c>
       <c r="W436" s="55" t="s">
         <v>528</v>
@@ -38731,14 +38711,14 @@
         <v>1</v>
       </c>
       <c r="G437" s="55" t="s">
-        <v>1488</v>
+        <v>1482</v>
       </c>
       <c r="H437" s="5"/>
       <c r="I437" s="55" t="s">
-        <v>1476</v>
+        <v>1470</v>
       </c>
       <c r="J437" s="55" t="s">
-        <v>1489</v>
+        <v>1483</v>
       </c>
       <c r="L437" s="55">
         <v>-31</v>
@@ -38756,10 +38736,10 @@
         <v>19800</v>
       </c>
       <c r="Q437" s="55" t="s">
-        <v>1490</v>
+        <v>1484</v>
       </c>
       <c r="R437" s="56" t="s">
-        <v>1491</v>
+        <v>1485</v>
       </c>
       <c r="W437" s="55" t="s">
         <v>528</v>
@@ -38797,14 +38777,14 @@
         <v>1</v>
       </c>
       <c r="G438" s="55" t="s">
-        <v>1492</v>
+        <v>1486</v>
       </c>
       <c r="H438" s="5"/>
       <c r="I438" s="55" t="s">
-        <v>1493</v>
+        <v>1487</v>
       </c>
       <c r="J438" s="55" t="s">
-        <v>1494</v>
+        <v>1488</v>
       </c>
       <c r="L438" s="55">
         <v>-31</v>
@@ -38822,10 +38802,10 @@
         <v>29800</v>
       </c>
       <c r="Q438" s="55" t="s">
-        <v>1490</v>
+        <v>1484</v>
       </c>
       <c r="R438" s="56" t="s">
-        <v>1495</v>
+        <v>1489</v>
       </c>
       <c r="W438" s="55" t="s">
         <v>528</v>
@@ -38863,14 +38843,14 @@
         <v>1</v>
       </c>
       <c r="G439" s="55" t="s">
-        <v>1496</v>
+        <v>1490</v>
       </c>
       <c r="H439" s="5"/>
       <c r="I439" s="55" t="s">
-        <v>1493</v>
+        <v>1487</v>
       </c>
       <c r="J439" s="55" t="s">
-        <v>1497</v>
+        <v>1491</v>
       </c>
       <c r="L439" s="55">
         <v>-31</v>
@@ -38888,10 +38868,10 @@
         <v>49800</v>
       </c>
       <c r="Q439" s="55" t="s">
-        <v>1498</v>
+        <v>1492</v>
       </c>
       <c r="R439" s="56" t="s">
-        <v>1499</v>
+        <v>1493</v>
       </c>
       <c r="W439" s="55" t="s">
         <v>528</v>
@@ -38929,14 +38909,14 @@
         <v>1</v>
       </c>
       <c r="G440" s="55" t="s">
-        <v>1500</v>
+        <v>1494</v>
       </c>
       <c r="H440" s="5"/>
       <c r="I440" s="55" t="s">
-        <v>1493</v>
+        <v>1487</v>
       </c>
       <c r="J440" s="55" t="s">
-        <v>1501</v>
+        <v>1495</v>
       </c>
       <c r="L440" s="55">
         <v>-31</v>
@@ -38954,10 +38934,10 @@
         <v>99800</v>
       </c>
       <c r="Q440" s="55" t="s">
-        <v>1498</v>
+        <v>1492</v>
       </c>
       <c r="R440" s="56" t="s">
-        <v>1502</v>
+        <v>1496</v>
       </c>
       <c r="W440" s="55" t="s">
         <v>528</v>
@@ -38995,11 +38975,11 @@
         <v>1</v>
       </c>
       <c r="G441" s="53" t="s">
-        <v>1503</v>
+        <v>1497</v>
       </c>
       <c r="H441" s="5"/>
       <c r="J441" s="53" t="s">
-        <v>1504</v>
+        <v>1498</v>
       </c>
       <c r="L441" s="53">
         <v>-31</v>
@@ -39017,13 +38997,13 @@
         <v>49800</v>
       </c>
       <c r="Q441" s="53" t="s">
-        <v>1505</v>
+        <v>1499</v>
       </c>
       <c r="R441" s="54" t="s">
-        <v>1506</v>
+        <v>1500</v>
       </c>
       <c r="W441" s="53" t="s">
-        <v>1507</v>
+        <v>1501</v>
       </c>
       <c r="X441" s="53">
         <v>9999999</v>
@@ -39058,11 +39038,11 @@
         <v>1</v>
       </c>
       <c r="G442" s="53" t="s">
-        <v>1508</v>
+        <v>1502</v>
       </c>
       <c r="H442" s="5"/>
       <c r="J442" s="53" t="s">
-        <v>1509</v>
+        <v>1503</v>
       </c>
       <c r="L442" s="53">
         <v>-31</v>
@@ -39080,13 +39060,13 @@
         <v>19800</v>
       </c>
       <c r="Q442" s="53" t="s">
-        <v>1505</v>
+        <v>1499</v>
       </c>
       <c r="R442" s="54" t="s">
-        <v>1510</v>
+        <v>1504</v>
       </c>
       <c r="W442" s="53" t="s">
-        <v>1507</v>
+        <v>1501</v>
       </c>
       <c r="X442" s="53">
         <v>9999999</v>
@@ -39121,11 +39101,11 @@
         <v>1</v>
       </c>
       <c r="G443" s="53" t="s">
-        <v>1511</v>
+        <v>1505</v>
       </c>
       <c r="H443" s="5"/>
       <c r="J443" s="53" t="s">
-        <v>1512</v>
+        <v>1506</v>
       </c>
       <c r="L443" s="53">
         <v>-31</v>
@@ -39143,13 +39123,13 @@
         <v>9800</v>
       </c>
       <c r="Q443" s="53" t="s">
-        <v>1513</v>
+        <v>1507</v>
       </c>
       <c r="R443" s="54" t="s">
-        <v>1514</v>
+        <v>1508</v>
       </c>
       <c r="W443" s="53" t="s">
-        <v>1507</v>
+        <v>1501</v>
       </c>
       <c r="X443" s="53">
         <v>9999999</v>
@@ -39184,11 +39164,11 @@
         <v>1</v>
       </c>
       <c r="G444" s="53" t="s">
-        <v>1515</v>
+        <v>1509</v>
       </c>
       <c r="H444" s="5"/>
       <c r="J444" s="53" t="s">
-        <v>1516</v>
+        <v>1510</v>
       </c>
       <c r="L444" s="53">
         <v>-31</v>
@@ -39206,13 +39186,13 @@
         <v>4800</v>
       </c>
       <c r="Q444" s="53" t="s">
-        <v>1505</v>
+        <v>1499</v>
       </c>
       <c r="R444" s="54" t="s">
-        <v>1517</v>
+        <v>1511</v>
       </c>
       <c r="W444" s="53" t="s">
-        <v>1507</v>
+        <v>1501</v>
       </c>
       <c r="X444" s="53">
         <v>9999999</v>
@@ -39247,11 +39227,11 @@
         <v>1</v>
       </c>
       <c r="G445" s="53" t="s">
-        <v>1518</v>
+        <v>1512</v>
       </c>
       <c r="H445" s="5"/>
       <c r="J445" s="53" t="s">
-        <v>1519</v>
+        <v>1513</v>
       </c>
       <c r="L445" s="53">
         <v>-31</v>
@@ -39269,13 +39249,13 @@
         <v>2000</v>
       </c>
       <c r="Q445" s="53" t="s">
-        <v>1505</v>
+        <v>1499</v>
       </c>
       <c r="R445" s="54" t="s">
-        <v>1520</v>
+        <v>1514</v>
       </c>
       <c r="W445" s="53" t="s">
-        <v>1521</v>
+        <v>1515</v>
       </c>
       <c r="X445" s="53">
         <v>9999999</v>
@@ -39310,11 +39290,11 @@
         <v>1</v>
       </c>
       <c r="G446" s="53" t="s">
-        <v>1522</v>
+        <v>1516</v>
       </c>
       <c r="H446" s="5"/>
       <c r="J446" s="53" t="s">
-        <v>1523</v>
+        <v>1517</v>
       </c>
       <c r="L446" s="53">
         <v>-31</v>
@@ -39332,13 +39312,13 @@
         <v>600</v>
       </c>
       <c r="Q446" s="53" t="s">
-        <v>1513</v>
+        <v>1507</v>
       </c>
       <c r="R446" s="54" t="s">
-        <v>1524</v>
+        <v>1518</v>
       </c>
       <c r="W446" s="53" t="s">
-        <v>1521</v>
+        <v>1515</v>
       </c>
       <c r="X446" s="53">
         <v>9999999</v>
@@ -39373,13 +39353,13 @@
         <v>1</v>
       </c>
       <c r="G447" s="59" t="s">
-        <v>1539</v>
+        <v>1533</v>
       </c>
       <c r="I447" s="59" t="s">
-        <v>1540</v>
+        <v>1534</v>
       </c>
       <c r="J447" s="59" t="s">
-        <v>1541</v>
+        <v>1535</v>
       </c>
       <c r="L447" s="59">
         <v>-31</v>
@@ -39397,13 +39377,13 @@
         <v>800</v>
       </c>
       <c r="Q447" s="59" t="s">
-        <v>1542</v>
+        <v>1536</v>
       </c>
       <c r="R447" s="60" t="s">
-        <v>1543</v>
+        <v>1537</v>
       </c>
       <c r="W447" s="5" t="s">
-        <v>1544</v>
+        <v>1538</v>
       </c>
       <c r="X447" s="59">
         <v>9999999</v>
@@ -39441,13 +39421,13 @@
         <v>1</v>
       </c>
       <c r="G448" s="59" t="s">
-        <v>1545</v>
+        <v>1539</v>
       </c>
       <c r="I448" s="59" t="s">
-        <v>1546</v>
+        <v>1540</v>
       </c>
       <c r="J448" s="59" t="s">
-        <v>1547</v>
+        <v>1541</v>
       </c>
       <c r="L448" s="59">
         <v>-31</v>
@@ -39468,10 +39448,10 @@
         <v>995</v>
       </c>
       <c r="R448" s="60" t="s">
-        <v>1548</v>
+        <v>1542</v>
       </c>
       <c r="W448" s="5" t="s">
-        <v>1544</v>
+        <v>1538</v>
       </c>
       <c r="X448" s="59">
         <v>9999999</v>
@@ -39506,13 +39486,13 @@
         <v>1</v>
       </c>
       <c r="G449" s="59" t="s">
-        <v>1549</v>
+        <v>1543</v>
       </c>
       <c r="I449" s="59" t="s">
-        <v>1550</v>
+        <v>1544</v>
       </c>
       <c r="J449" s="59" t="s">
-        <v>1551</v>
+        <v>1545</v>
       </c>
       <c r="L449" s="59">
         <v>-31</v>
@@ -39530,10 +39510,10 @@
         <v>800</v>
       </c>
       <c r="Q449" s="59" t="s">
-        <v>1542</v>
+        <v>1536</v>
       </c>
       <c r="R449" s="60" t="s">
-        <v>1552</v>
+        <v>1546</v>
       </c>
       <c r="W449" s="5" t="s">
         <v>528</v>
@@ -39574,13 +39554,13 @@
         <v>1</v>
       </c>
       <c r="G450" s="61" t="s">
-        <v>1553</v>
+        <v>1547</v>
       </c>
       <c r="I450" s="61" t="s">
-        <v>1554</v>
+        <v>1548</v>
       </c>
       <c r="J450" s="61" t="s">
-        <v>1555</v>
+        <v>1549</v>
       </c>
       <c r="L450" s="61">
         <v>-31</v>
@@ -39598,10 +39578,10 @@
         <v>3800</v>
       </c>
       <c r="Q450" s="61" t="s">
-        <v>1542</v>
+        <v>1536</v>
       </c>
       <c r="R450" s="62" t="s">
-        <v>1556</v>
+        <v>1550</v>
       </c>
       <c r="W450" s="5" t="s">
         <v>528</v>
@@ -39642,13 +39622,13 @@
         <v>1</v>
       </c>
       <c r="G451" s="61" t="s">
-        <v>1557</v>
+        <v>1551</v>
       </c>
       <c r="I451" s="61" t="s">
-        <v>1558</v>
+        <v>1552</v>
       </c>
       <c r="J451" s="61" t="s">
-        <v>1559</v>
+        <v>1553</v>
       </c>
       <c r="L451" s="61">
         <v>-31</v>
@@ -39666,10 +39646,10 @@
         <v>3800</v>
       </c>
       <c r="Q451" s="61" t="s">
-        <v>1542</v>
+        <v>1536</v>
       </c>
       <c r="R451" s="62" t="s">
-        <v>1560</v>
+        <v>1554</v>
       </c>
       <c r="W451" s="5" t="s">
         <v>528</v>
@@ -39707,13 +39687,13 @@
         <v>1</v>
       </c>
       <c r="G452" s="61" t="s">
-        <v>1561</v>
+        <v>1555</v>
       </c>
       <c r="I452" s="61" t="s">
-        <v>1562</v>
+        <v>1556</v>
       </c>
       <c r="J452" s="61" t="s">
-        <v>1563</v>
+        <v>1557</v>
       </c>
       <c r="L452" s="61">
         <v>-31</v>
@@ -39731,10 +39711,10 @@
         <v>3800</v>
       </c>
       <c r="Q452" s="61" t="s">
-        <v>1542</v>
+        <v>1536</v>
       </c>
       <c r="R452" s="62" t="s">
-        <v>1564</v>
+        <v>1558</v>
       </c>
       <c r="W452" s="5" t="s">
         <v>528</v>
@@ -39775,13 +39755,13 @@
         <v>1</v>
       </c>
       <c r="G453" s="59" t="s">
-        <v>1565</v>
+        <v>1559</v>
       </c>
       <c r="I453" s="59" t="s">
-        <v>1566</v>
+        <v>1560</v>
       </c>
       <c r="J453" s="59" t="s">
-        <v>1567</v>
+        <v>1561</v>
       </c>
       <c r="L453" s="59">
         <v>-31</v>
@@ -39799,10 +39779,10 @@
         <v>9800</v>
       </c>
       <c r="Q453" s="59" t="s">
-        <v>1542</v>
+        <v>1536</v>
       </c>
       <c r="R453" s="60" t="s">
-        <v>1568</v>
+        <v>1562</v>
       </c>
       <c r="W453" s="5" t="s">
         <v>528</v>
@@ -39843,13 +39823,13 @@
         <v>1</v>
       </c>
       <c r="G454" s="59" t="s">
-        <v>1569</v>
+        <v>1563</v>
       </c>
       <c r="I454" s="59" t="s">
-        <v>1570</v>
+        <v>1564</v>
       </c>
       <c r="J454" s="59" t="s">
-        <v>1571</v>
+        <v>1565</v>
       </c>
       <c r="L454" s="59">
         <v>-31</v>
@@ -39867,10 +39847,10 @@
         <v>9800</v>
       </c>
       <c r="Q454" s="59" t="s">
-        <v>1542</v>
+        <v>1536</v>
       </c>
       <c r="R454" s="60" t="s">
-        <v>1572</v>
+        <v>1566</v>
       </c>
       <c r="W454" s="5" t="s">
         <v>528</v>
@@ -39908,13 +39888,13 @@
         <v>1</v>
       </c>
       <c r="G455" s="59" t="s">
-        <v>1573</v>
+        <v>1567</v>
       </c>
       <c r="I455" s="59" t="s">
-        <v>1574</v>
+        <v>1568</v>
       </c>
       <c r="J455" s="59" t="s">
-        <v>1575</v>
+        <v>1569</v>
       </c>
       <c r="L455" s="59">
         <v>-31</v>
@@ -39932,10 +39912,10 @@
         <v>9800</v>
       </c>
       <c r="Q455" s="59" t="s">
-        <v>1542</v>
+        <v>1536</v>
       </c>
       <c r="R455" s="60" t="s">
-        <v>1701</v>
+        <v>1695</v>
       </c>
       <c r="W455" s="5" t="s">
         <v>528</v>
@@ -39976,13 +39956,13 @@
         <v>1</v>
       </c>
       <c r="G456" s="61" t="s">
-        <v>1576</v>
+        <v>1570</v>
       </c>
       <c r="I456" s="61" t="s">
-        <v>1577</v>
+        <v>1571</v>
       </c>
       <c r="J456" s="61" t="s">
-        <v>1578</v>
+        <v>1572</v>
       </c>
       <c r="L456" s="61">
         <v>-31</v>
@@ -40000,10 +39980,10 @@
         <v>19800</v>
       </c>
       <c r="Q456" s="61" t="s">
-        <v>1542</v>
+        <v>1536</v>
       </c>
       <c r="R456" s="62" t="s">
-        <v>1579</v>
+        <v>1573</v>
       </c>
       <c r="W456" s="5" t="s">
         <v>528</v>
@@ -40044,13 +40024,13 @@
         <v>1</v>
       </c>
       <c r="G457" s="61" t="s">
-        <v>1580</v>
+        <v>1574</v>
       </c>
       <c r="I457" s="61" t="s">
-        <v>1581</v>
+        <v>1575</v>
       </c>
       <c r="J457" s="61" t="s">
-        <v>1582</v>
+        <v>1576</v>
       </c>
       <c r="L457" s="61">
         <v>-31</v>
@@ -40068,10 +40048,10 @@
         <v>19800</v>
       </c>
       <c r="Q457" s="61" t="s">
-        <v>1542</v>
+        <v>1536</v>
       </c>
       <c r="R457" s="62" t="s">
-        <v>1583</v>
+        <v>1577</v>
       </c>
       <c r="W457" s="5" t="s">
         <v>528</v>
@@ -40109,13 +40089,13 @@
         <v>1</v>
       </c>
       <c r="G458" s="61" t="s">
-        <v>1584</v>
+        <v>1578</v>
       </c>
       <c r="I458" s="61" t="s">
-        <v>1585</v>
+        <v>1579</v>
       </c>
       <c r="J458" s="61" t="s">
-        <v>1586</v>
+        <v>1580</v>
       </c>
       <c r="L458" s="61">
         <v>-31</v>
@@ -40133,10 +40113,10 @@
         <v>19800</v>
       </c>
       <c r="Q458" s="61" t="s">
-        <v>1542</v>
+        <v>1536</v>
       </c>
       <c r="R458" s="62" t="s">
-        <v>1587</v>
+        <v>1581</v>
       </c>
       <c r="W458" s="5" t="s">
         <v>528</v>
@@ -40177,13 +40157,13 @@
         <v>1</v>
       </c>
       <c r="G459" s="59" t="s">
-        <v>1588</v>
+        <v>1582</v>
       </c>
       <c r="I459" s="59" t="s">
-        <v>1589</v>
+        <v>1583</v>
       </c>
       <c r="J459" s="59" t="s">
-        <v>1590</v>
+        <v>1584</v>
       </c>
       <c r="L459" s="59">
         <v>-31</v>
@@ -40201,10 +40181,10 @@
         <v>49800</v>
       </c>
       <c r="Q459" s="59" t="s">
-        <v>1542</v>
+        <v>1536</v>
       </c>
       <c r="R459" s="60" t="s">
-        <v>1591</v>
+        <v>1585</v>
       </c>
       <c r="W459" s="5" t="s">
         <v>528</v>
@@ -40245,13 +40225,13 @@
         <v>1</v>
       </c>
       <c r="G460" s="59" t="s">
-        <v>1592</v>
+        <v>1586</v>
       </c>
       <c r="I460" s="59" t="s">
-        <v>1593</v>
+        <v>1587</v>
       </c>
       <c r="J460" s="59" t="s">
-        <v>1594</v>
+        <v>1588</v>
       </c>
       <c r="L460" s="59">
         <v>-31</v>
@@ -40272,7 +40252,7 @@
         <v>995</v>
       </c>
       <c r="R460" s="60" t="s">
-        <v>1595</v>
+        <v>1589</v>
       </c>
       <c r="W460" s="5" t="s">
         <v>528</v>
@@ -40310,13 +40290,13 @@
         <v>1</v>
       </c>
       <c r="G461" s="59" t="s">
-        <v>1596</v>
+        <v>1590</v>
       </c>
       <c r="I461" s="59" t="s">
-        <v>1597</v>
+        <v>1591</v>
       </c>
       <c r="J461" s="59" t="s">
-        <v>1598</v>
+        <v>1592</v>
       </c>
       <c r="L461" s="59">
         <v>-31</v>
@@ -40334,10 +40314,10 @@
         <v>49800</v>
       </c>
       <c r="Q461" s="59" t="s">
-        <v>1542</v>
+        <v>1536</v>
       </c>
       <c r="R461" s="60" t="s">
-        <v>1599</v>
+        <v>1593</v>
       </c>
       <c r="W461" s="5" t="s">
         <v>528</v>
@@ -40378,13 +40358,13 @@
         <v>1</v>
       </c>
       <c r="G462" s="61" t="s">
-        <v>1600</v>
+        <v>1594</v>
       </c>
       <c r="I462" s="61" t="s">
-        <v>1601</v>
+        <v>1595</v>
       </c>
       <c r="J462" s="61" t="s">
-        <v>1602</v>
+        <v>1596</v>
       </c>
       <c r="L462" s="61">
         <v>-31</v>
@@ -40402,10 +40382,10 @@
         <v>99800</v>
       </c>
       <c r="Q462" s="61" t="s">
-        <v>1542</v>
+        <v>1536</v>
       </c>
       <c r="R462" s="62" t="s">
-        <v>1603</v>
+        <v>1597</v>
       </c>
       <c r="W462" s="5" t="s">
         <v>528</v>
@@ -40446,13 +40426,13 @@
         <v>1</v>
       </c>
       <c r="G463" s="61" t="s">
-        <v>1604</v>
+        <v>1598</v>
       </c>
       <c r="I463" s="61" t="s">
-        <v>1605</v>
+        <v>1599</v>
       </c>
       <c r="J463" s="61" t="s">
-        <v>1606</v>
+        <v>1600</v>
       </c>
       <c r="L463" s="61">
         <v>-31</v>
@@ -40470,10 +40450,10 @@
         <v>99800</v>
       </c>
       <c r="Q463" s="61" t="s">
-        <v>1542</v>
+        <v>1536</v>
       </c>
       <c r="R463" s="62" t="s">
-        <v>1607</v>
+        <v>1601</v>
       </c>
       <c r="W463" s="5" t="s">
         <v>528</v>
@@ -40511,13 +40491,13 @@
         <v>1</v>
       </c>
       <c r="G464" s="61" t="s">
-        <v>1608</v>
+        <v>1602</v>
       </c>
       <c r="I464" s="61" t="s">
-        <v>1609</v>
+        <v>1603</v>
       </c>
       <c r="J464" s="61" t="s">
-        <v>1610</v>
+        <v>1604</v>
       </c>
       <c r="L464" s="61">
         <v>-31</v>
@@ -40538,7 +40518,7 @@
         <v>995</v>
       </c>
       <c r="R464" s="62" t="s">
-        <v>1611</v>
+        <v>1605</v>
       </c>
       <c r="W464" s="5" t="s">
         <v>528</v>
@@ -40579,13 +40559,13 @@
         <v>1</v>
       </c>
       <c r="G465" s="59" t="s">
-        <v>1612</v>
+        <v>1606</v>
       </c>
       <c r="I465" s="59" t="s">
-        <v>1613</v>
+        <v>1607</v>
       </c>
       <c r="J465" s="59" t="s">
-        <v>1614</v>
+        <v>1608</v>
       </c>
       <c r="L465" s="59">
         <v>-31</v>
@@ -40603,10 +40583,10 @@
         <v>249800</v>
       </c>
       <c r="Q465" s="59" t="s">
-        <v>1542</v>
+        <v>1536</v>
       </c>
       <c r="R465" s="60" t="s">
-        <v>1615</v>
+        <v>1609</v>
       </c>
       <c r="W465" s="5" t="s">
         <v>528</v>
@@ -40647,13 +40627,13 @@
         <v>1</v>
       </c>
       <c r="G466" s="59" t="s">
-        <v>1616</v>
+        <v>1610</v>
       </c>
       <c r="I466" s="59" t="s">
-        <v>1617</v>
+        <v>1611</v>
       </c>
       <c r="J466" s="59" t="s">
-        <v>1618</v>
+        <v>1612</v>
       </c>
       <c r="L466" s="59">
         <v>-31</v>
@@ -40674,7 +40654,7 @@
         <v>995</v>
       </c>
       <c r="R466" s="60" t="s">
-        <v>1619</v>
+        <v>1613</v>
       </c>
       <c r="W466" s="5" t="s">
         <v>528</v>
@@ -40712,13 +40692,13 @@
         <v>1</v>
       </c>
       <c r="G467" s="59" t="s">
-        <v>1620</v>
+        <v>1614</v>
       </c>
       <c r="I467" s="59" t="s">
-        <v>1621</v>
+        <v>1615</v>
       </c>
       <c r="J467" s="59" t="s">
-        <v>1622</v>
+        <v>1616</v>
       </c>
       <c r="L467" s="59">
         <v>-31</v>
@@ -40739,7 +40719,7 @@
         <v>995</v>
       </c>
       <c r="R467" s="60" t="s">
-        <v>1623</v>
+        <v>1617</v>
       </c>
       <c r="W467" s="5" t="s">
         <v>528</v>
@@ -40780,13 +40760,13 @@
         <v>1</v>
       </c>
       <c r="G468" s="63" t="s">
-        <v>1624</v>
+        <v>1618</v>
       </c>
       <c r="I468" s="63" t="s">
-        <v>1626</v>
+        <v>1620</v>
       </c>
       <c r="J468" s="63" t="s">
-        <v>1627</v>
+        <v>1621</v>
       </c>
       <c r="L468" s="63">
         <v>-31</v>
@@ -40804,13 +40784,13 @@
         <v>600</v>
       </c>
       <c r="Q468" s="63" t="s">
-        <v>1542</v>
+        <v>1536</v>
       </c>
       <c r="R468" s="64" t="s">
-        <v>1628</v>
+        <v>1622</v>
       </c>
       <c r="W468" s="63" t="s">
-        <v>1629</v>
+        <v>1623</v>
       </c>
       <c r="X468" s="63">
         <v>9999999</v>
@@ -40845,13 +40825,13 @@
         <v>1</v>
       </c>
       <c r="G469" s="63" t="s">
-        <v>1630</v>
+        <v>1624</v>
       </c>
       <c r="I469" s="63" t="s">
-        <v>1626</v>
+        <v>1620</v>
       </c>
       <c r="J469" s="63" t="s">
-        <v>1631</v>
+        <v>1625</v>
       </c>
       <c r="L469" s="63">
         <v>-31</v>
@@ -40869,13 +40849,13 @@
         <v>3000</v>
       </c>
       <c r="Q469" s="63" t="s">
-        <v>1542</v>
+        <v>1536</v>
       </c>
       <c r="R469" s="64" t="s">
-        <v>1632</v>
+        <v>1626</v>
       </c>
       <c r="W469" s="63" t="s">
-        <v>1629</v>
+        <v>1623</v>
       </c>
       <c r="X469" s="63">
         <v>9999999</v>
@@ -40910,13 +40890,13 @@
         <v>1</v>
       </c>
       <c r="G470" s="63" t="s">
-        <v>1633</v>
+        <v>1627</v>
       </c>
       <c r="I470" s="63" t="s">
-        <v>1626</v>
+        <v>1620</v>
       </c>
       <c r="J470" s="63" t="s">
-        <v>1634</v>
+        <v>1628</v>
       </c>
       <c r="L470" s="63">
         <v>-31</v>
@@ -40934,13 +40914,13 @@
         <v>6800</v>
       </c>
       <c r="Q470" s="63" t="s">
-        <v>1542</v>
+        <v>1536</v>
       </c>
       <c r="R470" s="64" t="s">
-        <v>1635</v>
+        <v>1629</v>
       </c>
       <c r="W470" s="63" t="s">
-        <v>1629</v>
+        <v>1623</v>
       </c>
       <c r="X470" s="63">
         <v>9999999</v>
@@ -40975,13 +40955,13 @@
         <v>1</v>
       </c>
       <c r="G471" s="63" t="s">
-        <v>1636</v>
+        <v>1630</v>
       </c>
       <c r="I471" s="63" t="s">
-        <v>1626</v>
+        <v>1620</v>
       </c>
       <c r="J471" s="63" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
       <c r="L471" s="63">
         <v>-31</v>
@@ -40999,13 +40979,13 @@
         <v>9800</v>
       </c>
       <c r="Q471" s="63" t="s">
-        <v>1542</v>
+        <v>1536</v>
       </c>
       <c r="R471" s="64" t="s">
-        <v>1638</v>
+        <v>1632</v>
       </c>
       <c r="W471" s="63" t="s">
-        <v>1639</v>
+        <v>1633</v>
       </c>
       <c r="X471" s="63">
         <v>9999999</v>
@@ -41040,13 +41020,13 @@
         <v>1</v>
       </c>
       <c r="G472" s="63" t="s">
-        <v>1640</v>
+        <v>1634</v>
       </c>
       <c r="I472" s="63" t="s">
-        <v>1625</v>
+        <v>1619</v>
       </c>
       <c r="J472" s="63" t="s">
-        <v>1641</v>
+        <v>1635</v>
       </c>
       <c r="L472" s="63">
         <v>-31</v>
@@ -41064,13 +41044,13 @@
         <v>19800</v>
       </c>
       <c r="Q472" s="63" t="s">
-        <v>1542</v>
+        <v>1536</v>
       </c>
       <c r="R472" s="64" t="s">
-        <v>1642</v>
+        <v>1636</v>
       </c>
       <c r="W472" s="63" t="s">
-        <v>1639</v>
+        <v>1633</v>
       </c>
       <c r="X472" s="63">
         <v>9999999</v>
@@ -41105,13 +41085,13 @@
         <v>1</v>
       </c>
       <c r="G473" s="63" t="s">
-        <v>1643</v>
+        <v>1637</v>
       </c>
       <c r="I473" s="63" t="s">
-        <v>1626</v>
+        <v>1620</v>
       </c>
       <c r="J473" s="63" t="s">
-        <v>1644</v>
+        <v>1638</v>
       </c>
       <c r="L473" s="63">
         <v>-31</v>
@@ -41129,13 +41109,13 @@
         <v>49800</v>
       </c>
       <c r="Q473" s="63" t="s">
-        <v>1542</v>
+        <v>1536</v>
       </c>
       <c r="R473" s="64" t="s">
-        <v>1645</v>
+        <v>1639</v>
       </c>
       <c r="W473" s="63" t="s">
-        <v>1639</v>
+        <v>1633</v>
       </c>
       <c r="X473" s="63">
         <v>9999999</v>
@@ -41170,14 +41150,14 @@
         <v>1</v>
       </c>
       <c r="G474" s="55" t="s">
-        <v>1646</v>
+        <v>1640</v>
       </c>
       <c r="H474" s="75"/>
       <c r="I474" s="55" t="s">
-        <v>1626</v>
+        <v>1620</v>
       </c>
       <c r="J474" s="55" t="s">
-        <v>1647</v>
+        <v>1641</v>
       </c>
       <c r="L474" s="55">
         <v>-31</v>
@@ -41195,13 +41175,13 @@
         <v>99800</v>
       </c>
       <c r="Q474" s="55" t="s">
-        <v>1542</v>
+        <v>1536</v>
       </c>
       <c r="R474" s="56" t="s">
-        <v>1648</v>
+        <v>1642</v>
       </c>
       <c r="W474" s="63" t="s">
-        <v>1639</v>
+        <v>1633</v>
       </c>
       <c r="X474" s="55">
         <v>9999999</v>
@@ -41236,14 +41216,14 @@
         <v>1</v>
       </c>
       <c r="G475" s="55" t="s">
-        <v>1649</v>
+        <v>1643</v>
       </c>
       <c r="H475" s="75"/>
       <c r="I475" s="55" t="s">
-        <v>1626</v>
+        <v>1620</v>
       </c>
       <c r="J475" s="55" t="s">
-        <v>1703</v>
+        <v>1697</v>
       </c>
       <c r="L475" s="55">
         <v>-31</v>
@@ -41261,13 +41241,13 @@
         <v>249800</v>
       </c>
       <c r="Q475" s="55" t="s">
-        <v>1542</v>
+        <v>1536</v>
       </c>
       <c r="R475" s="56" t="s">
-        <v>1702</v>
+        <v>1696</v>
       </c>
       <c r="W475" s="63" t="s">
-        <v>1639</v>
+        <v>1633</v>
       </c>
       <c r="X475" s="55">
         <v>9999999</v>
@@ -41302,13 +41282,13 @@
         <v>1</v>
       </c>
       <c r="G476" s="67" t="s">
-        <v>1680</v>
+        <v>1674</v>
       </c>
       <c r="I476" s="67" t="s">
-        <v>1681</v>
+        <v>1675</v>
       </c>
       <c r="J476" s="67" t="s">
-        <v>1682</v>
+        <v>1676</v>
       </c>
       <c r="L476" s="67">
         <v>-31</v>
@@ -41326,13 +41306,13 @@
         <v>49800</v>
       </c>
       <c r="Q476" s="67" t="s">
-        <v>1684</v>
+        <v>1678</v>
       </c>
       <c r="R476" s="68" t="s">
-        <v>1685</v>
+        <v>1679</v>
       </c>
       <c r="W476" s="67" t="s">
-        <v>1686</v>
+        <v>1680</v>
       </c>
       <c r="X476" s="67">
         <v>9999999</v>
@@ -41367,13 +41347,13 @@
         <v>1</v>
       </c>
       <c r="G477" s="67" t="s">
-        <v>1687</v>
+        <v>1681</v>
       </c>
       <c r="I477" s="67" t="s">
-        <v>1688</v>
+        <v>1682</v>
       </c>
       <c r="J477" s="67" t="s">
-        <v>1689</v>
+        <v>1683</v>
       </c>
       <c r="L477" s="67">
         <v>-31</v>
@@ -41385,19 +41365,19 @@
         <v>0</v>
       </c>
       <c r="O477" s="67" t="s">
-        <v>1690</v>
+        <v>1684</v>
       </c>
       <c r="P477" s="67">
         <v>19800</v>
       </c>
       <c r="Q477" s="67" t="s">
-        <v>1683</v>
+        <v>1677</v>
       </c>
       <c r="R477" s="68" t="s">
-        <v>1691</v>
+        <v>1685</v>
       </c>
       <c r="W477" s="67" t="s">
-        <v>1692</v>
+        <v>1686</v>
       </c>
       <c r="X477" s="67">
         <v>9999999</v>
@@ -41432,13 +41412,13 @@
         <v>1</v>
       </c>
       <c r="G478" s="67" t="s">
-        <v>1680</v>
+        <v>1674</v>
       </c>
       <c r="I478" s="67" t="s">
-        <v>1693</v>
+        <v>1687</v>
       </c>
       <c r="J478" s="67" t="s">
-        <v>1694</v>
+        <v>1688</v>
       </c>
       <c r="L478" s="67">
         <v>-31</v>
@@ -41450,16 +41430,16 @@
         <v>0</v>
       </c>
       <c r="O478" s="67" t="s">
-        <v>1690</v>
+        <v>1684</v>
       </c>
       <c r="P478" s="67">
         <v>9800</v>
       </c>
       <c r="Q478" s="67" t="s">
-        <v>1695</v>
+        <v>1689</v>
       </c>
       <c r="R478" s="68" t="s">
-        <v>1696</v>
+        <v>1690</v>
       </c>
       <c r="W478" s="67" t="s">
         <v>528</v>
@@ -41497,13 +41477,13 @@
         <v>1</v>
       </c>
       <c r="G479" s="67" t="s">
-        <v>1680</v>
+        <v>1674</v>
       </c>
       <c r="I479" s="67" t="s">
-        <v>1697</v>
+        <v>1691</v>
       </c>
       <c r="J479" s="67" t="s">
-        <v>1698</v>
+        <v>1692</v>
       </c>
       <c r="L479" s="67">
         <v>-31</v>
@@ -41515,19 +41495,19 @@
         <v>0</v>
       </c>
       <c r="O479" s="67" t="s">
-        <v>1690</v>
+        <v>1684</v>
       </c>
       <c r="P479" s="67">
         <v>4800</v>
       </c>
       <c r="Q479" s="67" t="s">
-        <v>1699</v>
+        <v>1693</v>
       </c>
       <c r="R479" s="68" t="s">
-        <v>1700</v>
+        <v>1694</v>
       </c>
       <c r="W479" s="67" t="s">
-        <v>1686</v>
+        <v>1680</v>
       </c>
       <c r="X479" s="67">
         <v>9999999</v>
@@ -41562,10 +41542,10 @@
         <v>1</v>
       </c>
       <c r="G480" s="53" t="s">
-        <v>1704</v>
+        <v>1698</v>
       </c>
       <c r="J480" s="53" t="s">
-        <v>1705</v>
+        <v>1699</v>
       </c>
       <c r="L480" s="53">
         <v>-31</v>
@@ -41583,13 +41563,13 @@
         <v>49800</v>
       </c>
       <c r="Q480" s="53" t="s">
-        <v>1706</v>
+        <v>1700</v>
       </c>
       <c r="R480" s="54" t="s">
-        <v>1707</v>
+        <v>1701</v>
       </c>
       <c r="W480" s="53" t="s">
-        <v>1507</v>
+        <v>1501</v>
       </c>
       <c r="X480" s="53">
         <v>9999999</v>
@@ -41627,7 +41607,7 @@
         <v>356</v>
       </c>
       <c r="J481" s="53" t="s">
-        <v>1708</v>
+        <v>1702</v>
       </c>
       <c r="L481" s="53">
         <v>-31</v>
@@ -41645,13 +41625,13 @@
         <v>19800</v>
       </c>
       <c r="Q481" s="53" t="s">
-        <v>1706</v>
+        <v>1700</v>
       </c>
       <c r="R481" s="54" t="s">
-        <v>1709</v>
+        <v>1703</v>
       </c>
       <c r="W481" s="53" t="s">
-        <v>1710</v>
+        <v>1704</v>
       </c>
       <c r="X481" s="53">
         <v>9999999</v>
@@ -41689,7 +41669,7 @@
         <v>355</v>
       </c>
       <c r="J482" s="53" t="s">
-        <v>1512</v>
+        <v>1506</v>
       </c>
       <c r="L482" s="53">
         <v>-31</v>
@@ -41707,13 +41687,13 @@
         <v>9800</v>
       </c>
       <c r="Q482" s="53" t="s">
-        <v>1706</v>
+        <v>1700</v>
       </c>
       <c r="R482" s="54" t="s">
-        <v>1711</v>
+        <v>1705</v>
       </c>
       <c r="W482" s="53" t="s">
-        <v>1710</v>
+        <v>1704</v>
       </c>
       <c r="X482" s="53">
         <v>9999999</v>
@@ -41751,7 +41731,7 @@
         <v>354</v>
       </c>
       <c r="J483" s="53" t="s">
-        <v>1712</v>
+        <v>1706</v>
       </c>
       <c r="L483" s="53">
         <v>-31</v>
@@ -41769,13 +41749,13 @@
         <v>4800</v>
       </c>
       <c r="Q483" s="53" t="s">
-        <v>1706</v>
+        <v>1700</v>
       </c>
       <c r="R483" s="54" t="s">
-        <v>1713</v>
+        <v>1707</v>
       </c>
       <c r="W483" s="53" t="s">
-        <v>1710</v>
+        <v>1704</v>
       </c>
       <c r="X483" s="53">
         <v>9999999</v>
@@ -41810,10 +41790,10 @@
         <v>1</v>
       </c>
       <c r="G484" s="53" t="s">
-        <v>1714</v>
+        <v>1708</v>
       </c>
       <c r="J484" s="53" t="s">
-        <v>1715</v>
+        <v>1709</v>
       </c>
       <c r="L484" s="53">
         <v>-31</v>
@@ -41831,13 +41811,13 @@
         <v>2000</v>
       </c>
       <c r="Q484" s="53" t="s">
-        <v>1706</v>
+        <v>1700</v>
       </c>
       <c r="R484" s="54" t="s">
-        <v>1716</v>
+        <v>1710</v>
       </c>
       <c r="W484" s="53" t="s">
-        <v>1717</v>
+        <v>1711</v>
       </c>
       <c r="X484" s="53">
         <v>9999999</v>
@@ -41872,10 +41852,10 @@
         <v>1</v>
       </c>
       <c r="G485" s="53" t="s">
-        <v>1718</v>
+        <v>1712</v>
       </c>
       <c r="J485" s="53" t="s">
-        <v>1523</v>
+        <v>1517</v>
       </c>
       <c r="L485" s="53">
         <v>-31</v>
@@ -41893,10 +41873,10 @@
         <v>600</v>
       </c>
       <c r="Q485" s="53" t="s">
-        <v>1706</v>
+        <v>1700</v>
       </c>
       <c r="R485" s="54" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
       <c r="W485" s="53" t="s">
         <v>567</v>
@@ -41934,13 +41914,13 @@
         <v>1</v>
       </c>
       <c r="G486" s="19" t="s">
-        <v>1822</v>
+        <v>1816</v>
       </c>
       <c r="I486" s="19" t="s">
-        <v>1823</v>
+        <v>1817</v>
       </c>
       <c r="J486" s="19" t="s">
-        <v>1477</v>
+        <v>1471</v>
       </c>
       <c r="L486" s="19">
         <v>-31</v>
@@ -41958,10 +41938,10 @@
         <v>1800</v>
       </c>
       <c r="Q486" s="19" t="s">
-        <v>1825</v>
+        <v>1819</v>
       </c>
       <c r="R486" s="39" t="s">
-        <v>1479</v>
+        <v>1473</v>
       </c>
       <c r="W486" s="19" t="s">
         <v>528</v>
@@ -41999,13 +41979,13 @@
         <v>1</v>
       </c>
       <c r="G487" s="19" t="s">
-        <v>1826</v>
+        <v>1820</v>
       </c>
       <c r="I487" s="19" t="s">
-        <v>1827</v>
+        <v>1821</v>
       </c>
       <c r="J487" s="19" t="s">
-        <v>1828</v>
+        <v>1822</v>
       </c>
       <c r="L487" s="19">
         <v>-31</v>
@@ -42023,10 +42003,10 @@
         <v>4800</v>
       </c>
       <c r="Q487" s="19" t="s">
-        <v>1824</v>
+        <v>1818</v>
       </c>
       <c r="R487" s="39" t="s">
-        <v>1829</v>
+        <v>1823</v>
       </c>
       <c r="W487" s="19" t="s">
         <v>528</v>
@@ -42064,13 +42044,13 @@
         <v>1</v>
       </c>
       <c r="G488" s="19" t="s">
-        <v>1830</v>
+        <v>1824</v>
       </c>
       <c r="I488" s="19" t="s">
-        <v>1476</v>
+        <v>1470</v>
       </c>
       <c r="J488" s="19" t="s">
-        <v>1485</v>
+        <v>1479</v>
       </c>
       <c r="L488" s="19">
         <v>-31</v>
@@ -42088,10 +42068,10 @@
         <v>9800</v>
       </c>
       <c r="Q488" s="19" t="s">
-        <v>1831</v>
+        <v>1825</v>
       </c>
       <c r="R488" s="39" t="s">
-        <v>1832</v>
+        <v>1826</v>
       </c>
       <c r="W488" s="19" t="s">
         <v>528</v>
@@ -42129,13 +42109,13 @@
         <v>1</v>
       </c>
       <c r="G489" s="19" t="s">
-        <v>1833</v>
+        <v>1827</v>
       </c>
       <c r="I489" s="19" t="s">
-        <v>1827</v>
+        <v>1821</v>
       </c>
       <c r="J489" s="19" t="s">
-        <v>1834</v>
+        <v>1828</v>
       </c>
       <c r="L489" s="19">
         <v>-31</v>
@@ -42153,10 +42133,10 @@
         <v>19800</v>
       </c>
       <c r="Q489" s="19" t="s">
-        <v>1835</v>
+        <v>1829</v>
       </c>
       <c r="R489" s="39" t="s">
-        <v>1836</v>
+        <v>1830</v>
       </c>
       <c r="W489" s="19" t="s">
         <v>528</v>
@@ -42194,13 +42174,13 @@
         <v>1</v>
       </c>
       <c r="G490" s="19" t="s">
-        <v>1483</v>
+        <v>1477</v>
       </c>
       <c r="I490" s="19" t="s">
-        <v>1837</v>
+        <v>1831</v>
       </c>
       <c r="J490" s="19" t="s">
-        <v>1838</v>
+        <v>1832</v>
       </c>
       <c r="L490" s="19">
         <v>-31</v>
@@ -42218,10 +42198,10 @@
         <v>29800</v>
       </c>
       <c r="Q490" s="19" t="s">
-        <v>1490</v>
+        <v>1484</v>
       </c>
       <c r="R490" s="39" t="s">
-        <v>1839</v>
+        <v>1833</v>
       </c>
       <c r="W490" s="19" t="s">
         <v>528</v>
@@ -42259,13 +42239,13 @@
         <v>1</v>
       </c>
       <c r="G491" s="19" t="s">
-        <v>1840</v>
+        <v>1834</v>
       </c>
       <c r="I491" s="19" t="s">
-        <v>1476</v>
+        <v>1470</v>
       </c>
       <c r="J491" s="19" t="s">
-        <v>1841</v>
+        <v>1835</v>
       </c>
       <c r="L491" s="19">
         <v>-31</v>
@@ -42283,10 +42263,10 @@
         <v>49800</v>
       </c>
       <c r="Q491" s="19" t="s">
-        <v>1842</v>
+        <v>1836</v>
       </c>
       <c r="R491" s="39" t="s">
-        <v>1843</v>
+        <v>1837</v>
       </c>
       <c r="W491" s="19" t="s">
         <v>528</v>
@@ -42324,13 +42304,13 @@
         <v>1</v>
       </c>
       <c r="G492" s="19" t="s">
-        <v>1475</v>
+        <v>1469</v>
       </c>
       <c r="I492" s="19" t="s">
-        <v>1476</v>
+        <v>1470</v>
       </c>
       <c r="J492" s="19" t="s">
-        <v>1844</v>
+        <v>1838</v>
       </c>
       <c r="L492" s="19">
         <v>-31</v>
@@ -42342,19 +42322,19 @@
         <v>0</v>
       </c>
       <c r="O492" s="19" t="s">
-        <v>1845</v>
+        <v>1839</v>
       </c>
       <c r="P492" s="19">
         <v>99800</v>
       </c>
       <c r="Q492" s="19" t="s">
-        <v>1846</v>
+        <v>1840</v>
       </c>
       <c r="R492" s="39" t="s">
-        <v>1847</v>
+        <v>1841</v>
       </c>
       <c r="W492" s="19" t="s">
-        <v>1686</v>
+        <v>1680</v>
       </c>
       <c r="X492" s="19">
         <v>9999999</v>
@@ -42776,7 +42756,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="18" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="C27" s="12">
         <v>1</v>
@@ -42790,7 +42770,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="18" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="C28" s="12">
         <v>1</v>
@@ -42804,7 +42784,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="C29" s="12">
         <v>1</v>
@@ -42818,7 +42798,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="18" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
       <c r="C30" s="12">
         <v>1</v>
@@ -42832,7 +42812,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="18" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="C31" s="12">
         <v>1</v>
@@ -42846,7 +42826,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="18" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="C32" s="12">
         <v>1</v>
@@ -42860,7 +42840,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="18" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="C33" s="12">
         <v>1</v>
@@ -42874,7 +42854,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="18" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
       <c r="C34" s="12">
         <v>1</v>
@@ -42888,7 +42868,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="18" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="C35" s="12">
         <v>1</v>
@@ -42902,7 +42882,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="18" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="C36" s="12">
         <v>1</v>
@@ -42916,7 +42896,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="18" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="C37" s="12">
         <v>1</v>
@@ -42930,7 +42910,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="18" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="C38" s="12">
         <v>1</v>
@@ -42944,7 +42924,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="18" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="C39" s="12">
         <v>1</v>
@@ -42958,7 +42938,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="18" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="C40" s="12">
         <v>1</v>
@@ -42972,7 +42952,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="18" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="C41" s="12">
         <v>1</v>
@@ -42986,7 +42966,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="18" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
       <c r="C42" s="12">
         <v>1</v>
@@ -43000,7 +42980,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="18" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
       <c r="C43" s="12">
         <v>1</v>
@@ -43014,7 +42994,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="18" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
       <c r="C44" s="12">
         <v>1</v>
@@ -43028,7 +43008,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="18" t="s">
-        <v>1312</v>
+        <v>1310</v>
       </c>
       <c r="C45" s="12">
         <v>1</v>
@@ -43042,7 +43022,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="18" t="s">
-        <v>1313</v>
+        <v>1311</v>
       </c>
       <c r="C46" s="12">
         <v>1</v>
@@ -43056,7 +43036,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="18" t="s">
-        <v>1314</v>
+        <v>1312</v>
       </c>
       <c r="C47" s="12">
         <v>1</v>
@@ -43070,7 +43050,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="48" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="C48" s="47">
         <v>1</v>
@@ -43084,7 +43064,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="48" t="s">
-        <v>1388</v>
+        <v>1385</v>
       </c>
       <c r="C49" s="47">
         <v>1</v>
@@ -43098,7 +43078,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="48" t="s">
-        <v>1389</v>
+        <v>1386</v>
       </c>
       <c r="C50" s="47">
         <v>1</v>
@@ -43112,7 +43092,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="48" t="s">
-        <v>1390</v>
+        <v>1387</v>
       </c>
       <c r="C51" s="47">
         <v>1</v>
@@ -43126,7 +43106,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="48" t="s">
-        <v>1391</v>
+        <v>1388</v>
       </c>
       <c r="C52" s="47">
         <v>1</v>
@@ -43140,7 +43120,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="58" t="s">
-        <v>1525</v>
+        <v>1519</v>
       </c>
       <c r="C53" s="57">
         <v>1</v>
@@ -43154,7 +43134,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="58" t="s">
-        <v>1526</v>
+        <v>1520</v>
       </c>
       <c r="C54" s="57">
         <v>1</v>
@@ -43168,7 +43148,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="58" t="s">
-        <v>1527</v>
+        <v>1521</v>
       </c>
       <c r="C55" s="57">
         <v>1</v>
@@ -43182,7 +43162,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="58" t="s">
-        <v>1528</v>
+        <v>1522</v>
       </c>
       <c r="C56" s="57">
         <v>1</v>
@@ -43196,7 +43176,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="58" t="s">
-        <v>1529</v>
+        <v>1523</v>
       </c>
       <c r="C57" s="57">
         <v>1</v>
@@ -43210,7 +43190,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="58" t="s">
-        <v>1530</v>
+        <v>1524</v>
       </c>
       <c r="C58" s="57">
         <v>1</v>
@@ -43224,7 +43204,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="58" t="s">
-        <v>1531</v>
+        <v>1525</v>
       </c>
       <c r="C59" s="57">
         <v>1</v>
@@ -43238,7 +43218,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="58" t="s">
-        <v>1532</v>
+        <v>1526</v>
       </c>
       <c r="C60" s="57">
         <v>1</v>
@@ -43252,7 +43232,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="58" t="s">
-        <v>1533</v>
+        <v>1527</v>
       </c>
       <c r="C61" s="57">
         <v>1</v>
@@ -43266,7 +43246,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="58" t="s">
-        <v>1534</v>
+        <v>1528</v>
       </c>
       <c r="C62" s="57">
         <v>1</v>
@@ -43280,7 +43260,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="58" t="s">
-        <v>1535</v>
+        <v>1529</v>
       </c>
       <c r="C63" s="57">
         <v>1</v>
@@ -43294,7 +43274,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="58" t="s">
-        <v>1536</v>
+        <v>1530</v>
       </c>
       <c r="C64" s="57">
         <v>1</v>
@@ -43308,7 +43288,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="58" t="s">
-        <v>1537</v>
+        <v>1531</v>
       </c>
       <c r="C65" s="57">
         <v>1</v>
@@ -43322,7 +43302,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="58" t="s">
-        <v>1538</v>
+        <v>1532</v>
       </c>
       <c r="C66" s="57">
         <v>1</v>
@@ -43342,7 +43322,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC27"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" workbookViewId="0">
+    <sheetView topLeftCell="P1" workbookViewId="0">
       <selection activeCell="P2" sqref="P2:Q25"/>
     </sheetView>
   </sheetViews>
@@ -43421,7 +43401,7 @@
         <v>29</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>1808</v>
+        <v>1802</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>30</v>
@@ -43504,10 +43484,10 @@
         <v>3</v>
       </c>
       <c r="P2" s="33" t="s">
-        <v>1849</v>
+        <v>1842</v>
       </c>
       <c r="Q2" s="33" t="s">
-        <v>1850</v>
+        <v>1843</v>
       </c>
       <c r="S2" s="33" t="s">
         <v>1072</v>
@@ -43572,10 +43552,10 @@
         <v>4</v>
       </c>
       <c r="P3" s="33" t="s">
-        <v>1851</v>
+        <v>1844</v>
       </c>
       <c r="Q3" s="33" t="s">
-        <v>1852</v>
+        <v>1845</v>
       </c>
       <c r="S3" s="33" t="s">
         <v>1072</v>
@@ -43640,10 +43620,10 @@
         <v>5</v>
       </c>
       <c r="P4" s="33" t="s">
-        <v>1853</v>
+        <v>1846</v>
       </c>
       <c r="Q4" s="33" t="s">
-        <v>1854</v>
+        <v>1847</v>
       </c>
       <c r="S4" s="33" t="s">
         <v>1072</v>
@@ -43708,10 +43688,10 @@
         <v>6</v>
       </c>
       <c r="P5" s="33" t="s">
-        <v>1855</v>
+        <v>1848</v>
       </c>
       <c r="Q5" s="33" t="s">
-        <v>1856</v>
+        <v>1849</v>
       </c>
       <c r="S5" s="33" t="s">
         <v>1072</v>
@@ -43776,10 +43756,10 @@
         <v>7</v>
       </c>
       <c r="P6" s="33" t="s">
-        <v>1857</v>
+        <v>1850</v>
       </c>
       <c r="Q6" s="33" t="s">
-        <v>1858</v>
+        <v>1851</v>
       </c>
       <c r="S6" s="33" t="s">
         <v>1072</v>
@@ -43844,10 +43824,10 @@
         <v>9</v>
       </c>
       <c r="P7" s="33" t="s">
-        <v>1859</v>
+        <v>1852</v>
       </c>
       <c r="Q7" s="33" t="s">
-        <v>1860</v>
+        <v>1853</v>
       </c>
       <c r="S7" s="33" t="s">
         <v>1072</v>
@@ -43909,10 +43889,10 @@
         <v>0</v>
       </c>
       <c r="P8" s="33" t="s">
-        <v>1861</v>
+        <v>1854</v>
       </c>
       <c r="Q8" s="33" t="s">
-        <v>1862</v>
+        <v>1855</v>
       </c>
       <c r="S8" s="33" t="s">
         <v>1072</v>
@@ -43976,10 +43956,10 @@
         <v>2</v>
       </c>
       <c r="P9" s="35" t="s">
-        <v>1810</v>
+        <v>1804</v>
       </c>
       <c r="Q9" s="35" t="s">
-        <v>1811</v>
+        <v>1805</v>
       </c>
       <c r="R9" s="34"/>
       <c r="S9" s="34"/>
@@ -44049,10 +44029,10 @@
         <v>1</v>
       </c>
       <c r="P10" s="35" t="s">
-        <v>1813</v>
+        <v>1807</v>
       </c>
       <c r="Q10" s="35" t="s">
-        <v>1814</v>
+        <v>1808</v>
       </c>
       <c r="R10" s="34"/>
       <c r="S10" s="34"/>
@@ -44120,10 +44100,10 @@
         <v>0</v>
       </c>
       <c r="P11" s="33" t="s">
-        <v>1851</v>
+        <v>1844</v>
       </c>
       <c r="Q11" s="33" t="s">
-        <v>1852</v>
+        <v>1845</v>
       </c>
       <c r="S11" s="33" t="s">
         <v>1072</v>
@@ -44188,10 +44168,10 @@
         <v>9</v>
       </c>
       <c r="P12" s="33" t="s">
-        <v>1863</v>
+        <v>1856</v>
       </c>
       <c r="Q12" s="33" t="s">
-        <v>1864</v>
+        <v>1857</v>
       </c>
       <c r="S12" s="33" t="s">
         <v>1072</v>
@@ -44256,10 +44236,10 @@
         <v>10</v>
       </c>
       <c r="P13" s="33" t="s">
-        <v>1865</v>
+        <v>1858</v>
       </c>
       <c r="Q13" s="33" t="s">
-        <v>1866</v>
+        <v>1859</v>
       </c>
       <c r="S13" s="33" t="s">
         <v>1072</v>
@@ -44324,10 +44304,10 @@
         <v>11</v>
       </c>
       <c r="P14" s="33" t="s">
-        <v>1867</v>
+        <v>1860</v>
       </c>
       <c r="Q14" s="33" t="s">
-        <v>1868</v>
+        <v>1861</v>
       </c>
       <c r="S14" s="33" t="s">
         <v>1079</v>
@@ -44393,10 +44373,10 @@
         <v>0</v>
       </c>
       <c r="P15" s="35" t="s">
-        <v>1818</v>
+        <v>1812</v>
       </c>
       <c r="Q15" s="35" t="s">
-        <v>1817</v>
+        <v>1811</v>
       </c>
       <c r="R15" s="34"/>
       <c r="S15" s="35"/>
@@ -44467,10 +44447,10 @@
         <v>3</v>
       </c>
       <c r="P16" s="33" t="s">
-        <v>1869</v>
+        <v>1862</v>
       </c>
       <c r="Q16" s="33" t="s">
-        <v>1870</v>
+        <v>1863</v>
       </c>
       <c r="R16" s="12"/>
       <c r="S16" s="33" t="s">
@@ -44535,10 +44515,10 @@
         <v>4</v>
       </c>
       <c r="P17" s="33" t="s">
-        <v>1871</v>
+        <v>1864</v>
       </c>
       <c r="Q17" s="33" t="s">
-        <v>1872</v>
+        <v>1865</v>
       </c>
       <c r="R17" s="12"/>
       <c r="S17" s="33" t="s">
@@ -44603,10 +44583,10 @@
         <v>5</v>
       </c>
       <c r="P18" s="33" t="s">
-        <v>1873</v>
+        <v>1866</v>
       </c>
       <c r="Q18" s="33" t="s">
-        <v>1874</v>
+        <v>1867</v>
       </c>
       <c r="R18" s="12"/>
       <c r="S18" s="33" t="s">
@@ -44671,10 +44651,10 @@
         <v>6</v>
       </c>
       <c r="P19" s="33" t="s">
-        <v>1875</v>
+        <v>1868</v>
       </c>
       <c r="Q19" s="33" t="s">
-        <v>1876</v>
+        <v>1869</v>
       </c>
       <c r="R19" s="12"/>
       <c r="S19" s="33" t="s">
@@ -44739,10 +44719,10 @@
         <v>7</v>
       </c>
       <c r="P20" s="33" t="s">
-        <v>1877</v>
+        <v>1870</v>
       </c>
       <c r="Q20" s="33" t="s">
-        <v>1878</v>
+        <v>1871</v>
       </c>
       <c r="S20" s="33" t="s">
         <v>939</v>
@@ -44809,7 +44789,7 @@
         <v>901</v>
       </c>
       <c r="Q21" s="33" t="s">
-        <v>1879</v>
+        <v>1872</v>
       </c>
       <c r="R21" s="11"/>
       <c r="S21" s="33" t="s">
@@ -44879,10 +44859,10 @@
         <v>2</v>
       </c>
       <c r="P22" s="35" t="s">
-        <v>1809</v>
+        <v>1803</v>
       </c>
       <c r="Q22" s="35" t="s">
-        <v>1820</v>
+        <v>1814</v>
       </c>
       <c r="R22" s="34"/>
       <c r="S22" s="35"/>
@@ -44950,10 +44930,10 @@
         <v>1</v>
       </c>
       <c r="P23" s="35" t="s">
-        <v>1812</v>
+        <v>1806</v>
       </c>
       <c r="Q23" s="35" t="s">
-        <v>1814</v>
+        <v>1808</v>
       </c>
       <c r="R23" s="34"/>
       <c r="S23" s="35"/>
@@ -45023,10 +45003,10 @@
         <v>0</v>
       </c>
       <c r="P24" s="35" t="s">
-        <v>1815</v>
+        <v>1809</v>
       </c>
       <c r="Q24" s="35" t="s">
-        <v>1816</v>
+        <v>1810</v>
       </c>
       <c r="R24" s="34"/>
       <c r="S24" s="35"/>
@@ -45097,10 +45077,10 @@
         <v>8</v>
       </c>
       <c r="P25" s="33" t="s">
-        <v>1819</v>
+        <v>1813</v>
       </c>
       <c r="Q25" s="33" t="s">
-        <v>1821</v>
+        <v>1815</v>
       </c>
       <c r="S25" s="33" t="s">
         <v>940</v>

--- a/config_Release/shoping_config_xiaomi.xlsx
+++ b/config_Release/shoping_config_xiaomi.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_12.29\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4079" uniqueCount="1893">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4165" uniqueCount="1933">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -8112,6 +8112,154 @@
   <si>
     <t>98880000,40,40,</t>
     <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>庆典礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>庆典礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢乐庆典-捕鱼</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"5180万","抽奖券*50","双倍奖励*15",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>gift_bag</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_qdlb_cjq","prop_3d_fish_doubled",</t>
+  </si>
+  <si>
+    <t>庆典礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢乐庆典-捕鱼</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"2020万","抽奖券*30","双倍奖励*10",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"990万","抽奖券*20","双倍奖励*5",</t>
+  </si>
+  <si>
+    <t>"483万","抽奖券*3","双倍奖励*3",</t>
+  </si>
+  <si>
+    <t>gift_bag</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"200万","抽奖券*4","双倍奖励*2",</t>
+  </si>
+  <si>
+    <t>"60万","抽奖券*1","双倍奖励*1",</t>
+  </si>
+  <si>
+    <t>欢乐庆典-冲金鸡</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"5180万","抽奖券*50","太阳*20",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_qdlb_cjq","prop_guess_apple_bet_2",</t>
+  </si>
+  <si>
+    <t>"2020万","抽奖券*30","太阳*10",</t>
+  </si>
+  <si>
+    <t>"990万","抽奖券*20","太阳*2",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"483万","抽奖券*3","水滴*6",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_qdlb_cjq","prop_guess_apple_bet_1",</t>
+  </si>
+  <si>
+    <t>"200万","抽奖券*4","水滴*2",</t>
+  </si>
+  <si>
+    <t>欢乐庆典-冲金鸡</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"60万","抽奖券*1","水滴*1",</t>
+  </si>
+  <si>
+    <t>{type="permission_class",class_value = "actp_no_cjj_gej_exchange" }</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{type="permission_class",class_value = "actp_cjj_gej_exchange" }</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>86400,9999,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>86400,9999,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>51800000,50,15,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>20200000,30,10,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>9900000,20,5,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4830000,10,3,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000000,4,2,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>600000,1,1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>51800000,50,20,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>20200000,30,10,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>9900000,20,2,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4830000,10,6,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000000,4,2,</t>
+  </si>
+  <si>
+    <t>600000,1,1,</t>
   </si>
 </sst>
 </file>
@@ -8335,7 +8483,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -8574,6 +8722,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -9040,7 +9191,7 @@
   <dimension ref="A1:AF32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="F28" sqref="F2:F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9185,9 +9336,7 @@
         <v>40</v>
       </c>
       <c r="E2" s="24"/>
-      <c r="F2" s="2">
-        <v>10330</v>
-      </c>
+      <c r="F2" s="11"/>
       <c r="G2" s="11" t="s">
         <v>41</v>
       </c>
@@ -9267,9 +9416,7 @@
         <v>40</v>
       </c>
       <c r="E3" s="24"/>
-      <c r="F3" s="2">
-        <v>85</v>
-      </c>
+      <c r="F3" s="2"/>
       <c r="G3" s="11" t="s">
         <v>41</v>
       </c>
@@ -9349,9 +9496,7 @@
         <v>40</v>
       </c>
       <c r="E4" s="24"/>
-      <c r="F4" s="2">
-        <v>86</v>
-      </c>
+      <c r="F4" s="2"/>
       <c r="G4" s="11" t="s">
         <v>41</v>
       </c>
@@ -9431,9 +9576,7 @@
         <v>40</v>
       </c>
       <c r="E5" s="24"/>
-      <c r="F5" s="2">
-        <v>87</v>
-      </c>
+      <c r="F5" s="2"/>
       <c r="G5" s="11" t="s">
         <v>41</v>
       </c>
@@ -9513,9 +9656,7 @@
         <v>40</v>
       </c>
       <c r="E6" s="24"/>
-      <c r="F6" s="2">
-        <v>88</v>
-      </c>
+      <c r="F6" s="2"/>
       <c r="G6" s="11" t="s">
         <v>41</v>
       </c>
@@ -9595,9 +9736,7 @@
         <v>40</v>
       </c>
       <c r="E7" s="24"/>
-      <c r="F7" s="2">
-        <v>89</v>
-      </c>
+      <c r="F7" s="2"/>
       <c r="G7" s="11" t="s">
         <v>41</v>
       </c>
@@ -9677,9 +9816,7 @@
         <v>40</v>
       </c>
       <c r="E8" s="24"/>
-      <c r="F8" s="2">
-        <v>109</v>
-      </c>
+      <c r="F8" s="2"/>
       <c r="G8" s="11" t="s">
         <v>41</v>
       </c>
@@ -9759,9 +9896,7 @@
         <v>40</v>
       </c>
       <c r="E9" s="23"/>
-      <c r="F9" s="2">
-        <v>10044</v>
-      </c>
+      <c r="F9" s="2"/>
       <c r="G9" s="11" t="s">
         <v>41</v>
       </c>
@@ -9840,9 +9975,6 @@
         <v>40</v>
       </c>
       <c r="E10" s="23"/>
-      <c r="F10" s="11">
-        <v>10045</v>
-      </c>
       <c r="G10" s="11" t="s">
         <v>41</v>
       </c>
@@ -9923,9 +10055,7 @@
       <c r="E11" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="F11" s="11">
-        <v>90</v>
-      </c>
+      <c r="F11" s="11"/>
       <c r="G11" s="2" t="s">
         <v>41</v>
       </c>
@@ -10927,9 +11057,7 @@
         <v>40</v>
       </c>
       <c r="E24" s="46"/>
-      <c r="F24" s="11">
-        <v>10189</v>
-      </c>
+      <c r="F24" s="11"/>
       <c r="G24" s="2" t="s">
         <v>1056</v>
       </c>
@@ -11028,13 +11156,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN496"/>
+  <dimension ref="A1:AN508"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="U506" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="Q489" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F414" sqref="F414"/>
+      <selection pane="bottomRight" activeCell="R497" sqref="R497:R508"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -14887,7 +15015,7 @@
         <v>2</v>
       </c>
       <c r="F67" s="69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G67" s="69" t="s">
         <v>222</v>
@@ -14946,7 +15074,7 @@
         <v>3</v>
       </c>
       <c r="F68" s="69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G68" s="69" t="s">
         <v>224</v>
@@ -15005,7 +15133,7 @@
         <v>4</v>
       </c>
       <c r="F69" s="69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G69" s="69" t="s">
         <v>226</v>
@@ -15064,7 +15192,7 @@
         <v>5</v>
       </c>
       <c r="F70" s="69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G70" s="69" t="s">
         <v>228</v>
@@ -15123,7 +15251,7 @@
         <v>6</v>
       </c>
       <c r="F71" s="69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G71" s="69" t="s">
         <v>229</v>
@@ -16471,7 +16599,7 @@
         <v>109</v>
       </c>
       <c r="F94" s="69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G94" s="69" t="s">
         <v>253</v>
@@ -18505,7 +18633,7 @@
         <v>108</v>
       </c>
       <c r="F128" s="69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G128" s="69" t="s">
         <v>319</v>
@@ -18564,7 +18692,7 @@
         <v>110</v>
       </c>
       <c r="F129" s="69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G129" s="69" t="s">
         <v>1126</v>
@@ -27867,7 +27995,7 @@
         <v>111</v>
       </c>
       <c r="F273" s="69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G273" s="69" t="s">
         <v>520</v>
@@ -37302,7 +37430,7 @@
         <v>1</v>
       </c>
       <c r="F414" s="69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G414" s="69" t="s">
         <v>1375</v>
@@ -42766,6 +42894,930 @@
         <v>1</v>
       </c>
       <c r="AM496" s="43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="497" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A497" s="5">
+        <v>496</v>
+      </c>
+      <c r="B497" s="49">
+        <v>10413</v>
+      </c>
+      <c r="C497" s="49"/>
+      <c r="D497" s="49"/>
+      <c r="E497" s="49"/>
+      <c r="F497" s="49">
+        <v>1</v>
+      </c>
+      <c r="G497" s="49" t="s">
+        <v>1894</v>
+      </c>
+      <c r="H497" s="49"/>
+      <c r="I497" s="49" t="s">
+        <v>1895</v>
+      </c>
+      <c r="J497" s="49" t="s">
+        <v>1896</v>
+      </c>
+      <c r="K497" s="49"/>
+      <c r="L497" s="49">
+        <v>-31</v>
+      </c>
+      <c r="M497" s="49">
+        <v>0</v>
+      </c>
+      <c r="N497" s="49">
+        <v>0</v>
+      </c>
+      <c r="O497" s="49" t="s">
+        <v>1897</v>
+      </c>
+      <c r="P497" s="49">
+        <v>49800</v>
+      </c>
+      <c r="Q497" s="49" t="s">
+        <v>1898</v>
+      </c>
+      <c r="R497" s="50" t="s">
+        <v>1921</v>
+      </c>
+      <c r="S497" s="49"/>
+      <c r="T497" s="49"/>
+      <c r="U497" s="49"/>
+      <c r="V497" s="49"/>
+      <c r="W497" s="49" t="s">
+        <v>1919</v>
+      </c>
+      <c r="X497" s="49">
+        <v>99999999</v>
+      </c>
+      <c r="Y497" s="49">
+        <v>1609804800</v>
+      </c>
+      <c r="Z497" s="49">
+        <v>1610380799</v>
+      </c>
+      <c r="AA497" s="49">
+        <v>66</v>
+      </c>
+      <c r="AH497" s="6">
+        <v>1</v>
+      </c>
+      <c r="AI497" s="6">
+        <v>1</v>
+      </c>
+      <c r="AL497" s="6">
+        <v>1</v>
+      </c>
+      <c r="AM497" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="498" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A498" s="5">
+        <v>497</v>
+      </c>
+      <c r="B498" s="49">
+        <v>10414</v>
+      </c>
+      <c r="C498" s="49"/>
+      <c r="D498" s="49"/>
+      <c r="E498" s="49"/>
+      <c r="F498" s="49">
+        <v>1</v>
+      </c>
+      <c r="G498" s="49" t="s">
+        <v>1899</v>
+      </c>
+      <c r="H498" s="49"/>
+      <c r="I498" s="49" t="s">
+        <v>1900</v>
+      </c>
+      <c r="J498" s="49" t="s">
+        <v>1901</v>
+      </c>
+      <c r="K498" s="49"/>
+      <c r="L498" s="49">
+        <v>-31</v>
+      </c>
+      <c r="M498" s="49">
+        <v>0</v>
+      </c>
+      <c r="N498" s="49">
+        <v>0</v>
+      </c>
+      <c r="O498" s="49" t="s">
+        <v>481</v>
+      </c>
+      <c r="P498" s="49">
+        <v>19800</v>
+      </c>
+      <c r="Q498" s="49" t="s">
+        <v>1898</v>
+      </c>
+      <c r="R498" s="50" t="s">
+        <v>1922</v>
+      </c>
+      <c r="S498" s="49"/>
+      <c r="T498" s="49"/>
+      <c r="U498" s="49"/>
+      <c r="V498" s="49"/>
+      <c r="W498" s="49" t="s">
+        <v>1920</v>
+      </c>
+      <c r="X498" s="49">
+        <v>99999999</v>
+      </c>
+      <c r="Y498" s="49">
+        <v>1609804800</v>
+      </c>
+      <c r="Z498" s="49">
+        <v>1610380799</v>
+      </c>
+      <c r="AA498" s="49">
+        <v>66</v>
+      </c>
+      <c r="AH498" s="6">
+        <v>1</v>
+      </c>
+      <c r="AI498" s="6">
+        <v>1</v>
+      </c>
+      <c r="AL498" s="6">
+        <v>1</v>
+      </c>
+      <c r="AM498" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="499" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A499" s="5">
+        <v>498</v>
+      </c>
+      <c r="B499" s="49">
+        <v>10415</v>
+      </c>
+      <c r="C499" s="49"/>
+      <c r="D499" s="49"/>
+      <c r="E499" s="49"/>
+      <c r="F499" s="49">
+        <v>1</v>
+      </c>
+      <c r="G499" s="49" t="s">
+        <v>1899</v>
+      </c>
+      <c r="H499" s="49"/>
+      <c r="I499" s="49" t="s">
+        <v>1895</v>
+      </c>
+      <c r="J499" s="49" t="s">
+        <v>1902</v>
+      </c>
+      <c r="K499" s="49"/>
+      <c r="L499" s="49">
+        <v>-31</v>
+      </c>
+      <c r="M499" s="49">
+        <v>0</v>
+      </c>
+      <c r="N499" s="49">
+        <v>0</v>
+      </c>
+      <c r="O499" s="49" t="s">
+        <v>1897</v>
+      </c>
+      <c r="P499" s="49">
+        <v>9800</v>
+      </c>
+      <c r="Q499" s="49" t="s">
+        <v>1898</v>
+      </c>
+      <c r="R499" s="50" t="s">
+        <v>1923</v>
+      </c>
+      <c r="S499" s="49"/>
+      <c r="T499" s="49"/>
+      <c r="U499" s="49"/>
+      <c r="V499" s="49"/>
+      <c r="W499" s="49" t="s">
+        <v>1920</v>
+      </c>
+      <c r="X499" s="49">
+        <v>99999999</v>
+      </c>
+      <c r="Y499" s="49">
+        <v>1609804800</v>
+      </c>
+      <c r="Z499" s="49">
+        <v>1610380799</v>
+      </c>
+      <c r="AA499" s="49">
+        <v>66</v>
+      </c>
+      <c r="AH499" s="6">
+        <v>1</v>
+      </c>
+      <c r="AI499" s="6">
+        <v>1</v>
+      </c>
+      <c r="AL499" s="6">
+        <v>1</v>
+      </c>
+      <c r="AM499" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="500" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A500" s="5">
+        <v>499</v>
+      </c>
+      <c r="B500" s="49">
+        <v>10416</v>
+      </c>
+      <c r="C500" s="49"/>
+      <c r="D500" s="49"/>
+      <c r="E500" s="49"/>
+      <c r="F500" s="49">
+        <v>1</v>
+      </c>
+      <c r="G500" s="49" t="s">
+        <v>1894</v>
+      </c>
+      <c r="H500" s="49"/>
+      <c r="I500" s="49" t="s">
+        <v>1900</v>
+      </c>
+      <c r="J500" s="49" t="s">
+        <v>1903</v>
+      </c>
+      <c r="K500" s="49"/>
+      <c r="L500" s="49">
+        <v>-31</v>
+      </c>
+      <c r="M500" s="49">
+        <v>0</v>
+      </c>
+      <c r="N500" s="49">
+        <v>0</v>
+      </c>
+      <c r="O500" s="49" t="s">
+        <v>1904</v>
+      </c>
+      <c r="P500" s="49">
+        <v>4800</v>
+      </c>
+      <c r="Q500" s="49" t="s">
+        <v>1898</v>
+      </c>
+      <c r="R500" s="50" t="s">
+        <v>1924</v>
+      </c>
+      <c r="S500" s="49"/>
+      <c r="T500" s="49"/>
+      <c r="U500" s="49"/>
+      <c r="V500" s="49"/>
+      <c r="W500" s="49" t="s">
+        <v>1919</v>
+      </c>
+      <c r="X500" s="49">
+        <v>99999999</v>
+      </c>
+      <c r="Y500" s="49">
+        <v>1609804800</v>
+      </c>
+      <c r="Z500" s="49">
+        <v>1610380799</v>
+      </c>
+      <c r="AA500" s="49">
+        <v>66</v>
+      </c>
+      <c r="AH500" s="6">
+        <v>1</v>
+      </c>
+      <c r="AI500" s="6">
+        <v>1</v>
+      </c>
+      <c r="AL500" s="6">
+        <v>1</v>
+      </c>
+      <c r="AM500" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="501" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A501" s="5">
+        <v>500</v>
+      </c>
+      <c r="B501" s="49">
+        <v>10417</v>
+      </c>
+      <c r="C501" s="49"/>
+      <c r="D501" s="49"/>
+      <c r="E501" s="49"/>
+      <c r="F501" s="49">
+        <v>1</v>
+      </c>
+      <c r="G501" s="49" t="s">
+        <v>1899</v>
+      </c>
+      <c r="H501" s="49"/>
+      <c r="I501" s="49" t="s">
+        <v>1895</v>
+      </c>
+      <c r="J501" s="49" t="s">
+        <v>1905</v>
+      </c>
+      <c r="K501" s="49"/>
+      <c r="L501" s="49">
+        <v>-31</v>
+      </c>
+      <c r="M501" s="49">
+        <v>0</v>
+      </c>
+      <c r="N501" s="49">
+        <v>0</v>
+      </c>
+      <c r="O501" s="49" t="s">
+        <v>1897</v>
+      </c>
+      <c r="P501" s="49">
+        <v>2000</v>
+      </c>
+      <c r="Q501" s="49" t="s">
+        <v>1898</v>
+      </c>
+      <c r="R501" s="50" t="s">
+        <v>1925</v>
+      </c>
+      <c r="S501" s="49"/>
+      <c r="T501" s="49"/>
+      <c r="U501" s="49"/>
+      <c r="V501" s="49"/>
+      <c r="W501" s="49" t="s">
+        <v>1920</v>
+      </c>
+      <c r="X501" s="49">
+        <v>99999999</v>
+      </c>
+      <c r="Y501" s="49">
+        <v>1609804800</v>
+      </c>
+      <c r="Z501" s="49">
+        <v>1610380799</v>
+      </c>
+      <c r="AA501" s="49">
+        <v>66</v>
+      </c>
+      <c r="AH501" s="6">
+        <v>1</v>
+      </c>
+      <c r="AI501" s="6">
+        <v>1</v>
+      </c>
+      <c r="AL501" s="6">
+        <v>1</v>
+      </c>
+      <c r="AM501" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="502" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A502" s="5">
+        <v>501</v>
+      </c>
+      <c r="B502" s="49">
+        <v>10418</v>
+      </c>
+      <c r="C502" s="49"/>
+      <c r="D502" s="49"/>
+      <c r="E502" s="49"/>
+      <c r="F502" s="49">
+        <v>1</v>
+      </c>
+      <c r="G502" s="49" t="s">
+        <v>1899</v>
+      </c>
+      <c r="H502" s="49"/>
+      <c r="I502" s="49" t="s">
+        <v>1895</v>
+      </c>
+      <c r="J502" s="49" t="s">
+        <v>1906</v>
+      </c>
+      <c r="K502" s="49"/>
+      <c r="L502" s="49">
+        <v>-31</v>
+      </c>
+      <c r="M502" s="49">
+        <v>0</v>
+      </c>
+      <c r="N502" s="49">
+        <v>0</v>
+      </c>
+      <c r="O502" s="49" t="s">
+        <v>1897</v>
+      </c>
+      <c r="P502" s="49">
+        <v>600</v>
+      </c>
+      <c r="Q502" s="49" t="s">
+        <v>1898</v>
+      </c>
+      <c r="R502" s="50" t="s">
+        <v>1926</v>
+      </c>
+      <c r="S502" s="49"/>
+      <c r="T502" s="49"/>
+      <c r="U502" s="49"/>
+      <c r="V502" s="49"/>
+      <c r="W502" s="49" t="s">
+        <v>1920</v>
+      </c>
+      <c r="X502" s="49">
+        <v>99999999</v>
+      </c>
+      <c r="Y502" s="49">
+        <v>1609804800</v>
+      </c>
+      <c r="Z502" s="49">
+        <v>1610380799</v>
+      </c>
+      <c r="AA502" s="49">
+        <v>66</v>
+      </c>
+      <c r="AH502" s="6">
+        <v>1</v>
+      </c>
+      <c r="AI502" s="6">
+        <v>1</v>
+      </c>
+      <c r="AL502" s="6">
+        <v>1</v>
+      </c>
+      <c r="AM502" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="503" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A503" s="5">
+        <v>502</v>
+      </c>
+      <c r="B503" s="65">
+        <v>10419</v>
+      </c>
+      <c r="C503" s="65"/>
+      <c r="D503" s="65"/>
+      <c r="E503" s="65"/>
+      <c r="F503" s="65">
+        <v>1</v>
+      </c>
+      <c r="G503" s="65" t="s">
+        <v>1894</v>
+      </c>
+      <c r="H503" s="65"/>
+      <c r="I503" s="65" t="s">
+        <v>1907</v>
+      </c>
+      <c r="J503" s="65" t="s">
+        <v>1908</v>
+      </c>
+      <c r="K503" s="65"/>
+      <c r="L503" s="65">
+        <v>-31</v>
+      </c>
+      <c r="M503" s="65">
+        <v>0</v>
+      </c>
+      <c r="N503" s="65">
+        <v>0</v>
+      </c>
+      <c r="O503" s="65" t="s">
+        <v>481</v>
+      </c>
+      <c r="P503" s="65">
+        <v>49800</v>
+      </c>
+      <c r="Q503" s="65" t="s">
+        <v>1909</v>
+      </c>
+      <c r="R503" s="80" t="s">
+        <v>1927</v>
+      </c>
+      <c r="S503" s="65"/>
+      <c r="T503" s="65"/>
+      <c r="U503" s="65"/>
+      <c r="V503" s="65"/>
+      <c r="W503" s="49" t="s">
+        <v>1919</v>
+      </c>
+      <c r="X503" s="65">
+        <v>99999999</v>
+      </c>
+      <c r="Y503" s="65">
+        <v>1609804800</v>
+      </c>
+      <c r="Z503" s="65">
+        <v>1610380799</v>
+      </c>
+      <c r="AA503" s="65">
+        <v>67</v>
+      </c>
+      <c r="AH503" s="6">
+        <v>1</v>
+      </c>
+      <c r="AI503" s="6">
+        <v>1</v>
+      </c>
+      <c r="AL503" s="6">
+        <v>1</v>
+      </c>
+      <c r="AM503" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="504" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A504" s="5">
+        <v>503</v>
+      </c>
+      <c r="B504" s="65">
+        <v>10420</v>
+      </c>
+      <c r="C504" s="65"/>
+      <c r="D504" s="65"/>
+      <c r="E504" s="65"/>
+      <c r="F504" s="65">
+        <v>1</v>
+      </c>
+      <c r="G504" s="65" t="s">
+        <v>1893</v>
+      </c>
+      <c r="H504" s="65"/>
+      <c r="I504" s="65" t="s">
+        <v>1907</v>
+      </c>
+      <c r="J504" s="65" t="s">
+        <v>1910</v>
+      </c>
+      <c r="K504" s="65"/>
+      <c r="L504" s="65">
+        <v>-31</v>
+      </c>
+      <c r="M504" s="65">
+        <v>0</v>
+      </c>
+      <c r="N504" s="65">
+        <v>0</v>
+      </c>
+      <c r="O504" s="65" t="s">
+        <v>1904</v>
+      </c>
+      <c r="P504" s="65">
+        <v>19800</v>
+      </c>
+      <c r="Q504" s="65" t="s">
+        <v>1909</v>
+      </c>
+      <c r="R504" s="80" t="s">
+        <v>1928</v>
+      </c>
+      <c r="S504" s="65"/>
+      <c r="T504" s="65"/>
+      <c r="U504" s="65"/>
+      <c r="V504" s="65"/>
+      <c r="W504" s="49" t="s">
+        <v>1920</v>
+      </c>
+      <c r="X504" s="65">
+        <v>99999999</v>
+      </c>
+      <c r="Y504" s="65">
+        <v>1609804800</v>
+      </c>
+      <c r="Z504" s="65">
+        <v>1610380799</v>
+      </c>
+      <c r="AA504" s="65">
+        <v>67</v>
+      </c>
+      <c r="AH504" s="6">
+        <v>1</v>
+      </c>
+      <c r="AI504" s="6">
+        <v>1</v>
+      </c>
+      <c r="AL504" s="6">
+        <v>1</v>
+      </c>
+      <c r="AM504" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="505" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A505" s="5">
+        <v>504</v>
+      </c>
+      <c r="B505" s="65">
+        <v>10421</v>
+      </c>
+      <c r="C505" s="65"/>
+      <c r="D505" s="65"/>
+      <c r="E505" s="65"/>
+      <c r="F505" s="65">
+        <v>1</v>
+      </c>
+      <c r="G505" s="65" t="s">
+        <v>1894</v>
+      </c>
+      <c r="H505" s="65"/>
+      <c r="I505" s="65" t="s">
+        <v>1907</v>
+      </c>
+      <c r="J505" s="65" t="s">
+        <v>1911</v>
+      </c>
+      <c r="K505" s="65"/>
+      <c r="L505" s="65">
+        <v>-31</v>
+      </c>
+      <c r="M505" s="65">
+        <v>0</v>
+      </c>
+      <c r="N505" s="65">
+        <v>0</v>
+      </c>
+      <c r="O505" s="65" t="s">
+        <v>1897</v>
+      </c>
+      <c r="P505" s="65">
+        <v>9800</v>
+      </c>
+      <c r="Q505" s="65" t="s">
+        <v>1909</v>
+      </c>
+      <c r="R505" s="80" t="s">
+        <v>1929</v>
+      </c>
+      <c r="S505" s="65"/>
+      <c r="T505" s="65"/>
+      <c r="U505" s="65"/>
+      <c r="V505" s="65"/>
+      <c r="W505" s="49" t="s">
+        <v>1920</v>
+      </c>
+      <c r="X505" s="65">
+        <v>99999999</v>
+      </c>
+      <c r="Y505" s="65">
+        <v>1609804800</v>
+      </c>
+      <c r="Z505" s="65">
+        <v>1610380799</v>
+      </c>
+      <c r="AA505" s="65">
+        <v>67</v>
+      </c>
+      <c r="AH505" s="6">
+        <v>1</v>
+      </c>
+      <c r="AI505" s="6">
+        <v>1</v>
+      </c>
+      <c r="AL505" s="6">
+        <v>1</v>
+      </c>
+      <c r="AM505" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="506" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A506" s="5">
+        <v>505</v>
+      </c>
+      <c r="B506" s="65">
+        <v>10422</v>
+      </c>
+      <c r="C506" s="65"/>
+      <c r="D506" s="65"/>
+      <c r="E506" s="65"/>
+      <c r="F506" s="65">
+        <v>1</v>
+      </c>
+      <c r="G506" s="65" t="s">
+        <v>1894</v>
+      </c>
+      <c r="H506" s="65"/>
+      <c r="I506" s="65" t="s">
+        <v>1907</v>
+      </c>
+      <c r="J506" s="65" t="s">
+        <v>1912</v>
+      </c>
+      <c r="K506" s="65"/>
+      <c r="L506" s="65">
+        <v>-31</v>
+      </c>
+      <c r="M506" s="65">
+        <v>0</v>
+      </c>
+      <c r="N506" s="65">
+        <v>0</v>
+      </c>
+      <c r="O506" s="65" t="s">
+        <v>1897</v>
+      </c>
+      <c r="P506" s="65">
+        <v>4800</v>
+      </c>
+      <c r="Q506" s="65" t="s">
+        <v>1913</v>
+      </c>
+      <c r="R506" s="80" t="s">
+        <v>1930</v>
+      </c>
+      <c r="S506" s="65"/>
+      <c r="T506" s="65"/>
+      <c r="U506" s="65"/>
+      <c r="V506" s="65"/>
+      <c r="W506" s="49" t="s">
+        <v>1919</v>
+      </c>
+      <c r="X506" s="65">
+        <v>99999999</v>
+      </c>
+      <c r="Y506" s="65">
+        <v>1609804800</v>
+      </c>
+      <c r="Z506" s="65">
+        <v>1610380799</v>
+      </c>
+      <c r="AA506" s="65">
+        <v>67</v>
+      </c>
+      <c r="AH506" s="6">
+        <v>1</v>
+      </c>
+      <c r="AI506" s="6">
+        <v>1</v>
+      </c>
+      <c r="AL506" s="6">
+        <v>1</v>
+      </c>
+      <c r="AM506" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="507" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A507" s="5">
+        <v>506</v>
+      </c>
+      <c r="B507" s="65">
+        <v>10423</v>
+      </c>
+      <c r="C507" s="65"/>
+      <c r="D507" s="65"/>
+      <c r="E507" s="65"/>
+      <c r="F507" s="65">
+        <v>1</v>
+      </c>
+      <c r="G507" s="65" t="s">
+        <v>1899</v>
+      </c>
+      <c r="H507" s="65"/>
+      <c r="I507" s="65" t="s">
+        <v>1907</v>
+      </c>
+      <c r="J507" s="65" t="s">
+        <v>1914</v>
+      </c>
+      <c r="K507" s="65"/>
+      <c r="L507" s="65">
+        <v>-31</v>
+      </c>
+      <c r="M507" s="65">
+        <v>0</v>
+      </c>
+      <c r="N507" s="65">
+        <v>0</v>
+      </c>
+      <c r="O507" s="65" t="s">
+        <v>1897</v>
+      </c>
+      <c r="P507" s="65">
+        <v>2000</v>
+      </c>
+      <c r="Q507" s="65" t="s">
+        <v>1913</v>
+      </c>
+      <c r="R507" s="80" t="s">
+        <v>1931</v>
+      </c>
+      <c r="S507" s="65"/>
+      <c r="T507" s="65"/>
+      <c r="U507" s="65"/>
+      <c r="V507" s="65"/>
+      <c r="W507" s="49" t="s">
+        <v>1920</v>
+      </c>
+      <c r="X507" s="65">
+        <v>99999999</v>
+      </c>
+      <c r="Y507" s="65">
+        <v>1609804800</v>
+      </c>
+      <c r="Z507" s="65">
+        <v>1610380799</v>
+      </c>
+      <c r="AA507" s="65">
+        <v>67</v>
+      </c>
+      <c r="AH507" s="6">
+        <v>1</v>
+      </c>
+      <c r="AI507" s="6">
+        <v>1</v>
+      </c>
+      <c r="AL507" s="6">
+        <v>1</v>
+      </c>
+      <c r="AM507" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="508" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A508" s="5">
+        <v>507</v>
+      </c>
+      <c r="B508" s="65">
+        <v>10424</v>
+      </c>
+      <c r="C508" s="65"/>
+      <c r="D508" s="65"/>
+      <c r="E508" s="65"/>
+      <c r="F508" s="65">
+        <v>1</v>
+      </c>
+      <c r="G508" s="65" t="s">
+        <v>1893</v>
+      </c>
+      <c r="H508" s="65"/>
+      <c r="I508" s="65" t="s">
+        <v>1915</v>
+      </c>
+      <c r="J508" s="65" t="s">
+        <v>1916</v>
+      </c>
+      <c r="K508" s="65"/>
+      <c r="L508" s="65">
+        <v>-31</v>
+      </c>
+      <c r="M508" s="65">
+        <v>0</v>
+      </c>
+      <c r="N508" s="65">
+        <v>0</v>
+      </c>
+      <c r="O508" s="65" t="s">
+        <v>1897</v>
+      </c>
+      <c r="P508" s="65">
+        <v>600</v>
+      </c>
+      <c r="Q508" s="65" t="s">
+        <v>1913</v>
+      </c>
+      <c r="R508" s="80" t="s">
+        <v>1932</v>
+      </c>
+      <c r="S508" s="65"/>
+      <c r="T508" s="65"/>
+      <c r="U508" s="65"/>
+      <c r="V508" s="65"/>
+      <c r="W508" s="49" t="s">
+        <v>1920</v>
+      </c>
+      <c r="X508" s="65">
+        <v>99999999</v>
+      </c>
+      <c r="Y508" s="65">
+        <v>1609804800</v>
+      </c>
+      <c r="Z508" s="65">
+        <v>1610380799</v>
+      </c>
+      <c r="AA508" s="65">
+        <v>67</v>
+      </c>
+      <c r="AH508" s="6">
+        <v>1</v>
+      </c>
+      <c r="AI508" s="6">
+        <v>1</v>
+      </c>
+      <c r="AL508" s="6">
+        <v>1</v>
+      </c>
+      <c r="AM508" s="6">
         <v>1</v>
       </c>
     </row>
@@ -42779,10 +43831,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E66"/>
+  <dimension ref="A1:E68"/>
   <sheetViews>
     <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B57" sqref="B57"/>
+      <selection activeCell="C72" sqref="C72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -43720,6 +44772,34 @@
       </c>
       <c r="D66" s="57">
         <v>600</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" s="25">
+        <v>66</v>
+      </c>
+      <c r="B67" s="28" t="s">
+        <v>1917</v>
+      </c>
+      <c r="C67" s="25">
+        <v>1</v>
+      </c>
+      <c r="D67" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" s="25">
+        <v>67</v>
+      </c>
+      <c r="B68" s="28" t="s">
+        <v>1918</v>
+      </c>
+      <c r="C68" s="25">
+        <v>1</v>
+      </c>
+      <c r="D68" s="25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/config_Release/shoping_config_xiaomi.xlsx
+++ b/config_Release/shoping_config_xiaomi.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4165" uniqueCount="1933">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="1983">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -8208,6 +8208,245 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
+    <t>幸运金币18元</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"随机获得180万-500万金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{1850000,1950000,100,},</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1800000,5000000</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>幸运金币48元</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"随机获得480万-1500万金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{5000000,5200000,100,},</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4800000,15000000</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>幸运金币98元</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"随机获得980万-3000万金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{10000000,10800000,100,},</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>9800000,30000000</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢乐礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢乐礼包-欢乐捕鱼</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"5020万金币","双倍奖励卡*10","传说宝箱*15",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>gift_bag</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_3d_fish_doubled","prop_hqjnh_csbox",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>50200000,10,15,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>86400,1,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"2010万金币","双倍奖励卡*6","传说宝箱*5",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>20100000,6,5,</t>
+  </si>
+  <si>
+    <t>"996万金币","双倍奖励卡*4","史诗宝箱*3",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_3d_fish_doubled","prop_hqjnh_ssbox",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>9960000,4,3,</t>
+  </si>
+  <si>
+    <t>"488万金币","双倍奖励卡*2","稀有宝箱*3",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_3d_fish_doubled","prop_hqjnh_xybox",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4880000,2,3,</t>
+  </si>
+  <si>
+    <t>欢乐礼包-冲金鸡</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_guess_apple_bet_2","prop_hqjnh_csbox",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>50000000,4,15,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>gift_bag</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>20000000,2,5,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_guess_apple_bet_1","prop_hqjnh_ssbox",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>9960000,8,3,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_guess_apple_bet_1","prop_hqjnh_xybox",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4880000,4,3,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>86400,1,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{type="permission_class",class_value = "hqjnh_046_nor_hllb" }</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{type="permission_class",class_value = "hqjnh_046_cjj_hllb" }</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>周卡</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>冲金鸡</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"100万金币","首次救济金为6万金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","obj_week_card",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000000,1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{valid_time=604800},</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>604800,1,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"5000万金币","太阳*4","传说宝箱*15",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"2000万金币","太阳*2","传说宝箱*5",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"996万金币","水滴*8","史诗宝箱*3",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"488万金币","水滴*4","稀有宝箱*3",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>51800000,50,15,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>20200000,30,10,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>9900000,20,5,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4830000,10,3,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000000,4,2,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>600000,1,1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>51800000,50,20,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>9900000,20,2,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4830000,10,6,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000000,4,2,</t>
+  </si>
+  <si>
+    <t>600000,1,1,</t>
+  </si>
+  <si>
     <t>86400,9999,0</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -8216,50 +8455,8 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>51800000,50,15,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>20200000,30,10,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>9900000,20,5,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>4830000,10,3,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>2000000,4,2,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>600000,1,1,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>51800000,50,20,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>20200000,30,10,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>9900000,20,2,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>4830000,10,6,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>2000000,4,2,</t>
-  </si>
-  <si>
-    <t>600000,1,1,</t>
+    <t>86400,9999,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -8483,7 +8680,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -8726,6 +8923,12 @@
     </xf>
     <xf numFmtId="49" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -9191,7 +9394,7 @@
   <dimension ref="A1:AF32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F28" sqref="F2:F28"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9336,7 +9539,9 @@
         <v>40</v>
       </c>
       <c r="E2" s="24"/>
-      <c r="F2" s="11"/>
+      <c r="F2" s="2">
+        <v>10330</v>
+      </c>
       <c r="G2" s="11" t="s">
         <v>41</v>
       </c>
@@ -9416,7 +9621,9 @@
         <v>40</v>
       </c>
       <c r="E3" s="24"/>
-      <c r="F3" s="2"/>
+      <c r="F3" s="2">
+        <v>85</v>
+      </c>
       <c r="G3" s="11" t="s">
         <v>41</v>
       </c>
@@ -9496,7 +9703,9 @@
         <v>40</v>
       </c>
       <c r="E4" s="24"/>
-      <c r="F4" s="2"/>
+      <c r="F4" s="2">
+        <v>86</v>
+      </c>
       <c r="G4" s="11" t="s">
         <v>41</v>
       </c>
@@ -9576,7 +9785,9 @@
         <v>40</v>
       </c>
       <c r="E5" s="24"/>
-      <c r="F5" s="2"/>
+      <c r="F5" s="2">
+        <v>87</v>
+      </c>
       <c r="G5" s="11" t="s">
         <v>41</v>
       </c>
@@ -9656,7 +9867,9 @@
         <v>40</v>
       </c>
       <c r="E6" s="24"/>
-      <c r="F6" s="2"/>
+      <c r="F6" s="2">
+        <v>88</v>
+      </c>
       <c r="G6" s="11" t="s">
         <v>41</v>
       </c>
@@ -9736,7 +9949,9 @@
         <v>40</v>
       </c>
       <c r="E7" s="24"/>
-      <c r="F7" s="2"/>
+      <c r="F7" s="2">
+        <v>89</v>
+      </c>
       <c r="G7" s="11" t="s">
         <v>41</v>
       </c>
@@ -9816,7 +10031,9 @@
         <v>40</v>
       </c>
       <c r="E8" s="24"/>
-      <c r="F8" s="2"/>
+      <c r="F8" s="2">
+        <v>109</v>
+      </c>
       <c r="G8" s="11" t="s">
         <v>41</v>
       </c>
@@ -9896,7 +10113,9 @@
         <v>40</v>
       </c>
       <c r="E9" s="23"/>
-      <c r="F9" s="2"/>
+      <c r="F9" s="2">
+        <v>10044</v>
+      </c>
       <c r="G9" s="11" t="s">
         <v>41</v>
       </c>
@@ -9975,6 +10194,9 @@
         <v>40</v>
       </c>
       <c r="E10" s="23"/>
+      <c r="F10" s="11">
+        <v>10045</v>
+      </c>
       <c r="G10" s="11" t="s">
         <v>41</v>
       </c>
@@ -10055,7 +10277,9 @@
       <c r="E11" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="F11" s="11"/>
+      <c r="F11" s="11">
+        <v>90</v>
+      </c>
       <c r="G11" s="2" t="s">
         <v>41</v>
       </c>
@@ -11057,7 +11281,9 @@
         <v>40</v>
       </c>
       <c r="E24" s="46"/>
-      <c r="F24" s="11"/>
+      <c r="F24" s="11">
+        <v>10189</v>
+      </c>
       <c r="G24" s="2" t="s">
         <v>1056</v>
       </c>
@@ -11156,13 +11382,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN508"/>
+  <dimension ref="A1:AN520"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="Q489" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="T482" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="R497" sqref="R497:R508"/>
+      <selection pane="bottomRight" activeCell="W505" sqref="W505"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -15015,7 +15241,7 @@
         <v>2</v>
       </c>
       <c r="F67" s="69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G67" s="69" t="s">
         <v>222</v>
@@ -15074,7 +15300,7 @@
         <v>3</v>
       </c>
       <c r="F68" s="69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G68" s="69" t="s">
         <v>224</v>
@@ -15133,7 +15359,7 @@
         <v>4</v>
       </c>
       <c r="F69" s="69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G69" s="69" t="s">
         <v>226</v>
@@ -15192,7 +15418,7 @@
         <v>5</v>
       </c>
       <c r="F70" s="69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G70" s="69" t="s">
         <v>228</v>
@@ -15251,7 +15477,7 @@
         <v>6</v>
       </c>
       <c r="F71" s="69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G71" s="69" t="s">
         <v>229</v>
@@ -16599,7 +16825,7 @@
         <v>109</v>
       </c>
       <c r="F94" s="69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G94" s="69" t="s">
         <v>253</v>
@@ -18633,7 +18859,7 @@
         <v>108</v>
       </c>
       <c r="F128" s="69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G128" s="69" t="s">
         <v>319</v>
@@ -18692,7 +18918,7 @@
         <v>110</v>
       </c>
       <c r="F129" s="69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G129" s="69" t="s">
         <v>1126</v>
@@ -27995,7 +28221,7 @@
         <v>111</v>
       </c>
       <c r="F273" s="69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G273" s="69" t="s">
         <v>520</v>
@@ -37430,7 +37656,7 @@
         <v>1</v>
       </c>
       <c r="F414" s="69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G414" s="69" t="s">
         <v>1375</v>
@@ -42940,14 +43166,14 @@
         <v>1898</v>
       </c>
       <c r="R497" s="50" t="s">
-        <v>1921</v>
+        <v>1969</v>
       </c>
       <c r="S497" s="49"/>
       <c r="T497" s="49"/>
       <c r="U497" s="49"/>
       <c r="V497" s="49"/>
       <c r="W497" s="49" t="s">
-        <v>1919</v>
+        <v>1980</v>
       </c>
       <c r="X497" s="49">
         <v>99999999</v>
@@ -43017,14 +43243,14 @@
         <v>1898</v>
       </c>
       <c r="R498" s="50" t="s">
-        <v>1922</v>
+        <v>1970</v>
       </c>
       <c r="S498" s="49"/>
       <c r="T498" s="49"/>
       <c r="U498" s="49"/>
       <c r="V498" s="49"/>
       <c r="W498" s="49" t="s">
-        <v>1920</v>
+        <v>1980</v>
       </c>
       <c r="X498" s="49">
         <v>99999999</v>
@@ -43094,14 +43320,14 @@
         <v>1898</v>
       </c>
       <c r="R499" s="50" t="s">
-        <v>1923</v>
+        <v>1971</v>
       </c>
       <c r="S499" s="49"/>
       <c r="T499" s="49"/>
       <c r="U499" s="49"/>
       <c r="V499" s="49"/>
       <c r="W499" s="49" t="s">
-        <v>1920</v>
+        <v>1980</v>
       </c>
       <c r="X499" s="49">
         <v>99999999</v>
@@ -43171,14 +43397,14 @@
         <v>1898</v>
       </c>
       <c r="R500" s="50" t="s">
-        <v>1924</v>
+        <v>1972</v>
       </c>
       <c r="S500" s="49"/>
       <c r="T500" s="49"/>
       <c r="U500" s="49"/>
       <c r="V500" s="49"/>
       <c r="W500" s="49" t="s">
-        <v>1919</v>
+        <v>1980</v>
       </c>
       <c r="X500" s="49">
         <v>99999999</v>
@@ -43248,14 +43474,14 @@
         <v>1898</v>
       </c>
       <c r="R501" s="50" t="s">
-        <v>1925</v>
+        <v>1973</v>
       </c>
       <c r="S501" s="49"/>
       <c r="T501" s="49"/>
       <c r="U501" s="49"/>
       <c r="V501" s="49"/>
       <c r="W501" s="49" t="s">
-        <v>1920</v>
+        <v>1980</v>
       </c>
       <c r="X501" s="49">
         <v>99999999</v>
@@ -43325,14 +43551,14 @@
         <v>1898</v>
       </c>
       <c r="R502" s="50" t="s">
-        <v>1926</v>
+        <v>1974</v>
       </c>
       <c r="S502" s="49"/>
       <c r="T502" s="49"/>
       <c r="U502" s="49"/>
       <c r="V502" s="49"/>
       <c r="W502" s="49" t="s">
-        <v>1920</v>
+        <v>1981</v>
       </c>
       <c r="X502" s="49">
         <v>99999999</v>
@@ -43402,14 +43628,14 @@
         <v>1909</v>
       </c>
       <c r="R503" s="80" t="s">
-        <v>1927</v>
+        <v>1975</v>
       </c>
       <c r="S503" s="65"/>
       <c r="T503" s="65"/>
       <c r="U503" s="65"/>
       <c r="V503" s="65"/>
       <c r="W503" s="49" t="s">
-        <v>1919</v>
+        <v>1980</v>
       </c>
       <c r="X503" s="65">
         <v>99999999</v>
@@ -43479,14 +43705,14 @@
         <v>1909</v>
       </c>
       <c r="R504" s="80" t="s">
-        <v>1928</v>
+        <v>1970</v>
       </c>
       <c r="S504" s="65"/>
       <c r="T504" s="65"/>
       <c r="U504" s="65"/>
       <c r="V504" s="65"/>
       <c r="W504" s="49" t="s">
-        <v>1920</v>
+        <v>1980</v>
       </c>
       <c r="X504" s="65">
         <v>99999999</v>
@@ -43556,14 +43782,14 @@
         <v>1909</v>
       </c>
       <c r="R505" s="80" t="s">
-        <v>1929</v>
+        <v>1976</v>
       </c>
       <c r="S505" s="65"/>
       <c r="T505" s="65"/>
       <c r="U505" s="65"/>
       <c r="V505" s="65"/>
       <c r="W505" s="49" t="s">
-        <v>1920</v>
+        <v>1980</v>
       </c>
       <c r="X505" s="65">
         <v>99999999</v>
@@ -43633,14 +43859,14 @@
         <v>1913</v>
       </c>
       <c r="R506" s="80" t="s">
-        <v>1930</v>
+        <v>1977</v>
       </c>
       <c r="S506" s="65"/>
       <c r="T506" s="65"/>
       <c r="U506" s="65"/>
       <c r="V506" s="65"/>
       <c r="W506" s="49" t="s">
-        <v>1919</v>
+        <v>1980</v>
       </c>
       <c r="X506" s="65">
         <v>99999999</v>
@@ -43710,14 +43936,14 @@
         <v>1913</v>
       </c>
       <c r="R507" s="80" t="s">
-        <v>1931</v>
+        <v>1978</v>
       </c>
       <c r="S507" s="65"/>
       <c r="T507" s="65"/>
       <c r="U507" s="65"/>
       <c r="V507" s="65"/>
       <c r="W507" s="49" t="s">
-        <v>1920</v>
+        <v>1982</v>
       </c>
       <c r="X507" s="65">
         <v>99999999</v>
@@ -43787,14 +44013,14 @@
         <v>1913</v>
       </c>
       <c r="R508" s="80" t="s">
-        <v>1932</v>
+        <v>1979</v>
       </c>
       <c r="S508" s="65"/>
       <c r="T508" s="65"/>
       <c r="U508" s="65"/>
       <c r="V508" s="65"/>
       <c r="W508" s="49" t="s">
-        <v>1920</v>
+        <v>1980</v>
       </c>
       <c r="X508" s="65">
         <v>99999999</v>
@@ -43818,6 +44044,792 @@
         <v>1</v>
       </c>
       <c r="AM508" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="509" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A509" s="5">
+        <v>508</v>
+      </c>
+      <c r="B509" s="5">
+        <v>10425</v>
+      </c>
+      <c r="F509" s="5">
+        <v>1</v>
+      </c>
+      <c r="G509" s="5" t="s">
+        <v>1919</v>
+      </c>
+      <c r="J509" s="5" t="s">
+        <v>1920</v>
+      </c>
+      <c r="L509" s="5">
+        <v>-4</v>
+      </c>
+      <c r="M509" s="5">
+        <v>1</v>
+      </c>
+      <c r="N509" s="5">
+        <v>0</v>
+      </c>
+      <c r="O509" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="P509" s="5">
+        <v>1800</v>
+      </c>
+      <c r="R509" s="10"/>
+      <c r="W509" s="5" t="s">
+        <v>525</v>
+      </c>
+      <c r="X509" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y509" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z509" s="5">
+        <v>2552233600</v>
+      </c>
+      <c r="AB509" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC509" s="5" t="s">
+        <v>1921</v>
+      </c>
+      <c r="AD509" s="10" t="s">
+        <v>1922</v>
+      </c>
+      <c r="AH509" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI509" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="510" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A510" s="5">
+        <v>509</v>
+      </c>
+      <c r="B510" s="5">
+        <v>10426</v>
+      </c>
+      <c r="F510" s="5">
+        <v>1</v>
+      </c>
+      <c r="G510" s="5" t="s">
+        <v>1923</v>
+      </c>
+      <c r="J510" s="5" t="s">
+        <v>1924</v>
+      </c>
+      <c r="L510" s="5">
+        <v>-4</v>
+      </c>
+      <c r="M510" s="5">
+        <v>1</v>
+      </c>
+      <c r="N510" s="5">
+        <v>0</v>
+      </c>
+      <c r="O510" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="P510" s="5">
+        <v>4800</v>
+      </c>
+      <c r="R510" s="10"/>
+      <c r="W510" s="5" t="s">
+        <v>525</v>
+      </c>
+      <c r="X510" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y510" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z510" s="5">
+        <v>2552233600</v>
+      </c>
+      <c r="AB510" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC510" s="5" t="s">
+        <v>1925</v>
+      </c>
+      <c r="AD510" s="10" t="s">
+        <v>1926</v>
+      </c>
+      <c r="AH510" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI510" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="511" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A511" s="5">
+        <v>510</v>
+      </c>
+      <c r="B511" s="5">
+        <v>10427</v>
+      </c>
+      <c r="F511" s="5">
+        <v>1</v>
+      </c>
+      <c r="G511" s="5" t="s">
+        <v>1927</v>
+      </c>
+      <c r="J511" s="5" t="s">
+        <v>1928</v>
+      </c>
+      <c r="L511" s="5">
+        <v>-4</v>
+      </c>
+      <c r="M511" s="5">
+        <v>1</v>
+      </c>
+      <c r="N511" s="5">
+        <v>0</v>
+      </c>
+      <c r="O511" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="P511" s="5">
+        <v>9800</v>
+      </c>
+      <c r="R511" s="10"/>
+      <c r="W511" s="5" t="s">
+        <v>525</v>
+      </c>
+      <c r="X511" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y511" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z511" s="5">
+        <v>2552233600</v>
+      </c>
+      <c r="AB511" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC511" s="5" t="s">
+        <v>1929</v>
+      </c>
+      <c r="AD511" s="10" t="s">
+        <v>1930</v>
+      </c>
+      <c r="AH511" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI511" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="512" spans="1:39" s="78" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A512" s="78">
+        <v>511</v>
+      </c>
+      <c r="B512" s="78">
+        <v>10428</v>
+      </c>
+      <c r="F512" s="78">
+        <v>1</v>
+      </c>
+      <c r="G512" s="78" t="s">
+        <v>1931</v>
+      </c>
+      <c r="I512" s="78" t="s">
+        <v>1932</v>
+      </c>
+      <c r="J512" s="78" t="s">
+        <v>1933</v>
+      </c>
+      <c r="L512" s="78">
+        <v>-33</v>
+      </c>
+      <c r="M512" s="78">
+        <v>0</v>
+      </c>
+      <c r="N512" s="78">
+        <v>0</v>
+      </c>
+      <c r="O512" s="78" t="s">
+        <v>1934</v>
+      </c>
+      <c r="P512" s="78">
+        <v>49800</v>
+      </c>
+      <c r="Q512" s="78" t="s">
+        <v>1935</v>
+      </c>
+      <c r="R512" s="79" t="s">
+        <v>1936</v>
+      </c>
+      <c r="W512" s="78" t="s">
+        <v>1937</v>
+      </c>
+      <c r="X512" s="78">
+        <v>99999999</v>
+      </c>
+      <c r="Y512" s="78">
+        <v>1610409600</v>
+      </c>
+      <c r="Z512" s="78">
+        <v>1610985599</v>
+      </c>
+      <c r="AA512" s="78">
+        <v>68</v>
+      </c>
+      <c r="AH512" s="78">
+        <v>1</v>
+      </c>
+      <c r="AI512" s="78">
+        <v>1</v>
+      </c>
+      <c r="AL512" s="78">
+        <v>1</v>
+      </c>
+      <c r="AM512" s="78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="513" spans="1:39" s="78" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A513" s="78">
+        <v>512</v>
+      </c>
+      <c r="B513" s="78">
+        <v>10429</v>
+      </c>
+      <c r="F513" s="78">
+        <v>1</v>
+      </c>
+      <c r="G513" s="78" t="s">
+        <v>1931</v>
+      </c>
+      <c r="I513" s="78" t="s">
+        <v>1932</v>
+      </c>
+      <c r="J513" s="78" t="s">
+        <v>1938</v>
+      </c>
+      <c r="L513" s="78">
+        <v>-33</v>
+      </c>
+      <c r="M513" s="78">
+        <v>0</v>
+      </c>
+      <c r="N513" s="78">
+        <v>0</v>
+      </c>
+      <c r="O513" s="78" t="s">
+        <v>1934</v>
+      </c>
+      <c r="P513" s="78">
+        <v>19800</v>
+      </c>
+      <c r="Q513" s="78" t="s">
+        <v>1935</v>
+      </c>
+      <c r="R513" s="79" t="s">
+        <v>1939</v>
+      </c>
+      <c r="W513" s="78" t="s">
+        <v>1937</v>
+      </c>
+      <c r="X513" s="78">
+        <v>99999999</v>
+      </c>
+      <c r="Y513" s="78">
+        <v>1610409600</v>
+      </c>
+      <c r="Z513" s="78">
+        <v>1610985599</v>
+      </c>
+      <c r="AA513" s="78">
+        <v>68</v>
+      </c>
+      <c r="AH513" s="78">
+        <v>1</v>
+      </c>
+      <c r="AI513" s="78">
+        <v>1</v>
+      </c>
+      <c r="AL513" s="78">
+        <v>1</v>
+      </c>
+      <c r="AM513" s="78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="514" spans="1:39" s="78" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A514" s="78">
+        <v>513</v>
+      </c>
+      <c r="B514" s="78">
+        <v>10430</v>
+      </c>
+      <c r="F514" s="78">
+        <v>1</v>
+      </c>
+      <c r="G514" s="78" t="s">
+        <v>1931</v>
+      </c>
+      <c r="I514" s="78" t="s">
+        <v>1932</v>
+      </c>
+      <c r="J514" s="78" t="s">
+        <v>1940</v>
+      </c>
+      <c r="L514" s="78">
+        <v>-33</v>
+      </c>
+      <c r="M514" s="78">
+        <v>0</v>
+      </c>
+      <c r="N514" s="78">
+        <v>0</v>
+      </c>
+      <c r="O514" s="78" t="s">
+        <v>1934</v>
+      </c>
+      <c r="P514" s="78">
+        <v>9800</v>
+      </c>
+      <c r="Q514" s="78" t="s">
+        <v>1941</v>
+      </c>
+      <c r="R514" s="79" t="s">
+        <v>1942</v>
+      </c>
+      <c r="W514" s="78" t="s">
+        <v>1937</v>
+      </c>
+      <c r="X514" s="78">
+        <v>99999999</v>
+      </c>
+      <c r="Y514" s="78">
+        <v>1610409600</v>
+      </c>
+      <c r="Z514" s="78">
+        <v>1610985599</v>
+      </c>
+      <c r="AA514" s="78">
+        <v>68</v>
+      </c>
+      <c r="AH514" s="78">
+        <v>1</v>
+      </c>
+      <c r="AI514" s="78">
+        <v>1</v>
+      </c>
+      <c r="AL514" s="78">
+        <v>1</v>
+      </c>
+      <c r="AM514" s="78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="515" spans="1:39" s="78" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A515" s="78">
+        <v>514</v>
+      </c>
+      <c r="B515" s="78">
+        <v>10431</v>
+      </c>
+      <c r="F515" s="78">
+        <v>1</v>
+      </c>
+      <c r="G515" s="78" t="s">
+        <v>1931</v>
+      </c>
+      <c r="I515" s="78" t="s">
+        <v>1932</v>
+      </c>
+      <c r="J515" s="78" t="s">
+        <v>1943</v>
+      </c>
+      <c r="L515" s="78">
+        <v>-33</v>
+      </c>
+      <c r="M515" s="78">
+        <v>0</v>
+      </c>
+      <c r="N515" s="78">
+        <v>0</v>
+      </c>
+      <c r="O515" s="78" t="s">
+        <v>1934</v>
+      </c>
+      <c r="P515" s="78">
+        <v>4800</v>
+      </c>
+      <c r="Q515" s="78" t="s">
+        <v>1944</v>
+      </c>
+      <c r="R515" s="79" t="s">
+        <v>1945</v>
+      </c>
+      <c r="W515" s="78" t="s">
+        <v>1937</v>
+      </c>
+      <c r="X515" s="78">
+        <v>99999999</v>
+      </c>
+      <c r="Y515" s="78">
+        <v>1610409600</v>
+      </c>
+      <c r="Z515" s="78">
+        <v>1610985599</v>
+      </c>
+      <c r="AA515" s="78">
+        <v>68</v>
+      </c>
+      <c r="AH515" s="78">
+        <v>1</v>
+      </c>
+      <c r="AI515" s="78">
+        <v>1</v>
+      </c>
+      <c r="AL515" s="78">
+        <v>1</v>
+      </c>
+      <c r="AM515" s="78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="516" spans="1:39" s="78" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A516" s="78">
+        <v>515</v>
+      </c>
+      <c r="B516" s="78">
+        <v>10432</v>
+      </c>
+      <c r="F516" s="78">
+        <v>1</v>
+      </c>
+      <c r="G516" s="78" t="s">
+        <v>1931</v>
+      </c>
+      <c r="I516" s="78" t="s">
+        <v>1946</v>
+      </c>
+      <c r="J516" s="78" t="s">
+        <v>1965</v>
+      </c>
+      <c r="L516" s="78">
+        <v>-33</v>
+      </c>
+      <c r="M516" s="78">
+        <v>0</v>
+      </c>
+      <c r="N516" s="78">
+        <v>0</v>
+      </c>
+      <c r="O516" s="78" t="s">
+        <v>1934</v>
+      </c>
+      <c r="P516" s="78">
+        <v>49800</v>
+      </c>
+      <c r="Q516" s="78" t="s">
+        <v>1947</v>
+      </c>
+      <c r="R516" s="79" t="s">
+        <v>1948</v>
+      </c>
+      <c r="W516" s="78" t="s">
+        <v>1937</v>
+      </c>
+      <c r="X516" s="78">
+        <v>99999999</v>
+      </c>
+      <c r="Y516" s="78">
+        <v>1610409600</v>
+      </c>
+      <c r="Z516" s="78">
+        <v>1610985599</v>
+      </c>
+      <c r="AA516" s="78">
+        <v>69</v>
+      </c>
+      <c r="AH516" s="78">
+        <v>1</v>
+      </c>
+      <c r="AI516" s="78">
+        <v>1</v>
+      </c>
+      <c r="AL516" s="78">
+        <v>1</v>
+      </c>
+      <c r="AM516" s="78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="517" spans="1:39" s="78" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A517" s="78">
+        <v>516</v>
+      </c>
+      <c r="B517" s="78">
+        <v>10433</v>
+      </c>
+      <c r="F517" s="78">
+        <v>1</v>
+      </c>
+      <c r="G517" s="78" t="s">
+        <v>1931</v>
+      </c>
+      <c r="I517" s="78" t="s">
+        <v>1946</v>
+      </c>
+      <c r="J517" s="78" t="s">
+        <v>1966</v>
+      </c>
+      <c r="L517" s="78">
+        <v>-33</v>
+      </c>
+      <c r="M517" s="78">
+        <v>0</v>
+      </c>
+      <c r="N517" s="78">
+        <v>0</v>
+      </c>
+      <c r="O517" s="78" t="s">
+        <v>1949</v>
+      </c>
+      <c r="P517" s="78">
+        <v>19800</v>
+      </c>
+      <c r="Q517" s="78" t="s">
+        <v>1947</v>
+      </c>
+      <c r="R517" s="79" t="s">
+        <v>1950</v>
+      </c>
+      <c r="W517" s="78" t="s">
+        <v>1937</v>
+      </c>
+      <c r="X517" s="78">
+        <v>99999999</v>
+      </c>
+      <c r="Y517" s="78">
+        <v>1610409600</v>
+      </c>
+      <c r="Z517" s="78">
+        <v>1610985599</v>
+      </c>
+      <c r="AA517" s="78">
+        <v>69</v>
+      </c>
+      <c r="AH517" s="78">
+        <v>1</v>
+      </c>
+      <c r="AI517" s="78">
+        <v>1</v>
+      </c>
+      <c r="AL517" s="78">
+        <v>1</v>
+      </c>
+      <c r="AM517" s="78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="518" spans="1:39" s="78" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A518" s="78">
+        <v>517</v>
+      </c>
+      <c r="B518" s="78">
+        <v>10434</v>
+      </c>
+      <c r="F518" s="78">
+        <v>1</v>
+      </c>
+      <c r="G518" s="78" t="s">
+        <v>1931</v>
+      </c>
+      <c r="I518" s="78" t="s">
+        <v>1946</v>
+      </c>
+      <c r="J518" s="78" t="s">
+        <v>1967</v>
+      </c>
+      <c r="L518" s="78">
+        <v>-33</v>
+      </c>
+      <c r="M518" s="78">
+        <v>0</v>
+      </c>
+      <c r="N518" s="78">
+        <v>0</v>
+      </c>
+      <c r="O518" s="78" t="s">
+        <v>1934</v>
+      </c>
+      <c r="P518" s="78">
+        <v>9800</v>
+      </c>
+      <c r="Q518" s="78" t="s">
+        <v>1951</v>
+      </c>
+      <c r="R518" s="79" t="s">
+        <v>1952</v>
+      </c>
+      <c r="W518" s="78" t="s">
+        <v>1937</v>
+      </c>
+      <c r="X518" s="78">
+        <v>99999999</v>
+      </c>
+      <c r="Y518" s="78">
+        <v>1610409600</v>
+      </c>
+      <c r="Z518" s="78">
+        <v>1610985599</v>
+      </c>
+      <c r="AA518" s="78">
+        <v>69</v>
+      </c>
+      <c r="AH518" s="78">
+        <v>1</v>
+      </c>
+      <c r="AI518" s="78">
+        <v>1</v>
+      </c>
+      <c r="AL518" s="78">
+        <v>1</v>
+      </c>
+      <c r="AM518" s="78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="519" spans="1:39" s="78" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A519" s="78">
+        <v>518</v>
+      </c>
+      <c r="B519" s="78">
+        <v>10435</v>
+      </c>
+      <c r="F519" s="78">
+        <v>1</v>
+      </c>
+      <c r="G519" s="78" t="s">
+        <v>1931</v>
+      </c>
+      <c r="I519" s="78" t="s">
+        <v>1946</v>
+      </c>
+      <c r="J519" s="78" t="s">
+        <v>1968</v>
+      </c>
+      <c r="L519" s="78">
+        <v>-33</v>
+      </c>
+      <c r="M519" s="78">
+        <v>0</v>
+      </c>
+      <c r="N519" s="78">
+        <v>0</v>
+      </c>
+      <c r="O519" s="78" t="s">
+        <v>1934</v>
+      </c>
+      <c r="P519" s="78">
+        <v>4800</v>
+      </c>
+      <c r="Q519" s="78" t="s">
+        <v>1953</v>
+      </c>
+      <c r="R519" s="79" t="s">
+        <v>1954</v>
+      </c>
+      <c r="W519" s="78" t="s">
+        <v>1955</v>
+      </c>
+      <c r="X519" s="78">
+        <v>99999999</v>
+      </c>
+      <c r="Y519" s="78">
+        <v>1610409600</v>
+      </c>
+      <c r="Z519" s="78">
+        <v>1610985599</v>
+      </c>
+      <c r="AA519" s="78">
+        <v>69</v>
+      </c>
+      <c r="AH519" s="78">
+        <v>1</v>
+      </c>
+      <c r="AI519" s="78">
+        <v>1</v>
+      </c>
+      <c r="AL519" s="78">
+        <v>1</v>
+      </c>
+      <c r="AM519" s="78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="520" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A520" s="5">
+        <v>519</v>
+      </c>
+      <c r="B520" s="5">
+        <v>10436</v>
+      </c>
+      <c r="F520" s="5">
+        <v>1</v>
+      </c>
+      <c r="G520" s="5" t="s">
+        <v>1958</v>
+      </c>
+      <c r="I520" s="5" t="s">
+        <v>1959</v>
+      </c>
+      <c r="J520" s="5" t="s">
+        <v>1960</v>
+      </c>
+      <c r="L520" s="5">
+        <v>-23</v>
+      </c>
+      <c r="M520" s="5">
+        <v>1</v>
+      </c>
+      <c r="N520" s="5">
+        <v>0</v>
+      </c>
+      <c r="O520" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="P520" s="5">
+        <v>1000</v>
+      </c>
+      <c r="Q520" s="5" t="s">
+        <v>1961</v>
+      </c>
+      <c r="R520" s="10" t="s">
+        <v>1962</v>
+      </c>
+      <c r="S520" s="5" t="s">
+        <v>1963</v>
+      </c>
+      <c r="W520" s="5" t="s">
+        <v>1964</v>
+      </c>
+      <c r="X520" s="5">
+        <v>99999999</v>
+      </c>
+      <c r="Y520" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z520" s="5">
+        <v>2552233600</v>
+      </c>
+      <c r="AH520" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI520" s="5">
         <v>1</v>
       </c>
     </row>
@@ -43831,10 +44843,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E68"/>
+  <dimension ref="A1:E70"/>
   <sheetViews>
     <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C72" sqref="C72"/>
+      <selection activeCell="B73" sqref="B73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -44799,6 +45811,34 @@
         <v>1</v>
       </c>
       <c r="D68" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69" s="81">
+        <v>68</v>
+      </c>
+      <c r="B69" s="82" t="s">
+        <v>1956</v>
+      </c>
+      <c r="C69" s="81">
+        <v>1</v>
+      </c>
+      <c r="D69" s="81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70" s="81">
+        <v>69</v>
+      </c>
+      <c r="B70" s="82" t="s">
+        <v>1957</v>
+      </c>
+      <c r="C70" s="81">
+        <v>1</v>
+      </c>
+      <c r="D70" s="81">
         <v>0</v>
       </c>
     </row>

--- a/config_Release/shoping_config_xiaomi.xlsx
+++ b/config_Release/shoping_config_xiaomi.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="tge|标签配置" sheetId="6" r:id="rId1"/>
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4342" uniqueCount="2034">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4408" uniqueCount="2051">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -8594,6 +8594,117 @@
     <t>49800000,800000,1,</t>
   </si>
   <si>
+    <t>51800000,50,15,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>20200000,30,10,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>9900000,20,5,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4830000,10,3,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000000,4,2,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>600000,1,1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>51800000,50,20,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>9900000,20,2,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4830000,10,6,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000000,4,2,</t>
+  </si>
+  <si>
+    <t>600000,1,1,</t>
+  </si>
+  <si>
+    <t>86400,9999,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>86400,9999,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>疯狂敲金蛋铜锤</t>
+  </si>
+  <si>
+    <t>86400,9999,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>疯狂敲金蛋银锤</t>
+  </si>
+  <si>
+    <t>"300万金币","银锤",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>疯狂敲金蛋金锤</t>
+  </si>
+  <si>
+    <t>"480万金币","金锤",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4800000,1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"480万金币","铜锤",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>9800000,1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>（V4-V7）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>gift_bag</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>（V8-V10）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_brass_hammer_3",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_silver_hammer_3",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{type="permission_class",class_value = "golden_egg_3" }</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>600000,20000,1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>{type="permission_class",class_value = "fclb_free_001" }</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -8606,57 +8717,11 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>51800000,50,15,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>20200000,30,10,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>9900000,20,5,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>4830000,10,3,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>2000000,4,2,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>600000,1,1,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>51800000,50,20,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>9900000,20,2,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>4830000,10,6,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>2000000,4,2,</t>
-  </si>
-  <si>
-    <t>600000,1,1,</t>
-  </si>
-  <si>
-    <t>86400,9999,0</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>86400,9999,0</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>600000,20000,1,</t>
+    <t>{type="permission_class",class_value = "golden_egg_1" }</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{type="permission_class",class_value = "golden_egg_2" }</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -8735,7 +8800,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -8786,19 +8851,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8851,7 +8904,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -8999,40 +9052,28 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="10" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="9" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -9041,16 +9082,16 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="12" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="10" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -11511,13 +11552,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN532"/>
+  <dimension ref="A1:AN541"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="O501" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="7" ySplit="1" topLeftCell="W510" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="R525" sqref="R525"/>
+      <selection pane="bottomRight" activeCell="AA537" sqref="AA537"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -15359,298 +15400,298 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:35" s="53" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="53">
+    <row r="67" spans="1:35" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="51">
         <v>66</v>
       </c>
-      <c r="B67" s="53">
+      <c r="B67" s="51">
         <v>85</v>
       </c>
-      <c r="D67" s="53">
+      <c r="D67" s="51">
         <v>2</v>
       </c>
-      <c r="F67" s="53">
-        <v>1</v>
-      </c>
-      <c r="G67" s="53" t="s">
+      <c r="F67" s="51">
+        <v>1</v>
+      </c>
+      <c r="G67" s="51" t="s">
         <v>222</v>
       </c>
-      <c r="H67" s="53" t="s">
+      <c r="H67" s="51" t="s">
         <v>1786</v>
       </c>
-      <c r="L67" s="53">
+      <c r="L67" s="51">
         <v>-4</v>
       </c>
-      <c r="M67" s="53">
-        <v>0</v>
-      </c>
-      <c r="N67" s="53">
-        <v>0</v>
-      </c>
-      <c r="O67" s="53" t="s">
+      <c r="M67" s="51">
+        <v>0</v>
+      </c>
+      <c r="N67" s="51">
+        <v>0</v>
+      </c>
+      <c r="O67" s="51" t="s">
         <v>100</v>
       </c>
-      <c r="P67" s="53">
+      <c r="P67" s="51">
         <v>1500</v>
       </c>
-      <c r="Q67" s="53" t="s">
+      <c r="Q67" s="51" t="s">
         <v>77</v>
       </c>
-      <c r="R67" s="53" t="s">
+      <c r="R67" s="51" t="s">
         <v>1362</v>
       </c>
-      <c r="W67" s="53" t="s">
+      <c r="W67" s="51" t="s">
         <v>524</v>
       </c>
-      <c r="X67" s="54" t="s">
+      <c r="X67" s="52" t="s">
         <v>108</v>
       </c>
-      <c r="Y67" s="55">
-        <v>0</v>
-      </c>
-      <c r="Z67" s="53">
+      <c r="Y67" s="53">
+        <v>0</v>
+      </c>
+      <c r="Z67" s="51">
         <v>2552233600</v>
       </c>
-      <c r="AH67" s="53">
-        <v>1</v>
-      </c>
-      <c r="AI67" s="53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:35" s="53" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="53">
+      <c r="AH67" s="51">
+        <v>1</v>
+      </c>
+      <c r="AI67" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:35" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="51">
         <v>67</v>
       </c>
-      <c r="B68" s="53">
+      <c r="B68" s="51">
         <v>86</v>
       </c>
-      <c r="D68" s="53">
+      <c r="D68" s="51">
         <v>3</v>
       </c>
-      <c r="F68" s="53">
-        <v>1</v>
-      </c>
-      <c r="G68" s="53" t="s">
+      <c r="F68" s="51">
+        <v>1</v>
+      </c>
+      <c r="G68" s="51" t="s">
         <v>224</v>
       </c>
-      <c r="H68" s="53" t="s">
+      <c r="H68" s="51" t="s">
         <v>1787</v>
       </c>
-      <c r="L68" s="53">
+      <c r="L68" s="51">
         <v>-4</v>
       </c>
-      <c r="M68" s="53">
-        <v>0</v>
-      </c>
-      <c r="N68" s="53">
-        <v>0</v>
-      </c>
-      <c r="O68" s="53" t="s">
+      <c r="M68" s="51">
+        <v>0</v>
+      </c>
+      <c r="N68" s="51">
+        <v>0</v>
+      </c>
+      <c r="O68" s="51" t="s">
         <v>100</v>
       </c>
-      <c r="P68" s="53">
+      <c r="P68" s="51">
         <v>3000</v>
       </c>
-      <c r="Q68" s="53" t="s">
+      <c r="Q68" s="51" t="s">
         <v>77</v>
       </c>
-      <c r="R68" s="53" t="s">
+      <c r="R68" s="51" t="s">
         <v>1400</v>
       </c>
-      <c r="W68" s="53" t="s">
+      <c r="W68" s="51" t="s">
         <v>524</v>
       </c>
-      <c r="X68" s="54" t="s">
+      <c r="X68" s="52" t="s">
         <v>108</v>
       </c>
-      <c r="Y68" s="55">
-        <v>0</v>
-      </c>
-      <c r="Z68" s="53">
+      <c r="Y68" s="53">
+        <v>0</v>
+      </c>
+      <c r="Z68" s="51">
         <v>2552233600</v>
       </c>
-      <c r="AH68" s="53">
-        <v>1</v>
-      </c>
-      <c r="AI68" s="53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:35" s="53" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="53">
+      <c r="AH68" s="51">
+        <v>1</v>
+      </c>
+      <c r="AI68" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:35" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="51">
         <v>68</v>
       </c>
-      <c r="B69" s="53">
+      <c r="B69" s="51">
         <v>87</v>
       </c>
-      <c r="D69" s="53">
+      <c r="D69" s="51">
         <v>4</v>
       </c>
-      <c r="F69" s="53">
-        <v>1</v>
-      </c>
-      <c r="G69" s="53" t="s">
+      <c r="F69" s="51">
+        <v>1</v>
+      </c>
+      <c r="G69" s="51" t="s">
         <v>226</v>
       </c>
-      <c r="H69" s="53" t="s">
+      <c r="H69" s="51" t="s">
         <v>1788</v>
       </c>
-      <c r="L69" s="53">
+      <c r="L69" s="51">
         <v>-4</v>
       </c>
-      <c r="M69" s="53">
-        <v>0</v>
-      </c>
-      <c r="N69" s="53">
-        <v>0</v>
-      </c>
-      <c r="O69" s="53" t="s">
+      <c r="M69" s="51">
+        <v>0</v>
+      </c>
+      <c r="N69" s="51">
+        <v>0</v>
+      </c>
+      <c r="O69" s="51" t="s">
         <v>100</v>
       </c>
-      <c r="P69" s="53">
+      <c r="P69" s="51">
         <v>5000</v>
       </c>
-      <c r="Q69" s="53" t="s">
+      <c r="Q69" s="51" t="s">
         <v>77</v>
       </c>
-      <c r="R69" s="53" t="s">
+      <c r="R69" s="51" t="s">
         <v>1363</v>
       </c>
-      <c r="W69" s="53" t="s">
+      <c r="W69" s="51" t="s">
         <v>524</v>
       </c>
-      <c r="X69" s="54" t="s">
+      <c r="X69" s="52" t="s">
         <v>108</v>
       </c>
-      <c r="Y69" s="55">
-        <v>0</v>
-      </c>
-      <c r="Z69" s="53">
+      <c r="Y69" s="53">
+        <v>0</v>
+      </c>
+      <c r="Z69" s="51">
         <v>2552233600</v>
       </c>
-      <c r="AH69" s="53">
-        <v>1</v>
-      </c>
-      <c r="AI69" s="53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:35" s="53" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="53">
+      <c r="AH69" s="51">
+        <v>1</v>
+      </c>
+      <c r="AI69" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:35" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="51">
         <v>69</v>
       </c>
-      <c r="B70" s="53">
+      <c r="B70" s="51">
         <v>88</v>
       </c>
-      <c r="D70" s="53">
+      <c r="D70" s="51">
         <v>5</v>
       </c>
-      <c r="F70" s="53">
-        <v>1</v>
-      </c>
-      <c r="G70" s="53" t="s">
+      <c r="F70" s="51">
+        <v>1</v>
+      </c>
+      <c r="G70" s="51" t="s">
         <v>228</v>
       </c>
-      <c r="H70" s="53" t="s">
+      <c r="H70" s="51" t="s">
         <v>1789</v>
       </c>
-      <c r="L70" s="53">
+      <c r="L70" s="51">
         <v>-4</v>
       </c>
-      <c r="M70" s="53">
-        <v>0</v>
-      </c>
-      <c r="N70" s="53">
-        <v>0</v>
-      </c>
-      <c r="O70" s="53" t="s">
+      <c r="M70" s="51">
+        <v>0</v>
+      </c>
+      <c r="N70" s="51">
+        <v>0</v>
+      </c>
+      <c r="O70" s="51" t="s">
         <v>100</v>
       </c>
-      <c r="P70" s="53">
+      <c r="P70" s="51">
         <v>9800</v>
       </c>
-      <c r="Q70" s="53" t="s">
+      <c r="Q70" s="51" t="s">
         <v>77</v>
       </c>
-      <c r="R70" s="53" t="s">
+      <c r="R70" s="51" t="s">
         <v>1364</v>
       </c>
-      <c r="W70" s="53" t="s">
+      <c r="W70" s="51" t="s">
         <v>524</v>
       </c>
-      <c r="X70" s="54" t="s">
+      <c r="X70" s="52" t="s">
         <v>108</v>
       </c>
-      <c r="Y70" s="55">
-        <v>0</v>
-      </c>
-      <c r="Z70" s="53">
+      <c r="Y70" s="53">
+        <v>0</v>
+      </c>
+      <c r="Z70" s="51">
         <v>2552233600</v>
       </c>
-      <c r="AH70" s="53">
-        <v>1</v>
-      </c>
-      <c r="AI70" s="53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:35" s="53" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="53">
+      <c r="AH70" s="51">
+        <v>1</v>
+      </c>
+      <c r="AI70" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:35" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="51">
         <v>70</v>
       </c>
-      <c r="B71" s="53">
+      <c r="B71" s="51">
         <v>89</v>
       </c>
-      <c r="D71" s="53">
+      <c r="D71" s="51">
         <v>6</v>
       </c>
-      <c r="F71" s="53">
-        <v>1</v>
-      </c>
-      <c r="G71" s="53" t="s">
+      <c r="F71" s="51">
+        <v>1</v>
+      </c>
+      <c r="G71" s="51" t="s">
         <v>229</v>
       </c>
-      <c r="H71" s="53" t="s">
+      <c r="H71" s="51" t="s">
         <v>1790</v>
       </c>
-      <c r="L71" s="53">
+      <c r="L71" s="51">
         <v>-4</v>
       </c>
-      <c r="M71" s="53">
-        <v>0</v>
-      </c>
-      <c r="N71" s="53">
-        <v>0</v>
-      </c>
-      <c r="O71" s="53" t="s">
+      <c r="M71" s="51">
+        <v>0</v>
+      </c>
+      <c r="N71" s="51">
+        <v>0</v>
+      </c>
+      <c r="O71" s="51" t="s">
         <v>100</v>
       </c>
-      <c r="P71" s="53">
+      <c r="P71" s="51">
         <v>49800</v>
       </c>
-      <c r="Q71" s="53" t="s">
+      <c r="Q71" s="51" t="s">
         <v>77</v>
       </c>
-      <c r="R71" s="53" t="s">
+      <c r="R71" s="51" t="s">
         <v>1365</v>
       </c>
-      <c r="W71" s="53" t="s">
+      <c r="W71" s="51" t="s">
         <v>524</v>
       </c>
-      <c r="X71" s="54" t="s">
+      <c r="X71" s="52" t="s">
         <v>108</v>
       </c>
-      <c r="Y71" s="55">
-        <v>0</v>
-      </c>
-      <c r="Z71" s="53">
+      <c r="Y71" s="53">
+        <v>0</v>
+      </c>
+      <c r="Z71" s="51">
         <v>2552233600</v>
       </c>
-      <c r="AH71" s="53">
-        <v>1</v>
-      </c>
-      <c r="AI71" s="53">
+      <c r="AH71" s="51">
+        <v>1</v>
+      </c>
+      <c r="AI71" s="51">
         <v>1</v>
       </c>
     </row>
@@ -16946,56 +16987,56 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:35" s="53" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="53">
+    <row r="94" spans="1:35" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="51">
         <v>93</v>
       </c>
-      <c r="B94" s="53">
+      <c r="B94" s="51">
         <v>109</v>
       </c>
-      <c r="F94" s="53">
-        <v>1</v>
-      </c>
-      <c r="G94" s="53" t="s">
+      <c r="F94" s="51">
+        <v>1</v>
+      </c>
+      <c r="G94" s="51" t="s">
         <v>253</v>
       </c>
-      <c r="L94" s="53">
+      <c r="L94" s="51">
         <v>-4</v>
       </c>
-      <c r="M94" s="53">
-        <v>0</v>
-      </c>
-      <c r="N94" s="53">
-        <v>0</v>
-      </c>
-      <c r="O94" s="53" t="s">
+      <c r="M94" s="51">
+        <v>0</v>
+      </c>
+      <c r="N94" s="51">
+        <v>0</v>
+      </c>
+      <c r="O94" s="51" t="s">
         <v>100</v>
       </c>
-      <c r="P94" s="53">
+      <c r="P94" s="51">
         <v>100000</v>
       </c>
-      <c r="Q94" s="53" t="s">
+      <c r="Q94" s="51" t="s">
         <v>77</v>
       </c>
-      <c r="R94" s="53" t="s">
+      <c r="R94" s="51" t="s">
         <v>687</v>
       </c>
-      <c r="W94" s="53" t="s">
+      <c r="W94" s="51" t="s">
         <v>524</v>
       </c>
-      <c r="X94" s="54" t="s">
+      <c r="X94" s="52" t="s">
         <v>108</v>
       </c>
-      <c r="Y94" s="53">
-        <v>0</v>
-      </c>
-      <c r="Z94" s="53">
+      <c r="Y94" s="51">
+        <v>0</v>
+      </c>
+      <c r="Z94" s="51">
         <v>2552233600</v>
       </c>
-      <c r="AH94" s="53">
-        <v>1</v>
-      </c>
-      <c r="AI94" s="53">
+      <c r="AH94" s="51">
+        <v>1</v>
+      </c>
+      <c r="AI94" s="51">
         <v>1</v>
       </c>
     </row>
@@ -18977,121 +19018,121 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:35" s="53" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="53">
+    <row r="128" spans="1:35" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A128" s="51">
         <v>127</v>
       </c>
-      <c r="B128" s="53">
+      <c r="B128" s="51">
         <v>10044</v>
       </c>
-      <c r="D128" s="53">
+      <c r="D128" s="51">
         <v>108</v>
       </c>
-      <c r="F128" s="53">
-        <v>1</v>
-      </c>
-      <c r="G128" s="53" t="s">
+      <c r="F128" s="51">
+        <v>1</v>
+      </c>
+      <c r="G128" s="51" t="s">
         <v>319</v>
       </c>
-      <c r="H128" s="53" t="s">
+      <c r="H128" s="51" t="s">
         <v>1791</v>
       </c>
-      <c r="L128" s="53">
+      <c r="L128" s="51">
         <v>-10</v>
       </c>
-      <c r="M128" s="53">
-        <v>0</v>
-      </c>
-      <c r="N128" s="53">
-        <v>0</v>
-      </c>
-      <c r="O128" s="53" t="s">
+      <c r="M128" s="51">
+        <v>0</v>
+      </c>
+      <c r="N128" s="51">
+        <v>0</v>
+      </c>
+      <c r="O128" s="51" t="s">
         <v>100</v>
       </c>
-      <c r="P128" s="53">
+      <c r="P128" s="51">
         <v>99800</v>
       </c>
-      <c r="Q128" s="53" t="s">
+      <c r="Q128" s="51" t="s">
         <v>77</v>
       </c>
-      <c r="R128" s="53" t="s">
+      <c r="R128" s="51" t="s">
         <v>1367</v>
       </c>
-      <c r="W128" s="53" t="s">
+      <c r="W128" s="51" t="s">
         <v>524</v>
       </c>
-      <c r="X128" s="54" t="s">
+      <c r="X128" s="52" t="s">
         <v>108</v>
       </c>
-      <c r="Y128" s="55">
-        <v>0</v>
-      </c>
-      <c r="Z128" s="53">
+      <c r="Y128" s="53">
+        <v>0</v>
+      </c>
+      <c r="Z128" s="51">
         <v>2552233600</v>
       </c>
-      <c r="AH128" s="53">
-        <v>1</v>
-      </c>
-      <c r="AI128" s="53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129" spans="1:39" s="53" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="53">
+      <c r="AH128" s="51">
+        <v>1</v>
+      </c>
+      <c r="AI128" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:39" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A129" s="51">
         <v>128</v>
       </c>
-      <c r="B129" s="53">
+      <c r="B129" s="51">
         <v>10045</v>
       </c>
-      <c r="D129" s="53">
+      <c r="D129" s="51">
         <v>110</v>
       </c>
-      <c r="F129" s="53">
-        <v>1</v>
-      </c>
-      <c r="G129" s="53" t="s">
+      <c r="F129" s="51">
+        <v>1</v>
+      </c>
+      <c r="G129" s="51" t="s">
         <v>1126</v>
       </c>
-      <c r="H129" s="53" t="s">
+      <c r="H129" s="51" t="s">
         <v>1792</v>
       </c>
-      <c r="L129" s="53">
+      <c r="L129" s="51">
         <v>-11</v>
       </c>
-      <c r="M129" s="53">
-        <v>0</v>
-      </c>
-      <c r="N129" s="53">
-        <v>0</v>
-      </c>
-      <c r="O129" s="53" t="s">
+      <c r="M129" s="51">
+        <v>0</v>
+      </c>
+      <c r="N129" s="51">
+        <v>0</v>
+      </c>
+      <c r="O129" s="51" t="s">
         <v>100</v>
       </c>
-      <c r="P129" s="53">
+      <c r="P129" s="51">
         <v>249800</v>
       </c>
-      <c r="Q129" s="53" t="s">
+      <c r="Q129" s="51" t="s">
         <v>77</v>
       </c>
-      <c r="R129" s="53" t="s">
+      <c r="R129" s="51" t="s">
         <v>1366</v>
       </c>
-      <c r="W129" s="53" t="s">
+      <c r="W129" s="51" t="s">
         <v>524</v>
       </c>
-      <c r="X129" s="54" t="s">
+      <c r="X129" s="52" t="s">
         <v>108</v>
       </c>
-      <c r="Y129" s="55">
-        <v>0</v>
-      </c>
-      <c r="Z129" s="53">
+      <c r="Y129" s="53">
+        <v>0</v>
+      </c>
+      <c r="Z129" s="51">
         <v>2552233600</v>
       </c>
-      <c r="AH129" s="53">
-        <v>1</v>
-      </c>
-      <c r="AI129" s="53">
+      <c r="AH129" s="51">
+        <v>1</v>
+      </c>
+      <c r="AI129" s="51">
         <v>1</v>
       </c>
     </row>
@@ -21699,7 +21740,7 @@
       <c r="Q171" s="43" t="s">
         <v>1721</v>
       </c>
-      <c r="R171" s="52" t="s">
+      <c r="R171" s="50" t="s">
         <v>1722</v>
       </c>
       <c r="W171" s="43" t="s">
@@ -21767,7 +21808,7 @@
       <c r="Q172" s="43" t="s">
         <v>1721</v>
       </c>
-      <c r="R172" s="52" t="s">
+      <c r="R172" s="50" t="s">
         <v>1725</v>
       </c>
       <c r="W172" s="43" t="s">
@@ -21835,7 +21876,7 @@
       <c r="Q173" s="43" t="s">
         <v>1721</v>
       </c>
-      <c r="R173" s="52" t="s">
+      <c r="R173" s="50" t="s">
         <v>1728</v>
       </c>
       <c r="W173" s="43" t="s">
@@ -21903,7 +21944,7 @@
       <c r="Q174" s="43" t="s">
         <v>1721</v>
       </c>
-      <c r="R174" s="52" t="s">
+      <c r="R174" s="50" t="s">
         <v>1731</v>
       </c>
       <c r="W174" s="43" t="s">
@@ -21971,7 +22012,7 @@
       <c r="Q175" s="43" t="s">
         <v>1734</v>
       </c>
-      <c r="R175" s="52" t="s">
+      <c r="R175" s="50" t="s">
         <v>1735</v>
       </c>
       <c r="W175" s="43" t="s">
@@ -22039,7 +22080,7 @@
       <c r="Q176" s="43" t="s">
         <v>1734</v>
       </c>
-      <c r="R176" s="52" t="s">
+      <c r="R176" s="50" t="s">
         <v>1738</v>
       </c>
       <c r="W176" s="43" t="s">
@@ -22107,7 +22148,7 @@
       <c r="Q177" s="43" t="s">
         <v>1734</v>
       </c>
-      <c r="R177" s="52" t="s">
+      <c r="R177" s="50" t="s">
         <v>1741</v>
       </c>
       <c r="W177" s="43" t="s">
@@ -22175,7 +22216,7 @@
       <c r="Q178" s="43" t="s">
         <v>1734</v>
       </c>
-      <c r="R178" s="52" t="s">
+      <c r="R178" s="50" t="s">
         <v>1744</v>
       </c>
       <c r="W178" s="43" t="s">
@@ -22243,7 +22284,7 @@
       <c r="Q179" s="43" t="s">
         <v>1734</v>
       </c>
-      <c r="R179" s="52" t="s">
+      <c r="R179" s="50" t="s">
         <v>1747</v>
       </c>
       <c r="W179" s="43" t="s">
@@ -22311,7 +22352,7 @@
       <c r="Q180" s="43" t="s">
         <v>1734</v>
       </c>
-      <c r="R180" s="52" t="s">
+      <c r="R180" s="50" t="s">
         <v>1744</v>
       </c>
       <c r="W180" s="43" t="s">
@@ -22379,7 +22420,7 @@
       <c r="Q181" s="43" t="s">
         <v>1734</v>
       </c>
-      <c r="R181" s="52" t="s">
+      <c r="R181" s="50" t="s">
         <v>1747</v>
       </c>
       <c r="W181" s="43" t="s">
@@ -22447,7 +22488,7 @@
       <c r="Q182" s="43" t="s">
         <v>1734</v>
       </c>
-      <c r="R182" s="52" t="s">
+      <c r="R182" s="50" t="s">
         <v>1752</v>
       </c>
       <c r="W182" s="43" t="s">
@@ -22515,7 +22556,7 @@
       <c r="Q183" s="43" t="s">
         <v>1734</v>
       </c>
-      <c r="R183" s="52" t="s">
+      <c r="R183" s="50" t="s">
         <v>1747</v>
       </c>
       <c r="W183" s="43" t="s">
@@ -22583,7 +22624,7 @@
       <c r="Q184" s="43" t="s">
         <v>1734</v>
       </c>
-      <c r="R184" s="52" t="s">
+      <c r="R184" s="50" t="s">
         <v>1752</v>
       </c>
       <c r="W184" s="43" t="s">
@@ -22651,7 +22692,7 @@
       <c r="Q185" s="43" t="s">
         <v>1734</v>
       </c>
-      <c r="R185" s="52" t="s">
+      <c r="R185" s="50" t="s">
         <v>1757</v>
       </c>
       <c r="W185" s="43" t="s">
@@ -28339,62 +28380,62 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:40" s="53" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A273" s="53">
+    <row r="273" spans="1:40" s="51" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A273" s="51">
         <v>272</v>
       </c>
-      <c r="B273" s="53">
+      <c r="B273" s="51">
         <v>10189</v>
       </c>
-      <c r="D273" s="56">
+      <c r="D273" s="54">
         <v>111</v>
       </c>
-      <c r="F273" s="53">
-        <v>1</v>
-      </c>
-      <c r="G273" s="53" t="s">
+      <c r="F273" s="51">
+        <v>1</v>
+      </c>
+      <c r="G273" s="51" t="s">
         <v>520</v>
       </c>
-      <c r="H273" s="57" t="s">
+      <c r="H273" s="55" t="s">
         <v>1865</v>
       </c>
-      <c r="L273" s="53">
+      <c r="L273" s="51">
         <v>-10</v>
       </c>
-      <c r="M273" s="53">
-        <v>0</v>
-      </c>
-      <c r="N273" s="53">
-        <v>0</v>
-      </c>
-      <c r="O273" s="53" t="s">
+      <c r="M273" s="51">
+        <v>0</v>
+      </c>
+      <c r="N273" s="51">
+        <v>0</v>
+      </c>
+      <c r="O273" s="51" t="s">
         <v>100</v>
       </c>
-      <c r="P273" s="53">
+      <c r="P273" s="51">
         <v>19800</v>
       </c>
-      <c r="Q273" s="53" t="s">
+      <c r="Q273" s="51" t="s">
         <v>77</v>
       </c>
-      <c r="R273" s="53" t="s">
+      <c r="R273" s="51" t="s">
         <v>1368</v>
       </c>
-      <c r="W273" s="53" t="s">
+      <c r="W273" s="51" t="s">
         <v>524</v>
       </c>
-      <c r="X273" s="54" t="s">
+      <c r="X273" s="52" t="s">
         <v>108</v>
       </c>
-      <c r="Y273" s="55">
-        <v>0</v>
-      </c>
-      <c r="Z273" s="53">
+      <c r="Y273" s="53">
+        <v>0</v>
+      </c>
+      <c r="Z273" s="51">
         <v>2552233600</v>
       </c>
-      <c r="AH273" s="53">
-        <v>1</v>
-      </c>
-      <c r="AI273" s="53">
+      <c r="AH273" s="51">
+        <v>1</v>
+      </c>
+      <c r="AI273" s="51">
         <v>1</v>
       </c>
     </row>
@@ -31503,7 +31544,7 @@
       <c r="Q323" s="43" t="s">
         <v>1760</v>
       </c>
-      <c r="R323" s="52" t="s">
+      <c r="R323" s="50" t="s">
         <v>1761</v>
       </c>
       <c r="W323" s="43" t="s">
@@ -31568,7 +31609,7 @@
       <c r="Q324" s="43" t="s">
         <v>1765</v>
       </c>
-      <c r="R324" s="52" t="s">
+      <c r="R324" s="50" t="s">
         <v>1766</v>
       </c>
       <c r="W324" s="43" t="s">
@@ -31633,7 +31674,7 @@
       <c r="Q325" s="43" t="s">
         <v>1760</v>
       </c>
-      <c r="R325" s="52" t="s">
+      <c r="R325" s="50" t="s">
         <v>1769</v>
       </c>
       <c r="W325" s="43" t="s">
@@ -31825,7 +31866,7 @@
       <c r="Q328" s="43" t="s">
         <v>1642</v>
       </c>
-      <c r="R328" s="52" t="s">
+      <c r="R328" s="50" t="s">
         <v>980</v>
       </c>
       <c r="S328" s="43"/>
@@ -31908,7 +31949,7 @@
       <c r="Q329" s="43" t="s">
         <v>1645</v>
       </c>
-      <c r="R329" s="52" t="s">
+      <c r="R329" s="50" t="s">
         <v>1646</v>
       </c>
       <c r="S329" s="43"/>
@@ -31991,7 +32032,7 @@
       <c r="Q330" s="43" t="s">
         <v>1648</v>
       </c>
-      <c r="R330" s="52" t="s">
+      <c r="R330" s="50" t="s">
         <v>1649</v>
       </c>
       <c r="S330" s="43"/>
@@ -32074,7 +32115,7 @@
       <c r="Q331" s="43" t="s">
         <v>1648</v>
       </c>
-      <c r="R331" s="52" t="s">
+      <c r="R331" s="50" t="s">
         <v>1651</v>
       </c>
       <c r="S331" s="43"/>
@@ -32157,7 +32198,7 @@
       <c r="Q332" s="43" t="s">
         <v>1648</v>
       </c>
-      <c r="R332" s="52" t="s">
+      <c r="R332" s="50" t="s">
         <v>1653</v>
       </c>
       <c r="S332" s="43"/>
@@ -32240,7 +32281,7 @@
       <c r="Q333" s="43" t="s">
         <v>1648</v>
       </c>
-      <c r="R333" s="52" t="s">
+      <c r="R333" s="50" t="s">
         <v>1654</v>
       </c>
       <c r="S333" s="43"/>
@@ -32323,7 +32364,7 @@
       <c r="Q334" s="43" t="s">
         <v>1648</v>
       </c>
-      <c r="R334" s="52" t="s">
+      <c r="R334" s="50" t="s">
         <v>1657</v>
       </c>
       <c r="S334" s="43"/>
@@ -32406,7 +32447,7 @@
       <c r="Q335" s="43" t="s">
         <v>1648</v>
       </c>
-      <c r="R335" s="52" t="s">
+      <c r="R335" s="50" t="s">
         <v>1660</v>
       </c>
       <c r="S335" s="43"/>
@@ -32489,7 +32530,7 @@
       <c r="Q336" s="43" t="s">
         <v>1648</v>
       </c>
-      <c r="R336" s="52" t="s">
+      <c r="R336" s="50" t="s">
         <v>1662</v>
       </c>
       <c r="S336" s="43"/>
@@ -32572,7 +32613,7 @@
       <c r="Q337" s="43" t="s">
         <v>1636</v>
       </c>
-      <c r="R337" s="52" t="s">
+      <c r="R337" s="50" t="s">
         <v>1665</v>
       </c>
       <c r="S337" s="43"/>
@@ -36150,7 +36191,7 @@
       <c r="G389" s="19" t="s">
         <v>1278</v>
       </c>
-      <c r="H389" s="51"/>
+      <c r="H389" s="49"/>
       <c r="I389" s="19" t="s">
         <v>1279</v>
       </c>
@@ -36219,7 +36260,7 @@
       <c r="G390" s="19" t="s">
         <v>1265</v>
       </c>
-      <c r="H390" s="51"/>
+      <c r="H390" s="49"/>
       <c r="I390" s="19" t="s">
         <v>1109</v>
       </c>
@@ -36288,7 +36329,7 @@
       <c r="G391" s="19" t="s">
         <v>1286</v>
       </c>
-      <c r="H391" s="51"/>
+      <c r="H391" s="49"/>
       <c r="I391" s="19" t="s">
         <v>1279</v>
       </c>
@@ -37768,62 +37809,62 @@
         <v>1</v>
       </c>
     </row>
-    <row r="414" spans="1:39" s="53" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A414" s="53">
+    <row r="414" spans="1:39" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A414" s="51">
         <v>413</v>
       </c>
-      <c r="B414" s="53">
+      <c r="B414" s="51">
         <v>10330</v>
       </c>
-      <c r="D414" s="53">
-        <v>1</v>
-      </c>
-      <c r="F414" s="53">
-        <v>1</v>
-      </c>
-      <c r="G414" s="53" t="s">
+      <c r="D414" s="51">
+        <v>1</v>
+      </c>
+      <c r="F414" s="51">
+        <v>1</v>
+      </c>
+      <c r="G414" s="51" t="s">
         <v>1375</v>
       </c>
-      <c r="H414" s="53" t="s">
+      <c r="H414" s="51" t="s">
         <v>1793</v>
       </c>
-      <c r="L414" s="53">
+      <c r="L414" s="51">
         <v>-4</v>
       </c>
-      <c r="M414" s="53">
-        <v>0</v>
-      </c>
-      <c r="N414" s="53">
-        <v>0</v>
-      </c>
-      <c r="O414" s="53" t="s">
+      <c r="M414" s="51">
+        <v>0</v>
+      </c>
+      <c r="N414" s="51">
+        <v>0</v>
+      </c>
+      <c r="O414" s="51" t="s">
         <v>100</v>
       </c>
-      <c r="P414" s="53">
+      <c r="P414" s="51">
         <v>600</v>
       </c>
-      <c r="Q414" s="53" t="s">
+      <c r="Q414" s="51" t="s">
         <v>77</v>
       </c>
-      <c r="R414" s="58" t="s">
+      <c r="R414" s="56" t="s">
         <v>1376</v>
       </c>
-      <c r="W414" s="53" t="s">
+      <c r="W414" s="51" t="s">
         <v>524</v>
       </c>
-      <c r="X414" s="54" t="s">
+      <c r="X414" s="52" t="s">
         <v>108</v>
       </c>
-      <c r="Y414" s="55">
-        <v>0</v>
-      </c>
-      <c r="Z414" s="53">
+      <c r="Y414" s="53">
+        <v>0</v>
+      </c>
+      <c r="Z414" s="51">
         <v>2552233600</v>
       </c>
-      <c r="AH414" s="53">
-        <v>1</v>
-      </c>
-      <c r="AI414" s="53">
+      <c r="AH414" s="51">
+        <v>1</v>
+      </c>
+      <c r="AI414" s="51">
         <v>1</v>
       </c>
     </row>
@@ -38235,827 +38276,827 @@
         <v>1</v>
       </c>
     </row>
-    <row r="421" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A421" s="63">
+    <row r="421" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A421" s="59">
         <v>420</v>
       </c>
-      <c r="B421" s="63">
+      <c r="B421" s="59">
         <v>10337</v>
       </c>
-      <c r="F421" s="63">
-        <v>1</v>
-      </c>
-      <c r="G421" s="63" t="s">
+      <c r="F421" s="59">
+        <v>1</v>
+      </c>
+      <c r="G421" s="59" t="s">
         <v>1421</v>
       </c>
-      <c r="J421" s="63" t="s">
+      <c r="J421" s="59" t="s">
         <v>1422</v>
       </c>
-      <c r="L421" s="63">
+      <c r="L421" s="59">
         <v>-31</v>
       </c>
-      <c r="M421" s="63">
-        <v>0</v>
-      </c>
-      <c r="N421" s="63">
-        <v>0</v>
-      </c>
-      <c r="O421" s="63" t="s">
+      <c r="M421" s="59">
+        <v>0</v>
+      </c>
+      <c r="N421" s="59">
+        <v>0</v>
+      </c>
+      <c r="O421" s="59" t="s">
         <v>1423</v>
       </c>
-      <c r="P421" s="63">
+      <c r="P421" s="59">
         <v>1000</v>
       </c>
-      <c r="Q421" s="63" t="s">
+      <c r="Q421" s="59" t="s">
         <v>1424</v>
       </c>
-      <c r="R421" s="64" t="s">
+      <c r="R421" s="60" t="s">
         <v>1425</v>
       </c>
-      <c r="W421" s="63" t="s">
+      <c r="W421" s="59" t="s">
         <v>1426</v>
       </c>
-      <c r="X421" s="63">
+      <c r="X421" s="59">
         <v>9999999</v>
       </c>
-      <c r="Y421" s="63">
+      <c r="Y421" s="59">
         <v>1585609200</v>
       </c>
-      <c r="Z421" s="63">
+      <c r="Z421" s="59">
         <v>2552233600</v>
       </c>
-      <c r="AB421" s="63" t="s">
+      <c r="AB421" s="59" t="s">
         <v>1427</v>
       </c>
-      <c r="AC421" s="63" t="s">
+      <c r="AC421" s="59" t="s">
         <v>1428</v>
       </c>
-      <c r="AH421" s="63">
-        <v>1</v>
-      </c>
-      <c r="AI421" s="63">
-        <v>1</v>
-      </c>
-      <c r="AL421" s="63">
-        <v>1</v>
-      </c>
-      <c r="AM421" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="422" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A422" s="63">
+      <c r="AH421" s="59">
+        <v>1</v>
+      </c>
+      <c r="AI421" s="59">
+        <v>1</v>
+      </c>
+      <c r="AL421" s="59">
+        <v>1</v>
+      </c>
+      <c r="AM421" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="422" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A422" s="59">
         <v>421</v>
       </c>
-      <c r="B422" s="63">
+      <c r="B422" s="59">
         <v>10338</v>
       </c>
-      <c r="F422" s="63">
-        <v>1</v>
-      </c>
-      <c r="G422" s="63" t="s">
+      <c r="F422" s="59">
+        <v>1</v>
+      </c>
+      <c r="G422" s="59" t="s">
         <v>1447</v>
       </c>
-      <c r="I422" s="63" t="s">
+      <c r="I422" s="59" t="s">
         <v>1448</v>
       </c>
-      <c r="J422" s="63" t="s">
+      <c r="J422" s="59" t="s">
         <v>1449</v>
       </c>
-      <c r="L422" s="63">
+      <c r="L422" s="59">
         <v>-31</v>
       </c>
-      <c r="M422" s="63">
-        <v>0</v>
-      </c>
-      <c r="N422" s="63">
-        <v>0</v>
-      </c>
-      <c r="O422" s="63" t="s">
+      <c r="M422" s="59">
+        <v>0</v>
+      </c>
+      <c r="N422" s="59">
+        <v>0</v>
+      </c>
+      <c r="O422" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="P422" s="63">
+      <c r="P422" s="59">
         <v>2000</v>
       </c>
-      <c r="Q422" s="63" t="s">
+      <c r="Q422" s="59" t="s">
         <v>1450</v>
       </c>
-      <c r="R422" s="64" t="s">
+      <c r="R422" s="60" t="s">
         <v>1451</v>
       </c>
-      <c r="W422" s="63" t="s">
+      <c r="W422" s="59" t="s">
         <v>568</v>
       </c>
-      <c r="X422" s="63">
+      <c r="X422" s="59">
         <v>99999999</v>
       </c>
-      <c r="Y422" s="63">
+      <c r="Y422" s="59">
         <v>1603756800</v>
       </c>
-      <c r="Z422" s="63">
+      <c r="Z422" s="59">
         <v>2552233600</v>
       </c>
-      <c r="AA422" s="63">
+      <c r="AA422" s="59">
         <v>51</v>
       </c>
-      <c r="AH422" s="63">
-        <v>1</v>
-      </c>
-      <c r="AI422" s="63">
-        <v>1</v>
-      </c>
-      <c r="AL422" s="63">
-        <v>1</v>
-      </c>
-      <c r="AM422" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="423" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A423" s="63">
+      <c r="AH422" s="59">
+        <v>1</v>
+      </c>
+      <c r="AI422" s="59">
+        <v>1</v>
+      </c>
+      <c r="AL422" s="59">
+        <v>1</v>
+      </c>
+      <c r="AM422" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="423" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A423" s="59">
         <v>422</v>
       </c>
-      <c r="B423" s="63">
+      <c r="B423" s="59">
         <v>10339</v>
       </c>
-      <c r="F423" s="63">
-        <v>1</v>
-      </c>
-      <c r="G423" s="63" t="s">
+      <c r="F423" s="59">
+        <v>1</v>
+      </c>
+      <c r="G423" s="59" t="s">
         <v>1429</v>
       </c>
-      <c r="I423" s="63" t="s">
+      <c r="I423" s="59" t="s">
         <v>1448</v>
       </c>
-      <c r="J423" s="63" t="s">
+      <c r="J423" s="59" t="s">
         <v>1452</v>
       </c>
-      <c r="L423" s="63">
+      <c r="L423" s="59">
         <v>-31</v>
       </c>
-      <c r="M423" s="63">
-        <v>0</v>
-      </c>
-      <c r="N423" s="63">
-        <v>0</v>
-      </c>
-      <c r="O423" s="63" t="s">
+      <c r="M423" s="59">
+        <v>0</v>
+      </c>
+      <c r="N423" s="59">
+        <v>0</v>
+      </c>
+      <c r="O423" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="P423" s="63">
+      <c r="P423" s="59">
         <v>5800</v>
       </c>
-      <c r="Q423" s="63" t="s">
+      <c r="Q423" s="59" t="s">
         <v>1453</v>
       </c>
-      <c r="R423" s="64" t="s">
+      <c r="R423" s="60" t="s">
         <v>1454</v>
       </c>
-      <c r="W423" s="63" t="s">
+      <c r="W423" s="59" t="s">
         <v>1455</v>
       </c>
-      <c r="X423" s="63">
+      <c r="X423" s="59">
         <v>99999999</v>
       </c>
-      <c r="Y423" s="63">
+      <c r="Y423" s="59">
         <v>1603756800</v>
       </c>
-      <c r="Z423" s="63">
+      <c r="Z423" s="59">
         <v>2552233600</v>
       </c>
-      <c r="AA423" s="63">
+      <c r="AA423" s="59">
         <v>51</v>
       </c>
-      <c r="AH423" s="63">
-        <v>1</v>
-      </c>
-      <c r="AI423" s="63">
-        <v>1</v>
-      </c>
-      <c r="AL423" s="63">
-        <v>1</v>
-      </c>
-      <c r="AM423" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="424" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A424" s="63">
+      <c r="AH423" s="59">
+        <v>1</v>
+      </c>
+      <c r="AI423" s="59">
+        <v>1</v>
+      </c>
+      <c r="AL423" s="59">
+        <v>1</v>
+      </c>
+      <c r="AM423" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="424" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A424" s="59">
         <v>423</v>
       </c>
-      <c r="B424" s="63">
+      <c r="B424" s="59">
         <v>10340</v>
       </c>
-      <c r="F424" s="63">
-        <v>1</v>
-      </c>
-      <c r="G424" s="63" t="s">
+      <c r="F424" s="59">
+        <v>1</v>
+      </c>
+      <c r="G424" s="59" t="s">
         <v>1456</v>
       </c>
-      <c r="I424" s="63" t="s">
+      <c r="I424" s="59" t="s">
         <v>1457</v>
       </c>
-      <c r="J424" s="63" t="s">
+      <c r="J424" s="59" t="s">
         <v>1458</v>
       </c>
-      <c r="L424" s="63">
+      <c r="L424" s="59">
         <v>-31</v>
       </c>
-      <c r="M424" s="63">
-        <v>0</v>
-      </c>
-      <c r="N424" s="63">
-        <v>0</v>
-      </c>
-      <c r="O424" s="63" t="s">
+      <c r="M424" s="59">
+        <v>0</v>
+      </c>
+      <c r="N424" s="59">
+        <v>0</v>
+      </c>
+      <c r="O424" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="P424" s="63">
+      <c r="P424" s="59">
         <v>12800</v>
       </c>
-      <c r="Q424" s="63" t="s">
+      <c r="Q424" s="59" t="s">
         <v>1459</v>
       </c>
-      <c r="R424" s="64" t="s">
+      <c r="R424" s="60" t="s">
         <v>1460</v>
       </c>
-      <c r="W424" s="63" t="s">
+      <c r="W424" s="59" t="s">
         <v>1455</v>
       </c>
-      <c r="X424" s="63">
+      <c r="X424" s="59">
         <v>99999999</v>
       </c>
-      <c r="Y424" s="63">
+      <c r="Y424" s="59">
         <v>1603756800</v>
       </c>
-      <c r="Z424" s="63">
+      <c r="Z424" s="59">
         <v>2552233600</v>
       </c>
-      <c r="AA424" s="63">
+      <c r="AA424" s="59">
         <v>51</v>
       </c>
-      <c r="AH424" s="63">
-        <v>1</v>
-      </c>
-      <c r="AI424" s="63">
-        <v>1</v>
-      </c>
-      <c r="AL424" s="63">
-        <v>1</v>
-      </c>
-      <c r="AM424" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="425" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A425" s="63">
+      <c r="AH424" s="59">
+        <v>1</v>
+      </c>
+      <c r="AI424" s="59">
+        <v>1</v>
+      </c>
+      <c r="AL424" s="59">
+        <v>1</v>
+      </c>
+      <c r="AM424" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="425" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A425" s="59">
         <v>424</v>
       </c>
-      <c r="B425" s="63">
+      <c r="B425" s="59">
         <v>10341</v>
       </c>
-      <c r="F425" s="63">
-        <v>1</v>
-      </c>
-      <c r="G425" s="63" t="s">
+      <c r="F425" s="59">
+        <v>1</v>
+      </c>
+      <c r="G425" s="59" t="s">
         <v>1431</v>
       </c>
-      <c r="J425" s="63" t="s">
+      <c r="J425" s="59" t="s">
         <v>1432</v>
       </c>
-      <c r="L425" s="63">
+      <c r="L425" s="59">
         <v>-31</v>
       </c>
-      <c r="M425" s="63">
-        <v>0</v>
-      </c>
-      <c r="N425" s="63">
-        <v>0</v>
-      </c>
-      <c r="O425" s="63" t="s">
+      <c r="M425" s="59">
+        <v>0</v>
+      </c>
+      <c r="N425" s="59">
+        <v>0</v>
+      </c>
+      <c r="O425" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="P425" s="63">
+      <c r="P425" s="59">
         <v>49800</v>
       </c>
-      <c r="Q425" s="63" t="s">
+      <c r="Q425" s="59" t="s">
         <v>1433</v>
       </c>
-      <c r="R425" s="64" t="s">
+      <c r="R425" s="60" t="s">
         <v>1434</v>
       </c>
-      <c r="W425" s="63" t="s">
+      <c r="W425" s="59" t="s">
         <v>1430</v>
       </c>
-      <c r="X425" s="63">
+      <c r="X425" s="59">
         <v>9999999</v>
       </c>
-      <c r="Y425" s="63">
+      <c r="Y425" s="59">
         <v>1585609200</v>
       </c>
-      <c r="Z425" s="63">
+      <c r="Z425" s="59">
         <v>2552233600</v>
       </c>
-      <c r="AH425" s="63">
-        <v>1</v>
-      </c>
-      <c r="AI425" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="426" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A426" s="63">
+      <c r="AH425" s="59">
+        <v>1</v>
+      </c>
+      <c r="AI425" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="426" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A426" s="59">
         <v>425</v>
       </c>
-      <c r="B426" s="63">
+      <c r="B426" s="59">
         <v>10342</v>
       </c>
-      <c r="F426" s="63">
-        <v>1</v>
-      </c>
-      <c r="G426" s="63" t="s">
+      <c r="F426" s="59">
+        <v>1</v>
+      </c>
+      <c r="G426" s="59" t="s">
         <v>1435</v>
       </c>
-      <c r="J426" s="63" t="s">
+      <c r="J426" s="59" t="s">
         <v>1436</v>
       </c>
-      <c r="L426" s="63">
+      <c r="L426" s="59">
         <v>-31</v>
       </c>
-      <c r="M426" s="63">
-        <v>0</v>
-      </c>
-      <c r="N426" s="63">
-        <v>0</v>
-      </c>
-      <c r="O426" s="63" t="s">
+      <c r="M426" s="59">
+        <v>0</v>
+      </c>
+      <c r="N426" s="59">
+        <v>0</v>
+      </c>
+      <c r="O426" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="P426" s="63">
+      <c r="P426" s="59">
         <v>19800</v>
       </c>
-      <c r="Q426" s="63" t="s">
+      <c r="Q426" s="59" t="s">
         <v>1437</v>
       </c>
-      <c r="R426" s="64" t="s">
+      <c r="R426" s="60" t="s">
         <v>1434</v>
       </c>
-      <c r="W426" s="63" t="s">
+      <c r="W426" s="59" t="s">
         <v>1430</v>
       </c>
-      <c r="X426" s="63">
+      <c r="X426" s="59">
         <v>9999999</v>
       </c>
-      <c r="Y426" s="63">
+      <c r="Y426" s="59">
         <v>1585609200</v>
       </c>
-      <c r="Z426" s="63">
+      <c r="Z426" s="59">
         <v>2552233600</v>
       </c>
-      <c r="AH426" s="63">
-        <v>1</v>
-      </c>
-      <c r="AI426" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="427" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A427" s="63">
+      <c r="AH426" s="59">
+        <v>1</v>
+      </c>
+      <c r="AI426" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="427" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A427" s="59">
         <v>426</v>
       </c>
-      <c r="B427" s="63">
+      <c r="B427" s="59">
         <v>10343</v>
       </c>
-      <c r="F427" s="63">
-        <v>1</v>
-      </c>
-      <c r="G427" s="63" t="s">
+      <c r="F427" s="59">
+        <v>1</v>
+      </c>
+      <c r="G427" s="59" t="s">
         <v>1438</v>
       </c>
-      <c r="J427" s="63" t="s">
+      <c r="J427" s="59" t="s">
         <v>1439</v>
       </c>
-      <c r="L427" s="63">
+      <c r="L427" s="59">
         <v>-31</v>
       </c>
-      <c r="M427" s="63">
-        <v>0</v>
-      </c>
-      <c r="N427" s="63">
-        <v>0</v>
-      </c>
-      <c r="O427" s="63" t="s">
+      <c r="M427" s="59">
+        <v>0</v>
+      </c>
+      <c r="N427" s="59">
+        <v>0</v>
+      </c>
+      <c r="O427" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="P427" s="63">
+      <c r="P427" s="59">
         <v>9800</v>
       </c>
-      <c r="Q427" s="63" t="s">
+      <c r="Q427" s="59" t="s">
         <v>1440</v>
       </c>
-      <c r="R427" s="64" t="s">
+      <c r="R427" s="60" t="s">
         <v>649</v>
       </c>
-      <c r="W427" s="63" t="s">
+      <c r="W427" s="59" t="s">
         <v>1430</v>
       </c>
-      <c r="X427" s="63">
+      <c r="X427" s="59">
         <v>9999999</v>
       </c>
-      <c r="Y427" s="63">
+      <c r="Y427" s="59">
         <v>1585609200</v>
       </c>
-      <c r="Z427" s="63">
+      <c r="Z427" s="59">
         <v>2552233600</v>
       </c>
-      <c r="AH427" s="63">
-        <v>1</v>
-      </c>
-      <c r="AI427" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="428" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A428" s="63">
+      <c r="AH427" s="59">
+        <v>1</v>
+      </c>
+      <c r="AI427" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="428" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A428" s="59">
         <v>427</v>
       </c>
-      <c r="B428" s="63">
+      <c r="B428" s="59">
         <v>10344</v>
       </c>
-      <c r="F428" s="63">
-        <v>1</v>
-      </c>
-      <c r="G428" s="63" t="s">
+      <c r="F428" s="59">
+        <v>1</v>
+      </c>
+      <c r="G428" s="59" t="s">
         <v>1441</v>
       </c>
-      <c r="J428" s="63" t="s">
+      <c r="J428" s="59" t="s">
         <v>1442</v>
       </c>
-      <c r="L428" s="63">
+      <c r="L428" s="59">
         <v>-31</v>
       </c>
-      <c r="M428" s="63">
-        <v>0</v>
-      </c>
-      <c r="N428" s="63">
-        <v>0</v>
-      </c>
-      <c r="O428" s="63" t="s">
+      <c r="M428" s="59">
+        <v>0</v>
+      </c>
+      <c r="N428" s="59">
+        <v>0</v>
+      </c>
+      <c r="O428" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="P428" s="63">
+      <c r="P428" s="59">
         <v>9800</v>
       </c>
-      <c r="Q428" s="63" t="s">
+      <c r="Q428" s="59" t="s">
         <v>1443</v>
       </c>
-      <c r="R428" s="64" t="s">
+      <c r="R428" s="60" t="s">
         <v>1434</v>
       </c>
-      <c r="W428" s="63" t="s">
+      <c r="W428" s="59" t="s">
         <v>1426</v>
       </c>
-      <c r="X428" s="63">
+      <c r="X428" s="59">
         <v>9999999</v>
       </c>
-      <c r="Y428" s="63">
+      <c r="Y428" s="59">
         <v>1585609200</v>
       </c>
-      <c r="Z428" s="63">
+      <c r="Z428" s="59">
         <v>2552233600</v>
       </c>
-      <c r="AH428" s="63">
-        <v>1</v>
-      </c>
-      <c r="AI428" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="429" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A429" s="63">
+      <c r="AH428" s="59">
+        <v>1</v>
+      </c>
+      <c r="AI428" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="429" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A429" s="59">
         <v>428</v>
       </c>
-      <c r="B429" s="63">
+      <c r="B429" s="59">
         <v>10345</v>
       </c>
-      <c r="F429" s="63">
-        <v>1</v>
-      </c>
-      <c r="G429" s="63" t="s">
+      <c r="F429" s="59">
+        <v>1</v>
+      </c>
+      <c r="G429" s="59" t="s">
         <v>1444</v>
       </c>
-      <c r="J429" s="63" t="s">
+      <c r="J429" s="59" t="s">
         <v>1445</v>
       </c>
-      <c r="L429" s="63">
+      <c r="L429" s="59">
         <v>-31</v>
       </c>
-      <c r="M429" s="63">
-        <v>0</v>
-      </c>
-      <c r="N429" s="63">
-        <v>0</v>
-      </c>
-      <c r="O429" s="63" t="s">
+      <c r="M429" s="59">
+        <v>0</v>
+      </c>
+      <c r="N429" s="59">
+        <v>0</v>
+      </c>
+      <c r="O429" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="P429" s="63">
+      <c r="P429" s="59">
         <v>4800</v>
       </c>
-      <c r="Q429" s="63" t="s">
+      <c r="Q429" s="59" t="s">
         <v>1446</v>
       </c>
-      <c r="R429" s="64" t="s">
+      <c r="R429" s="60" t="s">
         <v>649</v>
       </c>
-      <c r="W429" s="63" t="s">
+      <c r="W429" s="59" t="s">
         <v>1426</v>
       </c>
-      <c r="X429" s="63">
+      <c r="X429" s="59">
         <v>9999999</v>
       </c>
-      <c r="Y429" s="63">
+      <c r="Y429" s="59">
         <v>1585609200</v>
       </c>
-      <c r="Z429" s="63">
+      <c r="Z429" s="59">
         <v>2552233600</v>
       </c>
-      <c r="AH429" s="63">
-        <v>1</v>
-      </c>
-      <c r="AI429" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="430" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A430" s="63">
+      <c r="AH429" s="59">
+        <v>1</v>
+      </c>
+      <c r="AI429" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="430" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A430" s="59">
         <v>429</v>
       </c>
-      <c r="B430" s="63">
+      <c r="B430" s="59">
         <v>10346</v>
       </c>
-      <c r="F430" s="63">
-        <v>1</v>
-      </c>
-      <c r="G430" s="63" t="s">
+      <c r="F430" s="59">
+        <v>1</v>
+      </c>
+      <c r="G430" s="59" t="s">
         <v>1770</v>
       </c>
-      <c r="I430" s="63" t="s">
+      <c r="I430" s="59" t="s">
         <v>1771</v>
       </c>
-      <c r="J430" s="63" t="s">
+      <c r="J430" s="59" t="s">
         <v>1772</v>
       </c>
-      <c r="L430" s="63">
+      <c r="L430" s="59">
         <v>-28</v>
       </c>
-      <c r="M430" s="63">
-        <v>0</v>
-      </c>
-      <c r="N430" s="63">
-        <v>0</v>
-      </c>
-      <c r="O430" s="63" t="s">
+      <c r="M430" s="59">
+        <v>0</v>
+      </c>
+      <c r="N430" s="59">
+        <v>0</v>
+      </c>
+      <c r="O430" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="P430" s="63">
+      <c r="P430" s="59">
         <v>100</v>
       </c>
-      <c r="Q430" s="63" t="s">
+      <c r="Q430" s="59" t="s">
         <v>1399</v>
       </c>
-      <c r="R430" s="64" t="s">
+      <c r="R430" s="60" t="s">
         <v>1773</v>
       </c>
-      <c r="W430" s="63" t="s">
+      <c r="W430" s="59" t="s">
         <v>1774</v>
       </c>
-      <c r="X430" s="63">
+      <c r="X430" s="59">
         <v>9999999</v>
       </c>
-      <c r="Y430" s="63">
+      <c r="Y430" s="59">
         <v>1581377400</v>
       </c>
-      <c r="Z430" s="63">
+      <c r="Z430" s="59">
         <v>2552233600</v>
       </c>
-      <c r="AA430" s="63">
+      <c r="AA430" s="59">
         <v>14</v>
       </c>
-      <c r="AH430" s="63">
-        <v>1</v>
-      </c>
-      <c r="AI430" s="63">
-        <v>1</v>
-      </c>
-      <c r="AL430" s="63">
-        <v>1</v>
-      </c>
-      <c r="AM430" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="431" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A431" s="63">
+      <c r="AH430" s="59">
+        <v>1</v>
+      </c>
+      <c r="AI430" s="59">
+        <v>1</v>
+      </c>
+      <c r="AL430" s="59">
+        <v>1</v>
+      </c>
+      <c r="AM430" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="431" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A431" s="59">
         <v>430</v>
       </c>
-      <c r="B431" s="63">
+      <c r="B431" s="59">
         <v>10347</v>
       </c>
-      <c r="F431" s="63">
-        <v>1</v>
-      </c>
-      <c r="G431" s="63" t="s">
+      <c r="F431" s="59">
+        <v>1</v>
+      </c>
+      <c r="G431" s="59" t="s">
         <v>1770</v>
       </c>
-      <c r="I431" s="63" t="s">
+      <c r="I431" s="59" t="s">
         <v>1775</v>
       </c>
-      <c r="J431" s="63" t="s">
+      <c r="J431" s="59" t="s">
         <v>1776</v>
       </c>
-      <c r="L431" s="63">
+      <c r="L431" s="59">
         <v>-28</v>
       </c>
-      <c r="M431" s="63">
-        <v>0</v>
-      </c>
-      <c r="N431" s="63">
-        <v>0</v>
-      </c>
-      <c r="O431" s="63" t="s">
+      <c r="M431" s="59">
+        <v>0</v>
+      </c>
+      <c r="N431" s="59">
+        <v>0</v>
+      </c>
+      <c r="O431" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="P431" s="63">
+      <c r="P431" s="59">
         <v>300</v>
       </c>
-      <c r="Q431" s="63" t="s">
+      <c r="Q431" s="59" t="s">
         <v>1399</v>
       </c>
-      <c r="R431" s="64" t="s">
+      <c r="R431" s="60" t="s">
         <v>1777</v>
       </c>
-      <c r="W431" s="63" t="s">
+      <c r="W431" s="59" t="s">
         <v>527</v>
       </c>
-      <c r="X431" s="63">
+      <c r="X431" s="59">
         <v>9999999</v>
       </c>
-      <c r="Y431" s="63">
+      <c r="Y431" s="59">
         <v>1581377400</v>
       </c>
-      <c r="Z431" s="63">
+      <c r="Z431" s="59">
         <v>2552233600</v>
       </c>
-      <c r="AA431" s="63">
+      <c r="AA431" s="59">
         <v>14</v>
       </c>
-      <c r="AH431" s="63">
-        <v>1</v>
-      </c>
-      <c r="AI431" s="63">
-        <v>1</v>
-      </c>
-      <c r="AL431" s="63">
-        <v>1</v>
-      </c>
-      <c r="AM431" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="432" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A432" s="63">
+      <c r="AH431" s="59">
+        <v>1</v>
+      </c>
+      <c r="AI431" s="59">
+        <v>1</v>
+      </c>
+      <c r="AL431" s="59">
+        <v>1</v>
+      </c>
+      <c r="AM431" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="432" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A432" s="59">
         <v>431</v>
       </c>
-      <c r="B432" s="63">
+      <c r="B432" s="59">
         <v>10348</v>
       </c>
-      <c r="F432" s="63">
-        <v>1</v>
-      </c>
-      <c r="G432" s="63" t="s">
+      <c r="F432" s="59">
+        <v>1</v>
+      </c>
+      <c r="G432" s="59" t="s">
         <v>1770</v>
       </c>
-      <c r="I432" s="63" t="s">
+      <c r="I432" s="59" t="s">
         <v>1778</v>
       </c>
-      <c r="J432" s="63" t="s">
+      <c r="J432" s="59" t="s">
         <v>1779</v>
       </c>
-      <c r="L432" s="63">
+      <c r="L432" s="59">
         <v>-28</v>
       </c>
-      <c r="M432" s="63">
-        <v>0</v>
-      </c>
-      <c r="N432" s="63">
-        <v>0</v>
-      </c>
-      <c r="O432" s="63" t="s">
+      <c r="M432" s="59">
+        <v>0</v>
+      </c>
+      <c r="N432" s="59">
+        <v>0</v>
+      </c>
+      <c r="O432" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="P432" s="63">
+      <c r="P432" s="59">
         <v>600</v>
       </c>
-      <c r="Q432" s="63" t="s">
+      <c r="Q432" s="59" t="s">
         <v>1399</v>
       </c>
-      <c r="R432" s="64" t="s">
+      <c r="R432" s="60" t="s">
         <v>1780</v>
       </c>
-      <c r="W432" s="63" t="s">
+      <c r="W432" s="59" t="s">
         <v>527</v>
       </c>
-      <c r="X432" s="63">
+      <c r="X432" s="59">
         <v>9999999</v>
       </c>
-      <c r="Y432" s="63">
+      <c r="Y432" s="59">
         <v>1581377400</v>
       </c>
-      <c r="Z432" s="63">
+      <c r="Z432" s="59">
         <v>2552233600</v>
       </c>
-      <c r="AA432" s="63">
+      <c r="AA432" s="59">
         <v>14</v>
       </c>
-      <c r="AH432" s="63">
-        <v>1</v>
-      </c>
-      <c r="AI432" s="63">
-        <v>1</v>
-      </c>
-      <c r="AL432" s="63">
-        <v>1</v>
-      </c>
-      <c r="AM432" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="433" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A433" s="63">
+      <c r="AH432" s="59">
+        <v>1</v>
+      </c>
+      <c r="AI432" s="59">
+        <v>1</v>
+      </c>
+      <c r="AL432" s="59">
+        <v>1</v>
+      </c>
+      <c r="AM432" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="433" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A433" s="59">
         <v>432</v>
       </c>
-      <c r="B433" s="63">
+      <c r="B433" s="59">
         <v>10349</v>
       </c>
-      <c r="F433" s="63">
-        <v>1</v>
-      </c>
-      <c r="G433" s="63" t="s">
+      <c r="F433" s="59">
+        <v>1</v>
+      </c>
+      <c r="G433" s="59" t="s">
         <v>1770</v>
       </c>
-      <c r="I433" s="63" t="s">
+      <c r="I433" s="59" t="s">
         <v>1781</v>
       </c>
-      <c r="J433" s="63" t="s">
+      <c r="J433" s="59" t="s">
         <v>1782</v>
       </c>
-      <c r="L433" s="63">
+      <c r="L433" s="59">
         <v>-28</v>
       </c>
-      <c r="M433" s="63">
-        <v>0</v>
-      </c>
-      <c r="N433" s="63">
-        <v>0</v>
-      </c>
-      <c r="O433" s="63" t="s">
+      <c r="M433" s="59">
+        <v>0</v>
+      </c>
+      <c r="N433" s="59">
+        <v>0</v>
+      </c>
+      <c r="O433" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="P433" s="63">
+      <c r="P433" s="59">
         <v>600</v>
       </c>
-      <c r="Q433" s="63" t="s">
+      <c r="Q433" s="59" t="s">
         <v>1783</v>
       </c>
-      <c r="R433" s="64" t="s">
+      <c r="R433" s="60" t="s">
         <v>1784</v>
       </c>
-      <c r="W433" s="63" t="s">
+      <c r="W433" s="59" t="s">
         <v>527</v>
       </c>
-      <c r="X433" s="63">
+      <c r="X433" s="59">
         <v>9999999</v>
       </c>
-      <c r="Y433" s="63">
+      <c r="Y433" s="59">
         <v>1581377400</v>
       </c>
-      <c r="Z433" s="63">
+      <c r="Z433" s="59">
         <v>2552233600</v>
       </c>
-      <c r="AA433" s="63">
+      <c r="AA433" s="59">
         <v>14</v>
       </c>
-      <c r="AH433" s="63">
-        <v>1</v>
-      </c>
-      <c r="AI433" s="63">
-        <v>1</v>
-      </c>
-      <c r="AL433" s="63">
-        <v>1</v>
-      </c>
-      <c r="AM433" s="63">
+      <c r="AH433" s="59">
+        <v>1</v>
+      </c>
+      <c r="AI433" s="59">
+        <v>1</v>
+      </c>
+      <c r="AL433" s="59">
+        <v>1</v>
+      </c>
+      <c r="AM433" s="59">
         <v>1</v>
       </c>
     </row>
@@ -39886,1930 +39927,1930 @@
         <v>1</v>
       </c>
     </row>
-    <row r="447" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A447" s="63">
+    <row r="447" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A447" s="59">
         <v>446</v>
       </c>
-      <c r="B447" s="63">
+      <c r="B447" s="59">
         <v>10363</v>
       </c>
-      <c r="F447" s="63">
-        <v>1</v>
-      </c>
-      <c r="G447" s="63" t="s">
+      <c r="F447" s="59">
+        <v>1</v>
+      </c>
+      <c r="G447" s="59" t="s">
         <v>1525</v>
       </c>
-      <c r="I447" s="63" t="s">
+      <c r="I447" s="59" t="s">
         <v>1526</v>
       </c>
-      <c r="J447" s="63" t="s">
+      <c r="J447" s="59" t="s">
         <v>1527</v>
       </c>
-      <c r="L447" s="63">
+      <c r="L447" s="59">
         <v>-31</v>
       </c>
-      <c r="M447" s="63">
-        <v>0</v>
-      </c>
-      <c r="N447" s="63">
-        <v>0</v>
-      </c>
-      <c r="O447" s="63" t="s">
+      <c r="M447" s="59">
+        <v>0</v>
+      </c>
+      <c r="N447" s="59">
+        <v>0</v>
+      </c>
+      <c r="O447" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="P447" s="63">
+      <c r="P447" s="59">
         <v>800</v>
       </c>
-      <c r="Q447" s="63" t="s">
+      <c r="Q447" s="59" t="s">
         <v>1528</v>
       </c>
-      <c r="R447" s="64" t="s">
+      <c r="R447" s="60" t="s">
         <v>1529</v>
       </c>
-      <c r="W447" s="63" t="s">
+      <c r="W447" s="59" t="s">
         <v>1530</v>
       </c>
-      <c r="X447" s="63">
+      <c r="X447" s="59">
         <v>9999999</v>
       </c>
-      <c r="Y447" s="63">
+      <c r="Y447" s="59">
         <v>1605571200</v>
       </c>
-      <c r="Z447" s="63">
+      <c r="Z447" s="59">
         <v>2552233600</v>
       </c>
-      <c r="AA447" s="63">
+      <c r="AA447" s="59">
         <v>52</v>
       </c>
-      <c r="AH447" s="63">
-        <v>1</v>
-      </c>
-      <c r="AI447" s="63">
-        <v>1</v>
-      </c>
-      <c r="AL447" s="63">
-        <v>1</v>
-      </c>
-      <c r="AM447" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="448" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A448" s="63">
+      <c r="AH447" s="59">
+        <v>1</v>
+      </c>
+      <c r="AI447" s="59">
+        <v>1</v>
+      </c>
+      <c r="AL447" s="59">
+        <v>1</v>
+      </c>
+      <c r="AM447" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="448" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A448" s="59">
         <v>447</v>
       </c>
-      <c r="B448" s="63">
+      <c r="B448" s="59">
         <v>10364</v>
       </c>
-      <c r="F448" s="63">
-        <v>1</v>
-      </c>
-      <c r="G448" s="63" t="s">
+      <c r="F448" s="59">
+        <v>1</v>
+      </c>
+      <c r="G448" s="59" t="s">
         <v>1531</v>
       </c>
-      <c r="I448" s="63" t="s">
+      <c r="I448" s="59" t="s">
         <v>1532</v>
       </c>
-      <c r="J448" s="63" t="s">
+      <c r="J448" s="59" t="s">
         <v>1533</v>
       </c>
-      <c r="L448" s="63">
+      <c r="L448" s="59">
         <v>-31</v>
       </c>
-      <c r="M448" s="63">
-        <v>0</v>
-      </c>
-      <c r="N448" s="63">
-        <v>0</v>
-      </c>
-      <c r="O448" s="63" t="s">
+      <c r="M448" s="59">
+        <v>0</v>
+      </c>
+      <c r="N448" s="59">
+        <v>0</v>
+      </c>
+      <c r="O448" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="P448" s="63">
+      <c r="P448" s="59">
         <v>800</v>
       </c>
-      <c r="Q448" s="63" t="s">
+      <c r="Q448" s="59" t="s">
         <v>988</v>
       </c>
-      <c r="R448" s="64" t="s">
+      <c r="R448" s="60" t="s">
         <v>1534</v>
       </c>
-      <c r="W448" s="63" t="s">
+      <c r="W448" s="59" t="s">
         <v>1530</v>
       </c>
-      <c r="X448" s="63">
+      <c r="X448" s="59">
         <v>9999999</v>
       </c>
-      <c r="Y448" s="63">
+      <c r="Y448" s="59">
         <v>1605571200</v>
       </c>
-      <c r="Z448" s="63">
+      <c r="Z448" s="59">
         <v>2552233600</v>
       </c>
-      <c r="AH448" s="63">
-        <v>1</v>
-      </c>
-      <c r="AI448" s="63">
-        <v>1</v>
-      </c>
-      <c r="AL448" s="63">
-        <v>1</v>
-      </c>
-      <c r="AM448" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="449" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A449" s="63">
+      <c r="AH448" s="59">
+        <v>1</v>
+      </c>
+      <c r="AI448" s="59">
+        <v>1</v>
+      </c>
+      <c r="AL448" s="59">
+        <v>1</v>
+      </c>
+      <c r="AM448" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="449" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A449" s="59">
         <v>448</v>
       </c>
-      <c r="B449" s="63">
+      <c r="B449" s="59">
         <v>10365</v>
       </c>
-      <c r="F449" s="63">
-        <v>1</v>
-      </c>
-      <c r="G449" s="63" t="s">
+      <c r="F449" s="59">
+        <v>1</v>
+      </c>
+      <c r="G449" s="59" t="s">
         <v>1535</v>
       </c>
-      <c r="I449" s="63" t="s">
+      <c r="I449" s="59" t="s">
         <v>1536</v>
       </c>
-      <c r="J449" s="63" t="s">
+      <c r="J449" s="59" t="s">
         <v>1537</v>
       </c>
-      <c r="L449" s="63">
+      <c r="L449" s="59">
         <v>-31</v>
       </c>
-      <c r="M449" s="63">
-        <v>0</v>
-      </c>
-      <c r="N449" s="63">
-        <v>0</v>
-      </c>
-      <c r="O449" s="63" t="s">
+      <c r="M449" s="59">
+        <v>0</v>
+      </c>
+      <c r="N449" s="59">
+        <v>0</v>
+      </c>
+      <c r="O449" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="P449" s="63">
+      <c r="P449" s="59">
         <v>800</v>
       </c>
-      <c r="Q449" s="63" t="s">
+      <c r="Q449" s="59" t="s">
         <v>1528</v>
       </c>
-      <c r="R449" s="64" t="s">
+      <c r="R449" s="60" t="s">
         <v>1538</v>
       </c>
-      <c r="W449" s="63" t="s">
+      <c r="W449" s="59" t="s">
         <v>527</v>
       </c>
-      <c r="X449" s="63">
+      <c r="X449" s="59">
         <v>9999999</v>
       </c>
-      <c r="Y449" s="63">
+      <c r="Y449" s="59">
         <v>1605571200</v>
       </c>
-      <c r="Z449" s="63">
+      <c r="Z449" s="59">
         <v>2552233600</v>
       </c>
-      <c r="AA449" s="63">
+      <c r="AA449" s="59">
         <v>53</v>
       </c>
-      <c r="AH449" s="63">
-        <v>1</v>
-      </c>
-      <c r="AI449" s="63">
-        <v>1</v>
-      </c>
-      <c r="AL449" s="63">
-        <v>1</v>
-      </c>
-      <c r="AM449" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="450" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A450" s="63">
+      <c r="AH449" s="59">
+        <v>1</v>
+      </c>
+      <c r="AI449" s="59">
+        <v>1</v>
+      </c>
+      <c r="AL449" s="59">
+        <v>1</v>
+      </c>
+      <c r="AM449" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="450" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A450" s="59">
         <v>449</v>
       </c>
-      <c r="B450" s="63">
+      <c r="B450" s="59">
         <v>10366</v>
       </c>
-      <c r="F450" s="63">
-        <v>1</v>
-      </c>
-      <c r="G450" s="63" t="s">
+      <c r="F450" s="59">
+        <v>1</v>
+      </c>
+      <c r="G450" s="59" t="s">
         <v>1539</v>
       </c>
-      <c r="I450" s="63" t="s">
+      <c r="I450" s="59" t="s">
         <v>1540</v>
       </c>
-      <c r="J450" s="63" t="s">
+      <c r="J450" s="59" t="s">
         <v>1541</v>
       </c>
-      <c r="L450" s="63">
+      <c r="L450" s="59">
         <v>-31</v>
       </c>
-      <c r="M450" s="63">
-        <v>0</v>
-      </c>
-      <c r="N450" s="63">
-        <v>0</v>
-      </c>
-      <c r="O450" s="63" t="s">
+      <c r="M450" s="59">
+        <v>0</v>
+      </c>
+      <c r="N450" s="59">
+        <v>0</v>
+      </c>
+      <c r="O450" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="P450" s="63">
+      <c r="P450" s="59">
         <v>3800</v>
       </c>
-      <c r="Q450" s="63" t="s">
+      <c r="Q450" s="59" t="s">
         <v>1528</v>
       </c>
-      <c r="R450" s="64" t="s">
+      <c r="R450" s="60" t="s">
         <v>1542</v>
       </c>
-      <c r="W450" s="63" t="s">
+      <c r="W450" s="59" t="s">
         <v>527</v>
       </c>
-      <c r="X450" s="63">
+      <c r="X450" s="59">
         <v>9999999</v>
       </c>
-      <c r="Y450" s="63">
+      <c r="Y450" s="59">
         <v>1605571200</v>
       </c>
-      <c r="Z450" s="63">
+      <c r="Z450" s="59">
         <v>2552233600</v>
       </c>
-      <c r="AA450" s="63">
+      <c r="AA450" s="59">
         <v>54</v>
       </c>
-      <c r="AH450" s="63">
-        <v>1</v>
-      </c>
-      <c r="AI450" s="63">
-        <v>1</v>
-      </c>
-      <c r="AL450" s="63">
-        <v>1</v>
-      </c>
-      <c r="AM450" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="451" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A451" s="63">
+      <c r="AH450" s="59">
+        <v>1</v>
+      </c>
+      <c r="AI450" s="59">
+        <v>1</v>
+      </c>
+      <c r="AL450" s="59">
+        <v>1</v>
+      </c>
+      <c r="AM450" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="451" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A451" s="59">
         <v>450</v>
       </c>
-      <c r="B451" s="63">
+      <c r="B451" s="59">
         <v>10367</v>
       </c>
-      <c r="F451" s="63">
-        <v>1</v>
-      </c>
-      <c r="G451" s="63" t="s">
+      <c r="F451" s="59">
+        <v>1</v>
+      </c>
+      <c r="G451" s="59" t="s">
         <v>1543</v>
       </c>
-      <c r="I451" s="63" t="s">
+      <c r="I451" s="59" t="s">
         <v>1544</v>
       </c>
-      <c r="J451" s="63" t="s">
+      <c r="J451" s="59" t="s">
         <v>1545</v>
       </c>
-      <c r="L451" s="63">
+      <c r="L451" s="59">
         <v>-31</v>
       </c>
-      <c r="M451" s="63">
-        <v>0</v>
-      </c>
-      <c r="N451" s="63">
-        <v>0</v>
-      </c>
-      <c r="O451" s="63" t="s">
+      <c r="M451" s="59">
+        <v>0</v>
+      </c>
+      <c r="N451" s="59">
+        <v>0</v>
+      </c>
+      <c r="O451" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="P451" s="63">
+      <c r="P451" s="59">
         <v>3800</v>
       </c>
-      <c r="Q451" s="63" t="s">
+      <c r="Q451" s="59" t="s">
         <v>1528</v>
       </c>
-      <c r="R451" s="64" t="s">
+      <c r="R451" s="60" t="s">
         <v>1546</v>
       </c>
-      <c r="W451" s="63" t="s">
+      <c r="W451" s="59" t="s">
         <v>527</v>
       </c>
-      <c r="X451" s="63">
+      <c r="X451" s="59">
         <v>9999999</v>
       </c>
-      <c r="Y451" s="63">
+      <c r="Y451" s="59">
         <v>1605571200</v>
       </c>
-      <c r="Z451" s="63">
+      <c r="Z451" s="59">
         <v>2552233600</v>
       </c>
-      <c r="AH451" s="63">
-        <v>1</v>
-      </c>
-      <c r="AI451" s="63">
-        <v>1</v>
-      </c>
-      <c r="AL451" s="63">
-        <v>1</v>
-      </c>
-      <c r="AM451" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="452" spans="1:39" s="63" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A452" s="63">
+      <c r="AH451" s="59">
+        <v>1</v>
+      </c>
+      <c r="AI451" s="59">
+        <v>1</v>
+      </c>
+      <c r="AL451" s="59">
+        <v>1</v>
+      </c>
+      <c r="AM451" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="452" spans="1:39" s="59" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A452" s="59">
         <v>451</v>
       </c>
-      <c r="B452" s="63">
+      <c r="B452" s="59">
         <v>10368</v>
       </c>
-      <c r="F452" s="63">
-        <v>1</v>
-      </c>
-      <c r="G452" s="63" t="s">
+      <c r="F452" s="59">
+        <v>1</v>
+      </c>
+      <c r="G452" s="59" t="s">
         <v>1547</v>
       </c>
-      <c r="I452" s="63" t="s">
+      <c r="I452" s="59" t="s">
         <v>1548</v>
       </c>
-      <c r="J452" s="63" t="s">
+      <c r="J452" s="59" t="s">
         <v>1549</v>
       </c>
-      <c r="L452" s="63">
+      <c r="L452" s="59">
         <v>-31</v>
       </c>
-      <c r="M452" s="63">
-        <v>0</v>
-      </c>
-      <c r="N452" s="63">
-        <v>0</v>
-      </c>
-      <c r="O452" s="63" t="s">
+      <c r="M452" s="59">
+        <v>0</v>
+      </c>
+      <c r="N452" s="59">
+        <v>0</v>
+      </c>
+      <c r="O452" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="P452" s="63">
+      <c r="P452" s="59">
         <v>3800</v>
       </c>
-      <c r="Q452" s="63" t="s">
+      <c r="Q452" s="59" t="s">
         <v>1528</v>
       </c>
-      <c r="R452" s="64" t="s">
+      <c r="R452" s="60" t="s">
         <v>1550</v>
       </c>
-      <c r="W452" s="63" t="s">
+      <c r="W452" s="59" t="s">
         <v>527</v>
       </c>
-      <c r="X452" s="63">
+      <c r="X452" s="59">
         <v>9999999</v>
       </c>
-      <c r="Y452" s="63">
+      <c r="Y452" s="59">
         <v>1605571200</v>
       </c>
-      <c r="Z452" s="63">
+      <c r="Z452" s="59">
         <v>2552233600</v>
       </c>
-      <c r="AA452" s="63">
+      <c r="AA452" s="59">
         <v>55</v>
       </c>
-      <c r="AH452" s="63">
-        <v>1</v>
-      </c>
-      <c r="AI452" s="63">
-        <v>1</v>
-      </c>
-      <c r="AL452" s="63">
-        <v>1</v>
-      </c>
-      <c r="AM452" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="453" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A453" s="63">
+      <c r="AH452" s="59">
+        <v>1</v>
+      </c>
+      <c r="AI452" s="59">
+        <v>1</v>
+      </c>
+      <c r="AL452" s="59">
+        <v>1</v>
+      </c>
+      <c r="AM452" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="453" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A453" s="59">
         <v>452</v>
       </c>
-      <c r="B453" s="63">
+      <c r="B453" s="59">
         <v>10369</v>
       </c>
-      <c r="F453" s="63">
-        <v>1</v>
-      </c>
-      <c r="G453" s="63" t="s">
+      <c r="F453" s="59">
+        <v>1</v>
+      </c>
+      <c r="G453" s="59" t="s">
         <v>1551</v>
       </c>
-      <c r="I453" s="63" t="s">
+      <c r="I453" s="59" t="s">
         <v>1552</v>
       </c>
-      <c r="J453" s="63" t="s">
+      <c r="J453" s="59" t="s">
         <v>1553</v>
       </c>
-      <c r="L453" s="63">
+      <c r="L453" s="59">
         <v>-31</v>
       </c>
-      <c r="M453" s="63">
-        <v>0</v>
-      </c>
-      <c r="N453" s="63">
-        <v>0</v>
-      </c>
-      <c r="O453" s="63" t="s">
+      <c r="M453" s="59">
+        <v>0</v>
+      </c>
+      <c r="N453" s="59">
+        <v>0</v>
+      </c>
+      <c r="O453" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="P453" s="63">
+      <c r="P453" s="59">
         <v>9800</v>
       </c>
-      <c r="Q453" s="63" t="s">
+      <c r="Q453" s="59" t="s">
         <v>1528</v>
       </c>
-      <c r="R453" s="64" t="s">
+      <c r="R453" s="60" t="s">
         <v>1554</v>
       </c>
-      <c r="W453" s="63" t="s">
+      <c r="W453" s="59" t="s">
         <v>527</v>
       </c>
-      <c r="X453" s="63">
+      <c r="X453" s="59">
         <v>9999999</v>
       </c>
-      <c r="Y453" s="63">
+      <c r="Y453" s="59">
         <v>1605571200</v>
       </c>
-      <c r="Z453" s="63">
+      <c r="Z453" s="59">
         <v>2552233600</v>
       </c>
-      <c r="AA453" s="63">
+      <c r="AA453" s="59">
         <v>56</v>
       </c>
-      <c r="AH453" s="63">
-        <v>1</v>
-      </c>
-      <c r="AI453" s="63">
-        <v>1</v>
-      </c>
-      <c r="AL453" s="63">
-        <v>1</v>
-      </c>
-      <c r="AM453" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="454" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A454" s="63">
+      <c r="AH453" s="59">
+        <v>1</v>
+      </c>
+      <c r="AI453" s="59">
+        <v>1</v>
+      </c>
+      <c r="AL453" s="59">
+        <v>1</v>
+      </c>
+      <c r="AM453" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="454" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A454" s="59">
         <v>453</v>
       </c>
-      <c r="B454" s="63">
+      <c r="B454" s="59">
         <v>10370</v>
       </c>
-      <c r="F454" s="63">
-        <v>1</v>
-      </c>
-      <c r="G454" s="63" t="s">
+      <c r="F454" s="59">
+        <v>1</v>
+      </c>
+      <c r="G454" s="59" t="s">
         <v>1555</v>
       </c>
-      <c r="I454" s="63" t="s">
+      <c r="I454" s="59" t="s">
         <v>1556</v>
       </c>
-      <c r="J454" s="63" t="s">
+      <c r="J454" s="59" t="s">
         <v>1557</v>
       </c>
-      <c r="L454" s="63">
+      <c r="L454" s="59">
         <v>-31</v>
       </c>
-      <c r="M454" s="63">
-        <v>0</v>
-      </c>
-      <c r="N454" s="63">
-        <v>0</v>
-      </c>
-      <c r="O454" s="63" t="s">
+      <c r="M454" s="59">
+        <v>0</v>
+      </c>
+      <c r="N454" s="59">
+        <v>0</v>
+      </c>
+      <c r="O454" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="P454" s="63">
+      <c r="P454" s="59">
         <v>9800</v>
       </c>
-      <c r="Q454" s="63" t="s">
+      <c r="Q454" s="59" t="s">
         <v>1528</v>
       </c>
-      <c r="R454" s="64" t="s">
+      <c r="R454" s="60" t="s">
         <v>1558</v>
       </c>
-      <c r="W454" s="63" t="s">
+      <c r="W454" s="59" t="s">
         <v>527</v>
       </c>
-      <c r="X454" s="63">
+      <c r="X454" s="59">
         <v>9999999</v>
       </c>
-      <c r="Y454" s="63">
+      <c r="Y454" s="59">
         <v>1605571200</v>
       </c>
-      <c r="Z454" s="63">
+      <c r="Z454" s="59">
         <v>2552233600</v>
       </c>
-      <c r="AH454" s="63">
-        <v>1</v>
-      </c>
-      <c r="AI454" s="63">
-        <v>1</v>
-      </c>
-      <c r="AL454" s="63">
-        <v>1</v>
-      </c>
-      <c r="AM454" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="455" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A455" s="63">
+      <c r="AH454" s="59">
+        <v>1</v>
+      </c>
+      <c r="AI454" s="59">
+        <v>1</v>
+      </c>
+      <c r="AL454" s="59">
+        <v>1</v>
+      </c>
+      <c r="AM454" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="455" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A455" s="59">
         <v>454</v>
       </c>
-      <c r="B455" s="63">
+      <c r="B455" s="59">
         <v>10371</v>
       </c>
-      <c r="F455" s="63">
-        <v>1</v>
-      </c>
-      <c r="G455" s="63" t="s">
+      <c r="F455" s="59">
+        <v>1</v>
+      </c>
+      <c r="G455" s="59" t="s">
         <v>1559</v>
       </c>
-      <c r="I455" s="63" t="s">
+      <c r="I455" s="59" t="s">
         <v>1560</v>
       </c>
-      <c r="J455" s="63" t="s">
+      <c r="J455" s="59" t="s">
         <v>1561</v>
       </c>
-      <c r="L455" s="63">
+      <c r="L455" s="59">
         <v>-31</v>
       </c>
-      <c r="M455" s="63">
-        <v>0</v>
-      </c>
-      <c r="N455" s="63">
-        <v>0</v>
-      </c>
-      <c r="O455" s="63" t="s">
+      <c r="M455" s="59">
+        <v>0</v>
+      </c>
+      <c r="N455" s="59">
+        <v>0</v>
+      </c>
+      <c r="O455" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="P455" s="63">
+      <c r="P455" s="59">
         <v>9800</v>
       </c>
-      <c r="Q455" s="63" t="s">
+      <c r="Q455" s="59" t="s">
         <v>1528</v>
       </c>
-      <c r="R455" s="64" t="s">
+      <c r="R455" s="60" t="s">
         <v>1687</v>
       </c>
-      <c r="W455" s="63" t="s">
+      <c r="W455" s="59" t="s">
         <v>527</v>
       </c>
-      <c r="X455" s="63">
+      <c r="X455" s="59">
         <v>9999999</v>
       </c>
-      <c r="Y455" s="63">
+      <c r="Y455" s="59">
         <v>1605571200</v>
       </c>
-      <c r="Z455" s="63">
+      <c r="Z455" s="59">
         <v>2552233600</v>
       </c>
-      <c r="AA455" s="63">
+      <c r="AA455" s="59">
         <v>57</v>
       </c>
-      <c r="AH455" s="63">
-        <v>1</v>
-      </c>
-      <c r="AI455" s="63">
-        <v>1</v>
-      </c>
-      <c r="AL455" s="63">
-        <v>1</v>
-      </c>
-      <c r="AM455" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="456" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A456" s="63">
+      <c r="AH455" s="59">
+        <v>1</v>
+      </c>
+      <c r="AI455" s="59">
+        <v>1</v>
+      </c>
+      <c r="AL455" s="59">
+        <v>1</v>
+      </c>
+      <c r="AM455" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="456" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A456" s="59">
         <v>455</v>
       </c>
-      <c r="B456" s="63">
+      <c r="B456" s="59">
         <v>10372</v>
       </c>
-      <c r="F456" s="63">
-        <v>1</v>
-      </c>
-      <c r="G456" s="63" t="s">
+      <c r="F456" s="59">
+        <v>1</v>
+      </c>
+      <c r="G456" s="59" t="s">
         <v>1562</v>
       </c>
-      <c r="I456" s="63" t="s">
+      <c r="I456" s="59" t="s">
         <v>1563</v>
       </c>
-      <c r="J456" s="63" t="s">
+      <c r="J456" s="59" t="s">
         <v>1564</v>
       </c>
-      <c r="L456" s="63">
+      <c r="L456" s="59">
         <v>-31</v>
       </c>
-      <c r="M456" s="63">
-        <v>0</v>
-      </c>
-      <c r="N456" s="63">
-        <v>0</v>
-      </c>
-      <c r="O456" s="63" t="s">
+      <c r="M456" s="59">
+        <v>0</v>
+      </c>
+      <c r="N456" s="59">
+        <v>0</v>
+      </c>
+      <c r="O456" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="P456" s="63">
+      <c r="P456" s="59">
         <v>19800</v>
       </c>
-      <c r="Q456" s="63" t="s">
+      <c r="Q456" s="59" t="s">
         <v>1528</v>
       </c>
-      <c r="R456" s="64" t="s">
+      <c r="R456" s="60" t="s">
         <v>1565</v>
       </c>
-      <c r="W456" s="63" t="s">
+      <c r="W456" s="59" t="s">
         <v>527</v>
       </c>
-      <c r="X456" s="63">
+      <c r="X456" s="59">
         <v>9999999</v>
       </c>
-      <c r="Y456" s="63">
+      <c r="Y456" s="59">
         <v>1605571200</v>
       </c>
-      <c r="Z456" s="63">
+      <c r="Z456" s="59">
         <v>2552233600</v>
       </c>
-      <c r="AA456" s="63">
+      <c r="AA456" s="59">
         <v>58</v>
       </c>
-      <c r="AH456" s="63">
-        <v>1</v>
-      </c>
-      <c r="AI456" s="63">
-        <v>1</v>
-      </c>
-      <c r="AL456" s="63">
-        <v>1</v>
-      </c>
-      <c r="AM456" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="457" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A457" s="63">
+      <c r="AH456" s="59">
+        <v>1</v>
+      </c>
+      <c r="AI456" s="59">
+        <v>1</v>
+      </c>
+      <c r="AL456" s="59">
+        <v>1</v>
+      </c>
+      <c r="AM456" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="457" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A457" s="59">
         <v>456</v>
       </c>
-      <c r="B457" s="63">
+      <c r="B457" s="59">
         <v>10373</v>
       </c>
-      <c r="F457" s="63">
-        <v>1</v>
-      </c>
-      <c r="G457" s="63" t="s">
+      <c r="F457" s="59">
+        <v>1</v>
+      </c>
+      <c r="G457" s="59" t="s">
         <v>1566</v>
       </c>
-      <c r="I457" s="63" t="s">
+      <c r="I457" s="59" t="s">
         <v>1567</v>
       </c>
-      <c r="J457" s="63" t="s">
+      <c r="J457" s="59" t="s">
         <v>1568</v>
       </c>
-      <c r="L457" s="63">
+      <c r="L457" s="59">
         <v>-31</v>
       </c>
-      <c r="M457" s="63">
-        <v>0</v>
-      </c>
-      <c r="N457" s="63">
-        <v>0</v>
-      </c>
-      <c r="O457" s="63" t="s">
+      <c r="M457" s="59">
+        <v>0</v>
+      </c>
+      <c r="N457" s="59">
+        <v>0</v>
+      </c>
+      <c r="O457" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="P457" s="63">
+      <c r="P457" s="59">
         <v>19800</v>
       </c>
-      <c r="Q457" s="63" t="s">
+      <c r="Q457" s="59" t="s">
         <v>1528</v>
       </c>
-      <c r="R457" s="64" t="s">
+      <c r="R457" s="60" t="s">
         <v>1569</v>
       </c>
-      <c r="W457" s="63" t="s">
+      <c r="W457" s="59" t="s">
         <v>527</v>
       </c>
-      <c r="X457" s="63">
+      <c r="X457" s="59">
         <v>9999999</v>
       </c>
-      <c r="Y457" s="63">
+      <c r="Y457" s="59">
         <v>1605571200</v>
       </c>
-      <c r="Z457" s="63">
+      <c r="Z457" s="59">
         <v>2552233600</v>
       </c>
-      <c r="AH457" s="63">
-        <v>1</v>
-      </c>
-      <c r="AI457" s="63">
-        <v>1</v>
-      </c>
-      <c r="AL457" s="63">
-        <v>1</v>
-      </c>
-      <c r="AM457" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="458" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A458" s="63">
+      <c r="AH457" s="59">
+        <v>1</v>
+      </c>
+      <c r="AI457" s="59">
+        <v>1</v>
+      </c>
+      <c r="AL457" s="59">
+        <v>1</v>
+      </c>
+      <c r="AM457" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="458" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A458" s="59">
         <v>457</v>
       </c>
-      <c r="B458" s="63">
+      <c r="B458" s="59">
         <v>10374</v>
       </c>
-      <c r="F458" s="63">
-        <v>1</v>
-      </c>
-      <c r="G458" s="63" t="s">
+      <c r="F458" s="59">
+        <v>1</v>
+      </c>
+      <c r="G458" s="59" t="s">
         <v>1570</v>
       </c>
-      <c r="I458" s="63" t="s">
+      <c r="I458" s="59" t="s">
         <v>1571</v>
       </c>
-      <c r="J458" s="63" t="s">
+      <c r="J458" s="59" t="s">
         <v>1572</v>
       </c>
-      <c r="L458" s="63">
+      <c r="L458" s="59">
         <v>-31</v>
       </c>
-      <c r="M458" s="63">
-        <v>0</v>
-      </c>
-      <c r="N458" s="63">
-        <v>0</v>
-      </c>
-      <c r="O458" s="63" t="s">
+      <c r="M458" s="59">
+        <v>0</v>
+      </c>
+      <c r="N458" s="59">
+        <v>0</v>
+      </c>
+      <c r="O458" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="P458" s="63">
+      <c r="P458" s="59">
         <v>19800</v>
       </c>
-      <c r="Q458" s="63" t="s">
+      <c r="Q458" s="59" t="s">
         <v>1528</v>
       </c>
-      <c r="R458" s="64" t="s">
+      <c r="R458" s="60" t="s">
         <v>1573</v>
       </c>
-      <c r="W458" s="63" t="s">
+      <c r="W458" s="59" t="s">
         <v>527</v>
       </c>
-      <c r="X458" s="63">
+      <c r="X458" s="59">
         <v>9999999</v>
       </c>
-      <c r="Y458" s="63">
+      <c r="Y458" s="59">
         <v>1605571200</v>
       </c>
-      <c r="Z458" s="63">
+      <c r="Z458" s="59">
         <v>2552233600</v>
       </c>
-      <c r="AA458" s="63">
+      <c r="AA458" s="59">
         <v>59</v>
       </c>
-      <c r="AH458" s="63">
-        <v>1</v>
-      </c>
-      <c r="AI458" s="63">
-        <v>1</v>
-      </c>
-      <c r="AL458" s="63">
-        <v>1</v>
-      </c>
-      <c r="AM458" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="459" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A459" s="63">
+      <c r="AH458" s="59">
+        <v>1</v>
+      </c>
+      <c r="AI458" s="59">
+        <v>1</v>
+      </c>
+      <c r="AL458" s="59">
+        <v>1</v>
+      </c>
+      <c r="AM458" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="459" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A459" s="59">
         <v>458</v>
       </c>
-      <c r="B459" s="63">
+      <c r="B459" s="59">
         <v>10375</v>
       </c>
-      <c r="F459" s="63">
-        <v>1</v>
-      </c>
-      <c r="G459" s="63" t="s">
+      <c r="F459" s="59">
+        <v>1</v>
+      </c>
+      <c r="G459" s="59" t="s">
         <v>1574</v>
       </c>
-      <c r="I459" s="63" t="s">
+      <c r="I459" s="59" t="s">
         <v>1575</v>
       </c>
-      <c r="J459" s="63" t="s">
+      <c r="J459" s="59" t="s">
         <v>1576</v>
       </c>
-      <c r="L459" s="63">
+      <c r="L459" s="59">
         <v>-31</v>
       </c>
-      <c r="M459" s="63">
-        <v>0</v>
-      </c>
-      <c r="N459" s="63">
-        <v>0</v>
-      </c>
-      <c r="O459" s="63" t="s">
+      <c r="M459" s="59">
+        <v>0</v>
+      </c>
+      <c r="N459" s="59">
+        <v>0</v>
+      </c>
+      <c r="O459" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="P459" s="63">
+      <c r="P459" s="59">
         <v>49800</v>
       </c>
-      <c r="Q459" s="63" t="s">
+      <c r="Q459" s="59" t="s">
         <v>1528</v>
       </c>
-      <c r="R459" s="64" t="s">
+      <c r="R459" s="60" t="s">
         <v>1577</v>
       </c>
-      <c r="W459" s="63" t="s">
+      <c r="W459" s="59" t="s">
         <v>527</v>
       </c>
-      <c r="X459" s="63">
+      <c r="X459" s="59">
         <v>9999999</v>
       </c>
-      <c r="Y459" s="63">
+      <c r="Y459" s="59">
         <v>1605571200</v>
       </c>
-      <c r="Z459" s="63">
+      <c r="Z459" s="59">
         <v>2552233600</v>
       </c>
-      <c r="AA459" s="63">
+      <c r="AA459" s="59">
         <v>60</v>
       </c>
-      <c r="AH459" s="63">
-        <v>1</v>
-      </c>
-      <c r="AI459" s="63">
-        <v>1</v>
-      </c>
-      <c r="AL459" s="63">
-        <v>1</v>
-      </c>
-      <c r="AM459" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="460" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A460" s="63">
+      <c r="AH459" s="59">
+        <v>1</v>
+      </c>
+      <c r="AI459" s="59">
+        <v>1</v>
+      </c>
+      <c r="AL459" s="59">
+        <v>1</v>
+      </c>
+      <c r="AM459" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="460" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A460" s="59">
         <v>459</v>
       </c>
-      <c r="B460" s="63">
+      <c r="B460" s="59">
         <v>10376</v>
       </c>
-      <c r="F460" s="63">
-        <v>1</v>
-      </c>
-      <c r="G460" s="63" t="s">
+      <c r="F460" s="59">
+        <v>1</v>
+      </c>
+      <c r="G460" s="59" t="s">
         <v>1578</v>
       </c>
-      <c r="I460" s="63" t="s">
+      <c r="I460" s="59" t="s">
         <v>1579</v>
       </c>
-      <c r="J460" s="63" t="s">
+      <c r="J460" s="59" t="s">
         <v>1580</v>
       </c>
-      <c r="L460" s="63">
+      <c r="L460" s="59">
         <v>-31</v>
       </c>
-      <c r="M460" s="63">
-        <v>0</v>
-      </c>
-      <c r="N460" s="63">
-        <v>0</v>
-      </c>
-      <c r="O460" s="63" t="s">
+      <c r="M460" s="59">
+        <v>0</v>
+      </c>
+      <c r="N460" s="59">
+        <v>0</v>
+      </c>
+      <c r="O460" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="P460" s="63">
+      <c r="P460" s="59">
         <v>49800</v>
       </c>
-      <c r="Q460" s="63" t="s">
+      <c r="Q460" s="59" t="s">
         <v>988</v>
       </c>
-      <c r="R460" s="64" t="s">
+      <c r="R460" s="60" t="s">
         <v>1581</v>
       </c>
-      <c r="W460" s="63" t="s">
+      <c r="W460" s="59" t="s">
         <v>527</v>
       </c>
-      <c r="X460" s="63">
+      <c r="X460" s="59">
         <v>9999999</v>
       </c>
-      <c r="Y460" s="63">
+      <c r="Y460" s="59">
         <v>1605571200</v>
       </c>
-      <c r="Z460" s="63">
+      <c r="Z460" s="59">
         <v>2552233600</v>
       </c>
-      <c r="AH460" s="63">
-        <v>1</v>
-      </c>
-      <c r="AI460" s="63">
-        <v>1</v>
-      </c>
-      <c r="AL460" s="63">
-        <v>1</v>
-      </c>
-      <c r="AM460" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="461" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A461" s="63">
+      <c r="AH460" s="59">
+        <v>1</v>
+      </c>
+      <c r="AI460" s="59">
+        <v>1</v>
+      </c>
+      <c r="AL460" s="59">
+        <v>1</v>
+      </c>
+      <c r="AM460" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="461" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A461" s="59">
         <v>460</v>
       </c>
-      <c r="B461" s="63">
+      <c r="B461" s="59">
         <v>10377</v>
       </c>
-      <c r="F461" s="63">
-        <v>1</v>
-      </c>
-      <c r="G461" s="63" t="s">
+      <c r="F461" s="59">
+        <v>1</v>
+      </c>
+      <c r="G461" s="59" t="s">
         <v>1582</v>
       </c>
-      <c r="I461" s="63" t="s">
+      <c r="I461" s="59" t="s">
         <v>1583</v>
       </c>
-      <c r="J461" s="63" t="s">
+      <c r="J461" s="59" t="s">
         <v>1584</v>
       </c>
-      <c r="L461" s="63">
+      <c r="L461" s="59">
         <v>-31</v>
       </c>
-      <c r="M461" s="63">
-        <v>0</v>
-      </c>
-      <c r="N461" s="63">
-        <v>0</v>
-      </c>
-      <c r="O461" s="63" t="s">
+      <c r="M461" s="59">
+        <v>0</v>
+      </c>
+      <c r="N461" s="59">
+        <v>0</v>
+      </c>
+      <c r="O461" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="P461" s="63">
+      <c r="P461" s="59">
         <v>49800</v>
       </c>
-      <c r="Q461" s="63" t="s">
+      <c r="Q461" s="59" t="s">
         <v>1528</v>
       </c>
-      <c r="R461" s="64" t="s">
+      <c r="R461" s="60" t="s">
         <v>1585</v>
       </c>
-      <c r="W461" s="63" t="s">
+      <c r="W461" s="59" t="s">
         <v>527</v>
       </c>
-      <c r="X461" s="63">
+      <c r="X461" s="59">
         <v>9999999</v>
       </c>
-      <c r="Y461" s="63">
+      <c r="Y461" s="59">
         <v>1605571200</v>
       </c>
-      <c r="Z461" s="63">
+      <c r="Z461" s="59">
         <v>2552233600</v>
       </c>
-      <c r="AA461" s="63">
+      <c r="AA461" s="59">
         <v>61</v>
       </c>
-      <c r="AH461" s="63">
-        <v>1</v>
-      </c>
-      <c r="AI461" s="63">
-        <v>1</v>
-      </c>
-      <c r="AL461" s="63">
-        <v>1</v>
-      </c>
-      <c r="AM461" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="462" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A462" s="63">
+      <c r="AH461" s="59">
+        <v>1</v>
+      </c>
+      <c r="AI461" s="59">
+        <v>1</v>
+      </c>
+      <c r="AL461" s="59">
+        <v>1</v>
+      </c>
+      <c r="AM461" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="462" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A462" s="59">
         <v>461</v>
       </c>
-      <c r="B462" s="63">
+      <c r="B462" s="59">
         <v>10378</v>
       </c>
-      <c r="F462" s="63">
-        <v>1</v>
-      </c>
-      <c r="G462" s="63" t="s">
+      <c r="F462" s="59">
+        <v>1</v>
+      </c>
+      <c r="G462" s="59" t="s">
         <v>1586</v>
       </c>
-      <c r="I462" s="63" t="s">
+      <c r="I462" s="59" t="s">
         <v>1587</v>
       </c>
-      <c r="J462" s="63" t="s">
+      <c r="J462" s="59" t="s">
         <v>1588</v>
       </c>
-      <c r="L462" s="63">
+      <c r="L462" s="59">
         <v>-31</v>
       </c>
-      <c r="M462" s="63">
-        <v>0</v>
-      </c>
-      <c r="N462" s="63">
-        <v>0</v>
-      </c>
-      <c r="O462" s="63" t="s">
+      <c r="M462" s="59">
+        <v>0</v>
+      </c>
+      <c r="N462" s="59">
+        <v>0</v>
+      </c>
+      <c r="O462" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="P462" s="63">
+      <c r="P462" s="59">
         <v>99800</v>
       </c>
-      <c r="Q462" s="63" t="s">
+      <c r="Q462" s="59" t="s">
         <v>1528</v>
       </c>
-      <c r="R462" s="64" t="s">
+      <c r="R462" s="60" t="s">
         <v>1589</v>
       </c>
-      <c r="W462" s="63" t="s">
+      <c r="W462" s="59" t="s">
         <v>527</v>
       </c>
-      <c r="X462" s="63">
+      <c r="X462" s="59">
         <v>9999999</v>
       </c>
-      <c r="Y462" s="63">
+      <c r="Y462" s="59">
         <v>1605571200</v>
       </c>
-      <c r="Z462" s="63">
+      <c r="Z462" s="59">
         <v>2552233600</v>
       </c>
-      <c r="AA462" s="63">
+      <c r="AA462" s="59">
         <v>62</v>
       </c>
-      <c r="AH462" s="63">
-        <v>1</v>
-      </c>
-      <c r="AI462" s="63">
-        <v>1</v>
-      </c>
-      <c r="AL462" s="63">
-        <v>1</v>
-      </c>
-      <c r="AM462" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="463" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A463" s="63">
+      <c r="AH462" s="59">
+        <v>1</v>
+      </c>
+      <c r="AI462" s="59">
+        <v>1</v>
+      </c>
+      <c r="AL462" s="59">
+        <v>1</v>
+      </c>
+      <c r="AM462" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="463" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A463" s="59">
         <v>462</v>
       </c>
-      <c r="B463" s="63">
+      <c r="B463" s="59">
         <v>10379</v>
       </c>
-      <c r="F463" s="63">
-        <v>1</v>
-      </c>
-      <c r="G463" s="63" t="s">
+      <c r="F463" s="59">
+        <v>1</v>
+      </c>
+      <c r="G463" s="59" t="s">
         <v>1590</v>
       </c>
-      <c r="I463" s="63" t="s">
+      <c r="I463" s="59" t="s">
         <v>1591</v>
       </c>
-      <c r="J463" s="63" t="s">
+      <c r="J463" s="59" t="s">
         <v>1592</v>
       </c>
-      <c r="L463" s="63">
+      <c r="L463" s="59">
         <v>-31</v>
       </c>
-      <c r="M463" s="63">
-        <v>0</v>
-      </c>
-      <c r="N463" s="63">
-        <v>0</v>
-      </c>
-      <c r="O463" s="63" t="s">
+      <c r="M463" s="59">
+        <v>0</v>
+      </c>
+      <c r="N463" s="59">
+        <v>0</v>
+      </c>
+      <c r="O463" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="P463" s="63">
+      <c r="P463" s="59">
         <v>99800</v>
       </c>
-      <c r="Q463" s="63" t="s">
+      <c r="Q463" s="59" t="s">
         <v>1528</v>
       </c>
-      <c r="R463" s="64" t="s">
+      <c r="R463" s="60" t="s">
         <v>1593</v>
       </c>
-      <c r="W463" s="63" t="s">
+      <c r="W463" s="59" t="s">
         <v>527</v>
       </c>
-      <c r="X463" s="63">
+      <c r="X463" s="59">
         <v>9999999</v>
       </c>
-      <c r="Y463" s="63">
+      <c r="Y463" s="59">
         <v>1605571200</v>
       </c>
-      <c r="Z463" s="63">
+      <c r="Z463" s="59">
         <v>2552233600</v>
       </c>
-      <c r="AH463" s="63">
-        <v>1</v>
-      </c>
-      <c r="AI463" s="63">
-        <v>1</v>
-      </c>
-      <c r="AL463" s="63">
-        <v>1</v>
-      </c>
-      <c r="AM463" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="464" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A464" s="63">
+      <c r="AH463" s="59">
+        <v>1</v>
+      </c>
+      <c r="AI463" s="59">
+        <v>1</v>
+      </c>
+      <c r="AL463" s="59">
+        <v>1</v>
+      </c>
+      <c r="AM463" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="464" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A464" s="59">
         <v>463</v>
       </c>
-      <c r="B464" s="63">
+      <c r="B464" s="59">
         <v>10380</v>
       </c>
-      <c r="F464" s="63">
-        <v>1</v>
-      </c>
-      <c r="G464" s="63" t="s">
+      <c r="F464" s="59">
+        <v>1</v>
+      </c>
+      <c r="G464" s="59" t="s">
         <v>1594</v>
       </c>
-      <c r="I464" s="63" t="s">
+      <c r="I464" s="59" t="s">
         <v>1595</v>
       </c>
-      <c r="J464" s="63" t="s">
+      <c r="J464" s="59" t="s">
         <v>1596</v>
       </c>
-      <c r="L464" s="63">
+      <c r="L464" s="59">
         <v>-31</v>
       </c>
-      <c r="M464" s="63">
-        <v>0</v>
-      </c>
-      <c r="N464" s="63">
-        <v>0</v>
-      </c>
-      <c r="O464" s="63" t="s">
+      <c r="M464" s="59">
+        <v>0</v>
+      </c>
+      <c r="N464" s="59">
+        <v>0</v>
+      </c>
+      <c r="O464" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="P464" s="63">
+      <c r="P464" s="59">
         <v>99800</v>
       </c>
-      <c r="Q464" s="63" t="s">
+      <c r="Q464" s="59" t="s">
         <v>988</v>
       </c>
-      <c r="R464" s="64" t="s">
+      <c r="R464" s="60" t="s">
         <v>1597</v>
       </c>
-      <c r="W464" s="63" t="s">
+      <c r="W464" s="59" t="s">
         <v>527</v>
       </c>
-      <c r="X464" s="63">
+      <c r="X464" s="59">
         <v>9999999</v>
       </c>
-      <c r="Y464" s="63">
+      <c r="Y464" s="59">
         <v>1605571200</v>
       </c>
-      <c r="Z464" s="63">
+      <c r="Z464" s="59">
         <v>2552233600</v>
       </c>
-      <c r="AA464" s="63">
+      <c r="AA464" s="59">
         <v>63</v>
       </c>
-      <c r="AH464" s="63">
-        <v>1</v>
-      </c>
-      <c r="AI464" s="63">
-        <v>1</v>
-      </c>
-      <c r="AL464" s="63">
-        <v>1</v>
-      </c>
-      <c r="AM464" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="465" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A465" s="63">
+      <c r="AH464" s="59">
+        <v>1</v>
+      </c>
+      <c r="AI464" s="59">
+        <v>1</v>
+      </c>
+      <c r="AL464" s="59">
+        <v>1</v>
+      </c>
+      <c r="AM464" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="465" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A465" s="59">
         <v>464</v>
       </c>
-      <c r="B465" s="63">
+      <c r="B465" s="59">
         <v>10381</v>
       </c>
-      <c r="F465" s="63">
-        <v>1</v>
-      </c>
-      <c r="G465" s="63" t="s">
+      <c r="F465" s="59">
+        <v>1</v>
+      </c>
+      <c r="G465" s="59" t="s">
         <v>1598</v>
       </c>
-      <c r="I465" s="63" t="s">
+      <c r="I465" s="59" t="s">
         <v>1599</v>
       </c>
-      <c r="J465" s="63" t="s">
+      <c r="J465" s="59" t="s">
         <v>1600</v>
       </c>
-      <c r="L465" s="63">
+      <c r="L465" s="59">
         <v>-31</v>
       </c>
-      <c r="M465" s="63">
-        <v>0</v>
-      </c>
-      <c r="N465" s="63">
-        <v>0</v>
-      </c>
-      <c r="O465" s="63" t="s">
+      <c r="M465" s="59">
+        <v>0</v>
+      </c>
+      <c r="N465" s="59">
+        <v>0</v>
+      </c>
+      <c r="O465" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="P465" s="63">
+      <c r="P465" s="59">
         <v>249800</v>
       </c>
-      <c r="Q465" s="63" t="s">
+      <c r="Q465" s="59" t="s">
         <v>1528</v>
       </c>
-      <c r="R465" s="64" t="s">
+      <c r="R465" s="60" t="s">
         <v>1601</v>
       </c>
-      <c r="W465" s="63" t="s">
+      <c r="W465" s="59" t="s">
         <v>527</v>
       </c>
-      <c r="X465" s="63">
+      <c r="X465" s="59">
         <v>9999999</v>
       </c>
-      <c r="Y465" s="63">
+      <c r="Y465" s="59">
         <v>1605571200</v>
       </c>
-      <c r="Z465" s="63">
+      <c r="Z465" s="59">
         <v>2552233600</v>
       </c>
-      <c r="AA465" s="63">
+      <c r="AA465" s="59">
         <v>64</v>
       </c>
-      <c r="AH465" s="63">
-        <v>1</v>
-      </c>
-      <c r="AI465" s="63">
-        <v>1</v>
-      </c>
-      <c r="AL465" s="63">
-        <v>1</v>
-      </c>
-      <c r="AM465" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="466" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A466" s="63">
+      <c r="AH465" s="59">
+        <v>1</v>
+      </c>
+      <c r="AI465" s="59">
+        <v>1</v>
+      </c>
+      <c r="AL465" s="59">
+        <v>1</v>
+      </c>
+      <c r="AM465" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="466" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A466" s="59">
         <v>465</v>
       </c>
-      <c r="B466" s="63">
+      <c r="B466" s="59">
         <v>10382</v>
       </c>
-      <c r="F466" s="63">
-        <v>1</v>
-      </c>
-      <c r="G466" s="63" t="s">
+      <c r="F466" s="59">
+        <v>1</v>
+      </c>
+      <c r="G466" s="59" t="s">
         <v>1602</v>
       </c>
-      <c r="I466" s="63" t="s">
+      <c r="I466" s="59" t="s">
         <v>1603</v>
       </c>
-      <c r="J466" s="63" t="s">
+      <c r="J466" s="59" t="s">
         <v>1604</v>
       </c>
-      <c r="L466" s="63">
+      <c r="L466" s="59">
         <v>-31</v>
       </c>
-      <c r="M466" s="63">
-        <v>0</v>
-      </c>
-      <c r="N466" s="63">
-        <v>0</v>
-      </c>
-      <c r="O466" s="63" t="s">
+      <c r="M466" s="59">
+        <v>0</v>
+      </c>
+      <c r="N466" s="59">
+        <v>0</v>
+      </c>
+      <c r="O466" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="P466" s="63">
+      <c r="P466" s="59">
         <v>249800</v>
       </c>
-      <c r="Q466" s="63" t="s">
+      <c r="Q466" s="59" t="s">
         <v>988</v>
       </c>
-      <c r="R466" s="64" t="s">
+      <c r="R466" s="60" t="s">
         <v>1605</v>
       </c>
-      <c r="W466" s="63" t="s">
+      <c r="W466" s="59" t="s">
         <v>527</v>
       </c>
-      <c r="X466" s="63">
+      <c r="X466" s="59">
         <v>9999999</v>
       </c>
-      <c r="Y466" s="63">
+      <c r="Y466" s="59">
         <v>1605571200</v>
       </c>
-      <c r="Z466" s="63">
+      <c r="Z466" s="59">
         <v>2552233600</v>
       </c>
-      <c r="AH466" s="63">
-        <v>1</v>
-      </c>
-      <c r="AI466" s="63">
-        <v>1</v>
-      </c>
-      <c r="AL466" s="63">
-        <v>1</v>
-      </c>
-      <c r="AM466" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="467" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A467" s="63">
+      <c r="AH466" s="59">
+        <v>1</v>
+      </c>
+      <c r="AI466" s="59">
+        <v>1</v>
+      </c>
+      <c r="AL466" s="59">
+        <v>1</v>
+      </c>
+      <c r="AM466" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="467" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A467" s="59">
         <v>466</v>
       </c>
-      <c r="B467" s="63">
+      <c r="B467" s="59">
         <v>10383</v>
       </c>
-      <c r="F467" s="63">
-        <v>1</v>
-      </c>
-      <c r="G467" s="63" t="s">
+      <c r="F467" s="59">
+        <v>1</v>
+      </c>
+      <c r="G467" s="59" t="s">
         <v>1606</v>
       </c>
-      <c r="I467" s="63" t="s">
+      <c r="I467" s="59" t="s">
         <v>1607</v>
       </c>
-      <c r="J467" s="63" t="s">
+      <c r="J467" s="59" t="s">
         <v>1608</v>
       </c>
-      <c r="L467" s="63">
+      <c r="L467" s="59">
         <v>-31</v>
       </c>
-      <c r="M467" s="63">
-        <v>0</v>
-      </c>
-      <c r="N467" s="63">
-        <v>0</v>
-      </c>
-      <c r="O467" s="63" t="s">
+      <c r="M467" s="59">
+        <v>0</v>
+      </c>
+      <c r="N467" s="59">
+        <v>0</v>
+      </c>
+      <c r="O467" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="P467" s="63">
+      <c r="P467" s="59">
         <v>249800</v>
       </c>
-      <c r="Q467" s="63" t="s">
+      <c r="Q467" s="59" t="s">
         <v>988</v>
       </c>
-      <c r="R467" s="64" t="s">
+      <c r="R467" s="60" t="s">
         <v>1609</v>
       </c>
-      <c r="W467" s="63" t="s">
+      <c r="W467" s="59" t="s">
         <v>527</v>
       </c>
-      <c r="X467" s="63">
+      <c r="X467" s="59">
         <v>9999999</v>
       </c>
-      <c r="Y467" s="63">
+      <c r="Y467" s="59">
         <v>1605571200</v>
       </c>
-      <c r="Z467" s="63">
+      <c r="Z467" s="59">
         <v>2552233600</v>
       </c>
-      <c r="AA467" s="63">
+      <c r="AA467" s="59">
         <v>65</v>
       </c>
-      <c r="AH467" s="63">
-        <v>1</v>
-      </c>
-      <c r="AI467" s="63">
-        <v>1</v>
-      </c>
-      <c r="AL467" s="63">
-        <v>1</v>
-      </c>
-      <c r="AM467" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="468" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A468" s="63">
+      <c r="AH467" s="59">
+        <v>1</v>
+      </c>
+      <c r="AI467" s="59">
+        <v>1</v>
+      </c>
+      <c r="AL467" s="59">
+        <v>1</v>
+      </c>
+      <c r="AM467" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="468" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A468" s="59">
         <v>467</v>
       </c>
-      <c r="B468" s="63">
+      <c r="B468" s="59">
         <v>10384</v>
       </c>
-      <c r="F468" s="63">
-        <v>1</v>
-      </c>
-      <c r="G468" s="63" t="s">
+      <c r="F468" s="59">
+        <v>1</v>
+      </c>
+      <c r="G468" s="59" t="s">
         <v>1610</v>
       </c>
-      <c r="I468" s="63" t="s">
+      <c r="I468" s="59" t="s">
         <v>1612</v>
       </c>
-      <c r="J468" s="63" t="s">
+      <c r="J468" s="59" t="s">
         <v>1613</v>
       </c>
-      <c r="L468" s="63">
+      <c r="L468" s="59">
         <v>-31</v>
       </c>
-      <c r="M468" s="63">
-        <v>0</v>
-      </c>
-      <c r="N468" s="63">
-        <v>0</v>
-      </c>
-      <c r="O468" s="63" t="s">
+      <c r="M468" s="59">
+        <v>0</v>
+      </c>
+      <c r="N468" s="59">
+        <v>0</v>
+      </c>
+      <c r="O468" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="P468" s="63">
+      <c r="P468" s="59">
         <v>600</v>
       </c>
-      <c r="Q468" s="63" t="s">
+      <c r="Q468" s="59" t="s">
         <v>1528</v>
       </c>
-      <c r="R468" s="64" t="s">
+      <c r="R468" s="60" t="s">
         <v>1614</v>
       </c>
-      <c r="W468" s="63" t="s">
+      <c r="W468" s="59" t="s">
         <v>1615</v>
       </c>
-      <c r="X468" s="63">
+      <c r="X468" s="59">
         <v>9999999</v>
       </c>
-      <c r="Y468" s="63">
+      <c r="Y468" s="59">
         <v>1605571200</v>
       </c>
-      <c r="Z468" s="63">
+      <c r="Z468" s="59">
         <v>2552233600</v>
       </c>
-      <c r="AH468" s="63">
-        <v>1</v>
-      </c>
-      <c r="AI468" s="63">
-        <v>1</v>
-      </c>
-      <c r="AL468" s="63">
-        <v>1</v>
-      </c>
-      <c r="AM468" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="469" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A469" s="63">
+      <c r="AH468" s="59">
+        <v>1</v>
+      </c>
+      <c r="AI468" s="59">
+        <v>1</v>
+      </c>
+      <c r="AL468" s="59">
+        <v>1</v>
+      </c>
+      <c r="AM468" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="469" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A469" s="59">
         <v>468</v>
       </c>
-      <c r="B469" s="63">
+      <c r="B469" s="59">
         <v>10385</v>
       </c>
-      <c r="F469" s="63">
-        <v>1</v>
-      </c>
-      <c r="G469" s="63" t="s">
+      <c r="F469" s="59">
+        <v>1</v>
+      </c>
+      <c r="G469" s="59" t="s">
         <v>1616</v>
       </c>
-      <c r="I469" s="63" t="s">
+      <c r="I469" s="59" t="s">
         <v>1612</v>
       </c>
-      <c r="J469" s="63" t="s">
+      <c r="J469" s="59" t="s">
         <v>1617</v>
       </c>
-      <c r="L469" s="63">
+      <c r="L469" s="59">
         <v>-31</v>
       </c>
-      <c r="M469" s="63">
-        <v>0</v>
-      </c>
-      <c r="N469" s="63">
-        <v>0</v>
-      </c>
-      <c r="O469" s="63" t="s">
+      <c r="M469" s="59">
+        <v>0</v>
+      </c>
+      <c r="N469" s="59">
+        <v>0</v>
+      </c>
+      <c r="O469" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="P469" s="63">
+      <c r="P469" s="59">
         <v>3000</v>
       </c>
-      <c r="Q469" s="63" t="s">
+      <c r="Q469" s="59" t="s">
         <v>1528</v>
       </c>
-      <c r="R469" s="64" t="s">
+      <c r="R469" s="60" t="s">
         <v>1618</v>
       </c>
-      <c r="W469" s="63" t="s">
+      <c r="W469" s="59" t="s">
         <v>1615</v>
       </c>
-      <c r="X469" s="63">
+      <c r="X469" s="59">
         <v>9999999</v>
       </c>
-      <c r="Y469" s="63">
+      <c r="Y469" s="59">
         <v>1605571200</v>
       </c>
-      <c r="Z469" s="63">
+      <c r="Z469" s="59">
         <v>2552233600</v>
       </c>
-      <c r="AH469" s="63">
-        <v>1</v>
-      </c>
-      <c r="AI469" s="63">
-        <v>1</v>
-      </c>
-      <c r="AL469" s="63">
-        <v>1</v>
-      </c>
-      <c r="AM469" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="470" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A470" s="63">
+      <c r="AH469" s="59">
+        <v>1</v>
+      </c>
+      <c r="AI469" s="59">
+        <v>1</v>
+      </c>
+      <c r="AL469" s="59">
+        <v>1</v>
+      </c>
+      <c r="AM469" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="470" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A470" s="59">
         <v>469</v>
       </c>
-      <c r="B470" s="63">
+      <c r="B470" s="59">
         <v>10386</v>
       </c>
-      <c r="F470" s="63">
-        <v>1</v>
-      </c>
-      <c r="G470" s="63" t="s">
+      <c r="F470" s="59">
+        <v>1</v>
+      </c>
+      <c r="G470" s="59" t="s">
         <v>1619</v>
       </c>
-      <c r="I470" s="63" t="s">
+      <c r="I470" s="59" t="s">
         <v>1612</v>
       </c>
-      <c r="J470" s="63" t="s">
+      <c r="J470" s="59" t="s">
         <v>1620</v>
       </c>
-      <c r="L470" s="63">
+      <c r="L470" s="59">
         <v>-31</v>
       </c>
-      <c r="M470" s="63">
-        <v>0</v>
-      </c>
-      <c r="N470" s="63">
-        <v>0</v>
-      </c>
-      <c r="O470" s="63" t="s">
+      <c r="M470" s="59">
+        <v>0</v>
+      </c>
+      <c r="N470" s="59">
+        <v>0</v>
+      </c>
+      <c r="O470" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="P470" s="63">
+      <c r="P470" s="59">
         <v>6800</v>
       </c>
-      <c r="Q470" s="63" t="s">
+      <c r="Q470" s="59" t="s">
         <v>1528</v>
       </c>
-      <c r="R470" s="64" t="s">
+      <c r="R470" s="60" t="s">
         <v>1621</v>
       </c>
-      <c r="W470" s="63" t="s">
+      <c r="W470" s="59" t="s">
         <v>1615</v>
       </c>
-      <c r="X470" s="63">
+      <c r="X470" s="59">
         <v>9999999</v>
       </c>
-      <c r="Y470" s="63">
+      <c r="Y470" s="59">
         <v>1605571200</v>
       </c>
-      <c r="Z470" s="63">
+      <c r="Z470" s="59">
         <v>2552233600</v>
       </c>
-      <c r="AH470" s="63">
-        <v>1</v>
-      </c>
-      <c r="AI470" s="63">
-        <v>1</v>
-      </c>
-      <c r="AL470" s="63">
-        <v>1</v>
-      </c>
-      <c r="AM470" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="471" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A471" s="63">
+      <c r="AH470" s="59">
+        <v>1</v>
+      </c>
+      <c r="AI470" s="59">
+        <v>1</v>
+      </c>
+      <c r="AL470" s="59">
+        <v>1</v>
+      </c>
+      <c r="AM470" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="471" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A471" s="59">
         <v>470</v>
       </c>
-      <c r="B471" s="63">
+      <c r="B471" s="59">
         <v>10387</v>
       </c>
-      <c r="F471" s="63">
-        <v>1</v>
-      </c>
-      <c r="G471" s="63" t="s">
+      <c r="F471" s="59">
+        <v>1</v>
+      </c>
+      <c r="G471" s="59" t="s">
         <v>1622</v>
       </c>
-      <c r="I471" s="63" t="s">
+      <c r="I471" s="59" t="s">
         <v>1612</v>
       </c>
-      <c r="J471" s="63" t="s">
+      <c r="J471" s="59" t="s">
         <v>1623</v>
       </c>
-      <c r="L471" s="63">
+      <c r="L471" s="59">
         <v>-31</v>
       </c>
-      <c r="M471" s="63">
-        <v>0</v>
-      </c>
-      <c r="N471" s="63">
-        <v>0</v>
-      </c>
-      <c r="O471" s="63" t="s">
+      <c r="M471" s="59">
+        <v>0</v>
+      </c>
+      <c r="N471" s="59">
+        <v>0</v>
+      </c>
+      <c r="O471" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="P471" s="63">
+      <c r="P471" s="59">
         <v>9800</v>
       </c>
-      <c r="Q471" s="63" t="s">
+      <c r="Q471" s="59" t="s">
         <v>1528</v>
       </c>
-      <c r="R471" s="64" t="s">
+      <c r="R471" s="60" t="s">
         <v>1624</v>
       </c>
-      <c r="W471" s="63" t="s">
+      <c r="W471" s="59" t="s">
         <v>1625</v>
       </c>
-      <c r="X471" s="63">
+      <c r="X471" s="59">
         <v>9999999</v>
       </c>
-      <c r="Y471" s="63">
+      <c r="Y471" s="59">
         <v>1605571200</v>
       </c>
-      <c r="Z471" s="63">
+      <c r="Z471" s="59">
         <v>2552233600</v>
       </c>
-      <c r="AH471" s="63">
-        <v>1</v>
-      </c>
-      <c r="AI471" s="63">
-        <v>1</v>
-      </c>
-      <c r="AL471" s="63">
-        <v>1</v>
-      </c>
-      <c r="AM471" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="472" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A472" s="63">
+      <c r="AH471" s="59">
+        <v>1</v>
+      </c>
+      <c r="AI471" s="59">
+        <v>1</v>
+      </c>
+      <c r="AL471" s="59">
+        <v>1</v>
+      </c>
+      <c r="AM471" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="472" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A472" s="59">
         <v>471</v>
       </c>
-      <c r="B472" s="63">
+      <c r="B472" s="59">
         <v>10388</v>
       </c>
-      <c r="F472" s="63">
-        <v>1</v>
-      </c>
-      <c r="G472" s="63" t="s">
+      <c r="F472" s="59">
+        <v>1</v>
+      </c>
+      <c r="G472" s="59" t="s">
         <v>1626</v>
       </c>
-      <c r="I472" s="63" t="s">
+      <c r="I472" s="59" t="s">
         <v>1611</v>
       </c>
-      <c r="J472" s="63" t="s">
+      <c r="J472" s="59" t="s">
         <v>1627</v>
       </c>
-      <c r="L472" s="63">
+      <c r="L472" s="59">
         <v>-31</v>
       </c>
-      <c r="M472" s="63">
-        <v>0</v>
-      </c>
-      <c r="N472" s="63">
-        <v>0</v>
-      </c>
-      <c r="O472" s="63" t="s">
+      <c r="M472" s="59">
+        <v>0</v>
+      </c>
+      <c r="N472" s="59">
+        <v>0</v>
+      </c>
+      <c r="O472" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="P472" s="63">
+      <c r="P472" s="59">
         <v>19800</v>
       </c>
-      <c r="Q472" s="63" t="s">
+      <c r="Q472" s="59" t="s">
         <v>1528</v>
       </c>
-      <c r="R472" s="64" t="s">
+      <c r="R472" s="60" t="s">
         <v>1628</v>
       </c>
-      <c r="W472" s="63" t="s">
+      <c r="W472" s="59" t="s">
         <v>1625</v>
       </c>
-      <c r="X472" s="63">
+      <c r="X472" s="59">
         <v>9999999</v>
       </c>
-      <c r="Y472" s="63">
+      <c r="Y472" s="59">
         <v>1605571200</v>
       </c>
-      <c r="Z472" s="63">
+      <c r="Z472" s="59">
         <v>2552233600</v>
       </c>
-      <c r="AH472" s="63">
-        <v>1</v>
-      </c>
-      <c r="AI472" s="63">
-        <v>1</v>
-      </c>
-      <c r="AL472" s="63">
-        <v>1</v>
-      </c>
-      <c r="AM472" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="473" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A473" s="63">
+      <c r="AH472" s="59">
+        <v>1</v>
+      </c>
+      <c r="AI472" s="59">
+        <v>1</v>
+      </c>
+      <c r="AL472" s="59">
+        <v>1</v>
+      </c>
+      <c r="AM472" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="473" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A473" s="59">
         <v>472</v>
       </c>
-      <c r="B473" s="63">
+      <c r="B473" s="59">
         <v>10389</v>
       </c>
-      <c r="F473" s="63">
-        <v>1</v>
-      </c>
-      <c r="G473" s="63" t="s">
+      <c r="F473" s="59">
+        <v>1</v>
+      </c>
+      <c r="G473" s="59" t="s">
         <v>1629</v>
       </c>
-      <c r="I473" s="63" t="s">
+      <c r="I473" s="59" t="s">
         <v>1612</v>
       </c>
-      <c r="J473" s="63" t="s">
+      <c r="J473" s="59" t="s">
         <v>1630</v>
       </c>
-      <c r="L473" s="63">
+      <c r="L473" s="59">
         <v>-31</v>
       </c>
-      <c r="M473" s="63">
-        <v>0</v>
-      </c>
-      <c r="N473" s="63">
-        <v>0</v>
-      </c>
-      <c r="O473" s="63" t="s">
+      <c r="M473" s="59">
+        <v>0</v>
+      </c>
+      <c r="N473" s="59">
+        <v>0</v>
+      </c>
+      <c r="O473" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="P473" s="63">
+      <c r="P473" s="59">
         <v>49800</v>
       </c>
-      <c r="Q473" s="63" t="s">
+      <c r="Q473" s="59" t="s">
         <v>1528</v>
       </c>
-      <c r="R473" s="64" t="s">
+      <c r="R473" s="60" t="s">
         <v>1631</v>
       </c>
-      <c r="W473" s="63" t="s">
+      <c r="W473" s="59" t="s">
         <v>1625</v>
       </c>
-      <c r="X473" s="63">
+      <c r="X473" s="59">
         <v>9999999</v>
       </c>
-      <c r="Y473" s="63">
+      <c r="Y473" s="59">
         <v>1605571200</v>
       </c>
-      <c r="Z473" s="63">
+      <c r="Z473" s="59">
         <v>2552233600</v>
       </c>
-      <c r="AH473" s="63">
-        <v>1</v>
-      </c>
-      <c r="AI473" s="63">
-        <v>1</v>
-      </c>
-      <c r="AL473" s="63">
-        <v>1</v>
-      </c>
-      <c r="AM473" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="474" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A474" s="63">
+      <c r="AH473" s="59">
+        <v>1</v>
+      </c>
+      <c r="AI473" s="59">
+        <v>1</v>
+      </c>
+      <c r="AL473" s="59">
+        <v>1</v>
+      </c>
+      <c r="AM473" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="474" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A474" s="59">
         <v>473</v>
       </c>
-      <c r="B474" s="63">
+      <c r="B474" s="59">
         <v>10390</v>
       </c>
-      <c r="F474" s="63">
-        <v>1</v>
-      </c>
-      <c r="G474" s="63" t="s">
+      <c r="F474" s="59">
+        <v>1</v>
+      </c>
+      <c r="G474" s="59" t="s">
         <v>1632</v>
       </c>
-      <c r="I474" s="63" t="s">
+      <c r="I474" s="59" t="s">
         <v>1612</v>
       </c>
-      <c r="J474" s="63" t="s">
+      <c r="J474" s="59" t="s">
         <v>1633</v>
       </c>
-      <c r="L474" s="63">
+      <c r="L474" s="59">
         <v>-31</v>
       </c>
-      <c r="M474" s="63">
-        <v>0</v>
-      </c>
-      <c r="N474" s="63">
-        <v>0</v>
-      </c>
-      <c r="O474" s="63" t="s">
+      <c r="M474" s="59">
+        <v>0</v>
+      </c>
+      <c r="N474" s="59">
+        <v>0</v>
+      </c>
+      <c r="O474" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="P474" s="63">
+      <c r="P474" s="59">
         <v>99800</v>
       </c>
-      <c r="Q474" s="63" t="s">
+      <c r="Q474" s="59" t="s">
         <v>1528</v>
       </c>
-      <c r="R474" s="64" t="s">
+      <c r="R474" s="60" t="s">
         <v>1634</v>
       </c>
-      <c r="W474" s="63" t="s">
+      <c r="W474" s="59" t="s">
         <v>1625</v>
       </c>
-      <c r="X474" s="63">
+      <c r="X474" s="59">
         <v>9999999</v>
       </c>
-      <c r="Y474" s="63">
+      <c r="Y474" s="59">
         <v>1605571200</v>
       </c>
-      <c r="Z474" s="63">
+      <c r="Z474" s="59">
         <v>2552233600</v>
       </c>
-      <c r="AH474" s="63">
-        <v>1</v>
-      </c>
-      <c r="AI474" s="63">
-        <v>1</v>
-      </c>
-      <c r="AL474" s="63">
-        <v>1</v>
-      </c>
-      <c r="AM474" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="475" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A475" s="63">
+      <c r="AH474" s="59">
+        <v>1</v>
+      </c>
+      <c r="AI474" s="59">
+        <v>1</v>
+      </c>
+      <c r="AL474" s="59">
+        <v>1</v>
+      </c>
+      <c r="AM474" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="475" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A475" s="59">
         <v>474</v>
       </c>
-      <c r="B475" s="63">
+      <c r="B475" s="59">
         <v>10391</v>
       </c>
-      <c r="F475" s="63">
-        <v>1</v>
-      </c>
-      <c r="G475" s="63" t="s">
+      <c r="F475" s="59">
+        <v>1</v>
+      </c>
+      <c r="G475" s="59" t="s">
         <v>1635</v>
       </c>
-      <c r="I475" s="63" t="s">
+      <c r="I475" s="59" t="s">
         <v>1612</v>
       </c>
-      <c r="J475" s="63" t="s">
+      <c r="J475" s="59" t="s">
         <v>1689</v>
       </c>
-      <c r="L475" s="63">
+      <c r="L475" s="59">
         <v>-31</v>
       </c>
-      <c r="M475" s="63">
-        <v>0</v>
-      </c>
-      <c r="N475" s="63">
-        <v>0</v>
-      </c>
-      <c r="O475" s="63" t="s">
+      <c r="M475" s="59">
+        <v>0</v>
+      </c>
+      <c r="N475" s="59">
+        <v>0</v>
+      </c>
+      <c r="O475" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="P475" s="63">
+      <c r="P475" s="59">
         <v>249800</v>
       </c>
-      <c r="Q475" s="63" t="s">
+      <c r="Q475" s="59" t="s">
         <v>1528</v>
       </c>
-      <c r="R475" s="64" t="s">
+      <c r="R475" s="60" t="s">
         <v>1688</v>
       </c>
-      <c r="W475" s="63" t="s">
+      <c r="W475" s="59" t="s">
         <v>1625</v>
       </c>
-      <c r="X475" s="63">
+      <c r="X475" s="59">
         <v>9999999</v>
       </c>
-      <c r="Y475" s="63">
+      <c r="Y475" s="59">
         <v>1605571200</v>
       </c>
-      <c r="Z475" s="63">
+      <c r="Z475" s="59">
         <v>2552233600</v>
       </c>
-      <c r="AH475" s="63">
-        <v>1</v>
-      </c>
-      <c r="AI475" s="63">
-        <v>1</v>
-      </c>
-      <c r="AL475" s="63">
-        <v>1</v>
-      </c>
-      <c r="AM475" s="63">
+      <c r="AH475" s="59">
+        <v>1</v>
+      </c>
+      <c r="AI475" s="59">
+        <v>1</v>
+      </c>
+      <c r="AL475" s="59">
+        <v>1</v>
+      </c>
+      <c r="AM475" s="59">
         <v>1</v>
       </c>
     </row>
@@ -42900,263 +42941,263 @@
         <v>1</v>
       </c>
     </row>
-    <row r="493" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A493" s="63">
+    <row r="493" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A493" s="59">
         <v>492</v>
       </c>
-      <c r="B493" s="63">
+      <c r="B493" s="59">
         <v>10409</v>
       </c>
-      <c r="F493" s="63">
-        <v>1</v>
-      </c>
-      <c r="G493" s="63" t="s">
+      <c r="F493" s="59">
+        <v>1</v>
+      </c>
+      <c r="G493" s="59" t="s">
         <v>1866</v>
       </c>
-      <c r="I493" s="63" t="s">
+      <c r="I493" s="59" t="s">
         <v>1867</v>
       </c>
-      <c r="J493" s="63" t="s">
+      <c r="J493" s="59" t="s">
         <v>1868</v>
       </c>
-      <c r="L493" s="63">
+      <c r="L493" s="59">
         <v>-31</v>
       </c>
-      <c r="M493" s="63">
-        <v>0</v>
-      </c>
-      <c r="N493" s="63">
-        <v>0</v>
-      </c>
-      <c r="O493" s="63" t="s">
+      <c r="M493" s="59">
+        <v>0</v>
+      </c>
+      <c r="N493" s="59">
+        <v>0</v>
+      </c>
+      <c r="O493" s="59" t="s">
         <v>492</v>
       </c>
-      <c r="P493" s="63">
+      <c r="P493" s="59">
         <v>49800</v>
       </c>
-      <c r="Q493" s="63" t="s">
+      <c r="Q493" s="59" t="s">
         <v>1869</v>
       </c>
-      <c r="R493" s="64" t="s">
+      <c r="R493" s="60" t="s">
         <v>1871</v>
       </c>
-      <c r="W493" s="63" t="s">
+      <c r="W493" s="59" t="s">
         <v>524</v>
       </c>
-      <c r="X493" s="63">
+      <c r="X493" s="59">
         <v>200</v>
       </c>
-      <c r="Y493" s="63">
+      <c r="Y493" s="59">
         <v>1609200000</v>
       </c>
-      <c r="Z493" s="63">
+      <c r="Z493" s="59">
         <v>1609775999</v>
       </c>
-      <c r="AH493" s="63">
-        <v>1</v>
-      </c>
-      <c r="AI493" s="63">
-        <v>1</v>
-      </c>
-      <c r="AL493" s="63">
-        <v>1</v>
-      </c>
-      <c r="AM493" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="494" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A494" s="63">
+      <c r="AH493" s="59">
+        <v>1</v>
+      </c>
+      <c r="AI493" s="59">
+        <v>1</v>
+      </c>
+      <c r="AL493" s="59">
+        <v>1</v>
+      </c>
+      <c r="AM493" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="494" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A494" s="59">
         <v>493</v>
       </c>
-      <c r="B494" s="63">
+      <c r="B494" s="59">
         <v>10410</v>
       </c>
-      <c r="F494" s="63">
-        <v>1</v>
-      </c>
-      <c r="G494" s="63" t="s">
+      <c r="F494" s="59">
+        <v>1</v>
+      </c>
+      <c r="G494" s="59" t="s">
         <v>1866</v>
       </c>
-      <c r="I494" s="63" t="s">
+      <c r="I494" s="59" t="s">
         <v>1870</v>
       </c>
-      <c r="J494" s="63" t="s">
+      <c r="J494" s="59" t="s">
         <v>1868</v>
       </c>
-      <c r="L494" s="63">
+      <c r="L494" s="59">
         <v>-31</v>
       </c>
-      <c r="M494" s="63">
-        <v>0</v>
-      </c>
-      <c r="N494" s="63">
-        <v>0</v>
-      </c>
-      <c r="O494" s="63" t="s">
+      <c r="M494" s="59">
+        <v>0</v>
+      </c>
+      <c r="N494" s="59">
+        <v>0</v>
+      </c>
+      <c r="O494" s="59" t="s">
         <v>492</v>
       </c>
-      <c r="P494" s="63">
+      <c r="P494" s="59">
         <v>99800</v>
       </c>
-      <c r="Q494" s="63" t="s">
+      <c r="Q494" s="59" t="s">
         <v>1869</v>
       </c>
-      <c r="R494" s="64" t="s">
+      <c r="R494" s="60" t="s">
         <v>1871</v>
       </c>
-      <c r="W494" s="63" t="s">
+      <c r="W494" s="59" t="s">
         <v>524</v>
       </c>
-      <c r="X494" s="63">
+      <c r="X494" s="59">
         <v>9999999</v>
       </c>
-      <c r="Y494" s="63">
+      <c r="Y494" s="59">
         <v>1609200000</v>
       </c>
-      <c r="Z494" s="63">
+      <c r="Z494" s="59">
         <v>1609775999</v>
       </c>
-      <c r="AH494" s="63">
-        <v>1</v>
-      </c>
-      <c r="AI494" s="63">
-        <v>1</v>
-      </c>
-      <c r="AL494" s="63">
-        <v>1</v>
-      </c>
-      <c r="AM494" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="495" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A495" s="63">
+      <c r="AH494" s="59">
+        <v>1</v>
+      </c>
+      <c r="AI494" s="59">
+        <v>1</v>
+      </c>
+      <c r="AL494" s="59">
+        <v>1</v>
+      </c>
+      <c r="AM494" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="495" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A495" s="59">
         <v>494</v>
       </c>
-      <c r="B495" s="63">
+      <c r="B495" s="59">
         <v>10411</v>
       </c>
-      <c r="F495" s="63">
-        <v>1</v>
-      </c>
-      <c r="G495" s="63" t="s">
+      <c r="F495" s="59">
+        <v>1</v>
+      </c>
+      <c r="G495" s="59" t="s">
         <v>1887</v>
       </c>
-      <c r="J495" s="63" t="s">
+      <c r="J495" s="59" t="s">
         <v>1888</v>
       </c>
-      <c r="L495" s="63">
+      <c r="L495" s="59">
         <v>-31</v>
       </c>
-      <c r="M495" s="63">
-        <v>0</v>
-      </c>
-      <c r="N495" s="63">
-        <v>0</v>
-      </c>
-      <c r="O495" s="63" t="s">
+      <c r="M495" s="59">
+        <v>0</v>
+      </c>
+      <c r="N495" s="59">
+        <v>0</v>
+      </c>
+      <c r="O495" s="59" t="s">
         <v>481</v>
       </c>
-      <c r="P495" s="63">
+      <c r="P495" s="59">
         <v>79800</v>
       </c>
-      <c r="Q495" s="63" t="s">
+      <c r="Q495" s="59" t="s">
         <v>1642</v>
       </c>
-      <c r="R495" s="64" t="s">
+      <c r="R495" s="60" t="s">
         <v>1889</v>
       </c>
-      <c r="W495" s="63" t="s">
+      <c r="W495" s="59" t="s">
         <v>981</v>
       </c>
-      <c r="X495" s="63">
+      <c r="X495" s="59">
         <v>99999999</v>
       </c>
-      <c r="Y495" s="63">
+      <c r="Y495" s="59">
         <v>1592263800</v>
       </c>
-      <c r="Z495" s="63">
+      <c r="Z495" s="59">
         <v>2552233600</v>
       </c>
-      <c r="AA495" s="63">
+      <c r="AA495" s="59">
         <v>14</v>
       </c>
-      <c r="AH495" s="63">
-        <v>1</v>
-      </c>
-      <c r="AI495" s="63">
-        <v>1</v>
-      </c>
-      <c r="AL495" s="63">
-        <v>1</v>
-      </c>
-      <c r="AM495" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="496" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A496" s="63">
+      <c r="AH495" s="59">
+        <v>1</v>
+      </c>
+      <c r="AI495" s="59">
+        <v>1</v>
+      </c>
+      <c r="AL495" s="59">
+        <v>1</v>
+      </c>
+      <c r="AM495" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="496" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A496" s="59">
         <v>495</v>
       </c>
-      <c r="B496" s="63">
+      <c r="B496" s="59">
         <v>10412</v>
       </c>
-      <c r="F496" s="63">
-        <v>1</v>
-      </c>
-      <c r="G496" s="63" t="s">
+      <c r="F496" s="59">
+        <v>1</v>
+      </c>
+      <c r="G496" s="59" t="s">
         <v>1890</v>
       </c>
-      <c r="J496" s="63" t="s">
+      <c r="J496" s="59" t="s">
         <v>1891</v>
       </c>
-      <c r="L496" s="63">
+      <c r="L496" s="59">
         <v>-31</v>
       </c>
-      <c r="M496" s="63">
-        <v>0</v>
-      </c>
-      <c r="N496" s="63">
-        <v>0</v>
-      </c>
-      <c r="O496" s="63" t="s">
+      <c r="M496" s="59">
+        <v>0</v>
+      </c>
+      <c r="N496" s="59">
+        <v>0</v>
+      </c>
+      <c r="O496" s="59" t="s">
         <v>481</v>
       </c>
-      <c r="P496" s="63">
+      <c r="P496" s="59">
         <v>89800</v>
       </c>
-      <c r="Q496" s="63" t="s">
+      <c r="Q496" s="59" t="s">
         <v>1642</v>
       </c>
-      <c r="R496" s="64" t="s">
+      <c r="R496" s="60" t="s">
         <v>1892</v>
       </c>
-      <c r="W496" s="63" t="s">
+      <c r="W496" s="59" t="s">
         <v>981</v>
       </c>
-      <c r="X496" s="63">
+      <c r="X496" s="59">
         <v>99999999</v>
       </c>
-      <c r="Y496" s="63">
+      <c r="Y496" s="59">
         <v>1592263800</v>
       </c>
-      <c r="Z496" s="63">
+      <c r="Z496" s="59">
         <v>2552233600</v>
       </c>
-      <c r="AA496" s="63">
+      <c r="AA496" s="59">
         <v>14</v>
       </c>
-      <c r="AH496" s="63">
-        <v>1</v>
-      </c>
-      <c r="AI496" s="63">
-        <v>1</v>
-      </c>
-      <c r="AL496" s="63">
-        <v>1</v>
-      </c>
-      <c r="AM496" s="63">
+      <c r="AH496" s="59">
+        <v>1</v>
+      </c>
+      <c r="AI496" s="59">
+        <v>1</v>
+      </c>
+      <c r="AL496" s="59">
+        <v>1</v>
+      </c>
+      <c r="AM496" s="59">
         <v>1</v>
       </c>
     </row>
@@ -43197,11 +43238,11 @@
       <c r="Q497" s="5" t="s">
         <v>1898</v>
       </c>
-      <c r="R497" s="67" t="s">
-        <v>2020</v>
+      <c r="R497" s="63" t="s">
+        <v>2017</v>
       </c>
       <c r="W497" s="47" t="s">
-        <v>2032</v>
+        <v>2029</v>
       </c>
       <c r="X497" s="5">
         <v>99999999</v>
@@ -43265,11 +43306,11 @@
       <c r="Q498" s="5" t="s">
         <v>1898</v>
       </c>
-      <c r="R498" s="67" t="s">
-        <v>2021</v>
+      <c r="R498" s="63" t="s">
+        <v>2018</v>
       </c>
       <c r="W498" s="47" t="s">
-        <v>2032</v>
+        <v>2029</v>
       </c>
       <c r="X498" s="5">
         <v>99999999</v>
@@ -43333,11 +43374,11 @@
       <c r="Q499" s="5" t="s">
         <v>1898</v>
       </c>
-      <c r="R499" s="67" t="s">
-        <v>2022</v>
+      <c r="R499" s="63" t="s">
+        <v>2019</v>
       </c>
       <c r="W499" s="47" t="s">
-        <v>2032</v>
+        <v>2029</v>
       </c>
       <c r="X499" s="5">
         <v>99999999</v>
@@ -43401,11 +43442,11 @@
       <c r="Q500" s="5" t="s">
         <v>1898</v>
       </c>
-      <c r="R500" s="67" t="s">
-        <v>2023</v>
+      <c r="R500" s="63" t="s">
+        <v>2020</v>
       </c>
       <c r="W500" s="47" t="s">
-        <v>2032</v>
+        <v>2029</v>
       </c>
       <c r="X500" s="5">
         <v>99999999</v>
@@ -43469,11 +43510,11 @@
       <c r="Q501" s="5" t="s">
         <v>1898</v>
       </c>
-      <c r="R501" s="67" t="s">
-        <v>2024</v>
+      <c r="R501" s="63" t="s">
+        <v>2021</v>
       </c>
       <c r="W501" s="47" t="s">
-        <v>2031</v>
+        <v>2028</v>
       </c>
       <c r="X501" s="5">
         <v>99999999</v>
@@ -43537,11 +43578,11 @@
       <c r="Q502" s="5" t="s">
         <v>1898</v>
       </c>
-      <c r="R502" s="67" t="s">
-        <v>2025</v>
+      <c r="R502" s="63" t="s">
+        <v>2022</v>
       </c>
       <c r="W502" s="47" t="s">
-        <v>2032</v>
+        <v>2029</v>
       </c>
       <c r="X502" s="5">
         <v>99999999</v>
@@ -43605,11 +43646,11 @@
       <c r="Q503" s="5" t="s">
         <v>1909</v>
       </c>
-      <c r="R503" s="68" t="s">
-        <v>2026</v>
+      <c r="R503" s="64" t="s">
+        <v>2023</v>
       </c>
       <c r="W503" s="47" t="s">
-        <v>2032</v>
+        <v>2029</v>
       </c>
       <c r="X503" s="5">
         <v>99999999</v>
@@ -43673,11 +43714,11 @@
       <c r="Q504" s="5" t="s">
         <v>1909</v>
       </c>
-      <c r="R504" s="68" t="s">
-        <v>2021</v>
+      <c r="R504" s="64" t="s">
+        <v>2018</v>
       </c>
       <c r="W504" s="47" t="s">
-        <v>2032</v>
+        <v>2029</v>
       </c>
       <c r="X504" s="5">
         <v>99999999</v>
@@ -43741,11 +43782,11 @@
       <c r="Q505" s="5" t="s">
         <v>1909</v>
       </c>
-      <c r="R505" s="68" t="s">
-        <v>2027</v>
+      <c r="R505" s="64" t="s">
+        <v>2024</v>
       </c>
       <c r="W505" s="47" t="s">
-        <v>2031</v>
+        <v>2028</v>
       </c>
       <c r="X505" s="5">
         <v>99999999</v>
@@ -43809,11 +43850,11 @@
       <c r="Q506" s="5" t="s">
         <v>1913</v>
       </c>
-      <c r="R506" s="68" t="s">
-        <v>2028</v>
+      <c r="R506" s="64" t="s">
+        <v>2025</v>
       </c>
       <c r="W506" s="47" t="s">
-        <v>2032</v>
+        <v>2029</v>
       </c>
       <c r="X506" s="5">
         <v>99999999</v>
@@ -43877,11 +43918,11 @@
       <c r="Q507" s="5" t="s">
         <v>1913</v>
       </c>
-      <c r="R507" s="68" t="s">
-        <v>2029</v>
+      <c r="R507" s="64" t="s">
+        <v>2026</v>
       </c>
       <c r="W507" s="47" t="s">
-        <v>2031</v>
+        <v>2028</v>
       </c>
       <c r="X507" s="5">
         <v>99999999</v>
@@ -43945,11 +43986,11 @@
       <c r="Q508" s="5" t="s">
         <v>1913</v>
       </c>
-      <c r="R508" s="68" t="s">
-        <v>2030</v>
+      <c r="R508" s="64" t="s">
+        <v>2027</v>
       </c>
       <c r="W508" s="47" t="s">
-        <v>2032</v>
+        <v>2029</v>
       </c>
       <c r="X508" s="5">
         <v>99999999</v>
@@ -43976,183 +44017,183 @@
         <v>1</v>
       </c>
     </row>
-    <row r="509" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A509" s="63">
+    <row r="509" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A509" s="59">
         <v>508</v>
       </c>
-      <c r="B509" s="63">
+      <c r="B509" s="59">
         <v>10425</v>
       </c>
-      <c r="F509" s="63">
-        <v>1</v>
-      </c>
-      <c r="G509" s="63" t="s">
+      <c r="F509" s="59">
+        <v>1</v>
+      </c>
+      <c r="G509" s="59" t="s">
         <v>1919</v>
       </c>
-      <c r="J509" s="63" t="s">
+      <c r="J509" s="59" t="s">
         <v>1920</v>
       </c>
-      <c r="L509" s="63">
+      <c r="L509" s="59">
         <v>-4</v>
       </c>
-      <c r="M509" s="63">
-        <v>1</v>
-      </c>
-      <c r="N509" s="63">
-        <v>0</v>
-      </c>
-      <c r="O509" s="63" t="s">
+      <c r="M509" s="59">
+        <v>1</v>
+      </c>
+      <c r="N509" s="59">
+        <v>0</v>
+      </c>
+      <c r="O509" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="P509" s="63">
+      <c r="P509" s="59">
         <v>1800</v>
       </c>
-      <c r="R509" s="64"/>
-      <c r="W509" s="63" t="s">
+      <c r="R509" s="60"/>
+      <c r="W509" s="59" t="s">
         <v>525</v>
       </c>
-      <c r="X509" s="65" t="s">
+      <c r="X509" s="61" t="s">
         <v>108</v>
       </c>
-      <c r="Y509" s="66">
-        <v>0</v>
-      </c>
-      <c r="Z509" s="63">
+      <c r="Y509" s="62">
+        <v>0</v>
+      </c>
+      <c r="Z509" s="59">
         <v>2552233600</v>
       </c>
-      <c r="AB509" s="63" t="s">
+      <c r="AB509" s="59" t="s">
         <v>77</v>
       </c>
-      <c r="AC509" s="63" t="s">
+      <c r="AC509" s="59" t="s">
         <v>1921</v>
       </c>
-      <c r="AD509" s="64" t="s">
+      <c r="AD509" s="60" t="s">
         <v>1922</v>
       </c>
-      <c r="AH509" s="63">
-        <v>1</v>
-      </c>
-      <c r="AI509" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="510" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A510" s="63">
+      <c r="AH509" s="59">
+        <v>1</v>
+      </c>
+      <c r="AI509" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="510" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A510" s="59">
         <v>509</v>
       </c>
-      <c r="B510" s="63">
+      <c r="B510" s="59">
         <v>10426</v>
       </c>
-      <c r="F510" s="63">
-        <v>1</v>
-      </c>
-      <c r="G510" s="63" t="s">
+      <c r="F510" s="59">
+        <v>1</v>
+      </c>
+      <c r="G510" s="59" t="s">
         <v>1923</v>
       </c>
-      <c r="J510" s="63" t="s">
+      <c r="J510" s="59" t="s">
         <v>1924</v>
       </c>
-      <c r="L510" s="63">
+      <c r="L510" s="59">
         <v>-4</v>
       </c>
-      <c r="M510" s="63">
-        <v>1</v>
-      </c>
-      <c r="N510" s="63">
-        <v>0</v>
-      </c>
-      <c r="O510" s="63" t="s">
+      <c r="M510" s="59">
+        <v>1</v>
+      </c>
+      <c r="N510" s="59">
+        <v>0</v>
+      </c>
+      <c r="O510" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="P510" s="63">
+      <c r="P510" s="59">
         <v>4800</v>
       </c>
-      <c r="R510" s="64"/>
-      <c r="W510" s="63" t="s">
+      <c r="R510" s="60"/>
+      <c r="W510" s="59" t="s">
         <v>525</v>
       </c>
-      <c r="X510" s="65" t="s">
+      <c r="X510" s="61" t="s">
         <v>108</v>
       </c>
-      <c r="Y510" s="66">
-        <v>0</v>
-      </c>
-      <c r="Z510" s="63">
+      <c r="Y510" s="62">
+        <v>0</v>
+      </c>
+      <c r="Z510" s="59">
         <v>2552233600</v>
       </c>
-      <c r="AB510" s="63" t="s">
+      <c r="AB510" s="59" t="s">
         <v>77</v>
       </c>
-      <c r="AC510" s="63" t="s">
+      <c r="AC510" s="59" t="s">
         <v>1925</v>
       </c>
-      <c r="AD510" s="64" t="s">
+      <c r="AD510" s="60" t="s">
         <v>1926</v>
       </c>
-      <c r="AH510" s="63">
-        <v>1</v>
-      </c>
-      <c r="AI510" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="511" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A511" s="63">
+      <c r="AH510" s="59">
+        <v>1</v>
+      </c>
+      <c r="AI510" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="511" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A511" s="59">
         <v>510</v>
       </c>
-      <c r="B511" s="63">
+      <c r="B511" s="59">
         <v>10427</v>
       </c>
-      <c r="F511" s="63">
-        <v>1</v>
-      </c>
-      <c r="G511" s="63" t="s">
+      <c r="F511" s="59">
+        <v>1</v>
+      </c>
+      <c r="G511" s="59" t="s">
         <v>1927</v>
       </c>
-      <c r="J511" s="63" t="s">
+      <c r="J511" s="59" t="s">
         <v>1928</v>
       </c>
-      <c r="L511" s="63">
+      <c r="L511" s="59">
         <v>-4</v>
       </c>
-      <c r="M511" s="63">
-        <v>1</v>
-      </c>
-      <c r="N511" s="63">
-        <v>0</v>
-      </c>
-      <c r="O511" s="63" t="s">
+      <c r="M511" s="59">
+        <v>1</v>
+      </c>
+      <c r="N511" s="59">
+        <v>0</v>
+      </c>
+      <c r="O511" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="P511" s="63">
+      <c r="P511" s="59">
         <v>9800</v>
       </c>
-      <c r="R511" s="64"/>
-      <c r="W511" s="63" t="s">
+      <c r="R511" s="60"/>
+      <c r="W511" s="59" t="s">
         <v>525</v>
       </c>
-      <c r="X511" s="65" t="s">
+      <c r="X511" s="61" t="s">
         <v>108</v>
       </c>
-      <c r="Y511" s="66">
-        <v>0</v>
-      </c>
-      <c r="Z511" s="63">
+      <c r="Y511" s="62">
+        <v>0</v>
+      </c>
+      <c r="Z511" s="59">
         <v>2552233600</v>
       </c>
-      <c r="AB511" s="63" t="s">
+      <c r="AB511" s="59" t="s">
         <v>77</v>
       </c>
-      <c r="AC511" s="63" t="s">
+      <c r="AC511" s="59" t="s">
         <v>1929</v>
       </c>
-      <c r="AD511" s="64" t="s">
+      <c r="AD511" s="60" t="s">
         <v>1930</v>
       </c>
-      <c r="AH511" s="63">
-        <v>1</v>
-      </c>
-      <c r="AI511" s="63">
+      <c r="AH511" s="59">
+        <v>1</v>
+      </c>
+      <c r="AI511" s="59">
         <v>1</v>
       </c>
     </row>
@@ -44700,881 +44741,1493 @@
         <v>1</v>
       </c>
     </row>
-    <row r="520" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A520" s="63">
+    <row r="520" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A520" s="59">
         <v>519</v>
       </c>
-      <c r="B520" s="63">
+      <c r="B520" s="59">
         <v>10436</v>
       </c>
-      <c r="F520" s="63">
-        <v>1</v>
-      </c>
-      <c r="G520" s="63" t="s">
+      <c r="F520" s="59">
+        <v>1</v>
+      </c>
+      <c r="G520" s="59" t="s">
         <v>1962</v>
       </c>
-      <c r="I520" s="63" t="s">
+      <c r="I520" s="59" t="s">
         <v>1963</v>
       </c>
-      <c r="J520" s="63" t="s">
+      <c r="J520" s="59" t="s">
         <v>1964</v>
       </c>
-      <c r="L520" s="63">
+      <c r="L520" s="59">
         <v>-23</v>
       </c>
-      <c r="M520" s="63">
-        <v>1</v>
-      </c>
-      <c r="N520" s="63">
-        <v>0</v>
-      </c>
-      <c r="O520" s="63" t="s">
+      <c r="M520" s="59">
+        <v>1</v>
+      </c>
+      <c r="N520" s="59">
+        <v>0</v>
+      </c>
+      <c r="O520" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="P520" s="63">
+      <c r="P520" s="59">
         <v>1000</v>
       </c>
-      <c r="Q520" s="63" t="s">
+      <c r="Q520" s="59" t="s">
         <v>1965</v>
       </c>
-      <c r="R520" s="64" t="s">
+      <c r="R520" s="60" t="s">
         <v>1966</v>
       </c>
-      <c r="S520" s="63" t="s">
+      <c r="S520" s="59" t="s">
         <v>1967</v>
       </c>
-      <c r="W520" s="63" t="s">
+      <c r="W520" s="59" t="s">
         <v>1968</v>
       </c>
-      <c r="X520" s="63">
+      <c r="X520" s="59">
         <v>99999999</v>
       </c>
-      <c r="Y520" s="63">
-        <v>0</v>
-      </c>
-      <c r="Z520" s="63">
+      <c r="Y520" s="59">
+        <v>0</v>
+      </c>
+      <c r="Z520" s="59">
         <v>2552233600</v>
       </c>
-      <c r="AH520" s="63">
-        <v>1</v>
-      </c>
-      <c r="AI520" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="521" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH520" s="59">
+        <v>1</v>
+      </c>
+      <c r="AI520" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="521" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A521" s="5">
         <v>520</v>
       </c>
       <c r="B521" s="5">
         <v>10437</v>
       </c>
-      <c r="F521" s="59">
-        <v>1</v>
-      </c>
-      <c r="G521" s="59" t="s">
+      <c r="F521" s="5">
+        <v>1</v>
+      </c>
+      <c r="G521" s="5" t="s">
         <v>1970</v>
       </c>
-      <c r="I521" s="59" t="s">
+      <c r="I521" s="5" t="s">
         <v>1971</v>
       </c>
-      <c r="J521" s="59" t="s">
+      <c r="J521" s="5" t="s">
         <v>1972</v>
       </c>
-      <c r="L521" s="59">
+      <c r="L521" s="5">
         <v>-33</v>
       </c>
-      <c r="M521" s="59">
-        <v>0</v>
-      </c>
-      <c r="N521" s="59">
-        <v>0</v>
-      </c>
-      <c r="O521" s="59" t="s">
+      <c r="M521" s="5">
+        <v>0</v>
+      </c>
+      <c r="N521" s="5">
+        <v>0</v>
+      </c>
+      <c r="O521" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="P521" s="59">
+      <c r="P521" s="5">
         <v>600</v>
       </c>
-      <c r="Q521" s="59" t="s">
+      <c r="Q521" s="5" t="s">
         <v>1973</v>
       </c>
-      <c r="R521" s="60" t="s">
-        <v>2033</v>
-      </c>
-      <c r="W521" s="59" t="s">
+      <c r="R521" s="10" t="s">
+        <v>2045</v>
+      </c>
+      <c r="W521" s="5" t="s">
         <v>1974</v>
       </c>
-      <c r="X521" s="59">
+      <c r="X521" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y521" s="59">
+      <c r="Y521" s="5">
         <v>1611014400</v>
       </c>
-      <c r="Z521" s="59">
+      <c r="Z521" s="5">
         <v>1611590399</v>
       </c>
-      <c r="AA521" s="59">
+      <c r="AA521" s="5">
         <v>70</v>
       </c>
-      <c r="AH521" s="59">
-        <v>1</v>
-      </c>
-      <c r="AI521" s="59">
-        <v>1</v>
-      </c>
-      <c r="AL521" s="59">
-        <v>1</v>
-      </c>
-      <c r="AM521" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="522" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH521" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI521" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL521" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM521" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="522" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A522" s="5">
         <v>521</v>
       </c>
       <c r="B522" s="5">
         <v>10438</v>
       </c>
-      <c r="F522" s="59">
-        <v>1</v>
-      </c>
-      <c r="G522" s="59" t="s">
+      <c r="F522" s="5">
+        <v>1</v>
+      </c>
+      <c r="G522" s="5" t="s">
         <v>1976</v>
       </c>
-      <c r="I522" s="59" t="s">
+      <c r="I522" s="5" t="s">
         <v>1977</v>
       </c>
-      <c r="J522" s="59" t="s">
+      <c r="J522" s="5" t="s">
         <v>1978</v>
       </c>
-      <c r="L522" s="59">
+      <c r="L522" s="5">
         <v>-33</v>
       </c>
-      <c r="M522" s="59">
-        <v>0</v>
-      </c>
-      <c r="N522" s="59">
-        <v>0</v>
-      </c>
-      <c r="O522" s="59" t="s">
+      <c r="M522" s="5">
+        <v>0</v>
+      </c>
+      <c r="N522" s="5">
+        <v>0</v>
+      </c>
+      <c r="O522" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="P522" s="59">
+      <c r="P522" s="5">
         <v>1000</v>
       </c>
-      <c r="Q522" s="59" t="s">
+      <c r="Q522" s="5" t="s">
         <v>1980</v>
       </c>
-      <c r="R522" s="60" t="s">
+      <c r="R522" s="10" t="s">
         <v>1981</v>
       </c>
-      <c r="W522" s="59" t="s">
+      <c r="W522" s="5" t="s">
         <v>1100</v>
       </c>
-      <c r="X522" s="59">
+      <c r="X522" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y522" s="59">
+      <c r="Y522" s="5">
         <v>1611014400</v>
       </c>
-      <c r="Z522" s="59">
+      <c r="Z522" s="5">
         <v>1611590399</v>
       </c>
-      <c r="AA522" s="59">
+      <c r="AA522" s="5">
         <v>70</v>
       </c>
-      <c r="AH522" s="59">
-        <v>1</v>
-      </c>
-      <c r="AI522" s="59">
-        <v>1</v>
-      </c>
-      <c r="AL522" s="59">
-        <v>1</v>
-      </c>
-      <c r="AM522" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="523" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH522" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI522" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL522" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM522" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="523" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A523" s="5">
         <v>522</v>
       </c>
       <c r="B523" s="5">
         <v>10439</v>
       </c>
-      <c r="F523" s="59">
-        <v>1</v>
-      </c>
-      <c r="G523" s="59" t="s">
+      <c r="F523" s="5">
+        <v>1</v>
+      </c>
+      <c r="G523" s="5" t="s">
         <v>1983</v>
       </c>
-      <c r="I523" s="59" t="s">
+      <c r="I523" s="5" t="s">
         <v>1977</v>
       </c>
-      <c r="J523" s="59" t="s">
+      <c r="J523" s="5" t="s">
         <v>1984</v>
       </c>
-      <c r="L523" s="59">
+      <c r="L523" s="5">
         <v>-33</v>
       </c>
-      <c r="M523" s="59">
-        <v>0</v>
-      </c>
-      <c r="N523" s="59">
-        <v>0</v>
-      </c>
-      <c r="O523" s="59" t="s">
+      <c r="M523" s="5">
+        <v>0</v>
+      </c>
+      <c r="N523" s="5">
+        <v>0</v>
+      </c>
+      <c r="O523" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="P523" s="59">
+      <c r="P523" s="5">
         <v>1800</v>
       </c>
-      <c r="Q523" s="59" t="s">
+      <c r="Q523" s="5" t="s">
         <v>1985</v>
       </c>
-      <c r="R523" s="60" t="s">
+      <c r="R523" s="10" t="s">
         <v>1986</v>
       </c>
-      <c r="W523" s="59" t="s">
+      <c r="W523" s="5" t="s">
         <v>1100</v>
       </c>
-      <c r="X523" s="59">
+      <c r="X523" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y523" s="59">
+      <c r="Y523" s="5">
         <v>1611014400</v>
       </c>
-      <c r="Z523" s="59">
+      <c r="Z523" s="5">
         <v>1611590399</v>
       </c>
-      <c r="AA523" s="59">
+      <c r="AA523" s="5">
         <v>70</v>
       </c>
-      <c r="AH523" s="59">
-        <v>1</v>
-      </c>
-      <c r="AI523" s="59">
-        <v>1</v>
-      </c>
-      <c r="AL523" s="59">
-        <v>1</v>
-      </c>
-      <c r="AM523" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="524" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH523" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI523" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL523" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM523" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="524" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A524" s="5">
         <v>523</v>
       </c>
       <c r="B524" s="5">
         <v>10440</v>
       </c>
-      <c r="F524" s="59">
-        <v>1</v>
-      </c>
-      <c r="G524" s="59" t="s">
+      <c r="F524" s="5">
+        <v>1</v>
+      </c>
+      <c r="G524" s="5" t="s">
         <v>1988</v>
       </c>
-      <c r="I524" s="59" t="s">
+      <c r="I524" s="5" t="s">
         <v>1971</v>
       </c>
-      <c r="J524" s="59" t="s">
+      <c r="J524" s="5" t="s">
         <v>1989</v>
       </c>
-      <c r="L524" s="59">
+      <c r="L524" s="5">
         <v>-33</v>
       </c>
-      <c r="M524" s="59">
-        <v>0</v>
-      </c>
-      <c r="N524" s="59">
-        <v>0</v>
-      </c>
-      <c r="O524" s="59" t="s">
+      <c r="M524" s="5">
+        <v>0</v>
+      </c>
+      <c r="N524" s="5">
+        <v>0</v>
+      </c>
+      <c r="O524" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="P524" s="59">
+      <c r="P524" s="5">
         <v>4800</v>
       </c>
-      <c r="Q524" s="59" t="s">
+      <c r="Q524" s="5" t="s">
         <v>1990</v>
       </c>
-      <c r="R524" s="60" t="s">
+      <c r="R524" s="10" t="s">
         <v>1991</v>
       </c>
-      <c r="W524" s="59" t="s">
+      <c r="W524" s="5" t="s">
         <v>1100</v>
       </c>
-      <c r="X524" s="59">
+      <c r="X524" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y524" s="59">
+      <c r="Y524" s="5">
         <v>1611014400</v>
       </c>
-      <c r="Z524" s="59">
+      <c r="Z524" s="5">
         <v>1611590399</v>
       </c>
-      <c r="AA524" s="59">
+      <c r="AA524" s="5">
         <v>70</v>
       </c>
-      <c r="AH524" s="59">
-        <v>1</v>
-      </c>
-      <c r="AI524" s="59">
-        <v>1</v>
-      </c>
-      <c r="AL524" s="59">
-        <v>1</v>
-      </c>
-      <c r="AM524" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="525" spans="1:39" s="49" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH524" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI524" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL524" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM524" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="525" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A525" s="5">
         <v>524</v>
       </c>
       <c r="B525" s="5">
         <v>10441</v>
       </c>
-      <c r="F525" s="49">
-        <v>1</v>
-      </c>
-      <c r="G525" s="49" t="s">
+      <c r="F525" s="5">
+        <v>1</v>
+      </c>
+      <c r="G525" s="5" t="s">
         <v>1969</v>
       </c>
-      <c r="I525" s="49" t="s">
+      <c r="I525" s="5" t="s">
         <v>1993</v>
       </c>
-      <c r="J525" s="49" t="s">
+      <c r="J525" s="5" t="s">
         <v>1994</v>
       </c>
-      <c r="L525" s="49">
+      <c r="L525" s="5">
         <v>-33</v>
       </c>
-      <c r="M525" s="49">
-        <v>0</v>
-      </c>
-      <c r="N525" s="49">
-        <v>0</v>
-      </c>
-      <c r="O525" s="49" t="s">
+      <c r="M525" s="5">
+        <v>0</v>
+      </c>
+      <c r="N525" s="5">
+        <v>0</v>
+      </c>
+      <c r="O525" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="P525" s="49">
+      <c r="P525" s="5">
         <v>1800</v>
       </c>
-      <c r="Q525" s="49" t="s">
+      <c r="Q525" s="5" t="s">
         <v>1995</v>
       </c>
-      <c r="R525" s="50" t="s">
+      <c r="R525" s="10" t="s">
         <v>1986</v>
       </c>
-      <c r="W525" s="49" t="s">
+      <c r="W525" s="5" t="s">
         <v>1100</v>
       </c>
-      <c r="X525" s="49">
+      <c r="X525" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y525" s="49">
+      <c r="Y525" s="5">
         <v>1611014400</v>
       </c>
-      <c r="Z525" s="49">
+      <c r="Z525" s="5">
         <v>1611590399</v>
       </c>
-      <c r="AA525" s="49">
+      <c r="AA525" s="5">
         <v>71</v>
       </c>
-      <c r="AH525" s="49">
-        <v>1</v>
-      </c>
-      <c r="AI525" s="49">
-        <v>1</v>
-      </c>
-      <c r="AL525" s="49">
-        <v>1</v>
-      </c>
-      <c r="AM525" s="49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="526" spans="1:39" s="49" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH525" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI525" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL525" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM525" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="526" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A526" s="5">
         <v>525</v>
       </c>
       <c r="B526" s="5">
         <v>10442</v>
       </c>
-      <c r="F526" s="49">
-        <v>1</v>
-      </c>
-      <c r="G526" s="49" t="s">
+      <c r="F526" s="5">
+        <v>1</v>
+      </c>
+      <c r="G526" s="5" t="s">
         <v>1975</v>
       </c>
-      <c r="I526" s="49" t="s">
+      <c r="I526" s="5" t="s">
         <v>1992</v>
       </c>
-      <c r="J526" s="49" t="s">
+      <c r="J526" s="5" t="s">
         <v>1996</v>
       </c>
-      <c r="L526" s="49">
+      <c r="L526" s="5">
         <v>-33</v>
       </c>
-      <c r="M526" s="49">
-        <v>0</v>
-      </c>
-      <c r="N526" s="49">
-        <v>0</v>
-      </c>
-      <c r="O526" s="49" t="s">
+      <c r="M526" s="5">
+        <v>0</v>
+      </c>
+      <c r="N526" s="5">
+        <v>0</v>
+      </c>
+      <c r="O526" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="P526" s="49">
+      <c r="P526" s="5">
         <v>4800</v>
       </c>
-      <c r="Q526" s="49" t="s">
+      <c r="Q526" s="5" t="s">
         <v>1979</v>
       </c>
-      <c r="R526" s="50" t="s">
+      <c r="R526" s="10" t="s">
         <v>1998</v>
       </c>
-      <c r="W526" s="49" t="s">
+      <c r="W526" s="5" t="s">
         <v>1100</v>
       </c>
-      <c r="X526" s="49">
+      <c r="X526" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y526" s="49">
+      <c r="Y526" s="5">
         <v>1611014400</v>
       </c>
-      <c r="Z526" s="49">
+      <c r="Z526" s="5">
         <v>1611590399</v>
       </c>
-      <c r="AA526" s="49">
+      <c r="AA526" s="5">
         <v>71</v>
       </c>
-      <c r="AH526" s="49">
-        <v>1</v>
-      </c>
-      <c r="AI526" s="49">
-        <v>1</v>
-      </c>
-      <c r="AL526" s="49">
-        <v>1</v>
-      </c>
-      <c r="AM526" s="49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="527" spans="1:39" s="49" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH526" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI526" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL526" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM526" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="527" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A527" s="5">
         <v>526</v>
       </c>
       <c r="B527" s="5">
         <v>10443</v>
       </c>
-      <c r="F527" s="49">
-        <v>1</v>
-      </c>
-      <c r="G527" s="49" t="s">
+      <c r="F527" s="5">
+        <v>1</v>
+      </c>
+      <c r="G527" s="5" t="s">
         <v>1982</v>
       </c>
-      <c r="I527" s="49" t="s">
+      <c r="I527" s="5" t="s">
         <v>1992</v>
       </c>
-      <c r="J527" s="49" t="s">
+      <c r="J527" s="5" t="s">
         <v>1999</v>
       </c>
-      <c r="L527" s="49">
+      <c r="L527" s="5">
         <v>-33</v>
       </c>
-      <c r="M527" s="49">
-        <v>0</v>
-      </c>
-      <c r="N527" s="49">
-        <v>0</v>
-      </c>
-      <c r="O527" s="49" t="s">
+      <c r="M527" s="5">
+        <v>0</v>
+      </c>
+      <c r="N527" s="5">
+        <v>0</v>
+      </c>
+      <c r="O527" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="P527" s="49">
+      <c r="P527" s="5">
         <v>9800</v>
       </c>
-      <c r="Q527" s="49" t="s">
+      <c r="Q527" s="5" t="s">
         <v>2000</v>
       </c>
-      <c r="R527" s="50" t="s">
+      <c r="R527" s="10" t="s">
         <v>2001</v>
       </c>
-      <c r="W527" s="49" t="s">
+      <c r="W527" s="5" t="s">
         <v>1100</v>
       </c>
-      <c r="X527" s="49">
+      <c r="X527" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y527" s="49">
+      <c r="Y527" s="5">
         <v>1611014400</v>
       </c>
-      <c r="Z527" s="49">
+      <c r="Z527" s="5">
         <v>1611590399</v>
       </c>
-      <c r="AA527" s="49">
+      <c r="AA527" s="5">
         <v>71</v>
       </c>
-      <c r="AH527" s="49">
-        <v>1</v>
-      </c>
-      <c r="AI527" s="49">
-        <v>1</v>
-      </c>
-      <c r="AL527" s="49">
-        <v>1</v>
-      </c>
-      <c r="AM527" s="49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="528" spans="1:39" s="49" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH527" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI527" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL527" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM527" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="528" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A528" s="5">
         <v>527</v>
       </c>
       <c r="B528" s="5">
         <v>10444</v>
       </c>
-      <c r="F528" s="49">
-        <v>1</v>
-      </c>
-      <c r="G528" s="49" t="s">
+      <c r="F528" s="5">
+        <v>1</v>
+      </c>
+      <c r="G528" s="5" t="s">
         <v>1987</v>
       </c>
-      <c r="I528" s="49" t="s">
+      <c r="I528" s="5" t="s">
         <v>2002</v>
       </c>
-      <c r="J528" s="49" t="s">
+      <c r="J528" s="5" t="s">
         <v>2003</v>
       </c>
-      <c r="L528" s="49">
+      <c r="L528" s="5">
         <v>-33</v>
       </c>
-      <c r="M528" s="49">
-        <v>0</v>
-      </c>
-      <c r="N528" s="49">
-        <v>0</v>
-      </c>
-      <c r="O528" s="49" t="s">
+      <c r="M528" s="5">
+        <v>0</v>
+      </c>
+      <c r="N528" s="5">
+        <v>0</v>
+      </c>
+      <c r="O528" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="P528" s="49">
+      <c r="P528" s="5">
         <v>19800</v>
       </c>
-      <c r="Q528" s="49" t="s">
+      <c r="Q528" s="5" t="s">
         <v>2004</v>
       </c>
-      <c r="R528" s="50" t="s">
+      <c r="R528" s="10" t="s">
         <v>2005</v>
       </c>
-      <c r="W528" s="49" t="s">
+      <c r="W528" s="5" t="s">
         <v>1100</v>
       </c>
-      <c r="X528" s="49">
+      <c r="X528" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y528" s="49">
+      <c r="Y528" s="5">
         <v>1611014400</v>
       </c>
-      <c r="Z528" s="49">
+      <c r="Z528" s="5">
         <v>1611590399</v>
       </c>
-      <c r="AA528" s="49">
+      <c r="AA528" s="5">
         <v>71</v>
       </c>
-      <c r="AH528" s="49">
-        <v>1</v>
-      </c>
-      <c r="AI528" s="49">
-        <v>1</v>
-      </c>
-      <c r="AL528" s="49">
-        <v>1</v>
-      </c>
-      <c r="AM528" s="49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="529" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH528" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI528" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL528" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM528" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="529" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A529" s="5">
         <v>528</v>
       </c>
       <c r="B529" s="5">
         <v>10445</v>
       </c>
-      <c r="F529" s="59">
-        <v>1</v>
-      </c>
-      <c r="G529" s="59" t="s">
+      <c r="F529" s="5">
+        <v>1</v>
+      </c>
+      <c r="G529" s="5" t="s">
         <v>2006</v>
       </c>
-      <c r="I529" s="59" t="s">
+      <c r="I529" s="5" t="s">
         <v>2007</v>
       </c>
-      <c r="J529" s="59" t="s">
+      <c r="J529" s="5" t="s">
         <v>2008</v>
       </c>
-      <c r="L529" s="59">
+      <c r="L529" s="5">
         <v>-33</v>
       </c>
-      <c r="M529" s="59">
-        <v>0</v>
-      </c>
-      <c r="N529" s="59">
-        <v>0</v>
-      </c>
-      <c r="O529" s="59" t="s">
+      <c r="M529" s="5">
+        <v>0</v>
+      </c>
+      <c r="N529" s="5">
+        <v>0</v>
+      </c>
+      <c r="O529" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="P529" s="59">
+      <c r="P529" s="5">
         <v>4800</v>
       </c>
-      <c r="Q529" s="59" t="s">
+      <c r="Q529" s="5" t="s">
         <v>1995</v>
       </c>
-      <c r="R529" s="60" t="s">
+      <c r="R529" s="10" t="s">
         <v>1997</v>
       </c>
-      <c r="W529" s="59" t="s">
+      <c r="W529" s="5" t="s">
         <v>1100</v>
       </c>
-      <c r="X529" s="59">
+      <c r="X529" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y529" s="59">
+      <c r="Y529" s="5">
         <v>1611014400</v>
       </c>
-      <c r="Z529" s="59">
+      <c r="Z529" s="5">
         <v>1611590399</v>
       </c>
-      <c r="AA529" s="59">
+      <c r="AA529" s="5">
         <v>72</v>
       </c>
-      <c r="AH529" s="59">
-        <v>1</v>
-      </c>
-      <c r="AI529" s="59">
-        <v>1</v>
-      </c>
-      <c r="AL529" s="59">
-        <v>1</v>
-      </c>
-      <c r="AM529" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="530" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH529" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI529" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL529" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM529" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="530" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A530" s="5">
         <v>529</v>
       </c>
       <c r="B530" s="5">
         <v>10446</v>
       </c>
-      <c r="F530" s="59">
-        <v>1</v>
-      </c>
-      <c r="G530" s="59" t="s">
+      <c r="F530" s="5">
+        <v>1</v>
+      </c>
+      <c r="G530" s="5" t="s">
         <v>1975</v>
       </c>
-      <c r="I530" s="59" t="s">
+      <c r="I530" s="5" t="s">
         <v>2009</v>
       </c>
-      <c r="J530" s="59" t="s">
+      <c r="J530" s="5" t="s">
         <v>2010</v>
       </c>
-      <c r="L530" s="59">
+      <c r="L530" s="5">
         <v>-33</v>
       </c>
-      <c r="M530" s="59">
-        <v>0</v>
-      </c>
-      <c r="N530" s="59">
-        <v>0</v>
-      </c>
-      <c r="O530" s="59" t="s">
+      <c r="M530" s="5">
+        <v>0</v>
+      </c>
+      <c r="N530" s="5">
+        <v>0</v>
+      </c>
+      <c r="O530" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="P530" s="59">
+      <c r="P530" s="5">
         <v>9800</v>
       </c>
-      <c r="Q530" s="59" t="s">
+      <c r="Q530" s="5" t="s">
         <v>1980</v>
       </c>
-      <c r="R530" s="60" t="s">
+      <c r="R530" s="10" t="s">
         <v>2001</v>
       </c>
-      <c r="W530" s="59" t="s">
+      <c r="W530" s="5" t="s">
         <v>1100</v>
       </c>
-      <c r="X530" s="59">
+      <c r="X530" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y530" s="59">
+      <c r="Y530" s="5">
         <v>1611014400</v>
       </c>
-      <c r="Z530" s="59">
+      <c r="Z530" s="5">
         <v>1611590399</v>
       </c>
-      <c r="AA530" s="59">
+      <c r="AA530" s="5">
         <v>72</v>
       </c>
-      <c r="AH530" s="59">
-        <v>1</v>
-      </c>
-      <c r="AI530" s="59">
-        <v>1</v>
-      </c>
-      <c r="AL530" s="59">
-        <v>1</v>
-      </c>
-      <c r="AM530" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="531" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH530" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI530" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL530" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM530" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="531" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A531" s="5">
         <v>530</v>
       </c>
       <c r="B531" s="5">
         <v>10447</v>
       </c>
-      <c r="F531" s="59">
-        <v>1</v>
-      </c>
-      <c r="G531" s="59" t="s">
+      <c r="F531" s="5">
+        <v>1</v>
+      </c>
+      <c r="G531" s="5" t="s">
         <v>1983</v>
       </c>
-      <c r="I531" s="59" t="s">
+      <c r="I531" s="5" t="s">
         <v>2011</v>
       </c>
-      <c r="J531" s="59" t="s">
+      <c r="J531" s="5" t="s">
         <v>2012</v>
       </c>
-      <c r="L531" s="59">
+      <c r="L531" s="5">
         <v>-33</v>
       </c>
-      <c r="M531" s="59">
-        <v>0</v>
-      </c>
-      <c r="N531" s="59">
-        <v>0</v>
-      </c>
-      <c r="O531" s="59" t="s">
+      <c r="M531" s="5">
+        <v>0</v>
+      </c>
+      <c r="N531" s="5">
+        <v>0</v>
+      </c>
+      <c r="O531" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="P531" s="59">
+      <c r="P531" s="5">
         <v>19800</v>
       </c>
-      <c r="Q531" s="59" t="s">
+      <c r="Q531" s="5" t="s">
         <v>2000</v>
       </c>
-      <c r="R531" s="60" t="s">
+      <c r="R531" s="10" t="s">
         <v>2013</v>
       </c>
-      <c r="W531" s="59" t="s">
+      <c r="W531" s="5" t="s">
         <v>1100</v>
       </c>
-      <c r="X531" s="59">
+      <c r="X531" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y531" s="59">
+      <c r="Y531" s="5">
         <v>1611014400</v>
       </c>
-      <c r="Z531" s="59">
+      <c r="Z531" s="5">
         <v>1611590399</v>
       </c>
-      <c r="AA531" s="59">
+      <c r="AA531" s="5">
         <v>72</v>
       </c>
-      <c r="AH531" s="59">
-        <v>1</v>
-      </c>
-      <c r="AI531" s="59">
-        <v>1</v>
-      </c>
-      <c r="AL531" s="59">
-        <v>1</v>
-      </c>
-      <c r="AM531" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="532" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH531" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI531" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL531" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM531" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="532" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A532" s="5">
         <v>531</v>
       </c>
       <c r="B532" s="5">
         <v>10448</v>
       </c>
-      <c r="F532" s="59">
-        <v>1</v>
-      </c>
-      <c r="G532" s="59" t="s">
+      <c r="F532" s="5">
+        <v>1</v>
+      </c>
+      <c r="G532" s="5" t="s">
         <v>2014</v>
       </c>
-      <c r="I532" s="59" t="s">
+      <c r="I532" s="5" t="s">
         <v>2007</v>
       </c>
-      <c r="J532" s="59" t="s">
+      <c r="J532" s="5" t="s">
         <v>2015</v>
       </c>
-      <c r="L532" s="59">
+      <c r="L532" s="5">
         <v>-33</v>
       </c>
-      <c r="M532" s="59">
-        <v>0</v>
-      </c>
-      <c r="N532" s="59">
-        <v>0</v>
-      </c>
-      <c r="O532" s="59" t="s">
+      <c r="M532" s="5">
+        <v>0</v>
+      </c>
+      <c r="N532" s="5">
+        <v>0</v>
+      </c>
+      <c r="O532" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="P532" s="59">
+      <c r="P532" s="5">
         <v>49800</v>
       </c>
-      <c r="Q532" s="59" t="s">
+      <c r="Q532" s="5" t="s">
         <v>2004</v>
       </c>
-      <c r="R532" s="60" t="s">
+      <c r="R532" s="10" t="s">
         <v>2016</v>
       </c>
-      <c r="W532" s="59" t="s">
+      <c r="W532" s="5" t="s">
         <v>1100</v>
       </c>
-      <c r="X532" s="59">
+      <c r="X532" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y532" s="59">
+      <c r="Y532" s="5">
         <v>1611014400</v>
       </c>
-      <c r="Z532" s="59">
+      <c r="Z532" s="5">
         <v>1611590399</v>
       </c>
-      <c r="AA532" s="59">
+      <c r="AA532" s="5">
         <v>72</v>
       </c>
-      <c r="AH532" s="59">
-        <v>1</v>
-      </c>
-      <c r="AI532" s="59">
-        <v>1</v>
-      </c>
-      <c r="AL532" s="59">
-        <v>1</v>
-      </c>
-      <c r="AM532" s="59">
+      <c r="AH532" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI532" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL532" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM532" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="533" spans="1:39" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A533" s="5">
+        <v>532</v>
+      </c>
+      <c r="B533" s="47">
+        <v>10449</v>
+      </c>
+      <c r="F533" s="47">
+        <v>1</v>
+      </c>
+      <c r="G533" s="47" t="s">
+        <v>2030</v>
+      </c>
+      <c r="I533" s="47" t="s">
+        <v>1236</v>
+      </c>
+      <c r="J533" s="47" t="s">
+        <v>1262</v>
+      </c>
+      <c r="L533" s="47">
+        <v>-31</v>
+      </c>
+      <c r="M533" s="47">
+        <v>0</v>
+      </c>
+      <c r="N533" s="47">
+        <v>0</v>
+      </c>
+      <c r="O533" s="47" t="s">
+        <v>481</v>
+      </c>
+      <c r="P533" s="47">
+        <v>1800</v>
+      </c>
+      <c r="Q533" s="47" t="s">
+        <v>1263</v>
+      </c>
+      <c r="R533" s="63" t="s">
+        <v>1264</v>
+      </c>
+      <c r="W533" s="47" t="s">
+        <v>2031</v>
+      </c>
+      <c r="X533" s="47">
+        <v>9999999</v>
+      </c>
+      <c r="Y533" s="47">
+        <v>1611619200</v>
+      </c>
+      <c r="Z533" s="47">
+        <v>1612195199</v>
+      </c>
+      <c r="AA533" s="47">
+        <v>73</v>
+      </c>
+      <c r="AH533" s="47">
+        <v>1</v>
+      </c>
+      <c r="AI533" s="47">
+        <v>1</v>
+      </c>
+      <c r="AL533" s="47">
+        <v>1</v>
+      </c>
+      <c r="AM533" s="47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="534" spans="1:39" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A534" s="5">
+        <v>533</v>
+      </c>
+      <c r="B534" s="47">
+        <v>10450</v>
+      </c>
+      <c r="F534" s="47">
+        <v>1</v>
+      </c>
+      <c r="G534" s="47" t="s">
+        <v>2032</v>
+      </c>
+      <c r="I534" s="47" t="s">
+        <v>1236</v>
+      </c>
+      <c r="J534" s="47" t="s">
+        <v>2033</v>
+      </c>
+      <c r="L534" s="47">
+        <v>-31</v>
+      </c>
+      <c r="M534" s="47">
+        <v>0</v>
+      </c>
+      <c r="N534" s="47">
+        <v>0</v>
+      </c>
+      <c r="O534" s="47" t="s">
+        <v>481</v>
+      </c>
+      <c r="P534" s="47">
+        <v>3000</v>
+      </c>
+      <c r="Q534" s="47" t="s">
+        <v>1269</v>
+      </c>
+      <c r="R534" s="63" t="s">
+        <v>1270</v>
+      </c>
+      <c r="W534" s="47" t="s">
+        <v>2028</v>
+      </c>
+      <c r="X534" s="47">
+        <v>9999999</v>
+      </c>
+      <c r="Y534" s="47">
+        <v>1611619200</v>
+      </c>
+      <c r="Z534" s="47">
+        <v>1612195199</v>
+      </c>
+      <c r="AA534" s="47">
+        <v>73</v>
+      </c>
+      <c r="AH534" s="47">
+        <v>1</v>
+      </c>
+      <c r="AI534" s="47">
+        <v>1</v>
+      </c>
+      <c r="AL534" s="47">
+        <v>1</v>
+      </c>
+      <c r="AM534" s="47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="535" spans="1:39" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A535" s="5">
+        <v>534</v>
+      </c>
+      <c r="B535" s="47">
+        <v>10451</v>
+      </c>
+      <c r="F535" s="47">
+        <v>1</v>
+      </c>
+      <c r="G535" s="47" t="s">
+        <v>2034</v>
+      </c>
+      <c r="I535" s="47" t="s">
+        <v>1236</v>
+      </c>
+      <c r="J535" s="47" t="s">
+        <v>2035</v>
+      </c>
+      <c r="L535" s="47">
+        <v>-31</v>
+      </c>
+      <c r="M535" s="47">
+        <v>0</v>
+      </c>
+      <c r="N535" s="47">
+        <v>0</v>
+      </c>
+      <c r="O535" s="47" t="s">
+        <v>481</v>
+      </c>
+      <c r="P535" s="47">
+        <v>4800</v>
+      </c>
+      <c r="Q535" s="47" t="s">
+        <v>1275</v>
+      </c>
+      <c r="R535" s="63" t="s">
+        <v>2036</v>
+      </c>
+      <c r="W535" s="47" t="s">
+        <v>2028</v>
+      </c>
+      <c r="X535" s="47">
+        <v>9999999</v>
+      </c>
+      <c r="Y535" s="47">
+        <v>1611619200</v>
+      </c>
+      <c r="Z535" s="47">
+        <v>1612195199</v>
+      </c>
+      <c r="AA535" s="47">
+        <v>73</v>
+      </c>
+      <c r="AH535" s="47">
+        <v>1</v>
+      </c>
+      <c r="AI535" s="47">
+        <v>1</v>
+      </c>
+      <c r="AL535" s="47">
+        <v>1</v>
+      </c>
+      <c r="AM535" s="47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="536" spans="1:39" s="49" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A536" s="5">
+        <v>535</v>
+      </c>
+      <c r="B536" s="49">
+        <v>10452</v>
+      </c>
+      <c r="F536" s="49">
+        <v>1</v>
+      </c>
+      <c r="G536" s="49" t="s">
+        <v>2030</v>
+      </c>
+      <c r="I536" s="49" t="s">
+        <v>1109</v>
+      </c>
+      <c r="J536" s="49" t="s">
+        <v>2037</v>
+      </c>
+      <c r="L536" s="49">
+        <v>-31</v>
+      </c>
+      <c r="M536" s="49">
+        <v>0</v>
+      </c>
+      <c r="N536" s="49">
+        <v>0</v>
+      </c>
+      <c r="O536" s="49" t="s">
+        <v>481</v>
+      </c>
+      <c r="P536" s="49">
+        <v>4800</v>
+      </c>
+      <c r="Q536" s="49" t="s">
+        <v>1282</v>
+      </c>
+      <c r="R536" s="64" t="s">
+        <v>1276</v>
+      </c>
+      <c r="W536" s="49" t="s">
+        <v>2028</v>
+      </c>
+      <c r="X536" s="49">
+        <v>9999999</v>
+      </c>
+      <c r="Y536" s="49">
+        <v>1611619200</v>
+      </c>
+      <c r="Z536" s="49">
+        <v>1612195199</v>
+      </c>
+      <c r="AA536" s="49">
+        <v>74</v>
+      </c>
+      <c r="AH536" s="49">
+        <v>1</v>
+      </c>
+      <c r="AI536" s="49">
+        <v>1</v>
+      </c>
+      <c r="AL536" s="49">
+        <v>1</v>
+      </c>
+      <c r="AM536" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="537" spans="1:39" s="49" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A537" s="5">
+        <v>536</v>
+      </c>
+      <c r="B537" s="49">
+        <v>10453</v>
+      </c>
+      <c r="F537" s="49">
+        <v>1</v>
+      </c>
+      <c r="G537" s="49" t="s">
+        <v>2032</v>
+      </c>
+      <c r="I537" s="49" t="s">
+        <v>1109</v>
+      </c>
+      <c r="J537" s="49" t="s">
+        <v>1283</v>
+      </c>
+      <c r="L537" s="49">
+        <v>-31</v>
+      </c>
+      <c r="M537" s="49">
+        <v>0</v>
+      </c>
+      <c r="N537" s="49">
+        <v>0</v>
+      </c>
+      <c r="O537" s="49" t="s">
+        <v>481</v>
+      </c>
+      <c r="P537" s="49">
+        <v>9800</v>
+      </c>
+      <c r="Q537" s="49" t="s">
+        <v>1284</v>
+      </c>
+      <c r="R537" s="64" t="s">
+        <v>2038</v>
+      </c>
+      <c r="W537" s="49" t="s">
+        <v>2028</v>
+      </c>
+      <c r="X537" s="49">
+        <v>9999999</v>
+      </c>
+      <c r="Y537" s="49">
+        <v>1611619200</v>
+      </c>
+      <c r="Z537" s="49">
+        <v>1612195199</v>
+      </c>
+      <c r="AA537" s="49">
+        <v>74</v>
+      </c>
+      <c r="AH537" s="49">
+        <v>1</v>
+      </c>
+      <c r="AI537" s="49">
+        <v>1</v>
+      </c>
+      <c r="AL537" s="49">
+        <v>1</v>
+      </c>
+      <c r="AM537" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="538" spans="1:39" s="49" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A538" s="5">
+        <v>537</v>
+      </c>
+      <c r="B538" s="49">
+        <v>10454</v>
+      </c>
+      <c r="F538" s="49">
+        <v>1</v>
+      </c>
+      <c r="G538" s="49" t="s">
+        <v>2034</v>
+      </c>
+      <c r="I538" s="49" t="s">
+        <v>2039</v>
+      </c>
+      <c r="J538" s="49" t="s">
+        <v>1287</v>
+      </c>
+      <c r="L538" s="49">
+        <v>-31</v>
+      </c>
+      <c r="M538" s="49">
+        <v>0</v>
+      </c>
+      <c r="N538" s="49">
+        <v>0</v>
+      </c>
+      <c r="O538" s="49" t="s">
+        <v>2040</v>
+      </c>
+      <c r="P538" s="49">
+        <v>19800</v>
+      </c>
+      <c r="Q538" s="49" t="s">
+        <v>1288</v>
+      </c>
+      <c r="R538" s="64" t="s">
+        <v>1289</v>
+      </c>
+      <c r="W538" s="49" t="s">
+        <v>2028</v>
+      </c>
+      <c r="X538" s="49">
+        <v>9999999</v>
+      </c>
+      <c r="Y538" s="49">
+        <v>1611619200</v>
+      </c>
+      <c r="Z538" s="49">
+        <v>1612195199</v>
+      </c>
+      <c r="AA538" s="49">
+        <v>74</v>
+      </c>
+      <c r="AH538" s="49">
+        <v>1</v>
+      </c>
+      <c r="AI538" s="49">
+        <v>1</v>
+      </c>
+      <c r="AL538" s="49">
+        <v>1</v>
+      </c>
+      <c r="AM538" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="539" spans="1:39" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A539" s="5">
+        <v>538</v>
+      </c>
+      <c r="B539" s="47">
+        <v>10455</v>
+      </c>
+      <c r="F539" s="47">
+        <v>1</v>
+      </c>
+      <c r="G539" s="47" t="s">
+        <v>2030</v>
+      </c>
+      <c r="I539" s="47" t="s">
+        <v>2041</v>
+      </c>
+      <c r="J539" s="47" t="s">
+        <v>1291</v>
+      </c>
+      <c r="L539" s="47">
+        <v>-31</v>
+      </c>
+      <c r="M539" s="47">
+        <v>0</v>
+      </c>
+      <c r="N539" s="47">
+        <v>0</v>
+      </c>
+      <c r="O539" s="47" t="s">
+        <v>481</v>
+      </c>
+      <c r="P539" s="47">
+        <v>9800</v>
+      </c>
+      <c r="Q539" s="47" t="s">
+        <v>2042</v>
+      </c>
+      <c r="R539" s="63" t="s">
+        <v>1285</v>
+      </c>
+      <c r="W539" s="47" t="s">
+        <v>2028</v>
+      </c>
+      <c r="X539" s="47">
+        <v>9999999</v>
+      </c>
+      <c r="Y539" s="47">
+        <v>1611619200</v>
+      </c>
+      <c r="Z539" s="47">
+        <v>1612195199</v>
+      </c>
+      <c r="AA539" s="47">
+        <v>75</v>
+      </c>
+      <c r="AH539" s="47">
+        <v>1</v>
+      </c>
+      <c r="AI539" s="47">
+        <v>1</v>
+      </c>
+      <c r="AL539" s="47">
+        <v>1</v>
+      </c>
+      <c r="AM539" s="47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="540" spans="1:39" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A540" s="5">
+        <v>539</v>
+      </c>
+      <c r="B540" s="47">
+        <v>10456</v>
+      </c>
+      <c r="F540" s="47">
+        <v>1</v>
+      </c>
+      <c r="G540" s="47" t="s">
+        <v>2032</v>
+      </c>
+      <c r="I540" s="47" t="s">
+        <v>2041</v>
+      </c>
+      <c r="J540" s="47" t="s">
+        <v>1295</v>
+      </c>
+      <c r="L540" s="47">
+        <v>-31</v>
+      </c>
+      <c r="M540" s="47">
+        <v>0</v>
+      </c>
+      <c r="N540" s="47">
+        <v>0</v>
+      </c>
+      <c r="O540" s="47" t="s">
+        <v>2040</v>
+      </c>
+      <c r="P540" s="47">
+        <v>19800</v>
+      </c>
+      <c r="Q540" s="47" t="s">
+        <v>2043</v>
+      </c>
+      <c r="R540" s="63" t="s">
+        <v>1289</v>
+      </c>
+      <c r="W540" s="47" t="s">
+        <v>2028</v>
+      </c>
+      <c r="X540" s="47">
+        <v>9999999</v>
+      </c>
+      <c r="Y540" s="47">
+        <v>1611619200</v>
+      </c>
+      <c r="Z540" s="47">
+        <v>1612195199</v>
+      </c>
+      <c r="AA540" s="47">
+        <v>75</v>
+      </c>
+      <c r="AH540" s="47">
+        <v>1</v>
+      </c>
+      <c r="AI540" s="47">
+        <v>1</v>
+      </c>
+      <c r="AL540" s="47">
+        <v>1</v>
+      </c>
+      <c r="AM540" s="47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="541" spans="1:39" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A541" s="5">
+        <v>540</v>
+      </c>
+      <c r="B541" s="47">
+        <v>10457</v>
+      </c>
+      <c r="F541" s="47">
+        <v>1</v>
+      </c>
+      <c r="G541" s="47" t="s">
+        <v>2034</v>
+      </c>
+      <c r="I541" s="47" t="s">
+        <v>1290</v>
+      </c>
+      <c r="J541" s="47" t="s">
+        <v>1298</v>
+      </c>
+      <c r="L541" s="47">
+        <v>-31</v>
+      </c>
+      <c r="M541" s="47">
+        <v>0</v>
+      </c>
+      <c r="N541" s="47">
+        <v>0</v>
+      </c>
+      <c r="O541" s="47" t="s">
+        <v>481</v>
+      </c>
+      <c r="P541" s="47">
+        <v>49800</v>
+      </c>
+      <c r="Q541" s="47" t="s">
+        <v>1300</v>
+      </c>
+      <c r="R541" s="63" t="s">
+        <v>1301</v>
+      </c>
+      <c r="W541" s="47" t="s">
+        <v>2031</v>
+      </c>
+      <c r="X541" s="47">
+        <v>9999999</v>
+      </c>
+      <c r="Y541" s="47">
+        <v>1611619200</v>
+      </c>
+      <c r="Z541" s="47">
+        <v>1612195199</v>
+      </c>
+      <c r="AA541" s="47">
+        <v>75</v>
+      </c>
+      <c r="AH541" s="47">
+        <v>1</v>
+      </c>
+      <c r="AI541" s="47">
+        <v>1</v>
+      </c>
+      <c r="AL541" s="47">
+        <v>1</v>
+      </c>
+      <c r="AM541" s="47">
         <v>1</v>
       </c>
     </row>
@@ -45588,10 +46241,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E73"/>
+  <dimension ref="A1:E76"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="I67" sqref="I67"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="B72" sqref="B72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -46591,13 +47244,13 @@
       <c r="A71" s="12">
         <v>70</v>
       </c>
-      <c r="B71" s="61" t="s">
-        <v>2017</v>
-      </c>
-      <c r="C71" s="62">
-        <v>1</v>
-      </c>
-      <c r="D71" s="62">
+      <c r="B71" s="57" t="s">
+        <v>2046</v>
+      </c>
+      <c r="C71" s="58">
+        <v>1</v>
+      </c>
+      <c r="D71" s="58">
         <v>0</v>
       </c>
     </row>
@@ -46605,13 +47258,13 @@
       <c r="A72" s="12">
         <v>71</v>
       </c>
-      <c r="B72" s="61" t="s">
-        <v>2018</v>
-      </c>
-      <c r="C72" s="62">
-        <v>1</v>
-      </c>
-      <c r="D72" s="62">
+      <c r="B72" s="57" t="s">
+        <v>2047</v>
+      </c>
+      <c r="C72" s="58">
+        <v>1</v>
+      </c>
+      <c r="D72" s="58">
         <v>0</v>
       </c>
     </row>
@@ -46619,13 +47272,55 @@
       <c r="A73" s="12">
         <v>72</v>
       </c>
-      <c r="B73" s="61" t="s">
-        <v>2019</v>
-      </c>
-      <c r="C73" s="62">
-        <v>1</v>
-      </c>
-      <c r="D73" s="62">
+      <c r="B73" s="57" t="s">
+        <v>2048</v>
+      </c>
+      <c r="C73" s="58">
+        <v>1</v>
+      </c>
+      <c r="D73" s="58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74" s="12">
+        <v>73</v>
+      </c>
+      <c r="B74" s="57" t="s">
+        <v>2049</v>
+      </c>
+      <c r="C74" s="58">
+        <v>1</v>
+      </c>
+      <c r="D74" s="58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75" s="12">
+        <v>74</v>
+      </c>
+      <c r="B75" s="57" t="s">
+        <v>2050</v>
+      </c>
+      <c r="C75" s="58">
+        <v>1</v>
+      </c>
+      <c r="D75" s="58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76" s="12">
+        <v>75</v>
+      </c>
+      <c r="B76" s="57" t="s">
+        <v>2044</v>
+      </c>
+      <c r="C76" s="58">
+        <v>1</v>
+      </c>
+      <c r="D76" s="58">
         <v>0</v>
       </c>
     </row>

--- a/config_Release/shoping_config_xiaomi.xlsx
+++ b/config_Release/shoping_config_xiaomi.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_2.2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="tge|标签配置" sheetId="6" r:id="rId1"/>
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4408" uniqueCount="2051">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4457" uniqueCount="2076">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -8697,31 +8697,131 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
+    <t>600000,20000,1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>一帆风顺</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>新年福袋</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>新年福袋</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"9980万金币","300万小游戏币","铁锹*5",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_tiny_game_coin","prop_guess_apple_bet_3",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>86400,1,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>二龙腾飞</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"4980万金币","150万小游戏币","铁锹*2",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>49800000,1500000,2,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>三阳开泰</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"2980万金币","90万小游戏币","阳光*12",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_tiny_game_coin","prop_guess_apple_bet_2",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>29800000,900000,12,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>四季发财</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"1980万金币","60万小游戏币","阳光*8",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>五福临门</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"980万金币","30万小游戏币","阳光*5",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>9800000,300000,5,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>六六大顺</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"480万金币","15万小游戏币","水滴*8",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_tiny_game_coin","prop_guess_apple_bet_1",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4800000,150000,8,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>七星高照</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"180万金币","10万小游戏币","水滴*5",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1800000,100000,5,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{type="permission_class",class_value = "fclb_free_001" }</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{type="permission_class",class_value = "fclb_v1v7_001" }</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{type="permission_class",class_value = "fclb_v8v12_001" }</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{type="permission_class",class_value = "golden_egg_1" }</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{type="permission_class",class_value = "golden_egg_2" }</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>{type="permission_class",class_value = "golden_egg_3" }</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>600000,20000,1,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>{type="permission_class",class_value = "fclb_free_001" }</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>{type="permission_class",class_value = "fclb_v1v7_001" }</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>{type="permission_class",class_value = "fclb_v8v12_001" }</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>{type="permission_class",class_value = "golden_egg_1" }</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>{type="permission_class",class_value = "golden_egg_2" }</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -8800,7 +8900,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -8861,6 +8961,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -8904,7 +9010,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -9098,6 +9204,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -11552,13 +11667,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN541"/>
+  <dimension ref="A1:AN548"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="W510" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="7" ySplit="1" topLeftCell="W525" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AA537" sqref="AA537"/>
+      <selection pane="bottomRight" activeCell="AA547" sqref="AA547:AA548"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -44841,7 +44956,7 @@
         <v>1973</v>
       </c>
       <c r="R521" s="10" t="s">
-        <v>2045</v>
+        <v>2044</v>
       </c>
       <c r="W521" s="5" t="s">
         <v>1974</v>
@@ -45671,7 +45786,7 @@
       <c r="Z533" s="47">
         <v>1612195199</v>
       </c>
-      <c r="AA533" s="47">
+      <c r="AA533" s="5">
         <v>73</v>
       </c>
       <c r="AH533" s="47">
@@ -45739,7 +45854,7 @@
       <c r="Z534" s="47">
         <v>1612195199</v>
       </c>
-      <c r="AA534" s="47">
+      <c r="AA534" s="5">
         <v>73</v>
       </c>
       <c r="AH534" s="47">
@@ -45807,7 +45922,7 @@
       <c r="Z535" s="47">
         <v>1612195199</v>
       </c>
-      <c r="AA535" s="47">
+      <c r="AA535" s="5">
         <v>73</v>
       </c>
       <c r="AH535" s="47">
@@ -45875,7 +45990,7 @@
       <c r="Z536" s="49">
         <v>1612195199</v>
       </c>
-      <c r="AA536" s="49">
+      <c r="AA536" s="5">
         <v>74</v>
       </c>
       <c r="AH536" s="49">
@@ -45943,7 +46058,7 @@
       <c r="Z537" s="49">
         <v>1612195199</v>
       </c>
-      <c r="AA537" s="49">
+      <c r="AA537" s="5">
         <v>74</v>
       </c>
       <c r="AH537" s="49">
@@ -46011,7 +46126,7 @@
       <c r="Z538" s="49">
         <v>1612195199</v>
       </c>
-      <c r="AA538" s="49">
+      <c r="AA538" s="5">
         <v>74</v>
       </c>
       <c r="AH538" s="49">
@@ -46079,7 +46194,7 @@
       <c r="Z539" s="47">
         <v>1612195199</v>
       </c>
-      <c r="AA539" s="47">
+      <c r="AA539" s="5">
         <v>75</v>
       </c>
       <c r="AH539" s="47">
@@ -46147,7 +46262,7 @@
       <c r="Z540" s="47">
         <v>1612195199</v>
       </c>
-      <c r="AA540" s="47">
+      <c r="AA540" s="5">
         <v>75</v>
       </c>
       <c r="AH540" s="47">
@@ -46215,7 +46330,7 @@
       <c r="Z541" s="47">
         <v>1612195199</v>
       </c>
-      <c r="AA541" s="47">
+      <c r="AA541" s="5">
         <v>75</v>
       </c>
       <c r="AH541" s="47">
@@ -46228,6 +46343,524 @@
         <v>1</v>
       </c>
       <c r="AM541" s="47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="542" spans="1:39" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A542" s="5">
+        <v>541</v>
+      </c>
+      <c r="B542" s="65">
+        <v>10458</v>
+      </c>
+      <c r="C542" s="65"/>
+      <c r="D542" s="65"/>
+      <c r="E542" s="65"/>
+      <c r="F542" s="65">
+        <v>1</v>
+      </c>
+      <c r="G542" s="65" t="s">
+        <v>2045</v>
+      </c>
+      <c r="H542" s="65"/>
+      <c r="I542" s="65" t="s">
+        <v>2047</v>
+      </c>
+      <c r="J542" s="65" t="s">
+        <v>2048</v>
+      </c>
+      <c r="K542" s="65"/>
+      <c r="L542" s="65">
+        <v>-31</v>
+      </c>
+      <c r="M542" s="65">
+        <v>0</v>
+      </c>
+      <c r="N542" s="65">
+        <v>0</v>
+      </c>
+      <c r="O542" s="65" t="s">
+        <v>481</v>
+      </c>
+      <c r="P542" s="65">
+        <v>99800</v>
+      </c>
+      <c r="Q542" s="65" t="s">
+        <v>2049</v>
+      </c>
+      <c r="R542" s="66" t="s">
+        <v>1488</v>
+      </c>
+      <c r="S542" s="65"/>
+      <c r="T542" s="65"/>
+      <c r="U542" s="65"/>
+      <c r="V542" s="65"/>
+      <c r="W542" s="65" t="s">
+        <v>2050</v>
+      </c>
+      <c r="X542" s="65">
+        <v>9999999</v>
+      </c>
+      <c r="Y542" s="67">
+        <v>1612224000</v>
+      </c>
+      <c r="Z542" s="67">
+        <v>1612799999</v>
+      </c>
+      <c r="AH542" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI542" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL542" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM542" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="543" spans="1:39" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A543" s="5">
+        <v>542</v>
+      </c>
+      <c r="B543" s="65">
+        <v>10459</v>
+      </c>
+      <c r="C543" s="65"/>
+      <c r="D543" s="65"/>
+      <c r="E543" s="65"/>
+      <c r="F543" s="65">
+        <v>1</v>
+      </c>
+      <c r="G543" s="65" t="s">
+        <v>2051</v>
+      </c>
+      <c r="H543" s="65"/>
+      <c r="I543" s="65" t="s">
+        <v>2047</v>
+      </c>
+      <c r="J543" s="65" t="s">
+        <v>2052</v>
+      </c>
+      <c r="K543" s="65"/>
+      <c r="L543" s="65">
+        <v>-31</v>
+      </c>
+      <c r="M543" s="65">
+        <v>0</v>
+      </c>
+      <c r="N543" s="65">
+        <v>0</v>
+      </c>
+      <c r="O543" s="65" t="s">
+        <v>100</v>
+      </c>
+      <c r="P543" s="65">
+        <v>49800</v>
+      </c>
+      <c r="Q543" s="65" t="s">
+        <v>2049</v>
+      </c>
+      <c r="R543" s="66" t="s">
+        <v>2053</v>
+      </c>
+      <c r="S543" s="65"/>
+      <c r="T543" s="65"/>
+      <c r="U543" s="65"/>
+      <c r="V543" s="65"/>
+      <c r="W543" s="65" t="s">
+        <v>527</v>
+      </c>
+      <c r="X543" s="65">
+        <v>9999999</v>
+      </c>
+      <c r="Y543" s="67">
+        <v>1612224000</v>
+      </c>
+      <c r="Z543" s="67">
+        <v>1612799999</v>
+      </c>
+      <c r="AH543" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI543" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL543" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM543" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="544" spans="1:39" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A544" s="5">
+        <v>543</v>
+      </c>
+      <c r="B544" s="65">
+        <v>10460</v>
+      </c>
+      <c r="C544" s="65"/>
+      <c r="D544" s="65"/>
+      <c r="E544" s="65"/>
+      <c r="F544" s="65">
+        <v>1</v>
+      </c>
+      <c r="G544" s="65" t="s">
+        <v>2054</v>
+      </c>
+      <c r="H544" s="65"/>
+      <c r="I544" s="65" t="s">
+        <v>2046</v>
+      </c>
+      <c r="J544" s="65" t="s">
+        <v>2055</v>
+      </c>
+      <c r="K544" s="65"/>
+      <c r="L544" s="65">
+        <v>-31</v>
+      </c>
+      <c r="M544" s="65">
+        <v>0</v>
+      </c>
+      <c r="N544" s="65">
+        <v>0</v>
+      </c>
+      <c r="O544" s="65" t="s">
+        <v>100</v>
+      </c>
+      <c r="P544" s="65">
+        <v>29800</v>
+      </c>
+      <c r="Q544" s="65" t="s">
+        <v>2056</v>
+      </c>
+      <c r="R544" s="66" t="s">
+        <v>2057</v>
+      </c>
+      <c r="S544" s="65"/>
+      <c r="T544" s="65"/>
+      <c r="U544" s="65"/>
+      <c r="V544" s="65"/>
+      <c r="W544" s="65" t="s">
+        <v>527</v>
+      </c>
+      <c r="X544" s="65">
+        <v>9999999</v>
+      </c>
+      <c r="Y544" s="67">
+        <v>1612224000</v>
+      </c>
+      <c r="Z544" s="67">
+        <v>1612799999</v>
+      </c>
+      <c r="AH544" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI544" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL544" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM544" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="545" spans="1:39" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A545" s="5">
+        <v>544</v>
+      </c>
+      <c r="B545" s="65">
+        <v>10461</v>
+      </c>
+      <c r="C545" s="65"/>
+      <c r="D545" s="65"/>
+      <c r="E545" s="65"/>
+      <c r="F545" s="65">
+        <v>1</v>
+      </c>
+      <c r="G545" s="65" t="s">
+        <v>2058</v>
+      </c>
+      <c r="H545" s="65"/>
+      <c r="I545" s="65" t="s">
+        <v>2047</v>
+      </c>
+      <c r="J545" s="65" t="s">
+        <v>2059</v>
+      </c>
+      <c r="K545" s="65"/>
+      <c r="L545" s="65">
+        <v>-31</v>
+      </c>
+      <c r="M545" s="65">
+        <v>0</v>
+      </c>
+      <c r="N545" s="65">
+        <v>0</v>
+      </c>
+      <c r="O545" s="65" t="s">
+        <v>100</v>
+      </c>
+      <c r="P545" s="65">
+        <v>19800</v>
+      </c>
+      <c r="Q545" s="65" t="s">
+        <v>2056</v>
+      </c>
+      <c r="R545" s="66" t="s">
+        <v>1345</v>
+      </c>
+      <c r="S545" s="65"/>
+      <c r="T545" s="65"/>
+      <c r="U545" s="65"/>
+      <c r="V545" s="65"/>
+      <c r="W545" s="65" t="s">
+        <v>527</v>
+      </c>
+      <c r="X545" s="65">
+        <v>9999999</v>
+      </c>
+      <c r="Y545" s="67">
+        <v>1612224000</v>
+      </c>
+      <c r="Z545" s="67">
+        <v>1612799999</v>
+      </c>
+      <c r="AH545" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI545" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL545" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM545" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="546" spans="1:39" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A546" s="5">
+        <v>545</v>
+      </c>
+      <c r="B546" s="65">
+        <v>10462</v>
+      </c>
+      <c r="C546" s="65"/>
+      <c r="D546" s="65"/>
+      <c r="E546" s="65"/>
+      <c r="F546" s="65">
+        <v>1</v>
+      </c>
+      <c r="G546" s="65" t="s">
+        <v>2060</v>
+      </c>
+      <c r="H546" s="65"/>
+      <c r="I546" s="65" t="s">
+        <v>2047</v>
+      </c>
+      <c r="J546" s="65" t="s">
+        <v>2061</v>
+      </c>
+      <c r="K546" s="65"/>
+      <c r="L546" s="65">
+        <v>-31</v>
+      </c>
+      <c r="M546" s="65">
+        <v>0</v>
+      </c>
+      <c r="N546" s="65">
+        <v>0</v>
+      </c>
+      <c r="O546" s="65" t="s">
+        <v>100</v>
+      </c>
+      <c r="P546" s="65">
+        <v>9800</v>
+      </c>
+      <c r="Q546" s="65" t="s">
+        <v>1472</v>
+      </c>
+      <c r="R546" s="66" t="s">
+        <v>2062</v>
+      </c>
+      <c r="S546" s="65"/>
+      <c r="T546" s="65"/>
+      <c r="U546" s="65"/>
+      <c r="V546" s="65"/>
+      <c r="W546" s="65" t="s">
+        <v>527</v>
+      </c>
+      <c r="X546" s="65">
+        <v>9999999</v>
+      </c>
+      <c r="Y546" s="67">
+        <v>1612224000</v>
+      </c>
+      <c r="Z546" s="67">
+        <v>1612799999</v>
+      </c>
+      <c r="AH546" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI546" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL546" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM546" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="547" spans="1:39" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A547" s="5">
+        <v>546</v>
+      </c>
+      <c r="B547" s="65">
+        <v>10463</v>
+      </c>
+      <c r="C547" s="65"/>
+      <c r="D547" s="65"/>
+      <c r="E547" s="65"/>
+      <c r="F547" s="65">
+        <v>1</v>
+      </c>
+      <c r="G547" s="65" t="s">
+        <v>2063</v>
+      </c>
+      <c r="H547" s="65"/>
+      <c r="I547" s="65" t="s">
+        <v>2047</v>
+      </c>
+      <c r="J547" s="65" t="s">
+        <v>2064</v>
+      </c>
+      <c r="K547" s="65"/>
+      <c r="L547" s="65">
+        <v>-31</v>
+      </c>
+      <c r="M547" s="65">
+        <v>0</v>
+      </c>
+      <c r="N547" s="65">
+        <v>0</v>
+      </c>
+      <c r="O547" s="65" t="s">
+        <v>100</v>
+      </c>
+      <c r="P547" s="65">
+        <v>4800</v>
+      </c>
+      <c r="Q547" s="65" t="s">
+        <v>2065</v>
+      </c>
+      <c r="R547" s="66" t="s">
+        <v>2066</v>
+      </c>
+      <c r="S547" s="65"/>
+      <c r="T547" s="65"/>
+      <c r="U547" s="65"/>
+      <c r="V547" s="65"/>
+      <c r="W547" s="65" t="s">
+        <v>527</v>
+      </c>
+      <c r="X547" s="65">
+        <v>9999999</v>
+      </c>
+      <c r="Y547" s="67">
+        <v>1612224000</v>
+      </c>
+      <c r="Z547" s="67">
+        <v>1612799999</v>
+      </c>
+      <c r="AH547" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI547" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL547" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM547" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="548" spans="1:39" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A548" s="5">
+        <v>547</v>
+      </c>
+      <c r="B548" s="65">
+        <v>10464</v>
+      </c>
+      <c r="C548" s="65"/>
+      <c r="D548" s="65"/>
+      <c r="E548" s="65"/>
+      <c r="F548" s="65">
+        <v>1</v>
+      </c>
+      <c r="G548" s="65" t="s">
+        <v>2067</v>
+      </c>
+      <c r="H548" s="65"/>
+      <c r="I548" s="65" t="s">
+        <v>2047</v>
+      </c>
+      <c r="J548" s="65" t="s">
+        <v>2068</v>
+      </c>
+      <c r="K548" s="65"/>
+      <c r="L548" s="65">
+        <v>-31</v>
+      </c>
+      <c r="M548" s="65">
+        <v>0</v>
+      </c>
+      <c r="N548" s="65">
+        <v>0</v>
+      </c>
+      <c r="O548" s="65" t="s">
+        <v>100</v>
+      </c>
+      <c r="P548" s="65">
+        <v>1800</v>
+      </c>
+      <c r="Q548" s="65" t="s">
+        <v>2065</v>
+      </c>
+      <c r="R548" s="66" t="s">
+        <v>2069</v>
+      </c>
+      <c r="S548" s="65"/>
+      <c r="T548" s="65"/>
+      <c r="U548" s="65"/>
+      <c r="V548" s="65"/>
+      <c r="W548" s="65" t="s">
+        <v>527</v>
+      </c>
+      <c r="X548" s="65">
+        <v>9999999</v>
+      </c>
+      <c r="Y548" s="67">
+        <v>1612224000</v>
+      </c>
+      <c r="Z548" s="67">
+        <v>1612799999</v>
+      </c>
+      <c r="AH548" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI548" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL548" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM548" s="5">
         <v>1</v>
       </c>
     </row>
@@ -46243,8 +46876,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="B72" sqref="B72"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="B75" sqref="B75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -47245,7 +47878,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="57" t="s">
-        <v>2046</v>
+        <v>2070</v>
       </c>
       <c r="C71" s="58">
         <v>1</v>
@@ -47259,7 +47892,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="57" t="s">
-        <v>2047</v>
+        <v>2071</v>
       </c>
       <c r="C72" s="58">
         <v>1</v>
@@ -47273,7 +47906,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="57" t="s">
-        <v>2048</v>
+        <v>2072</v>
       </c>
       <c r="C73" s="58">
         <v>1</v>
@@ -47287,7 +47920,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="57" t="s">
-        <v>2049</v>
+        <v>2073</v>
       </c>
       <c r="C74" s="58">
         <v>1</v>
@@ -47301,7 +47934,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="57" t="s">
-        <v>2050</v>
+        <v>2074</v>
       </c>
       <c r="C75" s="58">
         <v>1</v>
@@ -47315,7 +47948,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="57" t="s">
-        <v>2044</v>
+        <v>2075</v>
       </c>
       <c r="C76" s="58">
         <v>1</v>

--- a/config_Release/shoping_config_xiaomi.xlsx
+++ b/config_Release/shoping_config_xiaomi.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_3.2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="tge|标签配置" sheetId="6" r:id="rId1"/>
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4576" uniqueCount="2132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4669" uniqueCount="2173">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -8941,6 +8941,14 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
+    <t>1元</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1元</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>财神商铺</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -8997,6 +9005,179 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
+    <t>女神礼包-捕鱼</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>女神礼包-捕鱼</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_3d_fish_doubled","prop_ty_csbox",</t>
+  </si>
+  <si>
+    <t>50200000,10,15,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"2010万金币","双倍奖励卡*6","传说宝箱*5",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_3d_fish_doubled","prop_ty_ssbox",</t>
+  </si>
+  <si>
+    <t>"488万金币","双倍奖励卡*2","稀有宝箱*3",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_3d_fish_doubled","prop_ty_xybox",</t>
+  </si>
+  <si>
+    <t>女神礼包-冲金鸡</t>
+  </si>
+  <si>
+    <t>"jing_bi","prop_guess_apple_bet_2","prop_ty_csbox",</t>
+  </si>
+  <si>
+    <t>86400,1,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>20000000,2,5,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_guess_apple_bet_1","prop_ty_ssbox",</t>
+  </si>
+  <si>
+    <t>86400,1,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"488万金币","水滴*2","稀有宝箱*3",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>gift_bag</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_guess_apple_bet_1","prop_ty_xybox",</t>
+  </si>
+  <si>
+    <t>4880000,4,3,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>coupon_gift_id|优惠券礼包ID</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>商城内充值满50抵扣5元</t>
+  </si>
+  <si>
+    <t>"500万金币",</t>
+  </si>
+  <si>
+    <t>gift_bag</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","obj_5_coupon",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>5000000,-1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>商城内充值满98抵扣10元</t>
+  </si>
+  <si>
+    <t>"980万金币",</t>
+  </si>
+  <si>
+    <t>gift_bag</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","obj_10_coupon",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>9800000,-1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>商城内充值满198抵扣20元</t>
+  </si>
+  <si>
+    <t>"1980万金币",</t>
+  </si>
+  <si>
+    <t>"jing_bi","obj_20_coupon",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>19800000,-1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>商城内充值满498抵扣50元</t>
+  </si>
+  <si>
+    <t>"4980万金币",</t>
+  </si>
+  <si>
+    <t>"jing_bi","obj_50_coupon",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>49800000,-1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>商城内充值满998抵扣100元</t>
+  </si>
+  <si>
+    <t>"9980万金币",</t>
+  </si>
+  <si>
+    <t>"jing_bi","obj_100_coupon",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>99800000,-1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>商城内充值满2498抵扣200元</t>
+  </si>
+  <si>
+    <t>"24980万金币",</t>
+  </si>
+  <si>
+    <t>"jing_bi","obj_200_coupon",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>249800000,-1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>幸运金币6元</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -9010,42 +9191,6 @@
   </si>
   <si>
     <t>{type="permission_class",class_value = "fclb_v8v12_002" }</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>财神商铺--1元--早</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>财神商铺--18元--早</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>财神商铺--48元--早</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>财神商铺--1元--中</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>财神商铺--28元--中</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>财神商铺--98元--中</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>财神商铺--1元--晚</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>财神商铺--48元--晚</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>财神商铺--198元--晚</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -9124,7 +9269,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -9185,24 +9330,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -9246,7 +9373,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -9442,29 +9569,14 @@
     <xf numFmtId="49" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -9927,10 +10039,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF32"/>
+  <dimension ref="A1:AG32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9938,32 +10050,32 @@
     <col min="1" max="1" width="8.75" style="2"/>
     <col min="2" max="4" width="19.375" style="2" customWidth="1"/>
     <col min="5" max="5" width="26.125" style="23" customWidth="1"/>
-    <col min="6" max="7" width="19.375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="14.875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="40.375" style="2" customWidth="1"/>
-    <col min="10" max="10" width="30.125" style="2" customWidth="1"/>
-    <col min="11" max="11" width="30.375" style="2" customWidth="1"/>
-    <col min="12" max="12" width="30.125" style="2" customWidth="1"/>
-    <col min="13" max="13" width="11.625" style="2" customWidth="1"/>
-    <col min="14" max="14" width="30.125" style="2" customWidth="1"/>
-    <col min="15" max="17" width="14.875" style="2" customWidth="1"/>
-    <col min="18" max="18" width="19.375" style="2" customWidth="1"/>
-    <col min="19" max="19" width="8.75" style="2"/>
-    <col min="20" max="20" width="28.75" style="2" customWidth="1"/>
-    <col min="21" max="21" width="16.875" style="2" customWidth="1"/>
-    <col min="22" max="22" width="24.375" style="2" customWidth="1"/>
-    <col min="23" max="23" width="16.75" style="2" customWidth="1"/>
-    <col min="24" max="24" width="15.625" style="2" customWidth="1"/>
-    <col min="25" max="25" width="19.25" style="2" customWidth="1"/>
-    <col min="26" max="26" width="13" style="2" customWidth="1"/>
-    <col min="27" max="27" width="19.25" style="2" customWidth="1"/>
-    <col min="28" max="28" width="13" style="2" customWidth="1"/>
-    <col min="29" max="30" width="12.125" style="2" customWidth="1"/>
-    <col min="31" max="32" width="21.375" style="2" customWidth="1"/>
-    <col min="33" max="16384" width="8.75" style="2"/>
+    <col min="6" max="8" width="19.375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="14.875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="40.375" style="2" customWidth="1"/>
+    <col min="11" max="11" width="30.125" style="2" customWidth="1"/>
+    <col min="12" max="12" width="30.375" style="2" customWidth="1"/>
+    <col min="13" max="13" width="30.125" style="2" customWidth="1"/>
+    <col min="14" max="14" width="11.625" style="2" customWidth="1"/>
+    <col min="15" max="15" width="30.125" style="2" customWidth="1"/>
+    <col min="16" max="18" width="14.875" style="2" customWidth="1"/>
+    <col min="19" max="19" width="19.375" style="2" customWidth="1"/>
+    <col min="20" max="20" width="8.75" style="2"/>
+    <col min="21" max="21" width="28.75" style="2" customWidth="1"/>
+    <col min="22" max="22" width="16.875" style="2" customWidth="1"/>
+    <col min="23" max="23" width="24.375" style="2" customWidth="1"/>
+    <col min="24" max="24" width="16.75" style="2" customWidth="1"/>
+    <col min="25" max="25" width="15.625" style="2" customWidth="1"/>
+    <col min="26" max="26" width="19.25" style="2" customWidth="1"/>
+    <col min="27" max="27" width="13" style="2" customWidth="1"/>
+    <col min="28" max="28" width="19.25" style="2" customWidth="1"/>
+    <col min="29" max="29" width="13" style="2" customWidth="1"/>
+    <col min="30" max="31" width="12.125" style="2" customWidth="1"/>
+    <col min="32" max="33" width="21.375" style="2" customWidth="1"/>
+    <col min="34" max="16384" width="8.75" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" s="1" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:33" s="1" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9983,85 +10095,88 @@
         <v>14</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>2139</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>1032</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:32" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:33" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="11">
         <v>1</v>
       </c>
@@ -10078,72 +10193,73 @@
       <c r="F2" s="2">
         <v>10330</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="2"/>
+      <c r="H2" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="H2" s="11">
+      <c r="I2" s="11">
         <v>600</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="J2" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="K2" s="11" t="s">
         <v>1013</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="L2" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="L2" s="44" t="s">
+      <c r="M2" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="M2" s="11" t="s">
+      <c r="N2" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="45">
-        <v>1</v>
-      </c>
-      <c r="O2" s="2">
-        <v>1</v>
-      </c>
-      <c r="P2" s="11">
-        <v>0</v>
+      <c r="O2" s="45">
+        <v>1</v>
+      </c>
+      <c r="P2" s="2">
+        <v>1</v>
       </c>
       <c r="Q2" s="11">
         <v>0</v>
       </c>
-      <c r="R2" s="2">
-        <v>1</v>
+      <c r="R2" s="11">
+        <v>0</v>
       </c>
       <c r="S2" s="2">
         <v>1</v>
       </c>
-      <c r="T2" s="33" t="s">
+      <c r="T2" s="2">
+        <v>1</v>
+      </c>
+      <c r="U2" s="33" t="s">
         <v>1033</v>
       </c>
-      <c r="U2" s="33" t="s">
+      <c r="V2" s="33" t="s">
         <v>1014</v>
       </c>
-      <c r="V2" s="11"/>
-      <c r="W2" s="33" t="s">
+      <c r="W2" s="11"/>
+      <c r="X2" s="33" t="s">
         <v>1034</v>
       </c>
-      <c r="X2" s="11" t="s">
+      <c r="Y2" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="Y2" s="3" t="s">
+      <c r="Z2" s="3" t="s">
         <v>626</v>
       </c>
-      <c r="Z2" s="3" t="s">
+      <c r="AA2" s="3" t="s">
         <v>1035</v>
       </c>
-      <c r="AC2" s="11">
-        <v>1</v>
-      </c>
       <c r="AD2" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:32" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AE2" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="11">
         <v>2</v>
       </c>
@@ -10160,72 +10276,73 @@
       <c r="F3" s="2">
         <v>85</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="2"/>
+      <c r="H3" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="H3" s="11">
+      <c r="I3" s="11">
         <v>1500</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="J3" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="J3" s="11" t="s">
+      <c r="K3" s="11" t="s">
         <v>1015</v>
       </c>
-      <c r="K3" s="11" t="s">
+      <c r="L3" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="L3" s="44" t="s">
+      <c r="M3" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="M3" s="11" t="s">
+      <c r="N3" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="N3" s="45">
-        <v>1</v>
-      </c>
-      <c r="O3" s="2">
+      <c r="O3" s="45">
+        <v>1</v>
+      </c>
+      <c r="P3" s="2">
         <v>2</v>
       </c>
-      <c r="P3" s="11">
-        <v>0</v>
-      </c>
       <c r="Q3" s="11">
         <v>0</v>
       </c>
-      <c r="R3" s="2">
-        <v>1</v>
+      <c r="R3" s="11">
+        <v>0</v>
       </c>
       <c r="S3" s="2">
+        <v>1</v>
+      </c>
+      <c r="T3" s="2">
         <v>2</v>
       </c>
-      <c r="T3" s="33" t="s">
+      <c r="U3" s="33" t="s">
         <v>1036</v>
       </c>
-      <c r="U3" s="33" t="s">
+      <c r="V3" s="33" t="s">
         <v>1016</v>
       </c>
-      <c r="V3" s="11"/>
-      <c r="W3" s="33" t="s">
+      <c r="W3" s="11"/>
+      <c r="X3" s="33" t="s">
         <v>1034</v>
       </c>
-      <c r="X3" s="11" t="s">
+      <c r="Y3" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="Y3" s="2" t="s">
+      <c r="Z3" s="2" t="s">
         <v>627</v>
       </c>
-      <c r="Z3" s="2" t="s">
+      <c r="AA3" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="AC3" s="11">
-        <v>1</v>
-      </c>
       <c r="AD3" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:32" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AE3" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="11">
         <v>3</v>
       </c>
@@ -10242,72 +10359,73 @@
       <c r="F4" s="2">
         <v>86</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="2"/>
+      <c r="H4" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="H4" s="11">
+      <c r="I4" s="11">
         <v>3000</v>
       </c>
-      <c r="I4" s="11" t="s">
+      <c r="J4" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="J4" s="11" t="s">
+      <c r="K4" s="11" t="s">
         <v>1017</v>
       </c>
-      <c r="K4" s="11" t="s">
+      <c r="L4" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="L4" s="44" t="s">
+      <c r="M4" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="M4" s="11" t="s">
+      <c r="N4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="N4" s="45">
-        <v>1</v>
-      </c>
-      <c r="O4" s="2">
+      <c r="O4" s="45">
+        <v>1</v>
+      </c>
+      <c r="P4" s="2">
         <v>3</v>
       </c>
-      <c r="P4" s="11">
-        <v>0</v>
-      </c>
       <c r="Q4" s="11">
         <v>0</v>
       </c>
-      <c r="R4" s="2">
-        <v>1</v>
+      <c r="R4" s="11">
+        <v>0</v>
       </c>
       <c r="S4" s="2">
+        <v>1</v>
+      </c>
+      <c r="T4" s="2">
         <v>3</v>
       </c>
-      <c r="T4" s="33" t="s">
+      <c r="U4" s="33" t="s">
         <v>1037</v>
       </c>
-      <c r="U4" s="33" t="s">
+      <c r="V4" s="33" t="s">
         <v>1038</v>
       </c>
-      <c r="V4" s="11"/>
-      <c r="W4" s="33" t="s">
+      <c r="W4" s="11"/>
+      <c r="X4" s="33" t="s">
         <v>1034</v>
       </c>
-      <c r="X4" s="11" t="s">
+      <c r="Y4" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="Y4" s="2" t="s">
+      <c r="Z4" s="2" t="s">
         <v>628</v>
       </c>
-      <c r="Z4" s="2" t="s">
+      <c r="AA4" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="AC4" s="11">
-        <v>1</v>
-      </c>
       <c r="AD4" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:32" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AE4" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="11">
         <v>4</v>
       </c>
@@ -10324,72 +10442,75 @@
       <c r="F5" s="2">
         <v>87</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="G5" s="2">
+        <v>10490</v>
+      </c>
+      <c r="H5" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="H5" s="11">
+      <c r="I5" s="11">
         <v>5000</v>
       </c>
-      <c r="I5" s="11" t="s">
+      <c r="J5" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="J5" s="11" t="s">
+      <c r="K5" s="11" t="s">
         <v>1018</v>
       </c>
-      <c r="K5" s="11" t="s">
+      <c r="L5" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="L5" s="44" t="s">
+      <c r="M5" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="M5" s="11" t="s">
+      <c r="N5" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="N5" s="45">
-        <v>1</v>
-      </c>
-      <c r="O5" s="2">
+      <c r="O5" s="45">
+        <v>1</v>
+      </c>
+      <c r="P5" s="2">
         <v>4</v>
       </c>
-      <c r="P5" s="11">
-        <v>0</v>
-      </c>
       <c r="Q5" s="11">
         <v>0</v>
       </c>
-      <c r="R5" s="2">
-        <v>1</v>
+      <c r="R5" s="11">
+        <v>0</v>
       </c>
       <c r="S5" s="2">
+        <v>1</v>
+      </c>
+      <c r="T5" s="2">
         <v>4</v>
       </c>
-      <c r="T5" s="33" t="s">
+      <c r="U5" s="33" t="s">
         <v>1019</v>
       </c>
-      <c r="U5" s="33" t="s">
+      <c r="V5" s="33" t="s">
         <v>1039</v>
       </c>
-      <c r="V5" s="11"/>
-      <c r="W5" s="33" t="s">
+      <c r="W5" s="11"/>
+      <c r="X5" s="33" t="s">
         <v>1034</v>
       </c>
-      <c r="X5" s="11" t="s">
+      <c r="Y5" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="Y5" s="2" t="s">
+      <c r="Z5" s="2" t="s">
         <v>629</v>
       </c>
-      <c r="Z5" s="2" t="s">
+      <c r="AA5" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="AC5" s="11">
-        <v>1</v>
-      </c>
       <c r="AD5" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:32" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AE5" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -10406,72 +10527,75 @@
       <c r="F6" s="2">
         <v>88</v>
       </c>
-      <c r="G6" s="11" t="s">
+      <c r="G6" s="2">
+        <v>10491</v>
+      </c>
+      <c r="H6" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="H6" s="11">
+      <c r="I6" s="11">
         <v>9800</v>
       </c>
-      <c r="I6" s="11" t="s">
+      <c r="J6" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="J6" s="11" t="s">
+      <c r="K6" s="11" t="s">
         <v>1020</v>
       </c>
-      <c r="K6" s="11" t="s">
+      <c r="L6" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="L6" s="44" t="s">
+      <c r="M6" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="M6" s="11" t="s">
+      <c r="N6" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="N6" s="45">
-        <v>1</v>
-      </c>
-      <c r="O6" s="2">
+      <c r="O6" s="45">
+        <v>1</v>
+      </c>
+      <c r="P6" s="2">
         <v>5</v>
       </c>
-      <c r="P6" s="11">
-        <v>0</v>
-      </c>
       <c r="Q6" s="11">
         <v>0</v>
       </c>
-      <c r="R6" s="2">
-        <v>1</v>
+      <c r="R6" s="11">
+        <v>0</v>
       </c>
       <c r="S6" s="2">
+        <v>1</v>
+      </c>
+      <c r="T6" s="2">
         <v>5</v>
-      </c>
-      <c r="T6" s="33" t="s">
-        <v>1040</v>
       </c>
       <c r="U6" s="33" t="s">
         <v>1040</v>
       </c>
-      <c r="V6" s="11"/>
-      <c r="W6" s="33" t="s">
+      <c r="V6" s="33" t="s">
+        <v>1040</v>
+      </c>
+      <c r="W6" s="11"/>
+      <c r="X6" s="33" t="s">
         <v>1034</v>
       </c>
-      <c r="X6" s="11" t="s">
+      <c r="Y6" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="Y6" s="2" t="s">
+      <c r="Z6" s="2" t="s">
         <v>630</v>
       </c>
-      <c r="Z6" s="2" t="s">
+      <c r="AA6" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="AC6" s="11">
-        <v>1</v>
-      </c>
       <c r="AD6" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:32" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AE6" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -10488,72 +10612,75 @@
       <c r="F7" s="2">
         <v>89</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="G7" s="2">
+        <v>10493</v>
+      </c>
+      <c r="H7" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="H7" s="11">
+      <c r="I7" s="11">
         <v>49800</v>
       </c>
-      <c r="I7" s="11" t="s">
+      <c r="J7" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="J7" s="11" t="s">
+      <c r="K7" s="11" t="s">
         <v>1021</v>
       </c>
-      <c r="K7" s="11" t="s">
+      <c r="L7" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="L7" s="44" t="s">
+      <c r="M7" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="M7" s="11" t="s">
+      <c r="N7" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="N7" s="11">
-        <v>1</v>
-      </c>
-      <c r="O7" s="2">
+      <c r="O7" s="11">
+        <v>1</v>
+      </c>
+      <c r="P7" s="2">
         <v>7</v>
       </c>
-      <c r="P7" s="11">
-        <v>0</v>
-      </c>
       <c r="Q7" s="11">
         <v>0</v>
       </c>
-      <c r="R7" s="2">
-        <v>1</v>
+      <c r="R7" s="11">
+        <v>0</v>
       </c>
       <c r="S7" s="2">
+        <v>1</v>
+      </c>
+      <c r="T7" s="2">
         <v>7</v>
       </c>
-      <c r="T7" s="33" t="s">
+      <c r="U7" s="33" t="s">
         <v>1022</v>
       </c>
-      <c r="U7" s="33" t="s">
+      <c r="V7" s="33" t="s">
         <v>1041</v>
       </c>
-      <c r="V7" s="11"/>
-      <c r="W7" s="33" t="s">
+      <c r="W7" s="11"/>
+      <c r="X7" s="33" t="s">
         <v>1034</v>
       </c>
-      <c r="X7" s="11" t="s">
+      <c r="Y7" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="Y7" s="2" t="s">
+      <c r="Z7" s="2" t="s">
         <v>631</v>
       </c>
-      <c r="Z7" s="2" t="s">
+      <c r="AA7" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="AC7" s="11">
-        <v>1</v>
-      </c>
       <c r="AD7" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:32" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AE7" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="11">
         <v>7</v>
       </c>
@@ -10570,72 +10697,73 @@
       <c r="F8" s="2">
         <v>109</v>
       </c>
-      <c r="G8" s="11" t="s">
+      <c r="G8" s="2"/>
+      <c r="H8" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="H8" s="11">
+      <c r="I8" s="11">
         <v>100000</v>
       </c>
-      <c r="I8" s="11" t="s">
+      <c r="J8" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="J8" s="11" t="s">
+      <c r="K8" s="11" t="s">
         <v>1023</v>
       </c>
-      <c r="K8" s="11" t="s">
+      <c r="L8" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="L8" s="44" t="s">
+      <c r="M8" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="M8" s="11" t="s">
+      <c r="N8" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="N8" s="45">
-        <v>1</v>
-      </c>
-      <c r="O8" s="2">
+      <c r="O8" s="45">
+        <v>1</v>
+      </c>
+      <c r="P8" s="2">
         <v>9</v>
       </c>
-      <c r="P8" s="11">
-        <v>0</v>
-      </c>
       <c r="Q8" s="11">
         <v>0</v>
       </c>
-      <c r="R8" s="2">
+      <c r="R8" s="11">
         <v>0</v>
       </c>
       <c r="S8" s="2">
+        <v>0</v>
+      </c>
+      <c r="T8" s="2">
         <v>8</v>
       </c>
-      <c r="T8" s="33" t="s">
+      <c r="U8" s="33" t="s">
         <v>1042</v>
       </c>
-      <c r="U8" s="33" t="s">
+      <c r="V8" s="33" t="s">
         <v>1043</v>
       </c>
-      <c r="V8" s="11"/>
-      <c r="W8" s="33" t="s">
+      <c r="W8" s="11"/>
+      <c r="X8" s="33" t="s">
         <v>1034</v>
       </c>
-      <c r="X8" s="11" t="s">
+      <c r="Y8" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="Y8" s="2" t="s">
+      <c r="Z8" s="2" t="s">
         <v>632</v>
       </c>
-      <c r="Z8" s="2" t="s">
+      <c r="AA8" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="AC8" s="11">
-        <v>1</v>
-      </c>
       <c r="AD8" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:32" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AE8" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="11">
         <v>8</v>
       </c>
@@ -10652,71 +10780,74 @@
       <c r="F9" s="2">
         <v>10044</v>
       </c>
-      <c r="G9" s="11" t="s">
+      <c r="G9" s="2">
+        <v>10494</v>
+      </c>
+      <c r="H9" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="H9" s="11">
+      <c r="I9" s="11">
         <v>99800</v>
       </c>
-      <c r="I9" s="11" t="s">
+      <c r="J9" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="J9" s="33" t="s">
+      <c r="K9" s="33" t="s">
         <v>1030</v>
       </c>
-      <c r="K9" s="11" t="s">
+      <c r="L9" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="L9" s="44" t="s">
+      <c r="M9" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="M9" s="11" t="s">
+      <c r="N9" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="N9" s="45">
-        <v>1</v>
-      </c>
-      <c r="O9" s="2">
+      <c r="O9" s="45">
+        <v>1</v>
+      </c>
+      <c r="P9" s="2">
         <v>8</v>
       </c>
-      <c r="P9" s="11">
-        <v>0</v>
-      </c>
       <c r="Q9" s="11">
         <v>0</v>
       </c>
-      <c r="R9" s="2">
-        <v>1</v>
+      <c r="R9" s="11">
+        <v>0</v>
       </c>
       <c r="S9" s="2">
+        <v>1</v>
+      </c>
+      <c r="T9" s="2">
         <v>9</v>
-      </c>
-      <c r="T9" s="33" t="s">
-        <v>1044</v>
       </c>
       <c r="U9" s="33" t="s">
         <v>1044</v>
       </c>
-      <c r="W9" s="33" t="s">
+      <c r="V9" s="33" t="s">
+        <v>1044</v>
+      </c>
+      <c r="X9" s="33" t="s">
         <v>1045</v>
       </c>
-      <c r="X9" s="11" t="s">
+      <c r="Y9" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="Y9" s="2" t="s">
+      <c r="Z9" s="2" t="s">
         <v>632</v>
       </c>
-      <c r="Z9" s="2" t="s">
+      <c r="AA9" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="AC9" s="11">
-        <v>1</v>
-      </c>
       <c r="AD9" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:32" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AE9" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -10733,71 +10864,74 @@
       <c r="F10" s="11">
         <v>10045</v>
       </c>
-      <c r="G10" s="11" t="s">
+      <c r="G10" s="11">
+        <v>10495</v>
+      </c>
+      <c r="H10" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="H10" s="11">
+      <c r="I10" s="11">
         <v>249800</v>
       </c>
-      <c r="I10" s="11" t="s">
+      <c r="J10" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="J10" s="33" t="s">
+      <c r="K10" s="33" t="s">
         <v>1046</v>
       </c>
-      <c r="K10" s="11" t="s">
+      <c r="L10" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="L10" s="44" t="s">
+      <c r="M10" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="M10" s="11" t="s">
+      <c r="N10" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="N10" s="45">
-        <v>1</v>
-      </c>
-      <c r="O10" s="11">
+      <c r="O10" s="45">
+        <v>1</v>
+      </c>
+      <c r="P10" s="11">
         <v>10</v>
       </c>
-      <c r="P10" s="11">
-        <v>0</v>
-      </c>
       <c r="Q10" s="11">
         <v>0</v>
       </c>
       <c r="R10" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S10" s="11">
+        <v>1</v>
+      </c>
+      <c r="T10" s="11">
         <v>10</v>
-      </c>
-      <c r="T10" s="33" t="s">
-        <v>1047</v>
       </c>
       <c r="U10" s="33" t="s">
         <v>1047</v>
       </c>
-      <c r="W10" s="33" t="s">
+      <c r="V10" s="33" t="s">
+        <v>1047</v>
+      </c>
+      <c r="X10" s="33" t="s">
         <v>1045</v>
       </c>
-      <c r="X10" s="11" t="s">
+      <c r="Y10" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="Y10" s="11" t="s">
+      <c r="Z10" s="11" t="s">
         <v>633</v>
       </c>
-      <c r="Z10" s="11" t="s">
+      <c r="AA10" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="AC10" s="11">
-        <v>1</v>
-      </c>
       <c r="AD10" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AE10" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -10816,71 +10950,72 @@
       <c r="F11" s="11">
         <v>90</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="G11" s="11"/>
+      <c r="H11" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H11" s="2">
+      <c r="I11" s="2">
         <v>600</v>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="J11" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="J11" s="2" t="s">
+      <c r="K11" s="2" t="s">
         <v>1025</v>
       </c>
-      <c r="K11" s="2" t="s">
+      <c r="L11" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="L11" s="44" t="s">
+      <c r="M11" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="M11" s="2" t="s">
+      <c r="N11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N11" s="2">
-        <v>1</v>
-      </c>
-      <c r="O11" s="11">
-        <v>1</v>
-      </c>
-      <c r="P11" s="2">
-        <v>0</v>
+      <c r="O11" s="2">
+        <v>1</v>
+      </c>
+      <c r="P11" s="11">
+        <v>1</v>
       </c>
       <c r="Q11" s="2">
         <v>0</v>
       </c>
-      <c r="R11" s="11">
-        <v>1</v>
+      <c r="R11" s="2">
+        <v>0</v>
       </c>
       <c r="S11" s="11">
         <v>1</v>
       </c>
-      <c r="T11" s="2" t="s">
+      <c r="T11" s="11">
+        <v>1</v>
+      </c>
+      <c r="U11" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="U11" s="2">
+      <c r="V11" s="2">
         <v>400</v>
       </c>
-      <c r="W11" s="2" t="s">
+      <c r="X11" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="X11" s="2" t="s">
+      <c r="Y11" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="Y11" s="33" t="s">
+      <c r="Z11" s="33" t="s">
         <v>626</v>
       </c>
-      <c r="Z11" s="11" t="s">
+      <c r="AA11" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="AC11" s="2">
-        <v>1</v>
-      </c>
       <c r="AD11" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AE11" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -10897,71 +11032,72 @@
         <v>61</v>
       </c>
       <c r="F12" s="11"/>
-      <c r="G12" s="2" t="s">
+      <c r="G12" s="11"/>
+      <c r="H12" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H12" s="2">
+      <c r="I12" s="2">
         <v>3000</v>
       </c>
-      <c r="I12" s="2" t="s">
+      <c r="J12" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="J12" s="2" t="s">
+      <c r="K12" s="2" t="s">
         <v>1026</v>
       </c>
-      <c r="K12" s="2" t="s">
+      <c r="L12" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="L12" s="44" t="s">
+      <c r="M12" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="M12" s="2" t="s">
+      <c r="N12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N12" s="2">
-        <v>1</v>
-      </c>
-      <c r="O12" s="11">
+      <c r="O12" s="2">
+        <v>1</v>
+      </c>
+      <c r="P12" s="11">
         <v>2</v>
       </c>
-      <c r="P12" s="2">
-        <v>0</v>
-      </c>
       <c r="Q12" s="2">
         <v>0</v>
       </c>
-      <c r="R12" s="11">
-        <v>1</v>
+      <c r="R12" s="2">
+        <v>0</v>
       </c>
       <c r="S12" s="11">
+        <v>1</v>
+      </c>
+      <c r="T12" s="11">
         <v>2</v>
       </c>
-      <c r="T12" s="2" t="s">
+      <c r="U12" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="U12" s="2">
+      <c r="V12" s="2">
         <v>2000</v>
       </c>
-      <c r="W12" s="2" t="s">
+      <c r="X12" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="X12" s="2" t="s">
+      <c r="Y12" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="Y12" s="11" t="s">
+      <c r="Z12" s="11" t="s">
         <v>628</v>
       </c>
-      <c r="Z12" s="11" t="s">
+      <c r="AA12" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="AC12" s="2">
-        <v>1</v>
-      </c>
       <c r="AD12" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AE12" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -10978,71 +11114,72 @@
         <v>64</v>
       </c>
       <c r="F13" s="11"/>
-      <c r="G13" s="2" t="s">
+      <c r="G13" s="11"/>
+      <c r="H13" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H13" s="2">
+      <c r="I13" s="2">
         <v>9800</v>
       </c>
-      <c r="I13" s="2" t="s">
+      <c r="J13" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="J13" s="2" t="s">
+      <c r="K13" s="2" t="s">
         <v>1027</v>
       </c>
-      <c r="K13" s="2" t="s">
+      <c r="L13" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="L13" s="44" t="s">
+      <c r="M13" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="M13" s="2" t="s">
+      <c r="N13" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N13" s="2">
-        <v>1</v>
-      </c>
-      <c r="O13" s="11">
+      <c r="O13" s="2">
+        <v>1</v>
+      </c>
+      <c r="P13" s="11">
         <v>3</v>
       </c>
-      <c r="P13" s="2">
-        <v>0</v>
-      </c>
       <c r="Q13" s="2">
         <v>0</v>
       </c>
-      <c r="R13" s="11">
-        <v>1</v>
+      <c r="R13" s="2">
+        <v>0</v>
       </c>
       <c r="S13" s="11">
+        <v>1</v>
+      </c>
+      <c r="T13" s="11">
         <v>3</v>
       </c>
-      <c r="T13" s="2" t="s">
+      <c r="U13" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="U13" s="2">
+      <c r="V13" s="2">
         <v>6700</v>
       </c>
-      <c r="W13" s="2" t="s">
+      <c r="X13" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="X13" s="2" t="s">
+      <c r="Y13" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="Y13" s="11" t="s">
+      <c r="Z13" s="11" t="s">
         <v>630</v>
       </c>
-      <c r="Z13" s="11" t="s">
+      <c r="AA13" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="AC13" s="2">
-        <v>1</v>
-      </c>
       <c r="AD13" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AE13" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -11059,71 +11196,72 @@
         <v>67</v>
       </c>
       <c r="F14" s="11"/>
-      <c r="G14" s="2" t="s">
+      <c r="G14" s="11"/>
+      <c r="H14" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H14" s="2">
+      <c r="I14" s="2">
         <v>19800</v>
       </c>
-      <c r="I14" s="2" t="s">
+      <c r="J14" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="J14" s="2" t="s">
+      <c r="K14" s="2" t="s">
         <v>1028</v>
       </c>
-      <c r="K14" s="2" t="s">
+      <c r="L14" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="L14" s="44" t="s">
+      <c r="M14" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="M14" s="2" t="s">
+      <c r="N14" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N14" s="2">
-        <v>1</v>
-      </c>
-      <c r="O14" s="11">
+      <c r="O14" s="2">
+        <v>1</v>
+      </c>
+      <c r="P14" s="11">
         <v>4</v>
       </c>
-      <c r="P14" s="2">
-        <v>0</v>
-      </c>
       <c r="Q14" s="2">
         <v>0</v>
       </c>
-      <c r="R14" s="11">
-        <v>1</v>
+      <c r="R14" s="2">
+        <v>0</v>
       </c>
       <c r="S14" s="11">
+        <v>1</v>
+      </c>
+      <c r="T14" s="11">
         <v>4</v>
       </c>
-      <c r="T14" s="2" t="s">
+      <c r="U14" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="U14" s="2" t="s">
+      <c r="V14" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="W14" s="2" t="s">
+      <c r="X14" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="X14" s="2" t="s">
+      <c r="Y14" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="Y14" s="11" t="s">
+      <c r="Z14" s="11" t="s">
         <v>634</v>
       </c>
-      <c r="Z14" s="11" t="s">
+      <c r="AA14" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="AC14" s="2">
-        <v>1</v>
-      </c>
       <c r="AD14" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AE14" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -11140,71 +11278,72 @@
         <v>71</v>
       </c>
       <c r="F15" s="11"/>
-      <c r="G15" s="2" t="s">
+      <c r="G15" s="11"/>
+      <c r="H15" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H15" s="2">
+      <c r="I15" s="2">
         <v>29800</v>
       </c>
-      <c r="I15" s="2" t="s">
+      <c r="J15" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="J15" s="2" t="s">
+      <c r="K15" s="2" t="s">
         <v>1029</v>
       </c>
-      <c r="K15" s="2" t="s">
+      <c r="L15" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="L15" s="44" t="s">
+      <c r="M15" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="M15" s="2" t="s">
+      <c r="N15" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N15" s="2">
-        <v>1</v>
-      </c>
-      <c r="O15" s="11">
+      <c r="O15" s="2">
+        <v>1</v>
+      </c>
+      <c r="P15" s="11">
         <v>5</v>
       </c>
-      <c r="P15" s="2">
-        <v>0</v>
-      </c>
       <c r="Q15" s="2">
         <v>0</v>
       </c>
-      <c r="R15" s="11">
-        <v>1</v>
+      <c r="R15" s="2">
+        <v>0</v>
       </c>
       <c r="S15" s="11">
+        <v>1</v>
+      </c>
+      <c r="T15" s="11">
         <v>5</v>
       </c>
-      <c r="T15" s="2" t="s">
+      <c r="U15" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="U15" s="2" t="s">
+      <c r="V15" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="W15" s="2" t="s">
+      <c r="X15" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="X15" s="2" t="s">
+      <c r="Y15" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="Y15" s="11" t="s">
+      <c r="Z15" s="11" t="s">
         <v>634</v>
       </c>
-      <c r="Z15" s="11" t="s">
+      <c r="AA15" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="AC15" s="2">
-        <v>1</v>
-      </c>
       <c r="AD15" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AE15" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -11221,71 +11360,72 @@
         <v>75</v>
       </c>
       <c r="F16" s="11"/>
-      <c r="G16" s="2" t="s">
+      <c r="G16" s="11"/>
+      <c r="H16" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H16" s="2">
+      <c r="I16" s="2">
         <v>100</v>
       </c>
-      <c r="I16" s="2" t="s">
+      <c r="J16" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="J16" s="3" t="s">
+      <c r="K16" s="3" t="s">
         <v>1031</v>
       </c>
-      <c r="K16" s="2" t="s">
+      <c r="L16" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="L16" s="2" t="s">
+      <c r="M16" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="M16" s="2" t="s">
+      <c r="N16" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N16" s="2">
-        <v>1</v>
-      </c>
-      <c r="O16" s="11">
+      <c r="O16" s="2">
+        <v>1</v>
+      </c>
+      <c r="P16" s="11">
         <v>11</v>
       </c>
-      <c r="P16" s="2">
-        <v>0</v>
-      </c>
       <c r="Q16" s="2">
         <v>0</v>
       </c>
-      <c r="R16" s="11">
+      <c r="R16" s="2">
         <v>0</v>
       </c>
       <c r="S16" s="11">
         <v>0</v>
       </c>
-      <c r="T16" s="3" t="s">
+      <c r="T16" s="11">
+        <v>0</v>
+      </c>
+      <c r="U16" s="3" t="s">
         <v>1048</v>
       </c>
-      <c r="U16" s="2">
+      <c r="V16" s="2">
         <v>66</v>
       </c>
-      <c r="W16" s="2" t="s">
+      <c r="X16" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="X16" s="2" t="s">
+      <c r="Y16" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="Y16" s="33" t="s">
+      <c r="Z16" s="33" t="s">
         <v>626</v>
       </c>
-      <c r="Z16" s="11" t="s">
+      <c r="AA16" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="AC16" s="2">
-        <v>1</v>
-      </c>
       <c r="AD16" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -11295,71 +11435,72 @@
       <c r="C17" s="11"/>
       <c r="E17" s="46"/>
       <c r="F17" s="11"/>
-      <c r="G17" s="2" t="s">
+      <c r="G17" s="11"/>
+      <c r="H17" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H17" s="2">
+      <c r="I17" s="2">
         <v>600</v>
       </c>
-      <c r="I17" s="2" t="s">
+      <c r="J17" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="J17" s="33" t="s">
+      <c r="K17" s="33" t="s">
         <v>1049</v>
       </c>
-      <c r="K17" s="2" t="s">
+      <c r="L17" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="L17" s="2" t="s">
+      <c r="M17" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="M17" s="2" t="s">
+      <c r="N17" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="N17" s="2">
-        <v>1</v>
-      </c>
-      <c r="O17" s="11">
-        <v>1</v>
-      </c>
-      <c r="P17" s="2">
+      <c r="O17" s="2">
+        <v>1</v>
+      </c>
+      <c r="P17" s="11">
         <v>1</v>
       </c>
       <c r="Q17" s="2">
         <v>1</v>
       </c>
-      <c r="R17" s="11">
-        <v>0</v>
+      <c r="R17" s="2">
+        <v>1</v>
       </c>
       <c r="S17" s="11">
-        <v>1</v>
-      </c>
-      <c r="T17" s="3" t="s">
-        <v>1835</v>
+        <v>0</v>
+      </c>
+      <c r="T17" s="11">
+        <v>1</v>
       </c>
       <c r="U17" s="3" t="s">
         <v>1835</v>
       </c>
-      <c r="W17" s="2" t="s">
+      <c r="V17" s="3" t="s">
+        <v>1835</v>
+      </c>
+      <c r="X17" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="X17" s="2" t="s">
+      <c r="Y17" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="Y17" s="33" t="s">
+      <c r="Z17" s="33" t="s">
         <v>626</v>
       </c>
-      <c r="Z17" s="11" t="s">
+      <c r="AA17" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="AC17" s="2">
-        <v>1</v>
-      </c>
       <c r="AD17" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE17" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -11369,71 +11510,72 @@
       <c r="C18" s="11"/>
       <c r="E18" s="46"/>
       <c r="F18" s="11"/>
-      <c r="G18" s="2" t="s">
+      <c r="G18" s="11"/>
+      <c r="H18" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H18" s="2">
+      <c r="I18" s="2">
         <v>1500</v>
       </c>
-      <c r="I18" s="2" t="s">
+      <c r="J18" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="J18" s="33" t="s">
+      <c r="K18" s="33" t="s">
         <v>1050</v>
       </c>
-      <c r="K18" s="2" t="s">
+      <c r="L18" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="L18" s="2" t="s">
+      <c r="M18" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="M18" s="2" t="s">
+      <c r="N18" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="N18" s="2">
-        <v>1</v>
-      </c>
-      <c r="O18" s="11">
+      <c r="O18" s="2">
+        <v>1</v>
+      </c>
+      <c r="P18" s="11">
         <v>2</v>
       </c>
-      <c r="P18" s="2">
-        <v>0</v>
-      </c>
       <c r="Q18" s="2">
         <v>0</v>
       </c>
-      <c r="R18" s="11">
+      <c r="R18" s="2">
         <v>0</v>
       </c>
       <c r="S18" s="11">
+        <v>0</v>
+      </c>
+      <c r="T18" s="11">
         <v>2</v>
-      </c>
-      <c r="T18" s="3" t="s">
-        <v>1873</v>
       </c>
       <c r="U18" s="3" t="s">
         <v>1873</v>
       </c>
-      <c r="W18" s="2" t="s">
+      <c r="V18" s="3" t="s">
+        <v>1873</v>
+      </c>
+      <c r="X18" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="X18" s="2" t="s">
+      <c r="Y18" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="Y18" s="11" t="s">
+      <c r="Z18" s="11" t="s">
         <v>627</v>
       </c>
-      <c r="Z18" s="11" t="s">
+      <c r="AA18" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="AC18" s="2">
-        <v>1</v>
-      </c>
       <c r="AD18" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE18" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -11443,71 +11585,72 @@
       <c r="C19" s="11"/>
       <c r="E19" s="46"/>
       <c r="F19" s="11"/>
-      <c r="G19" s="2" t="s">
+      <c r="G19" s="11"/>
+      <c r="H19" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H19" s="2">
+      <c r="I19" s="2">
         <v>3000</v>
       </c>
-      <c r="I19" s="2" t="s">
+      <c r="J19" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="J19" s="33" t="s">
+      <c r="K19" s="33" t="s">
         <v>1051</v>
       </c>
-      <c r="K19" s="2" t="s">
+      <c r="L19" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="L19" s="2" t="s">
+      <c r="M19" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="M19" s="2" t="s">
+      <c r="N19" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="N19" s="2">
-        <v>1</v>
-      </c>
-      <c r="O19" s="11">
+      <c r="O19" s="2">
+        <v>1</v>
+      </c>
+      <c r="P19" s="11">
         <v>3</v>
       </c>
-      <c r="P19" s="2">
-        <v>1</v>
-      </c>
       <c r="Q19" s="2">
         <v>1</v>
       </c>
-      <c r="R19" s="11">
-        <v>0</v>
+      <c r="R19" s="2">
+        <v>1</v>
       </c>
       <c r="S19" s="11">
+        <v>0</v>
+      </c>
+      <c r="T19" s="11">
         <v>3</v>
-      </c>
-      <c r="T19" s="3" t="s">
-        <v>1874</v>
       </c>
       <c r="U19" s="3" t="s">
         <v>1874</v>
       </c>
-      <c r="W19" s="2" t="s">
+      <c r="V19" s="3" t="s">
+        <v>1874</v>
+      </c>
+      <c r="X19" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="X19" s="2" t="s">
+      <c r="Y19" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="Y19" s="11" t="s">
+      <c r="Z19" s="11" t="s">
         <v>628</v>
       </c>
-      <c r="Z19" s="11" t="s">
+      <c r="AA19" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="AC19" s="2">
-        <v>1</v>
-      </c>
       <c r="AD19" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -11517,71 +11660,72 @@
       <c r="C20" s="11"/>
       <c r="E20" s="46"/>
       <c r="F20" s="11"/>
-      <c r="G20" s="2" t="s">
+      <c r="G20" s="11"/>
+      <c r="H20" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H20" s="2">
+      <c r="I20" s="2">
         <v>5000</v>
       </c>
-      <c r="I20" s="2" t="s">
+      <c r="J20" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="J20" s="33" t="s">
+      <c r="K20" s="33" t="s">
         <v>1052</v>
       </c>
-      <c r="K20" s="2" t="s">
+      <c r="L20" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="L20" s="2" t="s">
+      <c r="M20" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="M20" s="2" t="s">
+      <c r="N20" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="N20" s="2">
-        <v>1</v>
-      </c>
-      <c r="O20" s="11">
+      <c r="O20" s="2">
+        <v>1</v>
+      </c>
+      <c r="P20" s="11">
         <v>4</v>
       </c>
-      <c r="P20" s="2">
-        <v>1</v>
-      </c>
       <c r="Q20" s="2">
         <v>1</v>
       </c>
-      <c r="R20" s="11">
-        <v>0</v>
+      <c r="R20" s="2">
+        <v>1</v>
       </c>
       <c r="S20" s="11">
+        <v>0</v>
+      </c>
+      <c r="T20" s="11">
         <v>4</v>
-      </c>
-      <c r="T20" s="3" t="s">
-        <v>1875</v>
       </c>
       <c r="U20" s="3" t="s">
         <v>1875</v>
       </c>
-      <c r="W20" s="2" t="s">
+      <c r="V20" s="3" t="s">
+        <v>1875</v>
+      </c>
+      <c r="X20" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="X20" s="2" t="s">
+      <c r="Y20" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="Y20" s="11" t="s">
+      <c r="Z20" s="11" t="s">
         <v>629</v>
       </c>
-      <c r="Z20" s="11" t="s">
+      <c r="AA20" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="AC20" s="2">
-        <v>1</v>
-      </c>
       <c r="AD20" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE20" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -11591,71 +11735,72 @@
       <c r="C21" s="11"/>
       <c r="E21" s="46"/>
       <c r="F21" s="11"/>
-      <c r="G21" s="2" t="s">
+      <c r="G21" s="11"/>
+      <c r="H21" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H21" s="2">
+      <c r="I21" s="2">
         <v>9800</v>
       </c>
-      <c r="I21" s="2" t="s">
+      <c r="J21" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="J21" s="33" t="s">
+      <c r="K21" s="33" t="s">
         <v>1053</v>
       </c>
-      <c r="K21" s="2" t="s">
+      <c r="L21" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="L21" s="2" t="s">
+      <c r="M21" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="M21" s="2" t="s">
+      <c r="N21" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="N21" s="2">
-        <v>1</v>
-      </c>
-      <c r="O21" s="11">
+      <c r="O21" s="2">
+        <v>1</v>
+      </c>
+      <c r="P21" s="11">
         <v>5</v>
       </c>
-      <c r="P21" s="2">
-        <v>1</v>
-      </c>
       <c r="Q21" s="2">
         <v>1</v>
       </c>
-      <c r="R21" s="11">
-        <v>0</v>
+      <c r="R21" s="2">
+        <v>1</v>
       </c>
       <c r="S21" s="11">
+        <v>0</v>
+      </c>
+      <c r="T21" s="11">
         <v>5</v>
-      </c>
-      <c r="T21" s="3" t="s">
-        <v>1876</v>
       </c>
       <c r="U21" s="3" t="s">
         <v>1876</v>
       </c>
-      <c r="W21" s="2" t="s">
+      <c r="V21" s="3" t="s">
+        <v>1876</v>
+      </c>
+      <c r="X21" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="X21" s="2" t="s">
+      <c r="Y21" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="Y21" s="11" t="s">
+      <c r="Z21" s="11" t="s">
         <v>630</v>
       </c>
-      <c r="Z21" s="11" t="s">
+      <c r="AA21" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="AC21" s="2">
-        <v>1</v>
-      </c>
       <c r="AD21" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE21" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -11665,71 +11810,72 @@
       <c r="C22" s="11"/>
       <c r="E22" s="46"/>
       <c r="F22" s="11"/>
-      <c r="G22" s="2" t="s">
+      <c r="G22" s="11"/>
+      <c r="H22" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H22" s="2">
+      <c r="I22" s="2">
         <v>49800</v>
       </c>
-      <c r="I22" s="2" t="s">
+      <c r="J22" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="J22" s="33" t="s">
+      <c r="K22" s="33" t="s">
         <v>1054</v>
       </c>
-      <c r="K22" s="2" t="s">
+      <c r="L22" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="L22" s="2" t="s">
+      <c r="M22" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="M22" s="2" t="s">
+      <c r="N22" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="N22" s="2">
-        <v>1</v>
-      </c>
-      <c r="O22" s="11">
+      <c r="O22" s="2">
+        <v>1</v>
+      </c>
+      <c r="P22" s="11">
         <v>6</v>
       </c>
-      <c r="P22" s="2">
-        <v>1</v>
-      </c>
       <c r="Q22" s="2">
         <v>1</v>
       </c>
-      <c r="R22" s="11">
-        <v>0</v>
+      <c r="R22" s="2">
+        <v>1</v>
       </c>
       <c r="S22" s="11">
+        <v>0</v>
+      </c>
+      <c r="T22" s="11">
         <v>6</v>
-      </c>
-      <c r="T22" s="3" t="s">
-        <v>1877</v>
       </c>
       <c r="U22" s="3" t="s">
         <v>1877</v>
       </c>
-      <c r="W22" s="2" t="s">
+      <c r="V22" s="3" t="s">
+        <v>1877</v>
+      </c>
+      <c r="X22" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="X22" s="2" t="s">
+      <c r="Y22" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="Y22" s="11" t="s">
+      <c r="Z22" s="11" t="s">
         <v>631</v>
       </c>
-      <c r="Z22" s="11" t="s">
+      <c r="AA22" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="AC22" s="2">
-        <v>1</v>
-      </c>
       <c r="AD22" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE22" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -11739,71 +11885,72 @@
       <c r="C23" s="11"/>
       <c r="E23" s="46"/>
       <c r="F23" s="11"/>
-      <c r="G23" s="2" t="s">
+      <c r="G23" s="11"/>
+      <c r="H23" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H23" s="2">
+      <c r="I23" s="2">
         <v>100000</v>
       </c>
-      <c r="I23" s="2" t="s">
+      <c r="J23" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="J23" s="33" t="s">
+      <c r="K23" s="33" t="s">
         <v>1055</v>
       </c>
-      <c r="K23" s="2" t="s">
+      <c r="L23" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="L23" s="2" t="s">
+      <c r="M23" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="M23" s="2" t="s">
+      <c r="N23" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="N23" s="2">
-        <v>1</v>
-      </c>
-      <c r="O23" s="11">
+      <c r="O23" s="2">
+        <v>1</v>
+      </c>
+      <c r="P23" s="11">
         <v>7</v>
       </c>
-      <c r="P23" s="2">
-        <v>0</v>
-      </c>
       <c r="Q23" s="2">
         <v>0</v>
       </c>
-      <c r="R23" s="11">
+      <c r="R23" s="2">
         <v>0</v>
       </c>
       <c r="S23" s="11">
+        <v>0</v>
+      </c>
+      <c r="T23" s="11">
         <v>7</v>
-      </c>
-      <c r="T23" s="3" t="s">
-        <v>1878</v>
       </c>
       <c r="U23" s="3" t="s">
         <v>1878</v>
       </c>
-      <c r="W23" s="2" t="s">
+      <c r="V23" s="3" t="s">
+        <v>1878</v>
+      </c>
+      <c r="X23" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="X23" s="2" t="s">
+      <c r="Y23" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="Y23" s="11" t="s">
+      <c r="Z23" s="11" t="s">
         <v>632</v>
       </c>
-      <c r="Z23" s="11" t="s">
+      <c r="AA23" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="AC23" s="2">
-        <v>1</v>
-      </c>
       <c r="AD23" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE23" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -11820,92 +11967,95 @@
       <c r="F24" s="11">
         <v>10189</v>
       </c>
-      <c r="G24" s="2" t="s">
+      <c r="G24" s="11">
+        <v>10492</v>
+      </c>
+      <c r="H24" s="2" t="s">
         <v>1056</v>
       </c>
-      <c r="H24" s="11">
+      <c r="I24" s="11">
         <v>19800</v>
       </c>
-      <c r="I24" s="2" t="s">
+      <c r="J24" s="2" t="s">
         <v>1057</v>
       </c>
-      <c r="J24" s="3" t="s">
+      <c r="K24" s="3" t="s">
         <v>1360</v>
       </c>
-      <c r="K24" s="2" t="s">
+      <c r="L24" s="2" t="s">
         <v>1058</v>
       </c>
-      <c r="L24" s="2" t="s">
+      <c r="M24" s="2" t="s">
         <v>1059</v>
       </c>
-      <c r="M24" s="2" t="s">
+      <c r="N24" s="2" t="s">
         <v>1060</v>
       </c>
-      <c r="N24" s="2">
-        <v>1</v>
-      </c>
-      <c r="O24" s="11">
+      <c r="O24" s="2">
+        <v>1</v>
+      </c>
+      <c r="P24" s="11">
         <v>6</v>
       </c>
-      <c r="P24" s="2">
-        <v>0</v>
-      </c>
       <c r="Q24" s="2">
         <v>0</v>
       </c>
-      <c r="R24" s="11">
-        <v>1</v>
+      <c r="R24" s="2">
+        <v>0</v>
       </c>
       <c r="S24" s="11">
+        <v>1</v>
+      </c>
+      <c r="T24" s="11">
         <v>6</v>
-      </c>
-      <c r="T24" s="3" t="s">
-        <v>1061</v>
       </c>
       <c r="U24" s="3" t="s">
         <v>1061</v>
       </c>
-      <c r="W24" s="33" t="s">
+      <c r="V24" s="3" t="s">
+        <v>1061</v>
+      </c>
+      <c r="X24" s="33" t="s">
         <v>1024</v>
       </c>
-      <c r="X24" s="3" t="s">
+      <c r="Y24" s="3" t="s">
         <v>1062</v>
       </c>
-      <c r="Y24" s="11" t="s">
+      <c r="Z24" s="11" t="s">
         <v>634</v>
       </c>
-      <c r="Z24" s="11" t="s">
+      <c r="AA24" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="AC24" s="2">
-        <v>1</v>
-      </c>
       <c r="AD24" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE24" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:31" x14ac:dyDescent="0.2">
       <c r="E25" s="46"/>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:31" x14ac:dyDescent="0.2">
       <c r="E26" s="46"/>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:31" x14ac:dyDescent="0.2">
       <c r="E27" s="46"/>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:31" x14ac:dyDescent="0.2">
       <c r="E28" s="46"/>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:31" x14ac:dyDescent="0.2">
       <c r="E29" s="46"/>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:31" x14ac:dyDescent="0.2">
       <c r="E30" s="46"/>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:31" x14ac:dyDescent="0.2">
       <c r="E31" s="46"/>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:31" x14ac:dyDescent="0.2">
       <c r="E32" s="46"/>
     </row>
   </sheetData>
@@ -11918,13 +12068,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN565"/>
+  <dimension ref="A1:AN579"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H540" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="7" ySplit="1" topLeftCell="H49" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G569" sqref="G569"/>
+      <selection pane="bottomRight" activeCell="G66" sqref="G66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -15718,7 +15868,7 @@
         <v>1</v>
       </c>
       <c r="G66" s="5" t="s">
-        <v>2119</v>
+        <v>2169</v>
       </c>
       <c r="J66" s="5" t="s">
         <v>937</v>
@@ -45177,7 +45327,7 @@
         <v>10437</v>
       </c>
       <c r="F521" s="19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G521" s="19" t="s">
         <v>1969</v>
@@ -45245,7 +45395,7 @@
         <v>10438</v>
       </c>
       <c r="F522" s="19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G522" s="19" t="s">
         <v>1975</v>
@@ -45313,7 +45463,7 @@
         <v>10439</v>
       </c>
       <c r="F523" s="19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G523" s="19" t="s">
         <v>1982</v>
@@ -45381,7 +45531,7 @@
         <v>10440</v>
       </c>
       <c r="F524" s="19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G524" s="19" t="s">
         <v>1987</v>
@@ -45449,7 +45599,7 @@
         <v>10441</v>
       </c>
       <c r="F525" s="19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G525" s="19" t="s">
         <v>1968</v>
@@ -45517,7 +45667,7 @@
         <v>10442</v>
       </c>
       <c r="F526" s="19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G526" s="19" t="s">
         <v>1974</v>
@@ -45585,7 +45735,7 @@
         <v>10443</v>
       </c>
       <c r="F527" s="19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G527" s="19" t="s">
         <v>1981</v>
@@ -45653,7 +45803,7 @@
         <v>10444</v>
       </c>
       <c r="F528" s="19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G528" s="19" t="s">
         <v>1986</v>
@@ -45721,7 +45871,7 @@
         <v>10445</v>
       </c>
       <c r="F529" s="19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G529" s="19" t="s">
         <v>2005</v>
@@ -45789,7 +45939,7 @@
         <v>10446</v>
       </c>
       <c r="F530" s="19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G530" s="19" t="s">
         <v>1974</v>
@@ -45857,7 +46007,7 @@
         <v>10447</v>
       </c>
       <c r="F531" s="19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G531" s="19" t="s">
         <v>1982</v>
@@ -45925,7 +46075,7 @@
         <v>10448</v>
       </c>
       <c r="F532" s="19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G532" s="19" t="s">
         <v>2013</v>
@@ -45993,7 +46143,7 @@
         <v>10449</v>
       </c>
       <c r="F533" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G533" s="5" t="s">
         <v>2029</v>
@@ -46061,7 +46211,7 @@
         <v>10450</v>
       </c>
       <c r="F534" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G534" s="5" t="s">
         <v>2031</v>
@@ -46129,7 +46279,7 @@
         <v>10451</v>
       </c>
       <c r="F535" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G535" s="5" t="s">
         <v>2033</v>
@@ -46197,7 +46347,7 @@
         <v>10452</v>
       </c>
       <c r="F536" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G536" s="5" t="s">
         <v>2029</v>
@@ -46265,7 +46415,7 @@
         <v>10453</v>
       </c>
       <c r="F537" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G537" s="5" t="s">
         <v>2031</v>
@@ -46333,7 +46483,7 @@
         <v>10454</v>
       </c>
       <c r="F538" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G538" s="5" t="s">
         <v>2033</v>
@@ -46401,7 +46551,7 @@
         <v>10455</v>
       </c>
       <c r="F539" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G539" s="5" t="s">
         <v>2029</v>
@@ -46469,7 +46619,7 @@
         <v>10456</v>
       </c>
       <c r="F540" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G540" s="5" t="s">
         <v>2031</v>
@@ -46537,7 +46687,7 @@
         <v>10457</v>
       </c>
       <c r="F541" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G541" s="5" t="s">
         <v>2033</v>
@@ -46597,1596 +46747,2572 @@
         <v>1</v>
       </c>
     </row>
-    <row r="542" spans="1:39" s="69" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A542" s="69">
+    <row r="542" spans="1:39" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A542" s="5">
         <v>541</v>
       </c>
-      <c r="B542" s="69">
+      <c r="B542" s="5">
         <v>10458</v>
       </c>
-      <c r="F542" s="69">
-        <v>1</v>
-      </c>
-      <c r="G542" s="69" t="s">
+      <c r="F542" s="5">
+        <v>0</v>
+      </c>
+      <c r="G542" s="5" t="s">
         <v>2044</v>
       </c>
-      <c r="I542" s="69" t="s">
+      <c r="I542" s="5" t="s">
         <v>2046</v>
       </c>
-      <c r="J542" s="69" t="s">
+      <c r="J542" s="5" t="s">
         <v>2047</v>
       </c>
-      <c r="L542" s="69">
+      <c r="L542" s="5">
         <v>-31</v>
       </c>
-      <c r="M542" s="69">
-        <v>0</v>
-      </c>
-      <c r="N542" s="69">
-        <v>0</v>
-      </c>
-      <c r="O542" s="69" t="s">
+      <c r="M542" s="5">
+        <v>0</v>
+      </c>
+      <c r="N542" s="5">
+        <v>0</v>
+      </c>
+      <c r="O542" s="5" t="s">
         <v>481</v>
       </c>
-      <c r="P542" s="69">
+      <c r="P542" s="5">
         <v>99800</v>
       </c>
-      <c r="Q542" s="69" t="s">
+      <c r="Q542" s="5" t="s">
         <v>2048</v>
       </c>
-      <c r="R542" s="70" t="s">
+      <c r="R542" s="10" t="s">
         <v>1487</v>
       </c>
-      <c r="W542" s="69" t="s">
+      <c r="W542" s="5" t="s">
         <v>2049</v>
       </c>
-      <c r="X542" s="69">
+      <c r="X542" s="5">
         <v>9999999</v>
       </c>
-      <c r="Y542" s="71">
+      <c r="Y542" s="11">
         <v>1614038400</v>
       </c>
-      <c r="Z542" s="71">
+      <c r="Z542" s="11">
         <v>1614614399</v>
       </c>
-      <c r="AH542" s="69">
-        <v>1</v>
-      </c>
-      <c r="AI542" s="69">
-        <v>1</v>
-      </c>
-      <c r="AL542" s="69">
-        <v>1</v>
-      </c>
-      <c r="AM542" s="69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="543" spans="1:39" s="69" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A543" s="69">
+      <c r="AH542" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI542" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL542" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM542" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="543" spans="1:39" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A543" s="5">
         <v>542</v>
       </c>
-      <c r="B543" s="69">
+      <c r="B543" s="5">
         <v>10459</v>
       </c>
-      <c r="F543" s="69">
-        <v>1</v>
-      </c>
-      <c r="G543" s="69" t="s">
+      <c r="F543" s="5">
+        <v>0</v>
+      </c>
+      <c r="G543" s="5" t="s">
         <v>2050</v>
       </c>
-      <c r="I543" s="69" t="s">
+      <c r="I543" s="5" t="s">
         <v>2046</v>
       </c>
-      <c r="J543" s="69" t="s">
+      <c r="J543" s="5" t="s">
         <v>2051</v>
       </c>
-      <c r="L543" s="69">
+      <c r="L543" s="5">
         <v>-31</v>
       </c>
-      <c r="M543" s="69">
-        <v>0</v>
-      </c>
-      <c r="N543" s="69">
-        <v>0</v>
-      </c>
-      <c r="O543" s="69" t="s">
+      <c r="M543" s="5">
+        <v>0</v>
+      </c>
+      <c r="N543" s="5">
+        <v>0</v>
+      </c>
+      <c r="O543" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="P543" s="69">
+      <c r="P543" s="5">
         <v>49800</v>
       </c>
-      <c r="Q543" s="69" t="s">
+      <c r="Q543" s="5" t="s">
         <v>2048</v>
       </c>
-      <c r="R543" s="70" t="s">
+      <c r="R543" s="10" t="s">
         <v>2052</v>
       </c>
-      <c r="W543" s="69" t="s">
+      <c r="W543" s="5" t="s">
         <v>527</v>
       </c>
-      <c r="X543" s="69">
+      <c r="X543" s="5">
         <v>9999999</v>
       </c>
-      <c r="Y543" s="71">
+      <c r="Y543" s="11">
         <v>1614038400</v>
       </c>
-      <c r="Z543" s="71">
+      <c r="Z543" s="11">
         <v>1614614399</v>
       </c>
-      <c r="AH543" s="69">
-        <v>1</v>
-      </c>
-      <c r="AI543" s="69">
-        <v>1</v>
-      </c>
-      <c r="AL543" s="69">
-        <v>1</v>
-      </c>
-      <c r="AM543" s="69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="544" spans="1:39" s="69" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A544" s="69">
+      <c r="AH543" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI543" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL543" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM543" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="544" spans="1:39" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A544" s="5">
         <v>543</v>
       </c>
-      <c r="B544" s="69">
+      <c r="B544" s="5">
         <v>10460</v>
       </c>
-      <c r="F544" s="69">
-        <v>1</v>
-      </c>
-      <c r="G544" s="69" t="s">
+      <c r="F544" s="5">
+        <v>0</v>
+      </c>
+      <c r="G544" s="5" t="s">
         <v>2053</v>
       </c>
-      <c r="I544" s="69" t="s">
+      <c r="I544" s="5" t="s">
         <v>2045</v>
       </c>
-      <c r="J544" s="69" t="s">
+      <c r="J544" s="5" t="s">
         <v>2054</v>
       </c>
-      <c r="L544" s="69">
+      <c r="L544" s="5">
         <v>-31</v>
       </c>
-      <c r="M544" s="69">
-        <v>0</v>
-      </c>
-      <c r="N544" s="69">
-        <v>0</v>
-      </c>
-      <c r="O544" s="69" t="s">
+      <c r="M544" s="5">
+        <v>0</v>
+      </c>
+      <c r="N544" s="5">
+        <v>0</v>
+      </c>
+      <c r="O544" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="P544" s="69">
+      <c r="P544" s="5">
         <v>29800</v>
       </c>
-      <c r="Q544" s="69" t="s">
+      <c r="Q544" s="5" t="s">
         <v>2055</v>
       </c>
-      <c r="R544" s="70" t="s">
+      <c r="R544" s="10" t="s">
         <v>2056</v>
       </c>
-      <c r="W544" s="69" t="s">
+      <c r="W544" s="5" t="s">
         <v>527</v>
       </c>
-      <c r="X544" s="69">
+      <c r="X544" s="5">
         <v>9999999</v>
       </c>
-      <c r="Y544" s="71">
+      <c r="Y544" s="11">
         <v>1614038400</v>
       </c>
-      <c r="Z544" s="71">
+      <c r="Z544" s="11">
         <v>1614614399</v>
       </c>
-      <c r="AH544" s="69">
-        <v>1</v>
-      </c>
-      <c r="AI544" s="69">
-        <v>1</v>
-      </c>
-      <c r="AL544" s="69">
-        <v>1</v>
-      </c>
-      <c r="AM544" s="69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="545" spans="1:39" s="69" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A545" s="69">
+      <c r="AH544" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI544" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL544" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM544" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="545" spans="1:39" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A545" s="5">
         <v>544</v>
       </c>
-      <c r="B545" s="69">
+      <c r="B545" s="5">
         <v>10461</v>
       </c>
-      <c r="F545" s="69">
-        <v>1</v>
-      </c>
-      <c r="G545" s="69" t="s">
+      <c r="F545" s="5">
+        <v>0</v>
+      </c>
+      <c r="G545" s="5" t="s">
         <v>2057</v>
       </c>
-      <c r="I545" s="69" t="s">
+      <c r="I545" s="5" t="s">
         <v>2046</v>
       </c>
-      <c r="J545" s="69" t="s">
+      <c r="J545" s="5" t="s">
         <v>2058</v>
       </c>
-      <c r="L545" s="69">
+      <c r="L545" s="5">
         <v>-31</v>
       </c>
-      <c r="M545" s="69">
-        <v>0</v>
-      </c>
-      <c r="N545" s="69">
-        <v>0</v>
-      </c>
-      <c r="O545" s="69" t="s">
+      <c r="M545" s="5">
+        <v>0</v>
+      </c>
+      <c r="N545" s="5">
+        <v>0</v>
+      </c>
+      <c r="O545" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="P545" s="69">
+      <c r="P545" s="5">
         <v>19800</v>
       </c>
-      <c r="Q545" s="69" t="s">
+      <c r="Q545" s="5" t="s">
         <v>2055</v>
       </c>
-      <c r="R545" s="70" t="s">
+      <c r="R545" s="10" t="s">
         <v>1344</v>
       </c>
-      <c r="W545" s="69" t="s">
+      <c r="W545" s="5" t="s">
         <v>527</v>
       </c>
-      <c r="X545" s="69">
+      <c r="X545" s="5">
         <v>9999999</v>
       </c>
-      <c r="Y545" s="71">
+      <c r="Y545" s="11">
         <v>1614038400</v>
       </c>
-      <c r="Z545" s="71">
+      <c r="Z545" s="11">
         <v>1614614399</v>
       </c>
-      <c r="AH545" s="69">
-        <v>1</v>
-      </c>
-      <c r="AI545" s="69">
-        <v>1</v>
-      </c>
-      <c r="AL545" s="69">
-        <v>1</v>
-      </c>
-      <c r="AM545" s="69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="546" spans="1:39" s="69" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A546" s="69">
+      <c r="AH545" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI545" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL545" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM545" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="546" spans="1:39" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A546" s="5">
         <v>545</v>
       </c>
-      <c r="B546" s="69">
+      <c r="B546" s="5">
         <v>10462</v>
       </c>
-      <c r="F546" s="69">
-        <v>1</v>
-      </c>
-      <c r="G546" s="69" t="s">
+      <c r="F546" s="5">
+        <v>0</v>
+      </c>
+      <c r="G546" s="5" t="s">
         <v>2059</v>
       </c>
-      <c r="I546" s="69" t="s">
+      <c r="I546" s="5" t="s">
         <v>2046</v>
       </c>
-      <c r="J546" s="69" t="s">
+      <c r="J546" s="5" t="s">
         <v>2060</v>
       </c>
-      <c r="L546" s="69">
+      <c r="L546" s="5">
         <v>-31</v>
       </c>
-      <c r="M546" s="69">
-        <v>0</v>
-      </c>
-      <c r="N546" s="69">
-        <v>0</v>
-      </c>
-      <c r="O546" s="69" t="s">
+      <c r="M546" s="5">
+        <v>0</v>
+      </c>
+      <c r="N546" s="5">
+        <v>0</v>
+      </c>
+      <c r="O546" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="P546" s="69">
+      <c r="P546" s="5">
         <v>9800</v>
       </c>
-      <c r="Q546" s="69" t="s">
+      <c r="Q546" s="5" t="s">
         <v>1471</v>
       </c>
-      <c r="R546" s="70" t="s">
+      <c r="R546" s="10" t="s">
         <v>2061</v>
       </c>
-      <c r="W546" s="69" t="s">
+      <c r="W546" s="5" t="s">
         <v>527</v>
       </c>
-      <c r="X546" s="69">
+      <c r="X546" s="5">
         <v>9999999</v>
       </c>
-      <c r="Y546" s="71">
+      <c r="Y546" s="11">
         <v>1614038400</v>
       </c>
-      <c r="Z546" s="71">
+      <c r="Z546" s="11">
         <v>1614614399</v>
       </c>
-      <c r="AH546" s="69">
-        <v>1</v>
-      </c>
-      <c r="AI546" s="69">
-        <v>1</v>
-      </c>
-      <c r="AL546" s="69">
-        <v>1</v>
-      </c>
-      <c r="AM546" s="69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="547" spans="1:39" s="69" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A547" s="69">
+      <c r="AH546" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI546" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL546" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM546" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="547" spans="1:39" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A547" s="5">
         <v>546</v>
       </c>
-      <c r="B547" s="69">
+      <c r="B547" s="5">
         <v>10463</v>
       </c>
-      <c r="F547" s="69">
-        <v>1</v>
-      </c>
-      <c r="G547" s="69" t="s">
+      <c r="F547" s="5">
+        <v>0</v>
+      </c>
+      <c r="G547" s="5" t="s">
         <v>2062</v>
       </c>
-      <c r="I547" s="69" t="s">
+      <c r="I547" s="5" t="s">
         <v>2046</v>
       </c>
-      <c r="J547" s="69" t="s">
+      <c r="J547" s="5" t="s">
         <v>2063</v>
       </c>
-      <c r="L547" s="69">
+      <c r="L547" s="5">
         <v>-31</v>
       </c>
-      <c r="M547" s="69">
-        <v>0</v>
-      </c>
-      <c r="N547" s="69">
-        <v>0</v>
-      </c>
-      <c r="O547" s="69" t="s">
+      <c r="M547" s="5">
+        <v>0</v>
+      </c>
+      <c r="N547" s="5">
+        <v>0</v>
+      </c>
+      <c r="O547" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="P547" s="69">
+      <c r="P547" s="5">
         <v>4800</v>
       </c>
-      <c r="Q547" s="69" t="s">
+      <c r="Q547" s="5" t="s">
         <v>2064</v>
       </c>
-      <c r="R547" s="70" t="s">
+      <c r="R547" s="10" t="s">
         <v>2065</v>
       </c>
-      <c r="W547" s="69" t="s">
+      <c r="W547" s="5" t="s">
         <v>527</v>
       </c>
-      <c r="X547" s="69">
+      <c r="X547" s="5">
         <v>9999999</v>
       </c>
-      <c r="Y547" s="71">
+      <c r="Y547" s="11">
         <v>1614038400</v>
       </c>
-      <c r="Z547" s="71">
+      <c r="Z547" s="11">
         <v>1614614399</v>
       </c>
-      <c r="AH547" s="69">
-        <v>1</v>
-      </c>
-      <c r="AI547" s="69">
-        <v>1</v>
-      </c>
-      <c r="AL547" s="69">
-        <v>1</v>
-      </c>
-      <c r="AM547" s="69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="548" spans="1:39" s="69" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A548" s="69">
+      <c r="AH547" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI547" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL547" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM547" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="548" spans="1:39" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A548" s="5">
         <v>547</v>
       </c>
-      <c r="B548" s="69">
+      <c r="B548" s="5">
         <v>10464</v>
       </c>
-      <c r="F548" s="69">
-        <v>1</v>
-      </c>
-      <c r="G548" s="69" t="s">
+      <c r="F548" s="5">
+        <v>0</v>
+      </c>
+      <c r="G548" s="5" t="s">
         <v>2066</v>
       </c>
-      <c r="I548" s="69" t="s">
+      <c r="I548" s="5" t="s">
         <v>2046</v>
       </c>
-      <c r="J548" s="69" t="s">
+      <c r="J548" s="5" t="s">
         <v>2067</v>
       </c>
-      <c r="L548" s="69">
+      <c r="L548" s="5">
         <v>-31</v>
       </c>
-      <c r="M548" s="69">
-        <v>0</v>
-      </c>
-      <c r="N548" s="69">
-        <v>0</v>
-      </c>
-      <c r="O548" s="69" t="s">
+      <c r="M548" s="5">
+        <v>0</v>
+      </c>
+      <c r="N548" s="5">
+        <v>0</v>
+      </c>
+      <c r="O548" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="P548" s="69">
+      <c r="P548" s="5">
         <v>1800</v>
       </c>
-      <c r="Q548" s="69" t="s">
+      <c r="Q548" s="5" t="s">
         <v>2064</v>
       </c>
-      <c r="R548" s="70" t="s">
+      <c r="R548" s="10" t="s">
         <v>2068</v>
       </c>
-      <c r="W548" s="69" t="s">
+      <c r="W548" s="5" t="s">
         <v>527</v>
       </c>
-      <c r="X548" s="69">
+      <c r="X548" s="5">
         <v>9999999</v>
       </c>
-      <c r="Y548" s="71">
+      <c r="Y548" s="11">
         <v>1614038400</v>
       </c>
-      <c r="Z548" s="71">
+      <c r="Z548" s="11">
         <v>1614614399</v>
       </c>
-      <c r="AH548" s="69">
-        <v>1</v>
-      </c>
-      <c r="AI548" s="69">
-        <v>1</v>
-      </c>
-      <c r="AL548" s="69">
-        <v>1</v>
-      </c>
-      <c r="AM548" s="69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="549" spans="1:39" s="65" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH548" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI548" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL548" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM548" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="549" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A549" s="5">
         <v>548</v>
       </c>
-      <c r="B549" s="65">
+      <c r="B549" s="5">
         <v>10465</v>
       </c>
-      <c r="F549" s="65">
-        <v>1</v>
-      </c>
-      <c r="G549" s="65" t="s">
+      <c r="F549" s="5">
+        <v>0</v>
+      </c>
+      <c r="G549" s="5" t="s">
         <v>2072</v>
       </c>
-      <c r="I549" s="65" t="s">
+      <c r="I549" s="5" t="s">
         <v>2073</v>
       </c>
-      <c r="J549" s="65" t="s">
+      <c r="J549" s="5" t="s">
         <v>2074</v>
       </c>
-      <c r="L549" s="65">
+      <c r="L549" s="5">
         <v>-31</v>
       </c>
-      <c r="M549" s="65">
-        <v>0</v>
-      </c>
-      <c r="N549" s="65">
-        <v>0</v>
-      </c>
-      <c r="O549" s="65" t="s">
+      <c r="M549" s="5">
+        <v>0</v>
+      </c>
+      <c r="N549" s="5">
+        <v>0</v>
+      </c>
+      <c r="O549" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="P549" s="65">
+      <c r="P549" s="5">
         <v>49800</v>
       </c>
-      <c r="Q549" s="65" t="s">
+      <c r="Q549" s="5" t="s">
         <v>2075</v>
       </c>
-      <c r="R549" s="66" t="s">
+      <c r="R549" s="10" t="s">
         <v>2076</v>
       </c>
-      <c r="W549" s="65" t="s">
+      <c r="W549" s="5" t="s">
         <v>1695</v>
       </c>
-      <c r="X549" s="65">
+      <c r="X549" s="5">
         <v>9999999</v>
       </c>
-      <c r="Y549" s="65">
+      <c r="Y549" s="5">
         <v>1612828800</v>
       </c>
-      <c r="Z549" s="65">
+      <c r="Z549" s="5">
         <v>1613404799</v>
       </c>
-      <c r="AA549" s="65">
+      <c r="AA549" s="5">
         <v>66</v>
       </c>
-      <c r="AH549" s="65">
-        <v>1</v>
-      </c>
-      <c r="AI549" s="65">
-        <v>1</v>
-      </c>
-      <c r="AL549" s="65">
-        <v>1</v>
-      </c>
-      <c r="AM549" s="65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="550" spans="1:39" s="65" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH549" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI549" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL549" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM549" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="550" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A550" s="5">
         <v>549</v>
       </c>
-      <c r="B550" s="65">
+      <c r="B550" s="5">
         <v>10466</v>
       </c>
-      <c r="F550" s="65">
-        <v>1</v>
-      </c>
-      <c r="G550" s="65" t="s">
+      <c r="F550" s="5">
+        <v>0</v>
+      </c>
+      <c r="G550" s="5" t="s">
         <v>2072</v>
       </c>
-      <c r="I550" s="65" t="s">
+      <c r="I550" s="5" t="s">
         <v>2077</v>
       </c>
-      <c r="J550" s="65" t="s">
+      <c r="J550" s="5" t="s">
         <v>2078</v>
       </c>
-      <c r="L550" s="65">
+      <c r="L550" s="5">
         <v>-31</v>
       </c>
-      <c r="M550" s="65">
-        <v>0</v>
-      </c>
-      <c r="N550" s="65">
-        <v>0</v>
-      </c>
-      <c r="O550" s="65" t="s">
+      <c r="M550" s="5">
+        <v>0</v>
+      </c>
+      <c r="N550" s="5">
+        <v>0</v>
+      </c>
+      <c r="O550" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="P550" s="65">
+      <c r="P550" s="5">
         <v>19800</v>
       </c>
-      <c r="Q550" s="65" t="s">
+      <c r="Q550" s="5" t="s">
         <v>2075</v>
       </c>
-      <c r="R550" s="66" t="s">
+      <c r="R550" s="10" t="s">
         <v>2079</v>
       </c>
-      <c r="W550" s="65" t="s">
+      <c r="W550" s="5" t="s">
         <v>1695</v>
       </c>
-      <c r="X550" s="65">
+      <c r="X550" s="5">
         <v>9999999</v>
       </c>
-      <c r="Y550" s="65">
+      <c r="Y550" s="5">
         <v>1612828800</v>
       </c>
-      <c r="Z550" s="65">
+      <c r="Z550" s="5">
         <v>1613404799</v>
       </c>
-      <c r="AA550" s="65">
+      <c r="AA550" s="5">
         <v>66</v>
       </c>
-      <c r="AH550" s="65">
-        <v>1</v>
-      </c>
-      <c r="AI550" s="65">
-        <v>1</v>
-      </c>
-      <c r="AL550" s="65">
-        <v>1</v>
-      </c>
-      <c r="AM550" s="65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="551" spans="1:39" s="65" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH550" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI550" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL550" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM550" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="551" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A551" s="5">
         <v>550</v>
       </c>
-      <c r="B551" s="65">
+      <c r="B551" s="5">
         <v>10467</v>
       </c>
-      <c r="F551" s="65">
-        <v>1</v>
-      </c>
-      <c r="G551" s="65" t="s">
+      <c r="F551" s="5">
+        <v>0</v>
+      </c>
+      <c r="G551" s="5" t="s">
         <v>2080</v>
       </c>
-      <c r="I551" s="65" t="s">
+      <c r="I551" s="5" t="s">
         <v>2081</v>
       </c>
-      <c r="J551" s="65" t="s">
+      <c r="J551" s="5" t="s">
         <v>2082</v>
       </c>
-      <c r="L551" s="65">
+      <c r="L551" s="5">
         <v>-31</v>
       </c>
-      <c r="M551" s="65">
-        <v>0</v>
-      </c>
-      <c r="N551" s="65">
-        <v>0</v>
-      </c>
-      <c r="O551" s="65" t="s">
+      <c r="M551" s="5">
+        <v>0</v>
+      </c>
+      <c r="N551" s="5">
+        <v>0</v>
+      </c>
+      <c r="O551" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="P551" s="65">
+      <c r="P551" s="5">
         <v>9800</v>
       </c>
-      <c r="Q551" s="65" t="s">
+      <c r="Q551" s="5" t="s">
         <v>2075</v>
       </c>
-      <c r="R551" s="66" t="s">
+      <c r="R551" s="10" t="s">
         <v>2083</v>
       </c>
-      <c r="W551" s="65" t="s">
+      <c r="W551" s="5" t="s">
         <v>1695</v>
       </c>
-      <c r="X551" s="65">
+      <c r="X551" s="5">
         <v>9999999</v>
       </c>
-      <c r="Y551" s="65">
+      <c r="Y551" s="5">
         <v>1612828800</v>
       </c>
-      <c r="Z551" s="65">
+      <c r="Z551" s="5">
         <v>1613404799</v>
       </c>
-      <c r="AA551" s="65">
+      <c r="AA551" s="5">
         <v>66</v>
       </c>
-      <c r="AH551" s="65">
-        <v>1</v>
-      </c>
-      <c r="AI551" s="65">
-        <v>1</v>
-      </c>
-      <c r="AL551" s="65">
-        <v>1</v>
-      </c>
-      <c r="AM551" s="65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="552" spans="1:39" s="65" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH551" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI551" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL551" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM551" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="552" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A552" s="5">
         <v>551</v>
       </c>
-      <c r="B552" s="65">
+      <c r="B552" s="5">
         <v>10468</v>
       </c>
-      <c r="F552" s="65">
-        <v>1</v>
-      </c>
-      <c r="G552" s="65" t="s">
+      <c r="F552" s="5">
+        <v>0</v>
+      </c>
+      <c r="G552" s="5" t="s">
         <v>2072</v>
       </c>
-      <c r="I552" s="65" t="s">
+      <c r="I552" s="5" t="s">
         <v>2084</v>
       </c>
-      <c r="J552" s="65" t="s">
+      <c r="J552" s="5" t="s">
         <v>2085</v>
       </c>
-      <c r="L552" s="65">
+      <c r="L552" s="5">
         <v>-31</v>
       </c>
-      <c r="M552" s="65">
-        <v>0</v>
-      </c>
-      <c r="N552" s="65">
-        <v>0</v>
-      </c>
-      <c r="O552" s="65" t="s">
+      <c r="M552" s="5">
+        <v>0</v>
+      </c>
+      <c r="N552" s="5">
+        <v>0</v>
+      </c>
+      <c r="O552" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="P552" s="65">
+      <c r="P552" s="5">
         <v>4800</v>
       </c>
-      <c r="Q552" s="65" t="s">
+      <c r="Q552" s="5" t="s">
         <v>2075</v>
       </c>
-      <c r="R552" s="66" t="s">
+      <c r="R552" s="10" t="s">
         <v>2086</v>
       </c>
-      <c r="W552" s="65" t="s">
+      <c r="W552" s="5" t="s">
         <v>1695</v>
       </c>
-      <c r="X552" s="65">
+      <c r="X552" s="5">
         <v>9999999</v>
       </c>
-      <c r="Y552" s="65">
+      <c r="Y552" s="5">
         <v>1612828800</v>
       </c>
-      <c r="Z552" s="65">
+      <c r="Z552" s="5">
         <v>1613404799</v>
       </c>
-      <c r="AA552" s="65">
+      <c r="AA552" s="5">
         <v>66</v>
       </c>
-      <c r="AH552" s="65">
-        <v>1</v>
-      </c>
-      <c r="AI552" s="65">
-        <v>1</v>
-      </c>
-      <c r="AL552" s="65">
-        <v>1</v>
-      </c>
-      <c r="AM552" s="65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="553" spans="1:39" s="67" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH552" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI552" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL552" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM552" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="553" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A553" s="5">
         <v>552</v>
       </c>
-      <c r="B553" s="67">
+      <c r="B553" s="5">
         <v>10469</v>
       </c>
-      <c r="F553" s="67">
-        <v>1</v>
-      </c>
-      <c r="G553" s="67" t="s">
+      <c r="F553" s="5">
+        <v>0</v>
+      </c>
+      <c r="G553" s="5" t="s">
         <v>2088</v>
       </c>
-      <c r="I553" s="67" t="s">
+      <c r="I553" s="5" t="s">
         <v>2073</v>
       </c>
-      <c r="J553" s="67" t="s">
+      <c r="J553" s="5" t="s">
         <v>2089</v>
       </c>
-      <c r="L553" s="67">
+      <c r="L553" s="5">
         <v>-31</v>
       </c>
-      <c r="M553" s="67">
-        <v>0</v>
-      </c>
-      <c r="N553" s="67">
-        <v>0</v>
-      </c>
-      <c r="O553" s="67" t="s">
+      <c r="M553" s="5">
+        <v>0</v>
+      </c>
+      <c r="N553" s="5">
+        <v>0</v>
+      </c>
+      <c r="O553" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="P553" s="67">
+      <c r="P553" s="5">
         <v>49800</v>
       </c>
-      <c r="Q553" s="67" t="s">
+      <c r="Q553" s="5" t="s">
         <v>2090</v>
       </c>
-      <c r="R553" s="68" t="s">
+      <c r="R553" s="10" t="s">
         <v>2091</v>
       </c>
-      <c r="W553" s="67" t="s">
-        <v>2107</v>
-      </c>
-      <c r="X553" s="67">
+      <c r="W553" s="5" t="s">
+        <v>2109</v>
+      </c>
+      <c r="X553" s="5">
         <v>9999999</v>
       </c>
-      <c r="Y553" s="67">
+      <c r="Y553" s="5">
         <v>1612828800</v>
       </c>
-      <c r="Z553" s="67">
+      <c r="Z553" s="5">
         <v>1613404799</v>
       </c>
-      <c r="AA553" s="67">
+      <c r="AA553" s="5">
         <v>67</v>
       </c>
-      <c r="AH553" s="67">
-        <v>1</v>
-      </c>
-      <c r="AI553" s="67">
-        <v>1</v>
-      </c>
-      <c r="AL553" s="67">
-        <v>1</v>
-      </c>
-      <c r="AM553" s="67">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="554" spans="1:39" s="67" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH553" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI553" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL553" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM553" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="554" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A554" s="5">
         <v>553</v>
       </c>
-      <c r="B554" s="67">
+      <c r="B554" s="5">
         <v>10470</v>
       </c>
-      <c r="F554" s="67">
-        <v>1</v>
-      </c>
-      <c r="G554" s="67" t="s">
+      <c r="F554" s="5">
+        <v>0</v>
+      </c>
+      <c r="G554" s="5" t="s">
         <v>2087</v>
       </c>
-      <c r="I554" s="67" t="s">
+      <c r="I554" s="5" t="s">
         <v>2092</v>
       </c>
-      <c r="J554" s="67" t="s">
+      <c r="J554" s="5" t="s">
         <v>2093</v>
       </c>
-      <c r="L554" s="67">
+      <c r="L554" s="5">
         <v>-31</v>
       </c>
-      <c r="M554" s="67">
-        <v>0</v>
-      </c>
-      <c r="N554" s="67">
-        <v>0</v>
-      </c>
-      <c r="O554" s="67" t="s">
+      <c r="M554" s="5">
+        <v>0</v>
+      </c>
+      <c r="N554" s="5">
+        <v>0</v>
+      </c>
+      <c r="O554" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="P554" s="67">
+      <c r="P554" s="5">
         <v>19800</v>
       </c>
-      <c r="Q554" s="67" t="s">
+      <c r="Q554" s="5" t="s">
         <v>2094</v>
       </c>
-      <c r="R554" s="68" t="s">
+      <c r="R554" s="10" t="s">
         <v>2095</v>
       </c>
-      <c r="W554" s="67" t="s">
-        <v>2107</v>
-      </c>
-      <c r="X554" s="67">
+      <c r="W554" s="5" t="s">
+        <v>2109</v>
+      </c>
+      <c r="X554" s="5">
         <v>9999999</v>
       </c>
-      <c r="Y554" s="67">
+      <c r="Y554" s="5">
         <v>1612828800</v>
       </c>
-      <c r="Z554" s="67">
+      <c r="Z554" s="5">
         <v>1613404799</v>
       </c>
-      <c r="AA554" s="67">
+      <c r="AA554" s="5">
         <v>67</v>
       </c>
-      <c r="AH554" s="67">
-        <v>1</v>
-      </c>
-      <c r="AI554" s="67">
-        <v>1</v>
-      </c>
-      <c r="AL554" s="67">
-        <v>1</v>
-      </c>
-      <c r="AM554" s="67">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="555" spans="1:39" s="67" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH554" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI554" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL554" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM554" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="555" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A555" s="5">
         <v>554</v>
       </c>
-      <c r="B555" s="67">
+      <c r="B555" s="5">
         <v>10471</v>
       </c>
-      <c r="F555" s="67">
-        <v>1</v>
-      </c>
-      <c r="G555" s="67" t="s">
+      <c r="F555" s="5">
+        <v>0</v>
+      </c>
+      <c r="G555" s="5" t="s">
         <v>2096</v>
       </c>
-      <c r="I555" s="67" t="s">
+      <c r="I555" s="5" t="s">
         <v>2081</v>
       </c>
-      <c r="J555" s="67" t="s">
+      <c r="J555" s="5" t="s">
         <v>2097</v>
       </c>
-      <c r="L555" s="67">
+      <c r="L555" s="5">
         <v>-31</v>
       </c>
-      <c r="M555" s="67">
-        <v>0</v>
-      </c>
-      <c r="N555" s="67">
-        <v>0</v>
-      </c>
-      <c r="O555" s="67" t="s">
+      <c r="M555" s="5">
+        <v>0</v>
+      </c>
+      <c r="N555" s="5">
+        <v>0</v>
+      </c>
+      <c r="O555" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="P555" s="67">
+      <c r="P555" s="5">
         <v>9800</v>
       </c>
-      <c r="Q555" s="67" t="s">
+      <c r="Q555" s="5" t="s">
         <v>2098</v>
       </c>
-      <c r="R555" s="68" t="s">
+      <c r="R555" s="10" t="s">
         <v>2099</v>
       </c>
-      <c r="W555" s="67" t="s">
-        <v>2107</v>
-      </c>
-      <c r="X555" s="67">
+      <c r="W555" s="5" t="s">
+        <v>2109</v>
+      </c>
+      <c r="X555" s="5">
         <v>9999999</v>
       </c>
-      <c r="Y555" s="67">
+      <c r="Y555" s="5">
         <v>1612828800</v>
       </c>
-      <c r="Z555" s="67">
+      <c r="Z555" s="5">
         <v>1613404799</v>
       </c>
-      <c r="AA555" s="67">
+      <c r="AA555" s="5">
         <v>67</v>
       </c>
-      <c r="AH555" s="67">
-        <v>1</v>
-      </c>
-      <c r="AI555" s="67">
-        <v>1</v>
-      </c>
-      <c r="AL555" s="67">
-        <v>1</v>
-      </c>
-      <c r="AM555" s="67">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="556" spans="1:39" s="67" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH555" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI555" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL555" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM555" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="556" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A556" s="5">
         <v>555</v>
       </c>
-      <c r="B556" s="67">
+      <c r="B556" s="5">
         <v>10472</v>
       </c>
-      <c r="F556" s="67">
-        <v>1</v>
-      </c>
-      <c r="G556" s="67" t="s">
+      <c r="F556" s="5">
+        <v>0</v>
+      </c>
+      <c r="G556" s="5" t="s">
         <v>2100</v>
       </c>
-      <c r="I556" s="67" t="s">
+      <c r="I556" s="5" t="s">
         <v>2101</v>
       </c>
-      <c r="J556" s="67" t="s">
+      <c r="J556" s="5" t="s">
         <v>2102</v>
       </c>
-      <c r="L556" s="67">
+      <c r="L556" s="5">
         <v>-31</v>
       </c>
-      <c r="M556" s="67">
-        <v>0</v>
-      </c>
-      <c r="N556" s="67">
-        <v>0</v>
-      </c>
-      <c r="O556" s="67" t="s">
+      <c r="M556" s="5">
+        <v>0</v>
+      </c>
+      <c r="N556" s="5">
+        <v>0</v>
+      </c>
+      <c r="O556" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="P556" s="67">
+      <c r="P556" s="5">
         <v>4800</v>
       </c>
-      <c r="Q556" s="67" t="s">
+      <c r="Q556" s="5" t="s">
         <v>2103</v>
       </c>
-      <c r="R556" s="68" t="s">
+      <c r="R556" s="10" t="s">
         <v>2104</v>
       </c>
-      <c r="W556" s="67" t="s">
-        <v>2107</v>
-      </c>
-      <c r="X556" s="67">
+      <c r="W556" s="5" t="s">
+        <v>2109</v>
+      </c>
+      <c r="X556" s="5">
         <v>9999999</v>
       </c>
-      <c r="Y556" s="67">
+      <c r="Y556" s="5">
         <v>1612828800</v>
       </c>
-      <c r="Z556" s="67">
+      <c r="Z556" s="5">
         <v>1613404799</v>
       </c>
-      <c r="AA556" s="67">
+      <c r="AA556" s="5">
         <v>67</v>
       </c>
-      <c r="AH556" s="67">
-        <v>1</v>
-      </c>
-      <c r="AI556" s="67">
-        <v>1</v>
-      </c>
-      <c r="AL556" s="67">
-        <v>1</v>
-      </c>
-      <c r="AM556" s="67">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="557" spans="1:39" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH556" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI556" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL556" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM556" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="557" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A557" s="5">
         <v>556</v>
       </c>
-      <c r="B557" s="19">
+      <c r="B557" s="5">
         <v>10473</v>
       </c>
-      <c r="F557" s="19">
-        <v>1</v>
-      </c>
-      <c r="G557" s="19" t="s">
-        <v>2123</v>
-      </c>
-      <c r="I557" s="19" t="s">
-        <v>2105</v>
-      </c>
-      <c r="J557" s="19" t="s">
-        <v>2108</v>
-      </c>
-      <c r="L557" s="19">
+      <c r="F557" s="5">
+        <v>0</v>
+      </c>
+      <c r="G557" s="5" t="s">
+        <v>2106</v>
+      </c>
+      <c r="I557" s="5" t="s">
+        <v>2107</v>
+      </c>
+      <c r="J557" s="5" t="s">
+        <v>2110</v>
+      </c>
+      <c r="L557" s="5">
         <v>-25</v>
       </c>
-      <c r="M557" s="19">
-        <v>0</v>
-      </c>
-      <c r="N557" s="19">
-        <v>0</v>
-      </c>
-      <c r="O557" s="19" t="s">
+      <c r="M557" s="5">
+        <v>0</v>
+      </c>
+      <c r="N557" s="5">
+        <v>0</v>
+      </c>
+      <c r="O557" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="P557" s="19">
+      <c r="P557" s="5">
         <v>100</v>
       </c>
-      <c r="Q557" s="19" t="s">
+      <c r="Q557" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="R557" s="72" t="s">
-        <v>2115</v>
-      </c>
-      <c r="W557" s="19" t="s">
+      <c r="R557" s="65" t="s">
+        <v>2117</v>
+      </c>
+      <c r="W557" s="5" t="s">
         <v>525</v>
       </c>
-      <c r="X557" s="19">
+      <c r="X557" s="5">
         <v>50</v>
       </c>
-      <c r="Y557" s="19">
+      <c r="Y557" s="5">
         <v>1613433600</v>
       </c>
-      <c r="Z557" s="19">
+      <c r="Z557" s="5">
         <v>1613440800</v>
       </c>
-      <c r="AE557" s="19">
+      <c r="AE557" s="5">
         <f t="shared" ref="AE557:AE565" si="1">24*60*60</f>
         <v>86400</v>
       </c>
-      <c r="AF557" s="19">
+      <c r="AF557" s="5">
         <v>7</v>
       </c>
-      <c r="AH557" s="19">
-        <v>1</v>
-      </c>
-      <c r="AI557" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="558" spans="1:39" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH557" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI557" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="558" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A558" s="5">
         <v>557</v>
       </c>
-      <c r="B558" s="19">
+      <c r="B558" s="5">
         <v>10474</v>
       </c>
-      <c r="F558" s="19">
-        <v>1</v>
-      </c>
-      <c r="G558" s="19" t="s">
-        <v>2124</v>
-      </c>
-      <c r="I558" s="19" t="s">
-        <v>2105</v>
-      </c>
-      <c r="J558" s="19" t="s">
-        <v>2109</v>
-      </c>
-      <c r="L558" s="19">
+      <c r="F558" s="5">
+        <v>0</v>
+      </c>
+      <c r="G558" s="5" t="s">
+        <v>518</v>
+      </c>
+      <c r="I558" s="5" t="s">
+        <v>2107</v>
+      </c>
+      <c r="J558" s="5" t="s">
+        <v>2111</v>
+      </c>
+      <c r="L558" s="5">
         <v>-25</v>
       </c>
-      <c r="M558" s="19">
-        <v>0</v>
-      </c>
-      <c r="N558" s="19">
-        <v>0</v>
-      </c>
-      <c r="O558" s="19" t="s">
+      <c r="M558" s="5">
+        <v>0</v>
+      </c>
+      <c r="N558" s="5">
+        <v>0</v>
+      </c>
+      <c r="O558" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="P558" s="19">
+      <c r="P558" s="5">
         <v>1800</v>
       </c>
-      <c r="Q558" s="19" t="s">
+      <c r="Q558" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="R558" s="72" t="s">
+      <c r="R558" s="65" t="s">
         <v>654</v>
       </c>
-      <c r="W558" s="19" t="s">
+      <c r="W558" s="5" t="s">
         <v>525</v>
       </c>
-      <c r="X558" s="19">
+      <c r="X558" s="5">
         <v>20</v>
       </c>
-      <c r="Y558" s="19">
+      <c r="Y558" s="5">
         <v>1613433600</v>
       </c>
-      <c r="Z558" s="19">
+      <c r="Z558" s="5">
         <v>1613440800</v>
       </c>
-      <c r="AE558" s="19">
+      <c r="AE558" s="5">
         <f t="shared" si="1"/>
         <v>86400</v>
       </c>
-      <c r="AF558" s="19">
+      <c r="AF558" s="5">
         <v>7</v>
       </c>
-      <c r="AH558" s="19">
-        <v>1</v>
-      </c>
-      <c r="AI558" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="559" spans="1:39" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH558" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI558" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="559" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A559" s="5">
         <v>558</v>
       </c>
-      <c r="B559" s="19">
+      <c r="B559" s="5">
         <v>10475</v>
       </c>
-      <c r="F559" s="19">
-        <v>1</v>
-      </c>
-      <c r="G559" s="19" t="s">
-        <v>2125</v>
-      </c>
-      <c r="I559" s="19" t="s">
-        <v>2105</v>
-      </c>
-      <c r="J559" s="19" t="s">
-        <v>2110</v>
-      </c>
-      <c r="L559" s="19">
+      <c r="F559" s="5">
+        <v>0</v>
+      </c>
+      <c r="G559" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="I559" s="5" t="s">
+        <v>2107</v>
+      </c>
+      <c r="J559" s="5" t="s">
+        <v>2112</v>
+      </c>
+      <c r="L559" s="5">
         <v>-25</v>
       </c>
-      <c r="M559" s="19">
-        <v>0</v>
-      </c>
-      <c r="N559" s="19">
-        <v>0</v>
-      </c>
-      <c r="O559" s="19" t="s">
+      <c r="M559" s="5">
+        <v>0</v>
+      </c>
+      <c r="N559" s="5">
+        <v>0</v>
+      </c>
+      <c r="O559" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="P559" s="19">
+      <c r="P559" s="5">
         <v>4800</v>
       </c>
-      <c r="Q559" s="19" t="s">
+      <c r="Q559" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="R559" s="72" t="s">
-        <v>2116</v>
-      </c>
-      <c r="W559" s="19" t="s">
+      <c r="R559" s="65" t="s">
+        <v>2118</v>
+      </c>
+      <c r="W559" s="5" t="s">
         <v>525</v>
       </c>
-      <c r="X559" s="19">
+      <c r="X559" s="5">
         <v>10</v>
       </c>
-      <c r="Y559" s="19">
+      <c r="Y559" s="5">
         <v>1613433600</v>
       </c>
-      <c r="Z559" s="19">
+      <c r="Z559" s="5">
         <v>1613440800</v>
       </c>
-      <c r="AE559" s="19">
+      <c r="AE559" s="5">
         <f t="shared" si="1"/>
         <v>86400</v>
       </c>
-      <c r="AF559" s="19">
+      <c r="AF559" s="5">
         <v>7</v>
       </c>
-      <c r="AH559" s="19">
-        <v>1</v>
-      </c>
-      <c r="AI559" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="560" spans="1:39" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH559" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI559" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="560" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A560" s="5">
         <v>559</v>
       </c>
-      <c r="B560" s="19">
+      <c r="B560" s="5">
         <v>10476</v>
       </c>
-      <c r="F560" s="19">
-        <v>1</v>
-      </c>
-      <c r="G560" s="19" t="s">
-        <v>2126</v>
-      </c>
-      <c r="I560" s="19" t="s">
+      <c r="F560" s="5">
+        <v>0</v>
+      </c>
+      <c r="G560" s="5" t="s">
         <v>2105</v>
       </c>
-      <c r="J560" s="19" t="s">
-        <v>2108</v>
-      </c>
-      <c r="L560" s="19">
+      <c r="I560" s="5" t="s">
+        <v>2107</v>
+      </c>
+      <c r="J560" s="5" t="s">
+        <v>2110</v>
+      </c>
+      <c r="L560" s="5">
         <v>-25</v>
       </c>
-      <c r="M560" s="19">
-        <v>0</v>
-      </c>
-      <c r="N560" s="19">
-        <v>0</v>
-      </c>
-      <c r="O560" s="19" t="s">
+      <c r="M560" s="5">
+        <v>0</v>
+      </c>
+      <c r="N560" s="5">
+        <v>0</v>
+      </c>
+      <c r="O560" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="P560" s="19">
+      <c r="P560" s="5">
         <v>100</v>
       </c>
-      <c r="Q560" s="19" t="s">
+      <c r="Q560" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="R560" s="72" t="s">
+      <c r="R560" s="65" t="s">
         <v>989</v>
       </c>
-      <c r="W560" s="19" t="s">
+      <c r="W560" s="5" t="s">
         <v>525</v>
       </c>
-      <c r="X560" s="19">
+      <c r="X560" s="5">
         <v>50</v>
       </c>
-      <c r="Y560" s="19">
+      <c r="Y560" s="5">
         <v>1613448000</v>
       </c>
-      <c r="Z560" s="19">
+      <c r="Z560" s="5">
         <v>1613455200</v>
       </c>
-      <c r="AE560" s="19">
+      <c r="AE560" s="5">
         <f t="shared" si="1"/>
         <v>86400</v>
       </c>
-      <c r="AF560" s="19">
+      <c r="AF560" s="5">
         <v>7</v>
       </c>
-      <c r="AH560" s="19">
-        <v>1</v>
-      </c>
-      <c r="AI560" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="561" spans="1:35" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH560" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI560" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="561" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A561" s="5">
         <v>560</v>
       </c>
-      <c r="B561" s="19">
+      <c r="B561" s="5">
         <v>10477</v>
       </c>
-      <c r="F561" s="19">
-        <v>1</v>
-      </c>
-      <c r="G561" s="19" t="s">
-        <v>2127</v>
-      </c>
-      <c r="I561" s="19" t="s">
-        <v>2105</v>
-      </c>
-      <c r="J561" s="19" t="s">
-        <v>2111</v>
-      </c>
-      <c r="L561" s="19">
+      <c r="F561" s="5">
+        <v>0</v>
+      </c>
+      <c r="G561" s="5" t="s">
+        <v>519</v>
+      </c>
+      <c r="I561" s="5" t="s">
+        <v>2107</v>
+      </c>
+      <c r="J561" s="5" t="s">
+        <v>2113</v>
+      </c>
+      <c r="L561" s="5">
         <v>-25</v>
       </c>
-      <c r="M561" s="19">
-        <v>0</v>
-      </c>
-      <c r="N561" s="19">
-        <v>0</v>
-      </c>
-      <c r="O561" s="19" t="s">
+      <c r="M561" s="5">
+        <v>0</v>
+      </c>
+      <c r="N561" s="5">
+        <v>0</v>
+      </c>
+      <c r="O561" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="P561" s="19">
+      <c r="P561" s="5">
         <v>2800</v>
       </c>
-      <c r="Q561" s="19" t="s">
+      <c r="Q561" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="R561" s="72" t="s">
+      <c r="R561" s="65" t="s">
         <v>1617</v>
       </c>
-      <c r="W561" s="19" t="s">
+      <c r="W561" s="5" t="s">
         <v>525</v>
       </c>
-      <c r="X561" s="19">
+      <c r="X561" s="5">
         <v>20</v>
       </c>
-      <c r="Y561" s="19">
+      <c r="Y561" s="5">
         <v>1613448000</v>
       </c>
-      <c r="Z561" s="19">
+      <c r="Z561" s="5">
         <v>1613455200</v>
       </c>
-      <c r="AE561" s="19">
+      <c r="AE561" s="5">
         <f t="shared" si="1"/>
         <v>86400</v>
       </c>
-      <c r="AF561" s="19">
+      <c r="AF561" s="5">
         <v>7</v>
       </c>
-      <c r="AH561" s="19">
-        <v>1</v>
-      </c>
-      <c r="AI561" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="562" spans="1:35" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH561" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI561" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="562" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A562" s="5">
         <v>561</v>
       </c>
-      <c r="B562" s="19">
+      <c r="B562" s="5">
         <v>10478</v>
       </c>
-      <c r="F562" s="19">
-        <v>1</v>
-      </c>
-      <c r="G562" s="19" t="s">
-        <v>2128</v>
-      </c>
-      <c r="I562" s="19" t="s">
-        <v>2105</v>
-      </c>
-      <c r="J562" s="19" t="s">
-        <v>2112</v>
-      </c>
-      <c r="L562" s="19">
+      <c r="F562" s="5">
+        <v>0</v>
+      </c>
+      <c r="G562" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="I562" s="5" t="s">
+        <v>2107</v>
+      </c>
+      <c r="J562" s="5" t="s">
+        <v>2114</v>
+      </c>
+      <c r="L562" s="5">
         <v>-25</v>
       </c>
-      <c r="M562" s="19">
-        <v>0</v>
-      </c>
-      <c r="N562" s="19">
-        <v>0</v>
-      </c>
-      <c r="O562" s="19" t="s">
+      <c r="M562" s="5">
+        <v>0</v>
+      </c>
+      <c r="N562" s="5">
+        <v>0</v>
+      </c>
+      <c r="O562" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="P562" s="19">
+      <c r="P562" s="5">
         <v>9800</v>
       </c>
-      <c r="Q562" s="19" t="s">
+      <c r="Q562" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="R562" s="72" t="s">
-        <v>2117</v>
-      </c>
-      <c r="W562" s="19" t="s">
+      <c r="R562" s="65" t="s">
+        <v>2119</v>
+      </c>
+      <c r="W562" s="5" t="s">
         <v>525</v>
       </c>
-      <c r="X562" s="19">
+      <c r="X562" s="5">
         <v>10</v>
       </c>
-      <c r="Y562" s="19">
+      <c r="Y562" s="5">
         <v>1613448000</v>
       </c>
-      <c r="Z562" s="19">
+      <c r="Z562" s="5">
         <v>1613455200</v>
       </c>
-      <c r="AE562" s="19">
+      <c r="AE562" s="5">
         <f t="shared" si="1"/>
         <v>86400</v>
       </c>
-      <c r="AF562" s="19">
+      <c r="AF562" s="5">
         <v>7</v>
       </c>
-      <c r="AH562" s="19">
-        <v>1</v>
-      </c>
-      <c r="AI562" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="563" spans="1:35" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH562" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI562" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="563" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A563" s="5">
         <v>562</v>
       </c>
-      <c r="B563" s="19">
+      <c r="B563" s="5">
         <v>10479</v>
       </c>
-      <c r="F563" s="19">
-        <v>1</v>
-      </c>
-      <c r="G563" s="19" t="s">
-        <v>2129</v>
-      </c>
-      <c r="I563" s="19" t="s">
-        <v>2106</v>
-      </c>
-      <c r="J563" s="19" t="s">
+      <c r="F563" s="5">
+        <v>0</v>
+      </c>
+      <c r="G563" s="5" t="s">
+        <v>2105</v>
+      </c>
+      <c r="I563" s="5" t="s">
         <v>2108</v>
       </c>
-      <c r="L563" s="19">
+      <c r="J563" s="5" t="s">
+        <v>2110</v>
+      </c>
+      <c r="L563" s="5">
         <v>-25</v>
       </c>
-      <c r="M563" s="19">
-        <v>0</v>
-      </c>
-      <c r="N563" s="19">
-        <v>0</v>
-      </c>
-      <c r="O563" s="19" t="s">
+      <c r="M563" s="5">
+        <v>0</v>
+      </c>
+      <c r="N563" s="5">
+        <v>0</v>
+      </c>
+      <c r="O563" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="P563" s="19">
+      <c r="P563" s="5">
         <v>100</v>
       </c>
-      <c r="Q563" s="19" t="s">
+      <c r="Q563" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="R563" s="72" t="s">
+      <c r="R563" s="65" t="s">
         <v>989</v>
       </c>
-      <c r="W563" s="19" t="s">
+      <c r="W563" s="5" t="s">
         <v>525</v>
       </c>
-      <c r="X563" s="19">
+      <c r="X563" s="5">
         <v>50</v>
       </c>
-      <c r="Y563" s="19">
+      <c r="Y563" s="5">
         <v>1613469600</v>
       </c>
-      <c r="Z563" s="19">
+      <c r="Z563" s="5">
         <v>1613484000</v>
       </c>
-      <c r="AE563" s="19">
+      <c r="AE563" s="5">
         <f t="shared" si="1"/>
         <v>86400</v>
       </c>
-      <c r="AF563" s="19">
+      <c r="AF563" s="5">
         <v>7</v>
       </c>
-      <c r="AH563" s="19">
-        <v>1</v>
-      </c>
-      <c r="AI563" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="564" spans="1:35" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH563" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI563" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="564" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A564" s="5">
         <v>563</v>
       </c>
-      <c r="B564" s="19">
+      <c r="B564" s="5">
         <v>10480</v>
       </c>
-      <c r="F564" s="19">
-        <v>1</v>
-      </c>
-      <c r="G564" s="19" t="s">
-        <v>2130</v>
-      </c>
-      <c r="I564" s="19" t="s">
-        <v>2105</v>
-      </c>
-      <c r="J564" s="19" t="s">
-        <v>2113</v>
-      </c>
-      <c r="L564" s="19">
+      <c r="F564" s="5">
+        <v>0</v>
+      </c>
+      <c r="G564" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="I564" s="5" t="s">
+        <v>2107</v>
+      </c>
+      <c r="J564" s="5" t="s">
+        <v>2115</v>
+      </c>
+      <c r="L564" s="5">
         <v>-25</v>
       </c>
-      <c r="M564" s="19">
-        <v>0</v>
-      </c>
-      <c r="N564" s="19">
-        <v>0</v>
-      </c>
-      <c r="O564" s="19" t="s">
+      <c r="M564" s="5">
+        <v>0</v>
+      </c>
+      <c r="N564" s="5">
+        <v>0</v>
+      </c>
+      <c r="O564" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="P564" s="19">
+      <c r="P564" s="5">
         <v>4800</v>
       </c>
-      <c r="Q564" s="19" t="s">
+      <c r="Q564" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="R564" s="72" t="s">
-        <v>2116</v>
-      </c>
-      <c r="W564" s="19" t="s">
+      <c r="R564" s="65" t="s">
+        <v>2118</v>
+      </c>
+      <c r="W564" s="5" t="s">
         <v>525</v>
       </c>
-      <c r="X564" s="19">
+      <c r="X564" s="5">
         <v>20</v>
       </c>
-      <c r="Y564" s="19">
+      <c r="Y564" s="5">
         <v>1613469600</v>
       </c>
-      <c r="Z564" s="19">
+      <c r="Z564" s="5">
         <v>1613484000</v>
       </c>
-      <c r="AE564" s="19">
+      <c r="AE564" s="5">
         <f t="shared" si="1"/>
         <v>86400</v>
       </c>
-      <c r="AF564" s="19">
+      <c r="AF564" s="5">
         <v>7</v>
       </c>
-      <c r="AH564" s="19">
-        <v>1</v>
-      </c>
-      <c r="AI564" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="565" spans="1:35" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH564" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI564" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="565" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A565" s="5">
         <v>564</v>
       </c>
-      <c r="B565" s="19">
+      <c r="B565" s="5">
         <v>10481</v>
       </c>
-      <c r="F565" s="19">
-        <v>1</v>
-      </c>
-      <c r="G565" s="19" t="s">
-        <v>2131</v>
-      </c>
-      <c r="I565" s="19" t="s">
-        <v>2105</v>
-      </c>
-      <c r="J565" s="19" t="s">
-        <v>2114</v>
-      </c>
-      <c r="L565" s="19">
+      <c r="F565" s="5">
+        <v>0</v>
+      </c>
+      <c r="G565" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="I565" s="5" t="s">
+        <v>2107</v>
+      </c>
+      <c r="J565" s="5" t="s">
+        <v>2116</v>
+      </c>
+      <c r="L565" s="5">
         <v>-25</v>
       </c>
-      <c r="M565" s="19">
-        <v>0</v>
-      </c>
-      <c r="N565" s="19">
-        <v>0</v>
-      </c>
-      <c r="O565" s="19" t="s">
+      <c r="M565" s="5">
+        <v>0</v>
+      </c>
+      <c r="N565" s="5">
+        <v>0</v>
+      </c>
+      <c r="O565" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="P565" s="19">
+      <c r="P565" s="5">
         <v>19800</v>
       </c>
-      <c r="Q565" s="19" t="s">
+      <c r="Q565" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="R565" s="72" t="s">
-        <v>2118</v>
-      </c>
-      <c r="W565" s="19" t="s">
+      <c r="R565" s="65" t="s">
+        <v>2120</v>
+      </c>
+      <c r="W565" s="5" t="s">
         <v>525</v>
       </c>
-      <c r="X565" s="19">
+      <c r="X565" s="5">
         <v>10</v>
       </c>
-      <c r="Y565" s="19">
+      <c r="Y565" s="5">
         <v>1613469600</v>
       </c>
-      <c r="Z565" s="19">
+      <c r="Z565" s="5">
         <v>1613484000</v>
       </c>
-      <c r="AE565" s="19">
+      <c r="AE565" s="5">
         <f t="shared" si="1"/>
         <v>86400</v>
       </c>
-      <c r="AF565" s="19">
+      <c r="AF565" s="5">
         <v>7</v>
       </c>
-      <c r="AH565" s="19">
-        <v>1</v>
-      </c>
-      <c r="AI565" s="19">
+      <c r="AH565" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI565" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="566" spans="1:39" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A566" s="5">
+        <v>565</v>
+      </c>
+      <c r="B566" s="5">
+        <v>10482</v>
+      </c>
+      <c r="F566" s="22">
+        <v>1</v>
+      </c>
+      <c r="G566" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="I566" s="22" t="s">
+        <v>2122</v>
+      </c>
+      <c r="J566" s="22" t="s">
+        <v>1932</v>
+      </c>
+      <c r="L566" s="22">
+        <v>-33</v>
+      </c>
+      <c r="M566" s="22">
+        <v>0</v>
+      </c>
+      <c r="N566" s="22">
+        <v>0</v>
+      </c>
+      <c r="O566" s="22" t="s">
+        <v>483</v>
+      </c>
+      <c r="P566" s="22">
+        <v>49800</v>
+      </c>
+      <c r="Q566" s="22" t="s">
+        <v>2123</v>
+      </c>
+      <c r="R566" s="66" t="s">
+        <v>2124</v>
+      </c>
+      <c r="W566" s="22" t="s">
+        <v>1354</v>
+      </c>
+      <c r="X566" s="22">
+        <v>99999999</v>
+      </c>
+      <c r="Y566" s="22">
+        <v>1614643200</v>
+      </c>
+      <c r="Z566" s="22">
+        <v>1615219199</v>
+      </c>
+      <c r="AA566" s="22">
+        <v>68</v>
+      </c>
+      <c r="AH566" s="22">
+        <v>1</v>
+      </c>
+      <c r="AI566" s="22">
+        <v>1</v>
+      </c>
+      <c r="AL566" s="22">
+        <v>1</v>
+      </c>
+      <c r="AM566" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="567" spans="1:39" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A567" s="5">
+        <v>566</v>
+      </c>
+      <c r="B567" s="5">
+        <v>10483</v>
+      </c>
+      <c r="F567" s="22">
+        <v>1</v>
+      </c>
+      <c r="G567" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="I567" s="22" t="s">
+        <v>2121</v>
+      </c>
+      <c r="J567" s="22" t="s">
+        <v>2125</v>
+      </c>
+      <c r="L567" s="22">
+        <v>-33</v>
+      </c>
+      <c r="M567" s="22">
+        <v>0</v>
+      </c>
+      <c r="N567" s="22">
+        <v>0</v>
+      </c>
+      <c r="O567" s="22" t="s">
+        <v>483</v>
+      </c>
+      <c r="P567" s="22">
+        <v>19800</v>
+      </c>
+      <c r="Q567" s="22" t="s">
+        <v>2123</v>
+      </c>
+      <c r="R567" s="66" t="s">
+        <v>1938</v>
+      </c>
+      <c r="W567" s="22" t="s">
+        <v>1354</v>
+      </c>
+      <c r="X567" s="22">
+        <v>99999999</v>
+      </c>
+      <c r="Y567" s="22">
+        <v>1614643200</v>
+      </c>
+      <c r="Z567" s="22">
+        <v>1615219199</v>
+      </c>
+      <c r="AA567" s="22">
+        <v>68</v>
+      </c>
+      <c r="AH567" s="22">
+        <v>1</v>
+      </c>
+      <c r="AI567" s="22">
+        <v>1</v>
+      </c>
+      <c r="AL567" s="22">
+        <v>1</v>
+      </c>
+      <c r="AM567" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="568" spans="1:39" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A568" s="5">
+        <v>567</v>
+      </c>
+      <c r="B568" s="5">
+        <v>10484</v>
+      </c>
+      <c r="F568" s="22">
+        <v>1</v>
+      </c>
+      <c r="G568" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="I568" s="22" t="s">
+        <v>2121</v>
+      </c>
+      <c r="J568" s="22" t="s">
+        <v>1939</v>
+      </c>
+      <c r="L568" s="22">
+        <v>-33</v>
+      </c>
+      <c r="M568" s="22">
+        <v>0</v>
+      </c>
+      <c r="N568" s="22">
+        <v>0</v>
+      </c>
+      <c r="O568" s="22" t="s">
+        <v>483</v>
+      </c>
+      <c r="P568" s="22">
+        <v>9800</v>
+      </c>
+      <c r="Q568" s="22" t="s">
+        <v>2126</v>
+      </c>
+      <c r="R568" s="66" t="s">
+        <v>1941</v>
+      </c>
+      <c r="W568" s="22" t="s">
+        <v>1354</v>
+      </c>
+      <c r="X568" s="22">
+        <v>99999999</v>
+      </c>
+      <c r="Y568" s="22">
+        <v>1614643200</v>
+      </c>
+      <c r="Z568" s="22">
+        <v>1615219199</v>
+      </c>
+      <c r="AA568" s="22">
+        <v>68</v>
+      </c>
+      <c r="AH568" s="22">
+        <v>1</v>
+      </c>
+      <c r="AI568" s="22">
+        <v>1</v>
+      </c>
+      <c r="AL568" s="22">
+        <v>1</v>
+      </c>
+      <c r="AM568" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="569" spans="1:39" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A569" s="5">
+        <v>568</v>
+      </c>
+      <c r="B569" s="5">
+        <v>10485</v>
+      </c>
+      <c r="F569" s="22">
+        <v>1</v>
+      </c>
+      <c r="G569" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="I569" s="22" t="s">
+        <v>2121</v>
+      </c>
+      <c r="J569" s="22" t="s">
+        <v>2127</v>
+      </c>
+      <c r="L569" s="22">
+        <v>-33</v>
+      </c>
+      <c r="M569" s="22">
+        <v>0</v>
+      </c>
+      <c r="N569" s="22">
+        <v>0</v>
+      </c>
+      <c r="O569" s="22" t="s">
+        <v>483</v>
+      </c>
+      <c r="P569" s="22">
+        <v>4800</v>
+      </c>
+      <c r="Q569" s="22" t="s">
+        <v>2128</v>
+      </c>
+      <c r="R569" s="66" t="s">
+        <v>1944</v>
+      </c>
+      <c r="W569" s="22" t="s">
+        <v>1354</v>
+      </c>
+      <c r="X569" s="22">
+        <v>99999999</v>
+      </c>
+      <c r="Y569" s="22">
+        <v>1614643200</v>
+      </c>
+      <c r="Z569" s="22">
+        <v>1615219199</v>
+      </c>
+      <c r="AA569" s="22">
+        <v>68</v>
+      </c>
+      <c r="AH569" s="22">
+        <v>1</v>
+      </c>
+      <c r="AI569" s="22">
+        <v>1</v>
+      </c>
+      <c r="AL569" s="22">
+        <v>1</v>
+      </c>
+      <c r="AM569" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="570" spans="1:39" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A570" s="5">
+        <v>569</v>
+      </c>
+      <c r="B570" s="5">
+        <v>10486</v>
+      </c>
+      <c r="F570" s="22">
+        <v>1</v>
+      </c>
+      <c r="G570" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="I570" s="22" t="s">
+        <v>2129</v>
+      </c>
+      <c r="J570" s="22" t="s">
+        <v>1946</v>
+      </c>
+      <c r="L570" s="22">
+        <v>-33</v>
+      </c>
+      <c r="M570" s="22">
+        <v>0</v>
+      </c>
+      <c r="N570" s="22">
+        <v>0</v>
+      </c>
+      <c r="O570" s="22" t="s">
+        <v>483</v>
+      </c>
+      <c r="P570" s="22">
+        <v>49800</v>
+      </c>
+      <c r="Q570" s="22" t="s">
+        <v>2130</v>
+      </c>
+      <c r="R570" s="66" t="s">
+        <v>1948</v>
+      </c>
+      <c r="W570" s="22" t="s">
+        <v>2131</v>
+      </c>
+      <c r="X570" s="22">
+        <v>99999999</v>
+      </c>
+      <c r="Y570" s="22">
+        <v>1614643200</v>
+      </c>
+      <c r="Z570" s="22">
+        <v>1615219199</v>
+      </c>
+      <c r="AA570" s="22">
+        <v>69</v>
+      </c>
+      <c r="AH570" s="22">
+        <v>1</v>
+      </c>
+      <c r="AI570" s="22">
+        <v>1</v>
+      </c>
+      <c r="AL570" s="22">
+        <v>1</v>
+      </c>
+      <c r="AM570" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="571" spans="1:39" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A571" s="5">
+        <v>570</v>
+      </c>
+      <c r="B571" s="5">
+        <v>10487</v>
+      </c>
+      <c r="F571" s="22">
+        <v>1</v>
+      </c>
+      <c r="G571" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="I571" s="22" t="s">
+        <v>2129</v>
+      </c>
+      <c r="J571" s="22" t="s">
+        <v>1949</v>
+      </c>
+      <c r="L571" s="22">
+        <v>-33</v>
+      </c>
+      <c r="M571" s="22">
+        <v>0</v>
+      </c>
+      <c r="N571" s="22">
+        <v>0</v>
+      </c>
+      <c r="O571" s="22" t="s">
+        <v>483</v>
+      </c>
+      <c r="P571" s="22">
+        <v>19800</v>
+      </c>
+      <c r="Q571" s="22" t="s">
+        <v>2130</v>
+      </c>
+      <c r="R571" s="66" t="s">
+        <v>2132</v>
+      </c>
+      <c r="W571" s="22" t="s">
+        <v>1354</v>
+      </c>
+      <c r="X571" s="22">
+        <v>99999999</v>
+      </c>
+      <c r="Y571" s="22">
+        <v>1614643200</v>
+      </c>
+      <c r="Z571" s="22">
+        <v>1615219199</v>
+      </c>
+      <c r="AA571" s="22">
+        <v>69</v>
+      </c>
+      <c r="AH571" s="22">
+        <v>1</v>
+      </c>
+      <c r="AI571" s="22">
+        <v>1</v>
+      </c>
+      <c r="AL571" s="22">
+        <v>1</v>
+      </c>
+      <c r="AM571" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="572" spans="1:39" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A572" s="5">
+        <v>571</v>
+      </c>
+      <c r="B572" s="5">
+        <v>10488</v>
+      </c>
+      <c r="F572" s="22">
+        <v>1</v>
+      </c>
+      <c r="G572" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="I572" s="22" t="s">
+        <v>2129</v>
+      </c>
+      <c r="J572" s="22" t="s">
+        <v>1952</v>
+      </c>
+      <c r="L572" s="22">
+        <v>-33</v>
+      </c>
+      <c r="M572" s="22">
+        <v>0</v>
+      </c>
+      <c r="N572" s="22">
+        <v>0</v>
+      </c>
+      <c r="O572" s="22" t="s">
+        <v>483</v>
+      </c>
+      <c r="P572" s="22">
+        <v>9800</v>
+      </c>
+      <c r="Q572" s="22" t="s">
+        <v>2133</v>
+      </c>
+      <c r="R572" s="66" t="s">
+        <v>1954</v>
+      </c>
+      <c r="W572" s="22" t="s">
+        <v>2134</v>
+      </c>
+      <c r="X572" s="22">
+        <v>99999999</v>
+      </c>
+      <c r="Y572" s="22">
+        <v>1614643200</v>
+      </c>
+      <c r="Z572" s="22">
+        <v>1615219199</v>
+      </c>
+      <c r="AA572" s="22">
+        <v>69</v>
+      </c>
+      <c r="AH572" s="22">
+        <v>1</v>
+      </c>
+      <c r="AI572" s="22">
+        <v>1</v>
+      </c>
+      <c r="AL572" s="22">
+        <v>1</v>
+      </c>
+      <c r="AM572" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="573" spans="1:39" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A573" s="5">
+        <v>572</v>
+      </c>
+      <c r="B573" s="5">
+        <v>10489</v>
+      </c>
+      <c r="F573" s="22">
+        <v>1</v>
+      </c>
+      <c r="G573" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="I573" s="22" t="s">
+        <v>2129</v>
+      </c>
+      <c r="J573" s="22" t="s">
+        <v>2135</v>
+      </c>
+      <c r="L573" s="22">
+        <v>-33</v>
+      </c>
+      <c r="M573" s="22">
+        <v>0</v>
+      </c>
+      <c r="N573" s="22">
+        <v>0</v>
+      </c>
+      <c r="O573" s="22" t="s">
+        <v>2136</v>
+      </c>
+      <c r="P573" s="22">
+        <v>4800</v>
+      </c>
+      <c r="Q573" s="22" t="s">
+        <v>2137</v>
+      </c>
+      <c r="R573" s="66" t="s">
+        <v>2138</v>
+      </c>
+      <c r="W573" s="22" t="s">
+        <v>2134</v>
+      </c>
+      <c r="X573" s="22">
+        <v>99999999</v>
+      </c>
+      <c r="Y573" s="22">
+        <v>1614643200</v>
+      </c>
+      <c r="Z573" s="22">
+        <v>1615219199</v>
+      </c>
+      <c r="AA573" s="22">
+        <v>69</v>
+      </c>
+      <c r="AH573" s="22">
+        <v>1</v>
+      </c>
+      <c r="AI573" s="22">
+        <v>1</v>
+      </c>
+      <c r="AL573" s="22">
+        <v>1</v>
+      </c>
+      <c r="AM573" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="574" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A574" s="5">
+        <v>573</v>
+      </c>
+      <c r="B574" s="22">
+        <v>10490</v>
+      </c>
+      <c r="C574" s="22"/>
+      <c r="D574" s="22"/>
+      <c r="E574" s="22"/>
+      <c r="F574" s="22">
+        <v>1</v>
+      </c>
+      <c r="G574" s="22" t="s">
+        <v>2140</v>
+      </c>
+      <c r="H574" s="22"/>
+      <c r="I574" s="22" t="s">
+        <v>2141</v>
+      </c>
+      <c r="J574" s="22"/>
+      <c r="K574" s="22"/>
+      <c r="L574" s="22">
+        <v>-31</v>
+      </c>
+      <c r="M574" s="22">
+        <v>0</v>
+      </c>
+      <c r="N574" s="22">
+        <v>0</v>
+      </c>
+      <c r="O574" s="22" t="s">
+        <v>2142</v>
+      </c>
+      <c r="P574" s="22">
+        <v>4500</v>
+      </c>
+      <c r="Q574" s="22" t="s">
+        <v>2143</v>
+      </c>
+      <c r="R574" s="67" t="s">
+        <v>2144</v>
+      </c>
+      <c r="S574" s="22"/>
+      <c r="T574" s="22"/>
+      <c r="U574" s="22"/>
+      <c r="V574" s="22"/>
+      <c r="W574" s="22" t="s">
+        <v>2146</v>
+      </c>
+      <c r="X574" s="22">
+        <v>99999999</v>
+      </c>
+      <c r="Y574" s="22">
+        <v>1614643200</v>
+      </c>
+      <c r="Z574" s="22">
+        <v>2552233600</v>
+      </c>
+      <c r="AH574" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI574" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL574" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM574" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="575" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A575" s="5">
+        <v>574</v>
+      </c>
+      <c r="B575" s="22">
+        <v>10491</v>
+      </c>
+      <c r="C575" s="22"/>
+      <c r="D575" s="22"/>
+      <c r="E575" s="22"/>
+      <c r="F575" s="22">
+        <v>1</v>
+      </c>
+      <c r="G575" s="22" t="s">
+        <v>2147</v>
+      </c>
+      <c r="H575" s="22"/>
+      <c r="I575" s="22" t="s">
+        <v>2148</v>
+      </c>
+      <c r="J575" s="22"/>
+      <c r="K575" s="22"/>
+      <c r="L575" s="22">
+        <v>-31</v>
+      </c>
+      <c r="M575" s="22">
+        <v>0</v>
+      </c>
+      <c r="N575" s="22">
+        <v>0</v>
+      </c>
+      <c r="O575" s="22" t="s">
+        <v>2149</v>
+      </c>
+      <c r="P575" s="22">
+        <v>8800</v>
+      </c>
+      <c r="Q575" s="22" t="s">
+        <v>2150</v>
+      </c>
+      <c r="R575" s="67" t="s">
+        <v>2151</v>
+      </c>
+      <c r="S575" s="22"/>
+      <c r="T575" s="22"/>
+      <c r="U575" s="22"/>
+      <c r="V575" s="22"/>
+      <c r="W575" s="22" t="s">
+        <v>2152</v>
+      </c>
+      <c r="X575" s="22">
+        <v>99999999</v>
+      </c>
+      <c r="Y575" s="22">
+        <v>1614643200</v>
+      </c>
+      <c r="Z575" s="22">
+        <v>2552233600</v>
+      </c>
+      <c r="AH575" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI575" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL575" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM575" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="576" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A576" s="5">
+        <v>575</v>
+      </c>
+      <c r="B576" s="22">
+        <v>10492</v>
+      </c>
+      <c r="C576" s="22"/>
+      <c r="D576" s="22"/>
+      <c r="E576" s="22"/>
+      <c r="F576" s="22">
+        <v>1</v>
+      </c>
+      <c r="G576" s="22" t="s">
+        <v>2153</v>
+      </c>
+      <c r="H576" s="22"/>
+      <c r="I576" s="22" t="s">
+        <v>2154</v>
+      </c>
+      <c r="J576" s="22"/>
+      <c r="K576" s="22"/>
+      <c r="L576" s="22">
+        <v>-31</v>
+      </c>
+      <c r="M576" s="22">
+        <v>0</v>
+      </c>
+      <c r="N576" s="22">
+        <v>0</v>
+      </c>
+      <c r="O576" s="22" t="s">
+        <v>959</v>
+      </c>
+      <c r="P576" s="22">
+        <v>17800</v>
+      </c>
+      <c r="Q576" s="22" t="s">
+        <v>2155</v>
+      </c>
+      <c r="R576" s="67" t="s">
+        <v>2156</v>
+      </c>
+      <c r="S576" s="22"/>
+      <c r="T576" s="22"/>
+      <c r="U576" s="22"/>
+      <c r="V576" s="22"/>
+      <c r="W576" s="22" t="s">
+        <v>2145</v>
+      </c>
+      <c r="X576" s="22">
+        <v>99999999</v>
+      </c>
+      <c r="Y576" s="22">
+        <v>1614643200</v>
+      </c>
+      <c r="Z576" s="22">
+        <v>2552233600</v>
+      </c>
+      <c r="AH576" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI576" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL576" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM576" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="577" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A577" s="5">
+        <v>576</v>
+      </c>
+      <c r="B577" s="22">
+        <v>10493</v>
+      </c>
+      <c r="C577" s="22"/>
+      <c r="D577" s="22"/>
+      <c r="E577" s="22"/>
+      <c r="F577" s="22">
+        <v>1</v>
+      </c>
+      <c r="G577" s="22" t="s">
+        <v>2157</v>
+      </c>
+      <c r="H577" s="22"/>
+      <c r="I577" s="22" t="s">
+        <v>2158</v>
+      </c>
+      <c r="J577" s="22"/>
+      <c r="K577" s="22"/>
+      <c r="L577" s="22">
+        <v>-31</v>
+      </c>
+      <c r="M577" s="22">
+        <v>0</v>
+      </c>
+      <c r="N577" s="22">
+        <v>0</v>
+      </c>
+      <c r="O577" s="22" t="s">
+        <v>959</v>
+      </c>
+      <c r="P577" s="22">
+        <v>44800</v>
+      </c>
+      <c r="Q577" s="22" t="s">
+        <v>2159</v>
+      </c>
+      <c r="R577" s="67" t="s">
+        <v>2160</v>
+      </c>
+      <c r="S577" s="22"/>
+      <c r="T577" s="22"/>
+      <c r="U577" s="22"/>
+      <c r="V577" s="22"/>
+      <c r="W577" s="22" t="s">
+        <v>595</v>
+      </c>
+      <c r="X577" s="22">
+        <v>99999999</v>
+      </c>
+      <c r="Y577" s="22">
+        <v>1614643200</v>
+      </c>
+      <c r="Z577" s="22">
+        <v>2552233600</v>
+      </c>
+      <c r="AH577" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI577" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL577" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM577" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="578" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A578" s="5">
+        <v>577</v>
+      </c>
+      <c r="B578" s="22">
+        <v>10494</v>
+      </c>
+      <c r="C578" s="22"/>
+      <c r="D578" s="22"/>
+      <c r="E578" s="22"/>
+      <c r="F578" s="22">
+        <v>1</v>
+      </c>
+      <c r="G578" s="22" t="s">
+        <v>2161</v>
+      </c>
+      <c r="H578" s="22"/>
+      <c r="I578" s="22" t="s">
+        <v>2162</v>
+      </c>
+      <c r="J578" s="22"/>
+      <c r="K578" s="22"/>
+      <c r="L578" s="22">
+        <v>-31</v>
+      </c>
+      <c r="M578" s="22">
+        <v>0</v>
+      </c>
+      <c r="N578" s="22">
+        <v>0</v>
+      </c>
+      <c r="O578" s="22" t="s">
+        <v>959</v>
+      </c>
+      <c r="P578" s="22">
+        <v>89800</v>
+      </c>
+      <c r="Q578" s="22" t="s">
+        <v>2163</v>
+      </c>
+      <c r="R578" s="67" t="s">
+        <v>2164</v>
+      </c>
+      <c r="S578" s="22"/>
+      <c r="T578" s="22"/>
+      <c r="U578" s="22"/>
+      <c r="V578" s="22"/>
+      <c r="W578" s="22" t="s">
+        <v>595</v>
+      </c>
+      <c r="X578" s="22">
+        <v>99999999</v>
+      </c>
+      <c r="Y578" s="22">
+        <v>1614643200</v>
+      </c>
+      <c r="Z578" s="22">
+        <v>2552233600</v>
+      </c>
+      <c r="AH578" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI578" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL578" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM578" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="579" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A579" s="5">
+        <v>578</v>
+      </c>
+      <c r="B579" s="22">
+        <v>10495</v>
+      </c>
+      <c r="C579" s="22"/>
+      <c r="D579" s="22"/>
+      <c r="E579" s="22"/>
+      <c r="F579" s="22">
+        <v>1</v>
+      </c>
+      <c r="G579" s="22" t="s">
+        <v>2165</v>
+      </c>
+      <c r="H579" s="22"/>
+      <c r="I579" s="22" t="s">
+        <v>2166</v>
+      </c>
+      <c r="J579" s="22"/>
+      <c r="K579" s="22"/>
+      <c r="L579" s="22">
+        <v>-31</v>
+      </c>
+      <c r="M579" s="22">
+        <v>0</v>
+      </c>
+      <c r="N579" s="22">
+        <v>0</v>
+      </c>
+      <c r="O579" s="22" t="s">
+        <v>959</v>
+      </c>
+      <c r="P579" s="22">
+        <v>229800</v>
+      </c>
+      <c r="Q579" s="22" t="s">
+        <v>2167</v>
+      </c>
+      <c r="R579" s="67" t="s">
+        <v>2168</v>
+      </c>
+      <c r="S579" s="22"/>
+      <c r="T579" s="22"/>
+      <c r="U579" s="22"/>
+      <c r="V579" s="22"/>
+      <c r="W579" s="22" t="s">
+        <v>595</v>
+      </c>
+      <c r="X579" s="22">
+        <v>99999999</v>
+      </c>
+      <c r="Y579" s="22">
+        <v>1614643200</v>
+      </c>
+      <c r="Z579" s="22">
+        <v>2552233600</v>
+      </c>
+      <c r="AH579" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI579" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL579" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM579" s="5">
         <v>1</v>
       </c>
     </row>
@@ -48202,8 +49328,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E76"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="F65" sqref="F65"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="B74" sqref="B74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -49204,7 +50330,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="57" t="s">
-        <v>2120</v>
+        <v>2170</v>
       </c>
       <c r="C71" s="58">
         <v>1</v>
@@ -49218,7 +50344,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="57" t="s">
-        <v>2121</v>
+        <v>2171</v>
       </c>
       <c r="C72" s="58">
         <v>1</v>
@@ -49232,7 +50358,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="57" t="s">
-        <v>2122</v>
+        <v>2172</v>
       </c>
       <c r="C73" s="58">
         <v>1</v>

--- a/config_Release/shoping_config_xiaomi.xlsx
+++ b/config_Release/shoping_config_xiaomi.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_3.2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_3.9\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="tge|标签配置" sheetId="6" r:id="rId1"/>
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4669" uniqueCount="2173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4676" uniqueCount="2179">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -9191,6 +9191,30 @@
   </si>
   <si>
     <t>{type="permission_class",class_value = "fclb_v8v12_002" }</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>金币周卡</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"金币周卡"</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"prop_jbzk_special_item",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>9999999999,1,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"金币周卡",</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -9373,7 +9397,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -9521,9 +9545,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -9576,6 +9597,12 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -12068,13 +12095,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN579"/>
+  <dimension ref="A1:AN580"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H49" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="7" ySplit="1" topLeftCell="H560" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G66" sqref="G66"/>
+      <selection pane="bottomRight" activeCell="J580" sqref="J580"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -15916,298 +15943,298 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:35" s="51" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="51">
+    <row r="67" spans="1:35" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="50">
         <v>66</v>
       </c>
-      <c r="B67" s="51">
+      <c r="B67" s="50">
         <v>85</v>
       </c>
-      <c r="D67" s="51">
+      <c r="D67" s="50">
         <v>2</v>
       </c>
-      <c r="F67" s="51">
-        <v>1</v>
-      </c>
-      <c r="G67" s="51" t="s">
+      <c r="F67" s="50">
+        <v>1</v>
+      </c>
+      <c r="G67" s="50" t="s">
         <v>222</v>
       </c>
-      <c r="H67" s="51" t="s">
+      <c r="H67" s="50" t="s">
         <v>1785</v>
       </c>
-      <c r="L67" s="51">
+      <c r="L67" s="50">
         <v>-4</v>
       </c>
-      <c r="M67" s="51">
-        <v>0</v>
-      </c>
-      <c r="N67" s="51">
-        <v>0</v>
-      </c>
-      <c r="O67" s="51" t="s">
+      <c r="M67" s="50">
+        <v>0</v>
+      </c>
+      <c r="N67" s="50">
+        <v>0</v>
+      </c>
+      <c r="O67" s="50" t="s">
         <v>100</v>
       </c>
-      <c r="P67" s="51">
+      <c r="P67" s="50">
         <v>1500</v>
       </c>
-      <c r="Q67" s="51" t="s">
+      <c r="Q67" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="R67" s="51" t="s">
+      <c r="R67" s="50" t="s">
         <v>1361</v>
       </c>
-      <c r="W67" s="51" t="s">
+      <c r="W67" s="50" t="s">
         <v>524</v>
       </c>
-      <c r="X67" s="52" t="s">
+      <c r="X67" s="51" t="s">
         <v>108</v>
       </c>
-      <c r="Y67" s="53">
-        <v>0</v>
-      </c>
-      <c r="Z67" s="51">
+      <c r="Y67" s="52">
+        <v>0</v>
+      </c>
+      <c r="Z67" s="50">
         <v>2552233600</v>
       </c>
-      <c r="AH67" s="51">
-        <v>1</v>
-      </c>
-      <c r="AI67" s="51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:35" s="51" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="51">
+      <c r="AH67" s="50">
+        <v>1</v>
+      </c>
+      <c r="AI67" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:35" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="50">
         <v>67</v>
       </c>
-      <c r="B68" s="51">
+      <c r="B68" s="50">
         <v>86</v>
       </c>
-      <c r="D68" s="51">
+      <c r="D68" s="50">
         <v>3</v>
       </c>
-      <c r="F68" s="51">
-        <v>1</v>
-      </c>
-      <c r="G68" s="51" t="s">
+      <c r="F68" s="50">
+        <v>1</v>
+      </c>
+      <c r="G68" s="50" t="s">
         <v>224</v>
       </c>
-      <c r="H68" s="51" t="s">
+      <c r="H68" s="50" t="s">
         <v>1786</v>
       </c>
-      <c r="L68" s="51">
+      <c r="L68" s="50">
         <v>-4</v>
       </c>
-      <c r="M68" s="51">
-        <v>0</v>
-      </c>
-      <c r="N68" s="51">
-        <v>0</v>
-      </c>
-      <c r="O68" s="51" t="s">
+      <c r="M68" s="50">
+        <v>0</v>
+      </c>
+      <c r="N68" s="50">
+        <v>0</v>
+      </c>
+      <c r="O68" s="50" t="s">
         <v>100</v>
       </c>
-      <c r="P68" s="51">
+      <c r="P68" s="50">
         <v>3000</v>
       </c>
-      <c r="Q68" s="51" t="s">
+      <c r="Q68" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="R68" s="51" t="s">
+      <c r="R68" s="50" t="s">
         <v>1399</v>
       </c>
-      <c r="W68" s="51" t="s">
+      <c r="W68" s="50" t="s">
         <v>524</v>
       </c>
-      <c r="X68" s="52" t="s">
+      <c r="X68" s="51" t="s">
         <v>108</v>
       </c>
-      <c r="Y68" s="53">
-        <v>0</v>
-      </c>
-      <c r="Z68" s="51">
+      <c r="Y68" s="52">
+        <v>0</v>
+      </c>
+      <c r="Z68" s="50">
         <v>2552233600</v>
       </c>
-      <c r="AH68" s="51">
-        <v>1</v>
-      </c>
-      <c r="AI68" s="51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:35" s="51" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="51">
+      <c r="AH68" s="50">
+        <v>1</v>
+      </c>
+      <c r="AI68" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:35" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="50">
         <v>68</v>
       </c>
-      <c r="B69" s="51">
+      <c r="B69" s="50">
         <v>87</v>
       </c>
-      <c r="D69" s="51">
+      <c r="D69" s="50">
         <v>4</v>
       </c>
-      <c r="F69" s="51">
-        <v>1</v>
-      </c>
-      <c r="G69" s="51" t="s">
+      <c r="F69" s="50">
+        <v>1</v>
+      </c>
+      <c r="G69" s="50" t="s">
         <v>226</v>
       </c>
-      <c r="H69" s="51" t="s">
+      <c r="H69" s="50" t="s">
         <v>1787</v>
       </c>
-      <c r="L69" s="51">
+      <c r="L69" s="50">
         <v>-4</v>
       </c>
-      <c r="M69" s="51">
-        <v>0</v>
-      </c>
-      <c r="N69" s="51">
-        <v>0</v>
-      </c>
-      <c r="O69" s="51" t="s">
+      <c r="M69" s="50">
+        <v>0</v>
+      </c>
+      <c r="N69" s="50">
+        <v>0</v>
+      </c>
+      <c r="O69" s="50" t="s">
         <v>100</v>
       </c>
-      <c r="P69" s="51">
+      <c r="P69" s="50">
         <v>5000</v>
       </c>
-      <c r="Q69" s="51" t="s">
+      <c r="Q69" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="R69" s="51" t="s">
+      <c r="R69" s="50" t="s">
         <v>1362</v>
       </c>
-      <c r="W69" s="51" t="s">
+      <c r="W69" s="50" t="s">
         <v>524</v>
       </c>
-      <c r="X69" s="52" t="s">
+      <c r="X69" s="51" t="s">
         <v>108</v>
       </c>
-      <c r="Y69" s="53">
-        <v>0</v>
-      </c>
-      <c r="Z69" s="51">
+      <c r="Y69" s="52">
+        <v>0</v>
+      </c>
+      <c r="Z69" s="50">
         <v>2552233600</v>
       </c>
-      <c r="AH69" s="51">
-        <v>1</v>
-      </c>
-      <c r="AI69" s="51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:35" s="51" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="51">
+      <c r="AH69" s="50">
+        <v>1</v>
+      </c>
+      <c r="AI69" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:35" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="50">
         <v>69</v>
       </c>
-      <c r="B70" s="51">
+      <c r="B70" s="50">
         <v>88</v>
       </c>
-      <c r="D70" s="51">
+      <c r="D70" s="50">
         <v>5</v>
       </c>
-      <c r="F70" s="51">
-        <v>1</v>
-      </c>
-      <c r="G70" s="51" t="s">
+      <c r="F70" s="50">
+        <v>1</v>
+      </c>
+      <c r="G70" s="50" t="s">
         <v>228</v>
       </c>
-      <c r="H70" s="51" t="s">
+      <c r="H70" s="50" t="s">
         <v>1788</v>
       </c>
-      <c r="L70" s="51">
+      <c r="L70" s="50">
         <v>-4</v>
       </c>
-      <c r="M70" s="51">
-        <v>0</v>
-      </c>
-      <c r="N70" s="51">
-        <v>0</v>
-      </c>
-      <c r="O70" s="51" t="s">
+      <c r="M70" s="50">
+        <v>0</v>
+      </c>
+      <c r="N70" s="50">
+        <v>0</v>
+      </c>
+      <c r="O70" s="50" t="s">
         <v>100</v>
       </c>
-      <c r="P70" s="51">
+      <c r="P70" s="50">
         <v>9800</v>
       </c>
-      <c r="Q70" s="51" t="s">
+      <c r="Q70" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="R70" s="51" t="s">
+      <c r="R70" s="50" t="s">
         <v>1363</v>
       </c>
-      <c r="W70" s="51" t="s">
+      <c r="W70" s="50" t="s">
         <v>524</v>
       </c>
-      <c r="X70" s="52" t="s">
+      <c r="X70" s="51" t="s">
         <v>108</v>
       </c>
-      <c r="Y70" s="53">
-        <v>0</v>
-      </c>
-      <c r="Z70" s="51">
+      <c r="Y70" s="52">
+        <v>0</v>
+      </c>
+      <c r="Z70" s="50">
         <v>2552233600</v>
       </c>
-      <c r="AH70" s="51">
-        <v>1</v>
-      </c>
-      <c r="AI70" s="51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:35" s="51" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="51">
+      <c r="AH70" s="50">
+        <v>1</v>
+      </c>
+      <c r="AI70" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:35" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="50">
         <v>70</v>
       </c>
-      <c r="B71" s="51">
+      <c r="B71" s="50">
         <v>89</v>
       </c>
-      <c r="D71" s="51">
+      <c r="D71" s="50">
         <v>6</v>
       </c>
-      <c r="F71" s="51">
-        <v>1</v>
-      </c>
-      <c r="G71" s="51" t="s">
+      <c r="F71" s="50">
+        <v>1</v>
+      </c>
+      <c r="G71" s="50" t="s">
         <v>229</v>
       </c>
-      <c r="H71" s="51" t="s">
+      <c r="H71" s="50" t="s">
         <v>1789</v>
       </c>
-      <c r="L71" s="51">
+      <c r="L71" s="50">
         <v>-4</v>
       </c>
-      <c r="M71" s="51">
-        <v>0</v>
-      </c>
-      <c r="N71" s="51">
-        <v>0</v>
-      </c>
-      <c r="O71" s="51" t="s">
+      <c r="M71" s="50">
+        <v>0</v>
+      </c>
+      <c r="N71" s="50">
+        <v>0</v>
+      </c>
+      <c r="O71" s="50" t="s">
         <v>100</v>
       </c>
-      <c r="P71" s="51">
+      <c r="P71" s="50">
         <v>49800</v>
       </c>
-      <c r="Q71" s="51" t="s">
+      <c r="Q71" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="R71" s="51" t="s">
+      <c r="R71" s="50" t="s">
         <v>1364</v>
       </c>
-      <c r="W71" s="51" t="s">
+      <c r="W71" s="50" t="s">
         <v>524</v>
       </c>
-      <c r="X71" s="52" t="s">
+      <c r="X71" s="51" t="s">
         <v>108</v>
       </c>
-      <c r="Y71" s="53">
-        <v>0</v>
-      </c>
-      <c r="Z71" s="51">
+      <c r="Y71" s="52">
+        <v>0</v>
+      </c>
+      <c r="Z71" s="50">
         <v>2552233600</v>
       </c>
-      <c r="AH71" s="51">
-        <v>1</v>
-      </c>
-      <c r="AI71" s="51">
+      <c r="AH71" s="50">
+        <v>1</v>
+      </c>
+      <c r="AI71" s="50">
         <v>1</v>
       </c>
     </row>
@@ -17503,56 +17530,56 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:35" s="51" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="51">
+    <row r="94" spans="1:35" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="50">
         <v>93</v>
       </c>
-      <c r="B94" s="51">
+      <c r="B94" s="50">
         <v>109</v>
       </c>
-      <c r="F94" s="51">
-        <v>1</v>
-      </c>
-      <c r="G94" s="51" t="s">
+      <c r="F94" s="50">
+        <v>1</v>
+      </c>
+      <c r="G94" s="50" t="s">
         <v>253</v>
       </c>
-      <c r="L94" s="51">
+      <c r="L94" s="50">
         <v>-4</v>
       </c>
-      <c r="M94" s="51">
-        <v>0</v>
-      </c>
-      <c r="N94" s="51">
-        <v>0</v>
-      </c>
-      <c r="O94" s="51" t="s">
+      <c r="M94" s="50">
+        <v>0</v>
+      </c>
+      <c r="N94" s="50">
+        <v>0</v>
+      </c>
+      <c r="O94" s="50" t="s">
         <v>100</v>
       </c>
-      <c r="P94" s="51">
+      <c r="P94" s="50">
         <v>100000</v>
       </c>
-      <c r="Q94" s="51" t="s">
+      <c r="Q94" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="R94" s="51" t="s">
+      <c r="R94" s="50" t="s">
         <v>687</v>
       </c>
-      <c r="W94" s="51" t="s">
+      <c r="W94" s="50" t="s">
         <v>524</v>
       </c>
-      <c r="X94" s="52" t="s">
+      <c r="X94" s="51" t="s">
         <v>108</v>
       </c>
-      <c r="Y94" s="51">
-        <v>0</v>
-      </c>
-      <c r="Z94" s="51">
+      <c r="Y94" s="50">
+        <v>0</v>
+      </c>
+      <c r="Z94" s="50">
         <v>2552233600</v>
       </c>
-      <c r="AH94" s="51">
-        <v>1</v>
-      </c>
-      <c r="AI94" s="51">
+      <c r="AH94" s="50">
+        <v>1</v>
+      </c>
+      <c r="AI94" s="50">
         <v>1</v>
       </c>
     </row>
@@ -19534,121 +19561,121 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:35" s="51" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="51">
+    <row r="128" spans="1:35" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A128" s="50">
         <v>127</v>
       </c>
-      <c r="B128" s="51">
+      <c r="B128" s="50">
         <v>10044</v>
       </c>
-      <c r="D128" s="51">
+      <c r="D128" s="50">
         <v>108</v>
       </c>
-      <c r="F128" s="51">
-        <v>1</v>
-      </c>
-      <c r="G128" s="51" t="s">
+      <c r="F128" s="50">
+        <v>1</v>
+      </c>
+      <c r="G128" s="50" t="s">
         <v>319</v>
       </c>
-      <c r="H128" s="51" t="s">
+      <c r="H128" s="50" t="s">
         <v>1790</v>
       </c>
-      <c r="L128" s="51">
+      <c r="L128" s="50">
         <v>-10</v>
       </c>
-      <c r="M128" s="51">
-        <v>0</v>
-      </c>
-      <c r="N128" s="51">
-        <v>0</v>
-      </c>
-      <c r="O128" s="51" t="s">
+      <c r="M128" s="50">
+        <v>0</v>
+      </c>
+      <c r="N128" s="50">
+        <v>0</v>
+      </c>
+      <c r="O128" s="50" t="s">
         <v>100</v>
       </c>
-      <c r="P128" s="51">
+      <c r="P128" s="50">
         <v>99800</v>
       </c>
-      <c r="Q128" s="51" t="s">
+      <c r="Q128" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="R128" s="51" t="s">
+      <c r="R128" s="50" t="s">
         <v>1366</v>
       </c>
-      <c r="W128" s="51" t="s">
+      <c r="W128" s="50" t="s">
         <v>524</v>
       </c>
-      <c r="X128" s="52" t="s">
+      <c r="X128" s="51" t="s">
         <v>108</v>
       </c>
-      <c r="Y128" s="53">
-        <v>0</v>
-      </c>
-      <c r="Z128" s="51">
+      <c r="Y128" s="52">
+        <v>0</v>
+      </c>
+      <c r="Z128" s="50">
         <v>2552233600</v>
       </c>
-      <c r="AH128" s="51">
-        <v>1</v>
-      </c>
-      <c r="AI128" s="51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129" spans="1:39" s="51" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="51">
+      <c r="AH128" s="50">
+        <v>1</v>
+      </c>
+      <c r="AI128" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:39" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A129" s="50">
         <v>128</v>
       </c>
-      <c r="B129" s="51">
+      <c r="B129" s="50">
         <v>10045</v>
       </c>
-      <c r="D129" s="51">
+      <c r="D129" s="50">
         <v>110</v>
       </c>
-      <c r="F129" s="51">
-        <v>1</v>
-      </c>
-      <c r="G129" s="51" t="s">
+      <c r="F129" s="50">
+        <v>1</v>
+      </c>
+      <c r="G129" s="50" t="s">
         <v>1125</v>
       </c>
-      <c r="H129" s="51" t="s">
+      <c r="H129" s="50" t="s">
         <v>1791</v>
       </c>
-      <c r="L129" s="51">
+      <c r="L129" s="50">
         <v>-11</v>
       </c>
-      <c r="M129" s="51">
-        <v>0</v>
-      </c>
-      <c r="N129" s="51">
-        <v>0</v>
-      </c>
-      <c r="O129" s="51" t="s">
+      <c r="M129" s="50">
+        <v>0</v>
+      </c>
+      <c r="N129" s="50">
+        <v>0</v>
+      </c>
+      <c r="O129" s="50" t="s">
         <v>100</v>
       </c>
-      <c r="P129" s="51">
+      <c r="P129" s="50">
         <v>249800</v>
       </c>
-      <c r="Q129" s="51" t="s">
+      <c r="Q129" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="R129" s="51" t="s">
+      <c r="R129" s="50" t="s">
         <v>1365</v>
       </c>
-      <c r="W129" s="51" t="s">
+      <c r="W129" s="50" t="s">
         <v>524</v>
       </c>
-      <c r="X129" s="52" t="s">
+      <c r="X129" s="51" t="s">
         <v>108</v>
       </c>
-      <c r="Y129" s="53">
-        <v>0</v>
-      </c>
-      <c r="Z129" s="51">
+      <c r="Y129" s="52">
+        <v>0</v>
+      </c>
+      <c r="Z129" s="50">
         <v>2552233600</v>
       </c>
-      <c r="AH129" s="51">
-        <v>1</v>
-      </c>
-      <c r="AI129" s="51">
+      <c r="AH129" s="50">
+        <v>1</v>
+      </c>
+      <c r="AI129" s="50">
         <v>1</v>
       </c>
     </row>
@@ -22256,7 +22283,7 @@
       <c r="Q171" s="43" t="s">
         <v>1720</v>
       </c>
-      <c r="R171" s="50" t="s">
+      <c r="R171" s="49" t="s">
         <v>1721</v>
       </c>
       <c r="W171" s="43" t="s">
@@ -22324,7 +22351,7 @@
       <c r="Q172" s="43" t="s">
         <v>1720</v>
       </c>
-      <c r="R172" s="50" t="s">
+      <c r="R172" s="49" t="s">
         <v>1724</v>
       </c>
       <c r="W172" s="43" t="s">
@@ -22392,7 +22419,7 @@
       <c r="Q173" s="43" t="s">
         <v>1720</v>
       </c>
-      <c r="R173" s="50" t="s">
+      <c r="R173" s="49" t="s">
         <v>1727</v>
       </c>
       <c r="W173" s="43" t="s">
@@ -22460,7 +22487,7 @@
       <c r="Q174" s="43" t="s">
         <v>1720</v>
       </c>
-      <c r="R174" s="50" t="s">
+      <c r="R174" s="49" t="s">
         <v>1730</v>
       </c>
       <c r="W174" s="43" t="s">
@@ -22528,7 +22555,7 @@
       <c r="Q175" s="43" t="s">
         <v>1733</v>
       </c>
-      <c r="R175" s="50" t="s">
+      <c r="R175" s="49" t="s">
         <v>1734</v>
       </c>
       <c r="W175" s="43" t="s">
@@ -22596,7 +22623,7 @@
       <c r="Q176" s="43" t="s">
         <v>1733</v>
       </c>
-      <c r="R176" s="50" t="s">
+      <c r="R176" s="49" t="s">
         <v>1737</v>
       </c>
       <c r="W176" s="43" t="s">
@@ -22664,7 +22691,7 @@
       <c r="Q177" s="43" t="s">
         <v>1733</v>
       </c>
-      <c r="R177" s="50" t="s">
+      <c r="R177" s="49" t="s">
         <v>1740</v>
       </c>
       <c r="W177" s="43" t="s">
@@ -22732,7 +22759,7 @@
       <c r="Q178" s="43" t="s">
         <v>1733</v>
       </c>
-      <c r="R178" s="50" t="s">
+      <c r="R178" s="49" t="s">
         <v>1743</v>
       </c>
       <c r="W178" s="43" t="s">
@@ -22800,7 +22827,7 @@
       <c r="Q179" s="43" t="s">
         <v>1733</v>
       </c>
-      <c r="R179" s="50" t="s">
+      <c r="R179" s="49" t="s">
         <v>1746</v>
       </c>
       <c r="W179" s="43" t="s">
@@ -22868,7 +22895,7 @@
       <c r="Q180" s="43" t="s">
         <v>1733</v>
       </c>
-      <c r="R180" s="50" t="s">
+      <c r="R180" s="49" t="s">
         <v>1743</v>
       </c>
       <c r="W180" s="43" t="s">
@@ -22936,7 +22963,7 @@
       <c r="Q181" s="43" t="s">
         <v>1733</v>
       </c>
-      <c r="R181" s="50" t="s">
+      <c r="R181" s="49" t="s">
         <v>1746</v>
       </c>
       <c r="W181" s="43" t="s">
@@ -23004,7 +23031,7 @@
       <c r="Q182" s="43" t="s">
         <v>1733</v>
       </c>
-      <c r="R182" s="50" t="s">
+      <c r="R182" s="49" t="s">
         <v>1751</v>
       </c>
       <c r="W182" s="43" t="s">
@@ -23072,7 +23099,7 @@
       <c r="Q183" s="43" t="s">
         <v>1733</v>
       </c>
-      <c r="R183" s="50" t="s">
+      <c r="R183" s="49" t="s">
         <v>1746</v>
       </c>
       <c r="W183" s="43" t="s">
@@ -23140,7 +23167,7 @@
       <c r="Q184" s="43" t="s">
         <v>1733</v>
       </c>
-      <c r="R184" s="50" t="s">
+      <c r="R184" s="49" t="s">
         <v>1751</v>
       </c>
       <c r="W184" s="43" t="s">
@@ -23208,7 +23235,7 @@
       <c r="Q185" s="43" t="s">
         <v>1733</v>
       </c>
-      <c r="R185" s="50" t="s">
+      <c r="R185" s="49" t="s">
         <v>1756</v>
       </c>
       <c r="W185" s="43" t="s">
@@ -28896,62 +28923,62 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:40" s="51" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A273" s="51">
+    <row r="273" spans="1:40" s="50" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A273" s="50">
         <v>272</v>
       </c>
-      <c r="B273" s="51">
+      <c r="B273" s="50">
         <v>10189</v>
       </c>
-      <c r="D273" s="54">
+      <c r="D273" s="53">
         <v>111</v>
       </c>
-      <c r="F273" s="51">
-        <v>1</v>
-      </c>
-      <c r="G273" s="51" t="s">
+      <c r="F273" s="50">
+        <v>1</v>
+      </c>
+      <c r="G273" s="50" t="s">
         <v>520</v>
       </c>
-      <c r="H273" s="55" t="s">
+      <c r="H273" s="54" t="s">
         <v>1864</v>
       </c>
-      <c r="L273" s="51">
+      <c r="L273" s="50">
         <v>-10</v>
       </c>
-      <c r="M273" s="51">
-        <v>0</v>
-      </c>
-      <c r="N273" s="51">
-        <v>0</v>
-      </c>
-      <c r="O273" s="51" t="s">
+      <c r="M273" s="50">
+        <v>0</v>
+      </c>
+      <c r="N273" s="50">
+        <v>0</v>
+      </c>
+      <c r="O273" s="50" t="s">
         <v>100</v>
       </c>
-      <c r="P273" s="51">
+      <c r="P273" s="50">
         <v>19800</v>
       </c>
-      <c r="Q273" s="51" t="s">
+      <c r="Q273" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="R273" s="51" t="s">
+      <c r="R273" s="50" t="s">
         <v>1367</v>
       </c>
-      <c r="W273" s="51" t="s">
+      <c r="W273" s="50" t="s">
         <v>524</v>
       </c>
-      <c r="X273" s="52" t="s">
+      <c r="X273" s="51" t="s">
         <v>108</v>
       </c>
-      <c r="Y273" s="53">
-        <v>0</v>
-      </c>
-      <c r="Z273" s="51">
+      <c r="Y273" s="52">
+        <v>0</v>
+      </c>
+      <c r="Z273" s="50">
         <v>2552233600</v>
       </c>
-      <c r="AH273" s="51">
-        <v>1</v>
-      </c>
-      <c r="AI273" s="51">
+      <c r="AH273" s="50">
+        <v>1</v>
+      </c>
+      <c r="AI273" s="50">
         <v>1</v>
       </c>
     </row>
@@ -32060,7 +32087,7 @@
       <c r="Q323" s="43" t="s">
         <v>1759</v>
       </c>
-      <c r="R323" s="50" t="s">
+      <c r="R323" s="49" t="s">
         <v>1760</v>
       </c>
       <c r="W323" s="43" t="s">
@@ -32125,7 +32152,7 @@
       <c r="Q324" s="43" t="s">
         <v>1764</v>
       </c>
-      <c r="R324" s="50" t="s">
+      <c r="R324" s="49" t="s">
         <v>1765</v>
       </c>
       <c r="W324" s="43" t="s">
@@ -32190,7 +32217,7 @@
       <c r="Q325" s="43" t="s">
         <v>1759</v>
       </c>
-      <c r="R325" s="50" t="s">
+      <c r="R325" s="49" t="s">
         <v>1768</v>
       </c>
       <c r="W325" s="43" t="s">
@@ -32382,7 +32409,7 @@
       <c r="Q328" s="43" t="s">
         <v>1641</v>
       </c>
-      <c r="R328" s="50" t="s">
+      <c r="R328" s="49" t="s">
         <v>980</v>
       </c>
       <c r="S328" s="43"/>
@@ -32465,7 +32492,7 @@
       <c r="Q329" s="43" t="s">
         <v>1644</v>
       </c>
-      <c r="R329" s="50" t="s">
+      <c r="R329" s="49" t="s">
         <v>1645</v>
       </c>
       <c r="S329" s="43"/>
@@ -32548,7 +32575,7 @@
       <c r="Q330" s="43" t="s">
         <v>1647</v>
       </c>
-      <c r="R330" s="50" t="s">
+      <c r="R330" s="49" t="s">
         <v>1648</v>
       </c>
       <c r="S330" s="43"/>
@@ -32631,7 +32658,7 @@
       <c r="Q331" s="43" t="s">
         <v>1647</v>
       </c>
-      <c r="R331" s="50" t="s">
+      <c r="R331" s="49" t="s">
         <v>1650</v>
       </c>
       <c r="S331" s="43"/>
@@ -32714,7 +32741,7 @@
       <c r="Q332" s="43" t="s">
         <v>1647</v>
       </c>
-      <c r="R332" s="50" t="s">
+      <c r="R332" s="49" t="s">
         <v>1652</v>
       </c>
       <c r="S332" s="43"/>
@@ -32797,7 +32824,7 @@
       <c r="Q333" s="43" t="s">
         <v>1647</v>
       </c>
-      <c r="R333" s="50" t="s">
+      <c r="R333" s="49" t="s">
         <v>1653</v>
       </c>
       <c r="S333" s="43"/>
@@ -32880,7 +32907,7 @@
       <c r="Q334" s="43" t="s">
         <v>1647</v>
       </c>
-      <c r="R334" s="50" t="s">
+      <c r="R334" s="49" t="s">
         <v>1656</v>
       </c>
       <c r="S334" s="43"/>
@@ -32963,7 +32990,7 @@
       <c r="Q335" s="43" t="s">
         <v>1647</v>
       </c>
-      <c r="R335" s="50" t="s">
+      <c r="R335" s="49" t="s">
         <v>1659</v>
       </c>
       <c r="S335" s="43"/>
@@ -33046,7 +33073,7 @@
       <c r="Q336" s="43" t="s">
         <v>1647</v>
       </c>
-      <c r="R336" s="50" t="s">
+      <c r="R336" s="49" t="s">
         <v>1661</v>
       </c>
       <c r="S336" s="43"/>
@@ -33129,7 +33156,7 @@
       <c r="Q337" s="43" t="s">
         <v>1635</v>
       </c>
-      <c r="R337" s="50" t="s">
+      <c r="R337" s="49" t="s">
         <v>1664</v>
       </c>
       <c r="S337" s="43"/>
@@ -35106,7 +35133,7 @@
         <v>10281</v>
       </c>
       <c r="F365" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G365" s="5" t="s">
         <v>1192</v>
@@ -35171,7 +35198,7 @@
         <v>10282</v>
       </c>
       <c r="F366" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G366" s="5" t="s">
         <v>1195</v>
@@ -35236,7 +35263,7 @@
         <v>10283</v>
       </c>
       <c r="F367" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G367" s="5" t="s">
         <v>1198</v>
@@ -35301,7 +35328,7 @@
         <v>10284</v>
       </c>
       <c r="F368" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G368" s="5" t="s">
         <v>1200</v>
@@ -35366,7 +35393,7 @@
         <v>10285</v>
       </c>
       <c r="F369" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G369" s="5" t="s">
         <v>1202</v>
@@ -35431,7 +35458,7 @@
         <v>10286</v>
       </c>
       <c r="F370" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G370" s="5" t="s">
         <v>1117</v>
@@ -35493,7 +35520,7 @@
         <v>10287</v>
       </c>
       <c r="F371" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G371" s="5" t="s">
         <v>1205</v>
@@ -35555,7 +35582,7 @@
         <v>10288</v>
       </c>
       <c r="F372" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G372" s="5" t="s">
         <v>1119</v>
@@ -35617,7 +35644,7 @@
         <v>10289</v>
       </c>
       <c r="F373" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G373" s="5" t="s">
         <v>1120</v>
@@ -35679,7 +35706,7 @@
         <v>10290</v>
       </c>
       <c r="F374" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G374" s="5" t="s">
         <v>1121</v>
@@ -35747,7 +35774,7 @@
         <v>10291</v>
       </c>
       <c r="F375" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G375" s="5" t="s">
         <v>1226</v>
@@ -35815,7 +35842,7 @@
         <v>10292</v>
       </c>
       <c r="F376" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G376" s="5" t="s">
         <v>1234</v>
@@ -35883,7 +35910,7 @@
         <v>10293</v>
       </c>
       <c r="F377" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G377" s="5" t="s">
         <v>1234</v>
@@ -35951,7 +35978,7 @@
         <v>10294</v>
       </c>
       <c r="F378" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G378" s="5" t="s">
         <v>1234</v>
@@ -36019,7 +36046,7 @@
         <v>10295</v>
       </c>
       <c r="F379" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G379" s="5" t="s">
         <v>1233</v>
@@ -36087,7 +36114,7 @@
         <v>10296</v>
       </c>
       <c r="F380" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G380" s="5" t="s">
         <v>1233</v>
@@ -36155,7 +36182,7 @@
         <v>10297</v>
       </c>
       <c r="F381" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G381" s="5" t="s">
         <v>1234</v>
@@ -36223,7 +36250,7 @@
         <v>10298</v>
       </c>
       <c r="F382" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G382" s="5" t="s">
         <v>1233</v>
@@ -36291,7 +36318,7 @@
         <v>10299</v>
       </c>
       <c r="F383" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G383" s="5" t="s">
         <v>1234</v>
@@ -36359,7 +36386,7 @@
         <v>10300</v>
       </c>
       <c r="F384" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G384" s="5" t="s">
         <v>1233</v>
@@ -36427,7 +36454,7 @@
         <v>10301</v>
       </c>
       <c r="F385" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G385" s="5" t="s">
         <v>1234</v>
@@ -36487,624 +36514,615 @@
         <v>1</v>
       </c>
     </row>
-    <row r="386" spans="1:39" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A386" s="19">
+    <row r="386" spans="1:39" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A386" s="22">
         <v>385</v>
       </c>
-      <c r="B386" s="19">
+      <c r="B386" s="22">
         <v>10302</v>
       </c>
-      <c r="F386" s="19">
-        <v>1</v>
-      </c>
-      <c r="G386" s="19" t="s">
+      <c r="F386" s="22">
+        <v>1</v>
+      </c>
+      <c r="G386" s="22" t="s">
         <v>1259</v>
       </c>
-      <c r="H386" s="47"/>
-      <c r="I386" s="19" t="s">
+      <c r="I386" s="22" t="s">
         <v>1260</v>
       </c>
-      <c r="J386" s="19" t="s">
+      <c r="J386" s="22" t="s">
         <v>1261</v>
       </c>
-      <c r="L386" s="19">
+      <c r="L386" s="22">
         <v>-31</v>
       </c>
-      <c r="M386" s="19">
-        <v>0</v>
-      </c>
-      <c r="N386" s="19">
-        <v>0</v>
-      </c>
-      <c r="O386" s="19" t="s">
+      <c r="M386" s="22">
+        <v>0</v>
+      </c>
+      <c r="N386" s="22">
+        <v>0</v>
+      </c>
+      <c r="O386" s="22" t="s">
         <v>481</v>
       </c>
-      <c r="P386" s="19">
+      <c r="P386" s="22">
         <v>1800</v>
       </c>
-      <c r="Q386" s="19" t="s">
+      <c r="Q386" s="22" t="s">
         <v>1262</v>
       </c>
-      <c r="R386" s="39" t="s">
+      <c r="R386" s="67" t="s">
         <v>1263</v>
       </c>
-      <c r="W386" s="19" t="s">
+      <c r="W386" s="22" t="s">
         <v>534</v>
       </c>
-      <c r="X386" s="19">
+      <c r="X386" s="22">
         <v>9999999</v>
       </c>
-      <c r="Y386" s="47">
-        <v>1608595200</v>
-      </c>
-      <c r="Z386" s="47">
-        <v>1609171199</v>
-      </c>
-      <c r="AA386" s="19">
+      <c r="Y386" s="22">
+        <v>1615248000</v>
+      </c>
+      <c r="Z386" s="22">
+        <v>1615823999</v>
+      </c>
+      <c r="AA386" s="22">
         <v>44</v>
       </c>
-      <c r="AH386" s="19">
-        <v>1</v>
-      </c>
-      <c r="AI386" s="19">
-        <v>1</v>
-      </c>
-      <c r="AL386" s="19">
-        <v>1</v>
-      </c>
-      <c r="AM386" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="387" spans="1:39" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A387" s="19">
+      <c r="AH386" s="22">
+        <v>1</v>
+      </c>
+      <c r="AI386" s="22">
+        <v>1</v>
+      </c>
+      <c r="AL386" s="22">
+        <v>1</v>
+      </c>
+      <c r="AM386" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="387" spans="1:39" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A387" s="22">
         <v>386</v>
       </c>
-      <c r="B387" s="19">
+      <c r="B387" s="22">
         <v>10303</v>
       </c>
-      <c r="F387" s="19">
-        <v>1</v>
-      </c>
-      <c r="G387" s="19" t="s">
+      <c r="F387" s="22">
+        <v>1</v>
+      </c>
+      <c r="G387" s="22" t="s">
         <v>1264</v>
       </c>
-      <c r="H387" s="47"/>
-      <c r="I387" s="19" t="s">
+      <c r="I387" s="22" t="s">
         <v>1265</v>
       </c>
-      <c r="J387" s="19" t="s">
+      <c r="J387" s="22" t="s">
         <v>1266</v>
       </c>
-      <c r="L387" s="19">
+      <c r="L387" s="22">
         <v>-31</v>
       </c>
-      <c r="M387" s="19">
-        <v>0</v>
-      </c>
-      <c r="N387" s="19">
-        <v>0</v>
-      </c>
-      <c r="O387" s="19" t="s">
+      <c r="M387" s="22">
+        <v>0</v>
+      </c>
+      <c r="N387" s="22">
+        <v>0</v>
+      </c>
+      <c r="O387" s="22" t="s">
         <v>1267</v>
       </c>
-      <c r="P387" s="19">
+      <c r="P387" s="22">
         <v>3000</v>
       </c>
-      <c r="Q387" s="19" t="s">
+      <c r="Q387" s="22" t="s">
         <v>1268</v>
       </c>
-      <c r="R387" s="39" t="s">
+      <c r="R387" s="67" t="s">
         <v>1269</v>
       </c>
-      <c r="W387" s="19" t="s">
+      <c r="W387" s="22" t="s">
         <v>534</v>
       </c>
-      <c r="X387" s="19">
+      <c r="X387" s="22">
         <v>9999999</v>
       </c>
-      <c r="Y387" s="47">
-        <v>1608595200</v>
-      </c>
-      <c r="Z387" s="47">
-        <v>1609171199</v>
-      </c>
-      <c r="AA387" s="19">
+      <c r="Y387" s="22">
+        <v>1615248000</v>
+      </c>
+      <c r="Z387" s="22">
+        <v>1615823999</v>
+      </c>
+      <c r="AA387" s="22">
         <v>44</v>
       </c>
-      <c r="AH387" s="19">
-        <v>1</v>
-      </c>
-      <c r="AI387" s="19">
-        <v>1</v>
-      </c>
-      <c r="AL387" s="19">
-        <v>1</v>
-      </c>
-      <c r="AM387" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="388" spans="1:39" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A388" s="19">
+      <c r="AH387" s="22">
+        <v>1</v>
+      </c>
+      <c r="AI387" s="22">
+        <v>1</v>
+      </c>
+      <c r="AL387" s="22">
+        <v>1</v>
+      </c>
+      <c r="AM387" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="388" spans="1:39" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A388" s="22">
         <v>387</v>
       </c>
-      <c r="B388" s="19">
+      <c r="B388" s="22">
         <v>10304</v>
       </c>
-      <c r="F388" s="19">
-        <v>1</v>
-      </c>
-      <c r="G388" s="19" t="s">
+      <c r="F388" s="22">
+        <v>1</v>
+      </c>
+      <c r="G388" s="22" t="s">
         <v>1270</v>
       </c>
-      <c r="H388" s="47"/>
-      <c r="I388" s="19" t="s">
+      <c r="I388" s="22" t="s">
         <v>1271</v>
       </c>
-      <c r="J388" s="19" t="s">
+      <c r="J388" s="22" t="s">
         <v>1272</v>
       </c>
-      <c r="L388" s="19">
+      <c r="L388" s="22">
         <v>-31</v>
       </c>
-      <c r="M388" s="19">
-        <v>0</v>
-      </c>
-      <c r="N388" s="19">
-        <v>0</v>
-      </c>
-      <c r="O388" s="19" t="s">
+      <c r="M388" s="22">
+        <v>0</v>
+      </c>
+      <c r="N388" s="22">
+        <v>0</v>
+      </c>
+      <c r="O388" s="22" t="s">
         <v>1273</v>
       </c>
-      <c r="P388" s="19">
+      <c r="P388" s="22">
         <v>4800</v>
       </c>
-      <c r="Q388" s="19" t="s">
+      <c r="Q388" s="22" t="s">
         <v>1274</v>
       </c>
-      <c r="R388" s="39" t="s">
+      <c r="R388" s="67" t="s">
         <v>1275</v>
       </c>
-      <c r="W388" s="19" t="s">
+      <c r="W388" s="22" t="s">
         <v>1276</v>
       </c>
-      <c r="X388" s="19">
+      <c r="X388" s="22">
         <v>9999999</v>
       </c>
-      <c r="Y388" s="47">
-        <v>1608595200</v>
-      </c>
-      <c r="Z388" s="47">
-        <v>1609171199</v>
-      </c>
-      <c r="AA388" s="19">
+      <c r="Y388" s="22">
+        <v>1615248000</v>
+      </c>
+      <c r="Z388" s="22">
+        <v>1615823999</v>
+      </c>
+      <c r="AA388" s="22">
         <v>44</v>
       </c>
-      <c r="AH388" s="19">
-        <v>1</v>
-      </c>
-      <c r="AI388" s="19">
-        <v>1</v>
-      </c>
-      <c r="AL388" s="19">
-        <v>1</v>
-      </c>
-      <c r="AM388" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="389" spans="1:39" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A389" s="19">
+      <c r="AH388" s="22">
+        <v>1</v>
+      </c>
+      <c r="AI388" s="22">
+        <v>1</v>
+      </c>
+      <c r="AL388" s="22">
+        <v>1</v>
+      </c>
+      <c r="AM388" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="389" spans="1:39" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A389" s="22">
         <v>388</v>
       </c>
-      <c r="B389" s="19">
+      <c r="B389" s="22">
         <v>10305</v>
       </c>
-      <c r="F389" s="19">
-        <v>1</v>
-      </c>
-      <c r="G389" s="19" t="s">
+      <c r="F389" s="22">
+        <v>1</v>
+      </c>
+      <c r="G389" s="22" t="s">
         <v>1277</v>
       </c>
-      <c r="H389" s="49"/>
-      <c r="I389" s="19" t="s">
+      <c r="I389" s="22" t="s">
         <v>1278</v>
       </c>
-      <c r="J389" s="19" t="s">
+      <c r="J389" s="22" t="s">
         <v>1279</v>
       </c>
-      <c r="L389" s="19">
+      <c r="L389" s="22">
         <v>-31</v>
       </c>
-      <c r="M389" s="19">
-        <v>0</v>
-      </c>
-      <c r="N389" s="19">
-        <v>0</v>
-      </c>
-      <c r="O389" s="19" t="s">
+      <c r="M389" s="22">
+        <v>0</v>
+      </c>
+      <c r="N389" s="22">
+        <v>0</v>
+      </c>
+      <c r="O389" s="22" t="s">
         <v>1280</v>
       </c>
-      <c r="P389" s="19">
+      <c r="P389" s="22">
         <v>4800</v>
       </c>
-      <c r="Q389" s="19" t="s">
+      <c r="Q389" s="22" t="s">
         <v>1281</v>
       </c>
-      <c r="R389" s="39" t="s">
+      <c r="R389" s="67" t="s">
         <v>1275</v>
       </c>
-      <c r="W389" s="19" t="s">
+      <c r="W389" s="22" t="s">
         <v>534</v>
       </c>
-      <c r="X389" s="19">
+      <c r="X389" s="22">
         <v>9999999</v>
       </c>
-      <c r="Y389" s="47">
-        <v>1608595200</v>
-      </c>
-      <c r="Z389" s="47">
-        <v>1609171199</v>
-      </c>
-      <c r="AA389" s="19">
+      <c r="Y389" s="22">
+        <v>1615248000</v>
+      </c>
+      <c r="Z389" s="22">
+        <v>1615823999</v>
+      </c>
+      <c r="AA389" s="22">
         <v>45</v>
       </c>
-      <c r="AH389" s="19">
-        <v>1</v>
-      </c>
-      <c r="AI389" s="19">
-        <v>1</v>
-      </c>
-      <c r="AL389" s="19">
-        <v>1</v>
-      </c>
-      <c r="AM389" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="390" spans="1:39" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A390" s="19">
+      <c r="AH389" s="22">
+        <v>1</v>
+      </c>
+      <c r="AI389" s="22">
+        <v>1</v>
+      </c>
+      <c r="AL389" s="22">
+        <v>1</v>
+      </c>
+      <c r="AM389" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="390" spans="1:39" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A390" s="22">
         <v>389</v>
       </c>
-      <c r="B390" s="19">
+      <c r="B390" s="22">
         <v>10306</v>
       </c>
-      <c r="F390" s="19">
-        <v>1</v>
-      </c>
-      <c r="G390" s="19" t="s">
+      <c r="F390" s="22">
+        <v>1</v>
+      </c>
+      <c r="G390" s="22" t="s">
         <v>1264</v>
       </c>
-      <c r="H390" s="49"/>
-      <c r="I390" s="19" t="s">
+      <c r="I390" s="22" t="s">
         <v>1109</v>
       </c>
-      <c r="J390" s="19" t="s">
+      <c r="J390" s="22" t="s">
         <v>1282</v>
       </c>
-      <c r="L390" s="19">
+      <c r="L390" s="22">
         <v>-31</v>
       </c>
-      <c r="M390" s="19">
-        <v>0</v>
-      </c>
-      <c r="N390" s="19">
-        <v>0</v>
-      </c>
-      <c r="O390" s="19" t="s">
+      <c r="M390" s="22">
+        <v>0</v>
+      </c>
+      <c r="N390" s="22">
+        <v>0</v>
+      </c>
+      <c r="O390" s="22" t="s">
         <v>481</v>
       </c>
-      <c r="P390" s="19">
+      <c r="P390" s="22">
         <v>9800</v>
       </c>
-      <c r="Q390" s="19" t="s">
+      <c r="Q390" s="22" t="s">
         <v>1283</v>
       </c>
-      <c r="R390" s="39" t="s">
+      <c r="R390" s="67" t="s">
         <v>1284</v>
       </c>
-      <c r="W390" s="19" t="s">
+      <c r="W390" s="22" t="s">
         <v>534</v>
       </c>
-      <c r="X390" s="19">
+      <c r="X390" s="22">
         <v>9999999</v>
       </c>
-      <c r="Y390" s="47">
-        <v>1608595200</v>
-      </c>
-      <c r="Z390" s="47">
-        <v>1609171199</v>
-      </c>
-      <c r="AA390" s="19">
+      <c r="Y390" s="22">
+        <v>1615248000</v>
+      </c>
+      <c r="Z390" s="22">
+        <v>1615823999</v>
+      </c>
+      <c r="AA390" s="22">
         <v>45</v>
       </c>
-      <c r="AH390" s="19">
-        <v>1</v>
-      </c>
-      <c r="AI390" s="19">
-        <v>1</v>
-      </c>
-      <c r="AL390" s="19">
-        <v>1</v>
-      </c>
-      <c r="AM390" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="391" spans="1:39" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A391" s="19">
+      <c r="AH390" s="22">
+        <v>1</v>
+      </c>
+      <c r="AI390" s="22">
+        <v>1</v>
+      </c>
+      <c r="AL390" s="22">
+        <v>1</v>
+      </c>
+      <c r="AM390" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="391" spans="1:39" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A391" s="22">
         <v>390</v>
       </c>
-      <c r="B391" s="19">
+      <c r="B391" s="22">
         <v>10307</v>
       </c>
-      <c r="F391" s="19">
-        <v>1</v>
-      </c>
-      <c r="G391" s="19" t="s">
+      <c r="F391" s="22">
+        <v>1</v>
+      </c>
+      <c r="G391" s="22" t="s">
         <v>1285</v>
       </c>
-      <c r="H391" s="49"/>
-      <c r="I391" s="19" t="s">
+      <c r="I391" s="22" t="s">
         <v>1278</v>
       </c>
-      <c r="J391" s="19" t="s">
+      <c r="J391" s="22" t="s">
         <v>1286</v>
       </c>
-      <c r="L391" s="19">
+      <c r="L391" s="22">
         <v>-31</v>
       </c>
-      <c r="M391" s="19">
-        <v>0</v>
-      </c>
-      <c r="N391" s="19">
-        <v>0</v>
-      </c>
-      <c r="O391" s="19" t="s">
+      <c r="M391" s="22">
+        <v>0</v>
+      </c>
+      <c r="N391" s="22">
+        <v>0</v>
+      </c>
+      <c r="O391" s="22" t="s">
         <v>481</v>
       </c>
-      <c r="P391" s="19">
+      <c r="P391" s="22">
         <v>19800</v>
       </c>
-      <c r="Q391" s="19" t="s">
+      <c r="Q391" s="22" t="s">
         <v>1287</v>
       </c>
-      <c r="R391" s="39" t="s">
+      <c r="R391" s="67" t="s">
         <v>1288</v>
       </c>
-      <c r="W391" s="19" t="s">
+      <c r="W391" s="22" t="s">
         <v>534</v>
       </c>
-      <c r="X391" s="19">
+      <c r="X391" s="22">
         <v>9999999</v>
       </c>
-      <c r="Y391" s="47">
-        <v>1608595200</v>
-      </c>
-      <c r="Z391" s="47">
-        <v>1609171199</v>
-      </c>
-      <c r="AA391" s="19">
+      <c r="Y391" s="22">
+        <v>1615248000</v>
+      </c>
+      <c r="Z391" s="22">
+        <v>1615823999</v>
+      </c>
+      <c r="AA391" s="22">
         <v>45</v>
       </c>
-      <c r="AH391" s="19">
-        <v>1</v>
-      </c>
-      <c r="AI391" s="19">
-        <v>1</v>
-      </c>
-      <c r="AL391" s="19">
-        <v>1</v>
-      </c>
-      <c r="AM391" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="392" spans="1:39" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A392" s="19">
+      <c r="AH391" s="22">
+        <v>1</v>
+      </c>
+      <c r="AI391" s="22">
+        <v>1</v>
+      </c>
+      <c r="AL391" s="22">
+        <v>1</v>
+      </c>
+      <c r="AM391" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="392" spans="1:39" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A392" s="22">
         <v>391</v>
       </c>
-      <c r="B392" s="19">
+      <c r="B392" s="22">
         <v>10308</v>
       </c>
-      <c r="F392" s="19">
-        <v>1</v>
-      </c>
-      <c r="G392" s="19" t="s">
+      <c r="F392" s="22">
+        <v>1</v>
+      </c>
+      <c r="G392" s="22" t="s">
         <v>1259</v>
       </c>
-      <c r="H392" s="47"/>
-      <c r="I392" s="19" t="s">
+      <c r="I392" s="22" t="s">
         <v>1289</v>
       </c>
-      <c r="J392" s="19" t="s">
+      <c r="J392" s="22" t="s">
         <v>1290</v>
       </c>
-      <c r="L392" s="19">
+      <c r="L392" s="22">
         <v>-31</v>
       </c>
-      <c r="M392" s="19">
-        <v>0</v>
-      </c>
-      <c r="N392" s="19">
-        <v>0</v>
-      </c>
-      <c r="O392" s="19" t="s">
+      <c r="M392" s="22">
+        <v>0</v>
+      </c>
+      <c r="N392" s="22">
+        <v>0</v>
+      </c>
+      <c r="O392" s="22" t="s">
         <v>481</v>
       </c>
-      <c r="P392" s="19">
+      <c r="P392" s="22">
         <v>9800</v>
       </c>
-      <c r="Q392" s="19" t="s">
+      <c r="Q392" s="22" t="s">
         <v>1291</v>
       </c>
-      <c r="R392" s="39" t="s">
+      <c r="R392" s="67" t="s">
         <v>1292</v>
       </c>
-      <c r="W392" s="19" t="s">
+      <c r="W392" s="22" t="s">
         <v>534</v>
       </c>
-      <c r="X392" s="19">
+      <c r="X392" s="22">
         <v>9999999</v>
       </c>
-      <c r="Y392" s="47">
-        <v>1608595200</v>
-      </c>
-      <c r="Z392" s="47">
-        <v>1609171199</v>
-      </c>
-      <c r="AA392" s="19">
+      <c r="Y392" s="22">
+        <v>1615248000</v>
+      </c>
+      <c r="Z392" s="22">
+        <v>1615823999</v>
+      </c>
+      <c r="AA392" s="22">
         <v>46</v>
       </c>
-      <c r="AH392" s="19">
-        <v>1</v>
-      </c>
-      <c r="AI392" s="19">
-        <v>1</v>
-      </c>
-      <c r="AL392" s="19">
-        <v>1</v>
-      </c>
-      <c r="AM392" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="393" spans="1:39" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A393" s="19">
+      <c r="AH392" s="22">
+        <v>1</v>
+      </c>
+      <c r="AI392" s="22">
+        <v>1</v>
+      </c>
+      <c r="AL392" s="22">
+        <v>1</v>
+      </c>
+      <c r="AM392" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="393" spans="1:39" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A393" s="22">
         <v>392</v>
       </c>
-      <c r="B393" s="19">
+      <c r="B393" s="22">
         <v>10309</v>
       </c>
-      <c r="F393" s="19">
-        <v>1</v>
-      </c>
-      <c r="G393" s="19" t="s">
+      <c r="F393" s="22">
+        <v>1</v>
+      </c>
+      <c r="G393" s="22" t="s">
         <v>1264</v>
       </c>
-      <c r="H393" s="47"/>
-      <c r="I393" s="19" t="s">
+      <c r="I393" s="22" t="s">
         <v>1293</v>
       </c>
-      <c r="J393" s="19" t="s">
+      <c r="J393" s="22" t="s">
         <v>1294</v>
       </c>
-      <c r="L393" s="19">
+      <c r="L393" s="22">
         <v>-31</v>
       </c>
-      <c r="M393" s="19">
-        <v>0</v>
-      </c>
-      <c r="N393" s="19">
-        <v>0</v>
-      </c>
-      <c r="O393" s="19" t="s">
+      <c r="M393" s="22">
+        <v>0</v>
+      </c>
+      <c r="N393" s="22">
+        <v>0</v>
+      </c>
+      <c r="O393" s="22" t="s">
         <v>481</v>
       </c>
-      <c r="P393" s="19">
+      <c r="P393" s="22">
         <v>19800</v>
       </c>
-      <c r="Q393" s="19" t="s">
+      <c r="Q393" s="22" t="s">
         <v>1295</v>
       </c>
-      <c r="R393" s="39" t="s">
+      <c r="R393" s="67" t="s">
         <v>1288</v>
       </c>
-      <c r="W393" s="19" t="s">
+      <c r="W393" s="22" t="s">
         <v>534</v>
       </c>
-      <c r="X393" s="19">
+      <c r="X393" s="22">
         <v>9999999</v>
       </c>
-      <c r="Y393" s="47">
-        <v>1608595200</v>
-      </c>
-      <c r="Z393" s="47">
-        <v>1609171199</v>
-      </c>
-      <c r="AA393" s="19">
+      <c r="Y393" s="22">
+        <v>1615248000</v>
+      </c>
+      <c r="Z393" s="22">
+        <v>1615823999</v>
+      </c>
+      <c r="AA393" s="22">
         <v>46</v>
       </c>
-      <c r="AH393" s="19">
-        <v>1</v>
-      </c>
-      <c r="AI393" s="19">
-        <v>1</v>
-      </c>
-      <c r="AL393" s="19">
-        <v>1</v>
-      </c>
-      <c r="AM393" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="394" spans="1:39" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A394" s="19">
+      <c r="AH393" s="22">
+        <v>1</v>
+      </c>
+      <c r="AI393" s="22">
+        <v>1</v>
+      </c>
+      <c r="AL393" s="22">
+        <v>1</v>
+      </c>
+      <c r="AM393" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="394" spans="1:39" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A394" s="22">
         <v>393</v>
       </c>
-      <c r="B394" s="19">
+      <c r="B394" s="22">
         <v>10310</v>
       </c>
-      <c r="F394" s="19">
-        <v>1</v>
-      </c>
-      <c r="G394" s="19" t="s">
+      <c r="F394" s="22">
+        <v>1</v>
+      </c>
+      <c r="G394" s="22" t="s">
         <v>1270</v>
       </c>
-      <c r="H394" s="47"/>
-      <c r="I394" s="19" t="s">
+      <c r="I394" s="22" t="s">
         <v>1296</v>
       </c>
-      <c r="J394" s="19" t="s">
+      <c r="J394" s="22" t="s">
         <v>1297</v>
       </c>
-      <c r="L394" s="19">
+      <c r="L394" s="22">
         <v>-31</v>
       </c>
-      <c r="M394" s="19">
-        <v>0</v>
-      </c>
-      <c r="N394" s="19">
-        <v>0</v>
-      </c>
-      <c r="O394" s="19" t="s">
+      <c r="M394" s="22">
+        <v>0</v>
+      </c>
+      <c r="N394" s="22">
+        <v>0</v>
+      </c>
+      <c r="O394" s="22" t="s">
         <v>1298</v>
       </c>
-      <c r="P394" s="19">
+      <c r="P394" s="22">
         <v>49800</v>
       </c>
-      <c r="Q394" s="19" t="s">
+      <c r="Q394" s="22" t="s">
         <v>1299</v>
       </c>
-      <c r="R394" s="39" t="s">
+      <c r="R394" s="67" t="s">
         <v>1300</v>
       </c>
-      <c r="W394" s="19" t="s">
+      <c r="W394" s="22" t="s">
         <v>534</v>
       </c>
-      <c r="X394" s="19">
+      <c r="X394" s="22">
         <v>9999999</v>
       </c>
-      <c r="Y394" s="47">
-        <v>1608595200</v>
-      </c>
-      <c r="Z394" s="47">
-        <v>1609171199</v>
-      </c>
-      <c r="AA394" s="19">
+      <c r="Y394" s="22">
+        <v>1615248000</v>
+      </c>
+      <c r="Z394" s="22">
+        <v>1615823999</v>
+      </c>
+      <c r="AA394" s="22">
         <v>46</v>
       </c>
-      <c r="AH394" s="19">
-        <v>1</v>
-      </c>
-      <c r="AI394" s="19">
-        <v>1</v>
-      </c>
-      <c r="AL394" s="19">
-        <v>1</v>
-      </c>
-      <c r="AM394" s="19">
+      <c r="AH394" s="22">
+        <v>1</v>
+      </c>
+      <c r="AI394" s="22">
+        <v>1</v>
+      </c>
+      <c r="AL394" s="22">
+        <v>1</v>
+      </c>
+      <c r="AM394" s="22">
         <v>1</v>
       </c>
     </row>
@@ -37116,7 +37134,7 @@
         <v>10311</v>
       </c>
       <c r="F395" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G395" s="5" t="s">
         <v>1309</v>
@@ -37178,7 +37196,7 @@
         <v>10312</v>
       </c>
       <c r="F396" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G396" s="5" t="s">
         <v>1315</v>
@@ -37240,7 +37258,7 @@
         <v>10313</v>
       </c>
       <c r="F397" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G397" s="5" t="s">
         <v>288</v>
@@ -37302,7 +37320,7 @@
         <v>10314</v>
       </c>
       <c r="F398" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G398" s="5" t="s">
         <v>291</v>
@@ -37364,7 +37382,7 @@
         <v>10315</v>
       </c>
       <c r="F399" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G399" s="5" t="s">
         <v>1322</v>
@@ -37426,7 +37444,7 @@
         <v>10316</v>
       </c>
       <c r="F400" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G400" s="5" t="s">
         <v>1325</v>
@@ -38325,62 +38343,62 @@
         <v>1</v>
       </c>
     </row>
-    <row r="414" spans="1:39" s="51" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A414" s="51">
+    <row r="414" spans="1:39" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A414" s="50">
         <v>413</v>
       </c>
-      <c r="B414" s="51">
+      <c r="B414" s="50">
         <v>10330</v>
       </c>
-      <c r="D414" s="51">
-        <v>1</v>
-      </c>
-      <c r="F414" s="51">
-        <v>1</v>
-      </c>
-      <c r="G414" s="51" t="s">
+      <c r="D414" s="50">
+        <v>1</v>
+      </c>
+      <c r="F414" s="50">
+        <v>1</v>
+      </c>
+      <c r="G414" s="50" t="s">
         <v>1374</v>
       </c>
-      <c r="H414" s="51" t="s">
+      <c r="H414" s="50" t="s">
         <v>1792</v>
       </c>
-      <c r="L414" s="51">
+      <c r="L414" s="50">
         <v>-4</v>
       </c>
-      <c r="M414" s="51">
-        <v>0</v>
-      </c>
-      <c r="N414" s="51">
-        <v>0</v>
-      </c>
-      <c r="O414" s="51" t="s">
+      <c r="M414" s="50">
+        <v>0</v>
+      </c>
+      <c r="N414" s="50">
+        <v>0</v>
+      </c>
+      <c r="O414" s="50" t="s">
         <v>100</v>
       </c>
-      <c r="P414" s="51">
+      <c r="P414" s="50">
         <v>600</v>
       </c>
-      <c r="Q414" s="51" t="s">
+      <c r="Q414" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="R414" s="56" t="s">
+      <c r="R414" s="55" t="s">
         <v>1375</v>
       </c>
-      <c r="W414" s="51" t="s">
+      <c r="W414" s="50" t="s">
         <v>524</v>
       </c>
-      <c r="X414" s="52" t="s">
+      <c r="X414" s="51" t="s">
         <v>108</v>
       </c>
-      <c r="Y414" s="53">
-        <v>0</v>
-      </c>
-      <c r="Z414" s="51">
+      <c r="Y414" s="52">
+        <v>0</v>
+      </c>
+      <c r="Z414" s="50">
         <v>2552233600</v>
       </c>
-      <c r="AH414" s="51">
-        <v>1</v>
-      </c>
-      <c r="AI414" s="51">
+      <c r="AH414" s="50">
+        <v>1</v>
+      </c>
+      <c r="AI414" s="50">
         <v>1</v>
       </c>
     </row>
@@ -38792,827 +38810,827 @@
         <v>1</v>
       </c>
     </row>
-    <row r="421" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A421" s="59">
+    <row r="421" spans="1:39" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A421" s="58">
         <v>420</v>
       </c>
-      <c r="B421" s="59">
+      <c r="B421" s="58">
         <v>10337</v>
       </c>
-      <c r="F421" s="59">
-        <v>1</v>
-      </c>
-      <c r="G421" s="59" t="s">
+      <c r="F421" s="58">
+        <v>1</v>
+      </c>
+      <c r="G421" s="58" t="s">
         <v>1420</v>
       </c>
-      <c r="J421" s="59" t="s">
+      <c r="J421" s="58" t="s">
         <v>1421</v>
       </c>
-      <c r="L421" s="59">
+      <c r="L421" s="58">
         <v>-31</v>
       </c>
-      <c r="M421" s="59">
-        <v>0</v>
-      </c>
-      <c r="N421" s="59">
-        <v>0</v>
-      </c>
-      <c r="O421" s="59" t="s">
+      <c r="M421" s="58">
+        <v>0</v>
+      </c>
+      <c r="N421" s="58">
+        <v>0</v>
+      </c>
+      <c r="O421" s="58" t="s">
         <v>1422</v>
       </c>
-      <c r="P421" s="59">
+      <c r="P421" s="58">
         <v>1000</v>
       </c>
-      <c r="Q421" s="59" t="s">
+      <c r="Q421" s="58" t="s">
         <v>1423</v>
       </c>
-      <c r="R421" s="60" t="s">
+      <c r="R421" s="59" t="s">
         <v>1424</v>
       </c>
-      <c r="W421" s="59" t="s">
+      <c r="W421" s="58" t="s">
         <v>1425</v>
       </c>
-      <c r="X421" s="59">
+      <c r="X421" s="58">
         <v>9999999</v>
       </c>
-      <c r="Y421" s="59">
+      <c r="Y421" s="58">
         <v>1585609200</v>
       </c>
-      <c r="Z421" s="59">
+      <c r="Z421" s="58">
         <v>2552233600</v>
       </c>
-      <c r="AB421" s="59" t="s">
+      <c r="AB421" s="58" t="s">
         <v>1426</v>
       </c>
-      <c r="AC421" s="59" t="s">
+      <c r="AC421" s="58" t="s">
         <v>1427</v>
       </c>
-      <c r="AH421" s="59">
-        <v>1</v>
-      </c>
-      <c r="AI421" s="59">
-        <v>1</v>
-      </c>
-      <c r="AL421" s="59">
-        <v>1</v>
-      </c>
-      <c r="AM421" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="422" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A422" s="59">
+      <c r="AH421" s="58">
+        <v>1</v>
+      </c>
+      <c r="AI421" s="58">
+        <v>1</v>
+      </c>
+      <c r="AL421" s="58">
+        <v>1</v>
+      </c>
+      <c r="AM421" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="422" spans="1:39" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A422" s="58">
         <v>421</v>
       </c>
-      <c r="B422" s="59">
+      <c r="B422" s="58">
         <v>10338</v>
       </c>
-      <c r="F422" s="59">
-        <v>1</v>
-      </c>
-      <c r="G422" s="59" t="s">
+      <c r="F422" s="58">
+        <v>1</v>
+      </c>
+      <c r="G422" s="58" t="s">
         <v>1446</v>
       </c>
-      <c r="I422" s="59" t="s">
+      <c r="I422" s="58" t="s">
         <v>1447</v>
       </c>
-      <c r="J422" s="59" t="s">
+      <c r="J422" s="58" t="s">
         <v>1448</v>
       </c>
-      <c r="L422" s="59">
+      <c r="L422" s="58">
         <v>-31</v>
       </c>
-      <c r="M422" s="59">
-        <v>0</v>
-      </c>
-      <c r="N422" s="59">
-        <v>0</v>
-      </c>
-      <c r="O422" s="59" t="s">
+      <c r="M422" s="58">
+        <v>0</v>
+      </c>
+      <c r="N422" s="58">
+        <v>0</v>
+      </c>
+      <c r="O422" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="P422" s="59">
+      <c r="P422" s="58">
         <v>2000</v>
       </c>
-      <c r="Q422" s="59" t="s">
+      <c r="Q422" s="58" t="s">
         <v>1449</v>
       </c>
-      <c r="R422" s="60" t="s">
+      <c r="R422" s="59" t="s">
         <v>1450</v>
       </c>
-      <c r="W422" s="59" t="s">
+      <c r="W422" s="58" t="s">
         <v>568</v>
       </c>
-      <c r="X422" s="59">
+      <c r="X422" s="58">
         <v>99999999</v>
       </c>
-      <c r="Y422" s="59">
+      <c r="Y422" s="58">
         <v>1603756800</v>
       </c>
-      <c r="Z422" s="59">
+      <c r="Z422" s="58">
         <v>2552233600</v>
       </c>
-      <c r="AA422" s="59">
+      <c r="AA422" s="58">
         <v>51</v>
       </c>
-      <c r="AH422" s="59">
-        <v>1</v>
-      </c>
-      <c r="AI422" s="59">
-        <v>1</v>
-      </c>
-      <c r="AL422" s="59">
-        <v>1</v>
-      </c>
-      <c r="AM422" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="423" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A423" s="59">
+      <c r="AH422" s="58">
+        <v>1</v>
+      </c>
+      <c r="AI422" s="58">
+        <v>1</v>
+      </c>
+      <c r="AL422" s="58">
+        <v>1</v>
+      </c>
+      <c r="AM422" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="423" spans="1:39" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A423" s="58">
         <v>422</v>
       </c>
-      <c r="B423" s="59">
+      <c r="B423" s="58">
         <v>10339</v>
       </c>
-      <c r="F423" s="59">
-        <v>1</v>
-      </c>
-      <c r="G423" s="59" t="s">
+      <c r="F423" s="58">
+        <v>1</v>
+      </c>
+      <c r="G423" s="58" t="s">
         <v>1428</v>
       </c>
-      <c r="I423" s="59" t="s">
+      <c r="I423" s="58" t="s">
         <v>1447</v>
       </c>
-      <c r="J423" s="59" t="s">
+      <c r="J423" s="58" t="s">
         <v>1451</v>
       </c>
-      <c r="L423" s="59">
+      <c r="L423" s="58">
         <v>-31</v>
       </c>
-      <c r="M423" s="59">
-        <v>0</v>
-      </c>
-      <c r="N423" s="59">
-        <v>0</v>
-      </c>
-      <c r="O423" s="59" t="s">
+      <c r="M423" s="58">
+        <v>0</v>
+      </c>
+      <c r="N423" s="58">
+        <v>0</v>
+      </c>
+      <c r="O423" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="P423" s="59">
+      <c r="P423" s="58">
         <v>5800</v>
       </c>
-      <c r="Q423" s="59" t="s">
+      <c r="Q423" s="58" t="s">
         <v>1452</v>
       </c>
-      <c r="R423" s="60" t="s">
+      <c r="R423" s="59" t="s">
         <v>1453</v>
       </c>
-      <c r="W423" s="59" t="s">
+      <c r="W423" s="58" t="s">
         <v>1454</v>
       </c>
-      <c r="X423" s="59">
+      <c r="X423" s="58">
         <v>99999999</v>
       </c>
-      <c r="Y423" s="59">
+      <c r="Y423" s="58">
         <v>1603756800</v>
       </c>
-      <c r="Z423" s="59">
+      <c r="Z423" s="58">
         <v>2552233600</v>
       </c>
-      <c r="AA423" s="59">
+      <c r="AA423" s="58">
         <v>51</v>
       </c>
-      <c r="AH423" s="59">
-        <v>1</v>
-      </c>
-      <c r="AI423" s="59">
-        <v>1</v>
-      </c>
-      <c r="AL423" s="59">
-        <v>1</v>
-      </c>
-      <c r="AM423" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="424" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A424" s="59">
+      <c r="AH423" s="58">
+        <v>1</v>
+      </c>
+      <c r="AI423" s="58">
+        <v>1</v>
+      </c>
+      <c r="AL423" s="58">
+        <v>1</v>
+      </c>
+      <c r="AM423" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="424" spans="1:39" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A424" s="58">
         <v>423</v>
       </c>
-      <c r="B424" s="59">
+      <c r="B424" s="58">
         <v>10340</v>
       </c>
-      <c r="F424" s="59">
-        <v>1</v>
-      </c>
-      <c r="G424" s="59" t="s">
+      <c r="F424" s="58">
+        <v>1</v>
+      </c>
+      <c r="G424" s="58" t="s">
         <v>1455</v>
       </c>
-      <c r="I424" s="59" t="s">
+      <c r="I424" s="58" t="s">
         <v>1456</v>
       </c>
-      <c r="J424" s="59" t="s">
+      <c r="J424" s="58" t="s">
         <v>1457</v>
       </c>
-      <c r="L424" s="59">
+      <c r="L424" s="58">
         <v>-31</v>
       </c>
-      <c r="M424" s="59">
-        <v>0</v>
-      </c>
-      <c r="N424" s="59">
-        <v>0</v>
-      </c>
-      <c r="O424" s="59" t="s">
+      <c r="M424" s="58">
+        <v>0</v>
+      </c>
+      <c r="N424" s="58">
+        <v>0</v>
+      </c>
+      <c r="O424" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="P424" s="59">
+      <c r="P424" s="58">
         <v>12800</v>
       </c>
-      <c r="Q424" s="59" t="s">
+      <c r="Q424" s="58" t="s">
         <v>1458</v>
       </c>
-      <c r="R424" s="60" t="s">
+      <c r="R424" s="59" t="s">
         <v>1459</v>
       </c>
-      <c r="W424" s="59" t="s">
+      <c r="W424" s="58" t="s">
         <v>1454</v>
       </c>
-      <c r="X424" s="59">
+      <c r="X424" s="58">
         <v>99999999</v>
       </c>
-      <c r="Y424" s="59">
+      <c r="Y424" s="58">
         <v>1603756800</v>
       </c>
-      <c r="Z424" s="59">
+      <c r="Z424" s="58">
         <v>2552233600</v>
       </c>
-      <c r="AA424" s="59">
+      <c r="AA424" s="58">
         <v>51</v>
       </c>
-      <c r="AH424" s="59">
-        <v>1</v>
-      </c>
-      <c r="AI424" s="59">
-        <v>1</v>
-      </c>
-      <c r="AL424" s="59">
-        <v>1</v>
-      </c>
-      <c r="AM424" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="425" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A425" s="59">
+      <c r="AH424" s="58">
+        <v>1</v>
+      </c>
+      <c r="AI424" s="58">
+        <v>1</v>
+      </c>
+      <c r="AL424" s="58">
+        <v>1</v>
+      </c>
+      <c r="AM424" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="425" spans="1:39" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A425" s="58">
         <v>424</v>
       </c>
-      <c r="B425" s="59">
+      <c r="B425" s="58">
         <v>10341</v>
       </c>
-      <c r="F425" s="59">
-        <v>1</v>
-      </c>
-      <c r="G425" s="59" t="s">
+      <c r="F425" s="58">
+        <v>1</v>
+      </c>
+      <c r="G425" s="58" t="s">
         <v>1430</v>
       </c>
-      <c r="J425" s="59" t="s">
+      <c r="J425" s="58" t="s">
         <v>1431</v>
       </c>
-      <c r="L425" s="59">
+      <c r="L425" s="58">
         <v>-31</v>
       </c>
-      <c r="M425" s="59">
-        <v>0</v>
-      </c>
-      <c r="N425" s="59">
-        <v>0</v>
-      </c>
-      <c r="O425" s="59" t="s">
+      <c r="M425" s="58">
+        <v>0</v>
+      </c>
+      <c r="N425" s="58">
+        <v>0</v>
+      </c>
+      <c r="O425" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="P425" s="59">
+      <c r="P425" s="58">
         <v>49800</v>
       </c>
-      <c r="Q425" s="59" t="s">
+      <c r="Q425" s="58" t="s">
         <v>1432</v>
       </c>
-      <c r="R425" s="60" t="s">
+      <c r="R425" s="59" t="s">
         <v>1433</v>
       </c>
-      <c r="W425" s="59" t="s">
+      <c r="W425" s="58" t="s">
         <v>1429</v>
       </c>
-      <c r="X425" s="59">
+      <c r="X425" s="58">
         <v>9999999</v>
       </c>
-      <c r="Y425" s="59">
+      <c r="Y425" s="58">
         <v>1585609200</v>
       </c>
-      <c r="Z425" s="59">
+      <c r="Z425" s="58">
         <v>2552233600</v>
       </c>
-      <c r="AH425" s="59">
-        <v>1</v>
-      </c>
-      <c r="AI425" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="426" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A426" s="59">
+      <c r="AH425" s="58">
+        <v>1</v>
+      </c>
+      <c r="AI425" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="426" spans="1:39" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A426" s="58">
         <v>425</v>
       </c>
-      <c r="B426" s="59">
+      <c r="B426" s="58">
         <v>10342</v>
       </c>
-      <c r="F426" s="59">
-        <v>1</v>
-      </c>
-      <c r="G426" s="59" t="s">
+      <c r="F426" s="58">
+        <v>1</v>
+      </c>
+      <c r="G426" s="58" t="s">
         <v>1434</v>
       </c>
-      <c r="J426" s="59" t="s">
+      <c r="J426" s="58" t="s">
         <v>1435</v>
       </c>
-      <c r="L426" s="59">
+      <c r="L426" s="58">
         <v>-31</v>
       </c>
-      <c r="M426" s="59">
-        <v>0</v>
-      </c>
-      <c r="N426" s="59">
-        <v>0</v>
-      </c>
-      <c r="O426" s="59" t="s">
+      <c r="M426" s="58">
+        <v>0</v>
+      </c>
+      <c r="N426" s="58">
+        <v>0</v>
+      </c>
+      <c r="O426" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="P426" s="59">
+      <c r="P426" s="58">
         <v>19800</v>
       </c>
-      <c r="Q426" s="59" t="s">
+      <c r="Q426" s="58" t="s">
         <v>1436</v>
       </c>
-      <c r="R426" s="60" t="s">
+      <c r="R426" s="59" t="s">
         <v>1433</v>
       </c>
-      <c r="W426" s="59" t="s">
+      <c r="W426" s="58" t="s">
         <v>1429</v>
       </c>
-      <c r="X426" s="59">
+      <c r="X426" s="58">
         <v>9999999</v>
       </c>
-      <c r="Y426" s="59">
+      <c r="Y426" s="58">
         <v>1585609200</v>
       </c>
-      <c r="Z426" s="59">
+      <c r="Z426" s="58">
         <v>2552233600</v>
       </c>
-      <c r="AH426" s="59">
-        <v>1</v>
-      </c>
-      <c r="AI426" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="427" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A427" s="59">
+      <c r="AH426" s="58">
+        <v>1</v>
+      </c>
+      <c r="AI426" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="427" spans="1:39" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A427" s="58">
         <v>426</v>
       </c>
-      <c r="B427" s="59">
+      <c r="B427" s="58">
         <v>10343</v>
       </c>
-      <c r="F427" s="59">
-        <v>1</v>
-      </c>
-      <c r="G427" s="59" t="s">
+      <c r="F427" s="58">
+        <v>1</v>
+      </c>
+      <c r="G427" s="58" t="s">
         <v>1437</v>
       </c>
-      <c r="J427" s="59" t="s">
+      <c r="J427" s="58" t="s">
         <v>1438</v>
       </c>
-      <c r="L427" s="59">
+      <c r="L427" s="58">
         <v>-31</v>
       </c>
-      <c r="M427" s="59">
-        <v>0</v>
-      </c>
-      <c r="N427" s="59">
-        <v>0</v>
-      </c>
-      <c r="O427" s="59" t="s">
+      <c r="M427" s="58">
+        <v>0</v>
+      </c>
+      <c r="N427" s="58">
+        <v>0</v>
+      </c>
+      <c r="O427" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="P427" s="59">
+      <c r="P427" s="58">
         <v>9800</v>
       </c>
-      <c r="Q427" s="59" t="s">
+      <c r="Q427" s="58" t="s">
         <v>1439</v>
       </c>
-      <c r="R427" s="60" t="s">
+      <c r="R427" s="59" t="s">
         <v>649</v>
       </c>
-      <c r="W427" s="59" t="s">
+      <c r="W427" s="58" t="s">
         <v>1429</v>
       </c>
-      <c r="X427" s="59">
+      <c r="X427" s="58">
         <v>9999999</v>
       </c>
-      <c r="Y427" s="59">
+      <c r="Y427" s="58">
         <v>1585609200</v>
       </c>
-      <c r="Z427" s="59">
+      <c r="Z427" s="58">
         <v>2552233600</v>
       </c>
-      <c r="AH427" s="59">
-        <v>1</v>
-      </c>
-      <c r="AI427" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="428" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A428" s="59">
+      <c r="AH427" s="58">
+        <v>1</v>
+      </c>
+      <c r="AI427" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="428" spans="1:39" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A428" s="58">
         <v>427</v>
       </c>
-      <c r="B428" s="59">
+      <c r="B428" s="58">
         <v>10344</v>
       </c>
-      <c r="F428" s="59">
-        <v>1</v>
-      </c>
-      <c r="G428" s="59" t="s">
+      <c r="F428" s="58">
+        <v>1</v>
+      </c>
+      <c r="G428" s="58" t="s">
         <v>1440</v>
       </c>
-      <c r="J428" s="59" t="s">
+      <c r="J428" s="58" t="s">
         <v>1441</v>
       </c>
-      <c r="L428" s="59">
+      <c r="L428" s="58">
         <v>-31</v>
       </c>
-      <c r="M428" s="59">
-        <v>0</v>
-      </c>
-      <c r="N428" s="59">
-        <v>0</v>
-      </c>
-      <c r="O428" s="59" t="s">
+      <c r="M428" s="58">
+        <v>0</v>
+      </c>
+      <c r="N428" s="58">
+        <v>0</v>
+      </c>
+      <c r="O428" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="P428" s="59">
+      <c r="P428" s="58">
         <v>9800</v>
       </c>
-      <c r="Q428" s="59" t="s">
+      <c r="Q428" s="58" t="s">
         <v>1442</v>
       </c>
-      <c r="R428" s="60" t="s">
+      <c r="R428" s="59" t="s">
         <v>1433</v>
       </c>
-      <c r="W428" s="59" t="s">
+      <c r="W428" s="58" t="s">
         <v>1425</v>
       </c>
-      <c r="X428" s="59">
+      <c r="X428" s="58">
         <v>9999999</v>
       </c>
-      <c r="Y428" s="59">
+      <c r="Y428" s="58">
         <v>1585609200</v>
       </c>
-      <c r="Z428" s="59">
+      <c r="Z428" s="58">
         <v>2552233600</v>
       </c>
-      <c r="AH428" s="59">
-        <v>1</v>
-      </c>
-      <c r="AI428" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="429" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A429" s="59">
+      <c r="AH428" s="58">
+        <v>1</v>
+      </c>
+      <c r="AI428" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="429" spans="1:39" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A429" s="58">
         <v>428</v>
       </c>
-      <c r="B429" s="59">
+      <c r="B429" s="58">
         <v>10345</v>
       </c>
-      <c r="F429" s="59">
-        <v>1</v>
-      </c>
-      <c r="G429" s="59" t="s">
+      <c r="F429" s="58">
+        <v>1</v>
+      </c>
+      <c r="G429" s="58" t="s">
         <v>1443</v>
       </c>
-      <c r="J429" s="59" t="s">
+      <c r="J429" s="58" t="s">
         <v>1444</v>
       </c>
-      <c r="L429" s="59">
+      <c r="L429" s="58">
         <v>-31</v>
       </c>
-      <c r="M429" s="59">
-        <v>0</v>
-      </c>
-      <c r="N429" s="59">
-        <v>0</v>
-      </c>
-      <c r="O429" s="59" t="s">
+      <c r="M429" s="58">
+        <v>0</v>
+      </c>
+      <c r="N429" s="58">
+        <v>0</v>
+      </c>
+      <c r="O429" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="P429" s="59">
+      <c r="P429" s="58">
         <v>4800</v>
       </c>
-      <c r="Q429" s="59" t="s">
+      <c r="Q429" s="58" t="s">
         <v>1445</v>
       </c>
-      <c r="R429" s="60" t="s">
+      <c r="R429" s="59" t="s">
         <v>649</v>
       </c>
-      <c r="W429" s="59" t="s">
+      <c r="W429" s="58" t="s">
         <v>1425</v>
       </c>
-      <c r="X429" s="59">
+      <c r="X429" s="58">
         <v>9999999</v>
       </c>
-      <c r="Y429" s="59">
+      <c r="Y429" s="58">
         <v>1585609200</v>
       </c>
-      <c r="Z429" s="59">
+      <c r="Z429" s="58">
         <v>2552233600</v>
       </c>
-      <c r="AH429" s="59">
-        <v>1</v>
-      </c>
-      <c r="AI429" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="430" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A430" s="59">
+      <c r="AH429" s="58">
+        <v>1</v>
+      </c>
+      <c r="AI429" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="430" spans="1:39" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A430" s="58">
         <v>429</v>
       </c>
-      <c r="B430" s="59">
+      <c r="B430" s="58">
         <v>10346</v>
       </c>
-      <c r="F430" s="59">
-        <v>1</v>
-      </c>
-      <c r="G430" s="59" t="s">
+      <c r="F430" s="58">
+        <v>1</v>
+      </c>
+      <c r="G430" s="58" t="s">
         <v>1769</v>
       </c>
-      <c r="I430" s="59" t="s">
+      <c r="I430" s="58" t="s">
         <v>1770</v>
       </c>
-      <c r="J430" s="59" t="s">
+      <c r="J430" s="58" t="s">
         <v>1771</v>
       </c>
-      <c r="L430" s="59">
+      <c r="L430" s="58">
         <v>-28</v>
       </c>
-      <c r="M430" s="59">
-        <v>0</v>
-      </c>
-      <c r="N430" s="59">
-        <v>0</v>
-      </c>
-      <c r="O430" s="59" t="s">
+      <c r="M430" s="58">
+        <v>0</v>
+      </c>
+      <c r="N430" s="58">
+        <v>0</v>
+      </c>
+      <c r="O430" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="P430" s="59">
+      <c r="P430" s="58">
         <v>100</v>
       </c>
-      <c r="Q430" s="59" t="s">
+      <c r="Q430" s="58" t="s">
         <v>1398</v>
       </c>
-      <c r="R430" s="60" t="s">
+      <c r="R430" s="59" t="s">
         <v>1772</v>
       </c>
-      <c r="W430" s="59" t="s">
+      <c r="W430" s="58" t="s">
         <v>1773</v>
       </c>
-      <c r="X430" s="59">
+      <c r="X430" s="58">
         <v>9999999</v>
       </c>
-      <c r="Y430" s="59">
+      <c r="Y430" s="58">
         <v>1581377400</v>
       </c>
-      <c r="Z430" s="59">
+      <c r="Z430" s="58">
         <v>2552233600</v>
       </c>
-      <c r="AA430" s="59">
+      <c r="AA430" s="58">
         <v>14</v>
       </c>
-      <c r="AH430" s="59">
-        <v>1</v>
-      </c>
-      <c r="AI430" s="59">
-        <v>1</v>
-      </c>
-      <c r="AL430" s="59">
-        <v>1</v>
-      </c>
-      <c r="AM430" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="431" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A431" s="59">
+      <c r="AH430" s="58">
+        <v>1</v>
+      </c>
+      <c r="AI430" s="58">
+        <v>1</v>
+      </c>
+      <c r="AL430" s="58">
+        <v>1</v>
+      </c>
+      <c r="AM430" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="431" spans="1:39" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A431" s="58">
         <v>430</v>
       </c>
-      <c r="B431" s="59">
+      <c r="B431" s="58">
         <v>10347</v>
       </c>
-      <c r="F431" s="59">
-        <v>1</v>
-      </c>
-      <c r="G431" s="59" t="s">
+      <c r="F431" s="58">
+        <v>1</v>
+      </c>
+      <c r="G431" s="58" t="s">
         <v>1769</v>
       </c>
-      <c r="I431" s="59" t="s">
+      <c r="I431" s="58" t="s">
         <v>1774</v>
       </c>
-      <c r="J431" s="59" t="s">
+      <c r="J431" s="58" t="s">
         <v>1775</v>
       </c>
-      <c r="L431" s="59">
+      <c r="L431" s="58">
         <v>-28</v>
       </c>
-      <c r="M431" s="59">
-        <v>0</v>
-      </c>
-      <c r="N431" s="59">
-        <v>0</v>
-      </c>
-      <c r="O431" s="59" t="s">
+      <c r="M431" s="58">
+        <v>0</v>
+      </c>
+      <c r="N431" s="58">
+        <v>0</v>
+      </c>
+      <c r="O431" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="P431" s="59">
+      <c r="P431" s="58">
         <v>300</v>
       </c>
-      <c r="Q431" s="59" t="s">
+      <c r="Q431" s="58" t="s">
         <v>1398</v>
       </c>
-      <c r="R431" s="60" t="s">
+      <c r="R431" s="59" t="s">
         <v>1776</v>
       </c>
-      <c r="W431" s="59" t="s">
+      <c r="W431" s="58" t="s">
         <v>527</v>
       </c>
-      <c r="X431" s="59">
+      <c r="X431" s="58">
         <v>9999999</v>
       </c>
-      <c r="Y431" s="59">
+      <c r="Y431" s="58">
         <v>1581377400</v>
       </c>
-      <c r="Z431" s="59">
+      <c r="Z431" s="58">
         <v>2552233600</v>
       </c>
-      <c r="AA431" s="59">
+      <c r="AA431" s="58">
         <v>14</v>
       </c>
-      <c r="AH431" s="59">
-        <v>1</v>
-      </c>
-      <c r="AI431" s="59">
-        <v>1</v>
-      </c>
-      <c r="AL431" s="59">
-        <v>1</v>
-      </c>
-      <c r="AM431" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="432" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A432" s="59">
+      <c r="AH431" s="58">
+        <v>1</v>
+      </c>
+      <c r="AI431" s="58">
+        <v>1</v>
+      </c>
+      <c r="AL431" s="58">
+        <v>1</v>
+      </c>
+      <c r="AM431" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="432" spans="1:39" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A432" s="58">
         <v>431</v>
       </c>
-      <c r="B432" s="59">
+      <c r="B432" s="58">
         <v>10348</v>
       </c>
-      <c r="F432" s="59">
-        <v>1</v>
-      </c>
-      <c r="G432" s="59" t="s">
+      <c r="F432" s="58">
+        <v>1</v>
+      </c>
+      <c r="G432" s="58" t="s">
         <v>1769</v>
       </c>
-      <c r="I432" s="59" t="s">
+      <c r="I432" s="58" t="s">
         <v>1777</v>
       </c>
-      <c r="J432" s="59" t="s">
+      <c r="J432" s="58" t="s">
         <v>1778</v>
       </c>
-      <c r="L432" s="59">
+      <c r="L432" s="58">
         <v>-28</v>
       </c>
-      <c r="M432" s="59">
-        <v>0</v>
-      </c>
-      <c r="N432" s="59">
-        <v>0</v>
-      </c>
-      <c r="O432" s="59" t="s">
+      <c r="M432" s="58">
+        <v>0</v>
+      </c>
+      <c r="N432" s="58">
+        <v>0</v>
+      </c>
+      <c r="O432" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="P432" s="59">
+      <c r="P432" s="58">
         <v>600</v>
       </c>
-      <c r="Q432" s="59" t="s">
+      <c r="Q432" s="58" t="s">
         <v>1398</v>
       </c>
-      <c r="R432" s="60" t="s">
+      <c r="R432" s="59" t="s">
         <v>1779</v>
       </c>
-      <c r="W432" s="59" t="s">
+      <c r="W432" s="58" t="s">
         <v>527</v>
       </c>
-      <c r="X432" s="59">
+      <c r="X432" s="58">
         <v>9999999</v>
       </c>
-      <c r="Y432" s="59">
+      <c r="Y432" s="58">
         <v>1581377400</v>
       </c>
-      <c r="Z432" s="59">
+      <c r="Z432" s="58">
         <v>2552233600</v>
       </c>
-      <c r="AA432" s="59">
+      <c r="AA432" s="58">
         <v>14</v>
       </c>
-      <c r="AH432" s="59">
-        <v>1</v>
-      </c>
-      <c r="AI432" s="59">
-        <v>1</v>
-      </c>
-      <c r="AL432" s="59">
-        <v>1</v>
-      </c>
-      <c r="AM432" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="433" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A433" s="59">
+      <c r="AH432" s="58">
+        <v>1</v>
+      </c>
+      <c r="AI432" s="58">
+        <v>1</v>
+      </c>
+      <c r="AL432" s="58">
+        <v>1</v>
+      </c>
+      <c r="AM432" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="433" spans="1:39" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A433" s="58">
         <v>432</v>
       </c>
-      <c r="B433" s="59">
+      <c r="B433" s="58">
         <v>10349</v>
       </c>
-      <c r="F433" s="59">
-        <v>1</v>
-      </c>
-      <c r="G433" s="59" t="s">
+      <c r="F433" s="58">
+        <v>1</v>
+      </c>
+      <c r="G433" s="58" t="s">
         <v>1769</v>
       </c>
-      <c r="I433" s="59" t="s">
+      <c r="I433" s="58" t="s">
         <v>1780</v>
       </c>
-      <c r="J433" s="59" t="s">
+      <c r="J433" s="58" t="s">
         <v>1781</v>
       </c>
-      <c r="L433" s="59">
+      <c r="L433" s="58">
         <v>-28</v>
       </c>
-      <c r="M433" s="59">
-        <v>0</v>
-      </c>
-      <c r="N433" s="59">
-        <v>0</v>
-      </c>
-      <c r="O433" s="59" t="s">
+      <c r="M433" s="58">
+        <v>0</v>
+      </c>
+      <c r="N433" s="58">
+        <v>0</v>
+      </c>
+      <c r="O433" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="P433" s="59">
+      <c r="P433" s="58">
         <v>600</v>
       </c>
-      <c r="Q433" s="59" t="s">
+      <c r="Q433" s="58" t="s">
         <v>1782</v>
       </c>
-      <c r="R433" s="60" t="s">
+      <c r="R433" s="59" t="s">
         <v>1783</v>
       </c>
-      <c r="W433" s="59" t="s">
+      <c r="W433" s="58" t="s">
         <v>527</v>
       </c>
-      <c r="X433" s="59">
+      <c r="X433" s="58">
         <v>9999999</v>
       </c>
-      <c r="Y433" s="59">
+      <c r="Y433" s="58">
         <v>1581377400</v>
       </c>
-      <c r="Z433" s="59">
+      <c r="Z433" s="58">
         <v>2552233600</v>
       </c>
-      <c r="AA433" s="59">
+      <c r="AA433" s="58">
         <v>14</v>
       </c>
-      <c r="AH433" s="59">
-        <v>1</v>
-      </c>
-      <c r="AI433" s="59">
-        <v>1</v>
-      </c>
-      <c r="AL433" s="59">
-        <v>1</v>
-      </c>
-      <c r="AM433" s="59">
+      <c r="AH433" s="58">
+        <v>1</v>
+      </c>
+      <c r="AI433" s="58">
+        <v>1</v>
+      </c>
+      <c r="AL433" s="58">
+        <v>1</v>
+      </c>
+      <c r="AM433" s="58">
         <v>1</v>
       </c>
     </row>
@@ -40443,1930 +40461,1930 @@
         <v>1</v>
       </c>
     </row>
-    <row r="447" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A447" s="59">
+    <row r="447" spans="1:39" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A447" s="58">
         <v>446</v>
       </c>
-      <c r="B447" s="59">
+      <c r="B447" s="58">
         <v>10363</v>
       </c>
-      <c r="F447" s="59">
-        <v>1</v>
-      </c>
-      <c r="G447" s="59" t="s">
+      <c r="F447" s="58">
+        <v>1</v>
+      </c>
+      <c r="G447" s="58" t="s">
         <v>1524</v>
       </c>
-      <c r="I447" s="59" t="s">
+      <c r="I447" s="58" t="s">
         <v>1525</v>
       </c>
-      <c r="J447" s="59" t="s">
+      <c r="J447" s="58" t="s">
         <v>1526</v>
       </c>
-      <c r="L447" s="59">
+      <c r="L447" s="58">
         <v>-31</v>
       </c>
-      <c r="M447" s="59">
-        <v>0</v>
-      </c>
-      <c r="N447" s="59">
-        <v>0</v>
-      </c>
-      <c r="O447" s="59" t="s">
+      <c r="M447" s="58">
+        <v>0</v>
+      </c>
+      <c r="N447" s="58">
+        <v>0</v>
+      </c>
+      <c r="O447" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="P447" s="59">
+      <c r="P447" s="58">
         <v>800</v>
       </c>
-      <c r="Q447" s="59" t="s">
+      <c r="Q447" s="58" t="s">
         <v>1527</v>
       </c>
-      <c r="R447" s="60" t="s">
+      <c r="R447" s="59" t="s">
         <v>1528</v>
       </c>
-      <c r="W447" s="59" t="s">
+      <c r="W447" s="58" t="s">
         <v>1529</v>
       </c>
-      <c r="X447" s="59">
+      <c r="X447" s="58">
         <v>9999999</v>
       </c>
-      <c r="Y447" s="59">
+      <c r="Y447" s="58">
         <v>1605571200</v>
       </c>
-      <c r="Z447" s="59">
+      <c r="Z447" s="58">
         <v>2552233600</v>
       </c>
-      <c r="AA447" s="59">
+      <c r="AA447" s="58">
         <v>52</v>
       </c>
-      <c r="AH447" s="59">
-        <v>1</v>
-      </c>
-      <c r="AI447" s="59">
-        <v>1</v>
-      </c>
-      <c r="AL447" s="59">
-        <v>1</v>
-      </c>
-      <c r="AM447" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="448" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A448" s="59">
+      <c r="AH447" s="58">
+        <v>1</v>
+      </c>
+      <c r="AI447" s="58">
+        <v>1</v>
+      </c>
+      <c r="AL447" s="58">
+        <v>1</v>
+      </c>
+      <c r="AM447" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="448" spans="1:39" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A448" s="58">
         <v>447</v>
       </c>
-      <c r="B448" s="59">
+      <c r="B448" s="58">
         <v>10364</v>
       </c>
-      <c r="F448" s="59">
-        <v>1</v>
-      </c>
-      <c r="G448" s="59" t="s">
+      <c r="F448" s="58">
+        <v>1</v>
+      </c>
+      <c r="G448" s="58" t="s">
         <v>1530</v>
       </c>
-      <c r="I448" s="59" t="s">
+      <c r="I448" s="58" t="s">
         <v>1531</v>
       </c>
-      <c r="J448" s="59" t="s">
+      <c r="J448" s="58" t="s">
         <v>1532</v>
       </c>
-      <c r="L448" s="59">
+      <c r="L448" s="58">
         <v>-31</v>
       </c>
-      <c r="M448" s="59">
-        <v>0</v>
-      </c>
-      <c r="N448" s="59">
-        <v>0</v>
-      </c>
-      <c r="O448" s="59" t="s">
+      <c r="M448" s="58">
+        <v>0</v>
+      </c>
+      <c r="N448" s="58">
+        <v>0</v>
+      </c>
+      <c r="O448" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="P448" s="59">
+      <c r="P448" s="58">
         <v>800</v>
       </c>
-      <c r="Q448" s="59" t="s">
+      <c r="Q448" s="58" t="s">
         <v>988</v>
       </c>
-      <c r="R448" s="60" t="s">
+      <c r="R448" s="59" t="s">
         <v>1533</v>
       </c>
-      <c r="W448" s="59" t="s">
+      <c r="W448" s="58" t="s">
         <v>1529</v>
       </c>
-      <c r="X448" s="59">
+      <c r="X448" s="58">
         <v>9999999</v>
       </c>
-      <c r="Y448" s="59">
+      <c r="Y448" s="58">
         <v>1605571200</v>
       </c>
-      <c r="Z448" s="59">
+      <c r="Z448" s="58">
         <v>2552233600</v>
       </c>
-      <c r="AH448" s="59">
-        <v>1</v>
-      </c>
-      <c r="AI448" s="59">
-        <v>1</v>
-      </c>
-      <c r="AL448" s="59">
-        <v>1</v>
-      </c>
-      <c r="AM448" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="449" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A449" s="59">
+      <c r="AH448" s="58">
+        <v>1</v>
+      </c>
+      <c r="AI448" s="58">
+        <v>1</v>
+      </c>
+      <c r="AL448" s="58">
+        <v>1</v>
+      </c>
+      <c r="AM448" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="449" spans="1:39" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A449" s="58">
         <v>448</v>
       </c>
-      <c r="B449" s="59">
+      <c r="B449" s="58">
         <v>10365</v>
       </c>
-      <c r="F449" s="59">
-        <v>1</v>
-      </c>
-      <c r="G449" s="59" t="s">
+      <c r="F449" s="58">
+        <v>1</v>
+      </c>
+      <c r="G449" s="58" t="s">
         <v>1534</v>
       </c>
-      <c r="I449" s="59" t="s">
+      <c r="I449" s="58" t="s">
         <v>1535</v>
       </c>
-      <c r="J449" s="59" t="s">
+      <c r="J449" s="58" t="s">
         <v>1536</v>
       </c>
-      <c r="L449" s="59">
+      <c r="L449" s="58">
         <v>-31</v>
       </c>
-      <c r="M449" s="59">
-        <v>0</v>
-      </c>
-      <c r="N449" s="59">
-        <v>0</v>
-      </c>
-      <c r="O449" s="59" t="s">
+      <c r="M449" s="58">
+        <v>0</v>
+      </c>
+      <c r="N449" s="58">
+        <v>0</v>
+      </c>
+      <c r="O449" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="P449" s="59">
+      <c r="P449" s="58">
         <v>800</v>
       </c>
-      <c r="Q449" s="59" t="s">
+      <c r="Q449" s="58" t="s">
         <v>1527</v>
       </c>
-      <c r="R449" s="60" t="s">
+      <c r="R449" s="59" t="s">
         <v>1537</v>
       </c>
-      <c r="W449" s="59" t="s">
+      <c r="W449" s="58" t="s">
         <v>527</v>
       </c>
-      <c r="X449" s="59">
+      <c r="X449" s="58">
         <v>9999999</v>
       </c>
-      <c r="Y449" s="59">
+      <c r="Y449" s="58">
         <v>1605571200</v>
       </c>
-      <c r="Z449" s="59">
+      <c r="Z449" s="58">
         <v>2552233600</v>
       </c>
-      <c r="AA449" s="59">
+      <c r="AA449" s="58">
         <v>53</v>
       </c>
-      <c r="AH449" s="59">
-        <v>1</v>
-      </c>
-      <c r="AI449" s="59">
-        <v>1</v>
-      </c>
-      <c r="AL449" s="59">
-        <v>1</v>
-      </c>
-      <c r="AM449" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="450" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A450" s="59">
+      <c r="AH449" s="58">
+        <v>1</v>
+      </c>
+      <c r="AI449" s="58">
+        <v>1</v>
+      </c>
+      <c r="AL449" s="58">
+        <v>1</v>
+      </c>
+      <c r="AM449" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="450" spans="1:39" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A450" s="58">
         <v>449</v>
       </c>
-      <c r="B450" s="59">
+      <c r="B450" s="58">
         <v>10366</v>
       </c>
-      <c r="F450" s="59">
-        <v>1</v>
-      </c>
-      <c r="G450" s="59" t="s">
+      <c r="F450" s="58">
+        <v>1</v>
+      </c>
+      <c r="G450" s="58" t="s">
         <v>1538</v>
       </c>
-      <c r="I450" s="59" t="s">
+      <c r="I450" s="58" t="s">
         <v>1539</v>
       </c>
-      <c r="J450" s="59" t="s">
+      <c r="J450" s="58" t="s">
         <v>1540</v>
       </c>
-      <c r="L450" s="59">
+      <c r="L450" s="58">
         <v>-31</v>
       </c>
-      <c r="M450" s="59">
-        <v>0</v>
-      </c>
-      <c r="N450" s="59">
-        <v>0</v>
-      </c>
-      <c r="O450" s="59" t="s">
+      <c r="M450" s="58">
+        <v>0</v>
+      </c>
+      <c r="N450" s="58">
+        <v>0</v>
+      </c>
+      <c r="O450" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="P450" s="59">
+      <c r="P450" s="58">
         <v>3800</v>
       </c>
-      <c r="Q450" s="59" t="s">
+      <c r="Q450" s="58" t="s">
         <v>1527</v>
       </c>
-      <c r="R450" s="60" t="s">
+      <c r="R450" s="59" t="s">
         <v>1541</v>
       </c>
-      <c r="W450" s="59" t="s">
+      <c r="W450" s="58" t="s">
         <v>527</v>
       </c>
-      <c r="X450" s="59">
+      <c r="X450" s="58">
         <v>9999999</v>
       </c>
-      <c r="Y450" s="59">
+      <c r="Y450" s="58">
         <v>1605571200</v>
       </c>
-      <c r="Z450" s="59">
+      <c r="Z450" s="58">
         <v>2552233600</v>
       </c>
-      <c r="AA450" s="59">
+      <c r="AA450" s="58">
         <v>54</v>
       </c>
-      <c r="AH450" s="59">
-        <v>1</v>
-      </c>
-      <c r="AI450" s="59">
-        <v>1</v>
-      </c>
-      <c r="AL450" s="59">
-        <v>1</v>
-      </c>
-      <c r="AM450" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="451" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A451" s="59">
+      <c r="AH450" s="58">
+        <v>1</v>
+      </c>
+      <c r="AI450" s="58">
+        <v>1</v>
+      </c>
+      <c r="AL450" s="58">
+        <v>1</v>
+      </c>
+      <c r="AM450" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="451" spans="1:39" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A451" s="58">
         <v>450</v>
       </c>
-      <c r="B451" s="59">
+      <c r="B451" s="58">
         <v>10367</v>
       </c>
-      <c r="F451" s="59">
-        <v>1</v>
-      </c>
-      <c r="G451" s="59" t="s">
+      <c r="F451" s="58">
+        <v>1</v>
+      </c>
+      <c r="G451" s="58" t="s">
         <v>1542</v>
       </c>
-      <c r="I451" s="59" t="s">
+      <c r="I451" s="58" t="s">
         <v>1543</v>
       </c>
-      <c r="J451" s="59" t="s">
+      <c r="J451" s="58" t="s">
         <v>1544</v>
       </c>
-      <c r="L451" s="59">
+      <c r="L451" s="58">
         <v>-31</v>
       </c>
-      <c r="M451" s="59">
-        <v>0</v>
-      </c>
-      <c r="N451" s="59">
-        <v>0</v>
-      </c>
-      <c r="O451" s="59" t="s">
+      <c r="M451" s="58">
+        <v>0</v>
+      </c>
+      <c r="N451" s="58">
+        <v>0</v>
+      </c>
+      <c r="O451" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="P451" s="59">
+      <c r="P451" s="58">
         <v>3800</v>
       </c>
-      <c r="Q451" s="59" t="s">
+      <c r="Q451" s="58" t="s">
         <v>1527</v>
       </c>
-      <c r="R451" s="60" t="s">
+      <c r="R451" s="59" t="s">
         <v>1545</v>
       </c>
-      <c r="W451" s="59" t="s">
+      <c r="W451" s="58" t="s">
         <v>527</v>
       </c>
-      <c r="X451" s="59">
+      <c r="X451" s="58">
         <v>9999999</v>
       </c>
-      <c r="Y451" s="59">
+      <c r="Y451" s="58">
         <v>1605571200</v>
       </c>
-      <c r="Z451" s="59">
+      <c r="Z451" s="58">
         <v>2552233600</v>
       </c>
-      <c r="AH451" s="59">
-        <v>1</v>
-      </c>
-      <c r="AI451" s="59">
-        <v>1</v>
-      </c>
-      <c r="AL451" s="59">
-        <v>1</v>
-      </c>
-      <c r="AM451" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="452" spans="1:39" s="59" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A452" s="59">
+      <c r="AH451" s="58">
+        <v>1</v>
+      </c>
+      <c r="AI451" s="58">
+        <v>1</v>
+      </c>
+      <c r="AL451" s="58">
+        <v>1</v>
+      </c>
+      <c r="AM451" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="452" spans="1:39" s="58" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A452" s="58">
         <v>451</v>
       </c>
-      <c r="B452" s="59">
+      <c r="B452" s="58">
         <v>10368</v>
       </c>
-      <c r="F452" s="59">
-        <v>1</v>
-      </c>
-      <c r="G452" s="59" t="s">
+      <c r="F452" s="58">
+        <v>1</v>
+      </c>
+      <c r="G452" s="58" t="s">
         <v>1546</v>
       </c>
-      <c r="I452" s="59" t="s">
+      <c r="I452" s="58" t="s">
         <v>1547</v>
       </c>
-      <c r="J452" s="59" t="s">
+      <c r="J452" s="58" t="s">
         <v>1548</v>
       </c>
-      <c r="L452" s="59">
+      <c r="L452" s="58">
         <v>-31</v>
       </c>
-      <c r="M452" s="59">
-        <v>0</v>
-      </c>
-      <c r="N452" s="59">
-        <v>0</v>
-      </c>
-      <c r="O452" s="59" t="s">
+      <c r="M452" s="58">
+        <v>0</v>
+      </c>
+      <c r="N452" s="58">
+        <v>0</v>
+      </c>
+      <c r="O452" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="P452" s="59">
+      <c r="P452" s="58">
         <v>3800</v>
       </c>
-      <c r="Q452" s="59" t="s">
+      <c r="Q452" s="58" t="s">
         <v>1527</v>
       </c>
-      <c r="R452" s="60" t="s">
+      <c r="R452" s="59" t="s">
         <v>1549</v>
       </c>
-      <c r="W452" s="59" t="s">
+      <c r="W452" s="58" t="s">
         <v>527</v>
       </c>
-      <c r="X452" s="59">
+      <c r="X452" s="58">
         <v>9999999</v>
       </c>
-      <c r="Y452" s="59">
+      <c r="Y452" s="58">
         <v>1605571200</v>
       </c>
-      <c r="Z452" s="59">
+      <c r="Z452" s="58">
         <v>2552233600</v>
       </c>
-      <c r="AA452" s="59">
+      <c r="AA452" s="58">
         <v>55</v>
       </c>
-      <c r="AH452" s="59">
-        <v>1</v>
-      </c>
-      <c r="AI452" s="59">
-        <v>1</v>
-      </c>
-      <c r="AL452" s="59">
-        <v>1</v>
-      </c>
-      <c r="AM452" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="453" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A453" s="59">
+      <c r="AH452" s="58">
+        <v>1</v>
+      </c>
+      <c r="AI452" s="58">
+        <v>1</v>
+      </c>
+      <c r="AL452" s="58">
+        <v>1</v>
+      </c>
+      <c r="AM452" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="453" spans="1:39" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A453" s="58">
         <v>452</v>
       </c>
-      <c r="B453" s="59">
+      <c r="B453" s="58">
         <v>10369</v>
       </c>
-      <c r="F453" s="59">
-        <v>1</v>
-      </c>
-      <c r="G453" s="59" t="s">
+      <c r="F453" s="58">
+        <v>1</v>
+      </c>
+      <c r="G453" s="58" t="s">
         <v>1550</v>
       </c>
-      <c r="I453" s="59" t="s">
+      <c r="I453" s="58" t="s">
         <v>1551</v>
       </c>
-      <c r="J453" s="59" t="s">
+      <c r="J453" s="58" t="s">
         <v>1552</v>
       </c>
-      <c r="L453" s="59">
+      <c r="L453" s="58">
         <v>-31</v>
       </c>
-      <c r="M453" s="59">
-        <v>0</v>
-      </c>
-      <c r="N453" s="59">
-        <v>0</v>
-      </c>
-      <c r="O453" s="59" t="s">
+      <c r="M453" s="58">
+        <v>0</v>
+      </c>
+      <c r="N453" s="58">
+        <v>0</v>
+      </c>
+      <c r="O453" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="P453" s="59">
+      <c r="P453" s="58">
         <v>9800</v>
       </c>
-      <c r="Q453" s="59" t="s">
+      <c r="Q453" s="58" t="s">
         <v>1527</v>
       </c>
-      <c r="R453" s="60" t="s">
+      <c r="R453" s="59" t="s">
         <v>1553</v>
       </c>
-      <c r="W453" s="59" t="s">
+      <c r="W453" s="58" t="s">
         <v>527</v>
       </c>
-      <c r="X453" s="59">
+      <c r="X453" s="58">
         <v>9999999</v>
       </c>
-      <c r="Y453" s="59">
+      <c r="Y453" s="58">
         <v>1605571200</v>
       </c>
-      <c r="Z453" s="59">
+      <c r="Z453" s="58">
         <v>2552233600</v>
       </c>
-      <c r="AA453" s="59">
+      <c r="AA453" s="58">
         <v>56</v>
       </c>
-      <c r="AH453" s="59">
-        <v>1</v>
-      </c>
-      <c r="AI453" s="59">
-        <v>1</v>
-      </c>
-      <c r="AL453" s="59">
-        <v>1</v>
-      </c>
-      <c r="AM453" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="454" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A454" s="59">
+      <c r="AH453" s="58">
+        <v>1</v>
+      </c>
+      <c r="AI453" s="58">
+        <v>1</v>
+      </c>
+      <c r="AL453" s="58">
+        <v>1</v>
+      </c>
+      <c r="AM453" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="454" spans="1:39" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A454" s="58">
         <v>453</v>
       </c>
-      <c r="B454" s="59">
+      <c r="B454" s="58">
         <v>10370</v>
       </c>
-      <c r="F454" s="59">
-        <v>1</v>
-      </c>
-      <c r="G454" s="59" t="s">
+      <c r="F454" s="58">
+        <v>1</v>
+      </c>
+      <c r="G454" s="58" t="s">
         <v>1554</v>
       </c>
-      <c r="I454" s="59" t="s">
+      <c r="I454" s="58" t="s">
         <v>1555</v>
       </c>
-      <c r="J454" s="59" t="s">
+      <c r="J454" s="58" t="s">
         <v>1556</v>
       </c>
-      <c r="L454" s="59">
+      <c r="L454" s="58">
         <v>-31</v>
       </c>
-      <c r="M454" s="59">
-        <v>0</v>
-      </c>
-      <c r="N454" s="59">
-        <v>0</v>
-      </c>
-      <c r="O454" s="59" t="s">
+      <c r="M454" s="58">
+        <v>0</v>
+      </c>
+      <c r="N454" s="58">
+        <v>0</v>
+      </c>
+      <c r="O454" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="P454" s="59">
+      <c r="P454" s="58">
         <v>9800</v>
       </c>
-      <c r="Q454" s="59" t="s">
+      <c r="Q454" s="58" t="s">
         <v>1527</v>
       </c>
-      <c r="R454" s="60" t="s">
+      <c r="R454" s="59" t="s">
         <v>1557</v>
       </c>
-      <c r="W454" s="59" t="s">
+      <c r="W454" s="58" t="s">
         <v>527</v>
       </c>
-      <c r="X454" s="59">
+      <c r="X454" s="58">
         <v>9999999</v>
       </c>
-      <c r="Y454" s="59">
+      <c r="Y454" s="58">
         <v>1605571200</v>
       </c>
-      <c r="Z454" s="59">
+      <c r="Z454" s="58">
         <v>2552233600</v>
       </c>
-      <c r="AH454" s="59">
-        <v>1</v>
-      </c>
-      <c r="AI454" s="59">
-        <v>1</v>
-      </c>
-      <c r="AL454" s="59">
-        <v>1</v>
-      </c>
-      <c r="AM454" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="455" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A455" s="59">
+      <c r="AH454" s="58">
+        <v>1</v>
+      </c>
+      <c r="AI454" s="58">
+        <v>1</v>
+      </c>
+      <c r="AL454" s="58">
+        <v>1</v>
+      </c>
+      <c r="AM454" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="455" spans="1:39" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A455" s="58">
         <v>454</v>
       </c>
-      <c r="B455" s="59">
+      <c r="B455" s="58">
         <v>10371</v>
       </c>
-      <c r="F455" s="59">
-        <v>1</v>
-      </c>
-      <c r="G455" s="59" t="s">
+      <c r="F455" s="58">
+        <v>1</v>
+      </c>
+      <c r="G455" s="58" t="s">
         <v>1558</v>
       </c>
-      <c r="I455" s="59" t="s">
+      <c r="I455" s="58" t="s">
         <v>1559</v>
       </c>
-      <c r="J455" s="59" t="s">
+      <c r="J455" s="58" t="s">
         <v>1560</v>
       </c>
-      <c r="L455" s="59">
+      <c r="L455" s="58">
         <v>-31</v>
       </c>
-      <c r="M455" s="59">
-        <v>0</v>
-      </c>
-      <c r="N455" s="59">
-        <v>0</v>
-      </c>
-      <c r="O455" s="59" t="s">
+      <c r="M455" s="58">
+        <v>0</v>
+      </c>
+      <c r="N455" s="58">
+        <v>0</v>
+      </c>
+      <c r="O455" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="P455" s="59">
+      <c r="P455" s="58">
         <v>9800</v>
       </c>
-      <c r="Q455" s="59" t="s">
+      <c r="Q455" s="58" t="s">
         <v>1527</v>
       </c>
-      <c r="R455" s="60" t="s">
+      <c r="R455" s="59" t="s">
         <v>1686</v>
       </c>
-      <c r="W455" s="59" t="s">
+      <c r="W455" s="58" t="s">
         <v>527</v>
       </c>
-      <c r="X455" s="59">
+      <c r="X455" s="58">
         <v>9999999</v>
       </c>
-      <c r="Y455" s="59">
+      <c r="Y455" s="58">
         <v>1605571200</v>
       </c>
-      <c r="Z455" s="59">
+      <c r="Z455" s="58">
         <v>2552233600</v>
       </c>
-      <c r="AA455" s="59">
+      <c r="AA455" s="58">
         <v>57</v>
       </c>
-      <c r="AH455" s="59">
-        <v>1</v>
-      </c>
-      <c r="AI455" s="59">
-        <v>1</v>
-      </c>
-      <c r="AL455" s="59">
-        <v>1</v>
-      </c>
-      <c r="AM455" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="456" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A456" s="59">
+      <c r="AH455" s="58">
+        <v>1</v>
+      </c>
+      <c r="AI455" s="58">
+        <v>1</v>
+      </c>
+      <c r="AL455" s="58">
+        <v>1</v>
+      </c>
+      <c r="AM455" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="456" spans="1:39" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A456" s="58">
         <v>455</v>
       </c>
-      <c r="B456" s="59">
+      <c r="B456" s="58">
         <v>10372</v>
       </c>
-      <c r="F456" s="59">
-        <v>1</v>
-      </c>
-      <c r="G456" s="59" t="s">
+      <c r="F456" s="58">
+        <v>1</v>
+      </c>
+      <c r="G456" s="58" t="s">
         <v>1561</v>
       </c>
-      <c r="I456" s="59" t="s">
+      <c r="I456" s="58" t="s">
         <v>1562</v>
       </c>
-      <c r="J456" s="59" t="s">
+      <c r="J456" s="58" t="s">
         <v>1563</v>
       </c>
-      <c r="L456" s="59">
+      <c r="L456" s="58">
         <v>-31</v>
       </c>
-      <c r="M456" s="59">
-        <v>0</v>
-      </c>
-      <c r="N456" s="59">
-        <v>0</v>
-      </c>
-      <c r="O456" s="59" t="s">
+      <c r="M456" s="58">
+        <v>0</v>
+      </c>
+      <c r="N456" s="58">
+        <v>0</v>
+      </c>
+      <c r="O456" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="P456" s="59">
+      <c r="P456" s="58">
         <v>19800</v>
       </c>
-      <c r="Q456" s="59" t="s">
+      <c r="Q456" s="58" t="s">
         <v>1527</v>
       </c>
-      <c r="R456" s="60" t="s">
+      <c r="R456" s="59" t="s">
         <v>1564</v>
       </c>
-      <c r="W456" s="59" t="s">
+      <c r="W456" s="58" t="s">
         <v>527</v>
       </c>
-      <c r="X456" s="59">
+      <c r="X456" s="58">
         <v>9999999</v>
       </c>
-      <c r="Y456" s="59">
+      <c r="Y456" s="58">
         <v>1605571200</v>
       </c>
-      <c r="Z456" s="59">
+      <c r="Z456" s="58">
         <v>2552233600</v>
       </c>
-      <c r="AA456" s="59">
+      <c r="AA456" s="58">
         <v>58</v>
       </c>
-      <c r="AH456" s="59">
-        <v>1</v>
-      </c>
-      <c r="AI456" s="59">
-        <v>1</v>
-      </c>
-      <c r="AL456" s="59">
-        <v>1</v>
-      </c>
-      <c r="AM456" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="457" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A457" s="59">
+      <c r="AH456" s="58">
+        <v>1</v>
+      </c>
+      <c r="AI456" s="58">
+        <v>1</v>
+      </c>
+      <c r="AL456" s="58">
+        <v>1</v>
+      </c>
+      <c r="AM456" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="457" spans="1:39" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A457" s="58">
         <v>456</v>
       </c>
-      <c r="B457" s="59">
+      <c r="B457" s="58">
         <v>10373</v>
       </c>
-      <c r="F457" s="59">
-        <v>1</v>
-      </c>
-      <c r="G457" s="59" t="s">
+      <c r="F457" s="58">
+        <v>1</v>
+      </c>
+      <c r="G457" s="58" t="s">
         <v>1565</v>
       </c>
-      <c r="I457" s="59" t="s">
+      <c r="I457" s="58" t="s">
         <v>1566</v>
       </c>
-      <c r="J457" s="59" t="s">
+      <c r="J457" s="58" t="s">
         <v>1567</v>
       </c>
-      <c r="L457" s="59">
+      <c r="L457" s="58">
         <v>-31</v>
       </c>
-      <c r="M457" s="59">
-        <v>0</v>
-      </c>
-      <c r="N457" s="59">
-        <v>0</v>
-      </c>
-      <c r="O457" s="59" t="s">
+      <c r="M457" s="58">
+        <v>0</v>
+      </c>
+      <c r="N457" s="58">
+        <v>0</v>
+      </c>
+      <c r="O457" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="P457" s="59">
+      <c r="P457" s="58">
         <v>19800</v>
       </c>
-      <c r="Q457" s="59" t="s">
+      <c r="Q457" s="58" t="s">
         <v>1527</v>
       </c>
-      <c r="R457" s="60" t="s">
+      <c r="R457" s="59" t="s">
         <v>1568</v>
       </c>
-      <c r="W457" s="59" t="s">
+      <c r="W457" s="58" t="s">
         <v>527</v>
       </c>
-      <c r="X457" s="59">
+      <c r="X457" s="58">
         <v>9999999</v>
       </c>
-      <c r="Y457" s="59">
+      <c r="Y457" s="58">
         <v>1605571200</v>
       </c>
-      <c r="Z457" s="59">
+      <c r="Z457" s="58">
         <v>2552233600</v>
       </c>
-      <c r="AH457" s="59">
-        <v>1</v>
-      </c>
-      <c r="AI457" s="59">
-        <v>1</v>
-      </c>
-      <c r="AL457" s="59">
-        <v>1</v>
-      </c>
-      <c r="AM457" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="458" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A458" s="59">
+      <c r="AH457" s="58">
+        <v>1</v>
+      </c>
+      <c r="AI457" s="58">
+        <v>1</v>
+      </c>
+      <c r="AL457" s="58">
+        <v>1</v>
+      </c>
+      <c r="AM457" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="458" spans="1:39" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A458" s="58">
         <v>457</v>
       </c>
-      <c r="B458" s="59">
+      <c r="B458" s="58">
         <v>10374</v>
       </c>
-      <c r="F458" s="59">
-        <v>1</v>
-      </c>
-      <c r="G458" s="59" t="s">
+      <c r="F458" s="58">
+        <v>1</v>
+      </c>
+      <c r="G458" s="58" t="s">
         <v>1569</v>
       </c>
-      <c r="I458" s="59" t="s">
+      <c r="I458" s="58" t="s">
         <v>1570</v>
       </c>
-      <c r="J458" s="59" t="s">
+      <c r="J458" s="58" t="s">
         <v>1571</v>
       </c>
-      <c r="L458" s="59">
+      <c r="L458" s="58">
         <v>-31</v>
       </c>
-      <c r="M458" s="59">
-        <v>0</v>
-      </c>
-      <c r="N458" s="59">
-        <v>0</v>
-      </c>
-      <c r="O458" s="59" t="s">
+      <c r="M458" s="58">
+        <v>0</v>
+      </c>
+      <c r="N458" s="58">
+        <v>0</v>
+      </c>
+      <c r="O458" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="P458" s="59">
+      <c r="P458" s="58">
         <v>19800</v>
       </c>
-      <c r="Q458" s="59" t="s">
+      <c r="Q458" s="58" t="s">
         <v>1527</v>
       </c>
-      <c r="R458" s="60" t="s">
+      <c r="R458" s="59" t="s">
         <v>1572</v>
       </c>
-      <c r="W458" s="59" t="s">
+      <c r="W458" s="58" t="s">
         <v>527</v>
       </c>
-      <c r="X458" s="59">
+      <c r="X458" s="58">
         <v>9999999</v>
       </c>
-      <c r="Y458" s="59">
+      <c r="Y458" s="58">
         <v>1605571200</v>
       </c>
-      <c r="Z458" s="59">
+      <c r="Z458" s="58">
         <v>2552233600</v>
       </c>
-      <c r="AA458" s="59">
+      <c r="AA458" s="58">
         <v>59</v>
       </c>
-      <c r="AH458" s="59">
-        <v>1</v>
-      </c>
-      <c r="AI458" s="59">
-        <v>1</v>
-      </c>
-      <c r="AL458" s="59">
-        <v>1</v>
-      </c>
-      <c r="AM458" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="459" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A459" s="59">
+      <c r="AH458" s="58">
+        <v>1</v>
+      </c>
+      <c r="AI458" s="58">
+        <v>1</v>
+      </c>
+      <c r="AL458" s="58">
+        <v>1</v>
+      </c>
+      <c r="AM458" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="459" spans="1:39" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A459" s="58">
         <v>458</v>
       </c>
-      <c r="B459" s="59">
+      <c r="B459" s="58">
         <v>10375</v>
       </c>
-      <c r="F459" s="59">
-        <v>1</v>
-      </c>
-      <c r="G459" s="59" t="s">
+      <c r="F459" s="58">
+        <v>1</v>
+      </c>
+      <c r="G459" s="58" t="s">
         <v>1573</v>
       </c>
-      <c r="I459" s="59" t="s">
+      <c r="I459" s="58" t="s">
         <v>1574</v>
       </c>
-      <c r="J459" s="59" t="s">
+      <c r="J459" s="58" t="s">
         <v>1575</v>
       </c>
-      <c r="L459" s="59">
+      <c r="L459" s="58">
         <v>-31</v>
       </c>
-      <c r="M459" s="59">
-        <v>0</v>
-      </c>
-      <c r="N459" s="59">
-        <v>0</v>
-      </c>
-      <c r="O459" s="59" t="s">
+      <c r="M459" s="58">
+        <v>0</v>
+      </c>
+      <c r="N459" s="58">
+        <v>0</v>
+      </c>
+      <c r="O459" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="P459" s="59">
+      <c r="P459" s="58">
         <v>49800</v>
       </c>
-      <c r="Q459" s="59" t="s">
+      <c r="Q459" s="58" t="s">
         <v>1527</v>
       </c>
-      <c r="R459" s="60" t="s">
+      <c r="R459" s="59" t="s">
         <v>1576</v>
       </c>
-      <c r="W459" s="59" t="s">
+      <c r="W459" s="58" t="s">
         <v>527</v>
       </c>
-      <c r="X459" s="59">
+      <c r="X459" s="58">
         <v>9999999</v>
       </c>
-      <c r="Y459" s="59">
+      <c r="Y459" s="58">
         <v>1605571200</v>
       </c>
-      <c r="Z459" s="59">
+      <c r="Z459" s="58">
         <v>2552233600</v>
       </c>
-      <c r="AA459" s="59">
+      <c r="AA459" s="58">
         <v>60</v>
       </c>
-      <c r="AH459" s="59">
-        <v>1</v>
-      </c>
-      <c r="AI459" s="59">
-        <v>1</v>
-      </c>
-      <c r="AL459" s="59">
-        <v>1</v>
-      </c>
-      <c r="AM459" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="460" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A460" s="59">
+      <c r="AH459" s="58">
+        <v>1</v>
+      </c>
+      <c r="AI459" s="58">
+        <v>1</v>
+      </c>
+      <c r="AL459" s="58">
+        <v>1</v>
+      </c>
+      <c r="AM459" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="460" spans="1:39" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A460" s="58">
         <v>459</v>
       </c>
-      <c r="B460" s="59">
+      <c r="B460" s="58">
         <v>10376</v>
       </c>
-      <c r="F460" s="59">
-        <v>1</v>
-      </c>
-      <c r="G460" s="59" t="s">
+      <c r="F460" s="58">
+        <v>1</v>
+      </c>
+      <c r="G460" s="58" t="s">
         <v>1577</v>
       </c>
-      <c r="I460" s="59" t="s">
+      <c r="I460" s="58" t="s">
         <v>1578</v>
       </c>
-      <c r="J460" s="59" t="s">
+      <c r="J460" s="58" t="s">
         <v>1579</v>
       </c>
-      <c r="L460" s="59">
+      <c r="L460" s="58">
         <v>-31</v>
       </c>
-      <c r="M460" s="59">
-        <v>0</v>
-      </c>
-      <c r="N460" s="59">
-        <v>0</v>
-      </c>
-      <c r="O460" s="59" t="s">
+      <c r="M460" s="58">
+        <v>0</v>
+      </c>
+      <c r="N460" s="58">
+        <v>0</v>
+      </c>
+      <c r="O460" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="P460" s="59">
+      <c r="P460" s="58">
         <v>49800</v>
       </c>
-      <c r="Q460" s="59" t="s">
+      <c r="Q460" s="58" t="s">
         <v>988</v>
       </c>
-      <c r="R460" s="60" t="s">
+      <c r="R460" s="59" t="s">
         <v>1580</v>
       </c>
-      <c r="W460" s="59" t="s">
+      <c r="W460" s="58" t="s">
         <v>527</v>
       </c>
-      <c r="X460" s="59">
+      <c r="X460" s="58">
         <v>9999999</v>
       </c>
-      <c r="Y460" s="59">
+      <c r="Y460" s="58">
         <v>1605571200</v>
       </c>
-      <c r="Z460" s="59">
+      <c r="Z460" s="58">
         <v>2552233600</v>
       </c>
-      <c r="AH460" s="59">
-        <v>1</v>
-      </c>
-      <c r="AI460" s="59">
-        <v>1</v>
-      </c>
-      <c r="AL460" s="59">
-        <v>1</v>
-      </c>
-      <c r="AM460" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="461" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A461" s="59">
+      <c r="AH460" s="58">
+        <v>1</v>
+      </c>
+      <c r="AI460" s="58">
+        <v>1</v>
+      </c>
+      <c r="AL460" s="58">
+        <v>1</v>
+      </c>
+      <c r="AM460" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="461" spans="1:39" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A461" s="58">
         <v>460</v>
       </c>
-      <c r="B461" s="59">
+      <c r="B461" s="58">
         <v>10377</v>
       </c>
-      <c r="F461" s="59">
-        <v>1</v>
-      </c>
-      <c r="G461" s="59" t="s">
+      <c r="F461" s="58">
+        <v>1</v>
+      </c>
+      <c r="G461" s="58" t="s">
         <v>1581</v>
       </c>
-      <c r="I461" s="59" t="s">
+      <c r="I461" s="58" t="s">
         <v>1582</v>
       </c>
-      <c r="J461" s="59" t="s">
+      <c r="J461" s="58" t="s">
         <v>1583</v>
       </c>
-      <c r="L461" s="59">
+      <c r="L461" s="58">
         <v>-31</v>
       </c>
-      <c r="M461" s="59">
-        <v>0</v>
-      </c>
-      <c r="N461" s="59">
-        <v>0</v>
-      </c>
-      <c r="O461" s="59" t="s">
+      <c r="M461" s="58">
+        <v>0</v>
+      </c>
+      <c r="N461" s="58">
+        <v>0</v>
+      </c>
+      <c r="O461" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="P461" s="59">
+      <c r="P461" s="58">
         <v>49800</v>
       </c>
-      <c r="Q461" s="59" t="s">
+      <c r="Q461" s="58" t="s">
         <v>1527</v>
       </c>
-      <c r="R461" s="60" t="s">
+      <c r="R461" s="59" t="s">
         <v>1584</v>
       </c>
-      <c r="W461" s="59" t="s">
+      <c r="W461" s="58" t="s">
         <v>527</v>
       </c>
-      <c r="X461" s="59">
+      <c r="X461" s="58">
         <v>9999999</v>
       </c>
-      <c r="Y461" s="59">
+      <c r="Y461" s="58">
         <v>1605571200</v>
       </c>
-      <c r="Z461" s="59">
+      <c r="Z461" s="58">
         <v>2552233600</v>
       </c>
-      <c r="AA461" s="59">
+      <c r="AA461" s="58">
         <v>61</v>
       </c>
-      <c r="AH461" s="59">
-        <v>1</v>
-      </c>
-      <c r="AI461" s="59">
-        <v>1</v>
-      </c>
-      <c r="AL461" s="59">
-        <v>1</v>
-      </c>
-      <c r="AM461" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="462" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A462" s="59">
+      <c r="AH461" s="58">
+        <v>1</v>
+      </c>
+      <c r="AI461" s="58">
+        <v>1</v>
+      </c>
+      <c r="AL461" s="58">
+        <v>1</v>
+      </c>
+      <c r="AM461" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="462" spans="1:39" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A462" s="58">
         <v>461</v>
       </c>
-      <c r="B462" s="59">
+      <c r="B462" s="58">
         <v>10378</v>
       </c>
-      <c r="F462" s="59">
-        <v>1</v>
-      </c>
-      <c r="G462" s="59" t="s">
+      <c r="F462" s="58">
+        <v>1</v>
+      </c>
+      <c r="G462" s="58" t="s">
         <v>1585</v>
       </c>
-      <c r="I462" s="59" t="s">
+      <c r="I462" s="58" t="s">
         <v>1586</v>
       </c>
-      <c r="J462" s="59" t="s">
+      <c r="J462" s="58" t="s">
         <v>1587</v>
       </c>
-      <c r="L462" s="59">
+      <c r="L462" s="58">
         <v>-31</v>
       </c>
-      <c r="M462" s="59">
-        <v>0</v>
-      </c>
-      <c r="N462" s="59">
-        <v>0</v>
-      </c>
-      <c r="O462" s="59" t="s">
+      <c r="M462" s="58">
+        <v>0</v>
+      </c>
+      <c r="N462" s="58">
+        <v>0</v>
+      </c>
+      <c r="O462" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="P462" s="59">
+      <c r="P462" s="58">
         <v>99800</v>
       </c>
-      <c r="Q462" s="59" t="s">
+      <c r="Q462" s="58" t="s">
         <v>1527</v>
       </c>
-      <c r="R462" s="60" t="s">
+      <c r="R462" s="59" t="s">
         <v>1588</v>
       </c>
-      <c r="W462" s="59" t="s">
+      <c r="W462" s="58" t="s">
         <v>527</v>
       </c>
-      <c r="X462" s="59">
+      <c r="X462" s="58">
         <v>9999999</v>
       </c>
-      <c r="Y462" s="59">
+      <c r="Y462" s="58">
         <v>1605571200</v>
       </c>
-      <c r="Z462" s="59">
+      <c r="Z462" s="58">
         <v>2552233600</v>
       </c>
-      <c r="AA462" s="59">
+      <c r="AA462" s="58">
         <v>62</v>
       </c>
-      <c r="AH462" s="59">
-        <v>1</v>
-      </c>
-      <c r="AI462" s="59">
-        <v>1</v>
-      </c>
-      <c r="AL462" s="59">
-        <v>1</v>
-      </c>
-      <c r="AM462" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="463" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A463" s="59">
+      <c r="AH462" s="58">
+        <v>1</v>
+      </c>
+      <c r="AI462" s="58">
+        <v>1</v>
+      </c>
+      <c r="AL462" s="58">
+        <v>1</v>
+      </c>
+      <c r="AM462" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="463" spans="1:39" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A463" s="58">
         <v>462</v>
       </c>
-      <c r="B463" s="59">
+      <c r="B463" s="58">
         <v>10379</v>
       </c>
-      <c r="F463" s="59">
-        <v>1</v>
-      </c>
-      <c r="G463" s="59" t="s">
+      <c r="F463" s="58">
+        <v>1</v>
+      </c>
+      <c r="G463" s="58" t="s">
         <v>1589</v>
       </c>
-      <c r="I463" s="59" t="s">
+      <c r="I463" s="58" t="s">
         <v>1590</v>
       </c>
-      <c r="J463" s="59" t="s">
+      <c r="J463" s="58" t="s">
         <v>1591</v>
       </c>
-      <c r="L463" s="59">
+      <c r="L463" s="58">
         <v>-31</v>
       </c>
-      <c r="M463" s="59">
-        <v>0</v>
-      </c>
-      <c r="N463" s="59">
-        <v>0</v>
-      </c>
-      <c r="O463" s="59" t="s">
+      <c r="M463" s="58">
+        <v>0</v>
+      </c>
+      <c r="N463" s="58">
+        <v>0</v>
+      </c>
+      <c r="O463" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="P463" s="59">
+      <c r="P463" s="58">
         <v>99800</v>
       </c>
-      <c r="Q463" s="59" t="s">
+      <c r="Q463" s="58" t="s">
         <v>1527</v>
       </c>
-      <c r="R463" s="60" t="s">
+      <c r="R463" s="59" t="s">
         <v>1592</v>
       </c>
-      <c r="W463" s="59" t="s">
+      <c r="W463" s="58" t="s">
         <v>527</v>
       </c>
-      <c r="X463" s="59">
+      <c r="X463" s="58">
         <v>9999999</v>
       </c>
-      <c r="Y463" s="59">
+      <c r="Y463" s="58">
         <v>1605571200</v>
       </c>
-      <c r="Z463" s="59">
+      <c r="Z463" s="58">
         <v>2552233600</v>
       </c>
-      <c r="AH463" s="59">
-        <v>1</v>
-      </c>
-      <c r="AI463" s="59">
-        <v>1</v>
-      </c>
-      <c r="AL463" s="59">
-        <v>1</v>
-      </c>
-      <c r="AM463" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="464" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A464" s="59">
+      <c r="AH463" s="58">
+        <v>1</v>
+      </c>
+      <c r="AI463" s="58">
+        <v>1</v>
+      </c>
+      <c r="AL463" s="58">
+        <v>1</v>
+      </c>
+      <c r="AM463" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="464" spans="1:39" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A464" s="58">
         <v>463</v>
       </c>
-      <c r="B464" s="59">
+      <c r="B464" s="58">
         <v>10380</v>
       </c>
-      <c r="F464" s="59">
-        <v>1</v>
-      </c>
-      <c r="G464" s="59" t="s">
+      <c r="F464" s="58">
+        <v>1</v>
+      </c>
+      <c r="G464" s="58" t="s">
         <v>1593</v>
       </c>
-      <c r="I464" s="59" t="s">
+      <c r="I464" s="58" t="s">
         <v>1594</v>
       </c>
-      <c r="J464" s="59" t="s">
+      <c r="J464" s="58" t="s">
         <v>1595</v>
       </c>
-      <c r="L464" s="59">
+      <c r="L464" s="58">
         <v>-31</v>
       </c>
-      <c r="M464" s="59">
-        <v>0</v>
-      </c>
-      <c r="N464" s="59">
-        <v>0</v>
-      </c>
-      <c r="O464" s="59" t="s">
+      <c r="M464" s="58">
+        <v>0</v>
+      </c>
+      <c r="N464" s="58">
+        <v>0</v>
+      </c>
+      <c r="O464" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="P464" s="59">
+      <c r="P464" s="58">
         <v>99800</v>
       </c>
-      <c r="Q464" s="59" t="s">
+      <c r="Q464" s="58" t="s">
         <v>988</v>
       </c>
-      <c r="R464" s="60" t="s">
+      <c r="R464" s="59" t="s">
         <v>1596</v>
       </c>
-      <c r="W464" s="59" t="s">
+      <c r="W464" s="58" t="s">
         <v>527</v>
       </c>
-      <c r="X464" s="59">
+      <c r="X464" s="58">
         <v>9999999</v>
       </c>
-      <c r="Y464" s="59">
+      <c r="Y464" s="58">
         <v>1605571200</v>
       </c>
-      <c r="Z464" s="59">
+      <c r="Z464" s="58">
         <v>2552233600</v>
       </c>
-      <c r="AA464" s="59">
+      <c r="AA464" s="58">
         <v>63</v>
       </c>
-      <c r="AH464" s="59">
-        <v>1</v>
-      </c>
-      <c r="AI464" s="59">
-        <v>1</v>
-      </c>
-      <c r="AL464" s="59">
-        <v>1</v>
-      </c>
-      <c r="AM464" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="465" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A465" s="59">
+      <c r="AH464" s="58">
+        <v>1</v>
+      </c>
+      <c r="AI464" s="58">
+        <v>1</v>
+      </c>
+      <c r="AL464" s="58">
+        <v>1</v>
+      </c>
+      <c r="AM464" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="465" spans="1:39" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A465" s="58">
         <v>464</v>
       </c>
-      <c r="B465" s="59">
+      <c r="B465" s="58">
         <v>10381</v>
       </c>
-      <c r="F465" s="59">
-        <v>1</v>
-      </c>
-      <c r="G465" s="59" t="s">
+      <c r="F465" s="58">
+        <v>1</v>
+      </c>
+      <c r="G465" s="58" t="s">
         <v>1597</v>
       </c>
-      <c r="I465" s="59" t="s">
+      <c r="I465" s="58" t="s">
         <v>1598</v>
       </c>
-      <c r="J465" s="59" t="s">
+      <c r="J465" s="58" t="s">
         <v>1599</v>
       </c>
-      <c r="L465" s="59">
+      <c r="L465" s="58">
         <v>-31</v>
       </c>
-      <c r="M465" s="59">
-        <v>0</v>
-      </c>
-      <c r="N465" s="59">
-        <v>0</v>
-      </c>
-      <c r="O465" s="59" t="s">
+      <c r="M465" s="58">
+        <v>0</v>
+      </c>
+      <c r="N465" s="58">
+        <v>0</v>
+      </c>
+      <c r="O465" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="P465" s="59">
+      <c r="P465" s="58">
         <v>249800</v>
       </c>
-      <c r="Q465" s="59" t="s">
+      <c r="Q465" s="58" t="s">
         <v>1527</v>
       </c>
-      <c r="R465" s="60" t="s">
+      <c r="R465" s="59" t="s">
         <v>1600</v>
       </c>
-      <c r="W465" s="59" t="s">
+      <c r="W465" s="58" t="s">
         <v>527</v>
       </c>
-      <c r="X465" s="59">
+      <c r="X465" s="58">
         <v>9999999</v>
       </c>
-      <c r="Y465" s="59">
+      <c r="Y465" s="58">
         <v>1605571200</v>
       </c>
-      <c r="Z465" s="59">
+      <c r="Z465" s="58">
         <v>2552233600</v>
       </c>
-      <c r="AA465" s="59">
+      <c r="AA465" s="58">
         <v>64</v>
       </c>
-      <c r="AH465" s="59">
-        <v>1</v>
-      </c>
-      <c r="AI465" s="59">
-        <v>1</v>
-      </c>
-      <c r="AL465" s="59">
-        <v>1</v>
-      </c>
-      <c r="AM465" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="466" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A466" s="59">
+      <c r="AH465" s="58">
+        <v>1</v>
+      </c>
+      <c r="AI465" s="58">
+        <v>1</v>
+      </c>
+      <c r="AL465" s="58">
+        <v>1</v>
+      </c>
+      <c r="AM465" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="466" spans="1:39" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A466" s="58">
         <v>465</v>
       </c>
-      <c r="B466" s="59">
+      <c r="B466" s="58">
         <v>10382</v>
       </c>
-      <c r="F466" s="59">
-        <v>1</v>
-      </c>
-      <c r="G466" s="59" t="s">
+      <c r="F466" s="58">
+        <v>1</v>
+      </c>
+      <c r="G466" s="58" t="s">
         <v>1601</v>
       </c>
-      <c r="I466" s="59" t="s">
+      <c r="I466" s="58" t="s">
         <v>1602</v>
       </c>
-      <c r="J466" s="59" t="s">
+      <c r="J466" s="58" t="s">
         <v>1603</v>
       </c>
-      <c r="L466" s="59">
+      <c r="L466" s="58">
         <v>-31</v>
       </c>
-      <c r="M466" s="59">
-        <v>0</v>
-      </c>
-      <c r="N466" s="59">
-        <v>0</v>
-      </c>
-      <c r="O466" s="59" t="s">
+      <c r="M466" s="58">
+        <v>0</v>
+      </c>
+      <c r="N466" s="58">
+        <v>0</v>
+      </c>
+      <c r="O466" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="P466" s="59">
+      <c r="P466" s="58">
         <v>249800</v>
       </c>
-      <c r="Q466" s="59" t="s">
+      <c r="Q466" s="58" t="s">
         <v>988</v>
       </c>
-      <c r="R466" s="60" t="s">
+      <c r="R466" s="59" t="s">
         <v>1604</v>
       </c>
-      <c r="W466" s="59" t="s">
+      <c r="W466" s="58" t="s">
         <v>527</v>
       </c>
-      <c r="X466" s="59">
+      <c r="X466" s="58">
         <v>9999999</v>
       </c>
-      <c r="Y466" s="59">
+      <c r="Y466" s="58">
         <v>1605571200</v>
       </c>
-      <c r="Z466" s="59">
+      <c r="Z466" s="58">
         <v>2552233600</v>
       </c>
-      <c r="AH466" s="59">
-        <v>1</v>
-      </c>
-      <c r="AI466" s="59">
-        <v>1</v>
-      </c>
-      <c r="AL466" s="59">
-        <v>1</v>
-      </c>
-      <c r="AM466" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="467" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A467" s="59">
+      <c r="AH466" s="58">
+        <v>1</v>
+      </c>
+      <c r="AI466" s="58">
+        <v>1</v>
+      </c>
+      <c r="AL466" s="58">
+        <v>1</v>
+      </c>
+      <c r="AM466" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="467" spans="1:39" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A467" s="58">
         <v>466</v>
       </c>
-      <c r="B467" s="59">
+      <c r="B467" s="58">
         <v>10383</v>
       </c>
-      <c r="F467" s="59">
-        <v>1</v>
-      </c>
-      <c r="G467" s="59" t="s">
+      <c r="F467" s="58">
+        <v>1</v>
+      </c>
+      <c r="G467" s="58" t="s">
         <v>1605</v>
       </c>
-      <c r="I467" s="59" t="s">
+      <c r="I467" s="58" t="s">
         <v>1606</v>
       </c>
-      <c r="J467" s="59" t="s">
+      <c r="J467" s="58" t="s">
         <v>1607</v>
       </c>
-      <c r="L467" s="59">
+      <c r="L467" s="58">
         <v>-31</v>
       </c>
-      <c r="M467" s="59">
-        <v>0</v>
-      </c>
-      <c r="N467" s="59">
-        <v>0</v>
-      </c>
-      <c r="O467" s="59" t="s">
+      <c r="M467" s="58">
+        <v>0</v>
+      </c>
+      <c r="N467" s="58">
+        <v>0</v>
+      </c>
+      <c r="O467" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="P467" s="59">
+      <c r="P467" s="58">
         <v>249800</v>
       </c>
-      <c r="Q467" s="59" t="s">
+      <c r="Q467" s="58" t="s">
         <v>988</v>
       </c>
-      <c r="R467" s="60" t="s">
+      <c r="R467" s="59" t="s">
         <v>1608</v>
       </c>
-      <c r="W467" s="59" t="s">
+      <c r="W467" s="58" t="s">
         <v>527</v>
       </c>
-      <c r="X467" s="59">
+      <c r="X467" s="58">
         <v>9999999</v>
       </c>
-      <c r="Y467" s="59">
+      <c r="Y467" s="58">
         <v>1605571200</v>
       </c>
-      <c r="Z467" s="59">
+      <c r="Z467" s="58">
         <v>2552233600</v>
       </c>
-      <c r="AA467" s="59">
+      <c r="AA467" s="58">
         <v>65</v>
       </c>
-      <c r="AH467" s="59">
-        <v>1</v>
-      </c>
-      <c r="AI467" s="59">
-        <v>1</v>
-      </c>
-      <c r="AL467" s="59">
-        <v>1</v>
-      </c>
-      <c r="AM467" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="468" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A468" s="59">
+      <c r="AH467" s="58">
+        <v>1</v>
+      </c>
+      <c r="AI467" s="58">
+        <v>1</v>
+      </c>
+      <c r="AL467" s="58">
+        <v>1</v>
+      </c>
+      <c r="AM467" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="468" spans="1:39" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A468" s="58">
         <v>467</v>
       </c>
-      <c r="B468" s="59">
+      <c r="B468" s="58">
         <v>10384</v>
       </c>
-      <c r="F468" s="59">
-        <v>1</v>
-      </c>
-      <c r="G468" s="59" t="s">
+      <c r="F468" s="58">
+        <v>1</v>
+      </c>
+      <c r="G468" s="58" t="s">
         <v>1609</v>
       </c>
-      <c r="I468" s="59" t="s">
+      <c r="I468" s="58" t="s">
         <v>1611</v>
       </c>
-      <c r="J468" s="59" t="s">
+      <c r="J468" s="58" t="s">
         <v>1612</v>
       </c>
-      <c r="L468" s="59">
+      <c r="L468" s="58">
         <v>-31</v>
       </c>
-      <c r="M468" s="59">
-        <v>0</v>
-      </c>
-      <c r="N468" s="59">
-        <v>0</v>
-      </c>
-      <c r="O468" s="59" t="s">
+      <c r="M468" s="58">
+        <v>0</v>
+      </c>
+      <c r="N468" s="58">
+        <v>0</v>
+      </c>
+      <c r="O468" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="P468" s="59">
+      <c r="P468" s="58">
         <v>600</v>
       </c>
-      <c r="Q468" s="59" t="s">
+      <c r="Q468" s="58" t="s">
         <v>1527</v>
       </c>
-      <c r="R468" s="60" t="s">
+      <c r="R468" s="59" t="s">
         <v>1613</v>
       </c>
-      <c r="W468" s="59" t="s">
+      <c r="W468" s="58" t="s">
         <v>1614</v>
       </c>
-      <c r="X468" s="59">
+      <c r="X468" s="58">
         <v>9999999</v>
       </c>
-      <c r="Y468" s="59">
+      <c r="Y468" s="58">
         <v>1605571200</v>
       </c>
-      <c r="Z468" s="59">
+      <c r="Z468" s="58">
         <v>2552233600</v>
       </c>
-      <c r="AH468" s="59">
-        <v>1</v>
-      </c>
-      <c r="AI468" s="59">
-        <v>1</v>
-      </c>
-      <c r="AL468" s="59">
-        <v>1</v>
-      </c>
-      <c r="AM468" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="469" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A469" s="59">
+      <c r="AH468" s="58">
+        <v>1</v>
+      </c>
+      <c r="AI468" s="58">
+        <v>1</v>
+      </c>
+      <c r="AL468" s="58">
+        <v>1</v>
+      </c>
+      <c r="AM468" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="469" spans="1:39" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A469" s="58">
         <v>468</v>
       </c>
-      <c r="B469" s="59">
+      <c r="B469" s="58">
         <v>10385</v>
       </c>
-      <c r="F469" s="59">
-        <v>1</v>
-      </c>
-      <c r="G469" s="59" t="s">
+      <c r="F469" s="58">
+        <v>1</v>
+      </c>
+      <c r="G469" s="58" t="s">
         <v>1615</v>
       </c>
-      <c r="I469" s="59" t="s">
+      <c r="I469" s="58" t="s">
         <v>1611</v>
       </c>
-      <c r="J469" s="59" t="s">
+      <c r="J469" s="58" t="s">
         <v>1616</v>
       </c>
-      <c r="L469" s="59">
+      <c r="L469" s="58">
         <v>-31</v>
       </c>
-      <c r="M469" s="59">
-        <v>0</v>
-      </c>
-      <c r="N469" s="59">
-        <v>0</v>
-      </c>
-      <c r="O469" s="59" t="s">
+      <c r="M469" s="58">
+        <v>0</v>
+      </c>
+      <c r="N469" s="58">
+        <v>0</v>
+      </c>
+      <c r="O469" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="P469" s="59">
+      <c r="P469" s="58">
         <v>3000</v>
       </c>
-      <c r="Q469" s="59" t="s">
+      <c r="Q469" s="58" t="s">
         <v>1527</v>
       </c>
-      <c r="R469" s="60" t="s">
+      <c r="R469" s="59" t="s">
         <v>1617</v>
       </c>
-      <c r="W469" s="59" t="s">
+      <c r="W469" s="58" t="s">
         <v>1614</v>
       </c>
-      <c r="X469" s="59">
+      <c r="X469" s="58">
         <v>9999999</v>
       </c>
-      <c r="Y469" s="59">
+      <c r="Y469" s="58">
         <v>1605571200</v>
       </c>
-      <c r="Z469" s="59">
+      <c r="Z469" s="58">
         <v>2552233600</v>
       </c>
-      <c r="AH469" s="59">
-        <v>1</v>
-      </c>
-      <c r="AI469" s="59">
-        <v>1</v>
-      </c>
-      <c r="AL469" s="59">
-        <v>1</v>
-      </c>
-      <c r="AM469" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="470" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A470" s="59">
+      <c r="AH469" s="58">
+        <v>1</v>
+      </c>
+      <c r="AI469" s="58">
+        <v>1</v>
+      </c>
+      <c r="AL469" s="58">
+        <v>1</v>
+      </c>
+      <c r="AM469" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="470" spans="1:39" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A470" s="58">
         <v>469</v>
       </c>
-      <c r="B470" s="59">
+      <c r="B470" s="58">
         <v>10386</v>
       </c>
-      <c r="F470" s="59">
-        <v>1</v>
-      </c>
-      <c r="G470" s="59" t="s">
+      <c r="F470" s="58">
+        <v>1</v>
+      </c>
+      <c r="G470" s="58" t="s">
         <v>1618</v>
       </c>
-      <c r="I470" s="59" t="s">
+      <c r="I470" s="58" t="s">
         <v>1611</v>
       </c>
-      <c r="J470" s="59" t="s">
+      <c r="J470" s="58" t="s">
         <v>1619</v>
       </c>
-      <c r="L470" s="59">
+      <c r="L470" s="58">
         <v>-31</v>
       </c>
-      <c r="M470" s="59">
-        <v>0</v>
-      </c>
-      <c r="N470" s="59">
-        <v>0</v>
-      </c>
-      <c r="O470" s="59" t="s">
+      <c r="M470" s="58">
+        <v>0</v>
+      </c>
+      <c r="N470" s="58">
+        <v>0</v>
+      </c>
+      <c r="O470" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="P470" s="59">
+      <c r="P470" s="58">
         <v>6800</v>
       </c>
-      <c r="Q470" s="59" t="s">
+      <c r="Q470" s="58" t="s">
         <v>1527</v>
       </c>
-      <c r="R470" s="60" t="s">
+      <c r="R470" s="59" t="s">
         <v>1620</v>
       </c>
-      <c r="W470" s="59" t="s">
+      <c r="W470" s="58" t="s">
         <v>1614</v>
       </c>
-      <c r="X470" s="59">
+      <c r="X470" s="58">
         <v>9999999</v>
       </c>
-      <c r="Y470" s="59">
+      <c r="Y470" s="58">
         <v>1605571200</v>
       </c>
-      <c r="Z470" s="59">
+      <c r="Z470" s="58">
         <v>2552233600</v>
       </c>
-      <c r="AH470" s="59">
-        <v>1</v>
-      </c>
-      <c r="AI470" s="59">
-        <v>1</v>
-      </c>
-      <c r="AL470" s="59">
-        <v>1</v>
-      </c>
-      <c r="AM470" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="471" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A471" s="59">
+      <c r="AH470" s="58">
+        <v>1</v>
+      </c>
+      <c r="AI470" s="58">
+        <v>1</v>
+      </c>
+      <c r="AL470" s="58">
+        <v>1</v>
+      </c>
+      <c r="AM470" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="471" spans="1:39" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A471" s="58">
         <v>470</v>
       </c>
-      <c r="B471" s="59">
+      <c r="B471" s="58">
         <v>10387</v>
       </c>
-      <c r="F471" s="59">
-        <v>1</v>
-      </c>
-      <c r="G471" s="59" t="s">
+      <c r="F471" s="58">
+        <v>1</v>
+      </c>
+      <c r="G471" s="58" t="s">
         <v>1621</v>
       </c>
-      <c r="I471" s="59" t="s">
+      <c r="I471" s="58" t="s">
         <v>1611</v>
       </c>
-      <c r="J471" s="59" t="s">
+      <c r="J471" s="58" t="s">
         <v>1622</v>
       </c>
-      <c r="L471" s="59">
+      <c r="L471" s="58">
         <v>-31</v>
       </c>
-      <c r="M471" s="59">
-        <v>0</v>
-      </c>
-      <c r="N471" s="59">
-        <v>0</v>
-      </c>
-      <c r="O471" s="59" t="s">
+      <c r="M471" s="58">
+        <v>0</v>
+      </c>
+      <c r="N471" s="58">
+        <v>0</v>
+      </c>
+      <c r="O471" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="P471" s="59">
+      <c r="P471" s="58">
         <v>9800</v>
       </c>
-      <c r="Q471" s="59" t="s">
+      <c r="Q471" s="58" t="s">
         <v>1527</v>
       </c>
-      <c r="R471" s="60" t="s">
+      <c r="R471" s="59" t="s">
         <v>1623</v>
       </c>
-      <c r="W471" s="59" t="s">
+      <c r="W471" s="58" t="s">
         <v>1624</v>
       </c>
-      <c r="X471" s="59">
+      <c r="X471" s="58">
         <v>9999999</v>
       </c>
-      <c r="Y471" s="59">
+      <c r="Y471" s="58">
         <v>1605571200</v>
       </c>
-      <c r="Z471" s="59">
+      <c r="Z471" s="58">
         <v>2552233600</v>
       </c>
-      <c r="AH471" s="59">
-        <v>1</v>
-      </c>
-      <c r="AI471" s="59">
-        <v>1</v>
-      </c>
-      <c r="AL471" s="59">
-        <v>1</v>
-      </c>
-      <c r="AM471" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="472" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A472" s="59">
+      <c r="AH471" s="58">
+        <v>1</v>
+      </c>
+      <c r="AI471" s="58">
+        <v>1</v>
+      </c>
+      <c r="AL471" s="58">
+        <v>1</v>
+      </c>
+      <c r="AM471" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="472" spans="1:39" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A472" s="58">
         <v>471</v>
       </c>
-      <c r="B472" s="59">
+      <c r="B472" s="58">
         <v>10388</v>
       </c>
-      <c r="F472" s="59">
-        <v>1</v>
-      </c>
-      <c r="G472" s="59" t="s">
+      <c r="F472" s="58">
+        <v>1</v>
+      </c>
+      <c r="G472" s="58" t="s">
         <v>1625</v>
       </c>
-      <c r="I472" s="59" t="s">
+      <c r="I472" s="58" t="s">
         <v>1610</v>
       </c>
-      <c r="J472" s="59" t="s">
+      <c r="J472" s="58" t="s">
         <v>1626</v>
       </c>
-      <c r="L472" s="59">
+      <c r="L472" s="58">
         <v>-31</v>
       </c>
-      <c r="M472" s="59">
-        <v>0</v>
-      </c>
-      <c r="N472" s="59">
-        <v>0</v>
-      </c>
-      <c r="O472" s="59" t="s">
+      <c r="M472" s="58">
+        <v>0</v>
+      </c>
+      <c r="N472" s="58">
+        <v>0</v>
+      </c>
+      <c r="O472" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="P472" s="59">
+      <c r="P472" s="58">
         <v>19800</v>
       </c>
-      <c r="Q472" s="59" t="s">
+      <c r="Q472" s="58" t="s">
         <v>1527</v>
       </c>
-      <c r="R472" s="60" t="s">
+      <c r="R472" s="59" t="s">
         <v>1627</v>
       </c>
-      <c r="W472" s="59" t="s">
+      <c r="W472" s="58" t="s">
         <v>1624</v>
       </c>
-      <c r="X472" s="59">
+      <c r="X472" s="58">
         <v>9999999</v>
       </c>
-      <c r="Y472" s="59">
+      <c r="Y472" s="58">
         <v>1605571200</v>
       </c>
-      <c r="Z472" s="59">
+      <c r="Z472" s="58">
         <v>2552233600</v>
       </c>
-      <c r="AH472" s="59">
-        <v>1</v>
-      </c>
-      <c r="AI472" s="59">
-        <v>1</v>
-      </c>
-      <c r="AL472" s="59">
-        <v>1</v>
-      </c>
-      <c r="AM472" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="473" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A473" s="59">
+      <c r="AH472" s="58">
+        <v>1</v>
+      </c>
+      <c r="AI472" s="58">
+        <v>1</v>
+      </c>
+      <c r="AL472" s="58">
+        <v>1</v>
+      </c>
+      <c r="AM472" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="473" spans="1:39" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A473" s="58">
         <v>472</v>
       </c>
-      <c r="B473" s="59">
+      <c r="B473" s="58">
         <v>10389</v>
       </c>
-      <c r="F473" s="59">
-        <v>1</v>
-      </c>
-      <c r="G473" s="59" t="s">
+      <c r="F473" s="58">
+        <v>1</v>
+      </c>
+      <c r="G473" s="58" t="s">
         <v>1628</v>
       </c>
-      <c r="I473" s="59" t="s">
+      <c r="I473" s="58" t="s">
         <v>1611</v>
       </c>
-      <c r="J473" s="59" t="s">
+      <c r="J473" s="58" t="s">
         <v>1629</v>
       </c>
-      <c r="L473" s="59">
+      <c r="L473" s="58">
         <v>-31</v>
       </c>
-      <c r="M473" s="59">
-        <v>0</v>
-      </c>
-      <c r="N473" s="59">
-        <v>0</v>
-      </c>
-      <c r="O473" s="59" t="s">
+      <c r="M473" s="58">
+        <v>0</v>
+      </c>
+      <c r="N473" s="58">
+        <v>0</v>
+      </c>
+      <c r="O473" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="P473" s="59">
+      <c r="P473" s="58">
         <v>49800</v>
       </c>
-      <c r="Q473" s="59" t="s">
+      <c r="Q473" s="58" t="s">
         <v>1527</v>
       </c>
-      <c r="R473" s="60" t="s">
+      <c r="R473" s="59" t="s">
         <v>1630</v>
       </c>
-      <c r="W473" s="59" t="s">
+      <c r="W473" s="58" t="s">
         <v>1624</v>
       </c>
-      <c r="X473" s="59">
+      <c r="X473" s="58">
         <v>9999999</v>
       </c>
-      <c r="Y473" s="59">
+      <c r="Y473" s="58">
         <v>1605571200</v>
       </c>
-      <c r="Z473" s="59">
+      <c r="Z473" s="58">
         <v>2552233600</v>
       </c>
-      <c r="AH473" s="59">
-        <v>1</v>
-      </c>
-      <c r="AI473" s="59">
-        <v>1</v>
-      </c>
-      <c r="AL473" s="59">
-        <v>1</v>
-      </c>
-      <c r="AM473" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="474" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A474" s="59">
+      <c r="AH473" s="58">
+        <v>1</v>
+      </c>
+      <c r="AI473" s="58">
+        <v>1</v>
+      </c>
+      <c r="AL473" s="58">
+        <v>1</v>
+      </c>
+      <c r="AM473" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="474" spans="1:39" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A474" s="58">
         <v>473</v>
       </c>
-      <c r="B474" s="59">
+      <c r="B474" s="58">
         <v>10390</v>
       </c>
-      <c r="F474" s="59">
-        <v>1</v>
-      </c>
-      <c r="G474" s="59" t="s">
+      <c r="F474" s="58">
+        <v>1</v>
+      </c>
+      <c r="G474" s="58" t="s">
         <v>1631</v>
       </c>
-      <c r="I474" s="59" t="s">
+      <c r="I474" s="58" t="s">
         <v>1611</v>
       </c>
-      <c r="J474" s="59" t="s">
+      <c r="J474" s="58" t="s">
         <v>1632</v>
       </c>
-      <c r="L474" s="59">
+      <c r="L474" s="58">
         <v>-31</v>
       </c>
-      <c r="M474" s="59">
-        <v>0</v>
-      </c>
-      <c r="N474" s="59">
-        <v>0</v>
-      </c>
-      <c r="O474" s="59" t="s">
+      <c r="M474" s="58">
+        <v>0</v>
+      </c>
+      <c r="N474" s="58">
+        <v>0</v>
+      </c>
+      <c r="O474" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="P474" s="59">
+      <c r="P474" s="58">
         <v>99800</v>
       </c>
-      <c r="Q474" s="59" t="s">
+      <c r="Q474" s="58" t="s">
         <v>1527</v>
       </c>
-      <c r="R474" s="60" t="s">
+      <c r="R474" s="59" t="s">
         <v>1633</v>
       </c>
-      <c r="W474" s="59" t="s">
+      <c r="W474" s="58" t="s">
         <v>1624</v>
       </c>
-      <c r="X474" s="59">
+      <c r="X474" s="58">
         <v>9999999</v>
       </c>
-      <c r="Y474" s="59">
+      <c r="Y474" s="58">
         <v>1605571200</v>
       </c>
-      <c r="Z474" s="59">
+      <c r="Z474" s="58">
         <v>2552233600</v>
       </c>
-      <c r="AH474" s="59">
-        <v>1</v>
-      </c>
-      <c r="AI474" s="59">
-        <v>1</v>
-      </c>
-      <c r="AL474" s="59">
-        <v>1</v>
-      </c>
-      <c r="AM474" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="475" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A475" s="59">
+      <c r="AH474" s="58">
+        <v>1</v>
+      </c>
+      <c r="AI474" s="58">
+        <v>1</v>
+      </c>
+      <c r="AL474" s="58">
+        <v>1</v>
+      </c>
+      <c r="AM474" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="475" spans="1:39" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A475" s="58">
         <v>474</v>
       </c>
-      <c r="B475" s="59">
+      <c r="B475" s="58">
         <v>10391</v>
       </c>
-      <c r="F475" s="59">
-        <v>1</v>
-      </c>
-      <c r="G475" s="59" t="s">
+      <c r="F475" s="58">
+        <v>1</v>
+      </c>
+      <c r="G475" s="58" t="s">
         <v>1634</v>
       </c>
-      <c r="I475" s="59" t="s">
+      <c r="I475" s="58" t="s">
         <v>1611</v>
       </c>
-      <c r="J475" s="59" t="s">
+      <c r="J475" s="58" t="s">
         <v>1688</v>
       </c>
-      <c r="L475" s="59">
+      <c r="L475" s="58">
         <v>-31</v>
       </c>
-      <c r="M475" s="59">
-        <v>0</v>
-      </c>
-      <c r="N475" s="59">
-        <v>0</v>
-      </c>
-      <c r="O475" s="59" t="s">
+      <c r="M475" s="58">
+        <v>0</v>
+      </c>
+      <c r="N475" s="58">
+        <v>0</v>
+      </c>
+      <c r="O475" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="P475" s="59">
+      <c r="P475" s="58">
         <v>249800</v>
       </c>
-      <c r="Q475" s="59" t="s">
+      <c r="Q475" s="58" t="s">
         <v>1527</v>
       </c>
-      <c r="R475" s="60" t="s">
+      <c r="R475" s="59" t="s">
         <v>1687</v>
       </c>
-      <c r="W475" s="59" t="s">
+      <c r="W475" s="58" t="s">
         <v>1624</v>
       </c>
-      <c r="X475" s="59">
+      <c r="X475" s="58">
         <v>9999999</v>
       </c>
-      <c r="Y475" s="59">
+      <c r="Y475" s="58">
         <v>1605571200</v>
       </c>
-      <c r="Z475" s="59">
+      <c r="Z475" s="58">
         <v>2552233600</v>
       </c>
-      <c r="AH475" s="59">
-        <v>1</v>
-      </c>
-      <c r="AI475" s="59">
-        <v>1</v>
-      </c>
-      <c r="AL475" s="59">
-        <v>1</v>
-      </c>
-      <c r="AM475" s="59">
+      <c r="AH475" s="58">
+        <v>1</v>
+      </c>
+      <c r="AI475" s="58">
+        <v>1</v>
+      </c>
+      <c r="AL475" s="58">
+        <v>1</v>
+      </c>
+      <c r="AM475" s="58">
         <v>1</v>
       </c>
     </row>
@@ -43457,263 +43475,263 @@
         <v>1</v>
       </c>
     </row>
-    <row r="493" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A493" s="59">
+    <row r="493" spans="1:39" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A493" s="58">
         <v>492</v>
       </c>
-      <c r="B493" s="59">
+      <c r="B493" s="58">
         <v>10409</v>
       </c>
-      <c r="F493" s="59">
-        <v>1</v>
-      </c>
-      <c r="G493" s="59" t="s">
+      <c r="F493" s="58">
+        <v>1</v>
+      </c>
+      <c r="G493" s="58" t="s">
         <v>1865</v>
       </c>
-      <c r="I493" s="59" t="s">
+      <c r="I493" s="58" t="s">
         <v>1866</v>
       </c>
-      <c r="J493" s="59" t="s">
+      <c r="J493" s="58" t="s">
         <v>1867</v>
       </c>
-      <c r="L493" s="59">
+      <c r="L493" s="58">
         <v>-31</v>
       </c>
-      <c r="M493" s="59">
-        <v>0</v>
-      </c>
-      <c r="N493" s="59">
-        <v>0</v>
-      </c>
-      <c r="O493" s="59" t="s">
+      <c r="M493" s="58">
+        <v>0</v>
+      </c>
+      <c r="N493" s="58">
+        <v>0</v>
+      </c>
+      <c r="O493" s="58" t="s">
         <v>492</v>
       </c>
-      <c r="P493" s="59">
+      <c r="P493" s="58">
         <v>49800</v>
       </c>
-      <c r="Q493" s="59" t="s">
+      <c r="Q493" s="58" t="s">
         <v>1868</v>
       </c>
-      <c r="R493" s="60" t="s">
+      <c r="R493" s="59" t="s">
         <v>1870</v>
       </c>
-      <c r="W493" s="59" t="s">
+      <c r="W493" s="58" t="s">
         <v>524</v>
       </c>
-      <c r="X493" s="59">
+      <c r="X493" s="58">
         <v>200</v>
       </c>
-      <c r="Y493" s="59">
+      <c r="Y493" s="58">
         <v>1609200000</v>
       </c>
-      <c r="Z493" s="59">
+      <c r="Z493" s="58">
         <v>1609775999</v>
       </c>
-      <c r="AH493" s="59">
-        <v>1</v>
-      </c>
-      <c r="AI493" s="59">
-        <v>1</v>
-      </c>
-      <c r="AL493" s="59">
-        <v>1</v>
-      </c>
-      <c r="AM493" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="494" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A494" s="59">
+      <c r="AH493" s="58">
+        <v>1</v>
+      </c>
+      <c r="AI493" s="58">
+        <v>1</v>
+      </c>
+      <c r="AL493" s="58">
+        <v>1</v>
+      </c>
+      <c r="AM493" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="494" spans="1:39" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A494" s="58">
         <v>493</v>
       </c>
-      <c r="B494" s="59">
+      <c r="B494" s="58">
         <v>10410</v>
       </c>
-      <c r="F494" s="59">
-        <v>1</v>
-      </c>
-      <c r="G494" s="59" t="s">
+      <c r="F494" s="58">
+        <v>1</v>
+      </c>
+      <c r="G494" s="58" t="s">
         <v>1865</v>
       </c>
-      <c r="I494" s="59" t="s">
+      <c r="I494" s="58" t="s">
         <v>1869</v>
       </c>
-      <c r="J494" s="59" t="s">
+      <c r="J494" s="58" t="s">
         <v>1867</v>
       </c>
-      <c r="L494" s="59">
+      <c r="L494" s="58">
         <v>-31</v>
       </c>
-      <c r="M494" s="59">
-        <v>0</v>
-      </c>
-      <c r="N494" s="59">
-        <v>0</v>
-      </c>
-      <c r="O494" s="59" t="s">
+      <c r="M494" s="58">
+        <v>0</v>
+      </c>
+      <c r="N494" s="58">
+        <v>0</v>
+      </c>
+      <c r="O494" s="58" t="s">
         <v>492</v>
       </c>
-      <c r="P494" s="59">
+      <c r="P494" s="58">
         <v>99800</v>
       </c>
-      <c r="Q494" s="59" t="s">
+      <c r="Q494" s="58" t="s">
         <v>1868</v>
       </c>
-      <c r="R494" s="60" t="s">
+      <c r="R494" s="59" t="s">
         <v>1870</v>
       </c>
-      <c r="W494" s="59" t="s">
+      <c r="W494" s="58" t="s">
         <v>524</v>
       </c>
-      <c r="X494" s="59">
+      <c r="X494" s="58">
         <v>9999999</v>
       </c>
-      <c r="Y494" s="59">
+      <c r="Y494" s="58">
         <v>1609200000</v>
       </c>
-      <c r="Z494" s="59">
+      <c r="Z494" s="58">
         <v>1609775999</v>
       </c>
-      <c r="AH494" s="59">
-        <v>1</v>
-      </c>
-      <c r="AI494" s="59">
-        <v>1</v>
-      </c>
-      <c r="AL494" s="59">
-        <v>1</v>
-      </c>
-      <c r="AM494" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="495" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A495" s="59">
+      <c r="AH494" s="58">
+        <v>1</v>
+      </c>
+      <c r="AI494" s="58">
+        <v>1</v>
+      </c>
+      <c r="AL494" s="58">
+        <v>1</v>
+      </c>
+      <c r="AM494" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="495" spans="1:39" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A495" s="58">
         <v>494</v>
       </c>
-      <c r="B495" s="59">
+      <c r="B495" s="58">
         <v>10411</v>
       </c>
-      <c r="F495" s="59">
-        <v>1</v>
-      </c>
-      <c r="G495" s="59" t="s">
+      <c r="F495" s="58">
+        <v>1</v>
+      </c>
+      <c r="G495" s="58" t="s">
         <v>1886</v>
       </c>
-      <c r="J495" s="59" t="s">
+      <c r="J495" s="58" t="s">
         <v>1887</v>
       </c>
-      <c r="L495" s="59">
+      <c r="L495" s="58">
         <v>-31</v>
       </c>
-      <c r="M495" s="59">
-        <v>0</v>
-      </c>
-      <c r="N495" s="59">
-        <v>0</v>
-      </c>
-      <c r="O495" s="59" t="s">
+      <c r="M495" s="58">
+        <v>0</v>
+      </c>
+      <c r="N495" s="58">
+        <v>0</v>
+      </c>
+      <c r="O495" s="58" t="s">
         <v>481</v>
       </c>
-      <c r="P495" s="59">
+      <c r="P495" s="58">
         <v>79800</v>
       </c>
-      <c r="Q495" s="59" t="s">
+      <c r="Q495" s="58" t="s">
         <v>1641</v>
       </c>
-      <c r="R495" s="60" t="s">
+      <c r="R495" s="59" t="s">
         <v>1888</v>
       </c>
-      <c r="W495" s="59" t="s">
+      <c r="W495" s="58" t="s">
         <v>981</v>
       </c>
-      <c r="X495" s="59">
+      <c r="X495" s="58">
         <v>99999999</v>
       </c>
-      <c r="Y495" s="59">
+      <c r="Y495" s="58">
         <v>1592263800</v>
       </c>
-      <c r="Z495" s="59">
+      <c r="Z495" s="58">
         <v>2552233600</v>
       </c>
-      <c r="AA495" s="59">
+      <c r="AA495" s="58">
         <v>14</v>
       </c>
-      <c r="AH495" s="59">
-        <v>1</v>
-      </c>
-      <c r="AI495" s="59">
-        <v>1</v>
-      </c>
-      <c r="AL495" s="59">
-        <v>1</v>
-      </c>
-      <c r="AM495" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="496" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A496" s="59">
+      <c r="AH495" s="58">
+        <v>1</v>
+      </c>
+      <c r="AI495" s="58">
+        <v>1</v>
+      </c>
+      <c r="AL495" s="58">
+        <v>1</v>
+      </c>
+      <c r="AM495" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="496" spans="1:39" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A496" s="58">
         <v>495</v>
       </c>
-      <c r="B496" s="59">
+      <c r="B496" s="58">
         <v>10412</v>
       </c>
-      <c r="F496" s="59">
-        <v>1</v>
-      </c>
-      <c r="G496" s="59" t="s">
+      <c r="F496" s="58">
+        <v>1</v>
+      </c>
+      <c r="G496" s="58" t="s">
         <v>1889</v>
       </c>
-      <c r="J496" s="59" t="s">
+      <c r="J496" s="58" t="s">
         <v>1890</v>
       </c>
-      <c r="L496" s="59">
+      <c r="L496" s="58">
         <v>-31</v>
       </c>
-      <c r="M496" s="59">
-        <v>0</v>
-      </c>
-      <c r="N496" s="59">
-        <v>0</v>
-      </c>
-      <c r="O496" s="59" t="s">
+      <c r="M496" s="58">
+        <v>0</v>
+      </c>
+      <c r="N496" s="58">
+        <v>0</v>
+      </c>
+      <c r="O496" s="58" t="s">
         <v>481</v>
       </c>
-      <c r="P496" s="59">
+      <c r="P496" s="58">
         <v>89800</v>
       </c>
-      <c r="Q496" s="59" t="s">
+      <c r="Q496" s="58" t="s">
         <v>1641</v>
       </c>
-      <c r="R496" s="60" t="s">
+      <c r="R496" s="59" t="s">
         <v>1891</v>
       </c>
-      <c r="W496" s="59" t="s">
+      <c r="W496" s="58" t="s">
         <v>981</v>
       </c>
-      <c r="X496" s="59">
+      <c r="X496" s="58">
         <v>99999999</v>
       </c>
-      <c r="Y496" s="59">
+      <c r="Y496" s="58">
         <v>1592263800</v>
       </c>
-      <c r="Z496" s="59">
+      <c r="Z496" s="58">
         <v>2552233600</v>
       </c>
-      <c r="AA496" s="59">
+      <c r="AA496" s="58">
         <v>14</v>
       </c>
-      <c r="AH496" s="59">
-        <v>1</v>
-      </c>
-      <c r="AI496" s="59">
-        <v>1</v>
-      </c>
-      <c r="AL496" s="59">
-        <v>1</v>
-      </c>
-      <c r="AM496" s="59">
+      <c r="AH496" s="58">
+        <v>1</v>
+      </c>
+      <c r="AI496" s="58">
+        <v>1</v>
+      </c>
+      <c r="AL496" s="58">
+        <v>1</v>
+      </c>
+      <c r="AM496" s="58">
         <v>1</v>
       </c>
     </row>
@@ -43754,7 +43772,7 @@
       <c r="Q497" s="5" t="s">
         <v>1897</v>
       </c>
-      <c r="R497" s="63" t="s">
+      <c r="R497" s="62" t="s">
         <v>2016</v>
       </c>
       <c r="W497" s="47" t="s">
@@ -43822,7 +43840,7 @@
       <c r="Q498" s="5" t="s">
         <v>1897</v>
       </c>
-      <c r="R498" s="63" t="s">
+      <c r="R498" s="62" t="s">
         <v>2017</v>
       </c>
       <c r="W498" s="47" t="s">
@@ -43890,7 +43908,7 @@
       <c r="Q499" s="5" t="s">
         <v>1897</v>
       </c>
-      <c r="R499" s="63" t="s">
+      <c r="R499" s="62" t="s">
         <v>2018</v>
       </c>
       <c r="W499" s="47" t="s">
@@ -43958,7 +43976,7 @@
       <c r="Q500" s="5" t="s">
         <v>1897</v>
       </c>
-      <c r="R500" s="63" t="s">
+      <c r="R500" s="62" t="s">
         <v>2019</v>
       </c>
       <c r="W500" s="47" t="s">
@@ -44026,7 +44044,7 @@
       <c r="Q501" s="5" t="s">
         <v>1897</v>
       </c>
-      <c r="R501" s="63" t="s">
+      <c r="R501" s="62" t="s">
         <v>2020</v>
       </c>
       <c r="W501" s="47" t="s">
@@ -44094,7 +44112,7 @@
       <c r="Q502" s="5" t="s">
         <v>1897</v>
       </c>
-      <c r="R502" s="63" t="s">
+      <c r="R502" s="62" t="s">
         <v>2021</v>
       </c>
       <c r="W502" s="47" t="s">
@@ -44162,7 +44180,7 @@
       <c r="Q503" s="5" t="s">
         <v>1908</v>
       </c>
-      <c r="R503" s="64" t="s">
+      <c r="R503" s="63" t="s">
         <v>2022</v>
       </c>
       <c r="W503" s="47" t="s">
@@ -44230,7 +44248,7 @@
       <c r="Q504" s="5" t="s">
         <v>1908</v>
       </c>
-      <c r="R504" s="64" t="s">
+      <c r="R504" s="63" t="s">
         <v>2017</v>
       </c>
       <c r="W504" s="47" t="s">
@@ -44298,7 +44316,7 @@
       <c r="Q505" s="5" t="s">
         <v>1908</v>
       </c>
-      <c r="R505" s="64" t="s">
+      <c r="R505" s="63" t="s">
         <v>2023</v>
       </c>
       <c r="W505" s="47" t="s">
@@ -44366,7 +44384,7 @@
       <c r="Q506" s="5" t="s">
         <v>1912</v>
       </c>
-      <c r="R506" s="64" t="s">
+      <c r="R506" s="63" t="s">
         <v>2024</v>
       </c>
       <c r="W506" s="47" t="s">
@@ -44434,7 +44452,7 @@
       <c r="Q507" s="5" t="s">
         <v>1912</v>
       </c>
-      <c r="R507" s="64" t="s">
+      <c r="R507" s="63" t="s">
         <v>2025</v>
       </c>
       <c r="W507" s="47" t="s">
@@ -44502,7 +44520,7 @@
       <c r="Q508" s="5" t="s">
         <v>1912</v>
       </c>
-      <c r="R508" s="64" t="s">
+      <c r="R508" s="63" t="s">
         <v>2026</v>
       </c>
       <c r="W508" s="47" t="s">
@@ -44533,183 +44551,183 @@
         <v>1</v>
       </c>
     </row>
-    <row r="509" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A509" s="59">
+    <row r="509" spans="1:39" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A509" s="58">
         <v>508</v>
       </c>
-      <c r="B509" s="59">
+      <c r="B509" s="58">
         <v>10425</v>
       </c>
-      <c r="F509" s="59">
-        <v>1</v>
-      </c>
-      <c r="G509" s="59" t="s">
+      <c r="F509" s="58">
+        <v>1</v>
+      </c>
+      <c r="G509" s="58" t="s">
         <v>1918</v>
       </c>
-      <c r="J509" s="59" t="s">
+      <c r="J509" s="58" t="s">
         <v>1919</v>
       </c>
-      <c r="L509" s="59">
+      <c r="L509" s="58">
         <v>-4</v>
       </c>
-      <c r="M509" s="59">
-        <v>1</v>
-      </c>
-      <c r="N509" s="59">
-        <v>0</v>
-      </c>
-      <c r="O509" s="59" t="s">
+      <c r="M509" s="58">
+        <v>1</v>
+      </c>
+      <c r="N509" s="58">
+        <v>0</v>
+      </c>
+      <c r="O509" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="P509" s="59">
+      <c r="P509" s="58">
         <v>1800</v>
       </c>
-      <c r="R509" s="60"/>
-      <c r="W509" s="59" t="s">
+      <c r="R509" s="59"/>
+      <c r="W509" s="58" t="s">
         <v>525</v>
       </c>
-      <c r="X509" s="61" t="s">
+      <c r="X509" s="60" t="s">
         <v>108</v>
       </c>
-      <c r="Y509" s="62">
-        <v>0</v>
-      </c>
-      <c r="Z509" s="59">
+      <c r="Y509" s="61">
+        <v>0</v>
+      </c>
+      <c r="Z509" s="58">
         <v>2552233600</v>
       </c>
-      <c r="AB509" s="59" t="s">
+      <c r="AB509" s="58" t="s">
         <v>77</v>
       </c>
-      <c r="AC509" s="59" t="s">
+      <c r="AC509" s="58" t="s">
         <v>1920</v>
       </c>
-      <c r="AD509" s="60" t="s">
+      <c r="AD509" s="59" t="s">
         <v>1921</v>
       </c>
-      <c r="AH509" s="59">
-        <v>1</v>
-      </c>
-      <c r="AI509" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="510" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A510" s="59">
+      <c r="AH509" s="58">
+        <v>1</v>
+      </c>
+      <c r="AI509" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="510" spans="1:39" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A510" s="58">
         <v>509</v>
       </c>
-      <c r="B510" s="59">
+      <c r="B510" s="58">
         <v>10426</v>
       </c>
-      <c r="F510" s="59">
-        <v>1</v>
-      </c>
-      <c r="G510" s="59" t="s">
+      <c r="F510" s="58">
+        <v>1</v>
+      </c>
+      <c r="G510" s="58" t="s">
         <v>1922</v>
       </c>
-      <c r="J510" s="59" t="s">
+      <c r="J510" s="58" t="s">
         <v>1923</v>
       </c>
-      <c r="L510" s="59">
+      <c r="L510" s="58">
         <v>-4</v>
       </c>
-      <c r="M510" s="59">
-        <v>1</v>
-      </c>
-      <c r="N510" s="59">
-        <v>0</v>
-      </c>
-      <c r="O510" s="59" t="s">
+      <c r="M510" s="58">
+        <v>1</v>
+      </c>
+      <c r="N510" s="58">
+        <v>0</v>
+      </c>
+      <c r="O510" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="P510" s="59">
+      <c r="P510" s="58">
         <v>4800</v>
       </c>
-      <c r="R510" s="60"/>
-      <c r="W510" s="59" t="s">
+      <c r="R510" s="59"/>
+      <c r="W510" s="58" t="s">
         <v>525</v>
       </c>
-      <c r="X510" s="61" t="s">
+      <c r="X510" s="60" t="s">
         <v>108</v>
       </c>
-      <c r="Y510" s="62">
-        <v>0</v>
-      </c>
-      <c r="Z510" s="59">
+      <c r="Y510" s="61">
+        <v>0</v>
+      </c>
+      <c r="Z510" s="58">
         <v>2552233600</v>
       </c>
-      <c r="AB510" s="59" t="s">
+      <c r="AB510" s="58" t="s">
         <v>77</v>
       </c>
-      <c r="AC510" s="59" t="s">
+      <c r="AC510" s="58" t="s">
         <v>1924</v>
       </c>
-      <c r="AD510" s="60" t="s">
+      <c r="AD510" s="59" t="s">
         <v>1925</v>
       </c>
-      <c r="AH510" s="59">
-        <v>1</v>
-      </c>
-      <c r="AI510" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="511" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A511" s="59">
+      <c r="AH510" s="58">
+        <v>1</v>
+      </c>
+      <c r="AI510" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="511" spans="1:39" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A511" s="58">
         <v>510</v>
       </c>
-      <c r="B511" s="59">
+      <c r="B511" s="58">
         <v>10427</v>
       </c>
-      <c r="F511" s="59">
-        <v>1</v>
-      </c>
-      <c r="G511" s="59" t="s">
+      <c r="F511" s="58">
+        <v>1</v>
+      </c>
+      <c r="G511" s="58" t="s">
         <v>1926</v>
       </c>
-      <c r="J511" s="59" t="s">
+      <c r="J511" s="58" t="s">
         <v>1927</v>
       </c>
-      <c r="L511" s="59">
+      <c r="L511" s="58">
         <v>-4</v>
       </c>
-      <c r="M511" s="59">
-        <v>1</v>
-      </c>
-      <c r="N511" s="59">
-        <v>0</v>
-      </c>
-      <c r="O511" s="59" t="s">
+      <c r="M511" s="58">
+        <v>1</v>
+      </c>
+      <c r="N511" s="58">
+        <v>0</v>
+      </c>
+      <c r="O511" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="P511" s="59">
+      <c r="P511" s="58">
         <v>9800</v>
       </c>
-      <c r="R511" s="60"/>
-      <c r="W511" s="59" t="s">
+      <c r="R511" s="59"/>
+      <c r="W511" s="58" t="s">
         <v>525</v>
       </c>
-      <c r="X511" s="61" t="s">
+      <c r="X511" s="60" t="s">
         <v>108</v>
       </c>
-      <c r="Y511" s="62">
-        <v>0</v>
-      </c>
-      <c r="Z511" s="59">
+      <c r="Y511" s="61">
+        <v>0</v>
+      </c>
+      <c r="Z511" s="58">
         <v>2552233600</v>
       </c>
-      <c r="AB511" s="59" t="s">
+      <c r="AB511" s="58" t="s">
         <v>77</v>
       </c>
-      <c r="AC511" s="59" t="s">
+      <c r="AC511" s="58" t="s">
         <v>1928</v>
       </c>
-      <c r="AD511" s="60" t="s">
+      <c r="AD511" s="59" t="s">
         <v>1929</v>
       </c>
-      <c r="AH511" s="59">
-        <v>1</v>
-      </c>
-      <c r="AI511" s="59">
+      <c r="AH511" s="58">
+        <v>1</v>
+      </c>
+      <c r="AI511" s="58">
         <v>1</v>
       </c>
     </row>
@@ -45257,65 +45275,65 @@
         <v>1</v>
       </c>
     </row>
-    <row r="520" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A520" s="59">
+    <row r="520" spans="1:39" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A520" s="58">
         <v>519</v>
       </c>
-      <c r="B520" s="59">
+      <c r="B520" s="58">
         <v>10436</v>
       </c>
-      <c r="F520" s="59">
-        <v>1</v>
-      </c>
-      <c r="G520" s="59" t="s">
+      <c r="F520" s="58">
+        <v>1</v>
+      </c>
+      <c r="G520" s="58" t="s">
         <v>1961</v>
       </c>
-      <c r="I520" s="59" t="s">
+      <c r="I520" s="58" t="s">
         <v>1962</v>
       </c>
-      <c r="J520" s="59" t="s">
+      <c r="J520" s="58" t="s">
         <v>1963</v>
       </c>
-      <c r="L520" s="59">
+      <c r="L520" s="58">
         <v>-23</v>
       </c>
-      <c r="M520" s="59">
-        <v>1</v>
-      </c>
-      <c r="N520" s="59">
-        <v>0</v>
-      </c>
-      <c r="O520" s="59" t="s">
+      <c r="M520" s="58">
+        <v>1</v>
+      </c>
+      <c r="N520" s="58">
+        <v>0</v>
+      </c>
+      <c r="O520" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="P520" s="59">
+      <c r="P520" s="58">
         <v>1000</v>
       </c>
-      <c r="Q520" s="59" t="s">
+      <c r="Q520" s="58" t="s">
         <v>1964</v>
       </c>
-      <c r="R520" s="60" t="s">
+      <c r="R520" s="59" t="s">
         <v>1965</v>
       </c>
-      <c r="S520" s="59" t="s">
+      <c r="S520" s="58" t="s">
         <v>1966</v>
       </c>
-      <c r="W520" s="59" t="s">
+      <c r="W520" s="58" t="s">
         <v>1967</v>
       </c>
-      <c r="X520" s="59">
+      <c r="X520" s="58">
         <v>99999999</v>
       </c>
-      <c r="Y520" s="59">
-        <v>0</v>
-      </c>
-      <c r="Z520" s="59">
+      <c r="Y520" s="58">
+        <v>0</v>
+      </c>
+      <c r="Z520" s="58">
         <v>2552233600</v>
       </c>
-      <c r="AH520" s="59">
-        <v>1</v>
-      </c>
-      <c r="AI520" s="59">
+      <c r="AH520" s="58">
+        <v>1</v>
+      </c>
+      <c r="AI520" s="58">
         <v>1</v>
       </c>
     </row>
@@ -47783,7 +47801,7 @@
       <c r="Q557" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="R557" s="65" t="s">
+      <c r="R557" s="64" t="s">
         <v>2117</v>
       </c>
       <c r="W557" s="5" t="s">
@@ -47849,7 +47867,7 @@
       <c r="Q558" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="R558" s="65" t="s">
+      <c r="R558" s="64" t="s">
         <v>654</v>
       </c>
       <c r="W558" s="5" t="s">
@@ -47915,7 +47933,7 @@
       <c r="Q559" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="R559" s="65" t="s">
+      <c r="R559" s="64" t="s">
         <v>2118</v>
       </c>
       <c r="W559" s="5" t="s">
@@ -47981,7 +47999,7 @@
       <c r="Q560" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="R560" s="65" t="s">
+      <c r="R560" s="64" t="s">
         <v>989</v>
       </c>
       <c r="W560" s="5" t="s">
@@ -48047,7 +48065,7 @@
       <c r="Q561" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="R561" s="65" t="s">
+      <c r="R561" s="64" t="s">
         <v>1617</v>
       </c>
       <c r="W561" s="5" t="s">
@@ -48113,7 +48131,7 @@
       <c r="Q562" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="R562" s="65" t="s">
+      <c r="R562" s="64" t="s">
         <v>2119</v>
       </c>
       <c r="W562" s="5" t="s">
@@ -48179,7 +48197,7 @@
       <c r="Q563" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="R563" s="65" t="s">
+      <c r="R563" s="64" t="s">
         <v>989</v>
       </c>
       <c r="W563" s="5" t="s">
@@ -48245,7 +48263,7 @@
       <c r="Q564" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="R564" s="65" t="s">
+      <c r="R564" s="64" t="s">
         <v>2118</v>
       </c>
       <c r="W564" s="5" t="s">
@@ -48311,7 +48329,7 @@
       <c r="Q565" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="R565" s="65" t="s">
+      <c r="R565" s="64" t="s">
         <v>2120</v>
       </c>
       <c r="W565" s="5" t="s">
@@ -48377,7 +48395,7 @@
       <c r="Q566" s="22" t="s">
         <v>2123</v>
       </c>
-      <c r="R566" s="66" t="s">
+      <c r="R566" s="65" t="s">
         <v>2124</v>
       </c>
       <c r="W566" s="22" t="s">
@@ -48445,7 +48463,7 @@
       <c r="Q567" s="22" t="s">
         <v>2123</v>
       </c>
-      <c r="R567" s="66" t="s">
+      <c r="R567" s="65" t="s">
         <v>1938</v>
       </c>
       <c r="W567" s="22" t="s">
@@ -48513,7 +48531,7 @@
       <c r="Q568" s="22" t="s">
         <v>2126</v>
       </c>
-      <c r="R568" s="66" t="s">
+      <c r="R568" s="65" t="s">
         <v>1941</v>
       </c>
       <c r="W568" s="22" t="s">
@@ -48581,7 +48599,7 @@
       <c r="Q569" s="22" t="s">
         <v>2128</v>
       </c>
-      <c r="R569" s="66" t="s">
+      <c r="R569" s="65" t="s">
         <v>1944</v>
       </c>
       <c r="W569" s="22" t="s">
@@ -48649,7 +48667,7 @@
       <c r="Q570" s="22" t="s">
         <v>2130</v>
       </c>
-      <c r="R570" s="66" t="s">
+      <c r="R570" s="65" t="s">
         <v>1948</v>
       </c>
       <c r="W570" s="22" t="s">
@@ -48717,7 +48735,7 @@
       <c r="Q571" s="22" t="s">
         <v>2130</v>
       </c>
-      <c r="R571" s="66" t="s">
+      <c r="R571" s="65" t="s">
         <v>2132</v>
       </c>
       <c r="W571" s="22" t="s">
@@ -48785,7 +48803,7 @@
       <c r="Q572" s="22" t="s">
         <v>2133</v>
       </c>
-      <c r="R572" s="66" t="s">
+      <c r="R572" s="65" t="s">
         <v>1954</v>
       </c>
       <c r="W572" s="22" t="s">
@@ -48853,7 +48871,7 @@
       <c r="Q573" s="22" t="s">
         <v>2137</v>
       </c>
-      <c r="R573" s="66" t="s">
+      <c r="R573" s="65" t="s">
         <v>2138</v>
       </c>
       <c r="W573" s="22" t="s">
@@ -48924,7 +48942,7 @@
       <c r="Q574" s="22" t="s">
         <v>2143</v>
       </c>
-      <c r="R574" s="67" t="s">
+      <c r="R574" s="66" t="s">
         <v>2144</v>
       </c>
       <c r="S574" s="22"/>
@@ -48996,7 +49014,7 @@
       <c r="Q575" s="22" t="s">
         <v>2150</v>
       </c>
-      <c r="R575" s="67" t="s">
+      <c r="R575" s="66" t="s">
         <v>2151</v>
       </c>
       <c r="S575" s="22"/>
@@ -49068,7 +49086,7 @@
       <c r="Q576" s="22" t="s">
         <v>2155</v>
       </c>
-      <c r="R576" s="67" t="s">
+      <c r="R576" s="66" t="s">
         <v>2156</v>
       </c>
       <c r="S576" s="22"/>
@@ -49140,7 +49158,7 @@
       <c r="Q577" s="22" t="s">
         <v>2159</v>
       </c>
-      <c r="R577" s="67" t="s">
+      <c r="R577" s="66" t="s">
         <v>2160</v>
       </c>
       <c r="S577" s="22"/>
@@ -49212,7 +49230,7 @@
       <c r="Q578" s="22" t="s">
         <v>2163</v>
       </c>
-      <c r="R578" s="67" t="s">
+      <c r="R578" s="66" t="s">
         <v>2164</v>
       </c>
       <c r="S578" s="22"/>
@@ -49284,7 +49302,7 @@
       <c r="Q579" s="22" t="s">
         <v>2167</v>
       </c>
-      <c r="R579" s="67" t="s">
+      <c r="R579" s="66" t="s">
         <v>2168</v>
       </c>
       <c r="S579" s="22"/>
@@ -49313,6 +49331,65 @@
         <v>1</v>
       </c>
       <c r="AM579" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="580" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A580" s="5">
+        <v>579</v>
+      </c>
+      <c r="B580" s="6">
+        <v>10496</v>
+      </c>
+      <c r="F580" s="6">
+        <v>1</v>
+      </c>
+      <c r="G580" s="6" t="s">
+        <v>2173</v>
+      </c>
+      <c r="I580" s="6" t="s">
+        <v>2174</v>
+      </c>
+      <c r="J580" s="6" t="s">
+        <v>2178</v>
+      </c>
+      <c r="L580" s="6">
+        <v>-31</v>
+      </c>
+      <c r="M580" s="6">
+        <v>0</v>
+      </c>
+      <c r="N580" s="6">
+        <v>0</v>
+      </c>
+      <c r="O580" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="P580" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q580" s="5" t="s">
+        <v>2175</v>
+      </c>
+      <c r="R580" s="68" t="s">
+        <v>2176</v>
+      </c>
+      <c r="W580" s="6" t="s">
+        <v>2177</v>
+      </c>
+      <c r="X580" s="6">
+        <v>99999999</v>
+      </c>
+      <c r="Y580" s="6">
+        <v>1614643200</v>
+      </c>
+      <c r="Z580" s="6">
+        <v>2552233600</v>
+      </c>
+      <c r="AH580" s="6">
+        <v>1</v>
+      </c>
+      <c r="AI580" s="6">
         <v>1</v>
       </c>
     </row>
@@ -49328,7 +49405,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+    <sheetView topLeftCell="A43" workbookViewId="0">
       <selection activeCell="B74" sqref="B74"/>
     </sheetView>
   </sheetViews>
@@ -50329,13 +50406,13 @@
       <c r="A71" s="12">
         <v>70</v>
       </c>
-      <c r="B71" s="57" t="s">
+      <c r="B71" s="56" t="s">
         <v>2170</v>
       </c>
-      <c r="C71" s="58">
-        <v>1</v>
-      </c>
-      <c r="D71" s="58">
+      <c r="C71" s="57">
+        <v>1</v>
+      </c>
+      <c r="D71" s="57">
         <v>0</v>
       </c>
     </row>
@@ -50343,13 +50420,13 @@
       <c r="A72" s="12">
         <v>71</v>
       </c>
-      <c r="B72" s="57" t="s">
+      <c r="B72" s="56" t="s">
         <v>2171</v>
       </c>
-      <c r="C72" s="58">
-        <v>1</v>
-      </c>
-      <c r="D72" s="58">
+      <c r="C72" s="57">
+        <v>1</v>
+      </c>
+      <c r="D72" s="57">
         <v>0</v>
       </c>
     </row>
@@ -50357,13 +50434,13 @@
       <c r="A73" s="12">
         <v>72</v>
       </c>
-      <c r="B73" s="57" t="s">
+      <c r="B73" s="56" t="s">
         <v>2172</v>
       </c>
-      <c r="C73" s="58">
-        <v>1</v>
-      </c>
-      <c r="D73" s="58">
+      <c r="C73" s="57">
+        <v>1</v>
+      </c>
+      <c r="D73" s="57">
         <v>0</v>
       </c>
     </row>
@@ -50371,13 +50448,13 @@
       <c r="A74" s="12">
         <v>73</v>
       </c>
-      <c r="B74" s="57" t="s">
+      <c r="B74" s="56" t="s">
         <v>2069</v>
       </c>
-      <c r="C74" s="58">
-        <v>1</v>
-      </c>
-      <c r="D74" s="58">
+      <c r="C74" s="57">
+        <v>1</v>
+      </c>
+      <c r="D74" s="57">
         <v>0</v>
       </c>
     </row>
@@ -50385,13 +50462,13 @@
       <c r="A75" s="12">
         <v>74</v>
       </c>
-      <c r="B75" s="57" t="s">
+      <c r="B75" s="56" t="s">
         <v>2070</v>
       </c>
-      <c r="C75" s="58">
-        <v>1</v>
-      </c>
-      <c r="D75" s="58">
+      <c r="C75" s="57">
+        <v>1</v>
+      </c>
+      <c r="D75" s="57">
         <v>0</v>
       </c>
     </row>
@@ -50399,13 +50476,13 @@
       <c r="A76" s="12">
         <v>75</v>
       </c>
-      <c r="B76" s="57" t="s">
+      <c r="B76" s="56" t="s">
         <v>2071</v>
       </c>
-      <c r="C76" s="58">
-        <v>1</v>
-      </c>
-      <c r="D76" s="58">
+      <c r="C76" s="57">
+        <v>1</v>
+      </c>
+      <c r="D76" s="57">
         <v>0</v>
       </c>
     </row>

--- a/config_Release/shoping_config_xiaomi.xlsx
+++ b/config_Release/shoping_config_xiaomi.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_3.9\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_3.16\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4676" uniqueCount="2179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4718" uniqueCount="2201">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -9215,6 +9215,93 @@
   </si>
   <si>
     <t>"金币周卡",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>春暖花开·桃花礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>桃花礼包498元</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"5080万金币","抽奖券*50","桃花*800",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,100,0</t>
+  </si>
+  <si>
+    <t>桃花礼包198元</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"2000万金币","抽奖券*30","桃花*300",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>桃花礼包98元</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"990万金币","抽奖券*15","桃花*150",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>桃花礼包48元</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"485万金币","抽奖券*8","桃花*80",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>桃花礼包20元</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"200万金币","抽奖券*4","桃花*30",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>桃花礼包6元</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"60万金币","抽奖券*1","桃花*20",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_qdlb_cjq","prop_fish_drop_act_0","_common_rank_cnhk_009_thphb_rank",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>50800000,50,800,800</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>20000000,30,300,300</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>9900000,15,150,150</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4850000,8,80,80</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_qdlb_cjq","prop_fish_drop_act_0","_common_rank_cnhk_009_thphb_rank",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000000,4,30,30</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>600000,1,20,20</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -9594,15 +9681,15 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -12095,13 +12182,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN580"/>
+  <dimension ref="A1:AN586"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H560" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="Q560" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J580" sqref="J580"/>
+      <selection pane="bottomRight" activeCell="Q590" sqref="Q590"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -12121,7 +12208,7 @@
     <col min="13" max="14" width="14.75" style="6" customWidth="1"/>
     <col min="15" max="15" width="10.5" style="6" customWidth="1"/>
     <col min="16" max="16" width="13.5" style="6" customWidth="1"/>
-    <col min="17" max="17" width="56.875" style="6" customWidth="1"/>
+    <col min="17" max="17" width="93.75" style="6" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="30.125" style="6" customWidth="1"/>
     <col min="19" max="19" width="40.5" style="6" customWidth="1"/>
     <col min="20" max="20" width="46" style="6" customWidth="1"/>
@@ -36551,7 +36638,7 @@
       <c r="Q386" s="22" t="s">
         <v>1262</v>
       </c>
-      <c r="R386" s="67" t="s">
+      <c r="R386" s="65" t="s">
         <v>1263</v>
       </c>
       <c r="W386" s="22" t="s">
@@ -36619,7 +36706,7 @@
       <c r="Q387" s="22" t="s">
         <v>1268</v>
       </c>
-      <c r="R387" s="67" t="s">
+      <c r="R387" s="65" t="s">
         <v>1269</v>
       </c>
       <c r="W387" s="22" t="s">
@@ -36687,7 +36774,7 @@
       <c r="Q388" s="22" t="s">
         <v>1274</v>
       </c>
-      <c r="R388" s="67" t="s">
+      <c r="R388" s="65" t="s">
         <v>1275</v>
       </c>
       <c r="W388" s="22" t="s">
@@ -36755,7 +36842,7 @@
       <c r="Q389" s="22" t="s">
         <v>1281</v>
       </c>
-      <c r="R389" s="67" t="s">
+      <c r="R389" s="65" t="s">
         <v>1275</v>
       </c>
       <c r="W389" s="22" t="s">
@@ -36823,7 +36910,7 @@
       <c r="Q390" s="22" t="s">
         <v>1283</v>
       </c>
-      <c r="R390" s="67" t="s">
+      <c r="R390" s="65" t="s">
         <v>1284</v>
       </c>
       <c r="W390" s="22" t="s">
@@ -36891,7 +36978,7 @@
       <c r="Q391" s="22" t="s">
         <v>1287</v>
       </c>
-      <c r="R391" s="67" t="s">
+      <c r="R391" s="65" t="s">
         <v>1288</v>
       </c>
       <c r="W391" s="22" t="s">
@@ -36959,7 +37046,7 @@
       <c r="Q392" s="22" t="s">
         <v>1291</v>
       </c>
-      <c r="R392" s="67" t="s">
+      <c r="R392" s="65" t="s">
         <v>1292</v>
       </c>
       <c r="W392" s="22" t="s">
@@ -37027,7 +37114,7 @@
       <c r="Q393" s="22" t="s">
         <v>1295</v>
       </c>
-      <c r="R393" s="67" t="s">
+      <c r="R393" s="65" t="s">
         <v>1288</v>
       </c>
       <c r="W393" s="22" t="s">
@@ -37095,7 +37182,7 @@
       <c r="Q394" s="22" t="s">
         <v>1299</v>
       </c>
-      <c r="R394" s="67" t="s">
+      <c r="R394" s="65" t="s">
         <v>1300</v>
       </c>
       <c r="W394" s="22" t="s">
@@ -48358,547 +48445,547 @@
         <v>1</v>
       </c>
     </row>
-    <row r="566" spans="1:39" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A566" s="5">
         <v>565</v>
       </c>
       <c r="B566" s="5">
         <v>10482</v>
       </c>
-      <c r="F566" s="22">
-        <v>1</v>
-      </c>
-      <c r="G566" s="22" t="s">
+      <c r="F566" s="5">
+        <v>0</v>
+      </c>
+      <c r="G566" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="I566" s="22" t="s">
+      <c r="I566" s="5" t="s">
         <v>2122</v>
       </c>
-      <c r="J566" s="22" t="s">
+      <c r="J566" s="5" t="s">
         <v>1932</v>
       </c>
-      <c r="L566" s="22">
+      <c r="L566" s="5">
         <v>-33</v>
       </c>
-      <c r="M566" s="22">
-        <v>0</v>
-      </c>
-      <c r="N566" s="22">
-        <v>0</v>
-      </c>
-      <c r="O566" s="22" t="s">
+      <c r="M566" s="5">
+        <v>0</v>
+      </c>
+      <c r="N566" s="5">
+        <v>0</v>
+      </c>
+      <c r="O566" s="5" t="s">
         <v>483</v>
       </c>
-      <c r="P566" s="22">
+      <c r="P566" s="5">
         <v>49800</v>
       </c>
-      <c r="Q566" s="22" t="s">
+      <c r="Q566" s="5" t="s">
         <v>2123</v>
       </c>
-      <c r="R566" s="65" t="s">
+      <c r="R566" s="64" t="s">
         <v>2124</v>
       </c>
-      <c r="W566" s="22" t="s">
+      <c r="W566" s="5" t="s">
         <v>1354</v>
       </c>
-      <c r="X566" s="22">
+      <c r="X566" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y566" s="22">
+      <c r="Y566" s="5">
         <v>1614643200</v>
       </c>
-      <c r="Z566" s="22">
+      <c r="Z566" s="5">
         <v>1615219199</v>
       </c>
-      <c r="AA566" s="22">
+      <c r="AA566" s="5">
         <v>68</v>
       </c>
-      <c r="AH566" s="22">
-        <v>1</v>
-      </c>
-      <c r="AI566" s="22">
-        <v>1</v>
-      </c>
-      <c r="AL566" s="22">
-        <v>1</v>
-      </c>
-      <c r="AM566" s="22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="567" spans="1:39" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH566" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI566" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL566" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM566" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="567" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A567" s="5">
         <v>566</v>
       </c>
       <c r="B567" s="5">
         <v>10483</v>
       </c>
-      <c r="F567" s="22">
-        <v>1</v>
-      </c>
-      <c r="G567" s="22" t="s">
+      <c r="F567" s="5">
+        <v>0</v>
+      </c>
+      <c r="G567" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="I567" s="22" t="s">
+      <c r="I567" s="5" t="s">
         <v>2121</v>
       </c>
-      <c r="J567" s="22" t="s">
+      <c r="J567" s="5" t="s">
         <v>2125</v>
       </c>
-      <c r="L567" s="22">
+      <c r="L567" s="5">
         <v>-33</v>
       </c>
-      <c r="M567" s="22">
-        <v>0</v>
-      </c>
-      <c r="N567" s="22">
-        <v>0</v>
-      </c>
-      <c r="O567" s="22" t="s">
+      <c r="M567" s="5">
+        <v>0</v>
+      </c>
+      <c r="N567" s="5">
+        <v>0</v>
+      </c>
+      <c r="O567" s="5" t="s">
         <v>483</v>
       </c>
-      <c r="P567" s="22">
+      <c r="P567" s="5">
         <v>19800</v>
       </c>
-      <c r="Q567" s="22" t="s">
+      <c r="Q567" s="5" t="s">
         <v>2123</v>
       </c>
-      <c r="R567" s="65" t="s">
+      <c r="R567" s="64" t="s">
         <v>1938</v>
       </c>
-      <c r="W567" s="22" t="s">
+      <c r="W567" s="5" t="s">
         <v>1354</v>
       </c>
-      <c r="X567" s="22">
+      <c r="X567" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y567" s="22">
+      <c r="Y567" s="5">
         <v>1614643200</v>
       </c>
-      <c r="Z567" s="22">
+      <c r="Z567" s="5">
         <v>1615219199</v>
       </c>
-      <c r="AA567" s="22">
+      <c r="AA567" s="5">
         <v>68</v>
       </c>
-      <c r="AH567" s="22">
-        <v>1</v>
-      </c>
-      <c r="AI567" s="22">
-        <v>1</v>
-      </c>
-      <c r="AL567" s="22">
-        <v>1</v>
-      </c>
-      <c r="AM567" s="22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="568" spans="1:39" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH567" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI567" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL567" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM567" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="568" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A568" s="5">
         <v>567</v>
       </c>
       <c r="B568" s="5">
         <v>10484</v>
       </c>
-      <c r="F568" s="22">
-        <v>1</v>
-      </c>
-      <c r="G568" s="22" t="s">
+      <c r="F568" s="5">
+        <v>0</v>
+      </c>
+      <c r="G568" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="I568" s="22" t="s">
+      <c r="I568" s="5" t="s">
         <v>2121</v>
       </c>
-      <c r="J568" s="22" t="s">
+      <c r="J568" s="5" t="s">
         <v>1939</v>
       </c>
-      <c r="L568" s="22">
+      <c r="L568" s="5">
         <v>-33</v>
       </c>
-      <c r="M568" s="22">
-        <v>0</v>
-      </c>
-      <c r="N568" s="22">
-        <v>0</v>
-      </c>
-      <c r="O568" s="22" t="s">
+      <c r="M568" s="5">
+        <v>0</v>
+      </c>
+      <c r="N568" s="5">
+        <v>0</v>
+      </c>
+      <c r="O568" s="5" t="s">
         <v>483</v>
       </c>
-      <c r="P568" s="22">
+      <c r="P568" s="5">
         <v>9800</v>
       </c>
-      <c r="Q568" s="22" t="s">
+      <c r="Q568" s="5" t="s">
         <v>2126</v>
       </c>
-      <c r="R568" s="65" t="s">
+      <c r="R568" s="64" t="s">
         <v>1941</v>
       </c>
-      <c r="W568" s="22" t="s">
+      <c r="W568" s="5" t="s">
         <v>1354</v>
       </c>
-      <c r="X568" s="22">
+      <c r="X568" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y568" s="22">
+      <c r="Y568" s="5">
         <v>1614643200</v>
       </c>
-      <c r="Z568" s="22">
+      <c r="Z568" s="5">
         <v>1615219199</v>
       </c>
-      <c r="AA568" s="22">
+      <c r="AA568" s="5">
         <v>68</v>
       </c>
-      <c r="AH568" s="22">
-        <v>1</v>
-      </c>
-      <c r="AI568" s="22">
-        <v>1</v>
-      </c>
-      <c r="AL568" s="22">
-        <v>1</v>
-      </c>
-      <c r="AM568" s="22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="569" spans="1:39" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH568" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI568" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL568" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM568" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="569" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A569" s="5">
         <v>568</v>
       </c>
       <c r="B569" s="5">
         <v>10485</v>
       </c>
-      <c r="F569" s="22">
-        <v>1</v>
-      </c>
-      <c r="G569" s="22" t="s">
+      <c r="F569" s="5">
+        <v>0</v>
+      </c>
+      <c r="G569" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="I569" s="22" t="s">
+      <c r="I569" s="5" t="s">
         <v>2121</v>
       </c>
-      <c r="J569" s="22" t="s">
+      <c r="J569" s="5" t="s">
         <v>2127</v>
       </c>
-      <c r="L569" s="22">
+      <c r="L569" s="5">
         <v>-33</v>
       </c>
-      <c r="M569" s="22">
-        <v>0</v>
-      </c>
-      <c r="N569" s="22">
-        <v>0</v>
-      </c>
-      <c r="O569" s="22" t="s">
+      <c r="M569" s="5">
+        <v>0</v>
+      </c>
+      <c r="N569" s="5">
+        <v>0</v>
+      </c>
+      <c r="O569" s="5" t="s">
         <v>483</v>
       </c>
-      <c r="P569" s="22">
+      <c r="P569" s="5">
         <v>4800</v>
       </c>
-      <c r="Q569" s="22" t="s">
+      <c r="Q569" s="5" t="s">
         <v>2128</v>
       </c>
-      <c r="R569" s="65" t="s">
+      <c r="R569" s="64" t="s">
         <v>1944</v>
       </c>
-      <c r="W569" s="22" t="s">
+      <c r="W569" s="5" t="s">
         <v>1354</v>
       </c>
-      <c r="X569" s="22">
+      <c r="X569" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y569" s="22">
+      <c r="Y569" s="5">
         <v>1614643200</v>
       </c>
-      <c r="Z569" s="22">
+      <c r="Z569" s="5">
         <v>1615219199</v>
       </c>
-      <c r="AA569" s="22">
+      <c r="AA569" s="5">
         <v>68</v>
       </c>
-      <c r="AH569" s="22">
-        <v>1</v>
-      </c>
-      <c r="AI569" s="22">
-        <v>1</v>
-      </c>
-      <c r="AL569" s="22">
-        <v>1</v>
-      </c>
-      <c r="AM569" s="22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="570" spans="1:39" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH569" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI569" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL569" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM569" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="570" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A570" s="5">
         <v>569</v>
       </c>
       <c r="B570" s="5">
         <v>10486</v>
       </c>
-      <c r="F570" s="22">
-        <v>1</v>
-      </c>
-      <c r="G570" s="22" t="s">
+      <c r="F570" s="5">
+        <v>0</v>
+      </c>
+      <c r="G570" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="I570" s="22" t="s">
+      <c r="I570" s="5" t="s">
         <v>2129</v>
       </c>
-      <c r="J570" s="22" t="s">
+      <c r="J570" s="5" t="s">
         <v>1946</v>
       </c>
-      <c r="L570" s="22">
+      <c r="L570" s="5">
         <v>-33</v>
       </c>
-      <c r="M570" s="22">
-        <v>0</v>
-      </c>
-      <c r="N570" s="22">
-        <v>0</v>
-      </c>
-      <c r="O570" s="22" t="s">
+      <c r="M570" s="5">
+        <v>0</v>
+      </c>
+      <c r="N570" s="5">
+        <v>0</v>
+      </c>
+      <c r="O570" s="5" t="s">
         <v>483</v>
       </c>
-      <c r="P570" s="22">
+      <c r="P570" s="5">
         <v>49800</v>
       </c>
-      <c r="Q570" s="22" t="s">
+      <c r="Q570" s="5" t="s">
         <v>2130</v>
       </c>
-      <c r="R570" s="65" t="s">
+      <c r="R570" s="64" t="s">
         <v>1948</v>
       </c>
-      <c r="W570" s="22" t="s">
+      <c r="W570" s="5" t="s">
         <v>2131</v>
       </c>
-      <c r="X570" s="22">
+      <c r="X570" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y570" s="22">
+      <c r="Y570" s="5">
         <v>1614643200</v>
       </c>
-      <c r="Z570" s="22">
+      <c r="Z570" s="5">
         <v>1615219199</v>
       </c>
-      <c r="AA570" s="22">
+      <c r="AA570" s="5">
         <v>69</v>
       </c>
-      <c r="AH570" s="22">
-        <v>1</v>
-      </c>
-      <c r="AI570" s="22">
-        <v>1</v>
-      </c>
-      <c r="AL570" s="22">
-        <v>1</v>
-      </c>
-      <c r="AM570" s="22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="571" spans="1:39" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH570" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI570" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL570" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM570" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="571" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A571" s="5">
         <v>570</v>
       </c>
       <c r="B571" s="5">
         <v>10487</v>
       </c>
-      <c r="F571" s="22">
-        <v>1</v>
-      </c>
-      <c r="G571" s="22" t="s">
+      <c r="F571" s="5">
+        <v>0</v>
+      </c>
+      <c r="G571" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="I571" s="22" t="s">
+      <c r="I571" s="5" t="s">
         <v>2129</v>
       </c>
-      <c r="J571" s="22" t="s">
+      <c r="J571" s="5" t="s">
         <v>1949</v>
       </c>
-      <c r="L571" s="22">
+      <c r="L571" s="5">
         <v>-33</v>
       </c>
-      <c r="M571" s="22">
-        <v>0</v>
-      </c>
-      <c r="N571" s="22">
-        <v>0</v>
-      </c>
-      <c r="O571" s="22" t="s">
+      <c r="M571" s="5">
+        <v>0</v>
+      </c>
+      <c r="N571" s="5">
+        <v>0</v>
+      </c>
+      <c r="O571" s="5" t="s">
         <v>483</v>
       </c>
-      <c r="P571" s="22">
+      <c r="P571" s="5">
         <v>19800</v>
       </c>
-      <c r="Q571" s="22" t="s">
+      <c r="Q571" s="5" t="s">
         <v>2130</v>
       </c>
-      <c r="R571" s="65" t="s">
+      <c r="R571" s="64" t="s">
         <v>2132</v>
       </c>
-      <c r="W571" s="22" t="s">
+      <c r="W571" s="5" t="s">
         <v>1354</v>
       </c>
-      <c r="X571" s="22">
+      <c r="X571" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y571" s="22">
+      <c r="Y571" s="5">
         <v>1614643200</v>
       </c>
-      <c r="Z571" s="22">
+      <c r="Z571" s="5">
         <v>1615219199</v>
       </c>
-      <c r="AA571" s="22">
+      <c r="AA571" s="5">
         <v>69</v>
       </c>
-      <c r="AH571" s="22">
-        <v>1</v>
-      </c>
-      <c r="AI571" s="22">
-        <v>1</v>
-      </c>
-      <c r="AL571" s="22">
-        <v>1</v>
-      </c>
-      <c r="AM571" s="22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="572" spans="1:39" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH571" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI571" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL571" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM571" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="572" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A572" s="5">
         <v>571</v>
       </c>
       <c r="B572" s="5">
         <v>10488</v>
       </c>
-      <c r="F572" s="22">
-        <v>1</v>
-      </c>
-      <c r="G572" s="22" t="s">
+      <c r="F572" s="5">
+        <v>0</v>
+      </c>
+      <c r="G572" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="I572" s="22" t="s">
+      <c r="I572" s="5" t="s">
         <v>2129</v>
       </c>
-      <c r="J572" s="22" t="s">
+      <c r="J572" s="5" t="s">
         <v>1952</v>
       </c>
-      <c r="L572" s="22">
+      <c r="L572" s="5">
         <v>-33</v>
       </c>
-      <c r="M572" s="22">
-        <v>0</v>
-      </c>
-      <c r="N572" s="22">
-        <v>0</v>
-      </c>
-      <c r="O572" s="22" t="s">
+      <c r="M572" s="5">
+        <v>0</v>
+      </c>
+      <c r="N572" s="5">
+        <v>0</v>
+      </c>
+      <c r="O572" s="5" t="s">
         <v>483</v>
       </c>
-      <c r="P572" s="22">
+      <c r="P572" s="5">
         <v>9800</v>
       </c>
-      <c r="Q572" s="22" t="s">
+      <c r="Q572" s="5" t="s">
         <v>2133</v>
       </c>
-      <c r="R572" s="65" t="s">
+      <c r="R572" s="64" t="s">
         <v>1954</v>
       </c>
-      <c r="W572" s="22" t="s">
+      <c r="W572" s="5" t="s">
         <v>2134</v>
       </c>
-      <c r="X572" s="22">
+      <c r="X572" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y572" s="22">
+      <c r="Y572" s="5">
         <v>1614643200</v>
       </c>
-      <c r="Z572" s="22">
+      <c r="Z572" s="5">
         <v>1615219199</v>
       </c>
-      <c r="AA572" s="22">
+      <c r="AA572" s="5">
         <v>69</v>
       </c>
-      <c r="AH572" s="22">
-        <v>1</v>
-      </c>
-      <c r="AI572" s="22">
-        <v>1</v>
-      </c>
-      <c r="AL572" s="22">
-        <v>1</v>
-      </c>
-      <c r="AM572" s="22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="573" spans="1:39" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH572" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI572" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL572" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM572" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="573" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A573" s="5">
         <v>572</v>
       </c>
       <c r="B573" s="5">
         <v>10489</v>
       </c>
-      <c r="F573" s="22">
-        <v>1</v>
-      </c>
-      <c r="G573" s="22" t="s">
+      <c r="F573" s="5">
+        <v>0</v>
+      </c>
+      <c r="G573" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="I573" s="22" t="s">
+      <c r="I573" s="5" t="s">
         <v>2129</v>
       </c>
-      <c r="J573" s="22" t="s">
+      <c r="J573" s="5" t="s">
         <v>2135</v>
       </c>
-      <c r="L573" s="22">
+      <c r="L573" s="5">
         <v>-33</v>
       </c>
-      <c r="M573" s="22">
-        <v>0</v>
-      </c>
-      <c r="N573" s="22">
-        <v>0</v>
-      </c>
-      <c r="O573" s="22" t="s">
+      <c r="M573" s="5">
+        <v>0</v>
+      </c>
+      <c r="N573" s="5">
+        <v>0</v>
+      </c>
+      <c r="O573" s="5" t="s">
         <v>2136</v>
       </c>
-      <c r="P573" s="22">
+      <c r="P573" s="5">
         <v>4800</v>
       </c>
-      <c r="Q573" s="22" t="s">
+      <c r="Q573" s="5" t="s">
         <v>2137</v>
       </c>
-      <c r="R573" s="65" t="s">
+      <c r="R573" s="64" t="s">
         <v>2138</v>
       </c>
-      <c r="W573" s="22" t="s">
+      <c r="W573" s="5" t="s">
         <v>2134</v>
       </c>
-      <c r="X573" s="22">
+      <c r="X573" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y573" s="22">
+      <c r="Y573" s="5">
         <v>1614643200</v>
       </c>
-      <c r="Z573" s="22">
+      <c r="Z573" s="5">
         <v>1615219199</v>
       </c>
-      <c r="AA573" s="22">
+      <c r="AA573" s="5">
         <v>69</v>
       </c>
-      <c r="AH573" s="22">
-        <v>1</v>
-      </c>
-      <c r="AI573" s="22">
-        <v>1</v>
-      </c>
-      <c r="AL573" s="22">
-        <v>1</v>
-      </c>
-      <c r="AM573" s="22">
+      <c r="AH573" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI573" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL573" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM573" s="5">
         <v>1</v>
       </c>
     </row>
@@ -48906,59 +48993,49 @@
       <c r="A574" s="5">
         <v>573</v>
       </c>
-      <c r="B574" s="22">
+      <c r="B574" s="5">
         <v>10490</v>
       </c>
-      <c r="C574" s="22"/>
-      <c r="D574" s="22"/>
-      <c r="E574" s="22"/>
-      <c r="F574" s="22">
-        <v>1</v>
-      </c>
-      <c r="G574" s="22" t="s">
+      <c r="F574" s="5">
+        <v>1</v>
+      </c>
+      <c r="G574" s="5" t="s">
         <v>2140</v>
       </c>
-      <c r="H574" s="22"/>
-      <c r="I574" s="22" t="s">
+      <c r="I574" s="5" t="s">
         <v>2141</v>
       </c>
-      <c r="J574" s="22"/>
-      <c r="K574" s="22"/>
-      <c r="L574" s="22">
+      <c r="L574" s="5">
         <v>-31</v>
       </c>
-      <c r="M574" s="22">
-        <v>0</v>
-      </c>
-      <c r="N574" s="22">
-        <v>0</v>
-      </c>
-      <c r="O574" s="22" t="s">
+      <c r="M574" s="5">
+        <v>0</v>
+      </c>
+      <c r="N574" s="5">
+        <v>0</v>
+      </c>
+      <c r="O574" s="5" t="s">
         <v>2142</v>
       </c>
-      <c r="P574" s="22">
+      <c r="P574" s="5">
         <v>4500</v>
       </c>
-      <c r="Q574" s="22" t="s">
+      <c r="Q574" s="5" t="s">
         <v>2143</v>
       </c>
-      <c r="R574" s="66" t="s">
+      <c r="R574" s="68" t="s">
         <v>2144</v>
       </c>
-      <c r="S574" s="22"/>
-      <c r="T574" s="22"/>
-      <c r="U574" s="22"/>
-      <c r="V574" s="22"/>
-      <c r="W574" s="22" t="s">
+      <c r="W574" s="5" t="s">
         <v>2146</v>
       </c>
-      <c r="X574" s="22">
+      <c r="X574" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y574" s="22">
+      <c r="Y574" s="5">
         <v>1614643200</v>
       </c>
-      <c r="Z574" s="22">
+      <c r="Z574" s="5">
         <v>2552233600</v>
       </c>
       <c r="AH574" s="5">
@@ -48978,59 +49055,49 @@
       <c r="A575" s="5">
         <v>574</v>
       </c>
-      <c r="B575" s="22">
+      <c r="B575" s="5">
         <v>10491</v>
       </c>
-      <c r="C575" s="22"/>
-      <c r="D575" s="22"/>
-      <c r="E575" s="22"/>
-      <c r="F575" s="22">
-        <v>1</v>
-      </c>
-      <c r="G575" s="22" t="s">
+      <c r="F575" s="5">
+        <v>1</v>
+      </c>
+      <c r="G575" s="5" t="s">
         <v>2147</v>
       </c>
-      <c r="H575" s="22"/>
-      <c r="I575" s="22" t="s">
+      <c r="I575" s="5" t="s">
         <v>2148</v>
       </c>
-      <c r="J575" s="22"/>
-      <c r="K575" s="22"/>
-      <c r="L575" s="22">
+      <c r="L575" s="5">
         <v>-31</v>
       </c>
-      <c r="M575" s="22">
-        <v>0</v>
-      </c>
-      <c r="N575" s="22">
-        <v>0</v>
-      </c>
-      <c r="O575" s="22" t="s">
+      <c r="M575" s="5">
+        <v>0</v>
+      </c>
+      <c r="N575" s="5">
+        <v>0</v>
+      </c>
+      <c r="O575" s="5" t="s">
         <v>2149</v>
       </c>
-      <c r="P575" s="22">
+      <c r="P575" s="5">
         <v>8800</v>
       </c>
-      <c r="Q575" s="22" t="s">
+      <c r="Q575" s="5" t="s">
         <v>2150</v>
       </c>
-      <c r="R575" s="66" t="s">
+      <c r="R575" s="68" t="s">
         <v>2151</v>
       </c>
-      <c r="S575" s="22"/>
-      <c r="T575" s="22"/>
-      <c r="U575" s="22"/>
-      <c r="V575" s="22"/>
-      <c r="W575" s="22" t="s">
+      <c r="W575" s="5" t="s">
         <v>2152</v>
       </c>
-      <c r="X575" s="22">
+      <c r="X575" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y575" s="22">
+      <c r="Y575" s="5">
         <v>1614643200</v>
       </c>
-      <c r="Z575" s="22">
+      <c r="Z575" s="5">
         <v>2552233600</v>
       </c>
       <c r="AH575" s="5">
@@ -49050,59 +49117,49 @@
       <c r="A576" s="5">
         <v>575</v>
       </c>
-      <c r="B576" s="22">
+      <c r="B576" s="5">
         <v>10492</v>
       </c>
-      <c r="C576" s="22"/>
-      <c r="D576" s="22"/>
-      <c r="E576" s="22"/>
-      <c r="F576" s="22">
-        <v>1</v>
-      </c>
-      <c r="G576" s="22" t="s">
+      <c r="F576" s="5">
+        <v>1</v>
+      </c>
+      <c r="G576" s="5" t="s">
         <v>2153</v>
       </c>
-      <c r="H576" s="22"/>
-      <c r="I576" s="22" t="s">
+      <c r="I576" s="5" t="s">
         <v>2154</v>
       </c>
-      <c r="J576" s="22"/>
-      <c r="K576" s="22"/>
-      <c r="L576" s="22">
+      <c r="L576" s="5">
         <v>-31</v>
       </c>
-      <c r="M576" s="22">
-        <v>0</v>
-      </c>
-      <c r="N576" s="22">
-        <v>0</v>
-      </c>
-      <c r="O576" s="22" t="s">
+      <c r="M576" s="5">
+        <v>0</v>
+      </c>
+      <c r="N576" s="5">
+        <v>0</v>
+      </c>
+      <c r="O576" s="5" t="s">
         <v>959</v>
       </c>
-      <c r="P576" s="22">
+      <c r="P576" s="5">
         <v>17800</v>
       </c>
-      <c r="Q576" s="22" t="s">
+      <c r="Q576" s="5" t="s">
         <v>2155</v>
       </c>
-      <c r="R576" s="66" t="s">
+      <c r="R576" s="68" t="s">
         <v>2156</v>
       </c>
-      <c r="S576" s="22"/>
-      <c r="T576" s="22"/>
-      <c r="U576" s="22"/>
-      <c r="V576" s="22"/>
-      <c r="W576" s="22" t="s">
+      <c r="W576" s="5" t="s">
         <v>2145</v>
       </c>
-      <c r="X576" s="22">
+      <c r="X576" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y576" s="22">
+      <c r="Y576" s="5">
         <v>1614643200</v>
       </c>
-      <c r="Z576" s="22">
+      <c r="Z576" s="5">
         <v>2552233600</v>
       </c>
       <c r="AH576" s="5">
@@ -49122,59 +49179,49 @@
       <c r="A577" s="5">
         <v>576</v>
       </c>
-      <c r="B577" s="22">
+      <c r="B577" s="5">
         <v>10493</v>
       </c>
-      <c r="C577" s="22"/>
-      <c r="D577" s="22"/>
-      <c r="E577" s="22"/>
-      <c r="F577" s="22">
-        <v>1</v>
-      </c>
-      <c r="G577" s="22" t="s">
+      <c r="F577" s="5">
+        <v>1</v>
+      </c>
+      <c r="G577" s="5" t="s">
         <v>2157</v>
       </c>
-      <c r="H577" s="22"/>
-      <c r="I577" s="22" t="s">
+      <c r="I577" s="5" t="s">
         <v>2158</v>
       </c>
-      <c r="J577" s="22"/>
-      <c r="K577" s="22"/>
-      <c r="L577" s="22">
+      <c r="L577" s="5">
         <v>-31</v>
       </c>
-      <c r="M577" s="22">
-        <v>0</v>
-      </c>
-      <c r="N577" s="22">
-        <v>0</v>
-      </c>
-      <c r="O577" s="22" t="s">
+      <c r="M577" s="5">
+        <v>0</v>
+      </c>
+      <c r="N577" s="5">
+        <v>0</v>
+      </c>
+      <c r="O577" s="5" t="s">
         <v>959</v>
       </c>
-      <c r="P577" s="22">
+      <c r="P577" s="5">
         <v>44800</v>
       </c>
-      <c r="Q577" s="22" t="s">
+      <c r="Q577" s="5" t="s">
         <v>2159</v>
       </c>
-      <c r="R577" s="66" t="s">
+      <c r="R577" s="68" t="s">
         <v>2160</v>
       </c>
-      <c r="S577" s="22"/>
-      <c r="T577" s="22"/>
-      <c r="U577" s="22"/>
-      <c r="V577" s="22"/>
-      <c r="W577" s="22" t="s">
+      <c r="W577" s="5" t="s">
         <v>595</v>
       </c>
-      <c r="X577" s="22">
+      <c r="X577" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y577" s="22">
+      <c r="Y577" s="5">
         <v>1614643200</v>
       </c>
-      <c r="Z577" s="22">
+      <c r="Z577" s="5">
         <v>2552233600</v>
       </c>
       <c r="AH577" s="5">
@@ -49194,59 +49241,49 @@
       <c r="A578" s="5">
         <v>577</v>
       </c>
-      <c r="B578" s="22">
+      <c r="B578" s="5">
         <v>10494</v>
       </c>
-      <c r="C578" s="22"/>
-      <c r="D578" s="22"/>
-      <c r="E578" s="22"/>
-      <c r="F578" s="22">
-        <v>1</v>
-      </c>
-      <c r="G578" s="22" t="s">
+      <c r="F578" s="5">
+        <v>1</v>
+      </c>
+      <c r="G578" s="5" t="s">
         <v>2161</v>
       </c>
-      <c r="H578" s="22"/>
-      <c r="I578" s="22" t="s">
+      <c r="I578" s="5" t="s">
         <v>2162</v>
       </c>
-      <c r="J578" s="22"/>
-      <c r="K578" s="22"/>
-      <c r="L578" s="22">
+      <c r="L578" s="5">
         <v>-31</v>
       </c>
-      <c r="M578" s="22">
-        <v>0</v>
-      </c>
-      <c r="N578" s="22">
-        <v>0</v>
-      </c>
-      <c r="O578" s="22" t="s">
+      <c r="M578" s="5">
+        <v>0</v>
+      </c>
+      <c r="N578" s="5">
+        <v>0</v>
+      </c>
+      <c r="O578" s="5" t="s">
         <v>959</v>
       </c>
-      <c r="P578" s="22">
+      <c r="P578" s="5">
         <v>89800</v>
       </c>
-      <c r="Q578" s="22" t="s">
+      <c r="Q578" s="5" t="s">
         <v>2163</v>
       </c>
-      <c r="R578" s="66" t="s">
+      <c r="R578" s="68" t="s">
         <v>2164</v>
       </c>
-      <c r="S578" s="22"/>
-      <c r="T578" s="22"/>
-      <c r="U578" s="22"/>
-      <c r="V578" s="22"/>
-      <c r="W578" s="22" t="s">
+      <c r="W578" s="5" t="s">
         <v>595</v>
       </c>
-      <c r="X578" s="22">
+      <c r="X578" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y578" s="22">
+      <c r="Y578" s="5">
         <v>1614643200</v>
       </c>
-      <c r="Z578" s="22">
+      <c r="Z578" s="5">
         <v>2552233600</v>
       </c>
       <c r="AH578" s="5">
@@ -49266,59 +49303,49 @@
       <c r="A579" s="5">
         <v>578</v>
       </c>
-      <c r="B579" s="22">
+      <c r="B579" s="5">
         <v>10495</v>
       </c>
-      <c r="C579" s="22"/>
-      <c r="D579" s="22"/>
-      <c r="E579" s="22"/>
-      <c r="F579" s="22">
-        <v>1</v>
-      </c>
-      <c r="G579" s="22" t="s">
+      <c r="F579" s="5">
+        <v>1</v>
+      </c>
+      <c r="G579" s="5" t="s">
         <v>2165</v>
       </c>
-      <c r="H579" s="22"/>
-      <c r="I579" s="22" t="s">
+      <c r="I579" s="5" t="s">
         <v>2166</v>
       </c>
-      <c r="J579" s="22"/>
-      <c r="K579" s="22"/>
-      <c r="L579" s="22">
+      <c r="L579" s="5">
         <v>-31</v>
       </c>
-      <c r="M579" s="22">
-        <v>0</v>
-      </c>
-      <c r="N579" s="22">
-        <v>0</v>
-      </c>
-      <c r="O579" s="22" t="s">
+      <c r="M579" s="5">
+        <v>0</v>
+      </c>
+      <c r="N579" s="5">
+        <v>0</v>
+      </c>
+      <c r="O579" s="5" t="s">
         <v>959</v>
       </c>
-      <c r="P579" s="22">
+      <c r="P579" s="5">
         <v>229800</v>
       </c>
-      <c r="Q579" s="22" t="s">
+      <c r="Q579" s="5" t="s">
         <v>2167</v>
       </c>
-      <c r="R579" s="66" t="s">
+      <c r="R579" s="68" t="s">
         <v>2168</v>
       </c>
-      <c r="S579" s="22"/>
-      <c r="T579" s="22"/>
-      <c r="U579" s="22"/>
-      <c r="V579" s="22"/>
-      <c r="W579" s="22" t="s">
+      <c r="W579" s="5" t="s">
         <v>595</v>
       </c>
-      <c r="X579" s="22">
+      <c r="X579" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y579" s="22">
+      <c r="Y579" s="5">
         <v>1614643200</v>
       </c>
-      <c r="Z579" s="22">
+      <c r="Z579" s="5">
         <v>2552233600</v>
       </c>
       <c r="AH579" s="5">
@@ -49371,7 +49398,7 @@
       <c r="Q580" s="5" t="s">
         <v>2175</v>
       </c>
-      <c r="R580" s="68" t="s">
+      <c r="R580" s="66" t="s">
         <v>2176</v>
       </c>
       <c r="W580" s="6" t="s">
@@ -49390,6 +49417,396 @@
         <v>1</v>
       </c>
       <c r="AI580" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="581" spans="1:39" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A581" s="22">
+        <v>580</v>
+      </c>
+      <c r="B581" s="22">
+        <v>10497</v>
+      </c>
+      <c r="F581" s="22">
+        <v>1</v>
+      </c>
+      <c r="G581" s="22" t="s">
+        <v>2179</v>
+      </c>
+      <c r="I581" s="22" t="s">
+        <v>2180</v>
+      </c>
+      <c r="J581" s="22" t="s">
+        <v>2181</v>
+      </c>
+      <c r="L581" s="22">
+        <v>-31</v>
+      </c>
+      <c r="M581" s="22">
+        <v>0</v>
+      </c>
+      <c r="N581" s="22">
+        <v>0</v>
+      </c>
+      <c r="O581" s="22" t="s">
+        <v>481</v>
+      </c>
+      <c r="P581" s="22">
+        <v>49800</v>
+      </c>
+      <c r="Q581" s="22" t="s">
+        <v>2193</v>
+      </c>
+      <c r="R581" s="67" t="s">
+        <v>2194</v>
+      </c>
+      <c r="W581" s="22" t="s">
+        <v>2182</v>
+      </c>
+      <c r="X581" s="22">
+        <v>99999999</v>
+      </c>
+      <c r="Y581" s="22">
+        <v>1615852800</v>
+      </c>
+      <c r="Z581" s="22">
+        <v>1616428799</v>
+      </c>
+      <c r="AH581" s="22">
+        <v>1</v>
+      </c>
+      <c r="AI581" s="22">
+        <v>1</v>
+      </c>
+      <c r="AL581" s="22">
+        <v>1</v>
+      </c>
+      <c r="AM581" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="582" spans="1:39" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A582" s="22">
+        <v>581</v>
+      </c>
+      <c r="B582" s="22">
+        <v>10498</v>
+      </c>
+      <c r="F582" s="22">
+        <v>1</v>
+      </c>
+      <c r="G582" s="22" t="s">
+        <v>2179</v>
+      </c>
+      <c r="I582" s="22" t="s">
+        <v>2183</v>
+      </c>
+      <c r="J582" s="22" t="s">
+        <v>2184</v>
+      </c>
+      <c r="L582" s="22">
+        <v>-31</v>
+      </c>
+      <c r="M582" s="22">
+        <v>0</v>
+      </c>
+      <c r="N582" s="22">
+        <v>0</v>
+      </c>
+      <c r="O582" s="22" t="s">
+        <v>481</v>
+      </c>
+      <c r="P582" s="22">
+        <v>19800</v>
+      </c>
+      <c r="Q582" s="22" t="s">
+        <v>2193</v>
+      </c>
+      <c r="R582" s="67" t="s">
+        <v>2195</v>
+      </c>
+      <c r="W582" s="22" t="s">
+        <v>2182</v>
+      </c>
+      <c r="X582" s="22">
+        <v>99999999</v>
+      </c>
+      <c r="Y582" s="22">
+        <v>1615852800</v>
+      </c>
+      <c r="Z582" s="22">
+        <v>1616428799</v>
+      </c>
+      <c r="AH582" s="22">
+        <v>1</v>
+      </c>
+      <c r="AI582" s="22">
+        <v>1</v>
+      </c>
+      <c r="AL582" s="22">
+        <v>1</v>
+      </c>
+      <c r="AM582" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="583" spans="1:39" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A583" s="22">
+        <v>582</v>
+      </c>
+      <c r="B583" s="22">
+        <v>10499</v>
+      </c>
+      <c r="F583" s="22">
+        <v>1</v>
+      </c>
+      <c r="G583" s="22" t="s">
+        <v>2179</v>
+      </c>
+      <c r="I583" s="22" t="s">
+        <v>2185</v>
+      </c>
+      <c r="J583" s="22" t="s">
+        <v>2186</v>
+      </c>
+      <c r="L583" s="22">
+        <v>-31</v>
+      </c>
+      <c r="M583" s="22">
+        <v>0</v>
+      </c>
+      <c r="N583" s="22">
+        <v>0</v>
+      </c>
+      <c r="O583" s="22" t="s">
+        <v>481</v>
+      </c>
+      <c r="P583" s="22">
+        <v>9800</v>
+      </c>
+      <c r="Q583" s="22" t="s">
+        <v>2193</v>
+      </c>
+      <c r="R583" s="67" t="s">
+        <v>2196</v>
+      </c>
+      <c r="W583" s="22" t="s">
+        <v>2182</v>
+      </c>
+      <c r="X583" s="22">
+        <v>99999999</v>
+      </c>
+      <c r="Y583" s="22">
+        <v>1615852800</v>
+      </c>
+      <c r="Z583" s="22">
+        <v>1616428799</v>
+      </c>
+      <c r="AH583" s="22">
+        <v>1</v>
+      </c>
+      <c r="AI583" s="22">
+        <v>1</v>
+      </c>
+      <c r="AL583" s="22">
+        <v>1</v>
+      </c>
+      <c r="AM583" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="584" spans="1:39" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A584" s="22">
+        <v>583</v>
+      </c>
+      <c r="B584" s="22">
+        <v>10500</v>
+      </c>
+      <c r="F584" s="22">
+        <v>1</v>
+      </c>
+      <c r="G584" s="22" t="s">
+        <v>2179</v>
+      </c>
+      <c r="I584" s="22" t="s">
+        <v>2187</v>
+      </c>
+      <c r="J584" s="22" t="s">
+        <v>2188</v>
+      </c>
+      <c r="L584" s="22">
+        <v>-31</v>
+      </c>
+      <c r="M584" s="22">
+        <v>0</v>
+      </c>
+      <c r="N584" s="22">
+        <v>0</v>
+      </c>
+      <c r="O584" s="22" t="s">
+        <v>481</v>
+      </c>
+      <c r="P584" s="22">
+        <v>4800</v>
+      </c>
+      <c r="Q584" s="22" t="s">
+        <v>2193</v>
+      </c>
+      <c r="R584" s="67" t="s">
+        <v>2197</v>
+      </c>
+      <c r="W584" s="22" t="s">
+        <v>2182</v>
+      </c>
+      <c r="X584" s="22">
+        <v>99999999</v>
+      </c>
+      <c r="Y584" s="22">
+        <v>1615852800</v>
+      </c>
+      <c r="Z584" s="22">
+        <v>1616428799</v>
+      </c>
+      <c r="AH584" s="22">
+        <v>1</v>
+      </c>
+      <c r="AI584" s="22">
+        <v>1</v>
+      </c>
+      <c r="AL584" s="22">
+        <v>1</v>
+      </c>
+      <c r="AM584" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="585" spans="1:39" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A585" s="22">
+        <v>584</v>
+      </c>
+      <c r="B585" s="22">
+        <v>10501</v>
+      </c>
+      <c r="F585" s="22">
+        <v>1</v>
+      </c>
+      <c r="G585" s="22" t="s">
+        <v>2179</v>
+      </c>
+      <c r="I585" s="22" t="s">
+        <v>2189</v>
+      </c>
+      <c r="J585" s="22" t="s">
+        <v>2190</v>
+      </c>
+      <c r="L585" s="22">
+        <v>-31</v>
+      </c>
+      <c r="M585" s="22">
+        <v>0</v>
+      </c>
+      <c r="N585" s="22">
+        <v>0</v>
+      </c>
+      <c r="O585" s="22" t="s">
+        <v>481</v>
+      </c>
+      <c r="P585" s="22">
+        <v>2000</v>
+      </c>
+      <c r="Q585" s="22" t="s">
+        <v>2198</v>
+      </c>
+      <c r="R585" s="67" t="s">
+        <v>2199</v>
+      </c>
+      <c r="W585" s="22" t="s">
+        <v>2182</v>
+      </c>
+      <c r="X585" s="22">
+        <v>99999999</v>
+      </c>
+      <c r="Y585" s="22">
+        <v>1615852800</v>
+      </c>
+      <c r="Z585" s="22">
+        <v>1616428799</v>
+      </c>
+      <c r="AH585" s="22">
+        <v>1</v>
+      </c>
+      <c r="AI585" s="22">
+        <v>1</v>
+      </c>
+      <c r="AL585" s="22">
+        <v>1</v>
+      </c>
+      <c r="AM585" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="586" spans="1:39" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A586" s="22">
+        <v>585</v>
+      </c>
+      <c r="B586" s="22">
+        <v>10502</v>
+      </c>
+      <c r="F586" s="22">
+        <v>1</v>
+      </c>
+      <c r="G586" s="22" t="s">
+        <v>2179</v>
+      </c>
+      <c r="I586" s="22" t="s">
+        <v>2191</v>
+      </c>
+      <c r="J586" s="22" t="s">
+        <v>2192</v>
+      </c>
+      <c r="L586" s="22">
+        <v>-31</v>
+      </c>
+      <c r="M586" s="22">
+        <v>0</v>
+      </c>
+      <c r="N586" s="22">
+        <v>0</v>
+      </c>
+      <c r="O586" s="22" t="s">
+        <v>481</v>
+      </c>
+      <c r="P586" s="22">
+        <v>600</v>
+      </c>
+      <c r="Q586" s="22" t="s">
+        <v>2198</v>
+      </c>
+      <c r="R586" s="67" t="s">
+        <v>2200</v>
+      </c>
+      <c r="W586" s="22" t="s">
+        <v>2182</v>
+      </c>
+      <c r="X586" s="22">
+        <v>99999999</v>
+      </c>
+      <c r="Y586" s="22">
+        <v>1615852800</v>
+      </c>
+      <c r="Z586" s="22">
+        <v>1616428799</v>
+      </c>
+      <c r="AH586" s="22">
+        <v>1</v>
+      </c>
+      <c r="AI586" s="22">
+        <v>1</v>
+      </c>
+      <c r="AL586" s="22">
+        <v>1</v>
+      </c>
+      <c r="AM586" s="22">
         <v>1</v>
       </c>
     </row>

--- a/config_Release/shoping_config_xiaomi.xlsx
+++ b/config_Release/shoping_config_xiaomi.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_3.16\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_3.23\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -9484,7 +9484,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -9686,11 +9686,14 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -12185,10 +12188,10 @@
   <dimension ref="A1:AN586"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="Q560" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="H521" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q590" sqref="Q590"/>
+      <selection pane="bottomRight" activeCell="A542" sqref="A542"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -46852,458 +46855,458 @@
         <v>1</v>
       </c>
     </row>
-    <row r="542" spans="1:39" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A542" s="5">
+    <row r="542" spans="1:39" s="22" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A542" s="22">
         <v>541</v>
       </c>
-      <c r="B542" s="5">
+      <c r="B542" s="22">
         <v>10458</v>
       </c>
-      <c r="F542" s="5">
-        <v>0</v>
-      </c>
-      <c r="G542" s="5" t="s">
+      <c r="F542" s="22">
+        <v>1</v>
+      </c>
+      <c r="G542" s="22" t="s">
         <v>2044</v>
       </c>
-      <c r="I542" s="5" t="s">
+      <c r="I542" s="22" t="s">
         <v>2046</v>
       </c>
-      <c r="J542" s="5" t="s">
+      <c r="J542" s="22" t="s">
         <v>2047</v>
       </c>
-      <c r="L542" s="5">
+      <c r="L542" s="22">
         <v>-31</v>
       </c>
-      <c r="M542" s="5">
-        <v>0</v>
-      </c>
-      <c r="N542" s="5">
-        <v>0</v>
-      </c>
-      <c r="O542" s="5" t="s">
+      <c r="M542" s="22">
+        <v>0</v>
+      </c>
+      <c r="N542" s="22">
+        <v>0</v>
+      </c>
+      <c r="O542" s="22" t="s">
         <v>481</v>
       </c>
-      <c r="P542" s="5">
+      <c r="P542" s="22">
         <v>99800</v>
       </c>
-      <c r="Q542" s="5" t="s">
+      <c r="Q542" s="22" t="s">
         <v>2048</v>
       </c>
-      <c r="R542" s="10" t="s">
+      <c r="R542" s="65" t="s">
         <v>1487</v>
       </c>
-      <c r="W542" s="5" t="s">
+      <c r="W542" s="22" t="s">
         <v>2049</v>
       </c>
-      <c r="X542" s="5">
+      <c r="X542" s="22">
         <v>9999999</v>
       </c>
-      <c r="Y542" s="11">
-        <v>1614038400</v>
-      </c>
-      <c r="Z542" s="11">
-        <v>1614614399</v>
-      </c>
-      <c r="AH542" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI542" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL542" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM542" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="543" spans="1:39" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A543" s="5">
+      <c r="Y542" s="69">
+        <v>1616457600</v>
+      </c>
+      <c r="Z542" s="69">
+        <v>1617033599</v>
+      </c>
+      <c r="AH542" s="22">
+        <v>1</v>
+      </c>
+      <c r="AI542" s="22">
+        <v>1</v>
+      </c>
+      <c r="AL542" s="22">
+        <v>1</v>
+      </c>
+      <c r="AM542" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="543" spans="1:39" s="22" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A543" s="22">
         <v>542</v>
       </c>
-      <c r="B543" s="5">
+      <c r="B543" s="22">
         <v>10459</v>
       </c>
-      <c r="F543" s="5">
-        <v>0</v>
-      </c>
-      <c r="G543" s="5" t="s">
+      <c r="F543" s="22">
+        <v>1</v>
+      </c>
+      <c r="G543" s="22" t="s">
         <v>2050</v>
       </c>
-      <c r="I543" s="5" t="s">
+      <c r="I543" s="22" t="s">
         <v>2046</v>
       </c>
-      <c r="J543" s="5" t="s">
+      <c r="J543" s="22" t="s">
         <v>2051</v>
       </c>
-      <c r="L543" s="5">
+      <c r="L543" s="22">
         <v>-31</v>
       </c>
-      <c r="M543" s="5">
-        <v>0</v>
-      </c>
-      <c r="N543" s="5">
-        <v>0</v>
-      </c>
-      <c r="O543" s="5" t="s">
+      <c r="M543" s="22">
+        <v>0</v>
+      </c>
+      <c r="N543" s="22">
+        <v>0</v>
+      </c>
+      <c r="O543" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="P543" s="5">
+      <c r="P543" s="22">
         <v>49800</v>
       </c>
-      <c r="Q543" s="5" t="s">
+      <c r="Q543" s="22" t="s">
         <v>2048</v>
       </c>
-      <c r="R543" s="10" t="s">
+      <c r="R543" s="65" t="s">
         <v>2052</v>
       </c>
-      <c r="W543" s="5" t="s">
+      <c r="W543" s="22" t="s">
         <v>527</v>
       </c>
-      <c r="X543" s="5">
+      <c r="X543" s="22">
         <v>9999999</v>
       </c>
-      <c r="Y543" s="11">
-        <v>1614038400</v>
-      </c>
-      <c r="Z543" s="11">
-        <v>1614614399</v>
-      </c>
-      <c r="AH543" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI543" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL543" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM543" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="544" spans="1:39" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A544" s="5">
+      <c r="Y543" s="69">
+        <v>1616457600</v>
+      </c>
+      <c r="Z543" s="69">
+        <v>1617033599</v>
+      </c>
+      <c r="AH543" s="22">
+        <v>1</v>
+      </c>
+      <c r="AI543" s="22">
+        <v>1</v>
+      </c>
+      <c r="AL543" s="22">
+        <v>1</v>
+      </c>
+      <c r="AM543" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="544" spans="1:39" s="22" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A544" s="22">
         <v>543</v>
       </c>
-      <c r="B544" s="5">
+      <c r="B544" s="22">
         <v>10460</v>
       </c>
-      <c r="F544" s="5">
-        <v>0</v>
-      </c>
-      <c r="G544" s="5" t="s">
+      <c r="F544" s="22">
+        <v>1</v>
+      </c>
+      <c r="G544" s="22" t="s">
         <v>2053</v>
       </c>
-      <c r="I544" s="5" t="s">
+      <c r="I544" s="22" t="s">
         <v>2045</v>
       </c>
-      <c r="J544" s="5" t="s">
+      <c r="J544" s="22" t="s">
         <v>2054</v>
       </c>
-      <c r="L544" s="5">
+      <c r="L544" s="22">
         <v>-31</v>
       </c>
-      <c r="M544" s="5">
-        <v>0</v>
-      </c>
-      <c r="N544" s="5">
-        <v>0</v>
-      </c>
-      <c r="O544" s="5" t="s">
+      <c r="M544" s="22">
+        <v>0</v>
+      </c>
+      <c r="N544" s="22">
+        <v>0</v>
+      </c>
+      <c r="O544" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="P544" s="5">
+      <c r="P544" s="22">
         <v>29800</v>
       </c>
-      <c r="Q544" s="5" t="s">
+      <c r="Q544" s="22" t="s">
         <v>2055</v>
       </c>
-      <c r="R544" s="10" t="s">
+      <c r="R544" s="65" t="s">
         <v>2056</v>
       </c>
-      <c r="W544" s="5" t="s">
+      <c r="W544" s="22" t="s">
         <v>527</v>
       </c>
-      <c r="X544" s="5">
+      <c r="X544" s="22">
         <v>9999999</v>
       </c>
-      <c r="Y544" s="11">
-        <v>1614038400</v>
-      </c>
-      <c r="Z544" s="11">
-        <v>1614614399</v>
-      </c>
-      <c r="AH544" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI544" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL544" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM544" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="545" spans="1:39" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A545" s="5">
+      <c r="Y544" s="69">
+        <v>1616457600</v>
+      </c>
+      <c r="Z544" s="69">
+        <v>1617033599</v>
+      </c>
+      <c r="AH544" s="22">
+        <v>1</v>
+      </c>
+      <c r="AI544" s="22">
+        <v>1</v>
+      </c>
+      <c r="AL544" s="22">
+        <v>1</v>
+      </c>
+      <c r="AM544" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="545" spans="1:39" s="22" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A545" s="22">
         <v>544</v>
       </c>
-      <c r="B545" s="5">
+      <c r="B545" s="22">
         <v>10461</v>
       </c>
-      <c r="F545" s="5">
-        <v>0</v>
-      </c>
-      <c r="G545" s="5" t="s">
+      <c r="F545" s="22">
+        <v>1</v>
+      </c>
+      <c r="G545" s="22" t="s">
         <v>2057</v>
       </c>
-      <c r="I545" s="5" t="s">
+      <c r="I545" s="22" t="s">
         <v>2046</v>
       </c>
-      <c r="J545" s="5" t="s">
+      <c r="J545" s="22" t="s">
         <v>2058</v>
       </c>
-      <c r="L545" s="5">
+      <c r="L545" s="22">
         <v>-31</v>
       </c>
-      <c r="M545" s="5">
-        <v>0</v>
-      </c>
-      <c r="N545" s="5">
-        <v>0</v>
-      </c>
-      <c r="O545" s="5" t="s">
+      <c r="M545" s="22">
+        <v>0</v>
+      </c>
+      <c r="N545" s="22">
+        <v>0</v>
+      </c>
+      <c r="O545" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="P545" s="5">
+      <c r="P545" s="22">
         <v>19800</v>
       </c>
-      <c r="Q545" s="5" t="s">
+      <c r="Q545" s="22" t="s">
         <v>2055</v>
       </c>
-      <c r="R545" s="10" t="s">
+      <c r="R545" s="65" t="s">
         <v>1344</v>
       </c>
-      <c r="W545" s="5" t="s">
+      <c r="W545" s="22" t="s">
         <v>527</v>
       </c>
-      <c r="X545" s="5">
+      <c r="X545" s="22">
         <v>9999999</v>
       </c>
-      <c r="Y545" s="11">
-        <v>1614038400</v>
-      </c>
-      <c r="Z545" s="11">
-        <v>1614614399</v>
-      </c>
-      <c r="AH545" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI545" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL545" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM545" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="546" spans="1:39" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A546" s="5">
+      <c r="Y545" s="69">
+        <v>1616457600</v>
+      </c>
+      <c r="Z545" s="69">
+        <v>1617033599</v>
+      </c>
+      <c r="AH545" s="22">
+        <v>1</v>
+      </c>
+      <c r="AI545" s="22">
+        <v>1</v>
+      </c>
+      <c r="AL545" s="22">
+        <v>1</v>
+      </c>
+      <c r="AM545" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="546" spans="1:39" s="22" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A546" s="22">
         <v>545</v>
       </c>
-      <c r="B546" s="5">
+      <c r="B546" s="22">
         <v>10462</v>
       </c>
-      <c r="F546" s="5">
-        <v>0</v>
-      </c>
-      <c r="G546" s="5" t="s">
+      <c r="F546" s="22">
+        <v>1</v>
+      </c>
+      <c r="G546" s="22" t="s">
         <v>2059</v>
       </c>
-      <c r="I546" s="5" t="s">
+      <c r="I546" s="22" t="s">
         <v>2046</v>
       </c>
-      <c r="J546" s="5" t="s">
+      <c r="J546" s="22" t="s">
         <v>2060</v>
       </c>
-      <c r="L546" s="5">
+      <c r="L546" s="22">
         <v>-31</v>
       </c>
-      <c r="M546" s="5">
-        <v>0</v>
-      </c>
-      <c r="N546" s="5">
-        <v>0</v>
-      </c>
-      <c r="O546" s="5" t="s">
+      <c r="M546" s="22">
+        <v>0</v>
+      </c>
+      <c r="N546" s="22">
+        <v>0</v>
+      </c>
+      <c r="O546" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="P546" s="5">
+      <c r="P546" s="22">
         <v>9800</v>
       </c>
-      <c r="Q546" s="5" t="s">
+      <c r="Q546" s="22" t="s">
         <v>1471</v>
       </c>
-      <c r="R546" s="10" t="s">
+      <c r="R546" s="65" t="s">
         <v>2061</v>
       </c>
-      <c r="W546" s="5" t="s">
+      <c r="W546" s="22" t="s">
         <v>527</v>
       </c>
-      <c r="X546" s="5">
+      <c r="X546" s="22">
         <v>9999999</v>
       </c>
-      <c r="Y546" s="11">
-        <v>1614038400</v>
-      </c>
-      <c r="Z546" s="11">
-        <v>1614614399</v>
-      </c>
-      <c r="AH546" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI546" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL546" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM546" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="547" spans="1:39" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A547" s="5">
+      <c r="Y546" s="69">
+        <v>1616457600</v>
+      </c>
+      <c r="Z546" s="69">
+        <v>1617033599</v>
+      </c>
+      <c r="AH546" s="22">
+        <v>1</v>
+      </c>
+      <c r="AI546" s="22">
+        <v>1</v>
+      </c>
+      <c r="AL546" s="22">
+        <v>1</v>
+      </c>
+      <c r="AM546" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="547" spans="1:39" s="22" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A547" s="22">
         <v>546</v>
       </c>
-      <c r="B547" s="5">
+      <c r="B547" s="22">
         <v>10463</v>
       </c>
-      <c r="F547" s="5">
-        <v>0</v>
-      </c>
-      <c r="G547" s="5" t="s">
+      <c r="F547" s="22">
+        <v>1</v>
+      </c>
+      <c r="G547" s="22" t="s">
         <v>2062</v>
       </c>
-      <c r="I547" s="5" t="s">
+      <c r="I547" s="22" t="s">
         <v>2046</v>
       </c>
-      <c r="J547" s="5" t="s">
+      <c r="J547" s="22" t="s">
         <v>2063</v>
       </c>
-      <c r="L547" s="5">
+      <c r="L547" s="22">
         <v>-31</v>
       </c>
-      <c r="M547" s="5">
-        <v>0</v>
-      </c>
-      <c r="N547" s="5">
-        <v>0</v>
-      </c>
-      <c r="O547" s="5" t="s">
+      <c r="M547" s="22">
+        <v>0</v>
+      </c>
+      <c r="N547" s="22">
+        <v>0</v>
+      </c>
+      <c r="O547" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="P547" s="5">
+      <c r="P547" s="22">
         <v>4800</v>
       </c>
-      <c r="Q547" s="5" t="s">
+      <c r="Q547" s="22" t="s">
         <v>2064</v>
       </c>
-      <c r="R547" s="10" t="s">
+      <c r="R547" s="65" t="s">
         <v>2065</v>
       </c>
-      <c r="W547" s="5" t="s">
+      <c r="W547" s="22" t="s">
         <v>527</v>
       </c>
-      <c r="X547" s="5">
+      <c r="X547" s="22">
         <v>9999999</v>
       </c>
-      <c r="Y547" s="11">
-        <v>1614038400</v>
-      </c>
-      <c r="Z547" s="11">
-        <v>1614614399</v>
-      </c>
-      <c r="AH547" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI547" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL547" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM547" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="548" spans="1:39" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A548" s="5">
+      <c r="Y547" s="69">
+        <v>1616457600</v>
+      </c>
+      <c r="Z547" s="69">
+        <v>1617033599</v>
+      </c>
+      <c r="AH547" s="22">
+        <v>1</v>
+      </c>
+      <c r="AI547" s="22">
+        <v>1</v>
+      </c>
+      <c r="AL547" s="22">
+        <v>1</v>
+      </c>
+      <c r="AM547" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="548" spans="1:39" s="22" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A548" s="22">
         <v>547</v>
       </c>
-      <c r="B548" s="5">
+      <c r="B548" s="22">
         <v>10464</v>
       </c>
-      <c r="F548" s="5">
-        <v>0</v>
-      </c>
-      <c r="G548" s="5" t="s">
+      <c r="F548" s="22">
+        <v>1</v>
+      </c>
+      <c r="G548" s="22" t="s">
         <v>2066</v>
       </c>
-      <c r="I548" s="5" t="s">
+      <c r="I548" s="22" t="s">
         <v>2046</v>
       </c>
-      <c r="J548" s="5" t="s">
+      <c r="J548" s="22" t="s">
         <v>2067</v>
       </c>
-      <c r="L548" s="5">
+      <c r="L548" s="22">
         <v>-31</v>
       </c>
-      <c r="M548" s="5">
-        <v>0</v>
-      </c>
-      <c r="N548" s="5">
-        <v>0</v>
-      </c>
-      <c r="O548" s="5" t="s">
+      <c r="M548" s="22">
+        <v>0</v>
+      </c>
+      <c r="N548" s="22">
+        <v>0</v>
+      </c>
+      <c r="O548" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="P548" s="5">
+      <c r="P548" s="22">
         <v>1800</v>
       </c>
-      <c r="Q548" s="5" t="s">
+      <c r="Q548" s="22" t="s">
         <v>2064</v>
       </c>
-      <c r="R548" s="10" t="s">
+      <c r="R548" s="65" t="s">
         <v>2068</v>
       </c>
-      <c r="W548" s="5" t="s">
+      <c r="W548" s="22" t="s">
         <v>527</v>
       </c>
-      <c r="X548" s="5">
+      <c r="X548" s="22">
         <v>9999999</v>
       </c>
-      <c r="Y548" s="11">
-        <v>1614038400</v>
-      </c>
-      <c r="Z548" s="11">
-        <v>1614614399</v>
-      </c>
-      <c r="AH548" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI548" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL548" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM548" s="5">
+      <c r="Y548" s="69">
+        <v>1616457600</v>
+      </c>
+      <c r="Z548" s="69">
+        <v>1617033599</v>
+      </c>
+      <c r="AH548" s="22">
+        <v>1</v>
+      </c>
+      <c r="AI548" s="22">
+        <v>1</v>
+      </c>
+      <c r="AL548" s="22">
+        <v>1</v>
+      </c>
+      <c r="AM548" s="22">
         <v>1</v>
       </c>
     </row>
@@ -49023,7 +49026,7 @@
       <c r="Q574" s="5" t="s">
         <v>2143</v>
       </c>
-      <c r="R574" s="68" t="s">
+      <c r="R574" s="67" t="s">
         <v>2144</v>
       </c>
       <c r="W574" s="5" t="s">
@@ -49085,7 +49088,7 @@
       <c r="Q575" s="5" t="s">
         <v>2150</v>
       </c>
-      <c r="R575" s="68" t="s">
+      <c r="R575" s="67" t="s">
         <v>2151</v>
       </c>
       <c r="W575" s="5" t="s">
@@ -49147,7 +49150,7 @@
       <c r="Q576" s="5" t="s">
         <v>2155</v>
       </c>
-      <c r="R576" s="68" t="s">
+      <c r="R576" s="67" t="s">
         <v>2156</v>
       </c>
       <c r="W576" s="5" t="s">
@@ -49209,7 +49212,7 @@
       <c r="Q577" s="5" t="s">
         <v>2159</v>
       </c>
-      <c r="R577" s="68" t="s">
+      <c r="R577" s="67" t="s">
         <v>2160</v>
       </c>
       <c r="W577" s="5" t="s">
@@ -49271,7 +49274,7 @@
       <c r="Q578" s="5" t="s">
         <v>2163</v>
       </c>
-      <c r="R578" s="68" t="s">
+      <c r="R578" s="67" t="s">
         <v>2164</v>
       </c>
       <c r="W578" s="5" t="s">
@@ -49333,7 +49336,7 @@
       <c r="Q579" s="5" t="s">
         <v>2167</v>
       </c>
-      <c r="R579" s="68" t="s">
+      <c r="R579" s="67" t="s">
         <v>2168</v>
       </c>
       <c r="W579" s="5" t="s">
@@ -49420,393 +49423,393 @@
         <v>1</v>
       </c>
     </row>
-    <row r="581" spans="1:39" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A581" s="22">
+    <row r="581" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A581" s="5">
         <v>580</v>
       </c>
-      <c r="B581" s="22">
+      <c r="B581" s="5">
         <v>10497</v>
       </c>
-      <c r="F581" s="22">
-        <v>1</v>
-      </c>
-      <c r="G581" s="22" t="s">
+      <c r="F581" s="5">
+        <v>0</v>
+      </c>
+      <c r="G581" s="5" t="s">
         <v>2179</v>
       </c>
-      <c r="I581" s="22" t="s">
+      <c r="I581" s="5" t="s">
         <v>2180</v>
       </c>
-      <c r="J581" s="22" t="s">
+      <c r="J581" s="5" t="s">
         <v>2181</v>
       </c>
-      <c r="L581" s="22">
+      <c r="L581" s="5">
         <v>-31</v>
       </c>
-      <c r="M581" s="22">
-        <v>0</v>
-      </c>
-      <c r="N581" s="22">
-        <v>0</v>
-      </c>
-      <c r="O581" s="22" t="s">
+      <c r="M581" s="5">
+        <v>0</v>
+      </c>
+      <c r="N581" s="5">
+        <v>0</v>
+      </c>
+      <c r="O581" s="5" t="s">
         <v>481</v>
       </c>
-      <c r="P581" s="22">
+      <c r="P581" s="5">
         <v>49800</v>
       </c>
-      <c r="Q581" s="22" t="s">
+      <c r="Q581" s="5" t="s">
         <v>2193</v>
       </c>
-      <c r="R581" s="67" t="s">
+      <c r="R581" s="68" t="s">
         <v>2194</v>
       </c>
-      <c r="W581" s="22" t="s">
+      <c r="W581" s="5" t="s">
         <v>2182</v>
       </c>
-      <c r="X581" s="22">
+      <c r="X581" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y581" s="22">
+      <c r="Y581" s="5">
         <v>1615852800</v>
       </c>
-      <c r="Z581" s="22">
+      <c r="Z581" s="5">
         <v>1616428799</v>
       </c>
-      <c r="AH581" s="22">
-        <v>1</v>
-      </c>
-      <c r="AI581" s="22">
-        <v>1</v>
-      </c>
-      <c r="AL581" s="22">
-        <v>1</v>
-      </c>
-      <c r="AM581" s="22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="582" spans="1:39" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A582" s="22">
+      <c r="AH581" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI581" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL581" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM581" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="582" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A582" s="5">
         <v>581</v>
       </c>
-      <c r="B582" s="22">
+      <c r="B582" s="5">
         <v>10498</v>
       </c>
-      <c r="F582" s="22">
-        <v>1</v>
-      </c>
-      <c r="G582" s="22" t="s">
+      <c r="F582" s="5">
+        <v>0</v>
+      </c>
+      <c r="G582" s="5" t="s">
         <v>2179</v>
       </c>
-      <c r="I582" s="22" t="s">
+      <c r="I582" s="5" t="s">
         <v>2183</v>
       </c>
-      <c r="J582" s="22" t="s">
+      <c r="J582" s="5" t="s">
         <v>2184</v>
       </c>
-      <c r="L582" s="22">
+      <c r="L582" s="5">
         <v>-31</v>
       </c>
-      <c r="M582" s="22">
-        <v>0</v>
-      </c>
-      <c r="N582" s="22">
-        <v>0</v>
-      </c>
-      <c r="O582" s="22" t="s">
+      <c r="M582" s="5">
+        <v>0</v>
+      </c>
+      <c r="N582" s="5">
+        <v>0</v>
+      </c>
+      <c r="O582" s="5" t="s">
         <v>481</v>
       </c>
-      <c r="P582" s="22">
+      <c r="P582" s="5">
         <v>19800</v>
       </c>
-      <c r="Q582" s="22" t="s">
+      <c r="Q582" s="5" t="s">
         <v>2193</v>
       </c>
-      <c r="R582" s="67" t="s">
+      <c r="R582" s="68" t="s">
         <v>2195</v>
       </c>
-      <c r="W582" s="22" t="s">
+      <c r="W582" s="5" t="s">
         <v>2182</v>
       </c>
-      <c r="X582" s="22">
+      <c r="X582" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y582" s="22">
+      <c r="Y582" s="5">
         <v>1615852800</v>
       </c>
-      <c r="Z582" s="22">
+      <c r="Z582" s="5">
         <v>1616428799</v>
       </c>
-      <c r="AH582" s="22">
-        <v>1</v>
-      </c>
-      <c r="AI582" s="22">
-        <v>1</v>
-      </c>
-      <c r="AL582" s="22">
-        <v>1</v>
-      </c>
-      <c r="AM582" s="22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="583" spans="1:39" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A583" s="22">
+      <c r="AH582" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI582" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL582" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM582" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="583" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A583" s="5">
         <v>582</v>
       </c>
-      <c r="B583" s="22">
+      <c r="B583" s="5">
         <v>10499</v>
       </c>
-      <c r="F583" s="22">
-        <v>1</v>
-      </c>
-      <c r="G583" s="22" t="s">
+      <c r="F583" s="5">
+        <v>0</v>
+      </c>
+      <c r="G583" s="5" t="s">
         <v>2179</v>
       </c>
-      <c r="I583" s="22" t="s">
+      <c r="I583" s="5" t="s">
         <v>2185</v>
       </c>
-      <c r="J583" s="22" t="s">
+      <c r="J583" s="5" t="s">
         <v>2186</v>
       </c>
-      <c r="L583" s="22">
+      <c r="L583" s="5">
         <v>-31</v>
       </c>
-      <c r="M583" s="22">
-        <v>0</v>
-      </c>
-      <c r="N583" s="22">
-        <v>0</v>
-      </c>
-      <c r="O583" s="22" t="s">
+      <c r="M583" s="5">
+        <v>0</v>
+      </c>
+      <c r="N583" s="5">
+        <v>0</v>
+      </c>
+      <c r="O583" s="5" t="s">
         <v>481</v>
       </c>
-      <c r="P583" s="22">
+      <c r="P583" s="5">
         <v>9800</v>
       </c>
-      <c r="Q583" s="22" t="s">
+      <c r="Q583" s="5" t="s">
         <v>2193</v>
       </c>
-      <c r="R583" s="67" t="s">
+      <c r="R583" s="68" t="s">
         <v>2196</v>
       </c>
-      <c r="W583" s="22" t="s">
+      <c r="W583" s="5" t="s">
         <v>2182</v>
       </c>
-      <c r="X583" s="22">
+      <c r="X583" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y583" s="22">
+      <c r="Y583" s="5">
         <v>1615852800</v>
       </c>
-      <c r="Z583" s="22">
+      <c r="Z583" s="5">
         <v>1616428799</v>
       </c>
-      <c r="AH583" s="22">
-        <v>1</v>
-      </c>
-      <c r="AI583" s="22">
-        <v>1</v>
-      </c>
-      <c r="AL583" s="22">
-        <v>1</v>
-      </c>
-      <c r="AM583" s="22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="584" spans="1:39" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A584" s="22">
+      <c r="AH583" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI583" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL583" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM583" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="584" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A584" s="5">
         <v>583</v>
       </c>
-      <c r="B584" s="22">
+      <c r="B584" s="5">
         <v>10500</v>
       </c>
-      <c r="F584" s="22">
-        <v>1</v>
-      </c>
-      <c r="G584" s="22" t="s">
+      <c r="F584" s="5">
+        <v>0</v>
+      </c>
+      <c r="G584" s="5" t="s">
         <v>2179</v>
       </c>
-      <c r="I584" s="22" t="s">
+      <c r="I584" s="5" t="s">
         <v>2187</v>
       </c>
-      <c r="J584" s="22" t="s">
+      <c r="J584" s="5" t="s">
         <v>2188</v>
       </c>
-      <c r="L584" s="22">
+      <c r="L584" s="5">
         <v>-31</v>
       </c>
-      <c r="M584" s="22">
-        <v>0</v>
-      </c>
-      <c r="N584" s="22">
-        <v>0</v>
-      </c>
-      <c r="O584" s="22" t="s">
+      <c r="M584" s="5">
+        <v>0</v>
+      </c>
+      <c r="N584" s="5">
+        <v>0</v>
+      </c>
+      <c r="O584" s="5" t="s">
         <v>481</v>
       </c>
-      <c r="P584" s="22">
+      <c r="P584" s="5">
         <v>4800</v>
       </c>
-      <c r="Q584" s="22" t="s">
+      <c r="Q584" s="5" t="s">
         <v>2193</v>
       </c>
-      <c r="R584" s="67" t="s">
+      <c r="R584" s="68" t="s">
         <v>2197</v>
       </c>
-      <c r="W584" s="22" t="s">
+      <c r="W584" s="5" t="s">
         <v>2182</v>
       </c>
-      <c r="X584" s="22">
+      <c r="X584" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y584" s="22">
+      <c r="Y584" s="5">
         <v>1615852800</v>
       </c>
-      <c r="Z584" s="22">
+      <c r="Z584" s="5">
         <v>1616428799</v>
       </c>
-      <c r="AH584" s="22">
-        <v>1</v>
-      </c>
-      <c r="AI584" s="22">
-        <v>1</v>
-      </c>
-      <c r="AL584" s="22">
-        <v>1</v>
-      </c>
-      <c r="AM584" s="22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="585" spans="1:39" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A585" s="22">
+      <c r="AH584" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI584" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL584" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM584" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="585" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A585" s="5">
         <v>584</v>
       </c>
-      <c r="B585" s="22">
+      <c r="B585" s="5">
         <v>10501</v>
       </c>
-      <c r="F585" s="22">
-        <v>1</v>
-      </c>
-      <c r="G585" s="22" t="s">
+      <c r="F585" s="5">
+        <v>0</v>
+      </c>
+      <c r="G585" s="5" t="s">
         <v>2179</v>
       </c>
-      <c r="I585" s="22" t="s">
+      <c r="I585" s="5" t="s">
         <v>2189</v>
       </c>
-      <c r="J585" s="22" t="s">
+      <c r="J585" s="5" t="s">
         <v>2190</v>
       </c>
-      <c r="L585" s="22">
+      <c r="L585" s="5">
         <v>-31</v>
       </c>
-      <c r="M585" s="22">
-        <v>0</v>
-      </c>
-      <c r="N585" s="22">
-        <v>0</v>
-      </c>
-      <c r="O585" s="22" t="s">
+      <c r="M585" s="5">
+        <v>0</v>
+      </c>
+      <c r="N585" s="5">
+        <v>0</v>
+      </c>
+      <c r="O585" s="5" t="s">
         <v>481</v>
       </c>
-      <c r="P585" s="22">
+      <c r="P585" s="5">
         <v>2000</v>
       </c>
-      <c r="Q585" s="22" t="s">
+      <c r="Q585" s="5" t="s">
         <v>2198</v>
       </c>
-      <c r="R585" s="67" t="s">
+      <c r="R585" s="68" t="s">
         <v>2199</v>
       </c>
-      <c r="W585" s="22" t="s">
+      <c r="W585" s="5" t="s">
         <v>2182</v>
       </c>
-      <c r="X585" s="22">
+      <c r="X585" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y585" s="22">
+      <c r="Y585" s="5">
         <v>1615852800</v>
       </c>
-      <c r="Z585" s="22">
+      <c r="Z585" s="5">
         <v>1616428799</v>
       </c>
-      <c r="AH585" s="22">
-        <v>1</v>
-      </c>
-      <c r="AI585" s="22">
-        <v>1</v>
-      </c>
-      <c r="AL585" s="22">
-        <v>1</v>
-      </c>
-      <c r="AM585" s="22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="586" spans="1:39" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A586" s="22">
+      <c r="AH585" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI585" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL585" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM585" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="586" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A586" s="5">
         <v>585</v>
       </c>
-      <c r="B586" s="22">
+      <c r="B586" s="5">
         <v>10502</v>
       </c>
-      <c r="F586" s="22">
-        <v>1</v>
-      </c>
-      <c r="G586" s="22" t="s">
+      <c r="F586" s="5">
+        <v>0</v>
+      </c>
+      <c r="G586" s="5" t="s">
         <v>2179</v>
       </c>
-      <c r="I586" s="22" t="s">
+      <c r="I586" s="5" t="s">
         <v>2191</v>
       </c>
-      <c r="J586" s="22" t="s">
+      <c r="J586" s="5" t="s">
         <v>2192</v>
       </c>
-      <c r="L586" s="22">
+      <c r="L586" s="5">
         <v>-31</v>
       </c>
-      <c r="M586" s="22">
-        <v>0</v>
-      </c>
-      <c r="N586" s="22">
-        <v>0</v>
-      </c>
-      <c r="O586" s="22" t="s">
+      <c r="M586" s="5">
+        <v>0</v>
+      </c>
+      <c r="N586" s="5">
+        <v>0</v>
+      </c>
+      <c r="O586" s="5" t="s">
         <v>481</v>
       </c>
-      <c r="P586" s="22">
+      <c r="P586" s="5">
         <v>600</v>
       </c>
-      <c r="Q586" s="22" t="s">
+      <c r="Q586" s="5" t="s">
         <v>2198</v>
       </c>
-      <c r="R586" s="67" t="s">
+      <c r="R586" s="68" t="s">
         <v>2200</v>
       </c>
-      <c r="W586" s="22" t="s">
+      <c r="W586" s="5" t="s">
         <v>2182</v>
       </c>
-      <c r="X586" s="22">
+      <c r="X586" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y586" s="22">
+      <c r="Y586" s="5">
         <v>1615852800</v>
       </c>
-      <c r="Z586" s="22">
+      <c r="Z586" s="5">
         <v>1616428799</v>
       </c>
-      <c r="AH586" s="22">
-        <v>1</v>
-      </c>
-      <c r="AI586" s="22">
-        <v>1</v>
-      </c>
-      <c r="AL586" s="22">
-        <v>1</v>
-      </c>
-      <c r="AM586" s="22">
+      <c r="AH586" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI586" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL586" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM586" s="5">
         <v>1</v>
       </c>
     </row>

--- a/config_Release/shoping_config_xiaomi.xlsx
+++ b/config_Release/shoping_config_xiaomi.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_3.23\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_4.6\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="tge|标签配置" sheetId="6" r:id="rId1"/>
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4718" uniqueCount="2201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4806" uniqueCount="2243">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -9302,6 +9302,174 @@
   </si>
   <si>
     <t>600000,1,20,20</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙腾祈福·龙腾礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>免费小额，新玩家</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"60万金币","10万小游戏币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>gift_bag</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_tiny_game_coin",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>600000,100000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>86400,1,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙腾祈福·龙腾礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>免费小额，新玩家</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"100万金币","20万小游戏币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_tiny_game_coin",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000000,200000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>86400,1,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>免费小额，新玩家</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"180万金币","30万小游戏币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1800000,300000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>v1-v3</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"180万金币","7万小游戏币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1800000,70000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"300万金币","12万小游戏币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>gift_bag</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>3000000,120000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"480万金币","18万小游戏币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"480万金币","18万小游戏币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4800000,180000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>v4-v7</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4800000,180000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>v4-v7</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"980万金币","38万小游戏币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>9800000,380000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"1980万金币","80万小游戏币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>19800000,800000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙腾祈福·龙腾礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>v8-v12</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙腾祈福·龙腾礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"4980万金币","180万小游戏币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>gift_bag</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>49800000,1800000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{type="permission_class",class_value = "buy_gift_shop_nor" }</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{type="permission_class",class_value = "buy_gift_shop_v1" }</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{type="permission_class",class_value = "buy_gift_shop_v4" }</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{type="permission_class",class_value = "buy_gift_shop_v8" }</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -9380,7 +9548,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -9441,6 +9609,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -9484,7 +9658,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -9694,6 +9868,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -12185,13 +12365,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN586"/>
+  <dimension ref="A1:AN598"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H521" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="7" ySplit="1" topLeftCell="H575" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A542" sqref="A542"/>
+      <selection pane="bottomRight" activeCell="G603" sqref="G603"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -49813,6 +49993,822 @@
         <v>1</v>
       </c>
     </row>
+    <row r="587" spans="1:39" s="70" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A587" s="70">
+        <v>586</v>
+      </c>
+      <c r="B587" s="70">
+        <v>10503</v>
+      </c>
+      <c r="F587" s="70">
+        <v>1</v>
+      </c>
+      <c r="G587" s="70" t="s">
+        <v>2201</v>
+      </c>
+      <c r="I587" s="70" t="s">
+        <v>2202</v>
+      </c>
+      <c r="J587" s="70" t="s">
+        <v>2203</v>
+      </c>
+      <c r="L587" s="70">
+        <v>-31</v>
+      </c>
+      <c r="M587" s="70">
+        <v>0</v>
+      </c>
+      <c r="N587" s="70">
+        <v>0</v>
+      </c>
+      <c r="O587" s="70" t="s">
+        <v>2204</v>
+      </c>
+      <c r="P587" s="70">
+        <v>600</v>
+      </c>
+      <c r="Q587" s="70" t="s">
+        <v>2205</v>
+      </c>
+      <c r="R587" s="71" t="s">
+        <v>2206</v>
+      </c>
+      <c r="W587" s="70" t="s">
+        <v>2207</v>
+      </c>
+      <c r="X587" s="70">
+        <v>99999999</v>
+      </c>
+      <c r="Y587" s="70">
+        <v>1617667200</v>
+      </c>
+      <c r="Z587" s="70">
+        <v>1618243199</v>
+      </c>
+      <c r="AA587" s="70">
+        <v>76</v>
+      </c>
+      <c r="AH587" s="70">
+        <v>1</v>
+      </c>
+      <c r="AI587" s="70">
+        <v>1</v>
+      </c>
+      <c r="AL587" s="70">
+        <v>1</v>
+      </c>
+      <c r="AM587" s="70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="588" spans="1:39" s="70" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A588" s="70">
+        <v>587</v>
+      </c>
+      <c r="B588" s="70">
+        <v>10504</v>
+      </c>
+      <c r="F588" s="70">
+        <v>1</v>
+      </c>
+      <c r="G588" s="70" t="s">
+        <v>2208</v>
+      </c>
+      <c r="I588" s="70" t="s">
+        <v>2209</v>
+      </c>
+      <c r="J588" s="70" t="s">
+        <v>2210</v>
+      </c>
+      <c r="L588" s="70">
+        <v>-31</v>
+      </c>
+      <c r="M588" s="70">
+        <v>0</v>
+      </c>
+      <c r="N588" s="70">
+        <v>0</v>
+      </c>
+      <c r="O588" s="70" t="s">
+        <v>481</v>
+      </c>
+      <c r="P588" s="70">
+        <v>1000</v>
+      </c>
+      <c r="Q588" s="70" t="s">
+        <v>2211</v>
+      </c>
+      <c r="R588" s="71" t="s">
+        <v>2212</v>
+      </c>
+      <c r="W588" s="70" t="s">
+        <v>2213</v>
+      </c>
+      <c r="X588" s="70">
+        <v>99999999</v>
+      </c>
+      <c r="Y588" s="70">
+        <v>1617667200</v>
+      </c>
+      <c r="Z588" s="70">
+        <v>1618243199</v>
+      </c>
+      <c r="AA588" s="70">
+        <v>76</v>
+      </c>
+      <c r="AH588" s="70">
+        <v>1</v>
+      </c>
+      <c r="AI588" s="70">
+        <v>1</v>
+      </c>
+      <c r="AL588" s="70">
+        <v>1</v>
+      </c>
+      <c r="AM588" s="70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="589" spans="1:39" s="70" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A589" s="70">
+        <v>588</v>
+      </c>
+      <c r="B589" s="70">
+        <v>10505</v>
+      </c>
+      <c r="F589" s="70">
+        <v>1</v>
+      </c>
+      <c r="G589" s="70" t="s">
+        <v>2201</v>
+      </c>
+      <c r="I589" s="70" t="s">
+        <v>2214</v>
+      </c>
+      <c r="J589" s="70" t="s">
+        <v>2215</v>
+      </c>
+      <c r="L589" s="70">
+        <v>-31</v>
+      </c>
+      <c r="M589" s="70">
+        <v>0</v>
+      </c>
+      <c r="N589" s="70">
+        <v>0</v>
+      </c>
+      <c r="O589" s="70" t="s">
+        <v>2204</v>
+      </c>
+      <c r="P589" s="70">
+        <v>1800</v>
+      </c>
+      <c r="Q589" s="70" t="s">
+        <v>2205</v>
+      </c>
+      <c r="R589" s="71" t="s">
+        <v>2216</v>
+      </c>
+      <c r="W589" s="70" t="s">
+        <v>527</v>
+      </c>
+      <c r="X589" s="70">
+        <v>99999999</v>
+      </c>
+      <c r="Y589" s="70">
+        <v>1617667200</v>
+      </c>
+      <c r="Z589" s="70">
+        <v>1618243199</v>
+      </c>
+      <c r="AA589" s="70">
+        <v>76</v>
+      </c>
+      <c r="AH589" s="70">
+        <v>1</v>
+      </c>
+      <c r="AI589" s="70">
+        <v>1</v>
+      </c>
+      <c r="AL589" s="70">
+        <v>1</v>
+      </c>
+      <c r="AM589" s="70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="590" spans="1:39" s="70" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A590" s="70">
+        <v>589</v>
+      </c>
+      <c r="B590" s="70">
+        <v>10506</v>
+      </c>
+      <c r="F590" s="70">
+        <v>1</v>
+      </c>
+      <c r="G590" s="70" t="s">
+        <v>2201</v>
+      </c>
+      <c r="I590" s="70" t="s">
+        <v>2217</v>
+      </c>
+      <c r="J590" s="70" t="s">
+        <v>2218</v>
+      </c>
+      <c r="L590" s="70">
+        <v>-31</v>
+      </c>
+      <c r="M590" s="70">
+        <v>0</v>
+      </c>
+      <c r="N590" s="70">
+        <v>0</v>
+      </c>
+      <c r="O590" s="70" t="s">
+        <v>2204</v>
+      </c>
+      <c r="P590" s="70">
+        <v>1800</v>
+      </c>
+      <c r="Q590" s="70" t="s">
+        <v>2205</v>
+      </c>
+      <c r="R590" s="71" t="s">
+        <v>2219</v>
+      </c>
+      <c r="W590" s="70" t="s">
+        <v>527</v>
+      </c>
+      <c r="X590" s="70">
+        <v>99999999</v>
+      </c>
+      <c r="Y590" s="70">
+        <v>1617667200</v>
+      </c>
+      <c r="Z590" s="70">
+        <v>1618243199</v>
+      </c>
+      <c r="AA590" s="70">
+        <v>77</v>
+      </c>
+      <c r="AH590" s="70">
+        <v>1</v>
+      </c>
+      <c r="AI590" s="70">
+        <v>1</v>
+      </c>
+      <c r="AL590" s="70">
+        <v>1</v>
+      </c>
+      <c r="AM590" s="70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="591" spans="1:39" s="70" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A591" s="70">
+        <v>590</v>
+      </c>
+      <c r="B591" s="70">
+        <v>10507</v>
+      </c>
+      <c r="F591" s="70">
+        <v>1</v>
+      </c>
+      <c r="G591" s="70" t="s">
+        <v>2201</v>
+      </c>
+      <c r="I591" s="70" t="s">
+        <v>2217</v>
+      </c>
+      <c r="J591" s="70" t="s">
+        <v>2220</v>
+      </c>
+      <c r="L591" s="70">
+        <v>-31</v>
+      </c>
+      <c r="M591" s="70">
+        <v>0</v>
+      </c>
+      <c r="N591" s="70">
+        <v>0</v>
+      </c>
+      <c r="O591" s="70" t="s">
+        <v>2221</v>
+      </c>
+      <c r="P591" s="70">
+        <v>3000</v>
+      </c>
+      <c r="Q591" s="70" t="s">
+        <v>2205</v>
+      </c>
+      <c r="R591" s="71" t="s">
+        <v>2222</v>
+      </c>
+      <c r="W591" s="70" t="s">
+        <v>527</v>
+      </c>
+      <c r="X591" s="70">
+        <v>99999999</v>
+      </c>
+      <c r="Y591" s="70">
+        <v>1617667200</v>
+      </c>
+      <c r="Z591" s="70">
+        <v>1618243199</v>
+      </c>
+      <c r="AA591" s="70">
+        <v>77</v>
+      </c>
+      <c r="AH591" s="70">
+        <v>1</v>
+      </c>
+      <c r="AI591" s="70">
+        <v>1</v>
+      </c>
+      <c r="AL591" s="70">
+        <v>1</v>
+      </c>
+      <c r="AM591" s="70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="592" spans="1:39" s="70" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A592" s="70">
+        <v>591</v>
+      </c>
+      <c r="B592" s="70">
+        <v>10508</v>
+      </c>
+      <c r="F592" s="70">
+        <v>1</v>
+      </c>
+      <c r="G592" s="70" t="s">
+        <v>2208</v>
+      </c>
+      <c r="I592" s="70" t="s">
+        <v>2217</v>
+      </c>
+      <c r="J592" s="70" t="s">
+        <v>2224</v>
+      </c>
+      <c r="L592" s="70">
+        <v>-31</v>
+      </c>
+      <c r="M592" s="70">
+        <v>0</v>
+      </c>
+      <c r="N592" s="70">
+        <v>0</v>
+      </c>
+      <c r="O592" s="70" t="s">
+        <v>2204</v>
+      </c>
+      <c r="P592" s="70">
+        <v>4800</v>
+      </c>
+      <c r="Q592" s="70" t="s">
+        <v>2205</v>
+      </c>
+      <c r="R592" s="71" t="s">
+        <v>2225</v>
+      </c>
+      <c r="W592" s="70" t="s">
+        <v>527</v>
+      </c>
+      <c r="X592" s="70">
+        <v>99999999</v>
+      </c>
+      <c r="Y592" s="70">
+        <v>1617667200</v>
+      </c>
+      <c r="Z592" s="70">
+        <v>1618243199</v>
+      </c>
+      <c r="AA592" s="70">
+        <v>77</v>
+      </c>
+      <c r="AH592" s="70">
+        <v>1</v>
+      </c>
+      <c r="AI592" s="70">
+        <v>1</v>
+      </c>
+      <c r="AL592" s="70">
+        <v>1</v>
+      </c>
+      <c r="AM592" s="70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="593" spans="1:39" s="70" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A593" s="70">
+        <v>592</v>
+      </c>
+      <c r="B593" s="70">
+        <v>10509</v>
+      </c>
+      <c r="F593" s="70">
+        <v>1</v>
+      </c>
+      <c r="G593" s="70" t="s">
+        <v>2201</v>
+      </c>
+      <c r="I593" s="70" t="s">
+        <v>2226</v>
+      </c>
+      <c r="J593" s="70" t="s">
+        <v>2223</v>
+      </c>
+      <c r="L593" s="70">
+        <v>-31</v>
+      </c>
+      <c r="M593" s="70">
+        <v>0</v>
+      </c>
+      <c r="N593" s="70">
+        <v>0</v>
+      </c>
+      <c r="O593" s="70" t="s">
+        <v>2204</v>
+      </c>
+      <c r="P593" s="70">
+        <v>4800</v>
+      </c>
+      <c r="Q593" s="70" t="s">
+        <v>2205</v>
+      </c>
+      <c r="R593" s="71" t="s">
+        <v>2227</v>
+      </c>
+      <c r="W593" s="70" t="s">
+        <v>527</v>
+      </c>
+      <c r="X593" s="70">
+        <v>99999999</v>
+      </c>
+      <c r="Y593" s="70">
+        <v>1617667200</v>
+      </c>
+      <c r="Z593" s="70">
+        <v>1618243199</v>
+      </c>
+      <c r="AA593" s="70">
+        <v>78</v>
+      </c>
+      <c r="AH593" s="70">
+        <v>1</v>
+      </c>
+      <c r="AI593" s="70">
+        <v>1</v>
+      </c>
+      <c r="AL593" s="70">
+        <v>1</v>
+      </c>
+      <c r="AM593" s="70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="594" spans="1:39" s="70" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A594" s="70">
+        <v>593</v>
+      </c>
+      <c r="B594" s="70">
+        <v>10510</v>
+      </c>
+      <c r="F594" s="70">
+        <v>1</v>
+      </c>
+      <c r="G594" s="70" t="s">
+        <v>2201</v>
+      </c>
+      <c r="I594" s="70" t="s">
+        <v>2228</v>
+      </c>
+      <c r="J594" s="70" t="s">
+        <v>2229</v>
+      </c>
+      <c r="L594" s="70">
+        <v>-31</v>
+      </c>
+      <c r="M594" s="70">
+        <v>0</v>
+      </c>
+      <c r="N594" s="70">
+        <v>0</v>
+      </c>
+      <c r="O594" s="70" t="s">
+        <v>481</v>
+      </c>
+      <c r="P594" s="70">
+        <v>9800</v>
+      </c>
+      <c r="Q594" s="70" t="s">
+        <v>2205</v>
+      </c>
+      <c r="R594" s="71" t="s">
+        <v>2230</v>
+      </c>
+      <c r="W594" s="70" t="s">
+        <v>527</v>
+      </c>
+      <c r="X594" s="70">
+        <v>99999999</v>
+      </c>
+      <c r="Y594" s="70">
+        <v>1617667200</v>
+      </c>
+      <c r="Z594" s="70">
+        <v>1618243199</v>
+      </c>
+      <c r="AA594" s="70">
+        <v>78</v>
+      </c>
+      <c r="AH594" s="70">
+        <v>1</v>
+      </c>
+      <c r="AI594" s="70">
+        <v>1</v>
+      </c>
+      <c r="AL594" s="70">
+        <v>1</v>
+      </c>
+      <c r="AM594" s="70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="595" spans="1:39" s="70" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A595" s="70">
+        <v>594</v>
+      </c>
+      <c r="B595" s="70">
+        <v>10511</v>
+      </c>
+      <c r="F595" s="70">
+        <v>1</v>
+      </c>
+      <c r="G595" s="70" t="s">
+        <v>2201</v>
+      </c>
+      <c r="I595" s="70" t="s">
+        <v>2226</v>
+      </c>
+      <c r="J595" s="70" t="s">
+        <v>2231</v>
+      </c>
+      <c r="L595" s="70">
+        <v>-31</v>
+      </c>
+      <c r="M595" s="70">
+        <v>0</v>
+      </c>
+      <c r="N595" s="70">
+        <v>0</v>
+      </c>
+      <c r="O595" s="70" t="s">
+        <v>2221</v>
+      </c>
+      <c r="P595" s="70">
+        <v>19800</v>
+      </c>
+      <c r="Q595" s="70" t="s">
+        <v>2205</v>
+      </c>
+      <c r="R595" s="71" t="s">
+        <v>2232</v>
+      </c>
+      <c r="W595" s="70" t="s">
+        <v>527</v>
+      </c>
+      <c r="X595" s="70">
+        <v>99999999</v>
+      </c>
+      <c r="Y595" s="70">
+        <v>1617667200</v>
+      </c>
+      <c r="Z595" s="70">
+        <v>1618243199</v>
+      </c>
+      <c r="AA595" s="70">
+        <v>78</v>
+      </c>
+      <c r="AH595" s="70">
+        <v>1</v>
+      </c>
+      <c r="AI595" s="70">
+        <v>1</v>
+      </c>
+      <c r="AL595" s="70">
+        <v>1</v>
+      </c>
+      <c r="AM595" s="70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="596" spans="1:39" s="70" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A596" s="70">
+        <v>595</v>
+      </c>
+      <c r="B596" s="70">
+        <v>10512</v>
+      </c>
+      <c r="F596" s="70">
+        <v>1</v>
+      </c>
+      <c r="G596" s="70" t="s">
+        <v>2233</v>
+      </c>
+      <c r="I596" s="70" t="s">
+        <v>2234</v>
+      </c>
+      <c r="J596" s="70" t="s">
+        <v>2229</v>
+      </c>
+      <c r="L596" s="70">
+        <v>-31</v>
+      </c>
+      <c r="M596" s="70">
+        <v>0</v>
+      </c>
+      <c r="N596" s="70">
+        <v>0</v>
+      </c>
+      <c r="O596" s="70" t="s">
+        <v>481</v>
+      </c>
+      <c r="P596" s="70">
+        <v>9800</v>
+      </c>
+      <c r="Q596" s="70" t="s">
+        <v>2205</v>
+      </c>
+      <c r="R596" s="71" t="s">
+        <v>2230</v>
+      </c>
+      <c r="W596" s="70" t="s">
+        <v>527</v>
+      </c>
+      <c r="X596" s="70">
+        <v>99999999</v>
+      </c>
+      <c r="Y596" s="70">
+        <v>1617667200</v>
+      </c>
+      <c r="Z596" s="70">
+        <v>1618243199</v>
+      </c>
+      <c r="AA596" s="70">
+        <v>79</v>
+      </c>
+      <c r="AH596" s="70">
+        <v>1</v>
+      </c>
+      <c r="AI596" s="70">
+        <v>1</v>
+      </c>
+      <c r="AL596" s="70">
+        <v>1</v>
+      </c>
+      <c r="AM596" s="70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="597" spans="1:39" s="70" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A597" s="70">
+        <v>596</v>
+      </c>
+      <c r="B597" s="70">
+        <v>10513</v>
+      </c>
+      <c r="F597" s="70">
+        <v>1</v>
+      </c>
+      <c r="G597" s="70" t="s">
+        <v>2201</v>
+      </c>
+      <c r="I597" s="70" t="s">
+        <v>2006</v>
+      </c>
+      <c r="J597" s="70" t="s">
+        <v>2231</v>
+      </c>
+      <c r="L597" s="70">
+        <v>-31</v>
+      </c>
+      <c r="M597" s="70">
+        <v>0</v>
+      </c>
+      <c r="N597" s="70">
+        <v>0</v>
+      </c>
+      <c r="O597" s="70" t="s">
+        <v>481</v>
+      </c>
+      <c r="P597" s="70">
+        <v>19800</v>
+      </c>
+      <c r="Q597" s="70" t="s">
+        <v>2211</v>
+      </c>
+      <c r="R597" s="71" t="s">
+        <v>2232</v>
+      </c>
+      <c r="W597" s="70" t="s">
+        <v>527</v>
+      </c>
+      <c r="X597" s="70">
+        <v>99999999</v>
+      </c>
+      <c r="Y597" s="70">
+        <v>1617667200</v>
+      </c>
+      <c r="Z597" s="70">
+        <v>1618243199</v>
+      </c>
+      <c r="AA597" s="70">
+        <v>79</v>
+      </c>
+      <c r="AH597" s="70">
+        <v>1</v>
+      </c>
+      <c r="AI597" s="70">
+        <v>1</v>
+      </c>
+      <c r="AL597" s="70">
+        <v>1</v>
+      </c>
+      <c r="AM597" s="70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="598" spans="1:39" s="70" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A598" s="70">
+        <v>597</v>
+      </c>
+      <c r="B598" s="70">
+        <v>10514</v>
+      </c>
+      <c r="F598" s="70">
+        <v>1</v>
+      </c>
+      <c r="G598" s="70" t="s">
+        <v>2235</v>
+      </c>
+      <c r="I598" s="70" t="s">
+        <v>2006</v>
+      </c>
+      <c r="J598" s="70" t="s">
+        <v>2236</v>
+      </c>
+      <c r="L598" s="70">
+        <v>-31</v>
+      </c>
+      <c r="M598" s="70">
+        <v>0</v>
+      </c>
+      <c r="N598" s="70">
+        <v>0</v>
+      </c>
+      <c r="O598" s="70" t="s">
+        <v>2237</v>
+      </c>
+      <c r="P598" s="70">
+        <v>49800</v>
+      </c>
+      <c r="Q598" s="70" t="s">
+        <v>2205</v>
+      </c>
+      <c r="R598" s="71" t="s">
+        <v>2238</v>
+      </c>
+      <c r="W598" s="70" t="s">
+        <v>527</v>
+      </c>
+      <c r="X598" s="70">
+        <v>99999999</v>
+      </c>
+      <c r="Y598" s="70">
+        <v>1617667200</v>
+      </c>
+      <c r="Z598" s="70">
+        <v>1618243199</v>
+      </c>
+      <c r="AA598" s="70">
+        <v>79</v>
+      </c>
+      <c r="AH598" s="70">
+        <v>1</v>
+      </c>
+      <c r="AI598" s="70">
+        <v>1</v>
+      </c>
+      <c r="AL598" s="70">
+        <v>1</v>
+      </c>
+      <c r="AM598" s="70">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -49823,10 +50819,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E76"/>
+  <dimension ref="A1:E80"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="B74" sqref="B74"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="A77" sqref="A77:D80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -50903,6 +51899,62 @@
         <v>1</v>
       </c>
       <c r="D76" s="57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77" s="12">
+        <v>76</v>
+      </c>
+      <c r="B77" s="56" t="s">
+        <v>2239</v>
+      </c>
+      <c r="C77" s="57">
+        <v>1</v>
+      </c>
+      <c r="D77" s="57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A78" s="12">
+        <v>77</v>
+      </c>
+      <c r="B78" s="56" t="s">
+        <v>2240</v>
+      </c>
+      <c r="C78" s="57">
+        <v>1</v>
+      </c>
+      <c r="D78" s="57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A79" s="12">
+        <v>78</v>
+      </c>
+      <c r="B79" s="56" t="s">
+        <v>2241</v>
+      </c>
+      <c r="C79" s="57">
+        <v>1</v>
+      </c>
+      <c r="D79" s="57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A80" s="12">
+        <v>79</v>
+      </c>
+      <c r="B80" s="56" t="s">
+        <v>2242</v>
+      </c>
+      <c r="C80" s="57">
+        <v>1</v>
+      </c>
+      <c r="D80" s="57">
         <v>0</v>
       </c>
     </row>

--- a/config_Release/shoping_config_xiaomi.xlsx
+++ b/config_Release/shoping_config_xiaomi.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_4.6\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_4.13\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4806" uniqueCount="2243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4894" uniqueCount="2278">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -9470,6 +9470,136 @@
   </si>
   <si>
     <t>{type="permission_class",class_value = "buy_gift_shop_v8" }</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢乐礼包</t>
+  </si>
+  <si>
+    <t>"60万金币","6万鱼币",</t>
+  </si>
+  <si>
+    <t>"100万金币","12万鱼币",</t>
+  </si>
+  <si>
+    <t>1000000,120000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"180万金币","18万鱼币",</t>
+  </si>
+  <si>
+    <t>"180万金币","7万鱼币",</t>
+  </si>
+  <si>
+    <t>"300万金币","12万鱼币",</t>
+  </si>
+  <si>
+    <t>"480万金币","18万鱼币",</t>
+  </si>
+  <si>
+    <t>"980万金币","38万鱼币",</t>
+  </si>
+  <si>
+    <t>"1980万金币","80万鱼币",</t>
+  </si>
+  <si>
+    <t>"4980万金币","180万鱼币",</t>
+  </si>
+  <si>
+    <t>免费小额，新玩家</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>600000,60000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>免费小额，新玩家</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>gift_bag</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>86400,1,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1800000,180000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>v1-v3</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>gift_bag</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1800000,70000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>3000000,120000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>v1-v3</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4800000,180000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>v4-v7</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>9800000,380000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>9800000,380000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>19800000,800000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>v8-v12</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>v8-v12</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>19800000,800000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>49800000,1800000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{type="permission_class",class_value = "integral_gift_buy_nor" }</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{type="permission_class",class_value = "integral_gift_buy_v1" }</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{type="permission_class",class_value = "integral_gift_buy_v4" }</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{type="permission_class",class_value = "integral_gift_buy_v8" }</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -9548,7 +9678,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -9615,6 +9745,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -9658,7 +9794,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -9873,6 +10009,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -12365,13 +12504,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN598"/>
+  <dimension ref="A1:AN610"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="1" topLeftCell="H575" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G603" sqref="G603"/>
+      <selection pane="bottomRight" activeCell="A599" sqref="A599:XFD610"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -49993,819 +50132,1635 @@
         <v>1</v>
       </c>
     </row>
-    <row r="587" spans="1:39" s="70" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A587" s="70">
+    <row r="587" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A587" s="5">
         <v>586</v>
       </c>
-      <c r="B587" s="70">
+      <c r="B587" s="5">
         <v>10503</v>
       </c>
-      <c r="F587" s="70">
-        <v>1</v>
-      </c>
-      <c r="G587" s="70" t="s">
+      <c r="F587" s="5">
+        <v>0</v>
+      </c>
+      <c r="G587" s="5" t="s">
         <v>2201</v>
       </c>
-      <c r="I587" s="70" t="s">
+      <c r="I587" s="5" t="s">
         <v>2202</v>
       </c>
-      <c r="J587" s="70" t="s">
+      <c r="J587" s="5" t="s">
         <v>2203</v>
       </c>
-      <c r="L587" s="70">
+      <c r="L587" s="5">
         <v>-31</v>
       </c>
-      <c r="M587" s="70">
-        <v>0</v>
-      </c>
-      <c r="N587" s="70">
-        <v>0</v>
-      </c>
-      <c r="O587" s="70" t="s">
+      <c r="M587" s="5">
+        <v>0</v>
+      </c>
+      <c r="N587" s="5">
+        <v>0</v>
+      </c>
+      <c r="O587" s="5" t="s">
         <v>2204</v>
       </c>
-      <c r="P587" s="70">
+      <c r="P587" s="5">
         <v>600</v>
       </c>
-      <c r="Q587" s="70" t="s">
+      <c r="Q587" s="5" t="s">
         <v>2205</v>
       </c>
-      <c r="R587" s="71" t="s">
+      <c r="R587" s="68" t="s">
         <v>2206</v>
       </c>
-      <c r="W587" s="70" t="s">
+      <c r="W587" s="5" t="s">
         <v>2207</v>
       </c>
-      <c r="X587" s="70">
+      <c r="X587" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y587" s="70">
+      <c r="Y587" s="5">
         <v>1617667200</v>
       </c>
-      <c r="Z587" s="70">
+      <c r="Z587" s="5">
         <v>1618243199</v>
       </c>
-      <c r="AA587" s="70">
+      <c r="AA587" s="5">
         <v>76</v>
       </c>
-      <c r="AH587" s="70">
-        <v>1</v>
-      </c>
-      <c r="AI587" s="70">
-        <v>1</v>
-      </c>
-      <c r="AL587" s="70">
-        <v>1</v>
-      </c>
-      <c r="AM587" s="70">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="588" spans="1:39" s="70" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A588" s="70">
+      <c r="AH587" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI587" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL587" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM587" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="588" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A588" s="5">
         <v>587</v>
       </c>
-      <c r="B588" s="70">
+      <c r="B588" s="5">
         <v>10504</v>
       </c>
-      <c r="F588" s="70">
-        <v>1</v>
-      </c>
-      <c r="G588" s="70" t="s">
+      <c r="F588" s="5">
+        <v>0</v>
+      </c>
+      <c r="G588" s="5" t="s">
         <v>2208</v>
       </c>
-      <c r="I588" s="70" t="s">
+      <c r="I588" s="5" t="s">
         <v>2209</v>
       </c>
-      <c r="J588" s="70" t="s">
+      <c r="J588" s="5" t="s">
         <v>2210</v>
       </c>
-      <c r="L588" s="70">
+      <c r="L588" s="5">
         <v>-31</v>
       </c>
-      <c r="M588" s="70">
-        <v>0</v>
-      </c>
-      <c r="N588" s="70">
-        <v>0</v>
-      </c>
-      <c r="O588" s="70" t="s">
+      <c r="M588" s="5">
+        <v>0</v>
+      </c>
+      <c r="N588" s="5">
+        <v>0</v>
+      </c>
+      <c r="O588" s="5" t="s">
         <v>481</v>
       </c>
-      <c r="P588" s="70">
+      <c r="P588" s="5">
         <v>1000</v>
       </c>
-      <c r="Q588" s="70" t="s">
+      <c r="Q588" s="5" t="s">
         <v>2211</v>
       </c>
-      <c r="R588" s="71" t="s">
+      <c r="R588" s="68" t="s">
         <v>2212</v>
       </c>
-      <c r="W588" s="70" t="s">
+      <c r="W588" s="5" t="s">
         <v>2213</v>
       </c>
-      <c r="X588" s="70">
+      <c r="X588" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y588" s="70">
+      <c r="Y588" s="5">
         <v>1617667200</v>
       </c>
-      <c r="Z588" s="70">
+      <c r="Z588" s="5">
         <v>1618243199</v>
       </c>
-      <c r="AA588" s="70">
+      <c r="AA588" s="5">
         <v>76</v>
       </c>
-      <c r="AH588" s="70">
-        <v>1</v>
-      </c>
-      <c r="AI588" s="70">
-        <v>1</v>
-      </c>
-      <c r="AL588" s="70">
-        <v>1</v>
-      </c>
-      <c r="AM588" s="70">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="589" spans="1:39" s="70" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A589" s="70">
+      <c r="AH588" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI588" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL588" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM588" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="589" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A589" s="5">
         <v>588</v>
       </c>
-      <c r="B589" s="70">
+      <c r="B589" s="5">
         <v>10505</v>
       </c>
-      <c r="F589" s="70">
-        <v>1</v>
-      </c>
-      <c r="G589" s="70" t="s">
+      <c r="F589" s="5">
+        <v>0</v>
+      </c>
+      <c r="G589" s="5" t="s">
         <v>2201</v>
       </c>
-      <c r="I589" s="70" t="s">
+      <c r="I589" s="5" t="s">
         <v>2214</v>
       </c>
-      <c r="J589" s="70" t="s">
+      <c r="J589" s="5" t="s">
         <v>2215</v>
       </c>
-      <c r="L589" s="70">
+      <c r="L589" s="5">
         <v>-31</v>
       </c>
-      <c r="M589" s="70">
-        <v>0</v>
-      </c>
-      <c r="N589" s="70">
-        <v>0</v>
-      </c>
-      <c r="O589" s="70" t="s">
+      <c r="M589" s="5">
+        <v>0</v>
+      </c>
+      <c r="N589" s="5">
+        <v>0</v>
+      </c>
+      <c r="O589" s="5" t="s">
         <v>2204</v>
       </c>
-      <c r="P589" s="70">
+      <c r="P589" s="5">
         <v>1800</v>
       </c>
-      <c r="Q589" s="70" t="s">
+      <c r="Q589" s="5" t="s">
         <v>2205</v>
       </c>
-      <c r="R589" s="71" t="s">
+      <c r="R589" s="68" t="s">
         <v>2216</v>
       </c>
-      <c r="W589" s="70" t="s">
+      <c r="W589" s="5" t="s">
         <v>527</v>
       </c>
-      <c r="X589" s="70">
+      <c r="X589" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y589" s="70">
+      <c r="Y589" s="5">
         <v>1617667200</v>
       </c>
-      <c r="Z589" s="70">
+      <c r="Z589" s="5">
         <v>1618243199</v>
       </c>
-      <c r="AA589" s="70">
+      <c r="AA589" s="5">
         <v>76</v>
       </c>
-      <c r="AH589" s="70">
-        <v>1</v>
-      </c>
-      <c r="AI589" s="70">
-        <v>1</v>
-      </c>
-      <c r="AL589" s="70">
-        <v>1</v>
-      </c>
-      <c r="AM589" s="70">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="590" spans="1:39" s="70" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A590" s="70">
+      <c r="AH589" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI589" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL589" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM589" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="590" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A590" s="5">
         <v>589</v>
       </c>
-      <c r="B590" s="70">
+      <c r="B590" s="5">
         <v>10506</v>
       </c>
-      <c r="F590" s="70">
-        <v>1</v>
-      </c>
-      <c r="G590" s="70" t="s">
+      <c r="F590" s="5">
+        <v>0</v>
+      </c>
+      <c r="G590" s="5" t="s">
         <v>2201</v>
       </c>
-      <c r="I590" s="70" t="s">
+      <c r="I590" s="5" t="s">
         <v>2217</v>
       </c>
-      <c r="J590" s="70" t="s">
+      <c r="J590" s="5" t="s">
         <v>2218</v>
       </c>
-      <c r="L590" s="70">
+      <c r="L590" s="5">
         <v>-31</v>
       </c>
-      <c r="M590" s="70">
-        <v>0</v>
-      </c>
-      <c r="N590" s="70">
-        <v>0</v>
-      </c>
-      <c r="O590" s="70" t="s">
+      <c r="M590" s="5">
+        <v>0</v>
+      </c>
+      <c r="N590" s="5">
+        <v>0</v>
+      </c>
+      <c r="O590" s="5" t="s">
         <v>2204</v>
       </c>
-      <c r="P590" s="70">
+      <c r="P590" s="5">
         <v>1800</v>
       </c>
-      <c r="Q590" s="70" t="s">
+      <c r="Q590" s="5" t="s">
         <v>2205</v>
       </c>
-      <c r="R590" s="71" t="s">
+      <c r="R590" s="68" t="s">
         <v>2219</v>
       </c>
-      <c r="W590" s="70" t="s">
+      <c r="W590" s="5" t="s">
         <v>527</v>
       </c>
-      <c r="X590" s="70">
+      <c r="X590" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y590" s="70">
+      <c r="Y590" s="5">
         <v>1617667200</v>
       </c>
-      <c r="Z590" s="70">
+      <c r="Z590" s="5">
         <v>1618243199</v>
       </c>
-      <c r="AA590" s="70">
+      <c r="AA590" s="5">
         <v>77</v>
       </c>
-      <c r="AH590" s="70">
-        <v>1</v>
-      </c>
-      <c r="AI590" s="70">
-        <v>1</v>
-      </c>
-      <c r="AL590" s="70">
-        <v>1</v>
-      </c>
-      <c r="AM590" s="70">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="591" spans="1:39" s="70" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A591" s="70">
+      <c r="AH590" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI590" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL590" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM590" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="591" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A591" s="5">
         <v>590</v>
       </c>
-      <c r="B591" s="70">
+      <c r="B591" s="5">
         <v>10507</v>
       </c>
-      <c r="F591" s="70">
-        <v>1</v>
-      </c>
-      <c r="G591" s="70" t="s">
+      <c r="F591" s="5">
+        <v>0</v>
+      </c>
+      <c r="G591" s="5" t="s">
         <v>2201</v>
       </c>
-      <c r="I591" s="70" t="s">
+      <c r="I591" s="5" t="s">
         <v>2217</v>
       </c>
-      <c r="J591" s="70" t="s">
+      <c r="J591" s="5" t="s">
         <v>2220</v>
       </c>
-      <c r="L591" s="70">
+      <c r="L591" s="5">
         <v>-31</v>
       </c>
-      <c r="M591" s="70">
-        <v>0</v>
-      </c>
-      <c r="N591" s="70">
-        <v>0</v>
-      </c>
-      <c r="O591" s="70" t="s">
+      <c r="M591" s="5">
+        <v>0</v>
+      </c>
+      <c r="N591" s="5">
+        <v>0</v>
+      </c>
+      <c r="O591" s="5" t="s">
         <v>2221</v>
       </c>
-      <c r="P591" s="70">
+      <c r="P591" s="5">
         <v>3000</v>
       </c>
-      <c r="Q591" s="70" t="s">
+      <c r="Q591" s="5" t="s">
         <v>2205</v>
       </c>
-      <c r="R591" s="71" t="s">
+      <c r="R591" s="68" t="s">
         <v>2222</v>
       </c>
-      <c r="W591" s="70" t="s">
+      <c r="W591" s="5" t="s">
         <v>527</v>
       </c>
-      <c r="X591" s="70">
+      <c r="X591" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y591" s="70">
+      <c r="Y591" s="5">
         <v>1617667200</v>
       </c>
-      <c r="Z591" s="70">
+      <c r="Z591" s="5">
         <v>1618243199</v>
       </c>
-      <c r="AA591" s="70">
+      <c r="AA591" s="5">
         <v>77</v>
       </c>
-      <c r="AH591" s="70">
-        <v>1</v>
-      </c>
-      <c r="AI591" s="70">
-        <v>1</v>
-      </c>
-      <c r="AL591" s="70">
-        <v>1</v>
-      </c>
-      <c r="AM591" s="70">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="592" spans="1:39" s="70" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A592" s="70">
+      <c r="AH591" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI591" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL591" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM591" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="592" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A592" s="5">
         <v>591</v>
       </c>
-      <c r="B592" s="70">
+      <c r="B592" s="5">
         <v>10508</v>
       </c>
-      <c r="F592" s="70">
-        <v>1</v>
-      </c>
-      <c r="G592" s="70" t="s">
+      <c r="F592" s="5">
+        <v>0</v>
+      </c>
+      <c r="G592" s="5" t="s">
         <v>2208</v>
       </c>
-      <c r="I592" s="70" t="s">
+      <c r="I592" s="5" t="s">
         <v>2217</v>
       </c>
-      <c r="J592" s="70" t="s">
+      <c r="J592" s="5" t="s">
         <v>2224</v>
       </c>
-      <c r="L592" s="70">
+      <c r="L592" s="5">
         <v>-31</v>
       </c>
-      <c r="M592" s="70">
-        <v>0</v>
-      </c>
-      <c r="N592" s="70">
-        <v>0</v>
-      </c>
-      <c r="O592" s="70" t="s">
+      <c r="M592" s="5">
+        <v>0</v>
+      </c>
+      <c r="N592" s="5">
+        <v>0</v>
+      </c>
+      <c r="O592" s="5" t="s">
         <v>2204</v>
       </c>
-      <c r="P592" s="70">
+      <c r="P592" s="5">
         <v>4800</v>
       </c>
-      <c r="Q592" s="70" t="s">
+      <c r="Q592" s="5" t="s">
         <v>2205</v>
       </c>
-      <c r="R592" s="71" t="s">
+      <c r="R592" s="68" t="s">
         <v>2225</v>
       </c>
-      <c r="W592" s="70" t="s">
+      <c r="W592" s="5" t="s">
         <v>527</v>
       </c>
-      <c r="X592" s="70">
+      <c r="X592" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y592" s="70">
+      <c r="Y592" s="5">
         <v>1617667200</v>
       </c>
-      <c r="Z592" s="70">
+      <c r="Z592" s="5">
         <v>1618243199</v>
       </c>
-      <c r="AA592" s="70">
+      <c r="AA592" s="5">
         <v>77</v>
       </c>
-      <c r="AH592" s="70">
-        <v>1</v>
-      </c>
-      <c r="AI592" s="70">
-        <v>1</v>
-      </c>
-      <c r="AL592" s="70">
-        <v>1</v>
-      </c>
-      <c r="AM592" s="70">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="593" spans="1:39" s="70" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A593" s="70">
+      <c r="AH592" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI592" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL592" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM592" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="593" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A593" s="5">
         <v>592</v>
       </c>
-      <c r="B593" s="70">
+      <c r="B593" s="5">
         <v>10509</v>
       </c>
-      <c r="F593" s="70">
-        <v>1</v>
-      </c>
-      <c r="G593" s="70" t="s">
+      <c r="F593" s="5">
+        <v>0</v>
+      </c>
+      <c r="G593" s="5" t="s">
         <v>2201</v>
       </c>
-      <c r="I593" s="70" t="s">
+      <c r="I593" s="5" t="s">
         <v>2226</v>
       </c>
-      <c r="J593" s="70" t="s">
+      <c r="J593" s="5" t="s">
         <v>2223</v>
       </c>
-      <c r="L593" s="70">
+      <c r="L593" s="5">
         <v>-31</v>
       </c>
-      <c r="M593" s="70">
-        <v>0</v>
-      </c>
-      <c r="N593" s="70">
-        <v>0</v>
-      </c>
-      <c r="O593" s="70" t="s">
+      <c r="M593" s="5">
+        <v>0</v>
+      </c>
+      <c r="N593" s="5">
+        <v>0</v>
+      </c>
+      <c r="O593" s="5" t="s">
         <v>2204</v>
       </c>
-      <c r="P593" s="70">
+      <c r="P593" s="5">
         <v>4800</v>
       </c>
-      <c r="Q593" s="70" t="s">
+      <c r="Q593" s="5" t="s">
         <v>2205</v>
       </c>
-      <c r="R593" s="71" t="s">
+      <c r="R593" s="68" t="s">
         <v>2227</v>
       </c>
-      <c r="W593" s="70" t="s">
+      <c r="W593" s="5" t="s">
         <v>527</v>
       </c>
-      <c r="X593" s="70">
+      <c r="X593" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y593" s="70">
+      <c r="Y593" s="5">
         <v>1617667200</v>
       </c>
-      <c r="Z593" s="70">
+      <c r="Z593" s="5">
         <v>1618243199</v>
       </c>
-      <c r="AA593" s="70">
+      <c r="AA593" s="5">
         <v>78</v>
       </c>
-      <c r="AH593" s="70">
-        <v>1</v>
-      </c>
-      <c r="AI593" s="70">
-        <v>1</v>
-      </c>
-      <c r="AL593" s="70">
-        <v>1</v>
-      </c>
-      <c r="AM593" s="70">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="594" spans="1:39" s="70" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A594" s="70">
+      <c r="AH593" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI593" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL593" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM593" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="594" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A594" s="5">
         <v>593</v>
       </c>
-      <c r="B594" s="70">
+      <c r="B594" s="5">
         <v>10510</v>
       </c>
-      <c r="F594" s="70">
-        <v>1</v>
-      </c>
-      <c r="G594" s="70" t="s">
+      <c r="F594" s="5">
+        <v>0</v>
+      </c>
+      <c r="G594" s="5" t="s">
         <v>2201</v>
       </c>
-      <c r="I594" s="70" t="s">
+      <c r="I594" s="5" t="s">
         <v>2228</v>
       </c>
-      <c r="J594" s="70" t="s">
+      <c r="J594" s="5" t="s">
         <v>2229</v>
       </c>
-      <c r="L594" s="70">
+      <c r="L594" s="5">
         <v>-31</v>
       </c>
-      <c r="M594" s="70">
-        <v>0</v>
-      </c>
-      <c r="N594" s="70">
-        <v>0</v>
-      </c>
-      <c r="O594" s="70" t="s">
+      <c r="M594" s="5">
+        <v>0</v>
+      </c>
+      <c r="N594" s="5">
+        <v>0</v>
+      </c>
+      <c r="O594" s="5" t="s">
         <v>481</v>
       </c>
-      <c r="P594" s="70">
+      <c r="P594" s="5">
         <v>9800</v>
       </c>
-      <c r="Q594" s="70" t="s">
+      <c r="Q594" s="5" t="s">
         <v>2205</v>
       </c>
-      <c r="R594" s="71" t="s">
+      <c r="R594" s="68" t="s">
         <v>2230</v>
       </c>
-      <c r="W594" s="70" t="s">
+      <c r="W594" s="5" t="s">
         <v>527</v>
       </c>
-      <c r="X594" s="70">
+      <c r="X594" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y594" s="70">
+      <c r="Y594" s="5">
         <v>1617667200</v>
       </c>
-      <c r="Z594" s="70">
+      <c r="Z594" s="5">
         <v>1618243199</v>
       </c>
-      <c r="AA594" s="70">
+      <c r="AA594" s="5">
         <v>78</v>
       </c>
-      <c r="AH594" s="70">
-        <v>1</v>
-      </c>
-      <c r="AI594" s="70">
-        <v>1</v>
-      </c>
-      <c r="AL594" s="70">
-        <v>1</v>
-      </c>
-      <c r="AM594" s="70">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="595" spans="1:39" s="70" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A595" s="70">
+      <c r="AH594" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI594" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL594" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM594" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="595" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A595" s="5">
         <v>594</v>
       </c>
-      <c r="B595" s="70">
+      <c r="B595" s="5">
         <v>10511</v>
       </c>
-      <c r="F595" s="70">
-        <v>1</v>
-      </c>
-      <c r="G595" s="70" t="s">
+      <c r="F595" s="5">
+        <v>0</v>
+      </c>
+      <c r="G595" s="5" t="s">
         <v>2201</v>
       </c>
-      <c r="I595" s="70" t="s">
+      <c r="I595" s="5" t="s">
         <v>2226</v>
       </c>
-      <c r="J595" s="70" t="s">
+      <c r="J595" s="5" t="s">
         <v>2231</v>
       </c>
-      <c r="L595" s="70">
+      <c r="L595" s="5">
         <v>-31</v>
       </c>
-      <c r="M595" s="70">
-        <v>0</v>
-      </c>
-      <c r="N595" s="70">
-        <v>0</v>
-      </c>
-      <c r="O595" s="70" t="s">
+      <c r="M595" s="5">
+        <v>0</v>
+      </c>
+      <c r="N595" s="5">
+        <v>0</v>
+      </c>
+      <c r="O595" s="5" t="s">
         <v>2221</v>
       </c>
-      <c r="P595" s="70">
+      <c r="P595" s="5">
         <v>19800</v>
       </c>
-      <c r="Q595" s="70" t="s">
+      <c r="Q595" s="5" t="s">
         <v>2205</v>
       </c>
-      <c r="R595" s="71" t="s">
+      <c r="R595" s="68" t="s">
         <v>2232</v>
       </c>
-      <c r="W595" s="70" t="s">
+      <c r="W595" s="5" t="s">
         <v>527</v>
       </c>
-      <c r="X595" s="70">
+      <c r="X595" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y595" s="70">
+      <c r="Y595" s="5">
         <v>1617667200</v>
       </c>
-      <c r="Z595" s="70">
+      <c r="Z595" s="5">
         <v>1618243199</v>
       </c>
-      <c r="AA595" s="70">
+      <c r="AA595" s="5">
         <v>78</v>
       </c>
-      <c r="AH595" s="70">
-        <v>1</v>
-      </c>
-      <c r="AI595" s="70">
-        <v>1</v>
-      </c>
-      <c r="AL595" s="70">
-        <v>1</v>
-      </c>
-      <c r="AM595" s="70">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="596" spans="1:39" s="70" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A596" s="70">
+      <c r="AH595" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI595" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL595" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM595" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="596" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A596" s="5">
         <v>595</v>
       </c>
-      <c r="B596" s="70">
+      <c r="B596" s="5">
         <v>10512</v>
       </c>
-      <c r="F596" s="70">
-        <v>1</v>
-      </c>
-      <c r="G596" s="70" t="s">
+      <c r="F596" s="5">
+        <v>0</v>
+      </c>
+      <c r="G596" s="5" t="s">
         <v>2233</v>
       </c>
-      <c r="I596" s="70" t="s">
+      <c r="I596" s="5" t="s">
         <v>2234</v>
       </c>
-      <c r="J596" s="70" t="s">
+      <c r="J596" s="5" t="s">
         <v>2229</v>
       </c>
-      <c r="L596" s="70">
+      <c r="L596" s="5">
         <v>-31</v>
       </c>
-      <c r="M596" s="70">
-        <v>0</v>
-      </c>
-      <c r="N596" s="70">
-        <v>0</v>
-      </c>
-      <c r="O596" s="70" t="s">
+      <c r="M596" s="5">
+        <v>0</v>
+      </c>
+      <c r="N596" s="5">
+        <v>0</v>
+      </c>
+      <c r="O596" s="5" t="s">
         <v>481</v>
       </c>
-      <c r="P596" s="70">
+      <c r="P596" s="5">
         <v>9800</v>
       </c>
-      <c r="Q596" s="70" t="s">
+      <c r="Q596" s="5" t="s">
         <v>2205</v>
       </c>
-      <c r="R596" s="71" t="s">
+      <c r="R596" s="68" t="s">
         <v>2230</v>
       </c>
-      <c r="W596" s="70" t="s">
+      <c r="W596" s="5" t="s">
         <v>527</v>
       </c>
-      <c r="X596" s="70">
+      <c r="X596" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y596" s="70">
+      <c r="Y596" s="5">
         <v>1617667200</v>
       </c>
-      <c r="Z596" s="70">
+      <c r="Z596" s="5">
         <v>1618243199</v>
       </c>
-      <c r="AA596" s="70">
+      <c r="AA596" s="5">
         <v>79</v>
       </c>
-      <c r="AH596" s="70">
-        <v>1</v>
-      </c>
-      <c r="AI596" s="70">
-        <v>1</v>
-      </c>
-      <c r="AL596" s="70">
-        <v>1</v>
-      </c>
-      <c r="AM596" s="70">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="597" spans="1:39" s="70" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A597" s="70">
+      <c r="AH596" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI596" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL596" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM596" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="597" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A597" s="5">
         <v>596</v>
       </c>
-      <c r="B597" s="70">
+      <c r="B597" s="5">
         <v>10513</v>
       </c>
-      <c r="F597" s="70">
-        <v>1</v>
-      </c>
-      <c r="G597" s="70" t="s">
+      <c r="F597" s="5">
+        <v>0</v>
+      </c>
+      <c r="G597" s="5" t="s">
         <v>2201</v>
       </c>
-      <c r="I597" s="70" t="s">
+      <c r="I597" s="5" t="s">
         <v>2006</v>
       </c>
-      <c r="J597" s="70" t="s">
+      <c r="J597" s="5" t="s">
         <v>2231</v>
       </c>
-      <c r="L597" s="70">
+      <c r="L597" s="5">
         <v>-31</v>
       </c>
-      <c r="M597" s="70">
-        <v>0</v>
-      </c>
-      <c r="N597" s="70">
-        <v>0</v>
-      </c>
-      <c r="O597" s="70" t="s">
+      <c r="M597" s="5">
+        <v>0</v>
+      </c>
+      <c r="N597" s="5">
+        <v>0</v>
+      </c>
+      <c r="O597" s="5" t="s">
         <v>481</v>
       </c>
-      <c r="P597" s="70">
+      <c r="P597" s="5">
         <v>19800</v>
       </c>
-      <c r="Q597" s="70" t="s">
+      <c r="Q597" s="5" t="s">
         <v>2211</v>
       </c>
-      <c r="R597" s="71" t="s">
+      <c r="R597" s="68" t="s">
         <v>2232</v>
       </c>
-      <c r="W597" s="70" t="s">
+      <c r="W597" s="5" t="s">
         <v>527</v>
       </c>
-      <c r="X597" s="70">
+      <c r="X597" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y597" s="70">
+      <c r="Y597" s="5">
         <v>1617667200</v>
       </c>
-      <c r="Z597" s="70">
+      <c r="Z597" s="5">
         <v>1618243199</v>
       </c>
-      <c r="AA597" s="70">
+      <c r="AA597" s="5">
         <v>79</v>
       </c>
-      <c r="AH597" s="70">
-        <v>1</v>
-      </c>
-      <c r="AI597" s="70">
-        <v>1</v>
-      </c>
-      <c r="AL597" s="70">
-        <v>1</v>
-      </c>
-      <c r="AM597" s="70">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="598" spans="1:39" s="70" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A598" s="70">
+      <c r="AH597" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI597" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL597" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM597" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="598" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A598" s="5">
         <v>597</v>
       </c>
-      <c r="B598" s="70">
+      <c r="B598" s="5">
         <v>10514</v>
       </c>
-      <c r="F598" s="70">
-        <v>1</v>
-      </c>
-      <c r="G598" s="70" t="s">
+      <c r="F598" s="5">
+        <v>0</v>
+      </c>
+      <c r="G598" s="5" t="s">
         <v>2235</v>
       </c>
-      <c r="I598" s="70" t="s">
+      <c r="I598" s="5" t="s">
         <v>2006</v>
       </c>
-      <c r="J598" s="70" t="s">
+      <c r="J598" s="5" t="s">
         <v>2236</v>
       </c>
-      <c r="L598" s="70">
+      <c r="L598" s="5">
         <v>-31</v>
       </c>
-      <c r="M598" s="70">
-        <v>0</v>
-      </c>
-      <c r="N598" s="70">
-        <v>0</v>
-      </c>
-      <c r="O598" s="70" t="s">
+      <c r="M598" s="5">
+        <v>0</v>
+      </c>
+      <c r="N598" s="5">
+        <v>0</v>
+      </c>
+      <c r="O598" s="5" t="s">
         <v>2237</v>
       </c>
-      <c r="P598" s="70">
+      <c r="P598" s="5">
         <v>49800</v>
       </c>
-      <c r="Q598" s="70" t="s">
+      <c r="Q598" s="5" t="s">
         <v>2205</v>
       </c>
-      <c r="R598" s="71" t="s">
+      <c r="R598" s="68" t="s">
         <v>2238</v>
       </c>
-      <c r="W598" s="70" t="s">
+      <c r="W598" s="5" t="s">
         <v>527</v>
       </c>
-      <c r="X598" s="70">
+      <c r="X598" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y598" s="70">
+      <c r="Y598" s="5">
         <v>1617667200</v>
       </c>
-      <c r="Z598" s="70">
+      <c r="Z598" s="5">
         <v>1618243199</v>
       </c>
-      <c r="AA598" s="70">
+      <c r="AA598" s="5">
         <v>79</v>
       </c>
-      <c r="AH598" s="70">
-        <v>1</v>
-      </c>
-      <c r="AI598" s="70">
-        <v>1</v>
-      </c>
-      <c r="AL598" s="70">
-        <v>1</v>
-      </c>
-      <c r="AM598" s="70">
+      <c r="AH598" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI598" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL598" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM598" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="599" spans="1:39" s="70" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A599" s="70">
+        <v>598</v>
+      </c>
+      <c r="B599" s="70">
+        <v>10515</v>
+      </c>
+      <c r="F599" s="70">
+        <v>1</v>
+      </c>
+      <c r="G599" s="70" t="s">
+        <v>2243</v>
+      </c>
+      <c r="I599" s="70" t="s">
+        <v>2254</v>
+      </c>
+      <c r="J599" s="70" t="s">
+        <v>2244</v>
+      </c>
+      <c r="L599" s="70">
+        <v>-31</v>
+      </c>
+      <c r="M599" s="70">
+        <v>0</v>
+      </c>
+      <c r="N599" s="70">
+        <v>0</v>
+      </c>
+      <c r="O599" s="70" t="s">
+        <v>615</v>
+      </c>
+      <c r="P599" s="70">
+        <v>600</v>
+      </c>
+      <c r="Q599" s="70" t="s">
+        <v>265</v>
+      </c>
+      <c r="R599" s="71" t="s">
+        <v>2255</v>
+      </c>
+      <c r="W599" s="70" t="s">
+        <v>1232</v>
+      </c>
+      <c r="X599" s="70">
+        <v>99999999</v>
+      </c>
+      <c r="Y599" s="70">
+        <v>1618272000</v>
+      </c>
+      <c r="Z599" s="70">
+        <v>1618847999</v>
+      </c>
+      <c r="AA599" s="70">
+        <v>80</v>
+      </c>
+      <c r="AH599" s="70">
+        <v>1</v>
+      </c>
+      <c r="AI599" s="70">
+        <v>1</v>
+      </c>
+      <c r="AL599" s="70">
+        <v>1</v>
+      </c>
+      <c r="AM599" s="70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="600" spans="1:39" s="70" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A600" s="70">
+        <v>599</v>
+      </c>
+      <c r="B600" s="70">
+        <v>10516</v>
+      </c>
+      <c r="F600" s="70">
+        <v>1</v>
+      </c>
+      <c r="G600" s="70" t="s">
+        <v>2243</v>
+      </c>
+      <c r="I600" s="70" t="s">
+        <v>2256</v>
+      </c>
+      <c r="J600" s="70" t="s">
+        <v>2245</v>
+      </c>
+      <c r="L600" s="70">
+        <v>-31</v>
+      </c>
+      <c r="M600" s="70">
+        <v>0</v>
+      </c>
+      <c r="N600" s="70">
+        <v>0</v>
+      </c>
+      <c r="O600" s="70" t="s">
+        <v>2257</v>
+      </c>
+      <c r="P600" s="70">
+        <v>1000</v>
+      </c>
+      <c r="Q600" s="70" t="s">
+        <v>265</v>
+      </c>
+      <c r="R600" s="71" t="s">
+        <v>2246</v>
+      </c>
+      <c r="W600" s="70" t="s">
+        <v>2258</v>
+      </c>
+      <c r="X600" s="70">
+        <v>99999999</v>
+      </c>
+      <c r="Y600" s="70">
+        <v>1618272000</v>
+      </c>
+      <c r="Z600" s="70">
+        <v>1618847999</v>
+      </c>
+      <c r="AA600" s="70">
+        <v>80</v>
+      </c>
+      <c r="AH600" s="70">
+        <v>1</v>
+      </c>
+      <c r="AI600" s="70">
+        <v>1</v>
+      </c>
+      <c r="AL600" s="70">
+        <v>1</v>
+      </c>
+      <c r="AM600" s="70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="601" spans="1:39" s="70" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A601" s="70">
+        <v>600</v>
+      </c>
+      <c r="B601" s="70">
+        <v>10517</v>
+      </c>
+      <c r="F601" s="70">
+        <v>1</v>
+      </c>
+      <c r="G601" s="70" t="s">
+        <v>2243</v>
+      </c>
+      <c r="I601" s="70" t="s">
+        <v>2256</v>
+      </c>
+      <c r="J601" s="70" t="s">
+        <v>2247</v>
+      </c>
+      <c r="L601" s="70">
+        <v>-31</v>
+      </c>
+      <c r="M601" s="70">
+        <v>0</v>
+      </c>
+      <c r="N601" s="70">
+        <v>0</v>
+      </c>
+      <c r="O601" s="70" t="s">
+        <v>2257</v>
+      </c>
+      <c r="P601" s="70">
+        <v>1800</v>
+      </c>
+      <c r="Q601" s="70" t="s">
+        <v>265</v>
+      </c>
+      <c r="R601" s="71" t="s">
+        <v>2259</v>
+      </c>
+      <c r="W601" s="70" t="s">
+        <v>527</v>
+      </c>
+      <c r="X601" s="70">
+        <v>99999999</v>
+      </c>
+      <c r="Y601" s="70">
+        <v>1618272000</v>
+      </c>
+      <c r="Z601" s="70">
+        <v>1618847999</v>
+      </c>
+      <c r="AA601" s="70">
+        <v>80</v>
+      </c>
+      <c r="AH601" s="70">
+        <v>1</v>
+      </c>
+      <c r="AI601" s="70">
+        <v>1</v>
+      </c>
+      <c r="AL601" s="70">
+        <v>1</v>
+      </c>
+      <c r="AM601" s="70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="602" spans="1:39" s="70" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A602" s="70">
+        <v>601</v>
+      </c>
+      <c r="B602" s="70">
+        <v>10518</v>
+      </c>
+      <c r="F602" s="70">
+        <v>1</v>
+      </c>
+      <c r="G602" s="70" t="s">
+        <v>2243</v>
+      </c>
+      <c r="I602" s="70" t="s">
+        <v>2260</v>
+      </c>
+      <c r="J602" s="70" t="s">
+        <v>2248</v>
+      </c>
+      <c r="L602" s="70">
+        <v>-31</v>
+      </c>
+      <c r="M602" s="70">
+        <v>0</v>
+      </c>
+      <c r="N602" s="70">
+        <v>0</v>
+      </c>
+      <c r="O602" s="70" t="s">
+        <v>2261</v>
+      </c>
+      <c r="P602" s="70">
+        <v>1800</v>
+      </c>
+      <c r="Q602" s="70" t="s">
+        <v>265</v>
+      </c>
+      <c r="R602" s="71" t="s">
+        <v>2262</v>
+      </c>
+      <c r="W602" s="70" t="s">
+        <v>527</v>
+      </c>
+      <c r="X602" s="70">
+        <v>99999999</v>
+      </c>
+      <c r="Y602" s="70">
+        <v>1618272000</v>
+      </c>
+      <c r="Z602" s="70">
+        <v>1618847999</v>
+      </c>
+      <c r="AA602" s="70">
+        <v>81</v>
+      </c>
+      <c r="AH602" s="70">
+        <v>1</v>
+      </c>
+      <c r="AI602" s="70">
+        <v>1</v>
+      </c>
+      <c r="AL602" s="70">
+        <v>1</v>
+      </c>
+      <c r="AM602" s="70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="603" spans="1:39" s="70" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A603" s="70">
+        <v>602</v>
+      </c>
+      <c r="B603" s="70">
+        <v>10519</v>
+      </c>
+      <c r="F603" s="70">
+        <v>1</v>
+      </c>
+      <c r="G603" s="70" t="s">
+        <v>2243</v>
+      </c>
+      <c r="I603" s="70" t="s">
+        <v>2260</v>
+      </c>
+      <c r="J603" s="70" t="s">
+        <v>2249</v>
+      </c>
+      <c r="L603" s="70">
+        <v>-31</v>
+      </c>
+      <c r="M603" s="70">
+        <v>0</v>
+      </c>
+      <c r="N603" s="70">
+        <v>0</v>
+      </c>
+      <c r="O603" s="70" t="s">
+        <v>2257</v>
+      </c>
+      <c r="P603" s="70">
+        <v>3000</v>
+      </c>
+      <c r="Q603" s="70" t="s">
+        <v>265</v>
+      </c>
+      <c r="R603" s="71" t="s">
+        <v>2263</v>
+      </c>
+      <c r="W603" s="70" t="s">
+        <v>527</v>
+      </c>
+      <c r="X603" s="70">
+        <v>99999999</v>
+      </c>
+      <c r="Y603" s="70">
+        <v>1618272000</v>
+      </c>
+      <c r="Z603" s="70">
+        <v>1618847999</v>
+      </c>
+      <c r="AA603" s="70">
+        <v>81</v>
+      </c>
+      <c r="AH603" s="70">
+        <v>1</v>
+      </c>
+      <c r="AI603" s="70">
+        <v>1</v>
+      </c>
+      <c r="AL603" s="70">
+        <v>1</v>
+      </c>
+      <c r="AM603" s="70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="604" spans="1:39" s="70" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A604" s="70">
+        <v>603</v>
+      </c>
+      <c r="B604" s="70">
+        <v>10520</v>
+      </c>
+      <c r="F604" s="70">
+        <v>1</v>
+      </c>
+      <c r="G604" s="70" t="s">
+        <v>2243</v>
+      </c>
+      <c r="I604" s="70" t="s">
+        <v>2264</v>
+      </c>
+      <c r="J604" s="70" t="s">
+        <v>2250</v>
+      </c>
+      <c r="L604" s="70">
+        <v>-31</v>
+      </c>
+      <c r="M604" s="70">
+        <v>0</v>
+      </c>
+      <c r="N604" s="70">
+        <v>0</v>
+      </c>
+      <c r="O604" s="70" t="s">
+        <v>615</v>
+      </c>
+      <c r="P604" s="70">
+        <v>4800</v>
+      </c>
+      <c r="Q604" s="70" t="s">
+        <v>265</v>
+      </c>
+      <c r="R604" s="71" t="s">
+        <v>2265</v>
+      </c>
+      <c r="W604" s="70" t="s">
+        <v>527</v>
+      </c>
+      <c r="X604" s="70">
+        <v>99999999</v>
+      </c>
+      <c r="Y604" s="70">
+        <v>1618272000</v>
+      </c>
+      <c r="Z604" s="70">
+        <v>1618847999</v>
+      </c>
+      <c r="AA604" s="70">
+        <v>81</v>
+      </c>
+      <c r="AH604" s="70">
+        <v>1</v>
+      </c>
+      <c r="AI604" s="70">
+        <v>1</v>
+      </c>
+      <c r="AL604" s="70">
+        <v>1</v>
+      </c>
+      <c r="AM604" s="70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="605" spans="1:39" s="70" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A605" s="70">
+        <v>604</v>
+      </c>
+      <c r="B605" s="70">
+        <v>10521</v>
+      </c>
+      <c r="F605" s="70">
+        <v>1</v>
+      </c>
+      <c r="G605" s="70" t="s">
+        <v>2243</v>
+      </c>
+      <c r="I605" s="70" t="s">
+        <v>2266</v>
+      </c>
+      <c r="J605" s="70" t="s">
+        <v>2250</v>
+      </c>
+      <c r="L605" s="70">
+        <v>-31</v>
+      </c>
+      <c r="M605" s="70">
+        <v>0</v>
+      </c>
+      <c r="N605" s="70">
+        <v>0</v>
+      </c>
+      <c r="O605" s="70" t="s">
+        <v>615</v>
+      </c>
+      <c r="P605" s="70">
+        <v>4800</v>
+      </c>
+      <c r="Q605" s="70" t="s">
+        <v>265</v>
+      </c>
+      <c r="R605" s="71" t="s">
+        <v>2227</v>
+      </c>
+      <c r="W605" s="70" t="s">
+        <v>527</v>
+      </c>
+      <c r="X605" s="70">
+        <v>99999999</v>
+      </c>
+      <c r="Y605" s="70">
+        <v>1618272000</v>
+      </c>
+      <c r="Z605" s="70">
+        <v>1618847999</v>
+      </c>
+      <c r="AA605" s="70">
+        <v>82</v>
+      </c>
+      <c r="AH605" s="70">
+        <v>1</v>
+      </c>
+      <c r="AI605" s="70">
+        <v>1</v>
+      </c>
+      <c r="AL605" s="70">
+        <v>1</v>
+      </c>
+      <c r="AM605" s="70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="606" spans="1:39" s="70" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A606" s="70">
+        <v>605</v>
+      </c>
+      <c r="B606" s="70">
+        <v>10522</v>
+      </c>
+      <c r="F606" s="70">
+        <v>1</v>
+      </c>
+      <c r="G606" s="70" t="s">
+        <v>2243</v>
+      </c>
+      <c r="I606" s="70" t="s">
+        <v>2226</v>
+      </c>
+      <c r="J606" s="70" t="s">
+        <v>2251</v>
+      </c>
+      <c r="L606" s="70">
+        <v>-31</v>
+      </c>
+      <c r="M606" s="70">
+        <v>0</v>
+      </c>
+      <c r="N606" s="70">
+        <v>0</v>
+      </c>
+      <c r="O606" s="70" t="s">
+        <v>2261</v>
+      </c>
+      <c r="P606" s="70">
+        <v>9800</v>
+      </c>
+      <c r="Q606" s="70" t="s">
+        <v>265</v>
+      </c>
+      <c r="R606" s="71" t="s">
+        <v>2268</v>
+      </c>
+      <c r="W606" s="70" t="s">
+        <v>527</v>
+      </c>
+      <c r="X606" s="70">
+        <v>99999999</v>
+      </c>
+      <c r="Y606" s="70">
+        <v>1618272000</v>
+      </c>
+      <c r="Z606" s="70">
+        <v>1618847999</v>
+      </c>
+      <c r="AA606" s="70">
+        <v>82</v>
+      </c>
+      <c r="AH606" s="70">
+        <v>1</v>
+      </c>
+      <c r="AI606" s="70">
+        <v>1</v>
+      </c>
+      <c r="AL606" s="70">
+        <v>1</v>
+      </c>
+      <c r="AM606" s="70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="607" spans="1:39" s="70" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A607" s="70">
+        <v>606</v>
+      </c>
+      <c r="B607" s="70">
+        <v>10523</v>
+      </c>
+      <c r="F607" s="70">
+        <v>1</v>
+      </c>
+      <c r="G607" s="70" t="s">
+        <v>2243</v>
+      </c>
+      <c r="I607" s="70" t="s">
+        <v>2226</v>
+      </c>
+      <c r="J607" s="70" t="s">
+        <v>2252</v>
+      </c>
+      <c r="L607" s="70">
+        <v>-31</v>
+      </c>
+      <c r="M607" s="70">
+        <v>0</v>
+      </c>
+      <c r="N607" s="70">
+        <v>0</v>
+      </c>
+      <c r="O607" s="70" t="s">
+        <v>615</v>
+      </c>
+      <c r="P607" s="70">
+        <v>19800</v>
+      </c>
+      <c r="Q607" s="70" t="s">
+        <v>265</v>
+      </c>
+      <c r="R607" s="71" t="s">
+        <v>2269</v>
+      </c>
+      <c r="W607" s="70" t="s">
+        <v>527</v>
+      </c>
+      <c r="X607" s="70">
+        <v>99999999</v>
+      </c>
+      <c r="Y607" s="70">
+        <v>1618272000</v>
+      </c>
+      <c r="Z607" s="70">
+        <v>1618847999</v>
+      </c>
+      <c r="AA607" s="70">
+        <v>82</v>
+      </c>
+      <c r="AH607" s="70">
+        <v>1</v>
+      </c>
+      <c r="AI607" s="70">
+        <v>1</v>
+      </c>
+      <c r="AL607" s="70">
+        <v>1</v>
+      </c>
+      <c r="AM607" s="70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="608" spans="1:39" s="70" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A608" s="70">
+        <v>607</v>
+      </c>
+      <c r="B608" s="70">
+        <v>10524</v>
+      </c>
+      <c r="F608" s="70">
+        <v>1</v>
+      </c>
+      <c r="G608" s="70" t="s">
+        <v>2243</v>
+      </c>
+      <c r="I608" s="70" t="s">
+        <v>2270</v>
+      </c>
+      <c r="J608" s="70" t="s">
+        <v>2251</v>
+      </c>
+      <c r="L608" s="70">
+        <v>-31</v>
+      </c>
+      <c r="M608" s="70">
+        <v>0</v>
+      </c>
+      <c r="N608" s="70">
+        <v>0</v>
+      </c>
+      <c r="O608" s="70" t="s">
+        <v>615</v>
+      </c>
+      <c r="P608" s="70">
+        <v>9800</v>
+      </c>
+      <c r="Q608" s="70" t="s">
+        <v>265</v>
+      </c>
+      <c r="R608" s="71" t="s">
+        <v>2267</v>
+      </c>
+      <c r="W608" s="70" t="s">
+        <v>527</v>
+      </c>
+      <c r="X608" s="70">
+        <v>99999999</v>
+      </c>
+      <c r="Y608" s="70">
+        <v>1618272000</v>
+      </c>
+      <c r="Z608" s="70">
+        <v>1618847999</v>
+      </c>
+      <c r="AA608" s="70">
+        <v>83</v>
+      </c>
+      <c r="AH608" s="70">
+        <v>1</v>
+      </c>
+      <c r="AI608" s="70">
+        <v>1</v>
+      </c>
+      <c r="AL608" s="70">
+        <v>1</v>
+      </c>
+      <c r="AM608" s="70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="609" spans="1:39" s="70" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A609" s="70">
+        <v>608</v>
+      </c>
+      <c r="B609" s="70">
+        <v>10525</v>
+      </c>
+      <c r="F609" s="70">
+        <v>1</v>
+      </c>
+      <c r="G609" s="70" t="s">
+        <v>2243</v>
+      </c>
+      <c r="I609" s="70" t="s">
+        <v>2271</v>
+      </c>
+      <c r="J609" s="70" t="s">
+        <v>2252</v>
+      </c>
+      <c r="L609" s="70">
+        <v>-31</v>
+      </c>
+      <c r="M609" s="70">
+        <v>0</v>
+      </c>
+      <c r="N609" s="70">
+        <v>0</v>
+      </c>
+      <c r="O609" s="70" t="s">
+        <v>2257</v>
+      </c>
+      <c r="P609" s="70">
+        <v>19800</v>
+      </c>
+      <c r="Q609" s="70" t="s">
+        <v>265</v>
+      </c>
+      <c r="R609" s="71" t="s">
+        <v>2272</v>
+      </c>
+      <c r="W609" s="70" t="s">
+        <v>527</v>
+      </c>
+      <c r="X609" s="70">
+        <v>99999999</v>
+      </c>
+      <c r="Y609" s="70">
+        <v>1618272000</v>
+      </c>
+      <c r="Z609" s="70">
+        <v>1618847999</v>
+      </c>
+      <c r="AA609" s="70">
+        <v>83</v>
+      </c>
+      <c r="AH609" s="70">
+        <v>1</v>
+      </c>
+      <c r="AI609" s="70">
+        <v>1</v>
+      </c>
+      <c r="AL609" s="70">
+        <v>1</v>
+      </c>
+      <c r="AM609" s="70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="610" spans="1:39" s="70" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A610" s="70">
+        <v>609</v>
+      </c>
+      <c r="B610" s="70">
+        <v>10526</v>
+      </c>
+      <c r="F610" s="70">
+        <v>1</v>
+      </c>
+      <c r="G610" s="70" t="s">
+        <v>2243</v>
+      </c>
+      <c r="I610" s="70" t="s">
+        <v>2006</v>
+      </c>
+      <c r="J610" s="70" t="s">
+        <v>2253</v>
+      </c>
+      <c r="L610" s="70">
+        <v>-31</v>
+      </c>
+      <c r="M610" s="70">
+        <v>0</v>
+      </c>
+      <c r="N610" s="70">
+        <v>0</v>
+      </c>
+      <c r="O610" s="70" t="s">
+        <v>2257</v>
+      </c>
+      <c r="P610" s="70">
+        <v>49800</v>
+      </c>
+      <c r="Q610" s="70" t="s">
+        <v>265</v>
+      </c>
+      <c r="R610" s="71" t="s">
+        <v>2273</v>
+      </c>
+      <c r="W610" s="70" t="s">
+        <v>527</v>
+      </c>
+      <c r="X610" s="70">
+        <v>99999999</v>
+      </c>
+      <c r="Y610" s="70">
+        <v>1618272000</v>
+      </c>
+      <c r="Z610" s="70">
+        <v>1618847999</v>
+      </c>
+      <c r="AA610" s="70">
+        <v>83</v>
+      </c>
+      <c r="AH610" s="70">
+        <v>1</v>
+      </c>
+      <c r="AI610" s="70">
+        <v>1</v>
+      </c>
+      <c r="AL610" s="70">
+        <v>1</v>
+      </c>
+      <c r="AM610" s="70">
         <v>1</v>
       </c>
     </row>
@@ -50819,10 +51774,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E80"/>
+  <dimension ref="A1:E84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="A77" sqref="A77:D80"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="A81" sqref="A81:D84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -51955,6 +52910,62 @@
         <v>1</v>
       </c>
       <c r="D80" s="57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81" s="12">
+        <v>80</v>
+      </c>
+      <c r="B81" s="72" t="s">
+        <v>2274</v>
+      </c>
+      <c r="C81" s="12">
+        <v>1</v>
+      </c>
+      <c r="D81" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82" s="12">
+        <v>81</v>
+      </c>
+      <c r="B82" s="72" t="s">
+        <v>2275</v>
+      </c>
+      <c r="C82" s="12">
+        <v>1</v>
+      </c>
+      <c r="D82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A83" s="12">
+        <v>82</v>
+      </c>
+      <c r="B83" s="72" t="s">
+        <v>2276</v>
+      </c>
+      <c r="C83" s="12">
+        <v>1</v>
+      </c>
+      <c r="D83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A84" s="12">
+        <v>83</v>
+      </c>
+      <c r="B84" s="72" t="s">
+        <v>2277</v>
+      </c>
+      <c r="C84" s="12">
+        <v>1</v>
+      </c>
+      <c r="D84">
         <v>0</v>
       </c>
     </row>

--- a/config_Release/shoping_config_xiaomi.xlsx
+++ b/config_Release/shoping_config_xiaomi.xlsx
@@ -214,7 +214,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5006" uniqueCount="1818">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5048" uniqueCount="1828">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -5782,6 +5782,36 @@
   </si>
   <si>
     <t>"jing_bi","prop_gold_hammer_3"</t>
+  </si>
+  <si>
+    <t>"9980万金币","300万小游戏币","铁锹*5"</t>
+  </si>
+  <si>
+    <t>"jing_bi","prop_tiny_game_coin","prop_guess_apple_bet_3"</t>
+  </si>
+  <si>
+    <t>"4980万金币","150万小游戏币","铁锹*2"</t>
+  </si>
+  <si>
+    <t>"2980万金币","90万小游戏币","阳光*12"</t>
+  </si>
+  <si>
+    <t>"jing_bi","prop_tiny_game_coin","prop_guess_apple_bet_2"</t>
+  </si>
+  <si>
+    <t>"1980万金币","60万小游戏币","阳光*8"</t>
+  </si>
+  <si>
+    <t>"980万金币","30万小游戏币","阳光*5"</t>
+  </si>
+  <si>
+    <t>"480万金币","15万小游戏币","水滴*8"</t>
+  </si>
+  <si>
+    <t>"jing_bi","prop_tiny_game_coin","prop_guess_apple_bet_1"</t>
+  </si>
+  <si>
+    <t>"180万金币","10万小游戏币","水滴*5"</t>
   </si>
   <si>
     <t>id|不能重复</t>
@@ -6680,10 +6710,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -6718,6 +6748,43 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -6733,7 +6800,45 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6748,7 +6853,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6762,53 +6867,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6822,37 +6883,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -6861,12 +6891,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -6947,13 +6977,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6965,7 +7007,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6977,19 +7049,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7001,19 +7067,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7031,25 +7085,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7061,43 +7109,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7139,20 +7169,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7168,45 +7187,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7228,9 +7208,59 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7242,10 +7272,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -7254,133 +7284,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -10130,14 +10160,14 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AIF627"/>
+  <dimension ref="A1:AIF634"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="X602" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="H611" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AB624" sqref="AB624"/>
+      <selection pane="bottomRight" activeCell="J639" sqref="J639"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -58550,6 +58580,440 @@
       <c r="AIE627"/>
       <c r="AIF627"/>
     </row>
+    <row r="628" spans="1:39">
+      <c r="A628" s="21">
+        <v>627</v>
+      </c>
+      <c r="B628" s="29">
+        <v>10544</v>
+      </c>
+      <c r="F628" s="29">
+        <v>1</v>
+      </c>
+      <c r="G628" s="29" t="s">
+        <v>1115</v>
+      </c>
+      <c r="J628" s="29" t="s">
+        <v>1614</v>
+      </c>
+      <c r="L628" s="28">
+        <v>-31</v>
+      </c>
+      <c r="M628" s="28">
+        <v>0</v>
+      </c>
+      <c r="N628" s="28">
+        <v>0</v>
+      </c>
+      <c r="O628" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="P628" s="29">
+        <v>99800</v>
+      </c>
+      <c r="Q628" s="29" t="s">
+        <v>1615</v>
+      </c>
+      <c r="R628" s="53" t="s">
+        <v>1138</v>
+      </c>
+      <c r="W628" s="28" t="s">
+        <v>481</v>
+      </c>
+      <c r="X628" s="28">
+        <v>99999999</v>
+      </c>
+      <c r="Y628" s="29">
+        <v>1621296000</v>
+      </c>
+      <c r="Z628" s="29">
+        <v>1621871999</v>
+      </c>
+      <c r="AH628" s="29">
+        <v>1</v>
+      </c>
+      <c r="AI628" s="29">
+        <v>1</v>
+      </c>
+      <c r="AL628" s="29">
+        <v>1</v>
+      </c>
+      <c r="AM628" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="629" spans="1:39">
+      <c r="A629" s="21">
+        <v>628</v>
+      </c>
+      <c r="B629" s="29">
+        <v>10545</v>
+      </c>
+      <c r="F629" s="29">
+        <v>1</v>
+      </c>
+      <c r="G629" s="29" t="s">
+        <v>1119</v>
+      </c>
+      <c r="J629" s="29" t="s">
+        <v>1616</v>
+      </c>
+      <c r="L629" s="28">
+        <v>-31</v>
+      </c>
+      <c r="M629" s="28">
+        <v>0</v>
+      </c>
+      <c r="N629" s="28">
+        <v>0</v>
+      </c>
+      <c r="O629" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="P629" s="29">
+        <v>49800</v>
+      </c>
+      <c r="Q629" s="29" t="s">
+        <v>1615</v>
+      </c>
+      <c r="R629" s="53" t="s">
+        <v>1135</v>
+      </c>
+      <c r="W629" s="28" t="s">
+        <v>481</v>
+      </c>
+      <c r="X629" s="28">
+        <v>99999999</v>
+      </c>
+      <c r="Y629" s="29">
+        <v>1621296000</v>
+      </c>
+      <c r="Z629" s="29">
+        <v>1621871999</v>
+      </c>
+      <c r="AH629" s="29">
+        <v>1</v>
+      </c>
+      <c r="AI629" s="29">
+        <v>1</v>
+      </c>
+      <c r="AL629" s="29">
+        <v>1</v>
+      </c>
+      <c r="AM629" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="630" spans="1:39">
+      <c r="A630" s="21">
+        <v>629</v>
+      </c>
+      <c r="B630" s="29">
+        <v>10546</v>
+      </c>
+      <c r="F630" s="29">
+        <v>1</v>
+      </c>
+      <c r="G630" s="29" t="s">
+        <v>1122</v>
+      </c>
+      <c r="J630" s="29" t="s">
+        <v>1617</v>
+      </c>
+      <c r="L630" s="28">
+        <v>-31</v>
+      </c>
+      <c r="M630" s="28">
+        <v>0</v>
+      </c>
+      <c r="N630" s="28">
+        <v>0</v>
+      </c>
+      <c r="O630" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="P630" s="29">
+        <v>29800</v>
+      </c>
+      <c r="Q630" s="29" t="s">
+        <v>1618</v>
+      </c>
+      <c r="R630" s="53" t="s">
+        <v>1131</v>
+      </c>
+      <c r="W630" s="28" t="s">
+        <v>481</v>
+      </c>
+      <c r="X630" s="28">
+        <v>99999999</v>
+      </c>
+      <c r="Y630" s="29">
+        <v>1621296000</v>
+      </c>
+      <c r="Z630" s="29">
+        <v>1621871999</v>
+      </c>
+      <c r="AH630" s="29">
+        <v>1</v>
+      </c>
+      <c r="AI630" s="29">
+        <v>1</v>
+      </c>
+      <c r="AL630" s="29">
+        <v>1</v>
+      </c>
+      <c r="AM630" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="631" spans="1:39">
+      <c r="A631" s="21">
+        <v>630</v>
+      </c>
+      <c r="B631" s="29">
+        <v>10547</v>
+      </c>
+      <c r="F631" s="29">
+        <v>1</v>
+      </c>
+      <c r="G631" s="29" t="s">
+        <v>1126</v>
+      </c>
+      <c r="J631" s="29" t="s">
+        <v>1619</v>
+      </c>
+      <c r="L631" s="28">
+        <v>-31</v>
+      </c>
+      <c r="M631" s="28">
+        <v>0</v>
+      </c>
+      <c r="N631" s="28">
+        <v>0</v>
+      </c>
+      <c r="O631" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="P631" s="29">
+        <v>19800</v>
+      </c>
+      <c r="Q631" s="29" t="s">
+        <v>1618</v>
+      </c>
+      <c r="R631" s="53" t="s">
+        <v>1128</v>
+      </c>
+      <c r="W631" s="28" t="s">
+        <v>481</v>
+      </c>
+      <c r="X631" s="28">
+        <v>99999999</v>
+      </c>
+      <c r="Y631" s="29">
+        <v>1621296000</v>
+      </c>
+      <c r="Z631" s="29">
+        <v>1621871999</v>
+      </c>
+      <c r="AH631" s="29">
+        <v>1</v>
+      </c>
+      <c r="AI631" s="29">
+        <v>1</v>
+      </c>
+      <c r="AL631" s="29">
+        <v>1</v>
+      </c>
+      <c r="AM631" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="632" spans="1:39">
+      <c r="A632" s="21">
+        <v>631</v>
+      </c>
+      <c r="B632" s="29">
+        <v>10548</v>
+      </c>
+      <c r="F632" s="29">
+        <v>1</v>
+      </c>
+      <c r="G632" s="29" t="s">
+        <v>1129</v>
+      </c>
+      <c r="J632" s="29" t="s">
+        <v>1620</v>
+      </c>
+      <c r="L632" s="28">
+        <v>-31</v>
+      </c>
+      <c r="M632" s="28">
+        <v>0</v>
+      </c>
+      <c r="N632" s="28">
+        <v>0</v>
+      </c>
+      <c r="O632" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="P632" s="29">
+        <v>9800</v>
+      </c>
+      <c r="Q632" s="29" t="s">
+        <v>1618</v>
+      </c>
+      <c r="R632" s="53" t="s">
+        <v>1125</v>
+      </c>
+      <c r="W632" s="28" t="s">
+        <v>481</v>
+      </c>
+      <c r="X632" s="28">
+        <v>99999999</v>
+      </c>
+      <c r="Y632" s="29">
+        <v>1621296000</v>
+      </c>
+      <c r="Z632" s="29">
+        <v>1621871999</v>
+      </c>
+      <c r="AH632" s="29">
+        <v>1</v>
+      </c>
+      <c r="AI632" s="29">
+        <v>1</v>
+      </c>
+      <c r="AL632" s="29">
+        <v>1</v>
+      </c>
+      <c r="AM632" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="633" spans="1:39">
+      <c r="A633" s="21">
+        <v>632</v>
+      </c>
+      <c r="B633" s="29">
+        <v>10549</v>
+      </c>
+      <c r="F633" s="29">
+        <v>1</v>
+      </c>
+      <c r="G633" s="29" t="s">
+        <v>1132</v>
+      </c>
+      <c r="J633" s="29" t="s">
+        <v>1621</v>
+      </c>
+      <c r="L633" s="28">
+        <v>-31</v>
+      </c>
+      <c r="M633" s="28">
+        <v>0</v>
+      </c>
+      <c r="N633" s="28">
+        <v>0</v>
+      </c>
+      <c r="O633" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="P633" s="29">
+        <v>4800</v>
+      </c>
+      <c r="Q633" s="29" t="s">
+        <v>1622</v>
+      </c>
+      <c r="R633" s="53" t="s">
+        <v>1121</v>
+      </c>
+      <c r="W633" s="28" t="s">
+        <v>481</v>
+      </c>
+      <c r="X633" s="28">
+        <v>99999999</v>
+      </c>
+      <c r="Y633" s="29">
+        <v>1621296000</v>
+      </c>
+      <c r="Z633" s="29">
+        <v>1621871999</v>
+      </c>
+      <c r="AH633" s="29">
+        <v>1</v>
+      </c>
+      <c r="AI633" s="29">
+        <v>1</v>
+      </c>
+      <c r="AL633" s="29">
+        <v>1</v>
+      </c>
+      <c r="AM633" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="634" spans="1:39">
+      <c r="A634" s="21">
+        <v>633</v>
+      </c>
+      <c r="B634" s="29">
+        <v>10550</v>
+      </c>
+      <c r="F634" s="29">
+        <v>1</v>
+      </c>
+      <c r="G634" s="29" t="s">
+        <v>1136</v>
+      </c>
+      <c r="J634" s="29" t="s">
+        <v>1623</v>
+      </c>
+      <c r="L634" s="28">
+        <v>-31</v>
+      </c>
+      <c r="M634" s="28">
+        <v>0</v>
+      </c>
+      <c r="N634" s="28">
+        <v>0</v>
+      </c>
+      <c r="O634" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="P634" s="29">
+        <v>1800</v>
+      </c>
+      <c r="Q634" s="29" t="s">
+        <v>1622</v>
+      </c>
+      <c r="R634" s="53" t="s">
+        <v>1118</v>
+      </c>
+      <c r="W634" s="28" t="s">
+        <v>481</v>
+      </c>
+      <c r="X634" s="28">
+        <v>99999999</v>
+      </c>
+      <c r="Y634" s="29">
+        <v>1621296000</v>
+      </c>
+      <c r="Z634" s="29">
+        <v>1621871999</v>
+      </c>
+      <c r="AH634" s="29">
+        <v>1</v>
+      </c>
+      <c r="AI634" s="29">
+        <v>1</v>
+      </c>
+      <c r="AL634" s="29">
+        <v>1</v>
+      </c>
+      <c r="AM634" s="29">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -58576,19 +59040,19 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="58.5" customHeight="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>1614</v>
+        <v>1624</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1615</v>
+        <v>1625</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1616</v>
+        <v>1626</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1617</v>
+        <v>1627</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1618</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="2" ht="57.75" customHeight="1" spans="1:5">
@@ -58596,7 +59060,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>1619</v>
+        <v>1629</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -58605,7 +59069,7 @@
         <v>3600</v>
       </c>
       <c r="E2" t="s">
-        <v>1620</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="3" ht="78.75" customHeight="1" spans="1:4">
@@ -58613,7 +59077,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>1621</v>
+        <v>1631</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -58627,7 +59091,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>1622</v>
+        <v>1632</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -58641,7 +59105,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>1623</v>
+        <v>1633</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -58655,7 +59119,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>1624</v>
+        <v>1634</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -58669,7 +59133,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>1625</v>
+        <v>1635</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -58683,7 +59147,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>1626</v>
+        <v>1636</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -58697,7 +59161,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>1627</v>
+        <v>1637</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -58711,7 +59175,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>1628</v>
+        <v>1638</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -58725,7 +59189,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>1629</v>
+        <v>1639</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -58739,7 +59203,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>1624</v>
+        <v>1634</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -58753,7 +59217,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>1625</v>
+        <v>1635</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -58767,7 +59231,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>1630</v>
+        <v>1640</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -58781,7 +59245,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>1631</v>
+        <v>1641</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -58795,7 +59259,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>1632</v>
+        <v>1642</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -58809,7 +59273,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>1633</v>
+        <v>1643</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -58823,7 +59287,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>1634</v>
+        <v>1644</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -58837,7 +59301,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>1635</v>
+        <v>1645</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -58851,7 +59315,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>1636</v>
+        <v>1646</v>
       </c>
       <c r="C20" s="4">
         <v>1</v>
@@ -58865,7 +59329,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>1637</v>
+        <v>1647</v>
       </c>
       <c r="C21" s="4">
         <v>1</v>
@@ -58879,7 +59343,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>1638</v>
+        <v>1648</v>
       </c>
       <c r="C22" s="4">
         <v>1</v>
@@ -58893,7 +59357,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>1639</v>
+        <v>1649</v>
       </c>
       <c r="C23" s="4">
         <v>1</v>
@@ -58907,7 +59371,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>1640</v>
+        <v>1650</v>
       </c>
       <c r="C24" s="4">
         <v>1</v>
@@ -58921,7 +59385,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>1641</v>
+        <v>1651</v>
       </c>
       <c r="C25" s="4">
         <v>1</v>
@@ -58935,7 +59399,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>1642</v>
+        <v>1652</v>
       </c>
       <c r="C26" s="4">
         <v>1</v>
@@ -58949,7 +59413,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>1643</v>
+        <v>1653</v>
       </c>
       <c r="C27" s="2">
         <v>1</v>
@@ -58963,7 +59427,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>1644</v>
+        <v>1654</v>
       </c>
       <c r="C28" s="2">
         <v>1</v>
@@ -58977,7 +59441,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>1645</v>
+        <v>1655</v>
       </c>
       <c r="C29" s="2">
         <v>1</v>
@@ -58991,7 +59455,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>1646</v>
+        <v>1656</v>
       </c>
       <c r="C30" s="2">
         <v>1</v>
@@ -59005,7 +59469,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>1647</v>
+        <v>1657</v>
       </c>
       <c r="C31" s="2">
         <v>1</v>
@@ -59019,7 +59483,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>1648</v>
+        <v>1658</v>
       </c>
       <c r="C32" s="2">
         <v>1</v>
@@ -59033,7 +59497,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>1649</v>
+        <v>1659</v>
       </c>
       <c r="C33" s="2">
         <v>1</v>
@@ -59047,7 +59511,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>1650</v>
+        <v>1660</v>
       </c>
       <c r="C34" s="2">
         <v>1</v>
@@ -59061,7 +59525,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>1651</v>
+        <v>1661</v>
       </c>
       <c r="C35" s="2">
         <v>1</v>
@@ -59075,7 +59539,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>1652</v>
+        <v>1662</v>
       </c>
       <c r="C36" s="2">
         <v>1</v>
@@ -59089,7 +59553,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>1653</v>
+        <v>1663</v>
       </c>
       <c r="C37" s="2">
         <v>1</v>
@@ -59103,7 +59567,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>1654</v>
+        <v>1664</v>
       </c>
       <c r="C38" s="2">
         <v>1</v>
@@ -59117,7 +59581,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>1655</v>
+        <v>1665</v>
       </c>
       <c r="C39" s="2">
         <v>1</v>
@@ -59131,7 +59595,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>1656</v>
+        <v>1666</v>
       </c>
       <c r="C40" s="2">
         <v>1</v>
@@ -59145,7 +59609,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>1657</v>
+        <v>1667</v>
       </c>
       <c r="C41" s="2">
         <v>1</v>
@@ -59159,7 +59623,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>1658</v>
+        <v>1668</v>
       </c>
       <c r="C42" s="2">
         <v>1</v>
@@ -59173,7 +59637,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>1659</v>
+        <v>1669</v>
       </c>
       <c r="C43" s="2">
         <v>1</v>
@@ -59187,7 +59651,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>1660</v>
+        <v>1670</v>
       </c>
       <c r="C44" s="2">
         <v>1</v>
@@ -59201,7 +59665,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>1661</v>
+        <v>1671</v>
       </c>
       <c r="C45" s="2">
         <v>1</v>
@@ -59215,7 +59679,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>1662</v>
+        <v>1672</v>
       </c>
       <c r="C46" s="2">
         <v>1</v>
@@ -59229,7 +59693,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>1663</v>
+        <v>1673</v>
       </c>
       <c r="C47" s="2">
         <v>1</v>
@@ -59243,7 +59707,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>1664</v>
+        <v>1674</v>
       </c>
       <c r="C48" s="2">
         <v>1</v>
@@ -59257,7 +59721,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>1665</v>
+        <v>1675</v>
       </c>
       <c r="C49" s="2">
         <v>1</v>
@@ -59271,7 +59735,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>1666</v>
+        <v>1676</v>
       </c>
       <c r="C50" s="2">
         <v>1</v>
@@ -59285,7 +59749,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>1667</v>
+        <v>1677</v>
       </c>
       <c r="C51" s="2">
         <v>1</v>
@@ -59299,7 +59763,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>1668</v>
+        <v>1678</v>
       </c>
       <c r="C52" s="2">
         <v>1</v>
@@ -59313,7 +59777,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>1669</v>
+        <v>1679</v>
       </c>
       <c r="C53" s="2">
         <v>1</v>
@@ -59327,7 +59791,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>1670</v>
+        <v>1680</v>
       </c>
       <c r="C54" s="2">
         <v>1</v>
@@ -59341,7 +59805,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>1671</v>
+        <v>1681</v>
       </c>
       <c r="C55" s="2">
         <v>1</v>
@@ -59355,7 +59819,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>1672</v>
+        <v>1682</v>
       </c>
       <c r="C56" s="2">
         <v>1</v>
@@ -59369,7 +59833,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>1673</v>
+        <v>1683</v>
       </c>
       <c r="C57" s="2">
         <v>1</v>
@@ -59383,7 +59847,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>1674</v>
+        <v>1684</v>
       </c>
       <c r="C58" s="2">
         <v>1</v>
@@ -59397,7 +59861,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>1675</v>
+        <v>1685</v>
       </c>
       <c r="C59" s="2">
         <v>1</v>
@@ -59411,7 +59875,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>1676</v>
+        <v>1686</v>
       </c>
       <c r="C60" s="2">
         <v>1</v>
@@ -59425,7 +59889,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>1677</v>
+        <v>1687</v>
       </c>
       <c r="C61" s="2">
         <v>1</v>
@@ -59439,7 +59903,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>1678</v>
+        <v>1688</v>
       </c>
       <c r="C62" s="2">
         <v>1</v>
@@ -59453,7 +59917,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>1679</v>
+        <v>1689</v>
       </c>
       <c r="C63" s="2">
         <v>1</v>
@@ -59467,7 +59931,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>1680</v>
+        <v>1690</v>
       </c>
       <c r="C64" s="2">
         <v>1</v>
@@ -59481,7 +59945,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>1681</v>
+        <v>1691</v>
       </c>
       <c r="C65" s="2">
         <v>1</v>
@@ -59495,7 +59959,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>1682</v>
+        <v>1692</v>
       </c>
       <c r="C66" s="2">
         <v>1</v>
@@ -59509,7 +59973,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>1683</v>
+        <v>1693</v>
       </c>
       <c r="C67" s="2">
         <v>1</v>
@@ -59523,7 +59987,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>1684</v>
+        <v>1694</v>
       </c>
       <c r="C68" s="2">
         <v>1</v>
@@ -59537,7 +60001,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>1685</v>
+        <v>1695</v>
       </c>
       <c r="C69" s="2">
         <v>1</v>
@@ -59551,7 +60015,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>1686</v>
+        <v>1696</v>
       </c>
       <c r="C70" s="2">
         <v>1</v>
@@ -59565,7 +60029,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="18" t="s">
-        <v>1687</v>
+        <v>1697</v>
       </c>
       <c r="C71" s="19">
         <v>1</v>
@@ -59579,7 +60043,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="18" t="s">
-        <v>1688</v>
+        <v>1698</v>
       </c>
       <c r="C72" s="19">
         <v>1</v>
@@ -59593,7 +60057,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="18" t="s">
-        <v>1689</v>
+        <v>1699</v>
       </c>
       <c r="C73" s="19">
         <v>1</v>
@@ -59607,7 +60071,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="18" t="s">
-        <v>1690</v>
+        <v>1700</v>
       </c>
       <c r="C74" s="19">
         <v>1</v>
@@ -59621,7 +60085,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="18" t="s">
-        <v>1691</v>
+        <v>1701</v>
       </c>
       <c r="C75" s="19">
         <v>1</v>
@@ -59635,7 +60099,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="18" t="s">
-        <v>1692</v>
+        <v>1702</v>
       </c>
       <c r="C76" s="19">
         <v>1</v>
@@ -59649,7 +60113,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="18" t="s">
-        <v>1693</v>
+        <v>1703</v>
       </c>
       <c r="C77" s="19">
         <v>1</v>
@@ -59663,7 +60127,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="18" t="s">
-        <v>1694</v>
+        <v>1704</v>
       </c>
       <c r="C78" s="19">
         <v>1</v>
@@ -59677,7 +60141,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="18" t="s">
-        <v>1695</v>
+        <v>1705</v>
       </c>
       <c r="C79" s="19">
         <v>1</v>
@@ -59691,7 +60155,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="18" t="s">
-        <v>1696</v>
+        <v>1706</v>
       </c>
       <c r="C80" s="19">
         <v>1</v>
@@ -59705,7 +60169,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="20" t="s">
-        <v>1697</v>
+        <v>1707</v>
       </c>
       <c r="C81" s="2">
         <v>1</v>
@@ -59719,7 +60183,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="20" t="s">
-        <v>1698</v>
+        <v>1708</v>
       </c>
       <c r="C82" s="2">
         <v>1</v>
@@ -59733,7 +60197,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="20" t="s">
-        <v>1699</v>
+        <v>1709</v>
       </c>
       <c r="C83" s="2">
         <v>1</v>
@@ -59747,7 +60211,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="20" t="s">
-        <v>1700</v>
+        <v>1710</v>
       </c>
       <c r="C84" s="2">
         <v>1</v>
@@ -59761,7 +60225,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="20" t="s">
-        <v>1701</v>
+        <v>1711</v>
       </c>
       <c r="C85">
         <v>1</v>
@@ -59813,7 +60277,7 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="90" customHeight="1" spans="1:29">
       <c r="A1" s="1" t="s">
-        <v>1702</v>
+        <v>1712</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>22</v>
@@ -59825,19 +60289,19 @@
         <v>25</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1703</v>
+        <v>1713</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>1704</v>
+        <v>1714</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>1705</v>
+        <v>1715</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>1706</v>
+        <v>1716</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>1707</v>
+        <v>1717</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>31</v>
@@ -59852,7 +60316,7 @@
         <v>38</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>1708</v>
+        <v>1718</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>39</v>
@@ -59897,7 +60361,7 @@
         <v>52</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>1709</v>
+        <v>1719</v>
       </c>
     </row>
     <row r="2" s="12" customFormat="1" spans="1:26">
@@ -59917,7 +60381,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>1710</v>
+        <v>1720</v>
       </c>
       <c r="G2" s="12">
         <v>480</v>
@@ -59944,22 +60408,22 @@
         <v>3</v>
       </c>
       <c r="P2" s="15" t="s">
-        <v>1711</v>
+        <v>1721</v>
       </c>
       <c r="Q2" s="15" t="s">
-        <v>1712</v>
+        <v>1722</v>
       </c>
       <c r="S2" s="15" t="s">
-        <v>1713</v>
+        <v>1723</v>
       </c>
       <c r="T2" s="12" t="s">
         <v>61</v>
       </c>
       <c r="U2" s="15" t="s">
-        <v>1714</v>
+        <v>1724</v>
       </c>
       <c r="V2" s="12" t="s">
-        <v>1715</v>
+        <v>1725</v>
       </c>
       <c r="Y2" s="12">
         <v>1</v>
@@ -59985,7 +60449,7 @@
         <v>2</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>1710</v>
+        <v>1720</v>
       </c>
       <c r="G3" s="12">
         <v>1200</v>
@@ -60015,19 +60479,19 @@
         <v>127</v>
       </c>
       <c r="Q3" s="15" t="s">
-        <v>1716</v>
+        <v>1726</v>
       </c>
       <c r="S3" s="15" t="s">
-        <v>1713</v>
+        <v>1723</v>
       </c>
       <c r="T3" s="12" t="s">
         <v>66</v>
       </c>
       <c r="U3" s="15" t="s">
-        <v>1717</v>
+        <v>1727</v>
       </c>
       <c r="V3" s="12" t="s">
-        <v>1715</v>
+        <v>1725</v>
       </c>
       <c r="Y3" s="12">
         <v>1</v>
@@ -60053,7 +60517,7 @@
         <v>3</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>1710</v>
+        <v>1720</v>
       </c>
       <c r="G4" s="12">
         <v>2400</v>
@@ -60080,22 +60544,22 @@
         <v>5</v>
       </c>
       <c r="P4" s="15" t="s">
-        <v>1718</v>
+        <v>1728</v>
       </c>
       <c r="Q4" s="15" t="s">
-        <v>1719</v>
+        <v>1729</v>
       </c>
       <c r="S4" s="15" t="s">
-        <v>1713</v>
+        <v>1723</v>
       </c>
       <c r="T4" s="12" t="s">
         <v>70</v>
       </c>
       <c r="U4" s="12" t="s">
-        <v>1720</v>
+        <v>1730</v>
       </c>
       <c r="V4" s="12" t="s">
-        <v>1715</v>
+        <v>1725</v>
       </c>
       <c r="Y4" s="12">
         <v>1</v>
@@ -60121,7 +60585,7 @@
         <v>4</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>1710</v>
+        <v>1720</v>
       </c>
       <c r="G5" s="12">
         <v>4000</v>
@@ -60148,22 +60612,22 @@
         <v>6</v>
       </c>
       <c r="P5" s="15" t="s">
-        <v>1721</v>
+        <v>1731</v>
       </c>
       <c r="Q5" s="15" t="s">
-        <v>1722</v>
+        <v>1732</v>
       </c>
       <c r="S5" s="15" t="s">
-        <v>1713</v>
+        <v>1723</v>
       </c>
       <c r="T5" s="12" t="s">
         <v>74</v>
       </c>
       <c r="U5" s="15" t="s">
-        <v>1723</v>
+        <v>1733</v>
       </c>
       <c r="V5" s="12" t="s">
-        <v>1715</v>
+        <v>1725</v>
       </c>
       <c r="Y5" s="12">
         <v>1</v>
@@ -60189,7 +60653,7 @@
         <v>5</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>1710</v>
+        <v>1720</v>
       </c>
       <c r="G6" s="12">
         <v>7840</v>
@@ -60216,22 +60680,22 @@
         <v>7</v>
       </c>
       <c r="P6" s="15" t="s">
-        <v>1724</v>
+        <v>1734</v>
       </c>
       <c r="Q6" s="15" t="s">
-        <v>1725</v>
+        <v>1735</v>
       </c>
       <c r="S6" s="15" t="s">
-        <v>1713</v>
+        <v>1723</v>
       </c>
       <c r="T6" s="12" t="s">
         <v>78</v>
       </c>
       <c r="U6" s="12" t="s">
-        <v>1726</v>
+        <v>1736</v>
       </c>
       <c r="V6" s="12" t="s">
-        <v>1715</v>
+        <v>1725</v>
       </c>
       <c r="Y6" s="12">
         <v>1</v>
@@ -60257,7 +60721,7 @@
         <v>6</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>1710</v>
+        <v>1720</v>
       </c>
       <c r="G7" s="12">
         <v>39840</v>
@@ -60284,22 +60748,22 @@
         <v>9</v>
       </c>
       <c r="P7" s="15" t="s">
-        <v>1727</v>
+        <v>1737</v>
       </c>
       <c r="Q7" s="15" t="s">
-        <v>1728</v>
+        <v>1738</v>
       </c>
       <c r="S7" s="15" t="s">
-        <v>1713</v>
+        <v>1723</v>
       </c>
       <c r="T7" s="12" t="s">
         <v>82</v>
       </c>
       <c r="U7" s="12" t="s">
-        <v>1729</v>
+        <v>1739</v>
       </c>
       <c r="V7" s="12" t="s">
-        <v>1715</v>
+        <v>1725</v>
       </c>
       <c r="Y7" s="12">
         <v>1</v>
@@ -60322,7 +60786,7 @@
         <v>1</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>1710</v>
+        <v>1720</v>
       </c>
       <c r="G8" s="12">
         <v>120</v>
@@ -60349,22 +60813,22 @@
         <v>0</v>
       </c>
       <c r="P8" s="15" t="s">
-        <v>1730</v>
+        <v>1740</v>
       </c>
       <c r="Q8" s="15" t="s">
-        <v>1731</v>
+        <v>1741</v>
       </c>
       <c r="S8" s="15" t="s">
-        <v>1713</v>
+        <v>1723</v>
       </c>
       <c r="T8" s="12" t="s">
         <v>61</v>
       </c>
       <c r="U8" s="15" t="s">
-        <v>1714</v>
+        <v>1724</v>
       </c>
       <c r="V8" s="12" t="s">
-        <v>1715</v>
+        <v>1725</v>
       </c>
       <c r="Y8" s="12">
         <v>1</v>
@@ -60388,7 +60852,7 @@
         <v>5</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>1732</v>
+        <v>1742</v>
       </c>
       <c r="G9" s="13">
         <v>5000</v>
@@ -60416,10 +60880,10 @@
         <v>2</v>
       </c>
       <c r="P9" s="16" t="s">
-        <v>1733</v>
+        <v>1743</v>
       </c>
       <c r="Q9" s="16" t="s">
-        <v>1734</v>
+        <v>1744</v>
       </c>
       <c r="R9" s="13"/>
       <c r="S9" s="13"/>
@@ -60427,10 +60891,10 @@
         <v>5000</v>
       </c>
       <c r="U9" s="13" t="s">
-        <v>1723</v>
+        <v>1733</v>
       </c>
       <c r="V9" s="13" t="s">
-        <v>1715</v>
+        <v>1725</v>
       </c>
       <c r="W9" s="13"/>
       <c r="X9" s="13"/>
@@ -60443,7 +60907,7 @@
       <c r="AA9" s="13"/>
       <c r="AB9" s="13"/>
       <c r="AC9" s="16" t="s">
-        <v>1735</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="10" s="12" customFormat="1" spans="1:29">
@@ -60461,7 +60925,7 @@
         <v>2</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>1732</v>
+        <v>1742</v>
       </c>
       <c r="G10" s="13">
         <v>1000</v>
@@ -60489,10 +60953,10 @@
         <v>1</v>
       </c>
       <c r="P10" s="16" t="s">
-        <v>1736</v>
+        <v>1746</v>
       </c>
       <c r="Q10" s="16" t="s">
-        <v>1737</v>
+        <v>1747</v>
       </c>
       <c r="R10" s="13"/>
       <c r="S10" s="13"/>
@@ -60500,10 +60964,10 @@
         <v>1000</v>
       </c>
       <c r="U10" s="13" t="s">
-        <v>1717</v>
+        <v>1727</v>
       </c>
       <c r="V10" s="13" t="s">
-        <v>1715</v>
+        <v>1725</v>
       </c>
       <c r="W10" s="13"/>
       <c r="X10" s="13"/>
@@ -60516,7 +60980,7 @@
       <c r="AA10" s="13"/>
       <c r="AB10" s="13"/>
       <c r="AC10" s="16" t="s">
-        <v>1738</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="11" s="12" customFormat="1" spans="1:26">
@@ -60533,7 +60997,7 @@
         <v>2</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>1710</v>
+        <v>1720</v>
       </c>
       <c r="G11" s="12">
         <v>1200</v>
@@ -60563,19 +61027,19 @@
         <v>127</v>
       </c>
       <c r="Q11" s="15" t="s">
-        <v>1716</v>
+        <v>1726</v>
       </c>
       <c r="S11" s="15" t="s">
-        <v>1713</v>
+        <v>1723</v>
       </c>
       <c r="T11" s="15" t="s">
         <v>66</v>
       </c>
       <c r="U11" s="12" t="s">
-        <v>1717</v>
+        <v>1727</v>
       </c>
       <c r="V11" s="12" t="s">
-        <v>1715</v>
+        <v>1725</v>
       </c>
       <c r="Y11" s="12">
         <v>1</v>
@@ -60601,7 +61065,7 @@
         <v>107</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>1710</v>
+        <v>1720</v>
       </c>
       <c r="G12" s="12">
         <v>120000</v>
@@ -60628,22 +61092,22 @@
         <v>9</v>
       </c>
       <c r="P12" s="15" t="s">
-        <v>1739</v>
+        <v>1749</v>
       </c>
       <c r="Q12" s="15" t="s">
-        <v>1740</v>
+        <v>1750</v>
       </c>
       <c r="S12" s="15" t="s">
-        <v>1713</v>
+        <v>1723</v>
       </c>
       <c r="T12" s="12" t="s">
         <v>86</v>
       </c>
       <c r="U12" s="12" t="s">
-        <v>1741</v>
+        <v>1751</v>
       </c>
       <c r="V12" s="12" t="s">
-        <v>1715</v>
+        <v>1725</v>
       </c>
       <c r="Y12" s="12">
         <v>1</v>
@@ -60669,7 +61133,7 @@
         <v>108</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>1710</v>
+        <v>1720</v>
       </c>
       <c r="G13" s="12">
         <v>79840</v>
@@ -60696,22 +61160,22 @@
         <v>10</v>
       </c>
       <c r="P13" s="15" t="s">
-        <v>1742</v>
+        <v>1752</v>
       </c>
       <c r="Q13" s="15" t="s">
-        <v>1743</v>
+        <v>1753</v>
       </c>
       <c r="S13" s="15" t="s">
-        <v>1713</v>
+        <v>1723</v>
       </c>
       <c r="T13" s="12" t="s">
-        <v>1744</v>
+        <v>1754</v>
       </c>
       <c r="U13" s="12" t="s">
-        <v>1741</v>
+        <v>1751</v>
       </c>
       <c r="V13" s="12" t="s">
-        <v>1715</v>
+        <v>1725</v>
       </c>
       <c r="Y13" s="12">
         <v>1</v>
@@ -60737,7 +61201,7 @@
         <v>110</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>1710</v>
+        <v>1720</v>
       </c>
       <c r="G14" s="12">
         <v>199840</v>
@@ -60764,22 +61228,22 @@
         <v>11</v>
       </c>
       <c r="P14" s="15" t="s">
-        <v>1745</v>
+        <v>1755</v>
       </c>
       <c r="Q14" s="15" t="s">
-        <v>1746</v>
+        <v>1756</v>
       </c>
       <c r="S14" s="15" t="s">
-        <v>1747</v>
+        <v>1757</v>
       </c>
       <c r="T14" s="12" t="s">
-        <v>1748</v>
+        <v>1758</v>
       </c>
       <c r="U14" s="12" t="s">
-        <v>1749</v>
+        <v>1759</v>
       </c>
       <c r="V14" s="12" t="s">
-        <v>1715</v>
+        <v>1725</v>
       </c>
       <c r="Y14" s="12">
         <v>1</v>
@@ -60803,7 +61267,7 @@
         <v>1</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>1732</v>
+        <v>1742</v>
       </c>
       <c r="G15" s="13">
         <v>100</v>
@@ -60833,10 +61297,10 @@
         <v>0</v>
       </c>
       <c r="P15" s="16" t="s">
-        <v>1750</v>
+        <v>1760</v>
       </c>
       <c r="Q15" s="16" t="s">
-        <v>1751</v>
+        <v>1761</v>
       </c>
       <c r="R15" s="13"/>
       <c r="S15" s="16"/>
@@ -60844,10 +61308,10 @@
         <v>100</v>
       </c>
       <c r="U15" s="16" t="s">
-        <v>1714</v>
+        <v>1724</v>
       </c>
       <c r="V15" s="13" t="s">
-        <v>1715</v>
+        <v>1725</v>
       </c>
       <c r="W15" s="13"/>
       <c r="X15" s="13"/>
@@ -60860,7 +61324,7 @@
       <c r="AA15" s="13"/>
       <c r="AB15" s="13"/>
       <c r="AC15" s="16" t="s">
-        <v>1752</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="16" s="12" customFormat="1" spans="1:26">
@@ -60880,7 +61344,7 @@
         <v>101</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>1710</v>
+        <v>1720</v>
       </c>
       <c r="G16" s="12">
         <v>2000</v>
@@ -60907,23 +61371,23 @@
         <v>3</v>
       </c>
       <c r="P16" s="15" t="s">
-        <v>1753</v>
+        <v>1763</v>
       </c>
       <c r="Q16" s="15" t="s">
-        <v>1754</v>
+        <v>1764</v>
       </c>
       <c r="R16" s="2"/>
       <c r="S16" s="15" t="s">
-        <v>1713</v>
+        <v>1723</v>
       </c>
       <c r="T16" s="12" t="s">
         <v>101</v>
       </c>
       <c r="U16" s="15" t="s">
-        <v>1714</v>
+        <v>1724</v>
       </c>
       <c r="V16" s="12" t="s">
-        <v>1715</v>
+        <v>1725</v>
       </c>
       <c r="W16" s="2"/>
       <c r="X16" s="2"/>
@@ -60948,7 +61412,7 @@
         <v>102</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>1710</v>
+        <v>1720</v>
       </c>
       <c r="G17" s="12">
         <v>6700</v>
@@ -60975,23 +61439,23 @@
         <v>4</v>
       </c>
       <c r="P17" s="15" t="s">
-        <v>1755</v>
+        <v>1765</v>
       </c>
       <c r="Q17" s="15" t="s">
-        <v>1756</v>
+        <v>1766</v>
       </c>
       <c r="R17" s="2"/>
       <c r="S17" s="15" t="s">
-        <v>1713</v>
+        <v>1723</v>
       </c>
       <c r="T17" s="12" t="s">
         <v>105</v>
       </c>
       <c r="U17" s="12" t="s">
-        <v>1720</v>
+        <v>1730</v>
       </c>
       <c r="V17" s="12" t="s">
-        <v>1715</v>
+        <v>1725</v>
       </c>
       <c r="W17" s="2"/>
       <c r="X17" s="2"/>
@@ -61016,7 +61480,7 @@
         <v>103</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>1710</v>
+        <v>1720</v>
       </c>
       <c r="G18" s="12">
         <v>13200</v>
@@ -61043,23 +61507,23 @@
         <v>5</v>
       </c>
       <c r="P18" s="15" t="s">
-        <v>1757</v>
+        <v>1767</v>
       </c>
       <c r="Q18" s="15" t="s">
-        <v>1758</v>
+        <v>1768</v>
       </c>
       <c r="R18" s="2"/>
       <c r="S18" s="15" t="s">
-        <v>1713</v>
+        <v>1723</v>
       </c>
       <c r="T18" s="12" t="s">
         <v>109</v>
       </c>
       <c r="U18" s="12" t="s">
-        <v>1726</v>
+        <v>1736</v>
       </c>
       <c r="V18" s="12" t="s">
-        <v>1715</v>
+        <v>1725</v>
       </c>
       <c r="W18" s="2"/>
       <c r="X18" s="2"/>
@@ -61084,7 +61548,7 @@
         <v>104</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>1710</v>
+        <v>1720</v>
       </c>
       <c r="G19" s="12">
         <v>20400</v>
@@ -61111,23 +61575,23 @@
         <v>6</v>
       </c>
       <c r="P19" s="15" t="s">
-        <v>1759</v>
+        <v>1769</v>
       </c>
       <c r="Q19" s="15" t="s">
-        <v>1760</v>
+        <v>1770</v>
       </c>
       <c r="R19" s="2"/>
       <c r="S19" s="15" t="s">
-        <v>1713</v>
+        <v>1723</v>
       </c>
       <c r="T19" s="12" t="s">
         <v>114</v>
       </c>
       <c r="U19" s="15" t="s">
-        <v>1761</v>
+        <v>1771</v>
       </c>
       <c r="V19" s="12" t="s">
-        <v>1715</v>
+        <v>1725</v>
       </c>
       <c r="W19" s="2"/>
       <c r="X19" s="2"/>
@@ -61152,7 +61616,7 @@
         <v>105</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>1710</v>
+        <v>1720</v>
       </c>
       <c r="G20" s="12">
         <v>66</v>
@@ -61179,22 +61643,22 @@
         <v>7</v>
       </c>
       <c r="P20" s="15" t="s">
-        <v>1762</v>
+        <v>1772</v>
       </c>
       <c r="Q20" s="15" t="s">
-        <v>1763</v>
+        <v>1773</v>
       </c>
       <c r="S20" s="15" t="s">
-        <v>1713</v>
+        <v>1723</v>
       </c>
       <c r="T20" s="12" t="s">
         <v>120</v>
       </c>
       <c r="U20" s="12" t="s">
-        <v>1761</v>
+        <v>1771</v>
       </c>
       <c r="V20" s="12" t="s">
-        <v>1715</v>
+        <v>1725</v>
       </c>
       <c r="Y20" s="12">
         <v>1</v>
@@ -61218,7 +61682,7 @@
         <v>101</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>1710</v>
+        <v>1720</v>
       </c>
       <c r="G21" s="12">
         <v>200</v>
@@ -61249,20 +61713,20 @@
         <v>890</v>
       </c>
       <c r="Q21" s="15" t="s">
-        <v>1764</v>
+        <v>1774</v>
       </c>
       <c r="R21" s="12"/>
       <c r="S21" s="15" t="s">
-        <v>1713</v>
+        <v>1723</v>
       </c>
       <c r="T21" s="12" t="s">
         <v>124</v>
       </c>
       <c r="U21" s="15" t="s">
-        <v>1714</v>
+        <v>1724</v>
       </c>
       <c r="V21" s="12" t="s">
-        <v>1715</v>
+        <v>1725</v>
       </c>
       <c r="W21" s="12"/>
       <c r="X21" s="12"/>
@@ -61291,7 +61755,7 @@
         <v>104</v>
       </c>
       <c r="F22" s="13" t="s">
-        <v>1732</v>
+        <v>1742</v>
       </c>
       <c r="G22" s="13">
         <v>5000</v>
@@ -61319,10 +61783,10 @@
         <v>2</v>
       </c>
       <c r="P22" s="16" t="s">
-        <v>1733</v>
+        <v>1743</v>
       </c>
       <c r="Q22" s="16" t="s">
-        <v>1734</v>
+        <v>1744</v>
       </c>
       <c r="R22" s="13"/>
       <c r="S22" s="16"/>
@@ -61330,10 +61794,10 @@
         <v>5000</v>
       </c>
       <c r="U22" s="16" t="s">
-        <v>1723</v>
+        <v>1733</v>
       </c>
       <c r="V22" s="13" t="s">
-        <v>1715</v>
+        <v>1725</v>
       </c>
       <c r="W22" s="13"/>
       <c r="X22" s="13"/>
@@ -61362,7 +61826,7 @@
         <v>102</v>
       </c>
       <c r="F23" s="13" t="s">
-        <v>1732</v>
+        <v>1742</v>
       </c>
       <c r="G23" s="13">
         <v>1000</v>
@@ -61390,10 +61854,10 @@
         <v>1</v>
       </c>
       <c r="P23" s="16" t="s">
-        <v>1736</v>
+        <v>1746</v>
       </c>
       <c r="Q23" s="16" t="s">
-        <v>1737</v>
+        <v>1747</v>
       </c>
       <c r="R23" s="13"/>
       <c r="S23" s="16"/>
@@ -61401,10 +61865,10 @@
         <v>1000</v>
       </c>
       <c r="U23" s="16" t="s">
-        <v>1714</v>
+        <v>1724</v>
       </c>
       <c r="V23" s="13" t="s">
-        <v>1715</v>
+        <v>1725</v>
       </c>
       <c r="W23" s="13"/>
       <c r="X23" s="13"/>
@@ -61426,14 +61890,14 @@
         <v>109</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>1765</v>
+        <v>1775</v>
       </c>
       <c r="D24" s="13"/>
       <c r="E24" s="13">
         <v>101</v>
       </c>
       <c r="F24" s="13" t="s">
-        <v>1732</v>
+        <v>1742</v>
       </c>
       <c r="G24" s="13">
         <v>100</v>
@@ -61463,10 +61927,10 @@
         <v>0</v>
       </c>
       <c r="P24" s="16" t="s">
-        <v>1750</v>
+        <v>1760</v>
       </c>
       <c r="Q24" s="16" t="s">
-        <v>1751</v>
+        <v>1761</v>
       </c>
       <c r="R24" s="13"/>
       <c r="S24" s="16"/>
@@ -61474,10 +61938,10 @@
         <v>100</v>
       </c>
       <c r="U24" s="16" t="s">
-        <v>1714</v>
+        <v>1724</v>
       </c>
       <c r="V24" s="13" t="s">
-        <v>1715</v>
+        <v>1725</v>
       </c>
       <c r="W24" s="13"/>
       <c r="X24" s="13"/>
@@ -61490,7 +61954,7 @@
       <c r="AA24" s="13"/>
       <c r="AB24" s="13"/>
       <c r="AC24" s="16" t="s">
-        <v>1752</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="25" s="12" customFormat="1" spans="1:26">
@@ -61510,7 +61974,7 @@
         <v>111</v>
       </c>
       <c r="F25" s="15" t="s">
-        <v>1710</v>
+        <v>1720</v>
       </c>
       <c r="G25" s="12">
         <v>15840</v>
@@ -61537,22 +62001,22 @@
         <v>8</v>
       </c>
       <c r="P25" s="15" t="s">
-        <v>1766</v>
+        <v>1776</v>
       </c>
       <c r="Q25" s="15" t="s">
-        <v>1767</v>
+        <v>1777</v>
       </c>
       <c r="S25" s="15" t="s">
-        <v>1713</v>
+        <v>1723</v>
       </c>
       <c r="T25" s="15" t="s">
-        <v>1768</v>
+        <v>1778</v>
       </c>
       <c r="U25" s="15" t="s">
-        <v>1761</v>
+        <v>1771</v>
       </c>
       <c r="V25" s="12" t="s">
-        <v>1715</v>
+        <v>1725</v>
       </c>
       <c r="Y25" s="12">
         <v>1</v>
@@ -61615,13 +62079,13 @@
         <v>33</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1704</v>
+        <v>1714</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>1705</v>
+        <v>1715</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>1769</v>
+        <v>1779</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>31</v>
@@ -61633,16 +62097,16 @@
         <v>155</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>1770</v>
+        <v>1780</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>1771</v>
+        <v>1781</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>1772</v>
+        <v>1782</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>1773</v>
+        <v>1783</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>38</v>
@@ -61683,7 +62147,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>1774</v>
+        <v>1784</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>14</v>
@@ -61695,7 +62159,7 @@
         <v>1</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>1775</v>
+        <v>1785</v>
       </c>
       <c r="L2" s="2">
         <v>54</v>
@@ -61704,7 +62168,7 @@
         <v>999999</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>1776</v>
+        <v>1786</v>
       </c>
       <c r="O2" s="2">
         <v>0</v>
@@ -61713,22 +62177,22 @@
         <v>1</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>1777</v>
+        <v>1787</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>1778</v>
+        <v>1788</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>1779</v>
+        <v>1789</v>
       </c>
       <c r="T2" s="2">
         <v>60000</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>1780</v>
+        <v>1790</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>1715</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="3" s="2" customFormat="1" spans="1:23">
@@ -61739,7 +62203,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>1774</v>
+        <v>1784</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>14</v>
@@ -61751,7 +62215,7 @@
         <v>10</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>1775</v>
+        <v>1785</v>
       </c>
       <c r="L3" s="2">
         <v>54</v>
@@ -61760,7 +62224,7 @@
         <v>999999</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>1781</v>
+        <v>1791</v>
       </c>
       <c r="O3" s="2">
         <v>0</v>
@@ -61769,22 +62233,22 @@
         <v>2</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>1777</v>
+        <v>1787</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>1782</v>
+        <v>1792</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>1779</v>
+        <v>1789</v>
       </c>
       <c r="T3" s="2">
         <v>500000</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>1780</v>
+        <v>1790</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>1715</v>
+        <v>1725</v>
       </c>
       <c r="W3" s="2">
         <v>8.3</v>
@@ -61798,7 +62262,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>1783</v>
+        <v>1793</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>14</v>
@@ -61823,19 +62287,19 @@
         <v>4</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>1784</v>
+        <v>1794</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>1785</v>
+        <v>1795</v>
       </c>
       <c r="T4" s="2">
         <v>15000</v>
       </c>
       <c r="U4" s="2" t="s">
-        <v>1786</v>
+        <v>1796</v>
       </c>
       <c r="V4" s="2" t="s">
-        <v>1715</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="5" s="2" customFormat="1" spans="1:22">
@@ -61846,7 +62310,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>1787</v>
+        <v>1797</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>14</v>
@@ -61873,10 +62337,10 @@
         <v>100000</v>
       </c>
       <c r="U5" s="12" t="s">
-        <v>1788</v>
+        <v>1798</v>
       </c>
       <c r="V5" s="2" t="s">
-        <v>1715</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="1" spans="1:22">
@@ -61887,7 +62351,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>1789</v>
+        <v>1799</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>14</v>
@@ -61914,10 +62378,10 @@
         <v>100000</v>
       </c>
       <c r="U6" s="12" t="s">
-        <v>1788</v>
+        <v>1798</v>
       </c>
       <c r="V6" s="2" t="s">
-        <v>1715</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="7" s="2" customFormat="1" spans="1:23">
@@ -61928,7 +62392,7 @@
         <v>3</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>1774</v>
+        <v>1784</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>14</v>
@@ -61940,7 +62404,7 @@
         <v>10</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>1790</v>
+        <v>1800</v>
       </c>
       <c r="L7" s="2">
         <v>56</v>
@@ -61949,7 +62413,7 @@
         <v>999999</v>
       </c>
       <c r="N7" s="7" t="s">
-        <v>1781</v>
+        <v>1791</v>
       </c>
       <c r="O7" s="6">
         <v>0</v>
@@ -61958,22 +62422,22 @@
         <v>3</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>1791</v>
+        <v>1801</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>1782</v>
+        <v>1792</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>1779</v>
+        <v>1789</v>
       </c>
       <c r="T7" s="2">
         <v>500000</v>
       </c>
       <c r="U7" s="2" t="s">
-        <v>1792</v>
+        <v>1802</v>
       </c>
       <c r="V7" s="2" t="s">
-        <v>1715</v>
+        <v>1725</v>
       </c>
       <c r="W7" s="2">
         <v>8.3</v>
@@ -61987,10 +62451,10 @@
         <v>1</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>1793</v>
+        <v>1803</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>1710</v>
+        <v>1720</v>
       </c>
       <c r="F8" s="2">
         <v>100</v>
@@ -62002,7 +62466,7 @@
         <v>125</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>1794</v>
+        <v>1804</v>
       </c>
       <c r="L8" s="2">
         <v>57</v>
@@ -62017,22 +62481,22 @@
         <v>5</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>1795</v>
+        <v>1805</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>1796</v>
+        <v>1806</v>
       </c>
       <c r="S8" s="2" t="s">
-        <v>1779</v>
+        <v>1789</v>
       </c>
       <c r="T8" s="2">
         <v>100</v>
       </c>
       <c r="U8" s="2" t="s">
-        <v>1797</v>
+        <v>1807</v>
       </c>
       <c r="V8" s="7" t="s">
-        <v>1715</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="9" s="2" customFormat="1" spans="1:22">
@@ -62043,10 +62507,10 @@
         <v>15</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>1798</v>
+        <v>1808</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>1710</v>
+        <v>1720</v>
       </c>
       <c r="F9" s="2">
         <v>1000</v>
@@ -62061,16 +62525,16 @@
         <v>6</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>1799</v>
+        <v>1809</v>
       </c>
       <c r="T9" s="2">
         <v>1000</v>
       </c>
       <c r="U9" s="7" t="s">
-        <v>1800</v>
+        <v>1810</v>
       </c>
       <c r="V9" s="7" t="s">
-        <v>1715</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="10" s="2" customFormat="1" spans="1:22">
@@ -62081,10 +62545,10 @@
         <v>16</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>1798</v>
+        <v>1808</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>1710</v>
+        <v>1720</v>
       </c>
       <c r="F10" s="2">
         <v>5800</v>
@@ -62099,16 +62563,16 @@
         <v>7</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>1801</v>
+        <v>1811</v>
       </c>
       <c r="T10" s="2">
         <v>5800</v>
       </c>
       <c r="U10" s="7" t="s">
-        <v>1800</v>
+        <v>1810</v>
       </c>
       <c r="V10" s="7" t="s">
-        <v>1715</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="11" s="2" customFormat="1" spans="1:22">
@@ -62119,10 +62583,10 @@
         <v>17</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>1798</v>
+        <v>1808</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>1710</v>
+        <v>1720</v>
       </c>
       <c r="F11" s="2">
         <v>8800</v>
@@ -62137,16 +62601,16 @@
         <v>8</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>1802</v>
+        <v>1812</v>
       </c>
       <c r="T11" s="2">
         <v>8800</v>
       </c>
       <c r="U11" s="7" t="s">
-        <v>1800</v>
+        <v>1810</v>
       </c>
       <c r="V11" s="7" t="s">
-        <v>1715</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="12" s="2" customFormat="1" spans="1:22">
@@ -62157,10 +62621,10 @@
         <v>18</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>1798</v>
+        <v>1808</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>1710</v>
+        <v>1720</v>
       </c>
       <c r="F12" s="2">
         <v>18800</v>
@@ -62175,16 +62639,16 @@
         <v>9</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>1803</v>
+        <v>1813</v>
       </c>
       <c r="T12" s="2">
         <v>18800</v>
       </c>
       <c r="U12" s="7" t="s">
-        <v>1800</v>
+        <v>1810</v>
       </c>
       <c r="V12" s="7" t="s">
-        <v>1715</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="13" s="2" customFormat="1" spans="1:23">
@@ -62195,7 +62659,7 @@
         <v>19</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>1804</v>
+        <v>1814</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>14</v>
@@ -62219,16 +62683,16 @@
         <v>0</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>1805</v>
+        <v>1815</v>
       </c>
       <c r="T13" s="2">
         <v>70000</v>
       </c>
       <c r="U13" s="7" t="s">
-        <v>1806</v>
+        <v>1816</v>
       </c>
       <c r="V13" s="7" t="s">
-        <v>1715</v>
+        <v>1725</v>
       </c>
       <c r="W13" s="2">
         <v>7</v>
@@ -62242,7 +62706,7 @@
         <v>20</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>1804</v>
+        <v>1814</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>14</v>
@@ -62266,16 +62730,16 @@
         <v>0</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>1807</v>
+        <v>1817</v>
       </c>
       <c r="T14" s="2">
         <v>180000</v>
       </c>
       <c r="U14" s="7" t="s">
-        <v>1806</v>
+        <v>1816</v>
       </c>
       <c r="V14" s="7" t="s">
-        <v>1715</v>
+        <v>1725</v>
       </c>
       <c r="W14" s="2">
         <v>6</v>
@@ -62289,10 +62753,10 @@
         <v>21</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>1804</v>
+        <v>1814</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>1732</v>
+        <v>1742</v>
       </c>
       <c r="F15" s="2">
         <v>1500</v>
@@ -62313,16 +62777,16 @@
         <v>0</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>1808</v>
+        <v>1818</v>
       </c>
       <c r="T15" s="2">
         <v>1500</v>
       </c>
       <c r="U15" s="7" t="s">
-        <v>1806</v>
+        <v>1816</v>
       </c>
       <c r="V15" s="7" t="s">
-        <v>1715</v>
+        <v>1725</v>
       </c>
       <c r="W15" s="2">
         <v>3</v>
@@ -62336,10 +62800,10 @@
         <v>22</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>1809</v>
+        <v>1819</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>1732</v>
+        <v>1742</v>
       </c>
       <c r="F16" s="3">
         <v>200</v>
@@ -62355,13 +62819,13 @@
         <v>0</v>
       </c>
       <c r="Q16" s="9" t="s">
-        <v>1810</v>
+        <v>1820</v>
       </c>
       <c r="T16" s="3">
         <v>200</v>
       </c>
       <c r="V16" s="3" t="s">
-        <v>1715</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="17" s="3" customFormat="1" spans="1:22">
@@ -62372,10 +62836,10 @@
         <v>23</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>1809</v>
+        <v>1819</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>1732</v>
+        <v>1742</v>
       </c>
       <c r="F17" s="3">
         <v>2000</v>
@@ -62391,13 +62855,13 @@
         <v>0</v>
       </c>
       <c r="Q17" s="9" t="s">
-        <v>1811</v>
+        <v>1821</v>
       </c>
       <c r="T17" s="3">
         <v>2000</v>
       </c>
       <c r="V17" s="3" t="s">
-        <v>1715</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="18" s="3" customFormat="1" spans="1:22">
@@ -62408,7 +62872,7 @@
         <v>24</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>1809</v>
+        <v>1819</v>
       </c>
       <c r="E18" s="9" t="s">
         <v>14</v>
@@ -62427,13 +62891,13 @@
         <v>0</v>
       </c>
       <c r="Q18" s="9" t="s">
-        <v>1810</v>
+        <v>1820</v>
       </c>
       <c r="T18" s="3">
         <v>20000</v>
       </c>
       <c r="V18" s="3" t="s">
-        <v>1715</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="19" s="3" customFormat="1" spans="1:22">
@@ -62444,7 +62908,7 @@
         <v>25</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>1809</v>
+        <v>1819</v>
       </c>
       <c r="E19" s="9" t="s">
         <v>14</v>
@@ -62463,13 +62927,13 @@
         <v>0</v>
       </c>
       <c r="Q19" s="9" t="s">
-        <v>1811</v>
+        <v>1821</v>
       </c>
       <c r="T19" s="3">
         <v>200000</v>
       </c>
       <c r="V19" s="3" t="s">
-        <v>1715</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="20" s="4" customFormat="1" spans="1:22">
@@ -62480,7 +62944,7 @@
         <v>26</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>1812</v>
+        <v>1822</v>
       </c>
       <c r="E20" s="11" t="s">
         <v>14</v>
@@ -62498,16 +62962,16 @@
         <v>0</v>
       </c>
       <c r="Q20" s="11" t="s">
-        <v>1813</v>
+        <v>1823</v>
       </c>
       <c r="T20" s="4">
         <v>300000</v>
       </c>
       <c r="U20" s="11" t="s">
-        <v>1814</v>
+        <v>1824</v>
       </c>
       <c r="V20" s="11" t="s">
-        <v>1715</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="21" s="4" customFormat="1" spans="1:22">
@@ -62518,7 +62982,7 @@
         <v>27</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>1815</v>
+        <v>1825</v>
       </c>
       <c r="E21" s="11" t="s">
         <v>14</v>
@@ -62536,16 +63000,16 @@
         <v>0</v>
       </c>
       <c r="Q21" s="11" t="s">
-        <v>1816</v>
+        <v>1826</v>
       </c>
       <c r="T21" s="4">
         <v>300000</v>
       </c>
       <c r="U21" s="11" t="s">
-        <v>1817</v>
+        <v>1827</v>
       </c>
       <c r="V21" s="11" t="s">
-        <v>1715</v>
+        <v>1725</v>
       </c>
     </row>
   </sheetData>

--- a/config_Release/shoping_config_xiaomi.xlsx
+++ b/config_Release/shoping_config_xiaomi.xlsx
@@ -214,7 +214,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5048" uniqueCount="1828">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5132" uniqueCount="1848">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -5812,6 +5812,66 @@
   </si>
   <si>
     <t>"180万金币","10万小游戏币","水滴*5"</t>
+  </si>
+  <si>
+    <t>话费礼包</t>
+  </si>
+  <si>
+    <t>"60万金币","28话费碎片"</t>
+  </si>
+  <si>
+    <t>"jing_bi","prop_web_chip_huafei"</t>
+  </si>
+  <si>
+    <t>600000,28,</t>
+  </si>
+  <si>
+    <t>"100万金币","48话费碎片"</t>
+  </si>
+  <si>
+    <t>1000000,48,</t>
+  </si>
+  <si>
+    <t>"180万金币","98话费碎片"</t>
+  </si>
+  <si>
+    <t>1800000,98,</t>
+  </si>
+  <si>
+    <t>"180万金币","58话费碎片"</t>
+  </si>
+  <si>
+    <t>1800000,58,</t>
+  </si>
+  <si>
+    <t>"300万金币","98话费碎片"</t>
+  </si>
+  <si>
+    <t>3000000,98,</t>
+  </si>
+  <si>
+    <t>"480万金币","168话费碎片"</t>
+  </si>
+  <si>
+    <t>4800000,168,</t>
+  </si>
+  <si>
+    <t>"980万金币","338话费碎片"</t>
+  </si>
+  <si>
+    <t>9800000,338,</t>
+  </si>
+  <si>
+    <t>"1980万金币","688话费碎片"</t>
+  </si>
+  <si>
+    <t>19800000,688,</t>
+  </si>
+  <si>
+    <t>"4980万金币","1688话费碎片"</t>
+  </si>
+  <si>
+    <t>49800000,1688,</t>
   </si>
   <si>
     <t>id|不能重复</t>
@@ -6710,10 +6770,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -6747,6 +6807,14 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
@@ -6761,6 +6829,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -6769,45 +6844,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6821,6 +6859,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -6829,38 +6875,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -6875,19 +6891,63 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -6977,31 +7037,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7019,25 +7067,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7055,7 +7115,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7067,19 +7139,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7091,13 +7169,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7109,25 +7187,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7167,11 +7227,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7187,32 +7253,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7235,8 +7275,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7250,17 +7290,37 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7272,10 +7332,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -7284,133 +7344,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -10160,14 +10220,14 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AIF634"/>
+  <dimension ref="A1:AIF646"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H611" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="AH623" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J639" sqref="J639"/>
+      <selection pane="bottomRight" activeCell="AL635" sqref="AL635"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -48611,8 +48671,8 @@
       <c r="B599" s="28">
         <v>10515</v>
       </c>
-      <c r="F599" s="28">
-        <v>1</v>
+      <c r="F599" s="21">
+        <v>0</v>
       </c>
       <c r="G599" s="28" t="s">
         <v>1394</v>
@@ -48679,8 +48739,8 @@
       <c r="B600" s="28">
         <v>10516</v>
       </c>
-      <c r="F600" s="28">
-        <v>1</v>
+      <c r="F600" s="21">
+        <v>0</v>
       </c>
       <c r="G600" s="28" t="s">
         <v>1394</v>
@@ -48747,8 +48807,8 @@
       <c r="B601" s="28">
         <v>10517</v>
       </c>
-      <c r="F601" s="28">
-        <v>1</v>
+      <c r="F601" s="21">
+        <v>0</v>
       </c>
       <c r="G601" s="28" t="s">
         <v>1394</v>
@@ -48815,8 +48875,8 @@
       <c r="B602" s="28">
         <v>10518</v>
       </c>
-      <c r="F602" s="28">
-        <v>1</v>
+      <c r="F602" s="21">
+        <v>0</v>
       </c>
       <c r="G602" s="28" t="s">
         <v>1394</v>
@@ -48883,8 +48943,8 @@
       <c r="B603" s="28">
         <v>10519</v>
       </c>
-      <c r="F603" s="28">
-        <v>1</v>
+      <c r="F603" s="21">
+        <v>0</v>
       </c>
       <c r="G603" s="28" t="s">
         <v>1394</v>
@@ -48951,8 +49011,8 @@
       <c r="B604" s="28">
         <v>10520</v>
       </c>
-      <c r="F604" s="28">
-        <v>1</v>
+      <c r="F604" s="21">
+        <v>0</v>
       </c>
       <c r="G604" s="28" t="s">
         <v>1394</v>
@@ -49019,8 +49079,8 @@
       <c r="B605" s="28">
         <v>10521</v>
       </c>
-      <c r="F605" s="28">
-        <v>1</v>
+      <c r="F605" s="21">
+        <v>0</v>
       </c>
       <c r="G605" s="28" t="s">
         <v>1394</v>
@@ -49087,8 +49147,8 @@
       <c r="B606" s="28">
         <v>10522</v>
       </c>
-      <c r="F606" s="28">
-        <v>1</v>
+      <c r="F606" s="21">
+        <v>0</v>
       </c>
       <c r="G606" s="28" t="s">
         <v>1394</v>
@@ -49155,8 +49215,8 @@
       <c r="B607" s="28">
         <v>10523</v>
       </c>
-      <c r="F607" s="28">
-        <v>1</v>
+      <c r="F607" s="21">
+        <v>0</v>
       </c>
       <c r="G607" s="28" t="s">
         <v>1394</v>
@@ -49223,8 +49283,8 @@
       <c r="B608" s="28">
         <v>10524</v>
       </c>
-      <c r="F608" s="28">
-        <v>1</v>
+      <c r="F608" s="21">
+        <v>0</v>
       </c>
       <c r="G608" s="28" t="s">
         <v>1394</v>
@@ -49291,8 +49351,8 @@
       <c r="B609" s="28">
         <v>10525</v>
       </c>
-      <c r="F609" s="28">
-        <v>1</v>
+      <c r="F609" s="21">
+        <v>0</v>
       </c>
       <c r="G609" s="28" t="s">
         <v>1394</v>
@@ -49359,8 +49419,8 @@
       <c r="B610" s="28">
         <v>10526</v>
       </c>
-      <c r="F610" s="28">
-        <v>1</v>
+      <c r="F610" s="21">
+        <v>0</v>
       </c>
       <c r="G610" s="28" t="s">
         <v>1394</v>
@@ -49427,8 +49487,8 @@
       <c r="B611" s="29">
         <v>10527</v>
       </c>
-      <c r="F611" s="29">
-        <v>1</v>
+      <c r="F611" s="21">
+        <v>0</v>
       </c>
       <c r="G611" s="29" t="s">
         <v>1579</v>
@@ -49489,8 +49549,8 @@
       <c r="B612" s="29">
         <v>10528</v>
       </c>
-      <c r="F612" s="29">
-        <v>1</v>
+      <c r="F612" s="21">
+        <v>0</v>
       </c>
       <c r="G612" s="29" t="s">
         <v>1579</v>
@@ -49551,8 +49611,8 @@
       <c r="B613" s="29">
         <v>10529</v>
       </c>
-      <c r="F613" s="29">
-        <v>1</v>
+      <c r="F613" s="21">
+        <v>0</v>
       </c>
       <c r="G613" s="29" t="s">
         <v>1579</v>
@@ -49613,8 +49673,8 @@
       <c r="B614" s="29">
         <v>10530</v>
       </c>
-      <c r="F614" s="29">
-        <v>1</v>
+      <c r="F614" s="21">
+        <v>0</v>
       </c>
       <c r="G614" s="29" t="s">
         <v>1579</v>
@@ -49675,8 +49735,8 @@
       <c r="B615" s="29">
         <v>10531</v>
       </c>
-      <c r="F615" s="29">
-        <v>1</v>
+      <c r="F615" s="21">
+        <v>0</v>
       </c>
       <c r="G615" s="29" t="s">
         <v>1579</v>
@@ -49737,8 +49797,8 @@
       <c r="B616" s="29">
         <v>10532</v>
       </c>
-      <c r="F616" s="29">
-        <v>1</v>
+      <c r="F616" s="21">
+        <v>0</v>
       </c>
       <c r="G616" s="29" t="s">
         <v>1579</v>
@@ -49799,7 +49859,7 @@
       <c r="B617" s="29">
         <v>10533</v>
       </c>
-      <c r="F617" s="29">
+      <c r="F617" s="21">
         <v>0</v>
       </c>
       <c r="G617" s="29" t="s">
@@ -49864,7 +49924,7 @@
       <c r="B618" s="29">
         <v>10534</v>
       </c>
-      <c r="F618" s="29">
+      <c r="F618" s="21">
         <v>0</v>
       </c>
       <c r="G618" s="29" t="s">
@@ -49932,8 +49992,8 @@
       <c r="C619"/>
       <c r="D619"/>
       <c r="E619"/>
-      <c r="F619" s="29">
-        <v>1</v>
+      <c r="F619" s="21">
+        <v>0</v>
       </c>
       <c r="G619" s="29" t="s">
         <v>1594</v>
@@ -50894,8 +50954,8 @@
       <c r="C620"/>
       <c r="D620"/>
       <c r="E620"/>
-      <c r="F620" s="29">
-        <v>1</v>
+      <c r="F620" s="21">
+        <v>0</v>
       </c>
       <c r="G620" s="29" t="s">
         <v>1594</v>
@@ -51856,8 +51916,8 @@
       <c r="C621"/>
       <c r="D621"/>
       <c r="E621"/>
-      <c r="F621" s="29">
-        <v>1</v>
+      <c r="F621" s="21">
+        <v>0</v>
       </c>
       <c r="G621" s="29" t="s">
         <v>1594</v>
@@ -52818,8 +52878,8 @@
       <c r="C622"/>
       <c r="D622"/>
       <c r="E622"/>
-      <c r="F622" s="29">
-        <v>1</v>
+      <c r="F622" s="21">
+        <v>0</v>
       </c>
       <c r="G622" s="29" t="s">
         <v>1594</v>
@@ -53780,8 +53840,8 @@
       <c r="C623"/>
       <c r="D623"/>
       <c r="E623"/>
-      <c r="F623" s="29">
-        <v>1</v>
+      <c r="F623" s="21">
+        <v>0</v>
       </c>
       <c r="G623" s="29" t="s">
         <v>1594</v>
@@ -54742,8 +54802,8 @@
       <c r="C624"/>
       <c r="D624"/>
       <c r="E624"/>
-      <c r="F624" s="29">
-        <v>1</v>
+      <c r="F624" s="21">
+        <v>0</v>
       </c>
       <c r="G624" s="29" t="s">
         <v>1594</v>
@@ -55704,8 +55764,8 @@
       <c r="C625"/>
       <c r="D625"/>
       <c r="E625"/>
-      <c r="F625" s="29">
-        <v>1</v>
+      <c r="F625" s="21">
+        <v>0</v>
       </c>
       <c r="G625" s="29" t="s">
         <v>1594</v>
@@ -56666,8 +56726,8 @@
       <c r="C626"/>
       <c r="D626"/>
       <c r="E626"/>
-      <c r="F626" s="29">
-        <v>1</v>
+      <c r="F626" s="21">
+        <v>0</v>
       </c>
       <c r="G626" s="29" t="s">
         <v>1594</v>
@@ -57628,8 +57688,8 @@
       <c r="C627"/>
       <c r="D627"/>
       <c r="E627"/>
-      <c r="F627" s="29">
-        <v>1</v>
+      <c r="F627" s="21">
+        <v>0</v>
       </c>
       <c r="G627" s="29" t="s">
         <v>1594</v>
@@ -58587,8 +58647,8 @@
       <c r="B628" s="29">
         <v>10544</v>
       </c>
-      <c r="F628" s="29">
-        <v>1</v>
+      <c r="F628" s="21">
+        <v>0</v>
       </c>
       <c r="G628" s="29" t="s">
         <v>1115</v>
@@ -58649,8 +58709,8 @@
       <c r="B629" s="29">
         <v>10545</v>
       </c>
-      <c r="F629" s="29">
-        <v>1</v>
+      <c r="F629" s="21">
+        <v>0</v>
       </c>
       <c r="G629" s="29" t="s">
         <v>1119</v>
@@ -58711,8 +58771,8 @@
       <c r="B630" s="29">
         <v>10546</v>
       </c>
-      <c r="F630" s="29">
-        <v>1</v>
+      <c r="F630" s="21">
+        <v>0</v>
       </c>
       <c r="G630" s="29" t="s">
         <v>1122</v>
@@ -58773,8 +58833,8 @@
       <c r="B631" s="29">
         <v>10547</v>
       </c>
-      <c r="F631" s="29">
-        <v>1</v>
+      <c r="F631" s="21">
+        <v>0</v>
       </c>
       <c r="G631" s="29" t="s">
         <v>1126</v>
@@ -58835,8 +58895,8 @@
       <c r="B632" s="29">
         <v>10548</v>
       </c>
-      <c r="F632" s="29">
-        <v>1</v>
+      <c r="F632" s="21">
+        <v>0</v>
       </c>
       <c r="G632" s="29" t="s">
         <v>1129</v>
@@ -58897,8 +58957,8 @@
       <c r="B633" s="29">
         <v>10549</v>
       </c>
-      <c r="F633" s="29">
-        <v>1</v>
+      <c r="F633" s="21">
+        <v>0</v>
       </c>
       <c r="G633" s="29" t="s">
         <v>1132</v>
@@ -58959,8 +59019,8 @@
       <c r="B634" s="29">
         <v>10550</v>
       </c>
-      <c r="F634" s="29">
-        <v>1</v>
+      <c r="F634" s="21">
+        <v>0</v>
       </c>
       <c r="G634" s="29" t="s">
         <v>1136</v>
@@ -59011,6 +59071,870 @@
         <v>1</v>
       </c>
       <c r="AM634" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="635" spans="1:39">
+      <c r="A635" s="21">
+        <v>634</v>
+      </c>
+      <c r="B635" s="29">
+        <v>10551</v>
+      </c>
+      <c r="F635" s="29">
+        <v>1</v>
+      </c>
+      <c r="G635" s="29" t="s">
+        <v>1624</v>
+      </c>
+      <c r="H635" s="29"/>
+      <c r="I635" s="28" t="s">
+        <v>1546</v>
+      </c>
+      <c r="J635" s="29" t="s">
+        <v>1625</v>
+      </c>
+      <c r="K635" s="29"/>
+      <c r="L635" s="28">
+        <v>-31</v>
+      </c>
+      <c r="M635" s="28">
+        <v>0</v>
+      </c>
+      <c r="N635" s="28">
+        <v>0</v>
+      </c>
+      <c r="O635" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="P635" s="29">
+        <v>600</v>
+      </c>
+      <c r="Q635" s="29" t="s">
+        <v>1626</v>
+      </c>
+      <c r="R635" s="53" t="s">
+        <v>1627</v>
+      </c>
+      <c r="S635" s="29"/>
+      <c r="W635" s="28" t="s">
+        <v>481</v>
+      </c>
+      <c r="X635" s="28">
+        <v>99999999</v>
+      </c>
+      <c r="Y635" s="29">
+        <v>1621900800</v>
+      </c>
+      <c r="Z635" s="29">
+        <v>1622476799</v>
+      </c>
+      <c r="AA635" s="29">
+        <v>80</v>
+      </c>
+      <c r="AB635" s="29"/>
+      <c r="AH635" s="29">
+        <v>1</v>
+      </c>
+      <c r="AI635" s="29">
+        <v>1</v>
+      </c>
+      <c r="AL635" s="29">
+        <v>1</v>
+      </c>
+      <c r="AM635" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="636" spans="1:39">
+      <c r="A636" s="21">
+        <v>635</v>
+      </c>
+      <c r="B636" s="29">
+        <v>10552</v>
+      </c>
+      <c r="F636" s="29">
+        <v>1</v>
+      </c>
+      <c r="G636" s="29" t="s">
+        <v>1624</v>
+      </c>
+      <c r="H636" s="29"/>
+      <c r="I636" s="28" t="s">
+        <v>1546</v>
+      </c>
+      <c r="J636" s="29" t="s">
+        <v>1628</v>
+      </c>
+      <c r="K636" s="29"/>
+      <c r="L636" s="28">
+        <v>-31</v>
+      </c>
+      <c r="M636" s="28">
+        <v>0</v>
+      </c>
+      <c r="N636" s="28">
+        <v>0</v>
+      </c>
+      <c r="O636" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="P636" s="29">
+        <v>1000</v>
+      </c>
+      <c r="Q636" s="29" t="s">
+        <v>1626</v>
+      </c>
+      <c r="R636" s="53" t="s">
+        <v>1629</v>
+      </c>
+      <c r="S636" s="29"/>
+      <c r="W636" s="28" t="s">
+        <v>481</v>
+      </c>
+      <c r="X636" s="28">
+        <v>99999999</v>
+      </c>
+      <c r="Y636" s="29">
+        <v>1621900800</v>
+      </c>
+      <c r="Z636" s="29">
+        <v>1622476799</v>
+      </c>
+      <c r="AA636" s="29">
+        <v>80</v>
+      </c>
+      <c r="AB636" s="29"/>
+      <c r="AH636" s="29">
+        <v>1</v>
+      </c>
+      <c r="AI636" s="29">
+        <v>1</v>
+      </c>
+      <c r="AL636" s="29">
+        <v>1</v>
+      </c>
+      <c r="AM636" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="637" spans="1:39">
+      <c r="A637" s="21">
+        <v>636</v>
+      </c>
+      <c r="B637" s="29">
+        <v>10553</v>
+      </c>
+      <c r="F637" s="29">
+        <v>1</v>
+      </c>
+      <c r="G637" s="29" t="s">
+        <v>1624</v>
+      </c>
+      <c r="H637" s="29"/>
+      <c r="I637" s="28" t="s">
+        <v>1546</v>
+      </c>
+      <c r="J637" s="29" t="s">
+        <v>1630</v>
+      </c>
+      <c r="K637" s="29"/>
+      <c r="L637" s="28">
+        <v>-31</v>
+      </c>
+      <c r="M637" s="28">
+        <v>0</v>
+      </c>
+      <c r="N637" s="28">
+        <v>0</v>
+      </c>
+      <c r="O637" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="P637" s="29">
+        <v>1800</v>
+      </c>
+      <c r="Q637" s="29" t="s">
+        <v>1626</v>
+      </c>
+      <c r="R637" s="53" t="s">
+        <v>1631</v>
+      </c>
+      <c r="S637" s="29"/>
+      <c r="W637" s="28" t="s">
+        <v>481</v>
+      </c>
+      <c r="X637" s="28">
+        <v>99999999</v>
+      </c>
+      <c r="Y637" s="29">
+        <v>1621900800</v>
+      </c>
+      <c r="Z637" s="29">
+        <v>1622476799</v>
+      </c>
+      <c r="AA637" s="29">
+        <v>80</v>
+      </c>
+      <c r="AB637" s="29"/>
+      <c r="AH637" s="29">
+        <v>1</v>
+      </c>
+      <c r="AI637" s="29">
+        <v>1</v>
+      </c>
+      <c r="AL637" s="29">
+        <v>1</v>
+      </c>
+      <c r="AM637" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="638" spans="1:39">
+      <c r="A638" s="21">
+        <v>637</v>
+      </c>
+      <c r="B638" s="29">
+        <v>10554</v>
+      </c>
+      <c r="F638" s="29">
+        <v>1</v>
+      </c>
+      <c r="G638" s="29" t="s">
+        <v>1624</v>
+      </c>
+      <c r="H638" s="29"/>
+      <c r="I638" s="28" t="s">
+        <v>1553</v>
+      </c>
+      <c r="J638" s="29" t="s">
+        <v>1632</v>
+      </c>
+      <c r="K638" s="29"/>
+      <c r="L638" s="28">
+        <v>-31</v>
+      </c>
+      <c r="M638" s="28">
+        <v>0</v>
+      </c>
+      <c r="N638" s="28">
+        <v>0</v>
+      </c>
+      <c r="O638" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="P638" s="29">
+        <v>1800</v>
+      </c>
+      <c r="Q638" s="29" t="s">
+        <v>1626</v>
+      </c>
+      <c r="R638" s="53" t="s">
+        <v>1633</v>
+      </c>
+      <c r="S638" s="29"/>
+      <c r="W638" s="28" t="s">
+        <v>481</v>
+      </c>
+      <c r="X638" s="28">
+        <v>99999999</v>
+      </c>
+      <c r="Y638" s="29">
+        <v>1621900800</v>
+      </c>
+      <c r="Z638" s="29">
+        <v>1622476799</v>
+      </c>
+      <c r="AA638" s="29">
+        <v>81</v>
+      </c>
+      <c r="AB638" s="29"/>
+      <c r="AH638" s="29">
+        <v>1</v>
+      </c>
+      <c r="AI638" s="29">
+        <v>1</v>
+      </c>
+      <c r="AL638" s="29">
+        <v>1</v>
+      </c>
+      <c r="AM638" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="639" spans="1:39">
+      <c r="A639" s="21">
+        <v>638</v>
+      </c>
+      <c r="B639" s="29">
+        <v>10555</v>
+      </c>
+      <c r="F639" s="29">
+        <v>1</v>
+      </c>
+      <c r="G639" s="29" t="s">
+        <v>1624</v>
+      </c>
+      <c r="H639" s="29"/>
+      <c r="I639" s="28" t="s">
+        <v>1553</v>
+      </c>
+      <c r="J639" s="29" t="s">
+        <v>1634</v>
+      </c>
+      <c r="K639" s="29"/>
+      <c r="L639" s="28">
+        <v>-31</v>
+      </c>
+      <c r="M639" s="28">
+        <v>0</v>
+      </c>
+      <c r="N639" s="28">
+        <v>0</v>
+      </c>
+      <c r="O639" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="P639" s="29">
+        <v>3000</v>
+      </c>
+      <c r="Q639" s="29" t="s">
+        <v>1626</v>
+      </c>
+      <c r="R639" s="53" t="s">
+        <v>1635</v>
+      </c>
+      <c r="S639" s="29"/>
+      <c r="W639" s="28" t="s">
+        <v>481</v>
+      </c>
+      <c r="X639" s="28">
+        <v>99999999</v>
+      </c>
+      <c r="Y639" s="29">
+        <v>1621900800</v>
+      </c>
+      <c r="Z639" s="29">
+        <v>1622476799</v>
+      </c>
+      <c r="AA639" s="29">
+        <v>81</v>
+      </c>
+      <c r="AB639" s="29"/>
+      <c r="AH639" s="29">
+        <v>1</v>
+      </c>
+      <c r="AI639" s="29">
+        <v>1</v>
+      </c>
+      <c r="AL639" s="29">
+        <v>1</v>
+      </c>
+      <c r="AM639" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="640" spans="1:39">
+      <c r="A640" s="21">
+        <v>639</v>
+      </c>
+      <c r="B640" s="29">
+        <v>10556</v>
+      </c>
+      <c r="F640" s="29">
+        <v>1</v>
+      </c>
+      <c r="G640" s="29" t="s">
+        <v>1624</v>
+      </c>
+      <c r="H640" s="29"/>
+      <c r="I640" s="28" t="s">
+        <v>1553</v>
+      </c>
+      <c r="J640" s="29" t="s">
+        <v>1636</v>
+      </c>
+      <c r="K640" s="29"/>
+      <c r="L640" s="28">
+        <v>-31</v>
+      </c>
+      <c r="M640" s="28">
+        <v>0</v>
+      </c>
+      <c r="N640" s="28">
+        <v>0</v>
+      </c>
+      <c r="O640" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="P640" s="29">
+        <v>4800</v>
+      </c>
+      <c r="Q640" s="29" t="s">
+        <v>1626</v>
+      </c>
+      <c r="R640" s="53" t="s">
+        <v>1637</v>
+      </c>
+      <c r="S640" s="29"/>
+      <c r="W640" s="28" t="s">
+        <v>481</v>
+      </c>
+      <c r="X640" s="28">
+        <v>99999999</v>
+      </c>
+      <c r="Y640" s="29">
+        <v>1621900800</v>
+      </c>
+      <c r="Z640" s="29">
+        <v>1622476799</v>
+      </c>
+      <c r="AA640" s="29">
+        <v>81</v>
+      </c>
+      <c r="AB640" s="29"/>
+      <c r="AH640" s="29">
+        <v>1</v>
+      </c>
+      <c r="AI640" s="29">
+        <v>1</v>
+      </c>
+      <c r="AL640" s="29">
+        <v>1</v>
+      </c>
+      <c r="AM640" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="641" spans="1:39">
+      <c r="A641" s="21">
+        <v>640</v>
+      </c>
+      <c r="B641" s="29">
+        <v>10557</v>
+      </c>
+      <c r="F641" s="29">
+        <v>1</v>
+      </c>
+      <c r="G641" s="29" t="s">
+        <v>1624</v>
+      </c>
+      <c r="H641" s="29"/>
+      <c r="I641" s="28" t="s">
+        <v>1560</v>
+      </c>
+      <c r="J641" s="29" t="s">
+        <v>1636</v>
+      </c>
+      <c r="K641" s="29"/>
+      <c r="L641" s="28">
+        <v>-31</v>
+      </c>
+      <c r="M641" s="28">
+        <v>0</v>
+      </c>
+      <c r="N641" s="28">
+        <v>0</v>
+      </c>
+      <c r="O641" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="P641" s="29">
+        <v>4800</v>
+      </c>
+      <c r="Q641" s="29" t="s">
+        <v>1626</v>
+      </c>
+      <c r="R641" s="53" t="s">
+        <v>1637</v>
+      </c>
+      <c r="S641" s="29"/>
+      <c r="W641" s="28" t="s">
+        <v>481</v>
+      </c>
+      <c r="X641" s="28">
+        <v>99999999</v>
+      </c>
+      <c r="Y641" s="29">
+        <v>1621900800</v>
+      </c>
+      <c r="Z641" s="29">
+        <v>1622476799</v>
+      </c>
+      <c r="AA641" s="29">
+        <v>82</v>
+      </c>
+      <c r="AB641" s="29"/>
+      <c r="AH641" s="29">
+        <v>1</v>
+      </c>
+      <c r="AI641" s="29">
+        <v>1</v>
+      </c>
+      <c r="AL641" s="29">
+        <v>1</v>
+      </c>
+      <c r="AM641" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="642" spans="1:39">
+      <c r="A642" s="21">
+        <v>641</v>
+      </c>
+      <c r="B642" s="29">
+        <v>10558</v>
+      </c>
+      <c r="F642" s="29">
+        <v>1</v>
+      </c>
+      <c r="G642" s="29" t="s">
+        <v>1624</v>
+      </c>
+      <c r="H642" s="29"/>
+      <c r="I642" s="28" t="s">
+        <v>1560</v>
+      </c>
+      <c r="J642" s="29" t="s">
+        <v>1638</v>
+      </c>
+      <c r="K642" s="29"/>
+      <c r="L642" s="28">
+        <v>-31</v>
+      </c>
+      <c r="M642" s="28">
+        <v>0</v>
+      </c>
+      <c r="N642" s="28">
+        <v>0</v>
+      </c>
+      <c r="O642" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="P642" s="29">
+        <v>9800</v>
+      </c>
+      <c r="Q642" s="29" t="s">
+        <v>1626</v>
+      </c>
+      <c r="R642" s="53" t="s">
+        <v>1639</v>
+      </c>
+      <c r="S642" s="29"/>
+      <c r="W642" s="28" t="s">
+        <v>481</v>
+      </c>
+      <c r="X642" s="28">
+        <v>99999999</v>
+      </c>
+      <c r="Y642" s="29">
+        <v>1621900800</v>
+      </c>
+      <c r="Z642" s="29">
+        <v>1622476799</v>
+      </c>
+      <c r="AA642" s="29">
+        <v>82</v>
+      </c>
+      <c r="AB642" s="29"/>
+      <c r="AH642" s="29">
+        <v>1</v>
+      </c>
+      <c r="AI642" s="29">
+        <v>1</v>
+      </c>
+      <c r="AL642" s="29">
+        <v>1</v>
+      </c>
+      <c r="AM642" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="643" spans="1:39">
+      <c r="A643" s="21">
+        <v>642</v>
+      </c>
+      <c r="B643" s="29">
+        <v>10559</v>
+      </c>
+      <c r="F643" s="29">
+        <v>1</v>
+      </c>
+      <c r="G643" s="29" t="s">
+        <v>1624</v>
+      </c>
+      <c r="H643" s="29"/>
+      <c r="I643" s="28" t="s">
+        <v>1560</v>
+      </c>
+      <c r="J643" s="29" t="s">
+        <v>1640</v>
+      </c>
+      <c r="K643" s="29"/>
+      <c r="L643" s="28">
+        <v>-31</v>
+      </c>
+      <c r="M643" s="28">
+        <v>0</v>
+      </c>
+      <c r="N643" s="28">
+        <v>0</v>
+      </c>
+      <c r="O643" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="P643" s="29">
+        <v>19800</v>
+      </c>
+      <c r="Q643" s="29" t="s">
+        <v>1626</v>
+      </c>
+      <c r="R643" s="53" t="s">
+        <v>1641</v>
+      </c>
+      <c r="S643" s="29"/>
+      <c r="W643" s="28" t="s">
+        <v>481</v>
+      </c>
+      <c r="X643" s="28">
+        <v>99999999</v>
+      </c>
+      <c r="Y643" s="29">
+        <v>1621900800</v>
+      </c>
+      <c r="Z643" s="29">
+        <v>1622476799</v>
+      </c>
+      <c r="AA643" s="29">
+        <v>82</v>
+      </c>
+      <c r="AB643" s="29"/>
+      <c r="AH643" s="29">
+        <v>1</v>
+      </c>
+      <c r="AI643" s="29">
+        <v>1</v>
+      </c>
+      <c r="AL643" s="29">
+        <v>1</v>
+      </c>
+      <c r="AM643" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="644" spans="1:39">
+      <c r="A644" s="21">
+        <v>643</v>
+      </c>
+      <c r="B644" s="29">
+        <v>10560</v>
+      </c>
+      <c r="F644" s="29">
+        <v>1</v>
+      </c>
+      <c r="G644" s="29" t="s">
+        <v>1624</v>
+      </c>
+      <c r="H644" s="29"/>
+      <c r="I644" s="28" t="s">
+        <v>1449</v>
+      </c>
+      <c r="J644" s="29" t="s">
+        <v>1638</v>
+      </c>
+      <c r="K644" s="29"/>
+      <c r="L644" s="28">
+        <v>-31</v>
+      </c>
+      <c r="M644" s="28">
+        <v>0</v>
+      </c>
+      <c r="N644" s="28">
+        <v>0</v>
+      </c>
+      <c r="O644" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="P644" s="29">
+        <v>9800</v>
+      </c>
+      <c r="Q644" s="29" t="s">
+        <v>1626</v>
+      </c>
+      <c r="R644" s="53" t="s">
+        <v>1639</v>
+      </c>
+      <c r="S644" s="29"/>
+      <c r="W644" s="28" t="s">
+        <v>481</v>
+      </c>
+      <c r="X644" s="28">
+        <v>99999999</v>
+      </c>
+      <c r="Y644" s="29">
+        <v>1621900800</v>
+      </c>
+      <c r="Z644" s="29">
+        <v>1622476799</v>
+      </c>
+      <c r="AA644" s="29">
+        <v>83</v>
+      </c>
+      <c r="AB644" s="29"/>
+      <c r="AH644" s="29">
+        <v>1</v>
+      </c>
+      <c r="AI644" s="29">
+        <v>1</v>
+      </c>
+      <c r="AL644" s="29">
+        <v>1</v>
+      </c>
+      <c r="AM644" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="645" spans="1:39">
+      <c r="A645" s="21">
+        <v>644</v>
+      </c>
+      <c r="B645" s="29">
+        <v>10561</v>
+      </c>
+      <c r="F645" s="29">
+        <v>1</v>
+      </c>
+      <c r="G645" s="29" t="s">
+        <v>1624</v>
+      </c>
+      <c r="H645" s="29"/>
+      <c r="I645" s="28" t="s">
+        <v>1449</v>
+      </c>
+      <c r="J645" s="29" t="s">
+        <v>1640</v>
+      </c>
+      <c r="K645" s="29"/>
+      <c r="L645" s="28">
+        <v>-31</v>
+      </c>
+      <c r="M645" s="28">
+        <v>0</v>
+      </c>
+      <c r="N645" s="28">
+        <v>0</v>
+      </c>
+      <c r="O645" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="P645" s="29">
+        <v>19800</v>
+      </c>
+      <c r="Q645" s="29" t="s">
+        <v>1626</v>
+      </c>
+      <c r="R645" s="53" t="s">
+        <v>1641</v>
+      </c>
+      <c r="S645" s="29"/>
+      <c r="W645" s="28" t="s">
+        <v>481</v>
+      </c>
+      <c r="X645" s="28">
+        <v>99999999</v>
+      </c>
+      <c r="Y645" s="29">
+        <v>1621900800</v>
+      </c>
+      <c r="Z645" s="29">
+        <v>1622476799</v>
+      </c>
+      <c r="AA645" s="29">
+        <v>83</v>
+      </c>
+      <c r="AB645" s="29"/>
+      <c r="AH645" s="29">
+        <v>1</v>
+      </c>
+      <c r="AI645" s="29">
+        <v>1</v>
+      </c>
+      <c r="AL645" s="29">
+        <v>1</v>
+      </c>
+      <c r="AM645" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="646" spans="1:39">
+      <c r="A646" s="21">
+        <v>645</v>
+      </c>
+      <c r="B646" s="29">
+        <v>10562</v>
+      </c>
+      <c r="F646" s="29">
+        <v>1</v>
+      </c>
+      <c r="G646" s="29" t="s">
+        <v>1624</v>
+      </c>
+      <c r="H646" s="29"/>
+      <c r="I646" s="28" t="s">
+        <v>1449</v>
+      </c>
+      <c r="J646" s="29" t="s">
+        <v>1642</v>
+      </c>
+      <c r="K646" s="29"/>
+      <c r="L646" s="28">
+        <v>-31</v>
+      </c>
+      <c r="M646" s="28">
+        <v>0</v>
+      </c>
+      <c r="N646" s="28">
+        <v>0</v>
+      </c>
+      <c r="O646" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="P646" s="29">
+        <v>49800</v>
+      </c>
+      <c r="Q646" s="29" t="s">
+        <v>1626</v>
+      </c>
+      <c r="R646" s="53" t="s">
+        <v>1643</v>
+      </c>
+      <c r="S646" s="29"/>
+      <c r="W646" s="28" t="s">
+        <v>481</v>
+      </c>
+      <c r="X646" s="28">
+        <v>99999999</v>
+      </c>
+      <c r="Y646" s="29">
+        <v>1621900800</v>
+      </c>
+      <c r="Z646" s="29">
+        <v>1622476799</v>
+      </c>
+      <c r="AA646" s="29">
+        <v>83</v>
+      </c>
+      <c r="AB646" s="29"/>
+      <c r="AH646" s="29">
+        <v>1</v>
+      </c>
+      <c r="AI646" s="29">
+        <v>1</v>
+      </c>
+      <c r="AL646" s="29">
+        <v>1</v>
+      </c>
+      <c r="AM646" s="29">
         <v>1</v>
       </c>
     </row>
@@ -59040,19 +59964,19 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="58.5" customHeight="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>1624</v>
+        <v>1644</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1625</v>
+        <v>1645</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1626</v>
+        <v>1646</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1627</v>
+        <v>1647</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1628</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="2" ht="57.75" customHeight="1" spans="1:5">
@@ -59060,7 +59984,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>1629</v>
+        <v>1649</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -59069,7 +59993,7 @@
         <v>3600</v>
       </c>
       <c r="E2" t="s">
-        <v>1630</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="3" ht="78.75" customHeight="1" spans="1:4">
@@ -59077,7 +60001,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>1631</v>
+        <v>1651</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -59091,7 +60015,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>1632</v>
+        <v>1652</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -59105,7 +60029,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>1633</v>
+        <v>1653</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -59119,7 +60043,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>1634</v>
+        <v>1654</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -59133,7 +60057,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>1635</v>
+        <v>1655</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -59147,7 +60071,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>1636</v>
+        <v>1656</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -59161,7 +60085,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>1637</v>
+        <v>1657</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -59175,7 +60099,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>1638</v>
+        <v>1658</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -59189,7 +60113,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>1639</v>
+        <v>1659</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -59203,7 +60127,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>1634</v>
+        <v>1654</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -59217,7 +60141,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>1635</v>
+        <v>1655</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -59231,7 +60155,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>1640</v>
+        <v>1660</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -59245,7 +60169,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>1641</v>
+        <v>1661</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -59259,7 +60183,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>1642</v>
+        <v>1662</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -59273,7 +60197,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>1643</v>
+        <v>1663</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -59287,7 +60211,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>1644</v>
+        <v>1664</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -59301,7 +60225,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>1645</v>
+        <v>1665</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -59315,7 +60239,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>1646</v>
+        <v>1666</v>
       </c>
       <c r="C20" s="4">
         <v>1</v>
@@ -59329,7 +60253,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="C21" s="4">
         <v>1</v>
@@ -59343,7 +60267,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>1648</v>
+        <v>1668</v>
       </c>
       <c r="C22" s="4">
         <v>1</v>
@@ -59357,7 +60281,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>1649</v>
+        <v>1669</v>
       </c>
       <c r="C23" s="4">
         <v>1</v>
@@ -59371,7 +60295,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>1650</v>
+        <v>1670</v>
       </c>
       <c r="C24" s="4">
         <v>1</v>
@@ -59385,7 +60309,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>1651</v>
+        <v>1671</v>
       </c>
       <c r="C25" s="4">
         <v>1</v>
@@ -59399,7 +60323,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>1652</v>
+        <v>1672</v>
       </c>
       <c r="C26" s="4">
         <v>1</v>
@@ -59413,7 +60337,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>1653</v>
+        <v>1673</v>
       </c>
       <c r="C27" s="2">
         <v>1</v>
@@ -59427,7 +60351,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>1654</v>
+        <v>1674</v>
       </c>
       <c r="C28" s="2">
         <v>1</v>
@@ -59441,7 +60365,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>1655</v>
+        <v>1675</v>
       </c>
       <c r="C29" s="2">
         <v>1</v>
@@ -59455,7 +60379,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>1656</v>
+        <v>1676</v>
       </c>
       <c r="C30" s="2">
         <v>1</v>
@@ -59469,7 +60393,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>1657</v>
+        <v>1677</v>
       </c>
       <c r="C31" s="2">
         <v>1</v>
@@ -59483,7 +60407,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>1658</v>
+        <v>1678</v>
       </c>
       <c r="C32" s="2">
         <v>1</v>
@@ -59497,7 +60421,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>1659</v>
+        <v>1679</v>
       </c>
       <c r="C33" s="2">
         <v>1</v>
@@ -59511,7 +60435,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>1660</v>
+        <v>1680</v>
       </c>
       <c r="C34" s="2">
         <v>1</v>
@@ -59525,7 +60449,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>1661</v>
+        <v>1681</v>
       </c>
       <c r="C35" s="2">
         <v>1</v>
@@ -59539,7 +60463,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>1662</v>
+        <v>1682</v>
       </c>
       <c r="C36" s="2">
         <v>1</v>
@@ -59553,7 +60477,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>1663</v>
+        <v>1683</v>
       </c>
       <c r="C37" s="2">
         <v>1</v>
@@ -59567,7 +60491,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>1664</v>
+        <v>1684</v>
       </c>
       <c r="C38" s="2">
         <v>1</v>
@@ -59581,7 +60505,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>1665</v>
+        <v>1685</v>
       </c>
       <c r="C39" s="2">
         <v>1</v>
@@ -59595,7 +60519,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>1666</v>
+        <v>1686</v>
       </c>
       <c r="C40" s="2">
         <v>1</v>
@@ -59609,7 +60533,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>1667</v>
+        <v>1687</v>
       </c>
       <c r="C41" s="2">
         <v>1</v>
@@ -59623,7 +60547,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>1668</v>
+        <v>1688</v>
       </c>
       <c r="C42" s="2">
         <v>1</v>
@@ -59637,7 +60561,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>1669</v>
+        <v>1689</v>
       </c>
       <c r="C43" s="2">
         <v>1</v>
@@ -59651,7 +60575,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>1670</v>
+        <v>1690</v>
       </c>
       <c r="C44" s="2">
         <v>1</v>
@@ -59665,7 +60589,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>1671</v>
+        <v>1691</v>
       </c>
       <c r="C45" s="2">
         <v>1</v>
@@ -59679,7 +60603,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>1672</v>
+        <v>1692</v>
       </c>
       <c r="C46" s="2">
         <v>1</v>
@@ -59693,7 +60617,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>1673</v>
+        <v>1693</v>
       </c>
       <c r="C47" s="2">
         <v>1</v>
@@ -59707,7 +60631,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>1674</v>
+        <v>1694</v>
       </c>
       <c r="C48" s="2">
         <v>1</v>
@@ -59721,7 +60645,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>1675</v>
+        <v>1695</v>
       </c>
       <c r="C49" s="2">
         <v>1</v>
@@ -59735,7 +60659,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>1676</v>
+        <v>1696</v>
       </c>
       <c r="C50" s="2">
         <v>1</v>
@@ -59749,7 +60673,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>1677</v>
+        <v>1697</v>
       </c>
       <c r="C51" s="2">
         <v>1</v>
@@ -59763,7 +60687,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>1678</v>
+        <v>1698</v>
       </c>
       <c r="C52" s="2">
         <v>1</v>
@@ -59777,7 +60701,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>1679</v>
+        <v>1699</v>
       </c>
       <c r="C53" s="2">
         <v>1</v>
@@ -59791,7 +60715,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>1680</v>
+        <v>1700</v>
       </c>
       <c r="C54" s="2">
         <v>1</v>
@@ -59805,7 +60729,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>1681</v>
+        <v>1701</v>
       </c>
       <c r="C55" s="2">
         <v>1</v>
@@ -59819,7 +60743,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>1682</v>
+        <v>1702</v>
       </c>
       <c r="C56" s="2">
         <v>1</v>
@@ -59833,7 +60757,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>1683</v>
+        <v>1703</v>
       </c>
       <c r="C57" s="2">
         <v>1</v>
@@ -59847,7 +60771,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>1684</v>
+        <v>1704</v>
       </c>
       <c r="C58" s="2">
         <v>1</v>
@@ -59861,7 +60785,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>1685</v>
+        <v>1705</v>
       </c>
       <c r="C59" s="2">
         <v>1</v>
@@ -59875,7 +60799,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>1686</v>
+        <v>1706</v>
       </c>
       <c r="C60" s="2">
         <v>1</v>
@@ -59889,7 +60813,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>1687</v>
+        <v>1707</v>
       </c>
       <c r="C61" s="2">
         <v>1</v>
@@ -59903,7 +60827,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>1688</v>
+        <v>1708</v>
       </c>
       <c r="C62" s="2">
         <v>1</v>
@@ -59917,7 +60841,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>1689</v>
+        <v>1709</v>
       </c>
       <c r="C63" s="2">
         <v>1</v>
@@ -59931,7 +60855,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>1690</v>
+        <v>1710</v>
       </c>
       <c r="C64" s="2">
         <v>1</v>
@@ -59945,7 +60869,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>1691</v>
+        <v>1711</v>
       </c>
       <c r="C65" s="2">
         <v>1</v>
@@ -59959,7 +60883,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>1692</v>
+        <v>1712</v>
       </c>
       <c r="C66" s="2">
         <v>1</v>
@@ -59973,7 +60897,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>1693</v>
+        <v>1713</v>
       </c>
       <c r="C67" s="2">
         <v>1</v>
@@ -59987,7 +60911,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>1694</v>
+        <v>1714</v>
       </c>
       <c r="C68" s="2">
         <v>1</v>
@@ -60001,7 +60925,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>1695</v>
+        <v>1715</v>
       </c>
       <c r="C69" s="2">
         <v>1</v>
@@ -60015,7 +60939,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>1696</v>
+        <v>1716</v>
       </c>
       <c r="C70" s="2">
         <v>1</v>
@@ -60029,7 +60953,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="18" t="s">
-        <v>1697</v>
+        <v>1717</v>
       </c>
       <c r="C71" s="19">
         <v>1</v>
@@ -60043,7 +60967,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="18" t="s">
-        <v>1698</v>
+        <v>1718</v>
       </c>
       <c r="C72" s="19">
         <v>1</v>
@@ -60057,7 +60981,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="18" t="s">
-        <v>1699</v>
+        <v>1719</v>
       </c>
       <c r="C73" s="19">
         <v>1</v>
@@ -60071,7 +60995,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="18" t="s">
-        <v>1700</v>
+        <v>1720</v>
       </c>
       <c r="C74" s="19">
         <v>1</v>
@@ -60085,7 +61009,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="18" t="s">
-        <v>1701</v>
+        <v>1721</v>
       </c>
       <c r="C75" s="19">
         <v>1</v>
@@ -60099,7 +61023,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="18" t="s">
-        <v>1702</v>
+        <v>1722</v>
       </c>
       <c r="C76" s="19">
         <v>1</v>
@@ -60113,7 +61037,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="18" t="s">
-        <v>1703</v>
+        <v>1723</v>
       </c>
       <c r="C77" s="19">
         <v>1</v>
@@ -60127,7 +61051,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="18" t="s">
-        <v>1704</v>
+        <v>1724</v>
       </c>
       <c r="C78" s="19">
         <v>1</v>
@@ -60141,7 +61065,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="18" t="s">
-        <v>1705</v>
+        <v>1725</v>
       </c>
       <c r="C79" s="19">
         <v>1</v>
@@ -60155,7 +61079,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="18" t="s">
-        <v>1706</v>
+        <v>1726</v>
       </c>
       <c r="C80" s="19">
         <v>1</v>
@@ -60169,7 +61093,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="20" t="s">
-        <v>1707</v>
+        <v>1727</v>
       </c>
       <c r="C81" s="2">
         <v>1</v>
@@ -60183,7 +61107,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="20" t="s">
-        <v>1708</v>
+        <v>1728</v>
       </c>
       <c r="C82" s="2">
         <v>1</v>
@@ -60197,7 +61121,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="20" t="s">
-        <v>1709</v>
+        <v>1729</v>
       </c>
       <c r="C83" s="2">
         <v>1</v>
@@ -60211,7 +61135,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="20" t="s">
-        <v>1710</v>
+        <v>1730</v>
       </c>
       <c r="C84" s="2">
         <v>1</v>
@@ -60225,7 +61149,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="20" t="s">
-        <v>1711</v>
+        <v>1731</v>
       </c>
       <c r="C85">
         <v>1</v>
@@ -60277,7 +61201,7 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="90" customHeight="1" spans="1:29">
       <c r="A1" s="1" t="s">
-        <v>1712</v>
+        <v>1732</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>22</v>
@@ -60289,19 +61213,19 @@
         <v>25</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1713</v>
+        <v>1733</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>1714</v>
+        <v>1734</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>1715</v>
+        <v>1735</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>1716</v>
+        <v>1736</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>1717</v>
+        <v>1737</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>31</v>
@@ -60316,7 +61240,7 @@
         <v>38</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>1718</v>
+        <v>1738</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>39</v>
@@ -60361,7 +61285,7 @@
         <v>52</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>1719</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="2" s="12" customFormat="1" spans="1:26">
@@ -60381,7 +61305,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>1720</v>
+        <v>1740</v>
       </c>
       <c r="G2" s="12">
         <v>480</v>
@@ -60408,22 +61332,22 @@
         <v>3</v>
       </c>
       <c r="P2" s="15" t="s">
-        <v>1721</v>
+        <v>1741</v>
       </c>
       <c r="Q2" s="15" t="s">
-        <v>1722</v>
+        <v>1742</v>
       </c>
       <c r="S2" s="15" t="s">
-        <v>1723</v>
+        <v>1743</v>
       </c>
       <c r="T2" s="12" t="s">
         <v>61</v>
       </c>
       <c r="U2" s="15" t="s">
-        <v>1724</v>
+        <v>1744</v>
       </c>
       <c r="V2" s="12" t="s">
-        <v>1725</v>
+        <v>1745</v>
       </c>
       <c r="Y2" s="12">
         <v>1</v>
@@ -60449,7 +61373,7 @@
         <v>2</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>1720</v>
+        <v>1740</v>
       </c>
       <c r="G3" s="12">
         <v>1200</v>
@@ -60479,19 +61403,19 @@
         <v>127</v>
       </c>
       <c r="Q3" s="15" t="s">
-        <v>1726</v>
+        <v>1746</v>
       </c>
       <c r="S3" s="15" t="s">
-        <v>1723</v>
+        <v>1743</v>
       </c>
       <c r="T3" s="12" t="s">
         <v>66</v>
       </c>
       <c r="U3" s="15" t="s">
-        <v>1727</v>
+        <v>1747</v>
       </c>
       <c r="V3" s="12" t="s">
-        <v>1725</v>
+        <v>1745</v>
       </c>
       <c r="Y3" s="12">
         <v>1</v>
@@ -60517,7 +61441,7 @@
         <v>3</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>1720</v>
+        <v>1740</v>
       </c>
       <c r="G4" s="12">
         <v>2400</v>
@@ -60544,22 +61468,22 @@
         <v>5</v>
       </c>
       <c r="P4" s="15" t="s">
-        <v>1728</v>
+        <v>1748</v>
       </c>
       <c r="Q4" s="15" t="s">
-        <v>1729</v>
+        <v>1749</v>
       </c>
       <c r="S4" s="15" t="s">
-        <v>1723</v>
+        <v>1743</v>
       </c>
       <c r="T4" s="12" t="s">
         <v>70</v>
       </c>
       <c r="U4" s="12" t="s">
-        <v>1730</v>
+        <v>1750</v>
       </c>
       <c r="V4" s="12" t="s">
-        <v>1725</v>
+        <v>1745</v>
       </c>
       <c r="Y4" s="12">
         <v>1</v>
@@ -60585,7 +61509,7 @@
         <v>4</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>1720</v>
+        <v>1740</v>
       </c>
       <c r="G5" s="12">
         <v>4000</v>
@@ -60612,22 +61536,22 @@
         <v>6</v>
       </c>
       <c r="P5" s="15" t="s">
-        <v>1731</v>
+        <v>1751</v>
       </c>
       <c r="Q5" s="15" t="s">
-        <v>1732</v>
+        <v>1752</v>
       </c>
       <c r="S5" s="15" t="s">
-        <v>1723</v>
+        <v>1743</v>
       </c>
       <c r="T5" s="12" t="s">
         <v>74</v>
       </c>
       <c r="U5" s="15" t="s">
-        <v>1733</v>
+        <v>1753</v>
       </c>
       <c r="V5" s="12" t="s">
-        <v>1725</v>
+        <v>1745</v>
       </c>
       <c r="Y5" s="12">
         <v>1</v>
@@ -60653,7 +61577,7 @@
         <v>5</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>1720</v>
+        <v>1740</v>
       </c>
       <c r="G6" s="12">
         <v>7840</v>
@@ -60680,22 +61604,22 @@
         <v>7</v>
       </c>
       <c r="P6" s="15" t="s">
-        <v>1734</v>
+        <v>1754</v>
       </c>
       <c r="Q6" s="15" t="s">
-        <v>1735</v>
+        <v>1755</v>
       </c>
       <c r="S6" s="15" t="s">
-        <v>1723</v>
+        <v>1743</v>
       </c>
       <c r="T6" s="12" t="s">
         <v>78</v>
       </c>
       <c r="U6" s="12" t="s">
-        <v>1736</v>
+        <v>1756</v>
       </c>
       <c r="V6" s="12" t="s">
-        <v>1725</v>
+        <v>1745</v>
       </c>
       <c r="Y6" s="12">
         <v>1</v>
@@ -60721,7 +61645,7 @@
         <v>6</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>1720</v>
+        <v>1740</v>
       </c>
       <c r="G7" s="12">
         <v>39840</v>
@@ -60748,22 +61672,22 @@
         <v>9</v>
       </c>
       <c r="P7" s="15" t="s">
-        <v>1737</v>
+        <v>1757</v>
       </c>
       <c r="Q7" s="15" t="s">
-        <v>1738</v>
+        <v>1758</v>
       </c>
       <c r="S7" s="15" t="s">
-        <v>1723</v>
+        <v>1743</v>
       </c>
       <c r="T7" s="12" t="s">
         <v>82</v>
       </c>
       <c r="U7" s="12" t="s">
-        <v>1739</v>
+        <v>1759</v>
       </c>
       <c r="V7" s="12" t="s">
-        <v>1725</v>
+        <v>1745</v>
       </c>
       <c r="Y7" s="12">
         <v>1</v>
@@ -60786,7 +61710,7 @@
         <v>1</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>1720</v>
+        <v>1740</v>
       </c>
       <c r="G8" s="12">
         <v>120</v>
@@ -60813,22 +61737,22 @@
         <v>0</v>
       </c>
       <c r="P8" s="15" t="s">
-        <v>1740</v>
+        <v>1760</v>
       </c>
       <c r="Q8" s="15" t="s">
-        <v>1741</v>
+        <v>1761</v>
       </c>
       <c r="S8" s="15" t="s">
-        <v>1723</v>
+        <v>1743</v>
       </c>
       <c r="T8" s="12" t="s">
         <v>61</v>
       </c>
       <c r="U8" s="15" t="s">
-        <v>1724</v>
+        <v>1744</v>
       </c>
       <c r="V8" s="12" t="s">
-        <v>1725</v>
+        <v>1745</v>
       </c>
       <c r="Y8" s="12">
         <v>1</v>
@@ -60852,7 +61776,7 @@
         <v>5</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>1742</v>
+        <v>1762</v>
       </c>
       <c r="G9" s="13">
         <v>5000</v>
@@ -60880,10 +61804,10 @@
         <v>2</v>
       </c>
       <c r="P9" s="16" t="s">
-        <v>1743</v>
+        <v>1763</v>
       </c>
       <c r="Q9" s="16" t="s">
-        <v>1744</v>
+        <v>1764</v>
       </c>
       <c r="R9" s="13"/>
       <c r="S9" s="13"/>
@@ -60891,10 +61815,10 @@
         <v>5000</v>
       </c>
       <c r="U9" s="13" t="s">
-        <v>1733</v>
+        <v>1753</v>
       </c>
       <c r="V9" s="13" t="s">
-        <v>1725</v>
+        <v>1745</v>
       </c>
       <c r="W9" s="13"/>
       <c r="X9" s="13"/>
@@ -60907,7 +61831,7 @@
       <c r="AA9" s="13"/>
       <c r="AB9" s="13"/>
       <c r="AC9" s="16" t="s">
-        <v>1745</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="10" s="12" customFormat="1" spans="1:29">
@@ -60925,7 +61849,7 @@
         <v>2</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>1742</v>
+        <v>1762</v>
       </c>
       <c r="G10" s="13">
         <v>1000</v>
@@ -60953,10 +61877,10 @@
         <v>1</v>
       </c>
       <c r="P10" s="16" t="s">
-        <v>1746</v>
+        <v>1766</v>
       </c>
       <c r="Q10" s="16" t="s">
-        <v>1747</v>
+        <v>1767</v>
       </c>
       <c r="R10" s="13"/>
       <c r="S10" s="13"/>
@@ -60964,10 +61888,10 @@
         <v>1000</v>
       </c>
       <c r="U10" s="13" t="s">
-        <v>1727</v>
+        <v>1747</v>
       </c>
       <c r="V10" s="13" t="s">
-        <v>1725</v>
+        <v>1745</v>
       </c>
       <c r="W10" s="13"/>
       <c r="X10" s="13"/>
@@ -60980,7 +61904,7 @@
       <c r="AA10" s="13"/>
       <c r="AB10" s="13"/>
       <c r="AC10" s="16" t="s">
-        <v>1748</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="11" s="12" customFormat="1" spans="1:26">
@@ -60997,7 +61921,7 @@
         <v>2</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>1720</v>
+        <v>1740</v>
       </c>
       <c r="G11" s="12">
         <v>1200</v>
@@ -61027,19 +61951,19 @@
         <v>127</v>
       </c>
       <c r="Q11" s="15" t="s">
-        <v>1726</v>
+        <v>1746</v>
       </c>
       <c r="S11" s="15" t="s">
-        <v>1723</v>
+        <v>1743</v>
       </c>
       <c r="T11" s="15" t="s">
         <v>66</v>
       </c>
       <c r="U11" s="12" t="s">
-        <v>1727</v>
+        <v>1747</v>
       </c>
       <c r="V11" s="12" t="s">
-        <v>1725</v>
+        <v>1745</v>
       </c>
       <c r="Y11" s="12">
         <v>1</v>
@@ -61065,7 +61989,7 @@
         <v>107</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>1720</v>
+        <v>1740</v>
       </c>
       <c r="G12" s="12">
         <v>120000</v>
@@ -61092,22 +62016,22 @@
         <v>9</v>
       </c>
       <c r="P12" s="15" t="s">
-        <v>1749</v>
+        <v>1769</v>
       </c>
       <c r="Q12" s="15" t="s">
-        <v>1750</v>
+        <v>1770</v>
       </c>
       <c r="S12" s="15" t="s">
-        <v>1723</v>
+        <v>1743</v>
       </c>
       <c r="T12" s="12" t="s">
         <v>86</v>
       </c>
       <c r="U12" s="12" t="s">
-        <v>1751</v>
+        <v>1771</v>
       </c>
       <c r="V12" s="12" t="s">
-        <v>1725</v>
+        <v>1745</v>
       </c>
       <c r="Y12" s="12">
         <v>1</v>
@@ -61133,7 +62057,7 @@
         <v>108</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>1720</v>
+        <v>1740</v>
       </c>
       <c r="G13" s="12">
         <v>79840</v>
@@ -61160,22 +62084,22 @@
         <v>10</v>
       </c>
       <c r="P13" s="15" t="s">
-        <v>1752</v>
+        <v>1772</v>
       </c>
       <c r="Q13" s="15" t="s">
-        <v>1753</v>
+        <v>1773</v>
       </c>
       <c r="S13" s="15" t="s">
-        <v>1723</v>
+        <v>1743</v>
       </c>
       <c r="T13" s="12" t="s">
-        <v>1754</v>
+        <v>1774</v>
       </c>
       <c r="U13" s="12" t="s">
-        <v>1751</v>
+        <v>1771</v>
       </c>
       <c r="V13" s="12" t="s">
-        <v>1725</v>
+        <v>1745</v>
       </c>
       <c r="Y13" s="12">
         <v>1</v>
@@ -61201,7 +62125,7 @@
         <v>110</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>1720</v>
+        <v>1740</v>
       </c>
       <c r="G14" s="12">
         <v>199840</v>
@@ -61228,22 +62152,22 @@
         <v>11</v>
       </c>
       <c r="P14" s="15" t="s">
-        <v>1755</v>
+        <v>1775</v>
       </c>
       <c r="Q14" s="15" t="s">
-        <v>1756</v>
+        <v>1776</v>
       </c>
       <c r="S14" s="15" t="s">
-        <v>1757</v>
+        <v>1777</v>
       </c>
       <c r="T14" s="12" t="s">
-        <v>1758</v>
+        <v>1778</v>
       </c>
       <c r="U14" s="12" t="s">
-        <v>1759</v>
+        <v>1779</v>
       </c>
       <c r="V14" s="12" t="s">
-        <v>1725</v>
+        <v>1745</v>
       </c>
       <c r="Y14" s="12">
         <v>1</v>
@@ -61267,7 +62191,7 @@
         <v>1</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>1742</v>
+        <v>1762</v>
       </c>
       <c r="G15" s="13">
         <v>100</v>
@@ -61297,10 +62221,10 @@
         <v>0</v>
       </c>
       <c r="P15" s="16" t="s">
-        <v>1760</v>
+        <v>1780</v>
       </c>
       <c r="Q15" s="16" t="s">
-        <v>1761</v>
+        <v>1781</v>
       </c>
       <c r="R15" s="13"/>
       <c r="S15" s="16"/>
@@ -61308,10 +62232,10 @@
         <v>100</v>
       </c>
       <c r="U15" s="16" t="s">
-        <v>1724</v>
+        <v>1744</v>
       </c>
       <c r="V15" s="13" t="s">
-        <v>1725</v>
+        <v>1745</v>
       </c>
       <c r="W15" s="13"/>
       <c r="X15" s="13"/>
@@ -61324,7 +62248,7 @@
       <c r="AA15" s="13"/>
       <c r="AB15" s="13"/>
       <c r="AC15" s="16" t="s">
-        <v>1762</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="16" s="12" customFormat="1" spans="1:26">
@@ -61344,7 +62268,7 @@
         <v>101</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>1720</v>
+        <v>1740</v>
       </c>
       <c r="G16" s="12">
         <v>2000</v>
@@ -61371,23 +62295,23 @@
         <v>3</v>
       </c>
       <c r="P16" s="15" t="s">
-        <v>1763</v>
+        <v>1783</v>
       </c>
       <c r="Q16" s="15" t="s">
-        <v>1764</v>
+        <v>1784</v>
       </c>
       <c r="R16" s="2"/>
       <c r="S16" s="15" t="s">
-        <v>1723</v>
+        <v>1743</v>
       </c>
       <c r="T16" s="12" t="s">
         <v>101</v>
       </c>
       <c r="U16" s="15" t="s">
-        <v>1724</v>
+        <v>1744</v>
       </c>
       <c r="V16" s="12" t="s">
-        <v>1725</v>
+        <v>1745</v>
       </c>
       <c r="W16" s="2"/>
       <c r="X16" s="2"/>
@@ -61412,7 +62336,7 @@
         <v>102</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>1720</v>
+        <v>1740</v>
       </c>
       <c r="G17" s="12">
         <v>6700</v>
@@ -61439,23 +62363,23 @@
         <v>4</v>
       </c>
       <c r="P17" s="15" t="s">
-        <v>1765</v>
+        <v>1785</v>
       </c>
       <c r="Q17" s="15" t="s">
-        <v>1766</v>
+        <v>1786</v>
       </c>
       <c r="R17" s="2"/>
       <c r="S17" s="15" t="s">
-        <v>1723</v>
+        <v>1743</v>
       </c>
       <c r="T17" s="12" t="s">
         <v>105</v>
       </c>
       <c r="U17" s="12" t="s">
-        <v>1730</v>
+        <v>1750</v>
       </c>
       <c r="V17" s="12" t="s">
-        <v>1725</v>
+        <v>1745</v>
       </c>
       <c r="W17" s="2"/>
       <c r="X17" s="2"/>
@@ -61480,7 +62404,7 @@
         <v>103</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>1720</v>
+        <v>1740</v>
       </c>
       <c r="G18" s="12">
         <v>13200</v>
@@ -61507,23 +62431,23 @@
         <v>5</v>
       </c>
       <c r="P18" s="15" t="s">
-        <v>1767</v>
+        <v>1787</v>
       </c>
       <c r="Q18" s="15" t="s">
-        <v>1768</v>
+        <v>1788</v>
       </c>
       <c r="R18" s="2"/>
       <c r="S18" s="15" t="s">
-        <v>1723</v>
+        <v>1743</v>
       </c>
       <c r="T18" s="12" t="s">
         <v>109</v>
       </c>
       <c r="U18" s="12" t="s">
-        <v>1736</v>
+        <v>1756</v>
       </c>
       <c r="V18" s="12" t="s">
-        <v>1725</v>
+        <v>1745</v>
       </c>
       <c r="W18" s="2"/>
       <c r="X18" s="2"/>
@@ -61548,7 +62472,7 @@
         <v>104</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>1720</v>
+        <v>1740</v>
       </c>
       <c r="G19" s="12">
         <v>20400</v>
@@ -61575,23 +62499,23 @@
         <v>6</v>
       </c>
       <c r="P19" s="15" t="s">
-        <v>1769</v>
+        <v>1789</v>
       </c>
       <c r="Q19" s="15" t="s">
-        <v>1770</v>
+        <v>1790</v>
       </c>
       <c r="R19" s="2"/>
       <c r="S19" s="15" t="s">
-        <v>1723</v>
+        <v>1743</v>
       </c>
       <c r="T19" s="12" t="s">
         <v>114</v>
       </c>
       <c r="U19" s="15" t="s">
-        <v>1771</v>
+        <v>1791</v>
       </c>
       <c r="V19" s="12" t="s">
-        <v>1725</v>
+        <v>1745</v>
       </c>
       <c r="W19" s="2"/>
       <c r="X19" s="2"/>
@@ -61616,7 +62540,7 @@
         <v>105</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>1720</v>
+        <v>1740</v>
       </c>
       <c r="G20" s="12">
         <v>66</v>
@@ -61643,22 +62567,22 @@
         <v>7</v>
       </c>
       <c r="P20" s="15" t="s">
-        <v>1772</v>
+        <v>1792</v>
       </c>
       <c r="Q20" s="15" t="s">
-        <v>1773</v>
+        <v>1793</v>
       </c>
       <c r="S20" s="15" t="s">
-        <v>1723</v>
+        <v>1743</v>
       </c>
       <c r="T20" s="12" t="s">
         <v>120</v>
       </c>
       <c r="U20" s="12" t="s">
-        <v>1771</v>
+        <v>1791</v>
       </c>
       <c r="V20" s="12" t="s">
-        <v>1725</v>
+        <v>1745</v>
       </c>
       <c r="Y20" s="12">
         <v>1</v>
@@ -61682,7 +62606,7 @@
         <v>101</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>1720</v>
+        <v>1740</v>
       </c>
       <c r="G21" s="12">
         <v>200</v>
@@ -61713,20 +62637,20 @@
         <v>890</v>
       </c>
       <c r="Q21" s="15" t="s">
-        <v>1774</v>
+        <v>1794</v>
       </c>
       <c r="R21" s="12"/>
       <c r="S21" s="15" t="s">
-        <v>1723</v>
+        <v>1743</v>
       </c>
       <c r="T21" s="12" t="s">
         <v>124</v>
       </c>
       <c r="U21" s="15" t="s">
-        <v>1724</v>
+        <v>1744</v>
       </c>
       <c r="V21" s="12" t="s">
-        <v>1725</v>
+        <v>1745</v>
       </c>
       <c r="W21" s="12"/>
       <c r="X21" s="12"/>
@@ -61755,7 +62679,7 @@
         <v>104</v>
       </c>
       <c r="F22" s="13" t="s">
-        <v>1742</v>
+        <v>1762</v>
       </c>
       <c r="G22" s="13">
         <v>5000</v>
@@ -61783,10 +62707,10 @@
         <v>2</v>
       </c>
       <c r="P22" s="16" t="s">
-        <v>1743</v>
+        <v>1763</v>
       </c>
       <c r="Q22" s="16" t="s">
-        <v>1744</v>
+        <v>1764</v>
       </c>
       <c r="R22" s="13"/>
       <c r="S22" s="16"/>
@@ -61794,10 +62718,10 @@
         <v>5000</v>
       </c>
       <c r="U22" s="16" t="s">
-        <v>1733</v>
+        <v>1753</v>
       </c>
       <c r="V22" s="13" t="s">
-        <v>1725</v>
+        <v>1745</v>
       </c>
       <c r="W22" s="13"/>
       <c r="X22" s="13"/>
@@ -61826,7 +62750,7 @@
         <v>102</v>
       </c>
       <c r="F23" s="13" t="s">
-        <v>1742</v>
+        <v>1762</v>
       </c>
       <c r="G23" s="13">
         <v>1000</v>
@@ -61854,10 +62778,10 @@
         <v>1</v>
       </c>
       <c r="P23" s="16" t="s">
-        <v>1746</v>
+        <v>1766</v>
       </c>
       <c r="Q23" s="16" t="s">
-        <v>1747</v>
+        <v>1767</v>
       </c>
       <c r="R23" s="13"/>
       <c r="S23" s="16"/>
@@ -61865,10 +62789,10 @@
         <v>1000</v>
       </c>
       <c r="U23" s="16" t="s">
-        <v>1724</v>
+        <v>1744</v>
       </c>
       <c r="V23" s="13" t="s">
-        <v>1725</v>
+        <v>1745</v>
       </c>
       <c r="W23" s="13"/>
       <c r="X23" s="13"/>
@@ -61890,14 +62814,14 @@
         <v>109</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>1775</v>
+        <v>1795</v>
       </c>
       <c r="D24" s="13"/>
       <c r="E24" s="13">
         <v>101</v>
       </c>
       <c r="F24" s="13" t="s">
-        <v>1742</v>
+        <v>1762</v>
       </c>
       <c r="G24" s="13">
         <v>100</v>
@@ -61927,10 +62851,10 @@
         <v>0</v>
       </c>
       <c r="P24" s="16" t="s">
-        <v>1760</v>
+        <v>1780</v>
       </c>
       <c r="Q24" s="16" t="s">
-        <v>1761</v>
+        <v>1781</v>
       </c>
       <c r="R24" s="13"/>
       <c r="S24" s="16"/>
@@ -61938,10 +62862,10 @@
         <v>100</v>
       </c>
       <c r="U24" s="16" t="s">
-        <v>1724</v>
+        <v>1744</v>
       </c>
       <c r="V24" s="13" t="s">
-        <v>1725</v>
+        <v>1745</v>
       </c>
       <c r="W24" s="13"/>
       <c r="X24" s="13"/>
@@ -61954,7 +62878,7 @@
       <c r="AA24" s="13"/>
       <c r="AB24" s="13"/>
       <c r="AC24" s="16" t="s">
-        <v>1762</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="25" s="12" customFormat="1" spans="1:26">
@@ -61974,7 +62898,7 @@
         <v>111</v>
       </c>
       <c r="F25" s="15" t="s">
-        <v>1720</v>
+        <v>1740</v>
       </c>
       <c r="G25" s="12">
         <v>15840</v>
@@ -62001,22 +62925,22 @@
         <v>8</v>
       </c>
       <c r="P25" s="15" t="s">
-        <v>1776</v>
+        <v>1796</v>
       </c>
       <c r="Q25" s="15" t="s">
-        <v>1777</v>
+        <v>1797</v>
       </c>
       <c r="S25" s="15" t="s">
-        <v>1723</v>
+        <v>1743</v>
       </c>
       <c r="T25" s="15" t="s">
-        <v>1778</v>
+        <v>1798</v>
       </c>
       <c r="U25" s="15" t="s">
-        <v>1771</v>
+        <v>1791</v>
       </c>
       <c r="V25" s="12" t="s">
-        <v>1725</v>
+        <v>1745</v>
       </c>
       <c r="Y25" s="12">
         <v>1</v>
@@ -62079,13 +63003,13 @@
         <v>33</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1714</v>
+        <v>1734</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>1715</v>
+        <v>1735</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>1779</v>
+        <v>1799</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>31</v>
@@ -62097,16 +63021,16 @@
         <v>155</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>1780</v>
+        <v>1800</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>1781</v>
+        <v>1801</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>1782</v>
+        <v>1802</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>1783</v>
+        <v>1803</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>38</v>
@@ -62147,7 +63071,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>1784</v>
+        <v>1804</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>14</v>
@@ -62159,7 +63083,7 @@
         <v>1</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>1785</v>
+        <v>1805</v>
       </c>
       <c r="L2" s="2">
         <v>54</v>
@@ -62168,7 +63092,7 @@
         <v>999999</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>1786</v>
+        <v>1806</v>
       </c>
       <c r="O2" s="2">
         <v>0</v>
@@ -62177,22 +63101,22 @@
         <v>1</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>1787</v>
+        <v>1807</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>1788</v>
+        <v>1808</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>1789</v>
+        <v>1809</v>
       </c>
       <c r="T2" s="2">
         <v>60000</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>1790</v>
+        <v>1810</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>1725</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="3" s="2" customFormat="1" spans="1:23">
@@ -62203,7 +63127,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>1784</v>
+        <v>1804</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>14</v>
@@ -62215,7 +63139,7 @@
         <v>10</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>1785</v>
+        <v>1805</v>
       </c>
       <c r="L3" s="2">
         <v>54</v>
@@ -62224,7 +63148,7 @@
         <v>999999</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>1791</v>
+        <v>1811</v>
       </c>
       <c r="O3" s="2">
         <v>0</v>
@@ -62233,22 +63157,22 @@
         <v>2</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>1787</v>
+        <v>1807</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>1792</v>
+        <v>1812</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>1789</v>
+        <v>1809</v>
       </c>
       <c r="T3" s="2">
         <v>500000</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>1790</v>
+        <v>1810</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>1725</v>
+        <v>1745</v>
       </c>
       <c r="W3" s="2">
         <v>8.3</v>
@@ -62262,7 +63186,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>1793</v>
+        <v>1813</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>14</v>
@@ -62287,19 +63211,19 @@
         <v>4</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>1794</v>
+        <v>1814</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>1795</v>
+        <v>1815</v>
       </c>
       <c r="T4" s="2">
         <v>15000</v>
       </c>
       <c r="U4" s="2" t="s">
-        <v>1796</v>
+        <v>1816</v>
       </c>
       <c r="V4" s="2" t="s">
-        <v>1725</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="5" s="2" customFormat="1" spans="1:22">
@@ -62310,7 +63234,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>1797</v>
+        <v>1817</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>14</v>
@@ -62337,10 +63261,10 @@
         <v>100000</v>
       </c>
       <c r="U5" s="12" t="s">
-        <v>1798</v>
+        <v>1818</v>
       </c>
       <c r="V5" s="2" t="s">
-        <v>1725</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="1" spans="1:22">
@@ -62351,7 +63275,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>1799</v>
+        <v>1819</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>14</v>
@@ -62378,10 +63302,10 @@
         <v>100000</v>
       </c>
       <c r="U6" s="12" t="s">
-        <v>1798</v>
+        <v>1818</v>
       </c>
       <c r="V6" s="2" t="s">
-        <v>1725</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="7" s="2" customFormat="1" spans="1:23">
@@ -62392,7 +63316,7 @@
         <v>3</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>1784</v>
+        <v>1804</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>14</v>
@@ -62404,7 +63328,7 @@
         <v>10</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>1800</v>
+        <v>1820</v>
       </c>
       <c r="L7" s="2">
         <v>56</v>
@@ -62413,7 +63337,7 @@
         <v>999999</v>
       </c>
       <c r="N7" s="7" t="s">
-        <v>1791</v>
+        <v>1811</v>
       </c>
       <c r="O7" s="6">
         <v>0</v>
@@ -62422,22 +63346,22 @@
         <v>3</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>1801</v>
+        <v>1821</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>1792</v>
+        <v>1812</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>1789</v>
+        <v>1809</v>
       </c>
       <c r="T7" s="2">
         <v>500000</v>
       </c>
       <c r="U7" s="2" t="s">
-        <v>1802</v>
+        <v>1822</v>
       </c>
       <c r="V7" s="2" t="s">
-        <v>1725</v>
+        <v>1745</v>
       </c>
       <c r="W7" s="2">
         <v>8.3</v>
@@ -62451,10 +63375,10 @@
         <v>1</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>1803</v>
+        <v>1823</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>1720</v>
+        <v>1740</v>
       </c>
       <c r="F8" s="2">
         <v>100</v>
@@ -62466,7 +63390,7 @@
         <v>125</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>1804</v>
+        <v>1824</v>
       </c>
       <c r="L8" s="2">
         <v>57</v>
@@ -62481,22 +63405,22 @@
         <v>5</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>1805</v>
+        <v>1825</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>1806</v>
+        <v>1826</v>
       </c>
       <c r="S8" s="2" t="s">
-        <v>1789</v>
+        <v>1809</v>
       </c>
       <c r="T8" s="2">
         <v>100</v>
       </c>
       <c r="U8" s="2" t="s">
-        <v>1807</v>
+        <v>1827</v>
       </c>
       <c r="V8" s="7" t="s">
-        <v>1725</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="9" s="2" customFormat="1" spans="1:22">
@@ -62507,10 +63431,10 @@
         <v>15</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>1808</v>
+        <v>1828</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>1720</v>
+        <v>1740</v>
       </c>
       <c r="F9" s="2">
         <v>1000</v>
@@ -62525,16 +63449,16 @@
         <v>6</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>1809</v>
+        <v>1829</v>
       </c>
       <c r="T9" s="2">
         <v>1000</v>
       </c>
       <c r="U9" s="7" t="s">
-        <v>1810</v>
+        <v>1830</v>
       </c>
       <c r="V9" s="7" t="s">
-        <v>1725</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="10" s="2" customFormat="1" spans="1:22">
@@ -62545,10 +63469,10 @@
         <v>16</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>1808</v>
+        <v>1828</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>1720</v>
+        <v>1740</v>
       </c>
       <c r="F10" s="2">
         <v>5800</v>
@@ -62563,16 +63487,16 @@
         <v>7</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>1811</v>
+        <v>1831</v>
       </c>
       <c r="T10" s="2">
         <v>5800</v>
       </c>
       <c r="U10" s="7" t="s">
-        <v>1810</v>
+        <v>1830</v>
       </c>
       <c r="V10" s="7" t="s">
-        <v>1725</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="11" s="2" customFormat="1" spans="1:22">
@@ -62583,10 +63507,10 @@
         <v>17</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>1808</v>
+        <v>1828</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>1720</v>
+        <v>1740</v>
       </c>
       <c r="F11" s="2">
         <v>8800</v>
@@ -62601,16 +63525,16 @@
         <v>8</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>1812</v>
+        <v>1832</v>
       </c>
       <c r="T11" s="2">
         <v>8800</v>
       </c>
       <c r="U11" s="7" t="s">
-        <v>1810</v>
+        <v>1830</v>
       </c>
       <c r="V11" s="7" t="s">
-        <v>1725</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="12" s="2" customFormat="1" spans="1:22">
@@ -62621,10 +63545,10 @@
         <v>18</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>1808</v>
+        <v>1828</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>1720</v>
+        <v>1740</v>
       </c>
       <c r="F12" s="2">
         <v>18800</v>
@@ -62639,16 +63563,16 @@
         <v>9</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>1813</v>
+        <v>1833</v>
       </c>
       <c r="T12" s="2">
         <v>18800</v>
       </c>
       <c r="U12" s="7" t="s">
-        <v>1810</v>
+        <v>1830</v>
       </c>
       <c r="V12" s="7" t="s">
-        <v>1725</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="13" s="2" customFormat="1" spans="1:23">
@@ -62659,7 +63583,7 @@
         <v>19</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>1814</v>
+        <v>1834</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>14</v>
@@ -62683,16 +63607,16 @@
         <v>0</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>1815</v>
+        <v>1835</v>
       </c>
       <c r="T13" s="2">
         <v>70000</v>
       </c>
       <c r="U13" s="7" t="s">
-        <v>1816</v>
+        <v>1836</v>
       </c>
       <c r="V13" s="7" t="s">
-        <v>1725</v>
+        <v>1745</v>
       </c>
       <c r="W13" s="2">
         <v>7</v>
@@ -62706,7 +63630,7 @@
         <v>20</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>1814</v>
+        <v>1834</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>14</v>
@@ -62730,16 +63654,16 @@
         <v>0</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>1817</v>
+        <v>1837</v>
       </c>
       <c r="T14" s="2">
         <v>180000</v>
       </c>
       <c r="U14" s="7" t="s">
-        <v>1816</v>
+        <v>1836</v>
       </c>
       <c r="V14" s="7" t="s">
-        <v>1725</v>
+        <v>1745</v>
       </c>
       <c r="W14" s="2">
         <v>6</v>
@@ -62753,10 +63677,10 @@
         <v>21</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>1814</v>
+        <v>1834</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>1742</v>
+        <v>1762</v>
       </c>
       <c r="F15" s="2">
         <v>1500</v>
@@ -62777,16 +63701,16 @@
         <v>0</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>1818</v>
+        <v>1838</v>
       </c>
       <c r="T15" s="2">
         <v>1500</v>
       </c>
       <c r="U15" s="7" t="s">
-        <v>1816</v>
+        <v>1836</v>
       </c>
       <c r="V15" s="7" t="s">
-        <v>1725</v>
+        <v>1745</v>
       </c>
       <c r="W15" s="2">
         <v>3</v>
@@ -62800,10 +63724,10 @@
         <v>22</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>1819</v>
+        <v>1839</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>1742</v>
+        <v>1762</v>
       </c>
       <c r="F16" s="3">
         <v>200</v>
@@ -62819,13 +63743,13 @@
         <v>0</v>
       </c>
       <c r="Q16" s="9" t="s">
-        <v>1820</v>
+        <v>1840</v>
       </c>
       <c r="T16" s="3">
         <v>200</v>
       </c>
       <c r="V16" s="3" t="s">
-        <v>1725</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="17" s="3" customFormat="1" spans="1:22">
@@ -62836,10 +63760,10 @@
         <v>23</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>1819</v>
+        <v>1839</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>1742</v>
+        <v>1762</v>
       </c>
       <c r="F17" s="3">
         <v>2000</v>
@@ -62855,13 +63779,13 @@
         <v>0</v>
       </c>
       <c r="Q17" s="9" t="s">
-        <v>1821</v>
+        <v>1841</v>
       </c>
       <c r="T17" s="3">
         <v>2000</v>
       </c>
       <c r="V17" s="3" t="s">
-        <v>1725</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="18" s="3" customFormat="1" spans="1:22">
@@ -62872,7 +63796,7 @@
         <v>24</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>1819</v>
+        <v>1839</v>
       </c>
       <c r="E18" s="9" t="s">
         <v>14</v>
@@ -62891,13 +63815,13 @@
         <v>0</v>
       </c>
       <c r="Q18" s="9" t="s">
-        <v>1820</v>
+        <v>1840</v>
       </c>
       <c r="T18" s="3">
         <v>20000</v>
       </c>
       <c r="V18" s="3" t="s">
-        <v>1725</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="19" s="3" customFormat="1" spans="1:22">
@@ -62908,7 +63832,7 @@
         <v>25</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>1819</v>
+        <v>1839</v>
       </c>
       <c r="E19" s="9" t="s">
         <v>14</v>
@@ -62927,13 +63851,13 @@
         <v>0</v>
       </c>
       <c r="Q19" s="9" t="s">
-        <v>1821</v>
+        <v>1841</v>
       </c>
       <c r="T19" s="3">
         <v>200000</v>
       </c>
       <c r="V19" s="3" t="s">
-        <v>1725</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="20" s="4" customFormat="1" spans="1:22">
@@ -62944,7 +63868,7 @@
         <v>26</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>1822</v>
+        <v>1842</v>
       </c>
       <c r="E20" s="11" t="s">
         <v>14</v>
@@ -62962,16 +63886,16 @@
         <v>0</v>
       </c>
       <c r="Q20" s="11" t="s">
-        <v>1823</v>
+        <v>1843</v>
       </c>
       <c r="T20" s="4">
         <v>300000</v>
       </c>
       <c r="U20" s="11" t="s">
-        <v>1824</v>
+        <v>1844</v>
       </c>
       <c r="V20" s="11" t="s">
-        <v>1725</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="21" s="4" customFormat="1" spans="1:22">
@@ -62982,7 +63906,7 @@
         <v>27</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>1825</v>
+        <v>1845</v>
       </c>
       <c r="E21" s="11" t="s">
         <v>14</v>
@@ -63000,16 +63924,16 @@
         <v>0</v>
       </c>
       <c r="Q21" s="11" t="s">
-        <v>1826</v>
+        <v>1846</v>
       </c>
       <c r="T21" s="4">
         <v>300000</v>
       </c>
       <c r="U21" s="11" t="s">
-        <v>1827</v>
+        <v>1847</v>
       </c>
       <c r="V21" s="11" t="s">
-        <v>1725</v>
+        <v>1745</v>
       </c>
     </row>
   </sheetData>

--- a/config_Release/shoping_config_xiaomi.xlsx
+++ b/config_Release/shoping_config_xiaomi.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" tabRatio="533" activeTab="2"/>
+    <workbookView windowWidth="24225" windowHeight="12540" tabRatio="533" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="tge|标签配置" sheetId="6" r:id="rId1"/>
@@ -214,7 +214,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5132" uniqueCount="1848">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5180" uniqueCount="1856">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -5872,6 +5872,30 @@
   </si>
   <si>
     <t>49800000,1688,</t>
+  </si>
+  <si>
+    <t>海王礼包</t>
+  </si>
+  <si>
+    <t>"500万金币","海王炮台(30天)"</t>
+  </si>
+  <si>
+    <t>"jing_bi","gun_barrel_13",</t>
+  </si>
+  <si>
+    <t>5000000,2592000</t>
+  </si>
+  <si>
+    <t>2505600,1,0</t>
+  </si>
+  <si>
+    <t>海王礼包至尊版</t>
+  </si>
+  <si>
+    <t>"980万金币","海王炮台(30天)"</t>
+  </si>
+  <si>
+    <t>9800000,2592000</t>
   </si>
   <si>
     <t>id|不能重复</t>
@@ -6770,10 +6794,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -6807,21 +6831,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -6830,22 +6839,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6861,7 +6855,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6876,7 +6884,38 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -6892,15 +6931,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6922,30 +6968,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7037,19 +7061,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7067,7 +7085,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7079,19 +7127,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7103,13 +7163,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7121,25 +7187,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7151,43 +7205,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7243,6 +7267,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -7257,17 +7296,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7284,19 +7317,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7318,9 +7340,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7332,10 +7356,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -7344,10 +7368,10 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -7356,127 +7380,127 @@
     <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -7643,6 +7667,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -8052,7 +8079,7 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="62" t="s">
+      <c r="J1" s="63" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="1"/>
@@ -8064,7 +8091,7 @@
       <c r="B2" s="2">
         <v>1</v>
       </c>
-      <c r="D2" s="59" t="s">
+      <c r="D2" s="60" t="s">
         <v>10</v>
       </c>
       <c r="E2" s="7" t="s">
@@ -8094,7 +8121,7 @@
       <c r="B3" s="2">
         <v>2</v>
       </c>
-      <c r="D3" s="59" t="s">
+      <c r="D3" s="60" t="s">
         <v>14</v>
       </c>
       <c r="E3" s="7" t="s">
@@ -8124,10 +8151,10 @@
       <c r="B4" s="2">
         <v>3</v>
       </c>
-      <c r="D4" s="60" t="s">
+      <c r="D4" s="61" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="61" t="s">
+      <c r="E4" s="62" t="s">
         <v>19</v>
       </c>
       <c r="F4" s="7" t="s">
@@ -8360,13 +8387,13 @@
       <c r="L2" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="M2" s="63" t="s">
+      <c r="M2" s="64" t="s">
         <v>58</v>
       </c>
       <c r="N2" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="O2" s="57">
+      <c r="O2" s="58">
         <v>1</v>
       </c>
       <c r="P2" s="14">
@@ -8397,10 +8424,10 @@
       <c r="Y2" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="Z2" s="58" t="s">
+      <c r="Z2" s="59" t="s">
         <v>62</v>
       </c>
-      <c r="AA2" s="58" t="s">
+      <c r="AA2" s="59" t="s">
         <v>63</v>
       </c>
       <c r="AD2" s="12">
@@ -8443,13 +8470,13 @@
       <c r="L3" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="M3" s="63" t="s">
+      <c r="M3" s="64" t="s">
         <v>58</v>
       </c>
       <c r="N3" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="O3" s="57">
+      <c r="O3" s="58">
         <v>1</v>
       </c>
       <c r="P3" s="14">
@@ -8526,13 +8553,13 @@
       <c r="L4" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="M4" s="63" t="s">
+      <c r="M4" s="64" t="s">
         <v>58</v>
       </c>
       <c r="N4" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="57">
+      <c r="O4" s="58">
         <v>1</v>
       </c>
       <c r="P4" s="14">
@@ -8611,13 +8638,13 @@
       <c r="L5" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="M5" s="63" t="s">
+      <c r="M5" s="64" t="s">
         <v>58</v>
       </c>
       <c r="N5" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="O5" s="57">
+      <c r="O5" s="58">
         <v>1</v>
       </c>
       <c r="P5" s="14">
@@ -8696,13 +8723,13 @@
       <c r="L6" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="M6" s="63" t="s">
+      <c r="M6" s="64" t="s">
         <v>58</v>
       </c>
       <c r="N6" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="O6" s="57">
+      <c r="O6" s="58">
         <v>1</v>
       </c>
       <c r="P6" s="14">
@@ -8781,7 +8808,7 @@
       <c r="L7" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="M7" s="63" t="s">
+      <c r="M7" s="64" t="s">
         <v>58</v>
       </c>
       <c r="N7" s="12" t="s">
@@ -8864,13 +8891,13 @@
       <c r="L8" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="M8" s="63" t="s">
+      <c r="M8" s="64" t="s">
         <v>58</v>
       </c>
       <c r="N8" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="O8" s="57">
+      <c r="O8" s="58">
         <v>1</v>
       </c>
       <c r="P8" s="14">
@@ -8949,13 +8976,13 @@
       <c r="L9" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="M9" s="63" t="s">
+      <c r="M9" s="64" t="s">
         <v>58</v>
       </c>
       <c r="N9" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="O9" s="57">
+      <c r="O9" s="58">
         <v>1</v>
       </c>
       <c r="P9" s="14">
@@ -9033,13 +9060,13 @@
       <c r="L10" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="M10" s="63" t="s">
+      <c r="M10" s="64" t="s">
         <v>58</v>
       </c>
       <c r="N10" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="O10" s="57">
+      <c r="O10" s="58">
         <v>1</v>
       </c>
       <c r="P10" s="12">
@@ -9117,7 +9144,7 @@
       <c r="L11" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="M11" s="63" t="s">
+      <c r="M11" s="64" t="s">
         <v>58</v>
       </c>
       <c r="N11" s="14" t="s">
@@ -9199,7 +9226,7 @@
       <c r="L12" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="M12" s="63" t="s">
+      <c r="M12" s="64" t="s">
         <v>58</v>
       </c>
       <c r="N12" s="14" t="s">
@@ -9281,7 +9308,7 @@
       <c r="L13" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="M13" s="63" t="s">
+      <c r="M13" s="64" t="s">
         <v>58</v>
       </c>
       <c r="N13" s="14" t="s">
@@ -9363,7 +9390,7 @@
       <c r="L14" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="M14" s="63" t="s">
+      <c r="M14" s="64" t="s">
         <v>58</v>
       </c>
       <c r="N14" s="14" t="s">
@@ -9445,7 +9472,7 @@
       <c r="L15" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="M15" s="63" t="s">
+      <c r="M15" s="64" t="s">
         <v>58</v>
       </c>
       <c r="N15" s="14" t="s">
@@ -9521,7 +9548,7 @@
       <c r="J16" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="K16" s="58" t="s">
+      <c r="K16" s="59" t="s">
         <v>122</v>
       </c>
       <c r="L16" s="14" t="s">
@@ -9551,7 +9578,7 @@
       <c r="T16" s="12">
         <v>0</v>
       </c>
-      <c r="U16" s="58" t="s">
+      <c r="U16" s="59" t="s">
         <v>123</v>
       </c>
       <c r="V16" s="14">
@@ -9584,7 +9611,7 @@
         <v>22</v>
       </c>
       <c r="C17" s="12"/>
-      <c r="E17" s="56"/>
+      <c r="E17" s="57"/>
       <c r="F17" s="12"/>
       <c r="G17" s="12"/>
       <c r="H17" s="14" t="s">
@@ -9626,10 +9653,10 @@
       <c r="T17" s="12">
         <v>1</v>
       </c>
-      <c r="U17" s="58" t="s">
+      <c r="U17" s="59" t="s">
         <v>127</v>
       </c>
-      <c r="V17" s="58" t="s">
+      <c r="V17" s="59" t="s">
         <v>127</v>
       </c>
       <c r="X17" s="14" t="s">
@@ -9659,7 +9686,7 @@
         <v>23</v>
       </c>
       <c r="C18" s="12"/>
-      <c r="E18" s="56"/>
+      <c r="E18" s="57"/>
       <c r="F18" s="12"/>
       <c r="G18" s="12"/>
       <c r="H18" s="14" t="s">
@@ -9701,10 +9728,10 @@
       <c r="T18" s="12">
         <v>2</v>
       </c>
-      <c r="U18" s="58" t="s">
+      <c r="U18" s="59" t="s">
         <v>130</v>
       </c>
-      <c r="V18" s="58" t="s">
+      <c r="V18" s="59" t="s">
         <v>130</v>
       </c>
       <c r="X18" s="14" t="s">
@@ -9734,7 +9761,7 @@
         <v>24</v>
       </c>
       <c r="C19" s="12"/>
-      <c r="E19" s="56"/>
+      <c r="E19" s="57"/>
       <c r="F19" s="12"/>
       <c r="G19" s="12"/>
       <c r="H19" s="14" t="s">
@@ -9776,10 +9803,10 @@
       <c r="T19" s="12">
         <v>3</v>
       </c>
-      <c r="U19" s="58" t="s">
+      <c r="U19" s="59" t="s">
         <v>132</v>
       </c>
-      <c r="V19" s="58" t="s">
+      <c r="V19" s="59" t="s">
         <v>132</v>
       </c>
       <c r="X19" s="14" t="s">
@@ -9809,7 +9836,7 @@
         <v>25</v>
       </c>
       <c r="C20" s="12"/>
-      <c r="E20" s="56"/>
+      <c r="E20" s="57"/>
       <c r="F20" s="12"/>
       <c r="G20" s="12"/>
       <c r="H20" s="14" t="s">
@@ -9851,10 +9878,10 @@
       <c r="T20" s="12">
         <v>4</v>
       </c>
-      <c r="U20" s="58" t="s">
+      <c r="U20" s="59" t="s">
         <v>134</v>
       </c>
-      <c r="V20" s="58" t="s">
+      <c r="V20" s="59" t="s">
         <v>134</v>
       </c>
       <c r="X20" s="14" t="s">
@@ -9884,7 +9911,7 @@
         <v>26</v>
       </c>
       <c r="C21" s="12"/>
-      <c r="E21" s="56"/>
+      <c r="E21" s="57"/>
       <c r="F21" s="12"/>
       <c r="G21" s="12"/>
       <c r="H21" s="14" t="s">
@@ -9926,10 +9953,10 @@
       <c r="T21" s="12">
         <v>5</v>
       </c>
-      <c r="U21" s="58" t="s">
+      <c r="U21" s="59" t="s">
         <v>136</v>
       </c>
-      <c r="V21" s="58" t="s">
+      <c r="V21" s="59" t="s">
         <v>136</v>
       </c>
       <c r="X21" s="14" t="s">
@@ -9959,7 +9986,7 @@
         <v>27</v>
       </c>
       <c r="C22" s="12"/>
-      <c r="E22" s="56"/>
+      <c r="E22" s="57"/>
       <c r="F22" s="12"/>
       <c r="G22" s="12"/>
       <c r="H22" s="14" t="s">
@@ -10001,10 +10028,10 @@
       <c r="T22" s="12">
         <v>6</v>
       </c>
-      <c r="U22" s="58" t="s">
+      <c r="U22" s="59" t="s">
         <v>138</v>
       </c>
-      <c r="V22" s="58" t="s">
+      <c r="V22" s="59" t="s">
         <v>138</v>
       </c>
       <c r="X22" s="14" t="s">
@@ -10034,7 +10061,7 @@
         <v>34</v>
       </c>
       <c r="C23" s="12"/>
-      <c r="E23" s="56"/>
+      <c r="E23" s="57"/>
       <c r="F23" s="12"/>
       <c r="G23" s="12"/>
       <c r="H23" s="14" t="s">
@@ -10076,10 +10103,10 @@
       <c r="T23" s="12">
         <v>7</v>
       </c>
-      <c r="U23" s="58" t="s">
+      <c r="U23" s="59" t="s">
         <v>141</v>
       </c>
-      <c r="V23" s="58" t="s">
+      <c r="V23" s="59" t="s">
         <v>141</v>
       </c>
       <c r="X23" s="14" t="s">
@@ -10114,7 +10141,7 @@
       <c r="D24" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="E24" s="56"/>
+      <c r="E24" s="57"/>
       <c r="F24" s="12">
         <v>10189</v>
       </c>
@@ -10130,7 +10157,7 @@
       <c r="J24" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="K24" s="58" t="s">
+      <c r="K24" s="59" t="s">
         <v>142</v>
       </c>
       <c r="L24" s="14" t="s">
@@ -10160,16 +10187,16 @@
       <c r="T24" s="12">
         <v>6</v>
       </c>
-      <c r="U24" s="58" t="s">
+      <c r="U24" s="59" t="s">
         <v>143</v>
       </c>
-      <c r="V24" s="58" t="s">
+      <c r="V24" s="59" t="s">
         <v>143</v>
       </c>
       <c r="X24" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="Y24" s="58" t="s">
+      <c r="Y24" s="59" t="s">
         <v>144</v>
       </c>
       <c r="Z24" s="12" t="s">
@@ -10186,28 +10213,28 @@
       </c>
     </row>
     <row r="25" spans="5:5">
-      <c r="E25" s="56"/>
+      <c r="E25" s="57"/>
     </row>
     <row r="26" spans="5:5">
-      <c r="E26" s="56"/>
+      <c r="E26" s="57"/>
     </row>
     <row r="27" spans="5:5">
-      <c r="E27" s="56"/>
+      <c r="E27" s="57"/>
     </row>
     <row r="28" spans="5:5">
-      <c r="E28" s="56"/>
+      <c r="E28" s="57"/>
     </row>
     <row r="29" spans="5:5">
-      <c r="E29" s="56"/>
+      <c r="E29" s="57"/>
     </row>
     <row r="30" spans="5:5">
-      <c r="E30" s="56"/>
+      <c r="E30" s="57"/>
     </row>
     <row r="31" spans="5:5">
-      <c r="E31" s="56"/>
+      <c r="E31" s="57"/>
     </row>
     <row r="32" spans="5:5">
-      <c r="E32" s="56"/>
+      <c r="E32" s="57"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10220,14 +10247,14 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AIF646"/>
+  <dimension ref="A1:AIF654"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="AH623" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="H623" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AL635" sqref="AL635"/>
+      <selection pane="bottomRight" activeCell="C655" sqref="C655"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -10424,7 +10451,7 @@
       <c r="Q2" s="21" t="s">
         <v>171</v>
       </c>
-      <c r="R2" s="64" t="s">
+      <c r="R2" s="65" t="s">
         <v>172</v>
       </c>
       <c r="S2" s="32"/>
@@ -10482,7 +10509,7 @@
       <c r="Q3" s="21" t="s">
         <v>171</v>
       </c>
-      <c r="R3" s="64" t="s">
+      <c r="R3" s="65" t="s">
         <v>175</v>
       </c>
       <c r="S3" s="32"/>
@@ -10540,7 +10567,7 @@
       <c r="Q4" s="21" t="s">
         <v>171</v>
       </c>
-      <c r="R4" s="64" t="s">
+      <c r="R4" s="65" t="s">
         <v>177</v>
       </c>
       <c r="S4" s="32"/>
@@ -10581,7 +10608,7 @@
       <c r="G5" s="21" t="s">
         <v>178</v>
       </c>
-      <c r="J5" s="64" t="s">
+      <c r="J5" s="65" t="s">
         <v>179</v>
       </c>
       <c r="K5" s="32"/>
@@ -10603,7 +10630,7 @@
       <c r="Q5" s="21" t="s">
         <v>125</v>
       </c>
-      <c r="R5" s="64" t="s">
+      <c r="R5" s="65" t="s">
         <v>180</v>
       </c>
       <c r="S5" s="32"/>
@@ -10612,7 +10639,7 @@
       <c r="W5" s="21" t="s">
         <v>181</v>
       </c>
-      <c r="X5" s="64" t="s">
+      <c r="X5" s="65" t="s">
         <v>182</v>
       </c>
       <c r="Y5" s="32">
@@ -10722,7 +10749,7 @@
       <c r="Q7" s="21" t="s">
         <v>189</v>
       </c>
-      <c r="R7" s="64" t="s">
+      <c r="R7" s="65" t="s">
         <v>190</v>
       </c>
       <c r="S7" s="32"/>
@@ -11821,7 +11848,7 @@
       <c r="W26" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="X26" s="64" t="s">
+      <c r="X26" s="65" t="s">
         <v>182</v>
       </c>
       <c r="Y26" s="21">
@@ -11876,7 +11903,7 @@
       <c r="W27" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="X27" s="64" t="s">
+      <c r="X27" s="65" t="s">
         <v>248</v>
       </c>
       <c r="Y27" s="21">
@@ -11931,7 +11958,7 @@
       <c r="W28" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="X28" s="64" t="s">
+      <c r="X28" s="65" t="s">
         <v>250</v>
       </c>
       <c r="Y28" s="21">
@@ -11986,7 +12013,7 @@
       <c r="W29" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="X29" s="64" t="s">
+      <c r="X29" s="65" t="s">
         <v>252</v>
       </c>
       <c r="Y29" s="21">
@@ -12041,7 +12068,7 @@
       <c r="W30" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="X30" s="64" t="s">
+      <c r="X30" s="65" t="s">
         <v>254</v>
       </c>
       <c r="Y30" s="21">
@@ -12096,7 +12123,7 @@
       <c r="W31" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="X31" s="64" t="s">
+      <c r="X31" s="65" t="s">
         <v>257</v>
       </c>
       <c r="Y31" s="21">
@@ -12151,7 +12178,7 @@
       <c r="W32" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="X32" s="64" t="s">
+      <c r="X32" s="65" t="s">
         <v>259</v>
       </c>
       <c r="Y32" s="21">
@@ -12206,7 +12233,7 @@
       <c r="W33" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="X33" s="64" t="s">
+      <c r="X33" s="65" t="s">
         <v>261</v>
       </c>
       <c r="Y33" s="21">
@@ -12261,7 +12288,7 @@
       <c r="W34" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="X34" s="64" t="s">
+      <c r="X34" s="65" t="s">
         <v>263</v>
       </c>
       <c r="Y34" s="21">
@@ -12316,7 +12343,7 @@
       <c r="W35" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="X35" s="64" t="s">
+      <c r="X35" s="65" t="s">
         <v>265</v>
       </c>
       <c r="Y35" s="21">
@@ -12371,7 +12398,7 @@
       <c r="W36" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="X36" s="64" t="s">
+      <c r="X36" s="65" t="s">
         <v>267</v>
       </c>
       <c r="Y36" s="21">
@@ -12426,7 +12453,7 @@
       <c r="W37" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="X37" s="64" t="s">
+      <c r="X37" s="65" t="s">
         <v>269</v>
       </c>
       <c r="Y37" s="21">
@@ -12481,7 +12508,7 @@
       <c r="W38" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="X38" s="64" t="s">
+      <c r="X38" s="65" t="s">
         <v>271</v>
       </c>
       <c r="Y38" s="21">
@@ -12536,7 +12563,7 @@
       <c r="W39" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="X39" s="64" t="s">
+      <c r="X39" s="65" t="s">
         <v>273</v>
       </c>
       <c r="Y39" s="21">
@@ -12591,7 +12618,7 @@
       <c r="W40" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="X40" s="64" t="s">
+      <c r="X40" s="65" t="s">
         <v>275</v>
       </c>
       <c r="Y40" s="21">
@@ -12646,7 +12673,7 @@
       <c r="W41" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="X41" s="64" t="s">
+      <c r="X41" s="65" t="s">
         <v>277</v>
       </c>
       <c r="Y41" s="21">
@@ -12701,7 +12728,7 @@
       <c r="W42" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="X42" s="64" t="s">
+      <c r="X42" s="65" t="s">
         <v>280</v>
       </c>
       <c r="Y42" s="21">
@@ -12756,7 +12783,7 @@
       <c r="W43" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="X43" s="64" t="s">
+      <c r="X43" s="65" t="s">
         <v>282</v>
       </c>
       <c r="Y43" s="21">
@@ -12811,7 +12838,7 @@
       <c r="W44" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="X44" s="64" t="s">
+      <c r="X44" s="65" t="s">
         <v>285</v>
       </c>
       <c r="Y44" s="21">
@@ -12866,7 +12893,7 @@
       <c r="W45" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="X45" s="64" t="s">
+      <c r="X45" s="65" t="s">
         <v>287</v>
       </c>
       <c r="Y45" s="21">
@@ -12921,7 +12948,7 @@
       <c r="W46" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="X46" s="64" t="s">
+      <c r="X46" s="65" t="s">
         <v>289</v>
       </c>
       <c r="Y46" s="21">
@@ -12976,7 +13003,7 @@
       <c r="W47" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="X47" s="64" t="s">
+      <c r="X47" s="65" t="s">
         <v>291</v>
       </c>
       <c r="Y47" s="21">
@@ -13031,7 +13058,7 @@
       <c r="W48" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="X48" s="64" t="s">
+      <c r="X48" s="65" t="s">
         <v>293</v>
       </c>
       <c r="Y48" s="21">
@@ -13086,7 +13113,7 @@
       <c r="W49" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="X49" s="64" t="s">
+      <c r="X49" s="65" t="s">
         <v>296</v>
       </c>
       <c r="Y49" s="21">
@@ -13141,7 +13168,7 @@
       <c r="W50" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="X50" s="64" t="s">
+      <c r="X50" s="65" t="s">
         <v>298</v>
       </c>
       <c r="Y50" s="21">
@@ -13192,7 +13219,7 @@
       <c r="Q51" s="21" t="s">
         <v>300</v>
       </c>
-      <c r="R51" s="64" t="s">
+      <c r="R51" s="65" t="s">
         <v>301</v>
       </c>
       <c r="S51" s="32"/>
@@ -13252,7 +13279,7 @@
       <c r="Q52" s="21" t="s">
         <v>300</v>
       </c>
-      <c r="R52" s="64" t="s">
+      <c r="R52" s="65" t="s">
         <v>301</v>
       </c>
       <c r="S52" s="32"/>
@@ -13312,7 +13339,7 @@
       <c r="Q53" s="21" t="s">
         <v>300</v>
       </c>
-      <c r="R53" s="64" t="s">
+      <c r="R53" s="65" t="s">
         <v>301</v>
       </c>
       <c r="S53" s="32"/>
@@ -13605,7 +13632,7 @@
       <c r="W58" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="X58" s="64" t="s">
+      <c r="X58" s="65" t="s">
         <v>182</v>
       </c>
       <c r="Y58" s="21">
@@ -13660,7 +13687,7 @@
       <c r="W59" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="X59" s="64" t="s">
+      <c r="X59" s="65" t="s">
         <v>182</v>
       </c>
       <c r="Y59" s="21">
@@ -13715,7 +13742,7 @@
       <c r="W60" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="X60" s="64" t="s">
+      <c r="X60" s="65" t="s">
         <v>182</v>
       </c>
       <c r="Y60" s="21">
@@ -13770,7 +13797,7 @@
       <c r="W61" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="X61" s="64" t="s">
+      <c r="X61" s="65" t="s">
         <v>182</v>
       </c>
       <c r="Y61" s="21">
@@ -13825,7 +13852,7 @@
       <c r="W62" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="X62" s="64" t="s">
+      <c r="X62" s="65" t="s">
         <v>182</v>
       </c>
       <c r="Y62" s="21">
@@ -13880,7 +13907,7 @@
       <c r="W63" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="X63" s="64" t="s">
+      <c r="X63" s="65" t="s">
         <v>182</v>
       </c>
       <c r="Y63" s="21">
@@ -13935,7 +13962,7 @@
       <c r="W64" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="X64" s="64" t="s">
+      <c r="X64" s="65" t="s">
         <v>273</v>
       </c>
       <c r="Y64" s="21">
@@ -13990,7 +14017,7 @@
       <c r="W65" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="X65" s="64" t="s">
+      <c r="X65" s="65" t="s">
         <v>273</v>
       </c>
       <c r="Y65" s="21">
@@ -14043,7 +14070,7 @@
       <c r="W66" s="21" t="s">
         <v>181</v>
       </c>
-      <c r="X66" s="64" t="s">
+      <c r="X66" s="65" t="s">
         <v>182</v>
       </c>
       <c r="Y66" s="32">
@@ -14111,7 +14138,7 @@
       <c r="W67" s="23" t="s">
         <v>173</v>
       </c>
-      <c r="X67" s="65" t="s">
+      <c r="X67" s="66" t="s">
         <v>182</v>
       </c>
       <c r="Y67" s="33">
@@ -14170,7 +14197,7 @@
       <c r="W68" s="23" t="s">
         <v>173</v>
       </c>
-      <c r="X68" s="65" t="s">
+      <c r="X68" s="66" t="s">
         <v>182</v>
       </c>
       <c r="Y68" s="33">
@@ -14229,7 +14256,7 @@
       <c r="W69" s="23" t="s">
         <v>173</v>
       </c>
-      <c r="X69" s="65" t="s">
+      <c r="X69" s="66" t="s">
         <v>182</v>
       </c>
       <c r="Y69" s="33">
@@ -14288,7 +14315,7 @@
       <c r="W70" s="23" t="s">
         <v>173</v>
       </c>
-      <c r="X70" s="65" t="s">
+      <c r="X70" s="66" t="s">
         <v>182</v>
       </c>
       <c r="Y70" s="33">
@@ -14347,7 +14374,7 @@
       <c r="W71" s="23" t="s">
         <v>173</v>
       </c>
-      <c r="X71" s="65" t="s">
+      <c r="X71" s="66" t="s">
         <v>182</v>
       </c>
       <c r="Y71" s="33">
@@ -14400,7 +14427,7 @@
       <c r="W72" s="21" t="s">
         <v>181</v>
       </c>
-      <c r="X72" s="64" t="s">
+      <c r="X72" s="65" t="s">
         <v>182</v>
       </c>
       <c r="Y72" s="32">
@@ -14468,7 +14495,7 @@
       <c r="W73" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="X73" s="64" t="s">
+      <c r="X73" s="65" t="s">
         <v>182</v>
       </c>
       <c r="Y73" s="32">
@@ -14527,7 +14554,7 @@
       <c r="W74" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="X74" s="64" t="s">
+      <c r="X74" s="65" t="s">
         <v>182</v>
       </c>
       <c r="Y74" s="32">
@@ -14586,7 +14613,7 @@
       <c r="W75" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="X75" s="64" t="s">
+      <c r="X75" s="65" t="s">
         <v>182</v>
       </c>
       <c r="Y75" s="32">
@@ -14645,7 +14672,7 @@
       <c r="W76" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="X76" s="64" t="s">
+      <c r="X76" s="65" t="s">
         <v>182</v>
       </c>
       <c r="Y76" s="32">
@@ -14701,7 +14728,7 @@
       <c r="W77" s="24" t="s">
         <v>173</v>
       </c>
-      <c r="X77" s="66" t="s">
+      <c r="X77" s="67" t="s">
         <v>182</v>
       </c>
       <c r="Y77" s="35">
@@ -14766,7 +14793,7 @@
       <c r="W78" s="24" t="s">
         <v>173</v>
       </c>
-      <c r="X78" s="66" t="s">
+      <c r="X78" s="67" t="s">
         <v>182</v>
       </c>
       <c r="Y78" s="35">
@@ -14831,7 +14858,7 @@
       <c r="W79" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="X79" s="64" t="s">
+      <c r="X79" s="65" t="s">
         <v>182</v>
       </c>
       <c r="Y79" s="32">
@@ -14896,7 +14923,7 @@
       <c r="W80" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="X80" s="64" t="s">
+      <c r="X80" s="65" t="s">
         <v>182</v>
       </c>
       <c r="Y80" s="32">
@@ -14964,7 +14991,7 @@
       <c r="W81" s="24" t="s">
         <v>173</v>
       </c>
-      <c r="X81" s="66" t="s">
+      <c r="X81" s="67" t="s">
         <v>182</v>
       </c>
       <c r="Y81" s="35">
@@ -15029,7 +15056,7 @@
       <c r="W82" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="X82" s="64" t="s">
+      <c r="X82" s="65" t="s">
         <v>182</v>
       </c>
       <c r="Y82" s="32">
@@ -15197,7 +15224,7 @@
       <c r="W85" s="21" t="s">
         <v>395</v>
       </c>
-      <c r="X85" s="64" t="s">
+      <c r="X85" s="65" t="s">
         <v>248</v>
       </c>
       <c r="Y85" s="21">
@@ -15692,7 +15719,7 @@
       <c r="W94" s="23" t="s">
         <v>173</v>
       </c>
-      <c r="X94" s="65" t="s">
+      <c r="X94" s="66" t="s">
         <v>182</v>
       </c>
       <c r="Y94" s="23">
@@ -17729,7 +17756,7 @@
       <c r="W128" s="23" t="s">
         <v>173</v>
       </c>
-      <c r="X128" s="65" t="s">
+      <c r="X128" s="66" t="s">
         <v>182</v>
       </c>
       <c r="Y128" s="33">
@@ -17788,7 +17815,7 @@
       <c r="W129" s="23" t="s">
         <v>173</v>
       </c>
-      <c r="X129" s="65" t="s">
+      <c r="X129" s="66" t="s">
         <v>182</v>
       </c>
       <c r="Y129" s="33">
@@ -27091,7 +27118,7 @@
       <c r="W273" s="23" t="s">
         <v>173</v>
       </c>
-      <c r="X273" s="65" t="s">
+      <c r="X273" s="66" t="s">
         <v>182</v>
       </c>
       <c r="Y273" s="33">
@@ -36511,7 +36538,7 @@
       <c r="W414" s="23" t="s">
         <v>173</v>
       </c>
-      <c r="X414" s="65" t="s">
+      <c r="X414" s="66" t="s">
         <v>182</v>
       </c>
       <c r="Y414" s="33">
@@ -36570,7 +36597,7 @@
       <c r="W415" s="21" t="s">
         <v>795</v>
       </c>
-      <c r="X415" s="64" t="s">
+      <c r="X415" s="65" t="s">
         <v>182</v>
       </c>
       <c r="Y415" s="21">
@@ -36638,7 +36665,7 @@
       <c r="W416" s="21" t="s">
         <v>795</v>
       </c>
-      <c r="X416" s="64" t="s">
+      <c r="X416" s="65" t="s">
         <v>182</v>
       </c>
       <c r="Y416" s="21">
@@ -36706,7 +36733,7 @@
       <c r="W417" s="21" t="s">
         <v>795</v>
       </c>
-      <c r="X417" s="64" t="s">
+      <c r="X417" s="65" t="s">
         <v>182</v>
       </c>
       <c r="Y417" s="21">
@@ -36774,7 +36801,7 @@
       <c r="W418" s="21" t="s">
         <v>795</v>
       </c>
-      <c r="X418" s="64" t="s">
+      <c r="X418" s="65" t="s">
         <v>182</v>
       </c>
       <c r="Y418" s="21">
@@ -36842,7 +36869,7 @@
       <c r="W419" s="21" t="s">
         <v>795</v>
       </c>
-      <c r="X419" s="64" t="s">
+      <c r="X419" s="65" t="s">
         <v>182</v>
       </c>
       <c r="Y419" s="21">
@@ -36910,7 +36937,7 @@
       <c r="W420" s="21" t="s">
         <v>795</v>
       </c>
-      <c r="X420" s="64" t="s">
+      <c r="X420" s="65" t="s">
         <v>182</v>
       </c>
       <c r="Y420" s="21">
@@ -42711,7 +42738,7 @@
       <c r="W509" s="27" t="s">
         <v>181</v>
       </c>
-      <c r="X509" s="67" t="s">
+      <c r="X509" s="68" t="s">
         <v>182</v>
       </c>
       <c r="Y509" s="49">
@@ -42771,7 +42798,7 @@
       <c r="W510" s="27" t="s">
         <v>181</v>
       </c>
-      <c r="X510" s="67" t="s">
+      <c r="X510" s="68" t="s">
         <v>182</v>
       </c>
       <c r="Y510" s="49">
@@ -42831,7 +42858,7 @@
       <c r="W511" s="27" t="s">
         <v>181</v>
       </c>
-      <c r="X511" s="67" t="s">
+      <c r="X511" s="68" t="s">
         <v>182</v>
       </c>
       <c r="Y511" s="49">
@@ -59087,14 +59114,12 @@
       <c r="G635" s="29" t="s">
         <v>1624</v>
       </c>
-      <c r="H635" s="29"/>
       <c r="I635" s="28" t="s">
         <v>1546</v>
       </c>
       <c r="J635" s="29" t="s">
         <v>1625</v>
       </c>
-      <c r="K635" s="29"/>
       <c r="L635" s="28">
         <v>-31</v>
       </c>
@@ -59116,7 +59141,6 @@
       <c r="R635" s="53" t="s">
         <v>1627</v>
       </c>
-      <c r="S635" s="29"/>
       <c r="W635" s="28" t="s">
         <v>481</v>
       </c>
@@ -59132,7 +59156,6 @@
       <c r="AA635" s="29">
         <v>80</v>
       </c>
-      <c r="AB635" s="29"/>
       <c r="AH635" s="29">
         <v>1</v>
       </c>
@@ -59159,14 +59182,12 @@
       <c r="G636" s="29" t="s">
         <v>1624</v>
       </c>
-      <c r="H636" s="29"/>
       <c r="I636" s="28" t="s">
         <v>1546</v>
       </c>
       <c r="J636" s="29" t="s">
         <v>1628</v>
       </c>
-      <c r="K636" s="29"/>
       <c r="L636" s="28">
         <v>-31</v>
       </c>
@@ -59188,7 +59209,6 @@
       <c r="R636" s="53" t="s">
         <v>1629</v>
       </c>
-      <c r="S636" s="29"/>
       <c r="W636" s="28" t="s">
         <v>481</v>
       </c>
@@ -59204,7 +59224,6 @@
       <c r="AA636" s="29">
         <v>80</v>
       </c>
-      <c r="AB636" s="29"/>
       <c r="AH636" s="29">
         <v>1</v>
       </c>
@@ -59231,14 +59250,12 @@
       <c r="G637" s="29" t="s">
         <v>1624</v>
       </c>
-      <c r="H637" s="29"/>
       <c r="I637" s="28" t="s">
         <v>1546</v>
       </c>
       <c r="J637" s="29" t="s">
         <v>1630</v>
       </c>
-      <c r="K637" s="29"/>
       <c r="L637" s="28">
         <v>-31</v>
       </c>
@@ -59260,7 +59277,6 @@
       <c r="R637" s="53" t="s">
         <v>1631</v>
       </c>
-      <c r="S637" s="29"/>
       <c r="W637" s="28" t="s">
         <v>481</v>
       </c>
@@ -59276,7 +59292,6 @@
       <c r="AA637" s="29">
         <v>80</v>
       </c>
-      <c r="AB637" s="29"/>
       <c r="AH637" s="29">
         <v>1</v>
       </c>
@@ -59303,14 +59318,12 @@
       <c r="G638" s="29" t="s">
         <v>1624</v>
       </c>
-      <c r="H638" s="29"/>
       <c r="I638" s="28" t="s">
         <v>1553</v>
       </c>
       <c r="J638" s="29" t="s">
         <v>1632</v>
       </c>
-      <c r="K638" s="29"/>
       <c r="L638" s="28">
         <v>-31</v>
       </c>
@@ -59332,7 +59345,6 @@
       <c r="R638" s="53" t="s">
         <v>1633</v>
       </c>
-      <c r="S638" s="29"/>
       <c r="W638" s="28" t="s">
         <v>481</v>
       </c>
@@ -59348,7 +59360,6 @@
       <c r="AA638" s="29">
         <v>81</v>
       </c>
-      <c r="AB638" s="29"/>
       <c r="AH638" s="29">
         <v>1</v>
       </c>
@@ -59375,14 +59386,12 @@
       <c r="G639" s="29" t="s">
         <v>1624</v>
       </c>
-      <c r="H639" s="29"/>
       <c r="I639" s="28" t="s">
         <v>1553</v>
       </c>
       <c r="J639" s="29" t="s">
         <v>1634</v>
       </c>
-      <c r="K639" s="29"/>
       <c r="L639" s="28">
         <v>-31</v>
       </c>
@@ -59404,7 +59413,6 @@
       <c r="R639" s="53" t="s">
         <v>1635</v>
       </c>
-      <c r="S639" s="29"/>
       <c r="W639" s="28" t="s">
         <v>481</v>
       </c>
@@ -59420,7 +59428,6 @@
       <c r="AA639" s="29">
         <v>81</v>
       </c>
-      <c r="AB639" s="29"/>
       <c r="AH639" s="29">
         <v>1</v>
       </c>
@@ -59447,14 +59454,12 @@
       <c r="G640" s="29" t="s">
         <v>1624</v>
       </c>
-      <c r="H640" s="29"/>
       <c r="I640" s="28" t="s">
         <v>1553</v>
       </c>
       <c r="J640" s="29" t="s">
         <v>1636</v>
       </c>
-      <c r="K640" s="29"/>
       <c r="L640" s="28">
         <v>-31</v>
       </c>
@@ -59476,7 +59481,6 @@
       <c r="R640" s="53" t="s">
         <v>1637</v>
       </c>
-      <c r="S640" s="29"/>
       <c r="W640" s="28" t="s">
         <v>481</v>
       </c>
@@ -59492,7 +59496,6 @@
       <c r="AA640" s="29">
         <v>81</v>
       </c>
-      <c r="AB640" s="29"/>
       <c r="AH640" s="29">
         <v>1</v>
       </c>
@@ -59519,14 +59522,12 @@
       <c r="G641" s="29" t="s">
         <v>1624</v>
       </c>
-      <c r="H641" s="29"/>
       <c r="I641" s="28" t="s">
         <v>1560</v>
       </c>
       <c r="J641" s="29" t="s">
         <v>1636</v>
       </c>
-      <c r="K641" s="29"/>
       <c r="L641" s="28">
         <v>-31</v>
       </c>
@@ -59548,7 +59549,6 @@
       <c r="R641" s="53" t="s">
         <v>1637</v>
       </c>
-      <c r="S641" s="29"/>
       <c r="W641" s="28" t="s">
         <v>481</v>
       </c>
@@ -59564,7 +59564,6 @@
       <c r="AA641" s="29">
         <v>82</v>
       </c>
-      <c r="AB641" s="29"/>
       <c r="AH641" s="29">
         <v>1</v>
       </c>
@@ -59591,14 +59590,12 @@
       <c r="G642" s="29" t="s">
         <v>1624</v>
       </c>
-      <c r="H642" s="29"/>
       <c r="I642" s="28" t="s">
         <v>1560</v>
       </c>
       <c r="J642" s="29" t="s">
         <v>1638</v>
       </c>
-      <c r="K642" s="29"/>
       <c r="L642" s="28">
         <v>-31</v>
       </c>
@@ -59620,7 +59617,6 @@
       <c r="R642" s="53" t="s">
         <v>1639</v>
       </c>
-      <c r="S642" s="29"/>
       <c r="W642" s="28" t="s">
         <v>481</v>
       </c>
@@ -59636,7 +59632,6 @@
       <c r="AA642" s="29">
         <v>82</v>
       </c>
-      <c r="AB642" s="29"/>
       <c r="AH642" s="29">
         <v>1</v>
       </c>
@@ -59663,14 +59658,12 @@
       <c r="G643" s="29" t="s">
         <v>1624</v>
       </c>
-      <c r="H643" s="29"/>
       <c r="I643" s="28" t="s">
         <v>1560</v>
       </c>
       <c r="J643" s="29" t="s">
         <v>1640</v>
       </c>
-      <c r="K643" s="29"/>
       <c r="L643" s="28">
         <v>-31</v>
       </c>
@@ -59692,7 +59685,6 @@
       <c r="R643" s="53" t="s">
         <v>1641</v>
       </c>
-      <c r="S643" s="29"/>
       <c r="W643" s="28" t="s">
         <v>481</v>
       </c>
@@ -59708,7 +59700,6 @@
       <c r="AA643" s="29">
         <v>82</v>
       </c>
-      <c r="AB643" s="29"/>
       <c r="AH643" s="29">
         <v>1</v>
       </c>
@@ -59735,14 +59726,12 @@
       <c r="G644" s="29" t="s">
         <v>1624</v>
       </c>
-      <c r="H644" s="29"/>
       <c r="I644" s="28" t="s">
         <v>1449</v>
       </c>
       <c r="J644" s="29" t="s">
         <v>1638</v>
       </c>
-      <c r="K644" s="29"/>
       <c r="L644" s="28">
         <v>-31</v>
       </c>
@@ -59764,7 +59753,6 @@
       <c r="R644" s="53" t="s">
         <v>1639</v>
       </c>
-      <c r="S644" s="29"/>
       <c r="W644" s="28" t="s">
         <v>481</v>
       </c>
@@ -59780,7 +59768,6 @@
       <c r="AA644" s="29">
         <v>83</v>
       </c>
-      <c r="AB644" s="29"/>
       <c r="AH644" s="29">
         <v>1</v>
       </c>
@@ -59807,14 +59794,12 @@
       <c r="G645" s="29" t="s">
         <v>1624</v>
       </c>
-      <c r="H645" s="29"/>
       <c r="I645" s="28" t="s">
         <v>1449</v>
       </c>
       <c r="J645" s="29" t="s">
         <v>1640</v>
       </c>
-      <c r="K645" s="29"/>
       <c r="L645" s="28">
         <v>-31</v>
       </c>
@@ -59836,7 +59821,6 @@
       <c r="R645" s="53" t="s">
         <v>1641</v>
       </c>
-      <c r="S645" s="29"/>
       <c r="W645" s="28" t="s">
         <v>481</v>
       </c>
@@ -59852,7 +59836,6 @@
       <c r="AA645" s="29">
         <v>83</v>
       </c>
-      <c r="AB645" s="29"/>
       <c r="AH645" s="29">
         <v>1</v>
       </c>
@@ -59879,14 +59862,12 @@
       <c r="G646" s="29" t="s">
         <v>1624</v>
       </c>
-      <c r="H646" s="29"/>
       <c r="I646" s="28" t="s">
         <v>1449</v>
       </c>
       <c r="J646" s="29" t="s">
         <v>1642</v>
       </c>
-      <c r="K646" s="29"/>
       <c r="L646" s="28">
         <v>-31</v>
       </c>
@@ -59908,7 +59889,6 @@
       <c r="R646" s="53" t="s">
         <v>1643</v>
       </c>
-      <c r="S646" s="29"/>
       <c r="W646" s="28" t="s">
         <v>481</v>
       </c>
@@ -59924,7 +59904,6 @@
       <c r="AA646" s="29">
         <v>83</v>
       </c>
-      <c r="AB646" s="29"/>
       <c r="AH646" s="29">
         <v>1</v>
       </c>
@@ -59935,6 +59914,502 @@
         <v>1</v>
       </c>
       <c r="AM646" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="647" s="24" customFormat="1" spans="1:39">
+      <c r="A647" s="24">
+        <v>646</v>
+      </c>
+      <c r="B647" s="24">
+        <v>10563</v>
+      </c>
+      <c r="F647" s="24">
+        <v>1</v>
+      </c>
+      <c r="G647" s="24" t="s">
+        <v>1644</v>
+      </c>
+      <c r="J647" s="24" t="s">
+        <v>1645</v>
+      </c>
+      <c r="L647" s="24">
+        <v>-31</v>
+      </c>
+      <c r="M647" s="24">
+        <v>0</v>
+      </c>
+      <c r="N647" s="24">
+        <v>0</v>
+      </c>
+      <c r="O647" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="P647" s="24">
+        <v>19800</v>
+      </c>
+      <c r="Q647" s="24" t="s">
+        <v>1646</v>
+      </c>
+      <c r="R647" s="56" t="s">
+        <v>1647</v>
+      </c>
+      <c r="W647" s="24" t="s">
+        <v>1648</v>
+      </c>
+      <c r="X647" s="24">
+        <v>99999999</v>
+      </c>
+      <c r="Y647" s="24">
+        <v>1620576000</v>
+      </c>
+      <c r="Z647" s="24">
+        <v>2552233600</v>
+      </c>
+      <c r="AH647" s="24">
+        <v>1</v>
+      </c>
+      <c r="AI647" s="24">
+        <v>1</v>
+      </c>
+      <c r="AL647" s="24">
+        <v>1</v>
+      </c>
+      <c r="AM647" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="648" s="24" customFormat="1" spans="1:39">
+      <c r="A648" s="24">
+        <v>647</v>
+      </c>
+      <c r="B648" s="24">
+        <v>10564</v>
+      </c>
+      <c r="F648" s="24">
+        <v>1</v>
+      </c>
+      <c r="G648" s="24" t="s">
+        <v>1649</v>
+      </c>
+      <c r="J648" s="24" t="s">
+        <v>1650</v>
+      </c>
+      <c r="L648" s="24">
+        <v>-31</v>
+      </c>
+      <c r="M648" s="24">
+        <v>0</v>
+      </c>
+      <c r="N648" s="24">
+        <v>0</v>
+      </c>
+      <c r="O648" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="P648" s="24">
+        <v>69800</v>
+      </c>
+      <c r="Q648" s="24" t="s">
+        <v>1646</v>
+      </c>
+      <c r="R648" s="56" t="s">
+        <v>1651</v>
+      </c>
+      <c r="W648" s="24" t="s">
+        <v>1648</v>
+      </c>
+      <c r="X648" s="24">
+        <v>99999999</v>
+      </c>
+      <c r="Y648" s="24">
+        <v>1620576000</v>
+      </c>
+      <c r="Z648" s="24">
+        <v>2552233600</v>
+      </c>
+      <c r="AH648" s="24">
+        <v>1</v>
+      </c>
+      <c r="AI648" s="24">
+        <v>1</v>
+      </c>
+      <c r="AL648" s="24">
+        <v>1</v>
+      </c>
+      <c r="AM648" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="649" spans="1:39">
+      <c r="A649" s="21">
+        <v>648</v>
+      </c>
+      <c r="B649" s="29">
+        <v>10565</v>
+      </c>
+      <c r="F649" s="29">
+        <v>1</v>
+      </c>
+      <c r="G649" s="29" t="s">
+        <v>1394</v>
+      </c>
+      <c r="J649" s="28" t="s">
+        <v>1580</v>
+      </c>
+      <c r="L649" s="28">
+        <v>-31</v>
+      </c>
+      <c r="M649" s="28">
+        <v>0</v>
+      </c>
+      <c r="N649" s="28">
+        <v>0</v>
+      </c>
+      <c r="O649" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="P649" s="29">
+        <v>49800</v>
+      </c>
+      <c r="Q649" s="28" t="s">
+        <v>1581</v>
+      </c>
+      <c r="R649" s="53" t="s">
+        <v>1582</v>
+      </c>
+      <c r="W649" s="21" t="s">
+        <v>1310</v>
+      </c>
+      <c r="X649" s="28">
+        <v>99999999</v>
+      </c>
+      <c r="Y649" s="29">
+        <v>1622505600</v>
+      </c>
+      <c r="Z649" s="29">
+        <v>1623081599</v>
+      </c>
+      <c r="AH649" s="29">
+        <v>1</v>
+      </c>
+      <c r="AI649" s="29">
+        <v>1</v>
+      </c>
+      <c r="AL649" s="29">
+        <v>1</v>
+      </c>
+      <c r="AM649" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="650" spans="1:39">
+      <c r="A650" s="21">
+        <v>649</v>
+      </c>
+      <c r="B650" s="29">
+        <v>10566</v>
+      </c>
+      <c r="F650" s="29">
+        <v>1</v>
+      </c>
+      <c r="G650" s="29" t="s">
+        <v>1394</v>
+      </c>
+      <c r="J650" s="28" t="s">
+        <v>1583</v>
+      </c>
+      <c r="L650" s="28">
+        <v>-31</v>
+      </c>
+      <c r="M650" s="28">
+        <v>0</v>
+      </c>
+      <c r="N650" s="28">
+        <v>0</v>
+      </c>
+      <c r="O650" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="P650" s="29">
+        <v>19800</v>
+      </c>
+      <c r="Q650" s="28" t="s">
+        <v>1581</v>
+      </c>
+      <c r="R650" s="53" t="s">
+        <v>1584</v>
+      </c>
+      <c r="W650" s="21" t="s">
+        <v>1310</v>
+      </c>
+      <c r="X650" s="28">
+        <v>99999999</v>
+      </c>
+      <c r="Y650" s="29">
+        <v>1622505600</v>
+      </c>
+      <c r="Z650" s="29">
+        <v>1623081599</v>
+      </c>
+      <c r="AH650" s="29">
+        <v>1</v>
+      </c>
+      <c r="AI650" s="29">
+        <v>1</v>
+      </c>
+      <c r="AL650" s="29">
+        <v>1</v>
+      </c>
+      <c r="AM650" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="651" spans="1:39">
+      <c r="A651" s="21">
+        <v>650</v>
+      </c>
+      <c r="B651" s="29">
+        <v>10567</v>
+      </c>
+      <c r="F651" s="29">
+        <v>1</v>
+      </c>
+      <c r="G651" s="29" t="s">
+        <v>1394</v>
+      </c>
+      <c r="J651" s="28" t="s">
+        <v>1585</v>
+      </c>
+      <c r="L651" s="28">
+        <v>-31</v>
+      </c>
+      <c r="M651" s="28">
+        <v>0</v>
+      </c>
+      <c r="N651" s="28">
+        <v>0</v>
+      </c>
+      <c r="O651" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="P651" s="29">
+        <v>9800</v>
+      </c>
+      <c r="Q651" s="28" t="s">
+        <v>1581</v>
+      </c>
+      <c r="R651" s="53" t="s">
+        <v>1586</v>
+      </c>
+      <c r="W651" s="21" t="s">
+        <v>1310</v>
+      </c>
+      <c r="X651" s="28">
+        <v>99999999</v>
+      </c>
+      <c r="Y651" s="29">
+        <v>1622505600</v>
+      </c>
+      <c r="Z651" s="29">
+        <v>1623081599</v>
+      </c>
+      <c r="AH651" s="29">
+        <v>1</v>
+      </c>
+      <c r="AI651" s="29">
+        <v>1</v>
+      </c>
+      <c r="AL651" s="29">
+        <v>1</v>
+      </c>
+      <c r="AM651" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="652" spans="1:39">
+      <c r="A652" s="21">
+        <v>651</v>
+      </c>
+      <c r="B652" s="29">
+        <v>10568</v>
+      </c>
+      <c r="F652" s="29">
+        <v>1</v>
+      </c>
+      <c r="G652" s="29" t="s">
+        <v>1394</v>
+      </c>
+      <c r="J652" s="28" t="s">
+        <v>1587</v>
+      </c>
+      <c r="L652" s="28">
+        <v>-31</v>
+      </c>
+      <c r="M652" s="28">
+        <v>0</v>
+      </c>
+      <c r="N652" s="28">
+        <v>0</v>
+      </c>
+      <c r="O652" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="P652" s="29">
+        <v>4800</v>
+      </c>
+      <c r="Q652" s="28" t="s">
+        <v>1581</v>
+      </c>
+      <c r="R652" s="53" t="s">
+        <v>1588</v>
+      </c>
+      <c r="W652" s="21" t="s">
+        <v>1310</v>
+      </c>
+      <c r="X652" s="28">
+        <v>99999999</v>
+      </c>
+      <c r="Y652" s="29">
+        <v>1622505600</v>
+      </c>
+      <c r="Z652" s="29">
+        <v>1623081599</v>
+      </c>
+      <c r="AH652" s="29">
+        <v>1</v>
+      </c>
+      <c r="AI652" s="29">
+        <v>1</v>
+      </c>
+      <c r="AL652" s="29">
+        <v>1</v>
+      </c>
+      <c r="AM652" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="653" spans="1:39">
+      <c r="A653" s="21">
+        <v>652</v>
+      </c>
+      <c r="B653" s="29">
+        <v>10569</v>
+      </c>
+      <c r="F653" s="29">
+        <v>1</v>
+      </c>
+      <c r="G653" s="29" t="s">
+        <v>1394</v>
+      </c>
+      <c r="J653" s="28" t="s">
+        <v>1589</v>
+      </c>
+      <c r="L653" s="28">
+        <v>-31</v>
+      </c>
+      <c r="M653" s="28">
+        <v>0</v>
+      </c>
+      <c r="N653" s="28">
+        <v>0</v>
+      </c>
+      <c r="O653" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="P653" s="29">
+        <v>2000</v>
+      </c>
+      <c r="Q653" s="28" t="s">
+        <v>1581</v>
+      </c>
+      <c r="R653" s="53" t="s">
+        <v>1590</v>
+      </c>
+      <c r="W653" s="21" t="s">
+        <v>1310</v>
+      </c>
+      <c r="X653" s="28">
+        <v>99999999</v>
+      </c>
+      <c r="Y653" s="29">
+        <v>1622505600</v>
+      </c>
+      <c r="Z653" s="29">
+        <v>1623081599</v>
+      </c>
+      <c r="AH653" s="29">
+        <v>1</v>
+      </c>
+      <c r="AI653" s="29">
+        <v>1</v>
+      </c>
+      <c r="AL653" s="29">
+        <v>1</v>
+      </c>
+      <c r="AM653" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="654" spans="1:39">
+      <c r="A654" s="21">
+        <v>653</v>
+      </c>
+      <c r="B654" s="29">
+        <v>10570</v>
+      </c>
+      <c r="F654" s="29">
+        <v>1</v>
+      </c>
+      <c r="G654" s="29" t="s">
+        <v>1394</v>
+      </c>
+      <c r="J654" s="28" t="s">
+        <v>1591</v>
+      </c>
+      <c r="L654" s="28">
+        <v>-31</v>
+      </c>
+      <c r="M654" s="28">
+        <v>0</v>
+      </c>
+      <c r="N654" s="28">
+        <v>0</v>
+      </c>
+      <c r="O654" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="P654" s="29">
+        <v>600</v>
+      </c>
+      <c r="Q654" s="28" t="s">
+        <v>1581</v>
+      </c>
+      <c r="R654" s="53" t="s">
+        <v>1592</v>
+      </c>
+      <c r="W654" s="21" t="s">
+        <v>1310</v>
+      </c>
+      <c r="X654" s="28">
+        <v>99999999</v>
+      </c>
+      <c r="Y654" s="29">
+        <v>1622505600</v>
+      </c>
+      <c r="Z654" s="29">
+        <v>1623081599</v>
+      </c>
+      <c r="AH654" s="29">
+        <v>1</v>
+      </c>
+      <c r="AI654" s="29">
+        <v>1</v>
+      </c>
+      <c r="AL654" s="29">
+        <v>1</v>
+      </c>
+      <c r="AM654" s="29">
         <v>1</v>
       </c>
     </row>
@@ -59964,19 +60439,19 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="58.5" customHeight="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>1644</v>
+        <v>1652</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1645</v>
+        <v>1653</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1646</v>
+        <v>1654</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1647</v>
+        <v>1655</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1648</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="2" ht="57.75" customHeight="1" spans="1:5">
@@ -59984,7 +60459,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>1649</v>
+        <v>1657</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -59993,7 +60468,7 @@
         <v>3600</v>
       </c>
       <c r="E2" t="s">
-        <v>1650</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="3" ht="78.75" customHeight="1" spans="1:4">
@@ -60001,7 +60476,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>1651</v>
+        <v>1659</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -60015,7 +60490,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>1652</v>
+        <v>1660</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -60029,7 +60504,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>1653</v>
+        <v>1661</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -60043,7 +60518,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>1654</v>
+        <v>1662</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -60057,7 +60532,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>1655</v>
+        <v>1663</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -60071,7 +60546,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>1656</v>
+        <v>1664</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -60085,7 +60560,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>1657</v>
+        <v>1665</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -60099,7 +60574,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>1658</v>
+        <v>1666</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -60113,7 +60588,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>1659</v>
+        <v>1667</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -60127,7 +60602,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>1654</v>
+        <v>1662</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -60141,7 +60616,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>1655</v>
+        <v>1663</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -60155,7 +60630,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>1660</v>
+        <v>1668</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -60169,7 +60644,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>1661</v>
+        <v>1669</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -60183,7 +60658,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>1662</v>
+        <v>1670</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -60197,7 +60672,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>1663</v>
+        <v>1671</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -60211,7 +60686,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>1664</v>
+        <v>1672</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -60225,7 +60700,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>1665</v>
+        <v>1673</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -60239,7 +60714,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>1666</v>
+        <v>1674</v>
       </c>
       <c r="C20" s="4">
         <v>1</v>
@@ -60253,7 +60728,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>1667</v>
+        <v>1675</v>
       </c>
       <c r="C21" s="4">
         <v>1</v>
@@ -60267,7 +60742,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>1668</v>
+        <v>1676</v>
       </c>
       <c r="C22" s="4">
         <v>1</v>
@@ -60281,7 +60756,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>1669</v>
+        <v>1677</v>
       </c>
       <c r="C23" s="4">
         <v>1</v>
@@ -60295,7 +60770,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>1670</v>
+        <v>1678</v>
       </c>
       <c r="C24" s="4">
         <v>1</v>
@@ -60309,7 +60784,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>1671</v>
+        <v>1679</v>
       </c>
       <c r="C25" s="4">
         <v>1</v>
@@ -60323,7 +60798,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>1672</v>
+        <v>1680</v>
       </c>
       <c r="C26" s="4">
         <v>1</v>
@@ -60337,7 +60812,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>1673</v>
+        <v>1681</v>
       </c>
       <c r="C27" s="2">
         <v>1</v>
@@ -60351,7 +60826,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>1674</v>
+        <v>1682</v>
       </c>
       <c r="C28" s="2">
         <v>1</v>
@@ -60365,7 +60840,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>1675</v>
+        <v>1683</v>
       </c>
       <c r="C29" s="2">
         <v>1</v>
@@ -60379,7 +60854,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>1676</v>
+        <v>1684</v>
       </c>
       <c r="C30" s="2">
         <v>1</v>
@@ -60393,7 +60868,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>1677</v>
+        <v>1685</v>
       </c>
       <c r="C31" s="2">
         <v>1</v>
@@ -60407,7 +60882,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>1678</v>
+        <v>1686</v>
       </c>
       <c r="C32" s="2">
         <v>1</v>
@@ -60421,7 +60896,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>1679</v>
+        <v>1687</v>
       </c>
       <c r="C33" s="2">
         <v>1</v>
@@ -60435,7 +60910,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>1680</v>
+        <v>1688</v>
       </c>
       <c r="C34" s="2">
         <v>1</v>
@@ -60449,7 +60924,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>1681</v>
+        <v>1689</v>
       </c>
       <c r="C35" s="2">
         <v>1</v>
@@ -60463,7 +60938,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>1682</v>
+        <v>1690</v>
       </c>
       <c r="C36" s="2">
         <v>1</v>
@@ -60477,7 +60952,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>1683</v>
+        <v>1691</v>
       </c>
       <c r="C37" s="2">
         <v>1</v>
@@ -60491,7 +60966,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>1684</v>
+        <v>1692</v>
       </c>
       <c r="C38" s="2">
         <v>1</v>
@@ -60505,7 +60980,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>1685</v>
+        <v>1693</v>
       </c>
       <c r="C39" s="2">
         <v>1</v>
@@ -60519,7 +60994,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>1686</v>
+        <v>1694</v>
       </c>
       <c r="C40" s="2">
         <v>1</v>
@@ -60533,7 +61008,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>1687</v>
+        <v>1695</v>
       </c>
       <c r="C41" s="2">
         <v>1</v>
@@ -60547,7 +61022,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>1688</v>
+        <v>1696</v>
       </c>
       <c r="C42" s="2">
         <v>1</v>
@@ -60561,7 +61036,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>1689</v>
+        <v>1697</v>
       </c>
       <c r="C43" s="2">
         <v>1</v>
@@ -60575,7 +61050,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>1690</v>
+        <v>1698</v>
       </c>
       <c r="C44" s="2">
         <v>1</v>
@@ -60589,7 +61064,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>1691</v>
+        <v>1699</v>
       </c>
       <c r="C45" s="2">
         <v>1</v>
@@ -60603,7 +61078,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>1692</v>
+        <v>1700</v>
       </c>
       <c r="C46" s="2">
         <v>1</v>
@@ -60617,7 +61092,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>1693</v>
+        <v>1701</v>
       </c>
       <c r="C47" s="2">
         <v>1</v>
@@ -60631,7 +61106,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>1694</v>
+        <v>1702</v>
       </c>
       <c r="C48" s="2">
         <v>1</v>
@@ -60645,7 +61120,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>1695</v>
+        <v>1703</v>
       </c>
       <c r="C49" s="2">
         <v>1</v>
@@ -60659,7 +61134,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>1696</v>
+        <v>1704</v>
       </c>
       <c r="C50" s="2">
         <v>1</v>
@@ -60673,7 +61148,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>1697</v>
+        <v>1705</v>
       </c>
       <c r="C51" s="2">
         <v>1</v>
@@ -60687,7 +61162,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>1698</v>
+        <v>1706</v>
       </c>
       <c r="C52" s="2">
         <v>1</v>
@@ -60701,7 +61176,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>1699</v>
+        <v>1707</v>
       </c>
       <c r="C53" s="2">
         <v>1</v>
@@ -60715,7 +61190,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>1700</v>
+        <v>1708</v>
       </c>
       <c r="C54" s="2">
         <v>1</v>
@@ -60729,7 +61204,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>1701</v>
+        <v>1709</v>
       </c>
       <c r="C55" s="2">
         <v>1</v>
@@ -60743,7 +61218,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>1702</v>
+        <v>1710</v>
       </c>
       <c r="C56" s="2">
         <v>1</v>
@@ -60757,7 +61232,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>1703</v>
+        <v>1711</v>
       </c>
       <c r="C57" s="2">
         <v>1</v>
@@ -60771,7 +61246,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>1704</v>
+        <v>1712</v>
       </c>
       <c r="C58" s="2">
         <v>1</v>
@@ -60785,7 +61260,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>1705</v>
+        <v>1713</v>
       </c>
       <c r="C59" s="2">
         <v>1</v>
@@ -60799,7 +61274,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>1706</v>
+        <v>1714</v>
       </c>
       <c r="C60" s="2">
         <v>1</v>
@@ -60813,7 +61288,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>1707</v>
+        <v>1715</v>
       </c>
       <c r="C61" s="2">
         <v>1</v>
@@ -60827,7 +61302,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>1708</v>
+        <v>1716</v>
       </c>
       <c r="C62" s="2">
         <v>1</v>
@@ -60841,7 +61316,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>1709</v>
+        <v>1717</v>
       </c>
       <c r="C63" s="2">
         <v>1</v>
@@ -60855,7 +61330,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>1710</v>
+        <v>1718</v>
       </c>
       <c r="C64" s="2">
         <v>1</v>
@@ -60869,7 +61344,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>1711</v>
+        <v>1719</v>
       </c>
       <c r="C65" s="2">
         <v>1</v>
@@ -60883,7 +61358,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>1712</v>
+        <v>1720</v>
       </c>
       <c r="C66" s="2">
         <v>1</v>
@@ -60897,7 +61372,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>1713</v>
+        <v>1721</v>
       </c>
       <c r="C67" s="2">
         <v>1</v>
@@ -60911,7 +61386,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>1714</v>
+        <v>1722</v>
       </c>
       <c r="C68" s="2">
         <v>1</v>
@@ -60925,7 +61400,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>1715</v>
+        <v>1723</v>
       </c>
       <c r="C69" s="2">
         <v>1</v>
@@ -60939,7 +61414,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>1716</v>
+        <v>1724</v>
       </c>
       <c r="C70" s="2">
         <v>1</v>
@@ -60953,7 +61428,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="18" t="s">
-        <v>1717</v>
+        <v>1725</v>
       </c>
       <c r="C71" s="19">
         <v>1</v>
@@ -60967,7 +61442,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="18" t="s">
-        <v>1718</v>
+        <v>1726</v>
       </c>
       <c r="C72" s="19">
         <v>1</v>
@@ -60981,7 +61456,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="18" t="s">
-        <v>1719</v>
+        <v>1727</v>
       </c>
       <c r="C73" s="19">
         <v>1</v>
@@ -60995,7 +61470,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="18" t="s">
-        <v>1720</v>
+        <v>1728</v>
       </c>
       <c r="C74" s="19">
         <v>1</v>
@@ -61009,7 +61484,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="18" t="s">
-        <v>1721</v>
+        <v>1729</v>
       </c>
       <c r="C75" s="19">
         <v>1</v>
@@ -61023,7 +61498,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="18" t="s">
-        <v>1722</v>
+        <v>1730</v>
       </c>
       <c r="C76" s="19">
         <v>1</v>
@@ -61037,7 +61512,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="18" t="s">
-        <v>1723</v>
+        <v>1731</v>
       </c>
       <c r="C77" s="19">
         <v>1</v>
@@ -61051,7 +61526,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="18" t="s">
-        <v>1724</v>
+        <v>1732</v>
       </c>
       <c r="C78" s="19">
         <v>1</v>
@@ -61065,7 +61540,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="18" t="s">
-        <v>1725</v>
+        <v>1733</v>
       </c>
       <c r="C79" s="19">
         <v>1</v>
@@ -61079,7 +61554,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="18" t="s">
-        <v>1726</v>
+        <v>1734</v>
       </c>
       <c r="C80" s="19">
         <v>1</v>
@@ -61093,7 +61568,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="20" t="s">
-        <v>1727</v>
+        <v>1735</v>
       </c>
       <c r="C81" s="2">
         <v>1</v>
@@ -61107,7 +61582,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="20" t="s">
-        <v>1728</v>
+        <v>1736</v>
       </c>
       <c r="C82" s="2">
         <v>1</v>
@@ -61121,7 +61596,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="20" t="s">
-        <v>1729</v>
+        <v>1737</v>
       </c>
       <c r="C83" s="2">
         <v>1</v>
@@ -61135,7 +61610,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="20" t="s">
-        <v>1730</v>
+        <v>1738</v>
       </c>
       <c r="C84" s="2">
         <v>1</v>
@@ -61149,7 +61624,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="20" t="s">
-        <v>1731</v>
+        <v>1739</v>
       </c>
       <c r="C85">
         <v>1</v>
@@ -61201,7 +61676,7 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="90" customHeight="1" spans="1:29">
       <c r="A1" s="1" t="s">
-        <v>1732</v>
+        <v>1740</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>22</v>
@@ -61213,19 +61688,19 @@
         <v>25</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1733</v>
+        <v>1741</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>1734</v>
+        <v>1742</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>1735</v>
+        <v>1743</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>1736</v>
+        <v>1744</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>1737</v>
+        <v>1745</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>31</v>
@@ -61240,7 +61715,7 @@
         <v>38</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>1738</v>
+        <v>1746</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>39</v>
@@ -61285,7 +61760,7 @@
         <v>52</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>1739</v>
+        <v>1747</v>
       </c>
     </row>
     <row r="2" s="12" customFormat="1" spans="1:26">
@@ -61305,7 +61780,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>1740</v>
+        <v>1748</v>
       </c>
       <c r="G2" s="12">
         <v>480</v>
@@ -61332,22 +61807,22 @@
         <v>3</v>
       </c>
       <c r="P2" s="15" t="s">
-        <v>1741</v>
+        <v>1749</v>
       </c>
       <c r="Q2" s="15" t="s">
-        <v>1742</v>
+        <v>1750</v>
       </c>
       <c r="S2" s="15" t="s">
-        <v>1743</v>
+        <v>1751</v>
       </c>
       <c r="T2" s="12" t="s">
         <v>61</v>
       </c>
       <c r="U2" s="15" t="s">
-        <v>1744</v>
+        <v>1752</v>
       </c>
       <c r="V2" s="12" t="s">
-        <v>1745</v>
+        <v>1753</v>
       </c>
       <c r="Y2" s="12">
         <v>1</v>
@@ -61373,7 +61848,7 @@
         <v>2</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>1740</v>
+        <v>1748</v>
       </c>
       <c r="G3" s="12">
         <v>1200</v>
@@ -61403,19 +61878,19 @@
         <v>127</v>
       </c>
       <c r="Q3" s="15" t="s">
-        <v>1746</v>
+        <v>1754</v>
       </c>
       <c r="S3" s="15" t="s">
-        <v>1743</v>
+        <v>1751</v>
       </c>
       <c r="T3" s="12" t="s">
         <v>66</v>
       </c>
       <c r="U3" s="15" t="s">
-        <v>1747</v>
+        <v>1755</v>
       </c>
       <c r="V3" s="12" t="s">
-        <v>1745</v>
+        <v>1753</v>
       </c>
       <c r="Y3" s="12">
         <v>1</v>
@@ -61441,7 +61916,7 @@
         <v>3</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>1740</v>
+        <v>1748</v>
       </c>
       <c r="G4" s="12">
         <v>2400</v>
@@ -61468,22 +61943,22 @@
         <v>5</v>
       </c>
       <c r="P4" s="15" t="s">
-        <v>1748</v>
+        <v>1756</v>
       </c>
       <c r="Q4" s="15" t="s">
-        <v>1749</v>
+        <v>1757</v>
       </c>
       <c r="S4" s="15" t="s">
-        <v>1743</v>
+        <v>1751</v>
       </c>
       <c r="T4" s="12" t="s">
         <v>70</v>
       </c>
       <c r="U4" s="12" t="s">
-        <v>1750</v>
+        <v>1758</v>
       </c>
       <c r="V4" s="12" t="s">
-        <v>1745</v>
+        <v>1753</v>
       </c>
       <c r="Y4" s="12">
         <v>1</v>
@@ -61509,7 +61984,7 @@
         <v>4</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>1740</v>
+        <v>1748</v>
       </c>
       <c r="G5" s="12">
         <v>4000</v>
@@ -61536,22 +62011,22 @@
         <v>6</v>
       </c>
       <c r="P5" s="15" t="s">
+        <v>1759</v>
+      </c>
+      <c r="Q5" s="15" t="s">
+        <v>1760</v>
+      </c>
+      <c r="S5" s="15" t="s">
         <v>1751</v>
-      </c>
-      <c r="Q5" s="15" t="s">
-        <v>1752</v>
-      </c>
-      <c r="S5" s="15" t="s">
-        <v>1743</v>
       </c>
       <c r="T5" s="12" t="s">
         <v>74</v>
       </c>
       <c r="U5" s="15" t="s">
+        <v>1761</v>
+      </c>
+      <c r="V5" s="12" t="s">
         <v>1753</v>
-      </c>
-      <c r="V5" s="12" t="s">
-        <v>1745</v>
       </c>
       <c r="Y5" s="12">
         <v>1</v>
@@ -61577,7 +62052,7 @@
         <v>5</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>1740</v>
+        <v>1748</v>
       </c>
       <c r="G6" s="12">
         <v>7840</v>
@@ -61604,22 +62079,22 @@
         <v>7</v>
       </c>
       <c r="P6" s="15" t="s">
-        <v>1754</v>
+        <v>1762</v>
       </c>
       <c r="Q6" s="15" t="s">
-        <v>1755</v>
+        <v>1763</v>
       </c>
       <c r="S6" s="15" t="s">
-        <v>1743</v>
+        <v>1751</v>
       </c>
       <c r="T6" s="12" t="s">
         <v>78</v>
       </c>
       <c r="U6" s="12" t="s">
-        <v>1756</v>
+        <v>1764</v>
       </c>
       <c r="V6" s="12" t="s">
-        <v>1745</v>
+        <v>1753</v>
       </c>
       <c r="Y6" s="12">
         <v>1</v>
@@ -61645,7 +62120,7 @@
         <v>6</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>1740</v>
+        <v>1748</v>
       </c>
       <c r="G7" s="12">
         <v>39840</v>
@@ -61672,22 +62147,22 @@
         <v>9</v>
       </c>
       <c r="P7" s="15" t="s">
-        <v>1757</v>
+        <v>1765</v>
       </c>
       <c r="Q7" s="15" t="s">
-        <v>1758</v>
+        <v>1766</v>
       </c>
       <c r="S7" s="15" t="s">
-        <v>1743</v>
+        <v>1751</v>
       </c>
       <c r="T7" s="12" t="s">
         <v>82</v>
       </c>
       <c r="U7" s="12" t="s">
-        <v>1759</v>
+        <v>1767</v>
       </c>
       <c r="V7" s="12" t="s">
-        <v>1745</v>
+        <v>1753</v>
       </c>
       <c r="Y7" s="12">
         <v>1</v>
@@ -61710,7 +62185,7 @@
         <v>1</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>1740</v>
+        <v>1748</v>
       </c>
       <c r="G8" s="12">
         <v>120</v>
@@ -61737,22 +62212,22 @@
         <v>0</v>
       </c>
       <c r="P8" s="15" t="s">
-        <v>1760</v>
+        <v>1768</v>
       </c>
       <c r="Q8" s="15" t="s">
-        <v>1761</v>
+        <v>1769</v>
       </c>
       <c r="S8" s="15" t="s">
-        <v>1743</v>
+        <v>1751</v>
       </c>
       <c r="T8" s="12" t="s">
         <v>61</v>
       </c>
       <c r="U8" s="15" t="s">
-        <v>1744</v>
+        <v>1752</v>
       </c>
       <c r="V8" s="12" t="s">
-        <v>1745</v>
+        <v>1753</v>
       </c>
       <c r="Y8" s="12">
         <v>1</v>
@@ -61776,7 +62251,7 @@
         <v>5</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>1762</v>
+        <v>1770</v>
       </c>
       <c r="G9" s="13">
         <v>5000</v>
@@ -61804,10 +62279,10 @@
         <v>2</v>
       </c>
       <c r="P9" s="16" t="s">
-        <v>1763</v>
+        <v>1771</v>
       </c>
       <c r="Q9" s="16" t="s">
-        <v>1764</v>
+        <v>1772</v>
       </c>
       <c r="R9" s="13"/>
       <c r="S9" s="13"/>
@@ -61815,10 +62290,10 @@
         <v>5000</v>
       </c>
       <c r="U9" s="13" t="s">
+        <v>1761</v>
+      </c>
+      <c r="V9" s="13" t="s">
         <v>1753</v>
-      </c>
-      <c r="V9" s="13" t="s">
-        <v>1745</v>
       </c>
       <c r="W9" s="13"/>
       <c r="X9" s="13"/>
@@ -61831,7 +62306,7 @@
       <c r="AA9" s="13"/>
       <c r="AB9" s="13"/>
       <c r="AC9" s="16" t="s">
-        <v>1765</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="10" s="12" customFormat="1" spans="1:29">
@@ -61849,7 +62324,7 @@
         <v>2</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>1762</v>
+        <v>1770</v>
       </c>
       <c r="G10" s="13">
         <v>1000</v>
@@ -61877,10 +62352,10 @@
         <v>1</v>
       </c>
       <c r="P10" s="16" t="s">
-        <v>1766</v>
+        <v>1774</v>
       </c>
       <c r="Q10" s="16" t="s">
-        <v>1767</v>
+        <v>1775</v>
       </c>
       <c r="R10" s="13"/>
       <c r="S10" s="13"/>
@@ -61888,10 +62363,10 @@
         <v>1000</v>
       </c>
       <c r="U10" s="13" t="s">
-        <v>1747</v>
+        <v>1755</v>
       </c>
       <c r="V10" s="13" t="s">
-        <v>1745</v>
+        <v>1753</v>
       </c>
       <c r="W10" s="13"/>
       <c r="X10" s="13"/>
@@ -61904,7 +62379,7 @@
       <c r="AA10" s="13"/>
       <c r="AB10" s="13"/>
       <c r="AC10" s="16" t="s">
-        <v>1768</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="11" s="12" customFormat="1" spans="1:26">
@@ -61921,7 +62396,7 @@
         <v>2</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>1740</v>
+        <v>1748</v>
       </c>
       <c r="G11" s="12">
         <v>1200</v>
@@ -61951,19 +62426,19 @@
         <v>127</v>
       </c>
       <c r="Q11" s="15" t="s">
-        <v>1746</v>
+        <v>1754</v>
       </c>
       <c r="S11" s="15" t="s">
-        <v>1743</v>
+        <v>1751</v>
       </c>
       <c r="T11" s="15" t="s">
         <v>66</v>
       </c>
       <c r="U11" s="12" t="s">
-        <v>1747</v>
+        <v>1755</v>
       </c>
       <c r="V11" s="12" t="s">
-        <v>1745</v>
+        <v>1753</v>
       </c>
       <c r="Y11" s="12">
         <v>1</v>
@@ -61989,7 +62464,7 @@
         <v>107</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>1740</v>
+        <v>1748</v>
       </c>
       <c r="G12" s="12">
         <v>120000</v>
@@ -62016,22 +62491,22 @@
         <v>9</v>
       </c>
       <c r="P12" s="15" t="s">
-        <v>1769</v>
+        <v>1777</v>
       </c>
       <c r="Q12" s="15" t="s">
-        <v>1770</v>
+        <v>1778</v>
       </c>
       <c r="S12" s="15" t="s">
-        <v>1743</v>
+        <v>1751</v>
       </c>
       <c r="T12" s="12" t="s">
         <v>86</v>
       </c>
       <c r="U12" s="12" t="s">
-        <v>1771</v>
+        <v>1779</v>
       </c>
       <c r="V12" s="12" t="s">
-        <v>1745</v>
+        <v>1753</v>
       </c>
       <c r="Y12" s="12">
         <v>1</v>
@@ -62057,7 +62532,7 @@
         <v>108</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>1740</v>
+        <v>1748</v>
       </c>
       <c r="G13" s="12">
         <v>79840</v>
@@ -62084,22 +62559,22 @@
         <v>10</v>
       </c>
       <c r="P13" s="15" t="s">
-        <v>1772</v>
+        <v>1780</v>
       </c>
       <c r="Q13" s="15" t="s">
-        <v>1773</v>
+        <v>1781</v>
       </c>
       <c r="S13" s="15" t="s">
-        <v>1743</v>
+        <v>1751</v>
       </c>
       <c r="T13" s="12" t="s">
-        <v>1774</v>
+        <v>1782</v>
       </c>
       <c r="U13" s="12" t="s">
-        <v>1771</v>
+        <v>1779</v>
       </c>
       <c r="V13" s="12" t="s">
-        <v>1745</v>
+        <v>1753</v>
       </c>
       <c r="Y13" s="12">
         <v>1</v>
@@ -62125,7 +62600,7 @@
         <v>110</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>1740</v>
+        <v>1748</v>
       </c>
       <c r="G14" s="12">
         <v>199840</v>
@@ -62152,22 +62627,22 @@
         <v>11</v>
       </c>
       <c r="P14" s="15" t="s">
-        <v>1775</v>
+        <v>1783</v>
       </c>
       <c r="Q14" s="15" t="s">
-        <v>1776</v>
+        <v>1784</v>
       </c>
       <c r="S14" s="15" t="s">
-        <v>1777</v>
+        <v>1785</v>
       </c>
       <c r="T14" s="12" t="s">
-        <v>1778</v>
+        <v>1786</v>
       </c>
       <c r="U14" s="12" t="s">
-        <v>1779</v>
+        <v>1787</v>
       </c>
       <c r="V14" s="12" t="s">
-        <v>1745</v>
+        <v>1753</v>
       </c>
       <c r="Y14" s="12">
         <v>1</v>
@@ -62191,7 +62666,7 @@
         <v>1</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>1762</v>
+        <v>1770</v>
       </c>
       <c r="G15" s="13">
         <v>100</v>
@@ -62221,10 +62696,10 @@
         <v>0</v>
       </c>
       <c r="P15" s="16" t="s">
-        <v>1780</v>
+        <v>1788</v>
       </c>
       <c r="Q15" s="16" t="s">
-        <v>1781</v>
+        <v>1789</v>
       </c>
       <c r="R15" s="13"/>
       <c r="S15" s="16"/>
@@ -62232,10 +62707,10 @@
         <v>100</v>
       </c>
       <c r="U15" s="16" t="s">
-        <v>1744</v>
+        <v>1752</v>
       </c>
       <c r="V15" s="13" t="s">
-        <v>1745</v>
+        <v>1753</v>
       </c>
       <c r="W15" s="13"/>
       <c r="X15" s="13"/>
@@ -62248,7 +62723,7 @@
       <c r="AA15" s="13"/>
       <c r="AB15" s="13"/>
       <c r="AC15" s="16" t="s">
-        <v>1782</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="16" s="12" customFormat="1" spans="1:26">
@@ -62268,7 +62743,7 @@
         <v>101</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>1740</v>
+        <v>1748</v>
       </c>
       <c r="G16" s="12">
         <v>2000</v>
@@ -62295,23 +62770,23 @@
         <v>3</v>
       </c>
       <c r="P16" s="15" t="s">
-        <v>1783</v>
+        <v>1791</v>
       </c>
       <c r="Q16" s="15" t="s">
-        <v>1784</v>
+        <v>1792</v>
       </c>
       <c r="R16" s="2"/>
       <c r="S16" s="15" t="s">
-        <v>1743</v>
+        <v>1751</v>
       </c>
       <c r="T16" s="12" t="s">
         <v>101</v>
       </c>
       <c r="U16" s="15" t="s">
-        <v>1744</v>
+        <v>1752</v>
       </c>
       <c r="V16" s="12" t="s">
-        <v>1745</v>
+        <v>1753</v>
       </c>
       <c r="W16" s="2"/>
       <c r="X16" s="2"/>
@@ -62336,7 +62811,7 @@
         <v>102</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>1740</v>
+        <v>1748</v>
       </c>
       <c r="G17" s="12">
         <v>6700</v>
@@ -62363,23 +62838,23 @@
         <v>4</v>
       </c>
       <c r="P17" s="15" t="s">
-        <v>1785</v>
+        <v>1793</v>
       </c>
       <c r="Q17" s="15" t="s">
-        <v>1786</v>
+        <v>1794</v>
       </c>
       <c r="R17" s="2"/>
       <c r="S17" s="15" t="s">
-        <v>1743</v>
+        <v>1751</v>
       </c>
       <c r="T17" s="12" t="s">
         <v>105</v>
       </c>
       <c r="U17" s="12" t="s">
-        <v>1750</v>
+        <v>1758</v>
       </c>
       <c r="V17" s="12" t="s">
-        <v>1745</v>
+        <v>1753</v>
       </c>
       <c r="W17" s="2"/>
       <c r="X17" s="2"/>
@@ -62404,7 +62879,7 @@
         <v>103</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>1740</v>
+        <v>1748</v>
       </c>
       <c r="G18" s="12">
         <v>13200</v>
@@ -62431,23 +62906,23 @@
         <v>5</v>
       </c>
       <c r="P18" s="15" t="s">
-        <v>1787</v>
+        <v>1795</v>
       </c>
       <c r="Q18" s="15" t="s">
-        <v>1788</v>
+        <v>1796</v>
       </c>
       <c r="R18" s="2"/>
       <c r="S18" s="15" t="s">
-        <v>1743</v>
+        <v>1751</v>
       </c>
       <c r="T18" s="12" t="s">
         <v>109</v>
       </c>
       <c r="U18" s="12" t="s">
-        <v>1756</v>
+        <v>1764</v>
       </c>
       <c r="V18" s="12" t="s">
-        <v>1745</v>
+        <v>1753</v>
       </c>
       <c r="W18" s="2"/>
       <c r="X18" s="2"/>
@@ -62472,7 +62947,7 @@
         <v>104</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>1740</v>
+        <v>1748</v>
       </c>
       <c r="G19" s="12">
         <v>20400</v>
@@ -62499,23 +62974,23 @@
         <v>6</v>
       </c>
       <c r="P19" s="15" t="s">
-        <v>1789</v>
+        <v>1797</v>
       </c>
       <c r="Q19" s="15" t="s">
-        <v>1790</v>
+        <v>1798</v>
       </c>
       <c r="R19" s="2"/>
       <c r="S19" s="15" t="s">
-        <v>1743</v>
+        <v>1751</v>
       </c>
       <c r="T19" s="12" t="s">
         <v>114</v>
       </c>
       <c r="U19" s="15" t="s">
-        <v>1791</v>
+        <v>1799</v>
       </c>
       <c r="V19" s="12" t="s">
-        <v>1745</v>
+        <v>1753</v>
       </c>
       <c r="W19" s="2"/>
       <c r="X19" s="2"/>
@@ -62540,7 +63015,7 @@
         <v>105</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>1740</v>
+        <v>1748</v>
       </c>
       <c r="G20" s="12">
         <v>66</v>
@@ -62567,22 +63042,22 @@
         <v>7</v>
       </c>
       <c r="P20" s="15" t="s">
-        <v>1792</v>
+        <v>1800</v>
       </c>
       <c r="Q20" s="15" t="s">
-        <v>1793</v>
+        <v>1801</v>
       </c>
       <c r="S20" s="15" t="s">
-        <v>1743</v>
+        <v>1751</v>
       </c>
       <c r="T20" s="12" t="s">
         <v>120</v>
       </c>
       <c r="U20" s="12" t="s">
-        <v>1791</v>
+        <v>1799</v>
       </c>
       <c r="V20" s="12" t="s">
-        <v>1745</v>
+        <v>1753</v>
       </c>
       <c r="Y20" s="12">
         <v>1</v>
@@ -62606,7 +63081,7 @@
         <v>101</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>1740</v>
+        <v>1748</v>
       </c>
       <c r="G21" s="12">
         <v>200</v>
@@ -62637,20 +63112,20 @@
         <v>890</v>
       </c>
       <c r="Q21" s="15" t="s">
-        <v>1794</v>
+        <v>1802</v>
       </c>
       <c r="R21" s="12"/>
       <c r="S21" s="15" t="s">
-        <v>1743</v>
+        <v>1751</v>
       </c>
       <c r="T21" s="12" t="s">
         <v>124</v>
       </c>
       <c r="U21" s="15" t="s">
-        <v>1744</v>
+        <v>1752</v>
       </c>
       <c r="V21" s="12" t="s">
-        <v>1745</v>
+        <v>1753</v>
       </c>
       <c r="W21" s="12"/>
       <c r="X21" s="12"/>
@@ -62679,7 +63154,7 @@
         <v>104</v>
       </c>
       <c r="F22" s="13" t="s">
-        <v>1762</v>
+        <v>1770</v>
       </c>
       <c r="G22" s="13">
         <v>5000</v>
@@ -62707,10 +63182,10 @@
         <v>2</v>
       </c>
       <c r="P22" s="16" t="s">
-        <v>1763</v>
+        <v>1771</v>
       </c>
       <c r="Q22" s="16" t="s">
-        <v>1764</v>
+        <v>1772</v>
       </c>
       <c r="R22" s="13"/>
       <c r="S22" s="16"/>
@@ -62718,10 +63193,10 @@
         <v>5000</v>
       </c>
       <c r="U22" s="16" t="s">
+        <v>1761</v>
+      </c>
+      <c r="V22" s="13" t="s">
         <v>1753</v>
-      </c>
-      <c r="V22" s="13" t="s">
-        <v>1745</v>
       </c>
       <c r="W22" s="13"/>
       <c r="X22" s="13"/>
@@ -62750,7 +63225,7 @@
         <v>102</v>
       </c>
       <c r="F23" s="13" t="s">
-        <v>1762</v>
+        <v>1770</v>
       </c>
       <c r="G23" s="13">
         <v>1000</v>
@@ -62778,10 +63253,10 @@
         <v>1</v>
       </c>
       <c r="P23" s="16" t="s">
-        <v>1766</v>
+        <v>1774</v>
       </c>
       <c r="Q23" s="16" t="s">
-        <v>1767</v>
+        <v>1775</v>
       </c>
       <c r="R23" s="13"/>
       <c r="S23" s="16"/>
@@ -62789,10 +63264,10 @@
         <v>1000</v>
       </c>
       <c r="U23" s="16" t="s">
-        <v>1744</v>
+        <v>1752</v>
       </c>
       <c r="V23" s="13" t="s">
-        <v>1745</v>
+        <v>1753</v>
       </c>
       <c r="W23" s="13"/>
       <c r="X23" s="13"/>
@@ -62814,14 +63289,14 @@
         <v>109</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>1795</v>
+        <v>1803</v>
       </c>
       <c r="D24" s="13"/>
       <c r="E24" s="13">
         <v>101</v>
       </c>
       <c r="F24" s="13" t="s">
-        <v>1762</v>
+        <v>1770</v>
       </c>
       <c r="G24" s="13">
         <v>100</v>
@@ -62851,10 +63326,10 @@
         <v>0</v>
       </c>
       <c r="P24" s="16" t="s">
-        <v>1780</v>
+        <v>1788</v>
       </c>
       <c r="Q24" s="16" t="s">
-        <v>1781</v>
+        <v>1789</v>
       </c>
       <c r="R24" s="13"/>
       <c r="S24" s="16"/>
@@ -62862,10 +63337,10 @@
         <v>100</v>
       </c>
       <c r="U24" s="16" t="s">
-        <v>1744</v>
+        <v>1752</v>
       </c>
       <c r="V24" s="13" t="s">
-        <v>1745</v>
+        <v>1753</v>
       </c>
       <c r="W24" s="13"/>
       <c r="X24" s="13"/>
@@ -62878,7 +63353,7 @@
       <c r="AA24" s="13"/>
       <c r="AB24" s="13"/>
       <c r="AC24" s="16" t="s">
-        <v>1782</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="25" s="12" customFormat="1" spans="1:26">
@@ -62898,7 +63373,7 @@
         <v>111</v>
       </c>
       <c r="F25" s="15" t="s">
-        <v>1740</v>
+        <v>1748</v>
       </c>
       <c r="G25" s="12">
         <v>15840</v>
@@ -62925,22 +63400,22 @@
         <v>8</v>
       </c>
       <c r="P25" s="15" t="s">
-        <v>1796</v>
+        <v>1804</v>
       </c>
       <c r="Q25" s="15" t="s">
-        <v>1797</v>
+        <v>1805</v>
       </c>
       <c r="S25" s="15" t="s">
-        <v>1743</v>
+        <v>1751</v>
       </c>
       <c r="T25" s="15" t="s">
-        <v>1798</v>
+        <v>1806</v>
       </c>
       <c r="U25" s="15" t="s">
-        <v>1791</v>
+        <v>1799</v>
       </c>
       <c r="V25" s="12" t="s">
-        <v>1745</v>
+        <v>1753</v>
       </c>
       <c r="Y25" s="12">
         <v>1</v>
@@ -63003,13 +63478,13 @@
         <v>33</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1734</v>
+        <v>1742</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>1735</v>
+        <v>1743</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>1799</v>
+        <v>1807</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>31</v>
@@ -63021,16 +63496,16 @@
         <v>155</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>1800</v>
+        <v>1808</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>1801</v>
+        <v>1809</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>1802</v>
+        <v>1810</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>1803</v>
+        <v>1811</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>38</v>
@@ -63071,7 +63546,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>1804</v>
+        <v>1812</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>14</v>
@@ -63083,7 +63558,7 @@
         <v>1</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>1805</v>
+        <v>1813</v>
       </c>
       <c r="L2" s="2">
         <v>54</v>
@@ -63092,7 +63567,7 @@
         <v>999999</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>1806</v>
+        <v>1814</v>
       </c>
       <c r="O2" s="2">
         <v>0</v>
@@ -63101,22 +63576,22 @@
         <v>1</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>1807</v>
+        <v>1815</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>1808</v>
+        <v>1816</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>1809</v>
+        <v>1817</v>
       </c>
       <c r="T2" s="2">
         <v>60000</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>1810</v>
+        <v>1818</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>1745</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="3" s="2" customFormat="1" spans="1:23">
@@ -63127,7 +63602,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>1804</v>
+        <v>1812</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>14</v>
@@ -63139,7 +63614,7 @@
         <v>10</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>1805</v>
+        <v>1813</v>
       </c>
       <c r="L3" s="2">
         <v>54</v>
@@ -63148,7 +63623,7 @@
         <v>999999</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>1811</v>
+        <v>1819</v>
       </c>
       <c r="O3" s="2">
         <v>0</v>
@@ -63157,22 +63632,22 @@
         <v>2</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>1807</v>
+        <v>1815</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>1812</v>
+        <v>1820</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>1809</v>
+        <v>1817</v>
       </c>
       <c r="T3" s="2">
         <v>500000</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>1810</v>
+        <v>1818</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>1745</v>
+        <v>1753</v>
       </c>
       <c r="W3" s="2">
         <v>8.3</v>
@@ -63186,7 +63661,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>1813</v>
+        <v>1821</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>14</v>
@@ -63197,7 +63672,7 @@
       <c r="G4" s="2">
         <v>1</v>
       </c>
-      <c r="H4" s="68" t="s">
+      <c r="H4" s="69" t="s">
         <v>57</v>
       </c>
       <c r="I4" s="5">
@@ -63211,19 +63686,19 @@
         <v>4</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>1814</v>
+        <v>1822</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>1815</v>
+        <v>1823</v>
       </c>
       <c r="T4" s="2">
         <v>15000</v>
       </c>
       <c r="U4" s="2" t="s">
-        <v>1816</v>
+        <v>1824</v>
       </c>
       <c r="V4" s="2" t="s">
-        <v>1745</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="5" s="2" customFormat="1" spans="1:22">
@@ -63234,7 +63709,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>1817</v>
+        <v>1825</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>14</v>
@@ -63245,7 +63720,7 @@
       <c r="G5" s="2">
         <v>1</v>
       </c>
-      <c r="H5" s="68" t="s">
+      <c r="H5" s="69" t="s">
         <v>57</v>
       </c>
       <c r="L5" s="2">
@@ -63261,10 +63736,10 @@
         <v>100000</v>
       </c>
       <c r="U5" s="12" t="s">
-        <v>1818</v>
+        <v>1826</v>
       </c>
       <c r="V5" s="2" t="s">
-        <v>1745</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="1" spans="1:22">
@@ -63275,7 +63750,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>1819</v>
+        <v>1827</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>14</v>
@@ -63286,7 +63761,7 @@
       <c r="G6" s="2">
         <v>1</v>
       </c>
-      <c r="H6" s="68" t="s">
+      <c r="H6" s="69" t="s">
         <v>57</v>
       </c>
       <c r="L6" s="2">
@@ -63302,10 +63777,10 @@
         <v>100000</v>
       </c>
       <c r="U6" s="12" t="s">
-        <v>1818</v>
+        <v>1826</v>
       </c>
       <c r="V6" s="2" t="s">
-        <v>1745</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="7" s="2" customFormat="1" spans="1:23">
@@ -63316,7 +63791,7 @@
         <v>3</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>1804</v>
+        <v>1812</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>14</v>
@@ -63328,7 +63803,7 @@
         <v>10</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>1820</v>
+        <v>1828</v>
       </c>
       <c r="L7" s="2">
         <v>56</v>
@@ -63337,7 +63812,7 @@
         <v>999999</v>
       </c>
       <c r="N7" s="7" t="s">
-        <v>1811</v>
+        <v>1819</v>
       </c>
       <c r="O7" s="6">
         <v>0</v>
@@ -63346,22 +63821,22 @@
         <v>3</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>1821</v>
+        <v>1829</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>1812</v>
+        <v>1820</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>1809</v>
+        <v>1817</v>
       </c>
       <c r="T7" s="2">
         <v>500000</v>
       </c>
       <c r="U7" s="2" t="s">
-        <v>1822</v>
+        <v>1830</v>
       </c>
       <c r="V7" s="2" t="s">
-        <v>1745</v>
+        <v>1753</v>
       </c>
       <c r="W7" s="2">
         <v>8.3</v>
@@ -63375,10 +63850,10 @@
         <v>1</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>1823</v>
+        <v>1831</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>1740</v>
+        <v>1748</v>
       </c>
       <c r="F8" s="2">
         <v>100</v>
@@ -63390,7 +63865,7 @@
         <v>125</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>1824</v>
+        <v>1832</v>
       </c>
       <c r="L8" s="2">
         <v>57</v>
@@ -63405,22 +63880,22 @@
         <v>5</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>1825</v>
+        <v>1833</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>1826</v>
+        <v>1834</v>
       </c>
       <c r="S8" s="2" t="s">
-        <v>1809</v>
+        <v>1817</v>
       </c>
       <c r="T8" s="2">
         <v>100</v>
       </c>
       <c r="U8" s="2" t="s">
-        <v>1827</v>
+        <v>1835</v>
       </c>
       <c r="V8" s="7" t="s">
-        <v>1745</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="9" s="2" customFormat="1" spans="1:22">
@@ -63431,10 +63906,10 @@
         <v>15</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>1828</v>
+        <v>1836</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>1740</v>
+        <v>1748</v>
       </c>
       <c r="F9" s="2">
         <v>1000</v>
@@ -63449,16 +63924,16 @@
         <v>6</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>1829</v>
+        <v>1837</v>
       </c>
       <c r="T9" s="2">
         <v>1000</v>
       </c>
       <c r="U9" s="7" t="s">
-        <v>1830</v>
+        <v>1838</v>
       </c>
       <c r="V9" s="7" t="s">
-        <v>1745</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="10" s="2" customFormat="1" spans="1:22">
@@ -63469,10 +63944,10 @@
         <v>16</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>1828</v>
+        <v>1836</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>1740</v>
+        <v>1748</v>
       </c>
       <c r="F10" s="2">
         <v>5800</v>
@@ -63487,16 +63962,16 @@
         <v>7</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>1831</v>
+        <v>1839</v>
       </c>
       <c r="T10" s="2">
         <v>5800</v>
       </c>
       <c r="U10" s="7" t="s">
-        <v>1830</v>
+        <v>1838</v>
       </c>
       <c r="V10" s="7" t="s">
-        <v>1745</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="11" s="2" customFormat="1" spans="1:22">
@@ -63507,10 +63982,10 @@
         <v>17</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>1828</v>
+        <v>1836</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>1740</v>
+        <v>1748</v>
       </c>
       <c r="F11" s="2">
         <v>8800</v>
@@ -63525,16 +64000,16 @@
         <v>8</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>1832</v>
+        <v>1840</v>
       </c>
       <c r="T11" s="2">
         <v>8800</v>
       </c>
       <c r="U11" s="7" t="s">
-        <v>1830</v>
+        <v>1838</v>
       </c>
       <c r="V11" s="7" t="s">
-        <v>1745</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="12" s="2" customFormat="1" spans="1:22">
@@ -63545,10 +64020,10 @@
         <v>18</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>1828</v>
+        <v>1836</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>1740</v>
+        <v>1748</v>
       </c>
       <c r="F12" s="2">
         <v>18800</v>
@@ -63563,16 +64038,16 @@
         <v>9</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>1833</v>
+        <v>1841</v>
       </c>
       <c r="T12" s="2">
         <v>18800</v>
       </c>
       <c r="U12" s="7" t="s">
-        <v>1830</v>
+        <v>1838</v>
       </c>
       <c r="V12" s="7" t="s">
-        <v>1745</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="13" s="2" customFormat="1" spans="1:23">
@@ -63583,7 +64058,7 @@
         <v>19</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>1834</v>
+        <v>1842</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>14</v>
@@ -63607,16 +64082,16 @@
         <v>0</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>1835</v>
+        <v>1843</v>
       </c>
       <c r="T13" s="2">
         <v>70000</v>
       </c>
       <c r="U13" s="7" t="s">
-        <v>1836</v>
+        <v>1844</v>
       </c>
       <c r="V13" s="7" t="s">
-        <v>1745</v>
+        <v>1753</v>
       </c>
       <c r="W13" s="2">
         <v>7</v>
@@ -63630,7 +64105,7 @@
         <v>20</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>1834</v>
+        <v>1842</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>14</v>
@@ -63654,16 +64129,16 @@
         <v>0</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>1837</v>
+        <v>1845</v>
       </c>
       <c r="T14" s="2">
         <v>180000</v>
       </c>
       <c r="U14" s="7" t="s">
-        <v>1836</v>
+        <v>1844</v>
       </c>
       <c r="V14" s="7" t="s">
-        <v>1745</v>
+        <v>1753</v>
       </c>
       <c r="W14" s="2">
         <v>6</v>
@@ -63677,10 +64152,10 @@
         <v>21</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>1834</v>
+        <v>1842</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>1762</v>
+        <v>1770</v>
       </c>
       <c r="F15" s="2">
         <v>1500</v>
@@ -63701,16 +64176,16 @@
         <v>0</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>1838</v>
+        <v>1846</v>
       </c>
       <c r="T15" s="2">
         <v>1500</v>
       </c>
       <c r="U15" s="7" t="s">
-        <v>1836</v>
+        <v>1844</v>
       </c>
       <c r="V15" s="7" t="s">
-        <v>1745</v>
+        <v>1753</v>
       </c>
       <c r="W15" s="2">
         <v>3</v>
@@ -63724,10 +64199,10 @@
         <v>22</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>1839</v>
+        <v>1847</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>1762</v>
+        <v>1770</v>
       </c>
       <c r="F16" s="3">
         <v>200</v>
@@ -63743,13 +64218,13 @@
         <v>0</v>
       </c>
       <c r="Q16" s="9" t="s">
-        <v>1840</v>
+        <v>1848</v>
       </c>
       <c r="T16" s="3">
         <v>200</v>
       </c>
       <c r="V16" s="3" t="s">
-        <v>1745</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="17" s="3" customFormat="1" spans="1:22">
@@ -63760,10 +64235,10 @@
         <v>23</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>1839</v>
+        <v>1847</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>1762</v>
+        <v>1770</v>
       </c>
       <c r="F17" s="3">
         <v>2000</v>
@@ -63779,13 +64254,13 @@
         <v>0</v>
       </c>
       <c r="Q17" s="9" t="s">
-        <v>1841</v>
+        <v>1849</v>
       </c>
       <c r="T17" s="3">
         <v>2000</v>
       </c>
       <c r="V17" s="3" t="s">
-        <v>1745</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="18" s="3" customFormat="1" spans="1:22">
@@ -63796,7 +64271,7 @@
         <v>24</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>1839</v>
+        <v>1847</v>
       </c>
       <c r="E18" s="9" t="s">
         <v>14</v>
@@ -63815,13 +64290,13 @@
         <v>0</v>
       </c>
       <c r="Q18" s="9" t="s">
-        <v>1840</v>
+        <v>1848</v>
       </c>
       <c r="T18" s="3">
         <v>20000</v>
       </c>
       <c r="V18" s="3" t="s">
-        <v>1745</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="19" s="3" customFormat="1" spans="1:22">
@@ -63832,7 +64307,7 @@
         <v>25</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>1839</v>
+        <v>1847</v>
       </c>
       <c r="E19" s="9" t="s">
         <v>14</v>
@@ -63851,13 +64326,13 @@
         <v>0</v>
       </c>
       <c r="Q19" s="9" t="s">
-        <v>1841</v>
+        <v>1849</v>
       </c>
       <c r="T19" s="3">
         <v>200000</v>
       </c>
       <c r="V19" s="3" t="s">
-        <v>1745</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="20" s="4" customFormat="1" spans="1:22">
@@ -63868,7 +64343,7 @@
         <v>26</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>1842</v>
+        <v>1850</v>
       </c>
       <c r="E20" s="11" t="s">
         <v>14</v>
@@ -63886,16 +64361,16 @@
         <v>0</v>
       </c>
       <c r="Q20" s="11" t="s">
-        <v>1843</v>
+        <v>1851</v>
       </c>
       <c r="T20" s="4">
         <v>300000</v>
       </c>
       <c r="U20" s="11" t="s">
-        <v>1844</v>
+        <v>1852</v>
       </c>
       <c r="V20" s="11" t="s">
-        <v>1745</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="21" s="4" customFormat="1" spans="1:22">
@@ -63906,7 +64381,7 @@
         <v>27</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>1845</v>
+        <v>1853</v>
       </c>
       <c r="E21" s="11" t="s">
         <v>14</v>
@@ -63924,16 +64399,16 @@
         <v>0</v>
       </c>
       <c r="Q21" s="11" t="s">
-        <v>1846</v>
+        <v>1854</v>
       </c>
       <c r="T21" s="4">
         <v>300000</v>
       </c>
       <c r="U21" s="11" t="s">
-        <v>1847</v>
+        <v>1855</v>
       </c>
       <c r="V21" s="11" t="s">
-        <v>1745</v>
+        <v>1753</v>
       </c>
     </row>
   </sheetData>

--- a/config_Release/shoping_config_xiaomi.xlsx
+++ b/config_Release/shoping_config_xiaomi.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24225" windowHeight="12540" tabRatio="533" activeTab="2"/>
+    <workbookView windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="tge|标签配置" sheetId="6" r:id="rId1"/>
@@ -214,7 +214,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5180" uniqueCount="1856">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5222" uniqueCount="1856">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -6794,10 +6794,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -6832,6 +6832,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -6839,15 +6846,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6855,9 +6869,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -6868,8 +6890,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6885,37 +6908,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -6931,6 +6931,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -6938,13 +6945,6 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -6954,14 +6954,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7061,12 +7061,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -7079,7 +7073,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7091,7 +7127,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7103,49 +7151,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7163,18 +7175,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -7187,19 +7187,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7211,7 +7211,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7252,21 +7252,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -7277,6 +7262,24 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7296,33 +7299,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -7334,6 +7310,30 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7356,10 +7356,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -7368,133 +7368,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -10247,14 +10247,14 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AIF654"/>
+  <dimension ref="A1:AIF661"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H623" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="H638" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C655" sqref="C655"/>
+      <selection pane="bottomRight" activeCell="H658" sqref="H658"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -59108,8 +59108,8 @@
       <c r="B635" s="29">
         <v>10551</v>
       </c>
-      <c r="F635" s="29">
-        <v>1</v>
+      <c r="F635" s="21">
+        <v>0</v>
       </c>
       <c r="G635" s="29" t="s">
         <v>1624</v>
@@ -59176,8 +59176,8 @@
       <c r="B636" s="29">
         <v>10552</v>
       </c>
-      <c r="F636" s="29">
-        <v>1</v>
+      <c r="F636" s="21">
+        <v>0</v>
       </c>
       <c r="G636" s="29" t="s">
         <v>1624</v>
@@ -59244,8 +59244,8 @@
       <c r="B637" s="29">
         <v>10553</v>
       </c>
-      <c r="F637" s="29">
-        <v>1</v>
+      <c r="F637" s="21">
+        <v>0</v>
       </c>
       <c r="G637" s="29" t="s">
         <v>1624</v>
@@ -59312,8 +59312,8 @@
       <c r="B638" s="29">
         <v>10554</v>
       </c>
-      <c r="F638" s="29">
-        <v>1</v>
+      <c r="F638" s="21">
+        <v>0</v>
       </c>
       <c r="G638" s="29" t="s">
         <v>1624</v>
@@ -59380,8 +59380,8 @@
       <c r="B639" s="29">
         <v>10555</v>
       </c>
-      <c r="F639" s="29">
-        <v>1</v>
+      <c r="F639" s="21">
+        <v>0</v>
       </c>
       <c r="G639" s="29" t="s">
         <v>1624</v>
@@ -59448,8 +59448,8 @@
       <c r="B640" s="29">
         <v>10556</v>
       </c>
-      <c r="F640" s="29">
-        <v>1</v>
+      <c r="F640" s="21">
+        <v>0</v>
       </c>
       <c r="G640" s="29" t="s">
         <v>1624</v>
@@ -59516,8 +59516,8 @@
       <c r="B641" s="29">
         <v>10557</v>
       </c>
-      <c r="F641" s="29">
-        <v>1</v>
+      <c r="F641" s="21">
+        <v>0</v>
       </c>
       <c r="G641" s="29" t="s">
         <v>1624</v>
@@ -59584,8 +59584,8 @@
       <c r="B642" s="29">
         <v>10558</v>
       </c>
-      <c r="F642" s="29">
-        <v>1</v>
+      <c r="F642" s="21">
+        <v>0</v>
       </c>
       <c r="G642" s="29" t="s">
         <v>1624</v>
@@ -59652,8 +59652,8 @@
       <c r="B643" s="29">
         <v>10559</v>
       </c>
-      <c r="F643" s="29">
-        <v>1</v>
+      <c r="F643" s="21">
+        <v>0</v>
       </c>
       <c r="G643" s="29" t="s">
         <v>1624</v>
@@ -59720,8 +59720,8 @@
       <c r="B644" s="29">
         <v>10560</v>
       </c>
-      <c r="F644" s="29">
-        <v>1</v>
+      <c r="F644" s="21">
+        <v>0</v>
       </c>
       <c r="G644" s="29" t="s">
         <v>1624</v>
@@ -59788,8 +59788,8 @@
       <c r="B645" s="29">
         <v>10561</v>
       </c>
-      <c r="F645" s="29">
-        <v>1</v>
+      <c r="F645" s="21">
+        <v>0</v>
       </c>
       <c r="G645" s="29" t="s">
         <v>1624</v>
@@ -59856,8 +59856,8 @@
       <c r="B646" s="29">
         <v>10562</v>
       </c>
-      <c r="F646" s="29">
-        <v>1</v>
+      <c r="F646" s="21">
+        <v>0</v>
       </c>
       <c r="G646" s="29" t="s">
         <v>1624</v>
@@ -60048,8 +60048,8 @@
       <c r="B649" s="29">
         <v>10565</v>
       </c>
-      <c r="F649" s="29">
-        <v>1</v>
+      <c r="F649" s="21">
+        <v>0</v>
       </c>
       <c r="G649" s="29" t="s">
         <v>1394</v>
@@ -60110,8 +60110,8 @@
       <c r="B650" s="29">
         <v>10566</v>
       </c>
-      <c r="F650" s="29">
-        <v>1</v>
+      <c r="F650" s="21">
+        <v>0</v>
       </c>
       <c r="G650" s="29" t="s">
         <v>1394</v>
@@ -60172,8 +60172,8 @@
       <c r="B651" s="29">
         <v>10567</v>
       </c>
-      <c r="F651" s="29">
-        <v>1</v>
+      <c r="F651" s="21">
+        <v>0</v>
       </c>
       <c r="G651" s="29" t="s">
         <v>1394</v>
@@ -60234,8 +60234,8 @@
       <c r="B652" s="29">
         <v>10568</v>
       </c>
-      <c r="F652" s="29">
-        <v>1</v>
+      <c r="F652" s="21">
+        <v>0</v>
       </c>
       <c r="G652" s="29" t="s">
         <v>1394</v>
@@ -60296,8 +60296,8 @@
       <c r="B653" s="29">
         <v>10569</v>
       </c>
-      <c r="F653" s="29">
-        <v>1</v>
+      <c r="F653" s="21">
+        <v>0</v>
       </c>
       <c r="G653" s="29" t="s">
         <v>1394</v>
@@ -60358,8 +60358,8 @@
       <c r="B654" s="29">
         <v>10570</v>
       </c>
-      <c r="F654" s="29">
-        <v>1</v>
+      <c r="F654" s="21">
+        <v>0</v>
       </c>
       <c r="G654" s="29" t="s">
         <v>1394</v>
@@ -60410,6 +60410,440 @@
         <v>1</v>
       </c>
       <c r="AM654" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="655" spans="1:39">
+      <c r="A655" s="21">
+        <v>654</v>
+      </c>
+      <c r="B655" s="29">
+        <v>10571</v>
+      </c>
+      <c r="F655" s="29">
+        <v>1</v>
+      </c>
+      <c r="G655" s="29" t="s">
+        <v>1115</v>
+      </c>
+      <c r="J655" s="29" t="s">
+        <v>1614</v>
+      </c>
+      <c r="L655" s="28">
+        <v>-31</v>
+      </c>
+      <c r="M655" s="28">
+        <v>0</v>
+      </c>
+      <c r="N655" s="28">
+        <v>0</v>
+      </c>
+      <c r="O655" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="P655" s="29">
+        <v>99800</v>
+      </c>
+      <c r="Q655" s="29" t="s">
+        <v>1615</v>
+      </c>
+      <c r="R655" s="53" t="s">
+        <v>1138</v>
+      </c>
+      <c r="W655" s="28" t="s">
+        <v>481</v>
+      </c>
+      <c r="X655" s="28">
+        <v>99999999</v>
+      </c>
+      <c r="Y655" s="29">
+        <v>1623110400</v>
+      </c>
+      <c r="Z655" s="29">
+        <v>1623686399</v>
+      </c>
+      <c r="AH655" s="29">
+        <v>1</v>
+      </c>
+      <c r="AI655" s="29">
+        <v>1</v>
+      </c>
+      <c r="AL655" s="29">
+        <v>1</v>
+      </c>
+      <c r="AM655" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="656" spans="1:39">
+      <c r="A656" s="21">
+        <v>655</v>
+      </c>
+      <c r="B656" s="29">
+        <v>10572</v>
+      </c>
+      <c r="F656" s="29">
+        <v>1</v>
+      </c>
+      <c r="G656" s="29" t="s">
+        <v>1119</v>
+      </c>
+      <c r="J656" s="29" t="s">
+        <v>1616</v>
+      </c>
+      <c r="L656" s="28">
+        <v>-31</v>
+      </c>
+      <c r="M656" s="28">
+        <v>0</v>
+      </c>
+      <c r="N656" s="28">
+        <v>0</v>
+      </c>
+      <c r="O656" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="P656" s="29">
+        <v>49800</v>
+      </c>
+      <c r="Q656" s="29" t="s">
+        <v>1615</v>
+      </c>
+      <c r="R656" s="53" t="s">
+        <v>1135</v>
+      </c>
+      <c r="W656" s="28" t="s">
+        <v>481</v>
+      </c>
+      <c r="X656" s="28">
+        <v>99999999</v>
+      </c>
+      <c r="Y656" s="29">
+        <v>1623110400</v>
+      </c>
+      <c r="Z656" s="29">
+        <v>1623686399</v>
+      </c>
+      <c r="AH656" s="29">
+        <v>1</v>
+      </c>
+      <c r="AI656" s="29">
+        <v>1</v>
+      </c>
+      <c r="AL656" s="29">
+        <v>1</v>
+      </c>
+      <c r="AM656" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="657" spans="1:39">
+      <c r="A657" s="21">
+        <v>656</v>
+      </c>
+      <c r="B657" s="29">
+        <v>10573</v>
+      </c>
+      <c r="F657" s="29">
+        <v>1</v>
+      </c>
+      <c r="G657" s="29" t="s">
+        <v>1122</v>
+      </c>
+      <c r="J657" s="29" t="s">
+        <v>1617</v>
+      </c>
+      <c r="L657" s="28">
+        <v>-31</v>
+      </c>
+      <c r="M657" s="28">
+        <v>0</v>
+      </c>
+      <c r="N657" s="28">
+        <v>0</v>
+      </c>
+      <c r="O657" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="P657" s="29">
+        <v>29800</v>
+      </c>
+      <c r="Q657" s="29" t="s">
+        <v>1618</v>
+      </c>
+      <c r="R657" s="53" t="s">
+        <v>1131</v>
+      </c>
+      <c r="W657" s="28" t="s">
+        <v>481</v>
+      </c>
+      <c r="X657" s="28">
+        <v>99999999</v>
+      </c>
+      <c r="Y657" s="29">
+        <v>1623110400</v>
+      </c>
+      <c r="Z657" s="29">
+        <v>1623686399</v>
+      </c>
+      <c r="AH657" s="29">
+        <v>1</v>
+      </c>
+      <c r="AI657" s="29">
+        <v>1</v>
+      </c>
+      <c r="AL657" s="29">
+        <v>1</v>
+      </c>
+      <c r="AM657" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="658" spans="1:39">
+      <c r="A658" s="21">
+        <v>657</v>
+      </c>
+      <c r="B658" s="29">
+        <v>10574</v>
+      </c>
+      <c r="F658" s="29">
+        <v>1</v>
+      </c>
+      <c r="G658" s="29" t="s">
+        <v>1126</v>
+      </c>
+      <c r="J658" s="29" t="s">
+        <v>1619</v>
+      </c>
+      <c r="L658" s="28">
+        <v>-31</v>
+      </c>
+      <c r="M658" s="28">
+        <v>0</v>
+      </c>
+      <c r="N658" s="28">
+        <v>0</v>
+      </c>
+      <c r="O658" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="P658" s="29">
+        <v>19800</v>
+      </c>
+      <c r="Q658" s="29" t="s">
+        <v>1618</v>
+      </c>
+      <c r="R658" s="53" t="s">
+        <v>1128</v>
+      </c>
+      <c r="W658" s="28" t="s">
+        <v>481</v>
+      </c>
+      <c r="X658" s="28">
+        <v>99999999</v>
+      </c>
+      <c r="Y658" s="29">
+        <v>1623110400</v>
+      </c>
+      <c r="Z658" s="29">
+        <v>1623686399</v>
+      </c>
+      <c r="AH658" s="29">
+        <v>1</v>
+      </c>
+      <c r="AI658" s="29">
+        <v>1</v>
+      </c>
+      <c r="AL658" s="29">
+        <v>1</v>
+      </c>
+      <c r="AM658" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="659" spans="1:39">
+      <c r="A659" s="21">
+        <v>658</v>
+      </c>
+      <c r="B659" s="29">
+        <v>10575</v>
+      </c>
+      <c r="F659" s="29">
+        <v>1</v>
+      </c>
+      <c r="G659" s="29" t="s">
+        <v>1129</v>
+      </c>
+      <c r="J659" s="29" t="s">
+        <v>1620</v>
+      </c>
+      <c r="L659" s="28">
+        <v>-31</v>
+      </c>
+      <c r="M659" s="28">
+        <v>0</v>
+      </c>
+      <c r="N659" s="28">
+        <v>0</v>
+      </c>
+      <c r="O659" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="P659" s="29">
+        <v>9800</v>
+      </c>
+      <c r="Q659" s="29" t="s">
+        <v>1618</v>
+      </c>
+      <c r="R659" s="53" t="s">
+        <v>1125</v>
+      </c>
+      <c r="W659" s="28" t="s">
+        <v>481</v>
+      </c>
+      <c r="X659" s="28">
+        <v>99999999</v>
+      </c>
+      <c r="Y659" s="29">
+        <v>1623110400</v>
+      </c>
+      <c r="Z659" s="29">
+        <v>1623686399</v>
+      </c>
+      <c r="AH659" s="29">
+        <v>1</v>
+      </c>
+      <c r="AI659" s="29">
+        <v>1</v>
+      </c>
+      <c r="AL659" s="29">
+        <v>1</v>
+      </c>
+      <c r="AM659" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="660" spans="1:39">
+      <c r="A660" s="21">
+        <v>659</v>
+      </c>
+      <c r="B660" s="29">
+        <v>10576</v>
+      </c>
+      <c r="F660" s="29">
+        <v>1</v>
+      </c>
+      <c r="G660" s="29" t="s">
+        <v>1132</v>
+      </c>
+      <c r="J660" s="29" t="s">
+        <v>1621</v>
+      </c>
+      <c r="L660" s="28">
+        <v>-31</v>
+      </c>
+      <c r="M660" s="28">
+        <v>0</v>
+      </c>
+      <c r="N660" s="28">
+        <v>0</v>
+      </c>
+      <c r="O660" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="P660" s="29">
+        <v>4800</v>
+      </c>
+      <c r="Q660" s="29" t="s">
+        <v>1622</v>
+      </c>
+      <c r="R660" s="53" t="s">
+        <v>1121</v>
+      </c>
+      <c r="W660" s="28" t="s">
+        <v>481</v>
+      </c>
+      <c r="X660" s="28">
+        <v>99999999</v>
+      </c>
+      <c r="Y660" s="29">
+        <v>1623110400</v>
+      </c>
+      <c r="Z660" s="29">
+        <v>1623686399</v>
+      </c>
+      <c r="AH660" s="29">
+        <v>1</v>
+      </c>
+      <c r="AI660" s="29">
+        <v>1</v>
+      </c>
+      <c r="AL660" s="29">
+        <v>1</v>
+      </c>
+      <c r="AM660" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="661" spans="1:39">
+      <c r="A661" s="21">
+        <v>660</v>
+      </c>
+      <c r="B661" s="29">
+        <v>10577</v>
+      </c>
+      <c r="F661" s="29">
+        <v>1</v>
+      </c>
+      <c r="G661" s="29" t="s">
+        <v>1136</v>
+      </c>
+      <c r="J661" s="29" t="s">
+        <v>1623</v>
+      </c>
+      <c r="L661" s="28">
+        <v>-31</v>
+      </c>
+      <c r="M661" s="28">
+        <v>0</v>
+      </c>
+      <c r="N661" s="28">
+        <v>0</v>
+      </c>
+      <c r="O661" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="P661" s="29">
+        <v>1800</v>
+      </c>
+      <c r="Q661" s="29" t="s">
+        <v>1622</v>
+      </c>
+      <c r="R661" s="53" t="s">
+        <v>1118</v>
+      </c>
+      <c r="W661" s="28" t="s">
+        <v>481</v>
+      </c>
+      <c r="X661" s="28">
+        <v>99999999</v>
+      </c>
+      <c r="Y661" s="29">
+        <v>1623110400</v>
+      </c>
+      <c r="Z661" s="29">
+        <v>1623686399</v>
+      </c>
+      <c r="AH661" s="29">
+        <v>1</v>
+      </c>
+      <c r="AI661" s="29">
+        <v>1</v>
+      </c>
+      <c r="AL661" s="29">
+        <v>1</v>
+      </c>
+      <c r="AM661" s="29">
         <v>1</v>
       </c>
     </row>

--- a/config_Release/shoping_config_xiaomi.xlsx
+++ b/config_Release/shoping_config_xiaomi.xlsx
@@ -214,7 +214,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5222" uniqueCount="1856">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5285" uniqueCount="1856">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -6794,10 +6794,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -6831,70 +6831,11 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -6915,6 +6856,42 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
@@ -6922,23 +6899,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6952,16 +6930,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6970,6 +6940,36 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7061,7 +7061,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7073,7 +7097,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7085,133 +7205,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7251,50 +7251,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7332,8 +7293,38 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7348,6 +7339,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -7356,10 +7356,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -7368,133 +7368,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -10247,14 +10247,14 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AIF661"/>
+  <dimension ref="A1:AIF670"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="7" ySplit="1" topLeftCell="H638" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H658" sqref="H658"/>
+      <selection pane="bottomRight" activeCell="A662" sqref="$A662:$XFD670"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -60847,6 +60847,618 @@
         <v>1</v>
       </c>
     </row>
+    <row r="662" spans="1:39">
+      <c r="A662" s="21">
+        <v>661</v>
+      </c>
+      <c r="B662" s="29">
+        <v>10578</v>
+      </c>
+      <c r="F662" s="29">
+        <v>1</v>
+      </c>
+      <c r="G662" s="29" t="s">
+        <v>1594</v>
+      </c>
+      <c r="I662" s="28" t="s">
+        <v>1595</v>
+      </c>
+      <c r="J662" s="29" t="s">
+        <v>1596</v>
+      </c>
+      <c r="L662" s="28">
+        <v>-31</v>
+      </c>
+      <c r="M662" s="28">
+        <v>0</v>
+      </c>
+      <c r="N662" s="28">
+        <v>0</v>
+      </c>
+      <c r="O662" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="P662" s="29">
+        <v>1800</v>
+      </c>
+      <c r="Q662" s="29" t="s">
+        <v>1597</v>
+      </c>
+      <c r="R662" s="53" t="s">
+        <v>1074</v>
+      </c>
+      <c r="W662" s="28" t="s">
+        <v>795</v>
+      </c>
+      <c r="X662" s="28">
+        <v>99999999</v>
+      </c>
+      <c r="Y662" s="29">
+        <v>1623715200</v>
+      </c>
+      <c r="Z662" s="29">
+        <v>1624291199</v>
+      </c>
+      <c r="AA662" s="29">
+        <v>44</v>
+      </c>
+      <c r="AH662" s="29">
+        <v>1</v>
+      </c>
+      <c r="AI662" s="29">
+        <v>1</v>
+      </c>
+      <c r="AL662" s="29">
+        <v>1</v>
+      </c>
+      <c r="AM662" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="663" spans="1:39">
+      <c r="A663" s="21">
+        <v>662</v>
+      </c>
+      <c r="B663" s="29">
+        <v>10579</v>
+      </c>
+      <c r="F663" s="29">
+        <v>1</v>
+      </c>
+      <c r="G663" s="29" t="s">
+        <v>1594</v>
+      </c>
+      <c r="I663" s="28" t="s">
+        <v>1595</v>
+      </c>
+      <c r="J663" s="29" t="s">
+        <v>1598</v>
+      </c>
+      <c r="L663" s="28">
+        <v>-31</v>
+      </c>
+      <c r="M663" s="28">
+        <v>0</v>
+      </c>
+      <c r="N663" s="28">
+        <v>0</v>
+      </c>
+      <c r="O663" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="P663" s="29">
+        <v>3000</v>
+      </c>
+      <c r="Q663" s="29" t="s">
+        <v>1599</v>
+      </c>
+      <c r="R663" s="53" t="s">
+        <v>1078</v>
+      </c>
+      <c r="W663" s="28" t="s">
+        <v>795</v>
+      </c>
+      <c r="X663" s="28">
+        <v>99999999</v>
+      </c>
+      <c r="Y663" s="29">
+        <v>1623715200</v>
+      </c>
+      <c r="Z663" s="29">
+        <v>1624291199</v>
+      </c>
+      <c r="AA663" s="29">
+        <v>44</v>
+      </c>
+      <c r="AH663" s="29">
+        <v>1</v>
+      </c>
+      <c r="AI663" s="29">
+        <v>1</v>
+      </c>
+      <c r="AL663" s="29">
+        <v>1</v>
+      </c>
+      <c r="AM663" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="664" spans="1:39">
+      <c r="A664" s="21">
+        <v>663</v>
+      </c>
+      <c r="B664" s="29">
+        <v>10580</v>
+      </c>
+      <c r="F664" s="29">
+        <v>1</v>
+      </c>
+      <c r="G664" s="29" t="s">
+        <v>1594</v>
+      </c>
+      <c r="I664" s="28" t="s">
+        <v>1595</v>
+      </c>
+      <c r="J664" s="29" t="s">
+        <v>1600</v>
+      </c>
+      <c r="L664" s="28">
+        <v>-31</v>
+      </c>
+      <c r="M664" s="28">
+        <v>0</v>
+      </c>
+      <c r="N664" s="28">
+        <v>0</v>
+      </c>
+      <c r="O664" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="P664" s="29">
+        <v>4800</v>
+      </c>
+      <c r="Q664" s="29" t="s">
+        <v>1601</v>
+      </c>
+      <c r="R664" s="53" t="s">
+        <v>1082</v>
+      </c>
+      <c r="W664" s="28" t="s">
+        <v>795</v>
+      </c>
+      <c r="X664" s="28">
+        <v>99999999</v>
+      </c>
+      <c r="Y664" s="29">
+        <v>1623715200</v>
+      </c>
+      <c r="Z664" s="29">
+        <v>1624291199</v>
+      </c>
+      <c r="AA664" s="29">
+        <v>44</v>
+      </c>
+      <c r="AH664" s="29">
+        <v>1</v>
+      </c>
+      <c r="AI664" s="29">
+        <v>1</v>
+      </c>
+      <c r="AL664" s="29">
+        <v>1</v>
+      </c>
+      <c r="AM664" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="665" spans="1:39">
+      <c r="A665" s="21">
+        <v>664</v>
+      </c>
+      <c r="B665" s="29">
+        <v>10581</v>
+      </c>
+      <c r="F665" s="29">
+        <v>1</v>
+      </c>
+      <c r="G665" s="29" t="s">
+        <v>1594</v>
+      </c>
+      <c r="I665" s="28" t="s">
+        <v>1560</v>
+      </c>
+      <c r="J665" s="29" t="s">
+        <v>1602</v>
+      </c>
+      <c r="L665" s="28">
+        <v>-31</v>
+      </c>
+      <c r="M665" s="28">
+        <v>0</v>
+      </c>
+      <c r="N665" s="28">
+        <v>0</v>
+      </c>
+      <c r="O665" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="P665" s="29">
+        <v>4800</v>
+      </c>
+      <c r="Q665" s="29" t="s">
+        <v>1603</v>
+      </c>
+      <c r="R665" s="53" t="s">
+        <v>1082</v>
+      </c>
+      <c r="W665" s="28" t="s">
+        <v>795</v>
+      </c>
+      <c r="X665" s="28">
+        <v>99999999</v>
+      </c>
+      <c r="Y665" s="29">
+        <v>1623715200</v>
+      </c>
+      <c r="Z665" s="29">
+        <v>1624291199</v>
+      </c>
+      <c r="AA665" s="29">
+        <v>45</v>
+      </c>
+      <c r="AH665" s="29">
+        <v>1</v>
+      </c>
+      <c r="AI665" s="29">
+        <v>1</v>
+      </c>
+      <c r="AL665" s="29">
+        <v>1</v>
+      </c>
+      <c r="AM665" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="666" spans="1:39">
+      <c r="A666" s="21">
+        <v>665</v>
+      </c>
+      <c r="B666" s="29">
+        <v>10582</v>
+      </c>
+      <c r="F666" s="29">
+        <v>1</v>
+      </c>
+      <c r="G666" s="29" t="s">
+        <v>1594</v>
+      </c>
+      <c r="I666" s="28" t="s">
+        <v>1560</v>
+      </c>
+      <c r="J666" s="29" t="s">
+        <v>1604</v>
+      </c>
+      <c r="L666" s="28">
+        <v>-31</v>
+      </c>
+      <c r="M666" s="28">
+        <v>0</v>
+      </c>
+      <c r="N666" s="28">
+        <v>0</v>
+      </c>
+      <c r="O666" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="P666" s="29">
+        <v>9800</v>
+      </c>
+      <c r="Q666" s="29" t="s">
+        <v>1605</v>
+      </c>
+      <c r="R666" s="53" t="s">
+        <v>1087</v>
+      </c>
+      <c r="W666" s="28" t="s">
+        <v>795</v>
+      </c>
+      <c r="X666" s="28">
+        <v>99999999</v>
+      </c>
+      <c r="Y666" s="29">
+        <v>1623715200</v>
+      </c>
+      <c r="Z666" s="29">
+        <v>1624291199</v>
+      </c>
+      <c r="AA666" s="29">
+        <v>45</v>
+      </c>
+      <c r="AH666" s="29">
+        <v>1</v>
+      </c>
+      <c r="AI666" s="29">
+        <v>1</v>
+      </c>
+      <c r="AL666" s="29">
+        <v>1</v>
+      </c>
+      <c r="AM666" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="667" spans="1:39">
+      <c r="A667" s="21">
+        <v>666</v>
+      </c>
+      <c r="B667" s="29">
+        <v>10583</v>
+      </c>
+      <c r="F667" s="29">
+        <v>1</v>
+      </c>
+      <c r="G667" s="29" t="s">
+        <v>1594</v>
+      </c>
+      <c r="I667" s="28" t="s">
+        <v>1560</v>
+      </c>
+      <c r="J667" s="29" t="s">
+        <v>1606</v>
+      </c>
+      <c r="L667" s="28">
+        <v>-31</v>
+      </c>
+      <c r="M667" s="28">
+        <v>0</v>
+      </c>
+      <c r="N667" s="28">
+        <v>0</v>
+      </c>
+      <c r="O667" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="P667" s="29">
+        <v>19800</v>
+      </c>
+      <c r="Q667" s="29" t="s">
+        <v>1607</v>
+      </c>
+      <c r="R667" s="53" t="s">
+        <v>1090</v>
+      </c>
+      <c r="W667" s="28" t="s">
+        <v>795</v>
+      </c>
+      <c r="X667" s="28">
+        <v>99999999</v>
+      </c>
+      <c r="Y667" s="29">
+        <v>1623715200</v>
+      </c>
+      <c r="Z667" s="29">
+        <v>1624291199</v>
+      </c>
+      <c r="AA667" s="29">
+        <v>45</v>
+      </c>
+      <c r="AH667" s="29">
+        <v>1</v>
+      </c>
+      <c r="AI667" s="29">
+        <v>1</v>
+      </c>
+      <c r="AL667" s="29">
+        <v>1</v>
+      </c>
+      <c r="AM667" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="668" spans="1:39">
+      <c r="A668" s="21">
+        <v>667</v>
+      </c>
+      <c r="B668" s="29">
+        <v>10584</v>
+      </c>
+      <c r="F668" s="29">
+        <v>1</v>
+      </c>
+      <c r="G668" s="29" t="s">
+        <v>1594</v>
+      </c>
+      <c r="I668" s="28" t="s">
+        <v>1449</v>
+      </c>
+      <c r="J668" s="29" t="s">
+        <v>1608</v>
+      </c>
+      <c r="L668" s="28">
+        <v>-31</v>
+      </c>
+      <c r="M668" s="28">
+        <v>0</v>
+      </c>
+      <c r="N668" s="28">
+        <v>0</v>
+      </c>
+      <c r="O668" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="P668" s="29">
+        <v>9800</v>
+      </c>
+      <c r="Q668" s="29" t="s">
+        <v>1609</v>
+      </c>
+      <c r="R668" s="53" t="s">
+        <v>1087</v>
+      </c>
+      <c r="W668" s="28" t="s">
+        <v>795</v>
+      </c>
+      <c r="X668" s="28">
+        <v>99999999</v>
+      </c>
+      <c r="Y668" s="29">
+        <v>1623715200</v>
+      </c>
+      <c r="Z668" s="29">
+        <v>1624291199</v>
+      </c>
+      <c r="AA668" s="29">
+        <v>46</v>
+      </c>
+      <c r="AH668" s="29">
+        <v>1</v>
+      </c>
+      <c r="AI668" s="29">
+        <v>1</v>
+      </c>
+      <c r="AL668" s="29">
+        <v>1</v>
+      </c>
+      <c r="AM668" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="669" spans="1:39">
+      <c r="A669" s="21">
+        <v>668</v>
+      </c>
+      <c r="B669" s="29">
+        <v>10585</v>
+      </c>
+      <c r="F669" s="29">
+        <v>1</v>
+      </c>
+      <c r="G669" s="29" t="s">
+        <v>1594</v>
+      </c>
+      <c r="I669" s="28" t="s">
+        <v>1449</v>
+      </c>
+      <c r="J669" s="29" t="s">
+        <v>1610</v>
+      </c>
+      <c r="L669" s="28">
+        <v>-31</v>
+      </c>
+      <c r="M669" s="28">
+        <v>0</v>
+      </c>
+      <c r="N669" s="28">
+        <v>0</v>
+      </c>
+      <c r="O669" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="P669" s="29">
+        <v>19800</v>
+      </c>
+      <c r="Q669" s="29" t="s">
+        <v>1611</v>
+      </c>
+      <c r="R669" s="53" t="s">
+        <v>1090</v>
+      </c>
+      <c r="W669" s="28" t="s">
+        <v>795</v>
+      </c>
+      <c r="X669" s="28">
+        <v>99999999</v>
+      </c>
+      <c r="Y669" s="29">
+        <v>1623715200</v>
+      </c>
+      <c r="Z669" s="29">
+        <v>1624291199</v>
+      </c>
+      <c r="AA669" s="29">
+        <v>46</v>
+      </c>
+      <c r="AH669" s="29">
+        <v>1</v>
+      </c>
+      <c r="AI669" s="29">
+        <v>1</v>
+      </c>
+      <c r="AL669" s="29">
+        <v>1</v>
+      </c>
+      <c r="AM669" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="670" spans="1:39">
+      <c r="A670" s="21">
+        <v>669</v>
+      </c>
+      <c r="B670" s="29">
+        <v>10586</v>
+      </c>
+      <c r="F670" s="29">
+        <v>1</v>
+      </c>
+      <c r="G670" s="29" t="s">
+        <v>1594</v>
+      </c>
+      <c r="I670" s="28" t="s">
+        <v>1449</v>
+      </c>
+      <c r="J670" s="29" t="s">
+        <v>1612</v>
+      </c>
+      <c r="L670" s="28">
+        <v>-31</v>
+      </c>
+      <c r="M670" s="28">
+        <v>0</v>
+      </c>
+      <c r="N670" s="28">
+        <v>0</v>
+      </c>
+      <c r="O670" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="P670" s="29">
+        <v>49800</v>
+      </c>
+      <c r="Q670" s="29" t="s">
+        <v>1613</v>
+      </c>
+      <c r="R670" s="53" t="s">
+        <v>1097</v>
+      </c>
+      <c r="W670" s="28" t="s">
+        <v>795</v>
+      </c>
+      <c r="X670" s="28">
+        <v>99999999</v>
+      </c>
+      <c r="Y670" s="29">
+        <v>1623715200</v>
+      </c>
+      <c r="Z670" s="29">
+        <v>1624291199</v>
+      </c>
+      <c r="AA670" s="29">
+        <v>46</v>
+      </c>
+      <c r="AH670" s="29">
+        <v>1</v>
+      </c>
+      <c r="AI670" s="29">
+        <v>1</v>
+      </c>
+      <c r="AL670" s="29">
+        <v>1</v>
+      </c>
+      <c r="AM670" s="29">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/config_Release/shoping_config_xiaomi.xlsx
+++ b/config_Release/shoping_config_xiaomi.xlsx
@@ -6794,9 +6794,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
@@ -6831,33 +6831,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6877,17 +6852,35 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -6899,11 +6892,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -6916,7 +6922,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6927,6 +6933,22 @@
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -6945,31 +6967,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7061,19 +7061,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7091,7 +7121,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7103,7 +7139,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7115,91 +7199,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7211,7 +7211,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7255,7 +7255,55 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7275,6 +7323,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -7289,65 +7348,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -7356,10 +7356,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -7368,133 +7368,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -10250,11 +10250,11 @@
   <dimension ref="A1:AIF670"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H638" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="V641" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A662" sqref="$A662:$XFD670"/>
+      <selection pane="bottomRight" activeCell="W676" sqref="W676"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -59109,7 +59109,7 @@
         <v>10551</v>
       </c>
       <c r="F635" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G635" s="29" t="s">
         <v>1624</v>
@@ -59148,10 +59148,10 @@
         <v>99999999</v>
       </c>
       <c r="Y635" s="29">
-        <v>1621900800</v>
+        <v>1624320000</v>
       </c>
       <c r="Z635" s="29">
-        <v>1622476799</v>
+        <v>1624895999</v>
       </c>
       <c r="AA635" s="29">
         <v>80</v>
@@ -59177,7 +59177,7 @@
         <v>10552</v>
       </c>
       <c r="F636" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G636" s="29" t="s">
         <v>1624</v>
@@ -59216,10 +59216,10 @@
         <v>99999999</v>
       </c>
       <c r="Y636" s="29">
-        <v>1621900800</v>
+        <v>1624320000</v>
       </c>
       <c r="Z636" s="29">
-        <v>1622476799</v>
+        <v>1624895999</v>
       </c>
       <c r="AA636" s="29">
         <v>80</v>
@@ -59245,7 +59245,7 @@
         <v>10553</v>
       </c>
       <c r="F637" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G637" s="29" t="s">
         <v>1624</v>
@@ -59284,10 +59284,10 @@
         <v>99999999</v>
       </c>
       <c r="Y637" s="29">
-        <v>1621900800</v>
+        <v>1624320000</v>
       </c>
       <c r="Z637" s="29">
-        <v>1622476799</v>
+        <v>1624895999</v>
       </c>
       <c r="AA637" s="29">
         <v>80</v>
@@ -59313,7 +59313,7 @@
         <v>10554</v>
       </c>
       <c r="F638" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G638" s="29" t="s">
         <v>1624</v>
@@ -59352,10 +59352,10 @@
         <v>99999999</v>
       </c>
       <c r="Y638" s="29">
-        <v>1621900800</v>
+        <v>1624320000</v>
       </c>
       <c r="Z638" s="29">
-        <v>1622476799</v>
+        <v>1624895999</v>
       </c>
       <c r="AA638" s="29">
         <v>81</v>
@@ -59381,7 +59381,7 @@
         <v>10555</v>
       </c>
       <c r="F639" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G639" s="29" t="s">
         <v>1624</v>
@@ -59420,10 +59420,10 @@
         <v>99999999</v>
       </c>
       <c r="Y639" s="29">
-        <v>1621900800</v>
+        <v>1624320000</v>
       </c>
       <c r="Z639" s="29">
-        <v>1622476799</v>
+        <v>1624895999</v>
       </c>
       <c r="AA639" s="29">
         <v>81</v>
@@ -59449,7 +59449,7 @@
         <v>10556</v>
       </c>
       <c r="F640" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G640" s="29" t="s">
         <v>1624</v>
@@ -59488,10 +59488,10 @@
         <v>99999999</v>
       </c>
       <c r="Y640" s="29">
-        <v>1621900800</v>
+        <v>1624320000</v>
       </c>
       <c r="Z640" s="29">
-        <v>1622476799</v>
+        <v>1624895999</v>
       </c>
       <c r="AA640" s="29">
         <v>81</v>
@@ -59517,7 +59517,7 @@
         <v>10557</v>
       </c>
       <c r="F641" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G641" s="29" t="s">
         <v>1624</v>
@@ -59556,10 +59556,10 @@
         <v>99999999</v>
       </c>
       <c r="Y641" s="29">
-        <v>1621900800</v>
+        <v>1624320000</v>
       </c>
       <c r="Z641" s="29">
-        <v>1622476799</v>
+        <v>1624895999</v>
       </c>
       <c r="AA641" s="29">
         <v>82</v>
@@ -59585,7 +59585,7 @@
         <v>10558</v>
       </c>
       <c r="F642" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G642" s="29" t="s">
         <v>1624</v>
@@ -59624,10 +59624,10 @@
         <v>99999999</v>
       </c>
       <c r="Y642" s="29">
-        <v>1621900800</v>
+        <v>1624320000</v>
       </c>
       <c r="Z642" s="29">
-        <v>1622476799</v>
+        <v>1624895999</v>
       </c>
       <c r="AA642" s="29">
         <v>82</v>
@@ -59653,7 +59653,7 @@
         <v>10559</v>
       </c>
       <c r="F643" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G643" s="29" t="s">
         <v>1624</v>
@@ -59692,10 +59692,10 @@
         <v>99999999</v>
       </c>
       <c r="Y643" s="29">
-        <v>1621900800</v>
+        <v>1624320000</v>
       </c>
       <c r="Z643" s="29">
-        <v>1622476799</v>
+        <v>1624895999</v>
       </c>
       <c r="AA643" s="29">
         <v>82</v>
@@ -59721,7 +59721,7 @@
         <v>10560</v>
       </c>
       <c r="F644" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G644" s="29" t="s">
         <v>1624</v>
@@ -59760,10 +59760,10 @@
         <v>99999999</v>
       </c>
       <c r="Y644" s="29">
-        <v>1621900800</v>
+        <v>1624320000</v>
       </c>
       <c r="Z644" s="29">
-        <v>1622476799</v>
+        <v>1624895999</v>
       </c>
       <c r="AA644" s="29">
         <v>83</v>
@@ -59789,7 +59789,7 @@
         <v>10561</v>
       </c>
       <c r="F645" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G645" s="29" t="s">
         <v>1624</v>
@@ -59828,10 +59828,10 @@
         <v>99999999</v>
       </c>
       <c r="Y645" s="29">
-        <v>1621900800</v>
+        <v>1624320000</v>
       </c>
       <c r="Z645" s="29">
-        <v>1622476799</v>
+        <v>1624895999</v>
       </c>
       <c r="AA645" s="29">
         <v>83</v>
@@ -59857,7 +59857,7 @@
         <v>10562</v>
       </c>
       <c r="F646" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G646" s="29" t="s">
         <v>1624</v>
@@ -59896,10 +59896,10 @@
         <v>99999999</v>
       </c>
       <c r="Y646" s="29">
-        <v>1621900800</v>
+        <v>1624320000</v>
       </c>
       <c r="Z646" s="29">
-        <v>1622476799</v>
+        <v>1624895999</v>
       </c>
       <c r="AA646" s="29">
         <v>83</v>
@@ -60420,8 +60420,8 @@
       <c r="B655" s="29">
         <v>10571</v>
       </c>
-      <c r="F655" s="29">
-        <v>1</v>
+      <c r="F655" s="21">
+        <v>0</v>
       </c>
       <c r="G655" s="29" t="s">
         <v>1115</v>
@@ -60482,8 +60482,8 @@
       <c r="B656" s="29">
         <v>10572</v>
       </c>
-      <c r="F656" s="29">
-        <v>1</v>
+      <c r="F656" s="21">
+        <v>0</v>
       </c>
       <c r="G656" s="29" t="s">
         <v>1119</v>
@@ -60544,8 +60544,8 @@
       <c r="B657" s="29">
         <v>10573</v>
       </c>
-      <c r="F657" s="29">
-        <v>1</v>
+      <c r="F657" s="21">
+        <v>0</v>
       </c>
       <c r="G657" s="29" t="s">
         <v>1122</v>
@@ -60606,8 +60606,8 @@
       <c r="B658" s="29">
         <v>10574</v>
       </c>
-      <c r="F658" s="29">
-        <v>1</v>
+      <c r="F658" s="21">
+        <v>0</v>
       </c>
       <c r="G658" s="29" t="s">
         <v>1126</v>
@@ -60668,8 +60668,8 @@
       <c r="B659" s="29">
         <v>10575</v>
       </c>
-      <c r="F659" s="29">
-        <v>1</v>
+      <c r="F659" s="21">
+        <v>0</v>
       </c>
       <c r="G659" s="29" t="s">
         <v>1129</v>
@@ -60730,8 +60730,8 @@
       <c r="B660" s="29">
         <v>10576</v>
       </c>
-      <c r="F660" s="29">
-        <v>1</v>
+      <c r="F660" s="21">
+        <v>0</v>
       </c>
       <c r="G660" s="29" t="s">
         <v>1132</v>
@@ -60792,8 +60792,8 @@
       <c r="B661" s="29">
         <v>10577</v>
       </c>
-      <c r="F661" s="29">
-        <v>1</v>
+      <c r="F661" s="21">
+        <v>0</v>
       </c>
       <c r="G661" s="29" t="s">
         <v>1136</v>
@@ -60854,8 +60854,8 @@
       <c r="B662" s="29">
         <v>10578</v>
       </c>
-      <c r="F662" s="29">
-        <v>1</v>
+      <c r="F662" s="21">
+        <v>0</v>
       </c>
       <c r="G662" s="29" t="s">
         <v>1594</v>
@@ -60922,8 +60922,8 @@
       <c r="B663" s="29">
         <v>10579</v>
       </c>
-      <c r="F663" s="29">
-        <v>1</v>
+      <c r="F663" s="21">
+        <v>0</v>
       </c>
       <c r="G663" s="29" t="s">
         <v>1594</v>
@@ -60990,8 +60990,8 @@
       <c r="B664" s="29">
         <v>10580</v>
       </c>
-      <c r="F664" s="29">
-        <v>1</v>
+      <c r="F664" s="21">
+        <v>0</v>
       </c>
       <c r="G664" s="29" t="s">
         <v>1594</v>
@@ -61058,8 +61058,8 @@
       <c r="B665" s="29">
         <v>10581</v>
       </c>
-      <c r="F665" s="29">
-        <v>1</v>
+      <c r="F665" s="21">
+        <v>0</v>
       </c>
       <c r="G665" s="29" t="s">
         <v>1594</v>
@@ -61126,8 +61126,8 @@
       <c r="B666" s="29">
         <v>10582</v>
       </c>
-      <c r="F666" s="29">
-        <v>1</v>
+      <c r="F666" s="21">
+        <v>0</v>
       </c>
       <c r="G666" s="29" t="s">
         <v>1594</v>
@@ -61194,8 +61194,8 @@
       <c r="B667" s="29">
         <v>10583</v>
       </c>
-      <c r="F667" s="29">
-        <v>1</v>
+      <c r="F667" s="21">
+        <v>0</v>
       </c>
       <c r="G667" s="29" t="s">
         <v>1594</v>
@@ -61262,8 +61262,8 @@
       <c r="B668" s="29">
         <v>10584</v>
       </c>
-      <c r="F668" s="29">
-        <v>1</v>
+      <c r="F668" s="21">
+        <v>0</v>
       </c>
       <c r="G668" s="29" t="s">
         <v>1594</v>
@@ -61330,8 +61330,8 @@
       <c r="B669" s="29">
         <v>10585</v>
       </c>
-      <c r="F669" s="29">
-        <v>1</v>
+      <c r="F669" s="21">
+        <v>0</v>
       </c>
       <c r="G669" s="29" t="s">
         <v>1594</v>
@@ -61398,8 +61398,8 @@
       <c r="B670" s="29">
         <v>10586</v>
       </c>
-      <c r="F670" s="29">
-        <v>1</v>
+      <c r="F670" s="21">
+        <v>0</v>
       </c>
       <c r="G670" s="29" t="s">
         <v>1594</v>

--- a/config_Release/shoping_config_xiaomi.xlsx
+++ b/config_Release/shoping_config_xiaomi.xlsx
@@ -214,7 +214,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5285" uniqueCount="1856">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5405" uniqueCount="1859">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -5896,6 +5896,15 @@
   </si>
   <si>
     <t>9800000,2592000</t>
+  </si>
+  <si>
+    <t>盛夏礼包</t>
+  </si>
+  <si>
+    <t>"jing_bi","fish_coin"</t>
+  </si>
+  <si>
+    <t>消暑礼包</t>
   </si>
   <si>
     <t>id|不能重复</t>
@@ -6794,10 +6803,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -6831,114 +6840,9 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6953,7 +6857,104 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6976,11 +6977,19 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -7061,7 +7070,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7073,7 +7166,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7085,73 +7202,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7163,49 +7214,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7254,17 +7263,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7284,6 +7299,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -7295,30 +7328,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7356,10 +7365,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -7368,133 +7377,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="36" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="36" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -10247,14 +10256,14 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AIF670"/>
+  <dimension ref="A1:AIF688"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="V641" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="V668" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="W676" sqref="W676"/>
+      <selection pane="bottomRight" activeCell="W698" sqref="W698"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -60420,8 +60429,8 @@
       <c r="B655" s="29">
         <v>10571</v>
       </c>
-      <c r="F655" s="21">
-        <v>0</v>
+      <c r="F655" s="29">
+        <v>1</v>
       </c>
       <c r="G655" s="29" t="s">
         <v>1115</v>
@@ -60482,8 +60491,8 @@
       <c r="B656" s="29">
         <v>10572</v>
       </c>
-      <c r="F656" s="21">
-        <v>0</v>
+      <c r="F656" s="29">
+        <v>1</v>
       </c>
       <c r="G656" s="29" t="s">
         <v>1119</v>
@@ -60544,8 +60553,8 @@
       <c r="B657" s="29">
         <v>10573</v>
       </c>
-      <c r="F657" s="21">
-        <v>0</v>
+      <c r="F657" s="29">
+        <v>1</v>
       </c>
       <c r="G657" s="29" t="s">
         <v>1122</v>
@@ -60606,8 +60615,8 @@
       <c r="B658" s="29">
         <v>10574</v>
       </c>
-      <c r="F658" s="21">
-        <v>0</v>
+      <c r="F658" s="29">
+        <v>1</v>
       </c>
       <c r="G658" s="29" t="s">
         <v>1126</v>
@@ -60668,8 +60677,8 @@
       <c r="B659" s="29">
         <v>10575</v>
       </c>
-      <c r="F659" s="21">
-        <v>0</v>
+      <c r="F659" s="29">
+        <v>1</v>
       </c>
       <c r="G659" s="29" t="s">
         <v>1129</v>
@@ -60730,8 +60739,8 @@
       <c r="B660" s="29">
         <v>10576</v>
       </c>
-      <c r="F660" s="21">
-        <v>0</v>
+      <c r="F660" s="29">
+        <v>1</v>
       </c>
       <c r="G660" s="29" t="s">
         <v>1132</v>
@@ -60792,8 +60801,8 @@
       <c r="B661" s="29">
         <v>10577</v>
       </c>
-      <c r="F661" s="21">
-        <v>0</v>
+      <c r="F661" s="29">
+        <v>1</v>
       </c>
       <c r="G661" s="29" t="s">
         <v>1136</v>
@@ -60854,8 +60863,8 @@
       <c r="B662" s="29">
         <v>10578</v>
       </c>
-      <c r="F662" s="21">
-        <v>0</v>
+      <c r="F662" s="29">
+        <v>1</v>
       </c>
       <c r="G662" s="29" t="s">
         <v>1594</v>
@@ -60922,8 +60931,8 @@
       <c r="B663" s="29">
         <v>10579</v>
       </c>
-      <c r="F663" s="21">
-        <v>0</v>
+      <c r="F663" s="29">
+        <v>1</v>
       </c>
       <c r="G663" s="29" t="s">
         <v>1594</v>
@@ -60990,8 +60999,8 @@
       <c r="B664" s="29">
         <v>10580</v>
       </c>
-      <c r="F664" s="21">
-        <v>0</v>
+      <c r="F664" s="29">
+        <v>1</v>
       </c>
       <c r="G664" s="29" t="s">
         <v>1594</v>
@@ -61058,8 +61067,8 @@
       <c r="B665" s="29">
         <v>10581</v>
       </c>
-      <c r="F665" s="21">
-        <v>0</v>
+      <c r="F665" s="29">
+        <v>1</v>
       </c>
       <c r="G665" s="29" t="s">
         <v>1594</v>
@@ -61126,8 +61135,8 @@
       <c r="B666" s="29">
         <v>10582</v>
       </c>
-      <c r="F666" s="21">
-        <v>0</v>
+      <c r="F666" s="29">
+        <v>1</v>
       </c>
       <c r="G666" s="29" t="s">
         <v>1594</v>
@@ -61194,8 +61203,8 @@
       <c r="B667" s="29">
         <v>10583</v>
       </c>
-      <c r="F667" s="21">
-        <v>0</v>
+      <c r="F667" s="29">
+        <v>1</v>
       </c>
       <c r="G667" s="29" t="s">
         <v>1594</v>
@@ -61262,8 +61271,8 @@
       <c r="B668" s="29">
         <v>10584</v>
       </c>
-      <c r="F668" s="21">
-        <v>0</v>
+      <c r="F668" s="29">
+        <v>1</v>
       </c>
       <c r="G668" s="29" t="s">
         <v>1594</v>
@@ -61330,8 +61339,8 @@
       <c r="B669" s="29">
         <v>10585</v>
       </c>
-      <c r="F669" s="21">
-        <v>0</v>
+      <c r="F669" s="29">
+        <v>1</v>
       </c>
       <c r="G669" s="29" t="s">
         <v>1594</v>
@@ -61398,8 +61407,8 @@
       <c r="B670" s="29">
         <v>10586</v>
       </c>
-      <c r="F670" s="21">
-        <v>0</v>
+      <c r="F670" s="29">
+        <v>1</v>
       </c>
       <c r="G670" s="29" t="s">
         <v>1594</v>
@@ -61456,6 +61465,1212 @@
         <v>1</v>
       </c>
       <c r="AM670" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="671" spans="1:39">
+      <c r="A671" s="21">
+        <v>670</v>
+      </c>
+      <c r="B671" s="29">
+        <v>10587</v>
+      </c>
+      <c r="F671" s="21">
+        <v>1</v>
+      </c>
+      <c r="G671" s="29" t="s">
+        <v>1652</v>
+      </c>
+      <c r="I671" s="28" t="s">
+        <v>1546</v>
+      </c>
+      <c r="J671" s="28" t="s">
+        <v>1567</v>
+      </c>
+      <c r="L671" s="28">
+        <v>-31</v>
+      </c>
+      <c r="M671" s="28">
+        <v>0</v>
+      </c>
+      <c r="N671" s="28">
+        <v>0</v>
+      </c>
+      <c r="O671" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="P671" s="29">
+        <v>600</v>
+      </c>
+      <c r="Q671" s="29" t="s">
+        <v>1653</v>
+      </c>
+      <c r="R671" s="53" t="s">
+        <v>1568</v>
+      </c>
+      <c r="W671" s="28" t="s">
+        <v>481</v>
+      </c>
+      <c r="X671" s="28">
+        <v>99999999</v>
+      </c>
+      <c r="Y671" s="29">
+        <v>1624924800</v>
+      </c>
+      <c r="Z671" s="29">
+        <v>1625500799</v>
+      </c>
+      <c r="AA671" s="28">
+        <v>80</v>
+      </c>
+      <c r="AH671" s="29">
+        <v>1</v>
+      </c>
+      <c r="AI671" s="29">
+        <v>1</v>
+      </c>
+      <c r="AL671" s="29">
+        <v>1</v>
+      </c>
+      <c r="AM671" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="672" spans="1:39">
+      <c r="A672" s="21">
+        <v>671</v>
+      </c>
+      <c r="B672" s="29">
+        <v>10588</v>
+      </c>
+      <c r="F672" s="21">
+        <v>1</v>
+      </c>
+      <c r="G672" s="29" t="s">
+        <v>1652</v>
+      </c>
+      <c r="I672" s="28" t="s">
+        <v>1546</v>
+      </c>
+      <c r="J672" s="28" t="s">
+        <v>1569</v>
+      </c>
+      <c r="L672" s="28">
+        <v>-31</v>
+      </c>
+      <c r="M672" s="28">
+        <v>0</v>
+      </c>
+      <c r="N672" s="28">
+        <v>0</v>
+      </c>
+      <c r="O672" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="P672" s="29">
+        <v>1000</v>
+      </c>
+      <c r="Q672" s="29" t="s">
+        <v>1653</v>
+      </c>
+      <c r="R672" s="53" t="s">
+        <v>1570</v>
+      </c>
+      <c r="W672" s="28" t="s">
+        <v>481</v>
+      </c>
+      <c r="X672" s="28">
+        <v>99999999</v>
+      </c>
+      <c r="Y672" s="29">
+        <v>1624924800</v>
+      </c>
+      <c r="Z672" s="29">
+        <v>1625500799</v>
+      </c>
+      <c r="AA672" s="28">
+        <v>80</v>
+      </c>
+      <c r="AH672" s="29">
+        <v>1</v>
+      </c>
+      <c r="AI672" s="29">
+        <v>1</v>
+      </c>
+      <c r="AL672" s="29">
+        <v>1</v>
+      </c>
+      <c r="AM672" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="673" spans="1:39">
+      <c r="A673" s="21">
+        <v>672</v>
+      </c>
+      <c r="B673" s="29">
+        <v>10589</v>
+      </c>
+      <c r="F673" s="21">
+        <v>1</v>
+      </c>
+      <c r="G673" s="29" t="s">
+        <v>1652</v>
+      </c>
+      <c r="I673" s="28" t="s">
+        <v>1546</v>
+      </c>
+      <c r="J673" s="28" t="s">
+        <v>1571</v>
+      </c>
+      <c r="L673" s="28">
+        <v>-31</v>
+      </c>
+      <c r="M673" s="28">
+        <v>0</v>
+      </c>
+      <c r="N673" s="28">
+        <v>0</v>
+      </c>
+      <c r="O673" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="P673" s="29">
+        <v>1800</v>
+      </c>
+      <c r="Q673" s="29" t="s">
+        <v>1653</v>
+      </c>
+      <c r="R673" s="53" t="s">
+        <v>1572</v>
+      </c>
+      <c r="W673" s="28" t="s">
+        <v>481</v>
+      </c>
+      <c r="X673" s="28">
+        <v>99999999</v>
+      </c>
+      <c r="Y673" s="29">
+        <v>1624924800</v>
+      </c>
+      <c r="Z673" s="29">
+        <v>1625500799</v>
+      </c>
+      <c r="AA673" s="28">
+        <v>80</v>
+      </c>
+      <c r="AH673" s="29">
+        <v>1</v>
+      </c>
+      <c r="AI673" s="29">
+        <v>1</v>
+      </c>
+      <c r="AL673" s="29">
+        <v>1</v>
+      </c>
+      <c r="AM673" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="674" spans="1:39">
+      <c r="A674" s="21">
+        <v>673</v>
+      </c>
+      <c r="B674" s="29">
+        <v>10590</v>
+      </c>
+      <c r="F674" s="21">
+        <v>1</v>
+      </c>
+      <c r="G674" s="29" t="s">
+        <v>1652</v>
+      </c>
+      <c r="I674" s="28" t="s">
+        <v>1553</v>
+      </c>
+      <c r="J674" s="28" t="s">
+        <v>1573</v>
+      </c>
+      <c r="L674" s="28">
+        <v>-31</v>
+      </c>
+      <c r="M674" s="28">
+        <v>0</v>
+      </c>
+      <c r="N674" s="28">
+        <v>0</v>
+      </c>
+      <c r="O674" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="P674" s="29">
+        <v>1800</v>
+      </c>
+      <c r="Q674" s="29" t="s">
+        <v>1653</v>
+      </c>
+      <c r="R674" s="53" t="s">
+        <v>1555</v>
+      </c>
+      <c r="W674" s="28" t="s">
+        <v>481</v>
+      </c>
+      <c r="X674" s="28">
+        <v>99999999</v>
+      </c>
+      <c r="Y674" s="29">
+        <v>1624924800</v>
+      </c>
+      <c r="Z674" s="29">
+        <v>1625500799</v>
+      </c>
+      <c r="AA674" s="28">
+        <v>81</v>
+      </c>
+      <c r="AH674" s="29">
+        <v>1</v>
+      </c>
+      <c r="AI674" s="29">
+        <v>1</v>
+      </c>
+      <c r="AL674" s="29">
+        <v>1</v>
+      </c>
+      <c r="AM674" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="675" spans="1:39">
+      <c r="A675" s="21">
+        <v>674</v>
+      </c>
+      <c r="B675" s="29">
+        <v>10591</v>
+      </c>
+      <c r="F675" s="21">
+        <v>1</v>
+      </c>
+      <c r="G675" s="29" t="s">
+        <v>1652</v>
+      </c>
+      <c r="I675" s="28" t="s">
+        <v>1553</v>
+      </c>
+      <c r="J675" s="28" t="s">
+        <v>1574</v>
+      </c>
+      <c r="L675" s="28">
+        <v>-31</v>
+      </c>
+      <c r="M675" s="28">
+        <v>0</v>
+      </c>
+      <c r="N675" s="28">
+        <v>0</v>
+      </c>
+      <c r="O675" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="P675" s="29">
+        <v>3000</v>
+      </c>
+      <c r="Q675" s="29" t="s">
+        <v>1653</v>
+      </c>
+      <c r="R675" s="53" t="s">
+        <v>1557</v>
+      </c>
+      <c r="W675" s="28" t="s">
+        <v>481</v>
+      </c>
+      <c r="X675" s="28">
+        <v>99999999</v>
+      </c>
+      <c r="Y675" s="29">
+        <v>1624924800</v>
+      </c>
+      <c r="Z675" s="29">
+        <v>1625500799</v>
+      </c>
+      <c r="AA675" s="28">
+        <v>81</v>
+      </c>
+      <c r="AH675" s="29">
+        <v>1</v>
+      </c>
+      <c r="AI675" s="29">
+        <v>1</v>
+      </c>
+      <c r="AL675" s="29">
+        <v>1</v>
+      </c>
+      <c r="AM675" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="676" spans="1:39">
+      <c r="A676" s="21">
+        <v>675</v>
+      </c>
+      <c r="B676" s="29">
+        <v>10592</v>
+      </c>
+      <c r="F676" s="21">
+        <v>1</v>
+      </c>
+      <c r="G676" s="29" t="s">
+        <v>1652</v>
+      </c>
+      <c r="I676" s="28" t="s">
+        <v>1553</v>
+      </c>
+      <c r="J676" s="28" t="s">
+        <v>1575</v>
+      </c>
+      <c r="L676" s="28">
+        <v>-31</v>
+      </c>
+      <c r="M676" s="28">
+        <v>0</v>
+      </c>
+      <c r="N676" s="28">
+        <v>0</v>
+      </c>
+      <c r="O676" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="P676" s="29">
+        <v>4800</v>
+      </c>
+      <c r="Q676" s="29" t="s">
+        <v>1653</v>
+      </c>
+      <c r="R676" s="53" t="s">
+        <v>1559</v>
+      </c>
+      <c r="W676" s="28" t="s">
+        <v>481</v>
+      </c>
+      <c r="X676" s="28">
+        <v>99999999</v>
+      </c>
+      <c r="Y676" s="29">
+        <v>1624924800</v>
+      </c>
+      <c r="Z676" s="29">
+        <v>1625500799</v>
+      </c>
+      <c r="AA676" s="28">
+        <v>81</v>
+      </c>
+      <c r="AH676" s="29">
+        <v>1</v>
+      </c>
+      <c r="AI676" s="29">
+        <v>1</v>
+      </c>
+      <c r="AL676" s="29">
+        <v>1</v>
+      </c>
+      <c r="AM676" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="677" spans="1:39">
+      <c r="A677" s="21">
+        <v>676</v>
+      </c>
+      <c r="B677" s="29">
+        <v>10593</v>
+      </c>
+      <c r="F677" s="21">
+        <v>1</v>
+      </c>
+      <c r="G677" s="29" t="s">
+        <v>1652</v>
+      </c>
+      <c r="I677" s="28" t="s">
+        <v>1560</v>
+      </c>
+      <c r="J677" s="28" t="s">
+        <v>1575</v>
+      </c>
+      <c r="L677" s="28">
+        <v>-31</v>
+      </c>
+      <c r="M677" s="28">
+        <v>0</v>
+      </c>
+      <c r="N677" s="28">
+        <v>0</v>
+      </c>
+      <c r="O677" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="P677" s="29">
+        <v>4800</v>
+      </c>
+      <c r="Q677" s="29" t="s">
+        <v>1653</v>
+      </c>
+      <c r="R677" s="53" t="s">
+        <v>1559</v>
+      </c>
+      <c r="W677" s="28" t="s">
+        <v>481</v>
+      </c>
+      <c r="X677" s="28">
+        <v>99999999</v>
+      </c>
+      <c r="Y677" s="29">
+        <v>1624924800</v>
+      </c>
+      <c r="Z677" s="29">
+        <v>1625500799</v>
+      </c>
+      <c r="AA677" s="28">
+        <v>82</v>
+      </c>
+      <c r="AH677" s="29">
+        <v>1</v>
+      </c>
+      <c r="AI677" s="29">
+        <v>1</v>
+      </c>
+      <c r="AL677" s="29">
+        <v>1</v>
+      </c>
+      <c r="AM677" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="678" spans="1:39">
+      <c r="A678" s="21">
+        <v>677</v>
+      </c>
+      <c r="B678" s="29">
+        <v>10594</v>
+      </c>
+      <c r="F678" s="21">
+        <v>1</v>
+      </c>
+      <c r="G678" s="29" t="s">
+        <v>1652</v>
+      </c>
+      <c r="I678" s="28" t="s">
+        <v>1560</v>
+      </c>
+      <c r="J678" s="28" t="s">
+        <v>1576</v>
+      </c>
+      <c r="L678" s="28">
+        <v>-31</v>
+      </c>
+      <c r="M678" s="28">
+        <v>0</v>
+      </c>
+      <c r="N678" s="28">
+        <v>0</v>
+      </c>
+      <c r="O678" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="P678" s="29">
+        <v>9800</v>
+      </c>
+      <c r="Q678" s="29" t="s">
+        <v>1653</v>
+      </c>
+      <c r="R678" s="53" t="s">
+        <v>1562</v>
+      </c>
+      <c r="W678" s="28" t="s">
+        <v>481</v>
+      </c>
+      <c r="X678" s="28">
+        <v>99999999</v>
+      </c>
+      <c r="Y678" s="29">
+        <v>1624924800</v>
+      </c>
+      <c r="Z678" s="29">
+        <v>1625500799</v>
+      </c>
+      <c r="AA678" s="28">
+        <v>82</v>
+      </c>
+      <c r="AH678" s="29">
+        <v>1</v>
+      </c>
+      <c r="AI678" s="29">
+        <v>1</v>
+      </c>
+      <c r="AL678" s="29">
+        <v>1</v>
+      </c>
+      <c r="AM678" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="679" spans="1:39">
+      <c r="A679" s="21">
+        <v>678</v>
+      </c>
+      <c r="B679" s="29">
+        <v>10595</v>
+      </c>
+      <c r="F679" s="21">
+        <v>1</v>
+      </c>
+      <c r="G679" s="29" t="s">
+        <v>1652</v>
+      </c>
+      <c r="I679" s="28" t="s">
+        <v>1560</v>
+      </c>
+      <c r="J679" s="28" t="s">
+        <v>1577</v>
+      </c>
+      <c r="L679" s="28">
+        <v>-31</v>
+      </c>
+      <c r="M679" s="28">
+        <v>0</v>
+      </c>
+      <c r="N679" s="28">
+        <v>0</v>
+      </c>
+      <c r="O679" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="P679" s="29">
+        <v>19800</v>
+      </c>
+      <c r="Q679" s="29" t="s">
+        <v>1653</v>
+      </c>
+      <c r="R679" s="53" t="s">
+        <v>1564</v>
+      </c>
+      <c r="W679" s="28" t="s">
+        <v>481</v>
+      </c>
+      <c r="X679" s="28">
+        <v>99999999</v>
+      </c>
+      <c r="Y679" s="29">
+        <v>1624924800</v>
+      </c>
+      <c r="Z679" s="29">
+        <v>1625500799</v>
+      </c>
+      <c r="AA679" s="28">
+        <v>82</v>
+      </c>
+      <c r="AH679" s="29">
+        <v>1</v>
+      </c>
+      <c r="AI679" s="29">
+        <v>1</v>
+      </c>
+      <c r="AL679" s="29">
+        <v>1</v>
+      </c>
+      <c r="AM679" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="680" spans="1:39">
+      <c r="A680" s="21">
+        <v>679</v>
+      </c>
+      <c r="B680" s="29">
+        <v>10596</v>
+      </c>
+      <c r="F680" s="21">
+        <v>1</v>
+      </c>
+      <c r="G680" s="29" t="s">
+        <v>1652</v>
+      </c>
+      <c r="I680" s="28" t="s">
+        <v>1449</v>
+      </c>
+      <c r="J680" s="28" t="s">
+        <v>1576</v>
+      </c>
+      <c r="L680" s="28">
+        <v>-31</v>
+      </c>
+      <c r="M680" s="28">
+        <v>0</v>
+      </c>
+      <c r="N680" s="28">
+        <v>0</v>
+      </c>
+      <c r="O680" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="P680" s="29">
+        <v>9800</v>
+      </c>
+      <c r="Q680" s="29" t="s">
+        <v>1653</v>
+      </c>
+      <c r="R680" s="53" t="s">
+        <v>1562</v>
+      </c>
+      <c r="W680" s="28" t="s">
+        <v>481</v>
+      </c>
+      <c r="X680" s="28">
+        <v>99999999</v>
+      </c>
+      <c r="Y680" s="29">
+        <v>1624924800</v>
+      </c>
+      <c r="Z680" s="29">
+        <v>1625500799</v>
+      </c>
+      <c r="AA680" s="28">
+        <v>83</v>
+      </c>
+      <c r="AH680" s="29">
+        <v>1</v>
+      </c>
+      <c r="AI680" s="29">
+        <v>1</v>
+      </c>
+      <c r="AL680" s="29">
+        <v>1</v>
+      </c>
+      <c r="AM680" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="681" spans="1:39">
+      <c r="A681" s="21">
+        <v>680</v>
+      </c>
+      <c r="B681" s="29">
+        <v>10597</v>
+      </c>
+      <c r="F681" s="21">
+        <v>1</v>
+      </c>
+      <c r="G681" s="29" t="s">
+        <v>1652</v>
+      </c>
+      <c r="I681" s="28" t="s">
+        <v>1449</v>
+      </c>
+      <c r="J681" s="28" t="s">
+        <v>1577</v>
+      </c>
+      <c r="L681" s="28">
+        <v>-31</v>
+      </c>
+      <c r="M681" s="28">
+        <v>0</v>
+      </c>
+      <c r="N681" s="28">
+        <v>0</v>
+      </c>
+      <c r="O681" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="P681" s="29">
+        <v>19800</v>
+      </c>
+      <c r="Q681" s="29" t="s">
+        <v>1653</v>
+      </c>
+      <c r="R681" s="53" t="s">
+        <v>1564</v>
+      </c>
+      <c r="W681" s="28" t="s">
+        <v>481</v>
+      </c>
+      <c r="X681" s="28">
+        <v>99999999</v>
+      </c>
+      <c r="Y681" s="29">
+        <v>1624924800</v>
+      </c>
+      <c r="Z681" s="29">
+        <v>1625500799</v>
+      </c>
+      <c r="AA681" s="28">
+        <v>83</v>
+      </c>
+      <c r="AH681" s="29">
+        <v>1</v>
+      </c>
+      <c r="AI681" s="29">
+        <v>1</v>
+      </c>
+      <c r="AL681" s="29">
+        <v>1</v>
+      </c>
+      <c r="AM681" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="682" spans="1:39">
+      <c r="A682" s="21">
+        <v>681</v>
+      </c>
+      <c r="B682" s="29">
+        <v>10598</v>
+      </c>
+      <c r="F682" s="21">
+        <v>1</v>
+      </c>
+      <c r="G682" s="29" t="s">
+        <v>1652</v>
+      </c>
+      <c r="I682" s="28" t="s">
+        <v>1449</v>
+      </c>
+      <c r="J682" s="28" t="s">
+        <v>1578</v>
+      </c>
+      <c r="L682" s="28">
+        <v>-31</v>
+      </c>
+      <c r="M682" s="28">
+        <v>0</v>
+      </c>
+      <c r="N682" s="28">
+        <v>0</v>
+      </c>
+      <c r="O682" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="P682" s="29">
+        <v>49800</v>
+      </c>
+      <c r="Q682" s="29" t="s">
+        <v>1653</v>
+      </c>
+      <c r="R682" s="53" t="s">
+        <v>1566</v>
+      </c>
+      <c r="W682" s="28" t="s">
+        <v>481</v>
+      </c>
+      <c r="X682" s="28">
+        <v>99999999</v>
+      </c>
+      <c r="Y682" s="29">
+        <v>1624924800</v>
+      </c>
+      <c r="Z682" s="29">
+        <v>1625500799</v>
+      </c>
+      <c r="AA682" s="28">
+        <v>83</v>
+      </c>
+      <c r="AH682" s="29">
+        <v>1</v>
+      </c>
+      <c r="AI682" s="29">
+        <v>1</v>
+      </c>
+      <c r="AL682" s="29">
+        <v>1</v>
+      </c>
+      <c r="AM682" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="683" spans="1:39">
+      <c r="A683" s="21">
+        <v>682</v>
+      </c>
+      <c r="B683" s="29">
+        <v>10599</v>
+      </c>
+      <c r="F683" s="21">
+        <v>1</v>
+      </c>
+      <c r="G683" s="29" t="s">
+        <v>1654</v>
+      </c>
+      <c r="J683" s="28" t="s">
+        <v>1580</v>
+      </c>
+      <c r="L683" s="28">
+        <v>-31</v>
+      </c>
+      <c r="M683" s="28">
+        <v>0</v>
+      </c>
+      <c r="N683" s="28">
+        <v>0</v>
+      </c>
+      <c r="O683" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="P683" s="29">
+        <v>49800</v>
+      </c>
+      <c r="Q683" s="28" t="s">
+        <v>1581</v>
+      </c>
+      <c r="R683" s="53" t="s">
+        <v>1582</v>
+      </c>
+      <c r="W683" s="21" t="s">
+        <v>1310</v>
+      </c>
+      <c r="X683" s="28">
+        <v>99999999</v>
+      </c>
+      <c r="Y683" s="29">
+        <v>1624924800</v>
+      </c>
+      <c r="Z683" s="29">
+        <v>1627315199</v>
+      </c>
+      <c r="AA683" s="29">
+        <v>69</v>
+      </c>
+      <c r="AH683" s="29">
+        <v>1</v>
+      </c>
+      <c r="AI683" s="29">
+        <v>1</v>
+      </c>
+      <c r="AL683" s="29">
+        <v>1</v>
+      </c>
+      <c r="AM683" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="684" spans="1:39">
+      <c r="A684" s="21">
+        <v>683</v>
+      </c>
+      <c r="B684" s="29">
+        <v>10600</v>
+      </c>
+      <c r="F684" s="21">
+        <v>1</v>
+      </c>
+      <c r="G684" s="29" t="s">
+        <v>1654</v>
+      </c>
+      <c r="J684" s="28" t="s">
+        <v>1583</v>
+      </c>
+      <c r="L684" s="28">
+        <v>-31</v>
+      </c>
+      <c r="M684" s="28">
+        <v>0</v>
+      </c>
+      <c r="N684" s="28">
+        <v>0</v>
+      </c>
+      <c r="O684" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="P684" s="29">
+        <v>19800</v>
+      </c>
+      <c r="Q684" s="28" t="s">
+        <v>1581</v>
+      </c>
+      <c r="R684" s="53" t="s">
+        <v>1584</v>
+      </c>
+      <c r="W684" s="21" t="s">
+        <v>1310</v>
+      </c>
+      <c r="X684" s="28">
+        <v>99999999</v>
+      </c>
+      <c r="Y684" s="29">
+        <v>1624924800</v>
+      </c>
+      <c r="Z684" s="29">
+        <v>1627315199</v>
+      </c>
+      <c r="AA684" s="29">
+        <v>69</v>
+      </c>
+      <c r="AH684" s="29">
+        <v>1</v>
+      </c>
+      <c r="AI684" s="29">
+        <v>1</v>
+      </c>
+      <c r="AL684" s="29">
+        <v>1</v>
+      </c>
+      <c r="AM684" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="685" spans="1:39">
+      <c r="A685" s="21">
+        <v>684</v>
+      </c>
+      <c r="B685" s="29">
+        <v>10601</v>
+      </c>
+      <c r="F685" s="21">
+        <v>1</v>
+      </c>
+      <c r="G685" s="29" t="s">
+        <v>1654</v>
+      </c>
+      <c r="J685" s="28" t="s">
+        <v>1585</v>
+      </c>
+      <c r="L685" s="28">
+        <v>-31</v>
+      </c>
+      <c r="M685" s="28">
+        <v>0</v>
+      </c>
+      <c r="N685" s="28">
+        <v>0</v>
+      </c>
+      <c r="O685" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="P685" s="29">
+        <v>9800</v>
+      </c>
+      <c r="Q685" s="28" t="s">
+        <v>1581</v>
+      </c>
+      <c r="R685" s="53" t="s">
+        <v>1586</v>
+      </c>
+      <c r="W685" s="21" t="s">
+        <v>1310</v>
+      </c>
+      <c r="X685" s="28">
+        <v>99999999</v>
+      </c>
+      <c r="Y685" s="29">
+        <v>1624924800</v>
+      </c>
+      <c r="Z685" s="29">
+        <v>1627315199</v>
+      </c>
+      <c r="AA685" s="29">
+        <v>69</v>
+      </c>
+      <c r="AH685" s="29">
+        <v>1</v>
+      </c>
+      <c r="AI685" s="29">
+        <v>1</v>
+      </c>
+      <c r="AL685" s="29">
+        <v>1</v>
+      </c>
+      <c r="AM685" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="686" spans="1:39">
+      <c r="A686" s="21">
+        <v>685</v>
+      </c>
+      <c r="B686" s="29">
+        <v>10602</v>
+      </c>
+      <c r="F686" s="21">
+        <v>1</v>
+      </c>
+      <c r="G686" s="29" t="s">
+        <v>1654</v>
+      </c>
+      <c r="J686" s="28" t="s">
+        <v>1587</v>
+      </c>
+      <c r="L686" s="28">
+        <v>-31</v>
+      </c>
+      <c r="M686" s="28">
+        <v>0</v>
+      </c>
+      <c r="N686" s="28">
+        <v>0</v>
+      </c>
+      <c r="O686" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="P686" s="29">
+        <v>4800</v>
+      </c>
+      <c r="Q686" s="28" t="s">
+        <v>1581</v>
+      </c>
+      <c r="R686" s="53" t="s">
+        <v>1588</v>
+      </c>
+      <c r="W686" s="21" t="s">
+        <v>1310</v>
+      </c>
+      <c r="X686" s="28">
+        <v>99999999</v>
+      </c>
+      <c r="Y686" s="29">
+        <v>1624924800</v>
+      </c>
+      <c r="Z686" s="29">
+        <v>1627315199</v>
+      </c>
+      <c r="AA686" s="29">
+        <v>69</v>
+      </c>
+      <c r="AH686" s="29">
+        <v>1</v>
+      </c>
+      <c r="AI686" s="29">
+        <v>1</v>
+      </c>
+      <c r="AL686" s="29">
+        <v>1</v>
+      </c>
+      <c r="AM686" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="687" spans="1:39">
+      <c r="A687" s="21">
+        <v>686</v>
+      </c>
+      <c r="B687" s="29">
+        <v>10603</v>
+      </c>
+      <c r="F687" s="21">
+        <v>1</v>
+      </c>
+      <c r="G687" s="29" t="s">
+        <v>1654</v>
+      </c>
+      <c r="J687" s="28" t="s">
+        <v>1589</v>
+      </c>
+      <c r="L687" s="28">
+        <v>-31</v>
+      </c>
+      <c r="M687" s="28">
+        <v>0</v>
+      </c>
+      <c r="N687" s="28">
+        <v>0</v>
+      </c>
+      <c r="O687" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="P687" s="29">
+        <v>2000</v>
+      </c>
+      <c r="Q687" s="28" t="s">
+        <v>1581</v>
+      </c>
+      <c r="R687" s="53" t="s">
+        <v>1590</v>
+      </c>
+      <c r="W687" s="21" t="s">
+        <v>1310</v>
+      </c>
+      <c r="X687" s="28">
+        <v>99999999</v>
+      </c>
+      <c r="Y687" s="29">
+        <v>1624924800</v>
+      </c>
+      <c r="Z687" s="29">
+        <v>1627315199</v>
+      </c>
+      <c r="AA687" s="29">
+        <v>69</v>
+      </c>
+      <c r="AH687" s="29">
+        <v>1</v>
+      </c>
+      <c r="AI687" s="29">
+        <v>1</v>
+      </c>
+      <c r="AL687" s="29">
+        <v>1</v>
+      </c>
+      <c r="AM687" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="688" spans="1:39">
+      <c r="A688" s="21">
+        <v>687</v>
+      </c>
+      <c r="B688" s="29">
+        <v>10604</v>
+      </c>
+      <c r="F688" s="21">
+        <v>1</v>
+      </c>
+      <c r="G688" s="29" t="s">
+        <v>1654</v>
+      </c>
+      <c r="J688" s="28" t="s">
+        <v>1591</v>
+      </c>
+      <c r="L688" s="28">
+        <v>-31</v>
+      </c>
+      <c r="M688" s="28">
+        <v>0</v>
+      </c>
+      <c r="N688" s="28">
+        <v>0</v>
+      </c>
+      <c r="O688" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="P688" s="29">
+        <v>600</v>
+      </c>
+      <c r="Q688" s="28" t="s">
+        <v>1581</v>
+      </c>
+      <c r="R688" s="53" t="s">
+        <v>1592</v>
+      </c>
+      <c r="W688" s="21" t="s">
+        <v>1310</v>
+      </c>
+      <c r="X688" s="28">
+        <v>99999999</v>
+      </c>
+      <c r="Y688" s="29">
+        <v>1624924800</v>
+      </c>
+      <c r="Z688" s="29">
+        <v>1627315199</v>
+      </c>
+      <c r="AA688" s="29">
+        <v>69</v>
+      </c>
+      <c r="AH688" s="29">
+        <v>1</v>
+      </c>
+      <c r="AI688" s="29">
+        <v>1</v>
+      </c>
+      <c r="AL688" s="29">
+        <v>1</v>
+      </c>
+      <c r="AM688" s="29">
         <v>1</v>
       </c>
     </row>
@@ -61485,19 +62700,19 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="58.5" customHeight="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>1652</v>
+        <v>1655</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1653</v>
+        <v>1656</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1654</v>
+        <v>1657</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1655</v>
+        <v>1658</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1656</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="2" ht="57.75" customHeight="1" spans="1:5">
@@ -61505,7 +62720,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>1657</v>
+        <v>1660</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -61514,7 +62729,7 @@
         <v>3600</v>
       </c>
       <c r="E2" t="s">
-        <v>1658</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="3" ht="78.75" customHeight="1" spans="1:4">
@@ -61522,7 +62737,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>1659</v>
+        <v>1662</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -61536,7 +62751,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>1660</v>
+        <v>1663</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -61550,7 +62765,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>1661</v>
+        <v>1664</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -61564,7 +62779,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>1662</v>
+        <v>1665</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -61578,7 +62793,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>1663</v>
+        <v>1666</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -61592,7 +62807,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>1664</v>
+        <v>1667</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -61606,7 +62821,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>1665</v>
+        <v>1668</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -61620,7 +62835,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>1666</v>
+        <v>1669</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -61634,7 +62849,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>1667</v>
+        <v>1670</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -61648,7 +62863,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>1662</v>
+        <v>1665</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -61662,7 +62877,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>1663</v>
+        <v>1666</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -61676,7 +62891,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>1668</v>
+        <v>1671</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -61690,7 +62905,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>1669</v>
+        <v>1672</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -61704,7 +62919,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>1670</v>
+        <v>1673</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -61718,7 +62933,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>1671</v>
+        <v>1674</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -61732,7 +62947,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>1672</v>
+        <v>1675</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -61746,7 +62961,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>1673</v>
+        <v>1676</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -61760,7 +62975,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>1674</v>
+        <v>1677</v>
       </c>
       <c r="C20" s="4">
         <v>1</v>
@@ -61774,7 +62989,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>1675</v>
+        <v>1678</v>
       </c>
       <c r="C21" s="4">
         <v>1</v>
@@ -61788,7 +63003,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>1676</v>
+        <v>1679</v>
       </c>
       <c r="C22" s="4">
         <v>1</v>
@@ -61802,7 +63017,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>1677</v>
+        <v>1680</v>
       </c>
       <c r="C23" s="4">
         <v>1</v>
@@ -61816,7 +63031,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>1678</v>
+        <v>1681</v>
       </c>
       <c r="C24" s="4">
         <v>1</v>
@@ -61830,7 +63045,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>1679</v>
+        <v>1682</v>
       </c>
       <c r="C25" s="4">
         <v>1</v>
@@ -61844,7 +63059,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>1680</v>
+        <v>1683</v>
       </c>
       <c r="C26" s="4">
         <v>1</v>
@@ -61858,7 +63073,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>1681</v>
+        <v>1684</v>
       </c>
       <c r="C27" s="2">
         <v>1</v>
@@ -61872,7 +63087,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>1682</v>
+        <v>1685</v>
       </c>
       <c r="C28" s="2">
         <v>1</v>
@@ -61886,7 +63101,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>1683</v>
+        <v>1686</v>
       </c>
       <c r="C29" s="2">
         <v>1</v>
@@ -61900,7 +63115,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>1684</v>
+        <v>1687</v>
       </c>
       <c r="C30" s="2">
         <v>1</v>
@@ -61914,7 +63129,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>1685</v>
+        <v>1688</v>
       </c>
       <c r="C31" s="2">
         <v>1</v>
@@ -61928,7 +63143,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>1686</v>
+        <v>1689</v>
       </c>
       <c r="C32" s="2">
         <v>1</v>
@@ -61942,7 +63157,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>1687</v>
+        <v>1690</v>
       </c>
       <c r="C33" s="2">
         <v>1</v>
@@ -61956,7 +63171,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>1688</v>
+        <v>1691</v>
       </c>
       <c r="C34" s="2">
         <v>1</v>
@@ -61970,7 +63185,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>1689</v>
+        <v>1692</v>
       </c>
       <c r="C35" s="2">
         <v>1</v>
@@ -61984,7 +63199,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>1690</v>
+        <v>1693</v>
       </c>
       <c r="C36" s="2">
         <v>1</v>
@@ -61998,7 +63213,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>1691</v>
+        <v>1694</v>
       </c>
       <c r="C37" s="2">
         <v>1</v>
@@ -62012,7 +63227,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>1692</v>
+        <v>1695</v>
       </c>
       <c r="C38" s="2">
         <v>1</v>
@@ -62026,7 +63241,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>1693</v>
+        <v>1696</v>
       </c>
       <c r="C39" s="2">
         <v>1</v>
@@ -62040,7 +63255,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>1694</v>
+        <v>1697</v>
       </c>
       <c r="C40" s="2">
         <v>1</v>
@@ -62054,7 +63269,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>1695</v>
+        <v>1698</v>
       </c>
       <c r="C41" s="2">
         <v>1</v>
@@ -62068,7 +63283,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>1696</v>
+        <v>1699</v>
       </c>
       <c r="C42" s="2">
         <v>1</v>
@@ -62082,7 +63297,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>1697</v>
+        <v>1700</v>
       </c>
       <c r="C43" s="2">
         <v>1</v>
@@ -62096,7 +63311,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>1698</v>
+        <v>1701</v>
       </c>
       <c r="C44" s="2">
         <v>1</v>
@@ -62110,7 +63325,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>1699</v>
+        <v>1702</v>
       </c>
       <c r="C45" s="2">
         <v>1</v>
@@ -62124,7 +63339,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>1700</v>
+        <v>1703</v>
       </c>
       <c r="C46" s="2">
         <v>1</v>
@@ -62138,7 +63353,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>1701</v>
+        <v>1704</v>
       </c>
       <c r="C47" s="2">
         <v>1</v>
@@ -62152,7 +63367,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>1702</v>
+        <v>1705</v>
       </c>
       <c r="C48" s="2">
         <v>1</v>
@@ -62166,7 +63381,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>1703</v>
+        <v>1706</v>
       </c>
       <c r="C49" s="2">
         <v>1</v>
@@ -62180,7 +63395,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>1704</v>
+        <v>1707</v>
       </c>
       <c r="C50" s="2">
         <v>1</v>
@@ -62194,7 +63409,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>1705</v>
+        <v>1708</v>
       </c>
       <c r="C51" s="2">
         <v>1</v>
@@ -62208,7 +63423,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>1706</v>
+        <v>1709</v>
       </c>
       <c r="C52" s="2">
         <v>1</v>
@@ -62222,7 +63437,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>1707</v>
+        <v>1710</v>
       </c>
       <c r="C53" s="2">
         <v>1</v>
@@ -62236,7 +63451,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>1708</v>
+        <v>1711</v>
       </c>
       <c r="C54" s="2">
         <v>1</v>
@@ -62250,7 +63465,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>1709</v>
+        <v>1712</v>
       </c>
       <c r="C55" s="2">
         <v>1</v>
@@ -62264,7 +63479,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>1710</v>
+        <v>1713</v>
       </c>
       <c r="C56" s="2">
         <v>1</v>
@@ -62278,7 +63493,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>1711</v>
+        <v>1714</v>
       </c>
       <c r="C57" s="2">
         <v>1</v>
@@ -62292,7 +63507,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>1712</v>
+        <v>1715</v>
       </c>
       <c r="C58" s="2">
         <v>1</v>
@@ -62306,7 +63521,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>1713</v>
+        <v>1716</v>
       </c>
       <c r="C59" s="2">
         <v>1</v>
@@ -62320,7 +63535,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>1714</v>
+        <v>1717</v>
       </c>
       <c r="C60" s="2">
         <v>1</v>
@@ -62334,7 +63549,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>1715</v>
+        <v>1718</v>
       </c>
       <c r="C61" s="2">
         <v>1</v>
@@ -62348,7 +63563,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>1716</v>
+        <v>1719</v>
       </c>
       <c r="C62" s="2">
         <v>1</v>
@@ -62362,7 +63577,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>1717</v>
+        <v>1720</v>
       </c>
       <c r="C63" s="2">
         <v>1</v>
@@ -62376,7 +63591,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>1718</v>
+        <v>1721</v>
       </c>
       <c r="C64" s="2">
         <v>1</v>
@@ -62390,7 +63605,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>1719</v>
+        <v>1722</v>
       </c>
       <c r="C65" s="2">
         <v>1</v>
@@ -62404,7 +63619,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>1720</v>
+        <v>1723</v>
       </c>
       <c r="C66" s="2">
         <v>1</v>
@@ -62418,7 +63633,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>1721</v>
+        <v>1724</v>
       </c>
       <c r="C67" s="2">
         <v>1</v>
@@ -62432,7 +63647,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>1722</v>
+        <v>1725</v>
       </c>
       <c r="C68" s="2">
         <v>1</v>
@@ -62446,7 +63661,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>1723</v>
+        <v>1726</v>
       </c>
       <c r="C69" s="2">
         <v>1</v>
@@ -62460,7 +63675,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>1724</v>
+        <v>1727</v>
       </c>
       <c r="C70" s="2">
         <v>1</v>
@@ -62474,7 +63689,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="18" t="s">
-        <v>1725</v>
+        <v>1728</v>
       </c>
       <c r="C71" s="19">
         <v>1</v>
@@ -62488,7 +63703,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="18" t="s">
-        <v>1726</v>
+        <v>1729</v>
       </c>
       <c r="C72" s="19">
         <v>1</v>
@@ -62502,7 +63717,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="18" t="s">
-        <v>1727</v>
+        <v>1730</v>
       </c>
       <c r="C73" s="19">
         <v>1</v>
@@ -62516,7 +63731,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="18" t="s">
-        <v>1728</v>
+        <v>1731</v>
       </c>
       <c r="C74" s="19">
         <v>1</v>
@@ -62530,7 +63745,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="18" t="s">
-        <v>1729</v>
+        <v>1732</v>
       </c>
       <c r="C75" s="19">
         <v>1</v>
@@ -62544,7 +63759,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="18" t="s">
-        <v>1730</v>
+        <v>1733</v>
       </c>
       <c r="C76" s="19">
         <v>1</v>
@@ -62558,7 +63773,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="18" t="s">
-        <v>1731</v>
+        <v>1734</v>
       </c>
       <c r="C77" s="19">
         <v>1</v>
@@ -62572,7 +63787,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="18" t="s">
-        <v>1732</v>
+        <v>1735</v>
       </c>
       <c r="C78" s="19">
         <v>1</v>
@@ -62586,7 +63801,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="18" t="s">
-        <v>1733</v>
+        <v>1736</v>
       </c>
       <c r="C79" s="19">
         <v>1</v>
@@ -62600,7 +63815,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="18" t="s">
-        <v>1734</v>
+        <v>1737</v>
       </c>
       <c r="C80" s="19">
         <v>1</v>
@@ -62614,7 +63829,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="20" t="s">
-        <v>1735</v>
+        <v>1738</v>
       </c>
       <c r="C81" s="2">
         <v>1</v>
@@ -62628,7 +63843,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="20" t="s">
-        <v>1736</v>
+        <v>1739</v>
       </c>
       <c r="C82" s="2">
         <v>1</v>
@@ -62642,7 +63857,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="20" t="s">
-        <v>1737</v>
+        <v>1740</v>
       </c>
       <c r="C83" s="2">
         <v>1</v>
@@ -62656,7 +63871,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="20" t="s">
-        <v>1738</v>
+        <v>1741</v>
       </c>
       <c r="C84" s="2">
         <v>1</v>
@@ -62670,7 +63885,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="20" t="s">
-        <v>1739</v>
+        <v>1742</v>
       </c>
       <c r="C85">
         <v>1</v>
@@ -62722,7 +63937,7 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="90" customHeight="1" spans="1:29">
       <c r="A1" s="1" t="s">
-        <v>1740</v>
+        <v>1743</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>22</v>
@@ -62734,19 +63949,19 @@
         <v>25</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1741</v>
+        <v>1744</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>1742</v>
+        <v>1745</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>1743</v>
+        <v>1746</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>1744</v>
+        <v>1747</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>1745</v>
+        <v>1748</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>31</v>
@@ -62761,7 +63976,7 @@
         <v>38</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>1746</v>
+        <v>1749</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>39</v>
@@ -62806,7 +64021,7 @@
         <v>52</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>1747</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="2" s="12" customFormat="1" spans="1:26">
@@ -62826,7 +64041,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>1748</v>
+        <v>1751</v>
       </c>
       <c r="G2" s="12">
         <v>480</v>
@@ -62853,22 +64068,22 @@
         <v>3</v>
       </c>
       <c r="P2" s="15" t="s">
-        <v>1749</v>
+        <v>1752</v>
       </c>
       <c r="Q2" s="15" t="s">
-        <v>1750</v>
+        <v>1753</v>
       </c>
       <c r="S2" s="15" t="s">
-        <v>1751</v>
+        <v>1754</v>
       </c>
       <c r="T2" s="12" t="s">
         <v>61</v>
       </c>
       <c r="U2" s="15" t="s">
-        <v>1752</v>
+        <v>1755</v>
       </c>
       <c r="V2" s="12" t="s">
-        <v>1753</v>
+        <v>1756</v>
       </c>
       <c r="Y2" s="12">
         <v>1</v>
@@ -62894,7 +64109,7 @@
         <v>2</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>1748</v>
+        <v>1751</v>
       </c>
       <c r="G3" s="12">
         <v>1200</v>
@@ -62924,19 +64139,19 @@
         <v>127</v>
       </c>
       <c r="Q3" s="15" t="s">
+        <v>1757</v>
+      </c>
+      <c r="S3" s="15" t="s">
         <v>1754</v>
-      </c>
-      <c r="S3" s="15" t="s">
-        <v>1751</v>
       </c>
       <c r="T3" s="12" t="s">
         <v>66</v>
       </c>
       <c r="U3" s="15" t="s">
-        <v>1755</v>
+        <v>1758</v>
       </c>
       <c r="V3" s="12" t="s">
-        <v>1753</v>
+        <v>1756</v>
       </c>
       <c r="Y3" s="12">
         <v>1</v>
@@ -62962,7 +64177,7 @@
         <v>3</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>1748</v>
+        <v>1751</v>
       </c>
       <c r="G4" s="12">
         <v>2400</v>
@@ -62989,22 +64204,22 @@
         <v>5</v>
       </c>
       <c r="P4" s="15" t="s">
-        <v>1756</v>
+        <v>1759</v>
       </c>
       <c r="Q4" s="15" t="s">
-        <v>1757</v>
+        <v>1760</v>
       </c>
       <c r="S4" s="15" t="s">
-        <v>1751</v>
+        <v>1754</v>
       </c>
       <c r="T4" s="12" t="s">
         <v>70</v>
       </c>
       <c r="U4" s="12" t="s">
-        <v>1758</v>
+        <v>1761</v>
       </c>
       <c r="V4" s="12" t="s">
-        <v>1753</v>
+        <v>1756</v>
       </c>
       <c r="Y4" s="12">
         <v>1</v>
@@ -63030,7 +64245,7 @@
         <v>4</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>1748</v>
+        <v>1751</v>
       </c>
       <c r="G5" s="12">
         <v>4000</v>
@@ -63057,22 +64272,22 @@
         <v>6</v>
       </c>
       <c r="P5" s="15" t="s">
-        <v>1759</v>
+        <v>1762</v>
       </c>
       <c r="Q5" s="15" t="s">
-        <v>1760</v>
+        <v>1763</v>
       </c>
       <c r="S5" s="15" t="s">
-        <v>1751</v>
+        <v>1754</v>
       </c>
       <c r="T5" s="12" t="s">
         <v>74</v>
       </c>
       <c r="U5" s="15" t="s">
-        <v>1761</v>
+        <v>1764</v>
       </c>
       <c r="V5" s="12" t="s">
-        <v>1753</v>
+        <v>1756</v>
       </c>
       <c r="Y5" s="12">
         <v>1</v>
@@ -63098,7 +64313,7 @@
         <v>5</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>1748</v>
+        <v>1751</v>
       </c>
       <c r="G6" s="12">
         <v>7840</v>
@@ -63125,22 +64340,22 @@
         <v>7</v>
       </c>
       <c r="P6" s="15" t="s">
-        <v>1762</v>
+        <v>1765</v>
       </c>
       <c r="Q6" s="15" t="s">
-        <v>1763</v>
+        <v>1766</v>
       </c>
       <c r="S6" s="15" t="s">
-        <v>1751</v>
+        <v>1754</v>
       </c>
       <c r="T6" s="12" t="s">
         <v>78</v>
       </c>
       <c r="U6" s="12" t="s">
-        <v>1764</v>
+        <v>1767</v>
       </c>
       <c r="V6" s="12" t="s">
-        <v>1753</v>
+        <v>1756</v>
       </c>
       <c r="Y6" s="12">
         <v>1</v>
@@ -63166,7 +64381,7 @@
         <v>6</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>1748</v>
+        <v>1751</v>
       </c>
       <c r="G7" s="12">
         <v>39840</v>
@@ -63193,22 +64408,22 @@
         <v>9</v>
       </c>
       <c r="P7" s="15" t="s">
-        <v>1765</v>
+        <v>1768</v>
       </c>
       <c r="Q7" s="15" t="s">
-        <v>1766</v>
+        <v>1769</v>
       </c>
       <c r="S7" s="15" t="s">
-        <v>1751</v>
+        <v>1754</v>
       </c>
       <c r="T7" s="12" t="s">
         <v>82</v>
       </c>
       <c r="U7" s="12" t="s">
-        <v>1767</v>
+        <v>1770</v>
       </c>
       <c r="V7" s="12" t="s">
-        <v>1753</v>
+        <v>1756</v>
       </c>
       <c r="Y7" s="12">
         <v>1</v>
@@ -63231,7 +64446,7 @@
         <v>1</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>1748</v>
+        <v>1751</v>
       </c>
       <c r="G8" s="12">
         <v>120</v>
@@ -63258,22 +64473,22 @@
         <v>0</v>
       </c>
       <c r="P8" s="15" t="s">
-        <v>1768</v>
+        <v>1771</v>
       </c>
       <c r="Q8" s="15" t="s">
-        <v>1769</v>
+        <v>1772</v>
       </c>
       <c r="S8" s="15" t="s">
-        <v>1751</v>
+        <v>1754</v>
       </c>
       <c r="T8" s="12" t="s">
         <v>61</v>
       </c>
       <c r="U8" s="15" t="s">
-        <v>1752</v>
+        <v>1755</v>
       </c>
       <c r="V8" s="12" t="s">
-        <v>1753</v>
+        <v>1756</v>
       </c>
       <c r="Y8" s="12">
         <v>1</v>
@@ -63297,7 +64512,7 @@
         <v>5</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>1770</v>
+        <v>1773</v>
       </c>
       <c r="G9" s="13">
         <v>5000</v>
@@ -63325,10 +64540,10 @@
         <v>2</v>
       </c>
       <c r="P9" s="16" t="s">
-        <v>1771</v>
+        <v>1774</v>
       </c>
       <c r="Q9" s="16" t="s">
-        <v>1772</v>
+        <v>1775</v>
       </c>
       <c r="R9" s="13"/>
       <c r="S9" s="13"/>
@@ -63336,10 +64551,10 @@
         <v>5000</v>
       </c>
       <c r="U9" s="13" t="s">
-        <v>1761</v>
+        <v>1764</v>
       </c>
       <c r="V9" s="13" t="s">
-        <v>1753</v>
+        <v>1756</v>
       </c>
       <c r="W9" s="13"/>
       <c r="X9" s="13"/>
@@ -63352,7 +64567,7 @@
       <c r="AA9" s="13"/>
       <c r="AB9" s="13"/>
       <c r="AC9" s="16" t="s">
-        <v>1773</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="10" s="12" customFormat="1" spans="1:29">
@@ -63370,7 +64585,7 @@
         <v>2</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>1770</v>
+        <v>1773</v>
       </c>
       <c r="G10" s="13">
         <v>1000</v>
@@ -63398,10 +64613,10 @@
         <v>1</v>
       </c>
       <c r="P10" s="16" t="s">
-        <v>1774</v>
+        <v>1777</v>
       </c>
       <c r="Q10" s="16" t="s">
-        <v>1775</v>
+        <v>1778</v>
       </c>
       <c r="R10" s="13"/>
       <c r="S10" s="13"/>
@@ -63409,10 +64624,10 @@
         <v>1000</v>
       </c>
       <c r="U10" s="13" t="s">
-        <v>1755</v>
+        <v>1758</v>
       </c>
       <c r="V10" s="13" t="s">
-        <v>1753</v>
+        <v>1756</v>
       </c>
       <c r="W10" s="13"/>
       <c r="X10" s="13"/>
@@ -63425,7 +64640,7 @@
       <c r="AA10" s="13"/>
       <c r="AB10" s="13"/>
       <c r="AC10" s="16" t="s">
-        <v>1776</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="11" s="12" customFormat="1" spans="1:26">
@@ -63442,7 +64657,7 @@
         <v>2</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>1748</v>
+        <v>1751</v>
       </c>
       <c r="G11" s="12">
         <v>1200</v>
@@ -63472,19 +64687,19 @@
         <v>127</v>
       </c>
       <c r="Q11" s="15" t="s">
+        <v>1757</v>
+      </c>
+      <c r="S11" s="15" t="s">
         <v>1754</v>
-      </c>
-      <c r="S11" s="15" t="s">
-        <v>1751</v>
       </c>
       <c r="T11" s="15" t="s">
         <v>66</v>
       </c>
       <c r="U11" s="12" t="s">
-        <v>1755</v>
+        <v>1758</v>
       </c>
       <c r="V11" s="12" t="s">
-        <v>1753</v>
+        <v>1756</v>
       </c>
       <c r="Y11" s="12">
         <v>1</v>
@@ -63510,7 +64725,7 @@
         <v>107</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>1748</v>
+        <v>1751</v>
       </c>
       <c r="G12" s="12">
         <v>120000</v>
@@ -63537,22 +64752,22 @@
         <v>9</v>
       </c>
       <c r="P12" s="15" t="s">
-        <v>1777</v>
+        <v>1780</v>
       </c>
       <c r="Q12" s="15" t="s">
-        <v>1778</v>
+        <v>1781</v>
       </c>
       <c r="S12" s="15" t="s">
-        <v>1751</v>
+        <v>1754</v>
       </c>
       <c r="T12" s="12" t="s">
         <v>86</v>
       </c>
       <c r="U12" s="12" t="s">
-        <v>1779</v>
+        <v>1782</v>
       </c>
       <c r="V12" s="12" t="s">
-        <v>1753</v>
+        <v>1756</v>
       </c>
       <c r="Y12" s="12">
         <v>1</v>
@@ -63578,7 +64793,7 @@
         <v>108</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>1748</v>
+        <v>1751</v>
       </c>
       <c r="G13" s="12">
         <v>79840</v>
@@ -63605,22 +64820,22 @@
         <v>10</v>
       </c>
       <c r="P13" s="15" t="s">
-        <v>1780</v>
+        <v>1783</v>
       </c>
       <c r="Q13" s="15" t="s">
-        <v>1781</v>
+        <v>1784</v>
       </c>
       <c r="S13" s="15" t="s">
-        <v>1751</v>
+        <v>1754</v>
       </c>
       <c r="T13" s="12" t="s">
+        <v>1785</v>
+      </c>
+      <c r="U13" s="12" t="s">
         <v>1782</v>
       </c>
-      <c r="U13" s="12" t="s">
-        <v>1779</v>
-      </c>
       <c r="V13" s="12" t="s">
-        <v>1753</v>
+        <v>1756</v>
       </c>
       <c r="Y13" s="12">
         <v>1</v>
@@ -63646,7 +64861,7 @@
         <v>110</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>1748</v>
+        <v>1751</v>
       </c>
       <c r="G14" s="12">
         <v>199840</v>
@@ -63673,22 +64888,22 @@
         <v>11</v>
       </c>
       <c r="P14" s="15" t="s">
-        <v>1783</v>
+        <v>1786</v>
       </c>
       <c r="Q14" s="15" t="s">
-        <v>1784</v>
+        <v>1787</v>
       </c>
       <c r="S14" s="15" t="s">
-        <v>1785</v>
+        <v>1788</v>
       </c>
       <c r="T14" s="12" t="s">
-        <v>1786</v>
+        <v>1789</v>
       </c>
       <c r="U14" s="12" t="s">
-        <v>1787</v>
+        <v>1790</v>
       </c>
       <c r="V14" s="12" t="s">
-        <v>1753</v>
+        <v>1756</v>
       </c>
       <c r="Y14" s="12">
         <v>1</v>
@@ -63712,7 +64927,7 @@
         <v>1</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>1770</v>
+        <v>1773</v>
       </c>
       <c r="G15" s="13">
         <v>100</v>
@@ -63742,10 +64957,10 @@
         <v>0</v>
       </c>
       <c r="P15" s="16" t="s">
-        <v>1788</v>
+        <v>1791</v>
       </c>
       <c r="Q15" s="16" t="s">
-        <v>1789</v>
+        <v>1792</v>
       </c>
       <c r="R15" s="13"/>
       <c r="S15" s="16"/>
@@ -63753,10 +64968,10 @@
         <v>100</v>
       </c>
       <c r="U15" s="16" t="s">
-        <v>1752</v>
+        <v>1755</v>
       </c>
       <c r="V15" s="13" t="s">
-        <v>1753</v>
+        <v>1756</v>
       </c>
       <c r="W15" s="13"/>
       <c r="X15" s="13"/>
@@ -63769,7 +64984,7 @@
       <c r="AA15" s="13"/>
       <c r="AB15" s="13"/>
       <c r="AC15" s="16" t="s">
-        <v>1790</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="16" s="12" customFormat="1" spans="1:26">
@@ -63789,7 +65004,7 @@
         <v>101</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>1748</v>
+        <v>1751</v>
       </c>
       <c r="G16" s="12">
         <v>2000</v>
@@ -63816,23 +65031,23 @@
         <v>3</v>
       </c>
       <c r="P16" s="15" t="s">
-        <v>1791</v>
+        <v>1794</v>
       </c>
       <c r="Q16" s="15" t="s">
-        <v>1792</v>
+        <v>1795</v>
       </c>
       <c r="R16" s="2"/>
       <c r="S16" s="15" t="s">
-        <v>1751</v>
+        <v>1754</v>
       </c>
       <c r="T16" s="12" t="s">
         <v>101</v>
       </c>
       <c r="U16" s="15" t="s">
-        <v>1752</v>
+        <v>1755</v>
       </c>
       <c r="V16" s="12" t="s">
-        <v>1753</v>
+        <v>1756</v>
       </c>
       <c r="W16" s="2"/>
       <c r="X16" s="2"/>
@@ -63857,7 +65072,7 @@
         <v>102</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>1748</v>
+        <v>1751</v>
       </c>
       <c r="G17" s="12">
         <v>6700</v>
@@ -63884,23 +65099,23 @@
         <v>4</v>
       </c>
       <c r="P17" s="15" t="s">
-        <v>1793</v>
+        <v>1796</v>
       </c>
       <c r="Q17" s="15" t="s">
-        <v>1794</v>
+        <v>1797</v>
       </c>
       <c r="R17" s="2"/>
       <c r="S17" s="15" t="s">
-        <v>1751</v>
+        <v>1754</v>
       </c>
       <c r="T17" s="12" t="s">
         <v>105</v>
       </c>
       <c r="U17" s="12" t="s">
-        <v>1758</v>
+        <v>1761</v>
       </c>
       <c r="V17" s="12" t="s">
-        <v>1753</v>
+        <v>1756</v>
       </c>
       <c r="W17" s="2"/>
       <c r="X17" s="2"/>
@@ -63925,7 +65140,7 @@
         <v>103</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>1748</v>
+        <v>1751</v>
       </c>
       <c r="G18" s="12">
         <v>13200</v>
@@ -63952,23 +65167,23 @@
         <v>5</v>
       </c>
       <c r="P18" s="15" t="s">
-        <v>1795</v>
+        <v>1798</v>
       </c>
       <c r="Q18" s="15" t="s">
-        <v>1796</v>
+        <v>1799</v>
       </c>
       <c r="R18" s="2"/>
       <c r="S18" s="15" t="s">
-        <v>1751</v>
+        <v>1754</v>
       </c>
       <c r="T18" s="12" t="s">
         <v>109</v>
       </c>
       <c r="U18" s="12" t="s">
-        <v>1764</v>
+        <v>1767</v>
       </c>
       <c r="V18" s="12" t="s">
-        <v>1753</v>
+        <v>1756</v>
       </c>
       <c r="W18" s="2"/>
       <c r="X18" s="2"/>
@@ -63993,7 +65208,7 @@
         <v>104</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>1748</v>
+        <v>1751</v>
       </c>
       <c r="G19" s="12">
         <v>20400</v>
@@ -64020,23 +65235,23 @@
         <v>6</v>
       </c>
       <c r="P19" s="15" t="s">
-        <v>1797</v>
+        <v>1800</v>
       </c>
       <c r="Q19" s="15" t="s">
-        <v>1798</v>
+        <v>1801</v>
       </c>
       <c r="R19" s="2"/>
       <c r="S19" s="15" t="s">
-        <v>1751</v>
+        <v>1754</v>
       </c>
       <c r="T19" s="12" t="s">
         <v>114</v>
       </c>
       <c r="U19" s="15" t="s">
-        <v>1799</v>
+        <v>1802</v>
       </c>
       <c r="V19" s="12" t="s">
-        <v>1753</v>
+        <v>1756</v>
       </c>
       <c r="W19" s="2"/>
       <c r="X19" s="2"/>
@@ -64061,7 +65276,7 @@
         <v>105</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>1748</v>
+        <v>1751</v>
       </c>
       <c r="G20" s="12">
         <v>66</v>
@@ -64088,22 +65303,22 @@
         <v>7</v>
       </c>
       <c r="P20" s="15" t="s">
-        <v>1800</v>
+        <v>1803</v>
       </c>
       <c r="Q20" s="15" t="s">
-        <v>1801</v>
+        <v>1804</v>
       </c>
       <c r="S20" s="15" t="s">
-        <v>1751</v>
+        <v>1754</v>
       </c>
       <c r="T20" s="12" t="s">
         <v>120</v>
       </c>
       <c r="U20" s="12" t="s">
-        <v>1799</v>
+        <v>1802</v>
       </c>
       <c r="V20" s="12" t="s">
-        <v>1753</v>
+        <v>1756</v>
       </c>
       <c r="Y20" s="12">
         <v>1</v>
@@ -64127,7 +65342,7 @@
         <v>101</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>1748</v>
+        <v>1751</v>
       </c>
       <c r="G21" s="12">
         <v>200</v>
@@ -64158,20 +65373,20 @@
         <v>890</v>
       </c>
       <c r="Q21" s="15" t="s">
-        <v>1802</v>
+        <v>1805</v>
       </c>
       <c r="R21" s="12"/>
       <c r="S21" s="15" t="s">
-        <v>1751</v>
+        <v>1754</v>
       </c>
       <c r="T21" s="12" t="s">
         <v>124</v>
       </c>
       <c r="U21" s="15" t="s">
-        <v>1752</v>
+        <v>1755</v>
       </c>
       <c r="V21" s="12" t="s">
-        <v>1753</v>
+        <v>1756</v>
       </c>
       <c r="W21" s="12"/>
       <c r="X21" s="12"/>
@@ -64200,7 +65415,7 @@
         <v>104</v>
       </c>
       <c r="F22" s="13" t="s">
-        <v>1770</v>
+        <v>1773</v>
       </c>
       <c r="G22" s="13">
         <v>5000</v>
@@ -64228,10 +65443,10 @@
         <v>2</v>
       </c>
       <c r="P22" s="16" t="s">
-        <v>1771</v>
+        <v>1774</v>
       </c>
       <c r="Q22" s="16" t="s">
-        <v>1772</v>
+        <v>1775</v>
       </c>
       <c r="R22" s="13"/>
       <c r="S22" s="16"/>
@@ -64239,10 +65454,10 @@
         <v>5000</v>
       </c>
       <c r="U22" s="16" t="s">
-        <v>1761</v>
+        <v>1764</v>
       </c>
       <c r="V22" s="13" t="s">
-        <v>1753</v>
+        <v>1756</v>
       </c>
       <c r="W22" s="13"/>
       <c r="X22" s="13"/>
@@ -64271,7 +65486,7 @@
         <v>102</v>
       </c>
       <c r="F23" s="13" t="s">
-        <v>1770</v>
+        <v>1773</v>
       </c>
       <c r="G23" s="13">
         <v>1000</v>
@@ -64299,10 +65514,10 @@
         <v>1</v>
       </c>
       <c r="P23" s="16" t="s">
-        <v>1774</v>
+        <v>1777</v>
       </c>
       <c r="Q23" s="16" t="s">
-        <v>1775</v>
+        <v>1778</v>
       </c>
       <c r="R23" s="13"/>
       <c r="S23" s="16"/>
@@ -64310,10 +65525,10 @@
         <v>1000</v>
       </c>
       <c r="U23" s="16" t="s">
-        <v>1752</v>
+        <v>1755</v>
       </c>
       <c r="V23" s="13" t="s">
-        <v>1753</v>
+        <v>1756</v>
       </c>
       <c r="W23" s="13"/>
       <c r="X23" s="13"/>
@@ -64335,14 +65550,14 @@
         <v>109</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>1803</v>
+        <v>1806</v>
       </c>
       <c r="D24" s="13"/>
       <c r="E24" s="13">
         <v>101</v>
       </c>
       <c r="F24" s="13" t="s">
-        <v>1770</v>
+        <v>1773</v>
       </c>
       <c r="G24" s="13">
         <v>100</v>
@@ -64372,10 +65587,10 @@
         <v>0</v>
       </c>
       <c r="P24" s="16" t="s">
-        <v>1788</v>
+        <v>1791</v>
       </c>
       <c r="Q24" s="16" t="s">
-        <v>1789</v>
+        <v>1792</v>
       </c>
       <c r="R24" s="13"/>
       <c r="S24" s="16"/>
@@ -64383,10 +65598,10 @@
         <v>100</v>
       </c>
       <c r="U24" s="16" t="s">
-        <v>1752</v>
+        <v>1755</v>
       </c>
       <c r="V24" s="13" t="s">
-        <v>1753</v>
+        <v>1756</v>
       </c>
       <c r="W24" s="13"/>
       <c r="X24" s="13"/>
@@ -64399,7 +65614,7 @@
       <c r="AA24" s="13"/>
       <c r="AB24" s="13"/>
       <c r="AC24" s="16" t="s">
-        <v>1790</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="25" s="12" customFormat="1" spans="1:26">
@@ -64419,7 +65634,7 @@
         <v>111</v>
       </c>
       <c r="F25" s="15" t="s">
-        <v>1748</v>
+        <v>1751</v>
       </c>
       <c r="G25" s="12">
         <v>15840</v>
@@ -64446,22 +65661,22 @@
         <v>8</v>
       </c>
       <c r="P25" s="15" t="s">
-        <v>1804</v>
+        <v>1807</v>
       </c>
       <c r="Q25" s="15" t="s">
-        <v>1805</v>
+        <v>1808</v>
       </c>
       <c r="S25" s="15" t="s">
-        <v>1751</v>
+        <v>1754</v>
       </c>
       <c r="T25" s="15" t="s">
-        <v>1806</v>
+        <v>1809</v>
       </c>
       <c r="U25" s="15" t="s">
-        <v>1799</v>
+        <v>1802</v>
       </c>
       <c r="V25" s="12" t="s">
-        <v>1753</v>
+        <v>1756</v>
       </c>
       <c r="Y25" s="12">
         <v>1</v>
@@ -64524,13 +65739,13 @@
         <v>33</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1742</v>
+        <v>1745</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>1743</v>
+        <v>1746</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>1807</v>
+        <v>1810</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>31</v>
@@ -64542,16 +65757,16 @@
         <v>155</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>1808</v>
+        <v>1811</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>1809</v>
+        <v>1812</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>1810</v>
+        <v>1813</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>1811</v>
+        <v>1814</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>38</v>
@@ -64592,7 +65807,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>1812</v>
+        <v>1815</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>14</v>
@@ -64604,7 +65819,7 @@
         <v>1</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>1813</v>
+        <v>1816</v>
       </c>
       <c r="L2" s="2">
         <v>54</v>
@@ -64613,7 +65828,7 @@
         <v>999999</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>1814</v>
+        <v>1817</v>
       </c>
       <c r="O2" s="2">
         <v>0</v>
@@ -64622,22 +65837,22 @@
         <v>1</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>1815</v>
+        <v>1818</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>1816</v>
+        <v>1819</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>1817</v>
+        <v>1820</v>
       </c>
       <c r="T2" s="2">
         <v>60000</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>1818</v>
+        <v>1821</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>1753</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="3" s="2" customFormat="1" spans="1:23">
@@ -64648,7 +65863,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>1812</v>
+        <v>1815</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>14</v>
@@ -64660,7 +65875,7 @@
         <v>10</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>1813</v>
+        <v>1816</v>
       </c>
       <c r="L3" s="2">
         <v>54</v>
@@ -64669,7 +65884,7 @@
         <v>999999</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>1819</v>
+        <v>1822</v>
       </c>
       <c r="O3" s="2">
         <v>0</v>
@@ -64678,22 +65893,22 @@
         <v>2</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>1815</v>
+        <v>1818</v>
       </c>
       <c r="R3" s="2" t="s">
+        <v>1823</v>
+      </c>
+      <c r="S3" s="2" t="s">
         <v>1820</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>1817</v>
       </c>
       <c r="T3" s="2">
         <v>500000</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>1818</v>
+        <v>1821</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>1753</v>
+        <v>1756</v>
       </c>
       <c r="W3" s="2">
         <v>8.3</v>
@@ -64707,7 +65922,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>1821</v>
+        <v>1824</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>14</v>
@@ -64732,19 +65947,19 @@
         <v>4</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>1822</v>
+        <v>1825</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>1823</v>
+        <v>1826</v>
       </c>
       <c r="T4" s="2">
         <v>15000</v>
       </c>
       <c r="U4" s="2" t="s">
-        <v>1824</v>
+        <v>1827</v>
       </c>
       <c r="V4" s="2" t="s">
-        <v>1753</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="5" s="2" customFormat="1" spans="1:22">
@@ -64755,7 +65970,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>1825</v>
+        <v>1828</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>14</v>
@@ -64782,10 +65997,10 @@
         <v>100000</v>
       </c>
       <c r="U5" s="12" t="s">
-        <v>1826</v>
+        <v>1829</v>
       </c>
       <c r="V5" s="2" t="s">
-        <v>1753</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="1" spans="1:22">
@@ -64796,7 +66011,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>1827</v>
+        <v>1830</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>14</v>
@@ -64823,10 +66038,10 @@
         <v>100000</v>
       </c>
       <c r="U6" s="12" t="s">
-        <v>1826</v>
+        <v>1829</v>
       </c>
       <c r="V6" s="2" t="s">
-        <v>1753</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="7" s="2" customFormat="1" spans="1:23">
@@ -64837,7 +66052,7 @@
         <v>3</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>1812</v>
+        <v>1815</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>14</v>
@@ -64849,7 +66064,7 @@
         <v>10</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>1828</v>
+        <v>1831</v>
       </c>
       <c r="L7" s="2">
         <v>56</v>
@@ -64858,7 +66073,7 @@
         <v>999999</v>
       </c>
       <c r="N7" s="7" t="s">
-        <v>1819</v>
+        <v>1822</v>
       </c>
       <c r="O7" s="6">
         <v>0</v>
@@ -64867,22 +66082,22 @@
         <v>3</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>1829</v>
+        <v>1832</v>
       </c>
       <c r="R7" s="2" t="s">
+        <v>1823</v>
+      </c>
+      <c r="S7" s="2" t="s">
         <v>1820</v>
-      </c>
-      <c r="S7" s="2" t="s">
-        <v>1817</v>
       </c>
       <c r="T7" s="2">
         <v>500000</v>
       </c>
       <c r="U7" s="2" t="s">
-        <v>1830</v>
+        <v>1833</v>
       </c>
       <c r="V7" s="2" t="s">
-        <v>1753</v>
+        <v>1756</v>
       </c>
       <c r="W7" s="2">
         <v>8.3</v>
@@ -64896,10 +66111,10 @@
         <v>1</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>1831</v>
+        <v>1834</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>1748</v>
+        <v>1751</v>
       </c>
       <c r="F8" s="2">
         <v>100</v>
@@ -64911,7 +66126,7 @@
         <v>125</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>1832</v>
+        <v>1835</v>
       </c>
       <c r="L8" s="2">
         <v>57</v>
@@ -64926,22 +66141,22 @@
         <v>5</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>1833</v>
+        <v>1836</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>1834</v>
+        <v>1837</v>
       </c>
       <c r="S8" s="2" t="s">
-        <v>1817</v>
+        <v>1820</v>
       </c>
       <c r="T8" s="2">
         <v>100</v>
       </c>
       <c r="U8" s="2" t="s">
-        <v>1835</v>
+        <v>1838</v>
       </c>
       <c r="V8" s="7" t="s">
-        <v>1753</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="9" s="2" customFormat="1" spans="1:22">
@@ -64952,10 +66167,10 @@
         <v>15</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>1836</v>
+        <v>1839</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>1748</v>
+        <v>1751</v>
       </c>
       <c r="F9" s="2">
         <v>1000</v>
@@ -64970,16 +66185,16 @@
         <v>6</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>1837</v>
+        <v>1840</v>
       </c>
       <c r="T9" s="2">
         <v>1000</v>
       </c>
       <c r="U9" s="7" t="s">
-        <v>1838</v>
+        <v>1841</v>
       </c>
       <c r="V9" s="7" t="s">
-        <v>1753</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="10" s="2" customFormat="1" spans="1:22">
@@ -64990,10 +66205,10 @@
         <v>16</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>1836</v>
+        <v>1839</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>1748</v>
+        <v>1751</v>
       </c>
       <c r="F10" s="2">
         <v>5800</v>
@@ -65008,16 +66223,16 @@
         <v>7</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>1839</v>
+        <v>1842</v>
       </c>
       <c r="T10" s="2">
         <v>5800</v>
       </c>
       <c r="U10" s="7" t="s">
-        <v>1838</v>
+        <v>1841</v>
       </c>
       <c r="V10" s="7" t="s">
-        <v>1753</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="11" s="2" customFormat="1" spans="1:22">
@@ -65028,10 +66243,10 @@
         <v>17</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>1836</v>
+        <v>1839</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>1748</v>
+        <v>1751</v>
       </c>
       <c r="F11" s="2">
         <v>8800</v>
@@ -65046,16 +66261,16 @@
         <v>8</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>1840</v>
+        <v>1843</v>
       </c>
       <c r="T11" s="2">
         <v>8800</v>
       </c>
       <c r="U11" s="7" t="s">
-        <v>1838</v>
+        <v>1841</v>
       </c>
       <c r="V11" s="7" t="s">
-        <v>1753</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="12" s="2" customFormat="1" spans="1:22">
@@ -65066,10 +66281,10 @@
         <v>18</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>1836</v>
+        <v>1839</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>1748</v>
+        <v>1751</v>
       </c>
       <c r="F12" s="2">
         <v>18800</v>
@@ -65084,16 +66299,16 @@
         <v>9</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>1841</v>
+        <v>1844</v>
       </c>
       <c r="T12" s="2">
         <v>18800</v>
       </c>
       <c r="U12" s="7" t="s">
-        <v>1838</v>
+        <v>1841</v>
       </c>
       <c r="V12" s="7" t="s">
-        <v>1753</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="13" s="2" customFormat="1" spans="1:23">
@@ -65104,7 +66319,7 @@
         <v>19</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>1842</v>
+        <v>1845</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>14</v>
@@ -65128,16 +66343,16 @@
         <v>0</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>1843</v>
+        <v>1846</v>
       </c>
       <c r="T13" s="2">
         <v>70000</v>
       </c>
       <c r="U13" s="7" t="s">
-        <v>1844</v>
+        <v>1847</v>
       </c>
       <c r="V13" s="7" t="s">
-        <v>1753</v>
+        <v>1756</v>
       </c>
       <c r="W13" s="2">
         <v>7</v>
@@ -65151,7 +66366,7 @@
         <v>20</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>1842</v>
+        <v>1845</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>14</v>
@@ -65175,16 +66390,16 @@
         <v>0</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>1845</v>
+        <v>1848</v>
       </c>
       <c r="T14" s="2">
         <v>180000</v>
       </c>
       <c r="U14" s="7" t="s">
-        <v>1844</v>
+        <v>1847</v>
       </c>
       <c r="V14" s="7" t="s">
-        <v>1753</v>
+        <v>1756</v>
       </c>
       <c r="W14" s="2">
         <v>6</v>
@@ -65198,10 +66413,10 @@
         <v>21</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>1842</v>
+        <v>1845</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>1770</v>
+        <v>1773</v>
       </c>
       <c r="F15" s="2">
         <v>1500</v>
@@ -65222,16 +66437,16 @@
         <v>0</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>1846</v>
+        <v>1849</v>
       </c>
       <c r="T15" s="2">
         <v>1500</v>
       </c>
       <c r="U15" s="7" t="s">
-        <v>1844</v>
+        <v>1847</v>
       </c>
       <c r="V15" s="7" t="s">
-        <v>1753</v>
+        <v>1756</v>
       </c>
       <c r="W15" s="2">
         <v>3</v>
@@ -65245,10 +66460,10 @@
         <v>22</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>1847</v>
+        <v>1850</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>1770</v>
+        <v>1773</v>
       </c>
       <c r="F16" s="3">
         <v>200</v>
@@ -65264,13 +66479,13 @@
         <v>0</v>
       </c>
       <c r="Q16" s="9" t="s">
-        <v>1848</v>
+        <v>1851</v>
       </c>
       <c r="T16" s="3">
         <v>200</v>
       </c>
       <c r="V16" s="3" t="s">
-        <v>1753</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="17" s="3" customFormat="1" spans="1:22">
@@ -65281,10 +66496,10 @@
         <v>23</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>1847</v>
+        <v>1850</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>1770</v>
+        <v>1773</v>
       </c>
       <c r="F17" s="3">
         <v>2000</v>
@@ -65300,13 +66515,13 @@
         <v>0</v>
       </c>
       <c r="Q17" s="9" t="s">
-        <v>1849</v>
+        <v>1852</v>
       </c>
       <c r="T17" s="3">
         <v>2000</v>
       </c>
       <c r="V17" s="3" t="s">
-        <v>1753</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="18" s="3" customFormat="1" spans="1:22">
@@ -65317,7 +66532,7 @@
         <v>24</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>1847</v>
+        <v>1850</v>
       </c>
       <c r="E18" s="9" t="s">
         <v>14</v>
@@ -65336,13 +66551,13 @@
         <v>0</v>
       </c>
       <c r="Q18" s="9" t="s">
-        <v>1848</v>
+        <v>1851</v>
       </c>
       <c r="T18" s="3">
         <v>20000</v>
       </c>
       <c r="V18" s="3" t="s">
-        <v>1753</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="19" s="3" customFormat="1" spans="1:22">
@@ -65353,7 +66568,7 @@
         <v>25</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>1847</v>
+        <v>1850</v>
       </c>
       <c r="E19" s="9" t="s">
         <v>14</v>
@@ -65372,13 +66587,13 @@
         <v>0</v>
       </c>
       <c r="Q19" s="9" t="s">
-        <v>1849</v>
+        <v>1852</v>
       </c>
       <c r="T19" s="3">
         <v>200000</v>
       </c>
       <c r="V19" s="3" t="s">
-        <v>1753</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="20" s="4" customFormat="1" spans="1:22">
@@ -65389,7 +66604,7 @@
         <v>26</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>1850</v>
+        <v>1853</v>
       </c>
       <c r="E20" s="11" t="s">
         <v>14</v>
@@ -65407,16 +66622,16 @@
         <v>0</v>
       </c>
       <c r="Q20" s="11" t="s">
-        <v>1851</v>
+        <v>1854</v>
       </c>
       <c r="T20" s="4">
         <v>300000</v>
       </c>
       <c r="U20" s="11" t="s">
-        <v>1852</v>
+        <v>1855</v>
       </c>
       <c r="V20" s="11" t="s">
-        <v>1753</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="21" s="4" customFormat="1" spans="1:22">
@@ -65427,7 +66642,7 @@
         <v>27</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>1853</v>
+        <v>1856</v>
       </c>
       <c r="E21" s="11" t="s">
         <v>14</v>
@@ -65445,16 +66660,16 @@
         <v>0</v>
       </c>
       <c r="Q21" s="11" t="s">
-        <v>1854</v>
+        <v>1857</v>
       </c>
       <c r="T21" s="4">
         <v>300000</v>
       </c>
       <c r="U21" s="11" t="s">
-        <v>1855</v>
+        <v>1858</v>
       </c>
       <c r="V21" s="11" t="s">
-        <v>1753</v>
+        <v>1756</v>
       </c>
     </row>
   </sheetData>

--- a/config_Release/shoping_config_xiaomi.xlsx
+++ b/config_Release/shoping_config_xiaomi.xlsx
@@ -214,7 +214,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5405" uniqueCount="1859">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5441" uniqueCount="1867">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -5905,6 +5905,30 @@
   </si>
   <si>
     <t>消暑礼包</t>
+  </si>
+  <si>
+    <t>"jing_bi","prop_tiny_game_coin","prop_qdlb_cjq_cjj",</t>
+  </si>
+  <si>
+    <t>抽奖礼包</t>
+  </si>
+  <si>
+    <t>"5000万金币","100万小游戏币","啤酒盖*50",</t>
+  </si>
+  <si>
+    <t>"1980万金币","40万小游戏币","啤酒盖*30",</t>
+  </si>
+  <si>
+    <t>"980万金币","18万小游戏币","啤酒盖*15",</t>
+  </si>
+  <si>
+    <t>"480万金币","8万小游戏币","啤酒盖*8",</t>
+  </si>
+  <si>
+    <t>"200万金币","2万小游戏币","啤酒盖*4",</t>
+  </si>
+  <si>
+    <t>"60万金币","5000小游戏币","啤酒盖*1",</t>
   </si>
   <si>
     <t>id|不能重复</t>
@@ -6803,9 +6827,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
@@ -6840,19 +6864,17 @@
       <charset val="134"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -6871,21 +6893,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6893,44 +6909,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6945,6 +6924,29 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
@@ -6952,9 +6954,40 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6968,15 +7001,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -6984,12 +7008,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -7070,61 +7094,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7142,7 +7118,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7154,7 +7154,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7166,25 +7196,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7196,31 +7232,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7260,30 +7284,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -7295,6 +7295,36 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7317,17 +7347,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7343,17 +7373,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7365,10 +7389,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -7377,109 +7401,109 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="36" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="36" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -7488,22 +7512,22 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -10256,14 +10280,14 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AIF688"/>
+  <dimension ref="A1:AIF694"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="V668" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="Q668" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="W698" sqref="W698"/>
+      <selection pane="bottomRight" activeCell="R683" sqref="R683"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -62316,7 +62340,7 @@
         <v>49800</v>
       </c>
       <c r="Q683" s="28" t="s">
-        <v>1581</v>
+        <v>1655</v>
       </c>
       <c r="R683" s="53" t="s">
         <v>1582</v>
@@ -62381,7 +62405,7 @@
         <v>19800</v>
       </c>
       <c r="Q684" s="28" t="s">
-        <v>1581</v>
+        <v>1655</v>
       </c>
       <c r="R684" s="53" t="s">
         <v>1584</v>
@@ -62446,7 +62470,7 @@
         <v>9800</v>
       </c>
       <c r="Q685" s="28" t="s">
-        <v>1581</v>
+        <v>1655</v>
       </c>
       <c r="R685" s="53" t="s">
         <v>1586</v>
@@ -62511,7 +62535,7 @@
         <v>4800</v>
       </c>
       <c r="Q686" s="28" t="s">
-        <v>1581</v>
+        <v>1655</v>
       </c>
       <c r="R686" s="53" t="s">
         <v>1588</v>
@@ -62576,7 +62600,7 @@
         <v>2000</v>
       </c>
       <c r="Q687" s="28" t="s">
-        <v>1581</v>
+        <v>1655</v>
       </c>
       <c r="R687" s="53" t="s">
         <v>1590</v>
@@ -62641,7 +62665,7 @@
         <v>600</v>
       </c>
       <c r="Q688" s="28" t="s">
-        <v>1581</v>
+        <v>1655</v>
       </c>
       <c r="R688" s="53" t="s">
         <v>1592</v>
@@ -62671,6 +62695,396 @@
         <v>1</v>
       </c>
       <c r="AM688" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="689" spans="1:39">
+      <c r="A689" s="21">
+        <v>688</v>
+      </c>
+      <c r="B689" s="29">
+        <v>10605</v>
+      </c>
+      <c r="F689" s="21">
+        <v>1</v>
+      </c>
+      <c r="G689" s="29" t="s">
+        <v>1656</v>
+      </c>
+      <c r="J689" s="28" t="s">
+        <v>1657</v>
+      </c>
+      <c r="L689" s="28">
+        <v>-31</v>
+      </c>
+      <c r="M689" s="28">
+        <v>0</v>
+      </c>
+      <c r="N689" s="28">
+        <v>0</v>
+      </c>
+      <c r="O689" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="P689" s="29">
+        <v>49800</v>
+      </c>
+      <c r="Q689" s="28" t="s">
+        <v>1581</v>
+      </c>
+      <c r="R689" s="53" t="s">
+        <v>1582</v>
+      </c>
+      <c r="W689" s="21" t="s">
+        <v>1310</v>
+      </c>
+      <c r="X689" s="28">
+        <v>99999999</v>
+      </c>
+      <c r="Y689" s="29">
+        <v>1625529600</v>
+      </c>
+      <c r="Z689" s="29">
+        <v>1626105599</v>
+      </c>
+      <c r="AA689" s="29">
+        <v>68</v>
+      </c>
+      <c r="AH689" s="29">
+        <v>1</v>
+      </c>
+      <c r="AI689" s="29">
+        <v>1</v>
+      </c>
+      <c r="AL689" s="29">
+        <v>1</v>
+      </c>
+      <c r="AM689" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="690" spans="1:39">
+      <c r="A690" s="21">
+        <v>689</v>
+      </c>
+      <c r="B690" s="29">
+        <v>10606</v>
+      </c>
+      <c r="F690" s="21">
+        <v>1</v>
+      </c>
+      <c r="G690" s="29" t="s">
+        <v>1656</v>
+      </c>
+      <c r="J690" s="28" t="s">
+        <v>1658</v>
+      </c>
+      <c r="L690" s="28">
+        <v>-31</v>
+      </c>
+      <c r="M690" s="28">
+        <v>0</v>
+      </c>
+      <c r="N690" s="28">
+        <v>0</v>
+      </c>
+      <c r="O690" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="P690" s="29">
+        <v>19800</v>
+      </c>
+      <c r="Q690" s="28" t="s">
+        <v>1581</v>
+      </c>
+      <c r="R690" s="53" t="s">
+        <v>1584</v>
+      </c>
+      <c r="W690" s="21" t="s">
+        <v>1310</v>
+      </c>
+      <c r="X690" s="28">
+        <v>99999999</v>
+      </c>
+      <c r="Y690" s="29">
+        <v>1625529600</v>
+      </c>
+      <c r="Z690" s="29">
+        <v>1626105599</v>
+      </c>
+      <c r="AA690" s="29">
+        <v>68</v>
+      </c>
+      <c r="AH690" s="29">
+        <v>1</v>
+      </c>
+      <c r="AI690" s="29">
+        <v>1</v>
+      </c>
+      <c r="AL690" s="29">
+        <v>1</v>
+      </c>
+      <c r="AM690" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="691" spans="1:39">
+      <c r="A691" s="21">
+        <v>690</v>
+      </c>
+      <c r="B691" s="29">
+        <v>10607</v>
+      </c>
+      <c r="F691" s="21">
+        <v>1</v>
+      </c>
+      <c r="G691" s="29" t="s">
+        <v>1656</v>
+      </c>
+      <c r="J691" s="28" t="s">
+        <v>1659</v>
+      </c>
+      <c r="L691" s="28">
+        <v>-31</v>
+      </c>
+      <c r="M691" s="28">
+        <v>0</v>
+      </c>
+      <c r="N691" s="28">
+        <v>0</v>
+      </c>
+      <c r="O691" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="P691" s="29">
+        <v>9800</v>
+      </c>
+      <c r="Q691" s="28" t="s">
+        <v>1581</v>
+      </c>
+      <c r="R691" s="53" t="s">
+        <v>1586</v>
+      </c>
+      <c r="W691" s="21" t="s">
+        <v>1310</v>
+      </c>
+      <c r="X691" s="28">
+        <v>99999999</v>
+      </c>
+      <c r="Y691" s="29">
+        <v>1625529600</v>
+      </c>
+      <c r="Z691" s="29">
+        <v>1626105599</v>
+      </c>
+      <c r="AA691" s="29">
+        <v>68</v>
+      </c>
+      <c r="AH691" s="29">
+        <v>1</v>
+      </c>
+      <c r="AI691" s="29">
+        <v>1</v>
+      </c>
+      <c r="AL691" s="29">
+        <v>1</v>
+      </c>
+      <c r="AM691" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="692" spans="1:39">
+      <c r="A692" s="21">
+        <v>691</v>
+      </c>
+      <c r="B692" s="29">
+        <v>10608</v>
+      </c>
+      <c r="F692" s="21">
+        <v>1</v>
+      </c>
+      <c r="G692" s="29" t="s">
+        <v>1656</v>
+      </c>
+      <c r="J692" s="28" t="s">
+        <v>1660</v>
+      </c>
+      <c r="L692" s="28">
+        <v>-31</v>
+      </c>
+      <c r="M692" s="28">
+        <v>0</v>
+      </c>
+      <c r="N692" s="28">
+        <v>0</v>
+      </c>
+      <c r="O692" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="P692" s="29">
+        <v>4800</v>
+      </c>
+      <c r="Q692" s="28" t="s">
+        <v>1581</v>
+      </c>
+      <c r="R692" s="53" t="s">
+        <v>1588</v>
+      </c>
+      <c r="W692" s="21" t="s">
+        <v>1310</v>
+      </c>
+      <c r="X692" s="28">
+        <v>99999999</v>
+      </c>
+      <c r="Y692" s="29">
+        <v>1625529600</v>
+      </c>
+      <c r="Z692" s="29">
+        <v>1626105599</v>
+      </c>
+      <c r="AA692" s="29">
+        <v>68</v>
+      </c>
+      <c r="AH692" s="29">
+        <v>1</v>
+      </c>
+      <c r="AI692" s="29">
+        <v>1</v>
+      </c>
+      <c r="AL692" s="29">
+        <v>1</v>
+      </c>
+      <c r="AM692" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="693" spans="1:39">
+      <c r="A693" s="21">
+        <v>692</v>
+      </c>
+      <c r="B693" s="29">
+        <v>10609</v>
+      </c>
+      <c r="F693" s="21">
+        <v>1</v>
+      </c>
+      <c r="G693" s="29" t="s">
+        <v>1656</v>
+      </c>
+      <c r="J693" s="28" t="s">
+        <v>1661</v>
+      </c>
+      <c r="L693" s="28">
+        <v>-31</v>
+      </c>
+      <c r="M693" s="28">
+        <v>0</v>
+      </c>
+      <c r="N693" s="28">
+        <v>0</v>
+      </c>
+      <c r="O693" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="P693" s="29">
+        <v>2000</v>
+      </c>
+      <c r="Q693" s="28" t="s">
+        <v>1581</v>
+      </c>
+      <c r="R693" s="53" t="s">
+        <v>1590</v>
+      </c>
+      <c r="W693" s="21" t="s">
+        <v>1310</v>
+      </c>
+      <c r="X693" s="28">
+        <v>99999999</v>
+      </c>
+      <c r="Y693" s="29">
+        <v>1625529600</v>
+      </c>
+      <c r="Z693" s="29">
+        <v>1626105599</v>
+      </c>
+      <c r="AA693" s="29">
+        <v>68</v>
+      </c>
+      <c r="AH693" s="29">
+        <v>1</v>
+      </c>
+      <c r="AI693" s="29">
+        <v>1</v>
+      </c>
+      <c r="AL693" s="29">
+        <v>1</v>
+      </c>
+      <c r="AM693" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="694" spans="1:39">
+      <c r="A694" s="21">
+        <v>693</v>
+      </c>
+      <c r="B694" s="29">
+        <v>10610</v>
+      </c>
+      <c r="F694" s="21">
+        <v>1</v>
+      </c>
+      <c r="G694" s="29" t="s">
+        <v>1656</v>
+      </c>
+      <c r="J694" s="28" t="s">
+        <v>1662</v>
+      </c>
+      <c r="L694" s="28">
+        <v>-31</v>
+      </c>
+      <c r="M694" s="28">
+        <v>0</v>
+      </c>
+      <c r="N694" s="28">
+        <v>0</v>
+      </c>
+      <c r="O694" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="P694" s="29">
+        <v>600</v>
+      </c>
+      <c r="Q694" s="28" t="s">
+        <v>1581</v>
+      </c>
+      <c r="R694" s="53" t="s">
+        <v>1592</v>
+      </c>
+      <c r="W694" s="21" t="s">
+        <v>1310</v>
+      </c>
+      <c r="X694" s="28">
+        <v>99999999</v>
+      </c>
+      <c r="Y694" s="29">
+        <v>1625529600</v>
+      </c>
+      <c r="Z694" s="29">
+        <v>1626105599</v>
+      </c>
+      <c r="AA694" s="29">
+        <v>68</v>
+      </c>
+      <c r="AH694" s="29">
+        <v>1</v>
+      </c>
+      <c r="AI694" s="29">
+        <v>1</v>
+      </c>
+      <c r="AL694" s="29">
+        <v>1</v>
+      </c>
+      <c r="AM694" s="29">
         <v>1</v>
       </c>
     </row>
@@ -62700,19 +63114,19 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="58.5" customHeight="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>1655</v>
+        <v>1663</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1656</v>
+        <v>1664</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1657</v>
+        <v>1665</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1658</v>
+        <v>1666</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1659</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="2" ht="57.75" customHeight="1" spans="1:5">
@@ -62720,7 +63134,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>1660</v>
+        <v>1668</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -62729,7 +63143,7 @@
         <v>3600</v>
       </c>
       <c r="E2" t="s">
-        <v>1661</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="3" ht="78.75" customHeight="1" spans="1:4">
@@ -62737,7 +63151,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>1662</v>
+        <v>1670</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -62751,7 +63165,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>1663</v>
+        <v>1671</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -62765,7 +63179,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>1664</v>
+        <v>1672</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -62779,7 +63193,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>1665</v>
+        <v>1673</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -62793,7 +63207,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>1666</v>
+        <v>1674</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -62807,7 +63221,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>1667</v>
+        <v>1675</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -62821,7 +63235,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>1668</v>
+        <v>1676</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -62835,7 +63249,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>1669</v>
+        <v>1677</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -62849,7 +63263,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>1670</v>
+        <v>1678</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -62863,7 +63277,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>1665</v>
+        <v>1673</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -62877,7 +63291,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>1666</v>
+        <v>1674</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -62891,7 +63305,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>1671</v>
+        <v>1679</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -62905,7 +63319,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>1672</v>
+        <v>1680</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -62919,7 +63333,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>1673</v>
+        <v>1681</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -62933,7 +63347,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>1674</v>
+        <v>1682</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -62947,7 +63361,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>1675</v>
+        <v>1683</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -62961,7 +63375,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>1676</v>
+        <v>1684</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -62975,7 +63389,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>1677</v>
+        <v>1685</v>
       </c>
       <c r="C20" s="4">
         <v>1</v>
@@ -62989,7 +63403,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>1678</v>
+        <v>1686</v>
       </c>
       <c r="C21" s="4">
         <v>1</v>
@@ -63003,7 +63417,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>1679</v>
+        <v>1687</v>
       </c>
       <c r="C22" s="4">
         <v>1</v>
@@ -63017,7 +63431,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>1680</v>
+        <v>1688</v>
       </c>
       <c r="C23" s="4">
         <v>1</v>
@@ -63031,7 +63445,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>1681</v>
+        <v>1689</v>
       </c>
       <c r="C24" s="4">
         <v>1</v>
@@ -63045,7 +63459,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>1682</v>
+        <v>1690</v>
       </c>
       <c r="C25" s="4">
         <v>1</v>
@@ -63059,7 +63473,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>1683</v>
+        <v>1691</v>
       </c>
       <c r="C26" s="4">
         <v>1</v>
@@ -63073,7 +63487,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>1684</v>
+        <v>1692</v>
       </c>
       <c r="C27" s="2">
         <v>1</v>
@@ -63087,7 +63501,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>1685</v>
+        <v>1693</v>
       </c>
       <c r="C28" s="2">
         <v>1</v>
@@ -63101,7 +63515,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>1686</v>
+        <v>1694</v>
       </c>
       <c r="C29" s="2">
         <v>1</v>
@@ -63115,7 +63529,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>1687</v>
+        <v>1695</v>
       </c>
       <c r="C30" s="2">
         <v>1</v>
@@ -63129,7 +63543,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>1688</v>
+        <v>1696</v>
       </c>
       <c r="C31" s="2">
         <v>1</v>
@@ -63143,7 +63557,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>1689</v>
+        <v>1697</v>
       </c>
       <c r="C32" s="2">
         <v>1</v>
@@ -63157,7 +63571,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>1690</v>
+        <v>1698</v>
       </c>
       <c r="C33" s="2">
         <v>1</v>
@@ -63171,7 +63585,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>1691</v>
+        <v>1699</v>
       </c>
       <c r="C34" s="2">
         <v>1</v>
@@ -63185,7 +63599,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>1692</v>
+        <v>1700</v>
       </c>
       <c r="C35" s="2">
         <v>1</v>
@@ -63199,7 +63613,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>1693</v>
+        <v>1701</v>
       </c>
       <c r="C36" s="2">
         <v>1</v>
@@ -63213,7 +63627,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>1694</v>
+        <v>1702</v>
       </c>
       <c r="C37" s="2">
         <v>1</v>
@@ -63227,7 +63641,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>1695</v>
+        <v>1703</v>
       </c>
       <c r="C38" s="2">
         <v>1</v>
@@ -63241,7 +63655,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>1696</v>
+        <v>1704</v>
       </c>
       <c r="C39" s="2">
         <v>1</v>
@@ -63255,7 +63669,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>1697</v>
+        <v>1705</v>
       </c>
       <c r="C40" s="2">
         <v>1</v>
@@ -63269,7 +63683,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>1698</v>
+        <v>1706</v>
       </c>
       <c r="C41" s="2">
         <v>1</v>
@@ -63283,7 +63697,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>1699</v>
+        <v>1707</v>
       </c>
       <c r="C42" s="2">
         <v>1</v>
@@ -63297,7 +63711,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>1700</v>
+        <v>1708</v>
       </c>
       <c r="C43" s="2">
         <v>1</v>
@@ -63311,7 +63725,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>1701</v>
+        <v>1709</v>
       </c>
       <c r="C44" s="2">
         <v>1</v>
@@ -63325,7 +63739,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>1702</v>
+        <v>1710</v>
       </c>
       <c r="C45" s="2">
         <v>1</v>
@@ -63339,7 +63753,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>1703</v>
+        <v>1711</v>
       </c>
       <c r="C46" s="2">
         <v>1</v>
@@ -63353,7 +63767,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>1704</v>
+        <v>1712</v>
       </c>
       <c r="C47" s="2">
         <v>1</v>
@@ -63367,7 +63781,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>1705</v>
+        <v>1713</v>
       </c>
       <c r="C48" s="2">
         <v>1</v>
@@ -63381,7 +63795,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>1706</v>
+        <v>1714</v>
       </c>
       <c r="C49" s="2">
         <v>1</v>
@@ -63395,7 +63809,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>1707</v>
+        <v>1715</v>
       </c>
       <c r="C50" s="2">
         <v>1</v>
@@ -63409,7 +63823,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>1708</v>
+        <v>1716</v>
       </c>
       <c r="C51" s="2">
         <v>1</v>
@@ -63423,7 +63837,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>1709</v>
+        <v>1717</v>
       </c>
       <c r="C52" s="2">
         <v>1</v>
@@ -63437,7 +63851,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>1710</v>
+        <v>1718</v>
       </c>
       <c r="C53" s="2">
         <v>1</v>
@@ -63451,7 +63865,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>1711</v>
+        <v>1719</v>
       </c>
       <c r="C54" s="2">
         <v>1</v>
@@ -63465,7 +63879,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>1712</v>
+        <v>1720</v>
       </c>
       <c r="C55" s="2">
         <v>1</v>
@@ -63479,7 +63893,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>1713</v>
+        <v>1721</v>
       </c>
       <c r="C56" s="2">
         <v>1</v>
@@ -63493,7 +63907,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>1714</v>
+        <v>1722</v>
       </c>
       <c r="C57" s="2">
         <v>1</v>
@@ -63507,7 +63921,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>1715</v>
+        <v>1723</v>
       </c>
       <c r="C58" s="2">
         <v>1</v>
@@ -63521,7 +63935,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>1716</v>
+        <v>1724</v>
       </c>
       <c r="C59" s="2">
         <v>1</v>
@@ -63535,7 +63949,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>1717</v>
+        <v>1725</v>
       </c>
       <c r="C60" s="2">
         <v>1</v>
@@ -63549,7 +63963,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>1718</v>
+        <v>1726</v>
       </c>
       <c r="C61" s="2">
         <v>1</v>
@@ -63563,7 +63977,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>1719</v>
+        <v>1727</v>
       </c>
       <c r="C62" s="2">
         <v>1</v>
@@ -63577,7 +63991,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>1720</v>
+        <v>1728</v>
       </c>
       <c r="C63" s="2">
         <v>1</v>
@@ -63591,7 +64005,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>1721</v>
+        <v>1729</v>
       </c>
       <c r="C64" s="2">
         <v>1</v>
@@ -63605,7 +64019,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>1722</v>
+        <v>1730</v>
       </c>
       <c r="C65" s="2">
         <v>1</v>
@@ -63619,7 +64033,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>1723</v>
+        <v>1731</v>
       </c>
       <c r="C66" s="2">
         <v>1</v>
@@ -63633,7 +64047,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>1724</v>
+        <v>1732</v>
       </c>
       <c r="C67" s="2">
         <v>1</v>
@@ -63647,7 +64061,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>1725</v>
+        <v>1733</v>
       </c>
       <c r="C68" s="2">
         <v>1</v>
@@ -63661,7 +64075,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>1726</v>
+        <v>1734</v>
       </c>
       <c r="C69" s="2">
         <v>1</v>
@@ -63675,7 +64089,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>1727</v>
+        <v>1735</v>
       </c>
       <c r="C70" s="2">
         <v>1</v>
@@ -63689,7 +64103,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="18" t="s">
-        <v>1728</v>
+        <v>1736</v>
       </c>
       <c r="C71" s="19">
         <v>1</v>
@@ -63703,7 +64117,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="18" t="s">
-        <v>1729</v>
+        <v>1737</v>
       </c>
       <c r="C72" s="19">
         <v>1</v>
@@ -63717,7 +64131,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="18" t="s">
-        <v>1730</v>
+        <v>1738</v>
       </c>
       <c r="C73" s="19">
         <v>1</v>
@@ -63731,7 +64145,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="18" t="s">
-        <v>1731</v>
+        <v>1739</v>
       </c>
       <c r="C74" s="19">
         <v>1</v>
@@ -63745,7 +64159,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="18" t="s">
-        <v>1732</v>
+        <v>1740</v>
       </c>
       <c r="C75" s="19">
         <v>1</v>
@@ -63759,7 +64173,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="18" t="s">
-        <v>1733</v>
+        <v>1741</v>
       </c>
       <c r="C76" s="19">
         <v>1</v>
@@ -63773,7 +64187,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="18" t="s">
-        <v>1734</v>
+        <v>1742</v>
       </c>
       <c r="C77" s="19">
         <v>1</v>
@@ -63787,7 +64201,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="18" t="s">
-        <v>1735</v>
+        <v>1743</v>
       </c>
       <c r="C78" s="19">
         <v>1</v>
@@ -63801,7 +64215,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="18" t="s">
-        <v>1736</v>
+        <v>1744</v>
       </c>
       <c r="C79" s="19">
         <v>1</v>
@@ -63815,7 +64229,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="18" t="s">
-        <v>1737</v>
+        <v>1745</v>
       </c>
       <c r="C80" s="19">
         <v>1</v>
@@ -63829,7 +64243,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="20" t="s">
-        <v>1738</v>
+        <v>1746</v>
       </c>
       <c r="C81" s="2">
         <v>1</v>
@@ -63843,7 +64257,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="20" t="s">
-        <v>1739</v>
+        <v>1747</v>
       </c>
       <c r="C82" s="2">
         <v>1</v>
@@ -63857,7 +64271,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="20" t="s">
-        <v>1740</v>
+        <v>1748</v>
       </c>
       <c r="C83" s="2">
         <v>1</v>
@@ -63871,7 +64285,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="20" t="s">
-        <v>1741</v>
+        <v>1749</v>
       </c>
       <c r="C84" s="2">
         <v>1</v>
@@ -63885,7 +64299,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="20" t="s">
-        <v>1742</v>
+        <v>1750</v>
       </c>
       <c r="C85">
         <v>1</v>
@@ -63937,7 +64351,7 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="90" customHeight="1" spans="1:29">
       <c r="A1" s="1" t="s">
-        <v>1743</v>
+        <v>1751</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>22</v>
@@ -63949,19 +64363,19 @@
         <v>25</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1744</v>
+        <v>1752</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>1745</v>
+        <v>1753</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>1746</v>
+        <v>1754</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>1747</v>
+        <v>1755</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>1748</v>
+        <v>1756</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>31</v>
@@ -63976,7 +64390,7 @@
         <v>38</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>1749</v>
+        <v>1757</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>39</v>
@@ -64021,7 +64435,7 @@
         <v>52</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>1750</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="2" s="12" customFormat="1" spans="1:26">
@@ -64041,7 +64455,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>1751</v>
+        <v>1759</v>
       </c>
       <c r="G2" s="12">
         <v>480</v>
@@ -64068,22 +64482,22 @@
         <v>3</v>
       </c>
       <c r="P2" s="15" t="s">
-        <v>1752</v>
+        <v>1760</v>
       </c>
       <c r="Q2" s="15" t="s">
-        <v>1753</v>
+        <v>1761</v>
       </c>
       <c r="S2" s="15" t="s">
-        <v>1754</v>
+        <v>1762</v>
       </c>
       <c r="T2" s="12" t="s">
         <v>61</v>
       </c>
       <c r="U2" s="15" t="s">
-        <v>1755</v>
+        <v>1763</v>
       </c>
       <c r="V2" s="12" t="s">
-        <v>1756</v>
+        <v>1764</v>
       </c>
       <c r="Y2" s="12">
         <v>1</v>
@@ -64109,7 +64523,7 @@
         <v>2</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>1751</v>
+        <v>1759</v>
       </c>
       <c r="G3" s="12">
         <v>1200</v>
@@ -64139,19 +64553,19 @@
         <v>127</v>
       </c>
       <c r="Q3" s="15" t="s">
-        <v>1757</v>
+        <v>1765</v>
       </c>
       <c r="S3" s="15" t="s">
-        <v>1754</v>
+        <v>1762</v>
       </c>
       <c r="T3" s="12" t="s">
         <v>66</v>
       </c>
       <c r="U3" s="15" t="s">
-        <v>1758</v>
+        <v>1766</v>
       </c>
       <c r="V3" s="12" t="s">
-        <v>1756</v>
+        <v>1764</v>
       </c>
       <c r="Y3" s="12">
         <v>1</v>
@@ -64177,7 +64591,7 @@
         <v>3</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>1751</v>
+        <v>1759</v>
       </c>
       <c r="G4" s="12">
         <v>2400</v>
@@ -64204,22 +64618,22 @@
         <v>5</v>
       </c>
       <c r="P4" s="15" t="s">
-        <v>1759</v>
+        <v>1767</v>
       </c>
       <c r="Q4" s="15" t="s">
-        <v>1760</v>
+        <v>1768</v>
       </c>
       <c r="S4" s="15" t="s">
-        <v>1754</v>
+        <v>1762</v>
       </c>
       <c r="T4" s="12" t="s">
         <v>70</v>
       </c>
       <c r="U4" s="12" t="s">
-        <v>1761</v>
+        <v>1769</v>
       </c>
       <c r="V4" s="12" t="s">
-        <v>1756</v>
+        <v>1764</v>
       </c>
       <c r="Y4" s="12">
         <v>1</v>
@@ -64245,7 +64659,7 @@
         <v>4</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>1751</v>
+        <v>1759</v>
       </c>
       <c r="G5" s="12">
         <v>4000</v>
@@ -64272,22 +64686,22 @@
         <v>6</v>
       </c>
       <c r="P5" s="15" t="s">
+        <v>1770</v>
+      </c>
+      <c r="Q5" s="15" t="s">
+        <v>1771</v>
+      </c>
+      <c r="S5" s="15" t="s">
         <v>1762</v>
-      </c>
-      <c r="Q5" s="15" t="s">
-        <v>1763</v>
-      </c>
-      <c r="S5" s="15" t="s">
-        <v>1754</v>
       </c>
       <c r="T5" s="12" t="s">
         <v>74</v>
       </c>
       <c r="U5" s="15" t="s">
+        <v>1772</v>
+      </c>
+      <c r="V5" s="12" t="s">
         <v>1764</v>
-      </c>
-      <c r="V5" s="12" t="s">
-        <v>1756</v>
       </c>
       <c r="Y5" s="12">
         <v>1</v>
@@ -64313,7 +64727,7 @@
         <v>5</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>1751</v>
+        <v>1759</v>
       </c>
       <c r="G6" s="12">
         <v>7840</v>
@@ -64340,22 +64754,22 @@
         <v>7</v>
       </c>
       <c r="P6" s="15" t="s">
-        <v>1765</v>
+        <v>1773</v>
       </c>
       <c r="Q6" s="15" t="s">
-        <v>1766</v>
+        <v>1774</v>
       </c>
       <c r="S6" s="15" t="s">
-        <v>1754</v>
+        <v>1762</v>
       </c>
       <c r="T6" s="12" t="s">
         <v>78</v>
       </c>
       <c r="U6" s="12" t="s">
-        <v>1767</v>
+        <v>1775</v>
       </c>
       <c r="V6" s="12" t="s">
-        <v>1756</v>
+        <v>1764</v>
       </c>
       <c r="Y6" s="12">
         <v>1</v>
@@ -64381,7 +64795,7 @@
         <v>6</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>1751</v>
+        <v>1759</v>
       </c>
       <c r="G7" s="12">
         <v>39840</v>
@@ -64408,22 +64822,22 @@
         <v>9</v>
       </c>
       <c r="P7" s="15" t="s">
-        <v>1768</v>
+        <v>1776</v>
       </c>
       <c r="Q7" s="15" t="s">
-        <v>1769</v>
+        <v>1777</v>
       </c>
       <c r="S7" s="15" t="s">
-        <v>1754</v>
+        <v>1762</v>
       </c>
       <c r="T7" s="12" t="s">
         <v>82</v>
       </c>
       <c r="U7" s="12" t="s">
-        <v>1770</v>
+        <v>1778</v>
       </c>
       <c r="V7" s="12" t="s">
-        <v>1756</v>
+        <v>1764</v>
       </c>
       <c r="Y7" s="12">
         <v>1</v>
@@ -64446,7 +64860,7 @@
         <v>1</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>1751</v>
+        <v>1759</v>
       </c>
       <c r="G8" s="12">
         <v>120</v>
@@ -64473,22 +64887,22 @@
         <v>0</v>
       </c>
       <c r="P8" s="15" t="s">
-        <v>1771</v>
+        <v>1779</v>
       </c>
       <c r="Q8" s="15" t="s">
-        <v>1772</v>
+        <v>1780</v>
       </c>
       <c r="S8" s="15" t="s">
-        <v>1754</v>
+        <v>1762</v>
       </c>
       <c r="T8" s="12" t="s">
         <v>61</v>
       </c>
       <c r="U8" s="15" t="s">
-        <v>1755</v>
+        <v>1763</v>
       </c>
       <c r="V8" s="12" t="s">
-        <v>1756</v>
+        <v>1764</v>
       </c>
       <c r="Y8" s="12">
         <v>1</v>
@@ -64512,7 +64926,7 @@
         <v>5</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>1773</v>
+        <v>1781</v>
       </c>
       <c r="G9" s="13">
         <v>5000</v>
@@ -64540,10 +64954,10 @@
         <v>2</v>
       </c>
       <c r="P9" s="16" t="s">
-        <v>1774</v>
+        <v>1782</v>
       </c>
       <c r="Q9" s="16" t="s">
-        <v>1775</v>
+        <v>1783</v>
       </c>
       <c r="R9" s="13"/>
       <c r="S9" s="13"/>
@@ -64551,10 +64965,10 @@
         <v>5000</v>
       </c>
       <c r="U9" s="13" t="s">
+        <v>1772</v>
+      </c>
+      <c r="V9" s="13" t="s">
         <v>1764</v>
-      </c>
-      <c r="V9" s="13" t="s">
-        <v>1756</v>
       </c>
       <c r="W9" s="13"/>
       <c r="X9" s="13"/>
@@ -64567,7 +64981,7 @@
       <c r="AA9" s="13"/>
       <c r="AB9" s="13"/>
       <c r="AC9" s="16" t="s">
-        <v>1776</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="10" s="12" customFormat="1" spans="1:29">
@@ -64585,7 +64999,7 @@
         <v>2</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>1773</v>
+        <v>1781</v>
       </c>
       <c r="G10" s="13">
         <v>1000</v>
@@ -64613,10 +65027,10 @@
         <v>1</v>
       </c>
       <c r="P10" s="16" t="s">
-        <v>1777</v>
+        <v>1785</v>
       </c>
       <c r="Q10" s="16" t="s">
-        <v>1778</v>
+        <v>1786</v>
       </c>
       <c r="R10" s="13"/>
       <c r="S10" s="13"/>
@@ -64624,10 +65038,10 @@
         <v>1000</v>
       </c>
       <c r="U10" s="13" t="s">
-        <v>1758</v>
+        <v>1766</v>
       </c>
       <c r="V10" s="13" t="s">
-        <v>1756</v>
+        <v>1764</v>
       </c>
       <c r="W10" s="13"/>
       <c r="X10" s="13"/>
@@ -64640,7 +65054,7 @@
       <c r="AA10" s="13"/>
       <c r="AB10" s="13"/>
       <c r="AC10" s="16" t="s">
-        <v>1779</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="11" s="12" customFormat="1" spans="1:26">
@@ -64657,7 +65071,7 @@
         <v>2</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>1751</v>
+        <v>1759</v>
       </c>
       <c r="G11" s="12">
         <v>1200</v>
@@ -64687,19 +65101,19 @@
         <v>127</v>
       </c>
       <c r="Q11" s="15" t="s">
-        <v>1757</v>
+        <v>1765</v>
       </c>
       <c r="S11" s="15" t="s">
-        <v>1754</v>
+        <v>1762</v>
       </c>
       <c r="T11" s="15" t="s">
         <v>66</v>
       </c>
       <c r="U11" s="12" t="s">
-        <v>1758</v>
+        <v>1766</v>
       </c>
       <c r="V11" s="12" t="s">
-        <v>1756</v>
+        <v>1764</v>
       </c>
       <c r="Y11" s="12">
         <v>1</v>
@@ -64725,7 +65139,7 @@
         <v>107</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>1751</v>
+        <v>1759</v>
       </c>
       <c r="G12" s="12">
         <v>120000</v>
@@ -64752,22 +65166,22 @@
         <v>9</v>
       </c>
       <c r="P12" s="15" t="s">
-        <v>1780</v>
+        <v>1788</v>
       </c>
       <c r="Q12" s="15" t="s">
-        <v>1781</v>
+        <v>1789</v>
       </c>
       <c r="S12" s="15" t="s">
-        <v>1754</v>
+        <v>1762</v>
       </c>
       <c r="T12" s="12" t="s">
         <v>86</v>
       </c>
       <c r="U12" s="12" t="s">
-        <v>1782</v>
+        <v>1790</v>
       </c>
       <c r="V12" s="12" t="s">
-        <v>1756</v>
+        <v>1764</v>
       </c>
       <c r="Y12" s="12">
         <v>1</v>
@@ -64793,7 +65207,7 @@
         <v>108</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>1751</v>
+        <v>1759</v>
       </c>
       <c r="G13" s="12">
         <v>79840</v>
@@ -64820,22 +65234,22 @@
         <v>10</v>
       </c>
       <c r="P13" s="15" t="s">
-        <v>1783</v>
+        <v>1791</v>
       </c>
       <c r="Q13" s="15" t="s">
-        <v>1784</v>
+        <v>1792</v>
       </c>
       <c r="S13" s="15" t="s">
-        <v>1754</v>
+        <v>1762</v>
       </c>
       <c r="T13" s="12" t="s">
-        <v>1785</v>
+        <v>1793</v>
       </c>
       <c r="U13" s="12" t="s">
-        <v>1782</v>
+        <v>1790</v>
       </c>
       <c r="V13" s="12" t="s">
-        <v>1756</v>
+        <v>1764</v>
       </c>
       <c r="Y13" s="12">
         <v>1</v>
@@ -64861,7 +65275,7 @@
         <v>110</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>1751</v>
+        <v>1759</v>
       </c>
       <c r="G14" s="12">
         <v>199840</v>
@@ -64888,22 +65302,22 @@
         <v>11</v>
       </c>
       <c r="P14" s="15" t="s">
-        <v>1786</v>
+        <v>1794</v>
       </c>
       <c r="Q14" s="15" t="s">
-        <v>1787</v>
+        <v>1795</v>
       </c>
       <c r="S14" s="15" t="s">
-        <v>1788</v>
+        <v>1796</v>
       </c>
       <c r="T14" s="12" t="s">
-        <v>1789</v>
+        <v>1797</v>
       </c>
       <c r="U14" s="12" t="s">
-        <v>1790</v>
+        <v>1798</v>
       </c>
       <c r="V14" s="12" t="s">
-        <v>1756</v>
+        <v>1764</v>
       </c>
       <c r="Y14" s="12">
         <v>1</v>
@@ -64927,7 +65341,7 @@
         <v>1</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>1773</v>
+        <v>1781</v>
       </c>
       <c r="G15" s="13">
         <v>100</v>
@@ -64957,10 +65371,10 @@
         <v>0</v>
       </c>
       <c r="P15" s="16" t="s">
-        <v>1791</v>
+        <v>1799</v>
       </c>
       <c r="Q15" s="16" t="s">
-        <v>1792</v>
+        <v>1800</v>
       </c>
       <c r="R15" s="13"/>
       <c r="S15" s="16"/>
@@ -64968,10 +65382,10 @@
         <v>100</v>
       </c>
       <c r="U15" s="16" t="s">
-        <v>1755</v>
+        <v>1763</v>
       </c>
       <c r="V15" s="13" t="s">
-        <v>1756</v>
+        <v>1764</v>
       </c>
       <c r="W15" s="13"/>
       <c r="X15" s="13"/>
@@ -64984,7 +65398,7 @@
       <c r="AA15" s="13"/>
       <c r="AB15" s="13"/>
       <c r="AC15" s="16" t="s">
-        <v>1793</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="16" s="12" customFormat="1" spans="1:26">
@@ -65004,7 +65418,7 @@
         <v>101</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>1751</v>
+        <v>1759</v>
       </c>
       <c r="G16" s="12">
         <v>2000</v>
@@ -65031,23 +65445,23 @@
         <v>3</v>
       </c>
       <c r="P16" s="15" t="s">
-        <v>1794</v>
+        <v>1802</v>
       </c>
       <c r="Q16" s="15" t="s">
-        <v>1795</v>
+        <v>1803</v>
       </c>
       <c r="R16" s="2"/>
       <c r="S16" s="15" t="s">
-        <v>1754</v>
+        <v>1762</v>
       </c>
       <c r="T16" s="12" t="s">
         <v>101</v>
       </c>
       <c r="U16" s="15" t="s">
-        <v>1755</v>
+        <v>1763</v>
       </c>
       <c r="V16" s="12" t="s">
-        <v>1756</v>
+        <v>1764</v>
       </c>
       <c r="W16" s="2"/>
       <c r="X16" s="2"/>
@@ -65072,7 +65486,7 @@
         <v>102</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>1751</v>
+        <v>1759</v>
       </c>
       <c r="G17" s="12">
         <v>6700</v>
@@ -65099,23 +65513,23 @@
         <v>4</v>
       </c>
       <c r="P17" s="15" t="s">
-        <v>1796</v>
+        <v>1804</v>
       </c>
       <c r="Q17" s="15" t="s">
-        <v>1797</v>
+        <v>1805</v>
       </c>
       <c r="R17" s="2"/>
       <c r="S17" s="15" t="s">
-        <v>1754</v>
+        <v>1762</v>
       </c>
       <c r="T17" s="12" t="s">
         <v>105</v>
       </c>
       <c r="U17" s="12" t="s">
-        <v>1761</v>
+        <v>1769</v>
       </c>
       <c r="V17" s="12" t="s">
-        <v>1756</v>
+        <v>1764</v>
       </c>
       <c r="W17" s="2"/>
       <c r="X17" s="2"/>
@@ -65140,7 +65554,7 @@
         <v>103</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>1751</v>
+        <v>1759</v>
       </c>
       <c r="G18" s="12">
         <v>13200</v>
@@ -65167,23 +65581,23 @@
         <v>5</v>
       </c>
       <c r="P18" s="15" t="s">
-        <v>1798</v>
+        <v>1806</v>
       </c>
       <c r="Q18" s="15" t="s">
-        <v>1799</v>
+        <v>1807</v>
       </c>
       <c r="R18" s="2"/>
       <c r="S18" s="15" t="s">
-        <v>1754</v>
+        <v>1762</v>
       </c>
       <c r="T18" s="12" t="s">
         <v>109</v>
       </c>
       <c r="U18" s="12" t="s">
-        <v>1767</v>
+        <v>1775</v>
       </c>
       <c r="V18" s="12" t="s">
-        <v>1756</v>
+        <v>1764</v>
       </c>
       <c r="W18" s="2"/>
       <c r="X18" s="2"/>
@@ -65208,7 +65622,7 @@
         <v>104</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>1751</v>
+        <v>1759</v>
       </c>
       <c r="G19" s="12">
         <v>20400</v>
@@ -65235,23 +65649,23 @@
         <v>6</v>
       </c>
       <c r="P19" s="15" t="s">
-        <v>1800</v>
+        <v>1808</v>
       </c>
       <c r="Q19" s="15" t="s">
-        <v>1801</v>
+        <v>1809</v>
       </c>
       <c r="R19" s="2"/>
       <c r="S19" s="15" t="s">
-        <v>1754</v>
+        <v>1762</v>
       </c>
       <c r="T19" s="12" t="s">
         <v>114</v>
       </c>
       <c r="U19" s="15" t="s">
-        <v>1802</v>
+        <v>1810</v>
       </c>
       <c r="V19" s="12" t="s">
-        <v>1756</v>
+        <v>1764</v>
       </c>
       <c r="W19" s="2"/>
       <c r="X19" s="2"/>
@@ -65276,7 +65690,7 @@
         <v>105</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>1751</v>
+        <v>1759</v>
       </c>
       <c r="G20" s="12">
         <v>66</v>
@@ -65303,22 +65717,22 @@
         <v>7</v>
       </c>
       <c r="P20" s="15" t="s">
-        <v>1803</v>
+        <v>1811</v>
       </c>
       <c r="Q20" s="15" t="s">
-        <v>1804</v>
+        <v>1812</v>
       </c>
       <c r="S20" s="15" t="s">
-        <v>1754</v>
+        <v>1762</v>
       </c>
       <c r="T20" s="12" t="s">
         <v>120</v>
       </c>
       <c r="U20" s="12" t="s">
-        <v>1802</v>
+        <v>1810</v>
       </c>
       <c r="V20" s="12" t="s">
-        <v>1756</v>
+        <v>1764</v>
       </c>
       <c r="Y20" s="12">
         <v>1</v>
@@ -65342,7 +65756,7 @@
         <v>101</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>1751</v>
+        <v>1759</v>
       </c>
       <c r="G21" s="12">
         <v>200</v>
@@ -65373,20 +65787,20 @@
         <v>890</v>
       </c>
       <c r="Q21" s="15" t="s">
-        <v>1805</v>
+        <v>1813</v>
       </c>
       <c r="R21" s="12"/>
       <c r="S21" s="15" t="s">
-        <v>1754</v>
+        <v>1762</v>
       </c>
       <c r="T21" s="12" t="s">
         <v>124</v>
       </c>
       <c r="U21" s="15" t="s">
-        <v>1755</v>
+        <v>1763</v>
       </c>
       <c r="V21" s="12" t="s">
-        <v>1756</v>
+        <v>1764</v>
       </c>
       <c r="W21" s="12"/>
       <c r="X21" s="12"/>
@@ -65415,7 +65829,7 @@
         <v>104</v>
       </c>
       <c r="F22" s="13" t="s">
-        <v>1773</v>
+        <v>1781</v>
       </c>
       <c r="G22" s="13">
         <v>5000</v>
@@ -65443,10 +65857,10 @@
         <v>2</v>
       </c>
       <c r="P22" s="16" t="s">
-        <v>1774</v>
+        <v>1782</v>
       </c>
       <c r="Q22" s="16" t="s">
-        <v>1775</v>
+        <v>1783</v>
       </c>
       <c r="R22" s="13"/>
       <c r="S22" s="16"/>
@@ -65454,10 +65868,10 @@
         <v>5000</v>
       </c>
       <c r="U22" s="16" t="s">
+        <v>1772</v>
+      </c>
+      <c r="V22" s="13" t="s">
         <v>1764</v>
-      </c>
-      <c r="V22" s="13" t="s">
-        <v>1756</v>
       </c>
       <c r="W22" s="13"/>
       <c r="X22" s="13"/>
@@ -65486,7 +65900,7 @@
         <v>102</v>
       </c>
       <c r="F23" s="13" t="s">
-        <v>1773</v>
+        <v>1781</v>
       </c>
       <c r="G23" s="13">
         <v>1000</v>
@@ -65514,10 +65928,10 @@
         <v>1</v>
       </c>
       <c r="P23" s="16" t="s">
-        <v>1777</v>
+        <v>1785</v>
       </c>
       <c r="Q23" s="16" t="s">
-        <v>1778</v>
+        <v>1786</v>
       </c>
       <c r="R23" s="13"/>
       <c r="S23" s="16"/>
@@ -65525,10 +65939,10 @@
         <v>1000</v>
       </c>
       <c r="U23" s="16" t="s">
-        <v>1755</v>
+        <v>1763</v>
       </c>
       <c r="V23" s="13" t="s">
-        <v>1756</v>
+        <v>1764</v>
       </c>
       <c r="W23" s="13"/>
       <c r="X23" s="13"/>
@@ -65550,14 +65964,14 @@
         <v>109</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>1806</v>
+        <v>1814</v>
       </c>
       <c r="D24" s="13"/>
       <c r="E24" s="13">
         <v>101</v>
       </c>
       <c r="F24" s="13" t="s">
-        <v>1773</v>
+        <v>1781</v>
       </c>
       <c r="G24" s="13">
         <v>100</v>
@@ -65587,10 +66001,10 @@
         <v>0</v>
       </c>
       <c r="P24" s="16" t="s">
-        <v>1791</v>
+        <v>1799</v>
       </c>
       <c r="Q24" s="16" t="s">
-        <v>1792</v>
+        <v>1800</v>
       </c>
       <c r="R24" s="13"/>
       <c r="S24" s="16"/>
@@ -65598,10 +66012,10 @@
         <v>100</v>
       </c>
       <c r="U24" s="16" t="s">
-        <v>1755</v>
+        <v>1763</v>
       </c>
       <c r="V24" s="13" t="s">
-        <v>1756</v>
+        <v>1764</v>
       </c>
       <c r="W24" s="13"/>
       <c r="X24" s="13"/>
@@ -65614,7 +66028,7 @@
       <c r="AA24" s="13"/>
       <c r="AB24" s="13"/>
       <c r="AC24" s="16" t="s">
-        <v>1793</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="25" s="12" customFormat="1" spans="1:26">
@@ -65634,7 +66048,7 @@
         <v>111</v>
       </c>
       <c r="F25" s="15" t="s">
-        <v>1751</v>
+        <v>1759</v>
       </c>
       <c r="G25" s="12">
         <v>15840</v>
@@ -65661,22 +66075,22 @@
         <v>8</v>
       </c>
       <c r="P25" s="15" t="s">
-        <v>1807</v>
+        <v>1815</v>
       </c>
       <c r="Q25" s="15" t="s">
-        <v>1808</v>
+        <v>1816</v>
       </c>
       <c r="S25" s="15" t="s">
-        <v>1754</v>
+        <v>1762</v>
       </c>
       <c r="T25" s="15" t="s">
-        <v>1809</v>
+        <v>1817</v>
       </c>
       <c r="U25" s="15" t="s">
-        <v>1802</v>
+        <v>1810</v>
       </c>
       <c r="V25" s="12" t="s">
-        <v>1756</v>
+        <v>1764</v>
       </c>
       <c r="Y25" s="12">
         <v>1</v>
@@ -65739,13 +66153,13 @@
         <v>33</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1745</v>
+        <v>1753</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>1746</v>
+        <v>1754</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>1810</v>
+        <v>1818</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>31</v>
@@ -65757,16 +66171,16 @@
         <v>155</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>1811</v>
+        <v>1819</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>1812</v>
+        <v>1820</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>1813</v>
+        <v>1821</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>1814</v>
+        <v>1822</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>38</v>
@@ -65807,7 +66221,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>1815</v>
+        <v>1823</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>14</v>
@@ -65819,7 +66233,7 @@
         <v>1</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>1816</v>
+        <v>1824</v>
       </c>
       <c r="L2" s="2">
         <v>54</v>
@@ -65828,7 +66242,7 @@
         <v>999999</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>1817</v>
+        <v>1825</v>
       </c>
       <c r="O2" s="2">
         <v>0</v>
@@ -65837,22 +66251,22 @@
         <v>1</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>1818</v>
+        <v>1826</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>1819</v>
+        <v>1827</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>1820</v>
+        <v>1828</v>
       </c>
       <c r="T2" s="2">
         <v>60000</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>1821</v>
+        <v>1829</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>1756</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="3" s="2" customFormat="1" spans="1:23">
@@ -65863,7 +66277,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>1815</v>
+        <v>1823</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>14</v>
@@ -65875,7 +66289,7 @@
         <v>10</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>1816</v>
+        <v>1824</v>
       </c>
       <c r="L3" s="2">
         <v>54</v>
@@ -65884,7 +66298,7 @@
         <v>999999</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>1822</v>
+        <v>1830</v>
       </c>
       <c r="O3" s="2">
         <v>0</v>
@@ -65893,22 +66307,22 @@
         <v>2</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>1818</v>
+        <v>1826</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>1823</v>
+        <v>1831</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>1820</v>
+        <v>1828</v>
       </c>
       <c r="T3" s="2">
         <v>500000</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>1821</v>
+        <v>1829</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>1756</v>
+        <v>1764</v>
       </c>
       <c r="W3" s="2">
         <v>8.3</v>
@@ -65922,7 +66336,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>1824</v>
+        <v>1832</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>14</v>
@@ -65947,19 +66361,19 @@
         <v>4</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>1825</v>
+        <v>1833</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>1826</v>
+        <v>1834</v>
       </c>
       <c r="T4" s="2">
         <v>15000</v>
       </c>
       <c r="U4" s="2" t="s">
-        <v>1827</v>
+        <v>1835</v>
       </c>
       <c r="V4" s="2" t="s">
-        <v>1756</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="5" s="2" customFormat="1" spans="1:22">
@@ -65970,7 +66384,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>1828</v>
+        <v>1836</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>14</v>
@@ -65997,10 +66411,10 @@
         <v>100000</v>
       </c>
       <c r="U5" s="12" t="s">
-        <v>1829</v>
+        <v>1837</v>
       </c>
       <c r="V5" s="2" t="s">
-        <v>1756</v>
+        <v>1764</v>
       </c>
     </row>
     <row r